--- a/Danske aktiekurser.xlsx
+++ b/Danske aktiekurser.xlsx
@@ -3422,10 +3422,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>189.887909</v>
+        <v>189.887924</v>
       </c>
       <c r="C2" t="n">
-        <v>191.282883</v>
+        <v>191.282867</v>
       </c>
     </row>
     <row r="3">
@@ -3433,7 +3433,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>188.870804</v>
+        <v>188.870819</v>
       </c>
       <c r="C3" t="n">
         <v>190.824905</v>
@@ -3447,7 +3447,7 @@
         <v>190.51384</v>
       </c>
       <c r="C4" t="n">
-        <v>192.351486</v>
+        <v>192.351501</v>
       </c>
     </row>
     <row r="5">
@@ -3469,7 +3469,7 @@
         <v>191.843918</v>
       </c>
       <c r="C6" t="n">
-        <v>191.740845</v>
+        <v>191.74086</v>
       </c>
     </row>
     <row r="7">
@@ -3480,7 +3480,7 @@
         <v>190.357361</v>
       </c>
       <c r="C7" t="n">
-        <v>191.588181</v>
+        <v>191.588196</v>
       </c>
     </row>
     <row r="8">
@@ -3488,10 +3488,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="n">
-        <v>194.347595</v>
+        <v>194.34758</v>
       </c>
       <c r="C8" t="n">
-        <v>195.404694</v>
+        <v>195.404709</v>
       </c>
     </row>
     <row r="9">
@@ -3502,7 +3502,7 @@
         <v>196.14711</v>
       </c>
       <c r="C9" t="n">
-        <v>196.320663</v>
+        <v>196.320648</v>
       </c>
     </row>
     <row r="10">
@@ -3513,7 +3513,7 @@
         <v>194.817032</v>
       </c>
       <c r="C10" t="n">
-        <v>195.09938</v>
+        <v>195.099365</v>
       </c>
     </row>
     <row r="11">
@@ -3524,7 +3524,7 @@
         <v>196.303589</v>
       </c>
       <c r="C11" t="n">
-        <v>193.572784</v>
+        <v>193.5728</v>
       </c>
     </row>
     <row r="12">
@@ -3532,7 +3532,7 @@
         <v>13</v>
       </c>
       <c r="B12" t="n">
-        <v>195.521194</v>
+        <v>195.521179</v>
       </c>
       <c r="C12" t="n">
         <v>192.50415</v>
@@ -3554,10 +3554,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="n">
-        <v>191.452728</v>
+        <v>191.452713</v>
       </c>
       <c r="C14" t="n">
-        <v>191.588181</v>
+        <v>191.588196</v>
       </c>
     </row>
     <row r="15">
@@ -3565,7 +3565,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="n">
-        <v>190.670334</v>
+        <v>190.670319</v>
       </c>
       <c r="C15" t="n">
         <v>191.893509</v>
@@ -3601,7 +3601,7 @@
         <v>192.078659</v>
       </c>
       <c r="C18" t="n">
-        <v>190.214249</v>
+        <v>190.214264</v>
       </c>
     </row>
     <row r="19">
@@ -3609,10 +3609,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="n">
-        <v>186.680099</v>
+        <v>186.680084</v>
       </c>
       <c r="C19" t="n">
-        <v>185.634445</v>
+        <v>185.63446</v>
       </c>
     </row>
     <row r="20">
@@ -3620,7 +3620,7 @@
         <v>21</v>
       </c>
       <c r="B20" t="n">
-        <v>189.966156</v>
+        <v>189.966171</v>
       </c>
       <c r="C20" t="n">
         <v>187.466385</v>
@@ -3642,7 +3642,7 @@
         <v>23</v>
       </c>
       <c r="B22" t="n">
-        <v>189.966156</v>
+        <v>189.966171</v>
       </c>
       <c r="C22" t="n">
         <v>185.787109</v>
@@ -3656,7 +3656,7 @@
         <v>190.51384</v>
       </c>
       <c r="C23" t="n">
-        <v>187.008408</v>
+        <v>187.008392</v>
       </c>
     </row>
     <row r="24">
@@ -3678,7 +3678,7 @@
         <v>191.609192</v>
       </c>
       <c r="C25" t="n">
-        <v>187.619034</v>
+        <v>187.619019</v>
       </c>
     </row>
     <row r="26">
@@ -3689,7 +3689,7 @@
         <v>191.609192</v>
       </c>
       <c r="C26" t="n">
-        <v>186.397751</v>
+        <v>186.397766</v>
       </c>
     </row>
     <row r="27">
@@ -3722,7 +3722,7 @@
         <v>188.557846</v>
       </c>
       <c r="C29" t="n">
-        <v>187.161072</v>
+        <v>187.161057</v>
       </c>
     </row>
     <row r="30">
@@ -3730,7 +3730,7 @@
         <v>31</v>
       </c>
       <c r="B30" t="n">
-        <v>188.244888</v>
+        <v>188.244904</v>
       </c>
       <c r="C30" t="n">
         <v>185.787109</v>
@@ -3741,7 +3741,7 @@
         <v>32</v>
       </c>
       <c r="B31" t="n">
-        <v>189.966156</v>
+        <v>189.966171</v>
       </c>
       <c r="C31" t="n">
         <v>188.687653</v>
@@ -3755,7 +3755,7 @@
         <v>188.949051</v>
       </c>
       <c r="C32" t="n">
-        <v>188.534988</v>
+        <v>188.535019</v>
       </c>
     </row>
     <row r="33">
@@ -3774,7 +3774,7 @@
         <v>35</v>
       </c>
       <c r="B34" t="n">
-        <v>192.313354</v>
+        <v>192.31337</v>
       </c>
       <c r="C34" t="n">
         <v>193.420105</v>
@@ -3796,10 +3796,10 @@
         <v>37</v>
       </c>
       <c r="B36" t="n">
-        <v>194.895264</v>
+        <v>194.895279</v>
       </c>
       <c r="C36" t="n">
-        <v>196.167984</v>
+        <v>196.167999</v>
       </c>
     </row>
     <row r="37">
@@ -3807,10 +3807,10 @@
         <v>38</v>
       </c>
       <c r="B37" t="n">
-        <v>191.687439</v>
+        <v>191.687424</v>
       </c>
       <c r="C37" t="n">
-        <v>185.481796</v>
+        <v>185.481781</v>
       </c>
     </row>
     <row r="38">
@@ -3818,7 +3818,7 @@
         <v>39</v>
       </c>
       <c r="B38" t="n">
-        <v>192.861023</v>
+        <v>192.861038</v>
       </c>
       <c r="C38" t="n">
         <v>182.428604</v>
@@ -3832,7 +3832,7 @@
         <v>193.252243</v>
       </c>
       <c r="C39" t="n">
-        <v>180.444031</v>
+        <v>180.444016</v>
       </c>
     </row>
     <row r="40">
@@ -3840,7 +3840,7 @@
         <v>41</v>
       </c>
       <c r="B40" t="n">
-        <v>194.504074</v>
+        <v>194.504089</v>
       </c>
       <c r="C40" t="n">
         <v>186.245102</v>
@@ -3851,7 +3851,7 @@
         <v>42</v>
       </c>
       <c r="B41" t="n">
-        <v>195.677689</v>
+        <v>195.677673</v>
       </c>
       <c r="C41" t="n">
         <v>183.802536</v>
@@ -3920,7 +3920,7 @@
         <v>189.34024</v>
       </c>
       <c r="C47" t="n">
-        <v>180.749344</v>
+        <v>180.749359</v>
       </c>
     </row>
     <row r="48">
@@ -3931,7 +3931,7 @@
         <v>191.53096</v>
       </c>
       <c r="C48" t="n">
-        <v>180.749344</v>
+        <v>180.749359</v>
       </c>
     </row>
     <row r="49">
@@ -3972,7 +3972,7 @@
         <v>53</v>
       </c>
       <c r="B52" t="n">
-        <v>193.799927</v>
+        <v>193.799911</v>
       </c>
       <c r="C52" t="n">
         <v>183.344559</v>
@@ -4016,10 +4016,10 @@
         <v>57</v>
       </c>
       <c r="B56" t="n">
-        <v>191.795746</v>
+        <v>191.795761</v>
       </c>
       <c r="C56" t="n">
-        <v>183.594116</v>
+        <v>183.594131</v>
       </c>
     </row>
     <row r="57">
@@ -4049,7 +4049,7 @@
         <v>60</v>
       </c>
       <c r="B59" t="n">
-        <v>186.493011</v>
+        <v>186.493027</v>
       </c>
       <c r="C59" t="n">
         <v>181.349304</v>
@@ -4060,7 +4060,7 @@
         <v>61</v>
       </c>
       <c r="B60" t="n">
-        <v>186.003525</v>
+        <v>186.00354</v>
       </c>
       <c r="C60" t="n">
         <v>182.632065</v>
@@ -4085,7 +4085,7 @@
         <v>183.474533</v>
       </c>
       <c r="C62" t="n">
-        <v>179.585526</v>
+        <v>179.58551</v>
       </c>
     </row>
     <row r="63">
@@ -4096,7 +4096,7 @@
         <v>183.882431</v>
       </c>
       <c r="C63" t="n">
-        <v>178.14241</v>
+        <v>178.142426</v>
       </c>
     </row>
     <row r="64">
@@ -4107,7 +4107,7 @@
         <v>183.148224</v>
       </c>
       <c r="C64" t="n">
-        <v>178.463104</v>
+        <v>178.46312</v>
       </c>
     </row>
     <row r="65">
@@ -4129,7 +4129,7 @@
         <v>183.882431</v>
       </c>
       <c r="C66" t="n">
-        <v>178.944153</v>
+        <v>178.944138</v>
       </c>
     </row>
     <row r="67">
@@ -4140,7 +4140,7 @@
         <v>182.495575</v>
       </c>
       <c r="C67" t="n">
-        <v>178.14241</v>
+        <v>178.142426</v>
       </c>
     </row>
     <row r="68">
@@ -4151,7 +4151,7 @@
         <v>182.985062</v>
       </c>
       <c r="C68" t="n">
-        <v>180.868301</v>
+        <v>180.868271</v>
       </c>
     </row>
     <row r="69">
@@ -4162,7 +4162,7 @@
         <v>183.39296</v>
       </c>
       <c r="C69" t="n">
-        <v>180.547592</v>
+        <v>180.547577</v>
       </c>
     </row>
     <row r="70">
@@ -4173,7 +4173,7 @@
         <v>179.477097</v>
       </c>
       <c r="C70" t="n">
-        <v>180.868301</v>
+        <v>180.868271</v>
       </c>
     </row>
     <row r="71">
@@ -4181,7 +4181,7 @@
         <v>72</v>
       </c>
       <c r="B71" t="n">
-        <v>180.619232</v>
+        <v>180.619217</v>
       </c>
       <c r="C71" t="n">
         <v>184.395844</v>
@@ -4192,7 +4192,7 @@
         <v>73</v>
       </c>
       <c r="B72" t="n">
-        <v>180.211304</v>
+        <v>180.211319</v>
       </c>
       <c r="C72" t="n">
         <v>182.311371</v>
@@ -4206,7 +4206,7 @@
         <v>180.374481</v>
       </c>
       <c r="C73" t="n">
-        <v>181.990677</v>
+        <v>181.990692</v>
       </c>
     </row>
     <row r="74">
@@ -4239,7 +4239,7 @@
         <v>182.577164</v>
       </c>
       <c r="C76" t="n">
-        <v>188.885483</v>
+        <v>188.885498</v>
       </c>
     </row>
     <row r="77">
@@ -4261,7 +4261,7 @@
         <v>183.229797</v>
       </c>
       <c r="C78" t="n">
-        <v>192.894073</v>
+        <v>192.894089</v>
       </c>
     </row>
     <row r="79">
@@ -4272,7 +4272,7 @@
         <v>184.127182</v>
       </c>
       <c r="C79" t="n">
-        <v>194.657867</v>
+        <v>194.657883</v>
       </c>
     </row>
     <row r="80">
@@ -4302,10 +4302,10 @@
         <v>83</v>
       </c>
       <c r="B82" t="n">
-        <v>175.724396</v>
+        <v>175.72438</v>
       </c>
       <c r="C82" t="n">
-        <v>183.433777</v>
+        <v>183.433792</v>
       </c>
     </row>
     <row r="83">
@@ -4327,7 +4327,7 @@
         <v>177.84549</v>
       </c>
       <c r="C84" t="n">
-        <v>184.716507</v>
+        <v>184.716522</v>
       </c>
     </row>
     <row r="85">
@@ -4338,7 +4338,7 @@
         <v>176.05072</v>
       </c>
       <c r="C85" t="n">
-        <v>181.990677</v>
+        <v>181.990692</v>
       </c>
     </row>
     <row r="86">
@@ -4349,7 +4349,7 @@
         <v>176.132294</v>
       </c>
       <c r="C86" t="n">
-        <v>183.433777</v>
+        <v>183.433792</v>
       </c>
     </row>
     <row r="87">
@@ -4390,7 +4390,7 @@
         <v>91</v>
       </c>
       <c r="B90" t="n">
-        <v>174.990158</v>
+        <v>174.990173</v>
       </c>
       <c r="C90" t="n">
         <v>186.640656</v>
@@ -4404,7 +4404,7 @@
         <v>175.561234</v>
       </c>
       <c r="C91" t="n">
-        <v>185.999283</v>
+        <v>185.999298</v>
       </c>
     </row>
     <row r="92">
@@ -4415,7 +4415,7 @@
         <v>174.255951</v>
       </c>
       <c r="C92" t="n">
-        <v>183.594116</v>
+        <v>183.594131</v>
       </c>
     </row>
     <row r="93">
@@ -4426,7 +4426,7 @@
         <v>176.540192</v>
       </c>
       <c r="C93" t="n">
-        <v>185.197571</v>
+        <v>185.197586</v>
       </c>
     </row>
     <row r="94">
@@ -4459,7 +4459,7 @@
         <v>176.94809</v>
       </c>
       <c r="C96" t="n">
-        <v>185.037216</v>
+        <v>185.037231</v>
       </c>
     </row>
     <row r="97">
@@ -4467,7 +4467,7 @@
         <v>98</v>
       </c>
       <c r="B97" t="n">
-        <v>173.603302</v>
+        <v>173.603317</v>
       </c>
       <c r="C97" t="n">
         <v>182.632065</v>
@@ -4492,7 +4492,7 @@
         <v>173.113815</v>
       </c>
       <c r="C99" t="n">
-        <v>181.028625</v>
+        <v>181.02861</v>
       </c>
     </row>
     <row r="100">
@@ -4503,7 +4503,7 @@
         <v>168.953217</v>
       </c>
       <c r="C100" t="n">
-        <v>174.935532</v>
+        <v>174.935547</v>
       </c>
     </row>
     <row r="101">
@@ -4511,7 +4511,7 @@
         <v>102</v>
       </c>
       <c r="B101" t="n">
-        <v>168.871643</v>
+        <v>168.871628</v>
       </c>
       <c r="C101" t="n">
         <v>175.737259</v>
@@ -4536,7 +4536,7 @@
         <v>176.295456</v>
       </c>
       <c r="C103" t="n">
-        <v>178.30275</v>
+        <v>178.302765</v>
       </c>
     </row>
     <row r="104">
@@ -4547,7 +4547,7 @@
         <v>178.253387</v>
       </c>
       <c r="C104" t="n">
-        <v>178.944153</v>
+        <v>178.944138</v>
       </c>
     </row>
     <row r="105">
@@ -4555,10 +4555,10 @@
         <v>106</v>
       </c>
       <c r="B105" t="n">
-        <v>175.724396</v>
+        <v>175.72438</v>
       </c>
       <c r="C105" t="n">
-        <v>177.982086</v>
+        <v>177.982071</v>
       </c>
     </row>
     <row r="106">
@@ -4613,7 +4613,7 @@
         <v>178.253387</v>
       </c>
       <c r="C110" t="n">
-        <v>177.340698</v>
+        <v>177.340714</v>
       </c>
     </row>
     <row r="111">
@@ -4621,7 +4621,7 @@
         <v>112</v>
       </c>
       <c r="B111" t="n">
-        <v>178.742889</v>
+        <v>178.742874</v>
       </c>
       <c r="C111" t="n">
         <v>178.623459</v>
@@ -4643,10 +4643,10 @@
         <v>114</v>
       </c>
       <c r="B113" t="n">
-        <v>173.929611</v>
+        <v>173.929626</v>
       </c>
       <c r="C113" t="n">
-        <v>175.897598</v>
+        <v>175.897583</v>
       </c>
     </row>
     <row r="114">
@@ -4654,7 +4654,7 @@
         <v>115</v>
       </c>
       <c r="B114" t="n">
-        <v>171.97168</v>
+        <v>171.971695</v>
       </c>
       <c r="C114" t="n">
         <v>175.095871</v>
@@ -4665,7 +4665,7 @@
         <v>116</v>
       </c>
       <c r="B115" t="n">
-        <v>170.258484</v>
+        <v>170.258499</v>
       </c>
       <c r="C115" t="n">
         <v>175.416565</v>
@@ -4676,7 +4676,7 @@
         <v>117</v>
       </c>
       <c r="B116" t="n">
-        <v>167.811081</v>
+        <v>167.811096</v>
       </c>
       <c r="C116" t="n">
         <v>173.171753</v>
@@ -4698,7 +4698,7 @@
         <v>119</v>
       </c>
       <c r="B118" t="n">
-        <v>166.097916</v>
+        <v>166.0979</v>
       </c>
       <c r="C118" t="n">
         <v>174.294144</v>
@@ -4723,7 +4723,7 @@
         <v>162.018875</v>
       </c>
       <c r="C120" t="n">
-        <v>173.652771</v>
+        <v>173.652802</v>
       </c>
     </row>
     <row r="121">
@@ -4734,7 +4734,7 @@
         <v>162.018875</v>
       </c>
       <c r="C121" t="n">
-        <v>174.454514</v>
+        <v>174.454498</v>
       </c>
     </row>
     <row r="122">
@@ -4745,7 +4745,7 @@
         <v>162.957047</v>
       </c>
       <c r="C122" t="n">
-        <v>175.897598</v>
+        <v>175.897583</v>
       </c>
     </row>
     <row r="123">
@@ -4775,10 +4775,10 @@
         <v>126</v>
       </c>
       <c r="B125" t="n">
-        <v>160.99913</v>
+        <v>160.999115</v>
       </c>
       <c r="C125" t="n">
-        <v>179.264847</v>
+        <v>179.264832</v>
       </c>
     </row>
     <row r="126">
@@ -4800,7 +4800,7 @@
         <v>155.533218</v>
       </c>
       <c r="C127" t="n">
-        <v>177.661407</v>
+        <v>177.661392</v>
       </c>
     </row>
     <row r="128">
@@ -4811,7 +4811,7 @@
         <v>157.001663</v>
       </c>
       <c r="C128" t="n">
-        <v>180.226898</v>
+        <v>180.226913</v>
       </c>
     </row>
     <row r="129">
@@ -4841,10 +4841,10 @@
         <v>132</v>
       </c>
       <c r="B131" t="n">
-        <v>159.122772</v>
+        <v>159.122757</v>
       </c>
       <c r="C131" t="n">
-        <v>183.754471</v>
+        <v>183.754456</v>
       </c>
     </row>
     <row r="132">
@@ -4863,10 +4863,10 @@
         <v>134</v>
       </c>
       <c r="B133" t="n">
-        <v>158.062225</v>
+        <v>158.06221</v>
       </c>
       <c r="C133" t="n">
-        <v>181.990677</v>
+        <v>181.990692</v>
       </c>
     </row>
     <row r="134">
@@ -4888,7 +4888,7 @@
         <v>144.642212</v>
       </c>
       <c r="C135" t="n">
-        <v>177.661407</v>
+        <v>177.661392</v>
       </c>
     </row>
     <row r="136">
@@ -4910,7 +4910,7 @@
         <v>147.456757</v>
       </c>
       <c r="C137" t="n">
-        <v>180.387222</v>
+        <v>180.387238</v>
       </c>
     </row>
     <row r="138">
@@ -4932,7 +4932,7 @@
         <v>151.94368</v>
       </c>
       <c r="C139" t="n">
-        <v>185.037216</v>
+        <v>185.037231</v>
       </c>
     </row>
     <row r="140">
@@ -4943,7 +4943,7 @@
         <v>150.92392</v>
       </c>
       <c r="C140" t="n">
-        <v>185.518265</v>
+        <v>185.51825</v>
       </c>
     </row>
     <row r="141">
@@ -4965,7 +4965,7 @@
         <v>153.208176</v>
       </c>
       <c r="C142" t="n">
-        <v>188.564789</v>
+        <v>188.564804</v>
       </c>
     </row>
     <row r="143">
@@ -4984,10 +4984,10 @@
         <v>145</v>
       </c>
       <c r="B144" t="n">
-        <v>151.127869</v>
+        <v>151.127884</v>
       </c>
       <c r="C144" t="n">
-        <v>189.526855</v>
+        <v>189.52684</v>
       </c>
     </row>
     <row r="145">
@@ -5020,7 +5020,7 @@
         <v>149.12915</v>
       </c>
       <c r="C147" t="n">
-        <v>185.037216</v>
+        <v>185.037231</v>
       </c>
     </row>
     <row r="148">
@@ -5042,7 +5042,7 @@
         <v>147.905441</v>
       </c>
       <c r="C149" t="n">
-        <v>180.387222</v>
+        <v>180.387238</v>
       </c>
     </row>
     <row r="150">
@@ -5053,7 +5053,7 @@
         <v>147.415955</v>
       </c>
       <c r="C150" t="n">
-        <v>178.14241</v>
+        <v>178.142426</v>
       </c>
     </row>
     <row r="151">
@@ -5064,7 +5064,7 @@
         <v>148.231766</v>
       </c>
       <c r="C151" t="n">
-        <v>179.264847</v>
+        <v>179.264832</v>
       </c>
     </row>
     <row r="152">
@@ -5086,7 +5086,7 @@
         <v>150.026535</v>
       </c>
       <c r="C153" t="n">
-        <v>178.30275</v>
+        <v>178.302765</v>
       </c>
     </row>
     <row r="154">
@@ -5097,7 +5097,7 @@
         <v>147.008057</v>
       </c>
       <c r="C154" t="n">
-        <v>176.538971</v>
+        <v>176.538986</v>
       </c>
     </row>
     <row r="155">
@@ -5119,7 +5119,7 @@
         <v>148.313354</v>
       </c>
       <c r="C156" t="n">
-        <v>176.218292</v>
+        <v>176.218277</v>
       </c>
     </row>
     <row r="157">
@@ -5149,10 +5149,10 @@
         <v>160</v>
       </c>
       <c r="B159" t="n">
-        <v>150.719971</v>
+        <v>150.719955</v>
       </c>
       <c r="C159" t="n">
-        <v>177.661407</v>
+        <v>177.661392</v>
       </c>
     </row>
     <row r="160">
@@ -5174,7 +5174,7 @@
         <v>151.94368</v>
       </c>
       <c r="C161" t="n">
-        <v>175.897598</v>
+        <v>175.897583</v>
       </c>
     </row>
     <row r="162">
@@ -5207,7 +5207,7 @@
         <v>156.716141</v>
       </c>
       <c r="C164" t="n">
-        <v>155.614075</v>
+        <v>155.614059</v>
       </c>
     </row>
     <row r="165">
@@ -5218,7 +5218,7 @@
         <v>157.001663</v>
       </c>
       <c r="C165" t="n">
-        <v>153.770096</v>
+        <v>153.770126</v>
       </c>
     </row>
     <row r="166">
@@ -5229,7 +5229,7 @@
         <v>156.634552</v>
       </c>
       <c r="C166" t="n">
-        <v>151.926132</v>
+        <v>151.926147</v>
       </c>
     </row>
     <row r="167">
@@ -5237,7 +5237,7 @@
         <v>168</v>
       </c>
       <c r="B167" t="n">
-        <v>154.146362</v>
+        <v>154.146347</v>
       </c>
       <c r="C167" t="n">
         <v>150.723557</v>
@@ -5251,7 +5251,7 @@
         <v>154.309509</v>
       </c>
       <c r="C168" t="n">
-        <v>149.120102</v>
+        <v>149.120117</v>
       </c>
     </row>
     <row r="169">
@@ -5259,7 +5259,7 @@
         <v>170</v>
       </c>
       <c r="B169" t="n">
-        <v>144.764587</v>
+        <v>144.764603</v>
       </c>
       <c r="C169" t="n">
         <v>148.39856</v>
@@ -5281,7 +5281,7 @@
         <v>172</v>
       </c>
       <c r="B171" t="n">
-        <v>150.719971</v>
+        <v>150.719955</v>
       </c>
       <c r="C171" t="n">
         <v>148.158051</v>
@@ -5292,7 +5292,7 @@
         <v>173</v>
       </c>
       <c r="B172" t="n">
-        <v>144.397491</v>
+        <v>144.397476</v>
       </c>
       <c r="C172" t="n">
         <v>148.799438</v>
@@ -5325,7 +5325,7 @@
         <v>176</v>
       </c>
       <c r="B175" t="n">
-        <v>137.096024</v>
+        <v>137.096039</v>
       </c>
       <c r="C175" t="n">
         <v>148.39856</v>
@@ -5347,7 +5347,7 @@
         <v>178</v>
       </c>
       <c r="B177" t="n">
-        <v>138.646042</v>
+        <v>138.646057</v>
       </c>
       <c r="C177" t="n">
         <v>147.917542</v>
@@ -5361,7 +5361,7 @@
         <v>137.748672</v>
       </c>
       <c r="C178" t="n">
-        <v>149.200302</v>
+        <v>149.200287</v>
       </c>
     </row>
     <row r="179">
@@ -5383,7 +5383,7 @@
         <v>137.871048</v>
       </c>
       <c r="C180" t="n">
-        <v>149.92186</v>
+        <v>149.921844</v>
       </c>
     </row>
     <row r="181">
@@ -5391,10 +5391,10 @@
         <v>182</v>
       </c>
       <c r="B181" t="n">
-        <v>144.397491</v>
+        <v>144.397476</v>
       </c>
       <c r="C181" t="n">
-        <v>151.284775</v>
+        <v>151.28476</v>
       </c>
     </row>
     <row r="182">
@@ -5405,7 +5405,7 @@
         <v>138.727646</v>
       </c>
       <c r="C182" t="n">
-        <v>152.888214</v>
+        <v>152.888199</v>
       </c>
     </row>
     <row r="183">
@@ -5413,10 +5413,10 @@
         <v>184</v>
       </c>
       <c r="B183" t="n">
-        <v>135.709152</v>
+        <v>135.709167</v>
       </c>
       <c r="C183" t="n">
-        <v>151.364929</v>
+        <v>151.364944</v>
       </c>
     </row>
     <row r="184">
@@ -5424,7 +5424,7 @@
         <v>185</v>
       </c>
       <c r="B184" t="n">
-        <v>138.686844</v>
+        <v>138.686859</v>
       </c>
       <c r="C184" t="n">
         <v>152.968384</v>
@@ -5438,7 +5438,7 @@
         <v>140.563202</v>
       </c>
       <c r="C185" t="n">
-        <v>155.934753</v>
+        <v>155.934738</v>
       </c>
     </row>
     <row r="186">
@@ -5449,7 +5449,7 @@
         <v>138.768433</v>
       </c>
       <c r="C186" t="n">
-        <v>151.364929</v>
+        <v>151.364944</v>
       </c>
     </row>
     <row r="187">
@@ -5457,10 +5457,10 @@
         <v>188</v>
       </c>
       <c r="B187" t="n">
-        <v>137.626297</v>
+        <v>137.626312</v>
       </c>
       <c r="C187" t="n">
-        <v>151.525284</v>
+        <v>151.525269</v>
       </c>
     </row>
     <row r="188">
@@ -5468,10 +5468,10 @@
         <v>189</v>
       </c>
       <c r="B188" t="n">
-        <v>138.238159</v>
+        <v>138.238144</v>
       </c>
       <c r="C188" t="n">
-        <v>152.647675</v>
+        <v>152.64769</v>
       </c>
     </row>
     <row r="189">
@@ -5479,7 +5479,7 @@
         <v>190</v>
       </c>
       <c r="B189" t="n">
-        <v>137.667084</v>
+        <v>137.667099</v>
       </c>
       <c r="C189" t="n">
         <v>150.402878</v>
@@ -5493,7 +5493,7 @@
         <v>135.627579</v>
       </c>
       <c r="C190" t="n">
-        <v>149.440781</v>
+        <v>149.440796</v>
       </c>
     </row>
     <row r="191">
@@ -5501,7 +5501,7 @@
         <v>192</v>
       </c>
       <c r="B191" t="n">
-        <v>129.386673</v>
+        <v>129.386688</v>
       </c>
       <c r="C191" t="n">
         <v>148.158051</v>
@@ -5512,10 +5512,10 @@
         <v>193</v>
       </c>
       <c r="B192" t="n">
-        <v>121.310196</v>
+        <v>121.310188</v>
       </c>
       <c r="C192" t="n">
-        <v>150.483032</v>
+        <v>150.483047</v>
       </c>
     </row>
     <row r="193">
@@ -5523,7 +5523,7 @@
         <v>194</v>
       </c>
       <c r="B193" t="n">
-        <v>116.945648</v>
+        <v>116.945656</v>
       </c>
       <c r="C193" t="n">
         <v>146.795135</v>
@@ -5537,7 +5537,7 @@
         <v>115.925896</v>
       </c>
       <c r="C194" t="n">
-        <v>141.824448</v>
+        <v>141.824432</v>
       </c>
     </row>
     <row r="195">
@@ -5578,7 +5578,7 @@
         <v>199</v>
       </c>
       <c r="B198" t="n">
-        <v>113.886383</v>
+        <v>113.886375</v>
       </c>
       <c r="C198" t="n">
         <v>142.546005</v>
@@ -5589,7 +5589,7 @@
         <v>200</v>
       </c>
       <c r="B199" t="n">
-        <v>115.436409</v>
+        <v>115.436417</v>
       </c>
       <c r="C199" t="n">
         <v>143.588242</v>
@@ -5611,7 +5611,7 @@
         <v>202</v>
       </c>
       <c r="B201" t="n">
-        <v>110.704727</v>
+        <v>110.704735</v>
       </c>
       <c r="C201" t="n">
         <v>143.187378</v>
@@ -5622,10 +5622,10 @@
         <v>203</v>
       </c>
       <c r="B202" t="n">
-        <v>107.033607</v>
+        <v>107.033615</v>
       </c>
       <c r="C202" t="n">
-        <v>142.706345</v>
+        <v>142.70636</v>
       </c>
     </row>
     <row r="203">
@@ -5636,7 +5636,7 @@
         <v>106.421753</v>
       </c>
       <c r="C203" t="n">
-        <v>139.820145</v>
+        <v>139.82016</v>
       </c>
     </row>
     <row r="204">
@@ -5669,7 +5669,7 @@
         <v>103.076958</v>
       </c>
       <c r="C206" t="n">
-        <v>142.064987</v>
+        <v>142.064972</v>
       </c>
     </row>
     <row r="207">
@@ -5688,7 +5688,7 @@
         <v>209</v>
       </c>
       <c r="B208" t="n">
-        <v>104.586197</v>
+        <v>104.586189</v>
       </c>
       <c r="C208" t="n">
         <v>144.069275</v>
@@ -5702,7 +5702,7 @@
         <v>103.280914</v>
       </c>
       <c r="C209" t="n">
-        <v>139.90033</v>
+        <v>139.900314</v>
       </c>
     </row>
     <row r="210">
@@ -5735,7 +5735,7 @@
         <v>111.765274</v>
       </c>
       <c r="C212" t="n">
-        <v>127.874504</v>
+        <v>127.874512</v>
       </c>
     </row>
     <row r="213">
@@ -5746,7 +5746,7 @@
         <v>110.337624</v>
       </c>
       <c r="C213" t="n">
-        <v>130.199493</v>
+        <v>130.199509</v>
       </c>
     </row>
     <row r="214">
@@ -5757,7 +5757,7 @@
         <v>110.174461</v>
       </c>
       <c r="C214" t="n">
-        <v>130.680542</v>
+        <v>130.680527</v>
       </c>
     </row>
     <row r="215">
@@ -5768,7 +5768,7 @@
         <v>117.516716</v>
       </c>
       <c r="C215" t="n">
-        <v>132.52449</v>
+        <v>132.524506</v>
       </c>
     </row>
     <row r="216">
@@ -5776,10 +5776,10 @@
         <v>217</v>
       </c>
       <c r="B216" t="n">
-        <v>117.027222</v>
+        <v>117.027229</v>
       </c>
       <c r="C216" t="n">
-        <v>133.326218</v>
+        <v>133.326202</v>
       </c>
     </row>
     <row r="217">
@@ -5787,10 +5787,10 @@
         <v>218</v>
       </c>
       <c r="B217" t="n">
-        <v>117.598289</v>
+        <v>117.598282</v>
       </c>
       <c r="C217" t="n">
-        <v>131.32193</v>
+        <v>131.321915</v>
       </c>
     </row>
     <row r="218">
@@ -5809,7 +5809,7 @@
         <v>220</v>
       </c>
       <c r="B219" t="n">
-        <v>115.028503</v>
+        <v>115.028496</v>
       </c>
       <c r="C219" t="n">
         <v>129.79863</v>
@@ -5820,10 +5820,10 @@
         <v>221</v>
       </c>
       <c r="B220" t="n">
-        <v>117.598289</v>
+        <v>117.598282</v>
       </c>
       <c r="C220" t="n">
-        <v>129.237442</v>
+        <v>129.237427</v>
       </c>
     </row>
     <row r="221">
@@ -5834,7 +5834,7 @@
         <v>113.519257</v>
       </c>
       <c r="C221" t="n">
-        <v>127.874504</v>
+        <v>127.874512</v>
       </c>
     </row>
     <row r="222">
@@ -5845,7 +5845,7 @@
         <v>111.602127</v>
       </c>
       <c r="C222" t="n">
-        <v>127.553825</v>
+        <v>127.553833</v>
       </c>
     </row>
     <row r="223">
@@ -5856,7 +5856,7 @@
         <v>110.500786</v>
       </c>
       <c r="C223" t="n">
-        <v>128.756409</v>
+        <v>128.756393</v>
       </c>
     </row>
     <row r="224">
@@ -5864,10 +5864,10 @@
         <v>225</v>
       </c>
       <c r="B224" t="n">
-        <v>106.544144</v>
+        <v>106.544136</v>
       </c>
       <c r="C224" t="n">
-        <v>125.950386</v>
+        <v>125.950394</v>
       </c>
     </row>
     <row r="225">
@@ -5878,7 +5878,7 @@
         <v>107.441513</v>
       </c>
       <c r="C225" t="n">
-        <v>127.874504</v>
+        <v>127.874512</v>
       </c>
     </row>
     <row r="226">
@@ -5886,10 +5886,10 @@
         <v>227</v>
       </c>
       <c r="B226" t="n">
-        <v>108.461273</v>
+        <v>108.461266</v>
       </c>
       <c r="C226" t="n">
-        <v>127.874504</v>
+        <v>127.874512</v>
       </c>
     </row>
     <row r="227">
@@ -5900,7 +5900,7 @@
         <v>108.869164</v>
       </c>
       <c r="C227" t="n">
-        <v>128.27536</v>
+        <v>128.275375</v>
       </c>
     </row>
     <row r="228">
@@ -5908,7 +5908,7 @@
         <v>229</v>
       </c>
       <c r="B228" t="n">
-        <v>111.071846</v>
+        <v>111.071838</v>
       </c>
       <c r="C228" t="n">
         <v>131.08139</v>
@@ -5919,7 +5919,7 @@
         <v>230</v>
       </c>
       <c r="B229" t="n">
-        <v>110.133675</v>
+        <v>110.133667</v>
       </c>
       <c r="C229" t="n">
         <v>131.08139</v>
@@ -5952,7 +5952,7 @@
         <v>233</v>
       </c>
       <c r="B232" t="n">
-        <v>107.19677</v>
+        <v>107.196777</v>
       </c>
       <c r="C232" t="n">
         <v>130.359848</v>
@@ -5966,7 +5966,7 @@
         <v>108.706017</v>
       </c>
       <c r="C233" t="n">
-        <v>126.671928</v>
+        <v>126.671921</v>
       </c>
     </row>
     <row r="234">
@@ -5977,7 +5977,7 @@
         <v>108.583641</v>
       </c>
       <c r="C234" t="n">
-        <v>127.152977</v>
+        <v>127.152954</v>
       </c>
     </row>
     <row r="235">
@@ -5985,7 +5985,7 @@
         <v>236</v>
       </c>
       <c r="B235" t="n">
-        <v>114.620598</v>
+        <v>114.620605</v>
       </c>
       <c r="C235" t="n">
         <v>129.79863</v>
@@ -5999,7 +5999,7 @@
         <v>111.316589</v>
       </c>
       <c r="C236" t="n">
-        <v>126.992607</v>
+        <v>126.992615</v>
       </c>
     </row>
     <row r="237">
@@ -6007,7 +6007,7 @@
         <v>238</v>
       </c>
       <c r="B237" t="n">
-        <v>116.007469</v>
+        <v>116.007462</v>
       </c>
       <c r="C237" t="n">
         <v>129.558136</v>
@@ -6018,10 +6018,10 @@
         <v>239</v>
       </c>
       <c r="B238" t="n">
-        <v>112.050819</v>
+        <v>112.050812</v>
       </c>
       <c r="C238" t="n">
-        <v>127.152977</v>
+        <v>127.152954</v>
       </c>
     </row>
     <row r="239">
@@ -6043,7 +6043,7 @@
         <v>113.519257</v>
       </c>
       <c r="C240" t="n">
-        <v>129.077103</v>
+        <v>129.077087</v>
       </c>
     </row>
     <row r="241">
@@ -6051,7 +6051,7 @@
         <v>242</v>
       </c>
       <c r="B241" t="n">
-        <v>113.396896</v>
+        <v>113.396889</v>
       </c>
       <c r="C241" t="n">
         <v>128.676239</v>
@@ -6062,10 +6062,10 @@
         <v>243</v>
       </c>
       <c r="B242" t="n">
-        <v>112.621887</v>
+        <v>112.62188</v>
       </c>
       <c r="C242" t="n">
-        <v>128.034866</v>
+        <v>128.034851</v>
       </c>
     </row>
     <row r="243">
@@ -6076,7 +6076,7 @@
         <v>110.459984</v>
       </c>
       <c r="C243" t="n">
-        <v>127.633987</v>
+        <v>127.633995</v>
       </c>
     </row>
     <row r="244">
@@ -6087,7 +6087,7 @@
         <v>112.213982</v>
       </c>
       <c r="C244" t="n">
-        <v>122.663315</v>
+        <v>122.663322</v>
       </c>
     </row>
     <row r="245">
@@ -6095,10 +6095,10 @@
         <v>246</v>
       </c>
       <c r="B245" t="n">
-        <v>109.725777</v>
+        <v>109.725769</v>
       </c>
       <c r="C245" t="n">
-        <v>121.781418</v>
+        <v>121.781425</v>
       </c>
     </row>
     <row r="246">
@@ -6109,7 +6109,7 @@
         <v>105.442795</v>
       </c>
       <c r="C246" t="n">
-        <v>117.772827</v>
+        <v>117.77282</v>
       </c>
     </row>
     <row r="247">
@@ -6120,7 +6120,7 @@
         <v>104.626984</v>
       </c>
       <c r="C247" t="n">
-        <v>120.258163</v>
+        <v>120.258156</v>
       </c>
     </row>
     <row r="248">
@@ -6131,7 +6131,7 @@
         <v>102.95459</v>
       </c>
       <c r="C248" t="n">
-        <v>120.819351</v>
+        <v>120.819359</v>
       </c>
     </row>
     <row r="249">
@@ -6142,7 +6142,7 @@
         <v>105.157257</v>
       </c>
       <c r="C249" t="n">
-        <v>124.346947</v>
+        <v>124.346931</v>
       </c>
     </row>
     <row r="250">
@@ -6153,7 +6153,7 @@
         <v>104.994095</v>
       </c>
       <c r="C250" t="n">
-        <v>126.271065</v>
+        <v>126.271072</v>
       </c>
     </row>
     <row r="251">
@@ -6175,7 +6175,7 @@
         <v>109.195503</v>
       </c>
       <c r="C252" t="n">
-        <v>127.313301</v>
+        <v>127.313316</v>
       </c>
     </row>
     <row r="253">
@@ -6186,7 +6186,7 @@
         <v>108.909966</v>
       </c>
       <c r="C253" t="n">
-        <v>126.591751</v>
+        <v>126.591743</v>
       </c>
     </row>
     <row r="254">
@@ -6194,10 +6194,10 @@
         <v>255</v>
       </c>
       <c r="B254" t="n">
-        <v>108.379692</v>
+        <v>108.3797</v>
       </c>
       <c r="C254" t="n">
-        <v>126.832268</v>
+        <v>126.832275</v>
       </c>
     </row>
     <row r="255">
@@ -6208,7 +6208,7 @@
         <v>107.074402</v>
       </c>
       <c r="C255" t="n">
-        <v>126.431419</v>
+        <v>126.431404</v>
       </c>
     </row>
     <row r="256">
@@ -6219,7 +6219,7 @@
         <v>104.219086</v>
       </c>
       <c r="C256" t="n">
-        <v>126.591751</v>
+        <v>126.591743</v>
       </c>
     </row>
     <row r="257">
@@ -6230,7 +6230,7 @@
         <v>105.687538</v>
       </c>
       <c r="C257" t="n">
-        <v>125.469345</v>
+        <v>125.469337</v>
       </c>
     </row>
     <row r="258">
@@ -6241,7 +6241,7 @@
         <v>106.054649</v>
       </c>
       <c r="C258" t="n">
-        <v>124.266769</v>
+        <v>124.266754</v>
       </c>
     </row>
     <row r="259">
@@ -6260,10 +6260,10 @@
         <v>261</v>
       </c>
       <c r="B260" t="n">
-        <v>105.034897</v>
+        <v>105.034889</v>
       </c>
       <c r="C260" t="n">
-        <v>126.271065</v>
+        <v>126.271072</v>
       </c>
     </row>
     <row r="261">
@@ -6274,7 +6274,7 @@
         <v>103.933556</v>
       </c>
       <c r="C261" t="n">
-        <v>126.030548</v>
+        <v>126.03054</v>
       </c>
     </row>
     <row r="262">
@@ -6285,7 +6285,7 @@
         <v>103.199333</v>
       </c>
       <c r="C262" t="n">
-        <v>125.870209</v>
+        <v>125.870201</v>
       </c>
     </row>
     <row r="263">
@@ -6296,7 +6296,7 @@
         <v>105.238838</v>
       </c>
       <c r="C263" t="n">
-        <v>124.507286</v>
+        <v>124.507278</v>
       </c>
     </row>
     <row r="264">
@@ -6307,7 +6307,7 @@
         <v>102.791428</v>
       </c>
       <c r="C264" t="n">
-        <v>125.709862</v>
+        <v>125.709877</v>
       </c>
     </row>
     <row r="265">
@@ -6318,7 +6318,7 @@
         <v>101.975624</v>
       </c>
       <c r="C265" t="n">
-        <v>126.190887</v>
+        <v>126.190895</v>
       </c>
     </row>
     <row r="266">
@@ -6326,10 +6326,10 @@
         <v>267</v>
       </c>
       <c r="B266" t="n">
-        <v>99.976906</v>
+        <v>99.976898</v>
       </c>
       <c r="C266" t="n">
-        <v>126.110741</v>
+        <v>126.110718</v>
       </c>
     </row>
     <row r="267">
@@ -6337,10 +6337,10 @@
         <v>268</v>
       </c>
       <c r="B267" t="n">
-        <v>102.138786</v>
+        <v>102.138779</v>
       </c>
       <c r="C267" t="n">
-        <v>126.832268</v>
+        <v>126.832275</v>
       </c>
     </row>
     <row r="268">
@@ -6362,7 +6362,7 @@
         <v>99.85453</v>
       </c>
       <c r="C269" t="n">
-        <v>123.465042</v>
+        <v>123.46505</v>
       </c>
     </row>
     <row r="270">
@@ -6373,7 +6373,7 @@
         <v>100.140068</v>
       </c>
       <c r="C270" t="n">
-        <v>123.144379</v>
+        <v>123.144363</v>
       </c>
     </row>
     <row r="271">
@@ -6384,7 +6384,7 @@
         <v>98.304497</v>
       </c>
       <c r="C271" t="n">
-        <v>120.739189</v>
+        <v>120.739204</v>
       </c>
     </row>
     <row r="272">
@@ -6392,10 +6392,10 @@
         <v>273</v>
       </c>
       <c r="B272" t="n">
-        <v>103.444069</v>
+        <v>103.444077</v>
       </c>
       <c r="C272" t="n">
-        <v>121.781418</v>
+        <v>121.781425</v>
       </c>
     </row>
     <row r="273">
@@ -6406,7 +6406,7 @@
         <v>101.078239</v>
       </c>
       <c r="C273" t="n">
-        <v>122.262466</v>
+        <v>122.262474</v>
       </c>
     </row>
     <row r="274">
@@ -6428,7 +6428,7 @@
         <v>102.66906</v>
       </c>
       <c r="C275" t="n">
-        <v>121.781418</v>
+        <v>121.781425</v>
       </c>
     </row>
     <row r="276">
@@ -6450,7 +6450,7 @@
         <v>97.896599</v>
       </c>
       <c r="C277" t="n">
-        <v>119.456436</v>
+        <v>119.456444</v>
       </c>
     </row>
     <row r="278">
@@ -6461,7 +6461,7 @@
         <v>98.712402</v>
       </c>
       <c r="C278" t="n">
-        <v>119.13575</v>
+        <v>119.135757</v>
       </c>
     </row>
     <row r="279">
@@ -6480,10 +6480,10 @@
         <v>281</v>
       </c>
       <c r="B280" t="n">
-        <v>100.180847</v>
+        <v>100.180855</v>
       </c>
       <c r="C280" t="n">
-        <v>122.262466</v>
+        <v>122.262474</v>
       </c>
     </row>
     <row r="281">
@@ -6505,7 +6505,7 @@
         <v>101.486137</v>
       </c>
       <c r="C282" t="n">
-        <v>122.021935</v>
+        <v>122.02195</v>
       </c>
     </row>
     <row r="283">
@@ -6516,7 +6516,7 @@
         <v>103.321701</v>
       </c>
       <c r="C283" t="n">
-        <v>123.545227</v>
+        <v>123.545212</v>
       </c>
     </row>
     <row r="284">
@@ -6527,7 +6527,7 @@
         <v>102.873009</v>
       </c>
       <c r="C284" t="n">
-        <v>121.540924</v>
+        <v>121.540916</v>
       </c>
     </row>
     <row r="285">
@@ -6535,10 +6535,10 @@
         <v>286</v>
       </c>
       <c r="B285" t="n">
-        <v>103.117752</v>
+        <v>103.117744</v>
       </c>
       <c r="C285" t="n">
-        <v>121.781418</v>
+        <v>121.781425</v>
       </c>
     </row>
     <row r="286">
@@ -6549,7 +6549,7 @@
         <v>98.712402</v>
       </c>
       <c r="C286" t="n">
-        <v>120.498672</v>
+        <v>120.498688</v>
       </c>
     </row>
     <row r="287">
@@ -6557,7 +6557,7 @@
         <v>288</v>
       </c>
       <c r="B287" t="n">
-        <v>98.467659</v>
+        <v>98.467667</v>
       </c>
       <c r="C287" t="n">
         <v>120.578835</v>
@@ -6571,7 +6571,7 @@
         <v>102.301949</v>
       </c>
       <c r="C288" t="n">
-        <v>121.781418</v>
+        <v>121.781425</v>
       </c>
     </row>
     <row r="289">
@@ -6579,10 +6579,10 @@
         <v>290</v>
       </c>
       <c r="B289" t="n">
-        <v>102.22036</v>
+        <v>102.220367</v>
       </c>
       <c r="C289" t="n">
-        <v>119.777115</v>
+        <v>119.77713</v>
       </c>
     </row>
     <row r="290">
@@ -6593,7 +6593,7 @@
         <v>106.054649</v>
       </c>
       <c r="C290" t="n">
-        <v>127.393478</v>
+        <v>127.393463</v>
       </c>
     </row>
     <row r="291">
@@ -6604,7 +6604,7 @@
         <v>106.462555</v>
       </c>
       <c r="C291" t="n">
-        <v>125.228828</v>
+        <v>125.228821</v>
       </c>
     </row>
     <row r="292">
@@ -6637,7 +6637,7 @@
         <v>104.83094</v>
       </c>
       <c r="C294" t="n">
-        <v>121.059883</v>
+        <v>121.059875</v>
       </c>
     </row>
     <row r="295">
@@ -6648,7 +6648,7 @@
         <v>105.442795</v>
       </c>
       <c r="C295" t="n">
-        <v>119.616791</v>
+        <v>119.616783</v>
       </c>
     </row>
     <row r="296">
@@ -6656,7 +6656,7 @@
         <v>297</v>
       </c>
       <c r="B296" t="n">
-        <v>104.137505</v>
+        <v>104.137512</v>
       </c>
       <c r="C296" t="n">
         <v>117.69265</v>
@@ -6670,7 +6670,7 @@
         <v>103.036171</v>
       </c>
       <c r="C297" t="n">
-        <v>116.570221</v>
+        <v>116.570236</v>
       </c>
     </row>
     <row r="298">
@@ -6681,7 +6681,7 @@
         <v>103.892769</v>
       </c>
       <c r="C298" t="n">
-        <v>115.768517</v>
+        <v>115.768509</v>
       </c>
     </row>
     <row r="299">
@@ -6692,7 +6692,7 @@
         <v>104.463829</v>
       </c>
       <c r="C299" t="n">
-        <v>117.933182</v>
+        <v>117.933174</v>
       </c>
     </row>
     <row r="300">
@@ -6711,7 +6711,7 @@
         <v>302</v>
       </c>
       <c r="B301" t="n">
-        <v>107.971794</v>
+        <v>107.971802</v>
       </c>
       <c r="C301" t="n">
         <v>118.654716</v>
@@ -6725,7 +6725,7 @@
         <v>108.706017</v>
       </c>
       <c r="C302" t="n">
-        <v>120.258163</v>
+        <v>120.258156</v>
       </c>
     </row>
     <row r="303">
@@ -6758,7 +6758,7 @@
         <v>109.437477</v>
       </c>
       <c r="C305" t="n">
-        <v>121.94178</v>
+        <v>121.941765</v>
       </c>
     </row>
     <row r="306">
@@ -6769,7 +6769,7 @@
         <v>108.000374</v>
       </c>
       <c r="C306" t="n">
-        <v>120.899544</v>
+        <v>120.899536</v>
       </c>
     </row>
     <row r="307">
@@ -6780,7 +6780,7 @@
         <v>105.866501</v>
       </c>
       <c r="C307" t="n">
-        <v>120.096046</v>
+        <v>120.096054</v>
       </c>
     </row>
     <row r="308">
@@ -6791,7 +6791,7 @@
         <v>105.605202</v>
       </c>
       <c r="C308" t="n">
-        <v>118.38649</v>
+        <v>118.386497</v>
       </c>
     </row>
     <row r="309">
@@ -6802,7 +6802,7 @@
         <v>105.03907</v>
       </c>
       <c r="C309" t="n">
-        <v>114.540001</v>
+        <v>114.540009</v>
       </c>
     </row>
     <row r="310">
@@ -6813,7 +6813,7 @@
         <v>105.474564</v>
       </c>
       <c r="C310" t="n">
-        <v>116.762421</v>
+        <v>116.762428</v>
       </c>
     </row>
     <row r="311">
@@ -6824,7 +6824,7 @@
         <v>101.685837</v>
       </c>
       <c r="C311" t="n">
-        <v>117.104317</v>
+        <v>117.104324</v>
       </c>
     </row>
     <row r="312">
@@ -6835,7 +6835,7 @@
         <v>101.729393</v>
       </c>
       <c r="C312" t="n">
-        <v>117.959099</v>
+        <v>117.959106</v>
       </c>
     </row>
     <row r="313">
@@ -6846,7 +6846,7 @@
         <v>106.066818</v>
       </c>
       <c r="C313" t="n">
-        <v>121.121765</v>
+        <v>121.12178</v>
       </c>
     </row>
     <row r="314">
@@ -6868,7 +6868,7 @@
         <v>108.043922</v>
       </c>
       <c r="C315" t="n">
-        <v>121.292725</v>
+        <v>121.292732</v>
       </c>
     </row>
     <row r="316">
@@ -6890,7 +6890,7 @@
         <v>107.129402</v>
       </c>
       <c r="C317" t="n">
-        <v>121.20726</v>
+        <v>121.207253</v>
       </c>
     </row>
     <row r="318">
@@ -6901,7 +6901,7 @@
         <v>107.347145</v>
       </c>
       <c r="C318" t="n">
-        <v>122.062035</v>
+        <v>122.062027</v>
       </c>
     </row>
     <row r="319">
@@ -6934,7 +6934,7 @@
         <v>108.13102</v>
       </c>
       <c r="C321" t="n">
-        <v>122.232994</v>
+        <v>122.232986</v>
       </c>
     </row>
     <row r="322">
@@ -6945,7 +6945,7 @@
         <v>110.613289</v>
       </c>
       <c r="C322" t="n">
-        <v>123.51516</v>
+        <v>123.515144</v>
       </c>
     </row>
     <row r="323">
@@ -6967,7 +6967,7 @@
         <v>112.050385</v>
       </c>
       <c r="C324" t="n">
-        <v>124.028015</v>
+        <v>124.028008</v>
       </c>
     </row>
     <row r="325">
@@ -6978,7 +6978,7 @@
         <v>112.268127</v>
       </c>
       <c r="C325" t="n">
-        <v>124.968254</v>
+        <v>124.968262</v>
       </c>
     </row>
     <row r="326">
@@ -6989,7 +6989,7 @@
         <v>110.87458</v>
       </c>
       <c r="C326" t="n">
-        <v>123.429672</v>
+        <v>123.429665</v>
       </c>
     </row>
     <row r="327">
@@ -7000,7 +7000,7 @@
         <v>110.831032</v>
       </c>
       <c r="C327" t="n">
-        <v>122.062035</v>
+        <v>122.062027</v>
       </c>
     </row>
     <row r="328">
@@ -7022,7 +7022,7 @@
         <v>111.919746</v>
       </c>
       <c r="C329" t="n">
-        <v>122.916817</v>
+        <v>122.916809</v>
       </c>
     </row>
     <row r="330">
@@ -7088,7 +7088,7 @@
         <v>100.510025</v>
       </c>
       <c r="C335" t="n">
-        <v>107.787262</v>
+        <v>107.78727</v>
       </c>
     </row>
     <row r="336">
@@ -7121,7 +7121,7 @@
         <v>94.587425</v>
       </c>
       <c r="C338" t="n">
-        <v>107.017967</v>
+        <v>107.01796</v>
       </c>
     </row>
     <row r="339">
@@ -7176,7 +7176,7 @@
         <v>94.500328</v>
       </c>
       <c r="C343" t="n">
-        <v>105.821289</v>
+        <v>105.821281</v>
       </c>
     </row>
     <row r="344">
@@ -7209,7 +7209,7 @@
         <v>96.764854</v>
       </c>
       <c r="C346" t="n">
-        <v>105.906769</v>
+        <v>105.906761</v>
       </c>
     </row>
     <row r="347">
@@ -7297,7 +7297,7 @@
         <v>94.674522</v>
       </c>
       <c r="C354" t="n">
-        <v>107.616318</v>
+        <v>107.61631</v>
       </c>
     </row>
     <row r="355">
@@ -7341,7 +7341,7 @@
         <v>97.374535</v>
       </c>
       <c r="C358" t="n">
-        <v>111.975677</v>
+        <v>111.97567</v>
       </c>
     </row>
     <row r="359">
@@ -7352,7 +7352,7 @@
         <v>95.458389</v>
       </c>
       <c r="C359" t="n">
-        <v>111.377327</v>
+        <v>111.377335</v>
       </c>
     </row>
     <row r="360">
@@ -7363,7 +7363,7 @@
         <v>94.935814</v>
       </c>
       <c r="C360" t="n">
-        <v>112.403053</v>
+        <v>112.403061</v>
       </c>
     </row>
     <row r="361">
@@ -7396,7 +7396,7 @@
         <v>90.189026</v>
       </c>
       <c r="C363" t="n">
-        <v>109.667778</v>
+        <v>109.66777</v>
       </c>
     </row>
     <row r="364">
@@ -7407,7 +7407,7 @@
         <v>90.493866</v>
       </c>
       <c r="C364" t="n">
-        <v>108.727516</v>
+        <v>108.727524</v>
       </c>
     </row>
     <row r="365">
@@ -7429,7 +7429,7 @@
         <v>86.260948</v>
       </c>
       <c r="C366" t="n">
-        <v>104.539124</v>
+        <v>104.539116</v>
       </c>
     </row>
     <row r="367">
@@ -7484,7 +7484,7 @@
         <v>90.624512</v>
       </c>
       <c r="C371" t="n">
-        <v>107.958229</v>
+        <v>107.958221</v>
       </c>
     </row>
     <row r="372">
@@ -7517,7 +7517,7 @@
         <v>92.540642</v>
       </c>
       <c r="C374" t="n">
-        <v>110.693504</v>
+        <v>110.693512</v>
       </c>
     </row>
     <row r="375">
@@ -7528,7 +7528,7 @@
         <v>90.75515</v>
       </c>
       <c r="C375" t="n">
-        <v>109.411346</v>
+        <v>109.411339</v>
       </c>
     </row>
     <row r="376">
@@ -7550,7 +7550,7 @@
         <v>89.579346</v>
       </c>
       <c r="C377" t="n">
-        <v>107.958229</v>
+        <v>107.958221</v>
       </c>
     </row>
     <row r="378">
@@ -7715,7 +7715,7 @@
         <v>87.314819</v>
       </c>
       <c r="C392" t="n">
-        <v>100.350708</v>
+        <v>100.350716</v>
       </c>
     </row>
     <row r="393">
@@ -7737,7 +7737,7 @@
         <v>85.564163</v>
       </c>
       <c r="C394" t="n">
-        <v>99.15403</v>
+        <v>99.154037</v>
       </c>
     </row>
     <row r="395">
@@ -7748,7 +7748,7 @@
         <v>84.066093</v>
       </c>
       <c r="C395" t="n">
-        <v>98.042824</v>
+        <v>98.042816</v>
       </c>
     </row>
     <row r="396">
@@ -7759,7 +7759,7 @@
         <v>83.839645</v>
       </c>
       <c r="C396" t="n">
-        <v>99.923325</v>
+        <v>99.923332</v>
       </c>
     </row>
     <row r="397">
@@ -7770,7 +7770,7 @@
         <v>83.508675</v>
       </c>
       <c r="C397" t="n">
-        <v>98.726639</v>
+        <v>98.726646</v>
       </c>
     </row>
     <row r="398">
@@ -7781,7 +7781,7 @@
         <v>83.857071</v>
       </c>
       <c r="C398" t="n">
-        <v>98.641159</v>
+        <v>98.641174</v>
       </c>
     </row>
     <row r="399">
@@ -7803,7 +7803,7 @@
         <v>81.244148</v>
       </c>
       <c r="C400" t="n">
-        <v>95.991356</v>
+        <v>95.991364</v>
       </c>
     </row>
     <row r="401">
@@ -7814,7 +7814,7 @@
         <v>81.505447</v>
       </c>
       <c r="C401" t="n">
-        <v>95.563972</v>
+        <v>95.56398</v>
       </c>
     </row>
     <row r="402">
@@ -7825,7 +7825,7 @@
         <v>77.516403</v>
       </c>
       <c r="C402" t="n">
-        <v>92.230339</v>
+        <v>92.230347</v>
       </c>
     </row>
     <row r="403">
@@ -7847,7 +7847,7 @@
         <v>79.362854</v>
       </c>
       <c r="C404" t="n">
-        <v>94.70919</v>
+        <v>94.709198</v>
       </c>
     </row>
     <row r="405">
@@ -7858,7 +7858,7 @@
         <v>79.955116</v>
       </c>
       <c r="C405" t="n">
-        <v>95.307533</v>
+        <v>95.307541</v>
       </c>
     </row>
     <row r="406">
@@ -7869,7 +7869,7 @@
         <v>77.88221</v>
       </c>
       <c r="C406" t="n">
-        <v>93.597984</v>
+        <v>93.597992</v>
       </c>
     </row>
     <row r="407">
@@ -7880,7 +7880,7 @@
         <v>77.516403</v>
       </c>
       <c r="C407" t="n">
-        <v>92.65773</v>
+        <v>92.657738</v>
       </c>
     </row>
     <row r="408">
@@ -7946,7 +7946,7 @@
         <v>76.593178</v>
       </c>
       <c r="C413" t="n">
-        <v>80.348953</v>
+        <v>80.348946</v>
       </c>
     </row>
     <row r="414">
@@ -8034,7 +8034,7 @@
         <v>88.055138</v>
       </c>
       <c r="C421" t="n">
-        <v>88.554802</v>
+        <v>88.55481</v>
       </c>
     </row>
     <row r="422">
@@ -8045,7 +8045,7 @@
         <v>87.968048</v>
       </c>
       <c r="C422" t="n">
-        <v>88.041946</v>
+        <v>88.041939</v>
       </c>
     </row>
     <row r="423">
@@ -8067,7 +8067,7 @@
         <v>91.190636</v>
       </c>
       <c r="C424" t="n">
-        <v>88.554802</v>
+        <v>88.55481</v>
       </c>
     </row>
     <row r="425">
@@ -8078,7 +8078,7 @@
         <v>88.22934</v>
       </c>
       <c r="C425" t="n">
-        <v>88.640274</v>
+        <v>88.640282</v>
       </c>
     </row>
     <row r="426">
@@ -8111,7 +8111,7 @@
         <v>84.414482</v>
       </c>
       <c r="C428" t="n">
-        <v>89.495056</v>
+        <v>89.495064</v>
       </c>
     </row>
     <row r="429">
@@ -8144,7 +8144,7 @@
         <v>83.543518</v>
       </c>
       <c r="C431" t="n">
-        <v>103.342438</v>
+        <v>103.34243</v>
       </c>
     </row>
     <row r="432">
@@ -8155,7 +8155,7 @@
         <v>82.602867</v>
       </c>
       <c r="C432" t="n">
-        <v>107.958229</v>
+        <v>107.958221</v>
       </c>
     </row>
     <row r="433">
@@ -8199,7 +8199,7 @@
         <v>82.742226</v>
       </c>
       <c r="C436" t="n">
-        <v>102.402184</v>
+        <v>102.402176</v>
       </c>
     </row>
     <row r="437">
@@ -8210,7 +8210,7 @@
         <v>82.02803</v>
       </c>
       <c r="C437" t="n">
-        <v>99.923325</v>
+        <v>99.923332</v>
       </c>
     </row>
     <row r="438">
@@ -8221,7 +8221,7 @@
         <v>80.216408</v>
       </c>
       <c r="C438" t="n">
-        <v>99.239502</v>
+        <v>99.23951</v>
       </c>
     </row>
     <row r="439">
@@ -8232,7 +8232,7 @@
         <v>79.989952</v>
       </c>
       <c r="C439" t="n">
-        <v>99.15403</v>
+        <v>99.154037</v>
       </c>
     </row>
     <row r="440">
@@ -8265,7 +8265,7 @@
         <v>79.972534</v>
       </c>
       <c r="C442" t="n">
-        <v>102.316704</v>
+        <v>102.316696</v>
       </c>
     </row>
     <row r="443">
@@ -8320,7 +8320,7 @@
         <v>84.693199</v>
       </c>
       <c r="C447" t="n">
-        <v>109.92421</v>
+        <v>109.924217</v>
       </c>
     </row>
     <row r="448">
@@ -8353,7 +8353,7 @@
         <v>85.877716</v>
       </c>
       <c r="C450" t="n">
-        <v>112.659492</v>
+        <v>112.6595</v>
       </c>
     </row>
     <row r="451">
@@ -8375,7 +8375,7 @@
         <v>85.529327</v>
       </c>
       <c r="C452" t="n">
-        <v>115.394775</v>
+        <v>115.394768</v>
       </c>
     </row>
     <row r="453">
@@ -8386,7 +8386,7 @@
         <v>85.668686</v>
       </c>
       <c r="C453" t="n">
-        <v>114.881912</v>
+        <v>114.881905</v>
       </c>
     </row>
     <row r="454">
@@ -8408,7 +8408,7 @@
         <v>85.616432</v>
       </c>
       <c r="C455" t="n">
-        <v>114.454521</v>
+        <v>114.454514</v>
       </c>
     </row>
     <row r="456">
@@ -8419,7 +8419,7 @@
         <v>84.867393</v>
       </c>
       <c r="C456" t="n">
-        <v>115.736671</v>
+        <v>115.736687</v>
       </c>
     </row>
     <row r="457">
@@ -8430,7 +8430,7 @@
         <v>82.829323</v>
       </c>
       <c r="C457" t="n">
-        <v>113.856171</v>
+        <v>113.856178</v>
       </c>
     </row>
     <row r="458">
@@ -8452,7 +8452,7 @@
         <v>79.955116</v>
       </c>
       <c r="C459" t="n">
-        <v>114.540001</v>
+        <v>114.540009</v>
       </c>
     </row>
     <row r="460">
@@ -8463,7 +8463,7 @@
         <v>81.348671</v>
       </c>
       <c r="C460" t="n">
-        <v>112.403053</v>
+        <v>112.403061</v>
       </c>
     </row>
     <row r="461">
@@ -8474,7 +8474,7 @@
         <v>81.784157</v>
       </c>
       <c r="C461" t="n">
-        <v>114.454521</v>
+        <v>114.454514</v>
       </c>
     </row>
     <row r="462">
@@ -8496,7 +8496,7 @@
         <v>83.630615</v>
       </c>
       <c r="C463" t="n">
-        <v>116.33503</v>
+        <v>116.335037</v>
       </c>
     </row>
     <row r="464">
@@ -8507,7 +8507,7 @@
         <v>83.369324</v>
       </c>
       <c r="C464" t="n">
-        <v>115.993111</v>
+        <v>115.993126</v>
       </c>
     </row>
     <row r="465">
@@ -8518,7 +8518,7 @@
         <v>82.498352</v>
       </c>
       <c r="C465" t="n">
-        <v>116.676933</v>
+        <v>116.676941</v>
       </c>
     </row>
     <row r="466">
@@ -8540,7 +8540,7 @@
         <v>80.442856</v>
       </c>
       <c r="C467" t="n">
-        <v>113.514267</v>
+        <v>113.514275</v>
       </c>
     </row>
     <row r="468">
@@ -8551,7 +8551,7 @@
         <v>80.634476</v>
       </c>
       <c r="C468" t="n">
-        <v>111.377327</v>
+        <v>111.377335</v>
       </c>
     </row>
     <row r="469">
@@ -8606,7 +8606,7 @@
         <v>78.735756</v>
       </c>
       <c r="C473" t="n">
-        <v>108.727516</v>
+        <v>108.727524</v>
       </c>
     </row>
     <row r="474">
@@ -8628,7 +8628,7 @@
         <v>80.129311</v>
       </c>
       <c r="C475" t="n">
-        <v>110.693504</v>
+        <v>110.693512</v>
       </c>
     </row>
     <row r="476">
@@ -8639,7 +8639,7 @@
         <v>79.275757</v>
       </c>
       <c r="C476" t="n">
-        <v>108.727516</v>
+        <v>108.727524</v>
       </c>
     </row>
     <row r="477">
@@ -8694,7 +8694,7 @@
         <v>79.223503</v>
       </c>
       <c r="C481" t="n">
-        <v>105.479378</v>
+        <v>105.47937</v>
       </c>
     </row>
     <row r="482">
@@ -8749,7 +8749,7 @@
         <v>84.170616</v>
       </c>
       <c r="C486" t="n">
-        <v>113.343323</v>
+        <v>113.343315</v>
       </c>
     </row>
     <row r="487">
@@ -8760,7 +8760,7 @@
         <v>84.849968</v>
       </c>
       <c r="C487" t="n">
-        <v>113.856171</v>
+        <v>113.856178</v>
       </c>
     </row>
     <row r="488">
@@ -8771,7 +8771,7 @@
         <v>87.271271</v>
       </c>
       <c r="C488" t="n">
-        <v>113.941658</v>
+        <v>113.94165</v>
       </c>
     </row>
     <row r="489">
@@ -8782,7 +8782,7 @@
         <v>90.580963</v>
       </c>
       <c r="C489" t="n">
-        <v>112.403053</v>
+        <v>112.403061</v>
       </c>
     </row>
     <row r="490">
@@ -8793,7 +8793,7 @@
         <v>92.671295</v>
       </c>
       <c r="C490" t="n">
-        <v>112.488541</v>
+        <v>112.488548</v>
       </c>
     </row>
     <row r="491">
@@ -8804,7 +8804,7 @@
         <v>94.108391</v>
       </c>
       <c r="C491" t="n">
-        <v>117.104317</v>
+        <v>117.104324</v>
       </c>
     </row>
     <row r="492">
@@ -8848,7 +8848,7 @@
         <v>93.193871</v>
       </c>
       <c r="C495" t="n">
-        <v>118.899368</v>
+        <v>118.899361</v>
       </c>
     </row>
     <row r="496">
@@ -8870,7 +8870,7 @@
         <v>93.890648</v>
       </c>
       <c r="C497" t="n">
-        <v>119.497711</v>
+        <v>119.497696</v>
       </c>
     </row>
     <row r="498">
@@ -8903,7 +8903,7 @@
         <v>92.932579</v>
       </c>
       <c r="C500" t="n">
-        <v>120.60891</v>
+        <v>120.608917</v>
       </c>
     </row>
     <row r="501">
@@ -8914,7 +8914,7 @@
         <v>93.847099</v>
       </c>
       <c r="C501" t="n">
-        <v>120.694374</v>
+        <v>120.694389</v>
       </c>
     </row>
     <row r="502">
@@ -8958,7 +8958,7 @@
         <v>93.498711</v>
       </c>
       <c r="C505" t="n">
-        <v>121.891083</v>
+        <v>121.891075</v>
       </c>
     </row>
     <row r="506">
@@ -8969,7 +8969,7 @@
         <v>94.06485</v>
       </c>
       <c r="C506" t="n">
-        <v>123.686089</v>
+        <v>123.686104</v>
       </c>
     </row>
     <row r="507">
@@ -8991,7 +8991,7 @@
         <v>94.674522</v>
       </c>
       <c r="C508" t="n">
-        <v>123.600624</v>
+        <v>123.600632</v>
       </c>
     </row>
     <row r="509">
@@ -9002,7 +9002,7 @@
         <v>95.806786</v>
       </c>
       <c r="C509" t="n">
-        <v>123.344208</v>
+        <v>123.344193</v>
       </c>
     </row>
     <row r="510">
@@ -9013,7 +9013,7 @@
         <v>95.632591</v>
       </c>
       <c r="C510" t="n">
-        <v>127.361649</v>
+        <v>127.361633</v>
       </c>
     </row>
     <row r="511">
@@ -9035,7 +9035,7 @@
         <v>96.721306</v>
       </c>
       <c r="C512" t="n">
-        <v>127.703537</v>
+        <v>127.703552</v>
       </c>
     </row>
     <row r="513">
@@ -9046,7 +9046,7 @@
         <v>94.848717</v>
       </c>
       <c r="C513" t="n">
-        <v>126.934265</v>
+        <v>126.93425</v>
       </c>
     </row>
     <row r="514">
@@ -9068,7 +9068,7 @@
         <v>92.453545</v>
       </c>
       <c r="C515" t="n">
-        <v>123.087769</v>
+        <v>123.087753</v>
       </c>
     </row>
     <row r="516">
@@ -9079,7 +9079,7 @@
         <v>94.500328</v>
       </c>
       <c r="C516" t="n">
-        <v>125.224701</v>
+        <v>125.224709</v>
       </c>
     </row>
     <row r="517">
@@ -9101,7 +9101,7 @@
         <v>94.674522</v>
       </c>
       <c r="C518" t="n">
-        <v>124.198967</v>
+        <v>124.198975</v>
       </c>
     </row>
     <row r="519">
@@ -9112,7 +9112,7 @@
         <v>98.332603</v>
       </c>
       <c r="C519" t="n">
-        <v>125.48114</v>
+        <v>125.481125</v>
       </c>
     </row>
     <row r="520">
@@ -9134,7 +9134,7 @@
         <v>99.943893</v>
       </c>
       <c r="C521" t="n">
-        <v>127.276161</v>
+        <v>127.276169</v>
       </c>
     </row>
     <row r="522">
@@ -9156,7 +9156,7 @@
         <v>102.164879</v>
       </c>
       <c r="C523" t="n">
-        <v>131.293625</v>
+        <v>131.29361</v>
       </c>
     </row>
     <row r="524">
@@ -9167,7 +9167,7 @@
         <v>102.51326</v>
       </c>
       <c r="C524" t="n">
-        <v>130.438843</v>
+        <v>130.438828</v>
       </c>
     </row>
     <row r="525">
@@ -9189,7 +9189,7 @@
         <v>105.822952</v>
       </c>
       <c r="C526" t="n">
-        <v>133.516037</v>
+        <v>133.516022</v>
       </c>
     </row>
     <row r="527">
@@ -9211,7 +9211,7 @@
         <v>106.51973</v>
       </c>
       <c r="C528" t="n">
-        <v>134.19986</v>
+        <v>134.199844</v>
       </c>
     </row>
     <row r="529">
@@ -9233,7 +9233,7 @@
         <v>104.951973</v>
       </c>
       <c r="C530" t="n">
-        <v>135.909393</v>
+        <v>135.909409</v>
       </c>
     </row>
     <row r="531">
@@ -9266,7 +9266,7 @@
         <v>106.476181</v>
       </c>
       <c r="C533" t="n">
-        <v>138.47374</v>
+        <v>138.473724</v>
       </c>
     </row>
     <row r="534">
@@ -9277,7 +9277,7 @@
         <v>104.995529</v>
       </c>
       <c r="C534" t="n">
-        <v>137.020615</v>
+        <v>137.020599</v>
       </c>
     </row>
     <row r="535">
@@ -9288,7 +9288,7 @@
         <v>100.161644</v>
       </c>
       <c r="C535" t="n">
-        <v>134.19986</v>
+        <v>134.199844</v>
       </c>
     </row>
     <row r="536">
@@ -9321,7 +9321,7 @@
         <v>93.237427</v>
       </c>
       <c r="C538" t="n">
-        <v>109.240387</v>
+        <v>109.240395</v>
       </c>
     </row>
     <row r="539">
@@ -9354,7 +9354,7 @@
         <v>93.063232</v>
       </c>
       <c r="C541" t="n">
-        <v>109.838737</v>
+        <v>109.83873</v>
       </c>
     </row>
     <row r="542">
@@ -9409,7 +9409,7 @@
         <v>77.289948</v>
       </c>
       <c r="C546" t="n">
-        <v>93.854416</v>
+        <v>93.854424</v>
       </c>
     </row>
     <row r="547">
@@ -9431,7 +9431,7 @@
         <v>67.726685</v>
       </c>
       <c r="C548" t="n">
-        <v>82.272194</v>
+        <v>82.272202</v>
       </c>
     </row>
     <row r="549">
@@ -9442,7 +9442,7 @@
         <v>67.761528</v>
       </c>
       <c r="C549" t="n">
-        <v>83.682587</v>
+        <v>83.682579</v>
       </c>
     </row>
     <row r="550">
@@ -9453,7 +9453,7 @@
         <v>64.486679</v>
       </c>
       <c r="C550" t="n">
-        <v>78.895836</v>
+        <v>78.895828</v>
       </c>
     </row>
     <row r="551">
@@ -9464,7 +9464,7 @@
         <v>64.62603</v>
       </c>
       <c r="C551" t="n">
-        <v>80.220734</v>
+        <v>80.220741</v>
       </c>
     </row>
     <row r="552">
@@ -9475,7 +9475,7 @@
         <v>71.60997</v>
       </c>
       <c r="C552" t="n">
-        <v>77.399986</v>
+        <v>77.399979</v>
       </c>
     </row>
     <row r="553">
@@ -9486,7 +9486,7 @@
         <v>71.708336</v>
       </c>
       <c r="C553" t="n">
-        <v>78.126541</v>
+        <v>78.126534</v>
       </c>
     </row>
     <row r="554">
@@ -9574,7 +9574,7 @@
         <v>75.642952</v>
       </c>
       <c r="C561" t="n">
-        <v>91.515839</v>
+        <v>91.515846</v>
       </c>
     </row>
     <row r="562">
@@ -9607,7 +9607,7 @@
         <v>71.078796</v>
       </c>
       <c r="C564" t="n">
-        <v>88.706573</v>
+        <v>88.706566</v>
       </c>
     </row>
     <row r="565">
@@ -9618,7 +9618,7 @@
         <v>72.141136</v>
       </c>
       <c r="C565" t="n">
-        <v>88.373268</v>
+        <v>88.37326</v>
       </c>
     </row>
     <row r="566">
@@ -9684,7 +9684,7 @@
         <v>72.318199</v>
       </c>
       <c r="C571" t="n">
-        <v>89.373169</v>
+        <v>89.373177</v>
       </c>
     </row>
     <row r="572">
@@ -9695,7 +9695,7 @@
         <v>71.82637</v>
       </c>
       <c r="C572" t="n">
-        <v>90.992088</v>
+        <v>90.992081</v>
       </c>
     </row>
     <row r="573">
@@ -9728,7 +9728,7 @@
         <v>72.455917</v>
       </c>
       <c r="C575" t="n">
-        <v>91.230164</v>
+        <v>91.230156</v>
       </c>
     </row>
     <row r="576">
@@ -9739,7 +9739,7 @@
         <v>70.134491</v>
       </c>
       <c r="C576" t="n">
-        <v>89.706474</v>
+        <v>89.706482</v>
       </c>
     </row>
     <row r="577">
@@ -9783,7 +9783,7 @@
         <v>79.479202</v>
       </c>
       <c r="C580" t="n">
-        <v>107.89537</v>
+        <v>107.895378</v>
       </c>
     </row>
     <row r="581">
@@ -9827,7 +9827,7 @@
         <v>74.226486</v>
       </c>
       <c r="C584" t="n">
-        <v>95.08696</v>
+        <v>95.086967</v>
       </c>
     </row>
     <row r="585">
@@ -9849,7 +9849,7 @@
         <v>74.619949</v>
       </c>
       <c r="C586" t="n">
-        <v>100.086533</v>
+        <v>100.086525</v>
       </c>
     </row>
     <row r="587">
@@ -9860,7 +9860,7 @@
         <v>74.167473</v>
       </c>
       <c r="C587" t="n">
-        <v>101.134048</v>
+        <v>101.134056</v>
       </c>
     </row>
     <row r="588">
@@ -9893,7 +9893,7 @@
         <v>70.803375</v>
       </c>
       <c r="C590" t="n">
-        <v>99.991302</v>
+        <v>99.991295</v>
       </c>
     </row>
     <row r="591">
@@ -9915,7 +9915,7 @@
         <v>73.400223</v>
       </c>
       <c r="C592" t="n">
-        <v>100.657898</v>
+        <v>100.657906</v>
       </c>
     </row>
     <row r="593">
@@ -9926,7 +9926,7 @@
         <v>75.564255</v>
       </c>
       <c r="C593" t="n">
-        <v>102.467278</v>
+        <v>102.46727</v>
       </c>
     </row>
     <row r="594">
@@ -9970,7 +9970,7 @@
         <v>83.748253</v>
       </c>
       <c r="C597" t="n">
-        <v>111.799789</v>
+        <v>111.799797</v>
       </c>
     </row>
     <row r="598">
@@ -9992,7 +9992,7 @@
         <v>86.128693</v>
       </c>
       <c r="C599" t="n">
-        <v>116.656509</v>
+        <v>116.656517</v>
       </c>
     </row>
     <row r="600">
@@ -10014,7 +10014,7 @@
         <v>89.256706</v>
       </c>
       <c r="C601" t="n">
-        <v>123.893982</v>
+        <v>123.89399</v>
       </c>
     </row>
     <row r="602">
@@ -10069,7 +10069,7 @@
         <v>86.42379</v>
       </c>
       <c r="C606" t="n">
-        <v>117.704041</v>
+        <v>117.704048</v>
       </c>
     </row>
     <row r="607">
@@ -10091,7 +10091,7 @@
         <v>87.663193</v>
       </c>
       <c r="C608" t="n">
-        <v>120.751396</v>
+        <v>120.751404</v>
       </c>
     </row>
     <row r="609">
@@ -10157,7 +10157,7 @@
         <v>87.466461</v>
       </c>
       <c r="C614" t="n">
-        <v>117.704041</v>
+        <v>117.704048</v>
       </c>
     </row>
     <row r="615">
@@ -10201,7 +10201,7 @@
         <v>86.836922</v>
       </c>
       <c r="C618" t="n">
-        <v>117.13266</v>
+        <v>117.132668</v>
       </c>
     </row>
     <row r="619">
@@ -10322,7 +10322,7 @@
         <v>100.185097</v>
       </c>
       <c r="C629" t="n">
-        <v>124.465355</v>
+        <v>124.465363</v>
       </c>
     </row>
     <row r="630">
@@ -10333,7 +10333,7 @@
         <v>100.185097</v>
       </c>
       <c r="C630" t="n">
-        <v>125.512886</v>
+        <v>125.512894</v>
       </c>
     </row>
     <row r="631">
@@ -10355,7 +10355,7 @@
         <v>104.267265</v>
       </c>
       <c r="C632" t="n">
-        <v>125.036736</v>
+        <v>125.036743</v>
       </c>
     </row>
     <row r="633">
@@ -10388,7 +10388,7 @@
         <v>103.72625</v>
       </c>
       <c r="C635" t="n">
-        <v>125.322433</v>
+        <v>125.322441</v>
       </c>
     </row>
     <row r="636">
@@ -10399,7 +10399,7 @@
         <v>104.218079</v>
       </c>
       <c r="C636" t="n">
-        <v>124.941498</v>
+        <v>124.941505</v>
       </c>
     </row>
     <row r="637">
@@ -10410,7 +10410,7 @@
         <v>102.250771</v>
       </c>
       <c r="C637" t="n">
-        <v>122.655998</v>
+        <v>122.655991</v>
       </c>
     </row>
     <row r="638">
@@ -10465,7 +10465,7 @@
         <v>101.168755</v>
       </c>
       <c r="C642" t="n">
-        <v>115.894676</v>
+        <v>115.894669</v>
       </c>
     </row>
     <row r="643">
@@ -10476,7 +10476,7 @@
         <v>100.480202</v>
       </c>
       <c r="C643" t="n">
-        <v>116.75174</v>
+        <v>116.751747</v>
       </c>
     </row>
     <row r="644">
@@ -10487,7 +10487,7 @@
         <v>100.922836</v>
       </c>
       <c r="C644" t="n">
-        <v>115.989914</v>
+        <v>115.989906</v>
       </c>
     </row>
     <row r="645">
@@ -10498,7 +10498,7 @@
         <v>100.332649</v>
       </c>
       <c r="C645" t="n">
-        <v>115.418526</v>
+        <v>115.418518</v>
       </c>
     </row>
     <row r="646">
@@ -10564,7 +10564,7 @@
         <v>102.349144</v>
       </c>
       <c r="C651" t="n">
-        <v>113.609169</v>
+        <v>113.609161</v>
       </c>
     </row>
     <row r="652">
@@ -10608,7 +10608,7 @@
         <v>96.496399</v>
       </c>
       <c r="C655" t="n">
-        <v>110.466576</v>
+        <v>110.466583</v>
       </c>
     </row>
     <row r="656">
@@ -10619,7 +10619,7 @@
         <v>97.047249</v>
       </c>
       <c r="C656" t="n">
-        <v>109.799973</v>
+        <v>109.799965</v>
       </c>
     </row>
     <row r="657">
@@ -10652,7 +10652,7 @@
         <v>97.971878</v>
       </c>
       <c r="C659" t="n">
-        <v>107.228767</v>
+        <v>107.22876</v>
       </c>
     </row>
     <row r="660">
@@ -10663,7 +10663,7 @@
         <v>96.594765</v>
       </c>
       <c r="C660" t="n">
-        <v>106.847847</v>
+        <v>106.847839</v>
       </c>
     </row>
     <row r="661">
@@ -10696,7 +10696,7 @@
         <v>92.463425</v>
       </c>
       <c r="C663" t="n">
-        <v>95.705963</v>
+        <v>95.705956</v>
       </c>
     </row>
     <row r="664">
@@ -10751,7 +10751,7 @@
         <v>87.859924</v>
       </c>
       <c r="C668" t="n">
-        <v>96.467796</v>
+        <v>96.467804</v>
       </c>
     </row>
     <row r="669">
@@ -10762,7 +10762,7 @@
         <v>88.627174</v>
       </c>
       <c r="C669" t="n">
-        <v>98.181938</v>
+        <v>98.181931</v>
       </c>
     </row>
     <row r="670">
@@ -10773,7 +10773,7 @@
         <v>88.587822</v>
       </c>
       <c r="C670" t="n">
-        <v>99.705605</v>
+        <v>99.705612</v>
       </c>
     </row>
     <row r="671">
@@ -10784,7 +10784,7 @@
         <v>86.502487</v>
       </c>
       <c r="C671" t="n">
-        <v>99.610382</v>
+        <v>99.610374</v>
       </c>
     </row>
     <row r="672">
@@ -10806,7 +10806,7 @@
         <v>86.187714</v>
       </c>
       <c r="C673" t="n">
-        <v>99.134232</v>
+        <v>99.134224</v>
       </c>
     </row>
     <row r="674">
@@ -10817,7 +10817,7 @@
         <v>86.384445</v>
       </c>
       <c r="C674" t="n">
-        <v>97.896248</v>
+        <v>97.89624</v>
       </c>
     </row>
     <row r="675">
@@ -10839,7 +10839,7 @@
         <v>83.0597</v>
       </c>
       <c r="C676" t="n">
-        <v>96.372559</v>
+        <v>96.372566</v>
       </c>
     </row>
     <row r="677">
@@ -10850,7 +10850,7 @@
         <v>80.659584</v>
       </c>
       <c r="C677" t="n">
-        <v>94.372734</v>
+        <v>94.372742</v>
       </c>
     </row>
     <row r="678">
@@ -10872,7 +10872,7 @@
         <v>81.938332</v>
       </c>
       <c r="C679" t="n">
-        <v>93.563293</v>
+        <v>93.563286</v>
       </c>
     </row>
     <row r="680">
@@ -10927,7 +10927,7 @@
         <v>84.692558</v>
       </c>
       <c r="C684" t="n">
-        <v>94.848885</v>
+        <v>94.848892</v>
       </c>
     </row>
     <row r="685">
@@ -10949,7 +10949,7 @@
         <v>83.453156</v>
       </c>
       <c r="C686" t="n">
-        <v>103.133881</v>
+        <v>103.133888</v>
       </c>
     </row>
     <row r="687">
@@ -10960,7 +10960,7 @@
         <v>85.57785</v>
       </c>
       <c r="C687" t="n">
-        <v>103.133881</v>
+        <v>103.133888</v>
       </c>
     </row>
     <row r="688">
@@ -10993,7 +10993,7 @@
         <v>89.453445</v>
       </c>
       <c r="C690" t="n">
-        <v>103.990952</v>
+        <v>103.990944</v>
       </c>
     </row>
     <row r="691">
@@ -11070,7 +11070,7 @@
         <v>91.401077</v>
       </c>
       <c r="C697" t="n">
-        <v>103.990952</v>
+        <v>103.990944</v>
       </c>
     </row>
     <row r="698">
@@ -11158,7 +11158,7 @@
         <v>84.161385</v>
       </c>
       <c r="C705" t="n">
-        <v>102.372047</v>
+        <v>102.37204</v>
       </c>
     </row>
     <row r="706">
@@ -11202,7 +11202,7 @@
         <v>86.974632</v>
       </c>
       <c r="C709" t="n">
-        <v>111.799789</v>
+        <v>111.799797</v>
       </c>
     </row>
     <row r="710">
@@ -11224,7 +11224,7 @@
         <v>88.627174</v>
       </c>
       <c r="C711" t="n">
-        <v>109.514275</v>
+        <v>109.514282</v>
       </c>
     </row>
     <row r="712">
@@ -11290,7 +11290,7 @@
         <v>102.447502</v>
       </c>
       <c r="C717" t="n">
-        <v>124.274902</v>
+        <v>124.274895</v>
       </c>
     </row>
     <row r="718">
@@ -11301,7 +11301,7 @@
         <v>102.890144</v>
       </c>
       <c r="C718" t="n">
-        <v>126.274734</v>
+        <v>126.274727</v>
       </c>
     </row>
     <row r="719">
@@ -11356,7 +11356,7 @@
         <v>103.234421</v>
       </c>
       <c r="C723" t="n">
-        <v>124.751053</v>
+        <v>124.751045</v>
       </c>
     </row>
     <row r="724">
@@ -11378,7 +11378,7 @@
         <v>102.98851</v>
       </c>
       <c r="C725" t="n">
-        <v>124.751053</v>
+        <v>124.751045</v>
       </c>
     </row>
     <row r="726">
@@ -11422,7 +11422,7 @@
         <v>102.250771</v>
       </c>
       <c r="C729" t="n">
-        <v>124.751053</v>
+        <v>124.751045</v>
       </c>
     </row>
     <row r="730">
@@ -11444,7 +11444,7 @@
         <v>101.513031</v>
       </c>
       <c r="C731" t="n">
-        <v>124.274902</v>
+        <v>124.274895</v>
       </c>
     </row>
     <row r="732">
@@ -11543,7 +11543,7 @@
         <v>94.529091</v>
       </c>
       <c r="C740" t="n">
-        <v>121.608459</v>
+        <v>121.608467</v>
       </c>
     </row>
     <row r="741">
@@ -11576,7 +11576,7 @@
         <v>96.870193</v>
       </c>
       <c r="C743" t="n">
-        <v>124.941498</v>
+        <v>124.941505</v>
       </c>
     </row>
     <row r="744">
@@ -11587,7 +11587,7 @@
         <v>99.742462</v>
       </c>
       <c r="C744" t="n">
-        <v>125.989037</v>
+        <v>125.989044</v>
       </c>
     </row>
     <row r="745">
@@ -11620,7 +11620,7 @@
         <v>99.004723</v>
       </c>
       <c r="C747" t="n">
-        <v>128.084091</v>
+        <v>128.084106</v>
       </c>
     </row>
     <row r="748">
@@ -11653,7 +11653,7 @@
         <v>103.627884</v>
       </c>
       <c r="C750" t="n">
-        <v>128.941147</v>
+        <v>128.941162</v>
       </c>
     </row>
     <row r="751">
@@ -11664,7 +11664,7 @@
         <v>108.054329</v>
       </c>
       <c r="C751" t="n">
-        <v>132.369446</v>
+        <v>132.369431</v>
       </c>
     </row>
     <row r="752">
@@ -11851,7 +11851,7 @@
         <v>103.480339</v>
       </c>
       <c r="C768" t="n">
-        <v>121.608459</v>
+        <v>121.608467</v>
       </c>
     </row>
     <row r="769">
@@ -11862,7 +11862,7 @@
         <v>104.070534</v>
       </c>
       <c r="C769" t="n">
-        <v>123.893982</v>
+        <v>123.89399</v>
       </c>
     </row>
     <row r="770">
@@ -11939,7 +11939,7 @@
         <v>107.955963</v>
       </c>
       <c r="C776" t="n">
-        <v>126.750885</v>
+        <v>126.750877</v>
       </c>
     </row>
     <row r="777">
@@ -11983,7 +11983,7 @@
         <v>110.857735</v>
       </c>
       <c r="C780" t="n">
-        <v>132.369446</v>
+        <v>132.369431</v>
       </c>
     </row>
     <row r="781">
@@ -12016,7 +12016,7 @@
         <v>111.644661</v>
       </c>
       <c r="C783" t="n">
-        <v>132.940826</v>
+        <v>132.940811</v>
       </c>
     </row>
     <row r="784">
@@ -12027,7 +12027,7 @@
         <v>111.447937</v>
       </c>
       <c r="C784" t="n">
-        <v>134.178787</v>
+        <v>134.178802</v>
       </c>
     </row>
     <row r="785">
@@ -12038,7 +12038,7 @@
         <v>112.333221</v>
       </c>
       <c r="C785" t="n">
-        <v>134.940628</v>
+        <v>134.940643</v>
       </c>
     </row>
     <row r="786">
@@ -12049,7 +12049,7 @@
         <v>115.087448</v>
       </c>
       <c r="C786" t="n">
-        <v>135.226334</v>
+        <v>135.226318</v>
       </c>
     </row>
     <row r="787">
@@ -12071,7 +12071,7 @@
         <v>114.595627</v>
       </c>
       <c r="C788" t="n">
-        <v>136.654785</v>
+        <v>136.65477</v>
       </c>
     </row>
     <row r="789">
@@ -12093,7 +12093,7 @@
         <v>116.366203</v>
       </c>
       <c r="C790" t="n">
-        <v>153.319992</v>
+        <v>153.319977</v>
       </c>
     </row>
     <row r="791">
@@ -12104,7 +12104,7 @@
         <v>116.218651</v>
       </c>
       <c r="C791" t="n">
-        <v>152.367691</v>
+        <v>152.367706</v>
       </c>
     </row>
     <row r="792">
@@ -12115,7 +12115,7 @@
         <v>118.82534</v>
       </c>
       <c r="C792" t="n">
-        <v>151.129715</v>
+        <v>151.1297</v>
       </c>
     </row>
     <row r="793">
@@ -12170,7 +12170,7 @@
         <v>120.54673</v>
       </c>
       <c r="C797" t="n">
-        <v>154.938904</v>
+        <v>154.938889</v>
       </c>
     </row>
     <row r="798">
@@ -12181,7 +12181,7 @@
         <v>120.497543</v>
       </c>
       <c r="C798" t="n">
-        <v>154.272293</v>
+        <v>154.272278</v>
       </c>
     </row>
     <row r="799">
@@ -12192,7 +12192,7 @@
         <v>120.349998</v>
       </c>
       <c r="C799" t="n">
-        <v>155.415054</v>
+        <v>155.415039</v>
       </c>
     </row>
     <row r="800">
@@ -12247,7 +12247,7 @@
         <v>118.25</v>
       </c>
       <c r="C804" t="n">
-        <v>155.224594</v>
+        <v>155.224579</v>
       </c>
     </row>
     <row r="805">
@@ -12258,7 +12258,7 @@
         <v>119.300003</v>
       </c>
       <c r="C805" t="n">
-        <v>159.986084</v>
+        <v>159.986069</v>
       </c>
     </row>
     <row r="806">

--- a/Danske aktiekurser.xlsx
+++ b/Danske aktiekurser.xlsx
@@ -3425,7 +3425,7 @@
         <v>189.887924</v>
       </c>
       <c r="C2" t="n">
-        <v>191.282867</v>
+        <v>191.282883</v>
       </c>
     </row>
     <row r="3">
@@ -3436,7 +3436,7 @@
         <v>188.870819</v>
       </c>
       <c r="C3" t="n">
-        <v>190.824905</v>
+        <v>190.82489</v>
       </c>
     </row>
     <row r="4">
@@ -3444,10 +3444,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>190.51384</v>
+        <v>190.513824</v>
       </c>
       <c r="C4" t="n">
-        <v>192.351501</v>
+        <v>192.351486</v>
       </c>
     </row>
     <row r="5">
@@ -3455,10 +3455,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="n">
-        <v>190.748581</v>
+        <v>190.74855</v>
       </c>
       <c r="C5" t="n">
-        <v>192.046188</v>
+        <v>192.046173</v>
       </c>
     </row>
     <row r="6">
@@ -3469,7 +3469,7 @@
         <v>191.843918</v>
       </c>
       <c r="C6" t="n">
-        <v>191.74086</v>
+        <v>191.740845</v>
       </c>
     </row>
     <row r="7">
@@ -3488,10 +3488,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="n">
-        <v>194.34758</v>
+        <v>194.347595</v>
       </c>
       <c r="C8" t="n">
-        <v>195.404709</v>
+        <v>195.404694</v>
       </c>
     </row>
     <row r="9">
@@ -3521,10 +3521,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="n">
-        <v>196.303589</v>
+        <v>196.303574</v>
       </c>
       <c r="C11" t="n">
-        <v>193.5728</v>
+        <v>193.572784</v>
       </c>
     </row>
     <row r="12">
@@ -3532,10 +3532,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="n">
-        <v>195.521179</v>
+        <v>195.521194</v>
       </c>
       <c r="C12" t="n">
-        <v>192.50415</v>
+        <v>192.504166</v>
       </c>
     </row>
     <row r="13">
@@ -3543,10 +3543,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="n">
-        <v>195.990631</v>
+        <v>195.990616</v>
       </c>
       <c r="C13" t="n">
-        <v>191.435547</v>
+        <v>191.435532</v>
       </c>
     </row>
     <row r="14">
@@ -3554,7 +3554,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="n">
-        <v>191.452713</v>
+        <v>191.452728</v>
       </c>
       <c r="C14" t="n">
         <v>191.588196</v>
@@ -3568,7 +3568,7 @@
         <v>190.670319</v>
       </c>
       <c r="C15" t="n">
-        <v>191.893509</v>
+        <v>191.893524</v>
       </c>
     </row>
     <row r="16">
@@ -3587,10 +3587,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="n">
-        <v>192.078659</v>
+        <v>192.078644</v>
       </c>
       <c r="C17" t="n">
-        <v>191.435547</v>
+        <v>191.435532</v>
       </c>
     </row>
     <row r="18">
@@ -3598,10 +3598,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="n">
-        <v>192.078659</v>
+        <v>192.078644</v>
       </c>
       <c r="C18" t="n">
-        <v>190.214264</v>
+        <v>190.214233</v>
       </c>
     </row>
     <row r="19">
@@ -3609,7 +3609,7 @@
         <v>20</v>
       </c>
       <c r="B19" t="n">
-        <v>186.680084</v>
+        <v>186.680099</v>
       </c>
       <c r="C19" t="n">
         <v>185.63446</v>
@@ -3620,10 +3620,10 @@
         <v>21</v>
       </c>
       <c r="B20" t="n">
-        <v>189.966171</v>
+        <v>189.966156</v>
       </c>
       <c r="C20" t="n">
-        <v>187.466385</v>
+        <v>187.4664</v>
       </c>
     </row>
     <row r="21">
@@ -3634,7 +3634,7 @@
         <v>191.843918</v>
       </c>
       <c r="C21" t="n">
-        <v>187.771698</v>
+        <v>187.771683</v>
       </c>
     </row>
     <row r="22">
@@ -3642,10 +3642,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="n">
-        <v>189.966171</v>
+        <v>189.966156</v>
       </c>
       <c r="C22" t="n">
-        <v>185.787109</v>
+        <v>185.787125</v>
       </c>
     </row>
     <row r="23">
@@ -3653,7 +3653,7 @@
         <v>24</v>
       </c>
       <c r="B23" t="n">
-        <v>190.51384</v>
+        <v>190.513824</v>
       </c>
       <c r="C23" t="n">
         <v>187.008392</v>
@@ -3667,7 +3667,7 @@
         <v>189.418488</v>
       </c>
       <c r="C24" t="n">
-        <v>187.466385</v>
+        <v>187.4664</v>
       </c>
     </row>
     <row r="25">
@@ -3678,7 +3678,7 @@
         <v>191.609192</v>
       </c>
       <c r="C25" t="n">
-        <v>187.619019</v>
+        <v>187.619049</v>
       </c>
     </row>
     <row r="26">
@@ -3689,7 +3689,7 @@
         <v>191.609192</v>
       </c>
       <c r="C26" t="n">
-        <v>186.397766</v>
+        <v>186.397751</v>
       </c>
     </row>
     <row r="27">
@@ -3708,7 +3708,7 @@
         <v>29</v>
       </c>
       <c r="B28" t="n">
-        <v>189.261993</v>
+        <v>189.262009</v>
       </c>
       <c r="C28" t="n">
         <v>188.687653</v>
@@ -3719,7 +3719,7 @@
         <v>30</v>
       </c>
       <c r="B29" t="n">
-        <v>188.557846</v>
+        <v>188.557861</v>
       </c>
       <c r="C29" t="n">
         <v>187.161057</v>
@@ -3733,7 +3733,7 @@
         <v>188.244904</v>
       </c>
       <c r="C30" t="n">
-        <v>185.787109</v>
+        <v>185.787125</v>
       </c>
     </row>
     <row r="31">
@@ -3741,7 +3741,7 @@
         <v>32</v>
       </c>
       <c r="B31" t="n">
-        <v>189.966171</v>
+        <v>189.966156</v>
       </c>
       <c r="C31" t="n">
         <v>188.687653</v>
@@ -3755,7 +3755,7 @@
         <v>188.949051</v>
       </c>
       <c r="C32" t="n">
-        <v>188.535019</v>
+        <v>188.535004</v>
       </c>
     </row>
     <row r="33">
@@ -3766,7 +3766,7 @@
         <v>191.061523</v>
       </c>
       <c r="C33" t="n">
-        <v>193.267456</v>
+        <v>193.267441</v>
       </c>
     </row>
     <row r="34">
@@ -3774,10 +3774,10 @@
         <v>35</v>
       </c>
       <c r="B34" t="n">
-        <v>192.31337</v>
+        <v>192.313354</v>
       </c>
       <c r="C34" t="n">
-        <v>193.420105</v>
+        <v>193.42012</v>
       </c>
     </row>
     <row r="35">
@@ -3785,10 +3785,10 @@
         <v>36</v>
       </c>
       <c r="B35" t="n">
-        <v>194.660553</v>
+        <v>194.660568</v>
       </c>
       <c r="C35" t="n">
-        <v>196.625992</v>
+        <v>196.625977</v>
       </c>
     </row>
     <row r="36">
@@ -3807,10 +3807,10 @@
         <v>38</v>
       </c>
       <c r="B37" t="n">
-        <v>191.687424</v>
+        <v>191.687439</v>
       </c>
       <c r="C37" t="n">
-        <v>185.481781</v>
+        <v>185.481796</v>
       </c>
     </row>
     <row r="38">
@@ -3818,7 +3818,7 @@
         <v>39</v>
       </c>
       <c r="B38" t="n">
-        <v>192.861038</v>
+        <v>192.861023</v>
       </c>
       <c r="C38" t="n">
         <v>182.428604</v>
@@ -3829,7 +3829,7 @@
         <v>40</v>
       </c>
       <c r="B39" t="n">
-        <v>193.252243</v>
+        <v>193.252228</v>
       </c>
       <c r="C39" t="n">
         <v>180.444016</v>
@@ -3840,7 +3840,7 @@
         <v>41</v>
       </c>
       <c r="B40" t="n">
-        <v>194.504089</v>
+        <v>194.504074</v>
       </c>
       <c r="C40" t="n">
         <v>186.245102</v>
@@ -3865,7 +3865,7 @@
         <v>189.731445</v>
       </c>
       <c r="C42" t="n">
-        <v>183.19191</v>
+        <v>183.191895</v>
       </c>
     </row>
     <row r="43">
@@ -3873,7 +3873,7 @@
         <v>44</v>
       </c>
       <c r="B43" t="n">
-        <v>192.626328</v>
+        <v>192.626312</v>
       </c>
       <c r="C43" t="n">
         <v>182.733917</v>
@@ -3884,7 +3884,7 @@
         <v>45</v>
       </c>
       <c r="B44" t="n">
-        <v>190.748581</v>
+        <v>190.74855</v>
       </c>
       <c r="C44" t="n">
         <v>181.665298</v>
@@ -3920,7 +3920,7 @@
         <v>189.34024</v>
       </c>
       <c r="C47" t="n">
-        <v>180.749359</v>
+        <v>180.749344</v>
       </c>
     </row>
     <row r="48">
@@ -3931,7 +3931,7 @@
         <v>191.53096</v>
       </c>
       <c r="C48" t="n">
-        <v>180.749359</v>
+        <v>180.749344</v>
       </c>
     </row>
     <row r="49">
@@ -3950,7 +3950,7 @@
         <v>51</v>
       </c>
       <c r="B50" t="n">
-        <v>192.626328</v>
+        <v>192.626312</v>
       </c>
       <c r="C50" t="n">
         <v>180.902008</v>
@@ -3961,10 +3961,10 @@
         <v>52</v>
       </c>
       <c r="B51" t="n">
-        <v>193.095764</v>
+        <v>193.095749</v>
       </c>
       <c r="C51" t="n">
-        <v>180.291351</v>
+        <v>180.291367</v>
       </c>
     </row>
     <row r="52">
@@ -3972,7 +3972,7 @@
         <v>53</v>
       </c>
       <c r="B52" t="n">
-        <v>193.799911</v>
+        <v>193.799927</v>
       </c>
       <c r="C52" t="n">
         <v>183.344559</v>
@@ -4008,7 +4008,7 @@
         <v>191.306274</v>
       </c>
       <c r="C55" t="n">
-        <v>182.792404</v>
+        <v>182.792419</v>
       </c>
     </row>
     <row r="56">
@@ -4019,7 +4019,7 @@
         <v>191.795761</v>
       </c>
       <c r="C56" t="n">
-        <v>183.594131</v>
+        <v>183.594116</v>
       </c>
     </row>
     <row r="57">
@@ -4030,7 +4030,7 @@
         <v>191.714172</v>
       </c>
       <c r="C57" t="n">
-        <v>185.35791</v>
+        <v>185.357895</v>
       </c>
     </row>
     <row r="58">
@@ -4041,7 +4041,7 @@
         <v>190.572052</v>
       </c>
       <c r="C58" t="n">
-        <v>184.075165</v>
+        <v>184.07515</v>
       </c>
     </row>
     <row r="59">
@@ -4052,7 +4052,7 @@
         <v>186.493027</v>
       </c>
       <c r="C59" t="n">
-        <v>181.349304</v>
+        <v>181.349289</v>
       </c>
     </row>
     <row r="60">
@@ -4074,7 +4074,7 @@
         <v>184.208771</v>
       </c>
       <c r="C61" t="n">
-        <v>181.669998</v>
+        <v>181.669983</v>
       </c>
     </row>
     <row r="62">
@@ -4085,7 +4085,7 @@
         <v>183.474533</v>
       </c>
       <c r="C62" t="n">
-        <v>179.58551</v>
+        <v>179.585526</v>
       </c>
     </row>
     <row r="63">
@@ -4096,7 +4096,7 @@
         <v>183.882431</v>
       </c>
       <c r="C63" t="n">
-        <v>178.142426</v>
+        <v>178.14241</v>
       </c>
     </row>
     <row r="64">
@@ -4140,7 +4140,7 @@
         <v>182.495575</v>
       </c>
       <c r="C67" t="n">
-        <v>178.142426</v>
+        <v>178.14241</v>
       </c>
     </row>
     <row r="68">
@@ -4148,7 +4148,7 @@
         <v>69</v>
       </c>
       <c r="B68" t="n">
-        <v>182.985062</v>
+        <v>182.985046</v>
       </c>
       <c r="C68" t="n">
         <v>180.868271</v>
@@ -4192,10 +4192,10 @@
         <v>73</v>
       </c>
       <c r="B72" t="n">
-        <v>180.211319</v>
+        <v>180.211304</v>
       </c>
       <c r="C72" t="n">
-        <v>182.311371</v>
+        <v>182.311356</v>
       </c>
     </row>
     <row r="73">
@@ -4206,7 +4206,7 @@
         <v>180.374481</v>
       </c>
       <c r="C73" t="n">
-        <v>181.990692</v>
+        <v>181.990677</v>
       </c>
     </row>
     <row r="74">
@@ -4214,10 +4214,10 @@
         <v>75</v>
       </c>
       <c r="B74" t="n">
-        <v>181.924515</v>
+        <v>181.9245</v>
       </c>
       <c r="C74" t="n">
-        <v>184.075165</v>
+        <v>184.07515</v>
       </c>
     </row>
     <row r="75">
@@ -4239,7 +4239,7 @@
         <v>182.577164</v>
       </c>
       <c r="C76" t="n">
-        <v>188.885498</v>
+        <v>188.885483</v>
       </c>
     </row>
     <row r="77">
@@ -4250,7 +4250,7 @@
         <v>182.577164</v>
       </c>
       <c r="C77" t="n">
-        <v>190.007889</v>
+        <v>190.007904</v>
       </c>
     </row>
     <row r="78">
@@ -4261,7 +4261,7 @@
         <v>183.229797</v>
       </c>
       <c r="C78" t="n">
-        <v>192.894089</v>
+        <v>192.894104</v>
       </c>
     </row>
     <row r="79">
@@ -4283,7 +4283,7 @@
         <v>178.498123</v>
       </c>
       <c r="C80" t="n">
-        <v>187.602722</v>
+        <v>187.602737</v>
       </c>
     </row>
     <row r="81">
@@ -4291,10 +4291,10 @@
         <v>82</v>
       </c>
       <c r="B81" t="n">
-        <v>179.069199</v>
+        <v>179.069183</v>
       </c>
       <c r="C81" t="n">
-        <v>186.319962</v>
+        <v>186.319977</v>
       </c>
     </row>
     <row r="82">
@@ -4302,7 +4302,7 @@
         <v>83</v>
       </c>
       <c r="B82" t="n">
-        <v>175.72438</v>
+        <v>175.724396</v>
       </c>
       <c r="C82" t="n">
         <v>183.433792</v>
@@ -4313,10 +4313,10 @@
         <v>84</v>
       </c>
       <c r="B83" t="n">
-        <v>177.763901</v>
+        <v>177.763885</v>
       </c>
       <c r="C83" t="n">
-        <v>181.669998</v>
+        <v>181.669983</v>
       </c>
     </row>
     <row r="84">
@@ -4338,7 +4338,7 @@
         <v>176.05072</v>
       </c>
       <c r="C85" t="n">
-        <v>181.990692</v>
+        <v>181.990677</v>
       </c>
     </row>
     <row r="86">
@@ -4346,7 +4346,7 @@
         <v>87</v>
       </c>
       <c r="B86" t="n">
-        <v>176.132294</v>
+        <v>176.132278</v>
       </c>
       <c r="C86" t="n">
         <v>183.433792</v>
@@ -4368,7 +4368,7 @@
         <v>89</v>
       </c>
       <c r="B88" t="n">
-        <v>176.784943</v>
+        <v>176.784927</v>
       </c>
       <c r="C88" t="n">
         <v>187.121704</v>
@@ -4382,7 +4382,7 @@
         <v>175.561234</v>
       </c>
       <c r="C89" t="n">
-        <v>186.961349</v>
+        <v>186.961365</v>
       </c>
     </row>
     <row r="90">
@@ -4390,10 +4390,10 @@
         <v>91</v>
       </c>
       <c r="B90" t="n">
-        <v>174.990173</v>
+        <v>174.990158</v>
       </c>
       <c r="C90" t="n">
-        <v>186.640656</v>
+        <v>186.640671</v>
       </c>
     </row>
     <row r="91">
@@ -4404,7 +4404,7 @@
         <v>175.561234</v>
       </c>
       <c r="C91" t="n">
-        <v>185.999298</v>
+        <v>185.999283</v>
       </c>
     </row>
     <row r="92">
@@ -4415,7 +4415,7 @@
         <v>174.255951</v>
       </c>
       <c r="C92" t="n">
-        <v>183.594131</v>
+        <v>183.594116</v>
       </c>
     </row>
     <row r="93">
@@ -4426,7 +4426,7 @@
         <v>176.540192</v>
       </c>
       <c r="C93" t="n">
-        <v>185.197586</v>
+        <v>185.197571</v>
       </c>
     </row>
     <row r="94">
@@ -4437,7 +4437,7 @@
         <v>176.458618</v>
       </c>
       <c r="C94" t="n">
-        <v>184.075165</v>
+        <v>184.07515</v>
       </c>
     </row>
     <row r="95">
@@ -4445,10 +4445,10 @@
         <v>96</v>
       </c>
       <c r="B95" t="n">
-        <v>176.132294</v>
+        <v>176.132278</v>
       </c>
       <c r="C95" t="n">
-        <v>185.35791</v>
+        <v>185.357895</v>
       </c>
     </row>
     <row r="96">
@@ -4456,10 +4456,10 @@
         <v>97</v>
       </c>
       <c r="B96" t="n">
-        <v>176.94809</v>
+        <v>176.948105</v>
       </c>
       <c r="C96" t="n">
-        <v>185.037231</v>
+        <v>185.037216</v>
       </c>
     </row>
     <row r="97">
@@ -4467,7 +4467,7 @@
         <v>98</v>
       </c>
       <c r="B97" t="n">
-        <v>173.603317</v>
+        <v>173.603302</v>
       </c>
       <c r="C97" t="n">
         <v>182.632065</v>
@@ -4481,7 +4481,7 @@
         <v>173.276978</v>
       </c>
       <c r="C98" t="n">
-        <v>181.669998</v>
+        <v>181.669983</v>
       </c>
     </row>
     <row r="99">
@@ -4503,7 +4503,7 @@
         <v>168.953217</v>
       </c>
       <c r="C100" t="n">
-        <v>174.935547</v>
+        <v>174.935532</v>
       </c>
     </row>
     <row r="101">
@@ -4511,7 +4511,7 @@
         <v>102</v>
       </c>
       <c r="B101" t="n">
-        <v>168.871628</v>
+        <v>168.871643</v>
       </c>
       <c r="C101" t="n">
         <v>175.737259</v>
@@ -4533,7 +4533,7 @@
         <v>104</v>
       </c>
       <c r="B103" t="n">
-        <v>176.295456</v>
+        <v>176.295471</v>
       </c>
       <c r="C103" t="n">
         <v>178.302765</v>
@@ -4555,10 +4555,10 @@
         <v>106</v>
       </c>
       <c r="B105" t="n">
-        <v>175.72438</v>
+        <v>175.724396</v>
       </c>
       <c r="C105" t="n">
-        <v>177.982071</v>
+        <v>177.982086</v>
       </c>
     </row>
     <row r="106">
@@ -4591,7 +4591,7 @@
         <v>177.84549</v>
       </c>
       <c r="C108" t="n">
-        <v>177.02002</v>
+        <v>177.020004</v>
       </c>
     </row>
     <row r="109">
@@ -4613,7 +4613,7 @@
         <v>178.253387</v>
       </c>
       <c r="C110" t="n">
-        <v>177.340714</v>
+        <v>177.340698</v>
       </c>
     </row>
     <row r="111">
@@ -4643,10 +4643,10 @@
         <v>114</v>
       </c>
       <c r="B113" t="n">
-        <v>173.929626</v>
+        <v>173.929611</v>
       </c>
       <c r="C113" t="n">
-        <v>175.897583</v>
+        <v>175.897598</v>
       </c>
     </row>
     <row r="114">
@@ -4657,7 +4657,7 @@
         <v>171.971695</v>
       </c>
       <c r="C114" t="n">
-        <v>175.095871</v>
+        <v>175.095886</v>
       </c>
     </row>
     <row r="115">
@@ -4665,10 +4665,10 @@
         <v>116</v>
       </c>
       <c r="B115" t="n">
-        <v>170.258499</v>
+        <v>170.258484</v>
       </c>
       <c r="C115" t="n">
-        <v>175.416565</v>
+        <v>175.41658</v>
       </c>
     </row>
     <row r="116">
@@ -4676,7 +4676,7 @@
         <v>117</v>
       </c>
       <c r="B116" t="n">
-        <v>167.811096</v>
+        <v>167.811081</v>
       </c>
       <c r="C116" t="n">
         <v>173.171753</v>
@@ -4687,10 +4687,10 @@
         <v>118</v>
       </c>
       <c r="B117" t="n">
-        <v>168.626892</v>
+        <v>168.626877</v>
       </c>
       <c r="C117" t="n">
-        <v>174.294144</v>
+        <v>174.294159</v>
       </c>
     </row>
     <row r="118">
@@ -4698,10 +4698,10 @@
         <v>119</v>
       </c>
       <c r="B118" t="n">
-        <v>166.0979</v>
+        <v>166.097916</v>
       </c>
       <c r="C118" t="n">
-        <v>174.294144</v>
+        <v>174.294159</v>
       </c>
     </row>
     <row r="119">
@@ -4712,7 +4712,7 @@
         <v>161.243851</v>
       </c>
       <c r="C119" t="n">
-        <v>173.813126</v>
+        <v>173.813141</v>
       </c>
     </row>
     <row r="120">
@@ -4723,7 +4723,7 @@
         <v>162.018875</v>
       </c>
       <c r="C120" t="n">
-        <v>173.652802</v>
+        <v>173.652786</v>
       </c>
     </row>
     <row r="121">
@@ -4734,7 +4734,7 @@
         <v>162.018875</v>
       </c>
       <c r="C121" t="n">
-        <v>174.454498</v>
+        <v>174.454514</v>
       </c>
     </row>
     <row r="122">
@@ -4745,7 +4745,7 @@
         <v>162.957047</v>
       </c>
       <c r="C122" t="n">
-        <v>175.897583</v>
+        <v>175.897598</v>
       </c>
     </row>
     <row r="123">
@@ -4756,7 +4756,7 @@
         <v>162.671509</v>
       </c>
       <c r="C123" t="n">
-        <v>175.416565</v>
+        <v>175.41658</v>
       </c>
     </row>
     <row r="124">
@@ -4811,7 +4811,7 @@
         <v>157.001663</v>
       </c>
       <c r="C128" t="n">
-        <v>180.226913</v>
+        <v>180.226898</v>
       </c>
     </row>
     <row r="129">
@@ -4819,7 +4819,7 @@
         <v>130</v>
       </c>
       <c r="B129" t="n">
-        <v>158.102997</v>
+        <v>158.103012</v>
       </c>
       <c r="C129" t="n">
         <v>182.151031</v>
@@ -4841,10 +4841,10 @@
         <v>132</v>
       </c>
       <c r="B131" t="n">
-        <v>159.122757</v>
+        <v>159.122772</v>
       </c>
       <c r="C131" t="n">
-        <v>183.754456</v>
+        <v>183.754471</v>
       </c>
     </row>
     <row r="132">
@@ -4866,7 +4866,7 @@
         <v>158.06221</v>
       </c>
       <c r="C133" t="n">
-        <v>181.990692</v>
+        <v>181.990677</v>
       </c>
     </row>
     <row r="134">
@@ -4874,10 +4874,10 @@
         <v>135</v>
       </c>
       <c r="B134" t="n">
-        <v>159.163544</v>
+        <v>159.163559</v>
       </c>
       <c r="C134" t="n">
-        <v>180.707932</v>
+        <v>180.707916</v>
       </c>
     </row>
     <row r="135">
@@ -4885,7 +4885,7 @@
         <v>136</v>
       </c>
       <c r="B135" t="n">
-        <v>144.642212</v>
+        <v>144.642227</v>
       </c>
       <c r="C135" t="n">
         <v>177.661392</v>
@@ -4899,7 +4899,7 @@
         <v>148.394928</v>
       </c>
       <c r="C136" t="n">
-        <v>179.74585</v>
+        <v>179.745865</v>
       </c>
     </row>
     <row r="137">
@@ -4907,7 +4907,7 @@
         <v>138</v>
       </c>
       <c r="B137" t="n">
-        <v>147.456757</v>
+        <v>147.456741</v>
       </c>
       <c r="C137" t="n">
         <v>180.387238</v>
@@ -4918,10 +4918,10 @@
         <v>139</v>
       </c>
       <c r="B138" t="n">
-        <v>149.985748</v>
+        <v>149.985764</v>
       </c>
       <c r="C138" t="n">
-        <v>181.669998</v>
+        <v>181.669983</v>
       </c>
     </row>
     <row r="139">
@@ -4932,7 +4932,7 @@
         <v>151.94368</v>
       </c>
       <c r="C139" t="n">
-        <v>185.037231</v>
+        <v>185.037216</v>
       </c>
     </row>
     <row r="140">
@@ -4954,7 +4954,7 @@
         <v>152.800278</v>
       </c>
       <c r="C141" t="n">
-        <v>186.319962</v>
+        <v>186.319977</v>
       </c>
     </row>
     <row r="142">
@@ -4965,7 +4965,7 @@
         <v>153.208176</v>
       </c>
       <c r="C142" t="n">
-        <v>188.564804</v>
+        <v>188.564789</v>
       </c>
     </row>
     <row r="143">
@@ -4984,7 +4984,7 @@
         <v>145</v>
       </c>
       <c r="B144" t="n">
-        <v>151.127884</v>
+        <v>151.127869</v>
       </c>
       <c r="C144" t="n">
         <v>189.52684</v>
@@ -5020,7 +5020,7 @@
         <v>149.12915</v>
       </c>
       <c r="C147" t="n">
-        <v>185.037231</v>
+        <v>185.037216</v>
       </c>
     </row>
     <row r="148">
@@ -5028,7 +5028,7 @@
         <v>149</v>
       </c>
       <c r="B148" t="n">
-        <v>147.53833</v>
+        <v>147.538345</v>
       </c>
       <c r="C148" t="n">
         <v>177.180344</v>
@@ -5039,7 +5039,7 @@
         <v>150</v>
       </c>
       <c r="B149" t="n">
-        <v>147.905441</v>
+        <v>147.905457</v>
       </c>
       <c r="C149" t="n">
         <v>180.387238</v>
@@ -5053,7 +5053,7 @@
         <v>147.415955</v>
       </c>
       <c r="C150" t="n">
-        <v>178.142426</v>
+        <v>178.14241</v>
       </c>
     </row>
     <row r="151">
@@ -5083,7 +5083,7 @@
         <v>154</v>
       </c>
       <c r="B153" t="n">
-        <v>150.026535</v>
+        <v>150.02652</v>
       </c>
       <c r="C153" t="n">
         <v>178.302765</v>
@@ -5097,7 +5097,7 @@
         <v>147.008057</v>
       </c>
       <c r="C154" t="n">
-        <v>176.538986</v>
+        <v>176.538971</v>
       </c>
     </row>
     <row r="155">
@@ -5116,10 +5116,10 @@
         <v>157</v>
       </c>
       <c r="B156" t="n">
-        <v>148.313354</v>
+        <v>148.313339</v>
       </c>
       <c r="C156" t="n">
-        <v>176.218277</v>
+        <v>176.218292</v>
       </c>
     </row>
     <row r="157">
@@ -5130,7 +5130,7 @@
         <v>149.210724</v>
       </c>
       <c r="C157" t="n">
-        <v>175.095871</v>
+        <v>175.095886</v>
       </c>
     </row>
     <row r="158">
@@ -5138,7 +5138,7 @@
         <v>159</v>
       </c>
       <c r="B158" t="n">
-        <v>150.230484</v>
+        <v>150.230469</v>
       </c>
       <c r="C158" t="n">
         <v>175.737259</v>
@@ -5149,7 +5149,7 @@
         <v>160</v>
       </c>
       <c r="B159" t="n">
-        <v>150.719955</v>
+        <v>150.719971</v>
       </c>
       <c r="C159" t="n">
         <v>177.661392</v>
@@ -5163,7 +5163,7 @@
         <v>153.616074</v>
       </c>
       <c r="C160" t="n">
-        <v>176.057953</v>
+        <v>176.057968</v>
       </c>
     </row>
     <row r="161">
@@ -5174,7 +5174,7 @@
         <v>151.94368</v>
       </c>
       <c r="C161" t="n">
-        <v>175.897583</v>
+        <v>175.897598</v>
       </c>
     </row>
     <row r="162">
@@ -5193,7 +5193,7 @@
         <v>164</v>
       </c>
       <c r="B163" t="n">
-        <v>157.817459</v>
+        <v>157.817474</v>
       </c>
       <c r="C163" t="n">
         <v>175.256226</v>
@@ -5218,7 +5218,7 @@
         <v>157.001663</v>
       </c>
       <c r="C165" t="n">
-        <v>153.770126</v>
+        <v>153.770096</v>
       </c>
     </row>
     <row r="166">
@@ -5226,10 +5226,10 @@
         <v>167</v>
       </c>
       <c r="B166" t="n">
-        <v>156.634552</v>
+        <v>156.634567</v>
       </c>
       <c r="C166" t="n">
-        <v>151.926147</v>
+        <v>151.926132</v>
       </c>
     </row>
     <row r="167">
@@ -5273,7 +5273,7 @@
         <v>148.272552</v>
       </c>
       <c r="C170" t="n">
-        <v>147.917542</v>
+        <v>147.917526</v>
       </c>
     </row>
     <row r="171">
@@ -5281,10 +5281,10 @@
         <v>172</v>
       </c>
       <c r="B171" t="n">
-        <v>150.719955</v>
+        <v>150.719971</v>
       </c>
       <c r="C171" t="n">
-        <v>148.158051</v>
+        <v>148.158066</v>
       </c>
     </row>
     <row r="172">
@@ -5292,7 +5292,7 @@
         <v>173</v>
       </c>
       <c r="B172" t="n">
-        <v>144.397476</v>
+        <v>144.397491</v>
       </c>
       <c r="C172" t="n">
         <v>148.799438</v>
@@ -5325,7 +5325,7 @@
         <v>176</v>
       </c>
       <c r="B175" t="n">
-        <v>137.096039</v>
+        <v>137.096024</v>
       </c>
       <c r="C175" t="n">
         <v>148.39856</v>
@@ -5350,7 +5350,7 @@
         <v>138.646057</v>
       </c>
       <c r="C177" t="n">
-        <v>147.917542</v>
+        <v>147.917526</v>
       </c>
     </row>
     <row r="178">
@@ -5361,7 +5361,7 @@
         <v>137.748672</v>
       </c>
       <c r="C178" t="n">
-        <v>149.200287</v>
+        <v>149.200302</v>
       </c>
     </row>
     <row r="179">
@@ -5391,7 +5391,7 @@
         <v>182</v>
       </c>
       <c r="B181" t="n">
-        <v>144.397476</v>
+        <v>144.397491</v>
       </c>
       <c r="C181" t="n">
         <v>151.28476</v>
@@ -5405,7 +5405,7 @@
         <v>138.727646</v>
       </c>
       <c r="C182" t="n">
-        <v>152.888199</v>
+        <v>152.888214</v>
       </c>
     </row>
     <row r="183">
@@ -5416,7 +5416,7 @@
         <v>135.709167</v>
       </c>
       <c r="C183" t="n">
-        <v>151.364944</v>
+        <v>151.364929</v>
       </c>
     </row>
     <row r="184">
@@ -5424,7 +5424,7 @@
         <v>185</v>
       </c>
       <c r="B184" t="n">
-        <v>138.686859</v>
+        <v>138.686844</v>
       </c>
       <c r="C184" t="n">
         <v>152.968384</v>
@@ -5438,7 +5438,7 @@
         <v>140.563202</v>
       </c>
       <c r="C185" t="n">
-        <v>155.934738</v>
+        <v>155.934753</v>
       </c>
     </row>
     <row r="186">
@@ -5446,10 +5446,10 @@
         <v>187</v>
       </c>
       <c r="B186" t="n">
-        <v>138.768433</v>
+        <v>138.768448</v>
       </c>
       <c r="C186" t="n">
-        <v>151.364944</v>
+        <v>151.364929</v>
       </c>
     </row>
     <row r="187">
@@ -5457,10 +5457,10 @@
         <v>188</v>
       </c>
       <c r="B187" t="n">
-        <v>137.626312</v>
+        <v>137.626297</v>
       </c>
       <c r="C187" t="n">
-        <v>151.525269</v>
+        <v>151.525284</v>
       </c>
     </row>
     <row r="188">
@@ -5479,7 +5479,7 @@
         <v>190</v>
       </c>
       <c r="B189" t="n">
-        <v>137.667099</v>
+        <v>137.667084</v>
       </c>
       <c r="C189" t="n">
         <v>150.402878</v>
@@ -5501,10 +5501,10 @@
         <v>192</v>
       </c>
       <c r="B191" t="n">
-        <v>129.386688</v>
+        <v>129.386673</v>
       </c>
       <c r="C191" t="n">
-        <v>148.158051</v>
+        <v>148.158066</v>
       </c>
     </row>
     <row r="192">
@@ -5512,7 +5512,7 @@
         <v>193</v>
       </c>
       <c r="B192" t="n">
-        <v>121.310188</v>
+        <v>121.310196</v>
       </c>
       <c r="C192" t="n">
         <v>150.483047</v>
@@ -5523,7 +5523,7 @@
         <v>194</v>
       </c>
       <c r="B193" t="n">
-        <v>116.945656</v>
+        <v>116.945648</v>
       </c>
       <c r="C193" t="n">
         <v>146.795135</v>
@@ -5537,7 +5537,7 @@
         <v>115.925896</v>
       </c>
       <c r="C194" t="n">
-        <v>141.824432</v>
+        <v>141.824448</v>
       </c>
     </row>
     <row r="195">
@@ -5578,7 +5578,7 @@
         <v>199</v>
       </c>
       <c r="B198" t="n">
-        <v>113.886375</v>
+        <v>113.886383</v>
       </c>
       <c r="C198" t="n">
         <v>142.546005</v>
@@ -5589,10 +5589,10 @@
         <v>200</v>
       </c>
       <c r="B199" t="n">
-        <v>115.436417</v>
+        <v>115.436401</v>
       </c>
       <c r="C199" t="n">
-        <v>143.588242</v>
+        <v>143.588226</v>
       </c>
     </row>
     <row r="200">
@@ -5600,7 +5600,7 @@
         <v>201</v>
       </c>
       <c r="B200" t="n">
-        <v>112.254776</v>
+        <v>112.254768</v>
       </c>
       <c r="C200" t="n">
         <v>143.748581</v>
@@ -5614,7 +5614,7 @@
         <v>110.704735</v>
       </c>
       <c r="C201" t="n">
-        <v>143.187378</v>
+        <v>143.187393</v>
       </c>
     </row>
     <row r="202">
@@ -5622,10 +5622,10 @@
         <v>203</v>
       </c>
       <c r="B202" t="n">
-        <v>107.033615</v>
+        <v>107.033607</v>
       </c>
       <c r="C202" t="n">
-        <v>142.70636</v>
+        <v>142.706345</v>
       </c>
     </row>
     <row r="203">
@@ -5688,7 +5688,7 @@
         <v>209</v>
       </c>
       <c r="B208" t="n">
-        <v>104.586189</v>
+        <v>104.586197</v>
       </c>
       <c r="C208" t="n">
         <v>144.069275</v>
@@ -5702,7 +5702,7 @@
         <v>103.280914</v>
       </c>
       <c r="C209" t="n">
-        <v>139.900314</v>
+        <v>139.90033</v>
       </c>
     </row>
     <row r="210">
@@ -5713,7 +5713,7 @@
         <v>103.076958</v>
       </c>
       <c r="C210" t="n">
-        <v>122.102127</v>
+        <v>122.102119</v>
       </c>
     </row>
     <row r="211">
@@ -5724,7 +5724,7 @@
         <v>108.134956</v>
       </c>
       <c r="C211" t="n">
-        <v>123.625389</v>
+        <v>123.625381</v>
       </c>
     </row>
     <row r="212">
@@ -5732,10 +5732,10 @@
         <v>213</v>
       </c>
       <c r="B212" t="n">
-        <v>111.765274</v>
+        <v>111.765282</v>
       </c>
       <c r="C212" t="n">
-        <v>127.874512</v>
+        <v>127.874519</v>
       </c>
     </row>
     <row r="213">
@@ -5746,7 +5746,7 @@
         <v>110.337624</v>
       </c>
       <c r="C213" t="n">
-        <v>130.199509</v>
+        <v>130.199493</v>
       </c>
     </row>
     <row r="214">
@@ -5765,7 +5765,7 @@
         <v>216</v>
       </c>
       <c r="B215" t="n">
-        <v>117.516716</v>
+        <v>117.516708</v>
       </c>
       <c r="C215" t="n">
         <v>132.524506</v>
@@ -5776,10 +5776,10 @@
         <v>217</v>
       </c>
       <c r="B216" t="n">
-        <v>117.027229</v>
+        <v>117.027222</v>
       </c>
       <c r="C216" t="n">
-        <v>133.326202</v>
+        <v>133.326218</v>
       </c>
     </row>
     <row r="217">
@@ -5798,7 +5798,7 @@
         <v>219</v>
       </c>
       <c r="B218" t="n">
-        <v>116.619316</v>
+        <v>116.619324</v>
       </c>
       <c r="C218" t="n">
         <v>130.440018</v>
@@ -5809,7 +5809,7 @@
         <v>220</v>
       </c>
       <c r="B219" t="n">
-        <v>115.028496</v>
+        <v>115.028503</v>
       </c>
       <c r="C219" t="n">
         <v>129.79863</v>
@@ -5823,7 +5823,7 @@
         <v>117.598282</v>
       </c>
       <c r="C220" t="n">
-        <v>129.237427</v>
+        <v>129.237442</v>
       </c>
     </row>
     <row r="221">
@@ -5834,7 +5834,7 @@
         <v>113.519257</v>
       </c>
       <c r="C221" t="n">
-        <v>127.874512</v>
+        <v>127.874519</v>
       </c>
     </row>
     <row r="222">
@@ -5845,7 +5845,7 @@
         <v>111.602127</v>
       </c>
       <c r="C222" t="n">
-        <v>127.553833</v>
+        <v>127.553825</v>
       </c>
     </row>
     <row r="223">
@@ -5853,10 +5853,10 @@
         <v>224</v>
       </c>
       <c r="B223" t="n">
-        <v>110.500786</v>
+        <v>110.500778</v>
       </c>
       <c r="C223" t="n">
-        <v>128.756393</v>
+        <v>128.756409</v>
       </c>
     </row>
     <row r="224">
@@ -5878,7 +5878,7 @@
         <v>107.441513</v>
       </c>
       <c r="C225" t="n">
-        <v>127.874512</v>
+        <v>127.874519</v>
       </c>
     </row>
     <row r="226">
@@ -5886,10 +5886,10 @@
         <v>227</v>
       </c>
       <c r="B226" t="n">
-        <v>108.461266</v>
+        <v>108.461273</v>
       </c>
       <c r="C226" t="n">
-        <v>127.874512</v>
+        <v>127.874519</v>
       </c>
     </row>
     <row r="227">
@@ -5908,7 +5908,7 @@
         <v>229</v>
       </c>
       <c r="B228" t="n">
-        <v>111.071838</v>
+        <v>111.071846</v>
       </c>
       <c r="C228" t="n">
         <v>131.08139</v>
@@ -5919,7 +5919,7 @@
         <v>230</v>
       </c>
       <c r="B229" t="n">
-        <v>110.133667</v>
+        <v>110.133675</v>
       </c>
       <c r="C229" t="n">
         <v>131.08139</v>
@@ -5944,7 +5944,7 @@
         <v>107.441513</v>
       </c>
       <c r="C231" t="n">
-        <v>130.359848</v>
+        <v>130.359833</v>
       </c>
     </row>
     <row r="232">
@@ -5952,10 +5952,10 @@
         <v>233</v>
       </c>
       <c r="B232" t="n">
-        <v>107.196777</v>
+        <v>107.19677</v>
       </c>
       <c r="C232" t="n">
-        <v>130.359848</v>
+        <v>130.359833</v>
       </c>
     </row>
     <row r="233">
@@ -5966,7 +5966,7 @@
         <v>108.706017</v>
       </c>
       <c r="C233" t="n">
-        <v>126.671921</v>
+        <v>126.671944</v>
       </c>
     </row>
     <row r="234">
@@ -5977,7 +5977,7 @@
         <v>108.583641</v>
       </c>
       <c r="C234" t="n">
-        <v>127.152954</v>
+        <v>127.152969</v>
       </c>
     </row>
     <row r="235">
@@ -5996,7 +5996,7 @@
         <v>237</v>
       </c>
       <c r="B236" t="n">
-        <v>111.316589</v>
+        <v>111.316582</v>
       </c>
       <c r="C236" t="n">
         <v>126.992615</v>
@@ -6018,10 +6018,10 @@
         <v>239</v>
       </c>
       <c r="B238" t="n">
-        <v>112.050812</v>
+        <v>112.050827</v>
       </c>
       <c r="C238" t="n">
-        <v>127.152954</v>
+        <v>127.152969</v>
       </c>
     </row>
     <row r="239">
@@ -6029,7 +6029,7 @@
         <v>240</v>
       </c>
       <c r="B239" t="n">
-        <v>114.2127</v>
+        <v>114.212692</v>
       </c>
       <c r="C239" t="n">
         <v>129.558136</v>
@@ -6043,7 +6043,7 @@
         <v>113.519257</v>
       </c>
       <c r="C240" t="n">
-        <v>129.077087</v>
+        <v>129.077103</v>
       </c>
     </row>
     <row r="241">
@@ -6054,7 +6054,7 @@
         <v>113.396889</v>
       </c>
       <c r="C241" t="n">
-        <v>128.676239</v>
+        <v>128.676224</v>
       </c>
     </row>
     <row r="242">
@@ -6073,10 +6073,10 @@
         <v>244</v>
       </c>
       <c r="B243" t="n">
-        <v>110.459984</v>
+        <v>110.459991</v>
       </c>
       <c r="C243" t="n">
-        <v>127.633995</v>
+        <v>127.633987</v>
       </c>
     </row>
     <row r="244">
@@ -6087,7 +6087,7 @@
         <v>112.213982</v>
       </c>
       <c r="C244" t="n">
-        <v>122.663322</v>
+        <v>122.663315</v>
       </c>
     </row>
     <row r="245">
@@ -6106,7 +6106,7 @@
         <v>247</v>
       </c>
       <c r="B246" t="n">
-        <v>105.442795</v>
+        <v>105.442787</v>
       </c>
       <c r="C246" t="n">
         <v>117.77282</v>
@@ -6120,7 +6120,7 @@
         <v>104.626984</v>
       </c>
       <c r="C247" t="n">
-        <v>120.258156</v>
+        <v>120.258163</v>
       </c>
     </row>
     <row r="248">
@@ -6131,7 +6131,7 @@
         <v>102.95459</v>
       </c>
       <c r="C248" t="n">
-        <v>120.819359</v>
+        <v>120.819374</v>
       </c>
     </row>
     <row r="249">
@@ -6142,7 +6142,7 @@
         <v>105.157257</v>
       </c>
       <c r="C249" t="n">
-        <v>124.346931</v>
+        <v>124.346954</v>
       </c>
     </row>
     <row r="250">
@@ -6150,10 +6150,10 @@
         <v>251</v>
       </c>
       <c r="B250" t="n">
-        <v>104.994095</v>
+        <v>104.994102</v>
       </c>
       <c r="C250" t="n">
-        <v>126.271072</v>
+        <v>126.271057</v>
       </c>
     </row>
     <row r="251">
@@ -6164,7 +6164,7 @@
         <v>104.749352</v>
       </c>
       <c r="C251" t="n">
-        <v>123.865906</v>
+        <v>123.865891</v>
       </c>
     </row>
     <row r="252">
@@ -6175,7 +6175,7 @@
         <v>109.195503</v>
       </c>
       <c r="C252" t="n">
-        <v>127.313316</v>
+        <v>127.313309</v>
       </c>
     </row>
     <row r="253">
@@ -6183,10 +6183,10 @@
         <v>254</v>
       </c>
       <c r="B253" t="n">
-        <v>108.909966</v>
+        <v>108.909973</v>
       </c>
       <c r="C253" t="n">
-        <v>126.591743</v>
+        <v>126.591751</v>
       </c>
     </row>
     <row r="254">
@@ -6197,7 +6197,7 @@
         <v>108.3797</v>
       </c>
       <c r="C254" t="n">
-        <v>126.832275</v>
+        <v>126.832268</v>
       </c>
     </row>
     <row r="255">
@@ -6208,7 +6208,7 @@
         <v>107.074402</v>
       </c>
       <c r="C255" t="n">
-        <v>126.431404</v>
+        <v>126.431412</v>
       </c>
     </row>
     <row r="256">
@@ -6219,7 +6219,7 @@
         <v>104.219086</v>
       </c>
       <c r="C256" t="n">
-        <v>126.591743</v>
+        <v>126.591751</v>
       </c>
     </row>
     <row r="257">
@@ -6230,7 +6230,7 @@
         <v>105.687538</v>
       </c>
       <c r="C257" t="n">
-        <v>125.469337</v>
+        <v>125.469345</v>
       </c>
     </row>
     <row r="258">
@@ -6241,7 +6241,7 @@
         <v>106.054649</v>
       </c>
       <c r="C258" t="n">
-        <v>124.266754</v>
+        <v>124.266769</v>
       </c>
     </row>
     <row r="259">
@@ -6260,10 +6260,10 @@
         <v>261</v>
       </c>
       <c r="B260" t="n">
-        <v>105.034889</v>
+        <v>105.034897</v>
       </c>
       <c r="C260" t="n">
-        <v>126.271072</v>
+        <v>126.271057</v>
       </c>
     </row>
     <row r="261">
@@ -6274,7 +6274,7 @@
         <v>103.933556</v>
       </c>
       <c r="C261" t="n">
-        <v>126.03054</v>
+        <v>126.030556</v>
       </c>
     </row>
     <row r="262">
@@ -6282,7 +6282,7 @@
         <v>263</v>
       </c>
       <c r="B262" t="n">
-        <v>103.199333</v>
+        <v>103.199326</v>
       </c>
       <c r="C262" t="n">
         <v>125.870201</v>
@@ -6293,7 +6293,7 @@
         <v>264</v>
       </c>
       <c r="B263" t="n">
-        <v>105.238838</v>
+        <v>105.238846</v>
       </c>
       <c r="C263" t="n">
         <v>124.507278</v>
@@ -6307,7 +6307,7 @@
         <v>102.791428</v>
       </c>
       <c r="C264" t="n">
-        <v>125.709877</v>
+        <v>125.709862</v>
       </c>
     </row>
     <row r="265">
@@ -6326,10 +6326,10 @@
         <v>267</v>
       </c>
       <c r="B266" t="n">
-        <v>99.976898</v>
+        <v>99.976906</v>
       </c>
       <c r="C266" t="n">
-        <v>126.110718</v>
+        <v>126.110733</v>
       </c>
     </row>
     <row r="267">
@@ -6337,10 +6337,10 @@
         <v>268</v>
       </c>
       <c r="B267" t="n">
-        <v>102.138779</v>
+        <v>102.138786</v>
       </c>
       <c r="C267" t="n">
-        <v>126.832275</v>
+        <v>126.832268</v>
       </c>
     </row>
     <row r="268">
@@ -6351,7 +6351,7 @@
         <v>99.936104</v>
       </c>
       <c r="C268" t="n">
-        <v>123.625389</v>
+        <v>123.625381</v>
       </c>
     </row>
     <row r="269">
@@ -6373,7 +6373,7 @@
         <v>100.140068</v>
       </c>
       <c r="C270" t="n">
-        <v>123.144363</v>
+        <v>123.144371</v>
       </c>
     </row>
     <row r="271">
@@ -6392,7 +6392,7 @@
         <v>273</v>
       </c>
       <c r="B272" t="n">
-        <v>103.444077</v>
+        <v>103.444069</v>
       </c>
       <c r="C272" t="n">
         <v>121.781425</v>
@@ -6403,10 +6403,10 @@
         <v>274</v>
       </c>
       <c r="B273" t="n">
-        <v>101.078239</v>
+        <v>101.078232</v>
       </c>
       <c r="C273" t="n">
-        <v>122.262474</v>
+        <v>122.262459</v>
       </c>
     </row>
     <row r="274">
@@ -6414,10 +6414,10 @@
         <v>275</v>
       </c>
       <c r="B274" t="n">
-        <v>103.199333</v>
+        <v>103.199326</v>
       </c>
       <c r="C274" t="n">
-        <v>122.102127</v>
+        <v>122.102119</v>
       </c>
     </row>
     <row r="275">
@@ -6439,7 +6439,7 @@
         <v>101.975624</v>
       </c>
       <c r="C276" t="n">
-        <v>120.338341</v>
+        <v>120.338333</v>
       </c>
     </row>
     <row r="277">
@@ -6450,7 +6450,7 @@
         <v>97.896599</v>
       </c>
       <c r="C277" t="n">
-        <v>119.456444</v>
+        <v>119.456436</v>
       </c>
     </row>
     <row r="278">
@@ -6461,7 +6461,7 @@
         <v>98.712402</v>
       </c>
       <c r="C278" t="n">
-        <v>119.135757</v>
+        <v>119.13575</v>
       </c>
     </row>
     <row r="279">
@@ -6483,7 +6483,7 @@
         <v>100.180855</v>
       </c>
       <c r="C280" t="n">
-        <v>122.262474</v>
+        <v>122.262459</v>
       </c>
     </row>
     <row r="281">
@@ -6524,7 +6524,7 @@
         <v>285</v>
       </c>
       <c r="B284" t="n">
-        <v>102.873009</v>
+        <v>102.873001</v>
       </c>
       <c r="C284" t="n">
         <v>121.540916</v>
@@ -6535,7 +6535,7 @@
         <v>286</v>
       </c>
       <c r="B285" t="n">
-        <v>103.117744</v>
+        <v>103.117752</v>
       </c>
       <c r="C285" t="n">
         <v>121.781425</v>
@@ -6549,7 +6549,7 @@
         <v>98.712402</v>
       </c>
       <c r="C286" t="n">
-        <v>120.498688</v>
+        <v>120.49868</v>
       </c>
     </row>
     <row r="287">
@@ -6557,10 +6557,10 @@
         <v>288</v>
       </c>
       <c r="B287" t="n">
-        <v>98.467667</v>
+        <v>98.467659</v>
       </c>
       <c r="C287" t="n">
-        <v>120.578835</v>
+        <v>120.57885</v>
       </c>
     </row>
     <row r="288">
@@ -6568,7 +6568,7 @@
         <v>289</v>
       </c>
       <c r="B288" t="n">
-        <v>102.301949</v>
+        <v>102.301941</v>
       </c>
       <c r="C288" t="n">
         <v>121.781425</v>
@@ -6579,10 +6579,10 @@
         <v>290</v>
       </c>
       <c r="B289" t="n">
-        <v>102.220367</v>
+        <v>102.22036</v>
       </c>
       <c r="C289" t="n">
-        <v>119.77713</v>
+        <v>119.777115</v>
       </c>
     </row>
     <row r="290">
@@ -6593,7 +6593,7 @@
         <v>106.054649</v>
       </c>
       <c r="C290" t="n">
-        <v>127.393463</v>
+        <v>127.393486</v>
       </c>
     </row>
     <row r="291">
@@ -6604,7 +6604,7 @@
         <v>106.462555</v>
       </c>
       <c r="C291" t="n">
-        <v>125.228821</v>
+        <v>125.228813</v>
       </c>
     </row>
     <row r="292">
@@ -6615,7 +6615,7 @@
         <v>105.973061</v>
       </c>
       <c r="C292" t="n">
-        <v>122.502983</v>
+        <v>122.502991</v>
       </c>
     </row>
     <row r="293">
@@ -6626,7 +6626,7 @@
         <v>105.687538</v>
       </c>
       <c r="C293" t="n">
-        <v>122.422806</v>
+        <v>122.422813</v>
       </c>
     </row>
     <row r="294">
@@ -6645,10 +6645,10 @@
         <v>296</v>
       </c>
       <c r="B295" t="n">
-        <v>105.442795</v>
+        <v>105.442787</v>
       </c>
       <c r="C295" t="n">
-        <v>119.616783</v>
+        <v>119.616791</v>
       </c>
     </row>
     <row r="296">
@@ -6656,10 +6656,10 @@
         <v>297</v>
       </c>
       <c r="B296" t="n">
-        <v>104.137512</v>
+        <v>104.137505</v>
       </c>
       <c r="C296" t="n">
-        <v>117.69265</v>
+        <v>117.692665</v>
       </c>
     </row>
     <row r="297">
@@ -6670,7 +6670,7 @@
         <v>103.036171</v>
       </c>
       <c r="C297" t="n">
-        <v>116.570236</v>
+        <v>116.570244</v>
       </c>
     </row>
     <row r="298">
@@ -6681,7 +6681,7 @@
         <v>103.892769</v>
       </c>
       <c r="C298" t="n">
-        <v>115.768509</v>
+        <v>115.768517</v>
       </c>
     </row>
     <row r="299">
@@ -6703,7 +6703,7 @@
         <v>105.361206</v>
       </c>
       <c r="C300" t="n">
-        <v>118.013336</v>
+        <v>118.013344</v>
       </c>
     </row>
     <row r="301">
@@ -6711,10 +6711,10 @@
         <v>302</v>
       </c>
       <c r="B301" t="n">
-        <v>107.971802</v>
+        <v>107.971794</v>
       </c>
       <c r="C301" t="n">
-        <v>118.654716</v>
+        <v>118.654724</v>
       </c>
     </row>
     <row r="302">
@@ -6725,7 +6725,7 @@
         <v>108.706017</v>
       </c>
       <c r="C302" t="n">
-        <v>120.258156</v>
+        <v>120.258163</v>
       </c>
     </row>
     <row r="303">
@@ -6736,7 +6736,7 @@
         <v>109.481026</v>
       </c>
       <c r="C303" t="n">
-        <v>122.102127</v>
+        <v>122.102119</v>
       </c>
     </row>
     <row r="304">
@@ -6747,7 +6747,7 @@
         <v>110.308449</v>
       </c>
       <c r="C304" t="n">
-        <v>123.304703</v>
+        <v>123.304695</v>
       </c>
     </row>
     <row r="305">
@@ -6758,7 +6758,7 @@
         <v>109.437477</v>
       </c>
       <c r="C305" t="n">
-        <v>121.941765</v>
+        <v>121.94178</v>
       </c>
     </row>
     <row r="306">
@@ -6769,7 +6769,7 @@
         <v>108.000374</v>
       </c>
       <c r="C306" t="n">
-        <v>120.899536</v>
+        <v>120.899544</v>
       </c>
     </row>
     <row r="307">
@@ -6780,7 +6780,7 @@
         <v>105.866501</v>
       </c>
       <c r="C307" t="n">
-        <v>120.096054</v>
+        <v>120.096039</v>
       </c>
     </row>
     <row r="308">
@@ -6791,7 +6791,7 @@
         <v>105.605202</v>
       </c>
       <c r="C308" t="n">
-        <v>118.386497</v>
+        <v>118.38649</v>
       </c>
     </row>
     <row r="309">
@@ -6799,10 +6799,10 @@
         <v>310</v>
       </c>
       <c r="B309" t="n">
-        <v>105.03907</v>
+        <v>105.039078</v>
       </c>
       <c r="C309" t="n">
-        <v>114.540009</v>
+        <v>114.540001</v>
       </c>
     </row>
     <row r="310">
@@ -6810,7 +6810,7 @@
         <v>311</v>
       </c>
       <c r="B310" t="n">
-        <v>105.474564</v>
+        <v>105.474556</v>
       </c>
       <c r="C310" t="n">
         <v>116.762428</v>
@@ -6821,10 +6821,10 @@
         <v>312</v>
       </c>
       <c r="B311" t="n">
-        <v>101.685837</v>
+        <v>101.685844</v>
       </c>
       <c r="C311" t="n">
-        <v>117.104324</v>
+        <v>117.104332</v>
       </c>
     </row>
     <row r="312">
@@ -6846,7 +6846,7 @@
         <v>106.066818</v>
       </c>
       <c r="C313" t="n">
-        <v>121.12178</v>
+        <v>121.121765</v>
       </c>
     </row>
     <row r="314">
@@ -6857,7 +6857,7 @@
         <v>106.737473</v>
       </c>
       <c r="C314" t="n">
-        <v>121.463692</v>
+        <v>121.463684</v>
       </c>
     </row>
     <row r="315">
@@ -6868,7 +6868,7 @@
         <v>108.043922</v>
       </c>
       <c r="C315" t="n">
-        <v>121.292732</v>
+        <v>121.292725</v>
       </c>
     </row>
     <row r="316">
@@ -6890,7 +6890,7 @@
         <v>107.129402</v>
       </c>
       <c r="C317" t="n">
-        <v>121.207253</v>
+        <v>121.20726</v>
       </c>
     </row>
     <row r="318">
@@ -6912,7 +6912,7 @@
         <v>106.389084</v>
       </c>
       <c r="C319" t="n">
-        <v>120.523438</v>
+        <v>120.52343</v>
       </c>
     </row>
     <row r="320">
@@ -6920,10 +6920,10 @@
         <v>321</v>
       </c>
       <c r="B320" t="n">
-        <v>105.95359</v>
+        <v>105.953598</v>
       </c>
       <c r="C320" t="n">
-        <v>120.352478</v>
+        <v>120.352486</v>
       </c>
     </row>
     <row r="321">
@@ -6931,7 +6931,7 @@
         <v>322</v>
       </c>
       <c r="B321" t="n">
-        <v>108.13102</v>
+        <v>108.131027</v>
       </c>
       <c r="C321" t="n">
         <v>122.232986</v>
@@ -6945,7 +6945,7 @@
         <v>110.613289</v>
       </c>
       <c r="C322" t="n">
-        <v>123.515144</v>
+        <v>123.515152</v>
       </c>
     </row>
     <row r="323">
@@ -6967,7 +6967,7 @@
         <v>112.050385</v>
       </c>
       <c r="C324" t="n">
-        <v>124.028008</v>
+        <v>124.028023</v>
       </c>
     </row>
     <row r="325">
@@ -6978,7 +6978,7 @@
         <v>112.268127</v>
       </c>
       <c r="C325" t="n">
-        <v>124.968262</v>
+        <v>124.968269</v>
       </c>
     </row>
     <row r="326">
@@ -7030,7 +7030,7 @@
         <v>331</v>
       </c>
       <c r="B330" t="n">
-        <v>113.705231</v>
+        <v>113.705238</v>
       </c>
       <c r="C330" t="n">
         <v>123.942535</v>
@@ -7041,10 +7041,10 @@
         <v>332</v>
       </c>
       <c r="B331" t="n">
-        <v>102.818108</v>
+        <v>102.8181</v>
       </c>
       <c r="C331" t="n">
-        <v>122.831322</v>
+        <v>122.831329</v>
       </c>
     </row>
     <row r="332">
@@ -7055,7 +7055,7 @@
         <v>103.993912</v>
       </c>
       <c r="C332" t="n">
-        <v>120.779869</v>
+        <v>120.779861</v>
       </c>
     </row>
     <row r="333">
@@ -7063,7 +7063,7 @@
         <v>334</v>
       </c>
       <c r="B333" t="n">
-        <v>102.382614</v>
+        <v>102.382622</v>
       </c>
       <c r="C333" t="n">
         <v>109.325867</v>
@@ -7085,7 +7085,7 @@
         <v>336</v>
       </c>
       <c r="B335" t="n">
-        <v>100.510025</v>
+        <v>100.510033</v>
       </c>
       <c r="C335" t="n">
         <v>107.78727</v>
@@ -7099,7 +7099,7 @@
         <v>98.463249</v>
       </c>
       <c r="C336" t="n">
-        <v>108.471085</v>
+        <v>108.471092</v>
       </c>
     </row>
     <row r="337">
@@ -7121,7 +7121,7 @@
         <v>94.587425</v>
       </c>
       <c r="C338" t="n">
-        <v>107.01796</v>
+        <v>107.017967</v>
       </c>
     </row>
     <row r="339">
@@ -7140,10 +7140,10 @@
         <v>341</v>
       </c>
       <c r="B340" t="n">
-        <v>96.068085</v>
+        <v>96.068077</v>
       </c>
       <c r="C340" t="n">
-        <v>106.590576</v>
+        <v>106.590584</v>
       </c>
     </row>
     <row r="341">
@@ -7151,10 +7151,10 @@
         <v>342</v>
       </c>
       <c r="B341" t="n">
-        <v>93.890648</v>
+        <v>93.890656</v>
       </c>
       <c r="C341" t="n">
-        <v>106.847015</v>
+        <v>106.847008</v>
       </c>
     </row>
     <row r="342">
@@ -7165,7 +7165,7 @@
         <v>92.758385</v>
       </c>
       <c r="C342" t="n">
-        <v>106.163193</v>
+        <v>106.163185</v>
       </c>
     </row>
     <row r="343">
@@ -7184,7 +7184,7 @@
         <v>345</v>
       </c>
       <c r="B344" t="n">
-        <v>96.416466</v>
+        <v>96.416458</v>
       </c>
       <c r="C344" t="n">
         <v>106.676064</v>
@@ -7198,7 +7198,7 @@
         <v>96.198715</v>
       </c>
       <c r="C345" t="n">
-        <v>105.992233</v>
+        <v>105.992241</v>
       </c>
     </row>
     <row r="346">
@@ -7206,7 +7206,7 @@
         <v>347</v>
       </c>
       <c r="B346" t="n">
-        <v>96.764854</v>
+        <v>96.764847</v>
       </c>
       <c r="C346" t="n">
         <v>105.906761</v>
@@ -7242,7 +7242,7 @@
         <v>98.158401</v>
       </c>
       <c r="C349" t="n">
-        <v>106.077713</v>
+        <v>106.077721</v>
       </c>
     </row>
     <row r="350">
@@ -7250,10 +7250,10 @@
         <v>351</v>
       </c>
       <c r="B350" t="n">
-        <v>97.984215</v>
+        <v>97.984207</v>
       </c>
       <c r="C350" t="n">
-        <v>107.359879</v>
+        <v>107.359871</v>
       </c>
     </row>
     <row r="351">
@@ -7272,10 +7272,10 @@
         <v>353</v>
       </c>
       <c r="B352" t="n">
-        <v>95.458389</v>
+        <v>95.458397</v>
       </c>
       <c r="C352" t="n">
-        <v>107.359879</v>
+        <v>107.359871</v>
       </c>
     </row>
     <row r="353">
@@ -7286,7 +7286,7 @@
         <v>97.592278</v>
       </c>
       <c r="C353" t="n">
-        <v>106.847015</v>
+        <v>106.847008</v>
       </c>
     </row>
     <row r="354">
@@ -7294,10 +7294,10 @@
         <v>355</v>
       </c>
       <c r="B354" t="n">
-        <v>94.674522</v>
+        <v>94.674515</v>
       </c>
       <c r="C354" t="n">
-        <v>107.61631</v>
+        <v>107.616318</v>
       </c>
     </row>
     <row r="355">
@@ -7305,7 +7305,7 @@
         <v>356</v>
       </c>
       <c r="B355" t="n">
-        <v>95.589043</v>
+        <v>95.589035</v>
       </c>
       <c r="C355" t="n">
         <v>108.813004</v>
@@ -7316,10 +7316,10 @@
         <v>357</v>
       </c>
       <c r="B356" t="n">
-        <v>96.851944</v>
+        <v>96.851952</v>
       </c>
       <c r="C356" t="n">
-        <v>110.266121</v>
+        <v>110.266113</v>
       </c>
     </row>
     <row r="357">
@@ -7330,7 +7330,7 @@
         <v>96.939049</v>
       </c>
       <c r="C357" t="n">
-        <v>111.120895</v>
+        <v>111.120903</v>
       </c>
     </row>
     <row r="358">
@@ -7341,7 +7341,7 @@
         <v>97.374535</v>
       </c>
       <c r="C358" t="n">
-        <v>111.97567</v>
+        <v>111.975677</v>
       </c>
     </row>
     <row r="359">
@@ -7349,7 +7349,7 @@
         <v>360</v>
       </c>
       <c r="B359" t="n">
-        <v>95.458389</v>
+        <v>95.458397</v>
       </c>
       <c r="C359" t="n">
         <v>111.377335</v>
@@ -7382,10 +7382,10 @@
         <v>363</v>
       </c>
       <c r="B362" t="n">
-        <v>91.800316</v>
+        <v>91.800323</v>
       </c>
       <c r="C362" t="n">
-        <v>113.172348</v>
+        <v>113.172356</v>
       </c>
     </row>
     <row r="363">
@@ -7396,7 +7396,7 @@
         <v>90.189026</v>
       </c>
       <c r="C363" t="n">
-        <v>109.66777</v>
+        <v>109.667778</v>
       </c>
     </row>
     <row r="364">
@@ -7407,7 +7407,7 @@
         <v>90.493866</v>
       </c>
       <c r="C364" t="n">
-        <v>108.727524</v>
+        <v>108.727516</v>
       </c>
     </row>
     <row r="365">
@@ -7415,7 +7415,7 @@
         <v>366</v>
       </c>
       <c r="B365" t="n">
-        <v>87.706749</v>
+        <v>87.706757</v>
       </c>
       <c r="C365" t="n">
         <v>107.274406</v>
@@ -7429,7 +7429,7 @@
         <v>86.260948</v>
       </c>
       <c r="C366" t="n">
-        <v>104.539116</v>
+        <v>104.539124</v>
       </c>
     </row>
     <row r="367">
@@ -7448,7 +7448,7 @@
         <v>369</v>
       </c>
       <c r="B368" t="n">
-        <v>89.535797</v>
+        <v>89.535805</v>
       </c>
       <c r="C368" t="n">
         <v>106.676064</v>
@@ -7459,10 +7459,10 @@
         <v>370</v>
       </c>
       <c r="B369" t="n">
-        <v>90.36322</v>
+        <v>90.363213</v>
       </c>
       <c r="C369" t="n">
-        <v>106.932487</v>
+        <v>106.932495</v>
       </c>
     </row>
     <row r="370">
@@ -7470,7 +7470,7 @@
         <v>371</v>
       </c>
       <c r="B370" t="n">
-        <v>91.234192</v>
+        <v>91.234184</v>
       </c>
       <c r="C370" t="n">
         <v>108.813004</v>
@@ -7484,7 +7484,7 @@
         <v>90.624512</v>
       </c>
       <c r="C371" t="n">
-        <v>107.958221</v>
+        <v>107.958229</v>
       </c>
     </row>
     <row r="372">
@@ -7503,7 +7503,7 @@
         <v>374</v>
       </c>
       <c r="B373" t="n">
-        <v>91.234192</v>
+        <v>91.234184</v>
       </c>
       <c r="C373" t="n">
         <v>110.180641</v>
@@ -7517,7 +7517,7 @@
         <v>92.540642</v>
       </c>
       <c r="C374" t="n">
-        <v>110.693512</v>
+        <v>110.693504</v>
       </c>
     </row>
     <row r="375">
@@ -7525,7 +7525,7 @@
         <v>376</v>
       </c>
       <c r="B375" t="n">
-        <v>90.75515</v>
+        <v>90.755157</v>
       </c>
       <c r="C375" t="n">
         <v>109.411339</v>
@@ -7550,7 +7550,7 @@
         <v>89.579346</v>
       </c>
       <c r="C377" t="n">
-        <v>107.958221</v>
+        <v>107.958229</v>
       </c>
     </row>
     <row r="378">
@@ -7558,10 +7558,10 @@
         <v>379</v>
       </c>
       <c r="B378" t="n">
-        <v>89.492249</v>
+        <v>89.492241</v>
       </c>
       <c r="C378" t="n">
-        <v>105.393898</v>
+        <v>105.393906</v>
       </c>
     </row>
     <row r="379">
@@ -7580,7 +7580,7 @@
         <v>381</v>
       </c>
       <c r="B380" t="n">
-        <v>90.66806</v>
+        <v>90.668053</v>
       </c>
       <c r="C380" t="n">
         <v>104.624596</v>
@@ -7605,7 +7605,7 @@
         <v>88.795464</v>
       </c>
       <c r="C382" t="n">
-        <v>103.171471</v>
+        <v>103.171478</v>
       </c>
     </row>
     <row r="383">
@@ -7613,10 +7613,10 @@
         <v>384</v>
       </c>
       <c r="B383" t="n">
-        <v>89.361595</v>
+        <v>89.361603</v>
       </c>
       <c r="C383" t="n">
-        <v>102.145744</v>
+        <v>102.145752</v>
       </c>
     </row>
     <row r="384">
@@ -7649,7 +7649,7 @@
         <v>90.406769</v>
       </c>
       <c r="C386" t="n">
-        <v>102.573128</v>
+        <v>102.573135</v>
       </c>
     </row>
     <row r="387">
@@ -7657,7 +7657,7 @@
         <v>388</v>
       </c>
       <c r="B387" t="n">
-        <v>89.709984</v>
+        <v>89.709991</v>
       </c>
       <c r="C387" t="n">
         <v>103.684349</v>
@@ -7668,7 +7668,7 @@
         <v>389</v>
       </c>
       <c r="B388" t="n">
-        <v>90.66806</v>
+        <v>90.668053</v>
       </c>
       <c r="C388" t="n">
         <v>104.197212</v>
@@ -7690,7 +7690,7 @@
         <v>391</v>
       </c>
       <c r="B390" t="n">
-        <v>89.14386</v>
+        <v>89.143852</v>
       </c>
       <c r="C390" t="n">
         <v>103.684349</v>
@@ -7701,7 +7701,7 @@
         <v>392</v>
       </c>
       <c r="B391" t="n">
-        <v>87.044823</v>
+        <v>87.044815</v>
       </c>
       <c r="C391" t="n">
         <v>101.632881</v>
@@ -7734,10 +7734,10 @@
         <v>395</v>
       </c>
       <c r="B394" t="n">
-        <v>85.564163</v>
+        <v>85.564171</v>
       </c>
       <c r="C394" t="n">
-        <v>99.154037</v>
+        <v>99.15403</v>
       </c>
     </row>
     <row r="395">
@@ -7745,7 +7745,7 @@
         <v>396</v>
       </c>
       <c r="B395" t="n">
-        <v>84.066093</v>
+        <v>84.066101</v>
       </c>
       <c r="C395" t="n">
         <v>98.042816</v>
@@ -7756,7 +7756,7 @@
         <v>397</v>
       </c>
       <c r="B396" t="n">
-        <v>83.839645</v>
+        <v>83.839653</v>
       </c>
       <c r="C396" t="n">
         <v>99.923332</v>
@@ -7778,10 +7778,10 @@
         <v>399</v>
       </c>
       <c r="B398" t="n">
-        <v>83.857071</v>
+        <v>83.857063</v>
       </c>
       <c r="C398" t="n">
-        <v>98.641174</v>
+        <v>98.641167</v>
       </c>
     </row>
     <row r="399">
@@ -7789,10 +7789,10 @@
         <v>400</v>
       </c>
       <c r="B399" t="n">
-        <v>82.672539</v>
+        <v>82.672546</v>
       </c>
       <c r="C399" t="n">
-        <v>98.128304</v>
+        <v>98.128296</v>
       </c>
     </row>
     <row r="400">
@@ -7803,7 +7803,7 @@
         <v>81.244148</v>
       </c>
       <c r="C400" t="n">
-        <v>95.991364</v>
+        <v>95.991356</v>
       </c>
     </row>
     <row r="401">
@@ -7814,7 +7814,7 @@
         <v>81.505447</v>
       </c>
       <c r="C401" t="n">
-        <v>95.56398</v>
+        <v>95.563972</v>
       </c>
     </row>
     <row r="402">
@@ -7822,10 +7822,10 @@
         <v>403</v>
       </c>
       <c r="B402" t="n">
-        <v>77.516403</v>
+        <v>77.516396</v>
       </c>
       <c r="C402" t="n">
-        <v>92.230347</v>
+        <v>92.230339</v>
       </c>
     </row>
     <row r="403">
@@ -7844,7 +7844,7 @@
         <v>405</v>
       </c>
       <c r="B404" t="n">
-        <v>79.362854</v>
+        <v>79.362862</v>
       </c>
       <c r="C404" t="n">
         <v>94.709198</v>
@@ -7858,7 +7858,7 @@
         <v>79.955116</v>
       </c>
       <c r="C405" t="n">
-        <v>95.307541</v>
+        <v>95.307533</v>
       </c>
     </row>
     <row r="406">
@@ -7866,10 +7866,10 @@
         <v>407</v>
       </c>
       <c r="B406" t="n">
-        <v>77.88221</v>
+        <v>77.882202</v>
       </c>
       <c r="C406" t="n">
-        <v>93.597992</v>
+        <v>93.597984</v>
       </c>
     </row>
     <row r="407">
@@ -7877,7 +7877,7 @@
         <v>408</v>
       </c>
       <c r="B407" t="n">
-        <v>77.516403</v>
+        <v>77.516396</v>
       </c>
       <c r="C407" t="n">
         <v>92.657738</v>
@@ -7888,7 +7888,7 @@
         <v>409</v>
       </c>
       <c r="B408" t="n">
-        <v>78.561562</v>
+        <v>78.561554</v>
       </c>
       <c r="C408" t="n">
         <v>94.88015</v>
@@ -7899,7 +7899,7 @@
         <v>410</v>
       </c>
       <c r="B409" t="n">
-        <v>77.673172</v>
+        <v>77.67318</v>
       </c>
       <c r="C409" t="n">
         <v>94.88015</v>
@@ -7910,7 +7910,7 @@
         <v>411</v>
       </c>
       <c r="B410" t="n">
-        <v>76.418976</v>
+        <v>76.418968</v>
       </c>
       <c r="C410" t="n">
         <v>93.256073</v>
@@ -7924,7 +7924,7 @@
         <v>76.401558</v>
       </c>
       <c r="C411" t="n">
-        <v>92.315819</v>
+        <v>92.315826</v>
       </c>
     </row>
     <row r="412">
@@ -7943,10 +7943,10 @@
         <v>414</v>
       </c>
       <c r="B413" t="n">
-        <v>76.593178</v>
+        <v>76.59317</v>
       </c>
       <c r="C413" t="n">
-        <v>80.348946</v>
+        <v>80.348953</v>
       </c>
     </row>
     <row r="414">
@@ -7979,7 +7979,7 @@
         <v>75.251877</v>
       </c>
       <c r="C416" t="n">
-        <v>80.562645</v>
+        <v>80.562653</v>
       </c>
     </row>
     <row r="417">
@@ -8023,7 +8023,7 @@
         <v>86.644173</v>
       </c>
       <c r="C420" t="n">
-        <v>86.930725</v>
+        <v>86.930733</v>
       </c>
     </row>
     <row r="421">
@@ -8031,7 +8031,7 @@
         <v>422</v>
       </c>
       <c r="B421" t="n">
-        <v>88.055138</v>
+        <v>88.055145</v>
       </c>
       <c r="C421" t="n">
         <v>88.55481</v>
@@ -8053,10 +8053,10 @@
         <v>424</v>
       </c>
       <c r="B423" t="n">
-        <v>88.011597</v>
+        <v>88.011604</v>
       </c>
       <c r="C423" t="n">
-        <v>87.870987</v>
+        <v>87.870995</v>
       </c>
     </row>
     <row r="424">
@@ -8078,7 +8078,7 @@
         <v>88.22934</v>
       </c>
       <c r="C425" t="n">
-        <v>88.640282</v>
+        <v>88.640274</v>
       </c>
     </row>
     <row r="426">
@@ -8097,10 +8097,10 @@
         <v>428</v>
       </c>
       <c r="B427" t="n">
-        <v>83.247383</v>
+        <v>83.247391</v>
       </c>
       <c r="C427" t="n">
-        <v>87.529076</v>
+        <v>87.529083</v>
       </c>
     </row>
     <row r="428">
@@ -8108,10 +8108,10 @@
         <v>429</v>
       </c>
       <c r="B428" t="n">
-        <v>84.414482</v>
+        <v>84.41449</v>
       </c>
       <c r="C428" t="n">
-        <v>89.495064</v>
+        <v>89.495056</v>
       </c>
     </row>
     <row r="429">
@@ -8119,7 +8119,7 @@
         <v>430</v>
       </c>
       <c r="B429" t="n">
-        <v>85.355133</v>
+        <v>85.355141</v>
       </c>
       <c r="C429" t="n">
         <v>99.495941</v>
@@ -8130,7 +8130,7 @@
         <v>431</v>
       </c>
       <c r="B430" t="n">
-        <v>83.61319</v>
+        <v>83.613197</v>
       </c>
       <c r="C430" t="n">
         <v>101.461922</v>
@@ -8144,7 +8144,7 @@
         <v>83.543518</v>
       </c>
       <c r="C431" t="n">
-        <v>103.34243</v>
+        <v>103.342438</v>
       </c>
     </row>
     <row r="432">
@@ -8155,7 +8155,7 @@
         <v>82.602867</v>
       </c>
       <c r="C432" t="n">
-        <v>107.958221</v>
+        <v>107.958229</v>
       </c>
     </row>
     <row r="433">
@@ -8174,7 +8174,7 @@
         <v>435</v>
       </c>
       <c r="B434" t="n">
-        <v>83.386742</v>
+        <v>83.386734</v>
       </c>
       <c r="C434" t="n">
         <v>104.881027</v>
@@ -8188,7 +8188,7 @@
         <v>83.073189</v>
       </c>
       <c r="C435" t="n">
-        <v>103.256958</v>
+        <v>103.25695</v>
       </c>
     </row>
     <row r="436">
@@ -8196,10 +8196,10 @@
         <v>437</v>
       </c>
       <c r="B436" t="n">
-        <v>82.742226</v>
+        <v>82.742218</v>
       </c>
       <c r="C436" t="n">
-        <v>102.402176</v>
+        <v>102.402184</v>
       </c>
     </row>
     <row r="437">
@@ -8232,7 +8232,7 @@
         <v>79.989952</v>
       </c>
       <c r="C439" t="n">
-        <v>99.154037</v>
+        <v>99.15403</v>
       </c>
     </row>
     <row r="440">
@@ -8273,7 +8273,7 @@
         <v>444</v>
       </c>
       <c r="B443" t="n">
-        <v>80.164146</v>
+        <v>80.164154</v>
       </c>
       <c r="C443" t="n">
         <v>100.521667</v>
@@ -8284,10 +8284,10 @@
         <v>445</v>
       </c>
       <c r="B444" t="n">
-        <v>82.881577</v>
+        <v>82.881584</v>
       </c>
       <c r="C444" t="n">
-        <v>102.145744</v>
+        <v>102.145752</v>
       </c>
     </row>
     <row r="445">
@@ -8295,10 +8295,10 @@
         <v>446</v>
       </c>
       <c r="B445" t="n">
-        <v>83.595772</v>
+        <v>83.595779</v>
       </c>
       <c r="C445" t="n">
-        <v>104.795547</v>
+        <v>104.795555</v>
       </c>
     </row>
     <row r="446">
@@ -8309,7 +8309,7 @@
         <v>84.693199</v>
       </c>
       <c r="C446" t="n">
-        <v>108.471085</v>
+        <v>108.471092</v>
       </c>
     </row>
     <row r="447">
@@ -8320,7 +8320,7 @@
         <v>84.693199</v>
       </c>
       <c r="C447" t="n">
-        <v>109.924217</v>
+        <v>109.92421</v>
       </c>
     </row>
     <row r="448">
@@ -8339,10 +8339,10 @@
         <v>450</v>
       </c>
       <c r="B449" t="n">
-        <v>83.82222</v>
+        <v>83.822227</v>
       </c>
       <c r="C449" t="n">
-        <v>110.266121</v>
+        <v>110.266113</v>
       </c>
     </row>
     <row r="450">
@@ -8350,7 +8350,7 @@
         <v>451</v>
       </c>
       <c r="B450" t="n">
-        <v>85.877716</v>
+        <v>85.877724</v>
       </c>
       <c r="C450" t="n">
         <v>112.6595</v>
@@ -8361,7 +8361,7 @@
         <v>452</v>
       </c>
       <c r="B451" t="n">
-        <v>85.877716</v>
+        <v>85.877724</v>
       </c>
       <c r="C451" t="n">
         <v>113.257835</v>
@@ -8375,7 +8375,7 @@
         <v>85.529327</v>
       </c>
       <c r="C452" t="n">
-        <v>115.394768</v>
+        <v>115.394775</v>
       </c>
     </row>
     <row r="453">
@@ -8394,7 +8394,7 @@
         <v>455</v>
       </c>
       <c r="B454" t="n">
-        <v>85.877716</v>
+        <v>85.877724</v>
       </c>
       <c r="C454" t="n">
         <v>116.078598</v>
@@ -8419,7 +8419,7 @@
         <v>84.867393</v>
       </c>
       <c r="C456" t="n">
-        <v>115.736687</v>
+        <v>115.736679</v>
       </c>
     </row>
     <row r="457">
@@ -8438,10 +8438,10 @@
         <v>459</v>
       </c>
       <c r="B458" t="n">
-        <v>83.247383</v>
+        <v>83.247391</v>
       </c>
       <c r="C458" t="n">
-        <v>112.317574</v>
+        <v>112.317581</v>
       </c>
     </row>
     <row r="459">
@@ -8452,7 +8452,7 @@
         <v>79.955116</v>
       </c>
       <c r="C459" t="n">
-        <v>114.540009</v>
+        <v>114.540001</v>
       </c>
     </row>
     <row r="460">
@@ -8482,7 +8482,7 @@
         <v>463</v>
       </c>
       <c r="B462" t="n">
-        <v>81.766739</v>
+        <v>81.766731</v>
       </c>
       <c r="C462" t="n">
         <v>115.651207</v>
@@ -8493,10 +8493,10 @@
         <v>464</v>
       </c>
       <c r="B463" t="n">
-        <v>83.630615</v>
+        <v>83.630608</v>
       </c>
       <c r="C463" t="n">
-        <v>116.335037</v>
+        <v>116.33503</v>
       </c>
     </row>
     <row r="464">
@@ -8507,7 +8507,7 @@
         <v>83.369324</v>
       </c>
       <c r="C464" t="n">
-        <v>115.993126</v>
+        <v>115.993111</v>
       </c>
     </row>
     <row r="465">
@@ -8518,7 +8518,7 @@
         <v>82.498352</v>
       </c>
       <c r="C465" t="n">
-        <v>116.676941</v>
+        <v>116.676933</v>
       </c>
     </row>
     <row r="466">
@@ -8526,10 +8526,10 @@
         <v>467</v>
       </c>
       <c r="B466" t="n">
-        <v>82.306732</v>
+        <v>82.30674</v>
       </c>
       <c r="C466" t="n">
-        <v>116.93338</v>
+        <v>116.933372</v>
       </c>
     </row>
     <row r="467">
@@ -8537,7 +8537,7 @@
         <v>468</v>
       </c>
       <c r="B467" t="n">
-        <v>80.442856</v>
+        <v>80.442863</v>
       </c>
       <c r="C467" t="n">
         <v>113.514275</v>
@@ -8570,7 +8570,7 @@
         <v>471</v>
       </c>
       <c r="B470" t="n">
-        <v>79.240921</v>
+        <v>79.240929</v>
       </c>
       <c r="C470" t="n">
         <v>110.949944</v>
@@ -8581,7 +8581,7 @@
         <v>472</v>
       </c>
       <c r="B471" t="n">
-        <v>79.362854</v>
+        <v>79.362862</v>
       </c>
       <c r="C471" t="n">
         <v>110.864456</v>
@@ -8606,7 +8606,7 @@
         <v>78.735756</v>
       </c>
       <c r="C473" t="n">
-        <v>108.727524</v>
+        <v>108.727516</v>
       </c>
     </row>
     <row r="474">
@@ -8628,7 +8628,7 @@
         <v>80.129311</v>
       </c>
       <c r="C475" t="n">
-        <v>110.693512</v>
+        <v>110.693504</v>
       </c>
     </row>
     <row r="476">
@@ -8639,7 +8639,7 @@
         <v>79.275757</v>
       </c>
       <c r="C476" t="n">
-        <v>108.727524</v>
+        <v>108.727516</v>
       </c>
     </row>
     <row r="477">
@@ -8650,7 +8650,7 @@
         <v>80.233833</v>
       </c>
       <c r="C477" t="n">
-        <v>110.266121</v>
+        <v>110.266113</v>
       </c>
     </row>
     <row r="478">
@@ -8661,7 +8661,7 @@
         <v>80.129311</v>
       </c>
       <c r="C478" t="n">
-        <v>109.582291</v>
+        <v>109.582298</v>
       </c>
     </row>
     <row r="479">
@@ -8669,7 +8669,7 @@
         <v>480</v>
       </c>
       <c r="B479" t="n">
-        <v>79.746086</v>
+        <v>79.746078</v>
       </c>
       <c r="C479" t="n">
         <v>109.154907</v>
@@ -8702,7 +8702,7 @@
         <v>483</v>
       </c>
       <c r="B482" t="n">
-        <v>79.780922</v>
+        <v>79.780914</v>
       </c>
       <c r="C482" t="n">
         <v>108.983955</v>
@@ -8713,7 +8713,7 @@
         <v>484</v>
       </c>
       <c r="B483" t="n">
-        <v>82.463516</v>
+        <v>82.463509</v>
       </c>
       <c r="C483" t="n">
         <v>110.949944</v>
@@ -8738,7 +8738,7 @@
         <v>84.01384</v>
       </c>
       <c r="C485" t="n">
-        <v>113.172348</v>
+        <v>113.172356</v>
       </c>
     </row>
     <row r="486">
@@ -8749,7 +8749,7 @@
         <v>84.170616</v>
       </c>
       <c r="C486" t="n">
-        <v>113.343315</v>
+        <v>113.343323</v>
       </c>
     </row>
     <row r="487">
@@ -8771,7 +8771,7 @@
         <v>87.271271</v>
       </c>
       <c r="C488" t="n">
-        <v>113.94165</v>
+        <v>113.941658</v>
       </c>
     </row>
     <row r="489">
@@ -8793,7 +8793,7 @@
         <v>92.671295</v>
       </c>
       <c r="C490" t="n">
-        <v>112.488548</v>
+        <v>112.488541</v>
       </c>
     </row>
     <row r="491">
@@ -8801,10 +8801,10 @@
         <v>492</v>
       </c>
       <c r="B491" t="n">
-        <v>94.108391</v>
+        <v>94.108398</v>
       </c>
       <c r="C491" t="n">
-        <v>117.104324</v>
+        <v>117.104332</v>
       </c>
     </row>
     <row r="492">
@@ -8812,10 +8812,10 @@
         <v>493</v>
       </c>
       <c r="B492" t="n">
-        <v>93.193871</v>
+        <v>93.193878</v>
       </c>
       <c r="C492" t="n">
-        <v>118.215546</v>
+        <v>118.215538</v>
       </c>
     </row>
     <row r="493">
@@ -8826,7 +8826,7 @@
         <v>92.105156</v>
       </c>
       <c r="C493" t="n">
-        <v>116.93338</v>
+        <v>116.933372</v>
       </c>
     </row>
     <row r="494">
@@ -8837,7 +8837,7 @@
         <v>92.497093</v>
       </c>
       <c r="C494" t="n">
-        <v>117.873619</v>
+        <v>117.873611</v>
       </c>
     </row>
     <row r="495">
@@ -8845,7 +8845,7 @@
         <v>496</v>
       </c>
       <c r="B495" t="n">
-        <v>93.193871</v>
+        <v>93.193878</v>
       </c>
       <c r="C495" t="n">
         <v>118.899361</v>
@@ -8859,7 +8859,7 @@
         <v>93.411613</v>
       </c>
       <c r="C496" t="n">
-        <v>119.070328</v>
+        <v>119.070313</v>
       </c>
     </row>
     <row r="497">
@@ -8867,10 +8867,10 @@
         <v>498</v>
       </c>
       <c r="B497" t="n">
-        <v>93.890648</v>
+        <v>93.890656</v>
       </c>
       <c r="C497" t="n">
-        <v>119.497696</v>
+        <v>119.497704</v>
       </c>
     </row>
     <row r="498">
@@ -8878,10 +8878,10 @@
         <v>499</v>
       </c>
       <c r="B498" t="n">
-        <v>96.111626</v>
+        <v>96.111618</v>
       </c>
       <c r="C498" t="n">
-        <v>121.976547</v>
+        <v>121.97654</v>
       </c>
     </row>
     <row r="499">
@@ -8889,10 +8889,10 @@
         <v>500</v>
       </c>
       <c r="B499" t="n">
-        <v>93.977753</v>
+        <v>93.977745</v>
       </c>
       <c r="C499" t="n">
-        <v>121.463692</v>
+        <v>121.463684</v>
       </c>
     </row>
     <row r="500">
@@ -8925,7 +8925,7 @@
         <v>94.282585</v>
       </c>
       <c r="C502" t="n">
-        <v>120.523438</v>
+        <v>120.52343</v>
       </c>
     </row>
     <row r="503">
@@ -8933,10 +8933,10 @@
         <v>504</v>
       </c>
       <c r="B503" t="n">
-        <v>96.068085</v>
+        <v>96.068077</v>
       </c>
       <c r="C503" t="n">
-        <v>124.369926</v>
+        <v>124.369919</v>
       </c>
     </row>
     <row r="504">
@@ -8944,10 +8944,10 @@
         <v>505</v>
       </c>
       <c r="B504" t="n">
-        <v>94.97937</v>
+        <v>94.979362</v>
       </c>
       <c r="C504" t="n">
-        <v>121.976547</v>
+        <v>121.97654</v>
       </c>
     </row>
     <row r="505">
@@ -8958,7 +8958,7 @@
         <v>93.498711</v>
       </c>
       <c r="C505" t="n">
-        <v>121.891075</v>
+        <v>121.891083</v>
       </c>
     </row>
     <row r="506">
@@ -8966,10 +8966,10 @@
         <v>507</v>
       </c>
       <c r="B506" t="n">
-        <v>94.06485</v>
+        <v>94.064842</v>
       </c>
       <c r="C506" t="n">
-        <v>123.686104</v>
+        <v>123.686111</v>
       </c>
     </row>
     <row r="507">
@@ -8988,10 +8988,10 @@
         <v>509</v>
       </c>
       <c r="B508" t="n">
-        <v>94.674522</v>
+        <v>94.674515</v>
       </c>
       <c r="C508" t="n">
-        <v>123.600632</v>
+        <v>123.600639</v>
       </c>
     </row>
     <row r="509">
@@ -9002,7 +9002,7 @@
         <v>95.806786</v>
       </c>
       <c r="C509" t="n">
-        <v>123.344193</v>
+        <v>123.3442</v>
       </c>
     </row>
     <row r="510">
@@ -9010,10 +9010,10 @@
         <v>511</v>
       </c>
       <c r="B510" t="n">
-        <v>95.632591</v>
+        <v>95.632599</v>
       </c>
       <c r="C510" t="n">
-        <v>127.361633</v>
+        <v>127.361641</v>
       </c>
     </row>
     <row r="511">
@@ -9024,7 +9024,7 @@
         <v>95.806786</v>
       </c>
       <c r="C511" t="n">
-        <v>125.993988</v>
+        <v>125.993996</v>
       </c>
     </row>
     <row r="512">
@@ -9035,7 +9035,7 @@
         <v>96.721306</v>
       </c>
       <c r="C512" t="n">
-        <v>127.703552</v>
+        <v>127.703537</v>
       </c>
     </row>
     <row r="513">
@@ -9046,7 +9046,7 @@
         <v>94.848717</v>
       </c>
       <c r="C513" t="n">
-        <v>126.93425</v>
+        <v>126.934242</v>
       </c>
     </row>
     <row r="514">
@@ -9054,10 +9054,10 @@
         <v>515</v>
       </c>
       <c r="B514" t="n">
-        <v>95.458389</v>
+        <v>95.458397</v>
       </c>
       <c r="C514" t="n">
-        <v>125.993988</v>
+        <v>125.993996</v>
       </c>
     </row>
     <row r="515">
@@ -9079,7 +9079,7 @@
         <v>94.500328</v>
       </c>
       <c r="C516" t="n">
-        <v>125.224709</v>
+        <v>125.224693</v>
       </c>
     </row>
     <row r="517">
@@ -9087,10 +9087,10 @@
         <v>518</v>
       </c>
       <c r="B517" t="n">
-        <v>95.893883</v>
+        <v>95.893875</v>
       </c>
       <c r="C517" t="n">
-        <v>125.993988</v>
+        <v>125.993996</v>
       </c>
     </row>
     <row r="518">
@@ -9098,10 +9098,10 @@
         <v>519</v>
       </c>
       <c r="B518" t="n">
-        <v>94.674522</v>
+        <v>94.674515</v>
       </c>
       <c r="C518" t="n">
-        <v>124.198975</v>
+        <v>124.198982</v>
       </c>
     </row>
     <row r="519">
@@ -9112,7 +9112,7 @@
         <v>98.332603</v>
       </c>
       <c r="C519" t="n">
-        <v>125.481125</v>
+        <v>125.481148</v>
       </c>
     </row>
     <row r="520">
@@ -9120,10 +9120,10 @@
         <v>521</v>
       </c>
       <c r="B520" t="n">
-        <v>97.200333</v>
+        <v>97.20034</v>
       </c>
       <c r="C520" t="n">
-        <v>125.652092</v>
+        <v>125.652084</v>
       </c>
     </row>
     <row r="521">
@@ -9131,10 +9131,10 @@
         <v>522</v>
       </c>
       <c r="B521" t="n">
-        <v>99.943893</v>
+        <v>99.943901</v>
       </c>
       <c r="C521" t="n">
-        <v>127.276169</v>
+        <v>127.276154</v>
       </c>
     </row>
     <row r="522">
@@ -9142,7 +9142,7 @@
         <v>523</v>
       </c>
       <c r="B522" t="n">
-        <v>100.422935</v>
+        <v>100.422928</v>
       </c>
       <c r="C522" t="n">
         <v>128.472855</v>
@@ -9153,10 +9153,10 @@
         <v>524</v>
       </c>
       <c r="B523" t="n">
-        <v>102.164879</v>
+        <v>102.164871</v>
       </c>
       <c r="C523" t="n">
-        <v>131.29361</v>
+        <v>131.293625</v>
       </c>
     </row>
     <row r="524">
@@ -9164,10 +9164,10 @@
         <v>525</v>
       </c>
       <c r="B524" t="n">
-        <v>102.51326</v>
+        <v>102.513252</v>
       </c>
       <c r="C524" t="n">
-        <v>130.438828</v>
+        <v>130.438843</v>
       </c>
     </row>
     <row r="525">
@@ -9186,7 +9186,7 @@
         <v>527</v>
       </c>
       <c r="B526" t="n">
-        <v>105.822952</v>
+        <v>105.822945</v>
       </c>
       <c r="C526" t="n">
         <v>133.516022</v>
@@ -9197,10 +9197,10 @@
         <v>528</v>
       </c>
       <c r="B527" t="n">
-        <v>107.608437</v>
+        <v>107.608444</v>
       </c>
       <c r="C527" t="n">
-        <v>134.285324</v>
+        <v>134.285339</v>
       </c>
     </row>
     <row r="528">
@@ -9208,7 +9208,7 @@
         <v>529</v>
       </c>
       <c r="B528" t="n">
-        <v>106.51973</v>
+        <v>106.519722</v>
       </c>
       <c r="C528" t="n">
         <v>134.199844</v>
@@ -9222,7 +9222,7 @@
         <v>105.866501</v>
       </c>
       <c r="C529" t="n">
-        <v>134.883682</v>
+        <v>134.883667</v>
       </c>
     </row>
     <row r="530">
@@ -9233,7 +9233,7 @@
         <v>104.951973</v>
       </c>
       <c r="C530" t="n">
-        <v>135.909409</v>
+        <v>135.909393</v>
       </c>
     </row>
     <row r="531">
@@ -9263,7 +9263,7 @@
         <v>534</v>
       </c>
       <c r="B533" t="n">
-        <v>106.476181</v>
+        <v>106.476173</v>
       </c>
       <c r="C533" t="n">
         <v>138.473724</v>
@@ -9277,7 +9277,7 @@
         <v>104.995529</v>
       </c>
       <c r="C534" t="n">
-        <v>137.020599</v>
+        <v>137.020615</v>
       </c>
     </row>
     <row r="535">
@@ -9321,7 +9321,7 @@
         <v>93.237427</v>
       </c>
       <c r="C538" t="n">
-        <v>109.240395</v>
+        <v>109.240379</v>
       </c>
     </row>
     <row r="539">
@@ -9332,7 +9332,7 @@
         <v>91.147095</v>
       </c>
       <c r="C539" t="n">
-        <v>106.847015</v>
+        <v>106.847008</v>
       </c>
     </row>
     <row r="540">
@@ -9340,7 +9340,7 @@
         <v>541</v>
       </c>
       <c r="B540" t="n">
-        <v>91.582581</v>
+        <v>91.582573</v>
       </c>
       <c r="C540" t="n">
         <v>107.872742</v>
@@ -9351,7 +9351,7 @@
         <v>542</v>
       </c>
       <c r="B541" t="n">
-        <v>93.063232</v>
+        <v>93.063225</v>
       </c>
       <c r="C541" t="n">
         <v>109.83873</v>
@@ -9376,7 +9376,7 @@
         <v>91.147095</v>
       </c>
       <c r="C543" t="n">
-        <v>104.795547</v>
+        <v>104.795555</v>
       </c>
     </row>
     <row r="544">
@@ -9406,7 +9406,7 @@
         <v>547</v>
       </c>
       <c r="B546" t="n">
-        <v>77.289948</v>
+        <v>77.28994</v>
       </c>
       <c r="C546" t="n">
         <v>93.854424</v>
@@ -9428,10 +9428,10 @@
         <v>549</v>
       </c>
       <c r="B548" t="n">
-        <v>67.726685</v>
+        <v>67.726692</v>
       </c>
       <c r="C548" t="n">
-        <v>82.272202</v>
+        <v>82.272194</v>
       </c>
     </row>
     <row r="549">
@@ -9442,7 +9442,7 @@
         <v>67.761528</v>
       </c>
       <c r="C549" t="n">
-        <v>83.682579</v>
+        <v>83.682587</v>
       </c>
     </row>
     <row r="550">
@@ -9453,7 +9453,7 @@
         <v>64.486679</v>
       </c>
       <c r="C550" t="n">
-        <v>78.895828</v>
+        <v>78.895844</v>
       </c>
     </row>
     <row r="551">
@@ -9574,7 +9574,7 @@
         <v>75.642952</v>
       </c>
       <c r="C561" t="n">
-        <v>91.515846</v>
+        <v>91.515839</v>
       </c>
     </row>
     <row r="562">
@@ -9607,7 +9607,7 @@
         <v>71.078796</v>
       </c>
       <c r="C564" t="n">
-        <v>88.706566</v>
+        <v>88.706573</v>
       </c>
     </row>
     <row r="565">
@@ -9618,7 +9618,7 @@
         <v>72.141136</v>
       </c>
       <c r="C565" t="n">
-        <v>88.37326</v>
+        <v>88.373268</v>
       </c>
     </row>
     <row r="566">
@@ -9684,7 +9684,7 @@
         <v>72.318199</v>
       </c>
       <c r="C571" t="n">
-        <v>89.373177</v>
+        <v>89.373169</v>
       </c>
     </row>
     <row r="572">
@@ -9695,7 +9695,7 @@
         <v>71.82637</v>
       </c>
       <c r="C572" t="n">
-        <v>90.992081</v>
+        <v>90.992088</v>
       </c>
     </row>
     <row r="573">
@@ -9728,7 +9728,7 @@
         <v>72.455917</v>
       </c>
       <c r="C575" t="n">
-        <v>91.230156</v>
+        <v>91.230164</v>
       </c>
     </row>
     <row r="576">
@@ -9739,7 +9739,7 @@
         <v>70.134491</v>
       </c>
       <c r="C576" t="n">
-        <v>89.706482</v>
+        <v>89.706474</v>
       </c>
     </row>
     <row r="577">
@@ -9783,7 +9783,7 @@
         <v>79.479202</v>
       </c>
       <c r="C580" t="n">
-        <v>107.895378</v>
+        <v>107.89537</v>
       </c>
     </row>
     <row r="581">
@@ -9827,7 +9827,7 @@
         <v>74.226486</v>
       </c>
       <c r="C584" t="n">
-        <v>95.086967</v>
+        <v>95.08696</v>
       </c>
     </row>
     <row r="585">
@@ -9849,7 +9849,7 @@
         <v>74.619949</v>
       </c>
       <c r="C586" t="n">
-        <v>100.086525</v>
+        <v>100.086533</v>
       </c>
     </row>
     <row r="587">
@@ -9860,7 +9860,7 @@
         <v>74.167473</v>
       </c>
       <c r="C587" t="n">
-        <v>101.134056</v>
+        <v>101.134048</v>
       </c>
     </row>
     <row r="588">
@@ -9893,7 +9893,7 @@
         <v>70.803375</v>
       </c>
       <c r="C590" t="n">
-        <v>99.991295</v>
+        <v>99.991302</v>
       </c>
     </row>
     <row r="591">
@@ -9915,7 +9915,7 @@
         <v>73.400223</v>
       </c>
       <c r="C592" t="n">
-        <v>100.657906</v>
+        <v>100.657898</v>
       </c>
     </row>
     <row r="593">
@@ -9926,7 +9926,7 @@
         <v>75.564255</v>
       </c>
       <c r="C593" t="n">
-        <v>102.46727</v>
+        <v>102.467278</v>
       </c>
     </row>
     <row r="594">
@@ -9970,7 +9970,7 @@
         <v>83.748253</v>
       </c>
       <c r="C597" t="n">
-        <v>111.799797</v>
+        <v>111.799789</v>
       </c>
     </row>
     <row r="598">
@@ -9992,7 +9992,7 @@
         <v>86.128693</v>
       </c>
       <c r="C599" t="n">
-        <v>116.656517</v>
+        <v>116.656509</v>
       </c>
     </row>
     <row r="600">
@@ -10014,7 +10014,7 @@
         <v>89.256706</v>
       </c>
       <c r="C601" t="n">
-        <v>123.89399</v>
+        <v>123.893982</v>
       </c>
     </row>
     <row r="602">
@@ -10069,7 +10069,7 @@
         <v>86.42379</v>
       </c>
       <c r="C606" t="n">
-        <v>117.704048</v>
+        <v>117.704041</v>
       </c>
     </row>
     <row r="607">
@@ -10091,7 +10091,7 @@
         <v>87.663193</v>
       </c>
       <c r="C608" t="n">
-        <v>120.751404</v>
+        <v>120.751396</v>
       </c>
     </row>
     <row r="609">
@@ -10157,7 +10157,7 @@
         <v>87.466461</v>
       </c>
       <c r="C614" t="n">
-        <v>117.704048</v>
+        <v>117.704041</v>
       </c>
     </row>
     <row r="615">
@@ -10201,7 +10201,7 @@
         <v>86.836922</v>
       </c>
       <c r="C618" t="n">
-        <v>117.132668</v>
+        <v>117.13266</v>
       </c>
     </row>
     <row r="619">
@@ -10322,7 +10322,7 @@
         <v>100.185097</v>
       </c>
       <c r="C629" t="n">
-        <v>124.465363</v>
+        <v>124.465355</v>
       </c>
     </row>
     <row r="630">
@@ -10333,7 +10333,7 @@
         <v>100.185097</v>
       </c>
       <c r="C630" t="n">
-        <v>125.512894</v>
+        <v>125.512886</v>
       </c>
     </row>
     <row r="631">
@@ -10355,7 +10355,7 @@
         <v>104.267265</v>
       </c>
       <c r="C632" t="n">
-        <v>125.036743</v>
+        <v>125.036736</v>
       </c>
     </row>
     <row r="633">
@@ -10388,7 +10388,7 @@
         <v>103.72625</v>
       </c>
       <c r="C635" t="n">
-        <v>125.322441</v>
+        <v>125.322433</v>
       </c>
     </row>
     <row r="636">
@@ -10399,7 +10399,7 @@
         <v>104.218079</v>
       </c>
       <c r="C636" t="n">
-        <v>124.941505</v>
+        <v>124.941498</v>
       </c>
     </row>
     <row r="637">
@@ -10410,7 +10410,7 @@
         <v>102.250771</v>
       </c>
       <c r="C637" t="n">
-        <v>122.655991</v>
+        <v>122.655998</v>
       </c>
     </row>
     <row r="638">
@@ -10465,7 +10465,7 @@
         <v>101.168755</v>
       </c>
       <c r="C642" t="n">
-        <v>115.894669</v>
+        <v>115.894676</v>
       </c>
     </row>
     <row r="643">
@@ -10476,7 +10476,7 @@
         <v>100.480202</v>
       </c>
       <c r="C643" t="n">
-        <v>116.751747</v>
+        <v>116.75174</v>
       </c>
     </row>
     <row r="644">
@@ -10487,7 +10487,7 @@
         <v>100.922836</v>
       </c>
       <c r="C644" t="n">
-        <v>115.989906</v>
+        <v>115.989914</v>
       </c>
     </row>
     <row r="645">
@@ -10498,7 +10498,7 @@
         <v>100.332649</v>
       </c>
       <c r="C645" t="n">
-        <v>115.418518</v>
+        <v>115.418526</v>
       </c>
     </row>
     <row r="646">
@@ -10564,7 +10564,7 @@
         <v>102.349144</v>
       </c>
       <c r="C651" t="n">
-        <v>113.609161</v>
+        <v>113.609169</v>
       </c>
     </row>
     <row r="652">
@@ -10608,7 +10608,7 @@
         <v>96.496399</v>
       </c>
       <c r="C655" t="n">
-        <v>110.466583</v>
+        <v>110.466576</v>
       </c>
     </row>
     <row r="656">
@@ -10619,7 +10619,7 @@
         <v>97.047249</v>
       </c>
       <c r="C656" t="n">
-        <v>109.799965</v>
+        <v>109.799973</v>
       </c>
     </row>
     <row r="657">
@@ -10652,7 +10652,7 @@
         <v>97.971878</v>
       </c>
       <c r="C659" t="n">
-        <v>107.22876</v>
+        <v>107.228767</v>
       </c>
     </row>
     <row r="660">
@@ -10663,7 +10663,7 @@
         <v>96.594765</v>
       </c>
       <c r="C660" t="n">
-        <v>106.847839</v>
+        <v>106.847847</v>
       </c>
     </row>
     <row r="661">
@@ -10696,7 +10696,7 @@
         <v>92.463425</v>
       </c>
       <c r="C663" t="n">
-        <v>95.705956</v>
+        <v>95.705963</v>
       </c>
     </row>
     <row r="664">
@@ -10751,7 +10751,7 @@
         <v>87.859924</v>
       </c>
       <c r="C668" t="n">
-        <v>96.467804</v>
+        <v>96.467796</v>
       </c>
     </row>
     <row r="669">
@@ -10762,7 +10762,7 @@
         <v>88.627174</v>
       </c>
       <c r="C669" t="n">
-        <v>98.181931</v>
+        <v>98.181938</v>
       </c>
     </row>
     <row r="670">
@@ -10773,7 +10773,7 @@
         <v>88.587822</v>
       </c>
       <c r="C670" t="n">
-        <v>99.705612</v>
+        <v>99.705605</v>
       </c>
     </row>
     <row r="671">
@@ -10784,7 +10784,7 @@
         <v>86.502487</v>
       </c>
       <c r="C671" t="n">
-        <v>99.610374</v>
+        <v>99.610382</v>
       </c>
     </row>
     <row r="672">
@@ -10806,7 +10806,7 @@
         <v>86.187714</v>
       </c>
       <c r="C673" t="n">
-        <v>99.134224</v>
+        <v>99.134232</v>
       </c>
     </row>
     <row r="674">
@@ -10817,7 +10817,7 @@
         <v>86.384445</v>
       </c>
       <c r="C674" t="n">
-        <v>97.89624</v>
+        <v>97.896248</v>
       </c>
     </row>
     <row r="675">
@@ -10839,7 +10839,7 @@
         <v>83.0597</v>
       </c>
       <c r="C676" t="n">
-        <v>96.372566</v>
+        <v>96.372559</v>
       </c>
     </row>
     <row r="677">
@@ -10850,7 +10850,7 @@
         <v>80.659584</v>
       </c>
       <c r="C677" t="n">
-        <v>94.372742</v>
+        <v>94.372734</v>
       </c>
     </row>
     <row r="678">
@@ -10872,7 +10872,7 @@
         <v>81.938332</v>
       </c>
       <c r="C679" t="n">
-        <v>93.563286</v>
+        <v>93.563293</v>
       </c>
     </row>
     <row r="680">
@@ -10927,7 +10927,7 @@
         <v>84.692558</v>
       </c>
       <c r="C684" t="n">
-        <v>94.848892</v>
+        <v>94.848885</v>
       </c>
     </row>
     <row r="685">
@@ -10949,7 +10949,7 @@
         <v>83.453156</v>
       </c>
       <c r="C686" t="n">
-        <v>103.133888</v>
+        <v>103.133881</v>
       </c>
     </row>
     <row r="687">
@@ -10960,7 +10960,7 @@
         <v>85.57785</v>
       </c>
       <c r="C687" t="n">
-        <v>103.133888</v>
+        <v>103.133881</v>
       </c>
     </row>
     <row r="688">
@@ -10993,7 +10993,7 @@
         <v>89.453445</v>
       </c>
       <c r="C690" t="n">
-        <v>103.990944</v>
+        <v>103.990952</v>
       </c>
     </row>
     <row r="691">
@@ -11070,7 +11070,7 @@
         <v>91.401077</v>
       </c>
       <c r="C697" t="n">
-        <v>103.990944</v>
+        <v>103.990952</v>
       </c>
     </row>
     <row r="698">
@@ -11158,7 +11158,7 @@
         <v>84.161385</v>
       </c>
       <c r="C705" t="n">
-        <v>102.37204</v>
+        <v>102.372047</v>
       </c>
     </row>
     <row r="706">
@@ -11202,7 +11202,7 @@
         <v>86.974632</v>
       </c>
       <c r="C709" t="n">
-        <v>111.799797</v>
+        <v>111.799789</v>
       </c>
     </row>
     <row r="710">
@@ -11224,7 +11224,7 @@
         <v>88.627174</v>
       </c>
       <c r="C711" t="n">
-        <v>109.514282</v>
+        <v>109.514275</v>
       </c>
     </row>
     <row r="712">
@@ -11290,7 +11290,7 @@
         <v>102.447502</v>
       </c>
       <c r="C717" t="n">
-        <v>124.274895</v>
+        <v>124.274902</v>
       </c>
     </row>
     <row r="718">
@@ -11301,7 +11301,7 @@
         <v>102.890144</v>
       </c>
       <c r="C718" t="n">
-        <v>126.274727</v>
+        <v>126.274734</v>
       </c>
     </row>
     <row r="719">
@@ -11356,7 +11356,7 @@
         <v>103.234421</v>
       </c>
       <c r="C723" t="n">
-        <v>124.751045</v>
+        <v>124.751053</v>
       </c>
     </row>
     <row r="724">
@@ -11378,7 +11378,7 @@
         <v>102.98851</v>
       </c>
       <c r="C725" t="n">
-        <v>124.751045</v>
+        <v>124.751053</v>
       </c>
     </row>
     <row r="726">
@@ -11422,7 +11422,7 @@
         <v>102.250771</v>
       </c>
       <c r="C729" t="n">
-        <v>124.751045</v>
+        <v>124.751053</v>
       </c>
     </row>
     <row r="730">
@@ -11444,7 +11444,7 @@
         <v>101.513031</v>
       </c>
       <c r="C731" t="n">
-        <v>124.274895</v>
+        <v>124.274902</v>
       </c>
     </row>
     <row r="732">
@@ -11543,7 +11543,7 @@
         <v>94.529091</v>
       </c>
       <c r="C740" t="n">
-        <v>121.608467</v>
+        <v>121.608459</v>
       </c>
     </row>
     <row r="741">
@@ -11576,7 +11576,7 @@
         <v>96.870193</v>
       </c>
       <c r="C743" t="n">
-        <v>124.941505</v>
+        <v>124.941498</v>
       </c>
     </row>
     <row r="744">
@@ -11587,7 +11587,7 @@
         <v>99.742462</v>
       </c>
       <c r="C744" t="n">
-        <v>125.989044</v>
+        <v>125.989037</v>
       </c>
     </row>
     <row r="745">
@@ -11620,7 +11620,7 @@
         <v>99.004723</v>
       </c>
       <c r="C747" t="n">
-        <v>128.084106</v>
+        <v>128.084091</v>
       </c>
     </row>
     <row r="748">
@@ -11653,7 +11653,7 @@
         <v>103.627884</v>
       </c>
       <c r="C750" t="n">
-        <v>128.941162</v>
+        <v>128.941147</v>
       </c>
     </row>
     <row r="751">
@@ -11664,7 +11664,7 @@
         <v>108.054329</v>
       </c>
       <c r="C751" t="n">
-        <v>132.369431</v>
+        <v>132.369446</v>
       </c>
     </row>
     <row r="752">
@@ -11851,7 +11851,7 @@
         <v>103.480339</v>
       </c>
       <c r="C768" t="n">
-        <v>121.608467</v>
+        <v>121.608459</v>
       </c>
     </row>
     <row r="769">
@@ -11862,7 +11862,7 @@
         <v>104.070534</v>
       </c>
       <c r="C769" t="n">
-        <v>123.89399</v>
+        <v>123.893982</v>
       </c>
     </row>
     <row r="770">
@@ -11939,7 +11939,7 @@
         <v>107.955963</v>
       </c>
       <c r="C776" t="n">
-        <v>126.750877</v>
+        <v>126.750885</v>
       </c>
     </row>
     <row r="777">
@@ -11983,7 +11983,7 @@
         <v>110.857735</v>
       </c>
       <c r="C780" t="n">
-        <v>132.369431</v>
+        <v>132.369446</v>
       </c>
     </row>
     <row r="781">
@@ -12016,7 +12016,7 @@
         <v>111.644661</v>
       </c>
       <c r="C783" t="n">
-        <v>132.940811</v>
+        <v>132.940826</v>
       </c>
     </row>
     <row r="784">
@@ -12027,7 +12027,7 @@
         <v>111.447937</v>
       </c>
       <c r="C784" t="n">
-        <v>134.178802</v>
+        <v>134.178787</v>
       </c>
     </row>
     <row r="785">
@@ -12038,7 +12038,7 @@
         <v>112.333221</v>
       </c>
       <c r="C785" t="n">
-        <v>134.940643</v>
+        <v>134.940628</v>
       </c>
     </row>
     <row r="786">
@@ -12049,7 +12049,7 @@
         <v>115.087448</v>
       </c>
       <c r="C786" t="n">
-        <v>135.226318</v>
+        <v>135.226334</v>
       </c>
     </row>
     <row r="787">
@@ -12071,7 +12071,7 @@
         <v>114.595627</v>
       </c>
       <c r="C788" t="n">
-        <v>136.65477</v>
+        <v>136.654785</v>
       </c>
     </row>
     <row r="789">
@@ -12093,7 +12093,7 @@
         <v>116.366203</v>
       </c>
       <c r="C790" t="n">
-        <v>153.319977</v>
+        <v>153.319992</v>
       </c>
     </row>
     <row r="791">
@@ -12104,7 +12104,7 @@
         <v>116.218651</v>
       </c>
       <c r="C791" t="n">
-        <v>152.367706</v>
+        <v>152.367691</v>
       </c>
     </row>
     <row r="792">
@@ -12115,7 +12115,7 @@
         <v>118.82534</v>
       </c>
       <c r="C792" t="n">
-        <v>151.1297</v>
+        <v>151.129715</v>
       </c>
     </row>
     <row r="793">
@@ -12170,7 +12170,7 @@
         <v>120.54673</v>
       </c>
       <c r="C797" t="n">
-        <v>154.938889</v>
+        <v>154.938904</v>
       </c>
     </row>
     <row r="798">
@@ -12181,7 +12181,7 @@
         <v>120.497543</v>
       </c>
       <c r="C798" t="n">
-        <v>154.272278</v>
+        <v>154.272293</v>
       </c>
     </row>
     <row r="799">
@@ -12192,7 +12192,7 @@
         <v>120.349998</v>
       </c>
       <c r="C799" t="n">
-        <v>155.415039</v>
+        <v>155.415054</v>
       </c>
     </row>
     <row r="800">
@@ -12247,7 +12247,7 @@
         <v>118.25</v>
       </c>
       <c r="C804" t="n">
-        <v>155.224579</v>
+        <v>155.224594</v>
       </c>
     </row>
     <row r="805">
@@ -12258,7 +12258,7 @@
         <v>119.300003</v>
       </c>
       <c r="C805" t="n">
-        <v>159.986069</v>
+        <v>159.986084</v>
       </c>
     </row>
     <row r="806">

--- a/Danske aktiekurser.xlsx
+++ b/Danske aktiekurser.xlsx
@@ -3433,10 +3433,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>188.870819</v>
+        <v>188.870804</v>
       </c>
       <c r="C3" t="n">
-        <v>190.82489</v>
+        <v>190.824905</v>
       </c>
     </row>
     <row r="4">
@@ -3455,10 +3455,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="n">
-        <v>190.74855</v>
+        <v>190.748581</v>
       </c>
       <c r="C5" t="n">
-        <v>192.046173</v>
+        <v>192.046204</v>
       </c>
     </row>
     <row r="6">
@@ -3466,10 +3466,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="n">
-        <v>191.843918</v>
+        <v>191.843903</v>
       </c>
       <c r="C6" t="n">
-        <v>191.740845</v>
+        <v>191.74086</v>
       </c>
     </row>
     <row r="7">
@@ -3480,7 +3480,7 @@
         <v>190.357361</v>
       </c>
       <c r="C7" t="n">
-        <v>191.588196</v>
+        <v>191.588211</v>
       </c>
     </row>
     <row r="8">
@@ -3488,7 +3488,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="n">
-        <v>194.347595</v>
+        <v>194.34758</v>
       </c>
       <c r="C8" t="n">
         <v>195.404694</v>
@@ -3502,7 +3502,7 @@
         <v>196.14711</v>
       </c>
       <c r="C9" t="n">
-        <v>196.320648</v>
+        <v>196.320679</v>
       </c>
     </row>
     <row r="10">
@@ -3513,7 +3513,7 @@
         <v>194.817032</v>
       </c>
       <c r="C10" t="n">
-        <v>195.099365</v>
+        <v>195.09938</v>
       </c>
     </row>
     <row r="11">
@@ -3521,7 +3521,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="n">
-        <v>196.303574</v>
+        <v>196.303589</v>
       </c>
       <c r="C11" t="n">
         <v>193.572784</v>
@@ -3532,7 +3532,7 @@
         <v>13</v>
       </c>
       <c r="B12" t="n">
-        <v>195.521194</v>
+        <v>195.521179</v>
       </c>
       <c r="C12" t="n">
         <v>192.504166</v>
@@ -3543,7 +3543,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="n">
-        <v>195.990616</v>
+        <v>195.990631</v>
       </c>
       <c r="C13" t="n">
         <v>191.435532</v>
@@ -3557,7 +3557,7 @@
         <v>191.452728</v>
       </c>
       <c r="C14" t="n">
-        <v>191.588196</v>
+        <v>191.588211</v>
       </c>
     </row>
     <row r="15">
@@ -3568,7 +3568,7 @@
         <v>190.670319</v>
       </c>
       <c r="C15" t="n">
-        <v>191.893524</v>
+        <v>191.893494</v>
       </c>
     </row>
     <row r="16">
@@ -3579,7 +3579,7 @@
         <v>193.330475</v>
       </c>
       <c r="C16" t="n">
-        <v>193.114792</v>
+        <v>193.114807</v>
       </c>
     </row>
     <row r="17">
@@ -3587,7 +3587,7 @@
         <v>18</v>
       </c>
       <c r="B17" t="n">
-        <v>192.078644</v>
+        <v>192.078659</v>
       </c>
       <c r="C17" t="n">
         <v>191.435532</v>
@@ -3598,10 +3598,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="n">
-        <v>192.078644</v>
+        <v>192.078659</v>
       </c>
       <c r="C18" t="n">
-        <v>190.214233</v>
+        <v>190.214249</v>
       </c>
     </row>
     <row r="19">
@@ -3620,10 +3620,10 @@
         <v>21</v>
       </c>
       <c r="B20" t="n">
-        <v>189.966156</v>
+        <v>189.966171</v>
       </c>
       <c r="C20" t="n">
-        <v>187.4664</v>
+        <v>187.466385</v>
       </c>
     </row>
     <row r="21">
@@ -3631,10 +3631,10 @@
         <v>22</v>
       </c>
       <c r="B21" t="n">
-        <v>191.843918</v>
+        <v>191.843903</v>
       </c>
       <c r="C21" t="n">
-        <v>187.771683</v>
+        <v>187.771698</v>
       </c>
     </row>
     <row r="22">
@@ -3642,10 +3642,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="n">
-        <v>189.966156</v>
+        <v>189.966171</v>
       </c>
       <c r="C22" t="n">
-        <v>185.787125</v>
+        <v>185.787109</v>
       </c>
     </row>
     <row r="23">
@@ -3656,7 +3656,7 @@
         <v>190.513824</v>
       </c>
       <c r="C23" t="n">
-        <v>187.008392</v>
+        <v>187.008408</v>
       </c>
     </row>
     <row r="24">
@@ -3667,7 +3667,7 @@
         <v>189.418488</v>
       </c>
       <c r="C24" t="n">
-        <v>187.4664</v>
+        <v>187.466385</v>
       </c>
     </row>
     <row r="25">
@@ -3697,7 +3697,7 @@
         <v>28</v>
       </c>
       <c r="B27" t="n">
-        <v>186.758331</v>
+        <v>186.758316</v>
       </c>
       <c r="C27" t="n">
         <v>183.9552</v>
@@ -3708,10 +3708,10 @@
         <v>29</v>
       </c>
       <c r="B28" t="n">
-        <v>189.262009</v>
+        <v>189.261993</v>
       </c>
       <c r="C28" t="n">
-        <v>188.687653</v>
+        <v>188.687668</v>
       </c>
     </row>
     <row r="29">
@@ -3719,10 +3719,10 @@
         <v>30</v>
       </c>
       <c r="B29" t="n">
-        <v>188.557861</v>
+        <v>188.557846</v>
       </c>
       <c r="C29" t="n">
-        <v>187.161057</v>
+        <v>187.161072</v>
       </c>
     </row>
     <row r="30">
@@ -3733,7 +3733,7 @@
         <v>188.244904</v>
       </c>
       <c r="C30" t="n">
-        <v>185.787125</v>
+        <v>185.787109</v>
       </c>
     </row>
     <row r="31">
@@ -3741,10 +3741,10 @@
         <v>32</v>
       </c>
       <c r="B31" t="n">
-        <v>189.966156</v>
+        <v>189.966171</v>
       </c>
       <c r="C31" t="n">
-        <v>188.687653</v>
+        <v>188.687668</v>
       </c>
     </row>
     <row r="32">
@@ -3766,7 +3766,7 @@
         <v>191.061523</v>
       </c>
       <c r="C33" t="n">
-        <v>193.267441</v>
+        <v>193.267456</v>
       </c>
     </row>
     <row r="34">
@@ -3777,7 +3777,7 @@
         <v>192.313354</v>
       </c>
       <c r="C34" t="n">
-        <v>193.42012</v>
+        <v>193.420105</v>
       </c>
     </row>
     <row r="35">
@@ -3785,10 +3785,10 @@
         <v>36</v>
       </c>
       <c r="B35" t="n">
-        <v>194.660568</v>
+        <v>194.660553</v>
       </c>
       <c r="C35" t="n">
-        <v>196.625977</v>
+        <v>196.625992</v>
       </c>
     </row>
     <row r="36">
@@ -3807,7 +3807,7 @@
         <v>38</v>
       </c>
       <c r="B37" t="n">
-        <v>191.687439</v>
+        <v>191.687424</v>
       </c>
       <c r="C37" t="n">
         <v>185.481796</v>
@@ -3821,7 +3821,7 @@
         <v>192.861023</v>
       </c>
       <c r="C38" t="n">
-        <v>182.428604</v>
+        <v>182.428589</v>
       </c>
     </row>
     <row r="39">
@@ -3829,10 +3829,10 @@
         <v>40</v>
       </c>
       <c r="B39" t="n">
-        <v>193.252228</v>
+        <v>193.252258</v>
       </c>
       <c r="C39" t="n">
-        <v>180.444016</v>
+        <v>180.444031</v>
       </c>
     </row>
     <row r="40">
@@ -3840,7 +3840,7 @@
         <v>41</v>
       </c>
       <c r="B40" t="n">
-        <v>194.504074</v>
+        <v>194.504089</v>
       </c>
       <c r="C40" t="n">
         <v>186.245102</v>
@@ -3873,7 +3873,7 @@
         <v>44</v>
       </c>
       <c r="B43" t="n">
-        <v>192.626312</v>
+        <v>192.626328</v>
       </c>
       <c r="C43" t="n">
         <v>182.733917</v>
@@ -3884,10 +3884,10 @@
         <v>45</v>
       </c>
       <c r="B44" t="n">
-        <v>190.74855</v>
+        <v>190.748581</v>
       </c>
       <c r="C44" t="n">
-        <v>181.665298</v>
+        <v>181.665283</v>
       </c>
     </row>
     <row r="45">
@@ -3898,7 +3898,7 @@
         <v>189.731445</v>
       </c>
       <c r="C45" t="n">
-        <v>177.696136</v>
+        <v>177.696152</v>
       </c>
     </row>
     <row r="46">
@@ -3942,7 +3942,7 @@
         <v>191.218002</v>
       </c>
       <c r="C49" t="n">
-        <v>182.428604</v>
+        <v>182.428589</v>
       </c>
     </row>
     <row r="50">
@@ -3950,7 +3950,7 @@
         <v>51</v>
       </c>
       <c r="B50" t="n">
-        <v>192.626312</v>
+        <v>192.626328</v>
       </c>
       <c r="C50" t="n">
         <v>180.902008</v>
@@ -3961,7 +3961,7 @@
         <v>52</v>
       </c>
       <c r="B51" t="n">
-        <v>193.095749</v>
+        <v>193.095764</v>
       </c>
       <c r="C51" t="n">
         <v>180.291367</v>
@@ -3972,7 +3972,7 @@
         <v>53</v>
       </c>
       <c r="B52" t="n">
-        <v>193.799927</v>
+        <v>193.799911</v>
       </c>
       <c r="C52" t="n">
         <v>183.344559</v>
@@ -4008,7 +4008,7 @@
         <v>191.306274</v>
       </c>
       <c r="C55" t="n">
-        <v>182.792419</v>
+        <v>182.792404</v>
       </c>
     </row>
     <row r="56">
@@ -4016,7 +4016,7 @@
         <v>57</v>
       </c>
       <c r="B56" t="n">
-        <v>191.795761</v>
+        <v>191.795746</v>
       </c>
       <c r="C56" t="n">
         <v>183.594116</v>
@@ -4049,7 +4049,7 @@
         <v>60</v>
       </c>
       <c r="B59" t="n">
-        <v>186.493027</v>
+        <v>186.493011</v>
       </c>
       <c r="C59" t="n">
         <v>181.349289</v>
@@ -4060,7 +4060,7 @@
         <v>61</v>
       </c>
       <c r="B60" t="n">
-        <v>186.00354</v>
+        <v>186.003525</v>
       </c>
       <c r="C60" t="n">
         <v>182.632065</v>
@@ -4148,7 +4148,7 @@
         <v>69</v>
       </c>
       <c r="B68" t="n">
-        <v>182.985046</v>
+        <v>182.985062</v>
       </c>
       <c r="C68" t="n">
         <v>180.868271</v>
@@ -4181,7 +4181,7 @@
         <v>72</v>
       </c>
       <c r="B71" t="n">
-        <v>180.619217</v>
+        <v>180.619232</v>
       </c>
       <c r="C71" t="n">
         <v>184.395844</v>
@@ -4195,7 +4195,7 @@
         <v>180.211304</v>
       </c>
       <c r="C72" t="n">
-        <v>182.311356</v>
+        <v>182.311371</v>
       </c>
     </row>
     <row r="73">
@@ -4214,7 +4214,7 @@
         <v>75</v>
       </c>
       <c r="B74" t="n">
-        <v>181.9245</v>
+        <v>181.924515</v>
       </c>
       <c r="C74" t="n">
         <v>184.07515</v>
@@ -4283,7 +4283,7 @@
         <v>178.498123</v>
       </c>
       <c r="C80" t="n">
-        <v>187.602737</v>
+        <v>187.602722</v>
       </c>
     </row>
     <row r="81">
@@ -4291,7 +4291,7 @@
         <v>82</v>
       </c>
       <c r="B81" t="n">
-        <v>179.069183</v>
+        <v>179.069199</v>
       </c>
       <c r="C81" t="n">
         <v>186.319977</v>
@@ -4313,7 +4313,7 @@
         <v>84</v>
       </c>
       <c r="B83" t="n">
-        <v>177.763885</v>
+        <v>177.763901</v>
       </c>
       <c r="C83" t="n">
         <v>181.669983</v>
@@ -4346,7 +4346,7 @@
         <v>87</v>
       </c>
       <c r="B86" t="n">
-        <v>176.132278</v>
+        <v>176.132294</v>
       </c>
       <c r="C86" t="n">
         <v>183.433792</v>
@@ -4368,10 +4368,10 @@
         <v>89</v>
       </c>
       <c r="B88" t="n">
-        <v>176.784927</v>
+        <v>176.784943</v>
       </c>
       <c r="C88" t="n">
-        <v>187.121704</v>
+        <v>187.121689</v>
       </c>
     </row>
     <row r="89">
@@ -4445,7 +4445,7 @@
         <v>96</v>
       </c>
       <c r="B95" t="n">
-        <v>176.132278</v>
+        <v>176.132294</v>
       </c>
       <c r="C95" t="n">
         <v>185.357895</v>
@@ -4456,10 +4456,10 @@
         <v>97</v>
       </c>
       <c r="B96" t="n">
-        <v>176.948105</v>
+        <v>176.94809</v>
       </c>
       <c r="C96" t="n">
-        <v>185.037216</v>
+        <v>185.037231</v>
       </c>
     </row>
     <row r="97">
@@ -4492,7 +4492,7 @@
         <v>173.113815</v>
       </c>
       <c r="C99" t="n">
-        <v>181.02861</v>
+        <v>181.028625</v>
       </c>
     </row>
     <row r="100">
@@ -4514,7 +4514,7 @@
         <v>168.871643</v>
       </c>
       <c r="C101" t="n">
-        <v>175.737259</v>
+        <v>175.737244</v>
       </c>
     </row>
     <row r="102">
@@ -4533,7 +4533,7 @@
         <v>104</v>
       </c>
       <c r="B103" t="n">
-        <v>176.295471</v>
+        <v>176.295456</v>
       </c>
       <c r="C103" t="n">
         <v>178.302765</v>
@@ -4569,7 +4569,7 @@
         <v>175.561234</v>
       </c>
       <c r="C106" t="n">
-        <v>177.501038</v>
+        <v>177.501053</v>
       </c>
     </row>
     <row r="107">
@@ -4580,7 +4580,7 @@
         <v>174.092773</v>
       </c>
       <c r="C107" t="n">
-        <v>175.737259</v>
+        <v>175.737244</v>
       </c>
     </row>
     <row r="108">
@@ -4591,7 +4591,7 @@
         <v>177.84549</v>
       </c>
       <c r="C108" t="n">
-        <v>177.020004</v>
+        <v>177.02002</v>
       </c>
     </row>
     <row r="109">
@@ -4602,7 +4602,7 @@
         <v>178.498123</v>
       </c>
       <c r="C109" t="n">
-        <v>177.180344</v>
+        <v>177.180359</v>
       </c>
     </row>
     <row r="110">
@@ -4621,7 +4621,7 @@
         <v>112</v>
       </c>
       <c r="B111" t="n">
-        <v>178.742874</v>
+        <v>178.742889</v>
       </c>
       <c r="C111" t="n">
         <v>178.623459</v>
@@ -4635,7 +4635,7 @@
         <v>177.682327</v>
       </c>
       <c r="C112" t="n">
-        <v>177.821732</v>
+        <v>177.821747</v>
       </c>
     </row>
     <row r="113">
@@ -4654,7 +4654,7 @@
         <v>115</v>
       </c>
       <c r="B114" t="n">
-        <v>171.971695</v>
+        <v>171.97168</v>
       </c>
       <c r="C114" t="n">
         <v>175.095886</v>
@@ -4668,7 +4668,7 @@
         <v>170.258484</v>
       </c>
       <c r="C115" t="n">
-        <v>175.41658</v>
+        <v>175.416565</v>
       </c>
     </row>
     <row r="116">
@@ -4687,7 +4687,7 @@
         <v>118</v>
       </c>
       <c r="B117" t="n">
-        <v>168.626877</v>
+        <v>168.626892</v>
       </c>
       <c r="C117" t="n">
         <v>174.294159</v>
@@ -4723,7 +4723,7 @@
         <v>162.018875</v>
       </c>
       <c r="C120" t="n">
-        <v>173.652786</v>
+        <v>173.652771</v>
       </c>
     </row>
     <row r="121">
@@ -4756,7 +4756,7 @@
         <v>162.671509</v>
       </c>
       <c r="C123" t="n">
-        <v>175.41658</v>
+        <v>175.416565</v>
       </c>
     </row>
     <row r="124">
@@ -4767,7 +4767,7 @@
         <v>164.303116</v>
       </c>
       <c r="C124" t="n">
-        <v>177.501038</v>
+        <v>177.501053</v>
       </c>
     </row>
     <row r="125">
@@ -4775,7 +4775,7 @@
         <v>126</v>
       </c>
       <c r="B125" t="n">
-        <v>160.999115</v>
+        <v>160.99913</v>
       </c>
       <c r="C125" t="n">
         <v>179.264832</v>
@@ -4789,7 +4789,7 @@
         <v>156.797714</v>
       </c>
       <c r="C126" t="n">
-        <v>177.501038</v>
+        <v>177.501053</v>
       </c>
     </row>
     <row r="127">
@@ -4800,7 +4800,7 @@
         <v>155.533218</v>
       </c>
       <c r="C127" t="n">
-        <v>177.661392</v>
+        <v>177.661377</v>
       </c>
     </row>
     <row r="128">
@@ -4819,7 +4819,7 @@
         <v>130</v>
       </c>
       <c r="B129" t="n">
-        <v>158.103012</v>
+        <v>158.102997</v>
       </c>
       <c r="C129" t="n">
         <v>182.151031</v>
@@ -4863,7 +4863,7 @@
         <v>134</v>
       </c>
       <c r="B133" t="n">
-        <v>158.06221</v>
+        <v>158.062225</v>
       </c>
       <c r="C133" t="n">
         <v>181.990677</v>
@@ -4874,10 +4874,10 @@
         <v>135</v>
       </c>
       <c r="B134" t="n">
-        <v>159.163559</v>
+        <v>159.163544</v>
       </c>
       <c r="C134" t="n">
-        <v>180.707916</v>
+        <v>180.707932</v>
       </c>
     </row>
     <row r="135">
@@ -4885,10 +4885,10 @@
         <v>136</v>
       </c>
       <c r="B135" t="n">
-        <v>144.642227</v>
+        <v>144.642212</v>
       </c>
       <c r="C135" t="n">
-        <v>177.661392</v>
+        <v>177.661377</v>
       </c>
     </row>
     <row r="136">
@@ -4907,7 +4907,7 @@
         <v>138</v>
       </c>
       <c r="B137" t="n">
-        <v>147.456741</v>
+        <v>147.456757</v>
       </c>
       <c r="C137" t="n">
         <v>180.387238</v>
@@ -4918,7 +4918,7 @@
         <v>139</v>
       </c>
       <c r="B138" t="n">
-        <v>149.985764</v>
+        <v>149.985748</v>
       </c>
       <c r="C138" t="n">
         <v>181.669983</v>
@@ -4932,7 +4932,7 @@
         <v>151.94368</v>
       </c>
       <c r="C139" t="n">
-        <v>185.037216</v>
+        <v>185.037231</v>
       </c>
     </row>
     <row r="140">
@@ -4943,7 +4943,7 @@
         <v>150.92392</v>
       </c>
       <c r="C140" t="n">
-        <v>185.51825</v>
+        <v>185.518265</v>
       </c>
     </row>
     <row r="141">
@@ -4987,7 +4987,7 @@
         <v>151.127869</v>
       </c>
       <c r="C144" t="n">
-        <v>189.52684</v>
+        <v>189.526871</v>
       </c>
     </row>
     <row r="145">
@@ -5020,7 +5020,7 @@
         <v>149.12915</v>
       </c>
       <c r="C147" t="n">
-        <v>185.037216</v>
+        <v>185.037231</v>
       </c>
     </row>
     <row r="148">
@@ -5028,10 +5028,10 @@
         <v>149</v>
       </c>
       <c r="B148" t="n">
-        <v>147.538345</v>
+        <v>147.53833</v>
       </c>
       <c r="C148" t="n">
-        <v>177.180344</v>
+        <v>177.180359</v>
       </c>
     </row>
     <row r="149">
@@ -5039,7 +5039,7 @@
         <v>150</v>
       </c>
       <c r="B149" t="n">
-        <v>147.905457</v>
+        <v>147.905441</v>
       </c>
       <c r="C149" t="n">
         <v>180.387238</v>
@@ -5075,7 +5075,7 @@
         <v>149.700211</v>
       </c>
       <c r="C152" t="n">
-        <v>177.501038</v>
+        <v>177.501053</v>
       </c>
     </row>
     <row r="153">
@@ -5083,7 +5083,7 @@
         <v>154</v>
       </c>
       <c r="B153" t="n">
-        <v>150.02652</v>
+        <v>150.026535</v>
       </c>
       <c r="C153" t="n">
         <v>178.302765</v>
@@ -5116,7 +5116,7 @@
         <v>157</v>
       </c>
       <c r="B156" t="n">
-        <v>148.313339</v>
+        <v>148.313354</v>
       </c>
       <c r="C156" t="n">
         <v>176.218292</v>
@@ -5138,10 +5138,10 @@
         <v>159</v>
       </c>
       <c r="B158" t="n">
-        <v>150.230469</v>
+        <v>150.230484</v>
       </c>
       <c r="C158" t="n">
-        <v>175.737259</v>
+        <v>175.737244</v>
       </c>
     </row>
     <row r="159">
@@ -5152,7 +5152,7 @@
         <v>150.719971</v>
       </c>
       <c r="C159" t="n">
-        <v>177.661392</v>
+        <v>177.661377</v>
       </c>
     </row>
     <row r="160">
@@ -5163,7 +5163,7 @@
         <v>153.616074</v>
       </c>
       <c r="C160" t="n">
-        <v>176.057968</v>
+        <v>176.057953</v>
       </c>
     </row>
     <row r="161">
@@ -5193,7 +5193,7 @@
         <v>164</v>
       </c>
       <c r="B163" t="n">
-        <v>157.817474</v>
+        <v>157.817459</v>
       </c>
       <c r="C163" t="n">
         <v>175.256226</v>
@@ -5226,10 +5226,10 @@
         <v>167</v>
       </c>
       <c r="B166" t="n">
-        <v>156.634567</v>
+        <v>156.634552</v>
       </c>
       <c r="C166" t="n">
-        <v>151.926132</v>
+        <v>151.926147</v>
       </c>
     </row>
     <row r="167">
@@ -5237,10 +5237,10 @@
         <v>168</v>
       </c>
       <c r="B167" t="n">
-        <v>154.146347</v>
+        <v>154.146362</v>
       </c>
       <c r="C167" t="n">
-        <v>150.723557</v>
+        <v>150.723541</v>
       </c>
     </row>
     <row r="168">
@@ -5259,7 +5259,7 @@
         <v>170</v>
       </c>
       <c r="B169" t="n">
-        <v>144.764603</v>
+        <v>144.764587</v>
       </c>
       <c r="C169" t="n">
         <v>148.39856</v>
@@ -5273,7 +5273,7 @@
         <v>148.272552</v>
       </c>
       <c r="C170" t="n">
-        <v>147.917526</v>
+        <v>147.917542</v>
       </c>
     </row>
     <row r="171">
@@ -5339,7 +5339,7 @@
         <v>140.114502</v>
       </c>
       <c r="C176" t="n">
-        <v>148.879593</v>
+        <v>148.879578</v>
       </c>
     </row>
     <row r="177">
@@ -5347,10 +5347,10 @@
         <v>178</v>
       </c>
       <c r="B177" t="n">
-        <v>138.646057</v>
+        <v>138.646042</v>
       </c>
       <c r="C177" t="n">
-        <v>147.917526</v>
+        <v>147.917542</v>
       </c>
     </row>
     <row r="178">
@@ -5361,7 +5361,7 @@
         <v>137.748672</v>
       </c>
       <c r="C178" t="n">
-        <v>149.200302</v>
+        <v>149.200287</v>
       </c>
     </row>
     <row r="179">
@@ -5405,7 +5405,7 @@
         <v>138.727646</v>
       </c>
       <c r="C182" t="n">
-        <v>152.888214</v>
+        <v>152.888199</v>
       </c>
     </row>
     <row r="183">
@@ -5413,7 +5413,7 @@
         <v>184</v>
       </c>
       <c r="B183" t="n">
-        <v>135.709167</v>
+        <v>135.709152</v>
       </c>
       <c r="C183" t="n">
         <v>151.364929</v>
@@ -5427,7 +5427,7 @@
         <v>138.686844</v>
       </c>
       <c r="C184" t="n">
-        <v>152.968384</v>
+        <v>152.968369</v>
       </c>
     </row>
     <row r="185">
@@ -5438,7 +5438,7 @@
         <v>140.563202</v>
       </c>
       <c r="C185" t="n">
-        <v>155.934753</v>
+        <v>155.934738</v>
       </c>
     </row>
     <row r="186">
@@ -5446,7 +5446,7 @@
         <v>187</v>
       </c>
       <c r="B186" t="n">
-        <v>138.768448</v>
+        <v>138.768433</v>
       </c>
       <c r="C186" t="n">
         <v>151.364929</v>
@@ -5468,7 +5468,7 @@
         <v>189</v>
       </c>
       <c r="B188" t="n">
-        <v>138.238144</v>
+        <v>138.238159</v>
       </c>
       <c r="C188" t="n">
         <v>152.64769</v>
@@ -5493,7 +5493,7 @@
         <v>135.627579</v>
       </c>
       <c r="C190" t="n">
-        <v>149.440796</v>
+        <v>149.440811</v>
       </c>
     </row>
     <row r="191">
@@ -5559,7 +5559,7 @@
         <v>115.191666</v>
       </c>
       <c r="C196" t="n">
-        <v>140.782227</v>
+        <v>140.782211</v>
       </c>
     </row>
     <row r="197">
@@ -5570,7 +5570,7 @@
         <v>115.273247</v>
       </c>
       <c r="C197" t="n">
-        <v>141.904633</v>
+        <v>141.904617</v>
       </c>
     </row>
     <row r="198">
@@ -5589,10 +5589,10 @@
         <v>200</v>
       </c>
       <c r="B199" t="n">
-        <v>115.436401</v>
+        <v>115.436409</v>
       </c>
       <c r="C199" t="n">
-        <v>143.588226</v>
+        <v>143.588242</v>
       </c>
     </row>
     <row r="200">
@@ -5600,7 +5600,7 @@
         <v>201</v>
       </c>
       <c r="B200" t="n">
-        <v>112.254768</v>
+        <v>112.254776</v>
       </c>
       <c r="C200" t="n">
         <v>143.748581</v>
@@ -5611,7 +5611,7 @@
         <v>202</v>
       </c>
       <c r="B201" t="n">
-        <v>110.704735</v>
+        <v>110.704727</v>
       </c>
       <c r="C201" t="n">
         <v>143.187393</v>
@@ -5625,7 +5625,7 @@
         <v>107.033607</v>
       </c>
       <c r="C202" t="n">
-        <v>142.706345</v>
+        <v>142.70636</v>
       </c>
     </row>
     <row r="203">
@@ -5636,7 +5636,7 @@
         <v>106.421753</v>
       </c>
       <c r="C203" t="n">
-        <v>139.82016</v>
+        <v>139.820145</v>
       </c>
     </row>
     <row r="204">
@@ -5647,7 +5647,7 @@
         <v>103.280914</v>
       </c>
       <c r="C204" t="n">
-        <v>140.782227</v>
+        <v>140.782211</v>
       </c>
     </row>
     <row r="205">
@@ -5732,10 +5732,10 @@
         <v>213</v>
       </c>
       <c r="B212" t="n">
-        <v>111.765282</v>
+        <v>111.765274</v>
       </c>
       <c r="C212" t="n">
-        <v>127.874519</v>
+        <v>127.874512</v>
       </c>
     </row>
     <row r="213">
@@ -5746,7 +5746,7 @@
         <v>110.337624</v>
       </c>
       <c r="C213" t="n">
-        <v>130.199493</v>
+        <v>130.199509</v>
       </c>
     </row>
     <row r="214">
@@ -5765,10 +5765,10 @@
         <v>216</v>
       </c>
       <c r="B215" t="n">
-        <v>117.516708</v>
+        <v>117.516716</v>
       </c>
       <c r="C215" t="n">
-        <v>132.524506</v>
+        <v>132.52449</v>
       </c>
     </row>
     <row r="216">
@@ -5787,7 +5787,7 @@
         <v>218</v>
       </c>
       <c r="B217" t="n">
-        <v>117.598282</v>
+        <v>117.598289</v>
       </c>
       <c r="C217" t="n">
         <v>131.321915</v>
@@ -5798,10 +5798,10 @@
         <v>219</v>
       </c>
       <c r="B218" t="n">
-        <v>116.619324</v>
+        <v>116.619316</v>
       </c>
       <c r="C218" t="n">
-        <v>130.440018</v>
+        <v>130.440002</v>
       </c>
     </row>
     <row r="219">
@@ -5820,10 +5820,10 @@
         <v>221</v>
       </c>
       <c r="B220" t="n">
-        <v>117.598282</v>
+        <v>117.598289</v>
       </c>
       <c r="C220" t="n">
-        <v>129.237442</v>
+        <v>129.237427</v>
       </c>
     </row>
     <row r="221">
@@ -5834,7 +5834,7 @@
         <v>113.519257</v>
       </c>
       <c r="C221" t="n">
-        <v>127.874519</v>
+        <v>127.874512</v>
       </c>
     </row>
     <row r="222">
@@ -5845,7 +5845,7 @@
         <v>111.602127</v>
       </c>
       <c r="C222" t="n">
-        <v>127.553825</v>
+        <v>127.553833</v>
       </c>
     </row>
     <row r="223">
@@ -5853,7 +5853,7 @@
         <v>224</v>
       </c>
       <c r="B223" t="n">
-        <v>110.500778</v>
+        <v>110.500786</v>
       </c>
       <c r="C223" t="n">
         <v>128.756409</v>
@@ -5864,10 +5864,10 @@
         <v>225</v>
       </c>
       <c r="B224" t="n">
-        <v>106.544136</v>
+        <v>106.544144</v>
       </c>
       <c r="C224" t="n">
-        <v>125.950394</v>
+        <v>125.950378</v>
       </c>
     </row>
     <row r="225">
@@ -5878,7 +5878,7 @@
         <v>107.441513</v>
       </c>
       <c r="C225" t="n">
-        <v>127.874519</v>
+        <v>127.874512</v>
       </c>
     </row>
     <row r="226">
@@ -5889,7 +5889,7 @@
         <v>108.461273</v>
       </c>
       <c r="C226" t="n">
-        <v>127.874519</v>
+        <v>127.874512</v>
       </c>
     </row>
     <row r="227">
@@ -5966,7 +5966,7 @@
         <v>108.706017</v>
       </c>
       <c r="C233" t="n">
-        <v>126.671944</v>
+        <v>126.671928</v>
       </c>
     </row>
     <row r="234">
@@ -5977,7 +5977,7 @@
         <v>108.583641</v>
       </c>
       <c r="C234" t="n">
-        <v>127.152969</v>
+        <v>127.152962</v>
       </c>
     </row>
     <row r="235">
@@ -5985,7 +5985,7 @@
         <v>236</v>
       </c>
       <c r="B235" t="n">
-        <v>114.620605</v>
+        <v>114.620598</v>
       </c>
       <c r="C235" t="n">
         <v>129.79863</v>
@@ -5996,7 +5996,7 @@
         <v>237</v>
       </c>
       <c r="B236" t="n">
-        <v>111.316582</v>
+        <v>111.316589</v>
       </c>
       <c r="C236" t="n">
         <v>126.992615</v>
@@ -6007,10 +6007,10 @@
         <v>238</v>
       </c>
       <c r="B237" t="n">
-        <v>116.007462</v>
+        <v>116.007469</v>
       </c>
       <c r="C237" t="n">
-        <v>129.558136</v>
+        <v>129.558121</v>
       </c>
     </row>
     <row r="238">
@@ -6018,10 +6018,10 @@
         <v>239</v>
       </c>
       <c r="B238" t="n">
-        <v>112.050827</v>
+        <v>112.050819</v>
       </c>
       <c r="C238" t="n">
-        <v>127.152969</v>
+        <v>127.152962</v>
       </c>
     </row>
     <row r="239">
@@ -6029,10 +6029,10 @@
         <v>240</v>
       </c>
       <c r="B239" t="n">
-        <v>114.212692</v>
+        <v>114.2127</v>
       </c>
       <c r="C239" t="n">
-        <v>129.558136</v>
+        <v>129.558121</v>
       </c>
     </row>
     <row r="240">
@@ -6043,7 +6043,7 @@
         <v>113.519257</v>
       </c>
       <c r="C240" t="n">
-        <v>129.077103</v>
+        <v>129.077087</v>
       </c>
     </row>
     <row r="241">
@@ -6051,10 +6051,10 @@
         <v>242</v>
       </c>
       <c r="B241" t="n">
-        <v>113.396889</v>
+        <v>113.396896</v>
       </c>
       <c r="C241" t="n">
-        <v>128.676224</v>
+        <v>128.676239</v>
       </c>
     </row>
     <row r="242">
@@ -6062,7 +6062,7 @@
         <v>243</v>
       </c>
       <c r="B242" t="n">
-        <v>112.62188</v>
+        <v>112.621887</v>
       </c>
       <c r="C242" t="n">
         <v>128.034851</v>
@@ -6073,7 +6073,7 @@
         <v>244</v>
       </c>
       <c r="B243" t="n">
-        <v>110.459991</v>
+        <v>110.459984</v>
       </c>
       <c r="C243" t="n">
         <v>127.633987</v>
@@ -6087,7 +6087,7 @@
         <v>112.213982</v>
       </c>
       <c r="C244" t="n">
-        <v>122.663315</v>
+        <v>122.663307</v>
       </c>
     </row>
     <row r="245">
@@ -6095,7 +6095,7 @@
         <v>246</v>
       </c>
       <c r="B245" t="n">
-        <v>109.725769</v>
+        <v>109.725777</v>
       </c>
       <c r="C245" t="n">
         <v>121.781425</v>
@@ -6106,10 +6106,10 @@
         <v>247</v>
       </c>
       <c r="B246" t="n">
-        <v>105.442787</v>
+        <v>105.442795</v>
       </c>
       <c r="C246" t="n">
-        <v>117.77282</v>
+        <v>117.772827</v>
       </c>
     </row>
     <row r="247">
@@ -6120,7 +6120,7 @@
         <v>104.626984</v>
       </c>
       <c r="C247" t="n">
-        <v>120.258163</v>
+        <v>120.258156</v>
       </c>
     </row>
     <row r="248">
@@ -6131,7 +6131,7 @@
         <v>102.95459</v>
       </c>
       <c r="C248" t="n">
-        <v>120.819374</v>
+        <v>120.819366</v>
       </c>
     </row>
     <row r="249">
@@ -6150,7 +6150,7 @@
         <v>251</v>
       </c>
       <c r="B250" t="n">
-        <v>104.994102</v>
+        <v>104.994095</v>
       </c>
       <c r="C250" t="n">
         <v>126.271057</v>
@@ -6164,7 +6164,7 @@
         <v>104.749352</v>
       </c>
       <c r="C251" t="n">
-        <v>123.865891</v>
+        <v>123.865906</v>
       </c>
     </row>
     <row r="252">
@@ -6183,10 +6183,10 @@
         <v>254</v>
       </c>
       <c r="B253" t="n">
-        <v>108.909973</v>
+        <v>108.909966</v>
       </c>
       <c r="C253" t="n">
-        <v>126.591751</v>
+        <v>126.591759</v>
       </c>
     </row>
     <row r="254">
@@ -6194,10 +6194,10 @@
         <v>255</v>
       </c>
       <c r="B254" t="n">
-        <v>108.3797</v>
+        <v>108.379692</v>
       </c>
       <c r="C254" t="n">
-        <v>126.832268</v>
+        <v>126.83226</v>
       </c>
     </row>
     <row r="255">
@@ -6208,7 +6208,7 @@
         <v>107.074402</v>
       </c>
       <c r="C255" t="n">
-        <v>126.431412</v>
+        <v>126.431419</v>
       </c>
     </row>
     <row r="256">
@@ -6219,7 +6219,7 @@
         <v>104.219086</v>
       </c>
       <c r="C256" t="n">
-        <v>126.591751</v>
+        <v>126.591759</v>
       </c>
     </row>
     <row r="257">
@@ -6241,7 +6241,7 @@
         <v>106.054649</v>
       </c>
       <c r="C258" t="n">
-        <v>124.266769</v>
+        <v>124.266777</v>
       </c>
     </row>
     <row r="259">
@@ -6252,7 +6252,7 @@
         <v>104.423042</v>
       </c>
       <c r="C259" t="n">
-        <v>122.583145</v>
+        <v>122.583153</v>
       </c>
     </row>
     <row r="260">
@@ -6274,7 +6274,7 @@
         <v>103.933556</v>
       </c>
       <c r="C261" t="n">
-        <v>126.030556</v>
+        <v>126.030548</v>
       </c>
     </row>
     <row r="262">
@@ -6282,7 +6282,7 @@
         <v>263</v>
       </c>
       <c r="B262" t="n">
-        <v>103.199326</v>
+        <v>103.199333</v>
       </c>
       <c r="C262" t="n">
         <v>125.870201</v>
@@ -6293,10 +6293,10 @@
         <v>264</v>
       </c>
       <c r="B263" t="n">
-        <v>105.238846</v>
+        <v>105.238838</v>
       </c>
       <c r="C263" t="n">
-        <v>124.507278</v>
+        <v>124.507271</v>
       </c>
     </row>
     <row r="264">
@@ -6307,7 +6307,7 @@
         <v>102.791428</v>
       </c>
       <c r="C264" t="n">
-        <v>125.709862</v>
+        <v>125.709869</v>
       </c>
     </row>
     <row r="265">
@@ -6329,7 +6329,7 @@
         <v>99.976906</v>
       </c>
       <c r="C266" t="n">
-        <v>126.110733</v>
+        <v>126.110741</v>
       </c>
     </row>
     <row r="267">
@@ -6340,7 +6340,7 @@
         <v>102.138786</v>
       </c>
       <c r="C267" t="n">
-        <v>126.832268</v>
+        <v>126.83226</v>
       </c>
     </row>
     <row r="268">
@@ -6403,10 +6403,10 @@
         <v>274</v>
       </c>
       <c r="B273" t="n">
-        <v>101.078232</v>
+        <v>101.078239</v>
       </c>
       <c r="C273" t="n">
-        <v>122.262459</v>
+        <v>122.262451</v>
       </c>
     </row>
     <row r="274">
@@ -6414,7 +6414,7 @@
         <v>275</v>
       </c>
       <c r="B274" t="n">
-        <v>103.199326</v>
+        <v>103.199333</v>
       </c>
       <c r="C274" t="n">
         <v>122.102119</v>
@@ -6450,7 +6450,7 @@
         <v>97.896599</v>
       </c>
       <c r="C277" t="n">
-        <v>119.456436</v>
+        <v>119.456444</v>
       </c>
     </row>
     <row r="278">
@@ -6461,7 +6461,7 @@
         <v>98.712402</v>
       </c>
       <c r="C278" t="n">
-        <v>119.13575</v>
+        <v>119.135757</v>
       </c>
     </row>
     <row r="279">
@@ -6472,7 +6472,7 @@
         <v>101.119026</v>
       </c>
       <c r="C279" t="n">
-        <v>121.22023</v>
+        <v>121.220222</v>
       </c>
     </row>
     <row r="280">
@@ -6480,10 +6480,10 @@
         <v>281</v>
       </c>
       <c r="B280" t="n">
-        <v>100.180855</v>
+        <v>100.180847</v>
       </c>
       <c r="C280" t="n">
-        <v>122.262459</v>
+        <v>122.262451</v>
       </c>
     </row>
     <row r="281">
@@ -6494,7 +6494,7 @@
         <v>99.936104</v>
       </c>
       <c r="C281" t="n">
-        <v>121.22023</v>
+        <v>121.220222</v>
       </c>
     </row>
     <row r="282">
@@ -6505,7 +6505,7 @@
         <v>101.486137</v>
       </c>
       <c r="C282" t="n">
-        <v>122.02195</v>
+        <v>122.021957</v>
       </c>
     </row>
     <row r="283">
@@ -6516,7 +6516,7 @@
         <v>103.321701</v>
       </c>
       <c r="C283" t="n">
-        <v>123.545212</v>
+        <v>123.545227</v>
       </c>
     </row>
     <row r="284">
@@ -6524,7 +6524,7 @@
         <v>285</v>
       </c>
       <c r="B284" t="n">
-        <v>102.873001</v>
+        <v>102.873009</v>
       </c>
       <c r="C284" t="n">
         <v>121.540916</v>
@@ -6549,7 +6549,7 @@
         <v>98.712402</v>
       </c>
       <c r="C286" t="n">
-        <v>120.49868</v>
+        <v>120.498665</v>
       </c>
     </row>
     <row r="287">
@@ -6560,7 +6560,7 @@
         <v>98.467659</v>
       </c>
       <c r="C287" t="n">
-        <v>120.57885</v>
+        <v>120.578857</v>
       </c>
     </row>
     <row r="288">
@@ -6568,7 +6568,7 @@
         <v>289</v>
       </c>
       <c r="B288" t="n">
-        <v>102.301941</v>
+        <v>102.301949</v>
       </c>
       <c r="C288" t="n">
         <v>121.781425</v>
@@ -6582,7 +6582,7 @@
         <v>102.22036</v>
       </c>
       <c r="C289" t="n">
-        <v>119.777115</v>
+        <v>119.77713</v>
       </c>
     </row>
     <row r="290">
@@ -6593,7 +6593,7 @@
         <v>106.054649</v>
       </c>
       <c r="C290" t="n">
-        <v>127.393486</v>
+        <v>127.393478</v>
       </c>
     </row>
     <row r="291">
@@ -6604,7 +6604,7 @@
         <v>106.462555</v>
       </c>
       <c r="C291" t="n">
-        <v>125.228813</v>
+        <v>125.228821</v>
       </c>
     </row>
     <row r="292">
@@ -6637,7 +6637,7 @@
         <v>104.83094</v>
       </c>
       <c r="C294" t="n">
-        <v>121.059875</v>
+        <v>121.059883</v>
       </c>
     </row>
     <row r="295">
@@ -6645,7 +6645,7 @@
         <v>296</v>
       </c>
       <c r="B295" t="n">
-        <v>105.442787</v>
+        <v>105.442795</v>
       </c>
       <c r="C295" t="n">
         <v>119.616791</v>
@@ -6659,7 +6659,7 @@
         <v>104.137505</v>
       </c>
       <c r="C296" t="n">
-        <v>117.692665</v>
+        <v>117.692657</v>
       </c>
     </row>
     <row r="297">
@@ -6714,7 +6714,7 @@
         <v>107.971794</v>
       </c>
       <c r="C301" t="n">
-        <v>118.654724</v>
+        <v>118.654709</v>
       </c>
     </row>
     <row r="302">
@@ -6725,7 +6725,7 @@
         <v>108.706017</v>
       </c>
       <c r="C302" t="n">
-        <v>120.258163</v>
+        <v>120.258156</v>
       </c>
     </row>
     <row r="303">
@@ -6747,7 +6747,7 @@
         <v>110.308449</v>
       </c>
       <c r="C304" t="n">
-        <v>123.304695</v>
+        <v>123.304703</v>
       </c>
     </row>
     <row r="305">
@@ -6758,7 +6758,7 @@
         <v>109.437477</v>
       </c>
       <c r="C305" t="n">
-        <v>121.94178</v>
+        <v>121.941788</v>
       </c>
     </row>
     <row r="306">
@@ -6769,7 +6769,7 @@
         <v>108.000374</v>
       </c>
       <c r="C306" t="n">
-        <v>120.899544</v>
+        <v>120.899536</v>
       </c>
     </row>
     <row r="307">
@@ -6791,7 +6791,7 @@
         <v>105.605202</v>
       </c>
       <c r="C308" t="n">
-        <v>118.38649</v>
+        <v>118.386497</v>
       </c>
     </row>
     <row r="309">
@@ -6799,7 +6799,7 @@
         <v>310</v>
       </c>
       <c r="B309" t="n">
-        <v>105.039078</v>
+        <v>105.03907</v>
       </c>
       <c r="C309" t="n">
         <v>114.540001</v>
@@ -6810,10 +6810,10 @@
         <v>311</v>
       </c>
       <c r="B310" t="n">
-        <v>105.474556</v>
+        <v>105.474564</v>
       </c>
       <c r="C310" t="n">
-        <v>116.762428</v>
+        <v>116.762421</v>
       </c>
     </row>
     <row r="311">
@@ -6821,10 +6821,10 @@
         <v>312</v>
       </c>
       <c r="B311" t="n">
-        <v>101.685844</v>
+        <v>101.685837</v>
       </c>
       <c r="C311" t="n">
-        <v>117.104332</v>
+        <v>117.104324</v>
       </c>
     </row>
     <row r="312">
@@ -6846,7 +6846,7 @@
         <v>106.066818</v>
       </c>
       <c r="C313" t="n">
-        <v>121.121765</v>
+        <v>121.121773</v>
       </c>
     </row>
     <row r="314">
@@ -6857,7 +6857,7 @@
         <v>106.737473</v>
       </c>
       <c r="C314" t="n">
-        <v>121.463684</v>
+        <v>121.463692</v>
       </c>
     </row>
     <row r="315">
@@ -6890,7 +6890,7 @@
         <v>107.129402</v>
       </c>
       <c r="C317" t="n">
-        <v>121.20726</v>
+        <v>121.207253</v>
       </c>
     </row>
     <row r="318">
@@ -6912,7 +6912,7 @@
         <v>106.389084</v>
       </c>
       <c r="C319" t="n">
-        <v>120.52343</v>
+        <v>120.523438</v>
       </c>
     </row>
     <row r="320">
@@ -6920,7 +6920,7 @@
         <v>321</v>
       </c>
       <c r="B320" t="n">
-        <v>105.953598</v>
+        <v>105.95359</v>
       </c>
       <c r="C320" t="n">
         <v>120.352486</v>
@@ -6931,7 +6931,7 @@
         <v>322</v>
       </c>
       <c r="B321" t="n">
-        <v>108.131027</v>
+        <v>108.13102</v>
       </c>
       <c r="C321" t="n">
         <v>122.232986</v>
@@ -6967,7 +6967,7 @@
         <v>112.050385</v>
       </c>
       <c r="C324" t="n">
-        <v>124.028023</v>
+        <v>124.028015</v>
       </c>
     </row>
     <row r="325">
@@ -7022,7 +7022,7 @@
         <v>111.919746</v>
       </c>
       <c r="C329" t="n">
-        <v>122.916809</v>
+        <v>122.916817</v>
       </c>
     </row>
     <row r="330">
@@ -7030,7 +7030,7 @@
         <v>331</v>
       </c>
       <c r="B330" t="n">
-        <v>113.705238</v>
+        <v>113.705231</v>
       </c>
       <c r="C330" t="n">
         <v>123.942535</v>
@@ -7041,10 +7041,10 @@
         <v>332</v>
       </c>
       <c r="B331" t="n">
-        <v>102.8181</v>
+        <v>102.818108</v>
       </c>
       <c r="C331" t="n">
-        <v>122.831329</v>
+        <v>122.831322</v>
       </c>
     </row>
     <row r="332">
@@ -7055,7 +7055,7 @@
         <v>103.993912</v>
       </c>
       <c r="C332" t="n">
-        <v>120.779861</v>
+        <v>120.779869</v>
       </c>
     </row>
     <row r="333">
@@ -7063,7 +7063,7 @@
         <v>334</v>
       </c>
       <c r="B333" t="n">
-        <v>102.382622</v>
+        <v>102.382614</v>
       </c>
       <c r="C333" t="n">
         <v>109.325867</v>
@@ -7085,7 +7085,7 @@
         <v>336</v>
       </c>
       <c r="B335" t="n">
-        <v>100.510033</v>
+        <v>100.510025</v>
       </c>
       <c r="C335" t="n">
         <v>107.78727</v>
@@ -7099,7 +7099,7 @@
         <v>98.463249</v>
       </c>
       <c r="C336" t="n">
-        <v>108.471092</v>
+        <v>108.471085</v>
       </c>
     </row>
     <row r="337">
@@ -7110,7 +7110,7 @@
         <v>97.635818</v>
       </c>
       <c r="C337" t="n">
-        <v>107.530838</v>
+        <v>107.530846</v>
       </c>
     </row>
     <row r="338">
@@ -7140,7 +7140,7 @@
         <v>341</v>
       </c>
       <c r="B340" t="n">
-        <v>96.068077</v>
+        <v>96.068085</v>
       </c>
       <c r="C340" t="n">
         <v>106.590584</v>
@@ -7151,10 +7151,10 @@
         <v>342</v>
       </c>
       <c r="B341" t="n">
-        <v>93.890656</v>
+        <v>93.890648</v>
       </c>
       <c r="C341" t="n">
-        <v>106.847008</v>
+        <v>106.847015</v>
       </c>
     </row>
     <row r="342">
@@ -7165,7 +7165,7 @@
         <v>92.758385</v>
       </c>
       <c r="C342" t="n">
-        <v>106.163185</v>
+        <v>106.163193</v>
       </c>
     </row>
     <row r="343">
@@ -7184,7 +7184,7 @@
         <v>345</v>
       </c>
       <c r="B344" t="n">
-        <v>96.416458</v>
+        <v>96.416466</v>
       </c>
       <c r="C344" t="n">
         <v>106.676064</v>
@@ -7206,7 +7206,7 @@
         <v>347</v>
       </c>
       <c r="B346" t="n">
-        <v>96.764847</v>
+        <v>96.764854</v>
       </c>
       <c r="C346" t="n">
         <v>105.906761</v>
@@ -7250,10 +7250,10 @@
         <v>351</v>
       </c>
       <c r="B350" t="n">
-        <v>97.984207</v>
+        <v>97.984215</v>
       </c>
       <c r="C350" t="n">
-        <v>107.359871</v>
+        <v>107.359879</v>
       </c>
     </row>
     <row r="351">
@@ -7272,10 +7272,10 @@
         <v>353</v>
       </c>
       <c r="B352" t="n">
-        <v>95.458397</v>
+        <v>95.458389</v>
       </c>
       <c r="C352" t="n">
-        <v>107.359871</v>
+        <v>107.359879</v>
       </c>
     </row>
     <row r="353">
@@ -7286,7 +7286,7 @@
         <v>97.592278</v>
       </c>
       <c r="C353" t="n">
-        <v>106.847008</v>
+        <v>106.847015</v>
       </c>
     </row>
     <row r="354">
@@ -7294,7 +7294,7 @@
         <v>355</v>
       </c>
       <c r="B354" t="n">
-        <v>94.674515</v>
+        <v>94.674522</v>
       </c>
       <c r="C354" t="n">
         <v>107.616318</v>
@@ -7305,7 +7305,7 @@
         <v>356</v>
       </c>
       <c r="B355" t="n">
-        <v>95.589035</v>
+        <v>95.589043</v>
       </c>
       <c r="C355" t="n">
         <v>108.813004</v>
@@ -7316,7 +7316,7 @@
         <v>357</v>
       </c>
       <c r="B356" t="n">
-        <v>96.851952</v>
+        <v>96.851944</v>
       </c>
       <c r="C356" t="n">
         <v>110.266113</v>
@@ -7341,7 +7341,7 @@
         <v>97.374535</v>
       </c>
       <c r="C358" t="n">
-        <v>111.975677</v>
+        <v>111.97567</v>
       </c>
     </row>
     <row r="359">
@@ -7349,7 +7349,7 @@
         <v>360</v>
       </c>
       <c r="B359" t="n">
-        <v>95.458397</v>
+        <v>95.458389</v>
       </c>
       <c r="C359" t="n">
         <v>111.377335</v>
@@ -7374,7 +7374,7 @@
         <v>90.929352</v>
       </c>
       <c r="C361" t="n">
-        <v>110.864456</v>
+        <v>110.864449</v>
       </c>
     </row>
     <row r="362">
@@ -7382,10 +7382,10 @@
         <v>363</v>
       </c>
       <c r="B362" t="n">
-        <v>91.800323</v>
+        <v>91.800316</v>
       </c>
       <c r="C362" t="n">
-        <v>113.172356</v>
+        <v>113.172348</v>
       </c>
     </row>
     <row r="363">
@@ -7396,7 +7396,7 @@
         <v>90.189026</v>
       </c>
       <c r="C363" t="n">
-        <v>109.667778</v>
+        <v>109.66777</v>
       </c>
     </row>
     <row r="364">
@@ -7407,7 +7407,7 @@
         <v>90.493866</v>
       </c>
       <c r="C364" t="n">
-        <v>108.727516</v>
+        <v>108.727524</v>
       </c>
     </row>
     <row r="365">
@@ -7415,7 +7415,7 @@
         <v>366</v>
       </c>
       <c r="B365" t="n">
-        <v>87.706757</v>
+        <v>87.706749</v>
       </c>
       <c r="C365" t="n">
         <v>107.274406</v>
@@ -7429,7 +7429,7 @@
         <v>86.260948</v>
       </c>
       <c r="C366" t="n">
-        <v>104.539124</v>
+        <v>104.539116</v>
       </c>
     </row>
     <row r="367">
@@ -7448,7 +7448,7 @@
         <v>369</v>
       </c>
       <c r="B368" t="n">
-        <v>89.535805</v>
+        <v>89.535797</v>
       </c>
       <c r="C368" t="n">
         <v>106.676064</v>
@@ -7459,10 +7459,10 @@
         <v>370</v>
       </c>
       <c r="B369" t="n">
-        <v>90.363213</v>
+        <v>90.36322</v>
       </c>
       <c r="C369" t="n">
-        <v>106.932495</v>
+        <v>106.932487</v>
       </c>
     </row>
     <row r="370">
@@ -7470,7 +7470,7 @@
         <v>371</v>
       </c>
       <c r="B370" t="n">
-        <v>91.234184</v>
+        <v>91.234192</v>
       </c>
       <c r="C370" t="n">
         <v>108.813004</v>
@@ -7503,7 +7503,7 @@
         <v>374</v>
       </c>
       <c r="B373" t="n">
-        <v>91.234184</v>
+        <v>91.234192</v>
       </c>
       <c r="C373" t="n">
         <v>110.180641</v>
@@ -7517,7 +7517,7 @@
         <v>92.540642</v>
       </c>
       <c r="C374" t="n">
-        <v>110.693504</v>
+        <v>110.693512</v>
       </c>
     </row>
     <row r="375">
@@ -7525,7 +7525,7 @@
         <v>376</v>
       </c>
       <c r="B375" t="n">
-        <v>90.755157</v>
+        <v>90.75515</v>
       </c>
       <c r="C375" t="n">
         <v>109.411339</v>
@@ -7558,7 +7558,7 @@
         <v>379</v>
       </c>
       <c r="B378" t="n">
-        <v>89.492241</v>
+        <v>89.492249</v>
       </c>
       <c r="C378" t="n">
         <v>105.393906</v>
@@ -7580,7 +7580,7 @@
         <v>381</v>
       </c>
       <c r="B380" t="n">
-        <v>90.668053</v>
+        <v>90.66806</v>
       </c>
       <c r="C380" t="n">
         <v>104.624596</v>
@@ -7605,7 +7605,7 @@
         <v>88.795464</v>
       </c>
       <c r="C382" t="n">
-        <v>103.171478</v>
+        <v>103.171471</v>
       </c>
     </row>
     <row r="383">
@@ -7613,10 +7613,10 @@
         <v>384</v>
       </c>
       <c r="B383" t="n">
-        <v>89.361603</v>
+        <v>89.361595</v>
       </c>
       <c r="C383" t="n">
-        <v>102.145752</v>
+        <v>102.145744</v>
       </c>
     </row>
     <row r="384">
@@ -7657,7 +7657,7 @@
         <v>388</v>
       </c>
       <c r="B387" t="n">
-        <v>89.709991</v>
+        <v>89.709984</v>
       </c>
       <c r="C387" t="n">
         <v>103.684349</v>
@@ -7668,7 +7668,7 @@
         <v>389</v>
       </c>
       <c r="B388" t="n">
-        <v>90.668053</v>
+        <v>90.66806</v>
       </c>
       <c r="C388" t="n">
         <v>104.197212</v>
@@ -7690,7 +7690,7 @@
         <v>391</v>
       </c>
       <c r="B390" t="n">
-        <v>89.143852</v>
+        <v>89.14386</v>
       </c>
       <c r="C390" t="n">
         <v>103.684349</v>
@@ -7701,7 +7701,7 @@
         <v>392</v>
       </c>
       <c r="B391" t="n">
-        <v>87.044815</v>
+        <v>87.044823</v>
       </c>
       <c r="C391" t="n">
         <v>101.632881</v>
@@ -7734,7 +7734,7 @@
         <v>395</v>
       </c>
       <c r="B394" t="n">
-        <v>85.564171</v>
+        <v>85.564163</v>
       </c>
       <c r="C394" t="n">
         <v>99.15403</v>
@@ -7745,7 +7745,7 @@
         <v>396</v>
       </c>
       <c r="B395" t="n">
-        <v>84.066101</v>
+        <v>84.066093</v>
       </c>
       <c r="C395" t="n">
         <v>98.042816</v>
@@ -7756,7 +7756,7 @@
         <v>397</v>
       </c>
       <c r="B396" t="n">
-        <v>83.839653</v>
+        <v>83.839645</v>
       </c>
       <c r="C396" t="n">
         <v>99.923332</v>
@@ -7778,7 +7778,7 @@
         <v>399</v>
       </c>
       <c r="B398" t="n">
-        <v>83.857063</v>
+        <v>83.857071</v>
       </c>
       <c r="C398" t="n">
         <v>98.641167</v>
@@ -7789,7 +7789,7 @@
         <v>400</v>
       </c>
       <c r="B399" t="n">
-        <v>82.672546</v>
+        <v>82.672539</v>
       </c>
       <c r="C399" t="n">
         <v>98.128296</v>
@@ -7803,7 +7803,7 @@
         <v>81.244148</v>
       </c>
       <c r="C400" t="n">
-        <v>95.991356</v>
+        <v>95.991364</v>
       </c>
     </row>
     <row r="401">
@@ -7822,10 +7822,10 @@
         <v>403</v>
       </c>
       <c r="B402" t="n">
-        <v>77.516396</v>
+        <v>77.516403</v>
       </c>
       <c r="C402" t="n">
-        <v>92.230339</v>
+        <v>92.230347</v>
       </c>
     </row>
     <row r="403">
@@ -7844,10 +7844,10 @@
         <v>405</v>
       </c>
       <c r="B404" t="n">
-        <v>79.362862</v>
+        <v>79.362854</v>
       </c>
       <c r="C404" t="n">
-        <v>94.709198</v>
+        <v>94.70919</v>
       </c>
     </row>
     <row r="405">
@@ -7866,10 +7866,10 @@
         <v>407</v>
       </c>
       <c r="B406" t="n">
-        <v>77.882202</v>
+        <v>77.88221</v>
       </c>
       <c r="C406" t="n">
-        <v>93.597984</v>
+        <v>93.597992</v>
       </c>
     </row>
     <row r="407">
@@ -7877,7 +7877,7 @@
         <v>408</v>
       </c>
       <c r="B407" t="n">
-        <v>77.516396</v>
+        <v>77.516403</v>
       </c>
       <c r="C407" t="n">
         <v>92.657738</v>
@@ -7888,7 +7888,7 @@
         <v>409</v>
       </c>
       <c r="B408" t="n">
-        <v>78.561554</v>
+        <v>78.561562</v>
       </c>
       <c r="C408" t="n">
         <v>94.88015</v>
@@ -7899,7 +7899,7 @@
         <v>410</v>
       </c>
       <c r="B409" t="n">
-        <v>77.67318</v>
+        <v>77.673172</v>
       </c>
       <c r="C409" t="n">
         <v>94.88015</v>
@@ -7910,7 +7910,7 @@
         <v>411</v>
       </c>
       <c r="B410" t="n">
-        <v>76.418968</v>
+        <v>76.418976</v>
       </c>
       <c r="C410" t="n">
         <v>93.256073</v>
@@ -7924,7 +7924,7 @@
         <v>76.401558</v>
       </c>
       <c r="C411" t="n">
-        <v>92.315826</v>
+        <v>92.315819</v>
       </c>
     </row>
     <row r="412">
@@ -7943,10 +7943,10 @@
         <v>414</v>
       </c>
       <c r="B413" t="n">
-        <v>76.59317</v>
+        <v>76.593178</v>
       </c>
       <c r="C413" t="n">
-        <v>80.348953</v>
+        <v>80.348946</v>
       </c>
     </row>
     <row r="414">
@@ -7979,7 +7979,7 @@
         <v>75.251877</v>
       </c>
       <c r="C416" t="n">
-        <v>80.562653</v>
+        <v>80.562645</v>
       </c>
     </row>
     <row r="417">
@@ -8031,7 +8031,7 @@
         <v>422</v>
       </c>
       <c r="B421" t="n">
-        <v>88.055145</v>
+        <v>88.055138</v>
       </c>
       <c r="C421" t="n">
         <v>88.55481</v>
@@ -8045,7 +8045,7 @@
         <v>87.968048</v>
       </c>
       <c r="C422" t="n">
-        <v>88.041939</v>
+        <v>88.041931</v>
       </c>
     </row>
     <row r="423">
@@ -8053,7 +8053,7 @@
         <v>424</v>
       </c>
       <c r="B423" t="n">
-        <v>88.011604</v>
+        <v>88.011597</v>
       </c>
       <c r="C423" t="n">
         <v>87.870995</v>
@@ -8078,7 +8078,7 @@
         <v>88.22934</v>
       </c>
       <c r="C425" t="n">
-        <v>88.640274</v>
+        <v>88.640282</v>
       </c>
     </row>
     <row r="426">
@@ -8097,10 +8097,10 @@
         <v>428</v>
       </c>
       <c r="B427" t="n">
-        <v>83.247391</v>
+        <v>83.247383</v>
       </c>
       <c r="C427" t="n">
-        <v>87.529083</v>
+        <v>87.529076</v>
       </c>
     </row>
     <row r="428">
@@ -8108,10 +8108,10 @@
         <v>429</v>
       </c>
       <c r="B428" t="n">
-        <v>84.41449</v>
+        <v>84.414482</v>
       </c>
       <c r="C428" t="n">
-        <v>89.495056</v>
+        <v>89.495064</v>
       </c>
     </row>
     <row r="429">
@@ -8119,7 +8119,7 @@
         <v>430</v>
       </c>
       <c r="B429" t="n">
-        <v>85.355141</v>
+        <v>85.355133</v>
       </c>
       <c r="C429" t="n">
         <v>99.495941</v>
@@ -8130,7 +8130,7 @@
         <v>431</v>
       </c>
       <c r="B430" t="n">
-        <v>83.613197</v>
+        <v>83.61319</v>
       </c>
       <c r="C430" t="n">
         <v>101.461922</v>
@@ -8144,7 +8144,7 @@
         <v>83.543518</v>
       </c>
       <c r="C431" t="n">
-        <v>103.342438</v>
+        <v>103.34243</v>
       </c>
     </row>
     <row r="432">
@@ -8174,7 +8174,7 @@
         <v>435</v>
       </c>
       <c r="B434" t="n">
-        <v>83.386734</v>
+        <v>83.386742</v>
       </c>
       <c r="C434" t="n">
         <v>104.881027</v>
@@ -8188,7 +8188,7 @@
         <v>83.073189</v>
       </c>
       <c r="C435" t="n">
-        <v>103.25695</v>
+        <v>103.256958</v>
       </c>
     </row>
     <row r="436">
@@ -8196,10 +8196,10 @@
         <v>437</v>
       </c>
       <c r="B436" t="n">
-        <v>82.742218</v>
+        <v>82.742226</v>
       </c>
       <c r="C436" t="n">
-        <v>102.402184</v>
+        <v>102.402176</v>
       </c>
     </row>
     <row r="437">
@@ -8221,7 +8221,7 @@
         <v>80.216408</v>
       </c>
       <c r="C438" t="n">
-        <v>99.23951</v>
+        <v>99.239502</v>
       </c>
     </row>
     <row r="439">
@@ -8273,7 +8273,7 @@
         <v>444</v>
       </c>
       <c r="B443" t="n">
-        <v>80.164154</v>
+        <v>80.164146</v>
       </c>
       <c r="C443" t="n">
         <v>100.521667</v>
@@ -8284,10 +8284,10 @@
         <v>445</v>
       </c>
       <c r="B444" t="n">
-        <v>82.881584</v>
+        <v>82.881577</v>
       </c>
       <c r="C444" t="n">
-        <v>102.145752</v>
+        <v>102.145744</v>
       </c>
     </row>
     <row r="445">
@@ -8295,7 +8295,7 @@
         <v>446</v>
       </c>
       <c r="B445" t="n">
-        <v>83.595779</v>
+        <v>83.595772</v>
       </c>
       <c r="C445" t="n">
         <v>104.795555</v>
@@ -8309,7 +8309,7 @@
         <v>84.693199</v>
       </c>
       <c r="C446" t="n">
-        <v>108.471092</v>
+        <v>108.471085</v>
       </c>
     </row>
     <row r="447">
@@ -8320,7 +8320,7 @@
         <v>84.693199</v>
       </c>
       <c r="C447" t="n">
-        <v>109.92421</v>
+        <v>109.924217</v>
       </c>
     </row>
     <row r="448">
@@ -8339,7 +8339,7 @@
         <v>450</v>
       </c>
       <c r="B449" t="n">
-        <v>83.822227</v>
+        <v>83.82222</v>
       </c>
       <c r="C449" t="n">
         <v>110.266113</v>
@@ -8350,7 +8350,7 @@
         <v>451</v>
       </c>
       <c r="B450" t="n">
-        <v>85.877724</v>
+        <v>85.877716</v>
       </c>
       <c r="C450" t="n">
         <v>112.6595</v>
@@ -8361,7 +8361,7 @@
         <v>452</v>
       </c>
       <c r="B451" t="n">
-        <v>85.877724</v>
+        <v>85.877716</v>
       </c>
       <c r="C451" t="n">
         <v>113.257835</v>
@@ -8375,7 +8375,7 @@
         <v>85.529327</v>
       </c>
       <c r="C452" t="n">
-        <v>115.394775</v>
+        <v>115.394768</v>
       </c>
     </row>
     <row r="453">
@@ -8394,7 +8394,7 @@
         <v>455</v>
       </c>
       <c r="B454" t="n">
-        <v>85.877724</v>
+        <v>85.877716</v>
       </c>
       <c r="C454" t="n">
         <v>116.078598</v>
@@ -8438,7 +8438,7 @@
         <v>459</v>
       </c>
       <c r="B458" t="n">
-        <v>83.247391</v>
+        <v>83.247383</v>
       </c>
       <c r="C458" t="n">
         <v>112.317581</v>
@@ -8482,7 +8482,7 @@
         <v>463</v>
       </c>
       <c r="B462" t="n">
-        <v>81.766731</v>
+        <v>81.766739</v>
       </c>
       <c r="C462" t="n">
         <v>115.651207</v>
@@ -8493,7 +8493,7 @@
         <v>464</v>
       </c>
       <c r="B463" t="n">
-        <v>83.630608</v>
+        <v>83.630615</v>
       </c>
       <c r="C463" t="n">
         <v>116.33503</v>
@@ -8507,7 +8507,7 @@
         <v>83.369324</v>
       </c>
       <c r="C464" t="n">
-        <v>115.993111</v>
+        <v>115.993118</v>
       </c>
     </row>
     <row r="465">
@@ -8518,7 +8518,7 @@
         <v>82.498352</v>
       </c>
       <c r="C465" t="n">
-        <v>116.676933</v>
+        <v>116.676941</v>
       </c>
     </row>
     <row r="466">
@@ -8526,7 +8526,7 @@
         <v>467</v>
       </c>
       <c r="B466" t="n">
-        <v>82.30674</v>
+        <v>82.306732</v>
       </c>
       <c r="C466" t="n">
         <v>116.933372</v>
@@ -8537,10 +8537,10 @@
         <v>468</v>
       </c>
       <c r="B467" t="n">
-        <v>80.442863</v>
+        <v>80.442856</v>
       </c>
       <c r="C467" t="n">
-        <v>113.514275</v>
+        <v>113.514267</v>
       </c>
     </row>
     <row r="468">
@@ -8570,7 +8570,7 @@
         <v>471</v>
       </c>
       <c r="B470" t="n">
-        <v>79.240929</v>
+        <v>79.240921</v>
       </c>
       <c r="C470" t="n">
         <v>110.949944</v>
@@ -8581,10 +8581,10 @@
         <v>472</v>
       </c>
       <c r="B471" t="n">
-        <v>79.362862</v>
+        <v>79.362854</v>
       </c>
       <c r="C471" t="n">
-        <v>110.864456</v>
+        <v>110.864449</v>
       </c>
     </row>
     <row r="472">
@@ -8606,7 +8606,7 @@
         <v>78.735756</v>
       </c>
       <c r="C473" t="n">
-        <v>108.727516</v>
+        <v>108.727524</v>
       </c>
     </row>
     <row r="474">
@@ -8628,7 +8628,7 @@
         <v>80.129311</v>
       </c>
       <c r="C475" t="n">
-        <v>110.693504</v>
+        <v>110.693512</v>
       </c>
     </row>
     <row r="476">
@@ -8639,7 +8639,7 @@
         <v>79.275757</v>
       </c>
       <c r="C476" t="n">
-        <v>108.727516</v>
+        <v>108.727524</v>
       </c>
     </row>
     <row r="477">
@@ -8669,7 +8669,7 @@
         <v>480</v>
       </c>
       <c r="B479" t="n">
-        <v>79.746078</v>
+        <v>79.746086</v>
       </c>
       <c r="C479" t="n">
         <v>109.154907</v>
@@ -8683,7 +8683,7 @@
         <v>80.129311</v>
       </c>
       <c r="C480" t="n">
-        <v>107.530838</v>
+        <v>107.530846</v>
       </c>
     </row>
     <row r="481">
@@ -8702,7 +8702,7 @@
         <v>483</v>
       </c>
       <c r="B482" t="n">
-        <v>79.780914</v>
+        <v>79.780922</v>
       </c>
       <c r="C482" t="n">
         <v>108.983955</v>
@@ -8713,7 +8713,7 @@
         <v>484</v>
       </c>
       <c r="B483" t="n">
-        <v>82.463509</v>
+        <v>82.463516</v>
       </c>
       <c r="C483" t="n">
         <v>110.949944</v>
@@ -8738,7 +8738,7 @@
         <v>84.01384</v>
       </c>
       <c r="C485" t="n">
-        <v>113.172356</v>
+        <v>113.172348</v>
       </c>
     </row>
     <row r="486">
@@ -8801,10 +8801,10 @@
         <v>492</v>
       </c>
       <c r="B491" t="n">
-        <v>94.108398</v>
+        <v>94.108391</v>
       </c>
       <c r="C491" t="n">
-        <v>117.104332</v>
+        <v>117.104324</v>
       </c>
     </row>
     <row r="492">
@@ -8812,7 +8812,7 @@
         <v>493</v>
       </c>
       <c r="B492" t="n">
-        <v>93.193878</v>
+        <v>93.193871</v>
       </c>
       <c r="C492" t="n">
         <v>118.215538</v>
@@ -8837,7 +8837,7 @@
         <v>92.497093</v>
       </c>
       <c r="C494" t="n">
-        <v>117.873611</v>
+        <v>117.873619</v>
       </c>
     </row>
     <row r="495">
@@ -8845,7 +8845,7 @@
         <v>496</v>
       </c>
       <c r="B495" t="n">
-        <v>93.193878</v>
+        <v>93.193871</v>
       </c>
       <c r="C495" t="n">
         <v>118.899361</v>
@@ -8859,7 +8859,7 @@
         <v>93.411613</v>
       </c>
       <c r="C496" t="n">
-        <v>119.070313</v>
+        <v>119.07032</v>
       </c>
     </row>
     <row r="497">
@@ -8867,10 +8867,10 @@
         <v>498</v>
       </c>
       <c r="B497" t="n">
-        <v>93.890656</v>
+        <v>93.890648</v>
       </c>
       <c r="C497" t="n">
-        <v>119.497704</v>
+        <v>119.497696</v>
       </c>
     </row>
     <row r="498">
@@ -8878,10 +8878,10 @@
         <v>499</v>
       </c>
       <c r="B498" t="n">
-        <v>96.111618</v>
+        <v>96.111626</v>
       </c>
       <c r="C498" t="n">
-        <v>121.97654</v>
+        <v>121.976547</v>
       </c>
     </row>
     <row r="499">
@@ -8889,10 +8889,10 @@
         <v>500</v>
       </c>
       <c r="B499" t="n">
-        <v>93.977745</v>
+        <v>93.977753</v>
       </c>
       <c r="C499" t="n">
-        <v>121.463684</v>
+        <v>121.463692</v>
       </c>
     </row>
     <row r="500">
@@ -8914,7 +8914,7 @@
         <v>93.847099</v>
       </c>
       <c r="C501" t="n">
-        <v>120.694389</v>
+        <v>120.694382</v>
       </c>
     </row>
     <row r="502">
@@ -8925,7 +8925,7 @@
         <v>94.282585</v>
       </c>
       <c r="C502" t="n">
-        <v>120.52343</v>
+        <v>120.523438</v>
       </c>
     </row>
     <row r="503">
@@ -8933,7 +8933,7 @@
         <v>504</v>
       </c>
       <c r="B503" t="n">
-        <v>96.068077</v>
+        <v>96.068085</v>
       </c>
       <c r="C503" t="n">
         <v>124.369919</v>
@@ -8944,10 +8944,10 @@
         <v>505</v>
       </c>
       <c r="B504" t="n">
-        <v>94.979362</v>
+        <v>94.97937</v>
       </c>
       <c r="C504" t="n">
-        <v>121.97654</v>
+        <v>121.976547</v>
       </c>
     </row>
     <row r="505">
@@ -8958,7 +8958,7 @@
         <v>93.498711</v>
       </c>
       <c r="C505" t="n">
-        <v>121.891083</v>
+        <v>121.891075</v>
       </c>
     </row>
     <row r="506">
@@ -8966,7 +8966,7 @@
         <v>507</v>
       </c>
       <c r="B506" t="n">
-        <v>94.064842</v>
+        <v>94.06485</v>
       </c>
       <c r="C506" t="n">
         <v>123.686111</v>
@@ -8980,7 +8980,7 @@
         <v>93.411613</v>
       </c>
       <c r="C507" t="n">
-        <v>123.258713</v>
+        <v>123.258705</v>
       </c>
     </row>
     <row r="508">
@@ -8988,10 +8988,10 @@
         <v>509</v>
       </c>
       <c r="B508" t="n">
-        <v>94.674515</v>
+        <v>94.674522</v>
       </c>
       <c r="C508" t="n">
-        <v>123.600639</v>
+        <v>123.600632</v>
       </c>
     </row>
     <row r="509">
@@ -9002,7 +9002,7 @@
         <v>95.806786</v>
       </c>
       <c r="C509" t="n">
-        <v>123.3442</v>
+        <v>123.344193</v>
       </c>
     </row>
     <row r="510">
@@ -9010,10 +9010,10 @@
         <v>511</v>
       </c>
       <c r="B510" t="n">
-        <v>95.632599</v>
+        <v>95.632591</v>
       </c>
       <c r="C510" t="n">
-        <v>127.361641</v>
+        <v>127.361649</v>
       </c>
     </row>
     <row r="511">
@@ -9024,7 +9024,7 @@
         <v>95.806786</v>
       </c>
       <c r="C511" t="n">
-        <v>125.993996</v>
+        <v>125.993988</v>
       </c>
     </row>
     <row r="512">
@@ -9035,7 +9035,7 @@
         <v>96.721306</v>
       </c>
       <c r="C512" t="n">
-        <v>127.703537</v>
+        <v>127.703552</v>
       </c>
     </row>
     <row r="513">
@@ -9046,7 +9046,7 @@
         <v>94.848717</v>
       </c>
       <c r="C513" t="n">
-        <v>126.934242</v>
+        <v>126.93425</v>
       </c>
     </row>
     <row r="514">
@@ -9054,10 +9054,10 @@
         <v>515</v>
       </c>
       <c r="B514" t="n">
-        <v>95.458397</v>
+        <v>95.458389</v>
       </c>
       <c r="C514" t="n">
-        <v>125.993996</v>
+        <v>125.993988</v>
       </c>
     </row>
     <row r="515">
@@ -9087,10 +9087,10 @@
         <v>518</v>
       </c>
       <c r="B517" t="n">
-        <v>95.893875</v>
+        <v>95.893883</v>
       </c>
       <c r="C517" t="n">
-        <v>125.993996</v>
+        <v>125.993988</v>
       </c>
     </row>
     <row r="518">
@@ -9098,10 +9098,10 @@
         <v>519</v>
       </c>
       <c r="B518" t="n">
-        <v>94.674515</v>
+        <v>94.674522</v>
       </c>
       <c r="C518" t="n">
-        <v>124.198982</v>
+        <v>124.198975</v>
       </c>
     </row>
     <row r="519">
@@ -9112,7 +9112,7 @@
         <v>98.332603</v>
       </c>
       <c r="C519" t="n">
-        <v>125.481148</v>
+        <v>125.48114</v>
       </c>
     </row>
     <row r="520">
@@ -9120,10 +9120,10 @@
         <v>521</v>
       </c>
       <c r="B520" t="n">
-        <v>97.20034</v>
+        <v>97.200333</v>
       </c>
       <c r="C520" t="n">
-        <v>125.652084</v>
+        <v>125.652077</v>
       </c>
     </row>
     <row r="521">
@@ -9131,7 +9131,7 @@
         <v>522</v>
       </c>
       <c r="B521" t="n">
-        <v>99.943901</v>
+        <v>99.943893</v>
       </c>
       <c r="C521" t="n">
         <v>127.276154</v>
@@ -9142,10 +9142,10 @@
         <v>523</v>
       </c>
       <c r="B522" t="n">
-        <v>100.422928</v>
+        <v>100.422935</v>
       </c>
       <c r="C522" t="n">
-        <v>128.472855</v>
+        <v>128.472839</v>
       </c>
     </row>
     <row r="523">
@@ -9153,7 +9153,7 @@
         <v>524</v>
       </c>
       <c r="B523" t="n">
-        <v>102.164871</v>
+        <v>102.164879</v>
       </c>
       <c r="C523" t="n">
         <v>131.293625</v>
@@ -9164,10 +9164,10 @@
         <v>525</v>
       </c>
       <c r="B524" t="n">
-        <v>102.513252</v>
+        <v>102.51326</v>
       </c>
       <c r="C524" t="n">
-        <v>130.438843</v>
+        <v>130.438828</v>
       </c>
     </row>
     <row r="525">
@@ -9186,7 +9186,7 @@
         <v>527</v>
       </c>
       <c r="B526" t="n">
-        <v>105.822945</v>
+        <v>105.822952</v>
       </c>
       <c r="C526" t="n">
         <v>133.516022</v>
@@ -9197,10 +9197,10 @@
         <v>528</v>
       </c>
       <c r="B527" t="n">
-        <v>107.608444</v>
+        <v>107.608437</v>
       </c>
       <c r="C527" t="n">
-        <v>134.285339</v>
+        <v>134.285324</v>
       </c>
     </row>
     <row r="528">
@@ -9208,7 +9208,7 @@
         <v>529</v>
       </c>
       <c r="B528" t="n">
-        <v>106.519722</v>
+        <v>106.51973</v>
       </c>
       <c r="C528" t="n">
         <v>134.199844</v>
@@ -9222,7 +9222,7 @@
         <v>105.866501</v>
       </c>
       <c r="C529" t="n">
-        <v>134.883667</v>
+        <v>134.883682</v>
       </c>
     </row>
     <row r="530">
@@ -9263,7 +9263,7 @@
         <v>534</v>
       </c>
       <c r="B533" t="n">
-        <v>106.476173</v>
+        <v>106.476181</v>
       </c>
       <c r="C533" t="n">
         <v>138.473724</v>
@@ -9321,7 +9321,7 @@
         <v>93.237427</v>
       </c>
       <c r="C538" t="n">
-        <v>109.240379</v>
+        <v>109.240387</v>
       </c>
     </row>
     <row r="539">
@@ -9332,7 +9332,7 @@
         <v>91.147095</v>
       </c>
       <c r="C539" t="n">
-        <v>106.847008</v>
+        <v>106.847015</v>
       </c>
     </row>
     <row r="540">
@@ -9340,7 +9340,7 @@
         <v>541</v>
       </c>
       <c r="B540" t="n">
-        <v>91.582573</v>
+        <v>91.582581</v>
       </c>
       <c r="C540" t="n">
         <v>107.872742</v>
@@ -9351,7 +9351,7 @@
         <v>542</v>
       </c>
       <c r="B541" t="n">
-        <v>93.063225</v>
+        <v>93.063232</v>
       </c>
       <c r="C541" t="n">
         <v>109.83873</v>
@@ -9406,7 +9406,7 @@
         <v>547</v>
       </c>
       <c r="B546" t="n">
-        <v>77.28994</v>
+        <v>77.289948</v>
       </c>
       <c r="C546" t="n">
         <v>93.854424</v>
@@ -9428,7 +9428,7 @@
         <v>549</v>
       </c>
       <c r="B548" t="n">
-        <v>67.726692</v>
+        <v>67.726685</v>
       </c>
       <c r="C548" t="n">
         <v>82.272194</v>
@@ -9442,7 +9442,7 @@
         <v>67.761528</v>
       </c>
       <c r="C549" t="n">
-        <v>83.682587</v>
+        <v>83.682579</v>
       </c>
     </row>
     <row r="550">
@@ -9453,7 +9453,7 @@
         <v>64.486679</v>
       </c>
       <c r="C550" t="n">
-        <v>78.895844</v>
+        <v>78.895836</v>
       </c>
     </row>
     <row r="551">
@@ -9574,7 +9574,7 @@
         <v>75.642952</v>
       </c>
       <c r="C561" t="n">
-        <v>91.515839</v>
+        <v>91.515846</v>
       </c>
     </row>
     <row r="562">
@@ -9607,7 +9607,7 @@
         <v>71.078796</v>
       </c>
       <c r="C564" t="n">
-        <v>88.706573</v>
+        <v>88.706566</v>
       </c>
     </row>
     <row r="565">
@@ -9618,7 +9618,7 @@
         <v>72.141136</v>
       </c>
       <c r="C565" t="n">
-        <v>88.373268</v>
+        <v>88.37326</v>
       </c>
     </row>
     <row r="566">
@@ -9684,7 +9684,7 @@
         <v>72.318199</v>
       </c>
       <c r="C571" t="n">
-        <v>89.373169</v>
+        <v>89.373177</v>
       </c>
     </row>
     <row r="572">
@@ -9695,7 +9695,7 @@
         <v>71.82637</v>
       </c>
       <c r="C572" t="n">
-        <v>90.992088</v>
+        <v>90.992081</v>
       </c>
     </row>
     <row r="573">
@@ -9728,7 +9728,7 @@
         <v>72.455917</v>
       </c>
       <c r="C575" t="n">
-        <v>91.230164</v>
+        <v>91.230156</v>
       </c>
     </row>
     <row r="576">
@@ -9739,7 +9739,7 @@
         <v>70.134491</v>
       </c>
       <c r="C576" t="n">
-        <v>89.706474</v>
+        <v>89.706482</v>
       </c>
     </row>
     <row r="577">
@@ -9783,7 +9783,7 @@
         <v>79.479202</v>
       </c>
       <c r="C580" t="n">
-        <v>107.89537</v>
+        <v>107.895378</v>
       </c>
     </row>
     <row r="581">
@@ -9827,7 +9827,7 @@
         <v>74.226486</v>
       </c>
       <c r="C584" t="n">
-        <v>95.08696</v>
+        <v>95.086967</v>
       </c>
     </row>
     <row r="585">
@@ -9849,7 +9849,7 @@
         <v>74.619949</v>
       </c>
       <c r="C586" t="n">
-        <v>100.086533</v>
+        <v>100.086525</v>
       </c>
     </row>
     <row r="587">
@@ -9860,7 +9860,7 @@
         <v>74.167473</v>
       </c>
       <c r="C587" t="n">
-        <v>101.134048</v>
+        <v>101.134056</v>
       </c>
     </row>
     <row r="588">
@@ -9893,7 +9893,7 @@
         <v>70.803375</v>
       </c>
       <c r="C590" t="n">
-        <v>99.991302</v>
+        <v>99.991295</v>
       </c>
     </row>
     <row r="591">
@@ -9915,7 +9915,7 @@
         <v>73.400223</v>
       </c>
       <c r="C592" t="n">
-        <v>100.657898</v>
+        <v>100.657906</v>
       </c>
     </row>
     <row r="593">
@@ -9926,7 +9926,7 @@
         <v>75.564255</v>
       </c>
       <c r="C593" t="n">
-        <v>102.467278</v>
+        <v>102.46727</v>
       </c>
     </row>
     <row r="594">
@@ -9970,7 +9970,7 @@
         <v>83.748253</v>
       </c>
       <c r="C597" t="n">
-        <v>111.799789</v>
+        <v>111.799797</v>
       </c>
     </row>
     <row r="598">
@@ -9992,7 +9992,7 @@
         <v>86.128693</v>
       </c>
       <c r="C599" t="n">
-        <v>116.656509</v>
+        <v>116.656517</v>
       </c>
     </row>
     <row r="600">
@@ -10014,7 +10014,7 @@
         <v>89.256706</v>
       </c>
       <c r="C601" t="n">
-        <v>123.893982</v>
+        <v>123.89399</v>
       </c>
     </row>
     <row r="602">
@@ -10069,7 +10069,7 @@
         <v>86.42379</v>
       </c>
       <c r="C606" t="n">
-        <v>117.704041</v>
+        <v>117.704048</v>
       </c>
     </row>
     <row r="607">
@@ -10091,7 +10091,7 @@
         <v>87.663193</v>
       </c>
       <c r="C608" t="n">
-        <v>120.751396</v>
+        <v>120.751404</v>
       </c>
     </row>
     <row r="609">
@@ -10157,7 +10157,7 @@
         <v>87.466461</v>
       </c>
       <c r="C614" t="n">
-        <v>117.704041</v>
+        <v>117.704048</v>
       </c>
     </row>
     <row r="615">
@@ -10201,7 +10201,7 @@
         <v>86.836922</v>
       </c>
       <c r="C618" t="n">
-        <v>117.13266</v>
+        <v>117.132668</v>
       </c>
     </row>
     <row r="619">
@@ -10322,7 +10322,7 @@
         <v>100.185097</v>
       </c>
       <c r="C629" t="n">
-        <v>124.465355</v>
+        <v>124.465363</v>
       </c>
     </row>
     <row r="630">
@@ -10333,7 +10333,7 @@
         <v>100.185097</v>
       </c>
       <c r="C630" t="n">
-        <v>125.512886</v>
+        <v>125.512894</v>
       </c>
     </row>
     <row r="631">
@@ -10355,7 +10355,7 @@
         <v>104.267265</v>
       </c>
       <c r="C632" t="n">
-        <v>125.036736</v>
+        <v>125.036743</v>
       </c>
     </row>
     <row r="633">
@@ -10388,7 +10388,7 @@
         <v>103.72625</v>
       </c>
       <c r="C635" t="n">
-        <v>125.322433</v>
+        <v>125.322441</v>
       </c>
     </row>
     <row r="636">
@@ -10399,7 +10399,7 @@
         <v>104.218079</v>
       </c>
       <c r="C636" t="n">
-        <v>124.941498</v>
+        <v>124.941505</v>
       </c>
     </row>
     <row r="637">
@@ -10410,7 +10410,7 @@
         <v>102.250771</v>
       </c>
       <c r="C637" t="n">
-        <v>122.655998</v>
+        <v>122.655991</v>
       </c>
     </row>
     <row r="638">
@@ -10465,7 +10465,7 @@
         <v>101.168755</v>
       </c>
       <c r="C642" t="n">
-        <v>115.894676</v>
+        <v>115.894669</v>
       </c>
     </row>
     <row r="643">
@@ -10476,7 +10476,7 @@
         <v>100.480202</v>
       </c>
       <c r="C643" t="n">
-        <v>116.75174</v>
+        <v>116.751747</v>
       </c>
     </row>
     <row r="644">
@@ -10487,7 +10487,7 @@
         <v>100.922836</v>
       </c>
       <c r="C644" t="n">
-        <v>115.989914</v>
+        <v>115.989906</v>
       </c>
     </row>
     <row r="645">
@@ -10498,7 +10498,7 @@
         <v>100.332649</v>
       </c>
       <c r="C645" t="n">
-        <v>115.418526</v>
+        <v>115.418518</v>
       </c>
     </row>
     <row r="646">
@@ -10564,7 +10564,7 @@
         <v>102.349144</v>
       </c>
       <c r="C651" t="n">
-        <v>113.609169</v>
+        <v>113.609161</v>
       </c>
     </row>
     <row r="652">
@@ -10608,7 +10608,7 @@
         <v>96.496399</v>
       </c>
       <c r="C655" t="n">
-        <v>110.466576</v>
+        <v>110.466583</v>
       </c>
     </row>
     <row r="656">
@@ -10619,7 +10619,7 @@
         <v>97.047249</v>
       </c>
       <c r="C656" t="n">
-        <v>109.799973</v>
+        <v>109.799965</v>
       </c>
     </row>
     <row r="657">
@@ -10652,7 +10652,7 @@
         <v>97.971878</v>
       </c>
       <c r="C659" t="n">
-        <v>107.228767</v>
+        <v>107.22876</v>
       </c>
     </row>
     <row r="660">
@@ -10663,7 +10663,7 @@
         <v>96.594765</v>
       </c>
       <c r="C660" t="n">
-        <v>106.847847</v>
+        <v>106.847839</v>
       </c>
     </row>
     <row r="661">
@@ -10696,7 +10696,7 @@
         <v>92.463425</v>
       </c>
       <c r="C663" t="n">
-        <v>95.705963</v>
+        <v>95.705956</v>
       </c>
     </row>
     <row r="664">
@@ -10751,7 +10751,7 @@
         <v>87.859924</v>
       </c>
       <c r="C668" t="n">
-        <v>96.467796</v>
+        <v>96.467804</v>
       </c>
     </row>
     <row r="669">
@@ -10762,7 +10762,7 @@
         <v>88.627174</v>
       </c>
       <c r="C669" t="n">
-        <v>98.181938</v>
+        <v>98.181931</v>
       </c>
     </row>
     <row r="670">
@@ -10773,7 +10773,7 @@
         <v>88.587822</v>
       </c>
       <c r="C670" t="n">
-        <v>99.705605</v>
+        <v>99.705612</v>
       </c>
     </row>
     <row r="671">
@@ -10784,7 +10784,7 @@
         <v>86.502487</v>
       </c>
       <c r="C671" t="n">
-        <v>99.610382</v>
+        <v>99.610374</v>
       </c>
     </row>
     <row r="672">
@@ -10806,7 +10806,7 @@
         <v>86.187714</v>
       </c>
       <c r="C673" t="n">
-        <v>99.134232</v>
+        <v>99.134224</v>
       </c>
     </row>
     <row r="674">
@@ -10817,7 +10817,7 @@
         <v>86.384445</v>
       </c>
       <c r="C674" t="n">
-        <v>97.896248</v>
+        <v>97.89624</v>
       </c>
     </row>
     <row r="675">
@@ -10839,7 +10839,7 @@
         <v>83.0597</v>
       </c>
       <c r="C676" t="n">
-        <v>96.372559</v>
+        <v>96.372566</v>
       </c>
     </row>
     <row r="677">
@@ -10850,7 +10850,7 @@
         <v>80.659584</v>
       </c>
       <c r="C677" t="n">
-        <v>94.372734</v>
+        <v>94.372742</v>
       </c>
     </row>
     <row r="678">
@@ -10872,7 +10872,7 @@
         <v>81.938332</v>
       </c>
       <c r="C679" t="n">
-        <v>93.563293</v>
+        <v>93.563286</v>
       </c>
     </row>
     <row r="680">
@@ -10927,7 +10927,7 @@
         <v>84.692558</v>
       </c>
       <c r="C684" t="n">
-        <v>94.848885</v>
+        <v>94.848892</v>
       </c>
     </row>
     <row r="685">
@@ -10949,7 +10949,7 @@
         <v>83.453156</v>
       </c>
       <c r="C686" t="n">
-        <v>103.133881</v>
+        <v>103.133888</v>
       </c>
     </row>
     <row r="687">
@@ -10960,7 +10960,7 @@
         <v>85.57785</v>
       </c>
       <c r="C687" t="n">
-        <v>103.133881</v>
+        <v>103.133888</v>
       </c>
     </row>
     <row r="688">
@@ -10993,7 +10993,7 @@
         <v>89.453445</v>
       </c>
       <c r="C690" t="n">
-        <v>103.990952</v>
+        <v>103.990944</v>
       </c>
     </row>
     <row r="691">
@@ -11070,7 +11070,7 @@
         <v>91.401077</v>
       </c>
       <c r="C697" t="n">
-        <v>103.990952</v>
+        <v>103.990944</v>
       </c>
     </row>
     <row r="698">
@@ -11158,7 +11158,7 @@
         <v>84.161385</v>
       </c>
       <c r="C705" t="n">
-        <v>102.372047</v>
+        <v>102.37204</v>
       </c>
     </row>
     <row r="706">
@@ -11202,7 +11202,7 @@
         <v>86.974632</v>
       </c>
       <c r="C709" t="n">
-        <v>111.799789</v>
+        <v>111.799797</v>
       </c>
     </row>
     <row r="710">
@@ -11224,7 +11224,7 @@
         <v>88.627174</v>
       </c>
       <c r="C711" t="n">
-        <v>109.514275</v>
+        <v>109.514282</v>
       </c>
     </row>
     <row r="712">
@@ -11290,7 +11290,7 @@
         <v>102.447502</v>
       </c>
       <c r="C717" t="n">
-        <v>124.274902</v>
+        <v>124.274895</v>
       </c>
     </row>
     <row r="718">
@@ -11301,7 +11301,7 @@
         <v>102.890144</v>
       </c>
       <c r="C718" t="n">
-        <v>126.274734</v>
+        <v>126.274727</v>
       </c>
     </row>
     <row r="719">
@@ -11356,7 +11356,7 @@
         <v>103.234421</v>
       </c>
       <c r="C723" t="n">
-        <v>124.751053</v>
+        <v>124.751045</v>
       </c>
     </row>
     <row r="724">
@@ -11378,7 +11378,7 @@
         <v>102.98851</v>
       </c>
       <c r="C725" t="n">
-        <v>124.751053</v>
+        <v>124.751045</v>
       </c>
     </row>
     <row r="726">
@@ -11422,7 +11422,7 @@
         <v>102.250771</v>
       </c>
       <c r="C729" t="n">
-        <v>124.751053</v>
+        <v>124.751045</v>
       </c>
     </row>
     <row r="730">
@@ -11444,7 +11444,7 @@
         <v>101.513031</v>
       </c>
       <c r="C731" t="n">
-        <v>124.274902</v>
+        <v>124.274895</v>
       </c>
     </row>
     <row r="732">
@@ -11543,7 +11543,7 @@
         <v>94.529091</v>
       </c>
       <c r="C740" t="n">
-        <v>121.608459</v>
+        <v>121.608467</v>
       </c>
     </row>
     <row r="741">
@@ -11576,7 +11576,7 @@
         <v>96.870193</v>
       </c>
       <c r="C743" t="n">
-        <v>124.941498</v>
+        <v>124.941505</v>
       </c>
     </row>
     <row r="744">
@@ -11587,7 +11587,7 @@
         <v>99.742462</v>
       </c>
       <c r="C744" t="n">
-        <v>125.989037</v>
+        <v>125.989044</v>
       </c>
     </row>
     <row r="745">
@@ -11620,7 +11620,7 @@
         <v>99.004723</v>
       </c>
       <c r="C747" t="n">
-        <v>128.084091</v>
+        <v>128.084106</v>
       </c>
     </row>
     <row r="748">
@@ -11653,7 +11653,7 @@
         <v>103.627884</v>
       </c>
       <c r="C750" t="n">
-        <v>128.941147</v>
+        <v>128.941162</v>
       </c>
     </row>
     <row r="751">
@@ -11664,7 +11664,7 @@
         <v>108.054329</v>
       </c>
       <c r="C751" t="n">
-        <v>132.369446</v>
+        <v>132.369431</v>
       </c>
     </row>
     <row r="752">
@@ -11851,7 +11851,7 @@
         <v>103.480339</v>
       </c>
       <c r="C768" t="n">
-        <v>121.608459</v>
+        <v>121.608467</v>
       </c>
     </row>
     <row r="769">
@@ -11862,7 +11862,7 @@
         <v>104.070534</v>
       </c>
       <c r="C769" t="n">
-        <v>123.893982</v>
+        <v>123.89399</v>
       </c>
     </row>
     <row r="770">
@@ -11939,7 +11939,7 @@
         <v>107.955963</v>
       </c>
       <c r="C776" t="n">
-        <v>126.750885</v>
+        <v>126.750877</v>
       </c>
     </row>
     <row r="777">
@@ -11983,7 +11983,7 @@
         <v>110.857735</v>
       </c>
       <c r="C780" t="n">
-        <v>132.369446</v>
+        <v>132.369431</v>
       </c>
     </row>
     <row r="781">
@@ -12016,7 +12016,7 @@
         <v>111.644661</v>
       </c>
       <c r="C783" t="n">
-        <v>132.940826</v>
+        <v>132.940811</v>
       </c>
     </row>
     <row r="784">
@@ -12027,7 +12027,7 @@
         <v>111.447937</v>
       </c>
       <c r="C784" t="n">
-        <v>134.178787</v>
+        <v>134.178802</v>
       </c>
     </row>
     <row r="785">
@@ -12038,7 +12038,7 @@
         <v>112.333221</v>
       </c>
       <c r="C785" t="n">
-        <v>134.940628</v>
+        <v>134.940643</v>
       </c>
     </row>
     <row r="786">
@@ -12049,7 +12049,7 @@
         <v>115.087448</v>
       </c>
       <c r="C786" t="n">
-        <v>135.226334</v>
+        <v>135.226318</v>
       </c>
     </row>
     <row r="787">
@@ -12071,7 +12071,7 @@
         <v>114.595627</v>
       </c>
       <c r="C788" t="n">
-        <v>136.654785</v>
+        <v>136.65477</v>
       </c>
     </row>
     <row r="789">
@@ -12093,7 +12093,7 @@
         <v>116.366203</v>
       </c>
       <c r="C790" t="n">
-        <v>153.319992</v>
+        <v>153.319977</v>
       </c>
     </row>
     <row r="791">
@@ -12104,7 +12104,7 @@
         <v>116.218651</v>
       </c>
       <c r="C791" t="n">
-        <v>152.367691</v>
+        <v>152.367706</v>
       </c>
     </row>
     <row r="792">
@@ -12115,7 +12115,7 @@
         <v>118.82534</v>
       </c>
       <c r="C792" t="n">
-        <v>151.129715</v>
+        <v>151.1297</v>
       </c>
     </row>
     <row r="793">
@@ -12170,7 +12170,7 @@
         <v>120.54673</v>
       </c>
       <c r="C797" t="n">
-        <v>154.938904</v>
+        <v>154.938889</v>
       </c>
     </row>
     <row r="798">
@@ -12181,7 +12181,7 @@
         <v>120.497543</v>
       </c>
       <c r="C798" t="n">
-        <v>154.272293</v>
+        <v>154.272278</v>
       </c>
     </row>
     <row r="799">
@@ -12192,7 +12192,7 @@
         <v>120.349998</v>
       </c>
       <c r="C799" t="n">
-        <v>155.415054</v>
+        <v>155.415039</v>
       </c>
     </row>
     <row r="800">
@@ -12247,7 +12247,7 @@
         <v>118.25</v>
       </c>
       <c r="C804" t="n">
-        <v>155.224594</v>
+        <v>155.224579</v>
       </c>
     </row>
     <row r="805">
@@ -12258,7 +12258,7 @@
         <v>119.300003</v>
       </c>
       <c r="C805" t="n">
-        <v>159.986084</v>
+        <v>159.986069</v>
       </c>
     </row>
     <row r="806">

--- a/Danske aktiekurser.xlsx
+++ b/Danske aktiekurser.xlsx
@@ -3422,7 +3422,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>189.887924</v>
+        <v>189.887909</v>
       </c>
       <c r="C2" t="n">
         <v>191.282883</v>
@@ -3436,7 +3436,7 @@
         <v>188.870804</v>
       </c>
       <c r="C3" t="n">
-        <v>190.824905</v>
+        <v>190.82489</v>
       </c>
     </row>
     <row r="4">
@@ -3444,10 +3444,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>190.513824</v>
+        <v>190.51384</v>
       </c>
       <c r="C4" t="n">
-        <v>192.351486</v>
+        <v>192.351517</v>
       </c>
     </row>
     <row r="5">
@@ -3455,10 +3455,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="n">
-        <v>190.748581</v>
+        <v>190.748566</v>
       </c>
       <c r="C5" t="n">
-        <v>192.046204</v>
+        <v>192.046173</v>
       </c>
     </row>
     <row r="6">
@@ -3466,7 +3466,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="n">
-        <v>191.843903</v>
+        <v>191.843918</v>
       </c>
       <c r="C6" t="n">
         <v>191.74086</v>
@@ -3488,7 +3488,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="n">
-        <v>194.34758</v>
+        <v>194.347595</v>
       </c>
       <c r="C8" t="n">
         <v>195.404694</v>
@@ -3502,7 +3502,7 @@
         <v>196.14711</v>
       </c>
       <c r="C9" t="n">
-        <v>196.320679</v>
+        <v>196.320663</v>
       </c>
     </row>
     <row r="10">
@@ -3513,7 +3513,7 @@
         <v>194.817032</v>
       </c>
       <c r="C10" t="n">
-        <v>195.09938</v>
+        <v>195.099365</v>
       </c>
     </row>
     <row r="11">
@@ -3524,7 +3524,7 @@
         <v>196.303589</v>
       </c>
       <c r="C11" t="n">
-        <v>193.572784</v>
+        <v>193.572769</v>
       </c>
     </row>
     <row r="12">
@@ -3532,10 +3532,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="n">
-        <v>195.521179</v>
+        <v>195.521194</v>
       </c>
       <c r="C12" t="n">
-        <v>192.504166</v>
+        <v>192.50415</v>
       </c>
     </row>
     <row r="13">
@@ -3568,7 +3568,7 @@
         <v>190.670319</v>
       </c>
       <c r="C15" t="n">
-        <v>191.893494</v>
+        <v>191.893524</v>
       </c>
     </row>
     <row r="16">
@@ -3612,7 +3612,7 @@
         <v>186.680099</v>
       </c>
       <c r="C19" t="n">
-        <v>185.63446</v>
+        <v>185.634476</v>
       </c>
     </row>
     <row r="20">
@@ -3631,7 +3631,7 @@
         <v>22</v>
       </c>
       <c r="B21" t="n">
-        <v>191.843903</v>
+        <v>191.843918</v>
       </c>
       <c r="C21" t="n">
         <v>187.771698</v>
@@ -3645,7 +3645,7 @@
         <v>189.966171</v>
       </c>
       <c r="C22" t="n">
-        <v>185.787109</v>
+        <v>185.787125</v>
       </c>
     </row>
     <row r="23">
@@ -3653,10 +3653,10 @@
         <v>24</v>
       </c>
       <c r="B23" t="n">
-        <v>190.513824</v>
+        <v>190.51384</v>
       </c>
       <c r="C23" t="n">
-        <v>187.008408</v>
+        <v>187.008377</v>
       </c>
     </row>
     <row r="24">
@@ -3678,7 +3678,7 @@
         <v>191.609192</v>
       </c>
       <c r="C25" t="n">
-        <v>187.619049</v>
+        <v>187.619034</v>
       </c>
     </row>
     <row r="26">
@@ -3711,7 +3711,7 @@
         <v>189.261993</v>
       </c>
       <c r="C28" t="n">
-        <v>188.687668</v>
+        <v>188.687653</v>
       </c>
     </row>
     <row r="29">
@@ -3722,7 +3722,7 @@
         <v>188.557846</v>
       </c>
       <c r="C29" t="n">
-        <v>187.161072</v>
+        <v>187.161057</v>
       </c>
     </row>
     <row r="30">
@@ -3730,10 +3730,10 @@
         <v>31</v>
       </c>
       <c r="B30" t="n">
-        <v>188.244904</v>
+        <v>188.244888</v>
       </c>
       <c r="C30" t="n">
-        <v>185.787109</v>
+        <v>185.787125</v>
       </c>
     </row>
     <row r="31">
@@ -3744,7 +3744,7 @@
         <v>189.966171</v>
       </c>
       <c r="C31" t="n">
-        <v>188.687668</v>
+        <v>188.687653</v>
       </c>
     </row>
     <row r="32">
@@ -3755,7 +3755,7 @@
         <v>188.949051</v>
       </c>
       <c r="C32" t="n">
-        <v>188.535004</v>
+        <v>188.534988</v>
       </c>
     </row>
     <row r="33">
@@ -3763,7 +3763,7 @@
         <v>34</v>
       </c>
       <c r="B33" t="n">
-        <v>191.061523</v>
+        <v>191.061508</v>
       </c>
       <c r="C33" t="n">
         <v>193.267456</v>
@@ -3777,7 +3777,7 @@
         <v>192.313354</v>
       </c>
       <c r="C34" t="n">
-        <v>193.420105</v>
+        <v>193.42012</v>
       </c>
     </row>
     <row r="35">
@@ -3788,7 +3788,7 @@
         <v>194.660553</v>
       </c>
       <c r="C35" t="n">
-        <v>196.625992</v>
+        <v>196.625977</v>
       </c>
     </row>
     <row r="36">
@@ -3799,7 +3799,7 @@
         <v>194.895279</v>
       </c>
       <c r="C36" t="n">
-        <v>196.167999</v>
+        <v>196.168015</v>
       </c>
     </row>
     <row r="37">
@@ -3821,7 +3821,7 @@
         <v>192.861023</v>
       </c>
       <c r="C38" t="n">
-        <v>182.428589</v>
+        <v>182.428604</v>
       </c>
     </row>
     <row r="39">
@@ -3832,7 +3832,7 @@
         <v>193.252258</v>
       </c>
       <c r="C39" t="n">
-        <v>180.444031</v>
+        <v>180.444</v>
       </c>
     </row>
     <row r="40">
@@ -3843,7 +3843,7 @@
         <v>194.504089</v>
       </c>
       <c r="C40" t="n">
-        <v>186.245102</v>
+        <v>186.245117</v>
       </c>
     </row>
     <row r="41">
@@ -3865,7 +3865,7 @@
         <v>189.731445</v>
       </c>
       <c r="C42" t="n">
-        <v>183.191895</v>
+        <v>183.191879</v>
       </c>
     </row>
     <row r="43">
@@ -3884,10 +3884,10 @@
         <v>45</v>
       </c>
       <c r="B44" t="n">
-        <v>190.748581</v>
+        <v>190.748566</v>
       </c>
       <c r="C44" t="n">
-        <v>181.665283</v>
+        <v>181.665314</v>
       </c>
     </row>
     <row r="45">
@@ -3917,7 +3917,7 @@
         <v>48</v>
       </c>
       <c r="B47" t="n">
-        <v>189.34024</v>
+        <v>189.340256</v>
       </c>
       <c r="C47" t="n">
         <v>180.749344</v>
@@ -3942,7 +3942,7 @@
         <v>191.218002</v>
       </c>
       <c r="C49" t="n">
-        <v>182.428589</v>
+        <v>182.428604</v>
       </c>
     </row>
     <row r="50">
@@ -3953,7 +3953,7 @@
         <v>192.626328</v>
       </c>
       <c r="C50" t="n">
-        <v>180.902008</v>
+        <v>180.901993</v>
       </c>
     </row>
     <row r="51">
@@ -3994,7 +3994,7 @@
         <v>55</v>
       </c>
       <c r="B54" t="n">
-        <v>191.061523</v>
+        <v>191.061508</v>
       </c>
       <c r="C54" t="n">
         <v>183.113083</v>
@@ -4008,7 +4008,7 @@
         <v>191.306274</v>
       </c>
       <c r="C55" t="n">
-        <v>182.792404</v>
+        <v>182.792419</v>
       </c>
     </row>
     <row r="56">
@@ -4019,7 +4019,7 @@
         <v>191.795746</v>
       </c>
       <c r="C56" t="n">
-        <v>183.594116</v>
+        <v>183.594131</v>
       </c>
     </row>
     <row r="57">
@@ -4041,7 +4041,7 @@
         <v>190.572052</v>
       </c>
       <c r="C58" t="n">
-        <v>184.07515</v>
+        <v>184.075165</v>
       </c>
     </row>
     <row r="59">
@@ -4074,7 +4074,7 @@
         <v>184.208771</v>
       </c>
       <c r="C61" t="n">
-        <v>181.669983</v>
+        <v>181.669998</v>
       </c>
     </row>
     <row r="62">
@@ -4096,7 +4096,7 @@
         <v>183.882431</v>
       </c>
       <c r="C63" t="n">
-        <v>178.14241</v>
+        <v>178.142426</v>
       </c>
     </row>
     <row r="64">
@@ -4140,7 +4140,7 @@
         <v>182.495575</v>
       </c>
       <c r="C67" t="n">
-        <v>178.14241</v>
+        <v>178.142426</v>
       </c>
     </row>
     <row r="68">
@@ -4151,7 +4151,7 @@
         <v>182.985062</v>
       </c>
       <c r="C68" t="n">
-        <v>180.868271</v>
+        <v>180.868256</v>
       </c>
     </row>
     <row r="69">
@@ -4162,7 +4162,7 @@
         <v>183.39296</v>
       </c>
       <c r="C69" t="n">
-        <v>180.547577</v>
+        <v>180.547592</v>
       </c>
     </row>
     <row r="70">
@@ -4173,7 +4173,7 @@
         <v>179.477097</v>
       </c>
       <c r="C70" t="n">
-        <v>180.868271</v>
+        <v>180.868256</v>
       </c>
     </row>
     <row r="71">
@@ -4217,7 +4217,7 @@
         <v>181.924515</v>
       </c>
       <c r="C74" t="n">
-        <v>184.07515</v>
+        <v>184.075165</v>
       </c>
     </row>
     <row r="75">
@@ -4250,7 +4250,7 @@
         <v>182.577164</v>
       </c>
       <c r="C77" t="n">
-        <v>190.007904</v>
+        <v>190.007889</v>
       </c>
     </row>
     <row r="78">
@@ -4261,7 +4261,7 @@
         <v>183.229797</v>
       </c>
       <c r="C78" t="n">
-        <v>192.894104</v>
+        <v>192.894089</v>
       </c>
     </row>
     <row r="79">
@@ -4283,7 +4283,7 @@
         <v>178.498123</v>
       </c>
       <c r="C80" t="n">
-        <v>187.602722</v>
+        <v>187.602737</v>
       </c>
     </row>
     <row r="81">
@@ -4316,7 +4316,7 @@
         <v>177.763901</v>
       </c>
       <c r="C83" t="n">
-        <v>181.669983</v>
+        <v>181.669998</v>
       </c>
     </row>
     <row r="84">
@@ -4371,7 +4371,7 @@
         <v>176.784943</v>
       </c>
       <c r="C88" t="n">
-        <v>187.121689</v>
+        <v>187.121704</v>
       </c>
     </row>
     <row r="89">
@@ -4415,7 +4415,7 @@
         <v>174.255951</v>
       </c>
       <c r="C92" t="n">
-        <v>183.594116</v>
+        <v>183.594131</v>
       </c>
     </row>
     <row r="93">
@@ -4426,7 +4426,7 @@
         <v>176.540192</v>
       </c>
       <c r="C93" t="n">
-        <v>185.197571</v>
+        <v>185.197556</v>
       </c>
     </row>
     <row r="94">
@@ -4437,7 +4437,7 @@
         <v>176.458618</v>
       </c>
       <c r="C94" t="n">
-        <v>184.07515</v>
+        <v>184.075165</v>
       </c>
     </row>
     <row r="95">
@@ -4459,7 +4459,7 @@
         <v>176.94809</v>
       </c>
       <c r="C96" t="n">
-        <v>185.037231</v>
+        <v>185.037216</v>
       </c>
     </row>
     <row r="97">
@@ -4481,7 +4481,7 @@
         <v>173.276978</v>
       </c>
       <c r="C98" t="n">
-        <v>181.669983</v>
+        <v>181.669998</v>
       </c>
     </row>
     <row r="99">
@@ -4492,7 +4492,7 @@
         <v>173.113815</v>
       </c>
       <c r="C99" t="n">
-        <v>181.028625</v>
+        <v>181.02861</v>
       </c>
     </row>
     <row r="100">
@@ -4514,7 +4514,7 @@
         <v>168.871643</v>
       </c>
       <c r="C101" t="n">
-        <v>175.737244</v>
+        <v>175.737274</v>
       </c>
     </row>
     <row r="102">
@@ -4525,7 +4525,7 @@
         <v>172.461166</v>
       </c>
       <c r="C102" t="n">
-        <v>173.171753</v>
+        <v>173.171738</v>
       </c>
     </row>
     <row r="103">
@@ -4558,7 +4558,7 @@
         <v>175.724396</v>
       </c>
       <c r="C105" t="n">
-        <v>177.982086</v>
+        <v>177.982071</v>
       </c>
     </row>
     <row r="106">
@@ -4569,7 +4569,7 @@
         <v>175.561234</v>
       </c>
       <c r="C106" t="n">
-        <v>177.501053</v>
+        <v>177.501038</v>
       </c>
     </row>
     <row r="107">
@@ -4580,7 +4580,7 @@
         <v>174.092773</v>
       </c>
       <c r="C107" t="n">
-        <v>175.737244</v>
+        <v>175.737274</v>
       </c>
     </row>
     <row r="108">
@@ -4591,7 +4591,7 @@
         <v>177.84549</v>
       </c>
       <c r="C108" t="n">
-        <v>177.02002</v>
+        <v>177.020004</v>
       </c>
     </row>
     <row r="109">
@@ -4602,7 +4602,7 @@
         <v>178.498123</v>
       </c>
       <c r="C109" t="n">
-        <v>177.180359</v>
+        <v>177.180344</v>
       </c>
     </row>
     <row r="110">
@@ -4613,7 +4613,7 @@
         <v>178.253387</v>
       </c>
       <c r="C110" t="n">
-        <v>177.340698</v>
+        <v>177.340683</v>
       </c>
     </row>
     <row r="111">
@@ -4635,7 +4635,7 @@
         <v>177.682327</v>
       </c>
       <c r="C112" t="n">
-        <v>177.821747</v>
+        <v>177.821732</v>
       </c>
     </row>
     <row r="113">
@@ -4646,7 +4646,7 @@
         <v>173.929611</v>
       </c>
       <c r="C113" t="n">
-        <v>175.897598</v>
+        <v>175.897614</v>
       </c>
     </row>
     <row r="114">
@@ -4657,7 +4657,7 @@
         <v>171.97168</v>
       </c>
       <c r="C114" t="n">
-        <v>175.095886</v>
+        <v>175.095871</v>
       </c>
     </row>
     <row r="115">
@@ -4668,7 +4668,7 @@
         <v>170.258484</v>
       </c>
       <c r="C115" t="n">
-        <v>175.416565</v>
+        <v>175.41658</v>
       </c>
     </row>
     <row r="116">
@@ -4679,7 +4679,7 @@
         <v>167.811081</v>
       </c>
       <c r="C116" t="n">
-        <v>173.171753</v>
+        <v>173.171738</v>
       </c>
     </row>
     <row r="117">
@@ -4712,7 +4712,7 @@
         <v>161.243851</v>
       </c>
       <c r="C119" t="n">
-        <v>173.813141</v>
+        <v>173.813126</v>
       </c>
     </row>
     <row r="120">
@@ -4723,7 +4723,7 @@
         <v>162.018875</v>
       </c>
       <c r="C120" t="n">
-        <v>173.652771</v>
+        <v>173.652786</v>
       </c>
     </row>
     <row r="121">
@@ -4734,7 +4734,7 @@
         <v>162.018875</v>
       </c>
       <c r="C121" t="n">
-        <v>174.454514</v>
+        <v>174.454498</v>
       </c>
     </row>
     <row r="122">
@@ -4745,7 +4745,7 @@
         <v>162.957047</v>
       </c>
       <c r="C122" t="n">
-        <v>175.897598</v>
+        <v>175.897614</v>
       </c>
     </row>
     <row r="123">
@@ -4756,7 +4756,7 @@
         <v>162.671509</v>
       </c>
       <c r="C123" t="n">
-        <v>175.416565</v>
+        <v>175.41658</v>
       </c>
     </row>
     <row r="124">
@@ -4767,7 +4767,7 @@
         <v>164.303116</v>
       </c>
       <c r="C124" t="n">
-        <v>177.501053</v>
+        <v>177.501038</v>
       </c>
     </row>
     <row r="125">
@@ -4778,7 +4778,7 @@
         <v>160.99913</v>
       </c>
       <c r="C125" t="n">
-        <v>179.264832</v>
+        <v>179.264847</v>
       </c>
     </row>
     <row r="126">
@@ -4789,7 +4789,7 @@
         <v>156.797714</v>
       </c>
       <c r="C126" t="n">
-        <v>177.501053</v>
+        <v>177.501038</v>
       </c>
     </row>
     <row r="127">
@@ -4800,7 +4800,7 @@
         <v>155.533218</v>
       </c>
       <c r="C127" t="n">
-        <v>177.661377</v>
+        <v>177.661392</v>
       </c>
     </row>
     <row r="128">
@@ -4877,7 +4877,7 @@
         <v>159.163544</v>
       </c>
       <c r="C134" t="n">
-        <v>180.707932</v>
+        <v>180.707916</v>
       </c>
     </row>
     <row r="135">
@@ -4888,7 +4888,7 @@
         <v>144.642212</v>
       </c>
       <c r="C135" t="n">
-        <v>177.661377</v>
+        <v>177.661392</v>
       </c>
     </row>
     <row r="136">
@@ -4921,7 +4921,7 @@
         <v>149.985748</v>
       </c>
       <c r="C138" t="n">
-        <v>181.669983</v>
+        <v>181.669998</v>
       </c>
     </row>
     <row r="139">
@@ -4932,7 +4932,7 @@
         <v>151.94368</v>
       </c>
       <c r="C139" t="n">
-        <v>185.037231</v>
+        <v>185.037216</v>
       </c>
     </row>
     <row r="140">
@@ -4943,7 +4943,7 @@
         <v>150.92392</v>
       </c>
       <c r="C140" t="n">
-        <v>185.518265</v>
+        <v>185.518234</v>
       </c>
     </row>
     <row r="141">
@@ -4987,7 +4987,7 @@
         <v>151.127869</v>
       </c>
       <c r="C144" t="n">
-        <v>189.526871</v>
+        <v>189.52684</v>
       </c>
     </row>
     <row r="145">
@@ -5020,7 +5020,7 @@
         <v>149.12915</v>
       </c>
       <c r="C147" t="n">
-        <v>185.037231</v>
+        <v>185.037216</v>
       </c>
     </row>
     <row r="148">
@@ -5031,7 +5031,7 @@
         <v>147.53833</v>
       </c>
       <c r="C148" t="n">
-        <v>177.180359</v>
+        <v>177.180344</v>
       </c>
     </row>
     <row r="149">
@@ -5053,7 +5053,7 @@
         <v>147.415955</v>
       </c>
       <c r="C150" t="n">
-        <v>178.14241</v>
+        <v>178.142426</v>
       </c>
     </row>
     <row r="151">
@@ -5064,7 +5064,7 @@
         <v>148.231766</v>
       </c>
       <c r="C151" t="n">
-        <v>179.264832</v>
+        <v>179.264847</v>
       </c>
     </row>
     <row r="152">
@@ -5075,7 +5075,7 @@
         <v>149.700211</v>
       </c>
       <c r="C152" t="n">
-        <v>177.501053</v>
+        <v>177.501038</v>
       </c>
     </row>
     <row r="153">
@@ -5108,7 +5108,7 @@
         <v>145.906723</v>
       </c>
       <c r="C155" t="n">
-        <v>173.171753</v>
+        <v>173.171738</v>
       </c>
     </row>
     <row r="156">
@@ -5130,7 +5130,7 @@
         <v>149.210724</v>
       </c>
       <c r="C157" t="n">
-        <v>175.095886</v>
+        <v>175.095871</v>
       </c>
     </row>
     <row r="158">
@@ -5141,7 +5141,7 @@
         <v>150.230484</v>
       </c>
       <c r="C158" t="n">
-        <v>175.737244</v>
+        <v>175.737274</v>
       </c>
     </row>
     <row r="159">
@@ -5152,7 +5152,7 @@
         <v>150.719971</v>
       </c>
       <c r="C159" t="n">
-        <v>177.661377</v>
+        <v>177.661392</v>
       </c>
     </row>
     <row r="160">
@@ -5163,7 +5163,7 @@
         <v>153.616074</v>
       </c>
       <c r="C160" t="n">
-        <v>176.057953</v>
+        <v>176.057968</v>
       </c>
     </row>
     <row r="161">
@@ -5174,7 +5174,7 @@
         <v>151.94368</v>
       </c>
       <c r="C161" t="n">
-        <v>175.897598</v>
+        <v>175.897614</v>
       </c>
     </row>
     <row r="162">
@@ -5185,7 +5185,7 @@
         <v>154.717407</v>
       </c>
       <c r="C162" t="n">
-        <v>175.256226</v>
+        <v>175.256241</v>
       </c>
     </row>
     <row r="163">
@@ -5196,7 +5196,7 @@
         <v>157.817459</v>
       </c>
       <c r="C163" t="n">
-        <v>175.256226</v>
+        <v>175.256241</v>
       </c>
     </row>
     <row r="164">
@@ -5229,7 +5229,7 @@
         <v>156.634552</v>
       </c>
       <c r="C166" t="n">
-        <v>151.926147</v>
+        <v>151.926132</v>
       </c>
     </row>
     <row r="167">
@@ -5240,7 +5240,7 @@
         <v>154.146362</v>
       </c>
       <c r="C167" t="n">
-        <v>150.723541</v>
+        <v>150.723557</v>
       </c>
     </row>
     <row r="168">
@@ -5262,7 +5262,7 @@
         <v>144.764587</v>
       </c>
       <c r="C169" t="n">
-        <v>148.39856</v>
+        <v>148.398575</v>
       </c>
     </row>
     <row r="170">
@@ -5273,7 +5273,7 @@
         <v>148.272552</v>
       </c>
       <c r="C170" t="n">
-        <v>147.917542</v>
+        <v>147.917526</v>
       </c>
     </row>
     <row r="171">
@@ -5328,7 +5328,7 @@
         <v>137.096024</v>
       </c>
       <c r="C175" t="n">
-        <v>148.39856</v>
+        <v>148.398575</v>
       </c>
     </row>
     <row r="176">
@@ -5339,7 +5339,7 @@
         <v>140.114502</v>
       </c>
       <c r="C176" t="n">
-        <v>148.879578</v>
+        <v>148.879608</v>
       </c>
     </row>
     <row r="177">
@@ -5350,7 +5350,7 @@
         <v>138.646042</v>
       </c>
       <c r="C177" t="n">
-        <v>147.917542</v>
+        <v>147.917526</v>
       </c>
     </row>
     <row r="178">
@@ -5361,7 +5361,7 @@
         <v>137.748672</v>
       </c>
       <c r="C178" t="n">
-        <v>149.200287</v>
+        <v>149.200302</v>
       </c>
     </row>
     <row r="179">
@@ -5372,7 +5372,7 @@
         <v>142.643509</v>
       </c>
       <c r="C179" t="n">
-        <v>148.39856</v>
+        <v>148.398575</v>
       </c>
     </row>
     <row r="180">
@@ -5405,7 +5405,7 @@
         <v>138.727646</v>
       </c>
       <c r="C182" t="n">
-        <v>152.888199</v>
+        <v>152.888214</v>
       </c>
     </row>
     <row r="183">
@@ -5427,7 +5427,7 @@
         <v>138.686844</v>
       </c>
       <c r="C184" t="n">
-        <v>152.968369</v>
+        <v>152.968384</v>
       </c>
     </row>
     <row r="185">
@@ -5438,7 +5438,7 @@
         <v>140.563202</v>
       </c>
       <c r="C185" t="n">
-        <v>155.934738</v>
+        <v>155.934753</v>
       </c>
     </row>
     <row r="186">
@@ -5471,7 +5471,7 @@
         <v>138.238159</v>
       </c>
       <c r="C188" t="n">
-        <v>152.64769</v>
+        <v>152.647705</v>
       </c>
     </row>
     <row r="189">
@@ -5493,7 +5493,7 @@
         <v>135.627579</v>
       </c>
       <c r="C190" t="n">
-        <v>149.440811</v>
+        <v>149.440796</v>
       </c>
     </row>
     <row r="191">
@@ -5515,7 +5515,7 @@
         <v>121.310196</v>
       </c>
       <c r="C192" t="n">
-        <v>150.483047</v>
+        <v>150.483032</v>
       </c>
     </row>
     <row r="193">
@@ -5559,7 +5559,7 @@
         <v>115.191666</v>
       </c>
       <c r="C196" t="n">
-        <v>140.782211</v>
+        <v>140.782227</v>
       </c>
     </row>
     <row r="197">
@@ -5570,7 +5570,7 @@
         <v>115.273247</v>
       </c>
       <c r="C197" t="n">
-        <v>141.904617</v>
+        <v>141.904633</v>
       </c>
     </row>
     <row r="198">
@@ -5581,7 +5581,7 @@
         <v>113.886383</v>
       </c>
       <c r="C198" t="n">
-        <v>142.546005</v>
+        <v>142.54599</v>
       </c>
     </row>
     <row r="199">
@@ -5592,7 +5592,7 @@
         <v>115.436409</v>
       </c>
       <c r="C199" t="n">
-        <v>143.588242</v>
+        <v>143.588226</v>
       </c>
     </row>
     <row r="200">
@@ -5614,7 +5614,7 @@
         <v>110.704727</v>
       </c>
       <c r="C201" t="n">
-        <v>143.187393</v>
+        <v>143.187378</v>
       </c>
     </row>
     <row r="202">
@@ -5625,7 +5625,7 @@
         <v>107.033607</v>
       </c>
       <c r="C202" t="n">
-        <v>142.70636</v>
+        <v>142.706345</v>
       </c>
     </row>
     <row r="203">
@@ -5636,7 +5636,7 @@
         <v>106.421753</v>
       </c>
       <c r="C203" t="n">
-        <v>139.820145</v>
+        <v>139.82016</v>
       </c>
     </row>
     <row r="204">
@@ -5647,7 +5647,7 @@
         <v>103.280914</v>
       </c>
       <c r="C204" t="n">
-        <v>140.782211</v>
+        <v>140.782227</v>
       </c>
     </row>
     <row r="205">
@@ -5691,7 +5691,7 @@
         <v>104.586197</v>
       </c>
       <c r="C208" t="n">
-        <v>144.069275</v>
+        <v>144.06926</v>
       </c>
     </row>
     <row r="209">
@@ -5702,7 +5702,7 @@
         <v>103.280914</v>
       </c>
       <c r="C209" t="n">
-        <v>139.90033</v>
+        <v>139.900314</v>
       </c>
     </row>
     <row r="210">
@@ -5735,7 +5735,7 @@
         <v>111.765274</v>
       </c>
       <c r="C212" t="n">
-        <v>127.874512</v>
+        <v>127.874504</v>
       </c>
     </row>
     <row r="213">
@@ -5746,7 +5746,7 @@
         <v>110.337624</v>
       </c>
       <c r="C213" t="n">
-        <v>130.199509</v>
+        <v>130.199493</v>
       </c>
     </row>
     <row r="214">
@@ -5757,7 +5757,7 @@
         <v>110.174461</v>
       </c>
       <c r="C214" t="n">
-        <v>130.680527</v>
+        <v>130.680542</v>
       </c>
     </row>
     <row r="215">
@@ -5801,7 +5801,7 @@
         <v>116.619316</v>
       </c>
       <c r="C218" t="n">
-        <v>130.440002</v>
+        <v>130.440033</v>
       </c>
     </row>
     <row r="219">
@@ -5812,7 +5812,7 @@
         <v>115.028503</v>
       </c>
       <c r="C219" t="n">
-        <v>129.79863</v>
+        <v>129.798645</v>
       </c>
     </row>
     <row r="220">
@@ -5823,7 +5823,7 @@
         <v>117.598289</v>
       </c>
       <c r="C220" t="n">
-        <v>129.237427</v>
+        <v>129.237442</v>
       </c>
     </row>
     <row r="221">
@@ -5834,7 +5834,7 @@
         <v>113.519257</v>
       </c>
       <c r="C221" t="n">
-        <v>127.874512</v>
+        <v>127.874504</v>
       </c>
     </row>
     <row r="222">
@@ -5845,7 +5845,7 @@
         <v>111.602127</v>
       </c>
       <c r="C222" t="n">
-        <v>127.553833</v>
+        <v>127.553825</v>
       </c>
     </row>
     <row r="223">
@@ -5867,7 +5867,7 @@
         <v>106.544144</v>
       </c>
       <c r="C224" t="n">
-        <v>125.950378</v>
+        <v>125.950394</v>
       </c>
     </row>
     <row r="225">
@@ -5878,7 +5878,7 @@
         <v>107.441513</v>
       </c>
       <c r="C225" t="n">
-        <v>127.874512</v>
+        <v>127.874504</v>
       </c>
     </row>
     <row r="226">
@@ -5889,7 +5889,7 @@
         <v>108.461273</v>
       </c>
       <c r="C226" t="n">
-        <v>127.874512</v>
+        <v>127.874504</v>
       </c>
     </row>
     <row r="227">
@@ -5911,7 +5911,7 @@
         <v>111.071846</v>
       </c>
       <c r="C228" t="n">
-        <v>131.08139</v>
+        <v>131.081406</v>
       </c>
     </row>
     <row r="229">
@@ -5922,7 +5922,7 @@
         <v>110.133675</v>
       </c>
       <c r="C229" t="n">
-        <v>131.08139</v>
+        <v>131.081406</v>
       </c>
     </row>
     <row r="230">
@@ -5933,7 +5933,7 @@
         <v>110.949478</v>
       </c>
       <c r="C230" t="n">
-        <v>129.638306</v>
+        <v>129.63829</v>
       </c>
     </row>
     <row r="231">
@@ -5944,7 +5944,7 @@
         <v>107.441513</v>
       </c>
       <c r="C231" t="n">
-        <v>130.359833</v>
+        <v>130.359848</v>
       </c>
     </row>
     <row r="232">
@@ -5955,7 +5955,7 @@
         <v>107.19677</v>
       </c>
       <c r="C232" t="n">
-        <v>130.359833</v>
+        <v>130.359848</v>
       </c>
     </row>
     <row r="233">
@@ -5966,7 +5966,7 @@
         <v>108.706017</v>
       </c>
       <c r="C233" t="n">
-        <v>126.671928</v>
+        <v>126.671944</v>
       </c>
     </row>
     <row r="234">
@@ -5977,7 +5977,7 @@
         <v>108.583641</v>
       </c>
       <c r="C234" t="n">
-        <v>127.152962</v>
+        <v>127.152969</v>
       </c>
     </row>
     <row r="235">
@@ -5988,7 +5988,7 @@
         <v>114.620598</v>
       </c>
       <c r="C235" t="n">
-        <v>129.79863</v>
+        <v>129.798645</v>
       </c>
     </row>
     <row r="236">
@@ -6010,7 +6010,7 @@
         <v>116.007469</v>
       </c>
       <c r="C237" t="n">
-        <v>129.558121</v>
+        <v>129.558136</v>
       </c>
     </row>
     <row r="238">
@@ -6021,7 +6021,7 @@
         <v>112.050819</v>
       </c>
       <c r="C238" t="n">
-        <v>127.152962</v>
+        <v>127.152969</v>
       </c>
     </row>
     <row r="239">
@@ -6032,7 +6032,7 @@
         <v>114.2127</v>
       </c>
       <c r="C239" t="n">
-        <v>129.558121</v>
+        <v>129.558136</v>
       </c>
     </row>
     <row r="240">
@@ -6043,7 +6043,7 @@
         <v>113.519257</v>
       </c>
       <c r="C240" t="n">
-        <v>129.077087</v>
+        <v>129.077103</v>
       </c>
     </row>
     <row r="241">
@@ -6054,7 +6054,7 @@
         <v>113.396896</v>
       </c>
       <c r="C241" t="n">
-        <v>128.676239</v>
+        <v>128.676224</v>
       </c>
     </row>
     <row r="242">
@@ -6076,7 +6076,7 @@
         <v>110.459984</v>
       </c>
       <c r="C243" t="n">
-        <v>127.633987</v>
+        <v>127.633972</v>
       </c>
     </row>
     <row r="244">
@@ -6087,7 +6087,7 @@
         <v>112.213982</v>
       </c>
       <c r="C244" t="n">
-        <v>122.663307</v>
+        <v>122.66333</v>
       </c>
     </row>
     <row r="245">
@@ -6109,7 +6109,7 @@
         <v>105.442795</v>
       </c>
       <c r="C246" t="n">
-        <v>117.772827</v>
+        <v>117.77282</v>
       </c>
     </row>
     <row r="247">
@@ -6120,7 +6120,7 @@
         <v>104.626984</v>
       </c>
       <c r="C247" t="n">
-        <v>120.258156</v>
+        <v>120.258163</v>
       </c>
     </row>
     <row r="248">
@@ -6131,7 +6131,7 @@
         <v>102.95459</v>
       </c>
       <c r="C248" t="n">
-        <v>120.819366</v>
+        <v>120.819359</v>
       </c>
     </row>
     <row r="249">
@@ -6142,7 +6142,7 @@
         <v>105.157257</v>
       </c>
       <c r="C249" t="n">
-        <v>124.346954</v>
+        <v>124.346939</v>
       </c>
     </row>
     <row r="250">
@@ -6153,7 +6153,7 @@
         <v>104.994095</v>
       </c>
       <c r="C250" t="n">
-        <v>126.271057</v>
+        <v>126.271072</v>
       </c>
     </row>
     <row r="251">
@@ -6164,7 +6164,7 @@
         <v>104.749352</v>
       </c>
       <c r="C251" t="n">
-        <v>123.865906</v>
+        <v>123.865891</v>
       </c>
     </row>
     <row r="252">
@@ -6175,7 +6175,7 @@
         <v>109.195503</v>
       </c>
       <c r="C252" t="n">
-        <v>127.313309</v>
+        <v>127.313293</v>
       </c>
     </row>
     <row r="253">
@@ -6186,7 +6186,7 @@
         <v>108.909966</v>
       </c>
       <c r="C253" t="n">
-        <v>126.591759</v>
+        <v>126.591751</v>
       </c>
     </row>
     <row r="254">
@@ -6197,7 +6197,7 @@
         <v>108.379692</v>
       </c>
       <c r="C254" t="n">
-        <v>126.83226</v>
+        <v>126.832275</v>
       </c>
     </row>
     <row r="255">
@@ -6208,7 +6208,7 @@
         <v>107.074402</v>
       </c>
       <c r="C255" t="n">
-        <v>126.431419</v>
+        <v>126.431412</v>
       </c>
     </row>
     <row r="256">
@@ -6219,7 +6219,7 @@
         <v>104.219086</v>
       </c>
       <c r="C256" t="n">
-        <v>126.591759</v>
+        <v>126.591751</v>
       </c>
     </row>
     <row r="257">
@@ -6241,7 +6241,7 @@
         <v>106.054649</v>
       </c>
       <c r="C258" t="n">
-        <v>124.266777</v>
+        <v>124.266769</v>
       </c>
     </row>
     <row r="259">
@@ -6252,7 +6252,7 @@
         <v>104.423042</v>
       </c>
       <c r="C259" t="n">
-        <v>122.583153</v>
+        <v>122.583145</v>
       </c>
     </row>
     <row r="260">
@@ -6263,7 +6263,7 @@
         <v>105.034897</v>
       </c>
       <c r="C260" t="n">
-        <v>126.271057</v>
+        <v>126.271072</v>
       </c>
     </row>
     <row r="261">
@@ -6274,7 +6274,7 @@
         <v>103.933556</v>
       </c>
       <c r="C261" t="n">
-        <v>126.030548</v>
+        <v>126.030556</v>
       </c>
     </row>
     <row r="262">
@@ -6296,7 +6296,7 @@
         <v>105.238838</v>
       </c>
       <c r="C263" t="n">
-        <v>124.507271</v>
+        <v>124.507294</v>
       </c>
     </row>
     <row r="264">
@@ -6307,7 +6307,7 @@
         <v>102.791428</v>
       </c>
       <c r="C264" t="n">
-        <v>125.709869</v>
+        <v>125.709862</v>
       </c>
     </row>
     <row r="265">
@@ -6329,7 +6329,7 @@
         <v>99.976906</v>
       </c>
       <c r="C266" t="n">
-        <v>126.110741</v>
+        <v>126.110733</v>
       </c>
     </row>
     <row r="267">
@@ -6340,7 +6340,7 @@
         <v>102.138786</v>
       </c>
       <c r="C267" t="n">
-        <v>126.83226</v>
+        <v>126.832275</v>
       </c>
     </row>
     <row r="268">
@@ -6406,7 +6406,7 @@
         <v>101.078239</v>
       </c>
       <c r="C273" t="n">
-        <v>122.262451</v>
+        <v>122.262474</v>
       </c>
     </row>
     <row r="274">
@@ -6450,7 +6450,7 @@
         <v>97.896599</v>
       </c>
       <c r="C277" t="n">
-        <v>119.456444</v>
+        <v>119.456436</v>
       </c>
     </row>
     <row r="278">
@@ -6472,7 +6472,7 @@
         <v>101.119026</v>
       </c>
       <c r="C279" t="n">
-        <v>121.220222</v>
+        <v>121.220215</v>
       </c>
     </row>
     <row r="280">
@@ -6483,7 +6483,7 @@
         <v>100.180847</v>
       </c>
       <c r="C280" t="n">
-        <v>122.262451</v>
+        <v>122.262474</v>
       </c>
     </row>
     <row r="281">
@@ -6494,7 +6494,7 @@
         <v>99.936104</v>
       </c>
       <c r="C281" t="n">
-        <v>121.220222</v>
+        <v>121.220215</v>
       </c>
     </row>
     <row r="282">
@@ -6505,7 +6505,7 @@
         <v>101.486137</v>
       </c>
       <c r="C282" t="n">
-        <v>122.021957</v>
+        <v>122.02195</v>
       </c>
     </row>
     <row r="283">
@@ -6516,7 +6516,7 @@
         <v>103.321701</v>
       </c>
       <c r="C283" t="n">
-        <v>123.545227</v>
+        <v>123.545212</v>
       </c>
     </row>
     <row r="284">
@@ -6549,7 +6549,7 @@
         <v>98.712402</v>
       </c>
       <c r="C286" t="n">
-        <v>120.498665</v>
+        <v>120.49868</v>
       </c>
     </row>
     <row r="287">
@@ -6560,7 +6560,7 @@
         <v>98.467659</v>
       </c>
       <c r="C287" t="n">
-        <v>120.578857</v>
+        <v>120.578835</v>
       </c>
     </row>
     <row r="288">
@@ -6582,7 +6582,7 @@
         <v>102.22036</v>
       </c>
       <c r="C289" t="n">
-        <v>119.77713</v>
+        <v>119.777115</v>
       </c>
     </row>
     <row r="290">
@@ -6593,7 +6593,7 @@
         <v>106.054649</v>
       </c>
       <c r="C290" t="n">
-        <v>127.393478</v>
+        <v>127.393471</v>
       </c>
     </row>
     <row r="291">
@@ -6604,7 +6604,7 @@
         <v>106.462555</v>
       </c>
       <c r="C291" t="n">
-        <v>125.228821</v>
+        <v>125.228813</v>
       </c>
     </row>
     <row r="292">
@@ -6637,7 +6637,7 @@
         <v>104.83094</v>
       </c>
       <c r="C294" t="n">
-        <v>121.059883</v>
+        <v>121.059875</v>
       </c>
     </row>
     <row r="295">
@@ -6659,7 +6659,7 @@
         <v>104.137505</v>
       </c>
       <c r="C296" t="n">
-        <v>117.692657</v>
+        <v>117.69265</v>
       </c>
     </row>
     <row r="297">
@@ -6670,7 +6670,7 @@
         <v>103.036171</v>
       </c>
       <c r="C297" t="n">
-        <v>116.570244</v>
+        <v>116.570236</v>
       </c>
     </row>
     <row r="298">
@@ -6681,7 +6681,7 @@
         <v>103.892769</v>
       </c>
       <c r="C298" t="n">
-        <v>115.768517</v>
+        <v>115.768524</v>
       </c>
     </row>
     <row r="299">
@@ -6714,7 +6714,7 @@
         <v>107.971794</v>
       </c>
       <c r="C301" t="n">
-        <v>118.654709</v>
+        <v>118.654724</v>
       </c>
     </row>
     <row r="302">
@@ -6725,7 +6725,7 @@
         <v>108.706017</v>
       </c>
       <c r="C302" t="n">
-        <v>120.258156</v>
+        <v>120.258163</v>
       </c>
     </row>
     <row r="303">
@@ -6747,7 +6747,7 @@
         <v>110.308449</v>
       </c>
       <c r="C304" t="n">
-        <v>123.304703</v>
+        <v>123.30471</v>
       </c>
     </row>
     <row r="305">
@@ -6758,7 +6758,7 @@
         <v>109.437477</v>
       </c>
       <c r="C305" t="n">
-        <v>121.941788</v>
+        <v>121.94178</v>
       </c>
     </row>
     <row r="306">
@@ -6769,7 +6769,7 @@
         <v>108.000374</v>
       </c>
       <c r="C306" t="n">
-        <v>120.899536</v>
+        <v>120.899544</v>
       </c>
     </row>
     <row r="307">
@@ -6791,7 +6791,7 @@
         <v>105.605202</v>
       </c>
       <c r="C308" t="n">
-        <v>118.386497</v>
+        <v>118.38649</v>
       </c>
     </row>
     <row r="309">
@@ -6846,7 +6846,7 @@
         <v>106.066818</v>
       </c>
       <c r="C313" t="n">
-        <v>121.121773</v>
+        <v>121.121765</v>
       </c>
     </row>
     <row r="314">
@@ -6857,7 +6857,7 @@
         <v>106.737473</v>
       </c>
       <c r="C314" t="n">
-        <v>121.463692</v>
+        <v>121.463684</v>
       </c>
     </row>
     <row r="315">
@@ -6879,7 +6879,7 @@
         <v>109.132637</v>
       </c>
       <c r="C316" t="n">
-        <v>122.745857</v>
+        <v>122.745865</v>
       </c>
     </row>
     <row r="317">
@@ -6890,7 +6890,7 @@
         <v>107.129402</v>
       </c>
       <c r="C317" t="n">
-        <v>121.207253</v>
+        <v>121.20726</v>
       </c>
     </row>
     <row r="318">
@@ -6912,7 +6912,7 @@
         <v>106.389084</v>
       </c>
       <c r="C319" t="n">
-        <v>120.523438</v>
+        <v>120.52343</v>
       </c>
     </row>
     <row r="320">
@@ -6923,7 +6923,7 @@
         <v>105.95359</v>
       </c>
       <c r="C320" t="n">
-        <v>120.352486</v>
+        <v>120.352478</v>
       </c>
     </row>
     <row r="321">
@@ -6978,7 +6978,7 @@
         <v>112.268127</v>
       </c>
       <c r="C325" t="n">
-        <v>124.968269</v>
+        <v>124.968254</v>
       </c>
     </row>
     <row r="326">
@@ -6989,7 +6989,7 @@
         <v>110.87458</v>
       </c>
       <c r="C326" t="n">
-        <v>123.429665</v>
+        <v>123.429672</v>
       </c>
     </row>
     <row r="327">
@@ -7011,7 +7011,7 @@
         <v>110.221359</v>
       </c>
       <c r="C328" t="n">
-        <v>119.412224</v>
+        <v>119.412231</v>
       </c>
     </row>
     <row r="329">
@@ -7022,7 +7022,7 @@
         <v>111.919746</v>
       </c>
       <c r="C329" t="n">
-        <v>122.916817</v>
+        <v>122.916809</v>
       </c>
     </row>
     <row r="330">
@@ -7044,7 +7044,7 @@
         <v>102.818108</v>
       </c>
       <c r="C331" t="n">
-        <v>122.831322</v>
+        <v>122.831329</v>
       </c>
     </row>
     <row r="332">
@@ -7055,7 +7055,7 @@
         <v>103.993912</v>
       </c>
       <c r="C332" t="n">
-        <v>120.779869</v>
+        <v>120.779861</v>
       </c>
     </row>
     <row r="333">
@@ -7110,7 +7110,7 @@
         <v>97.635818</v>
       </c>
       <c r="C337" t="n">
-        <v>107.530846</v>
+        <v>107.530838</v>
       </c>
     </row>
     <row r="338">
@@ -7132,7 +7132,7 @@
         <v>97.635818</v>
       </c>
       <c r="C339" t="n">
-        <v>108.214653</v>
+        <v>108.214661</v>
       </c>
     </row>
     <row r="340">
@@ -7143,7 +7143,7 @@
         <v>96.068085</v>
       </c>
       <c r="C340" t="n">
-        <v>106.590584</v>
+        <v>106.590576</v>
       </c>
     </row>
     <row r="341">
@@ -7154,7 +7154,7 @@
         <v>93.890648</v>
       </c>
       <c r="C341" t="n">
-        <v>106.847015</v>
+        <v>106.847008</v>
       </c>
     </row>
     <row r="342">
@@ -7176,7 +7176,7 @@
         <v>94.500328</v>
       </c>
       <c r="C343" t="n">
-        <v>105.821281</v>
+        <v>105.821289</v>
       </c>
     </row>
     <row r="344">
@@ -7286,7 +7286,7 @@
         <v>97.592278</v>
       </c>
       <c r="C353" t="n">
-        <v>106.847015</v>
+        <v>106.847008</v>
       </c>
     </row>
     <row r="354">
@@ -7319,7 +7319,7 @@
         <v>96.851944</v>
       </c>
       <c r="C356" t="n">
-        <v>110.266113</v>
+        <v>110.266121</v>
       </c>
     </row>
     <row r="357">
@@ -7330,7 +7330,7 @@
         <v>96.939049</v>
       </c>
       <c r="C357" t="n">
-        <v>111.120903</v>
+        <v>111.120895</v>
       </c>
     </row>
     <row r="358">
@@ -7341,7 +7341,7 @@
         <v>97.374535</v>
       </c>
       <c r="C358" t="n">
-        <v>111.97567</v>
+        <v>111.975677</v>
       </c>
     </row>
     <row r="359">
@@ -7363,7 +7363,7 @@
         <v>94.935814</v>
       </c>
       <c r="C360" t="n">
-        <v>112.403061</v>
+        <v>112.403053</v>
       </c>
     </row>
     <row r="361">
@@ -7374,7 +7374,7 @@
         <v>90.929352</v>
       </c>
       <c r="C361" t="n">
-        <v>110.864449</v>
+        <v>110.864456</v>
       </c>
     </row>
     <row r="362">
@@ -7385,7 +7385,7 @@
         <v>91.800316</v>
       </c>
       <c r="C362" t="n">
-        <v>113.172348</v>
+        <v>113.172356</v>
       </c>
     </row>
     <row r="363">
@@ -7396,7 +7396,7 @@
         <v>90.189026</v>
       </c>
       <c r="C363" t="n">
-        <v>109.66777</v>
+        <v>109.667778</v>
       </c>
     </row>
     <row r="364">
@@ -7407,7 +7407,7 @@
         <v>90.493866</v>
       </c>
       <c r="C364" t="n">
-        <v>108.727524</v>
+        <v>108.727516</v>
       </c>
     </row>
     <row r="365">
@@ -7429,7 +7429,7 @@
         <v>86.260948</v>
       </c>
       <c r="C366" t="n">
-        <v>104.539116</v>
+        <v>104.539124</v>
       </c>
     </row>
     <row r="367">
@@ -7517,7 +7517,7 @@
         <v>92.540642</v>
       </c>
       <c r="C374" t="n">
-        <v>110.693512</v>
+        <v>110.693504</v>
       </c>
     </row>
     <row r="375">
@@ -7561,7 +7561,7 @@
         <v>89.492249</v>
       </c>
       <c r="C378" t="n">
-        <v>105.393906</v>
+        <v>105.393898</v>
       </c>
     </row>
     <row r="379">
@@ -7616,7 +7616,7 @@
         <v>89.361595</v>
       </c>
       <c r="C383" t="n">
-        <v>102.145744</v>
+        <v>102.145752</v>
       </c>
     </row>
     <row r="384">
@@ -7649,7 +7649,7 @@
         <v>90.406769</v>
       </c>
       <c r="C386" t="n">
-        <v>102.573135</v>
+        <v>102.573128</v>
       </c>
     </row>
     <row r="387">
@@ -7671,7 +7671,7 @@
         <v>90.66806</v>
       </c>
       <c r="C388" t="n">
-        <v>104.197212</v>
+        <v>104.19722</v>
       </c>
     </row>
     <row r="389">
@@ -7748,7 +7748,7 @@
         <v>84.066093</v>
       </c>
       <c r="C395" t="n">
-        <v>98.042816</v>
+        <v>98.042824</v>
       </c>
     </row>
     <row r="396">
@@ -7770,7 +7770,7 @@
         <v>83.508675</v>
       </c>
       <c r="C397" t="n">
-        <v>98.726646</v>
+        <v>98.726639</v>
       </c>
     </row>
     <row r="398">
@@ -7792,7 +7792,7 @@
         <v>82.672539</v>
       </c>
       <c r="C399" t="n">
-        <v>98.128296</v>
+        <v>98.128304</v>
       </c>
     </row>
     <row r="400">
@@ -7814,7 +7814,7 @@
         <v>81.505447</v>
       </c>
       <c r="C401" t="n">
-        <v>95.563972</v>
+        <v>95.56398</v>
       </c>
     </row>
     <row r="402">
@@ -7825,7 +7825,7 @@
         <v>77.516403</v>
       </c>
       <c r="C402" t="n">
-        <v>92.230347</v>
+        <v>92.230339</v>
       </c>
     </row>
     <row r="403">
@@ -7847,7 +7847,7 @@
         <v>79.362854</v>
       </c>
       <c r="C404" t="n">
-        <v>94.70919</v>
+        <v>94.709198</v>
       </c>
     </row>
     <row r="405">
@@ -7858,7 +7858,7 @@
         <v>79.955116</v>
       </c>
       <c r="C405" t="n">
-        <v>95.307533</v>
+        <v>95.307541</v>
       </c>
     </row>
     <row r="406">
@@ -7869,7 +7869,7 @@
         <v>77.88221</v>
       </c>
       <c r="C406" t="n">
-        <v>93.597992</v>
+        <v>93.597984</v>
       </c>
     </row>
     <row r="407">
@@ -7880,7 +7880,7 @@
         <v>77.516403</v>
       </c>
       <c r="C407" t="n">
-        <v>92.657738</v>
+        <v>92.65773</v>
       </c>
     </row>
     <row r="408">
@@ -7891,7 +7891,7 @@
         <v>78.561562</v>
       </c>
       <c r="C408" t="n">
-        <v>94.88015</v>
+        <v>94.880142</v>
       </c>
     </row>
     <row r="409">
@@ -7902,7 +7902,7 @@
         <v>77.673172</v>
       </c>
       <c r="C409" t="n">
-        <v>94.88015</v>
+        <v>94.880142</v>
       </c>
     </row>
     <row r="410">
@@ -7946,7 +7946,7 @@
         <v>76.593178</v>
       </c>
       <c r="C413" t="n">
-        <v>80.348946</v>
+        <v>80.348953</v>
       </c>
     </row>
     <row r="414">
@@ -7979,7 +7979,7 @@
         <v>75.251877</v>
       </c>
       <c r="C416" t="n">
-        <v>80.562645</v>
+        <v>80.562653</v>
       </c>
     </row>
     <row r="417">
@@ -8034,7 +8034,7 @@
         <v>88.055138</v>
       </c>
       <c r="C421" t="n">
-        <v>88.55481</v>
+        <v>88.554802</v>
       </c>
     </row>
     <row r="422">
@@ -8045,7 +8045,7 @@
         <v>87.968048</v>
       </c>
       <c r="C422" t="n">
-        <v>88.041931</v>
+        <v>88.041939</v>
       </c>
     </row>
     <row r="423">
@@ -8067,7 +8067,7 @@
         <v>91.190636</v>
       </c>
       <c r="C424" t="n">
-        <v>88.55481</v>
+        <v>88.554802</v>
       </c>
     </row>
     <row r="425">
@@ -8078,7 +8078,7 @@
         <v>88.22934</v>
       </c>
       <c r="C425" t="n">
-        <v>88.640282</v>
+        <v>88.640274</v>
       </c>
     </row>
     <row r="426">
@@ -8089,7 +8089,7 @@
         <v>85.02417</v>
       </c>
       <c r="C426" t="n">
-        <v>87.187164</v>
+        <v>87.187157</v>
       </c>
     </row>
     <row r="427">
@@ -8100,7 +8100,7 @@
         <v>83.247383</v>
       </c>
       <c r="C427" t="n">
-        <v>87.529076</v>
+        <v>87.529083</v>
       </c>
     </row>
     <row r="428">
@@ -8111,7 +8111,7 @@
         <v>84.414482</v>
       </c>
       <c r="C428" t="n">
-        <v>89.495064</v>
+        <v>89.495056</v>
       </c>
     </row>
     <row r="429">
@@ -8144,7 +8144,7 @@
         <v>83.543518</v>
       </c>
       <c r="C431" t="n">
-        <v>103.34243</v>
+        <v>103.342438</v>
       </c>
     </row>
     <row r="432">
@@ -8188,7 +8188,7 @@
         <v>83.073189</v>
       </c>
       <c r="C435" t="n">
-        <v>103.256958</v>
+        <v>103.25695</v>
       </c>
     </row>
     <row r="436">
@@ -8199,7 +8199,7 @@
         <v>82.742226</v>
       </c>
       <c r="C436" t="n">
-        <v>102.402176</v>
+        <v>102.402184</v>
       </c>
     </row>
     <row r="437">
@@ -8221,7 +8221,7 @@
         <v>80.216408</v>
       </c>
       <c r="C438" t="n">
-        <v>99.239502</v>
+        <v>99.23951</v>
       </c>
     </row>
     <row r="439">
@@ -8287,7 +8287,7 @@
         <v>82.881577</v>
       </c>
       <c r="C444" t="n">
-        <v>102.145744</v>
+        <v>102.145752</v>
       </c>
     </row>
     <row r="445">
@@ -8342,7 +8342,7 @@
         <v>83.82222</v>
       </c>
       <c r="C449" t="n">
-        <v>110.266113</v>
+        <v>110.266121</v>
       </c>
     </row>
     <row r="450">
@@ -8353,7 +8353,7 @@
         <v>85.877716</v>
       </c>
       <c r="C450" t="n">
-        <v>112.6595</v>
+        <v>112.659492</v>
       </c>
     </row>
     <row r="451">
@@ -8375,7 +8375,7 @@
         <v>85.529327</v>
       </c>
       <c r="C452" t="n">
-        <v>115.394768</v>
+        <v>115.394783</v>
       </c>
     </row>
     <row r="453">
@@ -8397,7 +8397,7 @@
         <v>85.877716</v>
       </c>
       <c r="C454" t="n">
-        <v>116.078598</v>
+        <v>116.07859</v>
       </c>
     </row>
     <row r="455">
@@ -8408,7 +8408,7 @@
         <v>85.616432</v>
       </c>
       <c r="C455" t="n">
-        <v>114.454514</v>
+        <v>114.454521</v>
       </c>
     </row>
     <row r="456">
@@ -8419,7 +8419,7 @@
         <v>84.867393</v>
       </c>
       <c r="C456" t="n">
-        <v>115.736679</v>
+        <v>115.736671</v>
       </c>
     </row>
     <row r="457">
@@ -8441,7 +8441,7 @@
         <v>83.247383</v>
       </c>
       <c r="C458" t="n">
-        <v>112.317581</v>
+        <v>112.317574</v>
       </c>
     </row>
     <row r="459">
@@ -8463,7 +8463,7 @@
         <v>81.348671</v>
       </c>
       <c r="C460" t="n">
-        <v>112.403061</v>
+        <v>112.403053</v>
       </c>
     </row>
     <row r="461">
@@ -8474,7 +8474,7 @@
         <v>81.784157</v>
       </c>
       <c r="C461" t="n">
-        <v>114.454514</v>
+        <v>114.454521</v>
       </c>
     </row>
     <row r="462">
@@ -8507,7 +8507,7 @@
         <v>83.369324</v>
       </c>
       <c r="C464" t="n">
-        <v>115.993118</v>
+        <v>115.993111</v>
       </c>
     </row>
     <row r="465">
@@ -8518,7 +8518,7 @@
         <v>82.498352</v>
       </c>
       <c r="C465" t="n">
-        <v>116.676941</v>
+        <v>116.676933</v>
       </c>
     </row>
     <row r="466">
@@ -8540,7 +8540,7 @@
         <v>80.442856</v>
       </c>
       <c r="C467" t="n">
-        <v>113.514267</v>
+        <v>113.514275</v>
       </c>
     </row>
     <row r="468">
@@ -8573,7 +8573,7 @@
         <v>79.240921</v>
       </c>
       <c r="C470" t="n">
-        <v>110.949944</v>
+        <v>110.949936</v>
       </c>
     </row>
     <row r="471">
@@ -8584,7 +8584,7 @@
         <v>79.362854</v>
       </c>
       <c r="C471" t="n">
-        <v>110.864449</v>
+        <v>110.864456</v>
       </c>
     </row>
     <row r="472">
@@ -8606,7 +8606,7 @@
         <v>78.735756</v>
       </c>
       <c r="C473" t="n">
-        <v>108.727524</v>
+        <v>108.727516</v>
       </c>
     </row>
     <row r="474">
@@ -8628,7 +8628,7 @@
         <v>80.129311</v>
       </c>
       <c r="C475" t="n">
-        <v>110.693512</v>
+        <v>110.693504</v>
       </c>
     </row>
     <row r="476">
@@ -8639,7 +8639,7 @@
         <v>79.275757</v>
       </c>
       <c r="C476" t="n">
-        <v>108.727524</v>
+        <v>108.727516</v>
       </c>
     </row>
     <row r="477">
@@ -8650,7 +8650,7 @@
         <v>80.233833</v>
       </c>
       <c r="C477" t="n">
-        <v>110.266113</v>
+        <v>110.266121</v>
       </c>
     </row>
     <row r="478">
@@ -8683,7 +8683,7 @@
         <v>80.129311</v>
       </c>
       <c r="C480" t="n">
-        <v>107.530846</v>
+        <v>107.530838</v>
       </c>
     </row>
     <row r="481">
@@ -8694,7 +8694,7 @@
         <v>79.223503</v>
       </c>
       <c r="C481" t="n">
-        <v>105.47937</v>
+        <v>105.479378</v>
       </c>
     </row>
     <row r="482">
@@ -8716,7 +8716,7 @@
         <v>82.463516</v>
       </c>
       <c r="C483" t="n">
-        <v>110.949944</v>
+        <v>110.949936</v>
       </c>
     </row>
     <row r="484">
@@ -8738,7 +8738,7 @@
         <v>84.01384</v>
       </c>
       <c r="C485" t="n">
-        <v>113.172348</v>
+        <v>113.172356</v>
       </c>
     </row>
     <row r="486">
@@ -8749,7 +8749,7 @@
         <v>84.170616</v>
       </c>
       <c r="C486" t="n">
-        <v>113.343323</v>
+        <v>113.343315</v>
       </c>
     </row>
     <row r="487">
@@ -8782,7 +8782,7 @@
         <v>90.580963</v>
       </c>
       <c r="C489" t="n">
-        <v>112.403061</v>
+        <v>112.403053</v>
       </c>
     </row>
     <row r="490">
@@ -8793,7 +8793,7 @@
         <v>92.671295</v>
       </c>
       <c r="C490" t="n">
-        <v>112.488541</v>
+        <v>112.488533</v>
       </c>
     </row>
     <row r="491">
@@ -8815,7 +8815,7 @@
         <v>93.193871</v>
       </c>
       <c r="C492" t="n">
-        <v>118.215538</v>
+        <v>118.215546</v>
       </c>
     </row>
     <row r="493">
@@ -8848,7 +8848,7 @@
         <v>93.193871</v>
       </c>
       <c r="C495" t="n">
-        <v>118.899361</v>
+        <v>118.899368</v>
       </c>
     </row>
     <row r="496">
@@ -8870,7 +8870,7 @@
         <v>93.890648</v>
       </c>
       <c r="C497" t="n">
-        <v>119.497696</v>
+        <v>119.497711</v>
       </c>
     </row>
     <row r="498">
@@ -8892,7 +8892,7 @@
         <v>93.977753</v>
       </c>
       <c r="C499" t="n">
-        <v>121.463692</v>
+        <v>121.463684</v>
       </c>
     </row>
     <row r="500">
@@ -8925,7 +8925,7 @@
         <v>94.282585</v>
       </c>
       <c r="C502" t="n">
-        <v>120.523438</v>
+        <v>120.52343</v>
       </c>
     </row>
     <row r="503">
@@ -8958,7 +8958,7 @@
         <v>93.498711</v>
       </c>
       <c r="C505" t="n">
-        <v>121.891075</v>
+        <v>121.891083</v>
       </c>
     </row>
     <row r="506">
@@ -8969,7 +8969,7 @@
         <v>94.06485</v>
       </c>
       <c r="C506" t="n">
-        <v>123.686111</v>
+        <v>123.686096</v>
       </c>
     </row>
     <row r="507">
@@ -8980,7 +8980,7 @@
         <v>93.411613</v>
       </c>
       <c r="C507" t="n">
-        <v>123.258705</v>
+        <v>123.258713</v>
       </c>
     </row>
     <row r="508">
@@ -8991,7 +8991,7 @@
         <v>94.674522</v>
       </c>
       <c r="C508" t="n">
-        <v>123.600632</v>
+        <v>123.600624</v>
       </c>
     </row>
     <row r="509">
@@ -9002,7 +9002,7 @@
         <v>95.806786</v>
       </c>
       <c r="C509" t="n">
-        <v>123.344193</v>
+        <v>123.3442</v>
       </c>
     </row>
     <row r="510">
@@ -9013,7 +9013,7 @@
         <v>95.632591</v>
       </c>
       <c r="C510" t="n">
-        <v>127.361649</v>
+        <v>127.361641</v>
       </c>
     </row>
     <row r="511">
@@ -9024,7 +9024,7 @@
         <v>95.806786</v>
       </c>
       <c r="C511" t="n">
-        <v>125.993988</v>
+        <v>125.993996</v>
       </c>
     </row>
     <row r="512">
@@ -9035,7 +9035,7 @@
         <v>96.721306</v>
       </c>
       <c r="C512" t="n">
-        <v>127.703552</v>
+        <v>127.703537</v>
       </c>
     </row>
     <row r="513">
@@ -9046,7 +9046,7 @@
         <v>94.848717</v>
       </c>
       <c r="C513" t="n">
-        <v>126.93425</v>
+        <v>126.934258</v>
       </c>
     </row>
     <row r="514">
@@ -9057,7 +9057,7 @@
         <v>95.458389</v>
       </c>
       <c r="C514" t="n">
-        <v>125.993988</v>
+        <v>125.993996</v>
       </c>
     </row>
     <row r="515">
@@ -9068,7 +9068,7 @@
         <v>92.453545</v>
       </c>
       <c r="C515" t="n">
-        <v>123.087753</v>
+        <v>123.087769</v>
       </c>
     </row>
     <row r="516">
@@ -9090,7 +9090,7 @@
         <v>95.893883</v>
       </c>
       <c r="C517" t="n">
-        <v>125.993988</v>
+        <v>125.993996</v>
       </c>
     </row>
     <row r="518">
@@ -9101,7 +9101,7 @@
         <v>94.674522</v>
       </c>
       <c r="C518" t="n">
-        <v>124.198975</v>
+        <v>124.198967</v>
       </c>
     </row>
     <row r="519">
@@ -9112,7 +9112,7 @@
         <v>98.332603</v>
       </c>
       <c r="C519" t="n">
-        <v>125.48114</v>
+        <v>125.481133</v>
       </c>
     </row>
     <row r="520">
@@ -9123,7 +9123,7 @@
         <v>97.200333</v>
       </c>
       <c r="C520" t="n">
-        <v>125.652077</v>
+        <v>125.652092</v>
       </c>
     </row>
     <row r="521">
@@ -9134,7 +9134,7 @@
         <v>99.943893</v>
       </c>
       <c r="C521" t="n">
-        <v>127.276154</v>
+        <v>127.276169</v>
       </c>
     </row>
     <row r="522">
@@ -9145,7 +9145,7 @@
         <v>100.422935</v>
       </c>
       <c r="C522" t="n">
-        <v>128.472839</v>
+        <v>128.472855</v>
       </c>
     </row>
     <row r="523">
@@ -9167,7 +9167,7 @@
         <v>102.51326</v>
       </c>
       <c r="C524" t="n">
-        <v>130.438828</v>
+        <v>130.438843</v>
       </c>
     </row>
     <row r="525">
@@ -9200,7 +9200,7 @@
         <v>107.608437</v>
       </c>
       <c r="C527" t="n">
-        <v>134.285324</v>
+        <v>134.285339</v>
       </c>
     </row>
     <row r="528">
@@ -9222,7 +9222,7 @@
         <v>105.866501</v>
       </c>
       <c r="C529" t="n">
-        <v>134.883682</v>
+        <v>134.883667</v>
       </c>
     </row>
     <row r="530">
@@ -9277,7 +9277,7 @@
         <v>104.995529</v>
       </c>
       <c r="C534" t="n">
-        <v>137.020615</v>
+        <v>137.020599</v>
       </c>
     </row>
     <row r="535">
@@ -9332,7 +9332,7 @@
         <v>91.147095</v>
       </c>
       <c r="C539" t="n">
-        <v>106.847015</v>
+        <v>106.847008</v>
       </c>
     </row>
     <row r="540">
@@ -9442,7 +9442,7 @@
         <v>67.761528</v>
       </c>
       <c r="C549" t="n">
-        <v>83.682579</v>
+        <v>83.682587</v>
       </c>
     </row>
     <row r="550">
@@ -9453,7 +9453,7 @@
         <v>64.486679</v>
       </c>
       <c r="C550" t="n">
-        <v>78.895836</v>
+        <v>78.895844</v>
       </c>
     </row>
     <row r="551">
@@ -9464,7 +9464,7 @@
         <v>64.62603</v>
       </c>
       <c r="C551" t="n">
-        <v>80.220741</v>
+        <v>80.220734</v>
       </c>
     </row>
     <row r="552">
@@ -9574,7 +9574,7 @@
         <v>75.642952</v>
       </c>
       <c r="C561" t="n">
-        <v>91.515846</v>
+        <v>91.515839</v>
       </c>
     </row>
     <row r="562">
@@ -9607,7 +9607,7 @@
         <v>71.078796</v>
       </c>
       <c r="C564" t="n">
-        <v>88.706566</v>
+        <v>88.706573</v>
       </c>
     </row>
     <row r="565">
@@ -9618,7 +9618,7 @@
         <v>72.141136</v>
       </c>
       <c r="C565" t="n">
-        <v>88.37326</v>
+        <v>88.373268</v>
       </c>
     </row>
     <row r="566">
@@ -9684,7 +9684,7 @@
         <v>72.318199</v>
       </c>
       <c r="C571" t="n">
-        <v>89.373177</v>
+        <v>89.373169</v>
       </c>
     </row>
     <row r="572">
@@ -9695,7 +9695,7 @@
         <v>71.82637</v>
       </c>
       <c r="C572" t="n">
-        <v>90.992081</v>
+        <v>90.992088</v>
       </c>
     </row>
     <row r="573">
@@ -9728,7 +9728,7 @@
         <v>72.455917</v>
       </c>
       <c r="C575" t="n">
-        <v>91.230156</v>
+        <v>91.230164</v>
       </c>
     </row>
     <row r="576">
@@ -9739,7 +9739,7 @@
         <v>70.134491</v>
       </c>
       <c r="C576" t="n">
-        <v>89.706482</v>
+        <v>89.706474</v>
       </c>
     </row>
     <row r="577">
@@ -9783,7 +9783,7 @@
         <v>79.479202</v>
       </c>
       <c r="C580" t="n">
-        <v>107.895378</v>
+        <v>107.89537</v>
       </c>
     </row>
     <row r="581">
@@ -9827,7 +9827,7 @@
         <v>74.226486</v>
       </c>
       <c r="C584" t="n">
-        <v>95.086967</v>
+        <v>95.08696</v>
       </c>
     </row>
     <row r="585">
@@ -9849,7 +9849,7 @@
         <v>74.619949</v>
       </c>
       <c r="C586" t="n">
-        <v>100.086525</v>
+        <v>100.086533</v>
       </c>
     </row>
     <row r="587">
@@ -9860,7 +9860,7 @@
         <v>74.167473</v>
       </c>
       <c r="C587" t="n">
-        <v>101.134056</v>
+        <v>101.134048</v>
       </c>
     </row>
     <row r="588">
@@ -9893,7 +9893,7 @@
         <v>70.803375</v>
       </c>
       <c r="C590" t="n">
-        <v>99.991295</v>
+        <v>99.991302</v>
       </c>
     </row>
     <row r="591">
@@ -9915,7 +9915,7 @@
         <v>73.400223</v>
       </c>
       <c r="C592" t="n">
-        <v>100.657906</v>
+        <v>100.657898</v>
       </c>
     </row>
     <row r="593">
@@ -9926,7 +9926,7 @@
         <v>75.564255</v>
       </c>
       <c r="C593" t="n">
-        <v>102.46727</v>
+        <v>102.467278</v>
       </c>
     </row>
     <row r="594">
@@ -9970,7 +9970,7 @@
         <v>83.748253</v>
       </c>
       <c r="C597" t="n">
-        <v>111.799797</v>
+        <v>111.799789</v>
       </c>
     </row>
     <row r="598">
@@ -9992,7 +9992,7 @@
         <v>86.128693</v>
       </c>
       <c r="C599" t="n">
-        <v>116.656517</v>
+        <v>116.656509</v>
       </c>
     </row>
     <row r="600">
@@ -10014,7 +10014,7 @@
         <v>89.256706</v>
       </c>
       <c r="C601" t="n">
-        <v>123.89399</v>
+        <v>123.893982</v>
       </c>
     </row>
     <row r="602">
@@ -10069,7 +10069,7 @@
         <v>86.42379</v>
       </c>
       <c r="C606" t="n">
-        <v>117.704048</v>
+        <v>117.704041</v>
       </c>
     </row>
     <row r="607">
@@ -10091,7 +10091,7 @@
         <v>87.663193</v>
       </c>
       <c r="C608" t="n">
-        <v>120.751404</v>
+        <v>120.751396</v>
       </c>
     </row>
     <row r="609">
@@ -10157,7 +10157,7 @@
         <v>87.466461</v>
       </c>
       <c r="C614" t="n">
-        <v>117.704048</v>
+        <v>117.704041</v>
       </c>
     </row>
     <row r="615">
@@ -10201,7 +10201,7 @@
         <v>86.836922</v>
       </c>
       <c r="C618" t="n">
-        <v>117.132668</v>
+        <v>117.13266</v>
       </c>
     </row>
     <row r="619">
@@ -10322,7 +10322,7 @@
         <v>100.185097</v>
       </c>
       <c r="C629" t="n">
-        <v>124.465363</v>
+        <v>124.465355</v>
       </c>
     </row>
     <row r="630">
@@ -10333,7 +10333,7 @@
         <v>100.185097</v>
       </c>
       <c r="C630" t="n">
-        <v>125.512894</v>
+        <v>125.512886</v>
       </c>
     </row>
     <row r="631">
@@ -10355,7 +10355,7 @@
         <v>104.267265</v>
       </c>
       <c r="C632" t="n">
-        <v>125.036743</v>
+        <v>125.036736</v>
       </c>
     </row>
     <row r="633">
@@ -10388,7 +10388,7 @@
         <v>103.72625</v>
       </c>
       <c r="C635" t="n">
-        <v>125.322441</v>
+        <v>125.322433</v>
       </c>
     </row>
     <row r="636">
@@ -10399,7 +10399,7 @@
         <v>104.218079</v>
       </c>
       <c r="C636" t="n">
-        <v>124.941505</v>
+        <v>124.941498</v>
       </c>
     </row>
     <row r="637">
@@ -10410,7 +10410,7 @@
         <v>102.250771</v>
       </c>
       <c r="C637" t="n">
-        <v>122.655991</v>
+        <v>122.655998</v>
       </c>
     </row>
     <row r="638">
@@ -10465,7 +10465,7 @@
         <v>101.168755</v>
       </c>
       <c r="C642" t="n">
-        <v>115.894669</v>
+        <v>115.894676</v>
       </c>
     </row>
     <row r="643">
@@ -10476,7 +10476,7 @@
         <v>100.480202</v>
       </c>
       <c r="C643" t="n">
-        <v>116.751747</v>
+        <v>116.75174</v>
       </c>
     </row>
     <row r="644">
@@ -10487,7 +10487,7 @@
         <v>100.922836</v>
       </c>
       <c r="C644" t="n">
-        <v>115.989906</v>
+        <v>115.989914</v>
       </c>
     </row>
     <row r="645">
@@ -10498,7 +10498,7 @@
         <v>100.332649</v>
       </c>
       <c r="C645" t="n">
-        <v>115.418518</v>
+        <v>115.418526</v>
       </c>
     </row>
     <row r="646">
@@ -10564,7 +10564,7 @@
         <v>102.349144</v>
       </c>
       <c r="C651" t="n">
-        <v>113.609161</v>
+        <v>113.609169</v>
       </c>
     </row>
     <row r="652">
@@ -10608,7 +10608,7 @@
         <v>96.496399</v>
       </c>
       <c r="C655" t="n">
-        <v>110.466583</v>
+        <v>110.466576</v>
       </c>
     </row>
     <row r="656">
@@ -10619,7 +10619,7 @@
         <v>97.047249</v>
       </c>
       <c r="C656" t="n">
-        <v>109.799965</v>
+        <v>109.799973</v>
       </c>
     </row>
     <row r="657">
@@ -10652,7 +10652,7 @@
         <v>97.971878</v>
       </c>
       <c r="C659" t="n">
-        <v>107.22876</v>
+        <v>107.228767</v>
       </c>
     </row>
     <row r="660">
@@ -10663,7 +10663,7 @@
         <v>96.594765</v>
       </c>
       <c r="C660" t="n">
-        <v>106.847839</v>
+        <v>106.847847</v>
       </c>
     </row>
     <row r="661">
@@ -10696,7 +10696,7 @@
         <v>92.463425</v>
       </c>
       <c r="C663" t="n">
-        <v>95.705956</v>
+        <v>95.705963</v>
       </c>
     </row>
     <row r="664">
@@ -10751,7 +10751,7 @@
         <v>87.859924</v>
       </c>
       <c r="C668" t="n">
-        <v>96.467804</v>
+        <v>96.467796</v>
       </c>
     </row>
     <row r="669">
@@ -10762,7 +10762,7 @@
         <v>88.627174</v>
       </c>
       <c r="C669" t="n">
-        <v>98.181931</v>
+        <v>98.181938</v>
       </c>
     </row>
     <row r="670">
@@ -10773,7 +10773,7 @@
         <v>88.587822</v>
       </c>
       <c r="C670" t="n">
-        <v>99.705612</v>
+        <v>99.705605</v>
       </c>
     </row>
     <row r="671">
@@ -10784,7 +10784,7 @@
         <v>86.502487</v>
       </c>
       <c r="C671" t="n">
-        <v>99.610374</v>
+        <v>99.610382</v>
       </c>
     </row>
     <row r="672">
@@ -10806,7 +10806,7 @@
         <v>86.187714</v>
       </c>
       <c r="C673" t="n">
-        <v>99.134224</v>
+        <v>99.134232</v>
       </c>
     </row>
     <row r="674">
@@ -10817,7 +10817,7 @@
         <v>86.384445</v>
       </c>
       <c r="C674" t="n">
-        <v>97.89624</v>
+        <v>97.896248</v>
       </c>
     </row>
     <row r="675">
@@ -10839,7 +10839,7 @@
         <v>83.0597</v>
       </c>
       <c r="C676" t="n">
-        <v>96.372566</v>
+        <v>96.372559</v>
       </c>
     </row>
     <row r="677">
@@ -10850,7 +10850,7 @@
         <v>80.659584</v>
       </c>
       <c r="C677" t="n">
-        <v>94.372742</v>
+        <v>94.372734</v>
       </c>
     </row>
     <row r="678">
@@ -10872,7 +10872,7 @@
         <v>81.938332</v>
       </c>
       <c r="C679" t="n">
-        <v>93.563286</v>
+        <v>93.563293</v>
       </c>
     </row>
     <row r="680">
@@ -10927,7 +10927,7 @@
         <v>84.692558</v>
       </c>
       <c r="C684" t="n">
-        <v>94.848892</v>
+        <v>94.848885</v>
       </c>
     </row>
     <row r="685">
@@ -10949,7 +10949,7 @@
         <v>83.453156</v>
       </c>
       <c r="C686" t="n">
-        <v>103.133888</v>
+        <v>103.133881</v>
       </c>
     </row>
     <row r="687">
@@ -10960,7 +10960,7 @@
         <v>85.57785</v>
       </c>
       <c r="C687" t="n">
-        <v>103.133888</v>
+        <v>103.133881</v>
       </c>
     </row>
     <row r="688">
@@ -10993,7 +10993,7 @@
         <v>89.453445</v>
       </c>
       <c r="C690" t="n">
-        <v>103.990944</v>
+        <v>103.990952</v>
       </c>
     </row>
     <row r="691">
@@ -11070,7 +11070,7 @@
         <v>91.401077</v>
       </c>
       <c r="C697" t="n">
-        <v>103.990944</v>
+        <v>103.990952</v>
       </c>
     </row>
     <row r="698">
@@ -11158,7 +11158,7 @@
         <v>84.161385</v>
       </c>
       <c r="C705" t="n">
-        <v>102.37204</v>
+        <v>102.372047</v>
       </c>
     </row>
     <row r="706">
@@ -11202,7 +11202,7 @@
         <v>86.974632</v>
       </c>
       <c r="C709" t="n">
-        <v>111.799797</v>
+        <v>111.799789</v>
       </c>
     </row>
     <row r="710">
@@ -11224,7 +11224,7 @@
         <v>88.627174</v>
       </c>
       <c r="C711" t="n">
-        <v>109.514282</v>
+        <v>109.514275</v>
       </c>
     </row>
     <row r="712">
@@ -11290,7 +11290,7 @@
         <v>102.447502</v>
       </c>
       <c r="C717" t="n">
-        <v>124.274895</v>
+        <v>124.274902</v>
       </c>
     </row>
     <row r="718">
@@ -11301,7 +11301,7 @@
         <v>102.890144</v>
       </c>
       <c r="C718" t="n">
-        <v>126.274727</v>
+        <v>126.274734</v>
       </c>
     </row>
     <row r="719">
@@ -11356,7 +11356,7 @@
         <v>103.234421</v>
       </c>
       <c r="C723" t="n">
-        <v>124.751045</v>
+        <v>124.751053</v>
       </c>
     </row>
     <row r="724">
@@ -11378,7 +11378,7 @@
         <v>102.98851</v>
       </c>
       <c r="C725" t="n">
-        <v>124.751045</v>
+        <v>124.751053</v>
       </c>
     </row>
     <row r="726">
@@ -11422,7 +11422,7 @@
         <v>102.250771</v>
       </c>
       <c r="C729" t="n">
-        <v>124.751045</v>
+        <v>124.751053</v>
       </c>
     </row>
     <row r="730">
@@ -11444,7 +11444,7 @@
         <v>101.513031</v>
       </c>
       <c r="C731" t="n">
-        <v>124.274895</v>
+        <v>124.274902</v>
       </c>
     </row>
     <row r="732">
@@ -11543,7 +11543,7 @@
         <v>94.529091</v>
       </c>
       <c r="C740" t="n">
-        <v>121.608467</v>
+        <v>121.608459</v>
       </c>
     </row>
     <row r="741">
@@ -11576,7 +11576,7 @@
         <v>96.870193</v>
       </c>
       <c r="C743" t="n">
-        <v>124.941505</v>
+        <v>124.941498</v>
       </c>
     </row>
     <row r="744">
@@ -11587,7 +11587,7 @@
         <v>99.742462</v>
       </c>
       <c r="C744" t="n">
-        <v>125.989044</v>
+        <v>125.989037</v>
       </c>
     </row>
     <row r="745">
@@ -11620,7 +11620,7 @@
         <v>99.004723</v>
       </c>
       <c r="C747" t="n">
-        <v>128.084106</v>
+        <v>128.084091</v>
       </c>
     </row>
     <row r="748">
@@ -11653,7 +11653,7 @@
         <v>103.627884</v>
       </c>
       <c r="C750" t="n">
-        <v>128.941162</v>
+        <v>128.941147</v>
       </c>
     </row>
     <row r="751">
@@ -11664,7 +11664,7 @@
         <v>108.054329</v>
       </c>
       <c r="C751" t="n">
-        <v>132.369431</v>
+        <v>132.369446</v>
       </c>
     </row>
     <row r="752">
@@ -11851,7 +11851,7 @@
         <v>103.480339</v>
       </c>
       <c r="C768" t="n">
-        <v>121.608467</v>
+        <v>121.608459</v>
       </c>
     </row>
     <row r="769">
@@ -11862,7 +11862,7 @@
         <v>104.070534</v>
       </c>
       <c r="C769" t="n">
-        <v>123.89399</v>
+        <v>123.893982</v>
       </c>
     </row>
     <row r="770">
@@ -11939,7 +11939,7 @@
         <v>107.955963</v>
       </c>
       <c r="C776" t="n">
-        <v>126.750877</v>
+        <v>126.750885</v>
       </c>
     </row>
     <row r="777">
@@ -11983,7 +11983,7 @@
         <v>110.857735</v>
       </c>
       <c r="C780" t="n">
-        <v>132.369431</v>
+        <v>132.369446</v>
       </c>
     </row>
     <row r="781">
@@ -12016,7 +12016,7 @@
         <v>111.644661</v>
       </c>
       <c r="C783" t="n">
-        <v>132.940811</v>
+        <v>132.940826</v>
       </c>
     </row>
     <row r="784">
@@ -12027,7 +12027,7 @@
         <v>111.447937</v>
       </c>
       <c r="C784" t="n">
-        <v>134.178802</v>
+        <v>134.178787</v>
       </c>
     </row>
     <row r="785">
@@ -12038,7 +12038,7 @@
         <v>112.333221</v>
       </c>
       <c r="C785" t="n">
-        <v>134.940643</v>
+        <v>134.940628</v>
       </c>
     </row>
     <row r="786">
@@ -12049,7 +12049,7 @@
         <v>115.087448</v>
       </c>
       <c r="C786" t="n">
-        <v>135.226318</v>
+        <v>135.226334</v>
       </c>
     </row>
     <row r="787">
@@ -12071,7 +12071,7 @@
         <v>114.595627</v>
       </c>
       <c r="C788" t="n">
-        <v>136.65477</v>
+        <v>136.654785</v>
       </c>
     </row>
     <row r="789">
@@ -12093,7 +12093,7 @@
         <v>116.366203</v>
       </c>
       <c r="C790" t="n">
-        <v>153.319977</v>
+        <v>153.319992</v>
       </c>
     </row>
     <row r="791">
@@ -12104,7 +12104,7 @@
         <v>116.218651</v>
       </c>
       <c r="C791" t="n">
-        <v>152.367706</v>
+        <v>152.367691</v>
       </c>
     </row>
     <row r="792">
@@ -12115,7 +12115,7 @@
         <v>118.82534</v>
       </c>
       <c r="C792" t="n">
-        <v>151.1297</v>
+        <v>151.129715</v>
       </c>
     </row>
     <row r="793">
@@ -12170,7 +12170,7 @@
         <v>120.54673</v>
       </c>
       <c r="C797" t="n">
-        <v>154.938889</v>
+        <v>154.938904</v>
       </c>
     </row>
     <row r="798">
@@ -12181,7 +12181,7 @@
         <v>120.497543</v>
       </c>
       <c r="C798" t="n">
-        <v>154.272278</v>
+        <v>154.272293</v>
       </c>
     </row>
     <row r="799">
@@ -12192,7 +12192,7 @@
         <v>120.349998</v>
       </c>
       <c r="C799" t="n">
-        <v>155.415039</v>
+        <v>155.415054</v>
       </c>
     </row>
     <row r="800">
@@ -12247,7 +12247,7 @@
         <v>118.25</v>
       </c>
       <c r="C804" t="n">
-        <v>155.224579</v>
+        <v>155.224594</v>
       </c>
     </row>
     <row r="805">
@@ -12258,7 +12258,7 @@
         <v>119.300003</v>
       </c>
       <c r="C805" t="n">
-        <v>159.986069</v>
+        <v>159.986084</v>
       </c>
     </row>
     <row r="806">

--- a/Danske aktiekurser.xlsx
+++ b/Danske aktiekurser.xlsx
@@ -3422,7 +3422,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>189.887909</v>
+        <v>189.887939</v>
       </c>
       <c r="C2" t="n">
         <v>191.282883</v>
@@ -3433,7 +3433,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>188.870804</v>
+        <v>188.870789</v>
       </c>
       <c r="C3" t="n">
         <v>190.82489</v>
@@ -3444,10 +3444,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>190.51384</v>
+        <v>190.513855</v>
       </c>
       <c r="C4" t="n">
-        <v>192.351517</v>
+        <v>192.351486</v>
       </c>
     </row>
     <row r="5">
@@ -3455,10 +3455,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="n">
-        <v>190.748566</v>
+        <v>190.74855</v>
       </c>
       <c r="C5" t="n">
-        <v>192.046173</v>
+        <v>192.046188</v>
       </c>
     </row>
     <row r="6">
@@ -3466,7 +3466,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="n">
-        <v>191.843918</v>
+        <v>191.843903</v>
       </c>
       <c r="C6" t="n">
         <v>191.74086</v>
@@ -3513,7 +3513,7 @@
         <v>194.817032</v>
       </c>
       <c r="C10" t="n">
-        <v>195.099365</v>
+        <v>195.09938</v>
       </c>
     </row>
     <row r="11">
@@ -3521,10 +3521,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="n">
-        <v>196.303589</v>
+        <v>196.303574</v>
       </c>
       <c r="C11" t="n">
-        <v>193.572769</v>
+        <v>193.572784</v>
       </c>
     </row>
     <row r="12">
@@ -3532,7 +3532,7 @@
         <v>13</v>
       </c>
       <c r="B12" t="n">
-        <v>195.521194</v>
+        <v>195.521179</v>
       </c>
       <c r="C12" t="n">
         <v>192.50415</v>
@@ -3543,10 +3543,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="n">
-        <v>195.990631</v>
+        <v>195.990616</v>
       </c>
       <c r="C13" t="n">
-        <v>191.435532</v>
+        <v>191.435547</v>
       </c>
     </row>
     <row r="14">
@@ -3568,7 +3568,7 @@
         <v>190.670319</v>
       </c>
       <c r="C15" t="n">
-        <v>191.893524</v>
+        <v>191.893509</v>
       </c>
     </row>
     <row r="16">
@@ -3587,10 +3587,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="n">
-        <v>192.078659</v>
+        <v>192.078644</v>
       </c>
       <c r="C17" t="n">
-        <v>191.435532</v>
+        <v>191.435547</v>
       </c>
     </row>
     <row r="18">
@@ -3598,7 +3598,7 @@
         <v>19</v>
       </c>
       <c r="B18" t="n">
-        <v>192.078659</v>
+        <v>192.078644</v>
       </c>
       <c r="C18" t="n">
         <v>190.214249</v>
@@ -3612,7 +3612,7 @@
         <v>186.680099</v>
       </c>
       <c r="C19" t="n">
-        <v>185.634476</v>
+        <v>185.634445</v>
       </c>
     </row>
     <row r="20">
@@ -3620,7 +3620,7 @@
         <v>21</v>
       </c>
       <c r="B20" t="n">
-        <v>189.966171</v>
+        <v>189.966156</v>
       </c>
       <c r="C20" t="n">
         <v>187.466385</v>
@@ -3631,7 +3631,7 @@
         <v>22</v>
       </c>
       <c r="B21" t="n">
-        <v>191.843918</v>
+        <v>191.843903</v>
       </c>
       <c r="C21" t="n">
         <v>187.771698</v>
@@ -3642,10 +3642,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="n">
-        <v>189.966171</v>
+        <v>189.966156</v>
       </c>
       <c r="C22" t="n">
-        <v>185.787125</v>
+        <v>185.787109</v>
       </c>
     </row>
     <row r="23">
@@ -3653,10 +3653,10 @@
         <v>24</v>
       </c>
       <c r="B23" t="n">
-        <v>190.51384</v>
+        <v>190.513855</v>
       </c>
       <c r="C23" t="n">
-        <v>187.008377</v>
+        <v>187.008408</v>
       </c>
     </row>
     <row r="24">
@@ -3664,7 +3664,7 @@
         <v>25</v>
       </c>
       <c r="B24" t="n">
-        <v>189.418488</v>
+        <v>189.418503</v>
       </c>
       <c r="C24" t="n">
         <v>187.466385</v>
@@ -3689,7 +3689,7 @@
         <v>191.609192</v>
       </c>
       <c r="C26" t="n">
-        <v>186.397751</v>
+        <v>186.397766</v>
       </c>
     </row>
     <row r="27">
@@ -3697,7 +3697,7 @@
         <v>28</v>
       </c>
       <c r="B27" t="n">
-        <v>186.758316</v>
+        <v>186.758331</v>
       </c>
       <c r="C27" t="n">
         <v>183.9552</v>
@@ -3708,7 +3708,7 @@
         <v>29</v>
       </c>
       <c r="B28" t="n">
-        <v>189.261993</v>
+        <v>189.262009</v>
       </c>
       <c r="C28" t="n">
         <v>188.687653</v>
@@ -3722,7 +3722,7 @@
         <v>188.557846</v>
       </c>
       <c r="C29" t="n">
-        <v>187.161057</v>
+        <v>187.161072</v>
       </c>
     </row>
     <row r="30">
@@ -3733,7 +3733,7 @@
         <v>188.244888</v>
       </c>
       <c r="C30" t="n">
-        <v>185.787125</v>
+        <v>185.787109</v>
       </c>
     </row>
     <row r="31">
@@ -3741,7 +3741,7 @@
         <v>32</v>
       </c>
       <c r="B31" t="n">
-        <v>189.966171</v>
+        <v>189.966156</v>
       </c>
       <c r="C31" t="n">
         <v>188.687653</v>
@@ -3752,10 +3752,10 @@
         <v>33</v>
       </c>
       <c r="B32" t="n">
-        <v>188.949051</v>
+        <v>188.949066</v>
       </c>
       <c r="C32" t="n">
-        <v>188.534988</v>
+        <v>188.535004</v>
       </c>
     </row>
     <row r="33">
@@ -3777,7 +3777,7 @@
         <v>192.313354</v>
       </c>
       <c r="C34" t="n">
-        <v>193.42012</v>
+        <v>193.420105</v>
       </c>
     </row>
     <row r="35">
@@ -3785,10 +3785,10 @@
         <v>36</v>
       </c>
       <c r="B35" t="n">
-        <v>194.660553</v>
+        <v>194.660568</v>
       </c>
       <c r="C35" t="n">
-        <v>196.625977</v>
+        <v>196.625992</v>
       </c>
     </row>
     <row r="36">
@@ -3807,7 +3807,7 @@
         <v>38</v>
       </c>
       <c r="B37" t="n">
-        <v>191.687424</v>
+        <v>191.687439</v>
       </c>
       <c r="C37" t="n">
         <v>185.481796</v>
@@ -3818,10 +3818,10 @@
         <v>39</v>
       </c>
       <c r="B38" t="n">
-        <v>192.861023</v>
+        <v>192.861038</v>
       </c>
       <c r="C38" t="n">
-        <v>182.428604</v>
+        <v>182.428589</v>
       </c>
     </row>
     <row r="39">
@@ -3829,10 +3829,10 @@
         <v>40</v>
       </c>
       <c r="B39" t="n">
-        <v>193.252258</v>
+        <v>193.252243</v>
       </c>
       <c r="C39" t="n">
-        <v>180.444</v>
+        <v>180.444016</v>
       </c>
     </row>
     <row r="40">
@@ -3840,10 +3840,10 @@
         <v>41</v>
       </c>
       <c r="B40" t="n">
-        <v>194.504089</v>
+        <v>194.504074</v>
       </c>
       <c r="C40" t="n">
-        <v>186.245117</v>
+        <v>186.245102</v>
       </c>
     </row>
     <row r="41">
@@ -3865,7 +3865,7 @@
         <v>189.731445</v>
       </c>
       <c r="C42" t="n">
-        <v>183.191879</v>
+        <v>183.191895</v>
       </c>
     </row>
     <row r="43">
@@ -3873,7 +3873,7 @@
         <v>44</v>
       </c>
       <c r="B43" t="n">
-        <v>192.626328</v>
+        <v>192.626297</v>
       </c>
       <c r="C43" t="n">
         <v>182.733917</v>
@@ -3884,10 +3884,10 @@
         <v>45</v>
       </c>
       <c r="B44" t="n">
-        <v>190.748566</v>
+        <v>190.74855</v>
       </c>
       <c r="C44" t="n">
-        <v>181.665314</v>
+        <v>181.665298</v>
       </c>
     </row>
     <row r="45">
@@ -3898,7 +3898,7 @@
         <v>189.731445</v>
       </c>
       <c r="C45" t="n">
-        <v>177.696152</v>
+        <v>177.696136</v>
       </c>
     </row>
     <row r="46">
@@ -3917,7 +3917,7 @@
         <v>48</v>
       </c>
       <c r="B47" t="n">
-        <v>189.340256</v>
+        <v>189.34024</v>
       </c>
       <c r="C47" t="n">
         <v>180.749344</v>
@@ -3939,10 +3939,10 @@
         <v>50</v>
       </c>
       <c r="B49" t="n">
-        <v>191.218002</v>
+        <v>191.217987</v>
       </c>
       <c r="C49" t="n">
-        <v>182.428604</v>
+        <v>182.428589</v>
       </c>
     </row>
     <row r="50">
@@ -3950,7 +3950,7 @@
         <v>51</v>
       </c>
       <c r="B50" t="n">
-        <v>192.626328</v>
+        <v>192.626297</v>
       </c>
       <c r="C50" t="n">
         <v>180.901993</v>
@@ -4008,7 +4008,7 @@
         <v>191.306274</v>
       </c>
       <c r="C55" t="n">
-        <v>182.792419</v>
+        <v>182.792404</v>
       </c>
     </row>
     <row r="56">
@@ -4016,10 +4016,10 @@
         <v>57</v>
       </c>
       <c r="B56" t="n">
-        <v>191.795746</v>
+        <v>191.795761</v>
       </c>
       <c r="C56" t="n">
-        <v>183.594131</v>
+        <v>183.594116</v>
       </c>
     </row>
     <row r="57">
@@ -4030,7 +4030,7 @@
         <v>191.714172</v>
       </c>
       <c r="C57" t="n">
-        <v>185.357895</v>
+        <v>185.35791</v>
       </c>
     </row>
     <row r="58">
@@ -4049,7 +4049,7 @@
         <v>60</v>
       </c>
       <c r="B59" t="n">
-        <v>186.493011</v>
+        <v>186.493027</v>
       </c>
       <c r="C59" t="n">
         <v>181.349289</v>
@@ -4060,7 +4060,7 @@
         <v>61</v>
       </c>
       <c r="B60" t="n">
-        <v>186.003525</v>
+        <v>186.00354</v>
       </c>
       <c r="C60" t="n">
         <v>182.632065</v>
@@ -4107,7 +4107,7 @@
         <v>183.148224</v>
       </c>
       <c r="C64" t="n">
-        <v>178.46312</v>
+        <v>178.463135</v>
       </c>
     </row>
     <row r="65">
@@ -4148,10 +4148,10 @@
         <v>69</v>
       </c>
       <c r="B68" t="n">
-        <v>182.985062</v>
+        <v>182.985046</v>
       </c>
       <c r="C68" t="n">
-        <v>180.868256</v>
+        <v>180.868271</v>
       </c>
     </row>
     <row r="69">
@@ -4162,7 +4162,7 @@
         <v>183.39296</v>
       </c>
       <c r="C69" t="n">
-        <v>180.547592</v>
+        <v>180.547577</v>
       </c>
     </row>
     <row r="70">
@@ -4173,7 +4173,7 @@
         <v>179.477097</v>
       </c>
       <c r="C70" t="n">
-        <v>180.868256</v>
+        <v>180.868271</v>
       </c>
     </row>
     <row r="71">
@@ -4181,7 +4181,7 @@
         <v>72</v>
       </c>
       <c r="B71" t="n">
-        <v>180.619232</v>
+        <v>180.619217</v>
       </c>
       <c r="C71" t="n">
         <v>184.395844</v>
@@ -4195,7 +4195,7 @@
         <v>180.211304</v>
       </c>
       <c r="C72" t="n">
-        <v>182.311371</v>
+        <v>182.311356</v>
       </c>
     </row>
     <row r="73">
@@ -4206,7 +4206,7 @@
         <v>180.374481</v>
       </c>
       <c r="C73" t="n">
-        <v>181.990677</v>
+        <v>181.990692</v>
       </c>
     </row>
     <row r="74">
@@ -4214,7 +4214,7 @@
         <v>75</v>
       </c>
       <c r="B74" t="n">
-        <v>181.924515</v>
+        <v>181.9245</v>
       </c>
       <c r="C74" t="n">
         <v>184.075165</v>
@@ -4261,7 +4261,7 @@
         <v>183.229797</v>
       </c>
       <c r="C78" t="n">
-        <v>192.894089</v>
+        <v>192.894104</v>
       </c>
     </row>
     <row r="79">
@@ -4272,7 +4272,7 @@
         <v>184.127182</v>
       </c>
       <c r="C79" t="n">
-        <v>194.657883</v>
+        <v>194.657867</v>
       </c>
     </row>
     <row r="80">
@@ -4280,7 +4280,7 @@
         <v>81</v>
       </c>
       <c r="B80" t="n">
-        <v>178.498123</v>
+        <v>178.498138</v>
       </c>
       <c r="C80" t="n">
         <v>187.602737</v>
@@ -4291,7 +4291,7 @@
         <v>82</v>
       </c>
       <c r="B81" t="n">
-        <v>179.069199</v>
+        <v>179.069183</v>
       </c>
       <c r="C81" t="n">
         <v>186.319977</v>
@@ -4302,7 +4302,7 @@
         <v>83</v>
       </c>
       <c r="B82" t="n">
-        <v>175.724396</v>
+        <v>175.72438</v>
       </c>
       <c r="C82" t="n">
         <v>183.433792</v>
@@ -4327,7 +4327,7 @@
         <v>177.84549</v>
       </c>
       <c r="C84" t="n">
-        <v>184.716522</v>
+        <v>184.716507</v>
       </c>
     </row>
     <row r="85">
@@ -4338,7 +4338,7 @@
         <v>176.05072</v>
       </c>
       <c r="C85" t="n">
-        <v>181.990677</v>
+        <v>181.990692</v>
       </c>
     </row>
     <row r="86">
@@ -4368,10 +4368,10 @@
         <v>89</v>
       </c>
       <c r="B88" t="n">
-        <v>176.784943</v>
+        <v>176.784927</v>
       </c>
       <c r="C88" t="n">
-        <v>187.121704</v>
+        <v>187.121689</v>
       </c>
     </row>
     <row r="89">
@@ -4390,10 +4390,10 @@
         <v>91</v>
       </c>
       <c r="B90" t="n">
-        <v>174.990158</v>
+        <v>174.990173</v>
       </c>
       <c r="C90" t="n">
-        <v>186.640671</v>
+        <v>186.640656</v>
       </c>
     </row>
     <row r="91">
@@ -4415,7 +4415,7 @@
         <v>174.255951</v>
       </c>
       <c r="C92" t="n">
-        <v>183.594131</v>
+        <v>183.594116</v>
       </c>
     </row>
     <row r="93">
@@ -4426,7 +4426,7 @@
         <v>176.540192</v>
       </c>
       <c r="C93" t="n">
-        <v>185.197556</v>
+        <v>185.197586</v>
       </c>
     </row>
     <row r="94">
@@ -4434,7 +4434,7 @@
         <v>95</v>
       </c>
       <c r="B94" t="n">
-        <v>176.458618</v>
+        <v>176.458603</v>
       </c>
       <c r="C94" t="n">
         <v>184.075165</v>
@@ -4448,7 +4448,7 @@
         <v>176.132294</v>
       </c>
       <c r="C95" t="n">
-        <v>185.357895</v>
+        <v>185.35791</v>
       </c>
     </row>
     <row r="96">
@@ -4459,7 +4459,7 @@
         <v>176.94809</v>
       </c>
       <c r="C96" t="n">
-        <v>185.037216</v>
+        <v>185.037231</v>
       </c>
     </row>
     <row r="97">
@@ -4500,10 +4500,10 @@
         <v>101</v>
       </c>
       <c r="B100" t="n">
-        <v>168.953217</v>
+        <v>168.953201</v>
       </c>
       <c r="C100" t="n">
-        <v>174.935532</v>
+        <v>174.935547</v>
       </c>
     </row>
     <row r="101">
@@ -4511,10 +4511,10 @@
         <v>102</v>
       </c>
       <c r="B101" t="n">
-        <v>168.871643</v>
+        <v>168.871628</v>
       </c>
       <c r="C101" t="n">
-        <v>175.737274</v>
+        <v>175.737244</v>
       </c>
     </row>
     <row r="102">
@@ -4525,7 +4525,7 @@
         <v>172.461166</v>
       </c>
       <c r="C102" t="n">
-        <v>173.171738</v>
+        <v>173.171753</v>
       </c>
     </row>
     <row r="103">
@@ -4555,7 +4555,7 @@
         <v>106</v>
       </c>
       <c r="B105" t="n">
-        <v>175.724396</v>
+        <v>175.72438</v>
       </c>
       <c r="C105" t="n">
         <v>177.982071</v>
@@ -4580,7 +4580,7 @@
         <v>174.092773</v>
       </c>
       <c r="C107" t="n">
-        <v>175.737274</v>
+        <v>175.737244</v>
       </c>
     </row>
     <row r="108">
@@ -4591,7 +4591,7 @@
         <v>177.84549</v>
       </c>
       <c r="C108" t="n">
-        <v>177.020004</v>
+        <v>177.02002</v>
       </c>
     </row>
     <row r="109">
@@ -4599,10 +4599,10 @@
         <v>110</v>
       </c>
       <c r="B109" t="n">
-        <v>178.498123</v>
+        <v>178.498138</v>
       </c>
       <c r="C109" t="n">
-        <v>177.180344</v>
+        <v>177.180359</v>
       </c>
     </row>
     <row r="110">
@@ -4613,7 +4613,7 @@
         <v>178.253387</v>
       </c>
       <c r="C110" t="n">
-        <v>177.340683</v>
+        <v>177.340698</v>
       </c>
     </row>
     <row r="111">
@@ -4621,7 +4621,7 @@
         <v>112</v>
       </c>
       <c r="B111" t="n">
-        <v>178.742889</v>
+        <v>178.742874</v>
       </c>
       <c r="C111" t="n">
         <v>178.623459</v>
@@ -4643,10 +4643,10 @@
         <v>114</v>
       </c>
       <c r="B113" t="n">
-        <v>173.929611</v>
+        <v>173.929626</v>
       </c>
       <c r="C113" t="n">
-        <v>175.897614</v>
+        <v>175.897598</v>
       </c>
     </row>
     <row r="114">
@@ -4654,10 +4654,10 @@
         <v>115</v>
       </c>
       <c r="B114" t="n">
-        <v>171.97168</v>
+        <v>171.971695</v>
       </c>
       <c r="C114" t="n">
-        <v>175.095871</v>
+        <v>175.095886</v>
       </c>
     </row>
     <row r="115">
@@ -4665,10 +4665,10 @@
         <v>116</v>
       </c>
       <c r="B115" t="n">
-        <v>170.258484</v>
+        <v>170.258499</v>
       </c>
       <c r="C115" t="n">
-        <v>175.41658</v>
+        <v>175.416565</v>
       </c>
     </row>
     <row r="116">
@@ -4679,7 +4679,7 @@
         <v>167.811081</v>
       </c>
       <c r="C116" t="n">
-        <v>173.171738</v>
+        <v>173.171753</v>
       </c>
     </row>
     <row r="117">
@@ -4690,7 +4690,7 @@
         <v>168.626892</v>
       </c>
       <c r="C117" t="n">
-        <v>174.294159</v>
+        <v>174.294144</v>
       </c>
     </row>
     <row r="118">
@@ -4698,10 +4698,10 @@
         <v>119</v>
       </c>
       <c r="B118" t="n">
-        <v>166.097916</v>
+        <v>166.0979</v>
       </c>
       <c r="C118" t="n">
-        <v>174.294159</v>
+        <v>174.294144</v>
       </c>
     </row>
     <row r="119">
@@ -4712,7 +4712,7 @@
         <v>161.243851</v>
       </c>
       <c r="C119" t="n">
-        <v>173.813126</v>
+        <v>173.813141</v>
       </c>
     </row>
     <row r="120">
@@ -4734,7 +4734,7 @@
         <v>162.018875</v>
       </c>
       <c r="C121" t="n">
-        <v>174.454498</v>
+        <v>174.454514</v>
       </c>
     </row>
     <row r="122">
@@ -4745,7 +4745,7 @@
         <v>162.957047</v>
       </c>
       <c r="C122" t="n">
-        <v>175.897614</v>
+        <v>175.897598</v>
       </c>
     </row>
     <row r="123">
@@ -4756,7 +4756,7 @@
         <v>162.671509</v>
       </c>
       <c r="C123" t="n">
-        <v>175.41658</v>
+        <v>175.416565</v>
       </c>
     </row>
     <row r="124">
@@ -4775,10 +4775,10 @@
         <v>126</v>
       </c>
       <c r="B125" t="n">
-        <v>160.99913</v>
+        <v>160.999115</v>
       </c>
       <c r="C125" t="n">
-        <v>179.264847</v>
+        <v>179.264832</v>
       </c>
     </row>
     <row r="126">
@@ -4800,7 +4800,7 @@
         <v>155.533218</v>
       </c>
       <c r="C127" t="n">
-        <v>177.661392</v>
+        <v>177.661377</v>
       </c>
     </row>
     <row r="128">
@@ -4863,10 +4863,10 @@
         <v>134</v>
       </c>
       <c r="B133" t="n">
-        <v>158.062225</v>
+        <v>158.06221</v>
       </c>
       <c r="C133" t="n">
-        <v>181.990677</v>
+        <v>181.990692</v>
       </c>
     </row>
     <row r="134">
@@ -4877,7 +4877,7 @@
         <v>159.163544</v>
       </c>
       <c r="C134" t="n">
-        <v>180.707916</v>
+        <v>180.707932</v>
       </c>
     </row>
     <row r="135">
@@ -4885,10 +4885,10 @@
         <v>136</v>
       </c>
       <c r="B135" t="n">
-        <v>144.642212</v>
+        <v>144.642227</v>
       </c>
       <c r="C135" t="n">
-        <v>177.661392</v>
+        <v>177.661377</v>
       </c>
     </row>
     <row r="136">
@@ -4896,10 +4896,10 @@
         <v>137</v>
       </c>
       <c r="B136" t="n">
-        <v>148.394928</v>
+        <v>148.394913</v>
       </c>
       <c r="C136" t="n">
-        <v>179.745865</v>
+        <v>179.74585</v>
       </c>
     </row>
     <row r="137">
@@ -4910,7 +4910,7 @@
         <v>147.456757</v>
       </c>
       <c r="C137" t="n">
-        <v>180.387238</v>
+        <v>180.387253</v>
       </c>
     </row>
     <row r="138">
@@ -4918,7 +4918,7 @@
         <v>139</v>
       </c>
       <c r="B138" t="n">
-        <v>149.985748</v>
+        <v>149.985764</v>
       </c>
       <c r="C138" t="n">
         <v>181.669998</v>
@@ -4932,7 +4932,7 @@
         <v>151.94368</v>
       </c>
       <c r="C139" t="n">
-        <v>185.037216</v>
+        <v>185.037231</v>
       </c>
     </row>
     <row r="140">
@@ -4943,7 +4943,7 @@
         <v>150.92392</v>
       </c>
       <c r="C140" t="n">
-        <v>185.518234</v>
+        <v>185.51825</v>
       </c>
     </row>
     <row r="141">
@@ -4965,7 +4965,7 @@
         <v>153.208176</v>
       </c>
       <c r="C142" t="n">
-        <v>188.564789</v>
+        <v>188.564804</v>
       </c>
     </row>
     <row r="143">
@@ -4987,7 +4987,7 @@
         <v>151.127869</v>
       </c>
       <c r="C144" t="n">
-        <v>189.52684</v>
+        <v>189.526855</v>
       </c>
     </row>
     <row r="145">
@@ -5006,7 +5006,7 @@
         <v>147</v>
       </c>
       <c r="B146" t="n">
-        <v>146.029083</v>
+        <v>146.029099</v>
       </c>
       <c r="C146" t="n">
         <v>184.395844</v>
@@ -5020,7 +5020,7 @@
         <v>149.12915</v>
       </c>
       <c r="C147" t="n">
-        <v>185.037216</v>
+        <v>185.037231</v>
       </c>
     </row>
     <row r="148">
@@ -5031,7 +5031,7 @@
         <v>147.53833</v>
       </c>
       <c r="C148" t="n">
-        <v>177.180344</v>
+        <v>177.180359</v>
       </c>
     </row>
     <row r="149">
@@ -5042,7 +5042,7 @@
         <v>147.905441</v>
       </c>
       <c r="C149" t="n">
-        <v>180.387238</v>
+        <v>180.387253</v>
       </c>
     </row>
     <row r="150">
@@ -5064,7 +5064,7 @@
         <v>148.231766</v>
       </c>
       <c r="C151" t="n">
-        <v>179.264847</v>
+        <v>179.264832</v>
       </c>
     </row>
     <row r="152">
@@ -5083,7 +5083,7 @@
         <v>154</v>
       </c>
       <c r="B153" t="n">
-        <v>150.026535</v>
+        <v>150.02652</v>
       </c>
       <c r="C153" t="n">
         <v>178.302765</v>
@@ -5108,7 +5108,7 @@
         <v>145.906723</v>
       </c>
       <c r="C155" t="n">
-        <v>173.171738</v>
+        <v>173.171753</v>
       </c>
     </row>
     <row r="156">
@@ -5127,10 +5127,10 @@
         <v>158</v>
       </c>
       <c r="B157" t="n">
-        <v>149.210724</v>
+        <v>149.210739</v>
       </c>
       <c r="C157" t="n">
-        <v>175.095871</v>
+        <v>175.095886</v>
       </c>
     </row>
     <row r="158">
@@ -5138,10 +5138,10 @@
         <v>159</v>
       </c>
       <c r="B158" t="n">
-        <v>150.230484</v>
+        <v>150.230469</v>
       </c>
       <c r="C158" t="n">
-        <v>175.737274</v>
+        <v>175.737244</v>
       </c>
     </row>
     <row r="159">
@@ -5152,7 +5152,7 @@
         <v>150.719971</v>
       </c>
       <c r="C159" t="n">
-        <v>177.661392</v>
+        <v>177.661377</v>
       </c>
     </row>
     <row r="160">
@@ -5163,7 +5163,7 @@
         <v>153.616074</v>
       </c>
       <c r="C160" t="n">
-        <v>176.057968</v>
+        <v>176.057953</v>
       </c>
     </row>
     <row r="161">
@@ -5174,7 +5174,7 @@
         <v>151.94368</v>
       </c>
       <c r="C161" t="n">
-        <v>175.897614</v>
+        <v>175.897598</v>
       </c>
     </row>
     <row r="162">
@@ -5182,10 +5182,10 @@
         <v>163</v>
       </c>
       <c r="B162" t="n">
-        <v>154.717407</v>
+        <v>154.717422</v>
       </c>
       <c r="C162" t="n">
-        <v>175.256241</v>
+        <v>175.256226</v>
       </c>
     </row>
     <row r="163">
@@ -5193,10 +5193,10 @@
         <v>164</v>
       </c>
       <c r="B163" t="n">
-        <v>157.817459</v>
+        <v>157.817474</v>
       </c>
       <c r="C163" t="n">
-        <v>175.256241</v>
+        <v>175.256226</v>
       </c>
     </row>
     <row r="164">
@@ -5204,7 +5204,7 @@
         <v>165</v>
       </c>
       <c r="B164" t="n">
-        <v>156.716141</v>
+        <v>156.716156</v>
       </c>
       <c r="C164" t="n">
         <v>155.614059</v>
@@ -5218,7 +5218,7 @@
         <v>157.001663</v>
       </c>
       <c r="C165" t="n">
-        <v>153.770096</v>
+        <v>153.770111</v>
       </c>
     </row>
     <row r="166">
@@ -5226,10 +5226,10 @@
         <v>167</v>
       </c>
       <c r="B166" t="n">
-        <v>156.634552</v>
+        <v>156.634567</v>
       </c>
       <c r="C166" t="n">
-        <v>151.926132</v>
+        <v>151.926147</v>
       </c>
     </row>
     <row r="167">
@@ -5237,7 +5237,7 @@
         <v>168</v>
       </c>
       <c r="B167" t="n">
-        <v>154.146362</v>
+        <v>154.146332</v>
       </c>
       <c r="C167" t="n">
         <v>150.723557</v>
@@ -5259,7 +5259,7 @@
         <v>170</v>
       </c>
       <c r="B169" t="n">
-        <v>144.764587</v>
+        <v>144.764603</v>
       </c>
       <c r="C169" t="n">
         <v>148.398575</v>
@@ -5273,7 +5273,7 @@
         <v>148.272552</v>
       </c>
       <c r="C170" t="n">
-        <v>147.917526</v>
+        <v>147.917542</v>
       </c>
     </row>
     <row r="171">
@@ -5284,7 +5284,7 @@
         <v>150.719971</v>
       </c>
       <c r="C171" t="n">
-        <v>148.158066</v>
+        <v>148.158051</v>
       </c>
     </row>
     <row r="172">
@@ -5314,7 +5314,7 @@
         <v>175</v>
       </c>
       <c r="B174" t="n">
-        <v>139.217117</v>
+        <v>139.217133</v>
       </c>
       <c r="C174" t="n">
         <v>147.837357</v>
@@ -5325,7 +5325,7 @@
         <v>176</v>
       </c>
       <c r="B175" t="n">
-        <v>137.096024</v>
+        <v>137.096039</v>
       </c>
       <c r="C175" t="n">
         <v>148.398575</v>
@@ -5339,7 +5339,7 @@
         <v>140.114502</v>
       </c>
       <c r="C176" t="n">
-        <v>148.879608</v>
+        <v>148.879578</v>
       </c>
     </row>
     <row r="177">
@@ -5347,10 +5347,10 @@
         <v>178</v>
       </c>
       <c r="B177" t="n">
-        <v>138.646042</v>
+        <v>138.646057</v>
       </c>
       <c r="C177" t="n">
-        <v>147.917526</v>
+        <v>147.917542</v>
       </c>
     </row>
     <row r="178">
@@ -5361,7 +5361,7 @@
         <v>137.748672</v>
       </c>
       <c r="C178" t="n">
-        <v>149.200302</v>
+        <v>149.200287</v>
       </c>
     </row>
     <row r="179">
@@ -5383,7 +5383,7 @@
         <v>137.871048</v>
       </c>
       <c r="C180" t="n">
-        <v>149.921844</v>
+        <v>149.921829</v>
       </c>
     </row>
     <row r="181">
@@ -5413,7 +5413,7 @@
         <v>184</v>
       </c>
       <c r="B183" t="n">
-        <v>135.709152</v>
+        <v>135.709167</v>
       </c>
       <c r="C183" t="n">
         <v>151.364929</v>
@@ -5438,7 +5438,7 @@
         <v>140.563202</v>
       </c>
       <c r="C185" t="n">
-        <v>155.934753</v>
+        <v>155.934738</v>
       </c>
     </row>
     <row r="186">
@@ -5468,10 +5468,10 @@
         <v>189</v>
       </c>
       <c r="B188" t="n">
-        <v>138.238159</v>
+        <v>138.238144</v>
       </c>
       <c r="C188" t="n">
-        <v>152.647705</v>
+        <v>152.64769</v>
       </c>
     </row>
     <row r="189">
@@ -5479,7 +5479,7 @@
         <v>190</v>
       </c>
       <c r="B189" t="n">
-        <v>137.667084</v>
+        <v>137.667099</v>
       </c>
       <c r="C189" t="n">
         <v>150.402878</v>
@@ -5490,10 +5490,10 @@
         <v>191</v>
       </c>
       <c r="B190" t="n">
-        <v>135.627579</v>
+        <v>135.627563</v>
       </c>
       <c r="C190" t="n">
-        <v>149.440796</v>
+        <v>149.440811</v>
       </c>
     </row>
     <row r="191">
@@ -5504,7 +5504,7 @@
         <v>129.386673</v>
       </c>
       <c r="C191" t="n">
-        <v>148.158066</v>
+        <v>148.158051</v>
       </c>
     </row>
     <row r="192">
@@ -5515,7 +5515,7 @@
         <v>121.310196</v>
       </c>
       <c r="C192" t="n">
-        <v>150.483032</v>
+        <v>150.483047</v>
       </c>
     </row>
     <row r="193">
@@ -5556,10 +5556,10 @@
         <v>197</v>
       </c>
       <c r="B196" t="n">
-        <v>115.191666</v>
+        <v>115.191658</v>
       </c>
       <c r="C196" t="n">
-        <v>140.782227</v>
+        <v>140.782211</v>
       </c>
     </row>
     <row r="197">
@@ -5567,10 +5567,10 @@
         <v>198</v>
       </c>
       <c r="B197" t="n">
-        <v>115.273247</v>
+        <v>115.273254</v>
       </c>
       <c r="C197" t="n">
-        <v>141.904633</v>
+        <v>141.904617</v>
       </c>
     </row>
     <row r="198">
@@ -5581,7 +5581,7 @@
         <v>113.886383</v>
       </c>
       <c r="C198" t="n">
-        <v>142.54599</v>
+        <v>142.546005</v>
       </c>
     </row>
     <row r="199">
@@ -5589,10 +5589,10 @@
         <v>200</v>
       </c>
       <c r="B199" t="n">
-        <v>115.436409</v>
+        <v>115.436401</v>
       </c>
       <c r="C199" t="n">
-        <v>143.588226</v>
+        <v>143.588242</v>
       </c>
     </row>
     <row r="200">
@@ -5600,7 +5600,7 @@
         <v>201</v>
       </c>
       <c r="B200" t="n">
-        <v>112.254776</v>
+        <v>112.254768</v>
       </c>
       <c r="C200" t="n">
         <v>143.748581</v>
@@ -5611,7 +5611,7 @@
         <v>202</v>
       </c>
       <c r="B201" t="n">
-        <v>110.704727</v>
+        <v>110.704735</v>
       </c>
       <c r="C201" t="n">
         <v>143.187378</v>
@@ -5625,7 +5625,7 @@
         <v>107.033607</v>
       </c>
       <c r="C202" t="n">
-        <v>142.706345</v>
+        <v>142.70636</v>
       </c>
     </row>
     <row r="203">
@@ -5644,10 +5644,10 @@
         <v>205</v>
       </c>
       <c r="B204" t="n">
-        <v>103.280914</v>
+        <v>103.280907</v>
       </c>
       <c r="C204" t="n">
-        <v>140.782227</v>
+        <v>140.782211</v>
       </c>
     </row>
     <row r="205">
@@ -5655,7 +5655,7 @@
         <v>206</v>
       </c>
       <c r="B205" t="n">
-        <v>102.505898</v>
+        <v>102.50589</v>
       </c>
       <c r="C205" t="n">
         <v>141.503769</v>
@@ -5691,7 +5691,7 @@
         <v>104.586197</v>
       </c>
       <c r="C208" t="n">
-        <v>144.06926</v>
+        <v>144.069275</v>
       </c>
     </row>
     <row r="209">
@@ -5699,10 +5699,10 @@
         <v>210</v>
       </c>
       <c r="B209" t="n">
-        <v>103.280914</v>
+        <v>103.280907</v>
       </c>
       <c r="C209" t="n">
-        <v>139.900314</v>
+        <v>139.90033</v>
       </c>
     </row>
     <row r="210">
@@ -5724,7 +5724,7 @@
         <v>108.134956</v>
       </c>
       <c r="C211" t="n">
-        <v>123.625381</v>
+        <v>123.625389</v>
       </c>
     </row>
     <row r="212">
@@ -5732,10 +5732,10 @@
         <v>213</v>
       </c>
       <c r="B212" t="n">
-        <v>111.765274</v>
+        <v>111.765282</v>
       </c>
       <c r="C212" t="n">
-        <v>127.874504</v>
+        <v>127.874512</v>
       </c>
     </row>
     <row r="213">
@@ -5743,10 +5743,10 @@
         <v>214</v>
       </c>
       <c r="B213" t="n">
-        <v>110.337624</v>
+        <v>110.337616</v>
       </c>
       <c r="C213" t="n">
-        <v>130.199493</v>
+        <v>130.199509</v>
       </c>
     </row>
     <row r="214">
@@ -5757,7 +5757,7 @@
         <v>110.174461</v>
       </c>
       <c r="C214" t="n">
-        <v>130.680542</v>
+        <v>130.680527</v>
       </c>
     </row>
     <row r="215">
@@ -5765,10 +5765,10 @@
         <v>216</v>
       </c>
       <c r="B215" t="n">
-        <v>117.516716</v>
+        <v>117.516708</v>
       </c>
       <c r="C215" t="n">
-        <v>132.52449</v>
+        <v>132.524506</v>
       </c>
     </row>
     <row r="216">
@@ -5787,10 +5787,10 @@
         <v>218</v>
       </c>
       <c r="B217" t="n">
-        <v>117.598289</v>
+        <v>117.598282</v>
       </c>
       <c r="C217" t="n">
-        <v>131.321915</v>
+        <v>131.32193</v>
       </c>
     </row>
     <row r="218">
@@ -5798,10 +5798,10 @@
         <v>219</v>
       </c>
       <c r="B218" t="n">
-        <v>116.619316</v>
+        <v>116.619324</v>
       </c>
       <c r="C218" t="n">
-        <v>130.440033</v>
+        <v>130.440002</v>
       </c>
     </row>
     <row r="219">
@@ -5812,7 +5812,7 @@
         <v>115.028503</v>
       </c>
       <c r="C219" t="n">
-        <v>129.798645</v>
+        <v>129.79863</v>
       </c>
     </row>
     <row r="220">
@@ -5820,10 +5820,10 @@
         <v>221</v>
       </c>
       <c r="B220" t="n">
-        <v>117.598289</v>
+        <v>117.598282</v>
       </c>
       <c r="C220" t="n">
-        <v>129.237442</v>
+        <v>129.237411</v>
       </c>
     </row>
     <row r="221">
@@ -5834,7 +5834,7 @@
         <v>113.519257</v>
       </c>
       <c r="C221" t="n">
-        <v>127.874504</v>
+        <v>127.874512</v>
       </c>
     </row>
     <row r="222">
@@ -5842,10 +5842,10 @@
         <v>223</v>
       </c>
       <c r="B222" t="n">
-        <v>111.602127</v>
+        <v>111.602119</v>
       </c>
       <c r="C222" t="n">
-        <v>127.553825</v>
+        <v>127.553833</v>
       </c>
     </row>
     <row r="223">
@@ -5853,7 +5853,7 @@
         <v>224</v>
       </c>
       <c r="B223" t="n">
-        <v>110.500786</v>
+        <v>110.500778</v>
       </c>
       <c r="C223" t="n">
         <v>128.756409</v>
@@ -5864,10 +5864,10 @@
         <v>225</v>
       </c>
       <c r="B224" t="n">
-        <v>106.544144</v>
+        <v>106.544136</v>
       </c>
       <c r="C224" t="n">
-        <v>125.950394</v>
+        <v>125.950378</v>
       </c>
     </row>
     <row r="225">
@@ -5875,10 +5875,10 @@
         <v>226</v>
       </c>
       <c r="B225" t="n">
-        <v>107.441513</v>
+        <v>107.441521</v>
       </c>
       <c r="C225" t="n">
-        <v>127.874504</v>
+        <v>127.874512</v>
       </c>
     </row>
     <row r="226">
@@ -5886,10 +5886,10 @@
         <v>227</v>
       </c>
       <c r="B226" t="n">
-        <v>108.461273</v>
+        <v>108.461266</v>
       </c>
       <c r="C226" t="n">
-        <v>127.874504</v>
+        <v>127.874512</v>
       </c>
     </row>
     <row r="227">
@@ -5897,7 +5897,7 @@
         <v>228</v>
       </c>
       <c r="B227" t="n">
-        <v>108.869164</v>
+        <v>108.869171</v>
       </c>
       <c r="C227" t="n">
         <v>128.275375</v>
@@ -5911,7 +5911,7 @@
         <v>111.071846</v>
       </c>
       <c r="C228" t="n">
-        <v>131.081406</v>
+        <v>131.08139</v>
       </c>
     </row>
     <row r="229">
@@ -5922,7 +5922,7 @@
         <v>110.133675</v>
       </c>
       <c r="C229" t="n">
-        <v>131.081406</v>
+        <v>131.08139</v>
       </c>
     </row>
     <row r="230">
@@ -5941,10 +5941,10 @@
         <v>232</v>
       </c>
       <c r="B231" t="n">
-        <v>107.441513</v>
+        <v>107.441521</v>
       </c>
       <c r="C231" t="n">
-        <v>130.359848</v>
+        <v>130.359833</v>
       </c>
     </row>
     <row r="232">
@@ -5955,7 +5955,7 @@
         <v>107.19677</v>
       </c>
       <c r="C232" t="n">
-        <v>130.359848</v>
+        <v>130.359833</v>
       </c>
     </row>
     <row r="233">
@@ -5963,10 +5963,10 @@
         <v>234</v>
       </c>
       <c r="B233" t="n">
-        <v>108.706017</v>
+        <v>108.706009</v>
       </c>
       <c r="C233" t="n">
-        <v>126.671944</v>
+        <v>126.671936</v>
       </c>
     </row>
     <row r="234">
@@ -5974,10 +5974,10 @@
         <v>235</v>
       </c>
       <c r="B234" t="n">
-        <v>108.583641</v>
+        <v>108.583649</v>
       </c>
       <c r="C234" t="n">
-        <v>127.152969</v>
+        <v>127.152954</v>
       </c>
     </row>
     <row r="235">
@@ -5988,7 +5988,7 @@
         <v>114.620598</v>
       </c>
       <c r="C235" t="n">
-        <v>129.798645</v>
+        <v>129.79863</v>
       </c>
     </row>
     <row r="236">
@@ -5996,10 +5996,10 @@
         <v>237</v>
       </c>
       <c r="B236" t="n">
-        <v>111.316589</v>
+        <v>111.316582</v>
       </c>
       <c r="C236" t="n">
-        <v>126.992615</v>
+        <v>126.992599</v>
       </c>
     </row>
     <row r="237">
@@ -6007,7 +6007,7 @@
         <v>238</v>
       </c>
       <c r="B237" t="n">
-        <v>116.007469</v>
+        <v>116.007462</v>
       </c>
       <c r="C237" t="n">
         <v>129.558136</v>
@@ -6021,7 +6021,7 @@
         <v>112.050819</v>
       </c>
       <c r="C238" t="n">
-        <v>127.152969</v>
+        <v>127.152954</v>
       </c>
     </row>
     <row r="239">
@@ -6054,7 +6054,7 @@
         <v>113.396896</v>
       </c>
       <c r="C241" t="n">
-        <v>128.676224</v>
+        <v>128.676239</v>
       </c>
     </row>
     <row r="242">
@@ -6062,7 +6062,7 @@
         <v>243</v>
       </c>
       <c r="B242" t="n">
-        <v>112.621887</v>
+        <v>112.62188</v>
       </c>
       <c r="C242" t="n">
         <v>128.034851</v>
@@ -6073,10 +6073,10 @@
         <v>244</v>
       </c>
       <c r="B243" t="n">
-        <v>110.459984</v>
+        <v>110.459991</v>
       </c>
       <c r="C243" t="n">
-        <v>127.633972</v>
+        <v>127.633995</v>
       </c>
     </row>
     <row r="244">
@@ -6084,10 +6084,10 @@
         <v>245</v>
       </c>
       <c r="B244" t="n">
-        <v>112.213982</v>
+        <v>112.213974</v>
       </c>
       <c r="C244" t="n">
-        <v>122.66333</v>
+        <v>122.663307</v>
       </c>
     </row>
     <row r="245">
@@ -6095,7 +6095,7 @@
         <v>246</v>
       </c>
       <c r="B245" t="n">
-        <v>109.725777</v>
+        <v>109.725769</v>
       </c>
       <c r="C245" t="n">
         <v>121.781425</v>
@@ -6106,10 +6106,10 @@
         <v>247</v>
       </c>
       <c r="B246" t="n">
-        <v>105.442795</v>
+        <v>105.442787</v>
       </c>
       <c r="C246" t="n">
-        <v>117.77282</v>
+        <v>117.772827</v>
       </c>
     </row>
     <row r="247">
@@ -6120,7 +6120,7 @@
         <v>104.626984</v>
       </c>
       <c r="C247" t="n">
-        <v>120.258163</v>
+        <v>120.258156</v>
       </c>
     </row>
     <row r="248">
@@ -6131,7 +6131,7 @@
         <v>102.95459</v>
       </c>
       <c r="C248" t="n">
-        <v>120.819359</v>
+        <v>120.819366</v>
       </c>
     </row>
     <row r="249">
@@ -6142,7 +6142,7 @@
         <v>105.157257</v>
       </c>
       <c r="C249" t="n">
-        <v>124.346939</v>
+        <v>124.346947</v>
       </c>
     </row>
     <row r="250">
@@ -6150,10 +6150,10 @@
         <v>251</v>
       </c>
       <c r="B250" t="n">
-        <v>104.994095</v>
+        <v>104.994102</v>
       </c>
       <c r="C250" t="n">
-        <v>126.271072</v>
+        <v>126.271057</v>
       </c>
     </row>
     <row r="251">
@@ -6161,10 +6161,10 @@
         <v>252</v>
       </c>
       <c r="B251" t="n">
-        <v>104.749352</v>
+        <v>104.749359</v>
       </c>
       <c r="C251" t="n">
-        <v>123.865891</v>
+        <v>123.865906</v>
       </c>
     </row>
     <row r="252">
@@ -6172,10 +6172,10 @@
         <v>253</v>
       </c>
       <c r="B252" t="n">
-        <v>109.195503</v>
+        <v>109.195496</v>
       </c>
       <c r="C252" t="n">
-        <v>127.313293</v>
+        <v>127.313316</v>
       </c>
     </row>
     <row r="253">
@@ -6186,7 +6186,7 @@
         <v>108.909966</v>
       </c>
       <c r="C253" t="n">
-        <v>126.591751</v>
+        <v>126.591759</v>
       </c>
     </row>
     <row r="254">
@@ -6208,7 +6208,7 @@
         <v>107.074402</v>
       </c>
       <c r="C255" t="n">
-        <v>126.431412</v>
+        <v>126.431419</v>
       </c>
     </row>
     <row r="256">
@@ -6216,10 +6216,10 @@
         <v>257</v>
       </c>
       <c r="B256" t="n">
-        <v>104.219086</v>
+        <v>104.219093</v>
       </c>
       <c r="C256" t="n">
-        <v>126.591751</v>
+        <v>126.591759</v>
       </c>
     </row>
     <row r="257">
@@ -6230,7 +6230,7 @@
         <v>105.687538</v>
       </c>
       <c r="C257" t="n">
-        <v>125.469345</v>
+        <v>125.469353</v>
       </c>
     </row>
     <row r="258">
@@ -6238,7 +6238,7 @@
         <v>259</v>
       </c>
       <c r="B258" t="n">
-        <v>106.054649</v>
+        <v>106.054642</v>
       </c>
       <c r="C258" t="n">
         <v>124.266769</v>
@@ -6249,10 +6249,10 @@
         <v>260</v>
       </c>
       <c r="B259" t="n">
-        <v>104.423042</v>
+        <v>104.423035</v>
       </c>
       <c r="C259" t="n">
-        <v>122.583145</v>
+        <v>122.583153</v>
       </c>
     </row>
     <row r="260">
@@ -6263,7 +6263,7 @@
         <v>105.034897</v>
       </c>
       <c r="C260" t="n">
-        <v>126.271072</v>
+        <v>126.271057</v>
       </c>
     </row>
     <row r="261">
@@ -6274,7 +6274,7 @@
         <v>103.933556</v>
       </c>
       <c r="C261" t="n">
-        <v>126.030556</v>
+        <v>126.03054</v>
       </c>
     </row>
     <row r="262">
@@ -6282,7 +6282,7 @@
         <v>263</v>
       </c>
       <c r="B262" t="n">
-        <v>103.199333</v>
+        <v>103.199326</v>
       </c>
       <c r="C262" t="n">
         <v>125.870201</v>
@@ -6296,7 +6296,7 @@
         <v>105.238838</v>
       </c>
       <c r="C263" t="n">
-        <v>124.507294</v>
+        <v>124.507271</v>
       </c>
     </row>
     <row r="264">
@@ -6307,7 +6307,7 @@
         <v>102.791428</v>
       </c>
       <c r="C264" t="n">
-        <v>125.709862</v>
+        <v>125.709877</v>
       </c>
     </row>
     <row r="265">
@@ -6337,7 +6337,7 @@
         <v>268</v>
       </c>
       <c r="B267" t="n">
-        <v>102.138786</v>
+        <v>102.138779</v>
       </c>
       <c r="C267" t="n">
         <v>126.832275</v>
@@ -6348,10 +6348,10 @@
         <v>269</v>
       </c>
       <c r="B268" t="n">
-        <v>99.936104</v>
+        <v>99.936111</v>
       </c>
       <c r="C268" t="n">
-        <v>123.625381</v>
+        <v>123.625389</v>
       </c>
     </row>
     <row r="269">
@@ -6392,7 +6392,7 @@
         <v>273</v>
       </c>
       <c r="B272" t="n">
-        <v>103.444069</v>
+        <v>103.444077</v>
       </c>
       <c r="C272" t="n">
         <v>121.781425</v>
@@ -6403,10 +6403,10 @@
         <v>274</v>
       </c>
       <c r="B273" t="n">
-        <v>101.078239</v>
+        <v>101.078232</v>
       </c>
       <c r="C273" t="n">
-        <v>122.262474</v>
+        <v>122.262459</v>
       </c>
     </row>
     <row r="274">
@@ -6414,7 +6414,7 @@
         <v>275</v>
       </c>
       <c r="B274" t="n">
-        <v>103.199333</v>
+        <v>103.199326</v>
       </c>
       <c r="C274" t="n">
         <v>122.102119</v>
@@ -6425,7 +6425,7 @@
         <v>276</v>
       </c>
       <c r="B275" t="n">
-        <v>102.66906</v>
+        <v>102.669052</v>
       </c>
       <c r="C275" t="n">
         <v>121.781425</v>
@@ -6450,7 +6450,7 @@
         <v>97.896599</v>
       </c>
       <c r="C277" t="n">
-        <v>119.456436</v>
+        <v>119.456451</v>
       </c>
     </row>
     <row r="278">
@@ -6461,7 +6461,7 @@
         <v>98.712402</v>
       </c>
       <c r="C278" t="n">
-        <v>119.135757</v>
+        <v>119.13575</v>
       </c>
     </row>
     <row r="279">
@@ -6472,7 +6472,7 @@
         <v>101.119026</v>
       </c>
       <c r="C279" t="n">
-        <v>121.220215</v>
+        <v>121.220222</v>
       </c>
     </row>
     <row r="280">
@@ -6480,10 +6480,10 @@
         <v>281</v>
       </c>
       <c r="B280" t="n">
-        <v>100.180847</v>
+        <v>100.180855</v>
       </c>
       <c r="C280" t="n">
-        <v>122.262474</v>
+        <v>122.262459</v>
       </c>
     </row>
     <row r="281">
@@ -6491,10 +6491,10 @@
         <v>282</v>
       </c>
       <c r="B281" t="n">
-        <v>99.936104</v>
+        <v>99.936111</v>
       </c>
       <c r="C281" t="n">
-        <v>121.220215</v>
+        <v>121.220222</v>
       </c>
     </row>
     <row r="282">
@@ -6502,7 +6502,7 @@
         <v>283</v>
       </c>
       <c r="B282" t="n">
-        <v>101.486137</v>
+        <v>101.486145</v>
       </c>
       <c r="C282" t="n">
         <v>122.02195</v>
@@ -6516,7 +6516,7 @@
         <v>103.321701</v>
       </c>
       <c r="C283" t="n">
-        <v>123.545212</v>
+        <v>123.545227</v>
       </c>
     </row>
     <row r="284">
@@ -6527,7 +6527,7 @@
         <v>102.873009</v>
       </c>
       <c r="C284" t="n">
-        <v>121.540916</v>
+        <v>121.540909</v>
       </c>
     </row>
     <row r="285">
@@ -6549,7 +6549,7 @@
         <v>98.712402</v>
       </c>
       <c r="C286" t="n">
-        <v>120.49868</v>
+        <v>120.498672</v>
       </c>
     </row>
     <row r="287">
@@ -6557,10 +6557,10 @@
         <v>288</v>
       </c>
       <c r="B287" t="n">
-        <v>98.467659</v>
+        <v>98.467651</v>
       </c>
       <c r="C287" t="n">
-        <v>120.578835</v>
+        <v>120.57885</v>
       </c>
     </row>
     <row r="288">
@@ -6582,7 +6582,7 @@
         <v>102.22036</v>
       </c>
       <c r="C289" t="n">
-        <v>119.777115</v>
+        <v>119.777122</v>
       </c>
     </row>
     <row r="290">
@@ -6590,10 +6590,10 @@
         <v>291</v>
       </c>
       <c r="B290" t="n">
-        <v>106.054649</v>
+        <v>106.054642</v>
       </c>
       <c r="C290" t="n">
-        <v>127.393471</v>
+        <v>127.393478</v>
       </c>
     </row>
     <row r="291">
@@ -6604,7 +6604,7 @@
         <v>106.462555</v>
       </c>
       <c r="C291" t="n">
-        <v>125.228813</v>
+        <v>125.228821</v>
       </c>
     </row>
     <row r="292">
@@ -6634,7 +6634,7 @@
         <v>295</v>
       </c>
       <c r="B294" t="n">
-        <v>104.83094</v>
+        <v>104.830948</v>
       </c>
       <c r="C294" t="n">
         <v>121.059875</v>
@@ -6645,7 +6645,7 @@
         <v>296</v>
       </c>
       <c r="B295" t="n">
-        <v>105.442795</v>
+        <v>105.442787</v>
       </c>
       <c r="C295" t="n">
         <v>119.616791</v>
@@ -6659,7 +6659,7 @@
         <v>104.137505</v>
       </c>
       <c r="C296" t="n">
-        <v>117.69265</v>
+        <v>117.692657</v>
       </c>
     </row>
     <row r="297">
@@ -6667,10 +6667,10 @@
         <v>298</v>
       </c>
       <c r="B297" t="n">
-        <v>103.036171</v>
+        <v>103.036163</v>
       </c>
       <c r="C297" t="n">
-        <v>116.570236</v>
+        <v>116.570244</v>
       </c>
     </row>
     <row r="298">
@@ -6678,10 +6678,10 @@
         <v>299</v>
       </c>
       <c r="B298" t="n">
-        <v>103.892769</v>
+        <v>103.892761</v>
       </c>
       <c r="C298" t="n">
-        <v>115.768524</v>
+        <v>115.768509</v>
       </c>
     </row>
     <row r="299">
@@ -6692,7 +6692,7 @@
         <v>104.463829</v>
       </c>
       <c r="C299" t="n">
-        <v>117.933174</v>
+        <v>117.933182</v>
       </c>
     </row>
     <row r="300">
@@ -6700,10 +6700,10 @@
         <v>301</v>
       </c>
       <c r="B300" t="n">
-        <v>105.361206</v>
+        <v>105.361214</v>
       </c>
       <c r="C300" t="n">
-        <v>118.013344</v>
+        <v>118.013336</v>
       </c>
     </row>
     <row r="301">
@@ -6711,10 +6711,10 @@
         <v>302</v>
       </c>
       <c r="B301" t="n">
-        <v>107.971794</v>
+        <v>107.971802</v>
       </c>
       <c r="C301" t="n">
-        <v>118.654724</v>
+        <v>118.654709</v>
       </c>
     </row>
     <row r="302">
@@ -6722,10 +6722,10 @@
         <v>303</v>
       </c>
       <c r="B302" t="n">
-        <v>108.706017</v>
+        <v>108.706009</v>
       </c>
       <c r="C302" t="n">
-        <v>120.258163</v>
+        <v>120.258156</v>
       </c>
     </row>
     <row r="303">
@@ -6747,7 +6747,7 @@
         <v>110.308449</v>
       </c>
       <c r="C304" t="n">
-        <v>123.30471</v>
+        <v>123.304695</v>
       </c>
     </row>
     <row r="305">
@@ -6769,7 +6769,7 @@
         <v>108.000374</v>
       </c>
       <c r="C306" t="n">
-        <v>120.899544</v>
+        <v>120.899536</v>
       </c>
     </row>
     <row r="307">
@@ -6791,7 +6791,7 @@
         <v>105.605202</v>
       </c>
       <c r="C308" t="n">
-        <v>118.38649</v>
+        <v>118.386497</v>
       </c>
     </row>
     <row r="309">
@@ -6799,7 +6799,7 @@
         <v>310</v>
       </c>
       <c r="B309" t="n">
-        <v>105.03907</v>
+        <v>105.039078</v>
       </c>
       <c r="C309" t="n">
         <v>114.540001</v>
@@ -6810,7 +6810,7 @@
         <v>311</v>
       </c>
       <c r="B310" t="n">
-        <v>105.474564</v>
+        <v>105.474556</v>
       </c>
       <c r="C310" t="n">
         <v>116.762421</v>
@@ -6821,7 +6821,7 @@
         <v>312</v>
       </c>
       <c r="B311" t="n">
-        <v>101.685837</v>
+        <v>101.685844</v>
       </c>
       <c r="C311" t="n">
         <v>117.104324</v>
@@ -6846,7 +6846,7 @@
         <v>106.066818</v>
       </c>
       <c r="C313" t="n">
-        <v>121.121765</v>
+        <v>121.121773</v>
       </c>
     </row>
     <row r="314">
@@ -6857,7 +6857,7 @@
         <v>106.737473</v>
       </c>
       <c r="C314" t="n">
-        <v>121.463684</v>
+        <v>121.463692</v>
       </c>
     </row>
     <row r="315">
@@ -6879,7 +6879,7 @@
         <v>109.132637</v>
       </c>
       <c r="C316" t="n">
-        <v>122.745865</v>
+        <v>122.745857</v>
       </c>
     </row>
     <row r="317">
@@ -6890,7 +6890,7 @@
         <v>107.129402</v>
       </c>
       <c r="C317" t="n">
-        <v>121.20726</v>
+        <v>121.207253</v>
       </c>
     </row>
     <row r="318">
@@ -6912,7 +6912,7 @@
         <v>106.389084</v>
       </c>
       <c r="C319" t="n">
-        <v>120.52343</v>
+        <v>120.523438</v>
       </c>
     </row>
     <row r="320">
@@ -6920,10 +6920,10 @@
         <v>321</v>
       </c>
       <c r="B320" t="n">
-        <v>105.95359</v>
+        <v>105.953598</v>
       </c>
       <c r="C320" t="n">
-        <v>120.352478</v>
+        <v>120.352486</v>
       </c>
     </row>
     <row r="321">
@@ -6931,7 +6931,7 @@
         <v>322</v>
       </c>
       <c r="B321" t="n">
-        <v>108.13102</v>
+        <v>108.131027</v>
       </c>
       <c r="C321" t="n">
         <v>122.232986</v>
@@ -6978,7 +6978,7 @@
         <v>112.268127</v>
       </c>
       <c r="C325" t="n">
-        <v>124.968254</v>
+        <v>124.968269</v>
       </c>
     </row>
     <row r="326">
@@ -6989,7 +6989,7 @@
         <v>110.87458</v>
       </c>
       <c r="C326" t="n">
-        <v>123.429672</v>
+        <v>123.429665</v>
       </c>
     </row>
     <row r="327">
@@ -7011,7 +7011,7 @@
         <v>110.221359</v>
       </c>
       <c r="C328" t="n">
-        <v>119.412231</v>
+        <v>119.412224</v>
       </c>
     </row>
     <row r="329">
@@ -7022,7 +7022,7 @@
         <v>111.919746</v>
       </c>
       <c r="C329" t="n">
-        <v>122.916809</v>
+        <v>122.916817</v>
       </c>
     </row>
     <row r="330">
@@ -7030,7 +7030,7 @@
         <v>331</v>
       </c>
       <c r="B330" t="n">
-        <v>113.705231</v>
+        <v>113.705238</v>
       </c>
       <c r="C330" t="n">
         <v>123.942535</v>
@@ -7041,10 +7041,10 @@
         <v>332</v>
       </c>
       <c r="B331" t="n">
-        <v>102.818108</v>
+        <v>102.8181</v>
       </c>
       <c r="C331" t="n">
-        <v>122.831329</v>
+        <v>122.831322</v>
       </c>
     </row>
     <row r="332">
@@ -7055,7 +7055,7 @@
         <v>103.993912</v>
       </c>
       <c r="C332" t="n">
-        <v>120.779861</v>
+        <v>120.779869</v>
       </c>
     </row>
     <row r="333">
@@ -7063,7 +7063,7 @@
         <v>334</v>
       </c>
       <c r="B333" t="n">
-        <v>102.382614</v>
+        <v>102.382622</v>
       </c>
       <c r="C333" t="n">
         <v>109.325867</v>
@@ -7085,7 +7085,7 @@
         <v>336</v>
       </c>
       <c r="B335" t="n">
-        <v>100.510025</v>
+        <v>100.510033</v>
       </c>
       <c r="C335" t="n">
         <v>107.78727</v>
@@ -7110,7 +7110,7 @@
         <v>97.635818</v>
       </c>
       <c r="C337" t="n">
-        <v>107.530838</v>
+        <v>107.530846</v>
       </c>
     </row>
     <row r="338">
@@ -7132,7 +7132,7 @@
         <v>97.635818</v>
       </c>
       <c r="C339" t="n">
-        <v>108.214661</v>
+        <v>108.214653</v>
       </c>
     </row>
     <row r="340">
@@ -7140,10 +7140,10 @@
         <v>341</v>
       </c>
       <c r="B340" t="n">
-        <v>96.068085</v>
+        <v>96.068077</v>
       </c>
       <c r="C340" t="n">
-        <v>106.590576</v>
+        <v>106.590584</v>
       </c>
     </row>
     <row r="341">
@@ -7151,10 +7151,10 @@
         <v>342</v>
       </c>
       <c r="B341" t="n">
-        <v>93.890648</v>
+        <v>93.890656</v>
       </c>
       <c r="C341" t="n">
-        <v>106.847008</v>
+        <v>106.847015</v>
       </c>
     </row>
     <row r="342">
@@ -7176,7 +7176,7 @@
         <v>94.500328</v>
       </c>
       <c r="C343" t="n">
-        <v>105.821289</v>
+        <v>105.821281</v>
       </c>
     </row>
     <row r="344">
@@ -7184,7 +7184,7 @@
         <v>345</v>
       </c>
       <c r="B344" t="n">
-        <v>96.416466</v>
+        <v>96.416458</v>
       </c>
       <c r="C344" t="n">
         <v>106.676064</v>
@@ -7206,7 +7206,7 @@
         <v>347</v>
       </c>
       <c r="B346" t="n">
-        <v>96.764854</v>
+        <v>96.764847</v>
       </c>
       <c r="C346" t="n">
         <v>105.906761</v>
@@ -7250,7 +7250,7 @@
         <v>351</v>
       </c>
       <c r="B350" t="n">
-        <v>97.984215</v>
+        <v>97.984207</v>
       </c>
       <c r="C350" t="n">
         <v>107.359879</v>
@@ -7272,7 +7272,7 @@
         <v>353</v>
       </c>
       <c r="B352" t="n">
-        <v>95.458389</v>
+        <v>95.458397</v>
       </c>
       <c r="C352" t="n">
         <v>107.359879</v>
@@ -7286,7 +7286,7 @@
         <v>97.592278</v>
       </c>
       <c r="C353" t="n">
-        <v>106.847008</v>
+        <v>106.847015</v>
       </c>
     </row>
     <row r="354">
@@ -7294,7 +7294,7 @@
         <v>355</v>
       </c>
       <c r="B354" t="n">
-        <v>94.674522</v>
+        <v>94.674515</v>
       </c>
       <c r="C354" t="n">
         <v>107.616318</v>
@@ -7305,7 +7305,7 @@
         <v>356</v>
       </c>
       <c r="B355" t="n">
-        <v>95.589043</v>
+        <v>95.589035</v>
       </c>
       <c r="C355" t="n">
         <v>108.813004</v>
@@ -7316,10 +7316,10 @@
         <v>357</v>
       </c>
       <c r="B356" t="n">
-        <v>96.851944</v>
+        <v>96.851952</v>
       </c>
       <c r="C356" t="n">
-        <v>110.266121</v>
+        <v>110.266113</v>
       </c>
     </row>
     <row r="357">
@@ -7330,7 +7330,7 @@
         <v>96.939049</v>
       </c>
       <c r="C357" t="n">
-        <v>111.120895</v>
+        <v>111.120903</v>
       </c>
     </row>
     <row r="358">
@@ -7341,7 +7341,7 @@
         <v>97.374535</v>
       </c>
       <c r="C358" t="n">
-        <v>111.975677</v>
+        <v>111.97567</v>
       </c>
     </row>
     <row r="359">
@@ -7349,7 +7349,7 @@
         <v>360</v>
       </c>
       <c r="B359" t="n">
-        <v>95.458389</v>
+        <v>95.458397</v>
       </c>
       <c r="C359" t="n">
         <v>111.377335</v>
@@ -7363,7 +7363,7 @@
         <v>94.935814</v>
       </c>
       <c r="C360" t="n">
-        <v>112.403053</v>
+        <v>112.403061</v>
       </c>
     </row>
     <row r="361">
@@ -7374,7 +7374,7 @@
         <v>90.929352</v>
       </c>
       <c r="C361" t="n">
-        <v>110.864456</v>
+        <v>110.864449</v>
       </c>
     </row>
     <row r="362">
@@ -7382,10 +7382,10 @@
         <v>363</v>
       </c>
       <c r="B362" t="n">
-        <v>91.800316</v>
+        <v>91.800323</v>
       </c>
       <c r="C362" t="n">
-        <v>113.172356</v>
+        <v>113.172348</v>
       </c>
     </row>
     <row r="363">
@@ -7396,7 +7396,7 @@
         <v>90.189026</v>
       </c>
       <c r="C363" t="n">
-        <v>109.667778</v>
+        <v>109.66777</v>
       </c>
     </row>
     <row r="364">
@@ -7407,7 +7407,7 @@
         <v>90.493866</v>
       </c>
       <c r="C364" t="n">
-        <v>108.727516</v>
+        <v>108.727524</v>
       </c>
     </row>
     <row r="365">
@@ -7415,7 +7415,7 @@
         <v>366</v>
       </c>
       <c r="B365" t="n">
-        <v>87.706749</v>
+        <v>87.706757</v>
       </c>
       <c r="C365" t="n">
         <v>107.274406</v>
@@ -7429,7 +7429,7 @@
         <v>86.260948</v>
       </c>
       <c r="C366" t="n">
-        <v>104.539124</v>
+        <v>104.539116</v>
       </c>
     </row>
     <row r="367">
@@ -7448,7 +7448,7 @@
         <v>369</v>
       </c>
       <c r="B368" t="n">
-        <v>89.535797</v>
+        <v>89.535805</v>
       </c>
       <c r="C368" t="n">
         <v>106.676064</v>
@@ -7459,7 +7459,7 @@
         <v>370</v>
       </c>
       <c r="B369" t="n">
-        <v>90.36322</v>
+        <v>90.363213</v>
       </c>
       <c r="C369" t="n">
         <v>106.932487</v>
@@ -7470,7 +7470,7 @@
         <v>371</v>
       </c>
       <c r="B370" t="n">
-        <v>91.234192</v>
+        <v>91.234184</v>
       </c>
       <c r="C370" t="n">
         <v>108.813004</v>
@@ -7503,7 +7503,7 @@
         <v>374</v>
       </c>
       <c r="B373" t="n">
-        <v>91.234192</v>
+        <v>91.234184</v>
       </c>
       <c r="C373" t="n">
         <v>110.180641</v>
@@ -7517,7 +7517,7 @@
         <v>92.540642</v>
       </c>
       <c r="C374" t="n">
-        <v>110.693504</v>
+        <v>110.693512</v>
       </c>
     </row>
     <row r="375">
@@ -7525,7 +7525,7 @@
         <v>376</v>
       </c>
       <c r="B375" t="n">
-        <v>90.75515</v>
+        <v>90.755157</v>
       </c>
       <c r="C375" t="n">
         <v>109.411339</v>
@@ -7558,10 +7558,10 @@
         <v>379</v>
       </c>
       <c r="B378" t="n">
-        <v>89.492249</v>
+        <v>89.492241</v>
       </c>
       <c r="C378" t="n">
-        <v>105.393898</v>
+        <v>105.393906</v>
       </c>
     </row>
     <row r="379">
@@ -7580,7 +7580,7 @@
         <v>381</v>
       </c>
       <c r="B380" t="n">
-        <v>90.66806</v>
+        <v>90.668053</v>
       </c>
       <c r="C380" t="n">
         <v>104.624596</v>
@@ -7613,10 +7613,10 @@
         <v>384</v>
       </c>
       <c r="B383" t="n">
-        <v>89.361595</v>
+        <v>89.361603</v>
       </c>
       <c r="C383" t="n">
-        <v>102.145752</v>
+        <v>102.145744</v>
       </c>
     </row>
     <row r="384">
@@ -7649,7 +7649,7 @@
         <v>90.406769</v>
       </c>
       <c r="C386" t="n">
-        <v>102.573128</v>
+        <v>102.573135</v>
       </c>
     </row>
     <row r="387">
@@ -7657,7 +7657,7 @@
         <v>388</v>
       </c>
       <c r="B387" t="n">
-        <v>89.709984</v>
+        <v>89.709991</v>
       </c>
       <c r="C387" t="n">
         <v>103.684349</v>
@@ -7668,10 +7668,10 @@
         <v>389</v>
       </c>
       <c r="B388" t="n">
-        <v>90.66806</v>
+        <v>90.668053</v>
       </c>
       <c r="C388" t="n">
-        <v>104.19722</v>
+        <v>104.197212</v>
       </c>
     </row>
     <row r="389">
@@ -7690,7 +7690,7 @@
         <v>391</v>
       </c>
       <c r="B390" t="n">
-        <v>89.14386</v>
+        <v>89.143852</v>
       </c>
       <c r="C390" t="n">
         <v>103.684349</v>
@@ -7701,7 +7701,7 @@
         <v>392</v>
       </c>
       <c r="B391" t="n">
-        <v>87.044823</v>
+        <v>87.044815</v>
       </c>
       <c r="C391" t="n">
         <v>101.632881</v>
@@ -7734,7 +7734,7 @@
         <v>395</v>
       </c>
       <c r="B394" t="n">
-        <v>85.564163</v>
+        <v>85.564171</v>
       </c>
       <c r="C394" t="n">
         <v>99.15403</v>
@@ -7745,10 +7745,10 @@
         <v>396</v>
       </c>
       <c r="B395" t="n">
-        <v>84.066093</v>
+        <v>84.066101</v>
       </c>
       <c r="C395" t="n">
-        <v>98.042824</v>
+        <v>98.042816</v>
       </c>
     </row>
     <row r="396">
@@ -7756,7 +7756,7 @@
         <v>397</v>
       </c>
       <c r="B396" t="n">
-        <v>83.839645</v>
+        <v>83.839653</v>
       </c>
       <c r="C396" t="n">
         <v>99.923332</v>
@@ -7770,7 +7770,7 @@
         <v>83.508675</v>
       </c>
       <c r="C397" t="n">
-        <v>98.726639</v>
+        <v>98.726646</v>
       </c>
     </row>
     <row r="398">
@@ -7778,7 +7778,7 @@
         <v>399</v>
       </c>
       <c r="B398" t="n">
-        <v>83.857071</v>
+        <v>83.857063</v>
       </c>
       <c r="C398" t="n">
         <v>98.641167</v>
@@ -7789,10 +7789,10 @@
         <v>400</v>
       </c>
       <c r="B399" t="n">
-        <v>82.672539</v>
+        <v>82.672546</v>
       </c>
       <c r="C399" t="n">
-        <v>98.128304</v>
+        <v>98.128296</v>
       </c>
     </row>
     <row r="400">
@@ -7814,7 +7814,7 @@
         <v>81.505447</v>
       </c>
       <c r="C401" t="n">
-        <v>95.56398</v>
+        <v>95.563972</v>
       </c>
     </row>
     <row r="402">
@@ -7822,10 +7822,10 @@
         <v>403</v>
       </c>
       <c r="B402" t="n">
-        <v>77.516403</v>
+        <v>77.516396</v>
       </c>
       <c r="C402" t="n">
-        <v>92.230339</v>
+        <v>92.230347</v>
       </c>
     </row>
     <row r="403">
@@ -7844,10 +7844,10 @@
         <v>405</v>
       </c>
       <c r="B404" t="n">
-        <v>79.362854</v>
+        <v>79.362862</v>
       </c>
       <c r="C404" t="n">
-        <v>94.709198</v>
+        <v>94.70919</v>
       </c>
     </row>
     <row r="405">
@@ -7858,7 +7858,7 @@
         <v>79.955116</v>
       </c>
       <c r="C405" t="n">
-        <v>95.307541</v>
+        <v>95.307533</v>
       </c>
     </row>
     <row r="406">
@@ -7866,10 +7866,10 @@
         <v>407</v>
       </c>
       <c r="B406" t="n">
-        <v>77.88221</v>
+        <v>77.882202</v>
       </c>
       <c r="C406" t="n">
-        <v>93.597984</v>
+        <v>93.597992</v>
       </c>
     </row>
     <row r="407">
@@ -7877,10 +7877,10 @@
         <v>408</v>
       </c>
       <c r="B407" t="n">
-        <v>77.516403</v>
+        <v>77.516396</v>
       </c>
       <c r="C407" t="n">
-        <v>92.65773</v>
+        <v>92.657738</v>
       </c>
     </row>
     <row r="408">
@@ -7888,10 +7888,10 @@
         <v>409</v>
       </c>
       <c r="B408" t="n">
-        <v>78.561562</v>
+        <v>78.561554</v>
       </c>
       <c r="C408" t="n">
-        <v>94.880142</v>
+        <v>94.88015</v>
       </c>
     </row>
     <row r="409">
@@ -7899,10 +7899,10 @@
         <v>410</v>
       </c>
       <c r="B409" t="n">
-        <v>77.673172</v>
+        <v>77.67318</v>
       </c>
       <c r="C409" t="n">
-        <v>94.880142</v>
+        <v>94.88015</v>
       </c>
     </row>
     <row r="410">
@@ -7910,7 +7910,7 @@
         <v>411</v>
       </c>
       <c r="B410" t="n">
-        <v>76.418976</v>
+        <v>76.418968</v>
       </c>
       <c r="C410" t="n">
         <v>93.256073</v>
@@ -7943,10 +7943,10 @@
         <v>414</v>
       </c>
       <c r="B413" t="n">
-        <v>76.593178</v>
+        <v>76.59317</v>
       </c>
       <c r="C413" t="n">
-        <v>80.348953</v>
+        <v>80.348946</v>
       </c>
     </row>
     <row r="414">
@@ -7979,7 +7979,7 @@
         <v>75.251877</v>
       </c>
       <c r="C416" t="n">
-        <v>80.562653</v>
+        <v>80.562645</v>
       </c>
     </row>
     <row r="417">
@@ -8031,10 +8031,10 @@
         <v>422</v>
       </c>
       <c r="B421" t="n">
-        <v>88.055138</v>
+        <v>88.055145</v>
       </c>
       <c r="C421" t="n">
-        <v>88.554802</v>
+        <v>88.55481</v>
       </c>
     </row>
     <row r="422">
@@ -8045,7 +8045,7 @@
         <v>87.968048</v>
       </c>
       <c r="C422" t="n">
-        <v>88.041939</v>
+        <v>88.041931</v>
       </c>
     </row>
     <row r="423">
@@ -8053,7 +8053,7 @@
         <v>424</v>
       </c>
       <c r="B423" t="n">
-        <v>88.011597</v>
+        <v>88.011604</v>
       </c>
       <c r="C423" t="n">
         <v>87.870995</v>
@@ -8067,7 +8067,7 @@
         <v>91.190636</v>
       </c>
       <c r="C424" t="n">
-        <v>88.554802</v>
+        <v>88.55481</v>
       </c>
     </row>
     <row r="425">
@@ -8078,7 +8078,7 @@
         <v>88.22934</v>
       </c>
       <c r="C425" t="n">
-        <v>88.640274</v>
+        <v>88.640282</v>
       </c>
     </row>
     <row r="426">
@@ -8089,7 +8089,7 @@
         <v>85.02417</v>
       </c>
       <c r="C426" t="n">
-        <v>87.187157</v>
+        <v>87.187164</v>
       </c>
     </row>
     <row r="427">
@@ -8097,10 +8097,10 @@
         <v>428</v>
       </c>
       <c r="B427" t="n">
-        <v>83.247383</v>
+        <v>83.247391</v>
       </c>
       <c r="C427" t="n">
-        <v>87.529083</v>
+        <v>87.529076</v>
       </c>
     </row>
     <row r="428">
@@ -8108,10 +8108,10 @@
         <v>429</v>
       </c>
       <c r="B428" t="n">
-        <v>84.414482</v>
+        <v>84.41449</v>
       </c>
       <c r="C428" t="n">
-        <v>89.495056</v>
+        <v>89.495064</v>
       </c>
     </row>
     <row r="429">
@@ -8119,7 +8119,7 @@
         <v>430</v>
       </c>
       <c r="B429" t="n">
-        <v>85.355133</v>
+        <v>85.355141</v>
       </c>
       <c r="C429" t="n">
         <v>99.495941</v>
@@ -8130,7 +8130,7 @@
         <v>431</v>
       </c>
       <c r="B430" t="n">
-        <v>83.61319</v>
+        <v>83.613197</v>
       </c>
       <c r="C430" t="n">
         <v>101.461922</v>
@@ -8144,7 +8144,7 @@
         <v>83.543518</v>
       </c>
       <c r="C431" t="n">
-        <v>103.342438</v>
+        <v>103.34243</v>
       </c>
     </row>
     <row r="432">
@@ -8174,7 +8174,7 @@
         <v>435</v>
       </c>
       <c r="B434" t="n">
-        <v>83.386742</v>
+        <v>83.386734</v>
       </c>
       <c r="C434" t="n">
         <v>104.881027</v>
@@ -8188,7 +8188,7 @@
         <v>83.073189</v>
       </c>
       <c r="C435" t="n">
-        <v>103.25695</v>
+        <v>103.256958</v>
       </c>
     </row>
     <row r="436">
@@ -8196,10 +8196,10 @@
         <v>437</v>
       </c>
       <c r="B436" t="n">
-        <v>82.742226</v>
+        <v>82.742218</v>
       </c>
       <c r="C436" t="n">
-        <v>102.402184</v>
+        <v>102.402176</v>
       </c>
     </row>
     <row r="437">
@@ -8221,7 +8221,7 @@
         <v>80.216408</v>
       </c>
       <c r="C438" t="n">
-        <v>99.23951</v>
+        <v>99.239502</v>
       </c>
     </row>
     <row r="439">
@@ -8273,7 +8273,7 @@
         <v>444</v>
       </c>
       <c r="B443" t="n">
-        <v>80.164146</v>
+        <v>80.164154</v>
       </c>
       <c r="C443" t="n">
         <v>100.521667</v>
@@ -8284,10 +8284,10 @@
         <v>445</v>
       </c>
       <c r="B444" t="n">
-        <v>82.881577</v>
+        <v>82.881584</v>
       </c>
       <c r="C444" t="n">
-        <v>102.145752</v>
+        <v>102.145744</v>
       </c>
     </row>
     <row r="445">
@@ -8295,7 +8295,7 @@
         <v>446</v>
       </c>
       <c r="B445" t="n">
-        <v>83.595772</v>
+        <v>83.595779</v>
       </c>
       <c r="C445" t="n">
         <v>104.795555</v>
@@ -8339,10 +8339,10 @@
         <v>450</v>
       </c>
       <c r="B449" t="n">
-        <v>83.82222</v>
+        <v>83.822227</v>
       </c>
       <c r="C449" t="n">
-        <v>110.266121</v>
+        <v>110.266113</v>
       </c>
     </row>
     <row r="450">
@@ -8350,10 +8350,10 @@
         <v>451</v>
       </c>
       <c r="B450" t="n">
-        <v>85.877716</v>
+        <v>85.877724</v>
       </c>
       <c r="C450" t="n">
-        <v>112.659492</v>
+        <v>112.6595</v>
       </c>
     </row>
     <row r="451">
@@ -8361,7 +8361,7 @@
         <v>452</v>
       </c>
       <c r="B451" t="n">
-        <v>85.877716</v>
+        <v>85.877724</v>
       </c>
       <c r="C451" t="n">
         <v>113.257835</v>
@@ -8375,7 +8375,7 @@
         <v>85.529327</v>
       </c>
       <c r="C452" t="n">
-        <v>115.394783</v>
+        <v>115.394768</v>
       </c>
     </row>
     <row r="453">
@@ -8394,10 +8394,10 @@
         <v>455</v>
       </c>
       <c r="B454" t="n">
-        <v>85.877716</v>
+        <v>85.877724</v>
       </c>
       <c r="C454" t="n">
-        <v>116.07859</v>
+        <v>116.078598</v>
       </c>
     </row>
     <row r="455">
@@ -8408,7 +8408,7 @@
         <v>85.616432</v>
       </c>
       <c r="C455" t="n">
-        <v>114.454521</v>
+        <v>114.454514</v>
       </c>
     </row>
     <row r="456">
@@ -8419,7 +8419,7 @@
         <v>84.867393</v>
       </c>
       <c r="C456" t="n">
-        <v>115.736671</v>
+        <v>115.736679</v>
       </c>
     </row>
     <row r="457">
@@ -8438,10 +8438,10 @@
         <v>459</v>
       </c>
       <c r="B458" t="n">
-        <v>83.247383</v>
+        <v>83.247391</v>
       </c>
       <c r="C458" t="n">
-        <v>112.317574</v>
+        <v>112.317581</v>
       </c>
     </row>
     <row r="459">
@@ -8463,7 +8463,7 @@
         <v>81.348671</v>
       </c>
       <c r="C460" t="n">
-        <v>112.403053</v>
+        <v>112.403061</v>
       </c>
     </row>
     <row r="461">
@@ -8474,7 +8474,7 @@
         <v>81.784157</v>
       </c>
       <c r="C461" t="n">
-        <v>114.454521</v>
+        <v>114.454514</v>
       </c>
     </row>
     <row r="462">
@@ -8482,7 +8482,7 @@
         <v>463</v>
       </c>
       <c r="B462" t="n">
-        <v>81.766739</v>
+        <v>81.766731</v>
       </c>
       <c r="C462" t="n">
         <v>115.651207</v>
@@ -8493,7 +8493,7 @@
         <v>464</v>
       </c>
       <c r="B463" t="n">
-        <v>83.630615</v>
+        <v>83.630608</v>
       </c>
       <c r="C463" t="n">
         <v>116.33503</v>
@@ -8507,7 +8507,7 @@
         <v>83.369324</v>
       </c>
       <c r="C464" t="n">
-        <v>115.993111</v>
+        <v>115.993118</v>
       </c>
     </row>
     <row r="465">
@@ -8518,7 +8518,7 @@
         <v>82.498352</v>
       </c>
       <c r="C465" t="n">
-        <v>116.676933</v>
+        <v>116.676941</v>
       </c>
     </row>
     <row r="466">
@@ -8526,7 +8526,7 @@
         <v>467</v>
       </c>
       <c r="B466" t="n">
-        <v>82.306732</v>
+        <v>82.30674</v>
       </c>
       <c r="C466" t="n">
         <v>116.933372</v>
@@ -8537,10 +8537,10 @@
         <v>468</v>
       </c>
       <c r="B467" t="n">
-        <v>80.442856</v>
+        <v>80.442863</v>
       </c>
       <c r="C467" t="n">
-        <v>113.514275</v>
+        <v>113.514267</v>
       </c>
     </row>
     <row r="468">
@@ -8570,10 +8570,10 @@
         <v>471</v>
       </c>
       <c r="B470" t="n">
-        <v>79.240921</v>
+        <v>79.240929</v>
       </c>
       <c r="C470" t="n">
-        <v>110.949936</v>
+        <v>110.949944</v>
       </c>
     </row>
     <row r="471">
@@ -8581,10 +8581,10 @@
         <v>472</v>
       </c>
       <c r="B471" t="n">
-        <v>79.362854</v>
+        <v>79.362862</v>
       </c>
       <c r="C471" t="n">
-        <v>110.864456</v>
+        <v>110.864449</v>
       </c>
     </row>
     <row r="472">
@@ -8606,7 +8606,7 @@
         <v>78.735756</v>
       </c>
       <c r="C473" t="n">
-        <v>108.727516</v>
+        <v>108.727524</v>
       </c>
     </row>
     <row r="474">
@@ -8628,7 +8628,7 @@
         <v>80.129311</v>
       </c>
       <c r="C475" t="n">
-        <v>110.693504</v>
+        <v>110.693512</v>
       </c>
     </row>
     <row r="476">
@@ -8639,7 +8639,7 @@
         <v>79.275757</v>
       </c>
       <c r="C476" t="n">
-        <v>108.727516</v>
+        <v>108.727524</v>
       </c>
     </row>
     <row r="477">
@@ -8650,7 +8650,7 @@
         <v>80.233833</v>
       </c>
       <c r="C477" t="n">
-        <v>110.266121</v>
+        <v>110.266113</v>
       </c>
     </row>
     <row r="478">
@@ -8669,7 +8669,7 @@
         <v>480</v>
       </c>
       <c r="B479" t="n">
-        <v>79.746086</v>
+        <v>79.746078</v>
       </c>
       <c r="C479" t="n">
         <v>109.154907</v>
@@ -8683,7 +8683,7 @@
         <v>80.129311</v>
       </c>
       <c r="C480" t="n">
-        <v>107.530838</v>
+        <v>107.530846</v>
       </c>
     </row>
     <row r="481">
@@ -8694,7 +8694,7 @@
         <v>79.223503</v>
       </c>
       <c r="C481" t="n">
-        <v>105.479378</v>
+        <v>105.47937</v>
       </c>
     </row>
     <row r="482">
@@ -8702,7 +8702,7 @@
         <v>483</v>
       </c>
       <c r="B482" t="n">
-        <v>79.780922</v>
+        <v>79.780914</v>
       </c>
       <c r="C482" t="n">
         <v>108.983955</v>
@@ -8713,10 +8713,10 @@
         <v>484</v>
       </c>
       <c r="B483" t="n">
-        <v>82.463516</v>
+        <v>82.463509</v>
       </c>
       <c r="C483" t="n">
-        <v>110.949936</v>
+        <v>110.949944</v>
       </c>
     </row>
     <row r="484">
@@ -8738,7 +8738,7 @@
         <v>84.01384</v>
       </c>
       <c r="C485" t="n">
-        <v>113.172356</v>
+        <v>113.172348</v>
       </c>
     </row>
     <row r="486">
@@ -8749,7 +8749,7 @@
         <v>84.170616</v>
       </c>
       <c r="C486" t="n">
-        <v>113.343315</v>
+        <v>113.343323</v>
       </c>
     </row>
     <row r="487">
@@ -8782,7 +8782,7 @@
         <v>90.580963</v>
       </c>
       <c r="C489" t="n">
-        <v>112.403053</v>
+        <v>112.403061</v>
       </c>
     </row>
     <row r="490">
@@ -8793,7 +8793,7 @@
         <v>92.671295</v>
       </c>
       <c r="C490" t="n">
-        <v>112.488533</v>
+        <v>112.488541</v>
       </c>
     </row>
     <row r="491">
@@ -8801,7 +8801,7 @@
         <v>492</v>
       </c>
       <c r="B491" t="n">
-        <v>94.108391</v>
+        <v>94.108398</v>
       </c>
       <c r="C491" t="n">
         <v>117.104324</v>
@@ -8812,10 +8812,10 @@
         <v>493</v>
       </c>
       <c r="B492" t="n">
-        <v>93.193871</v>
+        <v>93.193878</v>
       </c>
       <c r="C492" t="n">
-        <v>118.215546</v>
+        <v>118.215538</v>
       </c>
     </row>
     <row r="493">
@@ -8845,10 +8845,10 @@
         <v>496</v>
       </c>
       <c r="B495" t="n">
-        <v>93.193871</v>
+        <v>93.193878</v>
       </c>
       <c r="C495" t="n">
-        <v>118.899368</v>
+        <v>118.899361</v>
       </c>
     </row>
     <row r="496">
@@ -8867,10 +8867,10 @@
         <v>498</v>
       </c>
       <c r="B497" t="n">
-        <v>93.890648</v>
+        <v>93.890656</v>
       </c>
       <c r="C497" t="n">
-        <v>119.497711</v>
+        <v>119.497696</v>
       </c>
     </row>
     <row r="498">
@@ -8878,7 +8878,7 @@
         <v>499</v>
       </c>
       <c r="B498" t="n">
-        <v>96.111626</v>
+        <v>96.111618</v>
       </c>
       <c r="C498" t="n">
         <v>121.976547</v>
@@ -8889,10 +8889,10 @@
         <v>500</v>
       </c>
       <c r="B499" t="n">
-        <v>93.977753</v>
+        <v>93.977745</v>
       </c>
       <c r="C499" t="n">
-        <v>121.463684</v>
+        <v>121.463692</v>
       </c>
     </row>
     <row r="500">
@@ -8925,7 +8925,7 @@
         <v>94.282585</v>
       </c>
       <c r="C502" t="n">
-        <v>120.52343</v>
+        <v>120.523438</v>
       </c>
     </row>
     <row r="503">
@@ -8933,7 +8933,7 @@
         <v>504</v>
       </c>
       <c r="B503" t="n">
-        <v>96.068085</v>
+        <v>96.068077</v>
       </c>
       <c r="C503" t="n">
         <v>124.369919</v>
@@ -8944,7 +8944,7 @@
         <v>505</v>
       </c>
       <c r="B504" t="n">
-        <v>94.97937</v>
+        <v>94.979362</v>
       </c>
       <c r="C504" t="n">
         <v>121.976547</v>
@@ -8958,7 +8958,7 @@
         <v>93.498711</v>
       </c>
       <c r="C505" t="n">
-        <v>121.891083</v>
+        <v>121.891075</v>
       </c>
     </row>
     <row r="506">
@@ -8966,10 +8966,10 @@
         <v>507</v>
       </c>
       <c r="B506" t="n">
-        <v>94.06485</v>
+        <v>94.064842</v>
       </c>
       <c r="C506" t="n">
-        <v>123.686096</v>
+        <v>123.686111</v>
       </c>
     </row>
     <row r="507">
@@ -8980,7 +8980,7 @@
         <v>93.411613</v>
       </c>
       <c r="C507" t="n">
-        <v>123.258713</v>
+        <v>123.258705</v>
       </c>
     </row>
     <row r="508">
@@ -8988,10 +8988,10 @@
         <v>509</v>
       </c>
       <c r="B508" t="n">
-        <v>94.674522</v>
+        <v>94.674515</v>
       </c>
       <c r="C508" t="n">
-        <v>123.600624</v>
+        <v>123.600632</v>
       </c>
     </row>
     <row r="509">
@@ -9002,7 +9002,7 @@
         <v>95.806786</v>
       </c>
       <c r="C509" t="n">
-        <v>123.3442</v>
+        <v>123.344193</v>
       </c>
     </row>
     <row r="510">
@@ -9010,10 +9010,10 @@
         <v>511</v>
       </c>
       <c r="B510" t="n">
-        <v>95.632591</v>
+        <v>95.632599</v>
       </c>
       <c r="C510" t="n">
-        <v>127.361641</v>
+        <v>127.361649</v>
       </c>
     </row>
     <row r="511">
@@ -9024,7 +9024,7 @@
         <v>95.806786</v>
       </c>
       <c r="C511" t="n">
-        <v>125.993996</v>
+        <v>125.993988</v>
       </c>
     </row>
     <row r="512">
@@ -9035,7 +9035,7 @@
         <v>96.721306</v>
       </c>
       <c r="C512" t="n">
-        <v>127.703537</v>
+        <v>127.703552</v>
       </c>
     </row>
     <row r="513">
@@ -9046,7 +9046,7 @@
         <v>94.848717</v>
       </c>
       <c r="C513" t="n">
-        <v>126.934258</v>
+        <v>126.93425</v>
       </c>
     </row>
     <row r="514">
@@ -9054,10 +9054,10 @@
         <v>515</v>
       </c>
       <c r="B514" t="n">
-        <v>95.458389</v>
+        <v>95.458397</v>
       </c>
       <c r="C514" t="n">
-        <v>125.993996</v>
+        <v>125.993988</v>
       </c>
     </row>
     <row r="515">
@@ -9068,7 +9068,7 @@
         <v>92.453545</v>
       </c>
       <c r="C515" t="n">
-        <v>123.087769</v>
+        <v>123.087753</v>
       </c>
     </row>
     <row r="516">
@@ -9087,10 +9087,10 @@
         <v>518</v>
       </c>
       <c r="B517" t="n">
-        <v>95.893883</v>
+        <v>95.893875</v>
       </c>
       <c r="C517" t="n">
-        <v>125.993996</v>
+        <v>125.993988</v>
       </c>
     </row>
     <row r="518">
@@ -9098,10 +9098,10 @@
         <v>519</v>
       </c>
       <c r="B518" t="n">
-        <v>94.674522</v>
+        <v>94.674515</v>
       </c>
       <c r="C518" t="n">
-        <v>124.198967</v>
+        <v>124.198975</v>
       </c>
     </row>
     <row r="519">
@@ -9112,7 +9112,7 @@
         <v>98.332603</v>
       </c>
       <c r="C519" t="n">
-        <v>125.481133</v>
+        <v>125.48114</v>
       </c>
     </row>
     <row r="520">
@@ -9120,10 +9120,10 @@
         <v>521</v>
       </c>
       <c r="B520" t="n">
-        <v>97.200333</v>
+        <v>97.20034</v>
       </c>
       <c r="C520" t="n">
-        <v>125.652092</v>
+        <v>125.652077</v>
       </c>
     </row>
     <row r="521">
@@ -9131,10 +9131,10 @@
         <v>522</v>
       </c>
       <c r="B521" t="n">
-        <v>99.943893</v>
+        <v>99.943901</v>
       </c>
       <c r="C521" t="n">
-        <v>127.276169</v>
+        <v>127.276154</v>
       </c>
     </row>
     <row r="522">
@@ -9142,10 +9142,10 @@
         <v>523</v>
       </c>
       <c r="B522" t="n">
-        <v>100.422935</v>
+        <v>100.422928</v>
       </c>
       <c r="C522" t="n">
-        <v>128.472855</v>
+        <v>128.472839</v>
       </c>
     </row>
     <row r="523">
@@ -9153,7 +9153,7 @@
         <v>524</v>
       </c>
       <c r="B523" t="n">
-        <v>102.164879</v>
+        <v>102.164871</v>
       </c>
       <c r="C523" t="n">
         <v>131.293625</v>
@@ -9164,10 +9164,10 @@
         <v>525</v>
       </c>
       <c r="B524" t="n">
-        <v>102.51326</v>
+        <v>102.513252</v>
       </c>
       <c r="C524" t="n">
-        <v>130.438843</v>
+        <v>130.438828</v>
       </c>
     </row>
     <row r="525">
@@ -9186,7 +9186,7 @@
         <v>527</v>
       </c>
       <c r="B526" t="n">
-        <v>105.822952</v>
+        <v>105.822945</v>
       </c>
       <c r="C526" t="n">
         <v>133.516022</v>
@@ -9197,10 +9197,10 @@
         <v>528</v>
       </c>
       <c r="B527" t="n">
-        <v>107.608437</v>
+        <v>107.608444</v>
       </c>
       <c r="C527" t="n">
-        <v>134.285339</v>
+        <v>134.285324</v>
       </c>
     </row>
     <row r="528">
@@ -9208,7 +9208,7 @@
         <v>529</v>
       </c>
       <c r="B528" t="n">
-        <v>106.51973</v>
+        <v>106.519722</v>
       </c>
       <c r="C528" t="n">
         <v>134.199844</v>
@@ -9222,7 +9222,7 @@
         <v>105.866501</v>
       </c>
       <c r="C529" t="n">
-        <v>134.883667</v>
+        <v>134.883682</v>
       </c>
     </row>
     <row r="530">
@@ -9263,7 +9263,7 @@
         <v>534</v>
       </c>
       <c r="B533" t="n">
-        <v>106.476181</v>
+        <v>106.476173</v>
       </c>
       <c r="C533" t="n">
         <v>138.473724</v>
@@ -9277,7 +9277,7 @@
         <v>104.995529</v>
       </c>
       <c r="C534" t="n">
-        <v>137.020599</v>
+        <v>137.020615</v>
       </c>
     </row>
     <row r="535">
@@ -9332,7 +9332,7 @@
         <v>91.147095</v>
       </c>
       <c r="C539" t="n">
-        <v>106.847008</v>
+        <v>106.847015</v>
       </c>
     </row>
     <row r="540">
@@ -9340,7 +9340,7 @@
         <v>541</v>
       </c>
       <c r="B540" t="n">
-        <v>91.582581</v>
+        <v>91.582573</v>
       </c>
       <c r="C540" t="n">
         <v>107.872742</v>
@@ -9351,7 +9351,7 @@
         <v>542</v>
       </c>
       <c r="B541" t="n">
-        <v>93.063232</v>
+        <v>93.063225</v>
       </c>
       <c r="C541" t="n">
         <v>109.83873</v>
@@ -9406,7 +9406,7 @@
         <v>547</v>
       </c>
       <c r="B546" t="n">
-        <v>77.289948</v>
+        <v>77.28994</v>
       </c>
       <c r="C546" t="n">
         <v>93.854424</v>
@@ -9428,7 +9428,7 @@
         <v>549</v>
       </c>
       <c r="B548" t="n">
-        <v>67.726685</v>
+        <v>67.726692</v>
       </c>
       <c r="C548" t="n">
         <v>82.272194</v>
@@ -9442,7 +9442,7 @@
         <v>67.761528</v>
       </c>
       <c r="C549" t="n">
-        <v>83.682587</v>
+        <v>83.682579</v>
       </c>
     </row>
     <row r="550">
@@ -9453,7 +9453,7 @@
         <v>64.486679</v>
       </c>
       <c r="C550" t="n">
-        <v>78.895844</v>
+        <v>78.895836</v>
       </c>
     </row>
     <row r="551">
@@ -9464,7 +9464,7 @@
         <v>64.62603</v>
       </c>
       <c r="C551" t="n">
-        <v>80.220734</v>
+        <v>80.220741</v>
       </c>
     </row>
     <row r="552">
@@ -9574,7 +9574,7 @@
         <v>75.642952</v>
       </c>
       <c r="C561" t="n">
-        <v>91.515839</v>
+        <v>91.515846</v>
       </c>
     </row>
     <row r="562">
@@ -9607,7 +9607,7 @@
         <v>71.078796</v>
       </c>
       <c r="C564" t="n">
-        <v>88.706573</v>
+        <v>88.706566</v>
       </c>
     </row>
     <row r="565">
@@ -9618,7 +9618,7 @@
         <v>72.141136</v>
       </c>
       <c r="C565" t="n">
-        <v>88.373268</v>
+        <v>88.37326</v>
       </c>
     </row>
     <row r="566">
@@ -9684,7 +9684,7 @@
         <v>72.318199</v>
       </c>
       <c r="C571" t="n">
-        <v>89.373169</v>
+        <v>89.373177</v>
       </c>
     </row>
     <row r="572">
@@ -9695,7 +9695,7 @@
         <v>71.82637</v>
       </c>
       <c r="C572" t="n">
-        <v>90.992088</v>
+        <v>90.992081</v>
       </c>
     </row>
     <row r="573">
@@ -9728,7 +9728,7 @@
         <v>72.455917</v>
       </c>
       <c r="C575" t="n">
-        <v>91.230164</v>
+        <v>91.230156</v>
       </c>
     </row>
     <row r="576">
@@ -9739,7 +9739,7 @@
         <v>70.134491</v>
       </c>
       <c r="C576" t="n">
-        <v>89.706474</v>
+        <v>89.706482</v>
       </c>
     </row>
     <row r="577">
@@ -9783,7 +9783,7 @@
         <v>79.479202</v>
       </c>
       <c r="C580" t="n">
-        <v>107.89537</v>
+        <v>107.895378</v>
       </c>
     </row>
     <row r="581">
@@ -9827,7 +9827,7 @@
         <v>74.226486</v>
       </c>
       <c r="C584" t="n">
-        <v>95.08696</v>
+        <v>95.086967</v>
       </c>
     </row>
     <row r="585">
@@ -9849,7 +9849,7 @@
         <v>74.619949</v>
       </c>
       <c r="C586" t="n">
-        <v>100.086533</v>
+        <v>100.086525</v>
       </c>
     </row>
     <row r="587">
@@ -9860,7 +9860,7 @@
         <v>74.167473</v>
       </c>
       <c r="C587" t="n">
-        <v>101.134048</v>
+        <v>101.134056</v>
       </c>
     </row>
     <row r="588">
@@ -9893,7 +9893,7 @@
         <v>70.803375</v>
       </c>
       <c r="C590" t="n">
-        <v>99.991302</v>
+        <v>99.991295</v>
       </c>
     </row>
     <row r="591">
@@ -9915,7 +9915,7 @@
         <v>73.400223</v>
       </c>
       <c r="C592" t="n">
-        <v>100.657898</v>
+        <v>100.657906</v>
       </c>
     </row>
     <row r="593">
@@ -9926,7 +9926,7 @@
         <v>75.564255</v>
       </c>
       <c r="C593" t="n">
-        <v>102.467278</v>
+        <v>102.46727</v>
       </c>
     </row>
     <row r="594">
@@ -9970,7 +9970,7 @@
         <v>83.748253</v>
       </c>
       <c r="C597" t="n">
-        <v>111.799789</v>
+        <v>111.799797</v>
       </c>
     </row>
     <row r="598">
@@ -9992,7 +9992,7 @@
         <v>86.128693</v>
       </c>
       <c r="C599" t="n">
-        <v>116.656509</v>
+        <v>116.656517</v>
       </c>
     </row>
     <row r="600">
@@ -10014,7 +10014,7 @@
         <v>89.256706</v>
       </c>
       <c r="C601" t="n">
-        <v>123.893982</v>
+        <v>123.89399</v>
       </c>
     </row>
     <row r="602">
@@ -10069,7 +10069,7 @@
         <v>86.42379</v>
       </c>
       <c r="C606" t="n">
-        <v>117.704041</v>
+        <v>117.704048</v>
       </c>
     </row>
     <row r="607">
@@ -10091,7 +10091,7 @@
         <v>87.663193</v>
       </c>
       <c r="C608" t="n">
-        <v>120.751396</v>
+        <v>120.751404</v>
       </c>
     </row>
     <row r="609">
@@ -10157,7 +10157,7 @@
         <v>87.466461</v>
       </c>
       <c r="C614" t="n">
-        <v>117.704041</v>
+        <v>117.704048</v>
       </c>
     </row>
     <row r="615">
@@ -10201,7 +10201,7 @@
         <v>86.836922</v>
       </c>
       <c r="C618" t="n">
-        <v>117.13266</v>
+        <v>117.132668</v>
       </c>
     </row>
     <row r="619">
@@ -10322,7 +10322,7 @@
         <v>100.185097</v>
       </c>
       <c r="C629" t="n">
-        <v>124.465355</v>
+        <v>124.465363</v>
       </c>
     </row>
     <row r="630">
@@ -10333,7 +10333,7 @@
         <v>100.185097</v>
       </c>
       <c r="C630" t="n">
-        <v>125.512886</v>
+        <v>125.512894</v>
       </c>
     </row>
     <row r="631">
@@ -10355,7 +10355,7 @@
         <v>104.267265</v>
       </c>
       <c r="C632" t="n">
-        <v>125.036736</v>
+        <v>125.036743</v>
       </c>
     </row>
     <row r="633">
@@ -10388,7 +10388,7 @@
         <v>103.72625</v>
       </c>
       <c r="C635" t="n">
-        <v>125.322433</v>
+        <v>125.322441</v>
       </c>
     </row>
     <row r="636">
@@ -10399,7 +10399,7 @@
         <v>104.218079</v>
       </c>
       <c r="C636" t="n">
-        <v>124.941498</v>
+        <v>124.941505</v>
       </c>
     </row>
     <row r="637">
@@ -10410,7 +10410,7 @@
         <v>102.250771</v>
       </c>
       <c r="C637" t="n">
-        <v>122.655998</v>
+        <v>122.655991</v>
       </c>
     </row>
     <row r="638">
@@ -10465,7 +10465,7 @@
         <v>101.168755</v>
       </c>
       <c r="C642" t="n">
-        <v>115.894676</v>
+        <v>115.894669</v>
       </c>
     </row>
     <row r="643">
@@ -10476,7 +10476,7 @@
         <v>100.480202</v>
       </c>
       <c r="C643" t="n">
-        <v>116.75174</v>
+        <v>116.751747</v>
       </c>
     </row>
     <row r="644">
@@ -10487,7 +10487,7 @@
         <v>100.922836</v>
       </c>
       <c r="C644" t="n">
-        <v>115.989914</v>
+        <v>115.989906</v>
       </c>
     </row>
     <row r="645">
@@ -10498,7 +10498,7 @@
         <v>100.332649</v>
       </c>
       <c r="C645" t="n">
-        <v>115.418526</v>
+        <v>115.418518</v>
       </c>
     </row>
     <row r="646">
@@ -10564,7 +10564,7 @@
         <v>102.349144</v>
       </c>
       <c r="C651" t="n">
-        <v>113.609169</v>
+        <v>113.609161</v>
       </c>
     </row>
     <row r="652">
@@ -10608,7 +10608,7 @@
         <v>96.496399</v>
       </c>
       <c r="C655" t="n">
-        <v>110.466576</v>
+        <v>110.466583</v>
       </c>
     </row>
     <row r="656">
@@ -10619,7 +10619,7 @@
         <v>97.047249</v>
       </c>
       <c r="C656" t="n">
-        <v>109.799973</v>
+        <v>109.799965</v>
       </c>
     </row>
     <row r="657">
@@ -10652,7 +10652,7 @@
         <v>97.971878</v>
       </c>
       <c r="C659" t="n">
-        <v>107.228767</v>
+        <v>107.22876</v>
       </c>
     </row>
     <row r="660">
@@ -10663,7 +10663,7 @@
         <v>96.594765</v>
       </c>
       <c r="C660" t="n">
-        <v>106.847847</v>
+        <v>106.847839</v>
       </c>
     </row>
     <row r="661">
@@ -10696,7 +10696,7 @@
         <v>92.463425</v>
       </c>
       <c r="C663" t="n">
-        <v>95.705963</v>
+        <v>95.705956</v>
       </c>
     </row>
     <row r="664">
@@ -10751,7 +10751,7 @@
         <v>87.859924</v>
       </c>
       <c r="C668" t="n">
-        <v>96.467796</v>
+        <v>96.467804</v>
       </c>
     </row>
     <row r="669">
@@ -10762,7 +10762,7 @@
         <v>88.627174</v>
       </c>
       <c r="C669" t="n">
-        <v>98.181938</v>
+        <v>98.181931</v>
       </c>
     </row>
     <row r="670">
@@ -10773,7 +10773,7 @@
         <v>88.587822</v>
       </c>
       <c r="C670" t="n">
-        <v>99.705605</v>
+        <v>99.705612</v>
       </c>
     </row>
     <row r="671">
@@ -10784,7 +10784,7 @@
         <v>86.502487</v>
       </c>
       <c r="C671" t="n">
-        <v>99.610382</v>
+        <v>99.610374</v>
       </c>
     </row>
     <row r="672">
@@ -10806,7 +10806,7 @@
         <v>86.187714</v>
       </c>
       <c r="C673" t="n">
-        <v>99.134232</v>
+        <v>99.134224</v>
       </c>
     </row>
     <row r="674">
@@ -10817,7 +10817,7 @@
         <v>86.384445</v>
       </c>
       <c r="C674" t="n">
-        <v>97.896248</v>
+        <v>97.89624</v>
       </c>
     </row>
     <row r="675">
@@ -10839,7 +10839,7 @@
         <v>83.0597</v>
       </c>
       <c r="C676" t="n">
-        <v>96.372559</v>
+        <v>96.372566</v>
       </c>
     </row>
     <row r="677">
@@ -10850,7 +10850,7 @@
         <v>80.659584</v>
       </c>
       <c r="C677" t="n">
-        <v>94.372734</v>
+        <v>94.372742</v>
       </c>
     </row>
     <row r="678">
@@ -10872,7 +10872,7 @@
         <v>81.938332</v>
       </c>
       <c r="C679" t="n">
-        <v>93.563293</v>
+        <v>93.563286</v>
       </c>
     </row>
     <row r="680">
@@ -10927,7 +10927,7 @@
         <v>84.692558</v>
       </c>
       <c r="C684" t="n">
-        <v>94.848885</v>
+        <v>94.848892</v>
       </c>
     </row>
     <row r="685">
@@ -10949,7 +10949,7 @@
         <v>83.453156</v>
       </c>
       <c r="C686" t="n">
-        <v>103.133881</v>
+        <v>103.133888</v>
       </c>
     </row>
     <row r="687">
@@ -10960,7 +10960,7 @@
         <v>85.57785</v>
       </c>
       <c r="C687" t="n">
-        <v>103.133881</v>
+        <v>103.133888</v>
       </c>
     </row>
     <row r="688">
@@ -10993,7 +10993,7 @@
         <v>89.453445</v>
       </c>
       <c r="C690" t="n">
-        <v>103.990952</v>
+        <v>103.990944</v>
       </c>
     </row>
     <row r="691">
@@ -11070,7 +11070,7 @@
         <v>91.401077</v>
       </c>
       <c r="C697" t="n">
-        <v>103.990952</v>
+        <v>103.990944</v>
       </c>
     </row>
     <row r="698">
@@ -11158,7 +11158,7 @@
         <v>84.161385</v>
       </c>
       <c r="C705" t="n">
-        <v>102.372047</v>
+        <v>102.37204</v>
       </c>
     </row>
     <row r="706">
@@ -11202,7 +11202,7 @@
         <v>86.974632</v>
       </c>
       <c r="C709" t="n">
-        <v>111.799789</v>
+        <v>111.799797</v>
       </c>
     </row>
     <row r="710">
@@ -11224,7 +11224,7 @@
         <v>88.627174</v>
       </c>
       <c r="C711" t="n">
-        <v>109.514275</v>
+        <v>109.514282</v>
       </c>
     </row>
     <row r="712">
@@ -11290,7 +11290,7 @@
         <v>102.447502</v>
       </c>
       <c r="C717" t="n">
-        <v>124.274902</v>
+        <v>124.274895</v>
       </c>
     </row>
     <row r="718">
@@ -11301,7 +11301,7 @@
         <v>102.890144</v>
       </c>
       <c r="C718" t="n">
-        <v>126.274734</v>
+        <v>126.274727</v>
       </c>
     </row>
     <row r="719">
@@ -11356,7 +11356,7 @@
         <v>103.234421</v>
       </c>
       <c r="C723" t="n">
-        <v>124.751053</v>
+        <v>124.751045</v>
       </c>
     </row>
     <row r="724">
@@ -11378,7 +11378,7 @@
         <v>102.98851</v>
       </c>
       <c r="C725" t="n">
-        <v>124.751053</v>
+        <v>124.751045</v>
       </c>
     </row>
     <row r="726">
@@ -11422,7 +11422,7 @@
         <v>102.250771</v>
       </c>
       <c r="C729" t="n">
-        <v>124.751053</v>
+        <v>124.751045</v>
       </c>
     </row>
     <row r="730">
@@ -11444,7 +11444,7 @@
         <v>101.513031</v>
       </c>
       <c r="C731" t="n">
-        <v>124.274902</v>
+        <v>124.274895</v>
       </c>
     </row>
     <row r="732">
@@ -11543,7 +11543,7 @@
         <v>94.529091</v>
       </c>
       <c r="C740" t="n">
-        <v>121.608459</v>
+        <v>121.608467</v>
       </c>
     </row>
     <row r="741">
@@ -11576,7 +11576,7 @@
         <v>96.870193</v>
       </c>
       <c r="C743" t="n">
-        <v>124.941498</v>
+        <v>124.941505</v>
       </c>
     </row>
     <row r="744">
@@ -11587,7 +11587,7 @@
         <v>99.742462</v>
       </c>
       <c r="C744" t="n">
-        <v>125.989037</v>
+        <v>125.989044</v>
       </c>
     </row>
     <row r="745">
@@ -11620,7 +11620,7 @@
         <v>99.004723</v>
       </c>
       <c r="C747" t="n">
-        <v>128.084091</v>
+        <v>128.084106</v>
       </c>
     </row>
     <row r="748">
@@ -11653,7 +11653,7 @@
         <v>103.627884</v>
       </c>
       <c r="C750" t="n">
-        <v>128.941147</v>
+        <v>128.941162</v>
       </c>
     </row>
     <row r="751">
@@ -11664,7 +11664,7 @@
         <v>108.054329</v>
       </c>
       <c r="C751" t="n">
-        <v>132.369446</v>
+        <v>132.369431</v>
       </c>
     </row>
     <row r="752">
@@ -11851,7 +11851,7 @@
         <v>103.480339</v>
       </c>
       <c r="C768" t="n">
-        <v>121.608459</v>
+        <v>121.608467</v>
       </c>
     </row>
     <row r="769">
@@ -11862,7 +11862,7 @@
         <v>104.070534</v>
       </c>
       <c r="C769" t="n">
-        <v>123.893982</v>
+        <v>123.89399</v>
       </c>
     </row>
     <row r="770">
@@ -11939,7 +11939,7 @@
         <v>107.955963</v>
       </c>
       <c r="C776" t="n">
-        <v>126.750885</v>
+        <v>126.750877</v>
       </c>
     </row>
     <row r="777">
@@ -11983,7 +11983,7 @@
         <v>110.857735</v>
       </c>
       <c r="C780" t="n">
-        <v>132.369446</v>
+        <v>132.369431</v>
       </c>
     </row>
     <row r="781">
@@ -12016,7 +12016,7 @@
         <v>111.644661</v>
       </c>
       <c r="C783" t="n">
-        <v>132.940826</v>
+        <v>132.940811</v>
       </c>
     </row>
     <row r="784">
@@ -12027,7 +12027,7 @@
         <v>111.447937</v>
       </c>
       <c r="C784" t="n">
-        <v>134.178787</v>
+        <v>134.178802</v>
       </c>
     </row>
     <row r="785">
@@ -12038,7 +12038,7 @@
         <v>112.333221</v>
       </c>
       <c r="C785" t="n">
-        <v>134.940628</v>
+        <v>134.940643</v>
       </c>
     </row>
     <row r="786">
@@ -12049,7 +12049,7 @@
         <v>115.087448</v>
       </c>
       <c r="C786" t="n">
-        <v>135.226334</v>
+        <v>135.226318</v>
       </c>
     </row>
     <row r="787">
@@ -12071,7 +12071,7 @@
         <v>114.595627</v>
       </c>
       <c r="C788" t="n">
-        <v>136.654785</v>
+        <v>136.65477</v>
       </c>
     </row>
     <row r="789">
@@ -12093,7 +12093,7 @@
         <v>116.366203</v>
       </c>
       <c r="C790" t="n">
-        <v>153.319992</v>
+        <v>153.319977</v>
       </c>
     </row>
     <row r="791">
@@ -12104,7 +12104,7 @@
         <v>116.218651</v>
       </c>
       <c r="C791" t="n">
-        <v>152.367691</v>
+        <v>152.367706</v>
       </c>
     </row>
     <row r="792">
@@ -12115,7 +12115,7 @@
         <v>118.82534</v>
       </c>
       <c r="C792" t="n">
-        <v>151.129715</v>
+        <v>151.1297</v>
       </c>
     </row>
     <row r="793">
@@ -12170,7 +12170,7 @@
         <v>120.54673</v>
       </c>
       <c r="C797" t="n">
-        <v>154.938904</v>
+        <v>154.938889</v>
       </c>
     </row>
     <row r="798">
@@ -12181,7 +12181,7 @@
         <v>120.497543</v>
       </c>
       <c r="C798" t="n">
-        <v>154.272293</v>
+        <v>154.272278</v>
       </c>
     </row>
     <row r="799">
@@ -12192,7 +12192,7 @@
         <v>120.349998</v>
       </c>
       <c r="C799" t="n">
-        <v>155.415054</v>
+        <v>155.415039</v>
       </c>
     </row>
     <row r="800">
@@ -12247,7 +12247,7 @@
         <v>118.25</v>
       </c>
       <c r="C804" t="n">
-        <v>155.224594</v>
+        <v>155.224579</v>
       </c>
     </row>
     <row r="805">
@@ -12258,7 +12258,7 @@
         <v>119.300003</v>
       </c>
       <c r="C805" t="n">
-        <v>159.986084</v>
+        <v>159.986069</v>
       </c>
     </row>
     <row r="806">

--- a/Danske aktiekurser.xlsx
+++ b/Danske aktiekurser.xlsx
@@ -3422,7 +3422,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>189.887939</v>
+        <v>189.887909</v>
       </c>
       <c r="C2" t="n">
         <v>191.282883</v>
@@ -3433,10 +3433,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>188.870789</v>
+        <v>188.870804</v>
       </c>
       <c r="C3" t="n">
-        <v>190.82489</v>
+        <v>190.824905</v>
       </c>
     </row>
     <row r="4">
@@ -3444,10 +3444,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>190.513855</v>
+        <v>190.51384</v>
       </c>
       <c r="C4" t="n">
-        <v>192.351486</v>
+        <v>192.351501</v>
       </c>
     </row>
     <row r="5">
@@ -3455,10 +3455,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="n">
-        <v>190.74855</v>
+        <v>190.748566</v>
       </c>
       <c r="C5" t="n">
-        <v>192.046188</v>
+        <v>192.046173</v>
       </c>
     </row>
     <row r="6">
@@ -3466,7 +3466,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="n">
-        <v>191.843903</v>
+        <v>191.843918</v>
       </c>
       <c r="C6" t="n">
         <v>191.74086</v>
@@ -3480,7 +3480,7 @@
         <v>190.357361</v>
       </c>
       <c r="C7" t="n">
-        <v>191.588211</v>
+        <v>191.588196</v>
       </c>
     </row>
     <row r="8">
@@ -3521,10 +3521,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="n">
-        <v>196.303574</v>
+        <v>196.303589</v>
       </c>
       <c r="C11" t="n">
-        <v>193.572784</v>
+        <v>193.5728</v>
       </c>
     </row>
     <row r="12">
@@ -3532,10 +3532,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="n">
-        <v>195.521179</v>
+        <v>195.521194</v>
       </c>
       <c r="C12" t="n">
-        <v>192.50415</v>
+        <v>192.504166</v>
       </c>
     </row>
     <row r="13">
@@ -3543,7 +3543,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="n">
-        <v>195.990616</v>
+        <v>195.990631</v>
       </c>
       <c r="C13" t="n">
         <v>191.435547</v>
@@ -3557,7 +3557,7 @@
         <v>191.452728</v>
       </c>
       <c r="C14" t="n">
-        <v>191.588211</v>
+        <v>191.588196</v>
       </c>
     </row>
     <row r="15">
@@ -3587,7 +3587,7 @@
         <v>18</v>
       </c>
       <c r="B17" t="n">
-        <v>192.078644</v>
+        <v>192.078659</v>
       </c>
       <c r="C17" t="n">
         <v>191.435547</v>
@@ -3598,10 +3598,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="n">
-        <v>192.078644</v>
+        <v>192.078659</v>
       </c>
       <c r="C18" t="n">
-        <v>190.214249</v>
+        <v>190.214264</v>
       </c>
     </row>
     <row r="19">
@@ -3612,7 +3612,7 @@
         <v>186.680099</v>
       </c>
       <c r="C19" t="n">
-        <v>185.634445</v>
+        <v>185.63446</v>
       </c>
     </row>
     <row r="20">
@@ -3620,7 +3620,7 @@
         <v>21</v>
       </c>
       <c r="B20" t="n">
-        <v>189.966156</v>
+        <v>189.966171</v>
       </c>
       <c r="C20" t="n">
         <v>187.466385</v>
@@ -3631,7 +3631,7 @@
         <v>22</v>
       </c>
       <c r="B21" t="n">
-        <v>191.843903</v>
+        <v>191.843918</v>
       </c>
       <c r="C21" t="n">
         <v>187.771698</v>
@@ -3642,7 +3642,7 @@
         <v>23</v>
       </c>
       <c r="B22" t="n">
-        <v>189.966156</v>
+        <v>189.966171</v>
       </c>
       <c r="C22" t="n">
         <v>185.787109</v>
@@ -3653,10 +3653,10 @@
         <v>24</v>
       </c>
       <c r="B23" t="n">
-        <v>190.513855</v>
+        <v>190.51384</v>
       </c>
       <c r="C23" t="n">
-        <v>187.008408</v>
+        <v>187.008377</v>
       </c>
     </row>
     <row r="24">
@@ -3664,7 +3664,7 @@
         <v>25</v>
       </c>
       <c r="B24" t="n">
-        <v>189.418503</v>
+        <v>189.418488</v>
       </c>
       <c r="C24" t="n">
         <v>187.466385</v>
@@ -3678,7 +3678,7 @@
         <v>191.609192</v>
       </c>
       <c r="C25" t="n">
-        <v>187.619034</v>
+        <v>187.619019</v>
       </c>
     </row>
     <row r="26">
@@ -3697,7 +3697,7 @@
         <v>28</v>
       </c>
       <c r="B27" t="n">
-        <v>186.758331</v>
+        <v>186.758316</v>
       </c>
       <c r="C27" t="n">
         <v>183.9552</v>
@@ -3708,7 +3708,7 @@
         <v>29</v>
       </c>
       <c r="B28" t="n">
-        <v>189.262009</v>
+        <v>189.261993</v>
       </c>
       <c r="C28" t="n">
         <v>188.687653</v>
@@ -3722,7 +3722,7 @@
         <v>188.557846</v>
       </c>
       <c r="C29" t="n">
-        <v>187.161072</v>
+        <v>187.161057</v>
       </c>
     </row>
     <row r="30">
@@ -3741,7 +3741,7 @@
         <v>32</v>
       </c>
       <c r="B31" t="n">
-        <v>189.966156</v>
+        <v>189.966171</v>
       </c>
       <c r="C31" t="n">
         <v>188.687653</v>
@@ -3752,10 +3752,10 @@
         <v>33</v>
       </c>
       <c r="B32" t="n">
-        <v>188.949066</v>
+        <v>188.949051</v>
       </c>
       <c r="C32" t="n">
-        <v>188.535004</v>
+        <v>188.535019</v>
       </c>
     </row>
     <row r="33">
@@ -3785,10 +3785,10 @@
         <v>36</v>
       </c>
       <c r="B35" t="n">
-        <v>194.660568</v>
+        <v>194.660553</v>
       </c>
       <c r="C35" t="n">
-        <v>196.625992</v>
+        <v>196.625977</v>
       </c>
     </row>
     <row r="36">
@@ -3799,7 +3799,7 @@
         <v>194.895279</v>
       </c>
       <c r="C36" t="n">
-        <v>196.168015</v>
+        <v>196.167999</v>
       </c>
     </row>
     <row r="37">
@@ -3807,10 +3807,10 @@
         <v>38</v>
       </c>
       <c r="B37" t="n">
-        <v>191.687439</v>
+        <v>191.687424</v>
       </c>
       <c r="C37" t="n">
-        <v>185.481796</v>
+        <v>185.481781</v>
       </c>
     </row>
     <row r="38">
@@ -3818,10 +3818,10 @@
         <v>39</v>
       </c>
       <c r="B38" t="n">
-        <v>192.861038</v>
+        <v>192.861023</v>
       </c>
       <c r="C38" t="n">
-        <v>182.428589</v>
+        <v>182.428604</v>
       </c>
     </row>
     <row r="39">
@@ -3829,7 +3829,7 @@
         <v>40</v>
       </c>
       <c r="B39" t="n">
-        <v>193.252243</v>
+        <v>193.252258</v>
       </c>
       <c r="C39" t="n">
         <v>180.444016</v>
@@ -3840,7 +3840,7 @@
         <v>41</v>
       </c>
       <c r="B40" t="n">
-        <v>194.504074</v>
+        <v>194.504089</v>
       </c>
       <c r="C40" t="n">
         <v>186.245102</v>
@@ -3865,7 +3865,7 @@
         <v>189.731445</v>
       </c>
       <c r="C42" t="n">
-        <v>183.191895</v>
+        <v>183.19191</v>
       </c>
     </row>
     <row r="43">
@@ -3873,7 +3873,7 @@
         <v>44</v>
       </c>
       <c r="B43" t="n">
-        <v>192.626297</v>
+        <v>192.626328</v>
       </c>
       <c r="C43" t="n">
         <v>182.733917</v>
@@ -3884,10 +3884,10 @@
         <v>45</v>
       </c>
       <c r="B44" t="n">
-        <v>190.74855</v>
+        <v>190.748566</v>
       </c>
       <c r="C44" t="n">
-        <v>181.665298</v>
+        <v>181.665314</v>
       </c>
     </row>
     <row r="45">
@@ -3917,10 +3917,10 @@
         <v>48</v>
       </c>
       <c r="B47" t="n">
-        <v>189.34024</v>
+        <v>189.340256</v>
       </c>
       <c r="C47" t="n">
-        <v>180.749344</v>
+        <v>180.749359</v>
       </c>
     </row>
     <row r="48">
@@ -3931,7 +3931,7 @@
         <v>191.53096</v>
       </c>
       <c r="C48" t="n">
-        <v>180.749344</v>
+        <v>180.749359</v>
       </c>
     </row>
     <row r="49">
@@ -3939,10 +3939,10 @@
         <v>50</v>
       </c>
       <c r="B49" t="n">
-        <v>191.217987</v>
+        <v>191.218002</v>
       </c>
       <c r="C49" t="n">
-        <v>182.428589</v>
+        <v>182.428604</v>
       </c>
     </row>
     <row r="50">
@@ -3950,10 +3950,10 @@
         <v>51</v>
       </c>
       <c r="B50" t="n">
-        <v>192.626297</v>
+        <v>192.626328</v>
       </c>
       <c r="C50" t="n">
-        <v>180.901993</v>
+        <v>180.902008</v>
       </c>
     </row>
     <row r="51">
@@ -3964,7 +3964,7 @@
         <v>193.095764</v>
       </c>
       <c r="C51" t="n">
-        <v>180.291367</v>
+        <v>180.291351</v>
       </c>
     </row>
     <row r="52">
@@ -3986,7 +3986,7 @@
         <v>190.983292</v>
       </c>
       <c r="C53" t="n">
-        <v>180.138702</v>
+        <v>180.138718</v>
       </c>
     </row>
     <row r="54">
@@ -3997,7 +3997,7 @@
         <v>191.061508</v>
       </c>
       <c r="C54" t="n">
-        <v>183.113083</v>
+        <v>183.113098</v>
       </c>
     </row>
     <row r="55">
@@ -4016,10 +4016,10 @@
         <v>57</v>
       </c>
       <c r="B56" t="n">
-        <v>191.795761</v>
+        <v>191.795746</v>
       </c>
       <c r="C56" t="n">
-        <v>183.594116</v>
+        <v>183.594131</v>
       </c>
     </row>
     <row r="57">
@@ -4030,7 +4030,7 @@
         <v>191.714172</v>
       </c>
       <c r="C57" t="n">
-        <v>185.35791</v>
+        <v>185.357925</v>
       </c>
     </row>
     <row r="58">
@@ -4041,7 +4041,7 @@
         <v>190.572052</v>
       </c>
       <c r="C58" t="n">
-        <v>184.075165</v>
+        <v>184.07518</v>
       </c>
     </row>
     <row r="59">
@@ -4049,10 +4049,10 @@
         <v>60</v>
       </c>
       <c r="B59" t="n">
-        <v>186.493027</v>
+        <v>186.493011</v>
       </c>
       <c r="C59" t="n">
-        <v>181.349289</v>
+        <v>181.349304</v>
       </c>
     </row>
     <row r="60">
@@ -4060,7 +4060,7 @@
         <v>61</v>
       </c>
       <c r="B60" t="n">
-        <v>186.00354</v>
+        <v>186.003525</v>
       </c>
       <c r="C60" t="n">
         <v>182.632065</v>
@@ -4074,7 +4074,7 @@
         <v>184.208771</v>
       </c>
       <c r="C61" t="n">
-        <v>181.669998</v>
+        <v>181.670013</v>
       </c>
     </row>
     <row r="62">
@@ -4148,7 +4148,7 @@
         <v>69</v>
       </c>
       <c r="B68" t="n">
-        <v>182.985046</v>
+        <v>182.985062</v>
       </c>
       <c r="C68" t="n">
         <v>180.868271</v>
@@ -4162,7 +4162,7 @@
         <v>183.39296</v>
       </c>
       <c r="C69" t="n">
-        <v>180.547577</v>
+        <v>180.547592</v>
       </c>
     </row>
     <row r="70">
@@ -4181,7 +4181,7 @@
         <v>72</v>
       </c>
       <c r="B71" t="n">
-        <v>180.619217</v>
+        <v>180.619232</v>
       </c>
       <c r="C71" t="n">
         <v>184.395844</v>
@@ -4195,7 +4195,7 @@
         <v>180.211304</v>
       </c>
       <c r="C72" t="n">
-        <v>182.311356</v>
+        <v>182.311371</v>
       </c>
     </row>
     <row r="73">
@@ -4214,10 +4214,10 @@
         <v>75</v>
       </c>
       <c r="B74" t="n">
-        <v>181.9245</v>
+        <v>181.924515</v>
       </c>
       <c r="C74" t="n">
-        <v>184.075165</v>
+        <v>184.07518</v>
       </c>
     </row>
     <row r="75">
@@ -4228,7 +4228,7 @@
         <v>183.637711</v>
       </c>
       <c r="C75" t="n">
-        <v>188.083771</v>
+        <v>188.083755</v>
       </c>
     </row>
     <row r="76">
@@ -4261,7 +4261,7 @@
         <v>183.229797</v>
       </c>
       <c r="C78" t="n">
-        <v>192.894104</v>
+        <v>192.894089</v>
       </c>
     </row>
     <row r="79">
@@ -4280,7 +4280,7 @@
         <v>81</v>
       </c>
       <c r="B80" t="n">
-        <v>178.498138</v>
+        <v>178.498123</v>
       </c>
       <c r="C80" t="n">
         <v>187.602737</v>
@@ -4291,7 +4291,7 @@
         <v>82</v>
       </c>
       <c r="B81" t="n">
-        <v>179.069183</v>
+        <v>179.069199</v>
       </c>
       <c r="C81" t="n">
         <v>186.319977</v>
@@ -4302,7 +4302,7 @@
         <v>83</v>
       </c>
       <c r="B82" t="n">
-        <v>175.72438</v>
+        <v>175.724396</v>
       </c>
       <c r="C82" t="n">
         <v>183.433792</v>
@@ -4316,7 +4316,7 @@
         <v>177.763901</v>
       </c>
       <c r="C83" t="n">
-        <v>181.669998</v>
+        <v>181.670013</v>
       </c>
     </row>
     <row r="84">
@@ -4327,7 +4327,7 @@
         <v>177.84549</v>
       </c>
       <c r="C84" t="n">
-        <v>184.716507</v>
+        <v>184.716522</v>
       </c>
     </row>
     <row r="85">
@@ -4360,7 +4360,7 @@
         <v>175.316483</v>
       </c>
       <c r="C87" t="n">
-        <v>184.235504</v>
+        <v>184.235519</v>
       </c>
     </row>
     <row r="88">
@@ -4368,10 +4368,10 @@
         <v>89</v>
       </c>
       <c r="B88" t="n">
-        <v>176.784927</v>
+        <v>176.784943</v>
       </c>
       <c r="C88" t="n">
-        <v>187.121689</v>
+        <v>187.121704</v>
       </c>
     </row>
     <row r="89">
@@ -4390,7 +4390,7 @@
         <v>91</v>
       </c>
       <c r="B90" t="n">
-        <v>174.990173</v>
+        <v>174.990158</v>
       </c>
       <c r="C90" t="n">
         <v>186.640656</v>
@@ -4404,7 +4404,7 @@
         <v>175.561234</v>
       </c>
       <c r="C91" t="n">
-        <v>185.999283</v>
+        <v>185.999298</v>
       </c>
     </row>
     <row r="92">
@@ -4415,7 +4415,7 @@
         <v>174.255951</v>
       </c>
       <c r="C92" t="n">
-        <v>183.594116</v>
+        <v>183.594131</v>
       </c>
     </row>
     <row r="93">
@@ -4434,10 +4434,10 @@
         <v>95</v>
       </c>
       <c r="B94" t="n">
-        <v>176.458603</v>
+        <v>176.458618</v>
       </c>
       <c r="C94" t="n">
-        <v>184.075165</v>
+        <v>184.07518</v>
       </c>
     </row>
     <row r="95">
@@ -4448,7 +4448,7 @@
         <v>176.132294</v>
       </c>
       <c r="C95" t="n">
-        <v>185.35791</v>
+        <v>185.357925</v>
       </c>
     </row>
     <row r="96">
@@ -4459,7 +4459,7 @@
         <v>176.94809</v>
       </c>
       <c r="C96" t="n">
-        <v>185.037231</v>
+        <v>185.037247</v>
       </c>
     </row>
     <row r="97">
@@ -4481,7 +4481,7 @@
         <v>173.276978</v>
       </c>
       <c r="C98" t="n">
-        <v>181.669998</v>
+        <v>181.670013</v>
       </c>
     </row>
     <row r="99">
@@ -4500,7 +4500,7 @@
         <v>101</v>
       </c>
       <c r="B100" t="n">
-        <v>168.953201</v>
+        <v>168.953217</v>
       </c>
       <c r="C100" t="n">
         <v>174.935547</v>
@@ -4511,10 +4511,10 @@
         <v>102</v>
       </c>
       <c r="B101" t="n">
-        <v>168.871628</v>
+        <v>168.871643</v>
       </c>
       <c r="C101" t="n">
-        <v>175.737244</v>
+        <v>175.737259</v>
       </c>
     </row>
     <row r="102">
@@ -4536,7 +4536,7 @@
         <v>176.295456</v>
       </c>
       <c r="C103" t="n">
-        <v>178.302765</v>
+        <v>178.30278</v>
       </c>
     </row>
     <row r="104">
@@ -4555,7 +4555,7 @@
         <v>106</v>
       </c>
       <c r="B105" t="n">
-        <v>175.72438</v>
+        <v>175.724396</v>
       </c>
       <c r="C105" t="n">
         <v>177.982071</v>
@@ -4580,7 +4580,7 @@
         <v>174.092773</v>
       </c>
       <c r="C107" t="n">
-        <v>175.737244</v>
+        <v>175.737259</v>
       </c>
     </row>
     <row r="108">
@@ -4599,7 +4599,7 @@
         <v>110</v>
       </c>
       <c r="B109" t="n">
-        <v>178.498138</v>
+        <v>178.498123</v>
       </c>
       <c r="C109" t="n">
         <v>177.180359</v>
@@ -4613,7 +4613,7 @@
         <v>178.253387</v>
       </c>
       <c r="C110" t="n">
-        <v>177.340698</v>
+        <v>177.340714</v>
       </c>
     </row>
     <row r="111">
@@ -4621,7 +4621,7 @@
         <v>112</v>
       </c>
       <c r="B111" t="n">
-        <v>178.742874</v>
+        <v>178.742889</v>
       </c>
       <c r="C111" t="n">
         <v>178.623459</v>
@@ -4643,7 +4643,7 @@
         <v>114</v>
       </c>
       <c r="B113" t="n">
-        <v>173.929626</v>
+        <v>173.929611</v>
       </c>
       <c r="C113" t="n">
         <v>175.897598</v>
@@ -4654,7 +4654,7 @@
         <v>115</v>
       </c>
       <c r="B114" t="n">
-        <v>171.971695</v>
+        <v>171.97168</v>
       </c>
       <c r="C114" t="n">
         <v>175.095886</v>
@@ -4665,7 +4665,7 @@
         <v>116</v>
       </c>
       <c r="B115" t="n">
-        <v>170.258499</v>
+        <v>170.258484</v>
       </c>
       <c r="C115" t="n">
         <v>175.416565</v>
@@ -4698,7 +4698,7 @@
         <v>119</v>
       </c>
       <c r="B118" t="n">
-        <v>166.0979</v>
+        <v>166.097916</v>
       </c>
       <c r="C118" t="n">
         <v>174.294144</v>
@@ -4723,7 +4723,7 @@
         <v>162.018875</v>
       </c>
       <c r="C120" t="n">
-        <v>173.652786</v>
+        <v>173.652802</v>
       </c>
     </row>
     <row r="121">
@@ -4734,7 +4734,7 @@
         <v>162.018875</v>
       </c>
       <c r="C121" t="n">
-        <v>174.454514</v>
+        <v>174.454498</v>
       </c>
     </row>
     <row r="122">
@@ -4775,10 +4775,10 @@
         <v>126</v>
       </c>
       <c r="B125" t="n">
-        <v>160.999115</v>
+        <v>160.99913</v>
       </c>
       <c r="C125" t="n">
-        <v>179.264832</v>
+        <v>179.264847</v>
       </c>
     </row>
     <row r="126">
@@ -4800,7 +4800,7 @@
         <v>155.533218</v>
       </c>
       <c r="C127" t="n">
-        <v>177.661377</v>
+        <v>177.661392</v>
       </c>
     </row>
     <row r="128">
@@ -4811,7 +4811,7 @@
         <v>157.001663</v>
       </c>
       <c r="C128" t="n">
-        <v>180.226898</v>
+        <v>180.226913</v>
       </c>
     </row>
     <row r="129">
@@ -4863,7 +4863,7 @@
         <v>134</v>
       </c>
       <c r="B133" t="n">
-        <v>158.06221</v>
+        <v>158.062225</v>
       </c>
       <c r="C133" t="n">
         <v>181.990692</v>
@@ -4885,10 +4885,10 @@
         <v>136</v>
       </c>
       <c r="B135" t="n">
-        <v>144.642227</v>
+        <v>144.642212</v>
       </c>
       <c r="C135" t="n">
-        <v>177.661377</v>
+        <v>177.661392</v>
       </c>
     </row>
     <row r="136">
@@ -4896,7 +4896,7 @@
         <v>137</v>
       </c>
       <c r="B136" t="n">
-        <v>148.394913</v>
+        <v>148.394928</v>
       </c>
       <c r="C136" t="n">
         <v>179.74585</v>
@@ -4918,10 +4918,10 @@
         <v>139</v>
       </c>
       <c r="B138" t="n">
-        <v>149.985764</v>
+        <v>149.985748</v>
       </c>
       <c r="C138" t="n">
-        <v>181.669998</v>
+        <v>181.670013</v>
       </c>
     </row>
     <row r="139">
@@ -4932,7 +4932,7 @@
         <v>151.94368</v>
       </c>
       <c r="C139" t="n">
-        <v>185.037231</v>
+        <v>185.037247</v>
       </c>
     </row>
     <row r="140">
@@ -4998,7 +4998,7 @@
         <v>149.12915</v>
       </c>
       <c r="C145" t="n">
-        <v>188.083771</v>
+        <v>188.083755</v>
       </c>
     </row>
     <row r="146">
@@ -5006,7 +5006,7 @@
         <v>147</v>
       </c>
       <c r="B146" t="n">
-        <v>146.029099</v>
+        <v>146.029083</v>
       </c>
       <c r="C146" t="n">
         <v>184.395844</v>
@@ -5020,7 +5020,7 @@
         <v>149.12915</v>
       </c>
       <c r="C147" t="n">
-        <v>185.037231</v>
+        <v>185.037247</v>
       </c>
     </row>
     <row r="148">
@@ -5064,7 +5064,7 @@
         <v>148.231766</v>
       </c>
       <c r="C151" t="n">
-        <v>179.264832</v>
+        <v>179.264847</v>
       </c>
     </row>
     <row r="152">
@@ -5083,10 +5083,10 @@
         <v>154</v>
       </c>
       <c r="B153" t="n">
-        <v>150.02652</v>
+        <v>150.026535</v>
       </c>
       <c r="C153" t="n">
-        <v>178.302765</v>
+        <v>178.30278</v>
       </c>
     </row>
     <row r="154">
@@ -5097,7 +5097,7 @@
         <v>147.008057</v>
       </c>
       <c r="C154" t="n">
-        <v>176.538971</v>
+        <v>176.538986</v>
       </c>
     </row>
     <row r="155">
@@ -5127,7 +5127,7 @@
         <v>158</v>
       </c>
       <c r="B157" t="n">
-        <v>149.210739</v>
+        <v>149.210724</v>
       </c>
       <c r="C157" t="n">
         <v>175.095886</v>
@@ -5138,10 +5138,10 @@
         <v>159</v>
       </c>
       <c r="B158" t="n">
-        <v>150.230469</v>
+        <v>150.230484</v>
       </c>
       <c r="C158" t="n">
-        <v>175.737244</v>
+        <v>175.737259</v>
       </c>
     </row>
     <row r="159">
@@ -5152,7 +5152,7 @@
         <v>150.719971</v>
       </c>
       <c r="C159" t="n">
-        <v>177.661377</v>
+        <v>177.661392</v>
       </c>
     </row>
     <row r="160">
@@ -5182,7 +5182,7 @@
         <v>163</v>
       </c>
       <c r="B162" t="n">
-        <v>154.717422</v>
+        <v>154.717407</v>
       </c>
       <c r="C162" t="n">
         <v>175.256226</v>
@@ -5193,7 +5193,7 @@
         <v>164</v>
       </c>
       <c r="B163" t="n">
-        <v>157.817474</v>
+        <v>157.817459</v>
       </c>
       <c r="C163" t="n">
         <v>175.256226</v>
@@ -5204,7 +5204,7 @@
         <v>165</v>
       </c>
       <c r="B164" t="n">
-        <v>156.716156</v>
+        <v>156.716141</v>
       </c>
       <c r="C164" t="n">
         <v>155.614059</v>
@@ -5226,7 +5226,7 @@
         <v>167</v>
       </c>
       <c r="B166" t="n">
-        <v>156.634567</v>
+        <v>156.634552</v>
       </c>
       <c r="C166" t="n">
         <v>151.926147</v>
@@ -5237,7 +5237,7 @@
         <v>168</v>
       </c>
       <c r="B167" t="n">
-        <v>154.146332</v>
+        <v>154.146362</v>
       </c>
       <c r="C167" t="n">
         <v>150.723557</v>
@@ -5259,7 +5259,7 @@
         <v>170</v>
       </c>
       <c r="B169" t="n">
-        <v>144.764603</v>
+        <v>144.764587</v>
       </c>
       <c r="C169" t="n">
         <v>148.398575</v>
@@ -5295,7 +5295,7 @@
         <v>144.397491</v>
       </c>
       <c r="C172" t="n">
-        <v>148.799438</v>
+        <v>148.799423</v>
       </c>
     </row>
     <row r="173">
@@ -5306,7 +5306,7 @@
         <v>140.155304</v>
       </c>
       <c r="C173" t="n">
-        <v>148.799438</v>
+        <v>148.799423</v>
       </c>
     </row>
     <row r="174">
@@ -5314,7 +5314,7 @@
         <v>175</v>
       </c>
       <c r="B174" t="n">
-        <v>139.217133</v>
+        <v>139.217117</v>
       </c>
       <c r="C174" t="n">
         <v>147.837357</v>
@@ -5325,7 +5325,7 @@
         <v>176</v>
       </c>
       <c r="B175" t="n">
-        <v>137.096039</v>
+        <v>137.096024</v>
       </c>
       <c r="C175" t="n">
         <v>148.398575</v>
@@ -5339,7 +5339,7 @@
         <v>140.114502</v>
       </c>
       <c r="C176" t="n">
-        <v>148.879578</v>
+        <v>148.879593</v>
       </c>
     </row>
     <row r="177">
@@ -5347,7 +5347,7 @@
         <v>178</v>
       </c>
       <c r="B177" t="n">
-        <v>138.646057</v>
+        <v>138.646042</v>
       </c>
       <c r="C177" t="n">
         <v>147.917542</v>
@@ -5413,7 +5413,7 @@
         <v>184</v>
       </c>
       <c r="B183" t="n">
-        <v>135.709167</v>
+        <v>135.709152</v>
       </c>
       <c r="C183" t="n">
         <v>151.364929</v>
@@ -5460,7 +5460,7 @@
         <v>137.626297</v>
       </c>
       <c r="C187" t="n">
-        <v>151.525284</v>
+        <v>151.525269</v>
       </c>
     </row>
     <row r="188">
@@ -5468,10 +5468,10 @@
         <v>189</v>
       </c>
       <c r="B188" t="n">
-        <v>138.238144</v>
+        <v>138.238159</v>
       </c>
       <c r="C188" t="n">
-        <v>152.64769</v>
+        <v>152.647675</v>
       </c>
     </row>
     <row r="189">
@@ -5479,7 +5479,7 @@
         <v>190</v>
       </c>
       <c r="B189" t="n">
-        <v>137.667099</v>
+        <v>137.667084</v>
       </c>
       <c r="C189" t="n">
         <v>150.402878</v>
@@ -5490,10 +5490,10 @@
         <v>191</v>
       </c>
       <c r="B190" t="n">
-        <v>135.627563</v>
+        <v>135.627579</v>
       </c>
       <c r="C190" t="n">
-        <v>149.440811</v>
+        <v>149.440796</v>
       </c>
     </row>
     <row r="191">
@@ -5556,10 +5556,10 @@
         <v>197</v>
       </c>
       <c r="B196" t="n">
-        <v>115.191658</v>
+        <v>115.191666</v>
       </c>
       <c r="C196" t="n">
-        <v>140.782211</v>
+        <v>140.782227</v>
       </c>
     </row>
     <row r="197">
@@ -5567,10 +5567,10 @@
         <v>198</v>
       </c>
       <c r="B197" t="n">
-        <v>115.273254</v>
+        <v>115.273247</v>
       </c>
       <c r="C197" t="n">
-        <v>141.904617</v>
+        <v>141.904633</v>
       </c>
     </row>
     <row r="198">
@@ -5581,7 +5581,7 @@
         <v>113.886383</v>
       </c>
       <c r="C198" t="n">
-        <v>142.546005</v>
+        <v>142.546021</v>
       </c>
     </row>
     <row r="199">
@@ -5589,7 +5589,7 @@
         <v>200</v>
       </c>
       <c r="B199" t="n">
-        <v>115.436401</v>
+        <v>115.436409</v>
       </c>
       <c r="C199" t="n">
         <v>143.588242</v>
@@ -5600,7 +5600,7 @@
         <v>201</v>
       </c>
       <c r="B200" t="n">
-        <v>112.254768</v>
+        <v>112.254776</v>
       </c>
       <c r="C200" t="n">
         <v>143.748581</v>
@@ -5611,7 +5611,7 @@
         <v>202</v>
       </c>
       <c r="B201" t="n">
-        <v>110.704735</v>
+        <v>110.704727</v>
       </c>
       <c r="C201" t="n">
         <v>143.187378</v>
@@ -5644,10 +5644,10 @@
         <v>205</v>
       </c>
       <c r="B204" t="n">
-        <v>103.280907</v>
+        <v>103.280914</v>
       </c>
       <c r="C204" t="n">
-        <v>140.782211</v>
+        <v>140.782227</v>
       </c>
     </row>
     <row r="205">
@@ -5655,7 +5655,7 @@
         <v>206</v>
       </c>
       <c r="B205" t="n">
-        <v>102.50589</v>
+        <v>102.505898</v>
       </c>
       <c r="C205" t="n">
         <v>141.503769</v>
@@ -5680,7 +5680,7 @@
         <v>102.791428</v>
       </c>
       <c r="C207" t="n">
-        <v>140.862396</v>
+        <v>140.862381</v>
       </c>
     </row>
     <row r="208">
@@ -5699,10 +5699,10 @@
         <v>210</v>
       </c>
       <c r="B209" t="n">
-        <v>103.280907</v>
+        <v>103.280914</v>
       </c>
       <c r="C209" t="n">
-        <v>139.90033</v>
+        <v>139.900314</v>
       </c>
     </row>
     <row r="210">
@@ -5713,7 +5713,7 @@
         <v>103.076958</v>
       </c>
       <c r="C210" t="n">
-        <v>122.102119</v>
+        <v>122.102135</v>
       </c>
     </row>
     <row r="211">
@@ -5732,7 +5732,7 @@
         <v>213</v>
       </c>
       <c r="B212" t="n">
-        <v>111.765282</v>
+        <v>111.765274</v>
       </c>
       <c r="C212" t="n">
         <v>127.874512</v>
@@ -5743,7 +5743,7 @@
         <v>214</v>
       </c>
       <c r="B213" t="n">
-        <v>110.337616</v>
+        <v>110.337624</v>
       </c>
       <c r="C213" t="n">
         <v>130.199509</v>
@@ -5765,7 +5765,7 @@
         <v>216</v>
       </c>
       <c r="B215" t="n">
-        <v>117.516708</v>
+        <v>117.516716</v>
       </c>
       <c r="C215" t="n">
         <v>132.524506</v>
@@ -5779,7 +5779,7 @@
         <v>117.027222</v>
       </c>
       <c r="C216" t="n">
-        <v>133.326218</v>
+        <v>133.326202</v>
       </c>
     </row>
     <row r="217">
@@ -5787,7 +5787,7 @@
         <v>218</v>
       </c>
       <c r="B217" t="n">
-        <v>117.598282</v>
+        <v>117.598289</v>
       </c>
       <c r="C217" t="n">
         <v>131.32193</v>
@@ -5798,7 +5798,7 @@
         <v>219</v>
       </c>
       <c r="B218" t="n">
-        <v>116.619324</v>
+        <v>116.619316</v>
       </c>
       <c r="C218" t="n">
         <v>130.440002</v>
@@ -5820,10 +5820,10 @@
         <v>221</v>
       </c>
       <c r="B220" t="n">
-        <v>117.598282</v>
+        <v>117.598289</v>
       </c>
       <c r="C220" t="n">
-        <v>129.237411</v>
+        <v>129.237427</v>
       </c>
     </row>
     <row r="221">
@@ -5842,10 +5842,10 @@
         <v>223</v>
       </c>
       <c r="B222" t="n">
-        <v>111.602119</v>
+        <v>111.602127</v>
       </c>
       <c r="C222" t="n">
-        <v>127.553833</v>
+        <v>127.553818</v>
       </c>
     </row>
     <row r="223">
@@ -5853,7 +5853,7 @@
         <v>224</v>
       </c>
       <c r="B223" t="n">
-        <v>110.500778</v>
+        <v>110.500786</v>
       </c>
       <c r="C223" t="n">
         <v>128.756409</v>
@@ -5864,7 +5864,7 @@
         <v>225</v>
       </c>
       <c r="B224" t="n">
-        <v>106.544136</v>
+        <v>106.544144</v>
       </c>
       <c r="C224" t="n">
         <v>125.950378</v>
@@ -5875,7 +5875,7 @@
         <v>226</v>
       </c>
       <c r="B225" t="n">
-        <v>107.441521</v>
+        <v>107.441513</v>
       </c>
       <c r="C225" t="n">
         <v>127.874512</v>
@@ -5886,7 +5886,7 @@
         <v>227</v>
       </c>
       <c r="B226" t="n">
-        <v>108.461266</v>
+        <v>108.461273</v>
       </c>
       <c r="C226" t="n">
         <v>127.874512</v>
@@ -5897,7 +5897,7 @@
         <v>228</v>
       </c>
       <c r="B227" t="n">
-        <v>108.869171</v>
+        <v>108.869164</v>
       </c>
       <c r="C227" t="n">
         <v>128.275375</v>
@@ -5941,10 +5941,10 @@
         <v>232</v>
       </c>
       <c r="B231" t="n">
-        <v>107.441521</v>
+        <v>107.441513</v>
       </c>
       <c r="C231" t="n">
-        <v>130.359833</v>
+        <v>130.359848</v>
       </c>
     </row>
     <row r="232">
@@ -5955,7 +5955,7 @@
         <v>107.19677</v>
       </c>
       <c r="C232" t="n">
-        <v>130.359833</v>
+        <v>130.359848</v>
       </c>
     </row>
     <row r="233">
@@ -5963,7 +5963,7 @@
         <v>234</v>
       </c>
       <c r="B233" t="n">
-        <v>108.706009</v>
+        <v>108.706017</v>
       </c>
       <c r="C233" t="n">
         <v>126.671936</v>
@@ -5974,7 +5974,7 @@
         <v>235</v>
       </c>
       <c r="B234" t="n">
-        <v>108.583649</v>
+        <v>108.583641</v>
       </c>
       <c r="C234" t="n">
         <v>127.152954</v>
@@ -5996,7 +5996,7 @@
         <v>237</v>
       </c>
       <c r="B236" t="n">
-        <v>111.316582</v>
+        <v>111.316589</v>
       </c>
       <c r="C236" t="n">
         <v>126.992599</v>
@@ -6007,7 +6007,7 @@
         <v>238</v>
       </c>
       <c r="B237" t="n">
-        <v>116.007462</v>
+        <v>116.007469</v>
       </c>
       <c r="C237" t="n">
         <v>129.558136</v>
@@ -6043,7 +6043,7 @@
         <v>113.519257</v>
       </c>
       <c r="C240" t="n">
-        <v>129.077103</v>
+        <v>129.077087</v>
       </c>
     </row>
     <row r="241">
@@ -6062,7 +6062,7 @@
         <v>243</v>
       </c>
       <c r="B242" t="n">
-        <v>112.62188</v>
+        <v>112.621887</v>
       </c>
       <c r="C242" t="n">
         <v>128.034851</v>
@@ -6073,7 +6073,7 @@
         <v>244</v>
       </c>
       <c r="B243" t="n">
-        <v>110.459991</v>
+        <v>110.459984</v>
       </c>
       <c r="C243" t="n">
         <v>127.633995</v>
@@ -6084,10 +6084,10 @@
         <v>245</v>
       </c>
       <c r="B244" t="n">
-        <v>112.213974</v>
+        <v>112.213982</v>
       </c>
       <c r="C244" t="n">
-        <v>122.663307</v>
+        <v>122.663322</v>
       </c>
     </row>
     <row r="245">
@@ -6095,7 +6095,7 @@
         <v>246</v>
       </c>
       <c r="B245" t="n">
-        <v>109.725769</v>
+        <v>109.725777</v>
       </c>
       <c r="C245" t="n">
         <v>121.781425</v>
@@ -6106,7 +6106,7 @@
         <v>247</v>
       </c>
       <c r="B246" t="n">
-        <v>105.442787</v>
+        <v>105.442795</v>
       </c>
       <c r="C246" t="n">
         <v>117.772827</v>
@@ -6142,7 +6142,7 @@
         <v>105.157257</v>
       </c>
       <c r="C249" t="n">
-        <v>124.346947</v>
+        <v>124.346931</v>
       </c>
     </row>
     <row r="250">
@@ -6150,7 +6150,7 @@
         <v>251</v>
       </c>
       <c r="B250" t="n">
-        <v>104.994102</v>
+        <v>104.994095</v>
       </c>
       <c r="C250" t="n">
         <v>126.271057</v>
@@ -6161,7 +6161,7 @@
         <v>252</v>
       </c>
       <c r="B251" t="n">
-        <v>104.749359</v>
+        <v>104.749352</v>
       </c>
       <c r="C251" t="n">
         <v>123.865906</v>
@@ -6172,7 +6172,7 @@
         <v>253</v>
       </c>
       <c r="B252" t="n">
-        <v>109.195496</v>
+        <v>109.195503</v>
       </c>
       <c r="C252" t="n">
         <v>127.313316</v>
@@ -6216,7 +6216,7 @@
         <v>257</v>
       </c>
       <c r="B256" t="n">
-        <v>104.219093</v>
+        <v>104.219086</v>
       </c>
       <c r="C256" t="n">
         <v>126.591759</v>
@@ -6238,10 +6238,10 @@
         <v>259</v>
       </c>
       <c r="B258" t="n">
-        <v>106.054642</v>
+        <v>106.054649</v>
       </c>
       <c r="C258" t="n">
-        <v>124.266769</v>
+        <v>124.266762</v>
       </c>
     </row>
     <row r="259">
@@ -6249,7 +6249,7 @@
         <v>260</v>
       </c>
       <c r="B259" t="n">
-        <v>104.423035</v>
+        <v>104.423042</v>
       </c>
       <c r="C259" t="n">
         <v>122.583153</v>
@@ -6282,7 +6282,7 @@
         <v>263</v>
       </c>
       <c r="B262" t="n">
-        <v>103.199326</v>
+        <v>103.199333</v>
       </c>
       <c r="C262" t="n">
         <v>125.870201</v>
@@ -6296,7 +6296,7 @@
         <v>105.238838</v>
       </c>
       <c r="C263" t="n">
-        <v>124.507271</v>
+        <v>124.507286</v>
       </c>
     </row>
     <row r="264">
@@ -6318,7 +6318,7 @@
         <v>101.975624</v>
       </c>
       <c r="C265" t="n">
-        <v>126.190895</v>
+        <v>126.19088</v>
       </c>
     </row>
     <row r="266">
@@ -6329,7 +6329,7 @@
         <v>99.976906</v>
       </c>
       <c r="C266" t="n">
-        <v>126.110733</v>
+        <v>126.110718</v>
       </c>
     </row>
     <row r="267">
@@ -6337,7 +6337,7 @@
         <v>268</v>
       </c>
       <c r="B267" t="n">
-        <v>102.138779</v>
+        <v>102.138786</v>
       </c>
       <c r="C267" t="n">
         <v>126.832275</v>
@@ -6348,7 +6348,7 @@
         <v>269</v>
       </c>
       <c r="B268" t="n">
-        <v>99.936111</v>
+        <v>99.936104</v>
       </c>
       <c r="C268" t="n">
         <v>123.625389</v>
@@ -6373,7 +6373,7 @@
         <v>100.140068</v>
       </c>
       <c r="C270" t="n">
-        <v>123.144371</v>
+        <v>123.144356</v>
       </c>
     </row>
     <row r="271">
@@ -6392,7 +6392,7 @@
         <v>273</v>
       </c>
       <c r="B272" t="n">
-        <v>103.444077</v>
+        <v>103.444069</v>
       </c>
       <c r="C272" t="n">
         <v>121.781425</v>
@@ -6403,10 +6403,10 @@
         <v>274</v>
       </c>
       <c r="B273" t="n">
-        <v>101.078232</v>
+        <v>101.078239</v>
       </c>
       <c r="C273" t="n">
-        <v>122.262459</v>
+        <v>122.262474</v>
       </c>
     </row>
     <row r="274">
@@ -6414,10 +6414,10 @@
         <v>275</v>
       </c>
       <c r="B274" t="n">
-        <v>103.199326</v>
+        <v>103.199333</v>
       </c>
       <c r="C274" t="n">
-        <v>122.102119</v>
+        <v>122.102135</v>
       </c>
     </row>
     <row r="275">
@@ -6425,7 +6425,7 @@
         <v>276</v>
       </c>
       <c r="B275" t="n">
-        <v>102.669052</v>
+        <v>102.66906</v>
       </c>
       <c r="C275" t="n">
         <v>121.781425</v>
@@ -6439,7 +6439,7 @@
         <v>101.975624</v>
       </c>
       <c r="C276" t="n">
-        <v>120.338333</v>
+        <v>120.338348</v>
       </c>
     </row>
     <row r="277">
@@ -6450,7 +6450,7 @@
         <v>97.896599</v>
       </c>
       <c r="C277" t="n">
-        <v>119.456451</v>
+        <v>119.456436</v>
       </c>
     </row>
     <row r="278">
@@ -6480,10 +6480,10 @@
         <v>281</v>
       </c>
       <c r="B280" t="n">
-        <v>100.180855</v>
+        <v>100.180847</v>
       </c>
       <c r="C280" t="n">
-        <v>122.262459</v>
+        <v>122.262474</v>
       </c>
     </row>
     <row r="281">
@@ -6491,7 +6491,7 @@
         <v>282</v>
       </c>
       <c r="B281" t="n">
-        <v>99.936111</v>
+        <v>99.936104</v>
       </c>
       <c r="C281" t="n">
         <v>121.220222</v>
@@ -6502,7 +6502,7 @@
         <v>283</v>
       </c>
       <c r="B282" t="n">
-        <v>101.486145</v>
+        <v>101.486137</v>
       </c>
       <c r="C282" t="n">
         <v>122.02195</v>
@@ -6549,7 +6549,7 @@
         <v>98.712402</v>
       </c>
       <c r="C286" t="n">
-        <v>120.498672</v>
+        <v>120.498688</v>
       </c>
     </row>
     <row r="287">
@@ -6557,10 +6557,10 @@
         <v>288</v>
       </c>
       <c r="B287" t="n">
-        <v>98.467651</v>
+        <v>98.467659</v>
       </c>
       <c r="C287" t="n">
-        <v>120.57885</v>
+        <v>120.578835</v>
       </c>
     </row>
     <row r="288">
@@ -6590,7 +6590,7 @@
         <v>291</v>
       </c>
       <c r="B290" t="n">
-        <v>106.054642</v>
+        <v>106.054649</v>
       </c>
       <c r="C290" t="n">
         <v>127.393478</v>
@@ -6634,7 +6634,7 @@
         <v>295</v>
       </c>
       <c r="B294" t="n">
-        <v>104.830948</v>
+        <v>104.83094</v>
       </c>
       <c r="C294" t="n">
         <v>121.059875</v>
@@ -6645,10 +6645,10 @@
         <v>296</v>
       </c>
       <c r="B295" t="n">
-        <v>105.442787</v>
+        <v>105.442795</v>
       </c>
       <c r="C295" t="n">
-        <v>119.616791</v>
+        <v>119.616776</v>
       </c>
     </row>
     <row r="296">
@@ -6659,7 +6659,7 @@
         <v>104.137505</v>
       </c>
       <c r="C296" t="n">
-        <v>117.692657</v>
+        <v>117.69265</v>
       </c>
     </row>
     <row r="297">
@@ -6667,10 +6667,10 @@
         <v>298</v>
       </c>
       <c r="B297" t="n">
-        <v>103.036163</v>
+        <v>103.036171</v>
       </c>
       <c r="C297" t="n">
-        <v>116.570244</v>
+        <v>116.570236</v>
       </c>
     </row>
     <row r="298">
@@ -6678,7 +6678,7 @@
         <v>299</v>
       </c>
       <c r="B298" t="n">
-        <v>103.892761</v>
+        <v>103.892769</v>
       </c>
       <c r="C298" t="n">
         <v>115.768509</v>
@@ -6700,7 +6700,7 @@
         <v>301</v>
       </c>
       <c r="B300" t="n">
-        <v>105.361214</v>
+        <v>105.361206</v>
       </c>
       <c r="C300" t="n">
         <v>118.013336</v>
@@ -6711,7 +6711,7 @@
         <v>302</v>
       </c>
       <c r="B301" t="n">
-        <v>107.971802</v>
+        <v>107.971794</v>
       </c>
       <c r="C301" t="n">
         <v>118.654709</v>
@@ -6722,7 +6722,7 @@
         <v>303</v>
       </c>
       <c r="B302" t="n">
-        <v>108.706009</v>
+        <v>108.706017</v>
       </c>
       <c r="C302" t="n">
         <v>120.258156</v>
@@ -6736,7 +6736,7 @@
         <v>109.481026</v>
       </c>
       <c r="C303" t="n">
-        <v>122.102119</v>
+        <v>122.102135</v>
       </c>
     </row>
     <row r="304">
@@ -6780,7 +6780,7 @@
         <v>105.866501</v>
       </c>
       <c r="C307" t="n">
-        <v>120.096039</v>
+        <v>120.096054</v>
       </c>
     </row>
     <row r="308">
@@ -6799,10 +6799,10 @@
         <v>310</v>
       </c>
       <c r="B309" t="n">
-        <v>105.039078</v>
+        <v>105.03907</v>
       </c>
       <c r="C309" t="n">
-        <v>114.540001</v>
+        <v>114.540009</v>
       </c>
     </row>
     <row r="310">
@@ -6810,10 +6810,10 @@
         <v>311</v>
       </c>
       <c r="B310" t="n">
-        <v>105.474556</v>
+        <v>105.474564</v>
       </c>
       <c r="C310" t="n">
-        <v>116.762421</v>
+        <v>116.762428</v>
       </c>
     </row>
     <row r="311">
@@ -6821,7 +6821,7 @@
         <v>312</v>
       </c>
       <c r="B311" t="n">
-        <v>101.685844</v>
+        <v>101.685837</v>
       </c>
       <c r="C311" t="n">
         <v>117.104324</v>
@@ -6846,7 +6846,7 @@
         <v>106.066818</v>
       </c>
       <c r="C313" t="n">
-        <v>121.121773</v>
+        <v>121.12178</v>
       </c>
     </row>
     <row r="314">
@@ -6868,7 +6868,7 @@
         <v>108.043922</v>
       </c>
       <c r="C315" t="n">
-        <v>121.292725</v>
+        <v>121.292732</v>
       </c>
     </row>
     <row r="316">
@@ -6920,10 +6920,10 @@
         <v>321</v>
       </c>
       <c r="B320" t="n">
-        <v>105.953598</v>
+        <v>105.95359</v>
       </c>
       <c r="C320" t="n">
-        <v>120.352486</v>
+        <v>120.352478</v>
       </c>
     </row>
     <row r="321">
@@ -6931,7 +6931,7 @@
         <v>322</v>
       </c>
       <c r="B321" t="n">
-        <v>108.131027</v>
+        <v>108.13102</v>
       </c>
       <c r="C321" t="n">
         <v>122.232986</v>
@@ -6945,7 +6945,7 @@
         <v>110.613289</v>
       </c>
       <c r="C322" t="n">
-        <v>123.515152</v>
+        <v>123.515144</v>
       </c>
     </row>
     <row r="323">
@@ -6967,7 +6967,7 @@
         <v>112.050385</v>
       </c>
       <c r="C324" t="n">
-        <v>124.028015</v>
+        <v>124.028008</v>
       </c>
     </row>
     <row r="325">
@@ -6978,7 +6978,7 @@
         <v>112.268127</v>
       </c>
       <c r="C325" t="n">
-        <v>124.968269</v>
+        <v>124.968262</v>
       </c>
     </row>
     <row r="326">
@@ -7022,7 +7022,7 @@
         <v>111.919746</v>
       </c>
       <c r="C329" t="n">
-        <v>122.916817</v>
+        <v>122.916809</v>
       </c>
     </row>
     <row r="330">
@@ -7030,7 +7030,7 @@
         <v>331</v>
       </c>
       <c r="B330" t="n">
-        <v>113.705238</v>
+        <v>113.705231</v>
       </c>
       <c r="C330" t="n">
         <v>123.942535</v>
@@ -7041,7 +7041,7 @@
         <v>332</v>
       </c>
       <c r="B331" t="n">
-        <v>102.8181</v>
+        <v>102.818108</v>
       </c>
       <c r="C331" t="n">
         <v>122.831322</v>
@@ -7063,7 +7063,7 @@
         <v>334</v>
       </c>
       <c r="B333" t="n">
-        <v>102.382622</v>
+        <v>102.382614</v>
       </c>
       <c r="C333" t="n">
         <v>109.325867</v>
@@ -7085,7 +7085,7 @@
         <v>336</v>
       </c>
       <c r="B335" t="n">
-        <v>100.510033</v>
+        <v>100.510025</v>
       </c>
       <c r="C335" t="n">
         <v>107.78727</v>
@@ -7110,7 +7110,7 @@
         <v>97.635818</v>
       </c>
       <c r="C337" t="n">
-        <v>107.530846</v>
+        <v>107.530838</v>
       </c>
     </row>
     <row r="338">
@@ -7121,7 +7121,7 @@
         <v>94.587425</v>
       </c>
       <c r="C338" t="n">
-        <v>107.017967</v>
+        <v>107.01796</v>
       </c>
     </row>
     <row r="339">
@@ -7140,10 +7140,10 @@
         <v>341</v>
       </c>
       <c r="B340" t="n">
-        <v>96.068077</v>
+        <v>96.068085</v>
       </c>
       <c r="C340" t="n">
-        <v>106.590584</v>
+        <v>106.590576</v>
       </c>
     </row>
     <row r="341">
@@ -7151,7 +7151,7 @@
         <v>342</v>
       </c>
       <c r="B341" t="n">
-        <v>93.890656</v>
+        <v>93.890648</v>
       </c>
       <c r="C341" t="n">
         <v>106.847015</v>
@@ -7184,7 +7184,7 @@
         <v>345</v>
       </c>
       <c r="B344" t="n">
-        <v>96.416458</v>
+        <v>96.416466</v>
       </c>
       <c r="C344" t="n">
         <v>106.676064</v>
@@ -7198,7 +7198,7 @@
         <v>96.198715</v>
       </c>
       <c r="C345" t="n">
-        <v>105.992241</v>
+        <v>105.992233</v>
       </c>
     </row>
     <row r="346">
@@ -7206,7 +7206,7 @@
         <v>347</v>
       </c>
       <c r="B346" t="n">
-        <v>96.764847</v>
+        <v>96.764854</v>
       </c>
       <c r="C346" t="n">
         <v>105.906761</v>
@@ -7242,7 +7242,7 @@
         <v>98.158401</v>
       </c>
       <c r="C349" t="n">
-        <v>106.077721</v>
+        <v>106.077713</v>
       </c>
     </row>
     <row r="350">
@@ -7250,7 +7250,7 @@
         <v>351</v>
       </c>
       <c r="B350" t="n">
-        <v>97.984207</v>
+        <v>97.984215</v>
       </c>
       <c r="C350" t="n">
         <v>107.359879</v>
@@ -7272,7 +7272,7 @@
         <v>353</v>
       </c>
       <c r="B352" t="n">
-        <v>95.458397</v>
+        <v>95.458389</v>
       </c>
       <c r="C352" t="n">
         <v>107.359879</v>
@@ -7294,10 +7294,10 @@
         <v>355</v>
       </c>
       <c r="B354" t="n">
-        <v>94.674515</v>
+        <v>94.674522</v>
       </c>
       <c r="C354" t="n">
-        <v>107.616318</v>
+        <v>107.61631</v>
       </c>
     </row>
     <row r="355">
@@ -7305,7 +7305,7 @@
         <v>356</v>
       </c>
       <c r="B355" t="n">
-        <v>95.589035</v>
+        <v>95.589043</v>
       </c>
       <c r="C355" t="n">
         <v>108.813004</v>
@@ -7316,10 +7316,10 @@
         <v>357</v>
       </c>
       <c r="B356" t="n">
-        <v>96.851952</v>
+        <v>96.851944</v>
       </c>
       <c r="C356" t="n">
-        <v>110.266113</v>
+        <v>110.266121</v>
       </c>
     </row>
     <row r="357">
@@ -7330,7 +7330,7 @@
         <v>96.939049</v>
       </c>
       <c r="C357" t="n">
-        <v>111.120903</v>
+        <v>111.120895</v>
       </c>
     </row>
     <row r="358">
@@ -7349,7 +7349,7 @@
         <v>360</v>
       </c>
       <c r="B359" t="n">
-        <v>95.458397</v>
+        <v>95.458389</v>
       </c>
       <c r="C359" t="n">
         <v>111.377335</v>
@@ -7374,7 +7374,7 @@
         <v>90.929352</v>
       </c>
       <c r="C361" t="n">
-        <v>110.864449</v>
+        <v>110.864456</v>
       </c>
     </row>
     <row r="362">
@@ -7382,7 +7382,7 @@
         <v>363</v>
       </c>
       <c r="B362" t="n">
-        <v>91.800323</v>
+        <v>91.800316</v>
       </c>
       <c r="C362" t="n">
         <v>113.172348</v>
@@ -7415,7 +7415,7 @@
         <v>366</v>
       </c>
       <c r="B365" t="n">
-        <v>87.706757</v>
+        <v>87.706749</v>
       </c>
       <c r="C365" t="n">
         <v>107.274406</v>
@@ -7448,7 +7448,7 @@
         <v>369</v>
       </c>
       <c r="B368" t="n">
-        <v>89.535805</v>
+        <v>89.535797</v>
       </c>
       <c r="C368" t="n">
         <v>106.676064</v>
@@ -7459,7 +7459,7 @@
         <v>370</v>
       </c>
       <c r="B369" t="n">
-        <v>90.363213</v>
+        <v>90.36322</v>
       </c>
       <c r="C369" t="n">
         <v>106.932487</v>
@@ -7470,7 +7470,7 @@
         <v>371</v>
       </c>
       <c r="B370" t="n">
-        <v>91.234184</v>
+        <v>91.234192</v>
       </c>
       <c r="C370" t="n">
         <v>108.813004</v>
@@ -7484,7 +7484,7 @@
         <v>90.624512</v>
       </c>
       <c r="C371" t="n">
-        <v>107.958229</v>
+        <v>107.958221</v>
       </c>
     </row>
     <row r="372">
@@ -7503,7 +7503,7 @@
         <v>374</v>
       </c>
       <c r="B373" t="n">
-        <v>91.234184</v>
+        <v>91.234192</v>
       </c>
       <c r="C373" t="n">
         <v>110.180641</v>
@@ -7525,7 +7525,7 @@
         <v>376</v>
       </c>
       <c r="B375" t="n">
-        <v>90.755157</v>
+        <v>90.75515</v>
       </c>
       <c r="C375" t="n">
         <v>109.411339</v>
@@ -7550,7 +7550,7 @@
         <v>89.579346</v>
       </c>
       <c r="C377" t="n">
-        <v>107.958229</v>
+        <v>107.958221</v>
       </c>
     </row>
     <row r="378">
@@ -7558,10 +7558,10 @@
         <v>379</v>
       </c>
       <c r="B378" t="n">
-        <v>89.492241</v>
+        <v>89.492249</v>
       </c>
       <c r="C378" t="n">
-        <v>105.393906</v>
+        <v>105.393898</v>
       </c>
     </row>
     <row r="379">
@@ -7580,7 +7580,7 @@
         <v>381</v>
       </c>
       <c r="B380" t="n">
-        <v>90.668053</v>
+        <v>90.66806</v>
       </c>
       <c r="C380" t="n">
         <v>104.624596</v>
@@ -7613,7 +7613,7 @@
         <v>384</v>
       </c>
       <c r="B383" t="n">
-        <v>89.361603</v>
+        <v>89.361595</v>
       </c>
       <c r="C383" t="n">
         <v>102.145744</v>
@@ -7649,7 +7649,7 @@
         <v>90.406769</v>
       </c>
       <c r="C386" t="n">
-        <v>102.573135</v>
+        <v>102.573128</v>
       </c>
     </row>
     <row r="387">
@@ -7657,7 +7657,7 @@
         <v>388</v>
       </c>
       <c r="B387" t="n">
-        <v>89.709991</v>
+        <v>89.709984</v>
       </c>
       <c r="C387" t="n">
         <v>103.684349</v>
@@ -7668,7 +7668,7 @@
         <v>389</v>
       </c>
       <c r="B388" t="n">
-        <v>90.668053</v>
+        <v>90.66806</v>
       </c>
       <c r="C388" t="n">
         <v>104.197212</v>
@@ -7690,7 +7690,7 @@
         <v>391</v>
       </c>
       <c r="B390" t="n">
-        <v>89.143852</v>
+        <v>89.14386</v>
       </c>
       <c r="C390" t="n">
         <v>103.684349</v>
@@ -7701,7 +7701,7 @@
         <v>392</v>
       </c>
       <c r="B391" t="n">
-        <v>87.044815</v>
+        <v>87.044823</v>
       </c>
       <c r="C391" t="n">
         <v>101.632881</v>
@@ -7734,10 +7734,10 @@
         <v>395</v>
       </c>
       <c r="B394" t="n">
-        <v>85.564171</v>
+        <v>85.564163</v>
       </c>
       <c r="C394" t="n">
-        <v>99.15403</v>
+        <v>99.154037</v>
       </c>
     </row>
     <row r="395">
@@ -7745,7 +7745,7 @@
         <v>396</v>
       </c>
       <c r="B395" t="n">
-        <v>84.066101</v>
+        <v>84.066093</v>
       </c>
       <c r="C395" t="n">
         <v>98.042816</v>
@@ -7756,7 +7756,7 @@
         <v>397</v>
       </c>
       <c r="B396" t="n">
-        <v>83.839653</v>
+        <v>83.839645</v>
       </c>
       <c r="C396" t="n">
         <v>99.923332</v>
@@ -7778,10 +7778,10 @@
         <v>399</v>
       </c>
       <c r="B398" t="n">
-        <v>83.857063</v>
+        <v>83.857071</v>
       </c>
       <c r="C398" t="n">
-        <v>98.641167</v>
+        <v>98.641174</v>
       </c>
     </row>
     <row r="399">
@@ -7789,10 +7789,10 @@
         <v>400</v>
       </c>
       <c r="B399" t="n">
-        <v>82.672546</v>
+        <v>82.672539</v>
       </c>
       <c r="C399" t="n">
-        <v>98.128296</v>
+        <v>98.128304</v>
       </c>
     </row>
     <row r="400">
@@ -7814,7 +7814,7 @@
         <v>81.505447</v>
       </c>
       <c r="C401" t="n">
-        <v>95.563972</v>
+        <v>95.56398</v>
       </c>
     </row>
     <row r="402">
@@ -7822,7 +7822,7 @@
         <v>403</v>
       </c>
       <c r="B402" t="n">
-        <v>77.516396</v>
+        <v>77.516403</v>
       </c>
       <c r="C402" t="n">
         <v>92.230347</v>
@@ -7844,10 +7844,10 @@
         <v>405</v>
       </c>
       <c r="B404" t="n">
-        <v>79.362862</v>
+        <v>79.362854</v>
       </c>
       <c r="C404" t="n">
-        <v>94.70919</v>
+        <v>94.709198</v>
       </c>
     </row>
     <row r="405">
@@ -7858,7 +7858,7 @@
         <v>79.955116</v>
       </c>
       <c r="C405" t="n">
-        <v>95.307533</v>
+        <v>95.307541</v>
       </c>
     </row>
     <row r="406">
@@ -7866,7 +7866,7 @@
         <v>407</v>
       </c>
       <c r="B406" t="n">
-        <v>77.882202</v>
+        <v>77.88221</v>
       </c>
       <c r="C406" t="n">
         <v>93.597992</v>
@@ -7877,7 +7877,7 @@
         <v>408</v>
       </c>
       <c r="B407" t="n">
-        <v>77.516396</v>
+        <v>77.516403</v>
       </c>
       <c r="C407" t="n">
         <v>92.657738</v>
@@ -7888,7 +7888,7 @@
         <v>409</v>
       </c>
       <c r="B408" t="n">
-        <v>78.561554</v>
+        <v>78.561562</v>
       </c>
       <c r="C408" t="n">
         <v>94.88015</v>
@@ -7899,7 +7899,7 @@
         <v>410</v>
       </c>
       <c r="B409" t="n">
-        <v>77.67318</v>
+        <v>77.673172</v>
       </c>
       <c r="C409" t="n">
         <v>94.88015</v>
@@ -7910,7 +7910,7 @@
         <v>411</v>
       </c>
       <c r="B410" t="n">
-        <v>76.418968</v>
+        <v>76.418976</v>
       </c>
       <c r="C410" t="n">
         <v>93.256073</v>
@@ -7943,7 +7943,7 @@
         <v>414</v>
       </c>
       <c r="B413" t="n">
-        <v>76.59317</v>
+        <v>76.593178</v>
       </c>
       <c r="C413" t="n">
         <v>80.348946</v>
@@ -8023,7 +8023,7 @@
         <v>86.644173</v>
       </c>
       <c r="C420" t="n">
-        <v>86.930733</v>
+        <v>86.930725</v>
       </c>
     </row>
     <row r="421">
@@ -8031,7 +8031,7 @@
         <v>422</v>
       </c>
       <c r="B421" t="n">
-        <v>88.055145</v>
+        <v>88.055138</v>
       </c>
       <c r="C421" t="n">
         <v>88.55481</v>
@@ -8045,7 +8045,7 @@
         <v>87.968048</v>
       </c>
       <c r="C422" t="n">
-        <v>88.041931</v>
+        <v>88.041939</v>
       </c>
     </row>
     <row r="423">
@@ -8053,10 +8053,10 @@
         <v>424</v>
       </c>
       <c r="B423" t="n">
-        <v>88.011604</v>
+        <v>88.011597</v>
       </c>
       <c r="C423" t="n">
-        <v>87.870995</v>
+        <v>87.870987</v>
       </c>
     </row>
     <row r="424">
@@ -8097,7 +8097,7 @@
         <v>428</v>
       </c>
       <c r="B427" t="n">
-        <v>83.247391</v>
+        <v>83.247383</v>
       </c>
       <c r="C427" t="n">
         <v>87.529076</v>
@@ -8108,7 +8108,7 @@
         <v>429</v>
       </c>
       <c r="B428" t="n">
-        <v>84.41449</v>
+        <v>84.414482</v>
       </c>
       <c r="C428" t="n">
         <v>89.495064</v>
@@ -8119,7 +8119,7 @@
         <v>430</v>
       </c>
       <c r="B429" t="n">
-        <v>85.355141</v>
+        <v>85.355133</v>
       </c>
       <c r="C429" t="n">
         <v>99.495941</v>
@@ -8130,7 +8130,7 @@
         <v>431</v>
       </c>
       <c r="B430" t="n">
-        <v>83.613197</v>
+        <v>83.61319</v>
       </c>
       <c r="C430" t="n">
         <v>101.461922</v>
@@ -8155,7 +8155,7 @@
         <v>82.602867</v>
       </c>
       <c r="C432" t="n">
-        <v>107.958229</v>
+        <v>107.958221</v>
       </c>
     </row>
     <row r="433">
@@ -8174,7 +8174,7 @@
         <v>435</v>
       </c>
       <c r="B434" t="n">
-        <v>83.386734</v>
+        <v>83.386742</v>
       </c>
       <c r="C434" t="n">
         <v>104.881027</v>
@@ -8196,7 +8196,7 @@
         <v>437</v>
       </c>
       <c r="B436" t="n">
-        <v>82.742218</v>
+        <v>82.742226</v>
       </c>
       <c r="C436" t="n">
         <v>102.402176</v>
@@ -8221,7 +8221,7 @@
         <v>80.216408</v>
       </c>
       <c r="C438" t="n">
-        <v>99.239502</v>
+        <v>99.23951</v>
       </c>
     </row>
     <row r="439">
@@ -8232,7 +8232,7 @@
         <v>79.989952</v>
       </c>
       <c r="C439" t="n">
-        <v>99.15403</v>
+        <v>99.154037</v>
       </c>
     </row>
     <row r="440">
@@ -8273,7 +8273,7 @@
         <v>444</v>
       </c>
       <c r="B443" t="n">
-        <v>80.164154</v>
+        <v>80.164146</v>
       </c>
       <c r="C443" t="n">
         <v>100.521667</v>
@@ -8284,7 +8284,7 @@
         <v>445</v>
       </c>
       <c r="B444" t="n">
-        <v>82.881584</v>
+        <v>82.881577</v>
       </c>
       <c r="C444" t="n">
         <v>102.145744</v>
@@ -8295,10 +8295,10 @@
         <v>446</v>
       </c>
       <c r="B445" t="n">
-        <v>83.595779</v>
+        <v>83.595772</v>
       </c>
       <c r="C445" t="n">
-        <v>104.795555</v>
+        <v>104.795547</v>
       </c>
     </row>
     <row r="446">
@@ -8339,10 +8339,10 @@
         <v>450</v>
       </c>
       <c r="B449" t="n">
-        <v>83.822227</v>
+        <v>83.82222</v>
       </c>
       <c r="C449" t="n">
-        <v>110.266113</v>
+        <v>110.266121</v>
       </c>
     </row>
     <row r="450">
@@ -8350,7 +8350,7 @@
         <v>451</v>
       </c>
       <c r="B450" t="n">
-        <v>85.877724</v>
+        <v>85.877716</v>
       </c>
       <c r="C450" t="n">
         <v>112.6595</v>
@@ -8361,7 +8361,7 @@
         <v>452</v>
       </c>
       <c r="B451" t="n">
-        <v>85.877724</v>
+        <v>85.877716</v>
       </c>
       <c r="C451" t="n">
         <v>113.257835</v>
@@ -8394,7 +8394,7 @@
         <v>455</v>
       </c>
       <c r="B454" t="n">
-        <v>85.877724</v>
+        <v>85.877716</v>
       </c>
       <c r="C454" t="n">
         <v>116.078598</v>
@@ -8419,7 +8419,7 @@
         <v>84.867393</v>
       </c>
       <c r="C456" t="n">
-        <v>115.736679</v>
+        <v>115.736687</v>
       </c>
     </row>
     <row r="457">
@@ -8438,10 +8438,10 @@
         <v>459</v>
       </c>
       <c r="B458" t="n">
-        <v>83.247391</v>
+        <v>83.247383</v>
       </c>
       <c r="C458" t="n">
-        <v>112.317581</v>
+        <v>112.317574</v>
       </c>
     </row>
     <row r="459">
@@ -8452,7 +8452,7 @@
         <v>79.955116</v>
       </c>
       <c r="C459" t="n">
-        <v>114.540001</v>
+        <v>114.540009</v>
       </c>
     </row>
     <row r="460">
@@ -8482,7 +8482,7 @@
         <v>463</v>
       </c>
       <c r="B462" t="n">
-        <v>81.766731</v>
+        <v>81.766739</v>
       </c>
       <c r="C462" t="n">
         <v>115.651207</v>
@@ -8493,10 +8493,10 @@
         <v>464</v>
       </c>
       <c r="B463" t="n">
-        <v>83.630608</v>
+        <v>83.630615</v>
       </c>
       <c r="C463" t="n">
-        <v>116.33503</v>
+        <v>116.335037</v>
       </c>
     </row>
     <row r="464">
@@ -8507,7 +8507,7 @@
         <v>83.369324</v>
       </c>
       <c r="C464" t="n">
-        <v>115.993118</v>
+        <v>115.993126</v>
       </c>
     </row>
     <row r="465">
@@ -8526,10 +8526,10 @@
         <v>467</v>
       </c>
       <c r="B466" t="n">
-        <v>82.30674</v>
+        <v>82.306732</v>
       </c>
       <c r="C466" t="n">
-        <v>116.933372</v>
+        <v>116.93338</v>
       </c>
     </row>
     <row r="467">
@@ -8537,10 +8537,10 @@
         <v>468</v>
       </c>
       <c r="B467" t="n">
-        <v>80.442863</v>
+        <v>80.442856</v>
       </c>
       <c r="C467" t="n">
-        <v>113.514267</v>
+        <v>113.514275</v>
       </c>
     </row>
     <row r="468">
@@ -8570,7 +8570,7 @@
         <v>471</v>
       </c>
       <c r="B470" t="n">
-        <v>79.240929</v>
+        <v>79.240921</v>
       </c>
       <c r="C470" t="n">
         <v>110.949944</v>
@@ -8581,10 +8581,10 @@
         <v>472</v>
       </c>
       <c r="B471" t="n">
-        <v>79.362862</v>
+        <v>79.362854</v>
       </c>
       <c r="C471" t="n">
-        <v>110.864449</v>
+        <v>110.864456</v>
       </c>
     </row>
     <row r="472">
@@ -8650,7 +8650,7 @@
         <v>80.233833</v>
       </c>
       <c r="C477" t="n">
-        <v>110.266113</v>
+        <v>110.266121</v>
       </c>
     </row>
     <row r="478">
@@ -8661,7 +8661,7 @@
         <v>80.129311</v>
       </c>
       <c r="C478" t="n">
-        <v>109.582298</v>
+        <v>109.582291</v>
       </c>
     </row>
     <row r="479">
@@ -8669,7 +8669,7 @@
         <v>480</v>
       </c>
       <c r="B479" t="n">
-        <v>79.746078</v>
+        <v>79.746086</v>
       </c>
       <c r="C479" t="n">
         <v>109.154907</v>
@@ -8683,7 +8683,7 @@
         <v>80.129311</v>
       </c>
       <c r="C480" t="n">
-        <v>107.530846</v>
+        <v>107.530838</v>
       </c>
     </row>
     <row r="481">
@@ -8702,7 +8702,7 @@
         <v>483</v>
       </c>
       <c r="B482" t="n">
-        <v>79.780914</v>
+        <v>79.780922</v>
       </c>
       <c r="C482" t="n">
         <v>108.983955</v>
@@ -8713,7 +8713,7 @@
         <v>484</v>
       </c>
       <c r="B483" t="n">
-        <v>82.463509</v>
+        <v>82.463516</v>
       </c>
       <c r="C483" t="n">
         <v>110.949944</v>
@@ -8749,7 +8749,7 @@
         <v>84.170616</v>
       </c>
       <c r="C486" t="n">
-        <v>113.343323</v>
+        <v>113.343315</v>
       </c>
     </row>
     <row r="487">
@@ -8771,7 +8771,7 @@
         <v>87.271271</v>
       </c>
       <c r="C488" t="n">
-        <v>113.941658</v>
+        <v>113.94165</v>
       </c>
     </row>
     <row r="489">
@@ -8793,7 +8793,7 @@
         <v>92.671295</v>
       </c>
       <c r="C490" t="n">
-        <v>112.488541</v>
+        <v>112.488548</v>
       </c>
     </row>
     <row r="491">
@@ -8801,7 +8801,7 @@
         <v>492</v>
       </c>
       <c r="B491" t="n">
-        <v>94.108398</v>
+        <v>94.108391</v>
       </c>
       <c r="C491" t="n">
         <v>117.104324</v>
@@ -8812,10 +8812,10 @@
         <v>493</v>
       </c>
       <c r="B492" t="n">
-        <v>93.193878</v>
+        <v>93.193871</v>
       </c>
       <c r="C492" t="n">
-        <v>118.215538</v>
+        <v>118.215546</v>
       </c>
     </row>
     <row r="493">
@@ -8826,7 +8826,7 @@
         <v>92.105156</v>
       </c>
       <c r="C493" t="n">
-        <v>116.933372</v>
+        <v>116.93338</v>
       </c>
     </row>
     <row r="494">
@@ -8845,7 +8845,7 @@
         <v>496</v>
       </c>
       <c r="B495" t="n">
-        <v>93.193878</v>
+        <v>93.193871</v>
       </c>
       <c r="C495" t="n">
         <v>118.899361</v>
@@ -8859,7 +8859,7 @@
         <v>93.411613</v>
       </c>
       <c r="C496" t="n">
-        <v>119.07032</v>
+        <v>119.070328</v>
       </c>
     </row>
     <row r="497">
@@ -8867,7 +8867,7 @@
         <v>498</v>
       </c>
       <c r="B497" t="n">
-        <v>93.890656</v>
+        <v>93.890648</v>
       </c>
       <c r="C497" t="n">
         <v>119.497696</v>
@@ -8878,7 +8878,7 @@
         <v>499</v>
       </c>
       <c r="B498" t="n">
-        <v>96.111618</v>
+        <v>96.111626</v>
       </c>
       <c r="C498" t="n">
         <v>121.976547</v>
@@ -8889,7 +8889,7 @@
         <v>500</v>
       </c>
       <c r="B499" t="n">
-        <v>93.977745</v>
+        <v>93.977753</v>
       </c>
       <c r="C499" t="n">
         <v>121.463692</v>
@@ -8914,7 +8914,7 @@
         <v>93.847099</v>
       </c>
       <c r="C501" t="n">
-        <v>120.694382</v>
+        <v>120.694389</v>
       </c>
     </row>
     <row r="502">
@@ -8933,10 +8933,10 @@
         <v>504</v>
       </c>
       <c r="B503" t="n">
-        <v>96.068077</v>
+        <v>96.068085</v>
       </c>
       <c r="C503" t="n">
-        <v>124.369919</v>
+        <v>124.369926</v>
       </c>
     </row>
     <row r="504">
@@ -8944,7 +8944,7 @@
         <v>505</v>
       </c>
       <c r="B504" t="n">
-        <v>94.979362</v>
+        <v>94.97937</v>
       </c>
       <c r="C504" t="n">
         <v>121.976547</v>
@@ -8966,10 +8966,10 @@
         <v>507</v>
       </c>
       <c r="B506" t="n">
-        <v>94.064842</v>
+        <v>94.06485</v>
       </c>
       <c r="C506" t="n">
-        <v>123.686111</v>
+        <v>123.686104</v>
       </c>
     </row>
     <row r="507">
@@ -8980,7 +8980,7 @@
         <v>93.411613</v>
       </c>
       <c r="C507" t="n">
-        <v>123.258705</v>
+        <v>123.258713</v>
       </c>
     </row>
     <row r="508">
@@ -8988,7 +8988,7 @@
         <v>509</v>
       </c>
       <c r="B508" t="n">
-        <v>94.674515</v>
+        <v>94.674522</v>
       </c>
       <c r="C508" t="n">
         <v>123.600632</v>
@@ -9010,10 +9010,10 @@
         <v>511</v>
       </c>
       <c r="B510" t="n">
-        <v>95.632599</v>
+        <v>95.632591</v>
       </c>
       <c r="C510" t="n">
-        <v>127.361649</v>
+        <v>127.361633</v>
       </c>
     </row>
     <row r="511">
@@ -9054,7 +9054,7 @@
         <v>515</v>
       </c>
       <c r="B514" t="n">
-        <v>95.458397</v>
+        <v>95.458389</v>
       </c>
       <c r="C514" t="n">
         <v>125.993988</v>
@@ -9079,7 +9079,7 @@
         <v>94.500328</v>
       </c>
       <c r="C516" t="n">
-        <v>125.224693</v>
+        <v>125.224709</v>
       </c>
     </row>
     <row r="517">
@@ -9087,7 +9087,7 @@
         <v>518</v>
       </c>
       <c r="B517" t="n">
-        <v>95.893875</v>
+        <v>95.893883</v>
       </c>
       <c r="C517" t="n">
         <v>125.993988</v>
@@ -9098,7 +9098,7 @@
         <v>519</v>
       </c>
       <c r="B518" t="n">
-        <v>94.674515</v>
+        <v>94.674522</v>
       </c>
       <c r="C518" t="n">
         <v>124.198975</v>
@@ -9112,7 +9112,7 @@
         <v>98.332603</v>
       </c>
       <c r="C519" t="n">
-        <v>125.48114</v>
+        <v>125.481125</v>
       </c>
     </row>
     <row r="520">
@@ -9120,10 +9120,10 @@
         <v>521</v>
       </c>
       <c r="B520" t="n">
-        <v>97.20034</v>
+        <v>97.200333</v>
       </c>
       <c r="C520" t="n">
-        <v>125.652077</v>
+        <v>125.652092</v>
       </c>
     </row>
     <row r="521">
@@ -9131,10 +9131,10 @@
         <v>522</v>
       </c>
       <c r="B521" t="n">
-        <v>99.943901</v>
+        <v>99.943893</v>
       </c>
       <c r="C521" t="n">
-        <v>127.276154</v>
+        <v>127.276169</v>
       </c>
     </row>
     <row r="522">
@@ -9142,10 +9142,10 @@
         <v>523</v>
       </c>
       <c r="B522" t="n">
-        <v>100.422928</v>
+        <v>100.422935</v>
       </c>
       <c r="C522" t="n">
-        <v>128.472839</v>
+        <v>128.472855</v>
       </c>
     </row>
     <row r="523">
@@ -9153,10 +9153,10 @@
         <v>524</v>
       </c>
       <c r="B523" t="n">
-        <v>102.164871</v>
+        <v>102.164879</v>
       </c>
       <c r="C523" t="n">
-        <v>131.293625</v>
+        <v>131.29361</v>
       </c>
     </row>
     <row r="524">
@@ -9164,7 +9164,7 @@
         <v>525</v>
       </c>
       <c r="B524" t="n">
-        <v>102.513252</v>
+        <v>102.51326</v>
       </c>
       <c r="C524" t="n">
         <v>130.438828</v>
@@ -9186,7 +9186,7 @@
         <v>527</v>
       </c>
       <c r="B526" t="n">
-        <v>105.822945</v>
+        <v>105.822952</v>
       </c>
       <c r="C526" t="n">
         <v>133.516022</v>
@@ -9197,7 +9197,7 @@
         <v>528</v>
       </c>
       <c r="B527" t="n">
-        <v>107.608444</v>
+        <v>107.608437</v>
       </c>
       <c r="C527" t="n">
         <v>134.285324</v>
@@ -9208,7 +9208,7 @@
         <v>529</v>
       </c>
       <c r="B528" t="n">
-        <v>106.519722</v>
+        <v>106.51973</v>
       </c>
       <c r="C528" t="n">
         <v>134.199844</v>
@@ -9233,7 +9233,7 @@
         <v>104.951973</v>
       </c>
       <c r="C530" t="n">
-        <v>135.909393</v>
+        <v>135.909409</v>
       </c>
     </row>
     <row r="531">
@@ -9263,7 +9263,7 @@
         <v>534</v>
       </c>
       <c r="B533" t="n">
-        <v>106.476173</v>
+        <v>106.476181</v>
       </c>
       <c r="C533" t="n">
         <v>138.473724</v>
@@ -9277,7 +9277,7 @@
         <v>104.995529</v>
       </c>
       <c r="C534" t="n">
-        <v>137.020615</v>
+        <v>137.020599</v>
       </c>
     </row>
     <row r="535">
@@ -9321,7 +9321,7 @@
         <v>93.237427</v>
       </c>
       <c r="C538" t="n">
-        <v>109.240387</v>
+        <v>109.240395</v>
       </c>
     </row>
     <row r="539">
@@ -9340,7 +9340,7 @@
         <v>541</v>
       </c>
       <c r="B540" t="n">
-        <v>91.582573</v>
+        <v>91.582581</v>
       </c>
       <c r="C540" t="n">
         <v>107.872742</v>
@@ -9351,7 +9351,7 @@
         <v>542</v>
       </c>
       <c r="B541" t="n">
-        <v>93.063225</v>
+        <v>93.063232</v>
       </c>
       <c r="C541" t="n">
         <v>109.83873</v>
@@ -9376,7 +9376,7 @@
         <v>91.147095</v>
       </c>
       <c r="C543" t="n">
-        <v>104.795555</v>
+        <v>104.795547</v>
       </c>
     </row>
     <row r="544">
@@ -9406,7 +9406,7 @@
         <v>547</v>
       </c>
       <c r="B546" t="n">
-        <v>77.28994</v>
+        <v>77.289948</v>
       </c>
       <c r="C546" t="n">
         <v>93.854424</v>
@@ -9428,10 +9428,10 @@
         <v>549</v>
       </c>
       <c r="B548" t="n">
-        <v>67.726692</v>
+        <v>67.726685</v>
       </c>
       <c r="C548" t="n">
-        <v>82.272194</v>
+        <v>82.272202</v>
       </c>
     </row>
     <row r="549">
@@ -9453,7 +9453,7 @@
         <v>64.486679</v>
       </c>
       <c r="C550" t="n">
-        <v>78.895836</v>
+        <v>78.895828</v>
       </c>
     </row>
     <row r="551">

--- a/Danske aktiekurser.xlsx
+++ b/Danske aktiekurser.xlsx
@@ -3422,7 +3422,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>189.887909</v>
+        <v>189.887924</v>
       </c>
       <c r="C2" t="n">
         <v>191.282883</v>
@@ -3436,7 +3436,7 @@
         <v>188.870804</v>
       </c>
       <c r="C3" t="n">
-        <v>190.824905</v>
+        <v>190.82489</v>
       </c>
     </row>
     <row r="4">
@@ -3444,7 +3444,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>190.51384</v>
+        <v>190.513824</v>
       </c>
       <c r="C4" t="n">
         <v>192.351501</v>
@@ -3455,7 +3455,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="n">
-        <v>190.748566</v>
+        <v>190.748581</v>
       </c>
       <c r="C5" t="n">
         <v>192.046173</v>
@@ -3466,7 +3466,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="n">
-        <v>191.843918</v>
+        <v>191.843903</v>
       </c>
       <c r="C6" t="n">
         <v>191.74086</v>
@@ -3488,7 +3488,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="n">
-        <v>194.347595</v>
+        <v>194.34758</v>
       </c>
       <c r="C8" t="n">
         <v>195.404694</v>
@@ -3524,7 +3524,7 @@
         <v>196.303589</v>
       </c>
       <c r="C11" t="n">
-        <v>193.5728</v>
+        <v>193.572784</v>
       </c>
     </row>
     <row r="12">
@@ -3532,10 +3532,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="n">
-        <v>195.521194</v>
+        <v>195.521179</v>
       </c>
       <c r="C12" t="n">
-        <v>192.504166</v>
+        <v>192.50415</v>
       </c>
     </row>
     <row r="13">
@@ -3579,7 +3579,7 @@
         <v>193.330475</v>
       </c>
       <c r="C16" t="n">
-        <v>193.114807</v>
+        <v>193.114792</v>
       </c>
     </row>
     <row r="17">
@@ -3601,7 +3601,7 @@
         <v>192.078659</v>
       </c>
       <c r="C18" t="n">
-        <v>190.214264</v>
+        <v>190.214249</v>
       </c>
     </row>
     <row r="19">
@@ -3631,7 +3631,7 @@
         <v>22</v>
       </c>
       <c r="B21" t="n">
-        <v>191.843918</v>
+        <v>191.843903</v>
       </c>
       <c r="C21" t="n">
         <v>187.771698</v>
@@ -3653,10 +3653,10 @@
         <v>24</v>
       </c>
       <c r="B23" t="n">
-        <v>190.51384</v>
+        <v>190.513824</v>
       </c>
       <c r="C23" t="n">
-        <v>187.008377</v>
+        <v>187.008392</v>
       </c>
     </row>
     <row r="24">
@@ -3678,7 +3678,7 @@
         <v>191.609192</v>
       </c>
       <c r="C25" t="n">
-        <v>187.619019</v>
+        <v>187.619034</v>
       </c>
     </row>
     <row r="26">
@@ -3700,7 +3700,7 @@
         <v>186.758316</v>
       </c>
       <c r="C27" t="n">
-        <v>183.9552</v>
+        <v>183.955215</v>
       </c>
     </row>
     <row r="28">
@@ -3730,7 +3730,7 @@
         <v>31</v>
       </c>
       <c r="B30" t="n">
-        <v>188.244888</v>
+        <v>188.244904</v>
       </c>
       <c r="C30" t="n">
         <v>185.787109</v>
@@ -3755,7 +3755,7 @@
         <v>188.949051</v>
       </c>
       <c r="C32" t="n">
-        <v>188.535019</v>
+        <v>188.535004</v>
       </c>
     </row>
     <row r="33">
@@ -3763,7 +3763,7 @@
         <v>34</v>
       </c>
       <c r="B33" t="n">
-        <v>191.061508</v>
+        <v>191.061523</v>
       </c>
       <c r="C33" t="n">
         <v>193.267456</v>
@@ -3777,7 +3777,7 @@
         <v>192.313354</v>
       </c>
       <c r="C34" t="n">
-        <v>193.420105</v>
+        <v>193.42012</v>
       </c>
     </row>
     <row r="35">
@@ -3788,7 +3788,7 @@
         <v>194.660553</v>
       </c>
       <c r="C35" t="n">
-        <v>196.625977</v>
+        <v>196.625992</v>
       </c>
     </row>
     <row r="36">
@@ -3810,7 +3810,7 @@
         <v>191.687424</v>
       </c>
       <c r="C37" t="n">
-        <v>185.481781</v>
+        <v>185.481796</v>
       </c>
     </row>
     <row r="38">
@@ -3884,10 +3884,10 @@
         <v>45</v>
       </c>
       <c r="B44" t="n">
-        <v>190.748566</v>
+        <v>190.748581</v>
       </c>
       <c r="C44" t="n">
-        <v>181.665314</v>
+        <v>181.665298</v>
       </c>
     </row>
     <row r="45">
@@ -3898,7 +3898,7 @@
         <v>189.731445</v>
       </c>
       <c r="C45" t="n">
-        <v>177.696136</v>
+        <v>177.696152</v>
       </c>
     </row>
     <row r="46">
@@ -3909,7 +3909,7 @@
         <v>190.044403</v>
       </c>
       <c r="C46" t="n">
-        <v>179.833389</v>
+        <v>179.833405</v>
       </c>
     </row>
     <row r="47">
@@ -3917,7 +3917,7 @@
         <v>48</v>
       </c>
       <c r="B47" t="n">
-        <v>189.340256</v>
+        <v>189.34024</v>
       </c>
       <c r="C47" t="n">
         <v>180.749359</v>
@@ -3994,7 +3994,7 @@
         <v>55</v>
       </c>
       <c r="B54" t="n">
-        <v>191.061508</v>
+        <v>191.061523</v>
       </c>
       <c r="C54" t="n">
         <v>183.113098</v>
@@ -4019,7 +4019,7 @@
         <v>191.795746</v>
       </c>
       <c r="C56" t="n">
-        <v>183.594131</v>
+        <v>183.594116</v>
       </c>
     </row>
     <row r="57">
@@ -4030,7 +4030,7 @@
         <v>191.714172</v>
       </c>
       <c r="C57" t="n">
-        <v>185.357925</v>
+        <v>185.35791</v>
       </c>
     </row>
     <row r="58">
@@ -4074,7 +4074,7 @@
         <v>184.208771</v>
       </c>
       <c r="C61" t="n">
-        <v>181.670013</v>
+        <v>181.669983</v>
       </c>
     </row>
     <row r="62">
@@ -4107,7 +4107,7 @@
         <v>183.148224</v>
       </c>
       <c r="C64" t="n">
-        <v>178.463135</v>
+        <v>178.463104</v>
       </c>
     </row>
     <row r="65">
@@ -4118,7 +4118,7 @@
         <v>181.761353</v>
       </c>
       <c r="C65" t="n">
-        <v>176.378632</v>
+        <v>176.378647</v>
       </c>
     </row>
     <row r="66">
@@ -4129,7 +4129,7 @@
         <v>183.882431</v>
       </c>
       <c r="C66" t="n">
-        <v>178.944138</v>
+        <v>178.944153</v>
       </c>
     </row>
     <row r="67">
@@ -4206,7 +4206,7 @@
         <v>180.374481</v>
       </c>
       <c r="C73" t="n">
-        <v>181.990692</v>
+        <v>181.990677</v>
       </c>
     </row>
     <row r="74">
@@ -4228,7 +4228,7 @@
         <v>183.637711</v>
       </c>
       <c r="C75" t="n">
-        <v>188.083755</v>
+        <v>188.083771</v>
       </c>
     </row>
     <row r="76">
@@ -4239,7 +4239,7 @@
         <v>182.577164</v>
       </c>
       <c r="C76" t="n">
-        <v>188.885483</v>
+        <v>188.885498</v>
       </c>
     </row>
     <row r="77">
@@ -4272,7 +4272,7 @@
         <v>184.127182</v>
       </c>
       <c r="C79" t="n">
-        <v>194.657867</v>
+        <v>194.657883</v>
       </c>
     </row>
     <row r="80">
@@ -4305,7 +4305,7 @@
         <v>175.724396</v>
       </c>
       <c r="C82" t="n">
-        <v>183.433792</v>
+        <v>183.433777</v>
       </c>
     </row>
     <row r="83">
@@ -4316,7 +4316,7 @@
         <v>177.763901</v>
       </c>
       <c r="C83" t="n">
-        <v>181.670013</v>
+        <v>181.669983</v>
       </c>
     </row>
     <row r="84">
@@ -4338,7 +4338,7 @@
         <v>176.05072</v>
       </c>
       <c r="C85" t="n">
-        <v>181.990692</v>
+        <v>181.990677</v>
       </c>
     </row>
     <row r="86">
@@ -4349,7 +4349,7 @@
         <v>176.132294</v>
       </c>
       <c r="C86" t="n">
-        <v>183.433792</v>
+        <v>183.433777</v>
       </c>
     </row>
     <row r="87">
@@ -4360,7 +4360,7 @@
         <v>175.316483</v>
       </c>
       <c r="C87" t="n">
-        <v>184.235519</v>
+        <v>184.235504</v>
       </c>
     </row>
     <row r="88">
@@ -4382,7 +4382,7 @@
         <v>175.561234</v>
       </c>
       <c r="C89" t="n">
-        <v>186.961365</v>
+        <v>186.961349</v>
       </c>
     </row>
     <row r="90">
@@ -4404,7 +4404,7 @@
         <v>175.561234</v>
       </c>
       <c r="C91" t="n">
-        <v>185.999298</v>
+        <v>185.999283</v>
       </c>
     </row>
     <row r="92">
@@ -4415,7 +4415,7 @@
         <v>174.255951</v>
       </c>
       <c r="C92" t="n">
-        <v>183.594131</v>
+        <v>183.594116</v>
       </c>
     </row>
     <row r="93">
@@ -4426,7 +4426,7 @@
         <v>176.540192</v>
       </c>
       <c r="C93" t="n">
-        <v>185.197586</v>
+        <v>185.197556</v>
       </c>
     </row>
     <row r="94">
@@ -4448,7 +4448,7 @@
         <v>176.132294</v>
       </c>
       <c r="C95" t="n">
-        <v>185.357925</v>
+        <v>185.35791</v>
       </c>
     </row>
     <row r="96">
@@ -4459,7 +4459,7 @@
         <v>176.94809</v>
       </c>
       <c r="C96" t="n">
-        <v>185.037247</v>
+        <v>185.037216</v>
       </c>
     </row>
     <row r="97">
@@ -4481,7 +4481,7 @@
         <v>173.276978</v>
       </c>
       <c r="C98" t="n">
-        <v>181.670013</v>
+        <v>181.669983</v>
       </c>
     </row>
     <row r="99">
@@ -4503,7 +4503,7 @@
         <v>168.953217</v>
       </c>
       <c r="C100" t="n">
-        <v>174.935547</v>
+        <v>174.935532</v>
       </c>
     </row>
     <row r="101">
@@ -4536,7 +4536,7 @@
         <v>176.295456</v>
       </c>
       <c r="C103" t="n">
-        <v>178.30278</v>
+        <v>178.302765</v>
       </c>
     </row>
     <row r="104">
@@ -4547,7 +4547,7 @@
         <v>178.253387</v>
       </c>
       <c r="C104" t="n">
-        <v>178.944138</v>
+        <v>178.944153</v>
       </c>
     </row>
     <row r="105">
@@ -4569,7 +4569,7 @@
         <v>175.561234</v>
       </c>
       <c r="C106" t="n">
-        <v>177.501038</v>
+        <v>177.501053</v>
       </c>
     </row>
     <row r="107">
@@ -4591,7 +4591,7 @@
         <v>177.84549</v>
       </c>
       <c r="C108" t="n">
-        <v>177.02002</v>
+        <v>177.020004</v>
       </c>
     </row>
     <row r="109">
@@ -4602,7 +4602,7 @@
         <v>178.498123</v>
       </c>
       <c r="C109" t="n">
-        <v>177.180359</v>
+        <v>177.180344</v>
       </c>
     </row>
     <row r="110">
@@ -4613,7 +4613,7 @@
         <v>178.253387</v>
       </c>
       <c r="C110" t="n">
-        <v>177.340714</v>
+        <v>177.340698</v>
       </c>
     </row>
     <row r="111">
@@ -4624,7 +4624,7 @@
         <v>178.742889</v>
       </c>
       <c r="C111" t="n">
-        <v>178.623459</v>
+        <v>178.623444</v>
       </c>
     </row>
     <row r="112">
@@ -4646,7 +4646,7 @@
         <v>173.929611</v>
       </c>
       <c r="C113" t="n">
-        <v>175.897598</v>
+        <v>175.897614</v>
       </c>
     </row>
     <row r="114">
@@ -4690,7 +4690,7 @@
         <v>168.626892</v>
       </c>
       <c r="C117" t="n">
-        <v>174.294144</v>
+        <v>174.294159</v>
       </c>
     </row>
     <row r="118">
@@ -4701,7 +4701,7 @@
         <v>166.097916</v>
       </c>
       <c r="C118" t="n">
-        <v>174.294144</v>
+        <v>174.294159</v>
       </c>
     </row>
     <row r="119">
@@ -4712,7 +4712,7 @@
         <v>161.243851</v>
       </c>
       <c r="C119" t="n">
-        <v>173.813141</v>
+        <v>173.813126</v>
       </c>
     </row>
     <row r="120">
@@ -4723,7 +4723,7 @@
         <v>162.018875</v>
       </c>
       <c r="C120" t="n">
-        <v>173.652802</v>
+        <v>173.652771</v>
       </c>
     </row>
     <row r="121">
@@ -4734,7 +4734,7 @@
         <v>162.018875</v>
       </c>
       <c r="C121" t="n">
-        <v>174.454498</v>
+        <v>174.454514</v>
       </c>
     </row>
     <row r="122">
@@ -4745,7 +4745,7 @@
         <v>162.957047</v>
       </c>
       <c r="C122" t="n">
-        <v>175.897598</v>
+        <v>175.897614</v>
       </c>
     </row>
     <row r="123">
@@ -4767,7 +4767,7 @@
         <v>164.303116</v>
       </c>
       <c r="C124" t="n">
-        <v>177.501038</v>
+        <v>177.501053</v>
       </c>
     </row>
     <row r="125">
@@ -4778,7 +4778,7 @@
         <v>160.99913</v>
       </c>
       <c r="C125" t="n">
-        <v>179.264847</v>
+        <v>179.264832</v>
       </c>
     </row>
     <row r="126">
@@ -4789,7 +4789,7 @@
         <v>156.797714</v>
       </c>
       <c r="C126" t="n">
-        <v>177.501038</v>
+        <v>177.501053</v>
       </c>
     </row>
     <row r="127">
@@ -4811,7 +4811,7 @@
         <v>157.001663</v>
       </c>
       <c r="C128" t="n">
-        <v>180.226913</v>
+        <v>180.226898</v>
       </c>
     </row>
     <row r="129">
@@ -4866,7 +4866,7 @@
         <v>158.062225</v>
       </c>
       <c r="C133" t="n">
-        <v>181.990692</v>
+        <v>181.990677</v>
       </c>
     </row>
     <row r="134">
@@ -4899,7 +4899,7 @@
         <v>148.394928</v>
       </c>
       <c r="C136" t="n">
-        <v>179.74585</v>
+        <v>179.745865</v>
       </c>
     </row>
     <row r="137">
@@ -4910,7 +4910,7 @@
         <v>147.456757</v>
       </c>
       <c r="C137" t="n">
-        <v>180.387253</v>
+        <v>180.387238</v>
       </c>
     </row>
     <row r="138">
@@ -4921,7 +4921,7 @@
         <v>149.985748</v>
       </c>
       <c r="C138" t="n">
-        <v>181.670013</v>
+        <v>181.669983</v>
       </c>
     </row>
     <row r="139">
@@ -4932,7 +4932,7 @@
         <v>151.94368</v>
       </c>
       <c r="C139" t="n">
-        <v>185.037247</v>
+        <v>185.037216</v>
       </c>
     </row>
     <row r="140">
@@ -4965,7 +4965,7 @@
         <v>153.208176</v>
       </c>
       <c r="C142" t="n">
-        <v>188.564804</v>
+        <v>188.564789</v>
       </c>
     </row>
     <row r="143">
@@ -4976,7 +4976,7 @@
         <v>153.208176</v>
       </c>
       <c r="C143" t="n">
-        <v>189.847549</v>
+        <v>189.847534</v>
       </c>
     </row>
     <row r="144">
@@ -4998,7 +4998,7 @@
         <v>149.12915</v>
       </c>
       <c r="C145" t="n">
-        <v>188.083755</v>
+        <v>188.083771</v>
       </c>
     </row>
     <row r="146">
@@ -5020,7 +5020,7 @@
         <v>149.12915</v>
       </c>
       <c r="C147" t="n">
-        <v>185.037247</v>
+        <v>185.037216</v>
       </c>
     </row>
     <row r="148">
@@ -5031,7 +5031,7 @@
         <v>147.53833</v>
       </c>
       <c r="C148" t="n">
-        <v>177.180359</v>
+        <v>177.180344</v>
       </c>
     </row>
     <row r="149">
@@ -5042,7 +5042,7 @@
         <v>147.905441</v>
       </c>
       <c r="C149" t="n">
-        <v>180.387253</v>
+        <v>180.387238</v>
       </c>
     </row>
     <row r="150">
@@ -5064,7 +5064,7 @@
         <v>148.231766</v>
       </c>
       <c r="C151" t="n">
-        <v>179.264847</v>
+        <v>179.264832</v>
       </c>
     </row>
     <row r="152">
@@ -5075,7 +5075,7 @@
         <v>149.700211</v>
       </c>
       <c r="C152" t="n">
-        <v>177.501038</v>
+        <v>177.501053</v>
       </c>
     </row>
     <row r="153">
@@ -5086,7 +5086,7 @@
         <v>150.026535</v>
       </c>
       <c r="C153" t="n">
-        <v>178.30278</v>
+        <v>178.302765</v>
       </c>
     </row>
     <row r="154">
@@ -5174,7 +5174,7 @@
         <v>151.94368</v>
       </c>
       <c r="C161" t="n">
-        <v>175.897598</v>
+        <v>175.897614</v>
       </c>
     </row>
     <row r="162">
@@ -5207,7 +5207,7 @@
         <v>156.716141</v>
       </c>
       <c r="C164" t="n">
-        <v>155.614059</v>
+        <v>155.614075</v>
       </c>
     </row>
     <row r="165">
@@ -5229,7 +5229,7 @@
         <v>156.634552</v>
       </c>
       <c r="C166" t="n">
-        <v>151.926147</v>
+        <v>151.926132</v>
       </c>
     </row>
     <row r="167">
@@ -5240,7 +5240,7 @@
         <v>154.146362</v>
       </c>
       <c r="C167" t="n">
-        <v>150.723557</v>
+        <v>150.723541</v>
       </c>
     </row>
     <row r="168">
@@ -5273,7 +5273,7 @@
         <v>148.272552</v>
       </c>
       <c r="C170" t="n">
-        <v>147.917542</v>
+        <v>147.917526</v>
       </c>
     </row>
     <row r="171">
@@ -5295,7 +5295,7 @@
         <v>144.397491</v>
       </c>
       <c r="C172" t="n">
-        <v>148.799423</v>
+        <v>148.799438</v>
       </c>
     </row>
     <row r="173">
@@ -5306,7 +5306,7 @@
         <v>140.155304</v>
       </c>
       <c r="C173" t="n">
-        <v>148.799423</v>
+        <v>148.799438</v>
       </c>
     </row>
     <row r="174">
@@ -5350,7 +5350,7 @@
         <v>138.646042</v>
       </c>
       <c r="C177" t="n">
-        <v>147.917542</v>
+        <v>147.917526</v>
       </c>
     </row>
     <row r="178">
@@ -5361,7 +5361,7 @@
         <v>137.748672</v>
       </c>
       <c r="C178" t="n">
-        <v>149.200287</v>
+        <v>149.200302</v>
       </c>
     </row>
     <row r="179">
@@ -5383,7 +5383,7 @@
         <v>137.871048</v>
       </c>
       <c r="C180" t="n">
-        <v>149.921829</v>
+        <v>149.921844</v>
       </c>
     </row>
     <row r="181">
@@ -5405,7 +5405,7 @@
         <v>138.727646</v>
       </c>
       <c r="C182" t="n">
-        <v>152.888214</v>
+        <v>152.888199</v>
       </c>
     </row>
     <row r="183">
@@ -5438,7 +5438,7 @@
         <v>140.563202</v>
       </c>
       <c r="C185" t="n">
-        <v>155.934738</v>
+        <v>155.934753</v>
       </c>
     </row>
     <row r="186">
@@ -5460,7 +5460,7 @@
         <v>137.626297</v>
       </c>
       <c r="C187" t="n">
-        <v>151.525269</v>
+        <v>151.525284</v>
       </c>
     </row>
     <row r="188">
@@ -5471,7 +5471,7 @@
         <v>138.238159</v>
       </c>
       <c r="C188" t="n">
-        <v>152.647675</v>
+        <v>152.64769</v>
       </c>
     </row>
     <row r="189">
@@ -5515,7 +5515,7 @@
         <v>121.310196</v>
       </c>
       <c r="C192" t="n">
-        <v>150.483047</v>
+        <v>150.483032</v>
       </c>
     </row>
     <row r="193">
@@ -5537,7 +5537,7 @@
         <v>115.925896</v>
       </c>
       <c r="C194" t="n">
-        <v>141.824448</v>
+        <v>141.824463</v>
       </c>
     </row>
     <row r="195">
@@ -5581,7 +5581,7 @@
         <v>113.886383</v>
       </c>
       <c r="C198" t="n">
-        <v>142.546021</v>
+        <v>142.54599</v>
       </c>
     </row>
     <row r="199">
@@ -5625,7 +5625,7 @@
         <v>107.033607</v>
       </c>
       <c r="C202" t="n">
-        <v>142.70636</v>
+        <v>142.706345</v>
       </c>
     </row>
     <row r="203">
@@ -5636,7 +5636,7 @@
         <v>106.421753</v>
       </c>
       <c r="C203" t="n">
-        <v>139.82016</v>
+        <v>139.820145</v>
       </c>
     </row>
     <row r="204">
@@ -5680,7 +5680,7 @@
         <v>102.791428</v>
       </c>
       <c r="C207" t="n">
-        <v>140.862381</v>
+        <v>140.862396</v>
       </c>
     </row>
     <row r="208">
@@ -5702,7 +5702,7 @@
         <v>103.280914</v>
       </c>
       <c r="C209" t="n">
-        <v>139.900314</v>
+        <v>139.90033</v>
       </c>
     </row>
     <row r="210">
@@ -5713,7 +5713,7 @@
         <v>103.076958</v>
       </c>
       <c r="C210" t="n">
-        <v>122.102135</v>
+        <v>122.102127</v>
       </c>
     </row>
     <row r="211">
@@ -5735,7 +5735,7 @@
         <v>111.765274</v>
       </c>
       <c r="C212" t="n">
-        <v>127.874512</v>
+        <v>127.874504</v>
       </c>
     </row>
     <row r="213">
@@ -5746,7 +5746,7 @@
         <v>110.337624</v>
       </c>
       <c r="C213" t="n">
-        <v>130.199509</v>
+        <v>130.199493</v>
       </c>
     </row>
     <row r="214">
@@ -5757,7 +5757,7 @@
         <v>110.174461</v>
       </c>
       <c r="C214" t="n">
-        <v>130.680527</v>
+        <v>130.680542</v>
       </c>
     </row>
     <row r="215">
@@ -5768,7 +5768,7 @@
         <v>117.516716</v>
       </c>
       <c r="C215" t="n">
-        <v>132.524506</v>
+        <v>132.52449</v>
       </c>
     </row>
     <row r="216">
@@ -5779,7 +5779,7 @@
         <v>117.027222</v>
       </c>
       <c r="C216" t="n">
-        <v>133.326202</v>
+        <v>133.326218</v>
       </c>
     </row>
     <row r="217">
@@ -5790,7 +5790,7 @@
         <v>117.598289</v>
       </c>
       <c r="C217" t="n">
-        <v>131.32193</v>
+        <v>131.321899</v>
       </c>
     </row>
     <row r="218">
@@ -5801,7 +5801,7 @@
         <v>116.619316</v>
       </c>
       <c r="C218" t="n">
-        <v>130.440002</v>
+        <v>130.440018</v>
       </c>
     </row>
     <row r="219">
@@ -5812,7 +5812,7 @@
         <v>115.028503</v>
       </c>
       <c r="C219" t="n">
-        <v>129.79863</v>
+        <v>129.798645</v>
       </c>
     </row>
     <row r="220">
@@ -5823,7 +5823,7 @@
         <v>117.598289</v>
       </c>
       <c r="C220" t="n">
-        <v>129.237427</v>
+        <v>129.237442</v>
       </c>
     </row>
     <row r="221">
@@ -5834,7 +5834,7 @@
         <v>113.519257</v>
       </c>
       <c r="C221" t="n">
-        <v>127.874512</v>
+        <v>127.874504</v>
       </c>
     </row>
     <row r="222">
@@ -5845,7 +5845,7 @@
         <v>111.602127</v>
       </c>
       <c r="C222" t="n">
-        <v>127.553818</v>
+        <v>127.553825</v>
       </c>
     </row>
     <row r="223">
@@ -5867,7 +5867,7 @@
         <v>106.544144</v>
       </c>
       <c r="C224" t="n">
-        <v>125.950378</v>
+        <v>125.950386</v>
       </c>
     </row>
     <row r="225">
@@ -5878,7 +5878,7 @@
         <v>107.441513</v>
       </c>
       <c r="C225" t="n">
-        <v>127.874512</v>
+        <v>127.874504</v>
       </c>
     </row>
     <row r="226">
@@ -5889,7 +5889,7 @@
         <v>108.461273</v>
       </c>
       <c r="C226" t="n">
-        <v>127.874512</v>
+        <v>127.874504</v>
       </c>
     </row>
     <row r="227">
@@ -5900,7 +5900,7 @@
         <v>108.869164</v>
       </c>
       <c r="C227" t="n">
-        <v>128.275375</v>
+        <v>128.27536</v>
       </c>
     </row>
     <row r="228">
@@ -5933,7 +5933,7 @@
         <v>110.949478</v>
       </c>
       <c r="C230" t="n">
-        <v>129.63829</v>
+        <v>129.638306</v>
       </c>
     </row>
     <row r="231">
@@ -5977,7 +5977,7 @@
         <v>108.583641</v>
       </c>
       <c r="C234" t="n">
-        <v>127.152954</v>
+        <v>127.152962</v>
       </c>
     </row>
     <row r="235">
@@ -5988,7 +5988,7 @@
         <v>114.620598</v>
       </c>
       <c r="C235" t="n">
-        <v>129.79863</v>
+        <v>129.798645</v>
       </c>
     </row>
     <row r="236">
@@ -5999,7 +5999,7 @@
         <v>111.316589</v>
       </c>
       <c r="C236" t="n">
-        <v>126.992599</v>
+        <v>126.992607</v>
       </c>
     </row>
     <row r="237">
@@ -6010,7 +6010,7 @@
         <v>116.007469</v>
       </c>
       <c r="C237" t="n">
-        <v>129.558136</v>
+        <v>129.558121</v>
       </c>
     </row>
     <row r="238">
@@ -6021,7 +6021,7 @@
         <v>112.050819</v>
       </c>
       <c r="C238" t="n">
-        <v>127.152954</v>
+        <v>127.152962</v>
       </c>
     </row>
     <row r="239">
@@ -6032,7 +6032,7 @@
         <v>114.2127</v>
       </c>
       <c r="C239" t="n">
-        <v>129.558136</v>
+        <v>129.558121</v>
       </c>
     </row>
     <row r="240">
@@ -6043,7 +6043,7 @@
         <v>113.519257</v>
       </c>
       <c r="C240" t="n">
-        <v>129.077087</v>
+        <v>129.077103</v>
       </c>
     </row>
     <row r="241">
@@ -6054,7 +6054,7 @@
         <v>113.396896</v>
       </c>
       <c r="C241" t="n">
-        <v>128.676239</v>
+        <v>128.676224</v>
       </c>
     </row>
     <row r="242">
@@ -6076,7 +6076,7 @@
         <v>110.459984</v>
       </c>
       <c r="C243" t="n">
-        <v>127.633995</v>
+        <v>127.633987</v>
       </c>
     </row>
     <row r="244">
@@ -6098,7 +6098,7 @@
         <v>109.725777</v>
       </c>
       <c r="C245" t="n">
-        <v>121.781425</v>
+        <v>121.781418</v>
       </c>
     </row>
     <row r="246">
@@ -6109,7 +6109,7 @@
         <v>105.442795</v>
       </c>
       <c r="C246" t="n">
-        <v>117.772827</v>
+        <v>117.77282</v>
       </c>
     </row>
     <row r="247">
@@ -6142,7 +6142,7 @@
         <v>105.157257</v>
       </c>
       <c r="C249" t="n">
-        <v>124.346931</v>
+        <v>124.346947</v>
       </c>
     </row>
     <row r="250">
@@ -6153,7 +6153,7 @@
         <v>104.994095</v>
       </c>
       <c r="C250" t="n">
-        <v>126.271057</v>
+        <v>126.27108</v>
       </c>
     </row>
     <row r="251">
@@ -6175,7 +6175,7 @@
         <v>109.195503</v>
       </c>
       <c r="C252" t="n">
-        <v>127.313316</v>
+        <v>127.313301</v>
       </c>
     </row>
     <row r="253">
@@ -6186,7 +6186,7 @@
         <v>108.909966</v>
       </c>
       <c r="C253" t="n">
-        <v>126.591759</v>
+        <v>126.591751</v>
       </c>
     </row>
     <row r="254">
@@ -6197,7 +6197,7 @@
         <v>108.379692</v>
       </c>
       <c r="C254" t="n">
-        <v>126.832275</v>
+        <v>126.832283</v>
       </c>
     </row>
     <row r="255">
@@ -6219,7 +6219,7 @@
         <v>104.219086</v>
       </c>
       <c r="C256" t="n">
-        <v>126.591759</v>
+        <v>126.591751</v>
       </c>
     </row>
     <row r="257">
@@ -6230,7 +6230,7 @@
         <v>105.687538</v>
       </c>
       <c r="C257" t="n">
-        <v>125.469353</v>
+        <v>125.469345</v>
       </c>
     </row>
     <row r="258">
@@ -6241,7 +6241,7 @@
         <v>106.054649</v>
       </c>
       <c r="C258" t="n">
-        <v>124.266762</v>
+        <v>124.266769</v>
       </c>
     </row>
     <row r="259">
@@ -6252,7 +6252,7 @@
         <v>104.423042</v>
       </c>
       <c r="C259" t="n">
-        <v>122.583153</v>
+        <v>122.583145</v>
       </c>
     </row>
     <row r="260">
@@ -6263,7 +6263,7 @@
         <v>105.034897</v>
       </c>
       <c r="C260" t="n">
-        <v>126.271057</v>
+        <v>126.27108</v>
       </c>
     </row>
     <row r="261">
@@ -6274,7 +6274,7 @@
         <v>103.933556</v>
       </c>
       <c r="C261" t="n">
-        <v>126.03054</v>
+        <v>126.030563</v>
       </c>
     </row>
     <row r="262">
@@ -6285,7 +6285,7 @@
         <v>103.199333</v>
       </c>
       <c r="C262" t="n">
-        <v>125.870201</v>
+        <v>125.870209</v>
       </c>
     </row>
     <row r="263">
@@ -6307,7 +6307,7 @@
         <v>102.791428</v>
       </c>
       <c r="C264" t="n">
-        <v>125.709877</v>
+        <v>125.709862</v>
       </c>
     </row>
     <row r="265">
@@ -6318,7 +6318,7 @@
         <v>101.975624</v>
       </c>
       <c r="C265" t="n">
-        <v>126.19088</v>
+        <v>126.190887</v>
       </c>
     </row>
     <row r="266">
@@ -6329,7 +6329,7 @@
         <v>99.976906</v>
       </c>
       <c r="C266" t="n">
-        <v>126.110718</v>
+        <v>126.110725</v>
       </c>
     </row>
     <row r="267">
@@ -6340,7 +6340,7 @@
         <v>102.138786</v>
       </c>
       <c r="C267" t="n">
-        <v>126.832275</v>
+        <v>126.832283</v>
       </c>
     </row>
     <row r="268">
@@ -6362,7 +6362,7 @@
         <v>99.85453</v>
       </c>
       <c r="C269" t="n">
-        <v>123.46505</v>
+        <v>123.465057</v>
       </c>
     </row>
     <row r="270">
@@ -6373,7 +6373,7 @@
         <v>100.140068</v>
       </c>
       <c r="C270" t="n">
-        <v>123.144356</v>
+        <v>123.144363</v>
       </c>
     </row>
     <row r="271">
@@ -6384,7 +6384,7 @@
         <v>98.304497</v>
       </c>
       <c r="C271" t="n">
-        <v>120.739204</v>
+        <v>120.739189</v>
       </c>
     </row>
     <row r="272">
@@ -6395,7 +6395,7 @@
         <v>103.444069</v>
       </c>
       <c r="C272" t="n">
-        <v>121.781425</v>
+        <v>121.781418</v>
       </c>
     </row>
     <row r="273">
@@ -6406,7 +6406,7 @@
         <v>101.078239</v>
       </c>
       <c r="C273" t="n">
-        <v>122.262474</v>
+        <v>122.262466</v>
       </c>
     </row>
     <row r="274">
@@ -6417,7 +6417,7 @@
         <v>103.199333</v>
       </c>
       <c r="C274" t="n">
-        <v>122.102135</v>
+        <v>122.102127</v>
       </c>
     </row>
     <row r="275">
@@ -6428,7 +6428,7 @@
         <v>102.66906</v>
       </c>
       <c r="C275" t="n">
-        <v>121.781425</v>
+        <v>121.781418</v>
       </c>
     </row>
     <row r="276">
@@ -6439,7 +6439,7 @@
         <v>101.975624</v>
       </c>
       <c r="C276" t="n">
-        <v>120.338348</v>
+        <v>120.338333</v>
       </c>
     </row>
     <row r="277">
@@ -6450,7 +6450,7 @@
         <v>97.896599</v>
       </c>
       <c r="C277" t="n">
-        <v>119.456436</v>
+        <v>119.456444</v>
       </c>
     </row>
     <row r="278">
@@ -6461,7 +6461,7 @@
         <v>98.712402</v>
       </c>
       <c r="C278" t="n">
-        <v>119.13575</v>
+        <v>119.135765</v>
       </c>
     </row>
     <row r="279">
@@ -6472,7 +6472,7 @@
         <v>101.119026</v>
       </c>
       <c r="C279" t="n">
-        <v>121.220222</v>
+        <v>121.22023</v>
       </c>
     </row>
     <row r="280">
@@ -6483,7 +6483,7 @@
         <v>100.180847</v>
       </c>
       <c r="C280" t="n">
-        <v>122.262474</v>
+        <v>122.262466</v>
       </c>
     </row>
     <row r="281">
@@ -6494,7 +6494,7 @@
         <v>99.936104</v>
       </c>
       <c r="C281" t="n">
-        <v>121.220222</v>
+        <v>121.22023</v>
       </c>
     </row>
     <row r="282">
@@ -6516,7 +6516,7 @@
         <v>103.321701</v>
       </c>
       <c r="C283" t="n">
-        <v>123.545227</v>
+        <v>123.545212</v>
       </c>
     </row>
     <row r="284">
@@ -6538,7 +6538,7 @@
         <v>103.117752</v>
       </c>
       <c r="C285" t="n">
-        <v>121.781425</v>
+        <v>121.781418</v>
       </c>
     </row>
     <row r="286">
@@ -6549,7 +6549,7 @@
         <v>98.712402</v>
       </c>
       <c r="C286" t="n">
-        <v>120.498688</v>
+        <v>120.498672</v>
       </c>
     </row>
     <row r="287">
@@ -6571,7 +6571,7 @@
         <v>102.301949</v>
       </c>
       <c r="C288" t="n">
-        <v>121.781425</v>
+        <v>121.781418</v>
       </c>
     </row>
     <row r="289">
@@ -6582,7 +6582,7 @@
         <v>102.22036</v>
       </c>
       <c r="C289" t="n">
-        <v>119.777122</v>
+        <v>119.777115</v>
       </c>
     </row>
     <row r="290">
@@ -6593,7 +6593,7 @@
         <v>106.054649</v>
       </c>
       <c r="C290" t="n">
-        <v>127.393478</v>
+        <v>127.393456</v>
       </c>
     </row>
     <row r="291">
@@ -6604,7 +6604,7 @@
         <v>106.462555</v>
       </c>
       <c r="C291" t="n">
-        <v>125.228821</v>
+        <v>125.228828</v>
       </c>
     </row>
     <row r="292">
@@ -6615,7 +6615,7 @@
         <v>105.973061</v>
       </c>
       <c r="C292" t="n">
-        <v>122.502991</v>
+        <v>122.502983</v>
       </c>
     </row>
     <row r="293">
@@ -6626,7 +6626,7 @@
         <v>105.687538</v>
       </c>
       <c r="C293" t="n">
-        <v>122.422813</v>
+        <v>122.422806</v>
       </c>
     </row>
     <row r="294">
@@ -6637,7 +6637,7 @@
         <v>104.83094</v>
       </c>
       <c r="C294" t="n">
-        <v>121.059875</v>
+        <v>121.059883</v>
       </c>
     </row>
     <row r="295">
@@ -6681,7 +6681,7 @@
         <v>103.892769</v>
       </c>
       <c r="C298" t="n">
-        <v>115.768509</v>
+        <v>115.768517</v>
       </c>
     </row>
     <row r="299">
@@ -6692,7 +6692,7 @@
         <v>104.463829</v>
       </c>
       <c r="C299" t="n">
-        <v>117.933182</v>
+        <v>117.933174</v>
       </c>
     </row>
     <row r="300">
@@ -6714,7 +6714,7 @@
         <v>107.971794</v>
       </c>
       <c r="C301" t="n">
-        <v>118.654709</v>
+        <v>118.654724</v>
       </c>
     </row>
     <row r="302">
@@ -6736,7 +6736,7 @@
         <v>109.481026</v>
       </c>
       <c r="C303" t="n">
-        <v>122.102135</v>
+        <v>122.102127</v>
       </c>
     </row>
     <row r="304">
@@ -6747,7 +6747,7 @@
         <v>110.308449</v>
       </c>
       <c r="C304" t="n">
-        <v>123.304695</v>
+        <v>123.304703</v>
       </c>
     </row>
     <row r="305">
@@ -6769,7 +6769,7 @@
         <v>108.000374</v>
       </c>
       <c r="C306" t="n">
-        <v>120.899536</v>
+        <v>120.899529</v>
       </c>
     </row>
     <row r="307">
@@ -6780,7 +6780,7 @@
         <v>105.866501</v>
       </c>
       <c r="C307" t="n">
-        <v>120.096054</v>
+        <v>120.096046</v>
       </c>
     </row>
     <row r="308">
@@ -6791,7 +6791,7 @@
         <v>105.605202</v>
       </c>
       <c r="C308" t="n">
-        <v>118.386497</v>
+        <v>118.38649</v>
       </c>
     </row>
     <row r="309">
@@ -6802,7 +6802,7 @@
         <v>105.03907</v>
       </c>
       <c r="C309" t="n">
-        <v>114.540009</v>
+        <v>114.540001</v>
       </c>
     </row>
     <row r="310">
@@ -6813,7 +6813,7 @@
         <v>105.474564</v>
       </c>
       <c r="C310" t="n">
-        <v>116.762428</v>
+        <v>116.762421</v>
       </c>
     </row>
     <row r="311">
@@ -6824,7 +6824,7 @@
         <v>101.685837</v>
       </c>
       <c r="C311" t="n">
-        <v>117.104324</v>
+        <v>117.104317</v>
       </c>
     </row>
     <row r="312">
@@ -6835,7 +6835,7 @@
         <v>101.729393</v>
       </c>
       <c r="C312" t="n">
-        <v>117.959106</v>
+        <v>117.959099</v>
       </c>
     </row>
     <row r="313">
@@ -6846,7 +6846,7 @@
         <v>106.066818</v>
       </c>
       <c r="C313" t="n">
-        <v>121.12178</v>
+        <v>121.121765</v>
       </c>
     </row>
     <row r="314">
@@ -6868,7 +6868,7 @@
         <v>108.043922</v>
       </c>
       <c r="C315" t="n">
-        <v>121.292732</v>
+        <v>121.292725</v>
       </c>
     </row>
     <row r="316">
@@ -6890,7 +6890,7 @@
         <v>107.129402</v>
       </c>
       <c r="C317" t="n">
-        <v>121.207253</v>
+        <v>121.20726</v>
       </c>
     </row>
     <row r="318">
@@ -6901,7 +6901,7 @@
         <v>107.347145</v>
       </c>
       <c r="C318" t="n">
-        <v>122.062027</v>
+        <v>122.062035</v>
       </c>
     </row>
     <row r="319">
@@ -6934,7 +6934,7 @@
         <v>108.13102</v>
       </c>
       <c r="C321" t="n">
-        <v>122.232986</v>
+        <v>122.232994</v>
       </c>
     </row>
     <row r="322">
@@ -6945,7 +6945,7 @@
         <v>110.613289</v>
       </c>
       <c r="C322" t="n">
-        <v>123.515144</v>
+        <v>123.51516</v>
       </c>
     </row>
     <row r="323">
@@ -6967,7 +6967,7 @@
         <v>112.050385</v>
       </c>
       <c r="C324" t="n">
-        <v>124.028008</v>
+        <v>124.028015</v>
       </c>
     </row>
     <row r="325">
@@ -6978,7 +6978,7 @@
         <v>112.268127</v>
       </c>
       <c r="C325" t="n">
-        <v>124.968262</v>
+        <v>124.968254</v>
       </c>
     </row>
     <row r="326">
@@ -6989,7 +6989,7 @@
         <v>110.87458</v>
       </c>
       <c r="C326" t="n">
-        <v>123.429665</v>
+        <v>123.429672</v>
       </c>
     </row>
     <row r="327">
@@ -7000,7 +7000,7 @@
         <v>110.831032</v>
       </c>
       <c r="C327" t="n">
-        <v>122.062027</v>
+        <v>122.062035</v>
       </c>
     </row>
     <row r="328">
@@ -7022,7 +7022,7 @@
         <v>111.919746</v>
       </c>
       <c r="C329" t="n">
-        <v>122.916809</v>
+        <v>122.916817</v>
       </c>
     </row>
     <row r="330">
@@ -7088,7 +7088,7 @@
         <v>100.510025</v>
       </c>
       <c r="C335" t="n">
-        <v>107.78727</v>
+        <v>107.787262</v>
       </c>
     </row>
     <row r="336">
@@ -7121,7 +7121,7 @@
         <v>94.587425</v>
       </c>
       <c r="C338" t="n">
-        <v>107.01796</v>
+        <v>107.017967</v>
       </c>
     </row>
     <row r="339">
@@ -7176,7 +7176,7 @@
         <v>94.500328</v>
       </c>
       <c r="C343" t="n">
-        <v>105.821281</v>
+        <v>105.821289</v>
       </c>
     </row>
     <row r="344">
@@ -7209,7 +7209,7 @@
         <v>96.764854</v>
       </c>
       <c r="C346" t="n">
-        <v>105.906761</v>
+        <v>105.906769</v>
       </c>
     </row>
     <row r="347">
@@ -7297,7 +7297,7 @@
         <v>94.674522</v>
       </c>
       <c r="C354" t="n">
-        <v>107.61631</v>
+        <v>107.616318</v>
       </c>
     </row>
     <row r="355">
@@ -7341,7 +7341,7 @@
         <v>97.374535</v>
       </c>
       <c r="C358" t="n">
-        <v>111.97567</v>
+        <v>111.975677</v>
       </c>
     </row>
     <row r="359">
@@ -7352,7 +7352,7 @@
         <v>95.458389</v>
       </c>
       <c r="C359" t="n">
-        <v>111.377335</v>
+        <v>111.377327</v>
       </c>
     </row>
     <row r="360">
@@ -7363,7 +7363,7 @@
         <v>94.935814</v>
       </c>
       <c r="C360" t="n">
-        <v>112.403061</v>
+        <v>112.403053</v>
       </c>
     </row>
     <row r="361">
@@ -7396,7 +7396,7 @@
         <v>90.189026</v>
       </c>
       <c r="C363" t="n">
-        <v>109.66777</v>
+        <v>109.667778</v>
       </c>
     </row>
     <row r="364">
@@ -7407,7 +7407,7 @@
         <v>90.493866</v>
       </c>
       <c r="C364" t="n">
-        <v>108.727524</v>
+        <v>108.727516</v>
       </c>
     </row>
     <row r="365">
@@ -7429,7 +7429,7 @@
         <v>86.260948</v>
       </c>
       <c r="C366" t="n">
-        <v>104.539116</v>
+        <v>104.539124</v>
       </c>
     </row>
     <row r="367">
@@ -7484,7 +7484,7 @@
         <v>90.624512</v>
       </c>
       <c r="C371" t="n">
-        <v>107.958221</v>
+        <v>107.958229</v>
       </c>
     </row>
     <row r="372">
@@ -7517,7 +7517,7 @@
         <v>92.540642</v>
       </c>
       <c r="C374" t="n">
-        <v>110.693512</v>
+        <v>110.693504</v>
       </c>
     </row>
     <row r="375">
@@ -7528,7 +7528,7 @@
         <v>90.75515</v>
       </c>
       <c r="C375" t="n">
-        <v>109.411339</v>
+        <v>109.411346</v>
       </c>
     </row>
     <row r="376">
@@ -7550,7 +7550,7 @@
         <v>89.579346</v>
       </c>
       <c r="C377" t="n">
-        <v>107.958221</v>
+        <v>107.958229</v>
       </c>
     </row>
     <row r="378">
@@ -7715,7 +7715,7 @@
         <v>87.314819</v>
       </c>
       <c r="C392" t="n">
-        <v>100.350716</v>
+        <v>100.350708</v>
       </c>
     </row>
     <row r="393">
@@ -7737,7 +7737,7 @@
         <v>85.564163</v>
       </c>
       <c r="C394" t="n">
-        <v>99.154037</v>
+        <v>99.15403</v>
       </c>
     </row>
     <row r="395">
@@ -7748,7 +7748,7 @@
         <v>84.066093</v>
       </c>
       <c r="C395" t="n">
-        <v>98.042816</v>
+        <v>98.042824</v>
       </c>
     </row>
     <row r="396">
@@ -7759,7 +7759,7 @@
         <v>83.839645</v>
       </c>
       <c r="C396" t="n">
-        <v>99.923332</v>
+        <v>99.923325</v>
       </c>
     </row>
     <row r="397">
@@ -7770,7 +7770,7 @@
         <v>83.508675</v>
       </c>
       <c r="C397" t="n">
-        <v>98.726646</v>
+        <v>98.726639</v>
       </c>
     </row>
     <row r="398">
@@ -7781,7 +7781,7 @@
         <v>83.857071</v>
       </c>
       <c r="C398" t="n">
-        <v>98.641174</v>
+        <v>98.641159</v>
       </c>
     </row>
     <row r="399">
@@ -7803,7 +7803,7 @@
         <v>81.244148</v>
       </c>
       <c r="C400" t="n">
-        <v>95.991364</v>
+        <v>95.991356</v>
       </c>
     </row>
     <row r="401">
@@ -7814,7 +7814,7 @@
         <v>81.505447</v>
       </c>
       <c r="C401" t="n">
-        <v>95.56398</v>
+        <v>95.563972</v>
       </c>
     </row>
     <row r="402">
@@ -7825,7 +7825,7 @@
         <v>77.516403</v>
       </c>
       <c r="C402" t="n">
-        <v>92.230347</v>
+        <v>92.230339</v>
       </c>
     </row>
     <row r="403">
@@ -7847,7 +7847,7 @@
         <v>79.362854</v>
       </c>
       <c r="C404" t="n">
-        <v>94.709198</v>
+        <v>94.70919</v>
       </c>
     </row>
     <row r="405">
@@ -7858,7 +7858,7 @@
         <v>79.955116</v>
       </c>
       <c r="C405" t="n">
-        <v>95.307541</v>
+        <v>95.307533</v>
       </c>
     </row>
     <row r="406">
@@ -7869,7 +7869,7 @@
         <v>77.88221</v>
       </c>
       <c r="C406" t="n">
-        <v>93.597992</v>
+        <v>93.597984</v>
       </c>
     </row>
     <row r="407">
@@ -7880,7 +7880,7 @@
         <v>77.516403</v>
       </c>
       <c r="C407" t="n">
-        <v>92.657738</v>
+        <v>92.65773</v>
       </c>
     </row>
     <row r="408">
@@ -7946,7 +7946,7 @@
         <v>76.593178</v>
       </c>
       <c r="C413" t="n">
-        <v>80.348946</v>
+        <v>80.348953</v>
       </c>
     </row>
     <row r="414">
@@ -8034,7 +8034,7 @@
         <v>88.055138</v>
       </c>
       <c r="C421" t="n">
-        <v>88.55481</v>
+        <v>88.554802</v>
       </c>
     </row>
     <row r="422">
@@ -8045,7 +8045,7 @@
         <v>87.968048</v>
       </c>
       <c r="C422" t="n">
-        <v>88.041939</v>
+        <v>88.041946</v>
       </c>
     </row>
     <row r="423">
@@ -8067,7 +8067,7 @@
         <v>91.190636</v>
       </c>
       <c r="C424" t="n">
-        <v>88.55481</v>
+        <v>88.554802</v>
       </c>
     </row>
     <row r="425">
@@ -8078,7 +8078,7 @@
         <v>88.22934</v>
       </c>
       <c r="C425" t="n">
-        <v>88.640282</v>
+        <v>88.640274</v>
       </c>
     </row>
     <row r="426">
@@ -8111,7 +8111,7 @@
         <v>84.414482</v>
       </c>
       <c r="C428" t="n">
-        <v>89.495064</v>
+        <v>89.495056</v>
       </c>
     </row>
     <row r="429">
@@ -8144,7 +8144,7 @@
         <v>83.543518</v>
       </c>
       <c r="C431" t="n">
-        <v>103.34243</v>
+        <v>103.342438</v>
       </c>
     </row>
     <row r="432">
@@ -8155,7 +8155,7 @@
         <v>82.602867</v>
       </c>
       <c r="C432" t="n">
-        <v>107.958221</v>
+        <v>107.958229</v>
       </c>
     </row>
     <row r="433">
@@ -8199,7 +8199,7 @@
         <v>82.742226</v>
       </c>
       <c r="C436" t="n">
-        <v>102.402176</v>
+        <v>102.402184</v>
       </c>
     </row>
     <row r="437">
@@ -8210,7 +8210,7 @@
         <v>82.02803</v>
       </c>
       <c r="C437" t="n">
-        <v>99.923332</v>
+        <v>99.923325</v>
       </c>
     </row>
     <row r="438">
@@ -8221,7 +8221,7 @@
         <v>80.216408</v>
       </c>
       <c r="C438" t="n">
-        <v>99.23951</v>
+        <v>99.239502</v>
       </c>
     </row>
     <row r="439">
@@ -8232,7 +8232,7 @@
         <v>79.989952</v>
       </c>
       <c r="C439" t="n">
-        <v>99.154037</v>
+        <v>99.15403</v>
       </c>
     </row>
     <row r="440">
@@ -8265,7 +8265,7 @@
         <v>79.972534</v>
       </c>
       <c r="C442" t="n">
-        <v>102.316696</v>
+        <v>102.316704</v>
       </c>
     </row>
     <row r="443">
@@ -8320,7 +8320,7 @@
         <v>84.693199</v>
       </c>
       <c r="C447" t="n">
-        <v>109.924217</v>
+        <v>109.92421</v>
       </c>
     </row>
     <row r="448">
@@ -8353,7 +8353,7 @@
         <v>85.877716</v>
       </c>
       <c r="C450" t="n">
-        <v>112.6595</v>
+        <v>112.659492</v>
       </c>
     </row>
     <row r="451">
@@ -8375,7 +8375,7 @@
         <v>85.529327</v>
       </c>
       <c r="C452" t="n">
-        <v>115.394768</v>
+        <v>115.394775</v>
       </c>
     </row>
     <row r="453">
@@ -8386,7 +8386,7 @@
         <v>85.668686</v>
       </c>
       <c r="C453" t="n">
-        <v>114.881905</v>
+        <v>114.881912</v>
       </c>
     </row>
     <row r="454">
@@ -8408,7 +8408,7 @@
         <v>85.616432</v>
       </c>
       <c r="C455" t="n">
-        <v>114.454514</v>
+        <v>114.454521</v>
       </c>
     </row>
     <row r="456">
@@ -8419,7 +8419,7 @@
         <v>84.867393</v>
       </c>
       <c r="C456" t="n">
-        <v>115.736687</v>
+        <v>115.736671</v>
       </c>
     </row>
     <row r="457">
@@ -8430,7 +8430,7 @@
         <v>82.829323</v>
       </c>
       <c r="C457" t="n">
-        <v>113.856178</v>
+        <v>113.856171</v>
       </c>
     </row>
     <row r="458">
@@ -8452,7 +8452,7 @@
         <v>79.955116</v>
       </c>
       <c r="C459" t="n">
-        <v>114.540009</v>
+        <v>114.540001</v>
       </c>
     </row>
     <row r="460">
@@ -8463,7 +8463,7 @@
         <v>81.348671</v>
       </c>
       <c r="C460" t="n">
-        <v>112.403061</v>
+        <v>112.403053</v>
       </c>
     </row>
     <row r="461">
@@ -8474,7 +8474,7 @@
         <v>81.784157</v>
       </c>
       <c r="C461" t="n">
-        <v>114.454514</v>
+        <v>114.454521</v>
       </c>
     </row>
     <row r="462">
@@ -8496,7 +8496,7 @@
         <v>83.630615</v>
       </c>
       <c r="C463" t="n">
-        <v>116.335037</v>
+        <v>116.33503</v>
       </c>
     </row>
     <row r="464">
@@ -8507,7 +8507,7 @@
         <v>83.369324</v>
       </c>
       <c r="C464" t="n">
-        <v>115.993126</v>
+        <v>115.993111</v>
       </c>
     </row>
     <row r="465">
@@ -8518,7 +8518,7 @@
         <v>82.498352</v>
       </c>
       <c r="C465" t="n">
-        <v>116.676941</v>
+        <v>116.676933</v>
       </c>
     </row>
     <row r="466">
@@ -8540,7 +8540,7 @@
         <v>80.442856</v>
       </c>
       <c r="C467" t="n">
-        <v>113.514275</v>
+        <v>113.514267</v>
       </c>
     </row>
     <row r="468">
@@ -8551,7 +8551,7 @@
         <v>80.634476</v>
       </c>
       <c r="C468" t="n">
-        <v>111.377335</v>
+        <v>111.377327</v>
       </c>
     </row>
     <row r="469">
@@ -8606,7 +8606,7 @@
         <v>78.735756</v>
       </c>
       <c r="C473" t="n">
-        <v>108.727524</v>
+        <v>108.727516</v>
       </c>
     </row>
     <row r="474">
@@ -8628,7 +8628,7 @@
         <v>80.129311</v>
       </c>
       <c r="C475" t="n">
-        <v>110.693512</v>
+        <v>110.693504</v>
       </c>
     </row>
     <row r="476">
@@ -8639,7 +8639,7 @@
         <v>79.275757</v>
       </c>
       <c r="C476" t="n">
-        <v>108.727524</v>
+        <v>108.727516</v>
       </c>
     </row>
     <row r="477">
@@ -8694,7 +8694,7 @@
         <v>79.223503</v>
       </c>
       <c r="C481" t="n">
-        <v>105.47937</v>
+        <v>105.479378</v>
       </c>
     </row>
     <row r="482">
@@ -8749,7 +8749,7 @@
         <v>84.170616</v>
       </c>
       <c r="C486" t="n">
-        <v>113.343315</v>
+        <v>113.343323</v>
       </c>
     </row>
     <row r="487">
@@ -8760,7 +8760,7 @@
         <v>84.849968</v>
       </c>
       <c r="C487" t="n">
-        <v>113.856178</v>
+        <v>113.856171</v>
       </c>
     </row>
     <row r="488">
@@ -8771,7 +8771,7 @@
         <v>87.271271</v>
       </c>
       <c r="C488" t="n">
-        <v>113.94165</v>
+        <v>113.941658</v>
       </c>
     </row>
     <row r="489">
@@ -8782,7 +8782,7 @@
         <v>90.580963</v>
       </c>
       <c r="C489" t="n">
-        <v>112.403061</v>
+        <v>112.403053</v>
       </c>
     </row>
     <row r="490">
@@ -8793,7 +8793,7 @@
         <v>92.671295</v>
       </c>
       <c r="C490" t="n">
-        <v>112.488548</v>
+        <v>112.488541</v>
       </c>
     </row>
     <row r="491">
@@ -8804,7 +8804,7 @@
         <v>94.108391</v>
       </c>
       <c r="C491" t="n">
-        <v>117.104324</v>
+        <v>117.104317</v>
       </c>
     </row>
     <row r="492">
@@ -8848,7 +8848,7 @@
         <v>93.193871</v>
       </c>
       <c r="C495" t="n">
-        <v>118.899361</v>
+        <v>118.899368</v>
       </c>
     </row>
     <row r="496">
@@ -8870,7 +8870,7 @@
         <v>93.890648</v>
       </c>
       <c r="C497" t="n">
-        <v>119.497696</v>
+        <v>119.497711</v>
       </c>
     </row>
     <row r="498">
@@ -8903,7 +8903,7 @@
         <v>92.932579</v>
       </c>
       <c r="C500" t="n">
-        <v>120.608917</v>
+        <v>120.60891</v>
       </c>
     </row>
     <row r="501">
@@ -8914,7 +8914,7 @@
         <v>93.847099</v>
       </c>
       <c r="C501" t="n">
-        <v>120.694389</v>
+        <v>120.694374</v>
       </c>
     </row>
     <row r="502">
@@ -8958,7 +8958,7 @@
         <v>93.498711</v>
       </c>
       <c r="C505" t="n">
-        <v>121.891075</v>
+        <v>121.891083</v>
       </c>
     </row>
     <row r="506">
@@ -8969,7 +8969,7 @@
         <v>94.06485</v>
       </c>
       <c r="C506" t="n">
-        <v>123.686104</v>
+        <v>123.686089</v>
       </c>
     </row>
     <row r="507">
@@ -8991,7 +8991,7 @@
         <v>94.674522</v>
       </c>
       <c r="C508" t="n">
-        <v>123.600632</v>
+        <v>123.600624</v>
       </c>
     </row>
     <row r="509">
@@ -9002,7 +9002,7 @@
         <v>95.806786</v>
       </c>
       <c r="C509" t="n">
-        <v>123.344193</v>
+        <v>123.344208</v>
       </c>
     </row>
     <row r="510">
@@ -9013,7 +9013,7 @@
         <v>95.632591</v>
       </c>
       <c r="C510" t="n">
-        <v>127.361633</v>
+        <v>127.361649</v>
       </c>
     </row>
     <row r="511">
@@ -9035,7 +9035,7 @@
         <v>96.721306</v>
       </c>
       <c r="C512" t="n">
-        <v>127.703552</v>
+        <v>127.703537</v>
       </c>
     </row>
     <row r="513">
@@ -9046,7 +9046,7 @@
         <v>94.848717</v>
       </c>
       <c r="C513" t="n">
-        <v>126.93425</v>
+        <v>126.934265</v>
       </c>
     </row>
     <row r="514">
@@ -9068,7 +9068,7 @@
         <v>92.453545</v>
       </c>
       <c r="C515" t="n">
-        <v>123.087753</v>
+        <v>123.087769</v>
       </c>
     </row>
     <row r="516">
@@ -9079,7 +9079,7 @@
         <v>94.500328</v>
       </c>
       <c r="C516" t="n">
-        <v>125.224709</v>
+        <v>125.224701</v>
       </c>
     </row>
     <row r="517">
@@ -9101,7 +9101,7 @@
         <v>94.674522</v>
       </c>
       <c r="C518" t="n">
-        <v>124.198975</v>
+        <v>124.198967</v>
       </c>
     </row>
     <row r="519">
@@ -9112,7 +9112,7 @@
         <v>98.332603</v>
       </c>
       <c r="C519" t="n">
-        <v>125.481125</v>
+        <v>125.48114</v>
       </c>
     </row>
     <row r="520">
@@ -9134,7 +9134,7 @@
         <v>99.943893</v>
       </c>
       <c r="C521" t="n">
-        <v>127.276169</v>
+        <v>127.276161</v>
       </c>
     </row>
     <row r="522">
@@ -9156,7 +9156,7 @@
         <v>102.164879</v>
       </c>
       <c r="C523" t="n">
-        <v>131.29361</v>
+        <v>131.293625</v>
       </c>
     </row>
     <row r="524">
@@ -9167,7 +9167,7 @@
         <v>102.51326</v>
       </c>
       <c r="C524" t="n">
-        <v>130.438828</v>
+        <v>130.438843</v>
       </c>
     </row>
     <row r="525">
@@ -9189,7 +9189,7 @@
         <v>105.822952</v>
       </c>
       <c r="C526" t="n">
-        <v>133.516022</v>
+        <v>133.516037</v>
       </c>
     </row>
     <row r="527">
@@ -9211,7 +9211,7 @@
         <v>106.51973</v>
       </c>
       <c r="C528" t="n">
-        <v>134.199844</v>
+        <v>134.19986</v>
       </c>
     </row>
     <row r="529">
@@ -9233,7 +9233,7 @@
         <v>104.951973</v>
       </c>
       <c r="C530" t="n">
-        <v>135.909409</v>
+        <v>135.909393</v>
       </c>
     </row>
     <row r="531">
@@ -9266,7 +9266,7 @@
         <v>106.476181</v>
       </c>
       <c r="C533" t="n">
-        <v>138.473724</v>
+        <v>138.47374</v>
       </c>
     </row>
     <row r="534">
@@ -9277,7 +9277,7 @@
         <v>104.995529</v>
       </c>
       <c r="C534" t="n">
-        <v>137.020599</v>
+        <v>137.020615</v>
       </c>
     </row>
     <row r="535">
@@ -9288,7 +9288,7 @@
         <v>100.161644</v>
       </c>
       <c r="C535" t="n">
-        <v>134.199844</v>
+        <v>134.19986</v>
       </c>
     </row>
     <row r="536">
@@ -9321,7 +9321,7 @@
         <v>93.237427</v>
       </c>
       <c r="C538" t="n">
-        <v>109.240395</v>
+        <v>109.240387</v>
       </c>
     </row>
     <row r="539">
@@ -9354,7 +9354,7 @@
         <v>93.063232</v>
       </c>
       <c r="C541" t="n">
-        <v>109.83873</v>
+        <v>109.838737</v>
       </c>
     </row>
     <row r="542">
@@ -9409,7 +9409,7 @@
         <v>77.289948</v>
       </c>
       <c r="C546" t="n">
-        <v>93.854424</v>
+        <v>93.854416</v>
       </c>
     </row>
     <row r="547">
@@ -9431,7 +9431,7 @@
         <v>67.726685</v>
       </c>
       <c r="C548" t="n">
-        <v>82.272202</v>
+        <v>82.272194</v>
       </c>
     </row>
     <row r="549">
@@ -9442,7 +9442,7 @@
         <v>67.761528</v>
       </c>
       <c r="C549" t="n">
-        <v>83.682579</v>
+        <v>83.682587</v>
       </c>
     </row>
     <row r="550">
@@ -9453,7 +9453,7 @@
         <v>64.486679</v>
       </c>
       <c r="C550" t="n">
-        <v>78.895828</v>
+        <v>78.895836</v>
       </c>
     </row>
     <row r="551">
@@ -9464,7 +9464,7 @@
         <v>64.62603</v>
       </c>
       <c r="C551" t="n">
-        <v>80.220741</v>
+        <v>80.220734</v>
       </c>
     </row>
     <row r="552">
@@ -9475,7 +9475,7 @@
         <v>71.60997</v>
       </c>
       <c r="C552" t="n">
-        <v>77.399979</v>
+        <v>77.399986</v>
       </c>
     </row>
     <row r="553">
@@ -9486,7 +9486,7 @@
         <v>71.708336</v>
       </c>
       <c r="C553" t="n">
-        <v>78.126534</v>
+        <v>78.126541</v>
       </c>
     </row>
     <row r="554">
@@ -9574,7 +9574,7 @@
         <v>75.642952</v>
       </c>
       <c r="C561" t="n">
-        <v>91.515846</v>
+        <v>91.515839</v>
       </c>
     </row>
     <row r="562">
@@ -9607,7 +9607,7 @@
         <v>71.078796</v>
       </c>
       <c r="C564" t="n">
-        <v>88.706566</v>
+        <v>88.706573</v>
       </c>
     </row>
     <row r="565">
@@ -9618,7 +9618,7 @@
         <v>72.141136</v>
       </c>
       <c r="C565" t="n">
-        <v>88.37326</v>
+        <v>88.373268</v>
       </c>
     </row>
     <row r="566">
@@ -9684,7 +9684,7 @@
         <v>72.318199</v>
       </c>
       <c r="C571" t="n">
-        <v>89.373177</v>
+        <v>89.373169</v>
       </c>
     </row>
     <row r="572">
@@ -9695,7 +9695,7 @@
         <v>71.82637</v>
       </c>
       <c r="C572" t="n">
-        <v>90.992081</v>
+        <v>90.992088</v>
       </c>
     </row>
     <row r="573">
@@ -9728,7 +9728,7 @@
         <v>72.455917</v>
       </c>
       <c r="C575" t="n">
-        <v>91.230156</v>
+        <v>91.230164</v>
       </c>
     </row>
     <row r="576">
@@ -9739,7 +9739,7 @@
         <v>70.134491</v>
       </c>
       <c r="C576" t="n">
-        <v>89.706482</v>
+        <v>89.706474</v>
       </c>
     </row>
     <row r="577">
@@ -9783,7 +9783,7 @@
         <v>79.479202</v>
       </c>
       <c r="C580" t="n">
-        <v>107.895378</v>
+        <v>107.89537</v>
       </c>
     </row>
     <row r="581">
@@ -9827,7 +9827,7 @@
         <v>74.226486</v>
       </c>
       <c r="C584" t="n">
-        <v>95.086967</v>
+        <v>95.08696</v>
       </c>
     </row>
     <row r="585">
@@ -9849,7 +9849,7 @@
         <v>74.619949</v>
       </c>
       <c r="C586" t="n">
-        <v>100.086525</v>
+        <v>100.086533</v>
       </c>
     </row>
     <row r="587">
@@ -9860,7 +9860,7 @@
         <v>74.167473</v>
       </c>
       <c r="C587" t="n">
-        <v>101.134056</v>
+        <v>101.134048</v>
       </c>
     </row>
     <row r="588">
@@ -9893,7 +9893,7 @@
         <v>70.803375</v>
       </c>
       <c r="C590" t="n">
-        <v>99.991295</v>
+        <v>99.991302</v>
       </c>
     </row>
     <row r="591">
@@ -9915,7 +9915,7 @@
         <v>73.400223</v>
       </c>
       <c r="C592" t="n">
-        <v>100.657906</v>
+        <v>100.657898</v>
       </c>
     </row>
     <row r="593">
@@ -9926,7 +9926,7 @@
         <v>75.564255</v>
       </c>
       <c r="C593" t="n">
-        <v>102.46727</v>
+        <v>102.467278</v>
       </c>
     </row>
     <row r="594">
@@ -9970,7 +9970,7 @@
         <v>83.748253</v>
       </c>
       <c r="C597" t="n">
-        <v>111.799797</v>
+        <v>111.799789</v>
       </c>
     </row>
     <row r="598">
@@ -9992,7 +9992,7 @@
         <v>86.128693</v>
       </c>
       <c r="C599" t="n">
-        <v>116.656517</v>
+        <v>116.656509</v>
       </c>
     </row>
     <row r="600">
@@ -10014,7 +10014,7 @@
         <v>89.256706</v>
       </c>
       <c r="C601" t="n">
-        <v>123.89399</v>
+        <v>123.893982</v>
       </c>
     </row>
     <row r="602">
@@ -10069,7 +10069,7 @@
         <v>86.42379</v>
       </c>
       <c r="C606" t="n">
-        <v>117.704048</v>
+        <v>117.704041</v>
       </c>
     </row>
     <row r="607">
@@ -10091,7 +10091,7 @@
         <v>87.663193</v>
       </c>
       <c r="C608" t="n">
-        <v>120.751404</v>
+        <v>120.751396</v>
       </c>
     </row>
     <row r="609">
@@ -10157,7 +10157,7 @@
         <v>87.466461</v>
       </c>
       <c r="C614" t="n">
-        <v>117.704048</v>
+        <v>117.704041</v>
       </c>
     </row>
     <row r="615">
@@ -10201,7 +10201,7 @@
         <v>86.836922</v>
       </c>
       <c r="C618" t="n">
-        <v>117.132668</v>
+        <v>117.13266</v>
       </c>
     </row>
     <row r="619">
@@ -10322,7 +10322,7 @@
         <v>100.185097</v>
       </c>
       <c r="C629" t="n">
-        <v>124.465363</v>
+        <v>124.465355</v>
       </c>
     </row>
     <row r="630">
@@ -10333,7 +10333,7 @@
         <v>100.185097</v>
       </c>
       <c r="C630" t="n">
-        <v>125.512894</v>
+        <v>125.512886</v>
       </c>
     </row>
     <row r="631">
@@ -10355,7 +10355,7 @@
         <v>104.267265</v>
       </c>
       <c r="C632" t="n">
-        <v>125.036743</v>
+        <v>125.036736</v>
       </c>
     </row>
     <row r="633">
@@ -10388,7 +10388,7 @@
         <v>103.72625</v>
       </c>
       <c r="C635" t="n">
-        <v>125.322441</v>
+        <v>125.322433</v>
       </c>
     </row>
     <row r="636">
@@ -10399,7 +10399,7 @@
         <v>104.218079</v>
       </c>
       <c r="C636" t="n">
-        <v>124.941505</v>
+        <v>124.941498</v>
       </c>
     </row>
     <row r="637">
@@ -10410,7 +10410,7 @@
         <v>102.250771</v>
       </c>
       <c r="C637" t="n">
-        <v>122.655991</v>
+        <v>122.655998</v>
       </c>
     </row>
     <row r="638">
@@ -10465,7 +10465,7 @@
         <v>101.168755</v>
       </c>
       <c r="C642" t="n">
-        <v>115.894669</v>
+        <v>115.894676</v>
       </c>
     </row>
     <row r="643">
@@ -10476,7 +10476,7 @@
         <v>100.480202</v>
       </c>
       <c r="C643" t="n">
-        <v>116.751747</v>
+        <v>116.75174</v>
       </c>
     </row>
     <row r="644">
@@ -10487,7 +10487,7 @@
         <v>100.922836</v>
       </c>
       <c r="C644" t="n">
-        <v>115.989906</v>
+        <v>115.989914</v>
       </c>
     </row>
     <row r="645">
@@ -10498,7 +10498,7 @@
         <v>100.332649</v>
       </c>
       <c r="C645" t="n">
-        <v>115.418518</v>
+        <v>115.418526</v>
       </c>
     </row>
     <row r="646">
@@ -10564,7 +10564,7 @@
         <v>102.349144</v>
       </c>
       <c r="C651" t="n">
-        <v>113.609161</v>
+        <v>113.609169</v>
       </c>
     </row>
     <row r="652">
@@ -10608,7 +10608,7 @@
         <v>96.496399</v>
       </c>
       <c r="C655" t="n">
-        <v>110.466583</v>
+        <v>110.466576</v>
       </c>
     </row>
     <row r="656">
@@ -10619,7 +10619,7 @@
         <v>97.047249</v>
       </c>
       <c r="C656" t="n">
-        <v>109.799965</v>
+        <v>109.799973</v>
       </c>
     </row>
     <row r="657">
@@ -10652,7 +10652,7 @@
         <v>97.971878</v>
       </c>
       <c r="C659" t="n">
-        <v>107.22876</v>
+        <v>107.228767</v>
       </c>
     </row>
     <row r="660">
@@ -10663,7 +10663,7 @@
         <v>96.594765</v>
       </c>
       <c r="C660" t="n">
-        <v>106.847839</v>
+        <v>106.847847</v>
       </c>
     </row>
     <row r="661">
@@ -10696,7 +10696,7 @@
         <v>92.463425</v>
       </c>
       <c r="C663" t="n">
-        <v>95.705956</v>
+        <v>95.705963</v>
       </c>
     </row>
     <row r="664">
@@ -10751,7 +10751,7 @@
         <v>87.859924</v>
       </c>
       <c r="C668" t="n">
-        <v>96.467804</v>
+        <v>96.467796</v>
       </c>
     </row>
     <row r="669">
@@ -10762,7 +10762,7 @@
         <v>88.627174</v>
       </c>
       <c r="C669" t="n">
-        <v>98.181931</v>
+        <v>98.181938</v>
       </c>
     </row>
     <row r="670">
@@ -10773,7 +10773,7 @@
         <v>88.587822</v>
       </c>
       <c r="C670" t="n">
-        <v>99.705612</v>
+        <v>99.705605</v>
       </c>
     </row>
     <row r="671">
@@ -10784,7 +10784,7 @@
         <v>86.502487</v>
       </c>
       <c r="C671" t="n">
-        <v>99.610374</v>
+        <v>99.610382</v>
       </c>
     </row>
     <row r="672">
@@ -10806,7 +10806,7 @@
         <v>86.187714</v>
       </c>
       <c r="C673" t="n">
-        <v>99.134224</v>
+        <v>99.134232</v>
       </c>
     </row>
     <row r="674">
@@ -10817,7 +10817,7 @@
         <v>86.384445</v>
       </c>
       <c r="C674" t="n">
-        <v>97.89624</v>
+        <v>97.896248</v>
       </c>
     </row>
     <row r="675">
@@ -10839,7 +10839,7 @@
         <v>83.0597</v>
       </c>
       <c r="C676" t="n">
-        <v>96.372566</v>
+        <v>96.372559</v>
       </c>
     </row>
     <row r="677">
@@ -10850,7 +10850,7 @@
         <v>80.659584</v>
       </c>
       <c r="C677" t="n">
-        <v>94.372742</v>
+        <v>94.372734</v>
       </c>
     </row>
     <row r="678">
@@ -10872,7 +10872,7 @@
         <v>81.938332</v>
       </c>
       <c r="C679" t="n">
-        <v>93.563286</v>
+        <v>93.563293</v>
       </c>
     </row>
     <row r="680">
@@ -10927,7 +10927,7 @@
         <v>84.692558</v>
       </c>
       <c r="C684" t="n">
-        <v>94.848892</v>
+        <v>94.848885</v>
       </c>
     </row>
     <row r="685">
@@ -10949,7 +10949,7 @@
         <v>83.453156</v>
       </c>
       <c r="C686" t="n">
-        <v>103.133888</v>
+        <v>103.133881</v>
       </c>
     </row>
     <row r="687">
@@ -10960,7 +10960,7 @@
         <v>85.57785</v>
       </c>
       <c r="C687" t="n">
-        <v>103.133888</v>
+        <v>103.133881</v>
       </c>
     </row>
     <row r="688">
@@ -10993,7 +10993,7 @@
         <v>89.453445</v>
       </c>
       <c r="C690" t="n">
-        <v>103.990944</v>
+        <v>103.990952</v>
       </c>
     </row>
     <row r="691">
@@ -11070,7 +11070,7 @@
         <v>91.401077</v>
       </c>
       <c r="C697" t="n">
-        <v>103.990944</v>
+        <v>103.990952</v>
       </c>
     </row>
     <row r="698">
@@ -11158,7 +11158,7 @@
         <v>84.161385</v>
       </c>
       <c r="C705" t="n">
-        <v>102.37204</v>
+        <v>102.372047</v>
       </c>
     </row>
     <row r="706">
@@ -11202,7 +11202,7 @@
         <v>86.974632</v>
       </c>
       <c r="C709" t="n">
-        <v>111.799797</v>
+        <v>111.799789</v>
       </c>
     </row>
     <row r="710">
@@ -11224,7 +11224,7 @@
         <v>88.627174</v>
       </c>
       <c r="C711" t="n">
-        <v>109.514282</v>
+        <v>109.514275</v>
       </c>
     </row>
     <row r="712">
@@ -11290,7 +11290,7 @@
         <v>102.447502</v>
       </c>
       <c r="C717" t="n">
-        <v>124.274895</v>
+        <v>124.274902</v>
       </c>
     </row>
     <row r="718">
@@ -11301,7 +11301,7 @@
         <v>102.890144</v>
       </c>
       <c r="C718" t="n">
-        <v>126.274727</v>
+        <v>126.274734</v>
       </c>
     </row>
     <row r="719">
@@ -11356,7 +11356,7 @@
         <v>103.234421</v>
       </c>
       <c r="C723" t="n">
-        <v>124.751045</v>
+        <v>124.751053</v>
       </c>
     </row>
     <row r="724">
@@ -11378,7 +11378,7 @@
         <v>102.98851</v>
       </c>
       <c r="C725" t="n">
-        <v>124.751045</v>
+        <v>124.751053</v>
       </c>
     </row>
     <row r="726">
@@ -11422,7 +11422,7 @@
         <v>102.250771</v>
       </c>
       <c r="C729" t="n">
-        <v>124.751045</v>
+        <v>124.751053</v>
       </c>
     </row>
     <row r="730">
@@ -11444,7 +11444,7 @@
         <v>101.513031</v>
       </c>
       <c r="C731" t="n">
-        <v>124.274895</v>
+        <v>124.274902</v>
       </c>
     </row>
     <row r="732">
@@ -11543,7 +11543,7 @@
         <v>94.529091</v>
       </c>
       <c r="C740" t="n">
-        <v>121.608467</v>
+        <v>121.608459</v>
       </c>
     </row>
     <row r="741">
@@ -11576,7 +11576,7 @@
         <v>96.870193</v>
       </c>
       <c r="C743" t="n">
-        <v>124.941505</v>
+        <v>124.941498</v>
       </c>
     </row>
     <row r="744">
@@ -11587,7 +11587,7 @@
         <v>99.742462</v>
       </c>
       <c r="C744" t="n">
-        <v>125.989044</v>
+        <v>125.989037</v>
       </c>
     </row>
     <row r="745">
@@ -11620,7 +11620,7 @@
         <v>99.004723</v>
       </c>
       <c r="C747" t="n">
-        <v>128.084106</v>
+        <v>128.084091</v>
       </c>
     </row>
     <row r="748">
@@ -11653,7 +11653,7 @@
         <v>103.627884</v>
       </c>
       <c r="C750" t="n">
-        <v>128.941162</v>
+        <v>128.941147</v>
       </c>
     </row>
     <row r="751">
@@ -11664,7 +11664,7 @@
         <v>108.054329</v>
       </c>
       <c r="C751" t="n">
-        <v>132.369431</v>
+        <v>132.369446</v>
       </c>
     </row>
     <row r="752">
@@ -11851,7 +11851,7 @@
         <v>103.480339</v>
       </c>
       <c r="C768" t="n">
-        <v>121.608467</v>
+        <v>121.608459</v>
       </c>
     </row>
     <row r="769">
@@ -11862,7 +11862,7 @@
         <v>104.070534</v>
       </c>
       <c r="C769" t="n">
-        <v>123.89399</v>
+        <v>123.893982</v>
       </c>
     </row>
     <row r="770">
@@ -11939,7 +11939,7 @@
         <v>107.955963</v>
       </c>
       <c r="C776" t="n">
-        <v>126.750877</v>
+        <v>126.750885</v>
       </c>
     </row>
     <row r="777">
@@ -11983,7 +11983,7 @@
         <v>110.857735</v>
       </c>
       <c r="C780" t="n">
-        <v>132.369431</v>
+        <v>132.369446</v>
       </c>
     </row>
     <row r="781">
@@ -12016,7 +12016,7 @@
         <v>111.644661</v>
       </c>
       <c r="C783" t="n">
-        <v>132.940811</v>
+        <v>132.940826</v>
       </c>
     </row>
     <row r="784">
@@ -12027,7 +12027,7 @@
         <v>111.447937</v>
       </c>
       <c r="C784" t="n">
-        <v>134.178802</v>
+        <v>134.178787</v>
       </c>
     </row>
     <row r="785">
@@ -12038,7 +12038,7 @@
         <v>112.333221</v>
       </c>
       <c r="C785" t="n">
-        <v>134.940643</v>
+        <v>134.940628</v>
       </c>
     </row>
     <row r="786">
@@ -12049,7 +12049,7 @@
         <v>115.087448</v>
       </c>
       <c r="C786" t="n">
-        <v>135.226318</v>
+        <v>135.226334</v>
       </c>
     </row>
     <row r="787">
@@ -12071,7 +12071,7 @@
         <v>114.595627</v>
       </c>
       <c r="C788" t="n">
-        <v>136.65477</v>
+        <v>136.654785</v>
       </c>
     </row>
     <row r="789">
@@ -12093,7 +12093,7 @@
         <v>116.366203</v>
       </c>
       <c r="C790" t="n">
-        <v>153.319977</v>
+        <v>153.319992</v>
       </c>
     </row>
     <row r="791">
@@ -12104,7 +12104,7 @@
         <v>116.218651</v>
       </c>
       <c r="C791" t="n">
-        <v>152.367706</v>
+        <v>152.367691</v>
       </c>
     </row>
     <row r="792">
@@ -12115,7 +12115,7 @@
         <v>118.82534</v>
       </c>
       <c r="C792" t="n">
-        <v>151.1297</v>
+        <v>151.129715</v>
       </c>
     </row>
     <row r="793">
@@ -12170,7 +12170,7 @@
         <v>120.54673</v>
       </c>
       <c r="C797" t="n">
-        <v>154.938889</v>
+        <v>154.938904</v>
       </c>
     </row>
     <row r="798">
@@ -12181,7 +12181,7 @@
         <v>120.497543</v>
       </c>
       <c r="C798" t="n">
-        <v>154.272278</v>
+        <v>154.272293</v>
       </c>
     </row>
     <row r="799">
@@ -12192,7 +12192,7 @@
         <v>120.349998</v>
       </c>
       <c r="C799" t="n">
-        <v>155.415039</v>
+        <v>155.415054</v>
       </c>
     </row>
     <row r="800">
@@ -12247,7 +12247,7 @@
         <v>118.25</v>
       </c>
       <c r="C804" t="n">
-        <v>155.224579</v>
+        <v>155.224594</v>
       </c>
     </row>
     <row r="805">
@@ -12258,7 +12258,7 @@
         <v>119.300003</v>
       </c>
       <c r="C805" t="n">
-        <v>159.986069</v>
+        <v>159.986084</v>
       </c>
     </row>
     <row r="806">

--- a/Danske aktiekurser.xlsx
+++ b/Danske aktiekurser.xlsx
@@ -3422,7 +3422,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>189.887924</v>
+        <v>189.887909</v>
       </c>
       <c r="C2" t="n">
         <v>191.282883</v>
@@ -3444,10 +3444,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>190.513824</v>
+        <v>190.51384</v>
       </c>
       <c r="C4" t="n">
-        <v>192.351501</v>
+        <v>192.351486</v>
       </c>
     </row>
     <row r="5">
@@ -3455,7 +3455,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="n">
-        <v>190.748581</v>
+        <v>190.748566</v>
       </c>
       <c r="C5" t="n">
         <v>192.046173</v>
@@ -3466,10 +3466,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="n">
-        <v>191.843903</v>
+        <v>191.843918</v>
       </c>
       <c r="C6" t="n">
-        <v>191.74086</v>
+        <v>191.740875</v>
       </c>
     </row>
     <row r="7">
@@ -3477,10 +3477,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="n">
-        <v>190.357361</v>
+        <v>190.357376</v>
       </c>
       <c r="C7" t="n">
-        <v>191.588196</v>
+        <v>191.588211</v>
       </c>
     </row>
     <row r="8">
@@ -3488,7 +3488,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="n">
-        <v>194.34758</v>
+        <v>194.347595</v>
       </c>
       <c r="C8" t="n">
         <v>195.404694</v>
@@ -3521,7 +3521,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="n">
-        <v>196.303589</v>
+        <v>196.303574</v>
       </c>
       <c r="C11" t="n">
         <v>193.572784</v>
@@ -3532,7 +3532,7 @@
         <v>13</v>
       </c>
       <c r="B12" t="n">
-        <v>195.521179</v>
+        <v>195.521194</v>
       </c>
       <c r="C12" t="n">
         <v>192.50415</v>
@@ -3543,7 +3543,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="n">
-        <v>195.990631</v>
+        <v>195.990616</v>
       </c>
       <c r="C13" t="n">
         <v>191.435547</v>
@@ -3557,7 +3557,7 @@
         <v>191.452728</v>
       </c>
       <c r="C14" t="n">
-        <v>191.588196</v>
+        <v>191.588211</v>
       </c>
     </row>
     <row r="15">
@@ -3565,7 +3565,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="n">
-        <v>190.670319</v>
+        <v>190.670334</v>
       </c>
       <c r="C15" t="n">
         <v>191.893509</v>
@@ -3576,7 +3576,7 @@
         <v>17</v>
       </c>
       <c r="B16" t="n">
-        <v>193.330475</v>
+        <v>193.33049</v>
       </c>
       <c r="C16" t="n">
         <v>193.114792</v>
@@ -3587,7 +3587,7 @@
         <v>18</v>
       </c>
       <c r="B17" t="n">
-        <v>192.078659</v>
+        <v>192.078644</v>
       </c>
       <c r="C17" t="n">
         <v>191.435547</v>
@@ -3598,10 +3598,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="n">
-        <v>192.078659</v>
+        <v>192.078644</v>
       </c>
       <c r="C18" t="n">
-        <v>190.214249</v>
+        <v>190.214233</v>
       </c>
     </row>
     <row r="19">
@@ -3620,10 +3620,10 @@
         <v>21</v>
       </c>
       <c r="B20" t="n">
-        <v>189.966171</v>
+        <v>189.966156</v>
       </c>
       <c r="C20" t="n">
-        <v>187.466385</v>
+        <v>187.4664</v>
       </c>
     </row>
     <row r="21">
@@ -3631,7 +3631,7 @@
         <v>22</v>
       </c>
       <c r="B21" t="n">
-        <v>191.843903</v>
+        <v>191.843918</v>
       </c>
       <c r="C21" t="n">
         <v>187.771698</v>
@@ -3642,10 +3642,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="n">
-        <v>189.966171</v>
+        <v>189.966156</v>
       </c>
       <c r="C22" t="n">
-        <v>185.787109</v>
+        <v>185.787125</v>
       </c>
     </row>
     <row r="23">
@@ -3653,7 +3653,7 @@
         <v>24</v>
       </c>
       <c r="B23" t="n">
-        <v>190.513824</v>
+        <v>190.51384</v>
       </c>
       <c r="C23" t="n">
         <v>187.008392</v>
@@ -3667,7 +3667,7 @@
         <v>189.418488</v>
       </c>
       <c r="C24" t="n">
-        <v>187.466385</v>
+        <v>187.4664</v>
       </c>
     </row>
     <row r="25">
@@ -3678,7 +3678,7 @@
         <v>191.609192</v>
       </c>
       <c r="C25" t="n">
-        <v>187.619034</v>
+        <v>187.619049</v>
       </c>
     </row>
     <row r="26">
@@ -3689,7 +3689,7 @@
         <v>191.609192</v>
       </c>
       <c r="C26" t="n">
-        <v>186.397766</v>
+        <v>186.397751</v>
       </c>
     </row>
     <row r="27">
@@ -3697,10 +3697,10 @@
         <v>28</v>
       </c>
       <c r="B27" t="n">
-        <v>186.758316</v>
+        <v>186.758331</v>
       </c>
       <c r="C27" t="n">
-        <v>183.955215</v>
+        <v>183.9552</v>
       </c>
     </row>
     <row r="28">
@@ -3722,7 +3722,7 @@
         <v>188.557846</v>
       </c>
       <c r="C29" t="n">
-        <v>187.161057</v>
+        <v>187.161072</v>
       </c>
     </row>
     <row r="30">
@@ -3730,10 +3730,10 @@
         <v>31</v>
       </c>
       <c r="B30" t="n">
-        <v>188.244904</v>
+        <v>188.244888</v>
       </c>
       <c r="C30" t="n">
-        <v>185.787109</v>
+        <v>185.787125</v>
       </c>
     </row>
     <row r="31">
@@ -3741,7 +3741,7 @@
         <v>32</v>
       </c>
       <c r="B31" t="n">
-        <v>189.966171</v>
+        <v>189.966156</v>
       </c>
       <c r="C31" t="n">
         <v>188.687653</v>
@@ -3766,7 +3766,7 @@
         <v>191.061523</v>
       </c>
       <c r="C33" t="n">
-        <v>193.267456</v>
+        <v>193.267471</v>
       </c>
     </row>
     <row r="34">
@@ -3785,10 +3785,10 @@
         <v>36</v>
       </c>
       <c r="B35" t="n">
-        <v>194.660553</v>
+        <v>194.660568</v>
       </c>
       <c r="C35" t="n">
-        <v>196.625992</v>
+        <v>196.625977</v>
       </c>
     </row>
     <row r="36">
@@ -3807,7 +3807,7 @@
         <v>38</v>
       </c>
       <c r="B37" t="n">
-        <v>191.687424</v>
+        <v>191.687439</v>
       </c>
       <c r="C37" t="n">
         <v>185.481796</v>
@@ -3829,7 +3829,7 @@
         <v>40</v>
       </c>
       <c r="B39" t="n">
-        <v>193.252258</v>
+        <v>193.252228</v>
       </c>
       <c r="C39" t="n">
         <v>180.444016</v>
@@ -3840,7 +3840,7 @@
         <v>41</v>
       </c>
       <c r="B40" t="n">
-        <v>194.504089</v>
+        <v>194.504059</v>
       </c>
       <c r="C40" t="n">
         <v>186.245102</v>
@@ -3862,10 +3862,10 @@
         <v>43</v>
       </c>
       <c r="B42" t="n">
-        <v>189.731445</v>
+        <v>189.731461</v>
       </c>
       <c r="C42" t="n">
-        <v>183.19191</v>
+        <v>183.191895</v>
       </c>
     </row>
     <row r="43">
@@ -3873,7 +3873,7 @@
         <v>44</v>
       </c>
       <c r="B43" t="n">
-        <v>192.626328</v>
+        <v>192.626312</v>
       </c>
       <c r="C43" t="n">
         <v>182.733917</v>
@@ -3884,10 +3884,10 @@
         <v>45</v>
       </c>
       <c r="B44" t="n">
-        <v>190.748581</v>
+        <v>190.748566</v>
       </c>
       <c r="C44" t="n">
-        <v>181.665298</v>
+        <v>181.665314</v>
       </c>
     </row>
     <row r="45">
@@ -3895,7 +3895,7 @@
         <v>46</v>
       </c>
       <c r="B45" t="n">
-        <v>189.731445</v>
+        <v>189.731461</v>
       </c>
       <c r="C45" t="n">
         <v>177.696152</v>
@@ -3906,10 +3906,10 @@
         <v>47</v>
       </c>
       <c r="B46" t="n">
-        <v>190.044403</v>
+        <v>190.044418</v>
       </c>
       <c r="C46" t="n">
-        <v>179.833405</v>
+        <v>179.833389</v>
       </c>
     </row>
     <row r="47">
@@ -3950,7 +3950,7 @@
         <v>51</v>
       </c>
       <c r="B50" t="n">
-        <v>192.626328</v>
+        <v>192.626312</v>
       </c>
       <c r="C50" t="n">
         <v>180.902008</v>
@@ -3972,7 +3972,7 @@
         <v>53</v>
       </c>
       <c r="B52" t="n">
-        <v>193.799911</v>
+        <v>193.799927</v>
       </c>
       <c r="C52" t="n">
         <v>183.344559</v>
@@ -3986,7 +3986,7 @@
         <v>190.983292</v>
       </c>
       <c r="C53" t="n">
-        <v>180.138718</v>
+        <v>180.138702</v>
       </c>
     </row>
     <row r="54">
@@ -3997,7 +3997,7 @@
         <v>191.061523</v>
       </c>
       <c r="C54" t="n">
-        <v>183.113098</v>
+        <v>183.113083</v>
       </c>
     </row>
     <row r="55">
@@ -4030,7 +4030,7 @@
         <v>191.714172</v>
       </c>
       <c r="C57" t="n">
-        <v>185.35791</v>
+        <v>185.357895</v>
       </c>
     </row>
     <row r="58">
@@ -4041,7 +4041,7 @@
         <v>190.572052</v>
       </c>
       <c r="C58" t="n">
-        <v>184.07518</v>
+        <v>184.075165</v>
       </c>
     </row>
     <row r="59">
@@ -4052,7 +4052,7 @@
         <v>186.493011</v>
       </c>
       <c r="C59" t="n">
-        <v>181.349304</v>
+        <v>181.349289</v>
       </c>
     </row>
     <row r="60">
@@ -4074,7 +4074,7 @@
         <v>184.208771</v>
       </c>
       <c r="C61" t="n">
-        <v>181.669983</v>
+        <v>181.669998</v>
       </c>
     </row>
     <row r="62">
@@ -4129,7 +4129,7 @@
         <v>183.882431</v>
       </c>
       <c r="C66" t="n">
-        <v>178.944153</v>
+        <v>178.944138</v>
       </c>
     </row>
     <row r="67">
@@ -4151,7 +4151,7 @@
         <v>182.985062</v>
       </c>
       <c r="C68" t="n">
-        <v>180.868271</v>
+        <v>180.868256</v>
       </c>
     </row>
     <row r="69">
@@ -4173,7 +4173,7 @@
         <v>179.477097</v>
       </c>
       <c r="C70" t="n">
-        <v>180.868271</v>
+        <v>180.868256</v>
       </c>
     </row>
     <row r="71">
@@ -4217,7 +4217,7 @@
         <v>181.924515</v>
       </c>
       <c r="C74" t="n">
-        <v>184.07518</v>
+        <v>184.075165</v>
       </c>
     </row>
     <row r="75">
@@ -4239,7 +4239,7 @@
         <v>182.577164</v>
       </c>
       <c r="C76" t="n">
-        <v>188.885498</v>
+        <v>188.885483</v>
       </c>
     </row>
     <row r="77">
@@ -4283,7 +4283,7 @@
         <v>178.498123</v>
       </c>
       <c r="C80" t="n">
-        <v>187.602737</v>
+        <v>187.602722</v>
       </c>
     </row>
     <row r="81">
@@ -4305,7 +4305,7 @@
         <v>175.724396</v>
       </c>
       <c r="C82" t="n">
-        <v>183.433777</v>
+        <v>183.433792</v>
       </c>
     </row>
     <row r="83">
@@ -4316,7 +4316,7 @@
         <v>177.763901</v>
       </c>
       <c r="C83" t="n">
-        <v>181.669983</v>
+        <v>181.669998</v>
       </c>
     </row>
     <row r="84">
@@ -4349,7 +4349,7 @@
         <v>176.132294</v>
       </c>
       <c r="C86" t="n">
-        <v>183.433777</v>
+        <v>183.433792</v>
       </c>
     </row>
     <row r="87">
@@ -4393,7 +4393,7 @@
         <v>174.990158</v>
       </c>
       <c r="C90" t="n">
-        <v>186.640656</v>
+        <v>186.640671</v>
       </c>
     </row>
     <row r="91">
@@ -4437,7 +4437,7 @@
         <v>176.458618</v>
       </c>
       <c r="C94" t="n">
-        <v>184.07518</v>
+        <v>184.075165</v>
       </c>
     </row>
     <row r="95">
@@ -4448,7 +4448,7 @@
         <v>176.132294</v>
       </c>
       <c r="C95" t="n">
-        <v>185.35791</v>
+        <v>185.357895</v>
       </c>
     </row>
     <row r="96">
@@ -4459,7 +4459,7 @@
         <v>176.94809</v>
       </c>
       <c r="C96" t="n">
-        <v>185.037216</v>
+        <v>185.037231</v>
       </c>
     </row>
     <row r="97">
@@ -4481,7 +4481,7 @@
         <v>173.276978</v>
       </c>
       <c r="C98" t="n">
-        <v>181.669983</v>
+        <v>181.669998</v>
       </c>
     </row>
     <row r="99">
@@ -4492,7 +4492,7 @@
         <v>173.113815</v>
       </c>
       <c r="C99" t="n">
-        <v>181.02861</v>
+        <v>181.028625</v>
       </c>
     </row>
     <row r="100">
@@ -4547,7 +4547,7 @@
         <v>178.253387</v>
       </c>
       <c r="C104" t="n">
-        <v>178.944153</v>
+        <v>178.944138</v>
       </c>
     </row>
     <row r="105">
@@ -4569,7 +4569,7 @@
         <v>175.561234</v>
       </c>
       <c r="C106" t="n">
-        <v>177.501053</v>
+        <v>177.501038</v>
       </c>
     </row>
     <row r="107">
@@ -4591,7 +4591,7 @@
         <v>177.84549</v>
       </c>
       <c r="C108" t="n">
-        <v>177.020004</v>
+        <v>177.02002</v>
       </c>
     </row>
     <row r="109">
@@ -4602,7 +4602,7 @@
         <v>178.498123</v>
       </c>
       <c r="C109" t="n">
-        <v>177.180344</v>
+        <v>177.180359</v>
       </c>
     </row>
     <row r="110">
@@ -4613,7 +4613,7 @@
         <v>178.253387</v>
       </c>
       <c r="C110" t="n">
-        <v>177.340698</v>
+        <v>177.340683</v>
       </c>
     </row>
     <row r="111">
@@ -4657,7 +4657,7 @@
         <v>171.97168</v>
       </c>
       <c r="C114" t="n">
-        <v>175.095886</v>
+        <v>175.095871</v>
       </c>
     </row>
     <row r="115">
@@ -4668,7 +4668,7 @@
         <v>170.258484</v>
       </c>
       <c r="C115" t="n">
-        <v>175.416565</v>
+        <v>175.41658</v>
       </c>
     </row>
     <row r="116">
@@ -4723,7 +4723,7 @@
         <v>162.018875</v>
       </c>
       <c r="C120" t="n">
-        <v>173.652771</v>
+        <v>173.652786</v>
       </c>
     </row>
     <row r="121">
@@ -4734,7 +4734,7 @@
         <v>162.018875</v>
       </c>
       <c r="C121" t="n">
-        <v>174.454514</v>
+        <v>174.454498</v>
       </c>
     </row>
     <row r="122">
@@ -4756,7 +4756,7 @@
         <v>162.671509</v>
       </c>
       <c r="C123" t="n">
-        <v>175.416565</v>
+        <v>175.41658</v>
       </c>
     </row>
     <row r="124">
@@ -4767,7 +4767,7 @@
         <v>164.303116</v>
       </c>
       <c r="C124" t="n">
-        <v>177.501053</v>
+        <v>177.501038</v>
       </c>
     </row>
     <row r="125">
@@ -4778,7 +4778,7 @@
         <v>160.99913</v>
       </c>
       <c r="C125" t="n">
-        <v>179.264832</v>
+        <v>179.264847</v>
       </c>
     </row>
     <row r="126">
@@ -4789,7 +4789,7 @@
         <v>156.797714</v>
       </c>
       <c r="C126" t="n">
-        <v>177.501053</v>
+        <v>177.501038</v>
       </c>
     </row>
     <row r="127">
@@ -4877,7 +4877,7 @@
         <v>159.163544</v>
       </c>
       <c r="C134" t="n">
-        <v>180.707932</v>
+        <v>180.707916</v>
       </c>
     </row>
     <row r="135">
@@ -4899,7 +4899,7 @@
         <v>148.394928</v>
       </c>
       <c r="C136" t="n">
-        <v>179.745865</v>
+        <v>179.74585</v>
       </c>
     </row>
     <row r="137">
@@ -4921,7 +4921,7 @@
         <v>149.985748</v>
       </c>
       <c r="C138" t="n">
-        <v>181.669983</v>
+        <v>181.669998</v>
       </c>
     </row>
     <row r="139">
@@ -4932,7 +4932,7 @@
         <v>151.94368</v>
       </c>
       <c r="C139" t="n">
-        <v>185.037216</v>
+        <v>185.037231</v>
       </c>
     </row>
     <row r="140">
@@ -4976,7 +4976,7 @@
         <v>153.208176</v>
       </c>
       <c r="C143" t="n">
-        <v>189.847534</v>
+        <v>189.847549</v>
       </c>
     </row>
     <row r="144">
@@ -5020,7 +5020,7 @@
         <v>149.12915</v>
       </c>
       <c r="C147" t="n">
-        <v>185.037216</v>
+        <v>185.037231</v>
       </c>
     </row>
     <row r="148">
@@ -5031,7 +5031,7 @@
         <v>147.53833</v>
       </c>
       <c r="C148" t="n">
-        <v>177.180344</v>
+        <v>177.180359</v>
       </c>
     </row>
     <row r="149">
@@ -5064,7 +5064,7 @@
         <v>148.231766</v>
       </c>
       <c r="C151" t="n">
-        <v>179.264832</v>
+        <v>179.264847</v>
       </c>
     </row>
     <row r="152">
@@ -5075,7 +5075,7 @@
         <v>149.700211</v>
       </c>
       <c r="C152" t="n">
-        <v>177.501053</v>
+        <v>177.501038</v>
       </c>
     </row>
     <row r="153">
@@ -5130,7 +5130,7 @@
         <v>149.210724</v>
       </c>
       <c r="C157" t="n">
-        <v>175.095886</v>
+        <v>175.095871</v>
       </c>
     </row>
     <row r="158">
@@ -5207,7 +5207,7 @@
         <v>156.716141</v>
       </c>
       <c r="C164" t="n">
-        <v>155.614075</v>
+        <v>155.614059</v>
       </c>
     </row>
     <row r="165">
@@ -5218,7 +5218,7 @@
         <v>157.001663</v>
       </c>
       <c r="C165" t="n">
-        <v>153.770111</v>
+        <v>153.770096</v>
       </c>
     </row>
     <row r="166">
@@ -5229,7 +5229,7 @@
         <v>156.634552</v>
       </c>
       <c r="C166" t="n">
-        <v>151.926132</v>
+        <v>151.926147</v>
       </c>
     </row>
     <row r="167">
@@ -5240,7 +5240,7 @@
         <v>154.146362</v>
       </c>
       <c r="C167" t="n">
-        <v>150.723541</v>
+        <v>150.723557</v>
       </c>
     </row>
     <row r="168">
@@ -5251,7 +5251,7 @@
         <v>154.309509</v>
       </c>
       <c r="C168" t="n">
-        <v>149.120117</v>
+        <v>149.120132</v>
       </c>
     </row>
     <row r="169">
@@ -5273,7 +5273,7 @@
         <v>148.272552</v>
       </c>
       <c r="C170" t="n">
-        <v>147.917526</v>
+        <v>147.917542</v>
       </c>
     </row>
     <row r="171">
@@ -5284,7 +5284,7 @@
         <v>150.719971</v>
       </c>
       <c r="C171" t="n">
-        <v>148.158051</v>
+        <v>148.158066</v>
       </c>
     </row>
     <row r="172">
@@ -5317,7 +5317,7 @@
         <v>139.217117</v>
       </c>
       <c r="C174" t="n">
-        <v>147.837357</v>
+        <v>147.837341</v>
       </c>
     </row>
     <row r="175">
@@ -5339,7 +5339,7 @@
         <v>140.114502</v>
       </c>
       <c r="C176" t="n">
-        <v>148.879593</v>
+        <v>148.879608</v>
       </c>
     </row>
     <row r="177">
@@ -5350,7 +5350,7 @@
         <v>138.646042</v>
       </c>
       <c r="C177" t="n">
-        <v>147.917526</v>
+        <v>147.917542</v>
       </c>
     </row>
     <row r="178">
@@ -5361,7 +5361,7 @@
         <v>137.748672</v>
       </c>
       <c r="C178" t="n">
-        <v>149.200302</v>
+        <v>149.200287</v>
       </c>
     </row>
     <row r="179">
@@ -5405,7 +5405,7 @@
         <v>138.727646</v>
       </c>
       <c r="C182" t="n">
-        <v>152.888199</v>
+        <v>152.888214</v>
       </c>
     </row>
     <row r="183">
@@ -5438,7 +5438,7 @@
         <v>140.563202</v>
       </c>
       <c r="C185" t="n">
-        <v>155.934753</v>
+        <v>155.934738</v>
       </c>
     </row>
     <row r="186">
@@ -5504,7 +5504,7 @@
         <v>129.386673</v>
       </c>
       <c r="C191" t="n">
-        <v>148.158051</v>
+        <v>148.158066</v>
       </c>
     </row>
     <row r="192">
@@ -5526,7 +5526,7 @@
         <v>116.945648</v>
       </c>
       <c r="C193" t="n">
-        <v>146.795135</v>
+        <v>146.79512</v>
       </c>
     </row>
     <row r="194">
@@ -5537,7 +5537,7 @@
         <v>115.925896</v>
       </c>
       <c r="C194" t="n">
-        <v>141.824463</v>
+        <v>141.824448</v>
       </c>
     </row>
     <row r="195">
@@ -5581,7 +5581,7 @@
         <v>113.886383</v>
       </c>
       <c r="C198" t="n">
-        <v>142.54599</v>
+        <v>142.546005</v>
       </c>
     </row>
     <row r="199">
@@ -5603,7 +5603,7 @@
         <v>112.254776</v>
       </c>
       <c r="C200" t="n">
-        <v>143.748581</v>
+        <v>143.748596</v>
       </c>
     </row>
     <row r="201">
@@ -5658,7 +5658,7 @@
         <v>102.505898</v>
       </c>
       <c r="C205" t="n">
-        <v>141.503769</v>
+        <v>141.503784</v>
       </c>
     </row>
     <row r="206">
@@ -5680,7 +5680,7 @@
         <v>102.791428</v>
       </c>
       <c r="C207" t="n">
-        <v>140.862396</v>
+        <v>140.862381</v>
       </c>
     </row>
     <row r="208">
@@ -5691,7 +5691,7 @@
         <v>104.586197</v>
       </c>
       <c r="C208" t="n">
-        <v>144.069275</v>
+        <v>144.06926</v>
       </c>
     </row>
     <row r="209">
@@ -5713,7 +5713,7 @@
         <v>103.076958</v>
       </c>
       <c r="C210" t="n">
-        <v>122.102127</v>
+        <v>122.102119</v>
       </c>
     </row>
     <row r="211">
@@ -5724,7 +5724,7 @@
         <v>108.134956</v>
       </c>
       <c r="C211" t="n">
-        <v>123.625389</v>
+        <v>123.625381</v>
       </c>
     </row>
     <row r="212">
@@ -5735,7 +5735,7 @@
         <v>111.765274</v>
       </c>
       <c r="C212" t="n">
-        <v>127.874504</v>
+        <v>127.874496</v>
       </c>
     </row>
     <row r="213">
@@ -5746,7 +5746,7 @@
         <v>110.337624</v>
       </c>
       <c r="C213" t="n">
-        <v>130.199493</v>
+        <v>130.199509</v>
       </c>
     </row>
     <row r="214">
@@ -5768,7 +5768,7 @@
         <v>117.516716</v>
       </c>
       <c r="C215" t="n">
-        <v>132.52449</v>
+        <v>132.524475</v>
       </c>
     </row>
     <row r="216">
@@ -5790,7 +5790,7 @@
         <v>117.598289</v>
       </c>
       <c r="C217" t="n">
-        <v>131.321899</v>
+        <v>131.321915</v>
       </c>
     </row>
     <row r="218">
@@ -5801,7 +5801,7 @@
         <v>116.619316</v>
       </c>
       <c r="C218" t="n">
-        <v>130.440018</v>
+        <v>130.440033</v>
       </c>
     </row>
     <row r="219">
@@ -5823,7 +5823,7 @@
         <v>117.598289</v>
       </c>
       <c r="C220" t="n">
-        <v>129.237442</v>
+        <v>129.237427</v>
       </c>
     </row>
     <row r="221">
@@ -5834,7 +5834,7 @@
         <v>113.519257</v>
       </c>
       <c r="C221" t="n">
-        <v>127.874504</v>
+        <v>127.874496</v>
       </c>
     </row>
     <row r="222">
@@ -5845,7 +5845,7 @@
         <v>111.602127</v>
       </c>
       <c r="C222" t="n">
-        <v>127.553825</v>
+        <v>127.553833</v>
       </c>
     </row>
     <row r="223">
@@ -5856,7 +5856,7 @@
         <v>110.500786</v>
       </c>
       <c r="C223" t="n">
-        <v>128.756409</v>
+        <v>128.756393</v>
       </c>
     </row>
     <row r="224">
@@ -5867,7 +5867,7 @@
         <v>106.544144</v>
       </c>
       <c r="C224" t="n">
-        <v>125.950386</v>
+        <v>125.950394</v>
       </c>
     </row>
     <row r="225">
@@ -5878,7 +5878,7 @@
         <v>107.441513</v>
       </c>
       <c r="C225" t="n">
-        <v>127.874504</v>
+        <v>127.874496</v>
       </c>
     </row>
     <row r="226">
@@ -5889,7 +5889,7 @@
         <v>108.461273</v>
       </c>
       <c r="C226" t="n">
-        <v>127.874504</v>
+        <v>127.874496</v>
       </c>
     </row>
     <row r="227">
@@ -5900,7 +5900,7 @@
         <v>108.869164</v>
       </c>
       <c r="C227" t="n">
-        <v>128.27536</v>
+        <v>128.275375</v>
       </c>
     </row>
     <row r="228">
@@ -5911,7 +5911,7 @@
         <v>111.071846</v>
       </c>
       <c r="C228" t="n">
-        <v>131.08139</v>
+        <v>131.081406</v>
       </c>
     </row>
     <row r="229">
@@ -5922,7 +5922,7 @@
         <v>110.133675</v>
       </c>
       <c r="C229" t="n">
-        <v>131.08139</v>
+        <v>131.081406</v>
       </c>
     </row>
     <row r="230">
@@ -5933,7 +5933,7 @@
         <v>110.949478</v>
       </c>
       <c r="C230" t="n">
-        <v>129.638306</v>
+        <v>129.63829</v>
       </c>
     </row>
     <row r="231">
@@ -5966,7 +5966,7 @@
         <v>108.706017</v>
       </c>
       <c r="C233" t="n">
-        <v>126.671936</v>
+        <v>126.671944</v>
       </c>
     </row>
     <row r="234">
@@ -5977,7 +5977,7 @@
         <v>108.583641</v>
       </c>
       <c r="C234" t="n">
-        <v>127.152962</v>
+        <v>127.152977</v>
       </c>
     </row>
     <row r="235">
@@ -5999,7 +5999,7 @@
         <v>111.316589</v>
       </c>
       <c r="C236" t="n">
-        <v>126.992607</v>
+        <v>126.992615</v>
       </c>
     </row>
     <row r="237">
@@ -6010,7 +6010,7 @@
         <v>116.007469</v>
       </c>
       <c r="C237" t="n">
-        <v>129.558121</v>
+        <v>129.558136</v>
       </c>
     </row>
     <row r="238">
@@ -6021,7 +6021,7 @@
         <v>112.050819</v>
       </c>
       <c r="C238" t="n">
-        <v>127.152962</v>
+        <v>127.152977</v>
       </c>
     </row>
     <row r="239">
@@ -6032,7 +6032,7 @@
         <v>114.2127</v>
       </c>
       <c r="C239" t="n">
-        <v>129.558121</v>
+        <v>129.558136</v>
       </c>
     </row>
     <row r="240">
@@ -6043,7 +6043,7 @@
         <v>113.519257</v>
       </c>
       <c r="C240" t="n">
-        <v>129.077103</v>
+        <v>129.077087</v>
       </c>
     </row>
     <row r="241">
@@ -6054,7 +6054,7 @@
         <v>113.396896</v>
       </c>
       <c r="C241" t="n">
-        <v>128.676224</v>
+        <v>128.676239</v>
       </c>
     </row>
     <row r="242">
@@ -6076,7 +6076,7 @@
         <v>110.459984</v>
       </c>
       <c r="C243" t="n">
-        <v>127.633987</v>
+        <v>127.633972</v>
       </c>
     </row>
     <row r="244">
@@ -6098,7 +6098,7 @@
         <v>109.725777</v>
       </c>
       <c r="C245" t="n">
-        <v>121.781418</v>
+        <v>121.781425</v>
       </c>
     </row>
     <row r="246">
@@ -6142,7 +6142,7 @@
         <v>105.157257</v>
       </c>
       <c r="C249" t="n">
-        <v>124.346947</v>
+        <v>124.346939</v>
       </c>
     </row>
     <row r="250">
@@ -6153,7 +6153,7 @@
         <v>104.994095</v>
       </c>
       <c r="C250" t="n">
-        <v>126.27108</v>
+        <v>126.271072</v>
       </c>
     </row>
     <row r="251">
@@ -6164,7 +6164,7 @@
         <v>104.749352</v>
       </c>
       <c r="C251" t="n">
-        <v>123.865906</v>
+        <v>123.865891</v>
       </c>
     </row>
     <row r="252">
@@ -6175,7 +6175,7 @@
         <v>109.195503</v>
       </c>
       <c r="C252" t="n">
-        <v>127.313301</v>
+        <v>127.313309</v>
       </c>
     </row>
     <row r="253">
@@ -6186,7 +6186,7 @@
         <v>108.909966</v>
       </c>
       <c r="C253" t="n">
-        <v>126.591751</v>
+        <v>126.591759</v>
       </c>
     </row>
     <row r="254">
@@ -6197,7 +6197,7 @@
         <v>108.379692</v>
       </c>
       <c r="C254" t="n">
-        <v>126.832283</v>
+        <v>126.832275</v>
       </c>
     </row>
     <row r="255">
@@ -6219,7 +6219,7 @@
         <v>104.219086</v>
       </c>
       <c r="C256" t="n">
-        <v>126.591751</v>
+        <v>126.591759</v>
       </c>
     </row>
     <row r="257">
@@ -6241,7 +6241,7 @@
         <v>106.054649</v>
       </c>
       <c r="C258" t="n">
-        <v>124.266769</v>
+        <v>124.266762</v>
       </c>
     </row>
     <row r="259">
@@ -6252,7 +6252,7 @@
         <v>104.423042</v>
       </c>
       <c r="C259" t="n">
-        <v>122.583145</v>
+        <v>122.583153</v>
       </c>
     </row>
     <row r="260">
@@ -6263,7 +6263,7 @@
         <v>105.034897</v>
       </c>
       <c r="C260" t="n">
-        <v>126.27108</v>
+        <v>126.271072</v>
       </c>
     </row>
     <row r="261">
@@ -6274,7 +6274,7 @@
         <v>103.933556</v>
       </c>
       <c r="C261" t="n">
-        <v>126.030563</v>
+        <v>126.030548</v>
       </c>
     </row>
     <row r="262">
@@ -6285,7 +6285,7 @@
         <v>103.199333</v>
       </c>
       <c r="C262" t="n">
-        <v>125.870209</v>
+        <v>125.870201</v>
       </c>
     </row>
     <row r="263">
@@ -6307,7 +6307,7 @@
         <v>102.791428</v>
       </c>
       <c r="C264" t="n">
-        <v>125.709862</v>
+        <v>125.709869</v>
       </c>
     </row>
     <row r="265">
@@ -6318,7 +6318,7 @@
         <v>101.975624</v>
       </c>
       <c r="C265" t="n">
-        <v>126.190887</v>
+        <v>126.190895</v>
       </c>
     </row>
     <row r="266">
@@ -6340,7 +6340,7 @@
         <v>102.138786</v>
       </c>
       <c r="C267" t="n">
-        <v>126.832283</v>
+        <v>126.832275</v>
       </c>
     </row>
     <row r="268">
@@ -6351,7 +6351,7 @@
         <v>99.936104</v>
       </c>
       <c r="C268" t="n">
-        <v>123.625389</v>
+        <v>123.625381</v>
       </c>
     </row>
     <row r="269">
@@ -6362,7 +6362,7 @@
         <v>99.85453</v>
       </c>
       <c r="C269" t="n">
-        <v>123.465057</v>
+        <v>123.46505</v>
       </c>
     </row>
     <row r="270">
@@ -6373,7 +6373,7 @@
         <v>100.140068</v>
       </c>
       <c r="C270" t="n">
-        <v>123.144363</v>
+        <v>123.144371</v>
       </c>
     </row>
     <row r="271">
@@ -6384,7 +6384,7 @@
         <v>98.304497</v>
       </c>
       <c r="C271" t="n">
-        <v>120.739189</v>
+        <v>120.739204</v>
       </c>
     </row>
     <row r="272">
@@ -6395,7 +6395,7 @@
         <v>103.444069</v>
       </c>
       <c r="C272" t="n">
-        <v>121.781418</v>
+        <v>121.781425</v>
       </c>
     </row>
     <row r="273">
@@ -6417,7 +6417,7 @@
         <v>103.199333</v>
       </c>
       <c r="C274" t="n">
-        <v>122.102127</v>
+        <v>122.102119</v>
       </c>
     </row>
     <row r="275">
@@ -6428,7 +6428,7 @@
         <v>102.66906</v>
       </c>
       <c r="C275" t="n">
-        <v>121.781418</v>
+        <v>121.781425</v>
       </c>
     </row>
     <row r="276">
@@ -6450,7 +6450,7 @@
         <v>97.896599</v>
       </c>
       <c r="C277" t="n">
-        <v>119.456444</v>
+        <v>119.456436</v>
       </c>
     </row>
     <row r="278">
@@ -6472,7 +6472,7 @@
         <v>101.119026</v>
       </c>
       <c r="C279" t="n">
-        <v>121.22023</v>
+        <v>121.220222</v>
       </c>
     </row>
     <row r="280">
@@ -6494,7 +6494,7 @@
         <v>99.936104</v>
       </c>
       <c r="C281" t="n">
-        <v>121.22023</v>
+        <v>121.220222</v>
       </c>
     </row>
     <row r="282">
@@ -6505,7 +6505,7 @@
         <v>101.486137</v>
       </c>
       <c r="C282" t="n">
-        <v>122.02195</v>
+        <v>122.021942</v>
       </c>
     </row>
     <row r="283">
@@ -6527,7 +6527,7 @@
         <v>102.873009</v>
       </c>
       <c r="C284" t="n">
-        <v>121.540909</v>
+        <v>121.540916</v>
       </c>
     </row>
     <row r="285">
@@ -6538,7 +6538,7 @@
         <v>103.117752</v>
       </c>
       <c r="C285" t="n">
-        <v>121.781418</v>
+        <v>121.781425</v>
       </c>
     </row>
     <row r="286">
@@ -6549,7 +6549,7 @@
         <v>98.712402</v>
       </c>
       <c r="C286" t="n">
-        <v>120.498672</v>
+        <v>120.49868</v>
       </c>
     </row>
     <row r="287">
@@ -6560,7 +6560,7 @@
         <v>98.467659</v>
       </c>
       <c r="C287" t="n">
-        <v>120.578835</v>
+        <v>120.578842</v>
       </c>
     </row>
     <row r="288">
@@ -6571,7 +6571,7 @@
         <v>102.301949</v>
       </c>
       <c r="C288" t="n">
-        <v>121.781418</v>
+        <v>121.781425</v>
       </c>
     </row>
     <row r="289">
@@ -6593,7 +6593,7 @@
         <v>106.054649</v>
       </c>
       <c r="C290" t="n">
-        <v>127.393456</v>
+        <v>127.393471</v>
       </c>
     </row>
     <row r="291">
@@ -6604,7 +6604,7 @@
         <v>106.462555</v>
       </c>
       <c r="C291" t="n">
-        <v>125.228828</v>
+        <v>125.228821</v>
       </c>
     </row>
     <row r="292">
@@ -6615,7 +6615,7 @@
         <v>105.973061</v>
       </c>
       <c r="C292" t="n">
-        <v>122.502983</v>
+        <v>122.502991</v>
       </c>
     </row>
     <row r="293">
@@ -6626,7 +6626,7 @@
         <v>105.687538</v>
       </c>
       <c r="C293" t="n">
-        <v>122.422806</v>
+        <v>122.422798</v>
       </c>
     </row>
     <row r="294">
@@ -6637,7 +6637,7 @@
         <v>104.83094</v>
       </c>
       <c r="C294" t="n">
-        <v>121.059883</v>
+        <v>121.059868</v>
       </c>
     </row>
     <row r="295">
@@ -6648,7 +6648,7 @@
         <v>105.442795</v>
       </c>
       <c r="C295" t="n">
-        <v>119.616776</v>
+        <v>119.616791</v>
       </c>
     </row>
     <row r="296">
@@ -6681,7 +6681,7 @@
         <v>103.892769</v>
       </c>
       <c r="C298" t="n">
-        <v>115.768517</v>
+        <v>115.768524</v>
       </c>
     </row>
     <row r="299">
@@ -6703,7 +6703,7 @@
         <v>105.361206</v>
       </c>
       <c r="C300" t="n">
-        <v>118.013336</v>
+        <v>118.013344</v>
       </c>
     </row>
     <row r="301">
@@ -6714,7 +6714,7 @@
         <v>107.971794</v>
       </c>
       <c r="C301" t="n">
-        <v>118.654724</v>
+        <v>118.654716</v>
       </c>
     </row>
     <row r="302">
@@ -6736,7 +6736,7 @@
         <v>109.481026</v>
       </c>
       <c r="C303" t="n">
-        <v>122.102127</v>
+        <v>122.102119</v>
       </c>
     </row>
     <row r="304">
@@ -6758,7 +6758,7 @@
         <v>109.437477</v>
       </c>
       <c r="C305" t="n">
-        <v>121.94178</v>
+        <v>121.941788</v>
       </c>
     </row>
     <row r="306">
@@ -6769,7 +6769,7 @@
         <v>108.000374</v>
       </c>
       <c r="C306" t="n">
-        <v>120.899529</v>
+        <v>120.899536</v>
       </c>
     </row>
     <row r="307">
@@ -6780,7 +6780,7 @@
         <v>105.866501</v>
       </c>
       <c r="C307" t="n">
-        <v>120.096046</v>
+        <v>120.096039</v>
       </c>
     </row>
     <row r="308">
@@ -6824,7 +6824,7 @@
         <v>101.685837</v>
       </c>
       <c r="C311" t="n">
-        <v>117.104317</v>
+        <v>117.104324</v>
       </c>
     </row>
     <row r="312">
@@ -6835,7 +6835,7 @@
         <v>101.729393</v>
       </c>
       <c r="C312" t="n">
-        <v>117.959099</v>
+        <v>117.959106</v>
       </c>
     </row>
     <row r="313">
@@ -6857,7 +6857,7 @@
         <v>106.737473</v>
       </c>
       <c r="C314" t="n">
-        <v>121.463692</v>
+        <v>121.463684</v>
       </c>
     </row>
     <row r="315">
@@ -6879,7 +6879,7 @@
         <v>109.132637</v>
       </c>
       <c r="C316" t="n">
-        <v>122.745857</v>
+        <v>122.745865</v>
       </c>
     </row>
     <row r="317">
@@ -6901,7 +6901,7 @@
         <v>107.347145</v>
       </c>
       <c r="C318" t="n">
-        <v>122.062035</v>
+        <v>122.062027</v>
       </c>
     </row>
     <row r="319">
@@ -6912,7 +6912,7 @@
         <v>106.389084</v>
       </c>
       <c r="C319" t="n">
-        <v>120.523438</v>
+        <v>120.52343</v>
       </c>
     </row>
     <row r="320">
@@ -6934,7 +6934,7 @@
         <v>108.13102</v>
       </c>
       <c r="C321" t="n">
-        <v>122.232994</v>
+        <v>122.232986</v>
       </c>
     </row>
     <row r="322">
@@ -6945,7 +6945,7 @@
         <v>110.613289</v>
       </c>
       <c r="C322" t="n">
-        <v>123.51516</v>
+        <v>123.515152</v>
       </c>
     </row>
     <row r="323">
@@ -7000,7 +7000,7 @@
         <v>110.831032</v>
       </c>
       <c r="C327" t="n">
-        <v>122.062035</v>
+        <v>122.062027</v>
       </c>
     </row>
     <row r="328">
@@ -7011,7 +7011,7 @@
         <v>110.221359</v>
       </c>
       <c r="C328" t="n">
-        <v>119.412224</v>
+        <v>119.412231</v>
       </c>
     </row>
     <row r="329">
@@ -7022,7 +7022,7 @@
         <v>111.919746</v>
       </c>
       <c r="C329" t="n">
-        <v>122.916817</v>
+        <v>122.916809</v>
       </c>
     </row>
     <row r="330">
@@ -7044,7 +7044,7 @@
         <v>102.818108</v>
       </c>
       <c r="C331" t="n">
-        <v>122.831322</v>
+        <v>122.831329</v>
       </c>
     </row>
     <row r="332">
@@ -7055,7 +7055,7 @@
         <v>103.993912</v>
       </c>
       <c r="C332" t="n">
-        <v>120.779869</v>
+        <v>120.779861</v>
       </c>
     </row>
     <row r="333">
@@ -7088,7 +7088,7 @@
         <v>100.510025</v>
       </c>
       <c r="C335" t="n">
-        <v>107.787262</v>
+        <v>107.78727</v>
       </c>
     </row>
     <row r="336">
@@ -7132,7 +7132,7 @@
         <v>97.635818</v>
       </c>
       <c r="C339" t="n">
-        <v>108.214653</v>
+        <v>108.214661</v>
       </c>
     </row>
     <row r="340">
@@ -7154,7 +7154,7 @@
         <v>93.890648</v>
       </c>
       <c r="C341" t="n">
-        <v>106.847015</v>
+        <v>106.847008</v>
       </c>
     </row>
     <row r="342">
@@ -7198,7 +7198,7 @@
         <v>96.198715</v>
       </c>
       <c r="C345" t="n">
-        <v>105.992233</v>
+        <v>105.992241</v>
       </c>
     </row>
     <row r="346">
@@ -7209,7 +7209,7 @@
         <v>96.764854</v>
       </c>
       <c r="C346" t="n">
-        <v>105.906769</v>
+        <v>105.906761</v>
       </c>
     </row>
     <row r="347">
@@ -7242,7 +7242,7 @@
         <v>98.158401</v>
       </c>
       <c r="C349" t="n">
-        <v>106.077713</v>
+        <v>106.077721</v>
       </c>
     </row>
     <row r="350">
@@ -7286,7 +7286,7 @@
         <v>97.592278</v>
       </c>
       <c r="C353" t="n">
-        <v>106.847015</v>
+        <v>106.847008</v>
       </c>
     </row>
     <row r="354">
@@ -7352,7 +7352,7 @@
         <v>95.458389</v>
       </c>
       <c r="C359" t="n">
-        <v>111.377327</v>
+        <v>111.377335</v>
       </c>
     </row>
     <row r="360">
@@ -7385,7 +7385,7 @@
         <v>91.800316</v>
       </c>
       <c r="C362" t="n">
-        <v>113.172348</v>
+        <v>113.172356</v>
       </c>
     </row>
     <row r="363">
@@ -7528,7 +7528,7 @@
         <v>90.75515</v>
       </c>
       <c r="C375" t="n">
-        <v>109.411346</v>
+        <v>109.411339</v>
       </c>
     </row>
     <row r="376">
@@ -7616,7 +7616,7 @@
         <v>89.361595</v>
       </c>
       <c r="C383" t="n">
-        <v>102.145744</v>
+        <v>102.145752</v>
       </c>
     </row>
     <row r="384">
@@ -7671,7 +7671,7 @@
         <v>90.66806</v>
       </c>
       <c r="C388" t="n">
-        <v>104.197212</v>
+        <v>104.19722</v>
       </c>
     </row>
     <row r="389">
@@ -7715,7 +7715,7 @@
         <v>87.314819</v>
       </c>
       <c r="C392" t="n">
-        <v>100.350708</v>
+        <v>100.350716</v>
       </c>
     </row>
     <row r="393">
@@ -7759,7 +7759,7 @@
         <v>83.839645</v>
       </c>
       <c r="C396" t="n">
-        <v>99.923325</v>
+        <v>99.923332</v>
       </c>
     </row>
     <row r="397">
@@ -7781,7 +7781,7 @@
         <v>83.857071</v>
       </c>
       <c r="C398" t="n">
-        <v>98.641159</v>
+        <v>98.641167</v>
       </c>
     </row>
     <row r="399">
@@ -7803,7 +7803,7 @@
         <v>81.244148</v>
       </c>
       <c r="C400" t="n">
-        <v>95.991356</v>
+        <v>95.991364</v>
       </c>
     </row>
     <row r="401">
@@ -7814,7 +7814,7 @@
         <v>81.505447</v>
       </c>
       <c r="C401" t="n">
-        <v>95.563972</v>
+        <v>95.56398</v>
       </c>
     </row>
     <row r="402">
@@ -7847,7 +7847,7 @@
         <v>79.362854</v>
       </c>
       <c r="C404" t="n">
-        <v>94.70919</v>
+        <v>94.709198</v>
       </c>
     </row>
     <row r="405">
@@ -7858,7 +7858,7 @@
         <v>79.955116</v>
       </c>
       <c r="C405" t="n">
-        <v>95.307533</v>
+        <v>95.307541</v>
       </c>
     </row>
     <row r="406">
@@ -7891,7 +7891,7 @@
         <v>78.561562</v>
       </c>
       <c r="C408" t="n">
-        <v>94.88015</v>
+        <v>94.880142</v>
       </c>
     </row>
     <row r="409">
@@ -7902,7 +7902,7 @@
         <v>77.673172</v>
       </c>
       <c r="C409" t="n">
-        <v>94.88015</v>
+        <v>94.880142</v>
       </c>
     </row>
     <row r="410">
@@ -7979,7 +7979,7 @@
         <v>75.251877</v>
       </c>
       <c r="C416" t="n">
-        <v>80.562645</v>
+        <v>80.562653</v>
       </c>
     </row>
     <row r="417">
@@ -8023,7 +8023,7 @@
         <v>86.644173</v>
       </c>
       <c r="C420" t="n">
-        <v>86.930725</v>
+        <v>86.930733</v>
       </c>
     </row>
     <row r="421">
@@ -8045,7 +8045,7 @@
         <v>87.968048</v>
       </c>
       <c r="C422" t="n">
-        <v>88.041946</v>
+        <v>88.041939</v>
       </c>
     </row>
     <row r="423">
@@ -8056,7 +8056,7 @@
         <v>88.011597</v>
       </c>
       <c r="C423" t="n">
-        <v>87.870987</v>
+        <v>87.870995</v>
       </c>
     </row>
     <row r="424">
@@ -8089,7 +8089,7 @@
         <v>85.02417</v>
       </c>
       <c r="C426" t="n">
-        <v>87.187164</v>
+        <v>87.187157</v>
       </c>
     </row>
     <row r="427">
@@ -8100,7 +8100,7 @@
         <v>83.247383</v>
       </c>
       <c r="C427" t="n">
-        <v>87.529076</v>
+        <v>87.529083</v>
       </c>
     </row>
     <row r="428">
@@ -8188,7 +8188,7 @@
         <v>83.073189</v>
       </c>
       <c r="C435" t="n">
-        <v>103.256958</v>
+        <v>103.25695</v>
       </c>
     </row>
     <row r="436">
@@ -8210,7 +8210,7 @@
         <v>82.02803</v>
       </c>
       <c r="C437" t="n">
-        <v>99.923325</v>
+        <v>99.923332</v>
       </c>
     </row>
     <row r="438">
@@ -8221,7 +8221,7 @@
         <v>80.216408</v>
       </c>
       <c r="C438" t="n">
-        <v>99.239502</v>
+        <v>99.23951</v>
       </c>
     </row>
     <row r="439">
@@ -8265,7 +8265,7 @@
         <v>79.972534</v>
       </c>
       <c r="C442" t="n">
-        <v>102.316704</v>
+        <v>102.316696</v>
       </c>
     </row>
     <row r="443">
@@ -8287,7 +8287,7 @@
         <v>82.881577</v>
       </c>
       <c r="C444" t="n">
-        <v>102.145744</v>
+        <v>102.145752</v>
       </c>
     </row>
     <row r="445">
@@ -8298,7 +8298,7 @@
         <v>83.595772</v>
       </c>
       <c r="C445" t="n">
-        <v>104.795547</v>
+        <v>104.795555</v>
       </c>
     </row>
     <row r="446">
@@ -8320,7 +8320,7 @@
         <v>84.693199</v>
       </c>
       <c r="C447" t="n">
-        <v>109.92421</v>
+        <v>109.924217</v>
       </c>
     </row>
     <row r="448">
@@ -8375,7 +8375,7 @@
         <v>85.529327</v>
       </c>
       <c r="C452" t="n">
-        <v>115.394775</v>
+        <v>115.394783</v>
       </c>
     </row>
     <row r="453">
@@ -8386,7 +8386,7 @@
         <v>85.668686</v>
       </c>
       <c r="C453" t="n">
-        <v>114.881912</v>
+        <v>114.881905</v>
       </c>
     </row>
     <row r="454">
@@ -8397,7 +8397,7 @@
         <v>85.877716</v>
       </c>
       <c r="C454" t="n">
-        <v>116.078598</v>
+        <v>116.07859</v>
       </c>
     </row>
     <row r="455">
@@ -8430,7 +8430,7 @@
         <v>82.829323</v>
       </c>
       <c r="C457" t="n">
-        <v>113.856171</v>
+        <v>113.856178</v>
       </c>
     </row>
     <row r="458">
@@ -8529,7 +8529,7 @@
         <v>82.306732</v>
       </c>
       <c r="C466" t="n">
-        <v>116.93338</v>
+        <v>116.933372</v>
       </c>
     </row>
     <row r="467">
@@ -8540,7 +8540,7 @@
         <v>80.442856</v>
       </c>
       <c r="C467" t="n">
-        <v>113.514267</v>
+        <v>113.514275</v>
       </c>
     </row>
     <row r="468">
@@ -8551,7 +8551,7 @@
         <v>80.634476</v>
       </c>
       <c r="C468" t="n">
-        <v>111.377327</v>
+        <v>111.377335</v>
       </c>
     </row>
     <row r="469">
@@ -8573,7 +8573,7 @@
         <v>79.240921</v>
       </c>
       <c r="C470" t="n">
-        <v>110.949944</v>
+        <v>110.949936</v>
       </c>
     </row>
     <row r="471">
@@ -8661,7 +8661,7 @@
         <v>80.129311</v>
       </c>
       <c r="C478" t="n">
-        <v>109.582291</v>
+        <v>109.582298</v>
       </c>
     </row>
     <row r="479">
@@ -8716,7 +8716,7 @@
         <v>82.463516</v>
       </c>
       <c r="C483" t="n">
-        <v>110.949944</v>
+        <v>110.949936</v>
       </c>
     </row>
     <row r="484">
@@ -8738,7 +8738,7 @@
         <v>84.01384</v>
       </c>
       <c r="C485" t="n">
-        <v>113.172348</v>
+        <v>113.172356</v>
       </c>
     </row>
     <row r="486">
@@ -8749,7 +8749,7 @@
         <v>84.170616</v>
       </c>
       <c r="C486" t="n">
-        <v>113.343323</v>
+        <v>113.343315</v>
       </c>
     </row>
     <row r="487">
@@ -8760,7 +8760,7 @@
         <v>84.849968</v>
       </c>
       <c r="C487" t="n">
-        <v>113.856171</v>
+        <v>113.856178</v>
       </c>
     </row>
     <row r="488">
@@ -8793,7 +8793,7 @@
         <v>92.671295</v>
       </c>
       <c r="C490" t="n">
-        <v>112.488541</v>
+        <v>112.488533</v>
       </c>
     </row>
     <row r="491">
@@ -8804,7 +8804,7 @@
         <v>94.108391</v>
       </c>
       <c r="C491" t="n">
-        <v>117.104317</v>
+        <v>117.104324</v>
       </c>
     </row>
     <row r="492">
@@ -8826,7 +8826,7 @@
         <v>92.105156</v>
       </c>
       <c r="C493" t="n">
-        <v>116.93338</v>
+        <v>116.933372</v>
       </c>
     </row>
     <row r="494">
@@ -8859,7 +8859,7 @@
         <v>93.411613</v>
       </c>
       <c r="C496" t="n">
-        <v>119.070328</v>
+        <v>119.07032</v>
       </c>
     </row>
     <row r="497">
@@ -8892,7 +8892,7 @@
         <v>93.977753</v>
       </c>
       <c r="C499" t="n">
-        <v>121.463692</v>
+        <v>121.463684</v>
       </c>
     </row>
     <row r="500">
@@ -8903,7 +8903,7 @@
         <v>92.932579</v>
       </c>
       <c r="C500" t="n">
-        <v>120.60891</v>
+        <v>120.608917</v>
       </c>
     </row>
     <row r="501">
@@ -8914,7 +8914,7 @@
         <v>93.847099</v>
       </c>
       <c r="C501" t="n">
-        <v>120.694374</v>
+        <v>120.694382</v>
       </c>
     </row>
     <row r="502">
@@ -8925,7 +8925,7 @@
         <v>94.282585</v>
       </c>
       <c r="C502" t="n">
-        <v>120.523438</v>
+        <v>120.52343</v>
       </c>
     </row>
     <row r="503">
@@ -8936,7 +8936,7 @@
         <v>96.068085</v>
       </c>
       <c r="C503" t="n">
-        <v>124.369926</v>
+        <v>124.369919</v>
       </c>
     </row>
     <row r="504">
@@ -8969,7 +8969,7 @@
         <v>94.06485</v>
       </c>
       <c r="C506" t="n">
-        <v>123.686089</v>
+        <v>123.686096</v>
       </c>
     </row>
     <row r="507">
@@ -9002,7 +9002,7 @@
         <v>95.806786</v>
       </c>
       <c r="C509" t="n">
-        <v>123.344208</v>
+        <v>123.3442</v>
       </c>
     </row>
     <row r="510">
@@ -9013,7 +9013,7 @@
         <v>95.632591</v>
       </c>
       <c r="C510" t="n">
-        <v>127.361649</v>
+        <v>127.361641</v>
       </c>
     </row>
     <row r="511">
@@ -9024,7 +9024,7 @@
         <v>95.806786</v>
       </c>
       <c r="C511" t="n">
-        <v>125.993988</v>
+        <v>125.993996</v>
       </c>
     </row>
     <row r="512">
@@ -9046,7 +9046,7 @@
         <v>94.848717</v>
       </c>
       <c r="C513" t="n">
-        <v>126.934265</v>
+        <v>126.934258</v>
       </c>
     </row>
     <row r="514">
@@ -9057,7 +9057,7 @@
         <v>95.458389</v>
       </c>
       <c r="C514" t="n">
-        <v>125.993988</v>
+        <v>125.993996</v>
       </c>
     </row>
     <row r="515">
@@ -9079,7 +9079,7 @@
         <v>94.500328</v>
       </c>
       <c r="C516" t="n">
-        <v>125.224701</v>
+        <v>125.224693</v>
       </c>
     </row>
     <row r="517">
@@ -9090,7 +9090,7 @@
         <v>95.893883</v>
       </c>
       <c r="C517" t="n">
-        <v>125.993988</v>
+        <v>125.993996</v>
       </c>
     </row>
     <row r="518">
@@ -9112,7 +9112,7 @@
         <v>98.332603</v>
       </c>
       <c r="C519" t="n">
-        <v>125.48114</v>
+        <v>125.481133</v>
       </c>
     </row>
     <row r="520">
@@ -9134,7 +9134,7 @@
         <v>99.943893</v>
       </c>
       <c r="C521" t="n">
-        <v>127.276161</v>
+        <v>127.276169</v>
       </c>
     </row>
     <row r="522">
@@ -9189,7 +9189,7 @@
         <v>105.822952</v>
       </c>
       <c r="C526" t="n">
-        <v>133.516037</v>
+        <v>133.516022</v>
       </c>
     </row>
     <row r="527">
@@ -9200,7 +9200,7 @@
         <v>107.608437</v>
       </c>
       <c r="C527" t="n">
-        <v>134.285324</v>
+        <v>134.285339</v>
       </c>
     </row>
     <row r="528">
@@ -9211,7 +9211,7 @@
         <v>106.51973</v>
       </c>
       <c r="C528" t="n">
-        <v>134.19986</v>
+        <v>134.199844</v>
       </c>
     </row>
     <row r="529">
@@ -9222,7 +9222,7 @@
         <v>105.866501</v>
       </c>
       <c r="C529" t="n">
-        <v>134.883682</v>
+        <v>134.883667</v>
       </c>
     </row>
     <row r="530">
@@ -9266,7 +9266,7 @@
         <v>106.476181</v>
       </c>
       <c r="C533" t="n">
-        <v>138.47374</v>
+        <v>138.473724</v>
       </c>
     </row>
     <row r="534">
@@ -9277,7 +9277,7 @@
         <v>104.995529</v>
       </c>
       <c r="C534" t="n">
-        <v>137.020615</v>
+        <v>137.020599</v>
       </c>
     </row>
     <row r="535">
@@ -9288,7 +9288,7 @@
         <v>100.161644</v>
       </c>
       <c r="C535" t="n">
-        <v>134.19986</v>
+        <v>134.199844</v>
       </c>
     </row>
     <row r="536">
@@ -9332,7 +9332,7 @@
         <v>91.147095</v>
       </c>
       <c r="C539" t="n">
-        <v>106.847015</v>
+        <v>106.847008</v>
       </c>
     </row>
     <row r="540">
@@ -9354,7 +9354,7 @@
         <v>93.063232</v>
       </c>
       <c r="C541" t="n">
-        <v>109.838737</v>
+        <v>109.83873</v>
       </c>
     </row>
     <row r="542">
@@ -9376,7 +9376,7 @@
         <v>91.147095</v>
       </c>
       <c r="C543" t="n">
-        <v>104.795547</v>
+        <v>104.795555</v>
       </c>
     </row>
     <row r="544">
@@ -9409,7 +9409,7 @@
         <v>77.289948</v>
       </c>
       <c r="C546" t="n">
-        <v>93.854416</v>
+        <v>93.854424</v>
       </c>
     </row>
     <row r="547">
@@ -9453,7 +9453,7 @@
         <v>64.486679</v>
       </c>
       <c r="C550" t="n">
-        <v>78.895836</v>
+        <v>78.895844</v>
       </c>
     </row>
     <row r="551">
@@ -9475,7 +9475,7 @@
         <v>71.60997</v>
       </c>
       <c r="C552" t="n">
-        <v>77.399986</v>
+        <v>77.399979</v>
       </c>
     </row>
     <row r="553">
@@ -9486,7 +9486,7 @@
         <v>71.708336</v>
       </c>
       <c r="C553" t="n">
-        <v>78.126541</v>
+        <v>78.126534</v>
       </c>
     </row>
     <row r="554">

--- a/Danske aktiekurser.xlsx
+++ b/Danske aktiekurser.xlsx
@@ -3422,10 +3422,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>189.887909</v>
+        <v>189.887924</v>
       </c>
       <c r="C2" t="n">
-        <v>191.282883</v>
+        <v>191.282867</v>
       </c>
     </row>
     <row r="3">
@@ -3447,7 +3447,7 @@
         <v>190.51384</v>
       </c>
       <c r="C4" t="n">
-        <v>192.351486</v>
+        <v>192.351501</v>
       </c>
     </row>
     <row r="5">
@@ -3455,10 +3455,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="n">
-        <v>190.748566</v>
+        <v>190.748581</v>
       </c>
       <c r="C5" t="n">
-        <v>192.046173</v>
+        <v>192.046188</v>
       </c>
     </row>
     <row r="6">
@@ -3469,7 +3469,7 @@
         <v>191.843918</v>
       </c>
       <c r="C6" t="n">
-        <v>191.740875</v>
+        <v>191.74086</v>
       </c>
     </row>
     <row r="7">
@@ -3477,10 +3477,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="n">
-        <v>190.357376</v>
+        <v>190.357361</v>
       </c>
       <c r="C7" t="n">
-        <v>191.588211</v>
+        <v>191.588196</v>
       </c>
     </row>
     <row r="8">
@@ -3488,10 +3488,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="n">
-        <v>194.347595</v>
+        <v>194.34758</v>
       </c>
       <c r="C8" t="n">
-        <v>195.404694</v>
+        <v>195.404678</v>
       </c>
     </row>
     <row r="9">
@@ -3499,7 +3499,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="n">
-        <v>196.14711</v>
+        <v>196.147125</v>
       </c>
       <c r="C9" t="n">
         <v>196.320663</v>
@@ -3513,7 +3513,7 @@
         <v>194.817032</v>
       </c>
       <c r="C10" t="n">
-        <v>195.09938</v>
+        <v>195.099365</v>
       </c>
     </row>
     <row r="11">
@@ -3521,7 +3521,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="n">
-        <v>196.303574</v>
+        <v>196.303589</v>
       </c>
       <c r="C11" t="n">
         <v>193.572784</v>
@@ -3543,10 +3543,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="n">
-        <v>195.990616</v>
+        <v>195.990631</v>
       </c>
       <c r="C13" t="n">
-        <v>191.435547</v>
+        <v>191.435532</v>
       </c>
     </row>
     <row r="14">
@@ -3557,7 +3557,7 @@
         <v>191.452728</v>
       </c>
       <c r="C14" t="n">
-        <v>191.588211</v>
+        <v>191.588196</v>
       </c>
     </row>
     <row r="15">
@@ -3576,10 +3576,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="n">
-        <v>193.33049</v>
+        <v>193.330475</v>
       </c>
       <c r="C16" t="n">
-        <v>193.114792</v>
+        <v>193.114777</v>
       </c>
     </row>
     <row r="17">
@@ -3590,7 +3590,7 @@
         <v>192.078644</v>
       </c>
       <c r="C17" t="n">
-        <v>191.435547</v>
+        <v>191.435532</v>
       </c>
     </row>
     <row r="18">
@@ -3601,7 +3601,7 @@
         <v>192.078644</v>
       </c>
       <c r="C18" t="n">
-        <v>190.214233</v>
+        <v>190.214249</v>
       </c>
     </row>
     <row r="19">
@@ -3620,10 +3620,10 @@
         <v>21</v>
       </c>
       <c r="B20" t="n">
-        <v>189.966156</v>
+        <v>189.966171</v>
       </c>
       <c r="C20" t="n">
-        <v>187.4664</v>
+        <v>187.466385</v>
       </c>
     </row>
     <row r="21">
@@ -3642,7 +3642,7 @@
         <v>23</v>
       </c>
       <c r="B22" t="n">
-        <v>189.966156</v>
+        <v>189.966171</v>
       </c>
       <c r="C22" t="n">
         <v>185.787125</v>
@@ -3656,7 +3656,7 @@
         <v>190.51384</v>
       </c>
       <c r="C23" t="n">
-        <v>187.008392</v>
+        <v>187.008408</v>
       </c>
     </row>
     <row r="24">
@@ -3667,7 +3667,7 @@
         <v>189.418488</v>
       </c>
       <c r="C24" t="n">
-        <v>187.4664</v>
+        <v>187.466385</v>
       </c>
     </row>
     <row r="25">
@@ -3675,7 +3675,7 @@
         <v>26</v>
       </c>
       <c r="B25" t="n">
-        <v>191.609192</v>
+        <v>191.609207</v>
       </c>
       <c r="C25" t="n">
         <v>187.619049</v>
@@ -3686,7 +3686,7 @@
         <v>27</v>
       </c>
       <c r="B26" t="n">
-        <v>191.609192</v>
+        <v>191.609207</v>
       </c>
       <c r="C26" t="n">
         <v>186.397751</v>
@@ -3722,7 +3722,7 @@
         <v>188.557846</v>
       </c>
       <c r="C29" t="n">
-        <v>187.161072</v>
+        <v>187.161057</v>
       </c>
     </row>
     <row r="30">
@@ -3730,7 +3730,7 @@
         <v>31</v>
       </c>
       <c r="B30" t="n">
-        <v>188.244888</v>
+        <v>188.244904</v>
       </c>
       <c r="C30" t="n">
         <v>185.787125</v>
@@ -3741,7 +3741,7 @@
         <v>32</v>
       </c>
       <c r="B31" t="n">
-        <v>189.966156</v>
+        <v>189.966171</v>
       </c>
       <c r="C31" t="n">
         <v>188.687653</v>
@@ -3755,7 +3755,7 @@
         <v>188.949051</v>
       </c>
       <c r="C32" t="n">
-        <v>188.535004</v>
+        <v>188.534988</v>
       </c>
     </row>
     <row r="33">
@@ -3766,7 +3766,7 @@
         <v>191.061523</v>
       </c>
       <c r="C33" t="n">
-        <v>193.267471</v>
+        <v>193.267456</v>
       </c>
     </row>
     <row r="34">
@@ -3777,7 +3777,7 @@
         <v>192.313354</v>
       </c>
       <c r="C34" t="n">
-        <v>193.42012</v>
+        <v>193.420105</v>
       </c>
     </row>
     <row r="35">
@@ -3785,10 +3785,10 @@
         <v>36</v>
       </c>
       <c r="B35" t="n">
-        <v>194.660568</v>
+        <v>194.660553</v>
       </c>
       <c r="C35" t="n">
-        <v>196.625977</v>
+        <v>196.625992</v>
       </c>
     </row>
     <row r="36">
@@ -3799,7 +3799,7 @@
         <v>194.895279</v>
       </c>
       <c r="C36" t="n">
-        <v>196.167999</v>
+        <v>196.167984</v>
       </c>
     </row>
     <row r="37">
@@ -3818,7 +3818,7 @@
         <v>39</v>
       </c>
       <c r="B38" t="n">
-        <v>192.861023</v>
+        <v>192.861038</v>
       </c>
       <c r="C38" t="n">
         <v>182.428604</v>
@@ -3829,10 +3829,10 @@
         <v>40</v>
       </c>
       <c r="B39" t="n">
-        <v>193.252228</v>
+        <v>193.252243</v>
       </c>
       <c r="C39" t="n">
-        <v>180.444016</v>
+        <v>180.444031</v>
       </c>
     </row>
     <row r="40">
@@ -3840,7 +3840,7 @@
         <v>41</v>
       </c>
       <c r="B40" t="n">
-        <v>194.504059</v>
+        <v>194.504074</v>
       </c>
       <c r="C40" t="n">
         <v>186.245102</v>
@@ -3851,7 +3851,7 @@
         <v>42</v>
       </c>
       <c r="B41" t="n">
-        <v>195.677673</v>
+        <v>195.677689</v>
       </c>
       <c r="C41" t="n">
         <v>183.802536</v>
@@ -3862,10 +3862,10 @@
         <v>43</v>
       </c>
       <c r="B42" t="n">
-        <v>189.731461</v>
+        <v>189.731445</v>
       </c>
       <c r="C42" t="n">
-        <v>183.191895</v>
+        <v>183.19191</v>
       </c>
     </row>
     <row r="43">
@@ -3873,7 +3873,7 @@
         <v>44</v>
       </c>
       <c r="B43" t="n">
-        <v>192.626312</v>
+        <v>192.626328</v>
       </c>
       <c r="C43" t="n">
         <v>182.733917</v>
@@ -3884,10 +3884,10 @@
         <v>45</v>
       </c>
       <c r="B44" t="n">
-        <v>190.748566</v>
+        <v>190.748581</v>
       </c>
       <c r="C44" t="n">
-        <v>181.665314</v>
+        <v>181.665298</v>
       </c>
     </row>
     <row r="45">
@@ -3895,7 +3895,7 @@
         <v>46</v>
       </c>
       <c r="B45" t="n">
-        <v>189.731461</v>
+        <v>189.731445</v>
       </c>
       <c r="C45" t="n">
         <v>177.696152</v>
@@ -3906,7 +3906,7 @@
         <v>47</v>
       </c>
       <c r="B46" t="n">
-        <v>190.044418</v>
+        <v>190.044388</v>
       </c>
       <c r="C46" t="n">
         <v>179.833389</v>
@@ -3917,10 +3917,10 @@
         <v>48</v>
       </c>
       <c r="B47" t="n">
-        <v>189.34024</v>
+        <v>189.340256</v>
       </c>
       <c r="C47" t="n">
-        <v>180.749359</v>
+        <v>180.749344</v>
       </c>
     </row>
     <row r="48">
@@ -3931,7 +3931,7 @@
         <v>191.53096</v>
       </c>
       <c r="C48" t="n">
-        <v>180.749359</v>
+        <v>180.749344</v>
       </c>
     </row>
     <row r="49">
@@ -3950,7 +3950,7 @@
         <v>51</v>
       </c>
       <c r="B50" t="n">
-        <v>192.626312</v>
+        <v>192.626328</v>
       </c>
       <c r="C50" t="n">
         <v>180.902008</v>
@@ -3961,7 +3961,7 @@
         <v>52</v>
       </c>
       <c r="B51" t="n">
-        <v>193.095764</v>
+        <v>193.095749</v>
       </c>
       <c r="C51" t="n">
         <v>180.291351</v>
@@ -3972,7 +3972,7 @@
         <v>53</v>
       </c>
       <c r="B52" t="n">
-        <v>193.799927</v>
+        <v>193.799911</v>
       </c>
       <c r="C52" t="n">
         <v>183.344559</v>
@@ -4016,7 +4016,7 @@
         <v>57</v>
       </c>
       <c r="B56" t="n">
-        <v>191.795746</v>
+        <v>191.795761</v>
       </c>
       <c r="C56" t="n">
         <v>183.594116</v>
@@ -4030,7 +4030,7 @@
         <v>191.714172</v>
       </c>
       <c r="C57" t="n">
-        <v>185.357895</v>
+        <v>185.35791</v>
       </c>
     </row>
     <row r="58">
@@ -4049,10 +4049,10 @@
         <v>60</v>
       </c>
       <c r="B59" t="n">
-        <v>186.493011</v>
+        <v>186.493027</v>
       </c>
       <c r="C59" t="n">
-        <v>181.349289</v>
+        <v>181.349304</v>
       </c>
     </row>
     <row r="60">
@@ -4060,7 +4060,7 @@
         <v>61</v>
       </c>
       <c r="B60" t="n">
-        <v>186.003525</v>
+        <v>186.00354</v>
       </c>
       <c r="C60" t="n">
         <v>182.632065</v>
@@ -4085,7 +4085,7 @@
         <v>183.474533</v>
       </c>
       <c r="C62" t="n">
-        <v>179.585526</v>
+        <v>179.58551</v>
       </c>
     </row>
     <row r="63">
@@ -4096,7 +4096,7 @@
         <v>183.882431</v>
       </c>
       <c r="C63" t="n">
-        <v>178.142426</v>
+        <v>178.14241</v>
       </c>
     </row>
     <row r="64">
@@ -4107,7 +4107,7 @@
         <v>183.148224</v>
       </c>
       <c r="C64" t="n">
-        <v>178.463104</v>
+        <v>178.46312</v>
       </c>
     </row>
     <row r="65">
@@ -4129,7 +4129,7 @@
         <v>183.882431</v>
       </c>
       <c r="C66" t="n">
-        <v>178.944138</v>
+        <v>178.944153</v>
       </c>
     </row>
     <row r="67">
@@ -4140,7 +4140,7 @@
         <v>182.495575</v>
       </c>
       <c r="C67" t="n">
-        <v>178.142426</v>
+        <v>178.14241</v>
       </c>
     </row>
     <row r="68">
@@ -4151,7 +4151,7 @@
         <v>182.985062</v>
       </c>
       <c r="C68" t="n">
-        <v>180.868256</v>
+        <v>180.868286</v>
       </c>
     </row>
     <row r="69">
@@ -4173,7 +4173,7 @@
         <v>179.477097</v>
       </c>
       <c r="C70" t="n">
-        <v>180.868256</v>
+        <v>180.868286</v>
       </c>
     </row>
     <row r="71">
@@ -4181,10 +4181,10 @@
         <v>72</v>
       </c>
       <c r="B71" t="n">
-        <v>180.619232</v>
+        <v>180.619217</v>
       </c>
       <c r="C71" t="n">
-        <v>184.395844</v>
+        <v>184.395859</v>
       </c>
     </row>
     <row r="72">
@@ -4192,10 +4192,10 @@
         <v>73</v>
       </c>
       <c r="B72" t="n">
-        <v>180.211304</v>
+        <v>180.211319</v>
       </c>
       <c r="C72" t="n">
-        <v>182.311371</v>
+        <v>182.311386</v>
       </c>
     </row>
     <row r="73">
@@ -4272,7 +4272,7 @@
         <v>184.127182</v>
       </c>
       <c r="C79" t="n">
-        <v>194.657883</v>
+        <v>194.657867</v>
       </c>
     </row>
     <row r="80">
@@ -4294,7 +4294,7 @@
         <v>179.069199</v>
       </c>
       <c r="C81" t="n">
-        <v>186.319977</v>
+        <v>186.319962</v>
       </c>
     </row>
     <row r="82">
@@ -4302,10 +4302,10 @@
         <v>83</v>
       </c>
       <c r="B82" t="n">
-        <v>175.724396</v>
+        <v>175.72438</v>
       </c>
       <c r="C82" t="n">
-        <v>183.433792</v>
+        <v>183.433777</v>
       </c>
     </row>
     <row r="83">
@@ -4349,7 +4349,7 @@
         <v>176.132294</v>
       </c>
       <c r="C86" t="n">
-        <v>183.433792</v>
+        <v>183.433777</v>
       </c>
     </row>
     <row r="87">
@@ -4390,7 +4390,7 @@
         <v>91</v>
       </c>
       <c r="B90" t="n">
-        <v>174.990158</v>
+        <v>174.990173</v>
       </c>
       <c r="C90" t="n">
         <v>186.640671</v>
@@ -4426,7 +4426,7 @@
         <v>176.540192</v>
       </c>
       <c r="C93" t="n">
-        <v>185.197556</v>
+        <v>185.197571</v>
       </c>
     </row>
     <row r="94">
@@ -4448,7 +4448,7 @@
         <v>176.132294</v>
       </c>
       <c r="C95" t="n">
-        <v>185.357895</v>
+        <v>185.35791</v>
       </c>
     </row>
     <row r="96">
@@ -4459,7 +4459,7 @@
         <v>176.94809</v>
       </c>
       <c r="C96" t="n">
-        <v>185.037231</v>
+        <v>185.037216</v>
       </c>
     </row>
     <row r="97">
@@ -4467,7 +4467,7 @@
         <v>98</v>
       </c>
       <c r="B97" t="n">
-        <v>173.603302</v>
+        <v>173.603317</v>
       </c>
       <c r="C97" t="n">
         <v>182.632065</v>
@@ -4503,7 +4503,7 @@
         <v>168.953217</v>
       </c>
       <c r="C100" t="n">
-        <v>174.935532</v>
+        <v>174.935547</v>
       </c>
     </row>
     <row r="101">
@@ -4511,7 +4511,7 @@
         <v>102</v>
       </c>
       <c r="B101" t="n">
-        <v>168.871643</v>
+        <v>168.871628</v>
       </c>
       <c r="C101" t="n">
         <v>175.737259</v>
@@ -4547,7 +4547,7 @@
         <v>178.253387</v>
       </c>
       <c r="C104" t="n">
-        <v>178.944138</v>
+        <v>178.944153</v>
       </c>
     </row>
     <row r="105">
@@ -4555,10 +4555,10 @@
         <v>106</v>
       </c>
       <c r="B105" t="n">
-        <v>175.724396</v>
+        <v>175.72438</v>
       </c>
       <c r="C105" t="n">
-        <v>177.982071</v>
+        <v>177.982086</v>
       </c>
     </row>
     <row r="106">
@@ -4602,7 +4602,7 @@
         <v>178.498123</v>
       </c>
       <c r="C109" t="n">
-        <v>177.180359</v>
+        <v>177.180344</v>
       </c>
     </row>
     <row r="110">
@@ -4613,7 +4613,7 @@
         <v>178.253387</v>
       </c>
       <c r="C110" t="n">
-        <v>177.340683</v>
+        <v>177.340698</v>
       </c>
     </row>
     <row r="111">
@@ -4621,7 +4621,7 @@
         <v>112</v>
       </c>
       <c r="B111" t="n">
-        <v>178.742889</v>
+        <v>178.742874</v>
       </c>
       <c r="C111" t="n">
         <v>178.623444</v>
@@ -4635,7 +4635,7 @@
         <v>177.682327</v>
       </c>
       <c r="C112" t="n">
-        <v>177.821732</v>
+        <v>177.821747</v>
       </c>
     </row>
     <row r="113">
@@ -4643,7 +4643,7 @@
         <v>114</v>
       </c>
       <c r="B113" t="n">
-        <v>173.929611</v>
+        <v>173.929626</v>
       </c>
       <c r="C113" t="n">
         <v>175.897614</v>
@@ -4654,7 +4654,7 @@
         <v>115</v>
       </c>
       <c r="B114" t="n">
-        <v>171.97168</v>
+        <v>171.971695</v>
       </c>
       <c r="C114" t="n">
         <v>175.095871</v>
@@ -4665,10 +4665,10 @@
         <v>116</v>
       </c>
       <c r="B115" t="n">
-        <v>170.258484</v>
+        <v>170.258499</v>
       </c>
       <c r="C115" t="n">
-        <v>175.41658</v>
+        <v>175.416565</v>
       </c>
     </row>
     <row r="116">
@@ -4676,7 +4676,7 @@
         <v>117</v>
       </c>
       <c r="B116" t="n">
-        <v>167.811081</v>
+        <v>167.811096</v>
       </c>
       <c r="C116" t="n">
         <v>173.171753</v>
@@ -4698,7 +4698,7 @@
         <v>119</v>
       </c>
       <c r="B118" t="n">
-        <v>166.097916</v>
+        <v>166.0979</v>
       </c>
       <c r="C118" t="n">
         <v>174.294159</v>
@@ -4734,7 +4734,7 @@
         <v>162.018875</v>
       </c>
       <c r="C121" t="n">
-        <v>174.454498</v>
+        <v>174.454529</v>
       </c>
     </row>
     <row r="122">
@@ -4756,7 +4756,7 @@
         <v>162.671509</v>
       </c>
       <c r="C123" t="n">
-        <v>175.41658</v>
+        <v>175.416565</v>
       </c>
     </row>
     <row r="124">
@@ -4775,7 +4775,7 @@
         <v>126</v>
       </c>
       <c r="B125" t="n">
-        <v>160.99913</v>
+        <v>160.999115</v>
       </c>
       <c r="C125" t="n">
         <v>179.264847</v>
@@ -4800,7 +4800,7 @@
         <v>155.533218</v>
       </c>
       <c r="C127" t="n">
-        <v>177.661392</v>
+        <v>177.661407</v>
       </c>
     </row>
     <row r="128">
@@ -4811,7 +4811,7 @@
         <v>157.001663</v>
       </c>
       <c r="C128" t="n">
-        <v>180.226898</v>
+        <v>180.226883</v>
       </c>
     </row>
     <row r="129">
@@ -4822,7 +4822,7 @@
         <v>158.102997</v>
       </c>
       <c r="C129" t="n">
-        <v>182.151031</v>
+        <v>182.151016</v>
       </c>
     </row>
     <row r="130">
@@ -4833,7 +4833,7 @@
         <v>158.225372</v>
       </c>
       <c r="C130" t="n">
-        <v>182.151031</v>
+        <v>182.151016</v>
       </c>
     </row>
     <row r="131">
@@ -4841,7 +4841,7 @@
         <v>132</v>
       </c>
       <c r="B131" t="n">
-        <v>159.122772</v>
+        <v>159.122757</v>
       </c>
       <c r="C131" t="n">
         <v>183.754471</v>
@@ -4855,7 +4855,7 @@
         <v>158.225372</v>
       </c>
       <c r="C132" t="n">
-        <v>182.151031</v>
+        <v>182.151016</v>
       </c>
     </row>
     <row r="133">
@@ -4863,7 +4863,7 @@
         <v>134</v>
       </c>
       <c r="B133" t="n">
-        <v>158.062225</v>
+        <v>158.06221</v>
       </c>
       <c r="C133" t="n">
         <v>181.990677</v>
@@ -4877,7 +4877,7 @@
         <v>159.163544</v>
       </c>
       <c r="C134" t="n">
-        <v>180.707916</v>
+        <v>180.707932</v>
       </c>
     </row>
     <row r="135">
@@ -4888,7 +4888,7 @@
         <v>144.642212</v>
       </c>
       <c r="C135" t="n">
-        <v>177.661392</v>
+        <v>177.661407</v>
       </c>
     </row>
     <row r="136">
@@ -4899,7 +4899,7 @@
         <v>148.394928</v>
       </c>
       <c r="C136" t="n">
-        <v>179.74585</v>
+        <v>179.745865</v>
       </c>
     </row>
     <row r="137">
@@ -4932,7 +4932,7 @@
         <v>151.94368</v>
       </c>
       <c r="C139" t="n">
-        <v>185.037231</v>
+        <v>185.037216</v>
       </c>
     </row>
     <row r="140">
@@ -4954,7 +4954,7 @@
         <v>152.800278</v>
       </c>
       <c r="C141" t="n">
-        <v>186.319977</v>
+        <v>186.319962</v>
       </c>
     </row>
     <row r="142">
@@ -4984,7 +4984,7 @@
         <v>145</v>
       </c>
       <c r="B144" t="n">
-        <v>151.127869</v>
+        <v>151.127884</v>
       </c>
       <c r="C144" t="n">
         <v>189.526855</v>
@@ -5009,7 +5009,7 @@
         <v>146.029083</v>
       </c>
       <c r="C146" t="n">
-        <v>184.395844</v>
+        <v>184.395859</v>
       </c>
     </row>
     <row r="147">
@@ -5020,7 +5020,7 @@
         <v>149.12915</v>
       </c>
       <c r="C147" t="n">
-        <v>185.037231</v>
+        <v>185.037216</v>
       </c>
     </row>
     <row r="148">
@@ -5031,7 +5031,7 @@
         <v>147.53833</v>
       </c>
       <c r="C148" t="n">
-        <v>177.180359</v>
+        <v>177.180344</v>
       </c>
     </row>
     <row r="149">
@@ -5053,7 +5053,7 @@
         <v>147.415955</v>
       </c>
       <c r="C150" t="n">
-        <v>178.142426</v>
+        <v>178.14241</v>
       </c>
     </row>
     <row r="151">
@@ -5097,7 +5097,7 @@
         <v>147.008057</v>
       </c>
       <c r="C154" t="n">
-        <v>176.538986</v>
+        <v>176.538971</v>
       </c>
     </row>
     <row r="155">
@@ -5149,10 +5149,10 @@
         <v>160</v>
       </c>
       <c r="B159" t="n">
-        <v>150.719971</v>
+        <v>150.719955</v>
       </c>
       <c r="C159" t="n">
-        <v>177.661392</v>
+        <v>177.661407</v>
       </c>
     </row>
     <row r="160">
@@ -5207,7 +5207,7 @@
         <v>156.716141</v>
       </c>
       <c r="C164" t="n">
-        <v>155.614059</v>
+        <v>155.614075</v>
       </c>
     </row>
     <row r="165">
@@ -5218,7 +5218,7 @@
         <v>157.001663</v>
       </c>
       <c r="C165" t="n">
-        <v>153.770096</v>
+        <v>153.770111</v>
       </c>
     </row>
     <row r="166">
@@ -5229,7 +5229,7 @@
         <v>156.634552</v>
       </c>
       <c r="C166" t="n">
-        <v>151.926147</v>
+        <v>151.926132</v>
       </c>
     </row>
     <row r="167">
@@ -5237,10 +5237,10 @@
         <v>168</v>
       </c>
       <c r="B167" t="n">
-        <v>154.146362</v>
+        <v>154.146347</v>
       </c>
       <c r="C167" t="n">
-        <v>150.723557</v>
+        <v>150.723572</v>
       </c>
     </row>
     <row r="168">
@@ -5251,7 +5251,7 @@
         <v>154.309509</v>
       </c>
       <c r="C168" t="n">
-        <v>149.120132</v>
+        <v>149.120102</v>
       </c>
     </row>
     <row r="169">
@@ -5259,10 +5259,10 @@
         <v>170</v>
       </c>
       <c r="B169" t="n">
-        <v>144.764587</v>
+        <v>144.764603</v>
       </c>
       <c r="C169" t="n">
-        <v>148.398575</v>
+        <v>148.39856</v>
       </c>
     </row>
     <row r="170">
@@ -5273,7 +5273,7 @@
         <v>148.272552</v>
       </c>
       <c r="C170" t="n">
-        <v>147.917542</v>
+        <v>147.917526</v>
       </c>
     </row>
     <row r="171">
@@ -5281,10 +5281,10 @@
         <v>172</v>
       </c>
       <c r="B171" t="n">
-        <v>150.719971</v>
+        <v>150.719955</v>
       </c>
       <c r="C171" t="n">
-        <v>148.158066</v>
+        <v>148.158051</v>
       </c>
     </row>
     <row r="172">
@@ -5292,10 +5292,10 @@
         <v>173</v>
       </c>
       <c r="B172" t="n">
-        <v>144.397491</v>
+        <v>144.397476</v>
       </c>
       <c r="C172" t="n">
-        <v>148.799438</v>
+        <v>148.799454</v>
       </c>
     </row>
     <row r="173">
@@ -5306,7 +5306,7 @@
         <v>140.155304</v>
       </c>
       <c r="C173" t="n">
-        <v>148.799438</v>
+        <v>148.799454</v>
       </c>
     </row>
     <row r="174">
@@ -5317,7 +5317,7 @@
         <v>139.217117</v>
       </c>
       <c r="C174" t="n">
-        <v>147.837341</v>
+        <v>147.837357</v>
       </c>
     </row>
     <row r="175">
@@ -5325,10 +5325,10 @@
         <v>176</v>
       </c>
       <c r="B175" t="n">
-        <v>137.096024</v>
+        <v>137.096039</v>
       </c>
       <c r="C175" t="n">
-        <v>148.398575</v>
+        <v>148.39856</v>
       </c>
     </row>
     <row r="176">
@@ -5339,7 +5339,7 @@
         <v>140.114502</v>
       </c>
       <c r="C176" t="n">
-        <v>148.879608</v>
+        <v>148.879593</v>
       </c>
     </row>
     <row r="177">
@@ -5347,10 +5347,10 @@
         <v>178</v>
       </c>
       <c r="B177" t="n">
-        <v>138.646042</v>
+        <v>138.646057</v>
       </c>
       <c r="C177" t="n">
-        <v>147.917542</v>
+        <v>147.917526</v>
       </c>
     </row>
     <row r="178">
@@ -5361,7 +5361,7 @@
         <v>137.748672</v>
       </c>
       <c r="C178" t="n">
-        <v>149.200287</v>
+        <v>149.200302</v>
       </c>
     </row>
     <row r="179">
@@ -5372,7 +5372,7 @@
         <v>142.643509</v>
       </c>
       <c r="C179" t="n">
-        <v>148.398575</v>
+        <v>148.39856</v>
       </c>
     </row>
     <row r="180">
@@ -5391,7 +5391,7 @@
         <v>182</v>
       </c>
       <c r="B181" t="n">
-        <v>144.397491</v>
+        <v>144.397476</v>
       </c>
       <c r="C181" t="n">
         <v>151.28476</v>
@@ -5413,10 +5413,10 @@
         <v>184</v>
       </c>
       <c r="B183" t="n">
-        <v>135.709152</v>
+        <v>135.709167</v>
       </c>
       <c r="C183" t="n">
-        <v>151.364929</v>
+        <v>151.364944</v>
       </c>
     </row>
     <row r="184">
@@ -5424,7 +5424,7 @@
         <v>185</v>
       </c>
       <c r="B184" t="n">
-        <v>138.686844</v>
+        <v>138.686859</v>
       </c>
       <c r="C184" t="n">
         <v>152.968384</v>
@@ -5438,7 +5438,7 @@
         <v>140.563202</v>
       </c>
       <c r="C185" t="n">
-        <v>155.934738</v>
+        <v>155.934753</v>
       </c>
     </row>
     <row r="186">
@@ -5449,7 +5449,7 @@
         <v>138.768433</v>
       </c>
       <c r="C186" t="n">
-        <v>151.364929</v>
+        <v>151.364944</v>
       </c>
     </row>
     <row r="187">
@@ -5457,7 +5457,7 @@
         <v>188</v>
       </c>
       <c r="B187" t="n">
-        <v>137.626297</v>
+        <v>137.626312</v>
       </c>
       <c r="C187" t="n">
         <v>151.525284</v>
@@ -5468,10 +5468,10 @@
         <v>189</v>
       </c>
       <c r="B188" t="n">
-        <v>138.238159</v>
+        <v>138.238144</v>
       </c>
       <c r="C188" t="n">
-        <v>152.64769</v>
+        <v>152.647675</v>
       </c>
     </row>
     <row r="189">
@@ -5479,7 +5479,7 @@
         <v>190</v>
       </c>
       <c r="B189" t="n">
-        <v>137.667084</v>
+        <v>137.667099</v>
       </c>
       <c r="C189" t="n">
         <v>150.402878</v>
@@ -5501,10 +5501,10 @@
         <v>192</v>
       </c>
       <c r="B191" t="n">
-        <v>129.386673</v>
+        <v>129.386688</v>
       </c>
       <c r="C191" t="n">
-        <v>148.158066</v>
+        <v>148.158051</v>
       </c>
     </row>
     <row r="192">
@@ -5512,7 +5512,7 @@
         <v>193</v>
       </c>
       <c r="B192" t="n">
-        <v>121.310196</v>
+        <v>121.310188</v>
       </c>
       <c r="C192" t="n">
         <v>150.483032</v>
@@ -5523,10 +5523,10 @@
         <v>194</v>
       </c>
       <c r="B193" t="n">
-        <v>116.945648</v>
+        <v>116.945656</v>
       </c>
       <c r="C193" t="n">
-        <v>146.79512</v>
+        <v>146.795135</v>
       </c>
     </row>
     <row r="194">
@@ -5578,7 +5578,7 @@
         <v>199</v>
       </c>
       <c r="B198" t="n">
-        <v>113.886383</v>
+        <v>113.886375</v>
       </c>
       <c r="C198" t="n">
         <v>142.546005</v>
@@ -5589,7 +5589,7 @@
         <v>200</v>
       </c>
       <c r="B199" t="n">
-        <v>115.436409</v>
+        <v>115.436417</v>
       </c>
       <c r="C199" t="n">
         <v>143.588242</v>
@@ -5603,7 +5603,7 @@
         <v>112.254776</v>
       </c>
       <c r="C200" t="n">
-        <v>143.748596</v>
+        <v>143.748581</v>
       </c>
     </row>
     <row r="201">
@@ -5611,7 +5611,7 @@
         <v>202</v>
       </c>
       <c r="B201" t="n">
-        <v>110.704727</v>
+        <v>110.704735</v>
       </c>
       <c r="C201" t="n">
         <v>143.187378</v>
@@ -5622,7 +5622,7 @@
         <v>203</v>
       </c>
       <c r="B202" t="n">
-        <v>107.033607</v>
+        <v>107.033615</v>
       </c>
       <c r="C202" t="n">
         <v>142.706345</v>
@@ -5636,7 +5636,7 @@
         <v>106.421753</v>
       </c>
       <c r="C203" t="n">
-        <v>139.820145</v>
+        <v>139.820129</v>
       </c>
     </row>
     <row r="204">
@@ -5658,7 +5658,7 @@
         <v>102.505898</v>
       </c>
       <c r="C205" t="n">
-        <v>141.503784</v>
+        <v>141.503769</v>
       </c>
     </row>
     <row r="206">
@@ -5669,7 +5669,7 @@
         <v>103.076958</v>
       </c>
       <c r="C206" t="n">
-        <v>142.064972</v>
+        <v>142.064987</v>
       </c>
     </row>
     <row r="207">
@@ -5680,7 +5680,7 @@
         <v>102.791428</v>
       </c>
       <c r="C207" t="n">
-        <v>140.862381</v>
+        <v>140.862396</v>
       </c>
     </row>
     <row r="208">
@@ -5688,10 +5688,10 @@
         <v>209</v>
       </c>
       <c r="B208" t="n">
-        <v>104.586197</v>
+        <v>104.586189</v>
       </c>
       <c r="C208" t="n">
-        <v>144.06926</v>
+        <v>144.069275</v>
       </c>
     </row>
     <row r="209">
@@ -5702,7 +5702,7 @@
         <v>103.280914</v>
       </c>
       <c r="C209" t="n">
-        <v>139.90033</v>
+        <v>139.900345</v>
       </c>
     </row>
     <row r="210">
@@ -5713,7 +5713,7 @@
         <v>103.076958</v>
       </c>
       <c r="C210" t="n">
-        <v>122.102119</v>
+        <v>122.102127</v>
       </c>
     </row>
     <row r="211">
@@ -5724,7 +5724,7 @@
         <v>108.134956</v>
       </c>
       <c r="C211" t="n">
-        <v>123.625381</v>
+        <v>123.625389</v>
       </c>
     </row>
     <row r="212">
@@ -5735,7 +5735,7 @@
         <v>111.765274</v>
       </c>
       <c r="C212" t="n">
-        <v>127.874496</v>
+        <v>127.874519</v>
       </c>
     </row>
     <row r="213">
@@ -5746,7 +5746,7 @@
         <v>110.337624</v>
       </c>
       <c r="C213" t="n">
-        <v>130.199509</v>
+        <v>130.199493</v>
       </c>
     </row>
     <row r="214">
@@ -5768,7 +5768,7 @@
         <v>117.516716</v>
       </c>
       <c r="C215" t="n">
-        <v>132.524475</v>
+        <v>132.52449</v>
       </c>
     </row>
     <row r="216">
@@ -5776,7 +5776,7 @@
         <v>217</v>
       </c>
       <c r="B216" t="n">
-        <v>117.027222</v>
+        <v>117.027229</v>
       </c>
       <c r="C216" t="n">
         <v>133.326218</v>
@@ -5787,7 +5787,7 @@
         <v>218</v>
       </c>
       <c r="B217" t="n">
-        <v>117.598289</v>
+        <v>117.598282</v>
       </c>
       <c r="C217" t="n">
         <v>131.321915</v>
@@ -5801,7 +5801,7 @@
         <v>116.619316</v>
       </c>
       <c r="C218" t="n">
-        <v>130.440033</v>
+        <v>130.440018</v>
       </c>
     </row>
     <row r="219">
@@ -5809,7 +5809,7 @@
         <v>220</v>
       </c>
       <c r="B219" t="n">
-        <v>115.028503</v>
+        <v>115.028496</v>
       </c>
       <c r="C219" t="n">
         <v>129.798645</v>
@@ -5820,10 +5820,10 @@
         <v>221</v>
       </c>
       <c r="B220" t="n">
-        <v>117.598289</v>
+        <v>117.598282</v>
       </c>
       <c r="C220" t="n">
-        <v>129.237427</v>
+        <v>129.237442</v>
       </c>
     </row>
     <row r="221">
@@ -5834,7 +5834,7 @@
         <v>113.519257</v>
       </c>
       <c r="C221" t="n">
-        <v>127.874496</v>
+        <v>127.874519</v>
       </c>
     </row>
     <row r="222">
@@ -5845,7 +5845,7 @@
         <v>111.602127</v>
       </c>
       <c r="C222" t="n">
-        <v>127.553833</v>
+        <v>127.553825</v>
       </c>
     </row>
     <row r="223">
@@ -5856,7 +5856,7 @@
         <v>110.500786</v>
       </c>
       <c r="C223" t="n">
-        <v>128.756393</v>
+        <v>128.756409</v>
       </c>
     </row>
     <row r="224">
@@ -5864,10 +5864,10 @@
         <v>225</v>
       </c>
       <c r="B224" t="n">
-        <v>106.544144</v>
+        <v>106.544136</v>
       </c>
       <c r="C224" t="n">
-        <v>125.950394</v>
+        <v>125.950386</v>
       </c>
     </row>
     <row r="225">
@@ -5878,7 +5878,7 @@
         <v>107.441513</v>
       </c>
       <c r="C225" t="n">
-        <v>127.874496</v>
+        <v>127.874519</v>
       </c>
     </row>
     <row r="226">
@@ -5886,10 +5886,10 @@
         <v>227</v>
       </c>
       <c r="B226" t="n">
-        <v>108.461273</v>
+        <v>108.461266</v>
       </c>
       <c r="C226" t="n">
-        <v>127.874496</v>
+        <v>127.874519</v>
       </c>
     </row>
     <row r="227">
@@ -5900,7 +5900,7 @@
         <v>108.869164</v>
       </c>
       <c r="C227" t="n">
-        <v>128.275375</v>
+        <v>128.27536</v>
       </c>
     </row>
     <row r="228">
@@ -5908,10 +5908,10 @@
         <v>229</v>
       </c>
       <c r="B228" t="n">
-        <v>111.071846</v>
+        <v>111.071838</v>
       </c>
       <c r="C228" t="n">
-        <v>131.081406</v>
+        <v>131.08139</v>
       </c>
     </row>
     <row r="229">
@@ -5919,10 +5919,10 @@
         <v>230</v>
       </c>
       <c r="B229" t="n">
-        <v>110.133675</v>
+        <v>110.133667</v>
       </c>
       <c r="C229" t="n">
-        <v>131.081406</v>
+        <v>131.08139</v>
       </c>
     </row>
     <row r="230">
@@ -5952,7 +5952,7 @@
         <v>233</v>
       </c>
       <c r="B232" t="n">
-        <v>107.19677</v>
+        <v>107.196777</v>
       </c>
       <c r="C232" t="n">
         <v>130.359848</v>
@@ -5966,7 +5966,7 @@
         <v>108.706017</v>
       </c>
       <c r="C233" t="n">
-        <v>126.671944</v>
+        <v>126.671936</v>
       </c>
     </row>
     <row r="234">
@@ -5985,7 +5985,7 @@
         <v>236</v>
       </c>
       <c r="B235" t="n">
-        <v>114.620598</v>
+        <v>114.620605</v>
       </c>
       <c r="C235" t="n">
         <v>129.798645</v>
@@ -5999,7 +5999,7 @@
         <v>111.316589</v>
       </c>
       <c r="C236" t="n">
-        <v>126.992615</v>
+        <v>126.992592</v>
       </c>
     </row>
     <row r="237">
@@ -6007,7 +6007,7 @@
         <v>238</v>
       </c>
       <c r="B237" t="n">
-        <v>116.007469</v>
+        <v>116.007462</v>
       </c>
       <c r="C237" t="n">
         <v>129.558136</v>
@@ -6018,7 +6018,7 @@
         <v>239</v>
       </c>
       <c r="B238" t="n">
-        <v>112.050819</v>
+        <v>112.050812</v>
       </c>
       <c r="C238" t="n">
         <v>127.152977</v>
@@ -6043,7 +6043,7 @@
         <v>113.519257</v>
       </c>
       <c r="C240" t="n">
-        <v>129.077087</v>
+        <v>129.077103</v>
       </c>
     </row>
     <row r="241">
@@ -6051,10 +6051,10 @@
         <v>242</v>
       </c>
       <c r="B241" t="n">
-        <v>113.396896</v>
+        <v>113.396889</v>
       </c>
       <c r="C241" t="n">
-        <v>128.676239</v>
+        <v>128.676224</v>
       </c>
     </row>
     <row r="242">
@@ -6062,7 +6062,7 @@
         <v>243</v>
       </c>
       <c r="B242" t="n">
-        <v>112.621887</v>
+        <v>112.62188</v>
       </c>
       <c r="C242" t="n">
         <v>128.034851</v>
@@ -6076,7 +6076,7 @@
         <v>110.459984</v>
       </c>
       <c r="C243" t="n">
-        <v>127.633972</v>
+        <v>127.633987</v>
       </c>
     </row>
     <row r="244">
@@ -6095,7 +6095,7 @@
         <v>246</v>
       </c>
       <c r="B245" t="n">
-        <v>109.725777</v>
+        <v>109.725769</v>
       </c>
       <c r="C245" t="n">
         <v>121.781425</v>
@@ -6109,7 +6109,7 @@
         <v>105.442795</v>
       </c>
       <c r="C246" t="n">
-        <v>117.77282</v>
+        <v>117.772827</v>
       </c>
     </row>
     <row r="247">
@@ -6120,7 +6120,7 @@
         <v>104.626984</v>
       </c>
       <c r="C247" t="n">
-        <v>120.258156</v>
+        <v>120.258163</v>
       </c>
     </row>
     <row r="248">
@@ -6131,7 +6131,7 @@
         <v>102.95459</v>
       </c>
       <c r="C248" t="n">
-        <v>120.819366</v>
+        <v>120.819351</v>
       </c>
     </row>
     <row r="249">
@@ -6142,7 +6142,7 @@
         <v>105.157257</v>
       </c>
       <c r="C249" t="n">
-        <v>124.346939</v>
+        <v>124.346947</v>
       </c>
     </row>
     <row r="250">
@@ -6153,7 +6153,7 @@
         <v>104.994095</v>
       </c>
       <c r="C250" t="n">
-        <v>126.271072</v>
+        <v>126.271049</v>
       </c>
     </row>
     <row r="251">
@@ -6164,7 +6164,7 @@
         <v>104.749352</v>
       </c>
       <c r="C251" t="n">
-        <v>123.865891</v>
+        <v>123.865921</v>
       </c>
     </row>
     <row r="252">
@@ -6175,7 +6175,7 @@
         <v>109.195503</v>
       </c>
       <c r="C252" t="n">
-        <v>127.313309</v>
+        <v>127.313301</v>
       </c>
     </row>
     <row r="253">
@@ -6186,7 +6186,7 @@
         <v>108.909966</v>
       </c>
       <c r="C253" t="n">
-        <v>126.591759</v>
+        <v>126.591751</v>
       </c>
     </row>
     <row r="254">
@@ -6194,10 +6194,10 @@
         <v>255</v>
       </c>
       <c r="B254" t="n">
-        <v>108.379692</v>
+        <v>108.3797</v>
       </c>
       <c r="C254" t="n">
-        <v>126.832275</v>
+        <v>126.832268</v>
       </c>
     </row>
     <row r="255">
@@ -6219,7 +6219,7 @@
         <v>104.219086</v>
       </c>
       <c r="C256" t="n">
-        <v>126.591759</v>
+        <v>126.591751</v>
       </c>
     </row>
     <row r="257">
@@ -6241,7 +6241,7 @@
         <v>106.054649</v>
       </c>
       <c r="C258" t="n">
-        <v>124.266762</v>
+        <v>124.266769</v>
       </c>
     </row>
     <row r="259">
@@ -6252,7 +6252,7 @@
         <v>104.423042</v>
       </c>
       <c r="C259" t="n">
-        <v>122.583153</v>
+        <v>122.583145</v>
       </c>
     </row>
     <row r="260">
@@ -6260,10 +6260,10 @@
         <v>261</v>
       </c>
       <c r="B260" t="n">
-        <v>105.034897</v>
+        <v>105.034889</v>
       </c>
       <c r="C260" t="n">
-        <v>126.271072</v>
+        <v>126.271049</v>
       </c>
     </row>
     <row r="261">
@@ -6285,7 +6285,7 @@
         <v>103.199333</v>
       </c>
       <c r="C262" t="n">
-        <v>125.870201</v>
+        <v>125.870209</v>
       </c>
     </row>
     <row r="263">
@@ -6307,7 +6307,7 @@
         <v>102.791428</v>
       </c>
       <c r="C264" t="n">
-        <v>125.709869</v>
+        <v>125.709877</v>
       </c>
     </row>
     <row r="265">
@@ -6318,7 +6318,7 @@
         <v>101.975624</v>
       </c>
       <c r="C265" t="n">
-        <v>126.190895</v>
+        <v>126.190887</v>
       </c>
     </row>
     <row r="266">
@@ -6326,7 +6326,7 @@
         <v>267</v>
       </c>
       <c r="B266" t="n">
-        <v>99.976906</v>
+        <v>99.976898</v>
       </c>
       <c r="C266" t="n">
         <v>126.110725</v>
@@ -6337,10 +6337,10 @@
         <v>268</v>
       </c>
       <c r="B267" t="n">
-        <v>102.138786</v>
+        <v>102.138779</v>
       </c>
       <c r="C267" t="n">
-        <v>126.832275</v>
+        <v>126.832268</v>
       </c>
     </row>
     <row r="268">
@@ -6351,7 +6351,7 @@
         <v>99.936104</v>
       </c>
       <c r="C268" t="n">
-        <v>123.625381</v>
+        <v>123.625389</v>
       </c>
     </row>
     <row r="269">
@@ -6362,7 +6362,7 @@
         <v>99.85453</v>
       </c>
       <c r="C269" t="n">
-        <v>123.46505</v>
+        <v>123.465034</v>
       </c>
     </row>
     <row r="270">
@@ -6373,7 +6373,7 @@
         <v>100.140068</v>
       </c>
       <c r="C270" t="n">
-        <v>123.144371</v>
+        <v>123.144379</v>
       </c>
     </row>
     <row r="271">
@@ -6392,7 +6392,7 @@
         <v>273</v>
       </c>
       <c r="B272" t="n">
-        <v>103.444069</v>
+        <v>103.444077</v>
       </c>
       <c r="C272" t="n">
         <v>121.781425</v>
@@ -6406,7 +6406,7 @@
         <v>101.078239</v>
       </c>
       <c r="C273" t="n">
-        <v>122.262466</v>
+        <v>122.262451</v>
       </c>
     </row>
     <row r="274">
@@ -6417,7 +6417,7 @@
         <v>103.199333</v>
       </c>
       <c r="C274" t="n">
-        <v>122.102119</v>
+        <v>122.102127</v>
       </c>
     </row>
     <row r="275">
@@ -6439,7 +6439,7 @@
         <v>101.975624</v>
       </c>
       <c r="C276" t="n">
-        <v>120.338333</v>
+        <v>120.338341</v>
       </c>
     </row>
     <row r="277">
@@ -6461,7 +6461,7 @@
         <v>98.712402</v>
       </c>
       <c r="C278" t="n">
-        <v>119.135765</v>
+        <v>119.13575</v>
       </c>
     </row>
     <row r="279">
@@ -6472,7 +6472,7 @@
         <v>101.119026</v>
       </c>
       <c r="C279" t="n">
-        <v>121.220222</v>
+        <v>121.22023</v>
       </c>
     </row>
     <row r="280">
@@ -6480,10 +6480,10 @@
         <v>281</v>
       </c>
       <c r="B280" t="n">
-        <v>100.180847</v>
+        <v>100.180855</v>
       </c>
       <c r="C280" t="n">
-        <v>122.262466</v>
+        <v>122.262451</v>
       </c>
     </row>
     <row r="281">
@@ -6494,7 +6494,7 @@
         <v>99.936104</v>
       </c>
       <c r="C281" t="n">
-        <v>121.220222</v>
+        <v>121.22023</v>
       </c>
     </row>
     <row r="282">
@@ -6505,7 +6505,7 @@
         <v>101.486137</v>
       </c>
       <c r="C282" t="n">
-        <v>122.021942</v>
+        <v>122.021935</v>
       </c>
     </row>
     <row r="283">
@@ -6516,7 +6516,7 @@
         <v>103.321701</v>
       </c>
       <c r="C283" t="n">
-        <v>123.545212</v>
+        <v>123.545227</v>
       </c>
     </row>
     <row r="284">
@@ -6527,7 +6527,7 @@
         <v>102.873009</v>
       </c>
       <c r="C284" t="n">
-        <v>121.540916</v>
+        <v>121.540909</v>
       </c>
     </row>
     <row r="285">
@@ -6535,7 +6535,7 @@
         <v>286</v>
       </c>
       <c r="B285" t="n">
-        <v>103.117752</v>
+        <v>103.117744</v>
       </c>
       <c r="C285" t="n">
         <v>121.781425</v>
@@ -6549,7 +6549,7 @@
         <v>98.712402</v>
       </c>
       <c r="C286" t="n">
-        <v>120.49868</v>
+        <v>120.498688</v>
       </c>
     </row>
     <row r="287">
@@ -6557,10 +6557,10 @@
         <v>288</v>
       </c>
       <c r="B287" t="n">
-        <v>98.467659</v>
+        <v>98.467667</v>
       </c>
       <c r="C287" t="n">
-        <v>120.578842</v>
+        <v>120.578835</v>
       </c>
     </row>
     <row r="288">
@@ -6579,10 +6579,10 @@
         <v>290</v>
       </c>
       <c r="B289" t="n">
-        <v>102.22036</v>
+        <v>102.220367</v>
       </c>
       <c r="C289" t="n">
-        <v>119.777115</v>
+        <v>119.77713</v>
       </c>
     </row>
     <row r="290">
@@ -6593,7 +6593,7 @@
         <v>106.054649</v>
       </c>
       <c r="C290" t="n">
-        <v>127.393471</v>
+        <v>127.393478</v>
       </c>
     </row>
     <row r="291">
@@ -6604,7 +6604,7 @@
         <v>106.462555</v>
       </c>
       <c r="C291" t="n">
-        <v>125.228821</v>
+        <v>125.228828</v>
       </c>
     </row>
     <row r="292">
@@ -6615,7 +6615,7 @@
         <v>105.973061</v>
       </c>
       <c r="C292" t="n">
-        <v>122.502991</v>
+        <v>122.502983</v>
       </c>
     </row>
     <row r="293">
@@ -6626,7 +6626,7 @@
         <v>105.687538</v>
       </c>
       <c r="C293" t="n">
-        <v>122.422798</v>
+        <v>122.422821</v>
       </c>
     </row>
     <row r="294">
@@ -6637,7 +6637,7 @@
         <v>104.83094</v>
       </c>
       <c r="C294" t="n">
-        <v>121.059868</v>
+        <v>121.059883</v>
       </c>
     </row>
     <row r="295">
@@ -6648,7 +6648,7 @@
         <v>105.442795</v>
       </c>
       <c r="C295" t="n">
-        <v>119.616791</v>
+        <v>119.616776</v>
       </c>
     </row>
     <row r="296">
@@ -6656,7 +6656,7 @@
         <v>297</v>
       </c>
       <c r="B296" t="n">
-        <v>104.137505</v>
+        <v>104.137512</v>
       </c>
       <c r="C296" t="n">
         <v>117.69265</v>
@@ -6681,7 +6681,7 @@
         <v>103.892769</v>
       </c>
       <c r="C298" t="n">
-        <v>115.768524</v>
+        <v>115.768517</v>
       </c>
     </row>
     <row r="299">
@@ -6703,7 +6703,7 @@
         <v>105.361206</v>
       </c>
       <c r="C300" t="n">
-        <v>118.013344</v>
+        <v>118.013336</v>
       </c>
     </row>
     <row r="301">
@@ -6711,7 +6711,7 @@
         <v>302</v>
       </c>
       <c r="B301" t="n">
-        <v>107.971794</v>
+        <v>107.971802</v>
       </c>
       <c r="C301" t="n">
         <v>118.654716</v>
@@ -6725,7 +6725,7 @@
         <v>108.706017</v>
       </c>
       <c r="C302" t="n">
-        <v>120.258156</v>
+        <v>120.258163</v>
       </c>
     </row>
     <row r="303">
@@ -6736,7 +6736,7 @@
         <v>109.481026</v>
       </c>
       <c r="C303" t="n">
-        <v>122.102119</v>
+        <v>122.102127</v>
       </c>
     </row>
     <row r="304">
@@ -6758,7 +6758,7 @@
         <v>109.437477</v>
       </c>
       <c r="C305" t="n">
-        <v>121.941788</v>
+        <v>121.94178</v>
       </c>
     </row>
     <row r="306">
@@ -6769,7 +6769,7 @@
         <v>108.000374</v>
       </c>
       <c r="C306" t="n">
-        <v>120.899536</v>
+        <v>120.899529</v>
       </c>
     </row>
     <row r="307">
@@ -6780,7 +6780,7 @@
         <v>105.866501</v>
       </c>
       <c r="C307" t="n">
-        <v>120.096039</v>
+        <v>120.096046</v>
       </c>
     </row>
     <row r="308">
@@ -6824,7 +6824,7 @@
         <v>101.685837</v>
       </c>
       <c r="C311" t="n">
-        <v>117.104324</v>
+        <v>117.104317</v>
       </c>
     </row>
     <row r="312">
@@ -6835,7 +6835,7 @@
         <v>101.729393</v>
       </c>
       <c r="C312" t="n">
-        <v>117.959106</v>
+        <v>117.959099</v>
       </c>
     </row>
     <row r="313">
@@ -6846,7 +6846,7 @@
         <v>106.066818</v>
       </c>
       <c r="C313" t="n">
-        <v>121.121765</v>
+        <v>121.12178</v>
       </c>
     </row>
     <row r="314">
@@ -6857,7 +6857,7 @@
         <v>106.737473</v>
       </c>
       <c r="C314" t="n">
-        <v>121.463684</v>
+        <v>121.463692</v>
       </c>
     </row>
     <row r="315">
@@ -6879,7 +6879,7 @@
         <v>109.132637</v>
       </c>
       <c r="C316" t="n">
-        <v>122.745865</v>
+        <v>122.745857</v>
       </c>
     </row>
     <row r="317">
@@ -6901,7 +6901,7 @@
         <v>107.347145</v>
       </c>
       <c r="C318" t="n">
-        <v>122.062027</v>
+        <v>122.062035</v>
       </c>
     </row>
     <row r="319">
@@ -6912,7 +6912,7 @@
         <v>106.389084</v>
       </c>
       <c r="C319" t="n">
-        <v>120.52343</v>
+        <v>120.523438</v>
       </c>
     </row>
     <row r="320">
@@ -6934,7 +6934,7 @@
         <v>108.13102</v>
       </c>
       <c r="C321" t="n">
-        <v>122.232986</v>
+        <v>122.232979</v>
       </c>
     </row>
     <row r="322">
@@ -6945,7 +6945,7 @@
         <v>110.613289</v>
       </c>
       <c r="C322" t="n">
-        <v>123.515152</v>
+        <v>123.515144</v>
       </c>
     </row>
     <row r="323">
@@ -6978,7 +6978,7 @@
         <v>112.268127</v>
       </c>
       <c r="C325" t="n">
-        <v>124.968254</v>
+        <v>124.968269</v>
       </c>
     </row>
     <row r="326">
@@ -6989,7 +6989,7 @@
         <v>110.87458</v>
       </c>
       <c r="C326" t="n">
-        <v>123.429672</v>
+        <v>123.429657</v>
       </c>
     </row>
     <row r="327">
@@ -7000,7 +7000,7 @@
         <v>110.831032</v>
       </c>
       <c r="C327" t="n">
-        <v>122.062027</v>
+        <v>122.062035</v>
       </c>
     </row>
     <row r="328">
@@ -7011,7 +7011,7 @@
         <v>110.221359</v>
       </c>
       <c r="C328" t="n">
-        <v>119.412231</v>
+        <v>119.412224</v>
       </c>
     </row>
     <row r="329">
@@ -7022,7 +7022,7 @@
         <v>111.919746</v>
       </c>
       <c r="C329" t="n">
-        <v>122.916809</v>
+        <v>122.916817</v>
       </c>
     </row>
     <row r="330">
@@ -7044,7 +7044,7 @@
         <v>102.818108</v>
       </c>
       <c r="C331" t="n">
-        <v>122.831329</v>
+        <v>122.831322</v>
       </c>
     </row>
     <row r="332">
@@ -7055,7 +7055,7 @@
         <v>103.993912</v>
       </c>
       <c r="C332" t="n">
-        <v>120.779861</v>
+        <v>120.779869</v>
       </c>
     </row>
     <row r="333">
@@ -7088,7 +7088,7 @@
         <v>100.510025</v>
       </c>
       <c r="C335" t="n">
-        <v>107.78727</v>
+        <v>107.787262</v>
       </c>
     </row>
     <row r="336">
@@ -7132,7 +7132,7 @@
         <v>97.635818</v>
       </c>
       <c r="C339" t="n">
-        <v>108.214661</v>
+        <v>108.214653</v>
       </c>
     </row>
     <row r="340">
@@ -7154,7 +7154,7 @@
         <v>93.890648</v>
       </c>
       <c r="C341" t="n">
-        <v>106.847008</v>
+        <v>106.847015</v>
       </c>
     </row>
     <row r="342">
@@ -7198,7 +7198,7 @@
         <v>96.198715</v>
       </c>
       <c r="C345" t="n">
-        <v>105.992241</v>
+        <v>105.992233</v>
       </c>
     </row>
     <row r="346">
@@ -7220,7 +7220,7 @@
         <v>96.28582</v>
       </c>
       <c r="C347" t="n">
-        <v>106.334152</v>
+        <v>106.334145</v>
       </c>
     </row>
     <row r="348">
@@ -7242,7 +7242,7 @@
         <v>98.158401</v>
       </c>
       <c r="C349" t="n">
-        <v>106.077721</v>
+        <v>106.077713</v>
       </c>
     </row>
     <row r="350">
@@ -7286,7 +7286,7 @@
         <v>97.592278</v>
       </c>
       <c r="C353" t="n">
-        <v>106.847008</v>
+        <v>106.847015</v>
       </c>
     </row>
     <row r="354">
@@ -7297,7 +7297,7 @@
         <v>94.674522</v>
       </c>
       <c r="C354" t="n">
-        <v>107.616318</v>
+        <v>107.61631</v>
       </c>
     </row>
     <row r="355">
@@ -7330,7 +7330,7 @@
         <v>96.939049</v>
       </c>
       <c r="C357" t="n">
-        <v>111.120895</v>
+        <v>111.120888</v>
       </c>
     </row>
     <row r="358">
@@ -7341,7 +7341,7 @@
         <v>97.374535</v>
       </c>
       <c r="C358" t="n">
-        <v>111.975677</v>
+        <v>111.97567</v>
       </c>
     </row>
     <row r="359">
@@ -7352,7 +7352,7 @@
         <v>95.458389</v>
       </c>
       <c r="C359" t="n">
-        <v>111.377335</v>
+        <v>111.377327</v>
       </c>
     </row>
     <row r="360">
@@ -7374,7 +7374,7 @@
         <v>90.929352</v>
       </c>
       <c r="C361" t="n">
-        <v>110.864456</v>
+        <v>110.864464</v>
       </c>
     </row>
     <row r="362">
@@ -7385,7 +7385,7 @@
         <v>91.800316</v>
       </c>
       <c r="C362" t="n">
-        <v>113.172356</v>
+        <v>113.172348</v>
       </c>
     </row>
     <row r="363">
@@ -7396,7 +7396,7 @@
         <v>90.189026</v>
       </c>
       <c r="C363" t="n">
-        <v>109.667778</v>
+        <v>109.66777</v>
       </c>
     </row>
     <row r="364">
@@ -7407,7 +7407,7 @@
         <v>90.493866</v>
       </c>
       <c r="C364" t="n">
-        <v>108.727516</v>
+        <v>108.727524</v>
       </c>
     </row>
     <row r="365">
@@ -7440,7 +7440,7 @@
         <v>87.750305</v>
       </c>
       <c r="C367" t="n">
-        <v>105.222939</v>
+        <v>105.222946</v>
       </c>
     </row>
     <row r="368">
@@ -7528,7 +7528,7 @@
         <v>90.75515</v>
       </c>
       <c r="C375" t="n">
-        <v>109.411339</v>
+        <v>109.411346</v>
       </c>
     </row>
     <row r="376">
@@ -7572,7 +7572,7 @@
         <v>90.232574</v>
       </c>
       <c r="C379" t="n">
-        <v>106.505096</v>
+        <v>106.505104</v>
       </c>
     </row>
     <row r="380">
@@ -7594,7 +7594,7 @@
         <v>91.495483</v>
       </c>
       <c r="C381" t="n">
-        <v>105.222939</v>
+        <v>105.222946</v>
       </c>
     </row>
     <row r="382">
@@ -7616,7 +7616,7 @@
         <v>89.361595</v>
       </c>
       <c r="C383" t="n">
-        <v>102.145752</v>
+        <v>102.145744</v>
       </c>
     </row>
     <row r="384">
@@ -7627,7 +7627,7 @@
         <v>89.274506</v>
       </c>
       <c r="C384" t="n">
-        <v>101.20549</v>
+        <v>101.205498</v>
       </c>
     </row>
     <row r="385">
@@ -7638,7 +7638,7 @@
         <v>88.53418</v>
       </c>
       <c r="C385" t="n">
-        <v>101.632881</v>
+        <v>101.632889</v>
       </c>
     </row>
     <row r="386">
@@ -7671,7 +7671,7 @@
         <v>90.66806</v>
       </c>
       <c r="C388" t="n">
-        <v>104.19722</v>
+        <v>104.197212</v>
       </c>
     </row>
     <row r="389">
@@ -7704,7 +7704,7 @@
         <v>87.044823</v>
       </c>
       <c r="C391" t="n">
-        <v>101.632881</v>
+        <v>101.632889</v>
       </c>
     </row>
     <row r="392">
@@ -7737,7 +7737,7 @@
         <v>85.564163</v>
       </c>
       <c r="C394" t="n">
-        <v>99.15403</v>
+        <v>99.154037</v>
       </c>
     </row>
     <row r="395">
@@ -7748,7 +7748,7 @@
         <v>84.066093</v>
       </c>
       <c r="C395" t="n">
-        <v>98.042824</v>
+        <v>98.042816</v>
       </c>
     </row>
     <row r="396">
@@ -7759,7 +7759,7 @@
         <v>83.839645</v>
       </c>
       <c r="C396" t="n">
-        <v>99.923332</v>
+        <v>99.923325</v>
       </c>
     </row>
     <row r="397">
@@ -7770,7 +7770,7 @@
         <v>83.508675</v>
       </c>
       <c r="C397" t="n">
-        <v>98.726639</v>
+        <v>98.726646</v>
       </c>
     </row>
     <row r="398">
@@ -7803,7 +7803,7 @@
         <v>81.244148</v>
       </c>
       <c r="C400" t="n">
-        <v>95.991364</v>
+        <v>95.991356</v>
       </c>
     </row>
     <row r="401">
@@ -7825,7 +7825,7 @@
         <v>77.516403</v>
       </c>
       <c r="C402" t="n">
-        <v>92.230339</v>
+        <v>92.230347</v>
       </c>
     </row>
     <row r="403">
@@ -7836,7 +7836,7 @@
         <v>76.749947</v>
       </c>
       <c r="C403" t="n">
-        <v>91.461044</v>
+        <v>91.461037</v>
       </c>
     </row>
     <row r="404">
@@ -7858,7 +7858,7 @@
         <v>79.955116</v>
       </c>
       <c r="C405" t="n">
-        <v>95.307541</v>
+        <v>95.307533</v>
       </c>
     </row>
     <row r="406">
@@ -7880,7 +7880,7 @@
         <v>77.516403</v>
       </c>
       <c r="C407" t="n">
-        <v>92.65773</v>
+        <v>92.657738</v>
       </c>
     </row>
     <row r="408">
@@ -7891,7 +7891,7 @@
         <v>78.561562</v>
       </c>
       <c r="C408" t="n">
-        <v>94.880142</v>
+        <v>94.88015</v>
       </c>
     </row>
     <row r="409">
@@ -7902,7 +7902,7 @@
         <v>77.673172</v>
       </c>
       <c r="C409" t="n">
-        <v>94.880142</v>
+        <v>94.88015</v>
       </c>
     </row>
     <row r="410">
@@ -7979,7 +7979,7 @@
         <v>75.251877</v>
       </c>
       <c r="C416" t="n">
-        <v>80.562653</v>
+        <v>80.562645</v>
       </c>
     </row>
     <row r="417">
@@ -8001,7 +8001,7 @@
         <v>78.875107</v>
       </c>
       <c r="C418" t="n">
-        <v>82.998756</v>
+        <v>82.998764</v>
       </c>
     </row>
     <row r="419">
@@ -8023,7 +8023,7 @@
         <v>86.644173</v>
       </c>
       <c r="C420" t="n">
-        <v>86.930733</v>
+        <v>86.930725</v>
       </c>
     </row>
     <row r="421">
@@ -8045,7 +8045,7 @@
         <v>87.968048</v>
       </c>
       <c r="C422" t="n">
-        <v>88.041939</v>
+        <v>88.041946</v>
       </c>
     </row>
     <row r="423">
@@ -8056,7 +8056,7 @@
         <v>88.011597</v>
       </c>
       <c r="C423" t="n">
-        <v>87.870995</v>
+        <v>87.870979</v>
       </c>
     </row>
     <row r="424">
@@ -8078,7 +8078,7 @@
         <v>88.22934</v>
       </c>
       <c r="C425" t="n">
-        <v>88.640274</v>
+        <v>88.640282</v>
       </c>
     </row>
     <row r="426">
@@ -8089,7 +8089,7 @@
         <v>85.02417</v>
       </c>
       <c r="C426" t="n">
-        <v>87.187157</v>
+        <v>87.187164</v>
       </c>
     </row>
     <row r="427">
@@ -8100,7 +8100,7 @@
         <v>83.247383</v>
       </c>
       <c r="C427" t="n">
-        <v>87.529083</v>
+        <v>87.529076</v>
       </c>
     </row>
     <row r="428">
@@ -8111,7 +8111,7 @@
         <v>84.414482</v>
       </c>
       <c r="C428" t="n">
-        <v>89.495056</v>
+        <v>89.495064</v>
       </c>
     </row>
     <row r="429">
@@ -8166,7 +8166,7 @@
         <v>82.289322</v>
       </c>
       <c r="C433" t="n">
-        <v>108.385612</v>
+        <v>108.38562</v>
       </c>
     </row>
     <row r="434">
@@ -8188,7 +8188,7 @@
         <v>83.073189</v>
       </c>
       <c r="C435" t="n">
-        <v>103.25695</v>
+        <v>103.256958</v>
       </c>
     </row>
     <row r="436">
@@ -8210,7 +8210,7 @@
         <v>82.02803</v>
       </c>
       <c r="C437" t="n">
-        <v>99.923332</v>
+        <v>99.923325</v>
       </c>
     </row>
     <row r="438">
@@ -8221,7 +8221,7 @@
         <v>80.216408</v>
       </c>
       <c r="C438" t="n">
-        <v>99.23951</v>
+        <v>99.239502</v>
       </c>
     </row>
     <row r="439">
@@ -8232,7 +8232,7 @@
         <v>79.989952</v>
       </c>
       <c r="C439" t="n">
-        <v>99.15403</v>
+        <v>99.154037</v>
       </c>
     </row>
     <row r="440">
@@ -8254,7 +8254,7 @@
         <v>80.059631</v>
       </c>
       <c r="C441" t="n">
-        <v>102.658607</v>
+        <v>102.658615</v>
       </c>
     </row>
     <row r="442">
@@ -8265,7 +8265,7 @@
         <v>79.972534</v>
       </c>
       <c r="C442" t="n">
-        <v>102.316696</v>
+        <v>102.316704</v>
       </c>
     </row>
     <row r="443">
@@ -8287,7 +8287,7 @@
         <v>82.881577</v>
       </c>
       <c r="C444" t="n">
-        <v>102.145752</v>
+        <v>102.145744</v>
       </c>
     </row>
     <row r="445">
@@ -8320,7 +8320,7 @@
         <v>84.693199</v>
       </c>
       <c r="C447" t="n">
-        <v>109.924217</v>
+        <v>109.92421</v>
       </c>
     </row>
     <row r="448">
@@ -8353,7 +8353,7 @@
         <v>85.877716</v>
       </c>
       <c r="C450" t="n">
-        <v>112.659492</v>
+        <v>112.6595</v>
       </c>
     </row>
     <row r="451">
@@ -8375,7 +8375,7 @@
         <v>85.529327</v>
       </c>
       <c r="C452" t="n">
-        <v>115.394783</v>
+        <v>115.394775</v>
       </c>
     </row>
     <row r="453">
@@ -8386,7 +8386,7 @@
         <v>85.668686</v>
       </c>
       <c r="C453" t="n">
-        <v>114.881905</v>
+        <v>114.881912</v>
       </c>
     </row>
     <row r="454">
@@ -8397,7 +8397,7 @@
         <v>85.877716</v>
       </c>
       <c r="C454" t="n">
-        <v>116.07859</v>
+        <v>116.078598</v>
       </c>
     </row>
     <row r="455">
@@ -8419,7 +8419,7 @@
         <v>84.867393</v>
       </c>
       <c r="C456" t="n">
-        <v>115.736671</v>
+        <v>115.736687</v>
       </c>
     </row>
     <row r="457">
@@ -8430,7 +8430,7 @@
         <v>82.829323</v>
       </c>
       <c r="C457" t="n">
-        <v>113.856178</v>
+        <v>113.856171</v>
       </c>
     </row>
     <row r="458">
@@ -8507,7 +8507,7 @@
         <v>83.369324</v>
       </c>
       <c r="C464" t="n">
-        <v>115.993111</v>
+        <v>115.993118</v>
       </c>
     </row>
     <row r="465">
@@ -8529,7 +8529,7 @@
         <v>82.306732</v>
       </c>
       <c r="C466" t="n">
-        <v>116.933372</v>
+        <v>116.93338</v>
       </c>
     </row>
     <row r="467">
@@ -8551,7 +8551,7 @@
         <v>80.634476</v>
       </c>
       <c r="C468" t="n">
-        <v>111.377335</v>
+        <v>111.377327</v>
       </c>
     </row>
     <row r="469">
@@ -8573,7 +8573,7 @@
         <v>79.240921</v>
       </c>
       <c r="C470" t="n">
-        <v>110.949936</v>
+        <v>110.949944</v>
       </c>
     </row>
     <row r="471">
@@ -8584,7 +8584,7 @@
         <v>79.362854</v>
       </c>
       <c r="C471" t="n">
-        <v>110.864456</v>
+        <v>110.864464</v>
       </c>
     </row>
     <row r="472">
@@ -8606,7 +8606,7 @@
         <v>78.735756</v>
       </c>
       <c r="C473" t="n">
-        <v>108.727516</v>
+        <v>108.727524</v>
       </c>
     </row>
     <row r="474">
@@ -8639,7 +8639,7 @@
         <v>79.275757</v>
       </c>
       <c r="C476" t="n">
-        <v>108.727516</v>
+        <v>108.727524</v>
       </c>
     </row>
     <row r="477">
@@ -8661,7 +8661,7 @@
         <v>80.129311</v>
       </c>
       <c r="C478" t="n">
-        <v>109.582298</v>
+        <v>109.582291</v>
       </c>
     </row>
     <row r="479">
@@ -8672,7 +8672,7 @@
         <v>79.746086</v>
       </c>
       <c r="C479" t="n">
-        <v>109.154907</v>
+        <v>109.154915</v>
       </c>
     </row>
     <row r="480">
@@ -8694,7 +8694,7 @@
         <v>79.223503</v>
       </c>
       <c r="C481" t="n">
-        <v>105.479378</v>
+        <v>105.47937</v>
       </c>
     </row>
     <row r="482">
@@ -8716,7 +8716,7 @@
         <v>82.463516</v>
       </c>
       <c r="C483" t="n">
-        <v>110.949936</v>
+        <v>110.949944</v>
       </c>
     </row>
     <row r="484">
@@ -8738,7 +8738,7 @@
         <v>84.01384</v>
       </c>
       <c r="C485" t="n">
-        <v>113.172356</v>
+        <v>113.172348</v>
       </c>
     </row>
     <row r="486">
@@ -8760,7 +8760,7 @@
         <v>84.849968</v>
       </c>
       <c r="C487" t="n">
-        <v>113.856178</v>
+        <v>113.856171</v>
       </c>
     </row>
     <row r="488">
@@ -8771,7 +8771,7 @@
         <v>87.271271</v>
       </c>
       <c r="C488" t="n">
-        <v>113.941658</v>
+        <v>113.94165</v>
       </c>
     </row>
     <row r="489">
@@ -8793,7 +8793,7 @@
         <v>92.671295</v>
       </c>
       <c r="C490" t="n">
-        <v>112.488533</v>
+        <v>112.488548</v>
       </c>
     </row>
     <row r="491">
@@ -8804,7 +8804,7 @@
         <v>94.108391</v>
       </c>
       <c r="C491" t="n">
-        <v>117.104324</v>
+        <v>117.104317</v>
       </c>
     </row>
     <row r="492">
@@ -8826,7 +8826,7 @@
         <v>92.105156</v>
       </c>
       <c r="C493" t="n">
-        <v>116.933372</v>
+        <v>116.93338</v>
       </c>
     </row>
     <row r="494">
@@ -8848,7 +8848,7 @@
         <v>93.193871</v>
       </c>
       <c r="C495" t="n">
-        <v>118.899368</v>
+        <v>118.899353</v>
       </c>
     </row>
     <row r="496">
@@ -8859,7 +8859,7 @@
         <v>93.411613</v>
       </c>
       <c r="C496" t="n">
-        <v>119.07032</v>
+        <v>119.070328</v>
       </c>
     </row>
     <row r="497">
@@ -8870,7 +8870,7 @@
         <v>93.890648</v>
       </c>
       <c r="C497" t="n">
-        <v>119.497711</v>
+        <v>119.497704</v>
       </c>
     </row>
     <row r="498">
@@ -8892,7 +8892,7 @@
         <v>93.977753</v>
       </c>
       <c r="C499" t="n">
-        <v>121.463684</v>
+        <v>121.463692</v>
       </c>
     </row>
     <row r="500">
@@ -8903,7 +8903,7 @@
         <v>92.932579</v>
       </c>
       <c r="C500" t="n">
-        <v>120.608917</v>
+        <v>120.60891</v>
       </c>
     </row>
     <row r="501">
@@ -8914,7 +8914,7 @@
         <v>93.847099</v>
       </c>
       <c r="C501" t="n">
-        <v>120.694382</v>
+        <v>120.694389</v>
       </c>
     </row>
     <row r="502">
@@ -8925,7 +8925,7 @@
         <v>94.282585</v>
       </c>
       <c r="C502" t="n">
-        <v>120.52343</v>
+        <v>120.523438</v>
       </c>
     </row>
     <row r="503">
@@ -8936,7 +8936,7 @@
         <v>96.068085</v>
       </c>
       <c r="C503" t="n">
-        <v>124.369919</v>
+        <v>124.369926</v>
       </c>
     </row>
     <row r="504">
@@ -8969,7 +8969,7 @@
         <v>94.06485</v>
       </c>
       <c r="C506" t="n">
-        <v>123.686096</v>
+        <v>123.686104</v>
       </c>
     </row>
     <row r="507">
@@ -8991,7 +8991,7 @@
         <v>94.674522</v>
       </c>
       <c r="C508" t="n">
-        <v>123.600624</v>
+        <v>123.600639</v>
       </c>
     </row>
     <row r="509">
@@ -9002,7 +9002,7 @@
         <v>95.806786</v>
       </c>
       <c r="C509" t="n">
-        <v>123.3442</v>
+        <v>123.344208</v>
       </c>
     </row>
     <row r="510">
@@ -9024,7 +9024,7 @@
         <v>95.806786</v>
       </c>
       <c r="C511" t="n">
-        <v>125.993996</v>
+        <v>125.993988</v>
       </c>
     </row>
     <row r="512">
@@ -9035,7 +9035,7 @@
         <v>96.721306</v>
       </c>
       <c r="C512" t="n">
-        <v>127.703537</v>
+        <v>127.703552</v>
       </c>
     </row>
     <row r="513">
@@ -9046,7 +9046,7 @@
         <v>94.848717</v>
       </c>
       <c r="C513" t="n">
-        <v>126.934258</v>
+        <v>126.93425</v>
       </c>
     </row>
     <row r="514">
@@ -9057,7 +9057,7 @@
         <v>95.458389</v>
       </c>
       <c r="C514" t="n">
-        <v>125.993996</v>
+        <v>125.993988</v>
       </c>
     </row>
     <row r="515">
@@ -9068,7 +9068,7 @@
         <v>92.453545</v>
       </c>
       <c r="C515" t="n">
-        <v>123.087769</v>
+        <v>123.087761</v>
       </c>
     </row>
     <row r="516">
@@ -9079,7 +9079,7 @@
         <v>94.500328</v>
       </c>
       <c r="C516" t="n">
-        <v>125.224693</v>
+        <v>125.224701</v>
       </c>
     </row>
     <row r="517">
@@ -9090,7 +9090,7 @@
         <v>95.893883</v>
       </c>
       <c r="C517" t="n">
-        <v>125.993996</v>
+        <v>125.993988</v>
       </c>
     </row>
     <row r="518">
@@ -9101,7 +9101,7 @@
         <v>94.674522</v>
       </c>
       <c r="C518" t="n">
-        <v>124.198967</v>
+        <v>124.198982</v>
       </c>
     </row>
     <row r="519">
@@ -9112,7 +9112,7 @@
         <v>98.332603</v>
       </c>
       <c r="C519" t="n">
-        <v>125.481133</v>
+        <v>125.481125</v>
       </c>
     </row>
     <row r="520">
@@ -9134,7 +9134,7 @@
         <v>99.943893</v>
       </c>
       <c r="C521" t="n">
-        <v>127.276169</v>
+        <v>127.276161</v>
       </c>
     </row>
     <row r="522">
@@ -9200,7 +9200,7 @@
         <v>107.608437</v>
       </c>
       <c r="C527" t="n">
-        <v>134.285339</v>
+        <v>134.285324</v>
       </c>
     </row>
     <row r="528">
@@ -9211,7 +9211,7 @@
         <v>106.51973</v>
       </c>
       <c r="C528" t="n">
-        <v>134.199844</v>
+        <v>134.19986</v>
       </c>
     </row>
     <row r="529">
@@ -9222,7 +9222,7 @@
         <v>105.866501</v>
       </c>
       <c r="C529" t="n">
-        <v>134.883667</v>
+        <v>134.883682</v>
       </c>
     </row>
     <row r="530">
@@ -9233,7 +9233,7 @@
         <v>104.951973</v>
       </c>
       <c r="C530" t="n">
-        <v>135.909393</v>
+        <v>135.909409</v>
       </c>
     </row>
     <row r="531">
@@ -9277,7 +9277,7 @@
         <v>104.995529</v>
       </c>
       <c r="C534" t="n">
-        <v>137.020599</v>
+        <v>137.020615</v>
       </c>
     </row>
     <row r="535">
@@ -9288,7 +9288,7 @@
         <v>100.161644</v>
       </c>
       <c r="C535" t="n">
-        <v>134.199844</v>
+        <v>134.19986</v>
       </c>
     </row>
     <row r="536">
@@ -9299,7 +9299,7 @@
         <v>99.116478</v>
       </c>
       <c r="C536" t="n">
-        <v>130.951706</v>
+        <v>130.951691</v>
       </c>
     </row>
     <row r="537">
@@ -9332,7 +9332,7 @@
         <v>91.147095</v>
       </c>
       <c r="C539" t="n">
-        <v>106.847008</v>
+        <v>106.847015</v>
       </c>
     </row>
     <row r="540">
@@ -9354,7 +9354,7 @@
         <v>93.063232</v>
       </c>
       <c r="C541" t="n">
-        <v>109.83873</v>
+        <v>109.838737</v>
       </c>
     </row>
     <row r="542">
@@ -9365,7 +9365,7 @@
         <v>93.237427</v>
       </c>
       <c r="C542" t="n">
-        <v>106.505096</v>
+        <v>106.505104</v>
       </c>
     </row>
     <row r="543">
@@ -9409,7 +9409,7 @@
         <v>77.289948</v>
       </c>
       <c r="C546" t="n">
-        <v>93.854424</v>
+        <v>93.854416</v>
       </c>
     </row>
     <row r="547">
@@ -9420,7 +9420,7 @@
         <v>74.48542</v>
       </c>
       <c r="C547" t="n">
-        <v>92.486771</v>
+        <v>92.486763</v>
       </c>
     </row>
     <row r="548">
@@ -9431,7 +9431,7 @@
         <v>67.726685</v>
       </c>
       <c r="C548" t="n">
-        <v>82.272194</v>
+        <v>82.272202</v>
       </c>
     </row>
     <row r="549">
@@ -9442,7 +9442,7 @@
         <v>67.761528</v>
       </c>
       <c r="C549" t="n">
-        <v>83.682587</v>
+        <v>83.682579</v>
       </c>
     </row>
     <row r="550">
@@ -9453,7 +9453,7 @@
         <v>64.486679</v>
       </c>
       <c r="C550" t="n">
-        <v>78.895844</v>
+        <v>78.895836</v>
       </c>
     </row>
     <row r="551">
@@ -9464,7 +9464,7 @@
         <v>64.62603</v>
       </c>
       <c r="C551" t="n">
-        <v>80.220734</v>
+        <v>80.220741</v>
       </c>
     </row>
     <row r="552">
@@ -9486,7 +9486,7 @@
         <v>71.708336</v>
       </c>
       <c r="C553" t="n">
-        <v>78.126534</v>
+        <v>78.126541</v>
       </c>
     </row>
     <row r="554">
@@ -9574,7 +9574,7 @@
         <v>75.642952</v>
       </c>
       <c r="C561" t="n">
-        <v>91.515839</v>
+        <v>91.515846</v>
       </c>
     </row>
     <row r="562">
@@ -9607,7 +9607,7 @@
         <v>71.078796</v>
       </c>
       <c r="C564" t="n">
-        <v>88.706573</v>
+        <v>88.706566</v>
       </c>
     </row>
     <row r="565">
@@ -9618,7 +9618,7 @@
         <v>72.141136</v>
       </c>
       <c r="C565" t="n">
-        <v>88.373268</v>
+        <v>88.37326</v>
       </c>
     </row>
     <row r="566">
@@ -9684,7 +9684,7 @@
         <v>72.318199</v>
       </c>
       <c r="C571" t="n">
-        <v>89.373169</v>
+        <v>89.373177</v>
       </c>
     </row>
     <row r="572">
@@ -9695,7 +9695,7 @@
         <v>71.82637</v>
       </c>
       <c r="C572" t="n">
-        <v>90.992088</v>
+        <v>90.992081</v>
       </c>
     </row>
     <row r="573">
@@ -9728,7 +9728,7 @@
         <v>72.455917</v>
       </c>
       <c r="C575" t="n">
-        <v>91.230164</v>
+        <v>91.230156</v>
       </c>
     </row>
     <row r="576">
@@ -9739,7 +9739,7 @@
         <v>70.134491</v>
       </c>
       <c r="C576" t="n">
-        <v>89.706474</v>
+        <v>89.706482</v>
       </c>
     </row>
     <row r="577">
@@ -9783,7 +9783,7 @@
         <v>79.479202</v>
       </c>
       <c r="C580" t="n">
-        <v>107.89537</v>
+        <v>107.895378</v>
       </c>
     </row>
     <row r="581">
@@ -9827,7 +9827,7 @@
         <v>74.226486</v>
       </c>
       <c r="C584" t="n">
-        <v>95.08696</v>
+        <v>95.086967</v>
       </c>
     </row>
     <row r="585">
@@ -9849,7 +9849,7 @@
         <v>74.619949</v>
       </c>
       <c r="C586" t="n">
-        <v>100.086533</v>
+        <v>100.086525</v>
       </c>
     </row>
     <row r="587">
@@ -9860,7 +9860,7 @@
         <v>74.167473</v>
       </c>
       <c r="C587" t="n">
-        <v>101.134048</v>
+        <v>101.134056</v>
       </c>
     </row>
     <row r="588">
@@ -9893,7 +9893,7 @@
         <v>70.803375</v>
       </c>
       <c r="C590" t="n">
-        <v>99.991302</v>
+        <v>99.991295</v>
       </c>
     </row>
     <row r="591">
@@ -9915,7 +9915,7 @@
         <v>73.400223</v>
       </c>
       <c r="C592" t="n">
-        <v>100.657898</v>
+        <v>100.657906</v>
       </c>
     </row>
     <row r="593">
@@ -9926,7 +9926,7 @@
         <v>75.564255</v>
       </c>
       <c r="C593" t="n">
-        <v>102.467278</v>
+        <v>102.46727</v>
       </c>
     </row>
     <row r="594">
@@ -9970,7 +9970,7 @@
         <v>83.748253</v>
       </c>
       <c r="C597" t="n">
-        <v>111.799789</v>
+        <v>111.799797</v>
       </c>
     </row>
     <row r="598">
@@ -9992,7 +9992,7 @@
         <v>86.128693</v>
       </c>
       <c r="C599" t="n">
-        <v>116.656509</v>
+        <v>116.656517</v>
       </c>
     </row>
     <row r="600">
@@ -10014,7 +10014,7 @@
         <v>89.256706</v>
       </c>
       <c r="C601" t="n">
-        <v>123.893982</v>
+        <v>123.89399</v>
       </c>
     </row>
     <row r="602">
@@ -10069,7 +10069,7 @@
         <v>86.42379</v>
       </c>
       <c r="C606" t="n">
-        <v>117.704041</v>
+        <v>117.704048</v>
       </c>
     </row>
     <row r="607">
@@ -10091,7 +10091,7 @@
         <v>87.663193</v>
       </c>
       <c r="C608" t="n">
-        <v>120.751396</v>
+        <v>120.751404</v>
       </c>
     </row>
     <row r="609">
@@ -10157,7 +10157,7 @@
         <v>87.466461</v>
       </c>
       <c r="C614" t="n">
-        <v>117.704041</v>
+        <v>117.704048</v>
       </c>
     </row>
     <row r="615">
@@ -10201,7 +10201,7 @@
         <v>86.836922</v>
       </c>
       <c r="C618" t="n">
-        <v>117.13266</v>
+        <v>117.132668</v>
       </c>
     </row>
     <row r="619">
@@ -10322,7 +10322,7 @@
         <v>100.185097</v>
       </c>
       <c r="C629" t="n">
-        <v>124.465355</v>
+        <v>124.465363</v>
       </c>
     </row>
     <row r="630">
@@ -10333,7 +10333,7 @@
         <v>100.185097</v>
       </c>
       <c r="C630" t="n">
-        <v>125.512886</v>
+        <v>125.512894</v>
       </c>
     </row>
     <row r="631">
@@ -10355,7 +10355,7 @@
         <v>104.267265</v>
       </c>
       <c r="C632" t="n">
-        <v>125.036736</v>
+        <v>125.036743</v>
       </c>
     </row>
     <row r="633">
@@ -10388,7 +10388,7 @@
         <v>103.72625</v>
       </c>
       <c r="C635" t="n">
-        <v>125.322433</v>
+        <v>125.322441</v>
       </c>
     </row>
     <row r="636">
@@ -10399,7 +10399,7 @@
         <v>104.218079</v>
       </c>
       <c r="C636" t="n">
-        <v>124.941498</v>
+        <v>124.941505</v>
       </c>
     </row>
     <row r="637">
@@ -10410,7 +10410,7 @@
         <v>102.250771</v>
       </c>
       <c r="C637" t="n">
-        <v>122.655998</v>
+        <v>122.655991</v>
       </c>
     </row>
     <row r="638">
@@ -10465,7 +10465,7 @@
         <v>101.168755</v>
       </c>
       <c r="C642" t="n">
-        <v>115.894676</v>
+        <v>115.894669</v>
       </c>
     </row>
     <row r="643">
@@ -10476,7 +10476,7 @@
         <v>100.480202</v>
       </c>
       <c r="C643" t="n">
-        <v>116.75174</v>
+        <v>116.751747</v>
       </c>
     </row>
     <row r="644">
@@ -10487,7 +10487,7 @@
         <v>100.922836</v>
       </c>
       <c r="C644" t="n">
-        <v>115.989914</v>
+        <v>115.989906</v>
       </c>
     </row>
     <row r="645">
@@ -10498,7 +10498,7 @@
         <v>100.332649</v>
       </c>
       <c r="C645" t="n">
-        <v>115.418526</v>
+        <v>115.418518</v>
       </c>
     </row>
     <row r="646">
@@ -10564,7 +10564,7 @@
         <v>102.349144</v>
       </c>
       <c r="C651" t="n">
-        <v>113.609169</v>
+        <v>113.609161</v>
       </c>
     </row>
     <row r="652">
@@ -10608,7 +10608,7 @@
         <v>96.496399</v>
       </c>
       <c r="C655" t="n">
-        <v>110.466576</v>
+        <v>110.466583</v>
       </c>
     </row>
     <row r="656">
@@ -10619,7 +10619,7 @@
         <v>97.047249</v>
       </c>
       <c r="C656" t="n">
-        <v>109.799973</v>
+        <v>109.799965</v>
       </c>
     </row>
     <row r="657">
@@ -10652,7 +10652,7 @@
         <v>97.971878</v>
       </c>
       <c r="C659" t="n">
-        <v>107.228767</v>
+        <v>107.22876</v>
       </c>
     </row>
     <row r="660">
@@ -10663,7 +10663,7 @@
         <v>96.594765</v>
       </c>
       <c r="C660" t="n">
-        <v>106.847847</v>
+        <v>106.847839</v>
       </c>
     </row>
     <row r="661">
@@ -10696,7 +10696,7 @@
         <v>92.463425</v>
       </c>
       <c r="C663" t="n">
-        <v>95.705963</v>
+        <v>95.705956</v>
       </c>
     </row>
     <row r="664">
@@ -10751,7 +10751,7 @@
         <v>87.859924</v>
       </c>
       <c r="C668" t="n">
-        <v>96.467796</v>
+        <v>96.467804</v>
       </c>
     </row>
     <row r="669">
@@ -10762,7 +10762,7 @@
         <v>88.627174</v>
       </c>
       <c r="C669" t="n">
-        <v>98.181938</v>
+        <v>98.181931</v>
       </c>
     </row>
     <row r="670">
@@ -10773,7 +10773,7 @@
         <v>88.587822</v>
       </c>
       <c r="C670" t="n">
-        <v>99.705605</v>
+        <v>99.705612</v>
       </c>
     </row>
     <row r="671">
@@ -10784,7 +10784,7 @@
         <v>86.502487</v>
       </c>
       <c r="C671" t="n">
-        <v>99.610382</v>
+        <v>99.610374</v>
       </c>
     </row>
     <row r="672">
@@ -10806,7 +10806,7 @@
         <v>86.187714</v>
       </c>
       <c r="C673" t="n">
-        <v>99.134232</v>
+        <v>99.134224</v>
       </c>
     </row>
     <row r="674">
@@ -10817,7 +10817,7 @@
         <v>86.384445</v>
       </c>
       <c r="C674" t="n">
-        <v>97.896248</v>
+        <v>97.89624</v>
       </c>
     </row>
     <row r="675">
@@ -10839,7 +10839,7 @@
         <v>83.0597</v>
       </c>
       <c r="C676" t="n">
-        <v>96.372559</v>
+        <v>96.372566</v>
       </c>
     </row>
     <row r="677">
@@ -10850,7 +10850,7 @@
         <v>80.659584</v>
       </c>
       <c r="C677" t="n">
-        <v>94.372734</v>
+        <v>94.372742</v>
       </c>
     </row>
     <row r="678">
@@ -10872,7 +10872,7 @@
         <v>81.938332</v>
       </c>
       <c r="C679" t="n">
-        <v>93.563293</v>
+        <v>93.563286</v>
       </c>
     </row>
     <row r="680">
@@ -10927,7 +10927,7 @@
         <v>84.692558</v>
       </c>
       <c r="C684" t="n">
-        <v>94.848885</v>
+        <v>94.848892</v>
       </c>
     </row>
     <row r="685">
@@ -10949,7 +10949,7 @@
         <v>83.453156</v>
       </c>
       <c r="C686" t="n">
-        <v>103.133881</v>
+        <v>103.133888</v>
       </c>
     </row>
     <row r="687">
@@ -10960,7 +10960,7 @@
         <v>85.57785</v>
       </c>
       <c r="C687" t="n">
-        <v>103.133881</v>
+        <v>103.133888</v>
       </c>
     </row>
     <row r="688">
@@ -10993,7 +10993,7 @@
         <v>89.453445</v>
       </c>
       <c r="C690" t="n">
-        <v>103.990952</v>
+        <v>103.990944</v>
       </c>
     </row>
     <row r="691">
@@ -11070,7 +11070,7 @@
         <v>91.401077</v>
       </c>
       <c r="C697" t="n">
-        <v>103.990952</v>
+        <v>103.990944</v>
       </c>
     </row>
     <row r="698">
@@ -11158,7 +11158,7 @@
         <v>84.161385</v>
       </c>
       <c r="C705" t="n">
-        <v>102.372047</v>
+        <v>102.37204</v>
       </c>
     </row>
     <row r="706">
@@ -11202,7 +11202,7 @@
         <v>86.974632</v>
       </c>
       <c r="C709" t="n">
-        <v>111.799789</v>
+        <v>111.799797</v>
       </c>
     </row>
     <row r="710">
@@ -11224,7 +11224,7 @@
         <v>88.627174</v>
       </c>
       <c r="C711" t="n">
-        <v>109.514275</v>
+        <v>109.514282</v>
       </c>
     </row>
     <row r="712">
@@ -11290,7 +11290,7 @@
         <v>102.447502</v>
       </c>
       <c r="C717" t="n">
-        <v>124.274902</v>
+        <v>124.274895</v>
       </c>
     </row>
     <row r="718">
@@ -11301,7 +11301,7 @@
         <v>102.890144</v>
       </c>
       <c r="C718" t="n">
-        <v>126.274734</v>
+        <v>126.274727</v>
       </c>
     </row>
     <row r="719">
@@ -11356,7 +11356,7 @@
         <v>103.234421</v>
       </c>
       <c r="C723" t="n">
-        <v>124.751053</v>
+        <v>124.751045</v>
       </c>
     </row>
     <row r="724">
@@ -11378,7 +11378,7 @@
         <v>102.98851</v>
       </c>
       <c r="C725" t="n">
-        <v>124.751053</v>
+        <v>124.751045</v>
       </c>
     </row>
     <row r="726">
@@ -11422,7 +11422,7 @@
         <v>102.250771</v>
       </c>
       <c r="C729" t="n">
-        <v>124.751053</v>
+        <v>124.751045</v>
       </c>
     </row>
     <row r="730">
@@ -11444,7 +11444,7 @@
         <v>101.513031</v>
       </c>
       <c r="C731" t="n">
-        <v>124.274902</v>
+        <v>124.274895</v>
       </c>
     </row>
     <row r="732">
@@ -11543,7 +11543,7 @@
         <v>94.529091</v>
       </c>
       <c r="C740" t="n">
-        <v>121.608459</v>
+        <v>121.608467</v>
       </c>
     </row>
     <row r="741">
@@ -11576,7 +11576,7 @@
         <v>96.870193</v>
       </c>
       <c r="C743" t="n">
-        <v>124.941498</v>
+        <v>124.941505</v>
       </c>
     </row>
     <row r="744">
@@ -11587,7 +11587,7 @@
         <v>99.742462</v>
       </c>
       <c r="C744" t="n">
-        <v>125.989037</v>
+        <v>125.989044</v>
       </c>
     </row>
     <row r="745">
@@ -11620,7 +11620,7 @@
         <v>99.004723</v>
       </c>
       <c r="C747" t="n">
-        <v>128.084091</v>
+        <v>128.084106</v>
       </c>
     </row>
     <row r="748">
@@ -11653,7 +11653,7 @@
         <v>103.627884</v>
       </c>
       <c r="C750" t="n">
-        <v>128.941147</v>
+        <v>128.941162</v>
       </c>
     </row>
     <row r="751">
@@ -11664,7 +11664,7 @@
         <v>108.054329</v>
       </c>
       <c r="C751" t="n">
-        <v>132.369446</v>
+        <v>132.369431</v>
       </c>
     </row>
     <row r="752">
@@ -11851,7 +11851,7 @@
         <v>103.480339</v>
       </c>
       <c r="C768" t="n">
-        <v>121.608459</v>
+        <v>121.608467</v>
       </c>
     </row>
     <row r="769">
@@ -11862,7 +11862,7 @@
         <v>104.070534</v>
       </c>
       <c r="C769" t="n">
-        <v>123.893982</v>
+        <v>123.89399</v>
       </c>
     </row>
     <row r="770">
@@ -11939,7 +11939,7 @@
         <v>107.955963</v>
       </c>
       <c r="C776" t="n">
-        <v>126.750885</v>
+        <v>126.750877</v>
       </c>
     </row>
     <row r="777">
@@ -11983,7 +11983,7 @@
         <v>110.857735</v>
       </c>
       <c r="C780" t="n">
-        <v>132.369446</v>
+        <v>132.369431</v>
       </c>
     </row>
     <row r="781">
@@ -12016,7 +12016,7 @@
         <v>111.644661</v>
       </c>
       <c r="C783" t="n">
-        <v>132.940826</v>
+        <v>132.940811</v>
       </c>
     </row>
     <row r="784">
@@ -12027,7 +12027,7 @@
         <v>111.447937</v>
       </c>
       <c r="C784" t="n">
-        <v>134.178787</v>
+        <v>134.178802</v>
       </c>
     </row>
     <row r="785">
@@ -12038,7 +12038,7 @@
         <v>112.333221</v>
       </c>
       <c r="C785" t="n">
-        <v>134.940628</v>
+        <v>134.940643</v>
       </c>
     </row>
     <row r="786">
@@ -12049,7 +12049,7 @@
         <v>115.087448</v>
       </c>
       <c r="C786" t="n">
-        <v>135.226334</v>
+        <v>135.226318</v>
       </c>
     </row>
     <row r="787">
@@ -12071,7 +12071,7 @@
         <v>114.595627</v>
       </c>
       <c r="C788" t="n">
-        <v>136.654785</v>
+        <v>136.65477</v>
       </c>
     </row>
     <row r="789">
@@ -12093,7 +12093,7 @@
         <v>116.366203</v>
       </c>
       <c r="C790" t="n">
-        <v>153.319992</v>
+        <v>153.319977</v>
       </c>
     </row>
     <row r="791">
@@ -12104,7 +12104,7 @@
         <v>116.218651</v>
       </c>
       <c r="C791" t="n">
-        <v>152.367691</v>
+        <v>152.367706</v>
       </c>
     </row>
     <row r="792">
@@ -12115,7 +12115,7 @@
         <v>118.82534</v>
       </c>
       <c r="C792" t="n">
-        <v>151.129715</v>
+        <v>151.1297</v>
       </c>
     </row>
     <row r="793">
@@ -12170,7 +12170,7 @@
         <v>120.54673</v>
       </c>
       <c r="C797" t="n">
-        <v>154.938904</v>
+        <v>154.938889</v>
       </c>
     </row>
     <row r="798">
@@ -12181,7 +12181,7 @@
         <v>120.497543</v>
       </c>
       <c r="C798" t="n">
-        <v>154.272293</v>
+        <v>154.272278</v>
       </c>
     </row>
     <row r="799">
@@ -12192,7 +12192,7 @@
         <v>120.349998</v>
       </c>
       <c r="C799" t="n">
-        <v>155.415054</v>
+        <v>155.415039</v>
       </c>
     </row>
     <row r="800">
@@ -12247,7 +12247,7 @@
         <v>118.25</v>
       </c>
       <c r="C804" t="n">
-        <v>155.224594</v>
+        <v>155.224579</v>
       </c>
     </row>
     <row r="805">
@@ -12258,7 +12258,7 @@
         <v>119.300003</v>
       </c>
       <c r="C805" t="n">
-        <v>159.986084</v>
+        <v>159.986069</v>
       </c>
     </row>
     <row r="806">

--- a/Danske aktiekurser.xlsx
+++ b/Danske aktiekurser.xlsx
@@ -3422,10 +3422,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>189.887924</v>
+        <v>189.887939</v>
       </c>
       <c r="C2" t="n">
-        <v>191.282867</v>
+        <v>191.282883</v>
       </c>
     </row>
     <row r="3">
@@ -3436,7 +3436,7 @@
         <v>188.870804</v>
       </c>
       <c r="C3" t="n">
-        <v>190.82489</v>
+        <v>190.824905</v>
       </c>
     </row>
     <row r="4">
@@ -3447,7 +3447,7 @@
         <v>190.51384</v>
       </c>
       <c r="C4" t="n">
-        <v>192.351501</v>
+        <v>192.351486</v>
       </c>
     </row>
     <row r="5">
@@ -3455,10 +3455,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="n">
-        <v>190.748581</v>
+        <v>190.74855</v>
       </c>
       <c r="C5" t="n">
-        <v>192.046188</v>
+        <v>192.046173</v>
       </c>
     </row>
     <row r="6">
@@ -3466,7 +3466,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="n">
-        <v>191.843918</v>
+        <v>191.843903</v>
       </c>
       <c r="C6" t="n">
         <v>191.74086</v>
@@ -3488,7 +3488,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="n">
-        <v>194.34758</v>
+        <v>194.347595</v>
       </c>
       <c r="C8" t="n">
         <v>195.404678</v>
@@ -3499,7 +3499,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="n">
-        <v>196.147125</v>
+        <v>196.14711</v>
       </c>
       <c r="C9" t="n">
         <v>196.320663</v>
@@ -3521,7 +3521,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="n">
-        <v>196.303589</v>
+        <v>196.303574</v>
       </c>
       <c r="C11" t="n">
         <v>193.572784</v>
@@ -3532,7 +3532,7 @@
         <v>13</v>
       </c>
       <c r="B12" t="n">
-        <v>195.521194</v>
+        <v>195.521179</v>
       </c>
       <c r="C12" t="n">
         <v>192.50415</v>
@@ -3543,10 +3543,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="n">
-        <v>195.990631</v>
+        <v>195.990616</v>
       </c>
       <c r="C13" t="n">
-        <v>191.435532</v>
+        <v>191.435547</v>
       </c>
     </row>
     <row r="14">
@@ -3554,7 +3554,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="n">
-        <v>191.452728</v>
+        <v>191.452713</v>
       </c>
       <c r="C14" t="n">
         <v>191.588196</v>
@@ -3565,7 +3565,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="n">
-        <v>190.670334</v>
+        <v>190.670319</v>
       </c>
       <c r="C15" t="n">
         <v>191.893509</v>
@@ -3579,7 +3579,7 @@
         <v>193.330475</v>
       </c>
       <c r="C16" t="n">
-        <v>193.114777</v>
+        <v>193.114792</v>
       </c>
     </row>
     <row r="17">
@@ -3590,7 +3590,7 @@
         <v>192.078644</v>
       </c>
       <c r="C17" t="n">
-        <v>191.435532</v>
+        <v>191.435547</v>
       </c>
     </row>
     <row r="18">
@@ -3601,7 +3601,7 @@
         <v>192.078644</v>
       </c>
       <c r="C18" t="n">
-        <v>190.214249</v>
+        <v>190.214264</v>
       </c>
     </row>
     <row r="19">
@@ -3620,7 +3620,7 @@
         <v>21</v>
       </c>
       <c r="B20" t="n">
-        <v>189.966171</v>
+        <v>189.966156</v>
       </c>
       <c r="C20" t="n">
         <v>187.466385</v>
@@ -3631,10 +3631,10 @@
         <v>22</v>
       </c>
       <c r="B21" t="n">
-        <v>191.843918</v>
+        <v>191.843903</v>
       </c>
       <c r="C21" t="n">
-        <v>187.771698</v>
+        <v>187.771713</v>
       </c>
     </row>
     <row r="22">
@@ -3642,7 +3642,7 @@
         <v>23</v>
       </c>
       <c r="B22" t="n">
-        <v>189.966171</v>
+        <v>189.966156</v>
       </c>
       <c r="C22" t="n">
         <v>185.787125</v>
@@ -3656,7 +3656,7 @@
         <v>190.51384</v>
       </c>
       <c r="C23" t="n">
-        <v>187.008408</v>
+        <v>187.008392</v>
       </c>
     </row>
     <row r="24">
@@ -3675,10 +3675,10 @@
         <v>26</v>
       </c>
       <c r="B25" t="n">
-        <v>191.609207</v>
+        <v>191.609192</v>
       </c>
       <c r="C25" t="n">
-        <v>187.619049</v>
+        <v>187.619034</v>
       </c>
     </row>
     <row r="26">
@@ -3686,7 +3686,7 @@
         <v>27</v>
       </c>
       <c r="B26" t="n">
-        <v>191.609207</v>
+        <v>191.609192</v>
       </c>
       <c r="C26" t="n">
         <v>186.397751</v>
@@ -3708,10 +3708,10 @@
         <v>29</v>
       </c>
       <c r="B28" t="n">
-        <v>189.261993</v>
+        <v>189.262009</v>
       </c>
       <c r="C28" t="n">
-        <v>188.687653</v>
+        <v>188.687668</v>
       </c>
     </row>
     <row r="29">
@@ -3719,7 +3719,7 @@
         <v>30</v>
       </c>
       <c r="B29" t="n">
-        <v>188.557846</v>
+        <v>188.557861</v>
       </c>
       <c r="C29" t="n">
         <v>187.161057</v>
@@ -3741,10 +3741,10 @@
         <v>32</v>
       </c>
       <c r="B31" t="n">
-        <v>189.966171</v>
+        <v>189.966156</v>
       </c>
       <c r="C31" t="n">
-        <v>188.687653</v>
+        <v>188.687668</v>
       </c>
     </row>
     <row r="32">
@@ -3755,7 +3755,7 @@
         <v>188.949051</v>
       </c>
       <c r="C32" t="n">
-        <v>188.534988</v>
+        <v>188.535004</v>
       </c>
     </row>
     <row r="33">
@@ -3763,7 +3763,7 @@
         <v>34</v>
       </c>
       <c r="B33" t="n">
-        <v>191.061523</v>
+        <v>191.061508</v>
       </c>
       <c r="C33" t="n">
         <v>193.267456</v>
@@ -3785,7 +3785,7 @@
         <v>36</v>
       </c>
       <c r="B35" t="n">
-        <v>194.660553</v>
+        <v>194.660568</v>
       </c>
       <c r="C35" t="n">
         <v>196.625992</v>
@@ -3799,7 +3799,7 @@
         <v>194.895279</v>
       </c>
       <c r="C36" t="n">
-        <v>196.167984</v>
+        <v>196.167999</v>
       </c>
     </row>
     <row r="37">
@@ -3821,7 +3821,7 @@
         <v>192.861038</v>
       </c>
       <c r="C38" t="n">
-        <v>182.428604</v>
+        <v>182.428619</v>
       </c>
     </row>
     <row r="39">
@@ -3832,7 +3832,7 @@
         <v>193.252243</v>
       </c>
       <c r="C39" t="n">
-        <v>180.444031</v>
+        <v>180.444016</v>
       </c>
     </row>
     <row r="40">
@@ -3851,7 +3851,7 @@
         <v>42</v>
       </c>
       <c r="B41" t="n">
-        <v>195.677689</v>
+        <v>195.677673</v>
       </c>
       <c r="C41" t="n">
         <v>183.802536</v>
@@ -3865,7 +3865,7 @@
         <v>189.731445</v>
       </c>
       <c r="C42" t="n">
-        <v>183.19191</v>
+        <v>183.191895</v>
       </c>
     </row>
     <row r="43">
@@ -3873,10 +3873,10 @@
         <v>44</v>
       </c>
       <c r="B43" t="n">
-        <v>192.626328</v>
+        <v>192.626297</v>
       </c>
       <c r="C43" t="n">
-        <v>182.733917</v>
+        <v>182.733932</v>
       </c>
     </row>
     <row r="44">
@@ -3884,7 +3884,7 @@
         <v>45</v>
       </c>
       <c r="B44" t="n">
-        <v>190.748581</v>
+        <v>190.74855</v>
       </c>
       <c r="C44" t="n">
         <v>181.665298</v>
@@ -3898,7 +3898,7 @@
         <v>189.731445</v>
       </c>
       <c r="C45" t="n">
-        <v>177.696152</v>
+        <v>177.696136</v>
       </c>
     </row>
     <row r="46">
@@ -3906,7 +3906,7 @@
         <v>47</v>
       </c>
       <c r="B46" t="n">
-        <v>190.044388</v>
+        <v>190.044403</v>
       </c>
       <c r="C46" t="n">
         <v>179.833389</v>
@@ -3917,7 +3917,7 @@
         <v>48</v>
       </c>
       <c r="B47" t="n">
-        <v>189.340256</v>
+        <v>189.34024</v>
       </c>
       <c r="C47" t="n">
         <v>180.749344</v>
@@ -3928,7 +3928,7 @@
         <v>49</v>
       </c>
       <c r="B48" t="n">
-        <v>191.53096</v>
+        <v>191.530945</v>
       </c>
       <c r="C48" t="n">
         <v>180.749344</v>
@@ -3939,10 +3939,10 @@
         <v>50</v>
       </c>
       <c r="B49" t="n">
-        <v>191.218002</v>
+        <v>191.217987</v>
       </c>
       <c r="C49" t="n">
-        <v>182.428604</v>
+        <v>182.428619</v>
       </c>
     </row>
     <row r="50">
@@ -3950,7 +3950,7 @@
         <v>51</v>
       </c>
       <c r="B50" t="n">
-        <v>192.626328</v>
+        <v>192.626297</v>
       </c>
       <c r="C50" t="n">
         <v>180.902008</v>
@@ -3961,7 +3961,7 @@
         <v>52</v>
       </c>
       <c r="B51" t="n">
-        <v>193.095749</v>
+        <v>193.095764</v>
       </c>
       <c r="C51" t="n">
         <v>180.291351</v>
@@ -3975,7 +3975,7 @@
         <v>193.799911</v>
       </c>
       <c r="C52" t="n">
-        <v>183.344559</v>
+        <v>183.344543</v>
       </c>
     </row>
     <row r="53">
@@ -3986,7 +3986,7 @@
         <v>190.983292</v>
       </c>
       <c r="C53" t="n">
-        <v>180.138702</v>
+        <v>180.138718</v>
       </c>
     </row>
     <row r="54">
@@ -3994,7 +3994,7 @@
         <v>55</v>
       </c>
       <c r="B54" t="n">
-        <v>191.061523</v>
+        <v>191.061508</v>
       </c>
       <c r="C54" t="n">
         <v>183.113083</v>
@@ -4085,7 +4085,7 @@
         <v>183.474533</v>
       </c>
       <c r="C62" t="n">
-        <v>179.58551</v>
+        <v>179.585526</v>
       </c>
     </row>
     <row r="63">
@@ -4107,7 +4107,7 @@
         <v>183.148224</v>
       </c>
       <c r="C64" t="n">
-        <v>178.46312</v>
+        <v>178.463104</v>
       </c>
     </row>
     <row r="65">
@@ -4118,7 +4118,7 @@
         <v>181.761353</v>
       </c>
       <c r="C65" t="n">
-        <v>176.378647</v>
+        <v>176.378632</v>
       </c>
     </row>
     <row r="66">
@@ -4148,10 +4148,10 @@
         <v>69</v>
       </c>
       <c r="B68" t="n">
-        <v>182.985062</v>
+        <v>182.985046</v>
       </c>
       <c r="C68" t="n">
-        <v>180.868286</v>
+        <v>180.868301</v>
       </c>
     </row>
     <row r="69">
@@ -4173,7 +4173,7 @@
         <v>179.477097</v>
       </c>
       <c r="C70" t="n">
-        <v>180.868286</v>
+        <v>180.868301</v>
       </c>
     </row>
     <row r="71">
@@ -4184,7 +4184,7 @@
         <v>180.619217</v>
       </c>
       <c r="C71" t="n">
-        <v>184.395859</v>
+        <v>184.395844</v>
       </c>
     </row>
     <row r="72">
@@ -4192,10 +4192,10 @@
         <v>73</v>
       </c>
       <c r="B72" t="n">
-        <v>180.211319</v>
+        <v>180.211304</v>
       </c>
       <c r="C72" t="n">
-        <v>182.311386</v>
+        <v>182.311371</v>
       </c>
     </row>
     <row r="73">
@@ -4214,7 +4214,7 @@
         <v>75</v>
       </c>
       <c r="B74" t="n">
-        <v>181.924515</v>
+        <v>181.9245</v>
       </c>
       <c r="C74" t="n">
         <v>184.075165</v>
@@ -4261,7 +4261,7 @@
         <v>183.229797</v>
       </c>
       <c r="C78" t="n">
-        <v>192.894089</v>
+        <v>192.894073</v>
       </c>
     </row>
     <row r="79">
@@ -4280,7 +4280,7 @@
         <v>81</v>
       </c>
       <c r="B80" t="n">
-        <v>178.498123</v>
+        <v>178.498138</v>
       </c>
       <c r="C80" t="n">
         <v>187.602722</v>
@@ -4291,7 +4291,7 @@
         <v>82</v>
       </c>
       <c r="B81" t="n">
-        <v>179.069199</v>
+        <v>179.069183</v>
       </c>
       <c r="C81" t="n">
         <v>186.319962</v>
@@ -4327,7 +4327,7 @@
         <v>177.84549</v>
       </c>
       <c r="C84" t="n">
-        <v>184.716522</v>
+        <v>184.716507</v>
       </c>
     </row>
     <row r="85">
@@ -4368,7 +4368,7 @@
         <v>89</v>
       </c>
       <c r="B88" t="n">
-        <v>176.784943</v>
+        <v>176.784927</v>
       </c>
       <c r="C88" t="n">
         <v>187.121704</v>
@@ -4393,7 +4393,7 @@
         <v>174.990173</v>
       </c>
       <c r="C90" t="n">
-        <v>186.640671</v>
+        <v>186.640656</v>
       </c>
     </row>
     <row r="91">
@@ -4434,7 +4434,7 @@
         <v>95</v>
       </c>
       <c r="B94" t="n">
-        <v>176.458618</v>
+        <v>176.458603</v>
       </c>
       <c r="C94" t="n">
         <v>184.075165</v>
@@ -4467,7 +4467,7 @@
         <v>98</v>
       </c>
       <c r="B97" t="n">
-        <v>173.603317</v>
+        <v>173.603302</v>
       </c>
       <c r="C97" t="n">
         <v>182.632065</v>
@@ -4500,10 +4500,10 @@
         <v>101</v>
       </c>
       <c r="B100" t="n">
-        <v>168.953217</v>
+        <v>168.953201</v>
       </c>
       <c r="C100" t="n">
-        <v>174.935547</v>
+        <v>174.935532</v>
       </c>
     </row>
     <row r="101">
@@ -4536,7 +4536,7 @@
         <v>176.295456</v>
       </c>
       <c r="C103" t="n">
-        <v>178.302765</v>
+        <v>178.30275</v>
       </c>
     </row>
     <row r="104">
@@ -4599,7 +4599,7 @@
         <v>110</v>
       </c>
       <c r="B109" t="n">
-        <v>178.498123</v>
+        <v>178.498138</v>
       </c>
       <c r="C109" t="n">
         <v>177.180344</v>
@@ -4624,7 +4624,7 @@
         <v>178.742874</v>
       </c>
       <c r="C111" t="n">
-        <v>178.623444</v>
+        <v>178.623459</v>
       </c>
     </row>
     <row r="112">
@@ -4635,7 +4635,7 @@
         <v>177.682327</v>
       </c>
       <c r="C112" t="n">
-        <v>177.821747</v>
+        <v>177.821732</v>
       </c>
     </row>
     <row r="113">
@@ -4646,7 +4646,7 @@
         <v>173.929626</v>
       </c>
       <c r="C113" t="n">
-        <v>175.897614</v>
+        <v>175.897598</v>
       </c>
     </row>
     <row r="114">
@@ -4676,7 +4676,7 @@
         <v>117</v>
       </c>
       <c r="B116" t="n">
-        <v>167.811096</v>
+        <v>167.811081</v>
       </c>
       <c r="C116" t="n">
         <v>173.171753</v>
@@ -4690,7 +4690,7 @@
         <v>168.626892</v>
       </c>
       <c r="C117" t="n">
-        <v>174.294159</v>
+        <v>174.294144</v>
       </c>
     </row>
     <row r="118">
@@ -4701,7 +4701,7 @@
         <v>166.0979</v>
       </c>
       <c r="C118" t="n">
-        <v>174.294159</v>
+        <v>174.294144</v>
       </c>
     </row>
     <row r="119">
@@ -4723,7 +4723,7 @@
         <v>162.018875</v>
       </c>
       <c r="C120" t="n">
-        <v>173.652786</v>
+        <v>173.652771</v>
       </c>
     </row>
     <row r="121">
@@ -4734,7 +4734,7 @@
         <v>162.018875</v>
       </c>
       <c r="C121" t="n">
-        <v>174.454529</v>
+        <v>174.454514</v>
       </c>
     </row>
     <row r="122">
@@ -4745,7 +4745,7 @@
         <v>162.957047</v>
       </c>
       <c r="C122" t="n">
-        <v>175.897614</v>
+        <v>175.897598</v>
       </c>
     </row>
     <row r="123">
@@ -4811,7 +4811,7 @@
         <v>157.001663</v>
       </c>
       <c r="C128" t="n">
-        <v>180.226883</v>
+        <v>180.226898</v>
       </c>
     </row>
     <row r="129">
@@ -4822,7 +4822,7 @@
         <v>158.102997</v>
       </c>
       <c r="C129" t="n">
-        <v>182.151016</v>
+        <v>182.151031</v>
       </c>
     </row>
     <row r="130">
@@ -4833,7 +4833,7 @@
         <v>158.225372</v>
       </c>
       <c r="C130" t="n">
-        <v>182.151016</v>
+        <v>182.151031</v>
       </c>
     </row>
     <row r="131">
@@ -4841,7 +4841,7 @@
         <v>132</v>
       </c>
       <c r="B131" t="n">
-        <v>159.122757</v>
+        <v>159.122772</v>
       </c>
       <c r="C131" t="n">
         <v>183.754471</v>
@@ -4855,7 +4855,7 @@
         <v>158.225372</v>
       </c>
       <c r="C132" t="n">
-        <v>182.151016</v>
+        <v>182.151031</v>
       </c>
     </row>
     <row r="133">
@@ -4885,7 +4885,7 @@
         <v>136</v>
       </c>
       <c r="B135" t="n">
-        <v>144.642212</v>
+        <v>144.642227</v>
       </c>
       <c r="C135" t="n">
         <v>177.661407</v>
@@ -4896,10 +4896,10 @@
         <v>137</v>
       </c>
       <c r="B136" t="n">
-        <v>148.394928</v>
+        <v>148.394913</v>
       </c>
       <c r="C136" t="n">
-        <v>179.745865</v>
+        <v>179.74585</v>
       </c>
     </row>
     <row r="137">
@@ -4910,7 +4910,7 @@
         <v>147.456757</v>
       </c>
       <c r="C137" t="n">
-        <v>180.387238</v>
+        <v>180.387222</v>
       </c>
     </row>
     <row r="138">
@@ -4918,7 +4918,7 @@
         <v>139</v>
       </c>
       <c r="B138" t="n">
-        <v>149.985748</v>
+        <v>149.985764</v>
       </c>
       <c r="C138" t="n">
         <v>181.669998</v>
@@ -4943,7 +4943,7 @@
         <v>150.92392</v>
       </c>
       <c r="C140" t="n">
-        <v>185.51825</v>
+        <v>185.518265</v>
       </c>
     </row>
     <row r="141">
@@ -4984,7 +4984,7 @@
         <v>145</v>
       </c>
       <c r="B144" t="n">
-        <v>151.127884</v>
+        <v>151.127869</v>
       </c>
       <c r="C144" t="n">
         <v>189.526855</v>
@@ -5006,10 +5006,10 @@
         <v>147</v>
       </c>
       <c r="B146" t="n">
-        <v>146.029083</v>
+        <v>146.029099</v>
       </c>
       <c r="C146" t="n">
-        <v>184.395859</v>
+        <v>184.395844</v>
       </c>
     </row>
     <row r="147">
@@ -5042,7 +5042,7 @@
         <v>147.905441</v>
       </c>
       <c r="C149" t="n">
-        <v>180.387238</v>
+        <v>180.387222</v>
       </c>
     </row>
     <row r="150">
@@ -5083,10 +5083,10 @@
         <v>154</v>
       </c>
       <c r="B153" t="n">
-        <v>150.026535</v>
+        <v>150.02652</v>
       </c>
       <c r="C153" t="n">
-        <v>178.302765</v>
+        <v>178.30275</v>
       </c>
     </row>
     <row r="154">
@@ -5127,7 +5127,7 @@
         <v>158</v>
       </c>
       <c r="B157" t="n">
-        <v>149.210724</v>
+        <v>149.210739</v>
       </c>
       <c r="C157" t="n">
         <v>175.095871</v>
@@ -5138,7 +5138,7 @@
         <v>159</v>
       </c>
       <c r="B158" t="n">
-        <v>150.230484</v>
+        <v>150.230469</v>
       </c>
       <c r="C158" t="n">
         <v>175.737259</v>
@@ -5149,7 +5149,7 @@
         <v>160</v>
       </c>
       <c r="B159" t="n">
-        <v>150.719955</v>
+        <v>150.719971</v>
       </c>
       <c r="C159" t="n">
         <v>177.661407</v>
@@ -5174,7 +5174,7 @@
         <v>151.94368</v>
       </c>
       <c r="C161" t="n">
-        <v>175.897614</v>
+        <v>175.897598</v>
       </c>
     </row>
     <row r="162">
@@ -5182,7 +5182,7 @@
         <v>163</v>
       </c>
       <c r="B162" t="n">
-        <v>154.717407</v>
+        <v>154.717422</v>
       </c>
       <c r="C162" t="n">
         <v>175.256226</v>
@@ -5193,7 +5193,7 @@
         <v>164</v>
       </c>
       <c r="B163" t="n">
-        <v>157.817459</v>
+        <v>157.817474</v>
       </c>
       <c r="C163" t="n">
         <v>175.256226</v>
@@ -5204,7 +5204,7 @@
         <v>165</v>
       </c>
       <c r="B164" t="n">
-        <v>156.716141</v>
+        <v>156.716156</v>
       </c>
       <c r="C164" t="n">
         <v>155.614075</v>
@@ -5218,7 +5218,7 @@
         <v>157.001663</v>
       </c>
       <c r="C165" t="n">
-        <v>153.770111</v>
+        <v>153.770096</v>
       </c>
     </row>
     <row r="166">
@@ -5226,7 +5226,7 @@
         <v>167</v>
       </c>
       <c r="B166" t="n">
-        <v>156.634552</v>
+        <v>156.634567</v>
       </c>
       <c r="C166" t="n">
         <v>151.926132</v>
@@ -5237,10 +5237,10 @@
         <v>168</v>
       </c>
       <c r="B167" t="n">
-        <v>154.146347</v>
+        <v>154.146332</v>
       </c>
       <c r="C167" t="n">
-        <v>150.723572</v>
+        <v>150.723557</v>
       </c>
     </row>
     <row r="168">
@@ -5273,7 +5273,7 @@
         <v>148.272552</v>
       </c>
       <c r="C170" t="n">
-        <v>147.917526</v>
+        <v>147.917542</v>
       </c>
     </row>
     <row r="171">
@@ -5281,7 +5281,7 @@
         <v>172</v>
       </c>
       <c r="B171" t="n">
-        <v>150.719955</v>
+        <v>150.719971</v>
       </c>
       <c r="C171" t="n">
         <v>148.158051</v>
@@ -5292,10 +5292,10 @@
         <v>173</v>
       </c>
       <c r="B172" t="n">
-        <v>144.397476</v>
+        <v>144.397491</v>
       </c>
       <c r="C172" t="n">
-        <v>148.799454</v>
+        <v>148.799438</v>
       </c>
     </row>
     <row r="173">
@@ -5306,7 +5306,7 @@
         <v>140.155304</v>
       </c>
       <c r="C173" t="n">
-        <v>148.799454</v>
+        <v>148.799438</v>
       </c>
     </row>
     <row r="174">
@@ -5314,7 +5314,7 @@
         <v>175</v>
       </c>
       <c r="B174" t="n">
-        <v>139.217117</v>
+        <v>139.217133</v>
       </c>
       <c r="C174" t="n">
         <v>147.837357</v>
@@ -5350,7 +5350,7 @@
         <v>138.646057</v>
       </c>
       <c r="C177" t="n">
-        <v>147.917526</v>
+        <v>147.917542</v>
       </c>
     </row>
     <row r="178">
@@ -5383,7 +5383,7 @@
         <v>137.871048</v>
       </c>
       <c r="C180" t="n">
-        <v>149.921844</v>
+        <v>149.92186</v>
       </c>
     </row>
     <row r="181">
@@ -5391,10 +5391,10 @@
         <v>182</v>
       </c>
       <c r="B181" t="n">
-        <v>144.397476</v>
+        <v>144.397491</v>
       </c>
       <c r="C181" t="n">
-        <v>151.28476</v>
+        <v>151.284775</v>
       </c>
     </row>
     <row r="182">
@@ -5416,7 +5416,7 @@
         <v>135.709167</v>
       </c>
       <c r="C183" t="n">
-        <v>151.364944</v>
+        <v>151.364929</v>
       </c>
     </row>
     <row r="184">
@@ -5424,7 +5424,7 @@
         <v>185</v>
       </c>
       <c r="B184" t="n">
-        <v>138.686859</v>
+        <v>138.686844</v>
       </c>
       <c r="C184" t="n">
         <v>152.968384</v>
@@ -5449,7 +5449,7 @@
         <v>138.768433</v>
       </c>
       <c r="C186" t="n">
-        <v>151.364944</v>
+        <v>151.364929</v>
       </c>
     </row>
     <row r="187">
@@ -5457,7 +5457,7 @@
         <v>188</v>
       </c>
       <c r="B187" t="n">
-        <v>137.626312</v>
+        <v>137.626297</v>
       </c>
       <c r="C187" t="n">
         <v>151.525284</v>
@@ -5490,10 +5490,10 @@
         <v>191</v>
       </c>
       <c r="B190" t="n">
-        <v>135.627579</v>
+        <v>135.627563</v>
       </c>
       <c r="C190" t="n">
-        <v>149.440796</v>
+        <v>149.440781</v>
       </c>
     </row>
     <row r="191">
@@ -5501,7 +5501,7 @@
         <v>192</v>
       </c>
       <c r="B191" t="n">
-        <v>129.386688</v>
+        <v>129.386673</v>
       </c>
       <c r="C191" t="n">
         <v>148.158051</v>
@@ -5512,7 +5512,7 @@
         <v>193</v>
       </c>
       <c r="B192" t="n">
-        <v>121.310188</v>
+        <v>121.310196</v>
       </c>
       <c r="C192" t="n">
         <v>150.483032</v>
@@ -5523,7 +5523,7 @@
         <v>194</v>
       </c>
       <c r="B193" t="n">
-        <v>116.945656</v>
+        <v>116.945648</v>
       </c>
       <c r="C193" t="n">
         <v>146.795135</v>
@@ -5556,7 +5556,7 @@
         <v>197</v>
       </c>
       <c r="B196" t="n">
-        <v>115.191666</v>
+        <v>115.191658</v>
       </c>
       <c r="C196" t="n">
         <v>140.782227</v>
@@ -5567,7 +5567,7 @@
         <v>198</v>
       </c>
       <c r="B197" t="n">
-        <v>115.273247</v>
+        <v>115.273254</v>
       </c>
       <c r="C197" t="n">
         <v>141.904633</v>
@@ -5578,7 +5578,7 @@
         <v>199</v>
       </c>
       <c r="B198" t="n">
-        <v>113.886375</v>
+        <v>113.886383</v>
       </c>
       <c r="C198" t="n">
         <v>142.546005</v>
@@ -5589,7 +5589,7 @@
         <v>200</v>
       </c>
       <c r="B199" t="n">
-        <v>115.436417</v>
+        <v>115.436401</v>
       </c>
       <c r="C199" t="n">
         <v>143.588242</v>
@@ -5600,7 +5600,7 @@
         <v>201</v>
       </c>
       <c r="B200" t="n">
-        <v>112.254776</v>
+        <v>112.254768</v>
       </c>
       <c r="C200" t="n">
         <v>143.748581</v>
@@ -5622,7 +5622,7 @@
         <v>203</v>
       </c>
       <c r="B202" t="n">
-        <v>107.033615</v>
+        <v>107.033607</v>
       </c>
       <c r="C202" t="n">
         <v>142.706345</v>
@@ -5636,7 +5636,7 @@
         <v>106.421753</v>
       </c>
       <c r="C203" t="n">
-        <v>139.820129</v>
+        <v>139.820145</v>
       </c>
     </row>
     <row r="204">
@@ -5644,7 +5644,7 @@
         <v>205</v>
       </c>
       <c r="B204" t="n">
-        <v>103.280914</v>
+        <v>103.280907</v>
       </c>
       <c r="C204" t="n">
         <v>140.782227</v>
@@ -5655,7 +5655,7 @@
         <v>206</v>
       </c>
       <c r="B205" t="n">
-        <v>102.505898</v>
+        <v>102.50589</v>
       </c>
       <c r="C205" t="n">
         <v>141.503769</v>
@@ -5688,7 +5688,7 @@
         <v>209</v>
       </c>
       <c r="B208" t="n">
-        <v>104.586189</v>
+        <v>104.586197</v>
       </c>
       <c r="C208" t="n">
         <v>144.069275</v>
@@ -5699,10 +5699,10 @@
         <v>210</v>
       </c>
       <c r="B209" t="n">
-        <v>103.280914</v>
+        <v>103.280907</v>
       </c>
       <c r="C209" t="n">
-        <v>139.900345</v>
+        <v>139.90033</v>
       </c>
     </row>
     <row r="210">
@@ -5732,10 +5732,10 @@
         <v>213</v>
       </c>
       <c r="B212" t="n">
-        <v>111.765274</v>
+        <v>111.765282</v>
       </c>
       <c r="C212" t="n">
-        <v>127.874519</v>
+        <v>127.874504</v>
       </c>
     </row>
     <row r="213">
@@ -5743,7 +5743,7 @@
         <v>214</v>
       </c>
       <c r="B213" t="n">
-        <v>110.337624</v>
+        <v>110.337616</v>
       </c>
       <c r="C213" t="n">
         <v>130.199493</v>
@@ -5765,7 +5765,7 @@
         <v>216</v>
       </c>
       <c r="B215" t="n">
-        <v>117.516716</v>
+        <v>117.516708</v>
       </c>
       <c r="C215" t="n">
         <v>132.52449</v>
@@ -5776,7 +5776,7 @@
         <v>217</v>
       </c>
       <c r="B216" t="n">
-        <v>117.027229</v>
+        <v>117.027222</v>
       </c>
       <c r="C216" t="n">
         <v>133.326218</v>
@@ -5790,7 +5790,7 @@
         <v>117.598282</v>
       </c>
       <c r="C217" t="n">
-        <v>131.321915</v>
+        <v>131.32193</v>
       </c>
     </row>
     <row r="218">
@@ -5798,7 +5798,7 @@
         <v>219</v>
       </c>
       <c r="B218" t="n">
-        <v>116.619316</v>
+        <v>116.619324</v>
       </c>
       <c r="C218" t="n">
         <v>130.440018</v>
@@ -5809,10 +5809,10 @@
         <v>220</v>
       </c>
       <c r="B219" t="n">
-        <v>115.028496</v>
+        <v>115.028503</v>
       </c>
       <c r="C219" t="n">
-        <v>129.798645</v>
+        <v>129.79863</v>
       </c>
     </row>
     <row r="220">
@@ -5834,7 +5834,7 @@
         <v>113.519257</v>
       </c>
       <c r="C221" t="n">
-        <v>127.874519</v>
+        <v>127.874504</v>
       </c>
     </row>
     <row r="222">
@@ -5842,7 +5842,7 @@
         <v>223</v>
       </c>
       <c r="B222" t="n">
-        <v>111.602127</v>
+        <v>111.602119</v>
       </c>
       <c r="C222" t="n">
         <v>127.553825</v>
@@ -5853,7 +5853,7 @@
         <v>224</v>
       </c>
       <c r="B223" t="n">
-        <v>110.500786</v>
+        <v>110.500778</v>
       </c>
       <c r="C223" t="n">
         <v>128.756409</v>
@@ -5875,10 +5875,10 @@
         <v>226</v>
       </c>
       <c r="B225" t="n">
-        <v>107.441513</v>
+        <v>107.441521</v>
       </c>
       <c r="C225" t="n">
-        <v>127.874519</v>
+        <v>127.874504</v>
       </c>
     </row>
     <row r="226">
@@ -5889,7 +5889,7 @@
         <v>108.461266</v>
       </c>
       <c r="C226" t="n">
-        <v>127.874519</v>
+        <v>127.874504</v>
       </c>
     </row>
     <row r="227">
@@ -5897,7 +5897,7 @@
         <v>228</v>
       </c>
       <c r="B227" t="n">
-        <v>108.869164</v>
+        <v>108.869171</v>
       </c>
       <c r="C227" t="n">
         <v>128.27536</v>
@@ -5908,7 +5908,7 @@
         <v>229</v>
       </c>
       <c r="B228" t="n">
-        <v>111.071838</v>
+        <v>111.071846</v>
       </c>
       <c r="C228" t="n">
         <v>131.08139</v>
@@ -5919,7 +5919,7 @@
         <v>230</v>
       </c>
       <c r="B229" t="n">
-        <v>110.133667</v>
+        <v>110.133675</v>
       </c>
       <c r="C229" t="n">
         <v>131.08139</v>
@@ -5933,7 +5933,7 @@
         <v>110.949478</v>
       </c>
       <c r="C230" t="n">
-        <v>129.63829</v>
+        <v>129.638306</v>
       </c>
     </row>
     <row r="231">
@@ -5941,7 +5941,7 @@
         <v>232</v>
       </c>
       <c r="B231" t="n">
-        <v>107.441513</v>
+        <v>107.441521</v>
       </c>
       <c r="C231" t="n">
         <v>130.359848</v>
@@ -5952,7 +5952,7 @@
         <v>233</v>
       </c>
       <c r="B232" t="n">
-        <v>107.196777</v>
+        <v>107.19677</v>
       </c>
       <c r="C232" t="n">
         <v>130.359848</v>
@@ -5963,10 +5963,10 @@
         <v>234</v>
       </c>
       <c r="B233" t="n">
-        <v>108.706017</v>
+        <v>108.706009</v>
       </c>
       <c r="C233" t="n">
-        <v>126.671936</v>
+        <v>126.671928</v>
       </c>
     </row>
     <row r="234">
@@ -5974,7 +5974,7 @@
         <v>235</v>
       </c>
       <c r="B234" t="n">
-        <v>108.583641</v>
+        <v>108.583649</v>
       </c>
       <c r="C234" t="n">
         <v>127.152977</v>
@@ -5985,10 +5985,10 @@
         <v>236</v>
       </c>
       <c r="B235" t="n">
-        <v>114.620605</v>
+        <v>114.620598</v>
       </c>
       <c r="C235" t="n">
-        <v>129.798645</v>
+        <v>129.79863</v>
       </c>
     </row>
     <row r="236">
@@ -5996,10 +5996,10 @@
         <v>237</v>
       </c>
       <c r="B236" t="n">
-        <v>111.316589</v>
+        <v>111.316582</v>
       </c>
       <c r="C236" t="n">
-        <v>126.992592</v>
+        <v>126.992607</v>
       </c>
     </row>
     <row r="237">
@@ -6018,7 +6018,7 @@
         <v>239</v>
       </c>
       <c r="B238" t="n">
-        <v>112.050812</v>
+        <v>112.050819</v>
       </c>
       <c r="C238" t="n">
         <v>127.152977</v>
@@ -6051,10 +6051,10 @@
         <v>242</v>
       </c>
       <c r="B241" t="n">
-        <v>113.396889</v>
+        <v>113.396896</v>
       </c>
       <c r="C241" t="n">
-        <v>128.676224</v>
+        <v>128.676239</v>
       </c>
     </row>
     <row r="242">
@@ -6065,7 +6065,7 @@
         <v>112.62188</v>
       </c>
       <c r="C242" t="n">
-        <v>128.034851</v>
+        <v>128.034866</v>
       </c>
     </row>
     <row r="243">
@@ -6073,7 +6073,7 @@
         <v>244</v>
       </c>
       <c r="B243" t="n">
-        <v>110.459984</v>
+        <v>110.459991</v>
       </c>
       <c r="C243" t="n">
         <v>127.633987</v>
@@ -6084,10 +6084,10 @@
         <v>245</v>
       </c>
       <c r="B244" t="n">
-        <v>112.213982</v>
+        <v>112.213974</v>
       </c>
       <c r="C244" t="n">
-        <v>122.663322</v>
+        <v>122.663315</v>
       </c>
     </row>
     <row r="245">
@@ -6098,7 +6098,7 @@
         <v>109.725769</v>
       </c>
       <c r="C245" t="n">
-        <v>121.781425</v>
+        <v>121.781418</v>
       </c>
     </row>
     <row r="246">
@@ -6106,7 +6106,7 @@
         <v>247</v>
       </c>
       <c r="B246" t="n">
-        <v>105.442795</v>
+        <v>105.442787</v>
       </c>
       <c r="C246" t="n">
         <v>117.772827</v>
@@ -6150,10 +6150,10 @@
         <v>251</v>
       </c>
       <c r="B250" t="n">
-        <v>104.994095</v>
+        <v>104.994102</v>
       </c>
       <c r="C250" t="n">
-        <v>126.271049</v>
+        <v>126.271065</v>
       </c>
     </row>
     <row r="251">
@@ -6161,10 +6161,10 @@
         <v>252</v>
       </c>
       <c r="B251" t="n">
-        <v>104.749352</v>
+        <v>104.749359</v>
       </c>
       <c r="C251" t="n">
-        <v>123.865921</v>
+        <v>123.865906</v>
       </c>
     </row>
     <row r="252">
@@ -6172,7 +6172,7 @@
         <v>253</v>
       </c>
       <c r="B252" t="n">
-        <v>109.195503</v>
+        <v>109.195496</v>
       </c>
       <c r="C252" t="n">
         <v>127.313301</v>
@@ -6194,7 +6194,7 @@
         <v>255</v>
       </c>
       <c r="B254" t="n">
-        <v>108.3797</v>
+        <v>108.379692</v>
       </c>
       <c r="C254" t="n">
         <v>126.832268</v>
@@ -6216,7 +6216,7 @@
         <v>257</v>
       </c>
       <c r="B256" t="n">
-        <v>104.219086</v>
+        <v>104.219093</v>
       </c>
       <c r="C256" t="n">
         <v>126.591751</v>
@@ -6238,7 +6238,7 @@
         <v>259</v>
       </c>
       <c r="B258" t="n">
-        <v>106.054649</v>
+        <v>106.054642</v>
       </c>
       <c r="C258" t="n">
         <v>124.266769</v>
@@ -6249,7 +6249,7 @@
         <v>260</v>
       </c>
       <c r="B259" t="n">
-        <v>104.423042</v>
+        <v>104.423035</v>
       </c>
       <c r="C259" t="n">
         <v>122.583145</v>
@@ -6260,10 +6260,10 @@
         <v>261</v>
       </c>
       <c r="B260" t="n">
-        <v>105.034889</v>
+        <v>105.034897</v>
       </c>
       <c r="C260" t="n">
-        <v>126.271049</v>
+        <v>126.271065</v>
       </c>
     </row>
     <row r="261">
@@ -6282,7 +6282,7 @@
         <v>263</v>
       </c>
       <c r="B262" t="n">
-        <v>103.199333</v>
+        <v>103.199326</v>
       </c>
       <c r="C262" t="n">
         <v>125.870209</v>
@@ -6307,7 +6307,7 @@
         <v>102.791428</v>
       </c>
       <c r="C264" t="n">
-        <v>125.709877</v>
+        <v>125.709862</v>
       </c>
     </row>
     <row r="265">
@@ -6326,10 +6326,10 @@
         <v>267</v>
       </c>
       <c r="B266" t="n">
-        <v>99.976898</v>
+        <v>99.976906</v>
       </c>
       <c r="C266" t="n">
-        <v>126.110725</v>
+        <v>126.110741</v>
       </c>
     </row>
     <row r="267">
@@ -6348,7 +6348,7 @@
         <v>269</v>
       </c>
       <c r="B268" t="n">
-        <v>99.936104</v>
+        <v>99.936111</v>
       </c>
       <c r="C268" t="n">
         <v>123.625389</v>
@@ -6362,7 +6362,7 @@
         <v>99.85453</v>
       </c>
       <c r="C269" t="n">
-        <v>123.465034</v>
+        <v>123.465042</v>
       </c>
     </row>
     <row r="270">
@@ -6384,7 +6384,7 @@
         <v>98.304497</v>
       </c>
       <c r="C271" t="n">
-        <v>120.739204</v>
+        <v>120.739189</v>
       </c>
     </row>
     <row r="272">
@@ -6395,7 +6395,7 @@
         <v>103.444077</v>
       </c>
       <c r="C272" t="n">
-        <v>121.781425</v>
+        <v>121.781418</v>
       </c>
     </row>
     <row r="273">
@@ -6403,10 +6403,10 @@
         <v>274</v>
       </c>
       <c r="B273" t="n">
-        <v>101.078239</v>
+        <v>101.078232</v>
       </c>
       <c r="C273" t="n">
-        <v>122.262451</v>
+        <v>122.262466</v>
       </c>
     </row>
     <row r="274">
@@ -6414,7 +6414,7 @@
         <v>275</v>
       </c>
       <c r="B274" t="n">
-        <v>103.199333</v>
+        <v>103.199326</v>
       </c>
       <c r="C274" t="n">
         <v>122.102127</v>
@@ -6425,10 +6425,10 @@
         <v>276</v>
       </c>
       <c r="B275" t="n">
-        <v>102.66906</v>
+        <v>102.669052</v>
       </c>
       <c r="C275" t="n">
-        <v>121.781425</v>
+        <v>121.781418</v>
       </c>
     </row>
     <row r="276">
@@ -6483,7 +6483,7 @@
         <v>100.180855</v>
       </c>
       <c r="C280" t="n">
-        <v>122.262451</v>
+        <v>122.262466</v>
       </c>
     </row>
     <row r="281">
@@ -6491,7 +6491,7 @@
         <v>282</v>
       </c>
       <c r="B281" t="n">
-        <v>99.936104</v>
+        <v>99.936111</v>
       </c>
       <c r="C281" t="n">
         <v>121.22023</v>
@@ -6502,7 +6502,7 @@
         <v>283</v>
       </c>
       <c r="B282" t="n">
-        <v>101.486137</v>
+        <v>101.486145</v>
       </c>
       <c r="C282" t="n">
         <v>122.021935</v>
@@ -6527,7 +6527,7 @@
         <v>102.873009</v>
       </c>
       <c r="C284" t="n">
-        <v>121.540909</v>
+        <v>121.540924</v>
       </c>
     </row>
     <row r="285">
@@ -6535,10 +6535,10 @@
         <v>286</v>
       </c>
       <c r="B285" t="n">
-        <v>103.117744</v>
+        <v>103.117752</v>
       </c>
       <c r="C285" t="n">
-        <v>121.781425</v>
+        <v>121.781418</v>
       </c>
     </row>
     <row r="286">
@@ -6549,7 +6549,7 @@
         <v>98.712402</v>
       </c>
       <c r="C286" t="n">
-        <v>120.498688</v>
+        <v>120.498672</v>
       </c>
     </row>
     <row r="287">
@@ -6557,7 +6557,7 @@
         <v>288</v>
       </c>
       <c r="B287" t="n">
-        <v>98.467667</v>
+        <v>98.467651</v>
       </c>
       <c r="C287" t="n">
         <v>120.578835</v>
@@ -6571,7 +6571,7 @@
         <v>102.301949</v>
       </c>
       <c r="C288" t="n">
-        <v>121.781425</v>
+        <v>121.781418</v>
       </c>
     </row>
     <row r="289">
@@ -6579,10 +6579,10 @@
         <v>290</v>
       </c>
       <c r="B289" t="n">
-        <v>102.220367</v>
+        <v>102.22036</v>
       </c>
       <c r="C289" t="n">
-        <v>119.77713</v>
+        <v>119.777115</v>
       </c>
     </row>
     <row r="290">
@@ -6590,7 +6590,7 @@
         <v>291</v>
       </c>
       <c r="B290" t="n">
-        <v>106.054649</v>
+        <v>106.054642</v>
       </c>
       <c r="C290" t="n">
         <v>127.393478</v>
@@ -6626,7 +6626,7 @@
         <v>105.687538</v>
       </c>
       <c r="C293" t="n">
-        <v>122.422821</v>
+        <v>122.422806</v>
       </c>
     </row>
     <row r="294">
@@ -6634,7 +6634,7 @@
         <v>295</v>
       </c>
       <c r="B294" t="n">
-        <v>104.83094</v>
+        <v>104.830948</v>
       </c>
       <c r="C294" t="n">
         <v>121.059883</v>
@@ -6645,10 +6645,10 @@
         <v>296</v>
       </c>
       <c r="B295" t="n">
-        <v>105.442795</v>
+        <v>105.442787</v>
       </c>
       <c r="C295" t="n">
-        <v>119.616776</v>
+        <v>119.616791</v>
       </c>
     </row>
     <row r="296">
@@ -6656,7 +6656,7 @@
         <v>297</v>
       </c>
       <c r="B296" t="n">
-        <v>104.137512</v>
+        <v>104.137505</v>
       </c>
       <c r="C296" t="n">
         <v>117.69265</v>
@@ -6667,10 +6667,10 @@
         <v>298</v>
       </c>
       <c r="B297" t="n">
-        <v>103.036171</v>
+        <v>103.036163</v>
       </c>
       <c r="C297" t="n">
-        <v>116.570236</v>
+        <v>116.570221</v>
       </c>
     </row>
     <row r="298">
@@ -6678,7 +6678,7 @@
         <v>299</v>
       </c>
       <c r="B298" t="n">
-        <v>103.892769</v>
+        <v>103.892761</v>
       </c>
       <c r="C298" t="n">
         <v>115.768517</v>
@@ -6692,7 +6692,7 @@
         <v>104.463829</v>
       </c>
       <c r="C299" t="n">
-        <v>117.933174</v>
+        <v>117.933182</v>
       </c>
     </row>
     <row r="300">
@@ -6700,7 +6700,7 @@
         <v>301</v>
       </c>
       <c r="B300" t="n">
-        <v>105.361206</v>
+        <v>105.361214</v>
       </c>
       <c r="C300" t="n">
         <v>118.013336</v>
@@ -6722,7 +6722,7 @@
         <v>303</v>
       </c>
       <c r="B302" t="n">
-        <v>108.706017</v>
+        <v>108.706009</v>
       </c>
       <c r="C302" t="n">
         <v>120.258163</v>
@@ -6769,7 +6769,7 @@
         <v>108.000374</v>
       </c>
       <c r="C306" t="n">
-        <v>120.899529</v>
+        <v>120.899544</v>
       </c>
     </row>
     <row r="307">
@@ -6799,7 +6799,7 @@
         <v>310</v>
       </c>
       <c r="B309" t="n">
-        <v>105.03907</v>
+        <v>105.039078</v>
       </c>
       <c r="C309" t="n">
         <v>114.540001</v>
@@ -6810,7 +6810,7 @@
         <v>311</v>
       </c>
       <c r="B310" t="n">
-        <v>105.474564</v>
+        <v>105.474556</v>
       </c>
       <c r="C310" t="n">
         <v>116.762421</v>
@@ -6821,7 +6821,7 @@
         <v>312</v>
       </c>
       <c r="B311" t="n">
-        <v>101.685837</v>
+        <v>101.685844</v>
       </c>
       <c r="C311" t="n">
         <v>117.104317</v>
@@ -6846,7 +6846,7 @@
         <v>106.066818</v>
       </c>
       <c r="C313" t="n">
-        <v>121.12178</v>
+        <v>121.121765</v>
       </c>
     </row>
     <row r="314">
@@ -6920,7 +6920,7 @@
         <v>321</v>
       </c>
       <c r="B320" t="n">
-        <v>105.95359</v>
+        <v>105.953598</v>
       </c>
       <c r="C320" t="n">
         <v>120.352478</v>
@@ -6931,10 +6931,10 @@
         <v>322</v>
       </c>
       <c r="B321" t="n">
-        <v>108.13102</v>
+        <v>108.131027</v>
       </c>
       <c r="C321" t="n">
-        <v>122.232979</v>
+        <v>122.232994</v>
       </c>
     </row>
     <row r="322">
@@ -6945,7 +6945,7 @@
         <v>110.613289</v>
       </c>
       <c r="C322" t="n">
-        <v>123.515144</v>
+        <v>123.51516</v>
       </c>
     </row>
     <row r="323">
@@ -6978,7 +6978,7 @@
         <v>112.268127</v>
       </c>
       <c r="C325" t="n">
-        <v>124.968269</v>
+        <v>124.968254</v>
       </c>
     </row>
     <row r="326">
@@ -6989,7 +6989,7 @@
         <v>110.87458</v>
       </c>
       <c r="C326" t="n">
-        <v>123.429657</v>
+        <v>123.429672</v>
       </c>
     </row>
     <row r="327">
@@ -7030,7 +7030,7 @@
         <v>331</v>
       </c>
       <c r="B330" t="n">
-        <v>113.705231</v>
+        <v>113.705238</v>
       </c>
       <c r="C330" t="n">
         <v>123.942535</v>
@@ -7041,7 +7041,7 @@
         <v>332</v>
       </c>
       <c r="B331" t="n">
-        <v>102.818108</v>
+        <v>102.8181</v>
       </c>
       <c r="C331" t="n">
         <v>122.831322</v>
@@ -7063,7 +7063,7 @@
         <v>334</v>
       </c>
       <c r="B333" t="n">
-        <v>102.382614</v>
+        <v>102.382622</v>
       </c>
       <c r="C333" t="n">
         <v>109.325867</v>
@@ -7085,7 +7085,7 @@
         <v>336</v>
       </c>
       <c r="B335" t="n">
-        <v>100.510025</v>
+        <v>100.510033</v>
       </c>
       <c r="C335" t="n">
         <v>107.787262</v>
@@ -7140,7 +7140,7 @@
         <v>341</v>
       </c>
       <c r="B340" t="n">
-        <v>96.068085</v>
+        <v>96.068077</v>
       </c>
       <c r="C340" t="n">
         <v>106.590576</v>
@@ -7151,7 +7151,7 @@
         <v>342</v>
       </c>
       <c r="B341" t="n">
-        <v>93.890648</v>
+        <v>93.890656</v>
       </c>
       <c r="C341" t="n">
         <v>106.847015</v>
@@ -7184,7 +7184,7 @@
         <v>345</v>
       </c>
       <c r="B344" t="n">
-        <v>96.416466</v>
+        <v>96.416458</v>
       </c>
       <c r="C344" t="n">
         <v>106.676064</v>
@@ -7206,10 +7206,10 @@
         <v>347</v>
       </c>
       <c r="B346" t="n">
-        <v>96.764854</v>
+        <v>96.764847</v>
       </c>
       <c r="C346" t="n">
-        <v>105.906761</v>
+        <v>105.906769</v>
       </c>
     </row>
     <row r="347">
@@ -7220,7 +7220,7 @@
         <v>96.28582</v>
       </c>
       <c r="C347" t="n">
-        <v>106.334145</v>
+        <v>106.334152</v>
       </c>
     </row>
     <row r="348">
@@ -7250,7 +7250,7 @@
         <v>351</v>
       </c>
       <c r="B350" t="n">
-        <v>97.984215</v>
+        <v>97.984207</v>
       </c>
       <c r="C350" t="n">
         <v>107.359879</v>
@@ -7272,7 +7272,7 @@
         <v>353</v>
       </c>
       <c r="B352" t="n">
-        <v>95.458389</v>
+        <v>95.458397</v>
       </c>
       <c r="C352" t="n">
         <v>107.359879</v>
@@ -7294,10 +7294,10 @@
         <v>355</v>
       </c>
       <c r="B354" t="n">
-        <v>94.674522</v>
+        <v>94.674515</v>
       </c>
       <c r="C354" t="n">
-        <v>107.61631</v>
+        <v>107.616318</v>
       </c>
     </row>
     <row r="355">
@@ -7305,7 +7305,7 @@
         <v>356</v>
       </c>
       <c r="B355" t="n">
-        <v>95.589043</v>
+        <v>95.589035</v>
       </c>
       <c r="C355" t="n">
         <v>108.813004</v>
@@ -7316,7 +7316,7 @@
         <v>357</v>
       </c>
       <c r="B356" t="n">
-        <v>96.851944</v>
+        <v>96.851952</v>
       </c>
       <c r="C356" t="n">
         <v>110.266121</v>
@@ -7330,7 +7330,7 @@
         <v>96.939049</v>
       </c>
       <c r="C357" t="n">
-        <v>111.120888</v>
+        <v>111.120895</v>
       </c>
     </row>
     <row r="358">
@@ -7341,7 +7341,7 @@
         <v>97.374535</v>
       </c>
       <c r="C358" t="n">
-        <v>111.97567</v>
+        <v>111.975677</v>
       </c>
     </row>
     <row r="359">
@@ -7349,7 +7349,7 @@
         <v>360</v>
       </c>
       <c r="B359" t="n">
-        <v>95.458389</v>
+        <v>95.458397</v>
       </c>
       <c r="C359" t="n">
         <v>111.377327</v>
@@ -7374,7 +7374,7 @@
         <v>90.929352</v>
       </c>
       <c r="C361" t="n">
-        <v>110.864464</v>
+        <v>110.864456</v>
       </c>
     </row>
     <row r="362">
@@ -7382,7 +7382,7 @@
         <v>363</v>
       </c>
       <c r="B362" t="n">
-        <v>91.800316</v>
+        <v>91.800323</v>
       </c>
       <c r="C362" t="n">
         <v>113.172348</v>
@@ -7396,7 +7396,7 @@
         <v>90.189026</v>
       </c>
       <c r="C363" t="n">
-        <v>109.66777</v>
+        <v>109.667778</v>
       </c>
     </row>
     <row r="364">
@@ -7407,7 +7407,7 @@
         <v>90.493866</v>
       </c>
       <c r="C364" t="n">
-        <v>108.727524</v>
+        <v>108.727516</v>
       </c>
     </row>
     <row r="365">
@@ -7415,7 +7415,7 @@
         <v>366</v>
       </c>
       <c r="B365" t="n">
-        <v>87.706749</v>
+        <v>87.706757</v>
       </c>
       <c r="C365" t="n">
         <v>107.274406</v>
@@ -7440,7 +7440,7 @@
         <v>87.750305</v>
       </c>
       <c r="C367" t="n">
-        <v>105.222946</v>
+        <v>105.222939</v>
       </c>
     </row>
     <row r="368">
@@ -7448,7 +7448,7 @@
         <v>369</v>
       </c>
       <c r="B368" t="n">
-        <v>89.535797</v>
+        <v>89.535805</v>
       </c>
       <c r="C368" t="n">
         <v>106.676064</v>
@@ -7459,7 +7459,7 @@
         <v>370</v>
       </c>
       <c r="B369" t="n">
-        <v>90.36322</v>
+        <v>90.363213</v>
       </c>
       <c r="C369" t="n">
         <v>106.932487</v>
@@ -7470,7 +7470,7 @@
         <v>371</v>
       </c>
       <c r="B370" t="n">
-        <v>91.234192</v>
+        <v>91.234184</v>
       </c>
       <c r="C370" t="n">
         <v>108.813004</v>
@@ -7503,7 +7503,7 @@
         <v>374</v>
       </c>
       <c r="B373" t="n">
-        <v>91.234192</v>
+        <v>91.234184</v>
       </c>
       <c r="C373" t="n">
         <v>110.180641</v>
@@ -7525,7 +7525,7 @@
         <v>376</v>
       </c>
       <c r="B375" t="n">
-        <v>90.75515</v>
+        <v>90.755157</v>
       </c>
       <c r="C375" t="n">
         <v>109.411346</v>
@@ -7558,7 +7558,7 @@
         <v>379</v>
       </c>
       <c r="B378" t="n">
-        <v>89.492249</v>
+        <v>89.492241</v>
       </c>
       <c r="C378" t="n">
         <v>105.393898</v>
@@ -7572,7 +7572,7 @@
         <v>90.232574</v>
       </c>
       <c r="C379" t="n">
-        <v>106.505104</v>
+        <v>106.505096</v>
       </c>
     </row>
     <row r="380">
@@ -7580,7 +7580,7 @@
         <v>381</v>
       </c>
       <c r="B380" t="n">
-        <v>90.66806</v>
+        <v>90.668053</v>
       </c>
       <c r="C380" t="n">
         <v>104.624596</v>
@@ -7594,7 +7594,7 @@
         <v>91.495483</v>
       </c>
       <c r="C381" t="n">
-        <v>105.222946</v>
+        <v>105.222939</v>
       </c>
     </row>
     <row r="382">
@@ -7613,7 +7613,7 @@
         <v>384</v>
       </c>
       <c r="B383" t="n">
-        <v>89.361595</v>
+        <v>89.361603</v>
       </c>
       <c r="C383" t="n">
         <v>102.145744</v>
@@ -7627,7 +7627,7 @@
         <v>89.274506</v>
       </c>
       <c r="C384" t="n">
-        <v>101.205498</v>
+        <v>101.20549</v>
       </c>
     </row>
     <row r="385">
@@ -7638,7 +7638,7 @@
         <v>88.53418</v>
       </c>
       <c r="C385" t="n">
-        <v>101.632889</v>
+        <v>101.632881</v>
       </c>
     </row>
     <row r="386">
@@ -7657,7 +7657,7 @@
         <v>388</v>
       </c>
       <c r="B387" t="n">
-        <v>89.709984</v>
+        <v>89.709991</v>
       </c>
       <c r="C387" t="n">
         <v>103.684349</v>
@@ -7668,7 +7668,7 @@
         <v>389</v>
       </c>
       <c r="B388" t="n">
-        <v>90.66806</v>
+        <v>90.668053</v>
       </c>
       <c r="C388" t="n">
         <v>104.197212</v>
@@ -7690,7 +7690,7 @@
         <v>391</v>
       </c>
       <c r="B390" t="n">
-        <v>89.14386</v>
+        <v>89.143852</v>
       </c>
       <c r="C390" t="n">
         <v>103.684349</v>
@@ -7701,10 +7701,10 @@
         <v>392</v>
       </c>
       <c r="B391" t="n">
-        <v>87.044823</v>
+        <v>87.044815</v>
       </c>
       <c r="C391" t="n">
-        <v>101.632889</v>
+        <v>101.632881</v>
       </c>
     </row>
     <row r="392">
@@ -7715,7 +7715,7 @@
         <v>87.314819</v>
       </c>
       <c r="C392" t="n">
-        <v>100.350716</v>
+        <v>100.350708</v>
       </c>
     </row>
     <row r="393">
@@ -7734,10 +7734,10 @@
         <v>395</v>
       </c>
       <c r="B394" t="n">
-        <v>85.564163</v>
+        <v>85.564171</v>
       </c>
       <c r="C394" t="n">
-        <v>99.154037</v>
+        <v>99.15403</v>
       </c>
     </row>
     <row r="395">
@@ -7745,10 +7745,10 @@
         <v>396</v>
       </c>
       <c r="B395" t="n">
-        <v>84.066093</v>
+        <v>84.066101</v>
       </c>
       <c r="C395" t="n">
-        <v>98.042816</v>
+        <v>98.042824</v>
       </c>
     </row>
     <row r="396">
@@ -7756,7 +7756,7 @@
         <v>397</v>
       </c>
       <c r="B396" t="n">
-        <v>83.839645</v>
+        <v>83.839653</v>
       </c>
       <c r="C396" t="n">
         <v>99.923325</v>
@@ -7770,7 +7770,7 @@
         <v>83.508675</v>
       </c>
       <c r="C397" t="n">
-        <v>98.726646</v>
+        <v>98.726639</v>
       </c>
     </row>
     <row r="398">
@@ -7778,10 +7778,10 @@
         <v>399</v>
       </c>
       <c r="B398" t="n">
-        <v>83.857071</v>
+        <v>83.857063</v>
       </c>
       <c r="C398" t="n">
-        <v>98.641167</v>
+        <v>98.641159</v>
       </c>
     </row>
     <row r="399">
@@ -7789,7 +7789,7 @@
         <v>400</v>
       </c>
       <c r="B399" t="n">
-        <v>82.672539</v>
+        <v>82.672546</v>
       </c>
       <c r="C399" t="n">
         <v>98.128304</v>
@@ -7814,7 +7814,7 @@
         <v>81.505447</v>
       </c>
       <c r="C401" t="n">
-        <v>95.56398</v>
+        <v>95.563972</v>
       </c>
     </row>
     <row r="402">
@@ -7822,10 +7822,10 @@
         <v>403</v>
       </c>
       <c r="B402" t="n">
-        <v>77.516403</v>
+        <v>77.516396</v>
       </c>
       <c r="C402" t="n">
-        <v>92.230347</v>
+        <v>92.230339</v>
       </c>
     </row>
     <row r="403">
@@ -7836,7 +7836,7 @@
         <v>76.749947</v>
       </c>
       <c r="C403" t="n">
-        <v>91.461037</v>
+        <v>91.461044</v>
       </c>
     </row>
     <row r="404">
@@ -7844,10 +7844,10 @@
         <v>405</v>
       </c>
       <c r="B404" t="n">
-        <v>79.362854</v>
+        <v>79.362862</v>
       </c>
       <c r="C404" t="n">
-        <v>94.709198</v>
+        <v>94.70919</v>
       </c>
     </row>
     <row r="405">
@@ -7866,7 +7866,7 @@
         <v>407</v>
       </c>
       <c r="B406" t="n">
-        <v>77.88221</v>
+        <v>77.882202</v>
       </c>
       <c r="C406" t="n">
         <v>93.597984</v>
@@ -7877,10 +7877,10 @@
         <v>408</v>
       </c>
       <c r="B407" t="n">
-        <v>77.516403</v>
+        <v>77.516396</v>
       </c>
       <c r="C407" t="n">
-        <v>92.657738</v>
+        <v>92.65773</v>
       </c>
     </row>
     <row r="408">
@@ -7888,7 +7888,7 @@
         <v>409</v>
       </c>
       <c r="B408" t="n">
-        <v>78.561562</v>
+        <v>78.561554</v>
       </c>
       <c r="C408" t="n">
         <v>94.88015</v>
@@ -7899,7 +7899,7 @@
         <v>410</v>
       </c>
       <c r="B409" t="n">
-        <v>77.673172</v>
+        <v>77.67318</v>
       </c>
       <c r="C409" t="n">
         <v>94.88015</v>
@@ -7910,7 +7910,7 @@
         <v>411</v>
       </c>
       <c r="B410" t="n">
-        <v>76.418976</v>
+        <v>76.418968</v>
       </c>
       <c r="C410" t="n">
         <v>93.256073</v>
@@ -7943,7 +7943,7 @@
         <v>414</v>
       </c>
       <c r="B413" t="n">
-        <v>76.593178</v>
+        <v>76.59317</v>
       </c>
       <c r="C413" t="n">
         <v>80.348953</v>
@@ -8001,7 +8001,7 @@
         <v>78.875107</v>
       </c>
       <c r="C418" t="n">
-        <v>82.998764</v>
+        <v>82.998756</v>
       </c>
     </row>
     <row r="419">
@@ -8031,7 +8031,7 @@
         <v>422</v>
       </c>
       <c r="B421" t="n">
-        <v>88.055138</v>
+        <v>88.055145</v>
       </c>
       <c r="C421" t="n">
         <v>88.554802</v>
@@ -8053,10 +8053,10 @@
         <v>424</v>
       </c>
       <c r="B423" t="n">
-        <v>88.011597</v>
+        <v>88.011604</v>
       </c>
       <c r="C423" t="n">
-        <v>87.870979</v>
+        <v>87.870987</v>
       </c>
     </row>
     <row r="424">
@@ -8078,7 +8078,7 @@
         <v>88.22934</v>
       </c>
       <c r="C425" t="n">
-        <v>88.640282</v>
+        <v>88.640274</v>
       </c>
     </row>
     <row r="426">
@@ -8097,7 +8097,7 @@
         <v>428</v>
       </c>
       <c r="B427" t="n">
-        <v>83.247383</v>
+        <v>83.247391</v>
       </c>
       <c r="C427" t="n">
         <v>87.529076</v>
@@ -8108,10 +8108,10 @@
         <v>429</v>
       </c>
       <c r="B428" t="n">
-        <v>84.414482</v>
+        <v>84.41449</v>
       </c>
       <c r="C428" t="n">
-        <v>89.495064</v>
+        <v>89.495056</v>
       </c>
     </row>
     <row r="429">
@@ -8119,7 +8119,7 @@
         <v>430</v>
       </c>
       <c r="B429" t="n">
-        <v>85.355133</v>
+        <v>85.355141</v>
       </c>
       <c r="C429" t="n">
         <v>99.495941</v>
@@ -8130,7 +8130,7 @@
         <v>431</v>
       </c>
       <c r="B430" t="n">
-        <v>83.61319</v>
+        <v>83.613197</v>
       </c>
       <c r="C430" t="n">
         <v>101.461922</v>
@@ -8166,7 +8166,7 @@
         <v>82.289322</v>
       </c>
       <c r="C433" t="n">
-        <v>108.38562</v>
+        <v>108.385612</v>
       </c>
     </row>
     <row r="434">
@@ -8174,7 +8174,7 @@
         <v>435</v>
       </c>
       <c r="B434" t="n">
-        <v>83.386742</v>
+        <v>83.386734</v>
       </c>
       <c r="C434" t="n">
         <v>104.881027</v>
@@ -8196,7 +8196,7 @@
         <v>437</v>
       </c>
       <c r="B436" t="n">
-        <v>82.742226</v>
+        <v>82.742218</v>
       </c>
       <c r="C436" t="n">
         <v>102.402184</v>
@@ -8232,7 +8232,7 @@
         <v>79.989952</v>
       </c>
       <c r="C439" t="n">
-        <v>99.154037</v>
+        <v>99.15403</v>
       </c>
     </row>
     <row r="440">
@@ -8254,7 +8254,7 @@
         <v>80.059631</v>
       </c>
       <c r="C441" t="n">
-        <v>102.658615</v>
+        <v>102.658607</v>
       </c>
     </row>
     <row r="442">
@@ -8273,7 +8273,7 @@
         <v>444</v>
       </c>
       <c r="B443" t="n">
-        <v>80.164146</v>
+        <v>80.164154</v>
       </c>
       <c r="C443" t="n">
         <v>100.521667</v>
@@ -8284,7 +8284,7 @@
         <v>445</v>
       </c>
       <c r="B444" t="n">
-        <v>82.881577</v>
+        <v>82.881584</v>
       </c>
       <c r="C444" t="n">
         <v>102.145744</v>
@@ -8295,10 +8295,10 @@
         <v>446</v>
       </c>
       <c r="B445" t="n">
-        <v>83.595772</v>
+        <v>83.595779</v>
       </c>
       <c r="C445" t="n">
-        <v>104.795555</v>
+        <v>104.795547</v>
       </c>
     </row>
     <row r="446">
@@ -8339,7 +8339,7 @@
         <v>450</v>
       </c>
       <c r="B449" t="n">
-        <v>83.82222</v>
+        <v>83.822227</v>
       </c>
       <c r="C449" t="n">
         <v>110.266121</v>
@@ -8350,10 +8350,10 @@
         <v>451</v>
       </c>
       <c r="B450" t="n">
-        <v>85.877716</v>
+        <v>85.877724</v>
       </c>
       <c r="C450" t="n">
-        <v>112.6595</v>
+        <v>112.659492</v>
       </c>
     </row>
     <row r="451">
@@ -8361,7 +8361,7 @@
         <v>452</v>
       </c>
       <c r="B451" t="n">
-        <v>85.877716</v>
+        <v>85.877724</v>
       </c>
       <c r="C451" t="n">
         <v>113.257835</v>
@@ -8394,7 +8394,7 @@
         <v>455</v>
       </c>
       <c r="B454" t="n">
-        <v>85.877716</v>
+        <v>85.877724</v>
       </c>
       <c r="C454" t="n">
         <v>116.078598</v>
@@ -8419,7 +8419,7 @@
         <v>84.867393</v>
       </c>
       <c r="C456" t="n">
-        <v>115.736687</v>
+        <v>115.736671</v>
       </c>
     </row>
     <row r="457">
@@ -8438,7 +8438,7 @@
         <v>459</v>
       </c>
       <c r="B458" t="n">
-        <v>83.247383</v>
+        <v>83.247391</v>
       </c>
       <c r="C458" t="n">
         <v>112.317574</v>
@@ -8482,7 +8482,7 @@
         <v>463</v>
       </c>
       <c r="B462" t="n">
-        <v>81.766739</v>
+        <v>81.766731</v>
       </c>
       <c r="C462" t="n">
         <v>115.651207</v>
@@ -8493,7 +8493,7 @@
         <v>464</v>
       </c>
       <c r="B463" t="n">
-        <v>83.630615</v>
+        <v>83.630608</v>
       </c>
       <c r="C463" t="n">
         <v>116.33503</v>
@@ -8507,7 +8507,7 @@
         <v>83.369324</v>
       </c>
       <c r="C464" t="n">
-        <v>115.993118</v>
+        <v>115.993111</v>
       </c>
     </row>
     <row r="465">
@@ -8526,7 +8526,7 @@
         <v>467</v>
       </c>
       <c r="B466" t="n">
-        <v>82.306732</v>
+        <v>82.30674</v>
       </c>
       <c r="C466" t="n">
         <v>116.93338</v>
@@ -8537,10 +8537,10 @@
         <v>468</v>
       </c>
       <c r="B467" t="n">
-        <v>80.442856</v>
+        <v>80.442863</v>
       </c>
       <c r="C467" t="n">
-        <v>113.514275</v>
+        <v>113.514267</v>
       </c>
     </row>
     <row r="468">
@@ -8570,7 +8570,7 @@
         <v>471</v>
       </c>
       <c r="B470" t="n">
-        <v>79.240921</v>
+        <v>79.240929</v>
       </c>
       <c r="C470" t="n">
         <v>110.949944</v>
@@ -8581,10 +8581,10 @@
         <v>472</v>
       </c>
       <c r="B471" t="n">
-        <v>79.362854</v>
+        <v>79.362862</v>
       </c>
       <c r="C471" t="n">
-        <v>110.864464</v>
+        <v>110.864456</v>
       </c>
     </row>
     <row r="472">
@@ -8606,7 +8606,7 @@
         <v>78.735756</v>
       </c>
       <c r="C473" t="n">
-        <v>108.727524</v>
+        <v>108.727516</v>
       </c>
     </row>
     <row r="474">
@@ -8639,7 +8639,7 @@
         <v>79.275757</v>
       </c>
       <c r="C476" t="n">
-        <v>108.727524</v>
+        <v>108.727516</v>
       </c>
     </row>
     <row r="477">
@@ -8669,10 +8669,10 @@
         <v>480</v>
       </c>
       <c r="B479" t="n">
-        <v>79.746086</v>
+        <v>79.746078</v>
       </c>
       <c r="C479" t="n">
-        <v>109.154915</v>
+        <v>109.154907</v>
       </c>
     </row>
     <row r="480">
@@ -8694,7 +8694,7 @@
         <v>79.223503</v>
       </c>
       <c r="C481" t="n">
-        <v>105.47937</v>
+        <v>105.479378</v>
       </c>
     </row>
     <row r="482">
@@ -8702,7 +8702,7 @@
         <v>483</v>
       </c>
       <c r="B482" t="n">
-        <v>79.780922</v>
+        <v>79.780914</v>
       </c>
       <c r="C482" t="n">
         <v>108.983955</v>
@@ -8713,7 +8713,7 @@
         <v>484</v>
       </c>
       <c r="B483" t="n">
-        <v>82.463516</v>
+        <v>82.463509</v>
       </c>
       <c r="C483" t="n">
         <v>110.949944</v>
@@ -8749,7 +8749,7 @@
         <v>84.170616</v>
       </c>
       <c r="C486" t="n">
-        <v>113.343315</v>
+        <v>113.343323</v>
       </c>
     </row>
     <row r="487">
@@ -8771,7 +8771,7 @@
         <v>87.271271</v>
       </c>
       <c r="C488" t="n">
-        <v>113.94165</v>
+        <v>113.941658</v>
       </c>
     </row>
     <row r="489">
@@ -8793,7 +8793,7 @@
         <v>92.671295</v>
       </c>
       <c r="C490" t="n">
-        <v>112.488548</v>
+        <v>112.488541</v>
       </c>
     </row>
     <row r="491">
@@ -8801,7 +8801,7 @@
         <v>492</v>
       </c>
       <c r="B491" t="n">
-        <v>94.108391</v>
+        <v>94.108398</v>
       </c>
       <c r="C491" t="n">
         <v>117.104317</v>
@@ -8812,7 +8812,7 @@
         <v>493</v>
       </c>
       <c r="B492" t="n">
-        <v>93.193871</v>
+        <v>93.193878</v>
       </c>
       <c r="C492" t="n">
         <v>118.215546</v>
@@ -8845,10 +8845,10 @@
         <v>496</v>
       </c>
       <c r="B495" t="n">
-        <v>93.193871</v>
+        <v>93.193878</v>
       </c>
       <c r="C495" t="n">
-        <v>118.899353</v>
+        <v>118.899368</v>
       </c>
     </row>
     <row r="496">
@@ -8867,10 +8867,10 @@
         <v>498</v>
       </c>
       <c r="B497" t="n">
-        <v>93.890648</v>
+        <v>93.890656</v>
       </c>
       <c r="C497" t="n">
-        <v>119.497704</v>
+        <v>119.497711</v>
       </c>
     </row>
     <row r="498">
@@ -8878,7 +8878,7 @@
         <v>499</v>
       </c>
       <c r="B498" t="n">
-        <v>96.111626</v>
+        <v>96.111618</v>
       </c>
       <c r="C498" t="n">
         <v>121.976547</v>
@@ -8889,7 +8889,7 @@
         <v>500</v>
       </c>
       <c r="B499" t="n">
-        <v>93.977753</v>
+        <v>93.977745</v>
       </c>
       <c r="C499" t="n">
         <v>121.463692</v>
@@ -8914,7 +8914,7 @@
         <v>93.847099</v>
       </c>
       <c r="C501" t="n">
-        <v>120.694389</v>
+        <v>120.694374</v>
       </c>
     </row>
     <row r="502">
@@ -8933,7 +8933,7 @@
         <v>504</v>
       </c>
       <c r="B503" t="n">
-        <v>96.068085</v>
+        <v>96.068077</v>
       </c>
       <c r="C503" t="n">
         <v>124.369926</v>
@@ -8944,7 +8944,7 @@
         <v>505</v>
       </c>
       <c r="B504" t="n">
-        <v>94.97937</v>
+        <v>94.979362</v>
       </c>
       <c r="C504" t="n">
         <v>121.976547</v>
@@ -8966,10 +8966,10 @@
         <v>507</v>
       </c>
       <c r="B506" t="n">
-        <v>94.06485</v>
+        <v>94.064842</v>
       </c>
       <c r="C506" t="n">
-        <v>123.686104</v>
+        <v>123.686089</v>
       </c>
     </row>
     <row r="507">
@@ -8988,10 +8988,10 @@
         <v>509</v>
       </c>
       <c r="B508" t="n">
-        <v>94.674522</v>
+        <v>94.674515</v>
       </c>
       <c r="C508" t="n">
-        <v>123.600639</v>
+        <v>123.600624</v>
       </c>
     </row>
     <row r="509">
@@ -9010,10 +9010,10 @@
         <v>511</v>
       </c>
       <c r="B510" t="n">
-        <v>95.632591</v>
+        <v>95.632599</v>
       </c>
       <c r="C510" t="n">
-        <v>127.361641</v>
+        <v>127.361649</v>
       </c>
     </row>
     <row r="511">
@@ -9035,7 +9035,7 @@
         <v>96.721306</v>
       </c>
       <c r="C512" t="n">
-        <v>127.703552</v>
+        <v>127.703537</v>
       </c>
     </row>
     <row r="513">
@@ -9046,7 +9046,7 @@
         <v>94.848717</v>
       </c>
       <c r="C513" t="n">
-        <v>126.93425</v>
+        <v>126.934265</v>
       </c>
     </row>
     <row r="514">
@@ -9054,7 +9054,7 @@
         <v>515</v>
       </c>
       <c r="B514" t="n">
-        <v>95.458389</v>
+        <v>95.458397</v>
       </c>
       <c r="C514" t="n">
         <v>125.993988</v>
@@ -9068,7 +9068,7 @@
         <v>92.453545</v>
       </c>
       <c r="C515" t="n">
-        <v>123.087761</v>
+        <v>123.087769</v>
       </c>
     </row>
     <row r="516">
@@ -9087,7 +9087,7 @@
         <v>518</v>
       </c>
       <c r="B517" t="n">
-        <v>95.893883</v>
+        <v>95.893875</v>
       </c>
       <c r="C517" t="n">
         <v>125.993988</v>
@@ -9098,10 +9098,10 @@
         <v>519</v>
       </c>
       <c r="B518" t="n">
-        <v>94.674522</v>
+        <v>94.674515</v>
       </c>
       <c r="C518" t="n">
-        <v>124.198982</v>
+        <v>124.198967</v>
       </c>
     </row>
     <row r="519">
@@ -9112,7 +9112,7 @@
         <v>98.332603</v>
       </c>
       <c r="C519" t="n">
-        <v>125.481125</v>
+        <v>125.48114</v>
       </c>
     </row>
     <row r="520">
@@ -9120,7 +9120,7 @@
         <v>521</v>
       </c>
       <c r="B520" t="n">
-        <v>97.200333</v>
+        <v>97.20034</v>
       </c>
       <c r="C520" t="n">
         <v>125.652092</v>
@@ -9131,7 +9131,7 @@
         <v>522</v>
       </c>
       <c r="B521" t="n">
-        <v>99.943893</v>
+        <v>99.943901</v>
       </c>
       <c r="C521" t="n">
         <v>127.276161</v>
@@ -9142,7 +9142,7 @@
         <v>523</v>
       </c>
       <c r="B522" t="n">
-        <v>100.422935</v>
+        <v>100.422928</v>
       </c>
       <c r="C522" t="n">
         <v>128.472855</v>
@@ -9153,7 +9153,7 @@
         <v>524</v>
       </c>
       <c r="B523" t="n">
-        <v>102.164879</v>
+        <v>102.164871</v>
       </c>
       <c r="C523" t="n">
         <v>131.293625</v>
@@ -9164,7 +9164,7 @@
         <v>525</v>
       </c>
       <c r="B524" t="n">
-        <v>102.51326</v>
+        <v>102.513252</v>
       </c>
       <c r="C524" t="n">
         <v>130.438843</v>
@@ -9186,10 +9186,10 @@
         <v>527</v>
       </c>
       <c r="B526" t="n">
-        <v>105.822952</v>
+        <v>105.822945</v>
       </c>
       <c r="C526" t="n">
-        <v>133.516022</v>
+        <v>133.516037</v>
       </c>
     </row>
     <row r="527">
@@ -9197,7 +9197,7 @@
         <v>528</v>
       </c>
       <c r="B527" t="n">
-        <v>107.608437</v>
+        <v>107.608444</v>
       </c>
       <c r="C527" t="n">
         <v>134.285324</v>
@@ -9208,7 +9208,7 @@
         <v>529</v>
       </c>
       <c r="B528" t="n">
-        <v>106.51973</v>
+        <v>106.519722</v>
       </c>
       <c r="C528" t="n">
         <v>134.19986</v>
@@ -9233,7 +9233,7 @@
         <v>104.951973</v>
       </c>
       <c r="C530" t="n">
-        <v>135.909409</v>
+        <v>135.909393</v>
       </c>
     </row>
     <row r="531">
@@ -9263,10 +9263,10 @@
         <v>534</v>
       </c>
       <c r="B533" t="n">
-        <v>106.476181</v>
+        <v>106.476173</v>
       </c>
       <c r="C533" t="n">
-        <v>138.473724</v>
+        <v>138.47374</v>
       </c>
     </row>
     <row r="534">
@@ -9299,7 +9299,7 @@
         <v>99.116478</v>
       </c>
       <c r="C536" t="n">
-        <v>130.951691</v>
+        <v>130.951706</v>
       </c>
     </row>
     <row r="537">
@@ -9340,7 +9340,7 @@
         <v>541</v>
       </c>
       <c r="B540" t="n">
-        <v>91.582581</v>
+        <v>91.582573</v>
       </c>
       <c r="C540" t="n">
         <v>107.872742</v>
@@ -9351,7 +9351,7 @@
         <v>542</v>
       </c>
       <c r="B541" t="n">
-        <v>93.063232</v>
+        <v>93.063225</v>
       </c>
       <c r="C541" t="n">
         <v>109.838737</v>
@@ -9365,7 +9365,7 @@
         <v>93.237427</v>
       </c>
       <c r="C542" t="n">
-        <v>106.505104</v>
+        <v>106.505096</v>
       </c>
     </row>
     <row r="543">
@@ -9376,7 +9376,7 @@
         <v>91.147095</v>
       </c>
       <c r="C543" t="n">
-        <v>104.795555</v>
+        <v>104.795547</v>
       </c>
     </row>
     <row r="544">
@@ -9406,7 +9406,7 @@
         <v>547</v>
       </c>
       <c r="B546" t="n">
-        <v>77.289948</v>
+        <v>77.28994</v>
       </c>
       <c r="C546" t="n">
         <v>93.854416</v>
@@ -9420,7 +9420,7 @@
         <v>74.48542</v>
       </c>
       <c r="C547" t="n">
-        <v>92.486763</v>
+        <v>92.486771</v>
       </c>
     </row>
     <row r="548">
@@ -9428,10 +9428,10 @@
         <v>549</v>
       </c>
       <c r="B548" t="n">
-        <v>67.726685</v>
+        <v>67.726692</v>
       </c>
       <c r="C548" t="n">
-        <v>82.272202</v>
+        <v>82.272194</v>
       </c>
     </row>
     <row r="549">
@@ -9442,7 +9442,7 @@
         <v>67.761528</v>
       </c>
       <c r="C549" t="n">
-        <v>83.682579</v>
+        <v>83.682587</v>
       </c>
     </row>
     <row r="550">
@@ -9464,7 +9464,7 @@
         <v>64.62603</v>
       </c>
       <c r="C551" t="n">
-        <v>80.220741</v>
+        <v>80.220734</v>
       </c>
     </row>
     <row r="552">
@@ -9475,7 +9475,7 @@
         <v>71.60997</v>
       </c>
       <c r="C552" t="n">
-        <v>77.399979</v>
+        <v>77.399986</v>
       </c>
     </row>
     <row r="553">
@@ -9574,7 +9574,7 @@
         <v>75.642952</v>
       </c>
       <c r="C561" t="n">
-        <v>91.515846</v>
+        <v>91.515839</v>
       </c>
     </row>
     <row r="562">
@@ -9607,7 +9607,7 @@
         <v>71.078796</v>
       </c>
       <c r="C564" t="n">
-        <v>88.706566</v>
+        <v>88.706573</v>
       </c>
     </row>
     <row r="565">
@@ -9618,7 +9618,7 @@
         <v>72.141136</v>
       </c>
       <c r="C565" t="n">
-        <v>88.37326</v>
+        <v>88.373268</v>
       </c>
     </row>
     <row r="566">
@@ -9684,7 +9684,7 @@
         <v>72.318199</v>
       </c>
       <c r="C571" t="n">
-        <v>89.373177</v>
+        <v>89.373169</v>
       </c>
     </row>
     <row r="572">
@@ -9695,7 +9695,7 @@
         <v>71.82637</v>
       </c>
       <c r="C572" t="n">
-        <v>90.992081</v>
+        <v>90.992088</v>
       </c>
     </row>
     <row r="573">
@@ -9728,7 +9728,7 @@
         <v>72.455917</v>
       </c>
       <c r="C575" t="n">
-        <v>91.230156</v>
+        <v>91.230164</v>
       </c>
     </row>
     <row r="576">
@@ -9739,7 +9739,7 @@
         <v>70.134491</v>
       </c>
       <c r="C576" t="n">
-        <v>89.706482</v>
+        <v>89.706474</v>
       </c>
     </row>
     <row r="577">
@@ -9783,7 +9783,7 @@
         <v>79.479202</v>
       </c>
       <c r="C580" t="n">
-        <v>107.895378</v>
+        <v>107.89537</v>
       </c>
     </row>
     <row r="581">
@@ -9827,7 +9827,7 @@
         <v>74.226486</v>
       </c>
       <c r="C584" t="n">
-        <v>95.086967</v>
+        <v>95.08696</v>
       </c>
     </row>
     <row r="585">
@@ -9849,7 +9849,7 @@
         <v>74.619949</v>
       </c>
       <c r="C586" t="n">
-        <v>100.086525</v>
+        <v>100.086533</v>
       </c>
     </row>
     <row r="587">
@@ -9860,7 +9860,7 @@
         <v>74.167473</v>
       </c>
       <c r="C587" t="n">
-        <v>101.134056</v>
+        <v>101.134048</v>
       </c>
     </row>
     <row r="588">
@@ -9893,7 +9893,7 @@
         <v>70.803375</v>
       </c>
       <c r="C590" t="n">
-        <v>99.991295</v>
+        <v>99.991302</v>
       </c>
     </row>
     <row r="591">
@@ -9915,7 +9915,7 @@
         <v>73.400223</v>
       </c>
       <c r="C592" t="n">
-        <v>100.657906</v>
+        <v>100.657898</v>
       </c>
     </row>
     <row r="593">
@@ -9926,7 +9926,7 @@
         <v>75.564255</v>
       </c>
       <c r="C593" t="n">
-        <v>102.46727</v>
+        <v>102.467278</v>
       </c>
     </row>
     <row r="594">
@@ -9970,7 +9970,7 @@
         <v>83.748253</v>
       </c>
       <c r="C597" t="n">
-        <v>111.799797</v>
+        <v>111.799789</v>
       </c>
     </row>
     <row r="598">
@@ -9992,7 +9992,7 @@
         <v>86.128693</v>
       </c>
       <c r="C599" t="n">
-        <v>116.656517</v>
+        <v>116.656509</v>
       </c>
     </row>
     <row r="600">
@@ -10014,7 +10014,7 @@
         <v>89.256706</v>
       </c>
       <c r="C601" t="n">
-        <v>123.89399</v>
+        <v>123.893982</v>
       </c>
     </row>
     <row r="602">
@@ -10069,7 +10069,7 @@
         <v>86.42379</v>
       </c>
       <c r="C606" t="n">
-        <v>117.704048</v>
+        <v>117.704041</v>
       </c>
     </row>
     <row r="607">
@@ -10091,7 +10091,7 @@
         <v>87.663193</v>
       </c>
       <c r="C608" t="n">
-        <v>120.751404</v>
+        <v>120.751396</v>
       </c>
     </row>
     <row r="609">
@@ -10157,7 +10157,7 @@
         <v>87.466461</v>
       </c>
       <c r="C614" t="n">
-        <v>117.704048</v>
+        <v>117.704041</v>
       </c>
     </row>
     <row r="615">
@@ -10201,7 +10201,7 @@
         <v>86.836922</v>
       </c>
       <c r="C618" t="n">
-        <v>117.132668</v>
+        <v>117.13266</v>
       </c>
     </row>
     <row r="619">
@@ -10322,7 +10322,7 @@
         <v>100.185097</v>
       </c>
       <c r="C629" t="n">
-        <v>124.465363</v>
+        <v>124.465355</v>
       </c>
     </row>
     <row r="630">
@@ -10333,7 +10333,7 @@
         <v>100.185097</v>
       </c>
       <c r="C630" t="n">
-        <v>125.512894</v>
+        <v>125.512886</v>
       </c>
     </row>
     <row r="631">
@@ -10355,7 +10355,7 @@
         <v>104.267265</v>
       </c>
       <c r="C632" t="n">
-        <v>125.036743</v>
+        <v>125.036736</v>
       </c>
     </row>
     <row r="633">
@@ -10388,7 +10388,7 @@
         <v>103.72625</v>
       </c>
       <c r="C635" t="n">
-        <v>125.322441</v>
+        <v>125.322433</v>
       </c>
     </row>
     <row r="636">
@@ -10399,7 +10399,7 @@
         <v>104.218079</v>
       </c>
       <c r="C636" t="n">
-        <v>124.941505</v>
+        <v>124.941498</v>
       </c>
     </row>
     <row r="637">
@@ -10410,7 +10410,7 @@
         <v>102.250771</v>
       </c>
       <c r="C637" t="n">
-        <v>122.655991</v>
+        <v>122.655998</v>
       </c>
     </row>
     <row r="638">
@@ -10465,7 +10465,7 @@
         <v>101.168755</v>
       </c>
       <c r="C642" t="n">
-        <v>115.894669</v>
+        <v>115.894676</v>
       </c>
     </row>
     <row r="643">
@@ -10476,7 +10476,7 @@
         <v>100.480202</v>
       </c>
       <c r="C643" t="n">
-        <v>116.751747</v>
+        <v>116.75174</v>
       </c>
     </row>
     <row r="644">
@@ -10487,7 +10487,7 @@
         <v>100.922836</v>
       </c>
       <c r="C644" t="n">
-        <v>115.989906</v>
+        <v>115.989914</v>
       </c>
     </row>
     <row r="645">
@@ -10498,7 +10498,7 @@
         <v>100.332649</v>
       </c>
       <c r="C645" t="n">
-        <v>115.418518</v>
+        <v>115.418526</v>
       </c>
     </row>
     <row r="646">
@@ -10564,7 +10564,7 @@
         <v>102.349144</v>
       </c>
       <c r="C651" t="n">
-        <v>113.609161</v>
+        <v>113.609169</v>
       </c>
     </row>
     <row r="652">
@@ -10608,7 +10608,7 @@
         <v>96.496399</v>
       </c>
       <c r="C655" t="n">
-        <v>110.466583</v>
+        <v>110.466576</v>
       </c>
     </row>
     <row r="656">
@@ -10619,7 +10619,7 @@
         <v>97.047249</v>
       </c>
       <c r="C656" t="n">
-        <v>109.799965</v>
+        <v>109.799973</v>
       </c>
     </row>
     <row r="657">
@@ -10652,7 +10652,7 @@
         <v>97.971878</v>
       </c>
       <c r="C659" t="n">
-        <v>107.22876</v>
+        <v>107.228767</v>
       </c>
     </row>
     <row r="660">
@@ -10663,7 +10663,7 @@
         <v>96.594765</v>
       </c>
       <c r="C660" t="n">
-        <v>106.847839</v>
+        <v>106.847847</v>
       </c>
     </row>
     <row r="661">
@@ -10696,7 +10696,7 @@
         <v>92.463425</v>
       </c>
       <c r="C663" t="n">
-        <v>95.705956</v>
+        <v>95.705963</v>
       </c>
     </row>
     <row r="664">
@@ -10751,7 +10751,7 @@
         <v>87.859924</v>
       </c>
       <c r="C668" t="n">
-        <v>96.467804</v>
+        <v>96.467796</v>
       </c>
     </row>
     <row r="669">
@@ -10762,7 +10762,7 @@
         <v>88.627174</v>
       </c>
       <c r="C669" t="n">
-        <v>98.181931</v>
+        <v>98.181938</v>
       </c>
     </row>
     <row r="670">
@@ -10773,7 +10773,7 @@
         <v>88.587822</v>
       </c>
       <c r="C670" t="n">
-        <v>99.705612</v>
+        <v>99.705605</v>
       </c>
     </row>
     <row r="671">
@@ -10784,7 +10784,7 @@
         <v>86.502487</v>
       </c>
       <c r="C671" t="n">
-        <v>99.610374</v>
+        <v>99.610382</v>
       </c>
     </row>
     <row r="672">
@@ -10806,7 +10806,7 @@
         <v>86.187714</v>
       </c>
       <c r="C673" t="n">
-        <v>99.134224</v>
+        <v>99.134232</v>
       </c>
     </row>
     <row r="674">
@@ -10817,7 +10817,7 @@
         <v>86.384445</v>
       </c>
       <c r="C674" t="n">
-        <v>97.89624</v>
+        <v>97.896248</v>
       </c>
     </row>
     <row r="675">
@@ -10839,7 +10839,7 @@
         <v>83.0597</v>
       </c>
       <c r="C676" t="n">
-        <v>96.372566</v>
+        <v>96.372559</v>
       </c>
     </row>
     <row r="677">
@@ -10850,7 +10850,7 @@
         <v>80.659584</v>
       </c>
       <c r="C677" t="n">
-        <v>94.372742</v>
+        <v>94.372734</v>
       </c>
     </row>
     <row r="678">
@@ -10872,7 +10872,7 @@
         <v>81.938332</v>
       </c>
       <c r="C679" t="n">
-        <v>93.563286</v>
+        <v>93.563293</v>
       </c>
     </row>
     <row r="680">
@@ -10927,7 +10927,7 @@
         <v>84.692558</v>
       </c>
       <c r="C684" t="n">
-        <v>94.848892</v>
+        <v>94.848885</v>
       </c>
     </row>
     <row r="685">
@@ -10949,7 +10949,7 @@
         <v>83.453156</v>
       </c>
       <c r="C686" t="n">
-        <v>103.133888</v>
+        <v>103.133881</v>
       </c>
     </row>
     <row r="687">
@@ -10960,7 +10960,7 @@
         <v>85.57785</v>
       </c>
       <c r="C687" t="n">
-        <v>103.133888</v>
+        <v>103.133881</v>
       </c>
     </row>
     <row r="688">
@@ -10993,7 +10993,7 @@
         <v>89.453445</v>
       </c>
       <c r="C690" t="n">
-        <v>103.990944</v>
+        <v>103.990952</v>
       </c>
     </row>
     <row r="691">
@@ -11070,7 +11070,7 @@
         <v>91.401077</v>
       </c>
       <c r="C697" t="n">
-        <v>103.990944</v>
+        <v>103.990952</v>
       </c>
     </row>
     <row r="698">
@@ -11158,7 +11158,7 @@
         <v>84.161385</v>
       </c>
       <c r="C705" t="n">
-        <v>102.37204</v>
+        <v>102.372047</v>
       </c>
     </row>
     <row r="706">
@@ -11202,7 +11202,7 @@
         <v>86.974632</v>
       </c>
       <c r="C709" t="n">
-        <v>111.799797</v>
+        <v>111.799789</v>
       </c>
     </row>
     <row r="710">
@@ -11224,7 +11224,7 @@
         <v>88.627174</v>
       </c>
       <c r="C711" t="n">
-        <v>109.514282</v>
+        <v>109.514275</v>
       </c>
     </row>
     <row r="712">
@@ -11290,7 +11290,7 @@
         <v>102.447502</v>
       </c>
       <c r="C717" t="n">
-        <v>124.274895</v>
+        <v>124.274902</v>
       </c>
     </row>
     <row r="718">
@@ -11301,7 +11301,7 @@
         <v>102.890144</v>
       </c>
       <c r="C718" t="n">
-        <v>126.274727</v>
+        <v>126.274734</v>
       </c>
     </row>
     <row r="719">
@@ -11356,7 +11356,7 @@
         <v>103.234421</v>
       </c>
       <c r="C723" t="n">
-        <v>124.751045</v>
+        <v>124.751053</v>
       </c>
     </row>
     <row r="724">
@@ -11378,7 +11378,7 @@
         <v>102.98851</v>
       </c>
       <c r="C725" t="n">
-        <v>124.751045</v>
+        <v>124.751053</v>
       </c>
     </row>
     <row r="726">
@@ -11422,7 +11422,7 @@
         <v>102.250771</v>
       </c>
       <c r="C729" t="n">
-        <v>124.751045</v>
+        <v>124.751053</v>
       </c>
     </row>
     <row r="730">
@@ -11444,7 +11444,7 @@
         <v>101.513031</v>
       </c>
       <c r="C731" t="n">
-        <v>124.274895</v>
+        <v>124.274902</v>
       </c>
     </row>
     <row r="732">
@@ -11543,7 +11543,7 @@
         <v>94.529091</v>
       </c>
       <c r="C740" t="n">
-        <v>121.608467</v>
+        <v>121.608459</v>
       </c>
     </row>
     <row r="741">
@@ -11576,7 +11576,7 @@
         <v>96.870193</v>
       </c>
       <c r="C743" t="n">
-        <v>124.941505</v>
+        <v>124.941498</v>
       </c>
     </row>
     <row r="744">
@@ -11587,7 +11587,7 @@
         <v>99.742462</v>
       </c>
       <c r="C744" t="n">
-        <v>125.989044</v>
+        <v>125.989037</v>
       </c>
     </row>
     <row r="745">
@@ -11620,7 +11620,7 @@
         <v>99.004723</v>
       </c>
       <c r="C747" t="n">
-        <v>128.084106</v>
+        <v>128.084091</v>
       </c>
     </row>
     <row r="748">
@@ -11653,7 +11653,7 @@
         <v>103.627884</v>
       </c>
       <c r="C750" t="n">
-        <v>128.941162</v>
+        <v>128.941147</v>
       </c>
     </row>
     <row r="751">
@@ -11664,7 +11664,7 @@
         <v>108.054329</v>
       </c>
       <c r="C751" t="n">
-        <v>132.369431</v>
+        <v>132.369446</v>
       </c>
     </row>
     <row r="752">
@@ -11851,7 +11851,7 @@
         <v>103.480339</v>
       </c>
       <c r="C768" t="n">
-        <v>121.608467</v>
+        <v>121.608459</v>
       </c>
     </row>
     <row r="769">
@@ -11862,7 +11862,7 @@
         <v>104.070534</v>
       </c>
       <c r="C769" t="n">
-        <v>123.89399</v>
+        <v>123.893982</v>
       </c>
     </row>
     <row r="770">
@@ -11939,7 +11939,7 @@
         <v>107.955963</v>
       </c>
       <c r="C776" t="n">
-        <v>126.750877</v>
+        <v>126.750885</v>
       </c>
     </row>
     <row r="777">
@@ -11983,7 +11983,7 @@
         <v>110.857735</v>
       </c>
       <c r="C780" t="n">
-        <v>132.369431</v>
+        <v>132.369446</v>
       </c>
     </row>
     <row r="781">
@@ -12016,7 +12016,7 @@
         <v>111.644661</v>
       </c>
       <c r="C783" t="n">
-        <v>132.940811</v>
+        <v>132.940826</v>
       </c>
     </row>
     <row r="784">
@@ -12027,7 +12027,7 @@
         <v>111.447937</v>
       </c>
       <c r="C784" t="n">
-        <v>134.178802</v>
+        <v>134.178787</v>
       </c>
     </row>
     <row r="785">
@@ -12038,7 +12038,7 @@
         <v>112.333221</v>
       </c>
       <c r="C785" t="n">
-        <v>134.940643</v>
+        <v>134.940628</v>
       </c>
     </row>
     <row r="786">
@@ -12049,7 +12049,7 @@
         <v>115.087448</v>
       </c>
       <c r="C786" t="n">
-        <v>135.226318</v>
+        <v>135.226334</v>
       </c>
     </row>
     <row r="787">
@@ -12071,7 +12071,7 @@
         <v>114.595627</v>
       </c>
       <c r="C788" t="n">
-        <v>136.65477</v>
+        <v>136.654785</v>
       </c>
     </row>
     <row r="789">
@@ -12093,7 +12093,7 @@
         <v>116.366203</v>
       </c>
       <c r="C790" t="n">
-        <v>153.319977</v>
+        <v>153.319992</v>
       </c>
     </row>
     <row r="791">
@@ -12104,7 +12104,7 @@
         <v>116.218651</v>
       </c>
       <c r="C791" t="n">
-        <v>152.367706</v>
+        <v>152.367691</v>
       </c>
     </row>
     <row r="792">
@@ -12115,7 +12115,7 @@
         <v>118.82534</v>
       </c>
       <c r="C792" t="n">
-        <v>151.1297</v>
+        <v>151.129715</v>
       </c>
     </row>
     <row r="793">
@@ -12170,7 +12170,7 @@
         <v>120.54673</v>
       </c>
       <c r="C797" t="n">
-        <v>154.938889</v>
+        <v>154.938904</v>
       </c>
     </row>
     <row r="798">
@@ -12181,7 +12181,7 @@
         <v>120.497543</v>
       </c>
       <c r="C798" t="n">
-        <v>154.272278</v>
+        <v>154.272293</v>
       </c>
     </row>
     <row r="799">
@@ -12192,7 +12192,7 @@
         <v>120.349998</v>
       </c>
       <c r="C799" t="n">
-        <v>155.415039</v>
+        <v>155.415054</v>
       </c>
     </row>
     <row r="800">
@@ -12247,7 +12247,7 @@
         <v>118.25</v>
       </c>
       <c r="C804" t="n">
-        <v>155.224579</v>
+        <v>155.224594</v>
       </c>
     </row>
     <row r="805">
@@ -12258,7 +12258,7 @@
         <v>119.300003</v>
       </c>
       <c r="C805" t="n">
-        <v>159.986069</v>
+        <v>159.986084</v>
       </c>
     </row>
     <row r="806">

--- a/Danske aktiekurser.xlsx
+++ b/Danske aktiekurser.xlsx
@@ -3422,7 +3422,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>189.887939</v>
+        <v>189.887924</v>
       </c>
       <c r="C2" t="n">
         <v>191.282883</v>
@@ -3436,7 +3436,7 @@
         <v>188.870804</v>
       </c>
       <c r="C3" t="n">
-        <v>190.824905</v>
+        <v>190.82489</v>
       </c>
     </row>
     <row r="4">
@@ -3444,10 +3444,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>190.51384</v>
+        <v>190.513855</v>
       </c>
       <c r="C4" t="n">
-        <v>192.351486</v>
+        <v>192.351501</v>
       </c>
     </row>
     <row r="5">
@@ -3491,7 +3491,7 @@
         <v>194.347595</v>
       </c>
       <c r="C8" t="n">
-        <v>195.404678</v>
+        <v>195.404694</v>
       </c>
     </row>
     <row r="9">
@@ -3524,7 +3524,7 @@
         <v>196.303574</v>
       </c>
       <c r="C11" t="n">
-        <v>193.572784</v>
+        <v>193.572769</v>
       </c>
     </row>
     <row r="12">
@@ -3535,7 +3535,7 @@
         <v>195.521179</v>
       </c>
       <c r="C12" t="n">
-        <v>192.50415</v>
+        <v>192.504166</v>
       </c>
     </row>
     <row r="13">
@@ -3543,7 +3543,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="n">
-        <v>195.990616</v>
+        <v>195.990631</v>
       </c>
       <c r="C13" t="n">
         <v>191.435547</v>
@@ -3568,7 +3568,7 @@
         <v>190.670319</v>
       </c>
       <c r="C15" t="n">
-        <v>191.893509</v>
+        <v>191.893524</v>
       </c>
     </row>
     <row r="16">
@@ -3579,7 +3579,7 @@
         <v>193.330475</v>
       </c>
       <c r="C16" t="n">
-        <v>193.114792</v>
+        <v>193.114822</v>
       </c>
     </row>
     <row r="17">
@@ -3601,7 +3601,7 @@
         <v>192.078644</v>
       </c>
       <c r="C18" t="n">
-        <v>190.214264</v>
+        <v>190.214249</v>
       </c>
     </row>
     <row r="19">
@@ -3609,10 +3609,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="n">
-        <v>186.680099</v>
+        <v>186.680084</v>
       </c>
       <c r="C19" t="n">
-        <v>185.63446</v>
+        <v>185.634476</v>
       </c>
     </row>
     <row r="20">
@@ -3634,7 +3634,7 @@
         <v>191.843903</v>
       </c>
       <c r="C21" t="n">
-        <v>187.771713</v>
+        <v>187.771683</v>
       </c>
     </row>
     <row r="22">
@@ -3653,10 +3653,10 @@
         <v>24</v>
       </c>
       <c r="B23" t="n">
-        <v>190.51384</v>
+        <v>190.513855</v>
       </c>
       <c r="C23" t="n">
-        <v>187.008392</v>
+        <v>187.008377</v>
       </c>
     </row>
     <row r="24">
@@ -3708,10 +3708,10 @@
         <v>29</v>
       </c>
       <c r="B28" t="n">
-        <v>189.262009</v>
+        <v>189.261993</v>
       </c>
       <c r="C28" t="n">
-        <v>188.687668</v>
+        <v>188.687653</v>
       </c>
     </row>
     <row r="29">
@@ -3719,7 +3719,7 @@
         <v>30</v>
       </c>
       <c r="B29" t="n">
-        <v>188.557861</v>
+        <v>188.557846</v>
       </c>
       <c r="C29" t="n">
         <v>187.161057</v>
@@ -3730,7 +3730,7 @@
         <v>31</v>
       </c>
       <c r="B30" t="n">
-        <v>188.244904</v>
+        <v>188.244888</v>
       </c>
       <c r="C30" t="n">
         <v>185.787125</v>
@@ -3744,7 +3744,7 @@
         <v>189.966156</v>
       </c>
       <c r="C31" t="n">
-        <v>188.687668</v>
+        <v>188.687653</v>
       </c>
     </row>
     <row r="32">
@@ -3766,7 +3766,7 @@
         <v>191.061508</v>
       </c>
       <c r="C33" t="n">
-        <v>193.267456</v>
+        <v>193.267441</v>
       </c>
     </row>
     <row r="34">
@@ -3774,10 +3774,10 @@
         <v>35</v>
       </c>
       <c r="B34" t="n">
-        <v>192.313354</v>
+        <v>192.31337</v>
       </c>
       <c r="C34" t="n">
-        <v>193.420105</v>
+        <v>193.42012</v>
       </c>
     </row>
     <row r="35">
@@ -3785,10 +3785,10 @@
         <v>36</v>
       </c>
       <c r="B35" t="n">
-        <v>194.660568</v>
+        <v>194.660553</v>
       </c>
       <c r="C35" t="n">
-        <v>196.625992</v>
+        <v>196.625977</v>
       </c>
     </row>
     <row r="36">
@@ -3818,10 +3818,10 @@
         <v>39</v>
       </c>
       <c r="B38" t="n">
-        <v>192.861038</v>
+        <v>192.861053</v>
       </c>
       <c r="C38" t="n">
-        <v>182.428619</v>
+        <v>182.428604</v>
       </c>
     </row>
     <row r="39">
@@ -3840,7 +3840,7 @@
         <v>41</v>
       </c>
       <c r="B40" t="n">
-        <v>194.504074</v>
+        <v>194.504089</v>
       </c>
       <c r="C40" t="n">
         <v>186.245102</v>
@@ -3851,7 +3851,7 @@
         <v>42</v>
       </c>
       <c r="B41" t="n">
-        <v>195.677673</v>
+        <v>195.677689</v>
       </c>
       <c r="C41" t="n">
         <v>183.802536</v>
@@ -3862,7 +3862,7 @@
         <v>43</v>
       </c>
       <c r="B42" t="n">
-        <v>189.731445</v>
+        <v>189.731461</v>
       </c>
       <c r="C42" t="n">
         <v>183.191895</v>
@@ -3876,7 +3876,7 @@
         <v>192.626297</v>
       </c>
       <c r="C43" t="n">
-        <v>182.733932</v>
+        <v>182.733917</v>
       </c>
     </row>
     <row r="44">
@@ -3895,10 +3895,10 @@
         <v>46</v>
       </c>
       <c r="B45" t="n">
-        <v>189.731445</v>
+        <v>189.731461</v>
       </c>
       <c r="C45" t="n">
-        <v>177.696136</v>
+        <v>177.696152</v>
       </c>
     </row>
     <row r="46">
@@ -3906,7 +3906,7 @@
         <v>47</v>
       </c>
       <c r="B46" t="n">
-        <v>190.044403</v>
+        <v>190.044388</v>
       </c>
       <c r="C46" t="n">
         <v>179.833389</v>
@@ -3917,7 +3917,7 @@
         <v>48</v>
       </c>
       <c r="B47" t="n">
-        <v>189.34024</v>
+        <v>189.340256</v>
       </c>
       <c r="C47" t="n">
         <v>180.749344</v>
@@ -3939,10 +3939,10 @@
         <v>50</v>
       </c>
       <c r="B49" t="n">
-        <v>191.217987</v>
+        <v>191.218002</v>
       </c>
       <c r="C49" t="n">
-        <v>182.428619</v>
+        <v>182.428604</v>
       </c>
     </row>
     <row r="50">
@@ -3953,7 +3953,7 @@
         <v>192.626297</v>
       </c>
       <c r="C50" t="n">
-        <v>180.902008</v>
+        <v>180.901993</v>
       </c>
     </row>
     <row r="51">
@@ -3964,7 +3964,7 @@
         <v>193.095764</v>
       </c>
       <c r="C51" t="n">
-        <v>180.291351</v>
+        <v>180.291367</v>
       </c>
     </row>
     <row r="52">
@@ -3986,7 +3986,7 @@
         <v>190.983292</v>
       </c>
       <c r="C53" t="n">
-        <v>180.138718</v>
+        <v>180.138687</v>
       </c>
     </row>
     <row r="54">
@@ -3997,7 +3997,7 @@
         <v>191.061508</v>
       </c>
       <c r="C54" t="n">
-        <v>183.113083</v>
+        <v>183.113098</v>
       </c>
     </row>
     <row r="55">
@@ -4008,7 +4008,7 @@
         <v>191.306274</v>
       </c>
       <c r="C55" t="n">
-        <v>182.792404</v>
+        <v>182.792419</v>
       </c>
     </row>
     <row r="56">
@@ -4019,7 +4019,7 @@
         <v>191.795761</v>
       </c>
       <c r="C56" t="n">
-        <v>183.594116</v>
+        <v>183.594131</v>
       </c>
     </row>
     <row r="57">
@@ -4027,7 +4027,7 @@
         <v>58</v>
       </c>
       <c r="B57" t="n">
-        <v>191.714172</v>
+        <v>191.714188</v>
       </c>
       <c r="C57" t="n">
         <v>185.35791</v>
@@ -4060,7 +4060,7 @@
         <v>61</v>
       </c>
       <c r="B60" t="n">
-        <v>186.00354</v>
+        <v>186.003525</v>
       </c>
       <c r="C60" t="n">
         <v>182.632065</v>
@@ -4093,7 +4093,7 @@
         <v>64</v>
       </c>
       <c r="B63" t="n">
-        <v>183.882431</v>
+        <v>183.882446</v>
       </c>
       <c r="C63" t="n">
         <v>178.14241</v>
@@ -4107,7 +4107,7 @@
         <v>183.148224</v>
       </c>
       <c r="C64" t="n">
-        <v>178.463104</v>
+        <v>178.46312</v>
       </c>
     </row>
     <row r="65">
@@ -4126,10 +4126,10 @@
         <v>67</v>
       </c>
       <c r="B66" t="n">
-        <v>183.882431</v>
+        <v>183.882446</v>
       </c>
       <c r="C66" t="n">
-        <v>178.944153</v>
+        <v>178.944138</v>
       </c>
     </row>
     <row r="67">
@@ -4148,10 +4148,10 @@
         <v>69</v>
       </c>
       <c r="B68" t="n">
-        <v>182.985046</v>
+        <v>182.985062</v>
       </c>
       <c r="C68" t="n">
-        <v>180.868301</v>
+        <v>180.868271</v>
       </c>
     </row>
     <row r="69">
@@ -4173,7 +4173,7 @@
         <v>179.477097</v>
       </c>
       <c r="C70" t="n">
-        <v>180.868301</v>
+        <v>180.868271</v>
       </c>
     </row>
     <row r="71">
@@ -4184,7 +4184,7 @@
         <v>180.619217</v>
       </c>
       <c r="C71" t="n">
-        <v>184.395844</v>
+        <v>184.395828</v>
       </c>
     </row>
     <row r="72">
@@ -4192,7 +4192,7 @@
         <v>73</v>
       </c>
       <c r="B72" t="n">
-        <v>180.211304</v>
+        <v>180.211319</v>
       </c>
       <c r="C72" t="n">
         <v>182.311371</v>
@@ -4203,7 +4203,7 @@
         <v>74</v>
       </c>
       <c r="B73" t="n">
-        <v>180.374481</v>
+        <v>180.374496</v>
       </c>
       <c r="C73" t="n">
         <v>181.990677</v>
@@ -4228,7 +4228,7 @@
         <v>183.637711</v>
       </c>
       <c r="C75" t="n">
-        <v>188.083771</v>
+        <v>188.083755</v>
       </c>
     </row>
     <row r="76">
@@ -4261,7 +4261,7 @@
         <v>183.229797</v>
       </c>
       <c r="C78" t="n">
-        <v>192.894073</v>
+        <v>192.894089</v>
       </c>
     </row>
     <row r="79">
@@ -4272,7 +4272,7 @@
         <v>184.127182</v>
       </c>
       <c r="C79" t="n">
-        <v>194.657867</v>
+        <v>194.657883</v>
       </c>
     </row>
     <row r="80">
@@ -4283,7 +4283,7 @@
         <v>178.498138</v>
       </c>
       <c r="C80" t="n">
-        <v>187.602722</v>
+        <v>187.602753</v>
       </c>
     </row>
     <row r="81">
@@ -4294,7 +4294,7 @@
         <v>179.069183</v>
       </c>
       <c r="C81" t="n">
-        <v>186.319962</v>
+        <v>186.319977</v>
       </c>
     </row>
     <row r="82">
@@ -4305,7 +4305,7 @@
         <v>175.72438</v>
       </c>
       <c r="C82" t="n">
-        <v>183.433777</v>
+        <v>183.433792</v>
       </c>
     </row>
     <row r="83">
@@ -4327,7 +4327,7 @@
         <v>177.84549</v>
       </c>
       <c r="C84" t="n">
-        <v>184.716507</v>
+        <v>184.716522</v>
       </c>
     </row>
     <row r="85">
@@ -4335,7 +4335,7 @@
         <v>86</v>
       </c>
       <c r="B85" t="n">
-        <v>176.05072</v>
+        <v>176.050735</v>
       </c>
       <c r="C85" t="n">
         <v>181.990677</v>
@@ -4349,7 +4349,7 @@
         <v>176.132294</v>
       </c>
       <c r="C86" t="n">
-        <v>183.433777</v>
+        <v>183.433792</v>
       </c>
     </row>
     <row r="87">
@@ -4368,7 +4368,7 @@
         <v>89</v>
       </c>
       <c r="B88" t="n">
-        <v>176.784927</v>
+        <v>176.784943</v>
       </c>
       <c r="C88" t="n">
         <v>187.121704</v>
@@ -4393,7 +4393,7 @@
         <v>174.990173</v>
       </c>
       <c r="C90" t="n">
-        <v>186.640656</v>
+        <v>186.640671</v>
       </c>
     </row>
     <row r="91">
@@ -4415,7 +4415,7 @@
         <v>174.255951</v>
       </c>
       <c r="C92" t="n">
-        <v>183.594116</v>
+        <v>183.594131</v>
       </c>
     </row>
     <row r="93">
@@ -4426,7 +4426,7 @@
         <v>176.540192</v>
       </c>
       <c r="C93" t="n">
-        <v>185.197571</v>
+        <v>185.197556</v>
       </c>
     </row>
     <row r="94">
@@ -4434,7 +4434,7 @@
         <v>95</v>
       </c>
       <c r="B94" t="n">
-        <v>176.458603</v>
+        <v>176.458618</v>
       </c>
       <c r="C94" t="n">
         <v>184.075165</v>
@@ -4478,7 +4478,7 @@
         <v>99</v>
       </c>
       <c r="B98" t="n">
-        <v>173.276978</v>
+        <v>173.276962</v>
       </c>
       <c r="C98" t="n">
         <v>181.669998</v>
@@ -4492,7 +4492,7 @@
         <v>173.113815</v>
       </c>
       <c r="C99" t="n">
-        <v>181.028625</v>
+        <v>181.02861</v>
       </c>
     </row>
     <row r="100">
@@ -4500,10 +4500,10 @@
         <v>101</v>
       </c>
       <c r="B100" t="n">
-        <v>168.953201</v>
+        <v>168.953217</v>
       </c>
       <c r="C100" t="n">
-        <v>174.935532</v>
+        <v>174.935547</v>
       </c>
     </row>
     <row r="101">
@@ -4514,7 +4514,7 @@
         <v>168.871628</v>
       </c>
       <c r="C101" t="n">
-        <v>175.737259</v>
+        <v>175.737274</v>
       </c>
     </row>
     <row r="102">
@@ -4525,7 +4525,7 @@
         <v>172.461166</v>
       </c>
       <c r="C102" t="n">
-        <v>173.171753</v>
+        <v>173.171738</v>
       </c>
     </row>
     <row r="103">
@@ -4536,7 +4536,7 @@
         <v>176.295456</v>
       </c>
       <c r="C103" t="n">
-        <v>178.30275</v>
+        <v>178.302765</v>
       </c>
     </row>
     <row r="104">
@@ -4547,7 +4547,7 @@
         <v>178.253387</v>
       </c>
       <c r="C104" t="n">
-        <v>178.944153</v>
+        <v>178.944138</v>
       </c>
     </row>
     <row r="105">
@@ -4580,7 +4580,7 @@
         <v>174.092773</v>
       </c>
       <c r="C107" t="n">
-        <v>175.737259</v>
+        <v>175.737274</v>
       </c>
     </row>
     <row r="108">
@@ -4591,7 +4591,7 @@
         <v>177.84549</v>
       </c>
       <c r="C108" t="n">
-        <v>177.02002</v>
+        <v>177.020004</v>
       </c>
     </row>
     <row r="109">
@@ -4613,7 +4613,7 @@
         <v>178.253387</v>
       </c>
       <c r="C110" t="n">
-        <v>177.340698</v>
+        <v>177.340683</v>
       </c>
     </row>
     <row r="111">
@@ -4621,7 +4621,7 @@
         <v>112</v>
       </c>
       <c r="B111" t="n">
-        <v>178.742874</v>
+        <v>178.742889</v>
       </c>
       <c r="C111" t="n">
         <v>178.623459</v>
@@ -4632,7 +4632,7 @@
         <v>113</v>
       </c>
       <c r="B112" t="n">
-        <v>177.682327</v>
+        <v>177.682343</v>
       </c>
       <c r="C112" t="n">
         <v>177.821732</v>
@@ -4668,7 +4668,7 @@
         <v>170.258499</v>
       </c>
       <c r="C115" t="n">
-        <v>175.416565</v>
+        <v>175.41658</v>
       </c>
     </row>
     <row r="116">
@@ -4679,7 +4679,7 @@
         <v>167.811081</v>
       </c>
       <c r="C116" t="n">
-        <v>173.171753</v>
+        <v>173.171738</v>
       </c>
     </row>
     <row r="117">
@@ -4720,10 +4720,10 @@
         <v>121</v>
       </c>
       <c r="B120" t="n">
-        <v>162.018875</v>
+        <v>162.01889</v>
       </c>
       <c r="C120" t="n">
-        <v>173.652771</v>
+        <v>173.652786</v>
       </c>
     </row>
     <row r="121">
@@ -4731,7 +4731,7 @@
         <v>122</v>
       </c>
       <c r="B121" t="n">
-        <v>162.018875</v>
+        <v>162.01889</v>
       </c>
       <c r="C121" t="n">
         <v>174.454514</v>
@@ -4756,7 +4756,7 @@
         <v>162.671509</v>
       </c>
       <c r="C123" t="n">
-        <v>175.416565</v>
+        <v>175.41658</v>
       </c>
     </row>
     <row r="124">
@@ -4800,7 +4800,7 @@
         <v>155.533218</v>
       </c>
       <c r="C127" t="n">
-        <v>177.661407</v>
+        <v>177.661377</v>
       </c>
     </row>
     <row r="128">
@@ -4811,7 +4811,7 @@
         <v>157.001663</v>
       </c>
       <c r="C128" t="n">
-        <v>180.226898</v>
+        <v>180.226883</v>
       </c>
     </row>
     <row r="129">
@@ -4822,7 +4822,7 @@
         <v>158.102997</v>
       </c>
       <c r="C129" t="n">
-        <v>182.151031</v>
+        <v>182.151016</v>
       </c>
     </row>
     <row r="130">
@@ -4833,7 +4833,7 @@
         <v>158.225372</v>
       </c>
       <c r="C130" t="n">
-        <v>182.151031</v>
+        <v>182.151016</v>
       </c>
     </row>
     <row r="131">
@@ -4855,7 +4855,7 @@
         <v>158.225372</v>
       </c>
       <c r="C132" t="n">
-        <v>182.151031</v>
+        <v>182.151016</v>
       </c>
     </row>
     <row r="133">
@@ -4863,7 +4863,7 @@
         <v>134</v>
       </c>
       <c r="B133" t="n">
-        <v>158.06221</v>
+        <v>158.062225</v>
       </c>
       <c r="C133" t="n">
         <v>181.990677</v>
@@ -4874,10 +4874,10 @@
         <v>135</v>
       </c>
       <c r="B134" t="n">
-        <v>159.163544</v>
+        <v>159.163559</v>
       </c>
       <c r="C134" t="n">
-        <v>180.707932</v>
+        <v>180.707901</v>
       </c>
     </row>
     <row r="135">
@@ -4888,7 +4888,7 @@
         <v>144.642227</v>
       </c>
       <c r="C135" t="n">
-        <v>177.661407</v>
+        <v>177.661377</v>
       </c>
     </row>
     <row r="136">
@@ -4899,7 +4899,7 @@
         <v>148.394913</v>
       </c>
       <c r="C136" t="n">
-        <v>179.74585</v>
+        <v>179.74588</v>
       </c>
     </row>
     <row r="137">
@@ -4910,7 +4910,7 @@
         <v>147.456757</v>
       </c>
       <c r="C137" t="n">
-        <v>180.387222</v>
+        <v>180.387238</v>
       </c>
     </row>
     <row r="138">
@@ -4918,7 +4918,7 @@
         <v>139</v>
       </c>
       <c r="B138" t="n">
-        <v>149.985764</v>
+        <v>149.985748</v>
       </c>
       <c r="C138" t="n">
         <v>181.669998</v>
@@ -4940,10 +4940,10 @@
         <v>141</v>
       </c>
       <c r="B140" t="n">
-        <v>150.92392</v>
+        <v>150.923935</v>
       </c>
       <c r="C140" t="n">
-        <v>185.518265</v>
+        <v>185.518234</v>
       </c>
     </row>
     <row r="141">
@@ -4951,10 +4951,10 @@
         <v>142</v>
       </c>
       <c r="B141" t="n">
-        <v>152.800278</v>
+        <v>152.800262</v>
       </c>
       <c r="C141" t="n">
-        <v>186.319962</v>
+        <v>186.319977</v>
       </c>
     </row>
     <row r="142">
@@ -4965,7 +4965,7 @@
         <v>153.208176</v>
       </c>
       <c r="C142" t="n">
-        <v>188.564789</v>
+        <v>188.564774</v>
       </c>
     </row>
     <row r="143">
@@ -4984,7 +4984,7 @@
         <v>145</v>
       </c>
       <c r="B144" t="n">
-        <v>151.127869</v>
+        <v>151.127884</v>
       </c>
       <c r="C144" t="n">
         <v>189.526855</v>
@@ -4995,10 +4995,10 @@
         <v>146</v>
       </c>
       <c r="B145" t="n">
-        <v>149.12915</v>
+        <v>149.129166</v>
       </c>
       <c r="C145" t="n">
-        <v>188.083771</v>
+        <v>188.083755</v>
       </c>
     </row>
     <row r="146">
@@ -5009,7 +5009,7 @@
         <v>146.029099</v>
       </c>
       <c r="C146" t="n">
-        <v>184.395844</v>
+        <v>184.395828</v>
       </c>
     </row>
     <row r="147">
@@ -5017,7 +5017,7 @@
         <v>148</v>
       </c>
       <c r="B147" t="n">
-        <v>149.12915</v>
+        <v>149.129166</v>
       </c>
       <c r="C147" t="n">
         <v>185.037216</v>
@@ -5042,7 +5042,7 @@
         <v>147.905441</v>
       </c>
       <c r="C149" t="n">
-        <v>180.387222</v>
+        <v>180.387238</v>
       </c>
     </row>
     <row r="150">
@@ -5072,7 +5072,7 @@
         <v>153</v>
       </c>
       <c r="B152" t="n">
-        <v>149.700211</v>
+        <v>149.700226</v>
       </c>
       <c r="C152" t="n">
         <v>177.501038</v>
@@ -5083,10 +5083,10 @@
         <v>154</v>
       </c>
       <c r="B153" t="n">
-        <v>150.02652</v>
+        <v>150.026535</v>
       </c>
       <c r="C153" t="n">
-        <v>178.30275</v>
+        <v>178.302765</v>
       </c>
     </row>
     <row r="154">
@@ -5108,7 +5108,7 @@
         <v>145.906723</v>
       </c>
       <c r="C155" t="n">
-        <v>173.171753</v>
+        <v>173.171738</v>
       </c>
     </row>
     <row r="156">
@@ -5138,10 +5138,10 @@
         <v>159</v>
       </c>
       <c r="B158" t="n">
-        <v>150.230469</v>
+        <v>150.230484</v>
       </c>
       <c r="C158" t="n">
-        <v>175.737259</v>
+        <v>175.737274</v>
       </c>
     </row>
     <row r="159">
@@ -5152,7 +5152,7 @@
         <v>150.719971</v>
       </c>
       <c r="C159" t="n">
-        <v>177.661407</v>
+        <v>177.661377</v>
       </c>
     </row>
     <row r="160">
@@ -5163,7 +5163,7 @@
         <v>153.616074</v>
       </c>
       <c r="C160" t="n">
-        <v>176.057953</v>
+        <v>176.057968</v>
       </c>
     </row>
     <row r="161">
@@ -5185,7 +5185,7 @@
         <v>154.717422</v>
       </c>
       <c r="C162" t="n">
-        <v>175.256226</v>
+        <v>175.256241</v>
       </c>
     </row>
     <row r="163">
@@ -5193,10 +5193,10 @@
         <v>164</v>
       </c>
       <c r="B163" t="n">
-        <v>157.817474</v>
+        <v>157.817459</v>
       </c>
       <c r="C163" t="n">
-        <v>175.256226</v>
+        <v>175.256241</v>
       </c>
     </row>
     <row r="164">
@@ -5204,10 +5204,10 @@
         <v>165</v>
       </c>
       <c r="B164" t="n">
-        <v>156.716156</v>
+        <v>156.716141</v>
       </c>
       <c r="C164" t="n">
-        <v>155.614075</v>
+        <v>155.614059</v>
       </c>
     </row>
     <row r="165">
@@ -5251,7 +5251,7 @@
         <v>154.309509</v>
       </c>
       <c r="C168" t="n">
-        <v>149.120102</v>
+        <v>149.120117</v>
       </c>
     </row>
     <row r="169">
@@ -5259,10 +5259,10 @@
         <v>170</v>
       </c>
       <c r="B169" t="n">
-        <v>144.764603</v>
+        <v>144.764587</v>
       </c>
       <c r="C169" t="n">
-        <v>148.39856</v>
+        <v>148.398575</v>
       </c>
     </row>
     <row r="170">
@@ -5270,10 +5270,10 @@
         <v>171</v>
       </c>
       <c r="B170" t="n">
-        <v>148.272552</v>
+        <v>148.272568</v>
       </c>
       <c r="C170" t="n">
-        <v>147.917542</v>
+        <v>147.917526</v>
       </c>
     </row>
     <row r="171">
@@ -5284,7 +5284,7 @@
         <v>150.719971</v>
       </c>
       <c r="C171" t="n">
-        <v>148.158051</v>
+        <v>148.158066</v>
       </c>
     </row>
     <row r="172">
@@ -5292,10 +5292,10 @@
         <v>173</v>
       </c>
       <c r="B172" t="n">
-        <v>144.397491</v>
+        <v>144.397476</v>
       </c>
       <c r="C172" t="n">
-        <v>148.799438</v>
+        <v>148.799454</v>
       </c>
     </row>
     <row r="173">
@@ -5306,7 +5306,7 @@
         <v>140.155304</v>
       </c>
       <c r="C173" t="n">
-        <v>148.799438</v>
+        <v>148.799454</v>
       </c>
     </row>
     <row r="174">
@@ -5328,7 +5328,7 @@
         <v>137.096039</v>
       </c>
       <c r="C175" t="n">
-        <v>148.39856</v>
+        <v>148.398575</v>
       </c>
     </row>
     <row r="176">
@@ -5336,10 +5336,10 @@
         <v>177</v>
       </c>
       <c r="B176" t="n">
-        <v>140.114502</v>
+        <v>140.114487</v>
       </c>
       <c r="C176" t="n">
-        <v>148.879593</v>
+        <v>148.879608</v>
       </c>
     </row>
     <row r="177">
@@ -5350,7 +5350,7 @@
         <v>138.646057</v>
       </c>
       <c r="C177" t="n">
-        <v>147.917542</v>
+        <v>147.917526</v>
       </c>
     </row>
     <row r="178">
@@ -5372,7 +5372,7 @@
         <v>142.643509</v>
       </c>
       <c r="C179" t="n">
-        <v>148.39856</v>
+        <v>148.398575</v>
       </c>
     </row>
     <row r="180">
@@ -5383,7 +5383,7 @@
         <v>137.871048</v>
       </c>
       <c r="C180" t="n">
-        <v>149.92186</v>
+        <v>149.921844</v>
       </c>
     </row>
     <row r="181">
@@ -5391,10 +5391,10 @@
         <v>182</v>
       </c>
       <c r="B181" t="n">
-        <v>144.397491</v>
+        <v>144.397476</v>
       </c>
       <c r="C181" t="n">
-        <v>151.284775</v>
+        <v>151.284744</v>
       </c>
     </row>
     <row r="182">
@@ -5416,7 +5416,7 @@
         <v>135.709167</v>
       </c>
       <c r="C183" t="n">
-        <v>151.364929</v>
+        <v>151.364944</v>
       </c>
     </row>
     <row r="184">
@@ -5449,7 +5449,7 @@
         <v>138.768433</v>
       </c>
       <c r="C186" t="n">
-        <v>151.364929</v>
+        <v>151.364944</v>
       </c>
     </row>
     <row r="187">
@@ -5468,10 +5468,10 @@
         <v>189</v>
       </c>
       <c r="B188" t="n">
-        <v>138.238144</v>
+        <v>138.238159</v>
       </c>
       <c r="C188" t="n">
-        <v>152.647675</v>
+        <v>152.647705</v>
       </c>
     </row>
     <row r="189">
@@ -5479,7 +5479,7 @@
         <v>190</v>
       </c>
       <c r="B189" t="n">
-        <v>137.667099</v>
+        <v>137.667084</v>
       </c>
       <c r="C189" t="n">
         <v>150.402878</v>
@@ -5490,10 +5490,10 @@
         <v>191</v>
       </c>
       <c r="B190" t="n">
-        <v>135.627563</v>
+        <v>135.627579</v>
       </c>
       <c r="C190" t="n">
-        <v>149.440781</v>
+        <v>149.440796</v>
       </c>
     </row>
     <row r="191">
@@ -5504,7 +5504,7 @@
         <v>129.386673</v>
       </c>
       <c r="C191" t="n">
-        <v>148.158051</v>
+        <v>148.158066</v>
       </c>
     </row>
     <row r="192">
@@ -5512,7 +5512,7 @@
         <v>193</v>
       </c>
       <c r="B192" t="n">
-        <v>121.310196</v>
+        <v>121.310204</v>
       </c>
       <c r="C192" t="n">
         <v>150.483032</v>
@@ -5537,7 +5537,7 @@
         <v>115.925896</v>
       </c>
       <c r="C194" t="n">
-        <v>141.824448</v>
+        <v>141.824463</v>
       </c>
     </row>
     <row r="195">
@@ -5545,7 +5545,7 @@
         <v>196</v>
       </c>
       <c r="B195" t="n">
-        <v>117.88382</v>
+        <v>117.883827</v>
       </c>
       <c r="C195" t="n">
         <v>143.027023</v>
@@ -5556,7 +5556,7 @@
         <v>197</v>
       </c>
       <c r="B196" t="n">
-        <v>115.191658</v>
+        <v>115.191666</v>
       </c>
       <c r="C196" t="n">
         <v>140.782227</v>
@@ -5570,7 +5570,7 @@
         <v>115.273254</v>
       </c>
       <c r="C197" t="n">
-        <v>141.904633</v>
+        <v>141.904617</v>
       </c>
     </row>
     <row r="198">
@@ -5644,7 +5644,7 @@
         <v>205</v>
       </c>
       <c r="B204" t="n">
-        <v>103.280907</v>
+        <v>103.280914</v>
       </c>
       <c r="C204" t="n">
         <v>140.782227</v>
@@ -5669,7 +5669,7 @@
         <v>103.076958</v>
       </c>
       <c r="C206" t="n">
-        <v>142.064987</v>
+        <v>142.064972</v>
       </c>
     </row>
     <row r="207">
@@ -5680,7 +5680,7 @@
         <v>102.791428</v>
       </c>
       <c r="C207" t="n">
-        <v>140.862396</v>
+        <v>140.862381</v>
       </c>
     </row>
     <row r="208">
@@ -5699,7 +5699,7 @@
         <v>210</v>
       </c>
       <c r="B209" t="n">
-        <v>103.280907</v>
+        <v>103.280914</v>
       </c>
       <c r="C209" t="n">
         <v>139.90033</v>
@@ -5713,7 +5713,7 @@
         <v>103.076958</v>
       </c>
       <c r="C210" t="n">
-        <v>122.102127</v>
+        <v>122.102119</v>
       </c>
     </row>
     <row r="211">
@@ -5721,10 +5721,10 @@
         <v>212</v>
       </c>
       <c r="B211" t="n">
-        <v>108.134956</v>
+        <v>108.134949</v>
       </c>
       <c r="C211" t="n">
-        <v>123.625389</v>
+        <v>123.625374</v>
       </c>
     </row>
     <row r="212">
@@ -5732,7 +5732,7 @@
         <v>213</v>
       </c>
       <c r="B212" t="n">
-        <v>111.765282</v>
+        <v>111.765289</v>
       </c>
       <c r="C212" t="n">
         <v>127.874504</v>
@@ -5754,10 +5754,10 @@
         <v>215</v>
       </c>
       <c r="B214" t="n">
-        <v>110.174461</v>
+        <v>110.174469</v>
       </c>
       <c r="C214" t="n">
-        <v>130.680542</v>
+        <v>130.680527</v>
       </c>
     </row>
     <row r="215">
@@ -5765,10 +5765,10 @@
         <v>216</v>
       </c>
       <c r="B215" t="n">
-        <v>117.516708</v>
+        <v>117.516701</v>
       </c>
       <c r="C215" t="n">
-        <v>132.52449</v>
+        <v>132.524475</v>
       </c>
     </row>
     <row r="216">
@@ -5787,10 +5787,10 @@
         <v>218</v>
       </c>
       <c r="B217" t="n">
-        <v>117.598282</v>
+        <v>117.598274</v>
       </c>
       <c r="C217" t="n">
-        <v>131.32193</v>
+        <v>131.321915</v>
       </c>
     </row>
     <row r="218">
@@ -5798,7 +5798,7 @@
         <v>219</v>
       </c>
       <c r="B218" t="n">
-        <v>116.619324</v>
+        <v>116.619316</v>
       </c>
       <c r="C218" t="n">
         <v>130.440018</v>
@@ -5812,7 +5812,7 @@
         <v>115.028503</v>
       </c>
       <c r="C219" t="n">
-        <v>129.79863</v>
+        <v>129.798645</v>
       </c>
     </row>
     <row r="220">
@@ -5820,7 +5820,7 @@
         <v>221</v>
       </c>
       <c r="B220" t="n">
-        <v>117.598282</v>
+        <v>117.598274</v>
       </c>
       <c r="C220" t="n">
         <v>129.237442</v>
@@ -5842,7 +5842,7 @@
         <v>223</v>
       </c>
       <c r="B222" t="n">
-        <v>111.602119</v>
+        <v>111.602127</v>
       </c>
       <c r="C222" t="n">
         <v>127.553825</v>
@@ -5853,10 +5853,10 @@
         <v>224</v>
       </c>
       <c r="B223" t="n">
-        <v>110.500778</v>
+        <v>110.500786</v>
       </c>
       <c r="C223" t="n">
-        <v>128.756409</v>
+        <v>128.756424</v>
       </c>
     </row>
     <row r="224">
@@ -5867,7 +5867,7 @@
         <v>106.544136</v>
       </c>
       <c r="C224" t="n">
-        <v>125.950386</v>
+        <v>125.950378</v>
       </c>
     </row>
     <row r="225">
@@ -5875,7 +5875,7 @@
         <v>226</v>
       </c>
       <c r="B225" t="n">
-        <v>107.441521</v>
+        <v>107.441513</v>
       </c>
       <c r="C225" t="n">
         <v>127.874504</v>
@@ -5900,7 +5900,7 @@
         <v>108.869171</v>
       </c>
       <c r="C227" t="n">
-        <v>128.27536</v>
+        <v>128.275375</v>
       </c>
     </row>
     <row r="228">
@@ -5911,7 +5911,7 @@
         <v>111.071846</v>
       </c>
       <c r="C228" t="n">
-        <v>131.08139</v>
+        <v>131.081406</v>
       </c>
     </row>
     <row r="229">
@@ -5922,7 +5922,7 @@
         <v>110.133675</v>
       </c>
       <c r="C229" t="n">
-        <v>131.08139</v>
+        <v>131.081406</v>
       </c>
     </row>
     <row r="230">
@@ -5933,7 +5933,7 @@
         <v>110.949478</v>
       </c>
       <c r="C230" t="n">
-        <v>129.638306</v>
+        <v>129.63829</v>
       </c>
     </row>
     <row r="231">
@@ -5941,7 +5941,7 @@
         <v>232</v>
       </c>
       <c r="B231" t="n">
-        <v>107.441521</v>
+        <v>107.441513</v>
       </c>
       <c r="C231" t="n">
         <v>130.359848</v>
@@ -5952,7 +5952,7 @@
         <v>233</v>
       </c>
       <c r="B232" t="n">
-        <v>107.19677</v>
+        <v>107.196777</v>
       </c>
       <c r="C232" t="n">
         <v>130.359848</v>
@@ -5977,7 +5977,7 @@
         <v>108.583649</v>
       </c>
       <c r="C234" t="n">
-        <v>127.152977</v>
+        <v>127.152969</v>
       </c>
     </row>
     <row r="235">
@@ -5988,7 +5988,7 @@
         <v>114.620598</v>
       </c>
       <c r="C235" t="n">
-        <v>129.79863</v>
+        <v>129.798645</v>
       </c>
     </row>
     <row r="236">
@@ -5996,10 +5996,10 @@
         <v>237</v>
       </c>
       <c r="B236" t="n">
-        <v>111.316582</v>
+        <v>111.316589</v>
       </c>
       <c r="C236" t="n">
-        <v>126.992607</v>
+        <v>126.992615</v>
       </c>
     </row>
     <row r="237">
@@ -6007,7 +6007,7 @@
         <v>238</v>
       </c>
       <c r="B237" t="n">
-        <v>116.007462</v>
+        <v>116.007469</v>
       </c>
       <c r="C237" t="n">
         <v>129.558136</v>
@@ -6018,10 +6018,10 @@
         <v>239</v>
       </c>
       <c r="B238" t="n">
-        <v>112.050819</v>
+        <v>112.050827</v>
       </c>
       <c r="C238" t="n">
-        <v>127.152977</v>
+        <v>127.152969</v>
       </c>
     </row>
     <row r="239">
@@ -6054,7 +6054,7 @@
         <v>113.396896</v>
       </c>
       <c r="C241" t="n">
-        <v>128.676239</v>
+        <v>128.676224</v>
       </c>
     </row>
     <row r="242">
@@ -6065,7 +6065,7 @@
         <v>112.62188</v>
       </c>
       <c r="C242" t="n">
-        <v>128.034866</v>
+        <v>128.034851</v>
       </c>
     </row>
     <row r="243">
@@ -6084,10 +6084,10 @@
         <v>245</v>
       </c>
       <c r="B244" t="n">
-        <v>112.213974</v>
+        <v>112.213982</v>
       </c>
       <c r="C244" t="n">
-        <v>122.663315</v>
+        <v>122.66333</v>
       </c>
     </row>
     <row r="245">
@@ -6106,10 +6106,10 @@
         <v>247</v>
       </c>
       <c r="B246" t="n">
-        <v>105.442787</v>
+        <v>105.442795</v>
       </c>
       <c r="C246" t="n">
-        <v>117.772827</v>
+        <v>117.77282</v>
       </c>
     </row>
     <row r="247">
@@ -6117,10 +6117,10 @@
         <v>248</v>
       </c>
       <c r="B247" t="n">
-        <v>104.626984</v>
+        <v>104.626991</v>
       </c>
       <c r="C247" t="n">
-        <v>120.258163</v>
+        <v>120.258148</v>
       </c>
     </row>
     <row r="248">
@@ -6128,10 +6128,10 @@
         <v>249</v>
       </c>
       <c r="B248" t="n">
-        <v>102.95459</v>
+        <v>102.954582</v>
       </c>
       <c r="C248" t="n">
-        <v>120.819351</v>
+        <v>120.819366</v>
       </c>
     </row>
     <row r="249">
@@ -6142,7 +6142,7 @@
         <v>105.157257</v>
       </c>
       <c r="C249" t="n">
-        <v>124.346947</v>
+        <v>124.346931</v>
       </c>
     </row>
     <row r="250">
@@ -6153,7 +6153,7 @@
         <v>104.994102</v>
       </c>
       <c r="C250" t="n">
-        <v>126.271065</v>
+        <v>126.271072</v>
       </c>
     </row>
     <row r="251">
@@ -6172,10 +6172,10 @@
         <v>253</v>
       </c>
       <c r="B252" t="n">
-        <v>109.195496</v>
+        <v>109.195503</v>
       </c>
       <c r="C252" t="n">
-        <v>127.313301</v>
+        <v>127.313293</v>
       </c>
     </row>
     <row r="253">
@@ -6194,10 +6194,10 @@
         <v>255</v>
       </c>
       <c r="B254" t="n">
-        <v>108.379692</v>
+        <v>108.3797</v>
       </c>
       <c r="C254" t="n">
-        <v>126.832268</v>
+        <v>126.832275</v>
       </c>
     </row>
     <row r="255">
@@ -6208,7 +6208,7 @@
         <v>107.074402</v>
       </c>
       <c r="C255" t="n">
-        <v>126.431419</v>
+        <v>126.431412</v>
       </c>
     </row>
     <row r="256">
@@ -6216,7 +6216,7 @@
         <v>257</v>
       </c>
       <c r="B256" t="n">
-        <v>104.219093</v>
+        <v>104.219086</v>
       </c>
       <c r="C256" t="n">
         <v>126.591751</v>
@@ -6252,7 +6252,7 @@
         <v>104.423035</v>
       </c>
       <c r="C259" t="n">
-        <v>122.583145</v>
+        <v>122.583153</v>
       </c>
     </row>
     <row r="260">
@@ -6263,7 +6263,7 @@
         <v>105.034897</v>
       </c>
       <c r="C260" t="n">
-        <v>126.271065</v>
+        <v>126.271072</v>
       </c>
     </row>
     <row r="261">
@@ -6274,7 +6274,7 @@
         <v>103.933556</v>
       </c>
       <c r="C261" t="n">
-        <v>126.030548</v>
+        <v>126.030556</v>
       </c>
     </row>
     <row r="262">
@@ -6282,10 +6282,10 @@
         <v>263</v>
       </c>
       <c r="B262" t="n">
-        <v>103.199326</v>
+        <v>103.199333</v>
       </c>
       <c r="C262" t="n">
-        <v>125.870209</v>
+        <v>125.870201</v>
       </c>
     </row>
     <row r="263">
@@ -6307,7 +6307,7 @@
         <v>102.791428</v>
       </c>
       <c r="C264" t="n">
-        <v>125.709862</v>
+        <v>125.709877</v>
       </c>
     </row>
     <row r="265">
@@ -6318,7 +6318,7 @@
         <v>101.975624</v>
       </c>
       <c r="C265" t="n">
-        <v>126.190887</v>
+        <v>126.190895</v>
       </c>
     </row>
     <row r="266">
@@ -6329,7 +6329,7 @@
         <v>99.976906</v>
       </c>
       <c r="C266" t="n">
-        <v>126.110741</v>
+        <v>126.110733</v>
       </c>
     </row>
     <row r="267">
@@ -6340,7 +6340,7 @@
         <v>102.138779</v>
       </c>
       <c r="C267" t="n">
-        <v>126.832268</v>
+        <v>126.832275</v>
       </c>
     </row>
     <row r="268">
@@ -6351,7 +6351,7 @@
         <v>99.936111</v>
       </c>
       <c r="C268" t="n">
-        <v>123.625389</v>
+        <v>123.625374</v>
       </c>
     </row>
     <row r="269">
@@ -6359,10 +6359,10 @@
         <v>270</v>
       </c>
       <c r="B269" t="n">
-        <v>99.85453</v>
+        <v>99.854523</v>
       </c>
       <c r="C269" t="n">
-        <v>123.465042</v>
+        <v>123.46505</v>
       </c>
     </row>
     <row r="270">
@@ -6373,7 +6373,7 @@
         <v>100.140068</v>
       </c>
       <c r="C270" t="n">
-        <v>123.144379</v>
+        <v>123.144371</v>
       </c>
     </row>
     <row r="271">
@@ -6381,10 +6381,10 @@
         <v>272</v>
       </c>
       <c r="B271" t="n">
-        <v>98.304497</v>
+        <v>98.304504</v>
       </c>
       <c r="C271" t="n">
-        <v>120.739189</v>
+        <v>120.739197</v>
       </c>
     </row>
     <row r="272">
@@ -6403,7 +6403,7 @@
         <v>274</v>
       </c>
       <c r="B273" t="n">
-        <v>101.078232</v>
+        <v>101.078239</v>
       </c>
       <c r="C273" t="n">
         <v>122.262466</v>
@@ -6414,10 +6414,10 @@
         <v>275</v>
       </c>
       <c r="B274" t="n">
-        <v>103.199326</v>
+        <v>103.199333</v>
       </c>
       <c r="C274" t="n">
-        <v>122.102127</v>
+        <v>122.102119</v>
       </c>
     </row>
     <row r="275">
@@ -6425,7 +6425,7 @@
         <v>276</v>
       </c>
       <c r="B275" t="n">
-        <v>102.669052</v>
+        <v>102.66906</v>
       </c>
       <c r="C275" t="n">
         <v>121.781418</v>
@@ -6439,7 +6439,7 @@
         <v>101.975624</v>
       </c>
       <c r="C276" t="n">
-        <v>120.338341</v>
+        <v>120.338333</v>
       </c>
     </row>
     <row r="277">
@@ -6450,7 +6450,7 @@
         <v>97.896599</v>
       </c>
       <c r="C277" t="n">
-        <v>119.456436</v>
+        <v>119.456451</v>
       </c>
     </row>
     <row r="278">
@@ -6472,7 +6472,7 @@
         <v>101.119026</v>
       </c>
       <c r="C279" t="n">
-        <v>121.22023</v>
+        <v>121.220222</v>
       </c>
     </row>
     <row r="280">
@@ -6480,7 +6480,7 @@
         <v>281</v>
       </c>
       <c r="B280" t="n">
-        <v>100.180855</v>
+        <v>100.180862</v>
       </c>
       <c r="C280" t="n">
         <v>122.262466</v>
@@ -6494,7 +6494,7 @@
         <v>99.936111</v>
       </c>
       <c r="C281" t="n">
-        <v>121.22023</v>
+        <v>121.220222</v>
       </c>
     </row>
     <row r="282">
@@ -6505,7 +6505,7 @@
         <v>101.486145</v>
       </c>
       <c r="C282" t="n">
-        <v>122.021935</v>
+        <v>122.02195</v>
       </c>
     </row>
     <row r="283">
@@ -6516,7 +6516,7 @@
         <v>103.321701</v>
       </c>
       <c r="C283" t="n">
-        <v>123.545227</v>
+        <v>123.545219</v>
       </c>
     </row>
     <row r="284">
@@ -6527,7 +6527,7 @@
         <v>102.873009</v>
       </c>
       <c r="C284" t="n">
-        <v>121.540924</v>
+        <v>121.540916</v>
       </c>
     </row>
     <row r="285">
@@ -6549,7 +6549,7 @@
         <v>98.712402</v>
       </c>
       <c r="C286" t="n">
-        <v>120.498672</v>
+        <v>120.49868</v>
       </c>
     </row>
     <row r="287">
@@ -6557,10 +6557,10 @@
         <v>288</v>
       </c>
       <c r="B287" t="n">
-        <v>98.467651</v>
+        <v>98.467659</v>
       </c>
       <c r="C287" t="n">
-        <v>120.578835</v>
+        <v>120.57885</v>
       </c>
     </row>
     <row r="288">
@@ -6579,7 +6579,7 @@
         <v>290</v>
       </c>
       <c r="B289" t="n">
-        <v>102.22036</v>
+        <v>102.220367</v>
       </c>
       <c r="C289" t="n">
         <v>119.777115</v>
@@ -6593,7 +6593,7 @@
         <v>106.054642</v>
       </c>
       <c r="C290" t="n">
-        <v>127.393478</v>
+        <v>127.393456</v>
       </c>
     </row>
     <row r="291">
@@ -6601,7 +6601,7 @@
         <v>292</v>
       </c>
       <c r="B291" t="n">
-        <v>106.462555</v>
+        <v>106.462547</v>
       </c>
       <c r="C291" t="n">
         <v>125.228828</v>
@@ -6626,7 +6626,7 @@
         <v>105.687538</v>
       </c>
       <c r="C293" t="n">
-        <v>122.422806</v>
+        <v>122.422813</v>
       </c>
     </row>
     <row r="294">
@@ -6634,10 +6634,10 @@
         <v>295</v>
       </c>
       <c r="B294" t="n">
-        <v>104.830948</v>
+        <v>104.83094</v>
       </c>
       <c r="C294" t="n">
-        <v>121.059883</v>
+        <v>121.059875</v>
       </c>
     </row>
     <row r="295">
@@ -6645,10 +6645,10 @@
         <v>296</v>
       </c>
       <c r="B295" t="n">
-        <v>105.442787</v>
+        <v>105.442795</v>
       </c>
       <c r="C295" t="n">
-        <v>119.616791</v>
+        <v>119.616783</v>
       </c>
     </row>
     <row r="296">
@@ -6667,10 +6667,10 @@
         <v>298</v>
       </c>
       <c r="B297" t="n">
-        <v>103.036163</v>
+        <v>103.036171</v>
       </c>
       <c r="C297" t="n">
-        <v>116.570221</v>
+        <v>116.570229</v>
       </c>
     </row>
     <row r="298">
@@ -6689,7 +6689,7 @@
         <v>300</v>
       </c>
       <c r="B299" t="n">
-        <v>104.463829</v>
+        <v>104.463837</v>
       </c>
       <c r="C299" t="n">
         <v>117.933182</v>
@@ -6700,7 +6700,7 @@
         <v>301</v>
       </c>
       <c r="B300" t="n">
-        <v>105.361214</v>
+        <v>105.361206</v>
       </c>
       <c r="C300" t="n">
         <v>118.013336</v>
@@ -6714,7 +6714,7 @@
         <v>107.971802</v>
       </c>
       <c r="C301" t="n">
-        <v>118.654716</v>
+        <v>118.654724</v>
       </c>
     </row>
     <row r="302">
@@ -6725,7 +6725,7 @@
         <v>108.706009</v>
       </c>
       <c r="C302" t="n">
-        <v>120.258163</v>
+        <v>120.258148</v>
       </c>
     </row>
     <row r="303">
@@ -6736,7 +6736,7 @@
         <v>109.481026</v>
       </c>
       <c r="C303" t="n">
-        <v>122.102127</v>
+        <v>122.102119</v>
       </c>
     </row>
     <row r="304">
@@ -6780,7 +6780,7 @@
         <v>105.866501</v>
       </c>
       <c r="C307" t="n">
-        <v>120.096046</v>
+        <v>120.096039</v>
       </c>
     </row>
     <row r="308">
@@ -6824,7 +6824,7 @@
         <v>101.685844</v>
       </c>
       <c r="C311" t="n">
-        <v>117.104317</v>
+        <v>117.104324</v>
       </c>
     </row>
     <row r="312">
@@ -6835,7 +6835,7 @@
         <v>101.729393</v>
       </c>
       <c r="C312" t="n">
-        <v>117.959099</v>
+        <v>117.959106</v>
       </c>
     </row>
     <row r="313">
@@ -6857,7 +6857,7 @@
         <v>106.737473</v>
       </c>
       <c r="C314" t="n">
-        <v>121.463692</v>
+        <v>121.463684</v>
       </c>
     </row>
     <row r="315">
@@ -6879,7 +6879,7 @@
         <v>109.132637</v>
       </c>
       <c r="C316" t="n">
-        <v>122.745857</v>
+        <v>122.745865</v>
       </c>
     </row>
     <row r="317">
@@ -6901,7 +6901,7 @@
         <v>107.347145</v>
       </c>
       <c r="C318" t="n">
-        <v>122.062035</v>
+        <v>122.062027</v>
       </c>
     </row>
     <row r="319">
@@ -6912,7 +6912,7 @@
         <v>106.389084</v>
       </c>
       <c r="C319" t="n">
-        <v>120.523438</v>
+        <v>120.52343</v>
       </c>
     </row>
     <row r="320">
@@ -6934,7 +6934,7 @@
         <v>108.131027</v>
       </c>
       <c r="C321" t="n">
-        <v>122.232994</v>
+        <v>122.232986</v>
       </c>
     </row>
     <row r="322">
@@ -6945,7 +6945,7 @@
         <v>110.613289</v>
       </c>
       <c r="C322" t="n">
-        <v>123.51516</v>
+        <v>123.515152</v>
       </c>
     </row>
     <row r="323">
@@ -7000,7 +7000,7 @@
         <v>110.831032</v>
       </c>
       <c r="C327" t="n">
-        <v>122.062035</v>
+        <v>122.062027</v>
       </c>
     </row>
     <row r="328">
@@ -7011,7 +7011,7 @@
         <v>110.221359</v>
       </c>
       <c r="C328" t="n">
-        <v>119.412224</v>
+        <v>119.412231</v>
       </c>
     </row>
     <row r="329">
@@ -7022,7 +7022,7 @@
         <v>111.919746</v>
       </c>
       <c r="C329" t="n">
-        <v>122.916817</v>
+        <v>122.916809</v>
       </c>
     </row>
     <row r="330">
@@ -7044,7 +7044,7 @@
         <v>102.8181</v>
       </c>
       <c r="C331" t="n">
-        <v>122.831322</v>
+        <v>122.831329</v>
       </c>
     </row>
     <row r="332">
@@ -7055,7 +7055,7 @@
         <v>103.993912</v>
       </c>
       <c r="C332" t="n">
-        <v>120.779869</v>
+        <v>120.779861</v>
       </c>
     </row>
     <row r="333">
@@ -7088,7 +7088,7 @@
         <v>100.510033</v>
       </c>
       <c r="C335" t="n">
-        <v>107.787262</v>
+        <v>107.78727</v>
       </c>
     </row>
     <row r="336">
@@ -7132,7 +7132,7 @@
         <v>97.635818</v>
       </c>
       <c r="C339" t="n">
-        <v>108.214653</v>
+        <v>108.214661</v>
       </c>
     </row>
     <row r="340">
@@ -7154,7 +7154,7 @@
         <v>93.890656</v>
       </c>
       <c r="C341" t="n">
-        <v>106.847015</v>
+        <v>106.847008</v>
       </c>
     </row>
     <row r="342">
@@ -7198,7 +7198,7 @@
         <v>96.198715</v>
       </c>
       <c r="C345" t="n">
-        <v>105.992233</v>
+        <v>105.992241</v>
       </c>
     </row>
     <row r="346">
@@ -7209,7 +7209,7 @@
         <v>96.764847</v>
       </c>
       <c r="C346" t="n">
-        <v>105.906769</v>
+        <v>105.906761</v>
       </c>
     </row>
     <row r="347">
@@ -7242,7 +7242,7 @@
         <v>98.158401</v>
       </c>
       <c r="C349" t="n">
-        <v>106.077713</v>
+        <v>106.077721</v>
       </c>
     </row>
     <row r="350">
@@ -7286,7 +7286,7 @@
         <v>97.592278</v>
       </c>
       <c r="C353" t="n">
-        <v>106.847015</v>
+        <v>106.847008</v>
       </c>
     </row>
     <row r="354">
@@ -7352,7 +7352,7 @@
         <v>95.458397</v>
       </c>
       <c r="C359" t="n">
-        <v>111.377327</v>
+        <v>111.377335</v>
       </c>
     </row>
     <row r="360">
@@ -7385,7 +7385,7 @@
         <v>91.800323</v>
       </c>
       <c r="C362" t="n">
-        <v>113.172348</v>
+        <v>113.172356</v>
       </c>
     </row>
     <row r="363">
@@ -7528,7 +7528,7 @@
         <v>90.755157</v>
       </c>
       <c r="C375" t="n">
-        <v>109.411346</v>
+        <v>109.411339</v>
       </c>
     </row>
     <row r="376">
@@ -7616,7 +7616,7 @@
         <v>89.361603</v>
       </c>
       <c r="C383" t="n">
-        <v>102.145744</v>
+        <v>102.145752</v>
       </c>
     </row>
     <row r="384">
@@ -7671,7 +7671,7 @@
         <v>90.668053</v>
       </c>
       <c r="C388" t="n">
-        <v>104.197212</v>
+        <v>104.19722</v>
       </c>
     </row>
     <row r="389">
@@ -7715,7 +7715,7 @@
         <v>87.314819</v>
       </c>
       <c r="C392" t="n">
-        <v>100.350708</v>
+        <v>100.350716</v>
       </c>
     </row>
     <row r="393">
@@ -7759,7 +7759,7 @@
         <v>83.839653</v>
       </c>
       <c r="C396" t="n">
-        <v>99.923325</v>
+        <v>99.923332</v>
       </c>
     </row>
     <row r="397">
@@ -7781,7 +7781,7 @@
         <v>83.857063</v>
       </c>
       <c r="C398" t="n">
-        <v>98.641159</v>
+        <v>98.641167</v>
       </c>
     </row>
     <row r="399">
@@ -7803,7 +7803,7 @@
         <v>81.244148</v>
       </c>
       <c r="C400" t="n">
-        <v>95.991356</v>
+        <v>95.991364</v>
       </c>
     </row>
     <row r="401">
@@ -7814,7 +7814,7 @@
         <v>81.505447</v>
       </c>
       <c r="C401" t="n">
-        <v>95.563972</v>
+        <v>95.56398</v>
       </c>
     </row>
     <row r="402">
@@ -7847,7 +7847,7 @@
         <v>79.362862</v>
       </c>
       <c r="C404" t="n">
-        <v>94.70919</v>
+        <v>94.709198</v>
       </c>
     </row>
     <row r="405">
@@ -7858,7 +7858,7 @@
         <v>79.955116</v>
       </c>
       <c r="C405" t="n">
-        <v>95.307533</v>
+        <v>95.307541</v>
       </c>
     </row>
     <row r="406">
@@ -7891,7 +7891,7 @@
         <v>78.561554</v>
       </c>
       <c r="C408" t="n">
-        <v>94.88015</v>
+        <v>94.880142</v>
       </c>
     </row>
     <row r="409">
@@ -7902,7 +7902,7 @@
         <v>77.67318</v>
       </c>
       <c r="C409" t="n">
-        <v>94.88015</v>
+        <v>94.880142</v>
       </c>
     </row>
     <row r="410">
@@ -7979,7 +7979,7 @@
         <v>75.251877</v>
       </c>
       <c r="C416" t="n">
-        <v>80.562645</v>
+        <v>80.562653</v>
       </c>
     </row>
     <row r="417">
@@ -8023,7 +8023,7 @@
         <v>86.644173</v>
       </c>
       <c r="C420" t="n">
-        <v>86.930725</v>
+        <v>86.930733</v>
       </c>
     </row>
     <row r="421">
@@ -8045,7 +8045,7 @@
         <v>87.968048</v>
       </c>
       <c r="C422" t="n">
-        <v>88.041946</v>
+        <v>88.041939</v>
       </c>
     </row>
     <row r="423">
@@ -8056,7 +8056,7 @@
         <v>88.011604</v>
       </c>
       <c r="C423" t="n">
-        <v>87.870987</v>
+        <v>87.870995</v>
       </c>
     </row>
     <row r="424">
@@ -8089,7 +8089,7 @@
         <v>85.02417</v>
       </c>
       <c r="C426" t="n">
-        <v>87.187164</v>
+        <v>87.187157</v>
       </c>
     </row>
     <row r="427">
@@ -8100,7 +8100,7 @@
         <v>83.247391</v>
       </c>
       <c r="C427" t="n">
-        <v>87.529076</v>
+        <v>87.529083</v>
       </c>
     </row>
     <row r="428">
@@ -8188,7 +8188,7 @@
         <v>83.073189</v>
       </c>
       <c r="C435" t="n">
-        <v>103.256958</v>
+        <v>103.25695</v>
       </c>
     </row>
     <row r="436">
@@ -8210,7 +8210,7 @@
         <v>82.02803</v>
       </c>
       <c r="C437" t="n">
-        <v>99.923325</v>
+        <v>99.923332</v>
       </c>
     </row>
     <row r="438">
@@ -8221,7 +8221,7 @@
         <v>80.216408</v>
       </c>
       <c r="C438" t="n">
-        <v>99.239502</v>
+        <v>99.23951</v>
       </c>
     </row>
     <row r="439">
@@ -8265,7 +8265,7 @@
         <v>79.972534</v>
       </c>
       <c r="C442" t="n">
-        <v>102.316704</v>
+        <v>102.316696</v>
       </c>
     </row>
     <row r="443">
@@ -8287,7 +8287,7 @@
         <v>82.881584</v>
       </c>
       <c r="C444" t="n">
-        <v>102.145744</v>
+        <v>102.145752</v>
       </c>
     </row>
     <row r="445">
@@ -8298,7 +8298,7 @@
         <v>83.595779</v>
       </c>
       <c r="C445" t="n">
-        <v>104.795547</v>
+        <v>104.795555</v>
       </c>
     </row>
     <row r="446">
@@ -8320,7 +8320,7 @@
         <v>84.693199</v>
       </c>
       <c r="C447" t="n">
-        <v>109.92421</v>
+        <v>109.924217</v>
       </c>
     </row>
     <row r="448">
@@ -8375,7 +8375,7 @@
         <v>85.529327</v>
       </c>
       <c r="C452" t="n">
-        <v>115.394775</v>
+        <v>115.394783</v>
       </c>
     </row>
     <row r="453">
@@ -8386,7 +8386,7 @@
         <v>85.668686</v>
       </c>
       <c r="C453" t="n">
-        <v>114.881912</v>
+        <v>114.881905</v>
       </c>
     </row>
     <row r="454">
@@ -8397,7 +8397,7 @@
         <v>85.877724</v>
       </c>
       <c r="C454" t="n">
-        <v>116.078598</v>
+        <v>116.07859</v>
       </c>
     </row>
     <row r="455">
@@ -8430,7 +8430,7 @@
         <v>82.829323</v>
       </c>
       <c r="C457" t="n">
-        <v>113.856171</v>
+        <v>113.856178</v>
       </c>
     </row>
     <row r="458">
@@ -8529,7 +8529,7 @@
         <v>82.30674</v>
       </c>
       <c r="C466" t="n">
-        <v>116.93338</v>
+        <v>116.933372</v>
       </c>
     </row>
     <row r="467">
@@ -8540,7 +8540,7 @@
         <v>80.442863</v>
       </c>
       <c r="C467" t="n">
-        <v>113.514267</v>
+        <v>113.514275</v>
       </c>
     </row>
     <row r="468">
@@ -8551,7 +8551,7 @@
         <v>80.634476</v>
       </c>
       <c r="C468" t="n">
-        <v>111.377327</v>
+        <v>111.377335</v>
       </c>
     </row>
     <row r="469">
@@ -8573,7 +8573,7 @@
         <v>79.240929</v>
       </c>
       <c r="C470" t="n">
-        <v>110.949944</v>
+        <v>110.949936</v>
       </c>
     </row>
     <row r="471">
@@ -8661,7 +8661,7 @@
         <v>80.129311</v>
       </c>
       <c r="C478" t="n">
-        <v>109.582291</v>
+        <v>109.582298</v>
       </c>
     </row>
     <row r="479">
@@ -8716,7 +8716,7 @@
         <v>82.463509</v>
       </c>
       <c r="C483" t="n">
-        <v>110.949944</v>
+        <v>110.949936</v>
       </c>
     </row>
     <row r="484">
@@ -8738,7 +8738,7 @@
         <v>84.01384</v>
       </c>
       <c r="C485" t="n">
-        <v>113.172348</v>
+        <v>113.172356</v>
       </c>
     </row>
     <row r="486">
@@ -8749,7 +8749,7 @@
         <v>84.170616</v>
       </c>
       <c r="C486" t="n">
-        <v>113.343323</v>
+        <v>113.343315</v>
       </c>
     </row>
     <row r="487">
@@ -8760,7 +8760,7 @@
         <v>84.849968</v>
       </c>
       <c r="C487" t="n">
-        <v>113.856171</v>
+        <v>113.856178</v>
       </c>
     </row>
     <row r="488">
@@ -8793,7 +8793,7 @@
         <v>92.671295</v>
       </c>
       <c r="C490" t="n">
-        <v>112.488541</v>
+        <v>112.488533</v>
       </c>
     </row>
     <row r="491">
@@ -8804,7 +8804,7 @@
         <v>94.108398</v>
       </c>
       <c r="C491" t="n">
-        <v>117.104317</v>
+        <v>117.104324</v>
       </c>
     </row>
     <row r="492">
@@ -8826,7 +8826,7 @@
         <v>92.105156</v>
       </c>
       <c r="C493" t="n">
-        <v>116.93338</v>
+        <v>116.933372</v>
       </c>
     </row>
     <row r="494">
@@ -8859,7 +8859,7 @@
         <v>93.411613</v>
       </c>
       <c r="C496" t="n">
-        <v>119.070328</v>
+        <v>119.07032</v>
       </c>
     </row>
     <row r="497">
@@ -8892,7 +8892,7 @@
         <v>93.977745</v>
       </c>
       <c r="C499" t="n">
-        <v>121.463692</v>
+        <v>121.463684</v>
       </c>
     </row>
     <row r="500">
@@ -8903,7 +8903,7 @@
         <v>92.932579</v>
       </c>
       <c r="C500" t="n">
-        <v>120.60891</v>
+        <v>120.608917</v>
       </c>
     </row>
     <row r="501">
@@ -8914,7 +8914,7 @@
         <v>93.847099</v>
       </c>
       <c r="C501" t="n">
-        <v>120.694374</v>
+        <v>120.694382</v>
       </c>
     </row>
     <row r="502">
@@ -8925,7 +8925,7 @@
         <v>94.282585</v>
       </c>
       <c r="C502" t="n">
-        <v>120.523438</v>
+        <v>120.52343</v>
       </c>
     </row>
     <row r="503">
@@ -8936,7 +8936,7 @@
         <v>96.068077</v>
       </c>
       <c r="C503" t="n">
-        <v>124.369926</v>
+        <v>124.369919</v>
       </c>
     </row>
     <row r="504">
@@ -8969,7 +8969,7 @@
         <v>94.064842</v>
       </c>
       <c r="C506" t="n">
-        <v>123.686089</v>
+        <v>123.686096</v>
       </c>
     </row>
     <row r="507">
@@ -9002,7 +9002,7 @@
         <v>95.806786</v>
       </c>
       <c r="C509" t="n">
-        <v>123.344208</v>
+        <v>123.3442</v>
       </c>
     </row>
     <row r="510">
@@ -9013,7 +9013,7 @@
         <v>95.632599</v>
       </c>
       <c r="C510" t="n">
-        <v>127.361649</v>
+        <v>127.361641</v>
       </c>
     </row>
     <row r="511">
@@ -9024,7 +9024,7 @@
         <v>95.806786</v>
       </c>
       <c r="C511" t="n">
-        <v>125.993988</v>
+        <v>125.993996</v>
       </c>
     </row>
     <row r="512">
@@ -9046,7 +9046,7 @@
         <v>94.848717</v>
       </c>
       <c r="C513" t="n">
-        <v>126.934265</v>
+        <v>126.934258</v>
       </c>
     </row>
     <row r="514">
@@ -9057,7 +9057,7 @@
         <v>95.458397</v>
       </c>
       <c r="C514" t="n">
-        <v>125.993988</v>
+        <v>125.993996</v>
       </c>
     </row>
     <row r="515">
@@ -9079,7 +9079,7 @@
         <v>94.500328</v>
       </c>
       <c r="C516" t="n">
-        <v>125.224701</v>
+        <v>125.224693</v>
       </c>
     </row>
     <row r="517">
@@ -9090,7 +9090,7 @@
         <v>95.893875</v>
       </c>
       <c r="C517" t="n">
-        <v>125.993988</v>
+        <v>125.993996</v>
       </c>
     </row>
     <row r="518">
@@ -9112,7 +9112,7 @@
         <v>98.332603</v>
       </c>
       <c r="C519" t="n">
-        <v>125.48114</v>
+        <v>125.481133</v>
       </c>
     </row>
     <row r="520">
@@ -9134,7 +9134,7 @@
         <v>99.943901</v>
       </c>
       <c r="C521" t="n">
-        <v>127.276161</v>
+        <v>127.276169</v>
       </c>
     </row>
     <row r="522">
@@ -9189,7 +9189,7 @@
         <v>105.822945</v>
       </c>
       <c r="C526" t="n">
-        <v>133.516037</v>
+        <v>133.516022</v>
       </c>
     </row>
     <row r="527">
@@ -9200,7 +9200,7 @@
         <v>107.608444</v>
       </c>
       <c r="C527" t="n">
-        <v>134.285324</v>
+        <v>134.285339</v>
       </c>
     </row>
     <row r="528">
@@ -9211,7 +9211,7 @@
         <v>106.519722</v>
       </c>
       <c r="C528" t="n">
-        <v>134.19986</v>
+        <v>134.199844</v>
       </c>
     </row>
     <row r="529">
@@ -9222,7 +9222,7 @@
         <v>105.866501</v>
       </c>
       <c r="C529" t="n">
-        <v>134.883682</v>
+        <v>134.883667</v>
       </c>
     </row>
     <row r="530">
@@ -9266,7 +9266,7 @@
         <v>106.476173</v>
       </c>
       <c r="C533" t="n">
-        <v>138.47374</v>
+        <v>138.473724</v>
       </c>
     </row>
     <row r="534">
@@ -9277,7 +9277,7 @@
         <v>104.995529</v>
       </c>
       <c r="C534" t="n">
-        <v>137.020615</v>
+        <v>137.020599</v>
       </c>
     </row>
     <row r="535">
@@ -9288,7 +9288,7 @@
         <v>100.161644</v>
       </c>
       <c r="C535" t="n">
-        <v>134.19986</v>
+        <v>134.199844</v>
       </c>
     </row>
     <row r="536">
@@ -9332,7 +9332,7 @@
         <v>91.147095</v>
       </c>
       <c r="C539" t="n">
-        <v>106.847015</v>
+        <v>106.847008</v>
       </c>
     </row>
     <row r="540">
@@ -9354,7 +9354,7 @@
         <v>93.063225</v>
       </c>
       <c r="C541" t="n">
-        <v>109.838737</v>
+        <v>109.83873</v>
       </c>
     </row>
     <row r="542">
@@ -9376,7 +9376,7 @@
         <v>91.147095</v>
       </c>
       <c r="C543" t="n">
-        <v>104.795547</v>
+        <v>104.795555</v>
       </c>
     </row>
     <row r="544">
@@ -9409,7 +9409,7 @@
         <v>77.28994</v>
       </c>
       <c r="C546" t="n">
-        <v>93.854416</v>
+        <v>93.854424</v>
       </c>
     </row>
     <row r="547">
@@ -9453,7 +9453,7 @@
         <v>64.486679</v>
       </c>
       <c r="C550" t="n">
-        <v>78.895836</v>
+        <v>78.895844</v>
       </c>
     </row>
     <row r="551">
@@ -9475,7 +9475,7 @@
         <v>71.60997</v>
       </c>
       <c r="C552" t="n">
-        <v>77.399986</v>
+        <v>77.399979</v>
       </c>
     </row>
     <row r="553">
@@ -9486,7 +9486,7 @@
         <v>71.708336</v>
       </c>
       <c r="C553" t="n">
-        <v>78.126541</v>
+        <v>78.126534</v>
       </c>
     </row>
     <row r="554">

--- a/Danske aktiekurser.xlsx
+++ b/Danske aktiekurser.xlsx
@@ -3422,7 +3422,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>189.887924</v>
+        <v>189.887939</v>
       </c>
       <c r="C2" t="n">
         <v>191.282883</v>
@@ -3433,10 +3433,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>188.870804</v>
+        <v>188.870789</v>
       </c>
       <c r="C3" t="n">
-        <v>190.82489</v>
+        <v>190.824905</v>
       </c>
     </row>
     <row r="4">
@@ -3466,7 +3466,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="n">
-        <v>191.843903</v>
+        <v>191.843918</v>
       </c>
       <c r="C6" t="n">
         <v>191.74086</v>
@@ -3480,7 +3480,7 @@
         <v>190.357361</v>
       </c>
       <c r="C7" t="n">
-        <v>191.588196</v>
+        <v>191.588211</v>
       </c>
     </row>
     <row r="8">
@@ -3491,7 +3491,7 @@
         <v>194.347595</v>
       </c>
       <c r="C8" t="n">
-        <v>195.404694</v>
+        <v>195.404709</v>
       </c>
     </row>
     <row r="9">
@@ -3502,7 +3502,7 @@
         <v>196.14711</v>
       </c>
       <c r="C9" t="n">
-        <v>196.320663</v>
+        <v>196.320648</v>
       </c>
     </row>
     <row r="10">
@@ -3510,10 +3510,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="n">
-        <v>194.817032</v>
+        <v>194.817017</v>
       </c>
       <c r="C10" t="n">
-        <v>195.099365</v>
+        <v>195.09938</v>
       </c>
     </row>
     <row r="11">
@@ -3524,7 +3524,7 @@
         <v>196.303574</v>
       </c>
       <c r="C11" t="n">
-        <v>193.572769</v>
+        <v>193.572784</v>
       </c>
     </row>
     <row r="12">
@@ -3535,7 +3535,7 @@
         <v>195.521179</v>
       </c>
       <c r="C12" t="n">
-        <v>192.504166</v>
+        <v>192.50415</v>
       </c>
     </row>
     <row r="13">
@@ -3557,7 +3557,7 @@
         <v>191.452713</v>
       </c>
       <c r="C14" t="n">
-        <v>191.588196</v>
+        <v>191.588211</v>
       </c>
     </row>
     <row r="15">
@@ -3568,7 +3568,7 @@
         <v>190.670319</v>
       </c>
       <c r="C15" t="n">
-        <v>191.893524</v>
+        <v>191.893509</v>
       </c>
     </row>
     <row r="16">
@@ -3579,7 +3579,7 @@
         <v>193.330475</v>
       </c>
       <c r="C16" t="n">
-        <v>193.114822</v>
+        <v>193.114807</v>
       </c>
     </row>
     <row r="17">
@@ -3601,7 +3601,7 @@
         <v>192.078644</v>
       </c>
       <c r="C18" t="n">
-        <v>190.214249</v>
+        <v>190.214233</v>
       </c>
     </row>
     <row r="19">
@@ -3612,7 +3612,7 @@
         <v>186.680084</v>
       </c>
       <c r="C19" t="n">
-        <v>185.634476</v>
+        <v>185.63446</v>
       </c>
     </row>
     <row r="20">
@@ -3620,7 +3620,7 @@
         <v>21</v>
       </c>
       <c r="B20" t="n">
-        <v>189.966156</v>
+        <v>189.966171</v>
       </c>
       <c r="C20" t="n">
         <v>187.466385</v>
@@ -3631,10 +3631,10 @@
         <v>22</v>
       </c>
       <c r="B21" t="n">
-        <v>191.843903</v>
+        <v>191.843918</v>
       </c>
       <c r="C21" t="n">
-        <v>187.771683</v>
+        <v>187.771698</v>
       </c>
     </row>
     <row r="22">
@@ -3642,7 +3642,7 @@
         <v>23</v>
       </c>
       <c r="B22" t="n">
-        <v>189.966156</v>
+        <v>189.966171</v>
       </c>
       <c r="C22" t="n">
         <v>185.787125</v>
@@ -3656,7 +3656,7 @@
         <v>190.513855</v>
       </c>
       <c r="C23" t="n">
-        <v>187.008377</v>
+        <v>187.008392</v>
       </c>
     </row>
     <row r="24">
@@ -3678,7 +3678,7 @@
         <v>191.609192</v>
       </c>
       <c r="C25" t="n">
-        <v>187.619034</v>
+        <v>187.619049</v>
       </c>
     </row>
     <row r="26">
@@ -3697,7 +3697,7 @@
         <v>28</v>
       </c>
       <c r="B27" t="n">
-        <v>186.758331</v>
+        <v>186.758347</v>
       </c>
       <c r="C27" t="n">
         <v>183.9552</v>
@@ -3719,7 +3719,7 @@
         <v>30</v>
       </c>
       <c r="B29" t="n">
-        <v>188.557846</v>
+        <v>188.557831</v>
       </c>
       <c r="C29" t="n">
         <v>187.161057</v>
@@ -3730,7 +3730,7 @@
         <v>31</v>
       </c>
       <c r="B30" t="n">
-        <v>188.244888</v>
+        <v>188.244904</v>
       </c>
       <c r="C30" t="n">
         <v>185.787125</v>
@@ -3741,7 +3741,7 @@
         <v>32</v>
       </c>
       <c r="B31" t="n">
-        <v>189.966156</v>
+        <v>189.966171</v>
       </c>
       <c r="C31" t="n">
         <v>188.687653</v>
@@ -3766,7 +3766,7 @@
         <v>191.061508</v>
       </c>
       <c r="C33" t="n">
-        <v>193.267441</v>
+        <v>193.267456</v>
       </c>
     </row>
     <row r="34">
@@ -3774,7 +3774,7 @@
         <v>35</v>
       </c>
       <c r="B34" t="n">
-        <v>192.31337</v>
+        <v>192.313354</v>
       </c>
       <c r="C34" t="n">
         <v>193.42012</v>
@@ -3821,7 +3821,7 @@
         <v>192.861053</v>
       </c>
       <c r="C38" t="n">
-        <v>182.428604</v>
+        <v>182.428589</v>
       </c>
     </row>
     <row r="39">
@@ -3840,10 +3840,10 @@
         <v>41</v>
       </c>
       <c r="B40" t="n">
-        <v>194.504089</v>
+        <v>194.504074</v>
       </c>
       <c r="C40" t="n">
-        <v>186.245102</v>
+        <v>186.245087</v>
       </c>
     </row>
     <row r="41">
@@ -3851,10 +3851,10 @@
         <v>42</v>
       </c>
       <c r="B41" t="n">
-        <v>195.677689</v>
+        <v>195.677673</v>
       </c>
       <c r="C41" t="n">
-        <v>183.802536</v>
+        <v>183.802551</v>
       </c>
     </row>
     <row r="42">
@@ -3862,7 +3862,7 @@
         <v>43</v>
       </c>
       <c r="B42" t="n">
-        <v>189.731461</v>
+        <v>189.731445</v>
       </c>
       <c r="C42" t="n">
         <v>183.191895</v>
@@ -3876,7 +3876,7 @@
         <v>192.626297</v>
       </c>
       <c r="C43" t="n">
-        <v>182.733917</v>
+        <v>182.733932</v>
       </c>
     </row>
     <row r="44">
@@ -3895,7 +3895,7 @@
         <v>46</v>
       </c>
       <c r="B45" t="n">
-        <v>189.731461</v>
+        <v>189.731445</v>
       </c>
       <c r="C45" t="n">
         <v>177.696152</v>
@@ -3928,7 +3928,7 @@
         <v>49</v>
       </c>
       <c r="B48" t="n">
-        <v>191.530945</v>
+        <v>191.53096</v>
       </c>
       <c r="C48" t="n">
         <v>180.749344</v>
@@ -3942,7 +3942,7 @@
         <v>191.218002</v>
       </c>
       <c r="C49" t="n">
-        <v>182.428604</v>
+        <v>182.428589</v>
       </c>
     </row>
     <row r="50">
@@ -3953,7 +3953,7 @@
         <v>192.626297</v>
       </c>
       <c r="C50" t="n">
-        <v>180.901993</v>
+        <v>180.902008</v>
       </c>
     </row>
     <row r="51">
@@ -3964,7 +3964,7 @@
         <v>193.095764</v>
       </c>
       <c r="C51" t="n">
-        <v>180.291367</v>
+        <v>180.291351</v>
       </c>
     </row>
     <row r="52">
@@ -3975,7 +3975,7 @@
         <v>193.799911</v>
       </c>
       <c r="C52" t="n">
-        <v>183.344543</v>
+        <v>183.344559</v>
       </c>
     </row>
     <row r="53">
@@ -4008,7 +4008,7 @@
         <v>191.306274</v>
       </c>
       <c r="C55" t="n">
-        <v>182.792419</v>
+        <v>182.792389</v>
       </c>
     </row>
     <row r="56">
@@ -4019,7 +4019,7 @@
         <v>191.795761</v>
       </c>
       <c r="C56" t="n">
-        <v>183.594131</v>
+        <v>183.594116</v>
       </c>
     </row>
     <row r="57">
@@ -4027,7 +4027,7 @@
         <v>58</v>
       </c>
       <c r="B57" t="n">
-        <v>191.714188</v>
+        <v>191.714172</v>
       </c>
       <c r="C57" t="n">
         <v>185.35791</v>
@@ -4060,7 +4060,7 @@
         <v>61</v>
       </c>
       <c r="B60" t="n">
-        <v>186.003525</v>
+        <v>186.00354</v>
       </c>
       <c r="C60" t="n">
         <v>182.632065</v>
@@ -4074,7 +4074,7 @@
         <v>184.208771</v>
       </c>
       <c r="C61" t="n">
-        <v>181.669998</v>
+        <v>181.669983</v>
       </c>
     </row>
     <row r="62">
@@ -4093,7 +4093,7 @@
         <v>64</v>
       </c>
       <c r="B63" t="n">
-        <v>183.882446</v>
+        <v>183.882431</v>
       </c>
       <c r="C63" t="n">
         <v>178.14241</v>
@@ -4107,7 +4107,7 @@
         <v>183.148224</v>
       </c>
       <c r="C64" t="n">
-        <v>178.46312</v>
+        <v>178.463104</v>
       </c>
     </row>
     <row r="65">
@@ -4118,7 +4118,7 @@
         <v>181.761353</v>
       </c>
       <c r="C65" t="n">
-        <v>176.378632</v>
+        <v>176.378647</v>
       </c>
     </row>
     <row r="66">
@@ -4126,7 +4126,7 @@
         <v>67</v>
       </c>
       <c r="B66" t="n">
-        <v>183.882446</v>
+        <v>183.882431</v>
       </c>
       <c r="C66" t="n">
         <v>178.944138</v>
@@ -4148,10 +4148,10 @@
         <v>69</v>
       </c>
       <c r="B68" t="n">
-        <v>182.985062</v>
+        <v>182.985046</v>
       </c>
       <c r="C68" t="n">
-        <v>180.868271</v>
+        <v>180.868256</v>
       </c>
     </row>
     <row r="69">
@@ -4173,7 +4173,7 @@
         <v>179.477097</v>
       </c>
       <c r="C70" t="n">
-        <v>180.868271</v>
+        <v>180.868256</v>
       </c>
     </row>
     <row r="71">
@@ -4192,7 +4192,7 @@
         <v>73</v>
       </c>
       <c r="B72" t="n">
-        <v>180.211319</v>
+        <v>180.211304</v>
       </c>
       <c r="C72" t="n">
         <v>182.311371</v>
@@ -4203,7 +4203,7 @@
         <v>74</v>
       </c>
       <c r="B73" t="n">
-        <v>180.374496</v>
+        <v>180.374481</v>
       </c>
       <c r="C73" t="n">
         <v>181.990677</v>
@@ -4228,7 +4228,7 @@
         <v>183.637711</v>
       </c>
       <c r="C75" t="n">
-        <v>188.083755</v>
+        <v>188.083771</v>
       </c>
     </row>
     <row r="76">
@@ -4272,7 +4272,7 @@
         <v>184.127182</v>
       </c>
       <c r="C79" t="n">
-        <v>194.657883</v>
+        <v>194.657898</v>
       </c>
     </row>
     <row r="80">
@@ -4283,7 +4283,7 @@
         <v>178.498138</v>
       </c>
       <c r="C80" t="n">
-        <v>187.602753</v>
+        <v>187.602722</v>
       </c>
     </row>
     <row r="81">
@@ -4305,7 +4305,7 @@
         <v>175.72438</v>
       </c>
       <c r="C82" t="n">
-        <v>183.433792</v>
+        <v>183.433777</v>
       </c>
     </row>
     <row r="83">
@@ -4316,7 +4316,7 @@
         <v>177.763901</v>
       </c>
       <c r="C83" t="n">
-        <v>181.669998</v>
+        <v>181.669983</v>
       </c>
     </row>
     <row r="84">
@@ -4327,7 +4327,7 @@
         <v>177.84549</v>
       </c>
       <c r="C84" t="n">
-        <v>184.716522</v>
+        <v>184.716537</v>
       </c>
     </row>
     <row r="85">
@@ -4335,7 +4335,7 @@
         <v>86</v>
       </c>
       <c r="B85" t="n">
-        <v>176.050735</v>
+        <v>176.05072</v>
       </c>
       <c r="C85" t="n">
         <v>181.990677</v>
@@ -4349,7 +4349,7 @@
         <v>176.132294</v>
       </c>
       <c r="C86" t="n">
-        <v>183.433792</v>
+        <v>183.433777</v>
       </c>
     </row>
     <row r="87">
@@ -4368,7 +4368,7 @@
         <v>89</v>
       </c>
       <c r="B88" t="n">
-        <v>176.784943</v>
+        <v>176.784927</v>
       </c>
       <c r="C88" t="n">
         <v>187.121704</v>
@@ -4415,7 +4415,7 @@
         <v>174.255951</v>
       </c>
       <c r="C92" t="n">
-        <v>183.594131</v>
+        <v>183.594116</v>
       </c>
     </row>
     <row r="93">
@@ -4434,7 +4434,7 @@
         <v>95</v>
       </c>
       <c r="B94" t="n">
-        <v>176.458618</v>
+        <v>176.458603</v>
       </c>
       <c r="C94" t="n">
         <v>184.075165</v>
@@ -4478,10 +4478,10 @@
         <v>99</v>
       </c>
       <c r="B98" t="n">
-        <v>173.276962</v>
+        <v>173.276978</v>
       </c>
       <c r="C98" t="n">
-        <v>181.669998</v>
+        <v>181.669983</v>
       </c>
     </row>
     <row r="99">
@@ -4500,10 +4500,10 @@
         <v>101</v>
       </c>
       <c r="B100" t="n">
-        <v>168.953217</v>
+        <v>168.953201</v>
       </c>
       <c r="C100" t="n">
-        <v>174.935547</v>
+        <v>174.935532</v>
       </c>
     </row>
     <row r="101">
@@ -4514,7 +4514,7 @@
         <v>168.871628</v>
       </c>
       <c r="C101" t="n">
-        <v>175.737274</v>
+        <v>175.737259</v>
       </c>
     </row>
     <row r="102">
@@ -4525,7 +4525,7 @@
         <v>172.461166</v>
       </c>
       <c r="C102" t="n">
-        <v>173.171738</v>
+        <v>173.171753</v>
       </c>
     </row>
     <row r="103">
@@ -4580,7 +4580,7 @@
         <v>174.092773</v>
       </c>
       <c r="C107" t="n">
-        <v>175.737274</v>
+        <v>175.737259</v>
       </c>
     </row>
     <row r="108">
@@ -4602,7 +4602,7 @@
         <v>178.498138</v>
       </c>
       <c r="C109" t="n">
-        <v>177.180344</v>
+        <v>177.180359</v>
       </c>
     </row>
     <row r="110">
@@ -4613,7 +4613,7 @@
         <v>178.253387</v>
       </c>
       <c r="C110" t="n">
-        <v>177.340683</v>
+        <v>177.340698</v>
       </c>
     </row>
     <row r="111">
@@ -4621,7 +4621,7 @@
         <v>112</v>
       </c>
       <c r="B111" t="n">
-        <v>178.742889</v>
+        <v>178.742874</v>
       </c>
       <c r="C111" t="n">
         <v>178.623459</v>
@@ -4632,7 +4632,7 @@
         <v>113</v>
       </c>
       <c r="B112" t="n">
-        <v>177.682343</v>
+        <v>177.682327</v>
       </c>
       <c r="C112" t="n">
         <v>177.821732</v>
@@ -4646,7 +4646,7 @@
         <v>173.929626</v>
       </c>
       <c r="C113" t="n">
-        <v>175.897598</v>
+        <v>175.897614</v>
       </c>
     </row>
     <row r="114">
@@ -4657,7 +4657,7 @@
         <v>171.971695</v>
       </c>
       <c r="C114" t="n">
-        <v>175.095871</v>
+        <v>175.095886</v>
       </c>
     </row>
     <row r="115">
@@ -4668,7 +4668,7 @@
         <v>170.258499</v>
       </c>
       <c r="C115" t="n">
-        <v>175.41658</v>
+        <v>175.416565</v>
       </c>
     </row>
     <row r="116">
@@ -4679,7 +4679,7 @@
         <v>167.811081</v>
       </c>
       <c r="C116" t="n">
-        <v>173.171738</v>
+        <v>173.171753</v>
       </c>
     </row>
     <row r="117">
@@ -4690,7 +4690,7 @@
         <v>168.626892</v>
       </c>
       <c r="C117" t="n">
-        <v>174.294144</v>
+        <v>174.294159</v>
       </c>
     </row>
     <row r="118">
@@ -4701,7 +4701,7 @@
         <v>166.0979</v>
       </c>
       <c r="C118" t="n">
-        <v>174.294144</v>
+        <v>174.294159</v>
       </c>
     </row>
     <row r="119">
@@ -4720,10 +4720,10 @@
         <v>121</v>
       </c>
       <c r="B120" t="n">
-        <v>162.01889</v>
+        <v>162.018875</v>
       </c>
       <c r="C120" t="n">
-        <v>173.652786</v>
+        <v>173.652771</v>
       </c>
     </row>
     <row r="121">
@@ -4731,10 +4731,10 @@
         <v>122</v>
       </c>
       <c r="B121" t="n">
-        <v>162.01889</v>
+        <v>162.018875</v>
       </c>
       <c r="C121" t="n">
-        <v>174.454514</v>
+        <v>174.454498</v>
       </c>
     </row>
     <row r="122">
@@ -4745,7 +4745,7 @@
         <v>162.957047</v>
       </c>
       <c r="C122" t="n">
-        <v>175.897598</v>
+        <v>175.897614</v>
       </c>
     </row>
     <row r="123">
@@ -4756,7 +4756,7 @@
         <v>162.671509</v>
       </c>
       <c r="C123" t="n">
-        <v>175.41658</v>
+        <v>175.416565</v>
       </c>
     </row>
     <row r="124">
@@ -4778,7 +4778,7 @@
         <v>160.999115</v>
       </c>
       <c r="C125" t="n">
-        <v>179.264847</v>
+        <v>179.264832</v>
       </c>
     </row>
     <row r="126">
@@ -4811,7 +4811,7 @@
         <v>157.001663</v>
       </c>
       <c r="C128" t="n">
-        <v>180.226883</v>
+        <v>180.226898</v>
       </c>
     </row>
     <row r="129">
@@ -4863,7 +4863,7 @@
         <v>134</v>
       </c>
       <c r="B133" t="n">
-        <v>158.062225</v>
+        <v>158.06221</v>
       </c>
       <c r="C133" t="n">
         <v>181.990677</v>
@@ -4874,10 +4874,10 @@
         <v>135</v>
       </c>
       <c r="B134" t="n">
-        <v>159.163559</v>
+        <v>159.163544</v>
       </c>
       <c r="C134" t="n">
-        <v>180.707901</v>
+        <v>180.707932</v>
       </c>
     </row>
     <row r="135">
@@ -4899,7 +4899,7 @@
         <v>148.394913</v>
       </c>
       <c r="C136" t="n">
-        <v>179.74588</v>
+        <v>179.745865</v>
       </c>
     </row>
     <row r="137">
@@ -4918,10 +4918,10 @@
         <v>139</v>
       </c>
       <c r="B138" t="n">
-        <v>149.985748</v>
+        <v>149.985764</v>
       </c>
       <c r="C138" t="n">
-        <v>181.669998</v>
+        <v>181.669983</v>
       </c>
     </row>
     <row r="139">
@@ -4940,10 +4940,10 @@
         <v>141</v>
       </c>
       <c r="B140" t="n">
-        <v>150.923935</v>
+        <v>150.92392</v>
       </c>
       <c r="C140" t="n">
-        <v>185.518234</v>
+        <v>185.51825</v>
       </c>
     </row>
     <row r="141">
@@ -4951,7 +4951,7 @@
         <v>142</v>
       </c>
       <c r="B141" t="n">
-        <v>152.800262</v>
+        <v>152.800278</v>
       </c>
       <c r="C141" t="n">
         <v>186.319977</v>
@@ -4965,7 +4965,7 @@
         <v>153.208176</v>
       </c>
       <c r="C142" t="n">
-        <v>188.564774</v>
+        <v>188.564789</v>
       </c>
     </row>
     <row r="143">
@@ -4984,7 +4984,7 @@
         <v>145</v>
       </c>
       <c r="B144" t="n">
-        <v>151.127884</v>
+        <v>151.127869</v>
       </c>
       <c r="C144" t="n">
         <v>189.526855</v>
@@ -4995,10 +4995,10 @@
         <v>146</v>
       </c>
       <c r="B145" t="n">
-        <v>149.129166</v>
+        <v>149.12915</v>
       </c>
       <c r="C145" t="n">
-        <v>188.083755</v>
+        <v>188.083771</v>
       </c>
     </row>
     <row r="146">
@@ -5017,7 +5017,7 @@
         <v>148</v>
       </c>
       <c r="B147" t="n">
-        <v>149.129166</v>
+        <v>149.12915</v>
       </c>
       <c r="C147" t="n">
         <v>185.037216</v>
@@ -5031,7 +5031,7 @@
         <v>147.53833</v>
       </c>
       <c r="C148" t="n">
-        <v>177.180344</v>
+        <v>177.180359</v>
       </c>
     </row>
     <row r="149">
@@ -5064,7 +5064,7 @@
         <v>148.231766</v>
       </c>
       <c r="C151" t="n">
-        <v>179.264847</v>
+        <v>179.264832</v>
       </c>
     </row>
     <row r="152">
@@ -5072,7 +5072,7 @@
         <v>153</v>
       </c>
       <c r="B152" t="n">
-        <v>149.700226</v>
+        <v>149.700211</v>
       </c>
       <c r="C152" t="n">
         <v>177.501038</v>
@@ -5083,7 +5083,7 @@
         <v>154</v>
       </c>
       <c r="B153" t="n">
-        <v>150.026535</v>
+        <v>150.02652</v>
       </c>
       <c r="C153" t="n">
         <v>178.302765</v>
@@ -5097,7 +5097,7 @@
         <v>147.008057</v>
       </c>
       <c r="C154" t="n">
-        <v>176.538971</v>
+        <v>176.538986</v>
       </c>
     </row>
     <row r="155">
@@ -5108,7 +5108,7 @@
         <v>145.906723</v>
       </c>
       <c r="C155" t="n">
-        <v>173.171738</v>
+        <v>173.171753</v>
       </c>
     </row>
     <row r="156">
@@ -5130,7 +5130,7 @@
         <v>149.210739</v>
       </c>
       <c r="C157" t="n">
-        <v>175.095871</v>
+        <v>175.095886</v>
       </c>
     </row>
     <row r="158">
@@ -5138,10 +5138,10 @@
         <v>159</v>
       </c>
       <c r="B158" t="n">
-        <v>150.230484</v>
+        <v>150.230469</v>
       </c>
       <c r="C158" t="n">
-        <v>175.737274</v>
+        <v>175.737259</v>
       </c>
     </row>
     <row r="159">
@@ -5163,7 +5163,7 @@
         <v>153.616074</v>
       </c>
       <c r="C160" t="n">
-        <v>176.057968</v>
+        <v>176.057938</v>
       </c>
     </row>
     <row r="161">
@@ -5174,7 +5174,7 @@
         <v>151.94368</v>
       </c>
       <c r="C161" t="n">
-        <v>175.897598</v>
+        <v>175.897614</v>
       </c>
     </row>
     <row r="162">
@@ -5185,7 +5185,7 @@
         <v>154.717422</v>
       </c>
       <c r="C162" t="n">
-        <v>175.256241</v>
+        <v>175.256226</v>
       </c>
     </row>
     <row r="163">
@@ -5193,10 +5193,10 @@
         <v>164</v>
       </c>
       <c r="B163" t="n">
-        <v>157.817459</v>
+        <v>157.817474</v>
       </c>
       <c r="C163" t="n">
-        <v>175.256241</v>
+        <v>175.256226</v>
       </c>
     </row>
     <row r="164">
@@ -5204,7 +5204,7 @@
         <v>165</v>
       </c>
       <c r="B164" t="n">
-        <v>156.716141</v>
+        <v>156.716156</v>
       </c>
       <c r="C164" t="n">
         <v>155.614059</v>
@@ -5218,7 +5218,7 @@
         <v>157.001663</v>
       </c>
       <c r="C165" t="n">
-        <v>153.770096</v>
+        <v>153.770111</v>
       </c>
     </row>
     <row r="166">
@@ -5229,7 +5229,7 @@
         <v>156.634567</v>
       </c>
       <c r="C166" t="n">
-        <v>151.926132</v>
+        <v>151.926147</v>
       </c>
     </row>
     <row r="167">
@@ -5259,7 +5259,7 @@
         <v>170</v>
       </c>
       <c r="B169" t="n">
-        <v>144.764587</v>
+        <v>144.764603</v>
       </c>
       <c r="C169" t="n">
         <v>148.398575</v>
@@ -5270,10 +5270,10 @@
         <v>171</v>
       </c>
       <c r="B170" t="n">
-        <v>148.272568</v>
+        <v>148.272552</v>
       </c>
       <c r="C170" t="n">
-        <v>147.917526</v>
+        <v>147.917542</v>
       </c>
     </row>
     <row r="171">
@@ -5292,10 +5292,10 @@
         <v>173</v>
       </c>
       <c r="B172" t="n">
-        <v>144.397476</v>
+        <v>144.397491</v>
       </c>
       <c r="C172" t="n">
-        <v>148.799454</v>
+        <v>148.799438</v>
       </c>
     </row>
     <row r="173">
@@ -5306,7 +5306,7 @@
         <v>140.155304</v>
       </c>
       <c r="C173" t="n">
-        <v>148.799454</v>
+        <v>148.799438</v>
       </c>
     </row>
     <row r="174">
@@ -5336,10 +5336,10 @@
         <v>177</v>
       </c>
       <c r="B176" t="n">
-        <v>140.114487</v>
+        <v>140.114502</v>
       </c>
       <c r="C176" t="n">
-        <v>148.879608</v>
+        <v>148.879593</v>
       </c>
     </row>
     <row r="177">
@@ -5350,7 +5350,7 @@
         <v>138.646057</v>
       </c>
       <c r="C177" t="n">
-        <v>147.917526</v>
+        <v>147.917542</v>
       </c>
     </row>
     <row r="178">
@@ -5391,10 +5391,10 @@
         <v>182</v>
       </c>
       <c r="B181" t="n">
-        <v>144.397476</v>
+        <v>144.397491</v>
       </c>
       <c r="C181" t="n">
-        <v>151.284744</v>
+        <v>151.28476</v>
       </c>
     </row>
     <row r="182">
@@ -5405,7 +5405,7 @@
         <v>138.727646</v>
       </c>
       <c r="C182" t="n">
-        <v>152.888214</v>
+        <v>152.888199</v>
       </c>
     </row>
     <row r="183">
@@ -5416,7 +5416,7 @@
         <v>135.709167</v>
       </c>
       <c r="C183" t="n">
-        <v>151.364944</v>
+        <v>151.364929</v>
       </c>
     </row>
     <row r="184">
@@ -5449,7 +5449,7 @@
         <v>138.768433</v>
       </c>
       <c r="C186" t="n">
-        <v>151.364944</v>
+        <v>151.364929</v>
       </c>
     </row>
     <row r="187">
@@ -5460,7 +5460,7 @@
         <v>137.626297</v>
       </c>
       <c r="C187" t="n">
-        <v>151.525284</v>
+        <v>151.525269</v>
       </c>
     </row>
     <row r="188">
@@ -5468,10 +5468,10 @@
         <v>189</v>
       </c>
       <c r="B188" t="n">
-        <v>138.238159</v>
+        <v>138.238144</v>
       </c>
       <c r="C188" t="n">
-        <v>152.647705</v>
+        <v>152.64769</v>
       </c>
     </row>
     <row r="189">
@@ -5479,7 +5479,7 @@
         <v>190</v>
       </c>
       <c r="B189" t="n">
-        <v>137.667084</v>
+        <v>137.667099</v>
       </c>
       <c r="C189" t="n">
         <v>150.402878</v>
@@ -5490,7 +5490,7 @@
         <v>191</v>
       </c>
       <c r="B190" t="n">
-        <v>135.627579</v>
+        <v>135.627563</v>
       </c>
       <c r="C190" t="n">
         <v>149.440796</v>
@@ -5512,7 +5512,7 @@
         <v>193</v>
       </c>
       <c r="B192" t="n">
-        <v>121.310204</v>
+        <v>121.310196</v>
       </c>
       <c r="C192" t="n">
         <v>150.483032</v>
@@ -5526,7 +5526,7 @@
         <v>116.945648</v>
       </c>
       <c r="C193" t="n">
-        <v>146.795135</v>
+        <v>146.79512</v>
       </c>
     </row>
     <row r="194">
@@ -5545,7 +5545,7 @@
         <v>196</v>
       </c>
       <c r="B195" t="n">
-        <v>117.883827</v>
+        <v>117.88382</v>
       </c>
       <c r="C195" t="n">
         <v>143.027023</v>
@@ -5556,7 +5556,7 @@
         <v>197</v>
       </c>
       <c r="B196" t="n">
-        <v>115.191666</v>
+        <v>115.191658</v>
       </c>
       <c r="C196" t="n">
         <v>140.782227</v>
@@ -5570,7 +5570,7 @@
         <v>115.273254</v>
       </c>
       <c r="C197" t="n">
-        <v>141.904617</v>
+        <v>141.904633</v>
       </c>
     </row>
     <row r="198">
@@ -5614,7 +5614,7 @@
         <v>110.704735</v>
       </c>
       <c r="C201" t="n">
-        <v>143.187378</v>
+        <v>143.187393</v>
       </c>
     </row>
     <row r="202">
@@ -5644,7 +5644,7 @@
         <v>205</v>
       </c>
       <c r="B204" t="n">
-        <v>103.280914</v>
+        <v>103.280907</v>
       </c>
       <c r="C204" t="n">
         <v>140.782227</v>
@@ -5691,7 +5691,7 @@
         <v>104.586197</v>
       </c>
       <c r="C208" t="n">
-        <v>144.069275</v>
+        <v>144.06926</v>
       </c>
     </row>
     <row r="209">
@@ -5699,7 +5699,7 @@
         <v>210</v>
       </c>
       <c r="B209" t="n">
-        <v>103.280914</v>
+        <v>103.280907</v>
       </c>
       <c r="C209" t="n">
         <v>139.90033</v>
@@ -5721,10 +5721,10 @@
         <v>212</v>
       </c>
       <c r="B211" t="n">
-        <v>108.134949</v>
+        <v>108.134956</v>
       </c>
       <c r="C211" t="n">
-        <v>123.625374</v>
+        <v>123.625381</v>
       </c>
     </row>
     <row r="212">
@@ -5732,10 +5732,10 @@
         <v>213</v>
       </c>
       <c r="B212" t="n">
-        <v>111.765289</v>
+        <v>111.765282</v>
       </c>
       <c r="C212" t="n">
-        <v>127.874504</v>
+        <v>127.874512</v>
       </c>
     </row>
     <row r="213">
@@ -5746,7 +5746,7 @@
         <v>110.337616</v>
       </c>
       <c r="C213" t="n">
-        <v>130.199493</v>
+        <v>130.199509</v>
       </c>
     </row>
     <row r="214">
@@ -5754,7 +5754,7 @@
         <v>215</v>
       </c>
       <c r="B214" t="n">
-        <v>110.174469</v>
+        <v>110.174461</v>
       </c>
       <c r="C214" t="n">
         <v>130.680527</v>
@@ -5765,10 +5765,10 @@
         <v>216</v>
       </c>
       <c r="B215" t="n">
-        <v>117.516701</v>
+        <v>117.516708</v>
       </c>
       <c r="C215" t="n">
-        <v>132.524475</v>
+        <v>132.52449</v>
       </c>
     </row>
     <row r="216">
@@ -5779,7 +5779,7 @@
         <v>117.027222</v>
       </c>
       <c r="C216" t="n">
-        <v>133.326218</v>
+        <v>133.326202</v>
       </c>
     </row>
     <row r="217">
@@ -5787,7 +5787,7 @@
         <v>218</v>
       </c>
       <c r="B217" t="n">
-        <v>117.598274</v>
+        <v>117.598282</v>
       </c>
       <c r="C217" t="n">
         <v>131.321915</v>
@@ -5798,10 +5798,10 @@
         <v>219</v>
       </c>
       <c r="B218" t="n">
-        <v>116.619316</v>
+        <v>116.619324</v>
       </c>
       <c r="C218" t="n">
-        <v>130.440018</v>
+        <v>130.440033</v>
       </c>
     </row>
     <row r="219">
@@ -5820,7 +5820,7 @@
         <v>221</v>
       </c>
       <c r="B220" t="n">
-        <v>117.598274</v>
+        <v>117.598282</v>
       </c>
       <c r="C220" t="n">
         <v>129.237442</v>
@@ -5834,7 +5834,7 @@
         <v>113.519257</v>
       </c>
       <c r="C221" t="n">
-        <v>127.874504</v>
+        <v>127.874512</v>
       </c>
     </row>
     <row r="222">
@@ -5842,10 +5842,10 @@
         <v>223</v>
       </c>
       <c r="B222" t="n">
-        <v>111.602127</v>
+        <v>111.602119</v>
       </c>
       <c r="C222" t="n">
-        <v>127.553825</v>
+        <v>127.553818</v>
       </c>
     </row>
     <row r="223">
@@ -5853,10 +5853,10 @@
         <v>224</v>
       </c>
       <c r="B223" t="n">
-        <v>110.500786</v>
+        <v>110.500778</v>
       </c>
       <c r="C223" t="n">
-        <v>128.756424</v>
+        <v>128.756393</v>
       </c>
     </row>
     <row r="224">
@@ -5875,10 +5875,10 @@
         <v>226</v>
       </c>
       <c r="B225" t="n">
-        <v>107.441513</v>
+        <v>107.441521</v>
       </c>
       <c r="C225" t="n">
-        <v>127.874504</v>
+        <v>127.874512</v>
       </c>
     </row>
     <row r="226">
@@ -5889,7 +5889,7 @@
         <v>108.461266</v>
       </c>
       <c r="C226" t="n">
-        <v>127.874504</v>
+        <v>127.874512</v>
       </c>
     </row>
     <row r="227">
@@ -5933,7 +5933,7 @@
         <v>110.949478</v>
       </c>
       <c r="C230" t="n">
-        <v>129.63829</v>
+        <v>129.638306</v>
       </c>
     </row>
     <row r="231">
@@ -5941,7 +5941,7 @@
         <v>232</v>
       </c>
       <c r="B231" t="n">
-        <v>107.441513</v>
+        <v>107.441521</v>
       </c>
       <c r="C231" t="n">
         <v>130.359848</v>
@@ -5952,7 +5952,7 @@
         <v>233</v>
       </c>
       <c r="B232" t="n">
-        <v>107.196777</v>
+        <v>107.19677</v>
       </c>
       <c r="C232" t="n">
         <v>130.359848</v>
@@ -5977,7 +5977,7 @@
         <v>108.583649</v>
       </c>
       <c r="C234" t="n">
-        <v>127.152969</v>
+        <v>127.152977</v>
       </c>
     </row>
     <row r="235">
@@ -5996,7 +5996,7 @@
         <v>237</v>
       </c>
       <c r="B236" t="n">
-        <v>111.316589</v>
+        <v>111.316582</v>
       </c>
       <c r="C236" t="n">
         <v>126.992615</v>
@@ -6007,10 +6007,10 @@
         <v>238</v>
       </c>
       <c r="B237" t="n">
-        <v>116.007469</v>
+        <v>116.007462</v>
       </c>
       <c r="C237" t="n">
-        <v>129.558136</v>
+        <v>129.558121</v>
       </c>
     </row>
     <row r="238">
@@ -6018,10 +6018,10 @@
         <v>239</v>
       </c>
       <c r="B238" t="n">
-        <v>112.050827</v>
+        <v>112.050819</v>
       </c>
       <c r="C238" t="n">
-        <v>127.152969</v>
+        <v>127.152977</v>
       </c>
     </row>
     <row r="239">
@@ -6032,7 +6032,7 @@
         <v>114.2127</v>
       </c>
       <c r="C239" t="n">
-        <v>129.558136</v>
+        <v>129.558121</v>
       </c>
     </row>
     <row r="240">
@@ -6043,7 +6043,7 @@
         <v>113.519257</v>
       </c>
       <c r="C240" t="n">
-        <v>129.077103</v>
+        <v>129.077087</v>
       </c>
     </row>
     <row r="241">
@@ -6084,10 +6084,10 @@
         <v>245</v>
       </c>
       <c r="B244" t="n">
-        <v>112.213982</v>
+        <v>112.213974</v>
       </c>
       <c r="C244" t="n">
-        <v>122.66333</v>
+        <v>122.663322</v>
       </c>
     </row>
     <row r="245">
@@ -6098,7 +6098,7 @@
         <v>109.725769</v>
       </c>
       <c r="C245" t="n">
-        <v>121.781418</v>
+        <v>121.781425</v>
       </c>
     </row>
     <row r="246">
@@ -6106,7 +6106,7 @@
         <v>247</v>
       </c>
       <c r="B246" t="n">
-        <v>105.442795</v>
+        <v>105.442787</v>
       </c>
       <c r="C246" t="n">
         <v>117.77282</v>
@@ -6117,10 +6117,10 @@
         <v>248</v>
       </c>
       <c r="B247" t="n">
-        <v>104.626991</v>
+        <v>104.626984</v>
       </c>
       <c r="C247" t="n">
-        <v>120.258148</v>
+        <v>120.258156</v>
       </c>
     </row>
     <row r="248">
@@ -6128,7 +6128,7 @@
         <v>249</v>
       </c>
       <c r="B248" t="n">
-        <v>102.954582</v>
+        <v>102.95459</v>
       </c>
       <c r="C248" t="n">
         <v>120.819366</v>
@@ -6142,7 +6142,7 @@
         <v>105.157257</v>
       </c>
       <c r="C249" t="n">
-        <v>124.346931</v>
+        <v>124.346939</v>
       </c>
     </row>
     <row r="250">
@@ -6172,10 +6172,10 @@
         <v>253</v>
       </c>
       <c r="B252" t="n">
-        <v>109.195503</v>
+        <v>109.195496</v>
       </c>
       <c r="C252" t="n">
-        <v>127.313293</v>
+        <v>127.313309</v>
       </c>
     </row>
     <row r="253">
@@ -6186,7 +6186,7 @@
         <v>108.909966</v>
       </c>
       <c r="C253" t="n">
-        <v>126.591751</v>
+        <v>126.591759</v>
       </c>
     </row>
     <row r="254">
@@ -6194,7 +6194,7 @@
         <v>255</v>
       </c>
       <c r="B254" t="n">
-        <v>108.3797</v>
+        <v>108.379692</v>
       </c>
       <c r="C254" t="n">
         <v>126.832275</v>
@@ -6208,7 +6208,7 @@
         <v>107.074402</v>
       </c>
       <c r="C255" t="n">
-        <v>126.431412</v>
+        <v>126.431419</v>
       </c>
     </row>
     <row r="256">
@@ -6216,10 +6216,10 @@
         <v>257</v>
       </c>
       <c r="B256" t="n">
-        <v>104.219086</v>
+        <v>104.219093</v>
       </c>
       <c r="C256" t="n">
-        <v>126.591751</v>
+        <v>126.591759</v>
       </c>
     </row>
     <row r="257">
@@ -6241,7 +6241,7 @@
         <v>106.054642</v>
       </c>
       <c r="C258" t="n">
-        <v>124.266769</v>
+        <v>124.266762</v>
       </c>
     </row>
     <row r="259">
@@ -6274,7 +6274,7 @@
         <v>103.933556</v>
       </c>
       <c r="C261" t="n">
-        <v>126.030556</v>
+        <v>126.030548</v>
       </c>
     </row>
     <row r="262">
@@ -6282,10 +6282,10 @@
         <v>263</v>
       </c>
       <c r="B262" t="n">
-        <v>103.199333</v>
+        <v>103.199326</v>
       </c>
       <c r="C262" t="n">
-        <v>125.870201</v>
+        <v>125.870216</v>
       </c>
     </row>
     <row r="263">
@@ -6307,7 +6307,7 @@
         <v>102.791428</v>
       </c>
       <c r="C264" t="n">
-        <v>125.709877</v>
+        <v>125.709869</v>
       </c>
     </row>
     <row r="265">
@@ -6318,7 +6318,7 @@
         <v>101.975624</v>
       </c>
       <c r="C265" t="n">
-        <v>126.190895</v>
+        <v>126.190887</v>
       </c>
     </row>
     <row r="266">
@@ -6329,7 +6329,7 @@
         <v>99.976906</v>
       </c>
       <c r="C266" t="n">
-        <v>126.110733</v>
+        <v>126.110725</v>
       </c>
     </row>
     <row r="267">
@@ -6351,7 +6351,7 @@
         <v>99.936111</v>
       </c>
       <c r="C268" t="n">
-        <v>123.625374</v>
+        <v>123.625381</v>
       </c>
     </row>
     <row r="269">
@@ -6359,7 +6359,7 @@
         <v>270</v>
       </c>
       <c r="B269" t="n">
-        <v>99.854523</v>
+        <v>99.85453</v>
       </c>
       <c r="C269" t="n">
         <v>123.46505</v>
@@ -6381,10 +6381,10 @@
         <v>272</v>
       </c>
       <c r="B271" t="n">
-        <v>98.304504</v>
+        <v>98.304497</v>
       </c>
       <c r="C271" t="n">
-        <v>120.739197</v>
+        <v>120.739189</v>
       </c>
     </row>
     <row r="272">
@@ -6395,7 +6395,7 @@
         <v>103.444077</v>
       </c>
       <c r="C272" t="n">
-        <v>121.781418</v>
+        <v>121.781425</v>
       </c>
     </row>
     <row r="273">
@@ -6403,7 +6403,7 @@
         <v>274</v>
       </c>
       <c r="B273" t="n">
-        <v>101.078239</v>
+        <v>101.078232</v>
       </c>
       <c r="C273" t="n">
         <v>122.262466</v>
@@ -6414,7 +6414,7 @@
         <v>275</v>
       </c>
       <c r="B274" t="n">
-        <v>103.199333</v>
+        <v>103.199326</v>
       </c>
       <c r="C274" t="n">
         <v>122.102119</v>
@@ -6425,10 +6425,10 @@
         <v>276</v>
       </c>
       <c r="B275" t="n">
-        <v>102.66906</v>
+        <v>102.669052</v>
       </c>
       <c r="C275" t="n">
-        <v>121.781418</v>
+        <v>121.781425</v>
       </c>
     </row>
     <row r="276">
@@ -6450,7 +6450,7 @@
         <v>97.896599</v>
       </c>
       <c r="C277" t="n">
-        <v>119.456451</v>
+        <v>119.456444</v>
       </c>
     </row>
     <row r="278">
@@ -6461,7 +6461,7 @@
         <v>98.712402</v>
       </c>
       <c r="C278" t="n">
-        <v>119.13575</v>
+        <v>119.135757</v>
       </c>
     </row>
     <row r="279">
@@ -6472,7 +6472,7 @@
         <v>101.119026</v>
       </c>
       <c r="C279" t="n">
-        <v>121.220222</v>
+        <v>121.22023</v>
       </c>
     </row>
     <row r="280">
@@ -6480,7 +6480,7 @@
         <v>281</v>
       </c>
       <c r="B280" t="n">
-        <v>100.180862</v>
+        <v>100.180855</v>
       </c>
       <c r="C280" t="n">
         <v>122.262466</v>
@@ -6494,7 +6494,7 @@
         <v>99.936111</v>
       </c>
       <c r="C281" t="n">
-        <v>121.220222</v>
+        <v>121.22023</v>
       </c>
     </row>
     <row r="282">
@@ -6505,7 +6505,7 @@
         <v>101.486145</v>
       </c>
       <c r="C282" t="n">
-        <v>122.02195</v>
+        <v>122.021942</v>
       </c>
     </row>
     <row r="283">
@@ -6516,7 +6516,7 @@
         <v>103.321701</v>
       </c>
       <c r="C283" t="n">
-        <v>123.545219</v>
+        <v>123.545212</v>
       </c>
     </row>
     <row r="284">
@@ -6538,7 +6538,7 @@
         <v>103.117752</v>
       </c>
       <c r="C285" t="n">
-        <v>121.781418</v>
+        <v>121.781425</v>
       </c>
     </row>
     <row r="286">
@@ -6557,10 +6557,10 @@
         <v>288</v>
       </c>
       <c r="B287" t="n">
-        <v>98.467659</v>
+        <v>98.467651</v>
       </c>
       <c r="C287" t="n">
-        <v>120.57885</v>
+        <v>120.578842</v>
       </c>
     </row>
     <row r="288">
@@ -6571,7 +6571,7 @@
         <v>102.301949</v>
       </c>
       <c r="C288" t="n">
-        <v>121.781418</v>
+        <v>121.781425</v>
       </c>
     </row>
     <row r="289">
@@ -6579,7 +6579,7 @@
         <v>290</v>
       </c>
       <c r="B289" t="n">
-        <v>102.220367</v>
+        <v>102.22036</v>
       </c>
       <c r="C289" t="n">
         <v>119.777115</v>
@@ -6601,10 +6601,10 @@
         <v>292</v>
       </c>
       <c r="B291" t="n">
-        <v>106.462547</v>
+        <v>106.462555</v>
       </c>
       <c r="C291" t="n">
-        <v>125.228828</v>
+        <v>125.228836</v>
       </c>
     </row>
     <row r="292">
@@ -6615,7 +6615,7 @@
         <v>105.973061</v>
       </c>
       <c r="C292" t="n">
-        <v>122.502983</v>
+        <v>122.502991</v>
       </c>
     </row>
     <row r="293">
@@ -6634,10 +6634,10 @@
         <v>295</v>
       </c>
       <c r="B294" t="n">
-        <v>104.83094</v>
+        <v>104.830948</v>
       </c>
       <c r="C294" t="n">
-        <v>121.059875</v>
+        <v>121.059883</v>
       </c>
     </row>
     <row r="295">
@@ -6645,7 +6645,7 @@
         <v>296</v>
       </c>
       <c r="B295" t="n">
-        <v>105.442795</v>
+        <v>105.442787</v>
       </c>
       <c r="C295" t="n">
         <v>119.616783</v>
@@ -6659,7 +6659,7 @@
         <v>104.137505</v>
       </c>
       <c r="C296" t="n">
-        <v>117.69265</v>
+        <v>117.692657</v>
       </c>
     </row>
     <row r="297">
@@ -6667,7 +6667,7 @@
         <v>298</v>
       </c>
       <c r="B297" t="n">
-        <v>103.036171</v>
+        <v>103.036163</v>
       </c>
       <c r="C297" t="n">
         <v>116.570229</v>
@@ -6681,7 +6681,7 @@
         <v>103.892761</v>
       </c>
       <c r="C298" t="n">
-        <v>115.768517</v>
+        <v>115.768524</v>
       </c>
     </row>
     <row r="299">
@@ -6689,10 +6689,10 @@
         <v>300</v>
       </c>
       <c r="B299" t="n">
-        <v>104.463837</v>
+        <v>104.463829</v>
       </c>
       <c r="C299" t="n">
-        <v>117.933182</v>
+        <v>117.933174</v>
       </c>
     </row>
     <row r="300">
@@ -6700,7 +6700,7 @@
         <v>301</v>
       </c>
       <c r="B300" t="n">
-        <v>105.361206</v>
+        <v>105.361214</v>
       </c>
       <c r="C300" t="n">
         <v>118.013336</v>
@@ -6725,7 +6725,7 @@
         <v>108.706009</v>
       </c>
       <c r="C302" t="n">
-        <v>120.258148</v>
+        <v>120.258156</v>
       </c>
     </row>
     <row r="303">
@@ -6758,7 +6758,7 @@
         <v>109.437477</v>
       </c>
       <c r="C305" t="n">
-        <v>121.94178</v>
+        <v>121.941772</v>
       </c>
     </row>
     <row r="306">
@@ -6769,7 +6769,7 @@
         <v>108.000374</v>
       </c>
       <c r="C306" t="n">
-        <v>120.899544</v>
+        <v>120.899536</v>
       </c>
     </row>
     <row r="307">
@@ -6780,7 +6780,7 @@
         <v>105.866501</v>
       </c>
       <c r="C307" t="n">
-        <v>120.096039</v>
+        <v>120.096046</v>
       </c>
     </row>
     <row r="308">
@@ -6824,7 +6824,7 @@
         <v>101.685844</v>
       </c>
       <c r="C311" t="n">
-        <v>117.104324</v>
+        <v>117.104317</v>
       </c>
     </row>
     <row r="312">
@@ -6835,7 +6835,7 @@
         <v>101.729393</v>
       </c>
       <c r="C312" t="n">
-        <v>117.959106</v>
+        <v>117.959099</v>
       </c>
     </row>
     <row r="313">
@@ -6857,7 +6857,7 @@
         <v>106.737473</v>
       </c>
       <c r="C314" t="n">
-        <v>121.463684</v>
+        <v>121.463692</v>
       </c>
     </row>
     <row r="315">
@@ -6879,7 +6879,7 @@
         <v>109.132637</v>
       </c>
       <c r="C316" t="n">
-        <v>122.745865</v>
+        <v>122.745857</v>
       </c>
     </row>
     <row r="317">
@@ -6901,7 +6901,7 @@
         <v>107.347145</v>
       </c>
       <c r="C318" t="n">
-        <v>122.062027</v>
+        <v>122.062035</v>
       </c>
     </row>
     <row r="319">
@@ -6912,7 +6912,7 @@
         <v>106.389084</v>
       </c>
       <c r="C319" t="n">
-        <v>120.52343</v>
+        <v>120.523438</v>
       </c>
     </row>
     <row r="320">
@@ -6934,7 +6934,7 @@
         <v>108.131027</v>
       </c>
       <c r="C321" t="n">
-        <v>122.232986</v>
+        <v>122.232994</v>
       </c>
     </row>
     <row r="322">
@@ -6945,7 +6945,7 @@
         <v>110.613289</v>
       </c>
       <c r="C322" t="n">
-        <v>123.515152</v>
+        <v>123.51516</v>
       </c>
     </row>
     <row r="323">
@@ -7000,7 +7000,7 @@
         <v>110.831032</v>
       </c>
       <c r="C327" t="n">
-        <v>122.062027</v>
+        <v>122.062035</v>
       </c>
     </row>
     <row r="328">
@@ -7011,7 +7011,7 @@
         <v>110.221359</v>
       </c>
       <c r="C328" t="n">
-        <v>119.412231</v>
+        <v>119.412224</v>
       </c>
     </row>
     <row r="329">
@@ -7022,7 +7022,7 @@
         <v>111.919746</v>
       </c>
       <c r="C329" t="n">
-        <v>122.916809</v>
+        <v>122.916817</v>
       </c>
     </row>
     <row r="330">
@@ -7044,7 +7044,7 @@
         <v>102.8181</v>
       </c>
       <c r="C331" t="n">
-        <v>122.831329</v>
+        <v>122.831322</v>
       </c>
     </row>
     <row r="332">
@@ -7055,7 +7055,7 @@
         <v>103.993912</v>
       </c>
       <c r="C332" t="n">
-        <v>120.779861</v>
+        <v>120.779869</v>
       </c>
     </row>
     <row r="333">
@@ -7088,7 +7088,7 @@
         <v>100.510033</v>
       </c>
       <c r="C335" t="n">
-        <v>107.78727</v>
+        <v>107.787262</v>
       </c>
     </row>
     <row r="336">
@@ -7132,7 +7132,7 @@
         <v>97.635818</v>
       </c>
       <c r="C339" t="n">
-        <v>108.214661</v>
+        <v>108.214653</v>
       </c>
     </row>
     <row r="340">
@@ -7154,7 +7154,7 @@
         <v>93.890656</v>
       </c>
       <c r="C341" t="n">
-        <v>106.847008</v>
+        <v>106.847015</v>
       </c>
     </row>
     <row r="342">
@@ -7198,7 +7198,7 @@
         <v>96.198715</v>
       </c>
       <c r="C345" t="n">
-        <v>105.992241</v>
+        <v>105.992233</v>
       </c>
     </row>
     <row r="346">
@@ -7209,7 +7209,7 @@
         <v>96.764847</v>
       </c>
       <c r="C346" t="n">
-        <v>105.906761</v>
+        <v>105.906769</v>
       </c>
     </row>
     <row r="347">
@@ -7242,7 +7242,7 @@
         <v>98.158401</v>
       </c>
       <c r="C349" t="n">
-        <v>106.077721</v>
+        <v>106.077713</v>
       </c>
     </row>
     <row r="350">
@@ -7286,7 +7286,7 @@
         <v>97.592278</v>
       </c>
       <c r="C353" t="n">
-        <v>106.847008</v>
+        <v>106.847015</v>
       </c>
     </row>
     <row r="354">
@@ -7352,7 +7352,7 @@
         <v>95.458397</v>
       </c>
       <c r="C359" t="n">
-        <v>111.377335</v>
+        <v>111.377327</v>
       </c>
     </row>
     <row r="360">
@@ -7385,7 +7385,7 @@
         <v>91.800323</v>
       </c>
       <c r="C362" t="n">
-        <v>113.172356</v>
+        <v>113.172348</v>
       </c>
     </row>
     <row r="363">
@@ -7528,7 +7528,7 @@
         <v>90.755157</v>
       </c>
       <c r="C375" t="n">
-        <v>109.411339</v>
+        <v>109.411346</v>
       </c>
     </row>
     <row r="376">
@@ -7616,7 +7616,7 @@
         <v>89.361603</v>
       </c>
       <c r="C383" t="n">
-        <v>102.145752</v>
+        <v>102.145744</v>
       </c>
     </row>
     <row r="384">
@@ -7671,7 +7671,7 @@
         <v>90.668053</v>
       </c>
       <c r="C388" t="n">
-        <v>104.19722</v>
+        <v>104.197212</v>
       </c>
     </row>
     <row r="389">
@@ -7715,7 +7715,7 @@
         <v>87.314819</v>
       </c>
       <c r="C392" t="n">
-        <v>100.350716</v>
+        <v>100.350708</v>
       </c>
     </row>
     <row r="393">
@@ -7759,7 +7759,7 @@
         <v>83.839653</v>
       </c>
       <c r="C396" t="n">
-        <v>99.923332</v>
+        <v>99.923325</v>
       </c>
     </row>
     <row r="397">
@@ -7781,7 +7781,7 @@
         <v>83.857063</v>
       </c>
       <c r="C398" t="n">
-        <v>98.641167</v>
+        <v>98.641159</v>
       </c>
     </row>
     <row r="399">
@@ -7803,7 +7803,7 @@
         <v>81.244148</v>
       </c>
       <c r="C400" t="n">
-        <v>95.991364</v>
+        <v>95.991356</v>
       </c>
     </row>
     <row r="401">
@@ -7814,7 +7814,7 @@
         <v>81.505447</v>
       </c>
       <c r="C401" t="n">
-        <v>95.56398</v>
+        <v>95.563972</v>
       </c>
     </row>
     <row r="402">
@@ -7847,7 +7847,7 @@
         <v>79.362862</v>
       </c>
       <c r="C404" t="n">
-        <v>94.709198</v>
+        <v>94.70919</v>
       </c>
     </row>
     <row r="405">
@@ -7858,7 +7858,7 @@
         <v>79.955116</v>
       </c>
       <c r="C405" t="n">
-        <v>95.307541</v>
+        <v>95.307533</v>
       </c>
     </row>
     <row r="406">
@@ -7891,7 +7891,7 @@
         <v>78.561554</v>
       </c>
       <c r="C408" t="n">
-        <v>94.880142</v>
+        <v>94.88015</v>
       </c>
     </row>
     <row r="409">
@@ -7902,7 +7902,7 @@
         <v>77.67318</v>
       </c>
       <c r="C409" t="n">
-        <v>94.880142</v>
+        <v>94.88015</v>
       </c>
     </row>
     <row r="410">
@@ -7979,7 +7979,7 @@
         <v>75.251877</v>
       </c>
       <c r="C416" t="n">
-        <v>80.562653</v>
+        <v>80.562645</v>
       </c>
     </row>
     <row r="417">
@@ -8023,7 +8023,7 @@
         <v>86.644173</v>
       </c>
       <c r="C420" t="n">
-        <v>86.930733</v>
+        <v>86.930725</v>
       </c>
     </row>
     <row r="421">
@@ -8045,7 +8045,7 @@
         <v>87.968048</v>
       </c>
       <c r="C422" t="n">
-        <v>88.041939</v>
+        <v>88.041946</v>
       </c>
     </row>
     <row r="423">
@@ -8056,7 +8056,7 @@
         <v>88.011604</v>
       </c>
       <c r="C423" t="n">
-        <v>87.870995</v>
+        <v>87.870987</v>
       </c>
     </row>
     <row r="424">
@@ -8089,7 +8089,7 @@
         <v>85.02417</v>
       </c>
       <c r="C426" t="n">
-        <v>87.187157</v>
+        <v>87.187164</v>
       </c>
     </row>
     <row r="427">
@@ -8100,7 +8100,7 @@
         <v>83.247391</v>
       </c>
       <c r="C427" t="n">
-        <v>87.529083</v>
+        <v>87.529076</v>
       </c>
     </row>
     <row r="428">
@@ -8188,7 +8188,7 @@
         <v>83.073189</v>
       </c>
       <c r="C435" t="n">
-        <v>103.25695</v>
+        <v>103.256958</v>
       </c>
     </row>
     <row r="436">
@@ -8210,7 +8210,7 @@
         <v>82.02803</v>
       </c>
       <c r="C437" t="n">
-        <v>99.923332</v>
+        <v>99.923325</v>
       </c>
     </row>
     <row r="438">
@@ -8221,7 +8221,7 @@
         <v>80.216408</v>
       </c>
       <c r="C438" t="n">
-        <v>99.23951</v>
+        <v>99.239502</v>
       </c>
     </row>
     <row r="439">
@@ -8265,7 +8265,7 @@
         <v>79.972534</v>
       </c>
       <c r="C442" t="n">
-        <v>102.316696</v>
+        <v>102.316704</v>
       </c>
     </row>
     <row r="443">
@@ -8287,7 +8287,7 @@
         <v>82.881584</v>
       </c>
       <c r="C444" t="n">
-        <v>102.145752</v>
+        <v>102.145744</v>
       </c>
     </row>
     <row r="445">
@@ -8298,7 +8298,7 @@
         <v>83.595779</v>
       </c>
       <c r="C445" t="n">
-        <v>104.795555</v>
+        <v>104.795547</v>
       </c>
     </row>
     <row r="446">
@@ -8320,7 +8320,7 @@
         <v>84.693199</v>
       </c>
       <c r="C447" t="n">
-        <v>109.924217</v>
+        <v>109.92421</v>
       </c>
     </row>
     <row r="448">
@@ -8375,7 +8375,7 @@
         <v>85.529327</v>
       </c>
       <c r="C452" t="n">
-        <v>115.394783</v>
+        <v>115.394775</v>
       </c>
     </row>
     <row r="453">
@@ -8386,7 +8386,7 @@
         <v>85.668686</v>
       </c>
       <c r="C453" t="n">
-        <v>114.881905</v>
+        <v>114.881912</v>
       </c>
     </row>
     <row r="454">
@@ -8397,7 +8397,7 @@
         <v>85.877724</v>
       </c>
       <c r="C454" t="n">
-        <v>116.07859</v>
+        <v>116.078598</v>
       </c>
     </row>
     <row r="455">
@@ -8430,7 +8430,7 @@
         <v>82.829323</v>
       </c>
       <c r="C457" t="n">
-        <v>113.856178</v>
+        <v>113.856171</v>
       </c>
     </row>
     <row r="458">
@@ -8529,7 +8529,7 @@
         <v>82.30674</v>
       </c>
       <c r="C466" t="n">
-        <v>116.933372</v>
+        <v>116.93338</v>
       </c>
     </row>
     <row r="467">
@@ -8540,7 +8540,7 @@
         <v>80.442863</v>
       </c>
       <c r="C467" t="n">
-        <v>113.514275</v>
+        <v>113.514267</v>
       </c>
     </row>
     <row r="468">
@@ -8551,7 +8551,7 @@
         <v>80.634476</v>
       </c>
       <c r="C468" t="n">
-        <v>111.377335</v>
+        <v>111.377327</v>
       </c>
     </row>
     <row r="469">
@@ -8573,7 +8573,7 @@
         <v>79.240929</v>
       </c>
       <c r="C470" t="n">
-        <v>110.949936</v>
+        <v>110.949944</v>
       </c>
     </row>
     <row r="471">
@@ -8661,7 +8661,7 @@
         <v>80.129311</v>
       </c>
       <c r="C478" t="n">
-        <v>109.582298</v>
+        <v>109.582291</v>
       </c>
     </row>
     <row r="479">
@@ -8716,7 +8716,7 @@
         <v>82.463509</v>
       </c>
       <c r="C483" t="n">
-        <v>110.949936</v>
+        <v>110.949944</v>
       </c>
     </row>
     <row r="484">
@@ -8738,7 +8738,7 @@
         <v>84.01384</v>
       </c>
       <c r="C485" t="n">
-        <v>113.172356</v>
+        <v>113.172348</v>
       </c>
     </row>
     <row r="486">
@@ -8749,7 +8749,7 @@
         <v>84.170616</v>
       </c>
       <c r="C486" t="n">
-        <v>113.343315</v>
+        <v>113.343323</v>
       </c>
     </row>
     <row r="487">
@@ -8760,7 +8760,7 @@
         <v>84.849968</v>
       </c>
       <c r="C487" t="n">
-        <v>113.856178</v>
+        <v>113.856171</v>
       </c>
     </row>
     <row r="488">
@@ -8793,7 +8793,7 @@
         <v>92.671295</v>
       </c>
       <c r="C490" t="n">
-        <v>112.488533</v>
+        <v>112.488541</v>
       </c>
     </row>
     <row r="491">
@@ -8804,7 +8804,7 @@
         <v>94.108398</v>
       </c>
       <c r="C491" t="n">
-        <v>117.104324</v>
+        <v>117.104317</v>
       </c>
     </row>
     <row r="492">
@@ -8826,7 +8826,7 @@
         <v>92.105156</v>
       </c>
       <c r="C493" t="n">
-        <v>116.933372</v>
+        <v>116.93338</v>
       </c>
     </row>
     <row r="494">
@@ -8859,7 +8859,7 @@
         <v>93.411613</v>
       </c>
       <c r="C496" t="n">
-        <v>119.07032</v>
+        <v>119.070328</v>
       </c>
     </row>
     <row r="497">
@@ -8892,7 +8892,7 @@
         <v>93.977745</v>
       </c>
       <c r="C499" t="n">
-        <v>121.463684</v>
+        <v>121.463692</v>
       </c>
     </row>
     <row r="500">
@@ -8903,7 +8903,7 @@
         <v>92.932579</v>
       </c>
       <c r="C500" t="n">
-        <v>120.608917</v>
+        <v>120.60891</v>
       </c>
     </row>
     <row r="501">
@@ -8914,7 +8914,7 @@
         <v>93.847099</v>
       </c>
       <c r="C501" t="n">
-        <v>120.694382</v>
+        <v>120.694374</v>
       </c>
     </row>
     <row r="502">
@@ -8925,7 +8925,7 @@
         <v>94.282585</v>
       </c>
       <c r="C502" t="n">
-        <v>120.52343</v>
+        <v>120.523438</v>
       </c>
     </row>
     <row r="503">
@@ -8936,7 +8936,7 @@
         <v>96.068077</v>
       </c>
       <c r="C503" t="n">
-        <v>124.369919</v>
+        <v>124.369926</v>
       </c>
     </row>
     <row r="504">
@@ -8969,7 +8969,7 @@
         <v>94.064842</v>
       </c>
       <c r="C506" t="n">
-        <v>123.686096</v>
+        <v>123.686089</v>
       </c>
     </row>
     <row r="507">
@@ -9002,7 +9002,7 @@
         <v>95.806786</v>
       </c>
       <c r="C509" t="n">
-        <v>123.3442</v>
+        <v>123.344208</v>
       </c>
     </row>
     <row r="510">
@@ -9013,7 +9013,7 @@
         <v>95.632599</v>
       </c>
       <c r="C510" t="n">
-        <v>127.361641</v>
+        <v>127.361649</v>
       </c>
     </row>
     <row r="511">
@@ -9024,7 +9024,7 @@
         <v>95.806786</v>
       </c>
       <c r="C511" t="n">
-        <v>125.993996</v>
+        <v>125.993988</v>
       </c>
     </row>
     <row r="512">
@@ -9046,7 +9046,7 @@
         <v>94.848717</v>
       </c>
       <c r="C513" t="n">
-        <v>126.934258</v>
+        <v>126.934265</v>
       </c>
     </row>
     <row r="514">
@@ -9057,7 +9057,7 @@
         <v>95.458397</v>
       </c>
       <c r="C514" t="n">
-        <v>125.993996</v>
+        <v>125.993988</v>
       </c>
     </row>
     <row r="515">
@@ -9079,7 +9079,7 @@
         <v>94.500328</v>
       </c>
       <c r="C516" t="n">
-        <v>125.224693</v>
+        <v>125.224701</v>
       </c>
     </row>
     <row r="517">
@@ -9090,7 +9090,7 @@
         <v>95.893875</v>
       </c>
       <c r="C517" t="n">
-        <v>125.993996</v>
+        <v>125.993988</v>
       </c>
     </row>
     <row r="518">
@@ -9112,7 +9112,7 @@
         <v>98.332603</v>
       </c>
       <c r="C519" t="n">
-        <v>125.481133</v>
+        <v>125.48114</v>
       </c>
     </row>
     <row r="520">
@@ -9134,7 +9134,7 @@
         <v>99.943901</v>
       </c>
       <c r="C521" t="n">
-        <v>127.276169</v>
+        <v>127.276161</v>
       </c>
     </row>
     <row r="522">
@@ -9189,7 +9189,7 @@
         <v>105.822945</v>
       </c>
       <c r="C526" t="n">
-        <v>133.516022</v>
+        <v>133.516037</v>
       </c>
     </row>
     <row r="527">
@@ -9200,7 +9200,7 @@
         <v>107.608444</v>
       </c>
       <c r="C527" t="n">
-        <v>134.285339</v>
+        <v>134.285324</v>
       </c>
     </row>
     <row r="528">
@@ -9211,7 +9211,7 @@
         <v>106.519722</v>
       </c>
       <c r="C528" t="n">
-        <v>134.199844</v>
+        <v>134.19986</v>
       </c>
     </row>
     <row r="529">
@@ -9222,7 +9222,7 @@
         <v>105.866501</v>
       </c>
       <c r="C529" t="n">
-        <v>134.883667</v>
+        <v>134.883682</v>
       </c>
     </row>
     <row r="530">
@@ -9266,7 +9266,7 @@
         <v>106.476173</v>
       </c>
       <c r="C533" t="n">
-        <v>138.473724</v>
+        <v>138.47374</v>
       </c>
     </row>
     <row r="534">
@@ -9277,7 +9277,7 @@
         <v>104.995529</v>
       </c>
       <c r="C534" t="n">
-        <v>137.020599</v>
+        <v>137.020615</v>
       </c>
     </row>
     <row r="535">
@@ -9288,7 +9288,7 @@
         <v>100.161644</v>
       </c>
       <c r="C535" t="n">
-        <v>134.199844</v>
+        <v>134.19986</v>
       </c>
     </row>
     <row r="536">
@@ -9332,7 +9332,7 @@
         <v>91.147095</v>
       </c>
       <c r="C539" t="n">
-        <v>106.847008</v>
+        <v>106.847015</v>
       </c>
     </row>
     <row r="540">
@@ -9354,7 +9354,7 @@
         <v>93.063225</v>
       </c>
       <c r="C541" t="n">
-        <v>109.83873</v>
+        <v>109.838737</v>
       </c>
     </row>
     <row r="542">
@@ -9376,7 +9376,7 @@
         <v>91.147095</v>
       </c>
       <c r="C543" t="n">
-        <v>104.795555</v>
+        <v>104.795547</v>
       </c>
     </row>
     <row r="544">
@@ -9409,7 +9409,7 @@
         <v>77.28994</v>
       </c>
       <c r="C546" t="n">
-        <v>93.854424</v>
+        <v>93.854416</v>
       </c>
     </row>
     <row r="547">
@@ -9453,7 +9453,7 @@
         <v>64.486679</v>
       </c>
       <c r="C550" t="n">
-        <v>78.895844</v>
+        <v>78.895836</v>
       </c>
     </row>
     <row r="551">
@@ -9475,7 +9475,7 @@
         <v>71.60997</v>
       </c>
       <c r="C552" t="n">
-        <v>77.399979</v>
+        <v>77.399986</v>
       </c>
     </row>
     <row r="553">
@@ -9486,7 +9486,7 @@
         <v>71.708336</v>
       </c>
       <c r="C553" t="n">
-        <v>78.126534</v>
+        <v>78.126541</v>
       </c>
     </row>
     <row r="554">

--- a/Danske aktiekurser.xlsx
+++ b/Danske aktiekurser.xlsx
@@ -3422,7 +3422,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>189.887939</v>
+        <v>189.887924</v>
       </c>
       <c r="C2" t="n">
         <v>191.282883</v>
@@ -3433,7 +3433,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>188.870789</v>
+        <v>188.870804</v>
       </c>
       <c r="C3" t="n">
         <v>190.824905</v>
@@ -3455,10 +3455,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="n">
-        <v>190.74855</v>
+        <v>190.748566</v>
       </c>
       <c r="C5" t="n">
-        <v>192.046173</v>
+        <v>192.046188</v>
       </c>
     </row>
     <row r="6">
@@ -3466,10 +3466,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="n">
-        <v>191.843918</v>
+        <v>191.843903</v>
       </c>
       <c r="C6" t="n">
-        <v>191.74086</v>
+        <v>191.740845</v>
       </c>
     </row>
     <row r="7">
@@ -3480,7 +3480,7 @@
         <v>190.357361</v>
       </c>
       <c r="C7" t="n">
-        <v>191.588211</v>
+        <v>191.588196</v>
       </c>
     </row>
     <row r="8">
@@ -3488,7 +3488,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="n">
-        <v>194.347595</v>
+        <v>194.34758</v>
       </c>
       <c r="C8" t="n">
         <v>195.404709</v>
@@ -3502,7 +3502,7 @@
         <v>196.14711</v>
       </c>
       <c r="C9" t="n">
-        <v>196.320648</v>
+        <v>196.320663</v>
       </c>
     </row>
     <row r="10">
@@ -3510,7 +3510,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="n">
-        <v>194.817017</v>
+        <v>194.817032</v>
       </c>
       <c r="C10" t="n">
         <v>195.09938</v>
@@ -3557,7 +3557,7 @@
         <v>191.452713</v>
       </c>
       <c r="C14" t="n">
-        <v>191.588211</v>
+        <v>191.588196</v>
       </c>
     </row>
     <row r="15">
@@ -3601,7 +3601,7 @@
         <v>192.078644</v>
       </c>
       <c r="C18" t="n">
-        <v>190.214233</v>
+        <v>190.214249</v>
       </c>
     </row>
     <row r="19">
@@ -3609,7 +3609,7 @@
         <v>20</v>
       </c>
       <c r="B19" t="n">
-        <v>186.680084</v>
+        <v>186.680099</v>
       </c>
       <c r="C19" t="n">
         <v>185.63446</v>
@@ -3620,7 +3620,7 @@
         <v>21</v>
       </c>
       <c r="B20" t="n">
-        <v>189.966171</v>
+        <v>189.966156</v>
       </c>
       <c r="C20" t="n">
         <v>187.466385</v>
@@ -3631,7 +3631,7 @@
         <v>22</v>
       </c>
       <c r="B21" t="n">
-        <v>191.843918</v>
+        <v>191.843903</v>
       </c>
       <c r="C21" t="n">
         <v>187.771698</v>
@@ -3642,10 +3642,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="n">
-        <v>189.966171</v>
+        <v>189.966156</v>
       </c>
       <c r="C22" t="n">
-        <v>185.787125</v>
+        <v>185.787109</v>
       </c>
     </row>
     <row r="23">
@@ -3664,7 +3664,7 @@
         <v>25</v>
       </c>
       <c r="B24" t="n">
-        <v>189.418488</v>
+        <v>189.418503</v>
       </c>
       <c r="C24" t="n">
         <v>187.466385</v>
@@ -3697,7 +3697,7 @@
         <v>28</v>
       </c>
       <c r="B27" t="n">
-        <v>186.758347</v>
+        <v>186.758331</v>
       </c>
       <c r="C27" t="n">
         <v>183.9552</v>
@@ -3711,7 +3711,7 @@
         <v>189.261993</v>
       </c>
       <c r="C28" t="n">
-        <v>188.687653</v>
+        <v>188.687668</v>
       </c>
     </row>
     <row r="29">
@@ -3719,7 +3719,7 @@
         <v>30</v>
       </c>
       <c r="B29" t="n">
-        <v>188.557831</v>
+        <v>188.557846</v>
       </c>
       <c r="C29" t="n">
         <v>187.161057</v>
@@ -3730,10 +3730,10 @@
         <v>31</v>
       </c>
       <c r="B30" t="n">
-        <v>188.244904</v>
+        <v>188.244888</v>
       </c>
       <c r="C30" t="n">
-        <v>185.787125</v>
+        <v>185.787109</v>
       </c>
     </row>
     <row r="31">
@@ -3741,10 +3741,10 @@
         <v>32</v>
       </c>
       <c r="B31" t="n">
-        <v>189.966171</v>
+        <v>189.966156</v>
       </c>
       <c r="C31" t="n">
-        <v>188.687653</v>
+        <v>188.687668</v>
       </c>
     </row>
     <row r="32">
@@ -3755,7 +3755,7 @@
         <v>188.949051</v>
       </c>
       <c r="C32" t="n">
-        <v>188.535004</v>
+        <v>188.534988</v>
       </c>
     </row>
     <row r="33">
@@ -3774,7 +3774,7 @@
         <v>35</v>
       </c>
       <c r="B34" t="n">
-        <v>192.313354</v>
+        <v>192.31337</v>
       </c>
       <c r="C34" t="n">
         <v>193.42012</v>
@@ -3785,10 +3785,10 @@
         <v>36</v>
       </c>
       <c r="B35" t="n">
-        <v>194.660553</v>
+        <v>194.660568</v>
       </c>
       <c r="C35" t="n">
-        <v>196.625977</v>
+        <v>196.625992</v>
       </c>
     </row>
     <row r="36">
@@ -3796,10 +3796,10 @@
         <v>37</v>
       </c>
       <c r="B36" t="n">
-        <v>194.895279</v>
+        <v>194.895264</v>
       </c>
       <c r="C36" t="n">
-        <v>196.167999</v>
+        <v>196.168015</v>
       </c>
     </row>
     <row r="37">
@@ -3821,7 +3821,7 @@
         <v>192.861053</v>
       </c>
       <c r="C38" t="n">
-        <v>182.428589</v>
+        <v>182.428604</v>
       </c>
     </row>
     <row r="39">
@@ -3832,7 +3832,7 @@
         <v>193.252243</v>
       </c>
       <c r="C39" t="n">
-        <v>180.444016</v>
+        <v>180.444031</v>
       </c>
     </row>
     <row r="40">
@@ -3843,7 +3843,7 @@
         <v>194.504074</v>
       </c>
       <c r="C40" t="n">
-        <v>186.245087</v>
+        <v>186.245102</v>
       </c>
     </row>
     <row r="41">
@@ -3854,7 +3854,7 @@
         <v>195.677673</v>
       </c>
       <c r="C41" t="n">
-        <v>183.802551</v>
+        <v>183.802536</v>
       </c>
     </row>
     <row r="42">
@@ -3873,7 +3873,7 @@
         <v>44</v>
       </c>
       <c r="B43" t="n">
-        <v>192.626297</v>
+        <v>192.626312</v>
       </c>
       <c r="C43" t="n">
         <v>182.733932</v>
@@ -3884,7 +3884,7 @@
         <v>45</v>
       </c>
       <c r="B44" t="n">
-        <v>190.74855</v>
+        <v>190.748566</v>
       </c>
       <c r="C44" t="n">
         <v>181.665298</v>
@@ -3917,7 +3917,7 @@
         <v>48</v>
       </c>
       <c r="B47" t="n">
-        <v>189.340256</v>
+        <v>189.34024</v>
       </c>
       <c r="C47" t="n">
         <v>180.749344</v>
@@ -3939,10 +3939,10 @@
         <v>50</v>
       </c>
       <c r="B49" t="n">
-        <v>191.218002</v>
+        <v>191.217987</v>
       </c>
       <c r="C49" t="n">
-        <v>182.428589</v>
+        <v>182.428604</v>
       </c>
     </row>
     <row r="50">
@@ -3950,7 +3950,7 @@
         <v>51</v>
       </c>
       <c r="B50" t="n">
-        <v>192.626297</v>
+        <v>192.626312</v>
       </c>
       <c r="C50" t="n">
         <v>180.902008</v>
@@ -3975,7 +3975,7 @@
         <v>193.799911</v>
       </c>
       <c r="C52" t="n">
-        <v>183.344559</v>
+        <v>183.344543</v>
       </c>
     </row>
     <row r="53">
@@ -3986,7 +3986,7 @@
         <v>190.983292</v>
       </c>
       <c r="C53" t="n">
-        <v>180.138687</v>
+        <v>180.138702</v>
       </c>
     </row>
     <row r="54">
@@ -4008,7 +4008,7 @@
         <v>191.306274</v>
       </c>
       <c r="C55" t="n">
-        <v>182.792389</v>
+        <v>182.792404</v>
       </c>
     </row>
     <row r="56">
@@ -4027,7 +4027,7 @@
         <v>58</v>
       </c>
       <c r="B57" t="n">
-        <v>191.714172</v>
+        <v>191.714188</v>
       </c>
       <c r="C57" t="n">
         <v>185.35791</v>
@@ -4041,7 +4041,7 @@
         <v>190.572052</v>
       </c>
       <c r="C58" t="n">
-        <v>184.075165</v>
+        <v>184.07518</v>
       </c>
     </row>
     <row r="59">
@@ -4060,7 +4060,7 @@
         <v>61</v>
       </c>
       <c r="B60" t="n">
-        <v>186.00354</v>
+        <v>186.003525</v>
       </c>
       <c r="C60" t="n">
         <v>182.632065</v>
@@ -4093,10 +4093,10 @@
         <v>64</v>
       </c>
       <c r="B63" t="n">
-        <v>183.882431</v>
+        <v>183.882446</v>
       </c>
       <c r="C63" t="n">
-        <v>178.14241</v>
+        <v>178.142426</v>
       </c>
     </row>
     <row r="64">
@@ -4126,10 +4126,10 @@
         <v>67</v>
       </c>
       <c r="B66" t="n">
-        <v>183.882431</v>
+        <v>183.882446</v>
       </c>
       <c r="C66" t="n">
-        <v>178.944138</v>
+        <v>178.944153</v>
       </c>
     </row>
     <row r="67">
@@ -4140,7 +4140,7 @@
         <v>182.495575</v>
       </c>
       <c r="C67" t="n">
-        <v>178.14241</v>
+        <v>178.142426</v>
       </c>
     </row>
     <row r="68">
@@ -4148,10 +4148,10 @@
         <v>69</v>
       </c>
       <c r="B68" t="n">
-        <v>182.985046</v>
+        <v>182.985062</v>
       </c>
       <c r="C68" t="n">
-        <v>180.868256</v>
+        <v>180.868271</v>
       </c>
     </row>
     <row r="69">
@@ -4173,7 +4173,7 @@
         <v>179.477097</v>
       </c>
       <c r="C70" t="n">
-        <v>180.868256</v>
+        <v>180.868271</v>
       </c>
     </row>
     <row r="71">
@@ -4184,7 +4184,7 @@
         <v>180.619217</v>
       </c>
       <c r="C71" t="n">
-        <v>184.395828</v>
+        <v>184.395844</v>
       </c>
     </row>
     <row r="72">
@@ -4192,7 +4192,7 @@
         <v>73</v>
       </c>
       <c r="B72" t="n">
-        <v>180.211304</v>
+        <v>180.211319</v>
       </c>
       <c r="C72" t="n">
         <v>182.311371</v>
@@ -4203,7 +4203,7 @@
         <v>74</v>
       </c>
       <c r="B73" t="n">
-        <v>180.374481</v>
+        <v>180.374496</v>
       </c>
       <c r="C73" t="n">
         <v>181.990677</v>
@@ -4217,7 +4217,7 @@
         <v>181.9245</v>
       </c>
       <c r="C74" t="n">
-        <v>184.075165</v>
+        <v>184.07518</v>
       </c>
     </row>
     <row r="75">
@@ -4239,7 +4239,7 @@
         <v>182.577164</v>
       </c>
       <c r="C76" t="n">
-        <v>188.885483</v>
+        <v>188.885498</v>
       </c>
     </row>
     <row r="77">
@@ -4272,7 +4272,7 @@
         <v>184.127182</v>
       </c>
       <c r="C79" t="n">
-        <v>194.657898</v>
+        <v>194.657883</v>
       </c>
     </row>
     <row r="80">
@@ -4283,7 +4283,7 @@
         <v>178.498138</v>
       </c>
       <c r="C80" t="n">
-        <v>187.602722</v>
+        <v>187.602737</v>
       </c>
     </row>
     <row r="81">
@@ -4327,7 +4327,7 @@
         <v>177.84549</v>
       </c>
       <c r="C84" t="n">
-        <v>184.716537</v>
+        <v>184.716522</v>
       </c>
     </row>
     <row r="85">
@@ -4335,7 +4335,7 @@
         <v>86</v>
       </c>
       <c r="B85" t="n">
-        <v>176.05072</v>
+        <v>176.050735</v>
       </c>
       <c r="C85" t="n">
         <v>181.990677</v>
@@ -4368,7 +4368,7 @@
         <v>89</v>
       </c>
       <c r="B88" t="n">
-        <v>176.784927</v>
+        <v>176.784943</v>
       </c>
       <c r="C88" t="n">
         <v>187.121704</v>
@@ -4393,7 +4393,7 @@
         <v>174.990173</v>
       </c>
       <c r="C90" t="n">
-        <v>186.640671</v>
+        <v>186.640656</v>
       </c>
     </row>
     <row r="91">
@@ -4434,10 +4434,10 @@
         <v>95</v>
       </c>
       <c r="B94" t="n">
-        <v>176.458603</v>
+        <v>176.458618</v>
       </c>
       <c r="C94" t="n">
-        <v>184.075165</v>
+        <v>184.07518</v>
       </c>
     </row>
     <row r="95">
@@ -4478,7 +4478,7 @@
         <v>99</v>
       </c>
       <c r="B98" t="n">
-        <v>173.276978</v>
+        <v>173.276962</v>
       </c>
       <c r="C98" t="n">
         <v>181.669983</v>
@@ -4500,7 +4500,7 @@
         <v>101</v>
       </c>
       <c r="B100" t="n">
-        <v>168.953201</v>
+        <v>168.953217</v>
       </c>
       <c r="C100" t="n">
         <v>174.935532</v>
@@ -4547,7 +4547,7 @@
         <v>178.253387</v>
       </c>
       <c r="C104" t="n">
-        <v>178.944138</v>
+        <v>178.944153</v>
       </c>
     </row>
     <row r="105">
@@ -4558,7 +4558,7 @@
         <v>175.72438</v>
       </c>
       <c r="C105" t="n">
-        <v>177.982086</v>
+        <v>177.982071</v>
       </c>
     </row>
     <row r="106">
@@ -4569,7 +4569,7 @@
         <v>175.561234</v>
       </c>
       <c r="C106" t="n">
-        <v>177.501038</v>
+        <v>177.501053</v>
       </c>
     </row>
     <row r="107">
@@ -4602,7 +4602,7 @@
         <v>178.498138</v>
       </c>
       <c r="C109" t="n">
-        <v>177.180359</v>
+        <v>177.180344</v>
       </c>
     </row>
     <row r="110">
@@ -4621,10 +4621,10 @@
         <v>112</v>
       </c>
       <c r="B111" t="n">
-        <v>178.742874</v>
+        <v>178.742889</v>
       </c>
       <c r="C111" t="n">
-        <v>178.623459</v>
+        <v>178.623444</v>
       </c>
     </row>
     <row r="112">
@@ -4632,7 +4632,7 @@
         <v>113</v>
       </c>
       <c r="B112" t="n">
-        <v>177.682327</v>
+        <v>177.682343</v>
       </c>
       <c r="C112" t="n">
         <v>177.821732</v>
@@ -4720,7 +4720,7 @@
         <v>121</v>
       </c>
       <c r="B120" t="n">
-        <v>162.018875</v>
+        <v>162.01889</v>
       </c>
       <c r="C120" t="n">
         <v>173.652771</v>
@@ -4731,10 +4731,10 @@
         <v>122</v>
       </c>
       <c r="B121" t="n">
-        <v>162.018875</v>
+        <v>162.01889</v>
       </c>
       <c r="C121" t="n">
-        <v>174.454498</v>
+        <v>174.454514</v>
       </c>
     </row>
     <row r="122">
@@ -4767,7 +4767,7 @@
         <v>164.303116</v>
       </c>
       <c r="C124" t="n">
-        <v>177.501038</v>
+        <v>177.501053</v>
       </c>
     </row>
     <row r="125">
@@ -4789,7 +4789,7 @@
         <v>156.797714</v>
       </c>
       <c r="C126" t="n">
-        <v>177.501038</v>
+        <v>177.501053</v>
       </c>
     </row>
     <row r="127">
@@ -4800,7 +4800,7 @@
         <v>155.533218</v>
       </c>
       <c r="C127" t="n">
-        <v>177.661377</v>
+        <v>177.661392</v>
       </c>
     </row>
     <row r="128">
@@ -4822,7 +4822,7 @@
         <v>158.102997</v>
       </c>
       <c r="C129" t="n">
-        <v>182.151016</v>
+        <v>182.151031</v>
       </c>
     </row>
     <row r="130">
@@ -4833,7 +4833,7 @@
         <v>158.225372</v>
       </c>
       <c r="C130" t="n">
-        <v>182.151016</v>
+        <v>182.151031</v>
       </c>
     </row>
     <row r="131">
@@ -4855,7 +4855,7 @@
         <v>158.225372</v>
       </c>
       <c r="C132" t="n">
-        <v>182.151016</v>
+        <v>182.151031</v>
       </c>
     </row>
     <row r="133">
@@ -4863,7 +4863,7 @@
         <v>134</v>
       </c>
       <c r="B133" t="n">
-        <v>158.06221</v>
+        <v>158.062225</v>
       </c>
       <c r="C133" t="n">
         <v>181.990677</v>
@@ -4874,7 +4874,7 @@
         <v>135</v>
       </c>
       <c r="B134" t="n">
-        <v>159.163544</v>
+        <v>159.163559</v>
       </c>
       <c r="C134" t="n">
         <v>180.707932</v>
@@ -4888,7 +4888,7 @@
         <v>144.642227</v>
       </c>
       <c r="C135" t="n">
-        <v>177.661377</v>
+        <v>177.661392</v>
       </c>
     </row>
     <row r="136">
@@ -4918,7 +4918,7 @@
         <v>139</v>
       </c>
       <c r="B138" t="n">
-        <v>149.985764</v>
+        <v>149.985748</v>
       </c>
       <c r="C138" t="n">
         <v>181.669983</v>
@@ -4940,7 +4940,7 @@
         <v>141</v>
       </c>
       <c r="B140" t="n">
-        <v>150.92392</v>
+        <v>150.923935</v>
       </c>
       <c r="C140" t="n">
         <v>185.51825</v>
@@ -4951,7 +4951,7 @@
         <v>142</v>
       </c>
       <c r="B141" t="n">
-        <v>152.800278</v>
+        <v>152.800262</v>
       </c>
       <c r="C141" t="n">
         <v>186.319977</v>
@@ -4976,7 +4976,7 @@
         <v>153.208176</v>
       </c>
       <c r="C143" t="n">
-        <v>189.847549</v>
+        <v>189.847534</v>
       </c>
     </row>
     <row r="144">
@@ -4984,7 +4984,7 @@
         <v>145</v>
       </c>
       <c r="B144" t="n">
-        <v>151.127869</v>
+        <v>151.127884</v>
       </c>
       <c r="C144" t="n">
         <v>189.526855</v>
@@ -4995,7 +4995,7 @@
         <v>146</v>
       </c>
       <c r="B145" t="n">
-        <v>149.12915</v>
+        <v>149.129166</v>
       </c>
       <c r="C145" t="n">
         <v>188.083771</v>
@@ -5009,7 +5009,7 @@
         <v>146.029099</v>
       </c>
       <c r="C146" t="n">
-        <v>184.395828</v>
+        <v>184.395844</v>
       </c>
     </row>
     <row r="147">
@@ -5017,7 +5017,7 @@
         <v>148</v>
       </c>
       <c r="B147" t="n">
-        <v>149.12915</v>
+        <v>149.129166</v>
       </c>
       <c r="C147" t="n">
         <v>185.037216</v>
@@ -5031,7 +5031,7 @@
         <v>147.53833</v>
       </c>
       <c r="C148" t="n">
-        <v>177.180359</v>
+        <v>177.180344</v>
       </c>
     </row>
     <row r="149">
@@ -5053,7 +5053,7 @@
         <v>147.415955</v>
       </c>
       <c r="C150" t="n">
-        <v>178.14241</v>
+        <v>178.142426</v>
       </c>
     </row>
     <row r="151">
@@ -5072,10 +5072,10 @@
         <v>153</v>
       </c>
       <c r="B152" t="n">
-        <v>149.700211</v>
+        <v>149.700226</v>
       </c>
       <c r="C152" t="n">
-        <v>177.501038</v>
+        <v>177.501053</v>
       </c>
     </row>
     <row r="153">
@@ -5083,7 +5083,7 @@
         <v>154</v>
       </c>
       <c r="B153" t="n">
-        <v>150.02652</v>
+        <v>150.026535</v>
       </c>
       <c r="C153" t="n">
         <v>178.302765</v>
@@ -5138,7 +5138,7 @@
         <v>159</v>
       </c>
       <c r="B158" t="n">
-        <v>150.230469</v>
+        <v>150.230484</v>
       </c>
       <c r="C158" t="n">
         <v>175.737259</v>
@@ -5152,7 +5152,7 @@
         <v>150.719971</v>
       </c>
       <c r="C159" t="n">
-        <v>177.661377</v>
+        <v>177.661392</v>
       </c>
     </row>
     <row r="160">
@@ -5163,7 +5163,7 @@
         <v>153.616074</v>
       </c>
       <c r="C160" t="n">
-        <v>176.057938</v>
+        <v>176.057953</v>
       </c>
     </row>
     <row r="161">
@@ -5193,7 +5193,7 @@
         <v>164</v>
       </c>
       <c r="B163" t="n">
-        <v>157.817474</v>
+        <v>157.817459</v>
       </c>
       <c r="C163" t="n">
         <v>175.256226</v>
@@ -5204,10 +5204,10 @@
         <v>165</v>
       </c>
       <c r="B164" t="n">
-        <v>156.716156</v>
+        <v>156.716141</v>
       </c>
       <c r="C164" t="n">
-        <v>155.614059</v>
+        <v>155.614075</v>
       </c>
     </row>
     <row r="165">
@@ -5229,7 +5229,7 @@
         <v>156.634567</v>
       </c>
       <c r="C166" t="n">
-        <v>151.926147</v>
+        <v>151.926132</v>
       </c>
     </row>
     <row r="167">
@@ -5240,7 +5240,7 @@
         <v>154.146332</v>
       </c>
       <c r="C167" t="n">
-        <v>150.723557</v>
+        <v>150.723541</v>
       </c>
     </row>
     <row r="168">
@@ -5259,7 +5259,7 @@
         <v>170</v>
       </c>
       <c r="B169" t="n">
-        <v>144.764603</v>
+        <v>144.764587</v>
       </c>
       <c r="C169" t="n">
         <v>148.398575</v>
@@ -5270,10 +5270,10 @@
         <v>171</v>
       </c>
       <c r="B170" t="n">
-        <v>148.272552</v>
+        <v>148.272568</v>
       </c>
       <c r="C170" t="n">
-        <v>147.917542</v>
+        <v>147.917526</v>
       </c>
     </row>
     <row r="171">
@@ -5284,7 +5284,7 @@
         <v>150.719971</v>
       </c>
       <c r="C171" t="n">
-        <v>148.158066</v>
+        <v>148.158051</v>
       </c>
     </row>
     <row r="172">
@@ -5292,7 +5292,7 @@
         <v>173</v>
       </c>
       <c r="B172" t="n">
-        <v>144.397491</v>
+        <v>144.397476</v>
       </c>
       <c r="C172" t="n">
         <v>148.799438</v>
@@ -5336,7 +5336,7 @@
         <v>177</v>
       </c>
       <c r="B176" t="n">
-        <v>140.114502</v>
+        <v>140.114487</v>
       </c>
       <c r="C176" t="n">
         <v>148.879593</v>
@@ -5350,7 +5350,7 @@
         <v>138.646057</v>
       </c>
       <c r="C177" t="n">
-        <v>147.917542</v>
+        <v>147.917526</v>
       </c>
     </row>
     <row r="178">
@@ -5391,7 +5391,7 @@
         <v>182</v>
       </c>
       <c r="B181" t="n">
-        <v>144.397491</v>
+        <v>144.397476</v>
       </c>
       <c r="C181" t="n">
         <v>151.28476</v>
@@ -5460,7 +5460,7 @@
         <v>137.626297</v>
       </c>
       <c r="C187" t="n">
-        <v>151.525269</v>
+        <v>151.525284</v>
       </c>
     </row>
     <row r="188">
@@ -5468,7 +5468,7 @@
         <v>189</v>
       </c>
       <c r="B188" t="n">
-        <v>138.238144</v>
+        <v>138.238159</v>
       </c>
       <c r="C188" t="n">
         <v>152.64769</v>
@@ -5479,7 +5479,7 @@
         <v>190</v>
       </c>
       <c r="B189" t="n">
-        <v>137.667099</v>
+        <v>137.667084</v>
       </c>
       <c r="C189" t="n">
         <v>150.402878</v>
@@ -5490,7 +5490,7 @@
         <v>191</v>
       </c>
       <c r="B190" t="n">
-        <v>135.627563</v>
+        <v>135.627579</v>
       </c>
       <c r="C190" t="n">
         <v>149.440796</v>
@@ -5504,7 +5504,7 @@
         <v>129.386673</v>
       </c>
       <c r="C191" t="n">
-        <v>148.158066</v>
+        <v>148.158051</v>
       </c>
     </row>
     <row r="192">
@@ -5512,7 +5512,7 @@
         <v>193</v>
       </c>
       <c r="B192" t="n">
-        <v>121.310196</v>
+        <v>121.310204</v>
       </c>
       <c r="C192" t="n">
         <v>150.483032</v>
@@ -5526,7 +5526,7 @@
         <v>116.945648</v>
       </c>
       <c r="C193" t="n">
-        <v>146.79512</v>
+        <v>146.795135</v>
       </c>
     </row>
     <row r="194">
@@ -5545,7 +5545,7 @@
         <v>196</v>
       </c>
       <c r="B195" t="n">
-        <v>117.88382</v>
+        <v>117.883827</v>
       </c>
       <c r="C195" t="n">
         <v>143.027023</v>
@@ -5556,7 +5556,7 @@
         <v>197</v>
       </c>
       <c r="B196" t="n">
-        <v>115.191658</v>
+        <v>115.191666</v>
       </c>
       <c r="C196" t="n">
         <v>140.782227</v>
@@ -5581,7 +5581,7 @@
         <v>113.886383</v>
       </c>
       <c r="C198" t="n">
-        <v>142.546005</v>
+        <v>142.54599</v>
       </c>
     </row>
     <row r="199">
@@ -5614,7 +5614,7 @@
         <v>110.704735</v>
       </c>
       <c r="C201" t="n">
-        <v>143.187393</v>
+        <v>143.187378</v>
       </c>
     </row>
     <row r="202">
@@ -5644,7 +5644,7 @@
         <v>205</v>
       </c>
       <c r="B204" t="n">
-        <v>103.280907</v>
+        <v>103.280914</v>
       </c>
       <c r="C204" t="n">
         <v>140.782227</v>
@@ -5680,7 +5680,7 @@
         <v>102.791428</v>
       </c>
       <c r="C207" t="n">
-        <v>140.862381</v>
+        <v>140.862396</v>
       </c>
     </row>
     <row r="208">
@@ -5691,7 +5691,7 @@
         <v>104.586197</v>
       </c>
       <c r="C208" t="n">
-        <v>144.06926</v>
+        <v>144.069275</v>
       </c>
     </row>
     <row r="209">
@@ -5699,7 +5699,7 @@
         <v>210</v>
       </c>
       <c r="B209" t="n">
-        <v>103.280907</v>
+        <v>103.280914</v>
       </c>
       <c r="C209" t="n">
         <v>139.90033</v>
@@ -5713,7 +5713,7 @@
         <v>103.076958</v>
       </c>
       <c r="C210" t="n">
-        <v>122.102119</v>
+        <v>122.102127</v>
       </c>
     </row>
     <row r="211">
@@ -5721,10 +5721,10 @@
         <v>212</v>
       </c>
       <c r="B211" t="n">
-        <v>108.134956</v>
+        <v>108.134949</v>
       </c>
       <c r="C211" t="n">
-        <v>123.625381</v>
+        <v>123.625389</v>
       </c>
     </row>
     <row r="212">
@@ -5732,10 +5732,10 @@
         <v>213</v>
       </c>
       <c r="B212" t="n">
-        <v>111.765282</v>
+        <v>111.765289</v>
       </c>
       <c r="C212" t="n">
-        <v>127.874512</v>
+        <v>127.874504</v>
       </c>
     </row>
     <row r="213">
@@ -5746,7 +5746,7 @@
         <v>110.337616</v>
       </c>
       <c r="C213" t="n">
-        <v>130.199509</v>
+        <v>130.199493</v>
       </c>
     </row>
     <row r="214">
@@ -5754,10 +5754,10 @@
         <v>215</v>
       </c>
       <c r="B214" t="n">
-        <v>110.174461</v>
+        <v>110.174469</v>
       </c>
       <c r="C214" t="n">
-        <v>130.680527</v>
+        <v>130.680542</v>
       </c>
     </row>
     <row r="215">
@@ -5765,7 +5765,7 @@
         <v>216</v>
       </c>
       <c r="B215" t="n">
-        <v>117.516708</v>
+        <v>117.516701</v>
       </c>
       <c r="C215" t="n">
         <v>132.52449</v>
@@ -5779,7 +5779,7 @@
         <v>117.027222</v>
       </c>
       <c r="C216" t="n">
-        <v>133.326202</v>
+        <v>133.326218</v>
       </c>
     </row>
     <row r="217">
@@ -5787,10 +5787,10 @@
         <v>218</v>
       </c>
       <c r="B217" t="n">
-        <v>117.598282</v>
+        <v>117.598274</v>
       </c>
       <c r="C217" t="n">
-        <v>131.321915</v>
+        <v>131.321899</v>
       </c>
     </row>
     <row r="218">
@@ -5798,10 +5798,10 @@
         <v>219</v>
       </c>
       <c r="B218" t="n">
-        <v>116.619324</v>
+        <v>116.619316</v>
       </c>
       <c r="C218" t="n">
-        <v>130.440033</v>
+        <v>130.440018</v>
       </c>
     </row>
     <row r="219">
@@ -5820,7 +5820,7 @@
         <v>221</v>
       </c>
       <c r="B220" t="n">
-        <v>117.598282</v>
+        <v>117.598274</v>
       </c>
       <c r="C220" t="n">
         <v>129.237442</v>
@@ -5834,7 +5834,7 @@
         <v>113.519257</v>
       </c>
       <c r="C221" t="n">
-        <v>127.874512</v>
+        <v>127.874504</v>
       </c>
     </row>
     <row r="222">
@@ -5842,10 +5842,10 @@
         <v>223</v>
       </c>
       <c r="B222" t="n">
-        <v>111.602119</v>
+        <v>111.602127</v>
       </c>
       <c r="C222" t="n">
-        <v>127.553818</v>
+        <v>127.553825</v>
       </c>
     </row>
     <row r="223">
@@ -5853,10 +5853,10 @@
         <v>224</v>
       </c>
       <c r="B223" t="n">
-        <v>110.500778</v>
+        <v>110.500786</v>
       </c>
       <c r="C223" t="n">
-        <v>128.756393</v>
+        <v>128.756409</v>
       </c>
     </row>
     <row r="224">
@@ -5867,7 +5867,7 @@
         <v>106.544136</v>
       </c>
       <c r="C224" t="n">
-        <v>125.950378</v>
+        <v>125.950386</v>
       </c>
     </row>
     <row r="225">
@@ -5875,10 +5875,10 @@
         <v>226</v>
       </c>
       <c r="B225" t="n">
-        <v>107.441521</v>
+        <v>107.441513</v>
       </c>
       <c r="C225" t="n">
-        <v>127.874512</v>
+        <v>127.874504</v>
       </c>
     </row>
     <row r="226">
@@ -5889,7 +5889,7 @@
         <v>108.461266</v>
       </c>
       <c r="C226" t="n">
-        <v>127.874512</v>
+        <v>127.874504</v>
       </c>
     </row>
     <row r="227">
@@ -5900,7 +5900,7 @@
         <v>108.869171</v>
       </c>
       <c r="C227" t="n">
-        <v>128.275375</v>
+        <v>128.27536</v>
       </c>
     </row>
     <row r="228">
@@ -5911,7 +5911,7 @@
         <v>111.071846</v>
       </c>
       <c r="C228" t="n">
-        <v>131.081406</v>
+        <v>131.08139</v>
       </c>
     </row>
     <row r="229">
@@ -5922,7 +5922,7 @@
         <v>110.133675</v>
       </c>
       <c r="C229" t="n">
-        <v>131.081406</v>
+        <v>131.08139</v>
       </c>
     </row>
     <row r="230">
@@ -5941,7 +5941,7 @@
         <v>232</v>
       </c>
       <c r="B231" t="n">
-        <v>107.441521</v>
+        <v>107.441513</v>
       </c>
       <c r="C231" t="n">
         <v>130.359848</v>
@@ -5952,7 +5952,7 @@
         <v>233</v>
       </c>
       <c r="B232" t="n">
-        <v>107.19677</v>
+        <v>107.196777</v>
       </c>
       <c r="C232" t="n">
         <v>130.359848</v>
@@ -5966,7 +5966,7 @@
         <v>108.706009</v>
       </c>
       <c r="C233" t="n">
-        <v>126.671928</v>
+        <v>126.671936</v>
       </c>
     </row>
     <row r="234">
@@ -5977,7 +5977,7 @@
         <v>108.583649</v>
       </c>
       <c r="C234" t="n">
-        <v>127.152977</v>
+        <v>127.152962</v>
       </c>
     </row>
     <row r="235">
@@ -5996,10 +5996,10 @@
         <v>237</v>
       </c>
       <c r="B236" t="n">
-        <v>111.316582</v>
+        <v>111.316589</v>
       </c>
       <c r="C236" t="n">
-        <v>126.992615</v>
+        <v>126.992607</v>
       </c>
     </row>
     <row r="237">
@@ -6007,7 +6007,7 @@
         <v>238</v>
       </c>
       <c r="B237" t="n">
-        <v>116.007462</v>
+        <v>116.007469</v>
       </c>
       <c r="C237" t="n">
         <v>129.558121</v>
@@ -6018,10 +6018,10 @@
         <v>239</v>
       </c>
       <c r="B238" t="n">
-        <v>112.050819</v>
+        <v>112.050827</v>
       </c>
       <c r="C238" t="n">
-        <v>127.152977</v>
+        <v>127.152962</v>
       </c>
     </row>
     <row r="239">
@@ -6043,7 +6043,7 @@
         <v>113.519257</v>
       </c>
       <c r="C240" t="n">
-        <v>129.077087</v>
+        <v>129.077103</v>
       </c>
     </row>
     <row r="241">
@@ -6084,7 +6084,7 @@
         <v>245</v>
       </c>
       <c r="B244" t="n">
-        <v>112.213974</v>
+        <v>112.213982</v>
       </c>
       <c r="C244" t="n">
         <v>122.663322</v>
@@ -6098,7 +6098,7 @@
         <v>109.725769</v>
       </c>
       <c r="C245" t="n">
-        <v>121.781425</v>
+        <v>121.781418</v>
       </c>
     </row>
     <row r="246">
@@ -6106,7 +6106,7 @@
         <v>247</v>
       </c>
       <c r="B246" t="n">
-        <v>105.442787</v>
+        <v>105.442795</v>
       </c>
       <c r="C246" t="n">
         <v>117.77282</v>
@@ -6117,7 +6117,7 @@
         <v>248</v>
       </c>
       <c r="B247" t="n">
-        <v>104.626984</v>
+        <v>104.626991</v>
       </c>
       <c r="C247" t="n">
         <v>120.258156</v>
@@ -6128,7 +6128,7 @@
         <v>249</v>
       </c>
       <c r="B248" t="n">
-        <v>102.95459</v>
+        <v>102.954582</v>
       </c>
       <c r="C248" t="n">
         <v>120.819366</v>
@@ -6142,7 +6142,7 @@
         <v>105.157257</v>
       </c>
       <c r="C249" t="n">
-        <v>124.346939</v>
+        <v>124.346947</v>
       </c>
     </row>
     <row r="250">
@@ -6153,7 +6153,7 @@
         <v>104.994102</v>
       </c>
       <c r="C250" t="n">
-        <v>126.271072</v>
+        <v>126.27108</v>
       </c>
     </row>
     <row r="251">
@@ -6172,10 +6172,10 @@
         <v>253</v>
       </c>
       <c r="B252" t="n">
-        <v>109.195496</v>
+        <v>109.195503</v>
       </c>
       <c r="C252" t="n">
-        <v>127.313309</v>
+        <v>127.313301</v>
       </c>
     </row>
     <row r="253">
@@ -6186,7 +6186,7 @@
         <v>108.909966</v>
       </c>
       <c r="C253" t="n">
-        <v>126.591759</v>
+        <v>126.591751</v>
       </c>
     </row>
     <row r="254">
@@ -6194,10 +6194,10 @@
         <v>255</v>
       </c>
       <c r="B254" t="n">
-        <v>108.379692</v>
+        <v>108.3797</v>
       </c>
       <c r="C254" t="n">
-        <v>126.832275</v>
+        <v>126.832283</v>
       </c>
     </row>
     <row r="255">
@@ -6216,10 +6216,10 @@
         <v>257</v>
       </c>
       <c r="B256" t="n">
-        <v>104.219093</v>
+        <v>104.219086</v>
       </c>
       <c r="C256" t="n">
-        <v>126.591759</v>
+        <v>126.591751</v>
       </c>
     </row>
     <row r="257">
@@ -6241,7 +6241,7 @@
         <v>106.054642</v>
       </c>
       <c r="C258" t="n">
-        <v>124.266762</v>
+        <v>124.266769</v>
       </c>
     </row>
     <row r="259">
@@ -6252,7 +6252,7 @@
         <v>104.423035</v>
       </c>
       <c r="C259" t="n">
-        <v>122.583153</v>
+        <v>122.583145</v>
       </c>
     </row>
     <row r="260">
@@ -6263,7 +6263,7 @@
         <v>105.034897</v>
       </c>
       <c r="C260" t="n">
-        <v>126.271072</v>
+        <v>126.27108</v>
       </c>
     </row>
     <row r="261">
@@ -6274,7 +6274,7 @@
         <v>103.933556</v>
       </c>
       <c r="C261" t="n">
-        <v>126.030548</v>
+        <v>126.030563</v>
       </c>
     </row>
     <row r="262">
@@ -6282,10 +6282,10 @@
         <v>263</v>
       </c>
       <c r="B262" t="n">
-        <v>103.199326</v>
+        <v>103.199333</v>
       </c>
       <c r="C262" t="n">
-        <v>125.870216</v>
+        <v>125.870209</v>
       </c>
     </row>
     <row r="263">
@@ -6307,7 +6307,7 @@
         <v>102.791428</v>
       </c>
       <c r="C264" t="n">
-        <v>125.709869</v>
+        <v>125.709862</v>
       </c>
     </row>
     <row r="265">
@@ -6340,7 +6340,7 @@
         <v>102.138779</v>
       </c>
       <c r="C267" t="n">
-        <v>126.832275</v>
+        <v>126.832283</v>
       </c>
     </row>
     <row r="268">
@@ -6351,7 +6351,7 @@
         <v>99.936111</v>
       </c>
       <c r="C268" t="n">
-        <v>123.625381</v>
+        <v>123.625389</v>
       </c>
     </row>
     <row r="269">
@@ -6359,10 +6359,10 @@
         <v>270</v>
       </c>
       <c r="B269" t="n">
-        <v>99.85453</v>
+        <v>99.854523</v>
       </c>
       <c r="C269" t="n">
-        <v>123.46505</v>
+        <v>123.465057</v>
       </c>
     </row>
     <row r="270">
@@ -6373,7 +6373,7 @@
         <v>100.140068</v>
       </c>
       <c r="C270" t="n">
-        <v>123.144371</v>
+        <v>123.144363</v>
       </c>
     </row>
     <row r="271">
@@ -6381,7 +6381,7 @@
         <v>272</v>
       </c>
       <c r="B271" t="n">
-        <v>98.304497</v>
+        <v>98.304504</v>
       </c>
       <c r="C271" t="n">
         <v>120.739189</v>
@@ -6395,7 +6395,7 @@
         <v>103.444077</v>
       </c>
       <c r="C272" t="n">
-        <v>121.781425</v>
+        <v>121.781418</v>
       </c>
     </row>
     <row r="273">
@@ -6403,7 +6403,7 @@
         <v>274</v>
       </c>
       <c r="B273" t="n">
-        <v>101.078232</v>
+        <v>101.078239</v>
       </c>
       <c r="C273" t="n">
         <v>122.262466</v>
@@ -6414,10 +6414,10 @@
         <v>275</v>
       </c>
       <c r="B274" t="n">
-        <v>103.199326</v>
+        <v>103.199333</v>
       </c>
       <c r="C274" t="n">
-        <v>122.102119</v>
+        <v>122.102127</v>
       </c>
     </row>
     <row r="275">
@@ -6425,10 +6425,10 @@
         <v>276</v>
       </c>
       <c r="B275" t="n">
-        <v>102.669052</v>
+        <v>102.66906</v>
       </c>
       <c r="C275" t="n">
-        <v>121.781425</v>
+        <v>121.781418</v>
       </c>
     </row>
     <row r="276">
@@ -6461,7 +6461,7 @@
         <v>98.712402</v>
       </c>
       <c r="C278" t="n">
-        <v>119.135757</v>
+        <v>119.135765</v>
       </c>
     </row>
     <row r="279">
@@ -6480,7 +6480,7 @@
         <v>281</v>
       </c>
       <c r="B280" t="n">
-        <v>100.180855</v>
+        <v>100.180862</v>
       </c>
       <c r="C280" t="n">
         <v>122.262466</v>
@@ -6505,7 +6505,7 @@
         <v>101.486145</v>
       </c>
       <c r="C282" t="n">
-        <v>122.021942</v>
+        <v>122.02195</v>
       </c>
     </row>
     <row r="283">
@@ -6527,7 +6527,7 @@
         <v>102.873009</v>
       </c>
       <c r="C284" t="n">
-        <v>121.540916</v>
+        <v>121.540909</v>
       </c>
     </row>
     <row r="285">
@@ -6538,7 +6538,7 @@
         <v>103.117752</v>
       </c>
       <c r="C285" t="n">
-        <v>121.781425</v>
+        <v>121.781418</v>
       </c>
     </row>
     <row r="286">
@@ -6549,7 +6549,7 @@
         <v>98.712402</v>
       </c>
       <c r="C286" t="n">
-        <v>120.49868</v>
+        <v>120.498672</v>
       </c>
     </row>
     <row r="287">
@@ -6557,10 +6557,10 @@
         <v>288</v>
       </c>
       <c r="B287" t="n">
-        <v>98.467651</v>
+        <v>98.467659</v>
       </c>
       <c r="C287" t="n">
-        <v>120.578842</v>
+        <v>120.578835</v>
       </c>
     </row>
     <row r="288">
@@ -6571,7 +6571,7 @@
         <v>102.301949</v>
       </c>
       <c r="C288" t="n">
-        <v>121.781425</v>
+        <v>121.781418</v>
       </c>
     </row>
     <row r="289">
@@ -6579,7 +6579,7 @@
         <v>290</v>
       </c>
       <c r="B289" t="n">
-        <v>102.22036</v>
+        <v>102.220367</v>
       </c>
       <c r="C289" t="n">
         <v>119.777115</v>
@@ -6601,10 +6601,10 @@
         <v>292</v>
       </c>
       <c r="B291" t="n">
-        <v>106.462555</v>
+        <v>106.462547</v>
       </c>
       <c r="C291" t="n">
-        <v>125.228836</v>
+        <v>125.228828</v>
       </c>
     </row>
     <row r="292">
@@ -6615,7 +6615,7 @@
         <v>105.973061</v>
       </c>
       <c r="C292" t="n">
-        <v>122.502991</v>
+        <v>122.502983</v>
       </c>
     </row>
     <row r="293">
@@ -6626,7 +6626,7 @@
         <v>105.687538</v>
       </c>
       <c r="C293" t="n">
-        <v>122.422813</v>
+        <v>122.422806</v>
       </c>
     </row>
     <row r="294">
@@ -6634,7 +6634,7 @@
         <v>295</v>
       </c>
       <c r="B294" t="n">
-        <v>104.830948</v>
+        <v>104.83094</v>
       </c>
       <c r="C294" t="n">
         <v>121.059883</v>
@@ -6645,10 +6645,10 @@
         <v>296</v>
       </c>
       <c r="B295" t="n">
-        <v>105.442787</v>
+        <v>105.442795</v>
       </c>
       <c r="C295" t="n">
-        <v>119.616783</v>
+        <v>119.616776</v>
       </c>
     </row>
     <row r="296">
@@ -6659,7 +6659,7 @@
         <v>104.137505</v>
       </c>
       <c r="C296" t="n">
-        <v>117.692657</v>
+        <v>117.69265</v>
       </c>
     </row>
     <row r="297">
@@ -6667,10 +6667,10 @@
         <v>298</v>
       </c>
       <c r="B297" t="n">
-        <v>103.036163</v>
+        <v>103.036171</v>
       </c>
       <c r="C297" t="n">
-        <v>116.570229</v>
+        <v>116.570236</v>
       </c>
     </row>
     <row r="298">
@@ -6681,7 +6681,7 @@
         <v>103.892761</v>
       </c>
       <c r="C298" t="n">
-        <v>115.768524</v>
+        <v>115.768517</v>
       </c>
     </row>
     <row r="299">
@@ -6689,7 +6689,7 @@
         <v>300</v>
       </c>
       <c r="B299" t="n">
-        <v>104.463829</v>
+        <v>104.463837</v>
       </c>
       <c r="C299" t="n">
         <v>117.933174</v>
@@ -6700,7 +6700,7 @@
         <v>301</v>
       </c>
       <c r="B300" t="n">
-        <v>105.361214</v>
+        <v>105.361206</v>
       </c>
       <c r="C300" t="n">
         <v>118.013336</v>
@@ -6736,7 +6736,7 @@
         <v>109.481026</v>
       </c>
       <c r="C303" t="n">
-        <v>122.102119</v>
+        <v>122.102127</v>
       </c>
     </row>
     <row r="304">
@@ -6758,7 +6758,7 @@
         <v>109.437477</v>
       </c>
       <c r="C305" t="n">
-        <v>121.941772</v>
+        <v>121.94178</v>
       </c>
     </row>
     <row r="306">
@@ -6769,7 +6769,7 @@
         <v>108.000374</v>
       </c>
       <c r="C306" t="n">
-        <v>120.899536</v>
+        <v>120.899529</v>
       </c>
     </row>
     <row r="307">

--- a/Danske aktiekurser.xlsx
+++ b/Danske aktiekurser.xlsx
@@ -3422,10 +3422,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>189.887924</v>
+        <v>189.887909</v>
       </c>
       <c r="C2" t="n">
-        <v>191.282883</v>
+        <v>191.282867</v>
       </c>
     </row>
     <row r="3">
@@ -3436,7 +3436,7 @@
         <v>188.870804</v>
       </c>
       <c r="C3" t="n">
-        <v>190.824905</v>
+        <v>190.82489</v>
       </c>
     </row>
     <row r="4">
@@ -3444,7 +3444,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>190.513855</v>
+        <v>190.51384</v>
       </c>
       <c r="C4" t="n">
         <v>192.351501</v>
@@ -3458,7 +3458,7 @@
         <v>190.748566</v>
       </c>
       <c r="C5" t="n">
-        <v>192.046188</v>
+        <v>192.046158</v>
       </c>
     </row>
     <row r="6">
@@ -3469,7 +3469,7 @@
         <v>191.843903</v>
       </c>
       <c r="C6" t="n">
-        <v>191.740845</v>
+        <v>191.74086</v>
       </c>
     </row>
     <row r="7">
@@ -3480,7 +3480,7 @@
         <v>190.357361</v>
       </c>
       <c r="C7" t="n">
-        <v>191.588196</v>
+        <v>191.588211</v>
       </c>
     </row>
     <row r="8">
@@ -3491,7 +3491,7 @@
         <v>194.34758</v>
       </c>
       <c r="C8" t="n">
-        <v>195.404709</v>
+        <v>195.404694</v>
       </c>
     </row>
     <row r="9">
@@ -3499,10 +3499,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="n">
-        <v>196.14711</v>
+        <v>196.147095</v>
       </c>
       <c r="C9" t="n">
-        <v>196.320663</v>
+        <v>196.320648</v>
       </c>
     </row>
     <row r="10">
@@ -3510,10 +3510,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="n">
-        <v>194.817032</v>
+        <v>194.817047</v>
       </c>
       <c r="C10" t="n">
-        <v>195.09938</v>
+        <v>195.099396</v>
       </c>
     </row>
     <row r="11">
@@ -3521,7 +3521,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="n">
-        <v>196.303574</v>
+        <v>196.303589</v>
       </c>
       <c r="C11" t="n">
         <v>193.572784</v>
@@ -3557,7 +3557,7 @@
         <v>191.452713</v>
       </c>
       <c r="C14" t="n">
-        <v>191.588196</v>
+        <v>191.588211</v>
       </c>
     </row>
     <row r="15">
@@ -3576,10 +3576,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="n">
-        <v>193.330475</v>
+        <v>193.33049</v>
       </c>
       <c r="C16" t="n">
-        <v>193.114807</v>
+        <v>193.114777</v>
       </c>
     </row>
     <row r="17">
@@ -3587,7 +3587,7 @@
         <v>18</v>
       </c>
       <c r="B17" t="n">
-        <v>192.078644</v>
+        <v>192.078659</v>
       </c>
       <c r="C17" t="n">
         <v>191.435547</v>
@@ -3598,7 +3598,7 @@
         <v>19</v>
       </c>
       <c r="B18" t="n">
-        <v>192.078644</v>
+        <v>192.078659</v>
       </c>
       <c r="C18" t="n">
         <v>190.214249</v>
@@ -3609,7 +3609,7 @@
         <v>20</v>
       </c>
       <c r="B19" t="n">
-        <v>186.680099</v>
+        <v>186.680084</v>
       </c>
       <c r="C19" t="n">
         <v>185.63446</v>
@@ -3653,7 +3653,7 @@
         <v>24</v>
       </c>
       <c r="B23" t="n">
-        <v>190.513855</v>
+        <v>190.51384</v>
       </c>
       <c r="C23" t="n">
         <v>187.008392</v>
@@ -3664,7 +3664,7 @@
         <v>25</v>
       </c>
       <c r="B24" t="n">
-        <v>189.418503</v>
+        <v>189.418488</v>
       </c>
       <c r="C24" t="n">
         <v>187.466385</v>
@@ -3678,7 +3678,7 @@
         <v>191.609192</v>
       </c>
       <c r="C25" t="n">
-        <v>187.619049</v>
+        <v>187.619019</v>
       </c>
     </row>
     <row r="26">
@@ -3689,7 +3689,7 @@
         <v>191.609192</v>
       </c>
       <c r="C26" t="n">
-        <v>186.397751</v>
+        <v>186.397766</v>
       </c>
     </row>
     <row r="27">
@@ -3697,7 +3697,7 @@
         <v>28</v>
       </c>
       <c r="B27" t="n">
-        <v>186.758331</v>
+        <v>186.758316</v>
       </c>
       <c r="C27" t="n">
         <v>183.9552</v>
@@ -3711,7 +3711,7 @@
         <v>189.261993</v>
       </c>
       <c r="C28" t="n">
-        <v>188.687668</v>
+        <v>188.687653</v>
       </c>
     </row>
     <row r="29">
@@ -3719,7 +3719,7 @@
         <v>30</v>
       </c>
       <c r="B29" t="n">
-        <v>188.557846</v>
+        <v>188.557861</v>
       </c>
       <c r="C29" t="n">
         <v>187.161057</v>
@@ -3744,7 +3744,7 @@
         <v>189.966156</v>
       </c>
       <c r="C31" t="n">
-        <v>188.687668</v>
+        <v>188.687653</v>
       </c>
     </row>
     <row r="32">
@@ -3755,7 +3755,7 @@
         <v>188.949051</v>
       </c>
       <c r="C32" t="n">
-        <v>188.534988</v>
+        <v>188.535004</v>
       </c>
     </row>
     <row r="33">
@@ -3763,7 +3763,7 @@
         <v>34</v>
       </c>
       <c r="B33" t="n">
-        <v>191.061508</v>
+        <v>191.061523</v>
       </c>
       <c r="C33" t="n">
         <v>193.267456</v>
@@ -3777,7 +3777,7 @@
         <v>192.31337</v>
       </c>
       <c r="C34" t="n">
-        <v>193.42012</v>
+        <v>193.420105</v>
       </c>
     </row>
     <row r="35">
@@ -3788,7 +3788,7 @@
         <v>194.660568</v>
       </c>
       <c r="C35" t="n">
-        <v>196.625992</v>
+        <v>196.625977</v>
       </c>
     </row>
     <row r="36">
@@ -3796,10 +3796,10 @@
         <v>37</v>
       </c>
       <c r="B36" t="n">
-        <v>194.895264</v>
+        <v>194.895279</v>
       </c>
       <c r="C36" t="n">
-        <v>196.168015</v>
+        <v>196.167999</v>
       </c>
     </row>
     <row r="37">
@@ -3810,7 +3810,7 @@
         <v>191.687439</v>
       </c>
       <c r="C37" t="n">
-        <v>185.481796</v>
+        <v>185.481781</v>
       </c>
     </row>
     <row r="38">
@@ -3818,7 +3818,7 @@
         <v>39</v>
       </c>
       <c r="B38" t="n">
-        <v>192.861053</v>
+        <v>192.861038</v>
       </c>
       <c r="C38" t="n">
         <v>182.428604</v>
@@ -3832,7 +3832,7 @@
         <v>193.252243</v>
       </c>
       <c r="C39" t="n">
-        <v>180.444031</v>
+        <v>180.444016</v>
       </c>
     </row>
     <row r="40">
@@ -3840,7 +3840,7 @@
         <v>41</v>
       </c>
       <c r="B40" t="n">
-        <v>194.504074</v>
+        <v>194.504089</v>
       </c>
       <c r="C40" t="n">
         <v>186.245102</v>
@@ -3862,10 +3862,10 @@
         <v>43</v>
       </c>
       <c r="B42" t="n">
-        <v>189.731445</v>
+        <v>189.731461</v>
       </c>
       <c r="C42" t="n">
-        <v>183.191895</v>
+        <v>183.191879</v>
       </c>
     </row>
     <row r="43">
@@ -3876,7 +3876,7 @@
         <v>192.626312</v>
       </c>
       <c r="C43" t="n">
-        <v>182.733932</v>
+        <v>182.733902</v>
       </c>
     </row>
     <row r="44">
@@ -3895,10 +3895,10 @@
         <v>46</v>
       </c>
       <c r="B45" t="n">
-        <v>189.731445</v>
+        <v>189.731461</v>
       </c>
       <c r="C45" t="n">
-        <v>177.696152</v>
+        <v>177.696136</v>
       </c>
     </row>
     <row r="46">
@@ -3906,10 +3906,10 @@
         <v>47</v>
       </c>
       <c r="B46" t="n">
-        <v>190.044388</v>
+        <v>190.044403</v>
       </c>
       <c r="C46" t="n">
-        <v>179.833389</v>
+        <v>179.833374</v>
       </c>
     </row>
     <row r="47">
@@ -3920,7 +3920,7 @@
         <v>189.34024</v>
       </c>
       <c r="C47" t="n">
-        <v>180.749344</v>
+        <v>180.749359</v>
       </c>
     </row>
     <row r="48">
@@ -3928,10 +3928,10 @@
         <v>49</v>
       </c>
       <c r="B48" t="n">
-        <v>191.53096</v>
+        <v>191.530945</v>
       </c>
       <c r="C48" t="n">
-        <v>180.749344</v>
+        <v>180.749359</v>
       </c>
     </row>
     <row r="49">
@@ -3939,7 +3939,7 @@
         <v>50</v>
       </c>
       <c r="B49" t="n">
-        <v>191.217987</v>
+        <v>191.218002</v>
       </c>
       <c r="C49" t="n">
         <v>182.428604</v>
@@ -3961,10 +3961,10 @@
         <v>52</v>
       </c>
       <c r="B51" t="n">
-        <v>193.095764</v>
+        <v>193.095749</v>
       </c>
       <c r="C51" t="n">
-        <v>180.291351</v>
+        <v>180.291367</v>
       </c>
     </row>
     <row r="52">
@@ -3994,7 +3994,7 @@
         <v>55</v>
       </c>
       <c r="B54" t="n">
-        <v>191.061508</v>
+        <v>191.061523</v>
       </c>
       <c r="C54" t="n">
         <v>183.113098</v>
@@ -4019,7 +4019,7 @@
         <v>191.795761</v>
       </c>
       <c r="C56" t="n">
-        <v>183.594116</v>
+        <v>183.594131</v>
       </c>
     </row>
     <row r="57">
@@ -4030,7 +4030,7 @@
         <v>191.714188</v>
       </c>
       <c r="C57" t="n">
-        <v>185.35791</v>
+        <v>185.357925</v>
       </c>
     </row>
     <row r="58">
@@ -4074,7 +4074,7 @@
         <v>184.208771</v>
       </c>
       <c r="C61" t="n">
-        <v>181.669983</v>
+        <v>181.670013</v>
       </c>
     </row>
     <row r="62">
@@ -4107,7 +4107,7 @@
         <v>183.148224</v>
       </c>
       <c r="C64" t="n">
-        <v>178.463104</v>
+        <v>178.463135</v>
       </c>
     </row>
     <row r="65">
@@ -4118,7 +4118,7 @@
         <v>181.761353</v>
       </c>
       <c r="C65" t="n">
-        <v>176.378647</v>
+        <v>176.378632</v>
       </c>
     </row>
     <row r="66">
@@ -4129,7 +4129,7 @@
         <v>183.882446</v>
       </c>
       <c r="C66" t="n">
-        <v>178.944153</v>
+        <v>178.944138</v>
       </c>
     </row>
     <row r="67">
@@ -4206,7 +4206,7 @@
         <v>180.374496</v>
       </c>
       <c r="C73" t="n">
-        <v>181.990677</v>
+        <v>181.990692</v>
       </c>
     </row>
     <row r="74">
@@ -4228,7 +4228,7 @@
         <v>183.637711</v>
       </c>
       <c r="C75" t="n">
-        <v>188.083771</v>
+        <v>188.083755</v>
       </c>
     </row>
     <row r="76">
@@ -4239,7 +4239,7 @@
         <v>182.577164</v>
       </c>
       <c r="C76" t="n">
-        <v>188.885498</v>
+        <v>188.885483</v>
       </c>
     </row>
     <row r="77">
@@ -4272,7 +4272,7 @@
         <v>184.127182</v>
       </c>
       <c r="C79" t="n">
-        <v>194.657883</v>
+        <v>194.657867</v>
       </c>
     </row>
     <row r="80">
@@ -4305,7 +4305,7 @@
         <v>175.72438</v>
       </c>
       <c r="C82" t="n">
-        <v>183.433777</v>
+        <v>183.433792</v>
       </c>
     </row>
     <row r="83">
@@ -4316,7 +4316,7 @@
         <v>177.763901</v>
       </c>
       <c r="C83" t="n">
-        <v>181.669983</v>
+        <v>181.670013</v>
       </c>
     </row>
     <row r="84">
@@ -4338,7 +4338,7 @@
         <v>176.050735</v>
       </c>
       <c r="C85" t="n">
-        <v>181.990677</v>
+        <v>181.990692</v>
       </c>
     </row>
     <row r="86">
@@ -4349,7 +4349,7 @@
         <v>176.132294</v>
       </c>
       <c r="C86" t="n">
-        <v>183.433777</v>
+        <v>183.433792</v>
       </c>
     </row>
     <row r="87">
@@ -4360,7 +4360,7 @@
         <v>175.316483</v>
       </c>
       <c r="C87" t="n">
-        <v>184.235504</v>
+        <v>184.235519</v>
       </c>
     </row>
     <row r="88">
@@ -4382,7 +4382,7 @@
         <v>175.561234</v>
       </c>
       <c r="C89" t="n">
-        <v>186.961349</v>
+        <v>186.961365</v>
       </c>
     </row>
     <row r="90">
@@ -4404,7 +4404,7 @@
         <v>175.561234</v>
       </c>
       <c r="C91" t="n">
-        <v>185.999283</v>
+        <v>185.999298</v>
       </c>
     </row>
     <row r="92">
@@ -4415,7 +4415,7 @@
         <v>174.255951</v>
       </c>
       <c r="C92" t="n">
-        <v>183.594116</v>
+        <v>183.594131</v>
       </c>
     </row>
     <row r="93">
@@ -4426,7 +4426,7 @@
         <v>176.540192</v>
       </c>
       <c r="C93" t="n">
-        <v>185.197556</v>
+        <v>185.197586</v>
       </c>
     </row>
     <row r="94">
@@ -4448,7 +4448,7 @@
         <v>176.132294</v>
       </c>
       <c r="C95" t="n">
-        <v>185.35791</v>
+        <v>185.357925</v>
       </c>
     </row>
     <row r="96">
@@ -4459,7 +4459,7 @@
         <v>176.94809</v>
       </c>
       <c r="C96" t="n">
-        <v>185.037216</v>
+        <v>185.037247</v>
       </c>
     </row>
     <row r="97">
@@ -4481,7 +4481,7 @@
         <v>173.276962</v>
       </c>
       <c r="C98" t="n">
-        <v>181.669983</v>
+        <v>181.670013</v>
       </c>
     </row>
     <row r="99">
@@ -4503,7 +4503,7 @@
         <v>168.953217</v>
       </c>
       <c r="C100" t="n">
-        <v>174.935532</v>
+        <v>174.935547</v>
       </c>
     </row>
     <row r="101">
@@ -4536,7 +4536,7 @@
         <v>176.295456</v>
       </c>
       <c r="C103" t="n">
-        <v>178.302765</v>
+        <v>178.30278</v>
       </c>
     </row>
     <row r="104">
@@ -4547,7 +4547,7 @@
         <v>178.253387</v>
       </c>
       <c r="C104" t="n">
-        <v>178.944153</v>
+        <v>178.944138</v>
       </c>
     </row>
     <row r="105">
@@ -4569,7 +4569,7 @@
         <v>175.561234</v>
       </c>
       <c r="C106" t="n">
-        <v>177.501053</v>
+        <v>177.501038</v>
       </c>
     </row>
     <row r="107">
@@ -4591,7 +4591,7 @@
         <v>177.84549</v>
       </c>
       <c r="C108" t="n">
-        <v>177.020004</v>
+        <v>177.02002</v>
       </c>
     </row>
     <row r="109">
@@ -4602,7 +4602,7 @@
         <v>178.498138</v>
       </c>
       <c r="C109" t="n">
-        <v>177.180344</v>
+        <v>177.180359</v>
       </c>
     </row>
     <row r="110">
@@ -4613,7 +4613,7 @@
         <v>178.253387</v>
       </c>
       <c r="C110" t="n">
-        <v>177.340698</v>
+        <v>177.340714</v>
       </c>
     </row>
     <row r="111">
@@ -4624,7 +4624,7 @@
         <v>178.742889</v>
       </c>
       <c r="C111" t="n">
-        <v>178.623444</v>
+        <v>178.623459</v>
       </c>
     </row>
     <row r="112">
@@ -4646,7 +4646,7 @@
         <v>173.929626</v>
       </c>
       <c r="C113" t="n">
-        <v>175.897614</v>
+        <v>175.897598</v>
       </c>
     </row>
     <row r="114">
@@ -4690,7 +4690,7 @@
         <v>168.626892</v>
       </c>
       <c r="C117" t="n">
-        <v>174.294159</v>
+        <v>174.294144</v>
       </c>
     </row>
     <row r="118">
@@ -4701,7 +4701,7 @@
         <v>166.0979</v>
       </c>
       <c r="C118" t="n">
-        <v>174.294159</v>
+        <v>174.294144</v>
       </c>
     </row>
     <row r="119">
@@ -4712,7 +4712,7 @@
         <v>161.243851</v>
       </c>
       <c r="C119" t="n">
-        <v>173.813126</v>
+        <v>173.813141</v>
       </c>
     </row>
     <row r="120">
@@ -4723,7 +4723,7 @@
         <v>162.01889</v>
       </c>
       <c r="C120" t="n">
-        <v>173.652771</v>
+        <v>173.652802</v>
       </c>
     </row>
     <row r="121">
@@ -4734,7 +4734,7 @@
         <v>162.01889</v>
       </c>
       <c r="C121" t="n">
-        <v>174.454514</v>
+        <v>174.454498</v>
       </c>
     </row>
     <row r="122">
@@ -4745,7 +4745,7 @@
         <v>162.957047</v>
       </c>
       <c r="C122" t="n">
-        <v>175.897614</v>
+        <v>175.897598</v>
       </c>
     </row>
     <row r="123">
@@ -4767,7 +4767,7 @@
         <v>164.303116</v>
       </c>
       <c r="C124" t="n">
-        <v>177.501053</v>
+        <v>177.501038</v>
       </c>
     </row>
     <row r="125">
@@ -4778,7 +4778,7 @@
         <v>160.999115</v>
       </c>
       <c r="C125" t="n">
-        <v>179.264832</v>
+        <v>179.264847</v>
       </c>
     </row>
     <row r="126">
@@ -4789,7 +4789,7 @@
         <v>156.797714</v>
       </c>
       <c r="C126" t="n">
-        <v>177.501053</v>
+        <v>177.501038</v>
       </c>
     </row>
     <row r="127">
@@ -4811,7 +4811,7 @@
         <v>157.001663</v>
       </c>
       <c r="C128" t="n">
-        <v>180.226898</v>
+        <v>180.226913</v>
       </c>
     </row>
     <row r="129">
@@ -4866,7 +4866,7 @@
         <v>158.062225</v>
       </c>
       <c r="C133" t="n">
-        <v>181.990677</v>
+        <v>181.990692</v>
       </c>
     </row>
     <row r="134">
@@ -4899,7 +4899,7 @@
         <v>148.394913</v>
       </c>
       <c r="C136" t="n">
-        <v>179.745865</v>
+        <v>179.74585</v>
       </c>
     </row>
     <row r="137">
@@ -4910,7 +4910,7 @@
         <v>147.456757</v>
       </c>
       <c r="C137" t="n">
-        <v>180.387238</v>
+        <v>180.387253</v>
       </c>
     </row>
     <row r="138">
@@ -4921,7 +4921,7 @@
         <v>149.985748</v>
       </c>
       <c r="C138" t="n">
-        <v>181.669983</v>
+        <v>181.670013</v>
       </c>
     </row>
     <row r="139">
@@ -4932,7 +4932,7 @@
         <v>151.94368</v>
       </c>
       <c r="C139" t="n">
-        <v>185.037216</v>
+        <v>185.037247</v>
       </c>
     </row>
     <row r="140">
@@ -4965,7 +4965,7 @@
         <v>153.208176</v>
       </c>
       <c r="C142" t="n">
-        <v>188.564789</v>
+        <v>188.564804</v>
       </c>
     </row>
     <row r="143">
@@ -4976,7 +4976,7 @@
         <v>153.208176</v>
       </c>
       <c r="C143" t="n">
-        <v>189.847534</v>
+        <v>189.847549</v>
       </c>
     </row>
     <row r="144">
@@ -4998,7 +4998,7 @@
         <v>149.129166</v>
       </c>
       <c r="C145" t="n">
-        <v>188.083771</v>
+        <v>188.083755</v>
       </c>
     </row>
     <row r="146">
@@ -5020,7 +5020,7 @@
         <v>149.129166</v>
       </c>
       <c r="C147" t="n">
-        <v>185.037216</v>
+        <v>185.037247</v>
       </c>
     </row>
     <row r="148">
@@ -5031,7 +5031,7 @@
         <v>147.53833</v>
       </c>
       <c r="C148" t="n">
-        <v>177.180344</v>
+        <v>177.180359</v>
       </c>
     </row>
     <row r="149">
@@ -5042,7 +5042,7 @@
         <v>147.905441</v>
       </c>
       <c r="C149" t="n">
-        <v>180.387238</v>
+        <v>180.387253</v>
       </c>
     </row>
     <row r="150">
@@ -5064,7 +5064,7 @@
         <v>148.231766</v>
       </c>
       <c r="C151" t="n">
-        <v>179.264832</v>
+        <v>179.264847</v>
       </c>
     </row>
     <row r="152">
@@ -5075,7 +5075,7 @@
         <v>149.700226</v>
       </c>
       <c r="C152" t="n">
-        <v>177.501053</v>
+        <v>177.501038</v>
       </c>
     </row>
     <row r="153">
@@ -5086,7 +5086,7 @@
         <v>150.026535</v>
       </c>
       <c r="C153" t="n">
-        <v>178.302765</v>
+        <v>178.30278</v>
       </c>
     </row>
     <row r="154">
@@ -5174,7 +5174,7 @@
         <v>151.94368</v>
       </c>
       <c r="C161" t="n">
-        <v>175.897614</v>
+        <v>175.897598</v>
       </c>
     </row>
     <row r="162">
@@ -5207,7 +5207,7 @@
         <v>156.716141</v>
       </c>
       <c r="C164" t="n">
-        <v>155.614075</v>
+        <v>155.614059</v>
       </c>
     </row>
     <row r="165">
@@ -5229,7 +5229,7 @@
         <v>156.634567</v>
       </c>
       <c r="C166" t="n">
-        <v>151.926132</v>
+        <v>151.926147</v>
       </c>
     </row>
     <row r="167">
@@ -5240,7 +5240,7 @@
         <v>154.146332</v>
       </c>
       <c r="C167" t="n">
-        <v>150.723541</v>
+        <v>150.723557</v>
       </c>
     </row>
     <row r="168">
@@ -5273,7 +5273,7 @@
         <v>148.272568</v>
       </c>
       <c r="C170" t="n">
-        <v>147.917526</v>
+        <v>147.917542</v>
       </c>
     </row>
     <row r="171">
@@ -5295,7 +5295,7 @@
         <v>144.397476</v>
       </c>
       <c r="C172" t="n">
-        <v>148.799438</v>
+        <v>148.799423</v>
       </c>
     </row>
     <row r="173">
@@ -5306,7 +5306,7 @@
         <v>140.155304</v>
       </c>
       <c r="C173" t="n">
-        <v>148.799438</v>
+        <v>148.799423</v>
       </c>
     </row>
     <row r="174">
@@ -5350,7 +5350,7 @@
         <v>138.646057</v>
       </c>
       <c r="C177" t="n">
-        <v>147.917526</v>
+        <v>147.917542</v>
       </c>
     </row>
     <row r="178">
@@ -5361,7 +5361,7 @@
         <v>137.748672</v>
       </c>
       <c r="C178" t="n">
-        <v>149.200302</v>
+        <v>149.200287</v>
       </c>
     </row>
     <row r="179">
@@ -5383,7 +5383,7 @@
         <v>137.871048</v>
       </c>
       <c r="C180" t="n">
-        <v>149.921844</v>
+        <v>149.921829</v>
       </c>
     </row>
     <row r="181">
@@ -5405,7 +5405,7 @@
         <v>138.727646</v>
       </c>
       <c r="C182" t="n">
-        <v>152.888199</v>
+        <v>152.888214</v>
       </c>
     </row>
     <row r="183">
@@ -5438,7 +5438,7 @@
         <v>140.563202</v>
       </c>
       <c r="C185" t="n">
-        <v>155.934753</v>
+        <v>155.934738</v>
       </c>
     </row>
     <row r="186">
@@ -5460,7 +5460,7 @@
         <v>137.626297</v>
       </c>
       <c r="C187" t="n">
-        <v>151.525284</v>
+        <v>151.525269</v>
       </c>
     </row>
     <row r="188">
@@ -5471,7 +5471,7 @@
         <v>138.238159</v>
       </c>
       <c r="C188" t="n">
-        <v>152.64769</v>
+        <v>152.647675</v>
       </c>
     </row>
     <row r="189">
@@ -5515,7 +5515,7 @@
         <v>121.310204</v>
       </c>
       <c r="C192" t="n">
-        <v>150.483032</v>
+        <v>150.483047</v>
       </c>
     </row>
     <row r="193">
@@ -5537,7 +5537,7 @@
         <v>115.925896</v>
       </c>
       <c r="C194" t="n">
-        <v>141.824463</v>
+        <v>141.824448</v>
       </c>
     </row>
     <row r="195">
@@ -5581,7 +5581,7 @@
         <v>113.886383</v>
       </c>
       <c r="C198" t="n">
-        <v>142.54599</v>
+        <v>142.546021</v>
       </c>
     </row>
     <row r="199">
@@ -5625,7 +5625,7 @@
         <v>107.033607</v>
       </c>
       <c r="C202" t="n">
-        <v>142.706345</v>
+        <v>142.70636</v>
       </c>
     </row>
     <row r="203">
@@ -5636,7 +5636,7 @@
         <v>106.421753</v>
       </c>
       <c r="C203" t="n">
-        <v>139.820145</v>
+        <v>139.82016</v>
       </c>
     </row>
     <row r="204">
@@ -5680,7 +5680,7 @@
         <v>102.791428</v>
       </c>
       <c r="C207" t="n">
-        <v>140.862396</v>
+        <v>140.862381</v>
       </c>
     </row>
     <row r="208">
@@ -5702,7 +5702,7 @@
         <v>103.280914</v>
       </c>
       <c r="C209" t="n">
-        <v>139.90033</v>
+        <v>139.900314</v>
       </c>
     </row>
     <row r="210">
@@ -5713,7 +5713,7 @@
         <v>103.076958</v>
       </c>
       <c r="C210" t="n">
-        <v>122.102127</v>
+        <v>122.102135</v>
       </c>
     </row>
     <row r="211">
@@ -5735,7 +5735,7 @@
         <v>111.765289</v>
       </c>
       <c r="C212" t="n">
-        <v>127.874504</v>
+        <v>127.874512</v>
       </c>
     </row>
     <row r="213">
@@ -5746,7 +5746,7 @@
         <v>110.337616</v>
       </c>
       <c r="C213" t="n">
-        <v>130.199493</v>
+        <v>130.199509</v>
       </c>
     </row>
     <row r="214">
@@ -5757,7 +5757,7 @@
         <v>110.174469</v>
       </c>
       <c r="C214" t="n">
-        <v>130.680542</v>
+        <v>130.680527</v>
       </c>
     </row>
     <row r="215">
@@ -5768,7 +5768,7 @@
         <v>117.516701</v>
       </c>
       <c r="C215" t="n">
-        <v>132.52449</v>
+        <v>132.524506</v>
       </c>
     </row>
     <row r="216">
@@ -5779,7 +5779,7 @@
         <v>117.027222</v>
       </c>
       <c r="C216" t="n">
-        <v>133.326218</v>
+        <v>133.326202</v>
       </c>
     </row>
     <row r="217">
@@ -5790,7 +5790,7 @@
         <v>117.598274</v>
       </c>
       <c r="C217" t="n">
-        <v>131.321899</v>
+        <v>131.32193</v>
       </c>
     </row>
     <row r="218">
@@ -5801,7 +5801,7 @@
         <v>116.619316</v>
       </c>
       <c r="C218" t="n">
-        <v>130.440018</v>
+        <v>130.440002</v>
       </c>
     </row>
     <row r="219">
@@ -5812,7 +5812,7 @@
         <v>115.028503</v>
       </c>
       <c r="C219" t="n">
-        <v>129.798645</v>
+        <v>129.79863</v>
       </c>
     </row>
     <row r="220">
@@ -5823,7 +5823,7 @@
         <v>117.598274</v>
       </c>
       <c r="C220" t="n">
-        <v>129.237442</v>
+        <v>129.237427</v>
       </c>
     </row>
     <row r="221">
@@ -5834,7 +5834,7 @@
         <v>113.519257</v>
       </c>
       <c r="C221" t="n">
-        <v>127.874504</v>
+        <v>127.874512</v>
       </c>
     </row>
     <row r="222">
@@ -5845,7 +5845,7 @@
         <v>111.602127</v>
       </c>
       <c r="C222" t="n">
-        <v>127.553825</v>
+        <v>127.553818</v>
       </c>
     </row>
     <row r="223">
@@ -5867,7 +5867,7 @@
         <v>106.544136</v>
       </c>
       <c r="C224" t="n">
-        <v>125.950386</v>
+        <v>125.950378</v>
       </c>
     </row>
     <row r="225">
@@ -5878,7 +5878,7 @@
         <v>107.441513</v>
       </c>
       <c r="C225" t="n">
-        <v>127.874504</v>
+        <v>127.874512</v>
       </c>
     </row>
     <row r="226">
@@ -5889,7 +5889,7 @@
         <v>108.461266</v>
       </c>
       <c r="C226" t="n">
-        <v>127.874504</v>
+        <v>127.874512</v>
       </c>
     </row>
     <row r="227">
@@ -5900,7 +5900,7 @@
         <v>108.869171</v>
       </c>
       <c r="C227" t="n">
-        <v>128.27536</v>
+        <v>128.275375</v>
       </c>
     </row>
     <row r="228">
@@ -5933,7 +5933,7 @@
         <v>110.949478</v>
       </c>
       <c r="C230" t="n">
-        <v>129.638306</v>
+        <v>129.63829</v>
       </c>
     </row>
     <row r="231">
@@ -5977,7 +5977,7 @@
         <v>108.583649</v>
       </c>
       <c r="C234" t="n">
-        <v>127.152962</v>
+        <v>127.152954</v>
       </c>
     </row>
     <row r="235">
@@ -5988,7 +5988,7 @@
         <v>114.620598</v>
       </c>
       <c r="C235" t="n">
-        <v>129.798645</v>
+        <v>129.79863</v>
       </c>
     </row>
     <row r="236">
@@ -5999,7 +5999,7 @@
         <v>111.316589</v>
       </c>
       <c r="C236" t="n">
-        <v>126.992607</v>
+        <v>126.992599</v>
       </c>
     </row>
     <row r="237">
@@ -6010,7 +6010,7 @@
         <v>116.007469</v>
       </c>
       <c r="C237" t="n">
-        <v>129.558121</v>
+        <v>129.558136</v>
       </c>
     </row>
     <row r="238">
@@ -6021,7 +6021,7 @@
         <v>112.050827</v>
       </c>
       <c r="C238" t="n">
-        <v>127.152962</v>
+        <v>127.152954</v>
       </c>
     </row>
     <row r="239">
@@ -6032,7 +6032,7 @@
         <v>114.2127</v>
       </c>
       <c r="C239" t="n">
-        <v>129.558121</v>
+        <v>129.558136</v>
       </c>
     </row>
     <row r="240">
@@ -6043,7 +6043,7 @@
         <v>113.519257</v>
       </c>
       <c r="C240" t="n">
-        <v>129.077103</v>
+        <v>129.077087</v>
       </c>
     </row>
     <row r="241">
@@ -6054,7 +6054,7 @@
         <v>113.396896</v>
       </c>
       <c r="C241" t="n">
-        <v>128.676224</v>
+        <v>128.676239</v>
       </c>
     </row>
     <row r="242">
@@ -6076,7 +6076,7 @@
         <v>110.459991</v>
       </c>
       <c r="C243" t="n">
-        <v>127.633987</v>
+        <v>127.633995</v>
       </c>
     </row>
     <row r="244">
@@ -6098,7 +6098,7 @@
         <v>109.725769</v>
       </c>
       <c r="C245" t="n">
-        <v>121.781418</v>
+        <v>121.781425</v>
       </c>
     </row>
     <row r="246">
@@ -6109,7 +6109,7 @@
         <v>105.442795</v>
       </c>
       <c r="C246" t="n">
-        <v>117.77282</v>
+        <v>117.772827</v>
       </c>
     </row>
     <row r="247">
@@ -6142,7 +6142,7 @@
         <v>105.157257</v>
       </c>
       <c r="C249" t="n">
-        <v>124.346947</v>
+        <v>124.346931</v>
       </c>
     </row>
     <row r="250">
@@ -6153,7 +6153,7 @@
         <v>104.994102</v>
       </c>
       <c r="C250" t="n">
-        <v>126.27108</v>
+        <v>126.271057</v>
       </c>
     </row>
     <row r="251">
@@ -6175,7 +6175,7 @@
         <v>109.195503</v>
       </c>
       <c r="C252" t="n">
-        <v>127.313301</v>
+        <v>127.313316</v>
       </c>
     </row>
     <row r="253">
@@ -6186,7 +6186,7 @@
         <v>108.909966</v>
       </c>
       <c r="C253" t="n">
-        <v>126.591751</v>
+        <v>126.591759</v>
       </c>
     </row>
     <row r="254">
@@ -6197,7 +6197,7 @@
         <v>108.3797</v>
       </c>
       <c r="C254" t="n">
-        <v>126.832283</v>
+        <v>126.832275</v>
       </c>
     </row>
     <row r="255">
@@ -6219,7 +6219,7 @@
         <v>104.219086</v>
       </c>
       <c r="C256" t="n">
-        <v>126.591751</v>
+        <v>126.591759</v>
       </c>
     </row>
     <row r="257">
@@ -6230,7 +6230,7 @@
         <v>105.687538</v>
       </c>
       <c r="C257" t="n">
-        <v>125.469345</v>
+        <v>125.469353</v>
       </c>
     </row>
     <row r="258">
@@ -6241,7 +6241,7 @@
         <v>106.054642</v>
       </c>
       <c r="C258" t="n">
-        <v>124.266769</v>
+        <v>124.266762</v>
       </c>
     </row>
     <row r="259">
@@ -6252,7 +6252,7 @@
         <v>104.423035</v>
       </c>
       <c r="C259" t="n">
-        <v>122.583145</v>
+        <v>122.583153</v>
       </c>
     </row>
     <row r="260">
@@ -6263,7 +6263,7 @@
         <v>105.034897</v>
       </c>
       <c r="C260" t="n">
-        <v>126.27108</v>
+        <v>126.271057</v>
       </c>
     </row>
     <row r="261">
@@ -6274,7 +6274,7 @@
         <v>103.933556</v>
       </c>
       <c r="C261" t="n">
-        <v>126.030563</v>
+        <v>126.03054</v>
       </c>
     </row>
     <row r="262">
@@ -6285,7 +6285,7 @@
         <v>103.199333</v>
       </c>
       <c r="C262" t="n">
-        <v>125.870209</v>
+        <v>125.870201</v>
       </c>
     </row>
     <row r="263">
@@ -6307,7 +6307,7 @@
         <v>102.791428</v>
       </c>
       <c r="C264" t="n">
-        <v>125.709862</v>
+        <v>125.709877</v>
       </c>
     </row>
     <row r="265">
@@ -6318,7 +6318,7 @@
         <v>101.975624</v>
       </c>
       <c r="C265" t="n">
-        <v>126.190887</v>
+        <v>126.19088</v>
       </c>
     </row>
     <row r="266">
@@ -6329,7 +6329,7 @@
         <v>99.976906</v>
       </c>
       <c r="C266" t="n">
-        <v>126.110725</v>
+        <v>126.110718</v>
       </c>
     </row>
     <row r="267">
@@ -6340,7 +6340,7 @@
         <v>102.138779</v>
       </c>
       <c r="C267" t="n">
-        <v>126.832283</v>
+        <v>126.832275</v>
       </c>
     </row>
     <row r="268">
@@ -6362,7 +6362,7 @@
         <v>99.854523</v>
       </c>
       <c r="C269" t="n">
-        <v>123.465057</v>
+        <v>123.46505</v>
       </c>
     </row>
     <row r="270">
@@ -6373,7 +6373,7 @@
         <v>100.140068</v>
       </c>
       <c r="C270" t="n">
-        <v>123.144363</v>
+        <v>123.144356</v>
       </c>
     </row>
     <row r="271">
@@ -6384,7 +6384,7 @@
         <v>98.304504</v>
       </c>
       <c r="C271" t="n">
-        <v>120.739189</v>
+        <v>120.739204</v>
       </c>
     </row>
     <row r="272">
@@ -6395,7 +6395,7 @@
         <v>103.444077</v>
       </c>
       <c r="C272" t="n">
-        <v>121.781418</v>
+        <v>121.781425</v>
       </c>
     </row>
     <row r="273">
@@ -6406,7 +6406,7 @@
         <v>101.078239</v>
       </c>
       <c r="C273" t="n">
-        <v>122.262466</v>
+        <v>122.262474</v>
       </c>
     </row>
     <row r="274">
@@ -6417,7 +6417,7 @@
         <v>103.199333</v>
       </c>
       <c r="C274" t="n">
-        <v>122.102127</v>
+        <v>122.102135</v>
       </c>
     </row>
     <row r="275">
@@ -6428,7 +6428,7 @@
         <v>102.66906</v>
       </c>
       <c r="C275" t="n">
-        <v>121.781418</v>
+        <v>121.781425</v>
       </c>
     </row>
     <row r="276">
@@ -6439,7 +6439,7 @@
         <v>101.975624</v>
       </c>
       <c r="C276" t="n">
-        <v>120.338333</v>
+        <v>120.338348</v>
       </c>
     </row>
     <row r="277">
@@ -6450,7 +6450,7 @@
         <v>97.896599</v>
       </c>
       <c r="C277" t="n">
-        <v>119.456444</v>
+        <v>119.456436</v>
       </c>
     </row>
     <row r="278">
@@ -6461,7 +6461,7 @@
         <v>98.712402</v>
       </c>
       <c r="C278" t="n">
-        <v>119.135765</v>
+        <v>119.13575</v>
       </c>
     </row>
     <row r="279">
@@ -6472,7 +6472,7 @@
         <v>101.119026</v>
       </c>
       <c r="C279" t="n">
-        <v>121.22023</v>
+        <v>121.220222</v>
       </c>
     </row>
     <row r="280">
@@ -6483,7 +6483,7 @@
         <v>100.180862</v>
       </c>
       <c r="C280" t="n">
-        <v>122.262466</v>
+        <v>122.262474</v>
       </c>
     </row>
     <row r="281">
@@ -6494,7 +6494,7 @@
         <v>99.936111</v>
       </c>
       <c r="C281" t="n">
-        <v>121.22023</v>
+        <v>121.220222</v>
       </c>
     </row>
     <row r="282">
@@ -6516,7 +6516,7 @@
         <v>103.321701</v>
       </c>
       <c r="C283" t="n">
-        <v>123.545212</v>
+        <v>123.545227</v>
       </c>
     </row>
     <row r="284">
@@ -6538,7 +6538,7 @@
         <v>103.117752</v>
       </c>
       <c r="C285" t="n">
-        <v>121.781418</v>
+        <v>121.781425</v>
       </c>
     </row>
     <row r="286">
@@ -6549,7 +6549,7 @@
         <v>98.712402</v>
       </c>
       <c r="C286" t="n">
-        <v>120.498672</v>
+        <v>120.498688</v>
       </c>
     </row>
     <row r="287">
@@ -6571,7 +6571,7 @@
         <v>102.301949</v>
       </c>
       <c r="C288" t="n">
-        <v>121.781418</v>
+        <v>121.781425</v>
       </c>
     </row>
     <row r="289">
@@ -6582,7 +6582,7 @@
         <v>102.220367</v>
       </c>
       <c r="C289" t="n">
-        <v>119.777115</v>
+        <v>119.777122</v>
       </c>
     </row>
     <row r="290">
@@ -6593,7 +6593,7 @@
         <v>106.054642</v>
       </c>
       <c r="C290" t="n">
-        <v>127.393456</v>
+        <v>127.393478</v>
       </c>
     </row>
     <row r="291">
@@ -6604,7 +6604,7 @@
         <v>106.462547</v>
       </c>
       <c r="C291" t="n">
-        <v>125.228828</v>
+        <v>125.228821</v>
       </c>
     </row>
     <row r="292">
@@ -6615,7 +6615,7 @@
         <v>105.973061</v>
       </c>
       <c r="C292" t="n">
-        <v>122.502983</v>
+        <v>122.502991</v>
       </c>
     </row>
     <row r="293">
@@ -6626,7 +6626,7 @@
         <v>105.687538</v>
       </c>
       <c r="C293" t="n">
-        <v>122.422806</v>
+        <v>122.422813</v>
       </c>
     </row>
     <row r="294">
@@ -6637,7 +6637,7 @@
         <v>104.83094</v>
       </c>
       <c r="C294" t="n">
-        <v>121.059883</v>
+        <v>121.059875</v>
       </c>
     </row>
     <row r="295">
@@ -6681,7 +6681,7 @@
         <v>103.892761</v>
       </c>
       <c r="C298" t="n">
-        <v>115.768517</v>
+        <v>115.768509</v>
       </c>
     </row>
     <row r="299">
@@ -6692,7 +6692,7 @@
         <v>104.463837</v>
       </c>
       <c r="C299" t="n">
-        <v>117.933174</v>
+        <v>117.933182</v>
       </c>
     </row>
     <row r="300">
@@ -6714,7 +6714,7 @@
         <v>107.971802</v>
       </c>
       <c r="C301" t="n">
-        <v>118.654724</v>
+        <v>118.654709</v>
       </c>
     </row>
     <row r="302">
@@ -6736,7 +6736,7 @@
         <v>109.481026</v>
       </c>
       <c r="C303" t="n">
-        <v>122.102127</v>
+        <v>122.102135</v>
       </c>
     </row>
     <row r="304">
@@ -6747,7 +6747,7 @@
         <v>110.308449</v>
       </c>
       <c r="C304" t="n">
-        <v>123.304703</v>
+        <v>123.304695</v>
       </c>
     </row>
     <row r="305">
@@ -6769,7 +6769,7 @@
         <v>108.000374</v>
       </c>
       <c r="C306" t="n">
-        <v>120.899529</v>
+        <v>120.899536</v>
       </c>
     </row>
     <row r="307">
@@ -6780,7 +6780,7 @@
         <v>105.866501</v>
       </c>
       <c r="C307" t="n">
-        <v>120.096046</v>
+        <v>120.096054</v>
       </c>
     </row>
     <row r="308">
@@ -6791,7 +6791,7 @@
         <v>105.605202</v>
       </c>
       <c r="C308" t="n">
-        <v>118.38649</v>
+        <v>118.386497</v>
       </c>
     </row>
     <row r="309">
@@ -6802,7 +6802,7 @@
         <v>105.039078</v>
       </c>
       <c r="C309" t="n">
-        <v>114.540001</v>
+        <v>114.540009</v>
       </c>
     </row>
     <row r="310">
@@ -6813,7 +6813,7 @@
         <v>105.474556</v>
       </c>
       <c r="C310" t="n">
-        <v>116.762421</v>
+        <v>116.762428</v>
       </c>
     </row>
     <row r="311">
@@ -6824,7 +6824,7 @@
         <v>101.685844</v>
       </c>
       <c r="C311" t="n">
-        <v>117.104317</v>
+        <v>117.104324</v>
       </c>
     </row>
     <row r="312">
@@ -6835,7 +6835,7 @@
         <v>101.729393</v>
       </c>
       <c r="C312" t="n">
-        <v>117.959099</v>
+        <v>117.959106</v>
       </c>
     </row>
     <row r="313">
@@ -6846,7 +6846,7 @@
         <v>106.066818</v>
       </c>
       <c r="C313" t="n">
-        <v>121.121765</v>
+        <v>121.12178</v>
       </c>
     </row>
     <row r="314">
@@ -6868,7 +6868,7 @@
         <v>108.043922</v>
       </c>
       <c r="C315" t="n">
-        <v>121.292725</v>
+        <v>121.292732</v>
       </c>
     </row>
     <row r="316">
@@ -6890,7 +6890,7 @@
         <v>107.129402</v>
       </c>
       <c r="C317" t="n">
-        <v>121.20726</v>
+        <v>121.207253</v>
       </c>
     </row>
     <row r="318">
@@ -6901,7 +6901,7 @@
         <v>107.347145</v>
       </c>
       <c r="C318" t="n">
-        <v>122.062035</v>
+        <v>122.062027</v>
       </c>
     </row>
     <row r="319">
@@ -6934,7 +6934,7 @@
         <v>108.131027</v>
       </c>
       <c r="C321" t="n">
-        <v>122.232994</v>
+        <v>122.232986</v>
       </c>
     </row>
     <row r="322">
@@ -6945,7 +6945,7 @@
         <v>110.613289</v>
       </c>
       <c r="C322" t="n">
-        <v>123.51516</v>
+        <v>123.515144</v>
       </c>
     </row>
     <row r="323">
@@ -6967,7 +6967,7 @@
         <v>112.050385</v>
       </c>
       <c r="C324" t="n">
-        <v>124.028015</v>
+        <v>124.028008</v>
       </c>
     </row>
     <row r="325">
@@ -6978,7 +6978,7 @@
         <v>112.268127</v>
       </c>
       <c r="C325" t="n">
-        <v>124.968254</v>
+        <v>124.968262</v>
       </c>
     </row>
     <row r="326">
@@ -6989,7 +6989,7 @@
         <v>110.87458</v>
       </c>
       <c r="C326" t="n">
-        <v>123.429672</v>
+        <v>123.429665</v>
       </c>
     </row>
     <row r="327">
@@ -7000,7 +7000,7 @@
         <v>110.831032</v>
       </c>
       <c r="C327" t="n">
-        <v>122.062035</v>
+        <v>122.062027</v>
       </c>
     </row>
     <row r="328">
@@ -7022,7 +7022,7 @@
         <v>111.919746</v>
       </c>
       <c r="C329" t="n">
-        <v>122.916817</v>
+        <v>122.916809</v>
       </c>
     </row>
     <row r="330">
@@ -7088,7 +7088,7 @@
         <v>100.510033</v>
       </c>
       <c r="C335" t="n">
-        <v>107.787262</v>
+        <v>107.78727</v>
       </c>
     </row>
     <row r="336">
@@ -7121,7 +7121,7 @@
         <v>94.587425</v>
       </c>
       <c r="C338" t="n">
-        <v>107.017967</v>
+        <v>107.01796</v>
       </c>
     </row>
     <row r="339">
@@ -7176,7 +7176,7 @@
         <v>94.500328</v>
       </c>
       <c r="C343" t="n">
-        <v>105.821289</v>
+        <v>105.821281</v>
       </c>
     </row>
     <row r="344">
@@ -7209,7 +7209,7 @@
         <v>96.764847</v>
       </c>
       <c r="C346" t="n">
-        <v>105.906769</v>
+        <v>105.906761</v>
       </c>
     </row>
     <row r="347">
@@ -7297,7 +7297,7 @@
         <v>94.674515</v>
       </c>
       <c r="C354" t="n">
-        <v>107.616318</v>
+        <v>107.61631</v>
       </c>
     </row>
     <row r="355">
@@ -7341,7 +7341,7 @@
         <v>97.374535</v>
       </c>
       <c r="C358" t="n">
-        <v>111.975677</v>
+        <v>111.97567</v>
       </c>
     </row>
     <row r="359">
@@ -7352,7 +7352,7 @@
         <v>95.458397</v>
       </c>
       <c r="C359" t="n">
-        <v>111.377327</v>
+        <v>111.377335</v>
       </c>
     </row>
     <row r="360">
@@ -7363,7 +7363,7 @@
         <v>94.935814</v>
       </c>
       <c r="C360" t="n">
-        <v>112.403053</v>
+        <v>112.403061</v>
       </c>
     </row>
     <row r="361">
@@ -7396,7 +7396,7 @@
         <v>90.189026</v>
       </c>
       <c r="C363" t="n">
-        <v>109.667778</v>
+        <v>109.66777</v>
       </c>
     </row>
     <row r="364">
@@ -7407,7 +7407,7 @@
         <v>90.493866</v>
       </c>
       <c r="C364" t="n">
-        <v>108.727516</v>
+        <v>108.727524</v>
       </c>
     </row>
     <row r="365">
@@ -7429,7 +7429,7 @@
         <v>86.260948</v>
       </c>
       <c r="C366" t="n">
-        <v>104.539124</v>
+        <v>104.539116</v>
       </c>
     </row>
     <row r="367">
@@ -7484,7 +7484,7 @@
         <v>90.624512</v>
       </c>
       <c r="C371" t="n">
-        <v>107.958229</v>
+        <v>107.958221</v>
       </c>
     </row>
     <row r="372">
@@ -7517,7 +7517,7 @@
         <v>92.540642</v>
       </c>
       <c r="C374" t="n">
-        <v>110.693504</v>
+        <v>110.693512</v>
       </c>
     </row>
     <row r="375">
@@ -7528,7 +7528,7 @@
         <v>90.755157</v>
       </c>
       <c r="C375" t="n">
-        <v>109.411346</v>
+        <v>109.411339</v>
       </c>
     </row>
     <row r="376">
@@ -7550,7 +7550,7 @@
         <v>89.579346</v>
       </c>
       <c r="C377" t="n">
-        <v>107.958229</v>
+        <v>107.958221</v>
       </c>
     </row>
     <row r="378">
@@ -7715,7 +7715,7 @@
         <v>87.314819</v>
       </c>
       <c r="C392" t="n">
-        <v>100.350708</v>
+        <v>100.350716</v>
       </c>
     </row>
     <row r="393">
@@ -7737,7 +7737,7 @@
         <v>85.564171</v>
       </c>
       <c r="C394" t="n">
-        <v>99.15403</v>
+        <v>99.154037</v>
       </c>
     </row>
     <row r="395">
@@ -7748,7 +7748,7 @@
         <v>84.066101</v>
       </c>
       <c r="C395" t="n">
-        <v>98.042824</v>
+        <v>98.042816</v>
       </c>
     </row>
     <row r="396">
@@ -7759,7 +7759,7 @@
         <v>83.839653</v>
       </c>
       <c r="C396" t="n">
-        <v>99.923325</v>
+        <v>99.923332</v>
       </c>
     </row>
     <row r="397">
@@ -7770,7 +7770,7 @@
         <v>83.508675</v>
       </c>
       <c r="C397" t="n">
-        <v>98.726639</v>
+        <v>98.726646</v>
       </c>
     </row>
     <row r="398">
@@ -7781,7 +7781,7 @@
         <v>83.857063</v>
       </c>
       <c r="C398" t="n">
-        <v>98.641159</v>
+        <v>98.641174</v>
       </c>
     </row>
     <row r="399">
@@ -7803,7 +7803,7 @@
         <v>81.244148</v>
       </c>
       <c r="C400" t="n">
-        <v>95.991356</v>
+        <v>95.991364</v>
       </c>
     </row>
     <row r="401">
@@ -7814,7 +7814,7 @@
         <v>81.505447</v>
       </c>
       <c r="C401" t="n">
-        <v>95.563972</v>
+        <v>95.56398</v>
       </c>
     </row>
     <row r="402">
@@ -7825,7 +7825,7 @@
         <v>77.516396</v>
       </c>
       <c r="C402" t="n">
-        <v>92.230339</v>
+        <v>92.230347</v>
       </c>
     </row>
     <row r="403">
@@ -7847,7 +7847,7 @@
         <v>79.362862</v>
       </c>
       <c r="C404" t="n">
-        <v>94.70919</v>
+        <v>94.709198</v>
       </c>
     </row>
     <row r="405">
@@ -7858,7 +7858,7 @@
         <v>79.955116</v>
       </c>
       <c r="C405" t="n">
-        <v>95.307533</v>
+        <v>95.307541</v>
       </c>
     </row>
     <row r="406">
@@ -7869,7 +7869,7 @@
         <v>77.882202</v>
       </c>
       <c r="C406" t="n">
-        <v>93.597984</v>
+        <v>93.597992</v>
       </c>
     </row>
     <row r="407">
@@ -7880,7 +7880,7 @@
         <v>77.516396</v>
       </c>
       <c r="C407" t="n">
-        <v>92.65773</v>
+        <v>92.657738</v>
       </c>
     </row>
     <row r="408">
@@ -7946,7 +7946,7 @@
         <v>76.59317</v>
       </c>
       <c r="C413" t="n">
-        <v>80.348953</v>
+        <v>80.348946</v>
       </c>
     </row>
     <row r="414">
@@ -8034,7 +8034,7 @@
         <v>88.055145</v>
       </c>
       <c r="C421" t="n">
-        <v>88.554802</v>
+        <v>88.55481</v>
       </c>
     </row>
     <row r="422">
@@ -8045,7 +8045,7 @@
         <v>87.968048</v>
       </c>
       <c r="C422" t="n">
-        <v>88.041946</v>
+        <v>88.041939</v>
       </c>
     </row>
     <row r="423">
@@ -8067,7 +8067,7 @@
         <v>91.190636</v>
       </c>
       <c r="C424" t="n">
-        <v>88.554802</v>
+        <v>88.55481</v>
       </c>
     </row>
     <row r="425">
@@ -8078,7 +8078,7 @@
         <v>88.22934</v>
       </c>
       <c r="C425" t="n">
-        <v>88.640274</v>
+        <v>88.640282</v>
       </c>
     </row>
     <row r="426">
@@ -8111,7 +8111,7 @@
         <v>84.41449</v>
       </c>
       <c r="C428" t="n">
-        <v>89.495056</v>
+        <v>89.495064</v>
       </c>
     </row>
     <row r="429">
@@ -8144,7 +8144,7 @@
         <v>83.543518</v>
       </c>
       <c r="C431" t="n">
-        <v>103.342438</v>
+        <v>103.34243</v>
       </c>
     </row>
     <row r="432">
@@ -8155,7 +8155,7 @@
         <v>82.602867</v>
       </c>
       <c r="C432" t="n">
-        <v>107.958229</v>
+        <v>107.958221</v>
       </c>
     </row>
     <row r="433">
@@ -8199,7 +8199,7 @@
         <v>82.742218</v>
       </c>
       <c r="C436" t="n">
-        <v>102.402184</v>
+        <v>102.402176</v>
       </c>
     </row>
     <row r="437">
@@ -8210,7 +8210,7 @@
         <v>82.02803</v>
       </c>
       <c r="C437" t="n">
-        <v>99.923325</v>
+        <v>99.923332</v>
       </c>
     </row>
     <row r="438">
@@ -8221,7 +8221,7 @@
         <v>80.216408</v>
       </c>
       <c r="C438" t="n">
-        <v>99.239502</v>
+        <v>99.23951</v>
       </c>
     </row>
     <row r="439">
@@ -8232,7 +8232,7 @@
         <v>79.989952</v>
       </c>
       <c r="C439" t="n">
-        <v>99.15403</v>
+        <v>99.154037</v>
       </c>
     </row>
     <row r="440">
@@ -8265,7 +8265,7 @@
         <v>79.972534</v>
       </c>
       <c r="C442" t="n">
-        <v>102.316704</v>
+        <v>102.316696</v>
       </c>
     </row>
     <row r="443">
@@ -8320,7 +8320,7 @@
         <v>84.693199</v>
       </c>
       <c r="C447" t="n">
-        <v>109.92421</v>
+        <v>109.924217</v>
       </c>
     </row>
     <row r="448">
@@ -8353,7 +8353,7 @@
         <v>85.877724</v>
       </c>
       <c r="C450" t="n">
-        <v>112.659492</v>
+        <v>112.6595</v>
       </c>
     </row>
     <row r="451">
@@ -8375,7 +8375,7 @@
         <v>85.529327</v>
       </c>
       <c r="C452" t="n">
-        <v>115.394775</v>
+        <v>115.394768</v>
       </c>
     </row>
     <row r="453">
@@ -8386,7 +8386,7 @@
         <v>85.668686</v>
       </c>
       <c r="C453" t="n">
-        <v>114.881912</v>
+        <v>114.881905</v>
       </c>
     </row>
     <row r="454">
@@ -8408,7 +8408,7 @@
         <v>85.616432</v>
       </c>
       <c r="C455" t="n">
-        <v>114.454521</v>
+        <v>114.454514</v>
       </c>
     </row>
     <row r="456">
@@ -8419,7 +8419,7 @@
         <v>84.867393</v>
       </c>
       <c r="C456" t="n">
-        <v>115.736671</v>
+        <v>115.736687</v>
       </c>
     </row>
     <row r="457">
@@ -8430,7 +8430,7 @@
         <v>82.829323</v>
       </c>
       <c r="C457" t="n">
-        <v>113.856171</v>
+        <v>113.856178</v>
       </c>
     </row>
     <row r="458">
@@ -8452,7 +8452,7 @@
         <v>79.955116</v>
       </c>
       <c r="C459" t="n">
-        <v>114.540001</v>
+        <v>114.540009</v>
       </c>
     </row>
     <row r="460">
@@ -8463,7 +8463,7 @@
         <v>81.348671</v>
       </c>
       <c r="C460" t="n">
-        <v>112.403053</v>
+        <v>112.403061</v>
       </c>
     </row>
     <row r="461">
@@ -8474,7 +8474,7 @@
         <v>81.784157</v>
       </c>
       <c r="C461" t="n">
-        <v>114.454521</v>
+        <v>114.454514</v>
       </c>
     </row>
     <row r="462">
@@ -8496,7 +8496,7 @@
         <v>83.630608</v>
       </c>
       <c r="C463" t="n">
-        <v>116.33503</v>
+        <v>116.335037</v>
       </c>
     </row>
     <row r="464">
@@ -8507,7 +8507,7 @@
         <v>83.369324</v>
       </c>
       <c r="C464" t="n">
-        <v>115.993111</v>
+        <v>115.993126</v>
       </c>
     </row>
     <row r="465">
@@ -8518,7 +8518,7 @@
         <v>82.498352</v>
       </c>
       <c r="C465" t="n">
-        <v>116.676933</v>
+        <v>116.676941</v>
       </c>
     </row>
     <row r="466">
@@ -8540,7 +8540,7 @@
         <v>80.442863</v>
       </c>
       <c r="C467" t="n">
-        <v>113.514267</v>
+        <v>113.514275</v>
       </c>
     </row>
     <row r="468">
@@ -8551,7 +8551,7 @@
         <v>80.634476</v>
       </c>
       <c r="C468" t="n">
-        <v>111.377327</v>
+        <v>111.377335</v>
       </c>
     </row>
     <row r="469">
@@ -8606,7 +8606,7 @@
         <v>78.735756</v>
       </c>
       <c r="C473" t="n">
-        <v>108.727516</v>
+        <v>108.727524</v>
       </c>
     </row>
     <row r="474">
@@ -8628,7 +8628,7 @@
         <v>80.129311</v>
       </c>
       <c r="C475" t="n">
-        <v>110.693504</v>
+        <v>110.693512</v>
       </c>
     </row>
     <row r="476">
@@ -8639,7 +8639,7 @@
         <v>79.275757</v>
       </c>
       <c r="C476" t="n">
-        <v>108.727516</v>
+        <v>108.727524</v>
       </c>
     </row>
     <row r="477">
@@ -8694,7 +8694,7 @@
         <v>79.223503</v>
       </c>
       <c r="C481" t="n">
-        <v>105.479378</v>
+        <v>105.47937</v>
       </c>
     </row>
     <row r="482">
@@ -8749,7 +8749,7 @@
         <v>84.170616</v>
       </c>
       <c r="C486" t="n">
-        <v>113.343323</v>
+        <v>113.343315</v>
       </c>
     </row>
     <row r="487">
@@ -8760,7 +8760,7 @@
         <v>84.849968</v>
       </c>
       <c r="C487" t="n">
-        <v>113.856171</v>
+        <v>113.856178</v>
       </c>
     </row>
     <row r="488">
@@ -8771,7 +8771,7 @@
         <v>87.271271</v>
       </c>
       <c r="C488" t="n">
-        <v>113.941658</v>
+        <v>113.94165</v>
       </c>
     </row>
     <row r="489">
@@ -8782,7 +8782,7 @@
         <v>90.580963</v>
       </c>
       <c r="C489" t="n">
-        <v>112.403053</v>
+        <v>112.403061</v>
       </c>
     </row>
     <row r="490">
@@ -8793,7 +8793,7 @@
         <v>92.671295</v>
       </c>
       <c r="C490" t="n">
-        <v>112.488541</v>
+        <v>112.488548</v>
       </c>
     </row>
     <row r="491">
@@ -8804,7 +8804,7 @@
         <v>94.108398</v>
       </c>
       <c r="C491" t="n">
-        <v>117.104317</v>
+        <v>117.104324</v>
       </c>
     </row>
     <row r="492">
@@ -8848,7 +8848,7 @@
         <v>93.193878</v>
       </c>
       <c r="C495" t="n">
-        <v>118.899368</v>
+        <v>118.899361</v>
       </c>
     </row>
     <row r="496">
@@ -8870,7 +8870,7 @@
         <v>93.890656</v>
       </c>
       <c r="C497" t="n">
-        <v>119.497711</v>
+        <v>119.497696</v>
       </c>
     </row>
     <row r="498">
@@ -8903,7 +8903,7 @@
         <v>92.932579</v>
       </c>
       <c r="C500" t="n">
-        <v>120.60891</v>
+        <v>120.608917</v>
       </c>
     </row>
     <row r="501">
@@ -8914,7 +8914,7 @@
         <v>93.847099</v>
       </c>
       <c r="C501" t="n">
-        <v>120.694374</v>
+        <v>120.694389</v>
       </c>
     </row>
     <row r="502">
@@ -8958,7 +8958,7 @@
         <v>93.498711</v>
       </c>
       <c r="C505" t="n">
-        <v>121.891083</v>
+        <v>121.891075</v>
       </c>
     </row>
     <row r="506">
@@ -8969,7 +8969,7 @@
         <v>94.064842</v>
       </c>
       <c r="C506" t="n">
-        <v>123.686089</v>
+        <v>123.686104</v>
       </c>
     </row>
     <row r="507">
@@ -8991,7 +8991,7 @@
         <v>94.674515</v>
       </c>
       <c r="C508" t="n">
-        <v>123.600624</v>
+        <v>123.600632</v>
       </c>
     </row>
     <row r="509">
@@ -9002,7 +9002,7 @@
         <v>95.806786</v>
       </c>
       <c r="C509" t="n">
-        <v>123.344208</v>
+        <v>123.344193</v>
       </c>
     </row>
     <row r="510">
@@ -9013,7 +9013,7 @@
         <v>95.632599</v>
       </c>
       <c r="C510" t="n">
-        <v>127.361649</v>
+        <v>127.361633</v>
       </c>
     </row>
     <row r="511">
@@ -9035,7 +9035,7 @@
         <v>96.721306</v>
       </c>
       <c r="C512" t="n">
-        <v>127.703537</v>
+        <v>127.703552</v>
       </c>
     </row>
     <row r="513">
@@ -9046,7 +9046,7 @@
         <v>94.848717</v>
       </c>
       <c r="C513" t="n">
-        <v>126.934265</v>
+        <v>126.93425</v>
       </c>
     </row>
     <row r="514">
@@ -9068,7 +9068,7 @@
         <v>92.453545</v>
       </c>
       <c r="C515" t="n">
-        <v>123.087769</v>
+        <v>123.087753</v>
       </c>
     </row>
     <row r="516">
@@ -9079,7 +9079,7 @@
         <v>94.500328</v>
       </c>
       <c r="C516" t="n">
-        <v>125.224701</v>
+        <v>125.224709</v>
       </c>
     </row>
     <row r="517">
@@ -9101,7 +9101,7 @@
         <v>94.674515</v>
       </c>
       <c r="C518" t="n">
-        <v>124.198967</v>
+        <v>124.198975</v>
       </c>
     </row>
     <row r="519">
@@ -9112,7 +9112,7 @@
         <v>98.332603</v>
       </c>
       <c r="C519" t="n">
-        <v>125.48114</v>
+        <v>125.481125</v>
       </c>
     </row>
     <row r="520">
@@ -9134,7 +9134,7 @@
         <v>99.943901</v>
       </c>
       <c r="C521" t="n">
-        <v>127.276161</v>
+        <v>127.276169</v>
       </c>
     </row>
     <row r="522">
@@ -9156,7 +9156,7 @@
         <v>102.164871</v>
       </c>
       <c r="C523" t="n">
-        <v>131.293625</v>
+        <v>131.29361</v>
       </c>
     </row>
     <row r="524">
@@ -9167,7 +9167,7 @@
         <v>102.513252</v>
       </c>
       <c r="C524" t="n">
-        <v>130.438843</v>
+        <v>130.438828</v>
       </c>
     </row>
     <row r="525">
@@ -9189,7 +9189,7 @@
         <v>105.822945</v>
       </c>
       <c r="C526" t="n">
-        <v>133.516037</v>
+        <v>133.516022</v>
       </c>
     </row>
     <row r="527">
@@ -9211,7 +9211,7 @@
         <v>106.519722</v>
       </c>
       <c r="C528" t="n">
-        <v>134.19986</v>
+        <v>134.199844</v>
       </c>
     </row>
     <row r="529">
@@ -9233,7 +9233,7 @@
         <v>104.951973</v>
       </c>
       <c r="C530" t="n">
-        <v>135.909393</v>
+        <v>135.909409</v>
       </c>
     </row>
     <row r="531">
@@ -9266,7 +9266,7 @@
         <v>106.476173</v>
       </c>
       <c r="C533" t="n">
-        <v>138.47374</v>
+        <v>138.473724</v>
       </c>
     </row>
     <row r="534">
@@ -9277,7 +9277,7 @@
         <v>104.995529</v>
       </c>
       <c r="C534" t="n">
-        <v>137.020615</v>
+        <v>137.020599</v>
       </c>
     </row>
     <row r="535">
@@ -9288,7 +9288,7 @@
         <v>100.161644</v>
       </c>
       <c r="C535" t="n">
-        <v>134.19986</v>
+        <v>134.199844</v>
       </c>
     </row>
     <row r="536">
@@ -9321,7 +9321,7 @@
         <v>93.237427</v>
       </c>
       <c r="C538" t="n">
-        <v>109.240387</v>
+        <v>109.240395</v>
       </c>
     </row>
     <row r="539">
@@ -9354,7 +9354,7 @@
         <v>93.063225</v>
       </c>
       <c r="C541" t="n">
-        <v>109.838737</v>
+        <v>109.83873</v>
       </c>
     </row>
     <row r="542">
@@ -9409,7 +9409,7 @@
         <v>77.28994</v>
       </c>
       <c r="C546" t="n">
-        <v>93.854416</v>
+        <v>93.854424</v>
       </c>
     </row>
     <row r="547">
@@ -9431,7 +9431,7 @@
         <v>67.726692</v>
       </c>
       <c r="C548" t="n">
-        <v>82.272194</v>
+        <v>82.272202</v>
       </c>
     </row>
     <row r="549">
@@ -9442,7 +9442,7 @@
         <v>67.761528</v>
       </c>
       <c r="C549" t="n">
-        <v>83.682587</v>
+        <v>83.682579</v>
       </c>
     </row>
     <row r="550">
@@ -9453,7 +9453,7 @@
         <v>64.486679</v>
       </c>
       <c r="C550" t="n">
-        <v>78.895836</v>
+        <v>78.895828</v>
       </c>
     </row>
     <row r="551">
@@ -9464,7 +9464,7 @@
         <v>64.62603</v>
       </c>
       <c r="C551" t="n">
-        <v>80.220734</v>
+        <v>80.220741</v>
       </c>
     </row>
     <row r="552">
@@ -9475,7 +9475,7 @@
         <v>71.60997</v>
       </c>
       <c r="C552" t="n">
-        <v>77.399986</v>
+        <v>77.399979</v>
       </c>
     </row>
     <row r="553">
@@ -9486,7 +9486,7 @@
         <v>71.708336</v>
       </c>
       <c r="C553" t="n">
-        <v>78.126541</v>
+        <v>78.126534</v>
       </c>
     </row>
     <row r="554">
@@ -9574,7 +9574,7 @@
         <v>75.642952</v>
       </c>
       <c r="C561" t="n">
-        <v>91.515839</v>
+        <v>91.515846</v>
       </c>
     </row>
     <row r="562">
@@ -9607,7 +9607,7 @@
         <v>71.078796</v>
       </c>
       <c r="C564" t="n">
-        <v>88.706573</v>
+        <v>88.706566</v>
       </c>
     </row>
     <row r="565">
@@ -9618,7 +9618,7 @@
         <v>72.141136</v>
       </c>
       <c r="C565" t="n">
-        <v>88.373268</v>
+        <v>88.37326</v>
       </c>
     </row>
     <row r="566">
@@ -9684,7 +9684,7 @@
         <v>72.318199</v>
       </c>
       <c r="C571" t="n">
-        <v>89.373169</v>
+        <v>89.373177</v>
       </c>
     </row>
     <row r="572">
@@ -9695,7 +9695,7 @@
         <v>71.82637</v>
       </c>
       <c r="C572" t="n">
-        <v>90.992088</v>
+        <v>90.992081</v>
       </c>
     </row>
     <row r="573">
@@ -9728,7 +9728,7 @@
         <v>72.455917</v>
       </c>
       <c r="C575" t="n">
-        <v>91.230164</v>
+        <v>91.230156</v>
       </c>
     </row>
     <row r="576">
@@ -9739,7 +9739,7 @@
         <v>70.134491</v>
       </c>
       <c r="C576" t="n">
-        <v>89.706474</v>
+        <v>89.706482</v>
       </c>
     </row>
     <row r="577">
@@ -9783,7 +9783,7 @@
         <v>79.479202</v>
       </c>
       <c r="C580" t="n">
-        <v>107.89537</v>
+        <v>107.895378</v>
       </c>
     </row>
     <row r="581">
@@ -9827,7 +9827,7 @@
         <v>74.226486</v>
       </c>
       <c r="C584" t="n">
-        <v>95.08696</v>
+        <v>95.086967</v>
       </c>
     </row>
     <row r="585">
@@ -9849,7 +9849,7 @@
         <v>74.619949</v>
       </c>
       <c r="C586" t="n">
-        <v>100.086533</v>
+        <v>100.086525</v>
       </c>
     </row>
     <row r="587">
@@ -9860,7 +9860,7 @@
         <v>74.167473</v>
       </c>
       <c r="C587" t="n">
-        <v>101.134048</v>
+        <v>101.134056</v>
       </c>
     </row>
     <row r="588">
@@ -9893,7 +9893,7 @@
         <v>70.803375</v>
       </c>
       <c r="C590" t="n">
-        <v>99.991302</v>
+        <v>99.991295</v>
       </c>
     </row>
     <row r="591">
@@ -9915,7 +9915,7 @@
         <v>73.400223</v>
       </c>
       <c r="C592" t="n">
-        <v>100.657898</v>
+        <v>100.657906</v>
       </c>
     </row>
     <row r="593">
@@ -9926,7 +9926,7 @@
         <v>75.564255</v>
       </c>
       <c r="C593" t="n">
-        <v>102.467278</v>
+        <v>102.46727</v>
       </c>
     </row>
     <row r="594">
@@ -9970,7 +9970,7 @@
         <v>83.748253</v>
       </c>
       <c r="C597" t="n">
-        <v>111.799789</v>
+        <v>111.799797</v>
       </c>
     </row>
     <row r="598">
@@ -9992,7 +9992,7 @@
         <v>86.128693</v>
       </c>
       <c r="C599" t="n">
-        <v>116.656509</v>
+        <v>116.656517</v>
       </c>
     </row>
     <row r="600">
@@ -10014,7 +10014,7 @@
         <v>89.256706</v>
       </c>
       <c r="C601" t="n">
-        <v>123.893982</v>
+        <v>123.89399</v>
       </c>
     </row>
     <row r="602">
@@ -10069,7 +10069,7 @@
         <v>86.42379</v>
       </c>
       <c r="C606" t="n">
-        <v>117.704041</v>
+        <v>117.704048</v>
       </c>
     </row>
     <row r="607">
@@ -10091,7 +10091,7 @@
         <v>87.663193</v>
       </c>
       <c r="C608" t="n">
-        <v>120.751396</v>
+        <v>120.751404</v>
       </c>
     </row>
     <row r="609">
@@ -10157,7 +10157,7 @@
         <v>87.466461</v>
       </c>
       <c r="C614" t="n">
-        <v>117.704041</v>
+        <v>117.704048</v>
       </c>
     </row>
     <row r="615">
@@ -10201,7 +10201,7 @@
         <v>86.836922</v>
       </c>
       <c r="C618" t="n">
-        <v>117.13266</v>
+        <v>117.132668</v>
       </c>
     </row>
     <row r="619">
@@ -10322,7 +10322,7 @@
         <v>100.185097</v>
       </c>
       <c r="C629" t="n">
-        <v>124.465355</v>
+        <v>124.465363</v>
       </c>
     </row>
     <row r="630">
@@ -10333,7 +10333,7 @@
         <v>100.185097</v>
       </c>
       <c r="C630" t="n">
-        <v>125.512886</v>
+        <v>125.512894</v>
       </c>
     </row>
     <row r="631">
@@ -10355,7 +10355,7 @@
         <v>104.267265</v>
       </c>
       <c r="C632" t="n">
-        <v>125.036736</v>
+        <v>125.036743</v>
       </c>
     </row>
     <row r="633">
@@ -10388,7 +10388,7 @@
         <v>103.72625</v>
       </c>
       <c r="C635" t="n">
-        <v>125.322433</v>
+        <v>125.322441</v>
       </c>
     </row>
     <row r="636">
@@ -10399,7 +10399,7 @@
         <v>104.218079</v>
       </c>
       <c r="C636" t="n">
-        <v>124.941498</v>
+        <v>124.941505</v>
       </c>
     </row>
     <row r="637">
@@ -10410,7 +10410,7 @@
         <v>102.250771</v>
       </c>
       <c r="C637" t="n">
-        <v>122.655998</v>
+        <v>122.655991</v>
       </c>
     </row>
     <row r="638">
@@ -10465,7 +10465,7 @@
         <v>101.168755</v>
       </c>
       <c r="C642" t="n">
-        <v>115.894676</v>
+        <v>115.894669</v>
       </c>
     </row>
     <row r="643">
@@ -10476,7 +10476,7 @@
         <v>100.480202</v>
       </c>
       <c r="C643" t="n">
-        <v>116.75174</v>
+        <v>116.751747</v>
       </c>
     </row>
     <row r="644">
@@ -10487,7 +10487,7 @@
         <v>100.922836</v>
       </c>
       <c r="C644" t="n">
-        <v>115.989914</v>
+        <v>115.989906</v>
       </c>
     </row>
     <row r="645">
@@ -10498,7 +10498,7 @@
         <v>100.332649</v>
       </c>
       <c r="C645" t="n">
-        <v>115.418526</v>
+        <v>115.418518</v>
       </c>
     </row>
     <row r="646">
@@ -10564,7 +10564,7 @@
         <v>102.349144</v>
       </c>
       <c r="C651" t="n">
-        <v>113.609169</v>
+        <v>113.609161</v>
       </c>
     </row>
     <row r="652">
@@ -10608,7 +10608,7 @@
         <v>96.496399</v>
       </c>
       <c r="C655" t="n">
-        <v>110.466576</v>
+        <v>110.466583</v>
       </c>
     </row>
     <row r="656">
@@ -10619,7 +10619,7 @@
         <v>97.047249</v>
       </c>
       <c r="C656" t="n">
-        <v>109.799973</v>
+        <v>109.799965</v>
       </c>
     </row>
     <row r="657">
@@ -10652,7 +10652,7 @@
         <v>97.971878</v>
       </c>
       <c r="C659" t="n">
-        <v>107.228767</v>
+        <v>107.22876</v>
       </c>
     </row>
     <row r="660">
@@ -10663,7 +10663,7 @@
         <v>96.594765</v>
       </c>
       <c r="C660" t="n">
-        <v>106.847847</v>
+        <v>106.847839</v>
       </c>
     </row>
     <row r="661">
@@ -10696,7 +10696,7 @@
         <v>92.463425</v>
       </c>
       <c r="C663" t="n">
-        <v>95.705963</v>
+        <v>95.705956</v>
       </c>
     </row>
     <row r="664">
@@ -10751,7 +10751,7 @@
         <v>87.859924</v>
       </c>
       <c r="C668" t="n">
-        <v>96.467796</v>
+        <v>96.467804</v>
       </c>
     </row>
     <row r="669">
@@ -10762,7 +10762,7 @@
         <v>88.627174</v>
       </c>
       <c r="C669" t="n">
-        <v>98.181938</v>
+        <v>98.181931</v>
       </c>
     </row>
     <row r="670">
@@ -10773,7 +10773,7 @@
         <v>88.587822</v>
       </c>
       <c r="C670" t="n">
-        <v>99.705605</v>
+        <v>99.705612</v>
       </c>
     </row>
     <row r="671">
@@ -10784,7 +10784,7 @@
         <v>86.502487</v>
       </c>
       <c r="C671" t="n">
-        <v>99.610382</v>
+        <v>99.610374</v>
       </c>
     </row>
     <row r="672">
@@ -10806,7 +10806,7 @@
         <v>86.187714</v>
       </c>
       <c r="C673" t="n">
-        <v>99.134232</v>
+        <v>99.134224</v>
       </c>
     </row>
     <row r="674">
@@ -10817,7 +10817,7 @@
         <v>86.384445</v>
       </c>
       <c r="C674" t="n">
-        <v>97.896248</v>
+        <v>97.89624</v>
       </c>
     </row>
     <row r="675">
@@ -10839,7 +10839,7 @@
         <v>83.0597</v>
       </c>
       <c r="C676" t="n">
-        <v>96.372559</v>
+        <v>96.372566</v>
       </c>
     </row>
     <row r="677">
@@ -10850,7 +10850,7 @@
         <v>80.659584</v>
       </c>
       <c r="C677" t="n">
-        <v>94.372734</v>
+        <v>94.372742</v>
       </c>
     </row>
     <row r="678">
@@ -10872,7 +10872,7 @@
         <v>81.938332</v>
       </c>
       <c r="C679" t="n">
-        <v>93.563293</v>
+        <v>93.563286</v>
       </c>
     </row>
     <row r="680">
@@ -10927,7 +10927,7 @@
         <v>84.692558</v>
       </c>
       <c r="C684" t="n">
-        <v>94.848885</v>
+        <v>94.848892</v>
       </c>
     </row>
     <row r="685">
@@ -10949,7 +10949,7 @@
         <v>83.453156</v>
       </c>
       <c r="C686" t="n">
-        <v>103.133881</v>
+        <v>103.133888</v>
       </c>
     </row>
     <row r="687">
@@ -10960,7 +10960,7 @@
         <v>85.57785</v>
       </c>
       <c r="C687" t="n">
-        <v>103.133881</v>
+        <v>103.133888</v>
       </c>
     </row>
     <row r="688">
@@ -10993,7 +10993,7 @@
         <v>89.453445</v>
       </c>
       <c r="C690" t="n">
-        <v>103.990952</v>
+        <v>103.990944</v>
       </c>
     </row>
     <row r="691">
@@ -11070,7 +11070,7 @@
         <v>91.401077</v>
       </c>
       <c r="C697" t="n">
-        <v>103.990952</v>
+        <v>103.990944</v>
       </c>
     </row>
     <row r="698">
@@ -11158,7 +11158,7 @@
         <v>84.161385</v>
       </c>
       <c r="C705" t="n">
-        <v>102.372047</v>
+        <v>102.37204</v>
       </c>
     </row>
     <row r="706">
@@ -11202,7 +11202,7 @@
         <v>86.974632</v>
       </c>
       <c r="C709" t="n">
-        <v>111.799789</v>
+        <v>111.799797</v>
       </c>
     </row>
     <row r="710">
@@ -11224,7 +11224,7 @@
         <v>88.627174</v>
       </c>
       <c r="C711" t="n">
-        <v>109.514275</v>
+        <v>109.514282</v>
       </c>
     </row>
     <row r="712">
@@ -11290,7 +11290,7 @@
         <v>102.447502</v>
       </c>
       <c r="C717" t="n">
-        <v>124.274902</v>
+        <v>124.274895</v>
       </c>
     </row>
     <row r="718">
@@ -11301,7 +11301,7 @@
         <v>102.890144</v>
       </c>
       <c r="C718" t="n">
-        <v>126.274734</v>
+        <v>126.274727</v>
       </c>
     </row>
     <row r="719">
@@ -11356,7 +11356,7 @@
         <v>103.234421</v>
       </c>
       <c r="C723" t="n">
-        <v>124.751053</v>
+        <v>124.751045</v>
       </c>
     </row>
     <row r="724">
@@ -11378,7 +11378,7 @@
         <v>102.98851</v>
       </c>
       <c r="C725" t="n">
-        <v>124.751053</v>
+        <v>124.751045</v>
       </c>
     </row>
     <row r="726">
@@ -11422,7 +11422,7 @@
         <v>102.250771</v>
       </c>
       <c r="C729" t="n">
-        <v>124.751053</v>
+        <v>124.751045</v>
       </c>
     </row>
     <row r="730">
@@ -11444,7 +11444,7 @@
         <v>101.513031</v>
       </c>
       <c r="C731" t="n">
-        <v>124.274902</v>
+        <v>124.274895</v>
       </c>
     </row>
     <row r="732">
@@ -11543,7 +11543,7 @@
         <v>94.529091</v>
       </c>
       <c r="C740" t="n">
-        <v>121.608459</v>
+        <v>121.608467</v>
       </c>
     </row>
     <row r="741">
@@ -11576,7 +11576,7 @@
         <v>96.870193</v>
       </c>
       <c r="C743" t="n">
-        <v>124.941498</v>
+        <v>124.941505</v>
       </c>
     </row>
     <row r="744">
@@ -11587,7 +11587,7 @@
         <v>99.742462</v>
       </c>
       <c r="C744" t="n">
-        <v>125.989037</v>
+        <v>125.989044</v>
       </c>
     </row>
     <row r="745">
@@ -11620,7 +11620,7 @@
         <v>99.004723</v>
       </c>
       <c r="C747" t="n">
-        <v>128.084091</v>
+        <v>128.084106</v>
       </c>
     </row>
     <row r="748">
@@ -11653,7 +11653,7 @@
         <v>103.627884</v>
       </c>
       <c r="C750" t="n">
-        <v>128.941147</v>
+        <v>128.941162</v>
       </c>
     </row>
     <row r="751">
@@ -11664,7 +11664,7 @@
         <v>108.054329</v>
       </c>
       <c r="C751" t="n">
-        <v>132.369446</v>
+        <v>132.369431</v>
       </c>
     </row>
     <row r="752">
@@ -11851,7 +11851,7 @@
         <v>103.480339</v>
       </c>
       <c r="C768" t="n">
-        <v>121.608459</v>
+        <v>121.608467</v>
       </c>
     </row>
     <row r="769">
@@ -11862,7 +11862,7 @@
         <v>104.070534</v>
       </c>
       <c r="C769" t="n">
-        <v>123.893982</v>
+        <v>123.89399</v>
       </c>
     </row>
     <row r="770">
@@ -11939,7 +11939,7 @@
         <v>107.955963</v>
       </c>
       <c r="C776" t="n">
-        <v>126.750885</v>
+        <v>126.750877</v>
       </c>
     </row>
     <row r="777">
@@ -11983,7 +11983,7 @@
         <v>110.857735</v>
       </c>
       <c r="C780" t="n">
-        <v>132.369446</v>
+        <v>132.369431</v>
       </c>
     </row>
     <row r="781">
@@ -12016,7 +12016,7 @@
         <v>111.644661</v>
       </c>
       <c r="C783" t="n">
-        <v>132.940826</v>
+        <v>132.940811</v>
       </c>
     </row>
     <row r="784">
@@ -12027,7 +12027,7 @@
         <v>111.447937</v>
       </c>
       <c r="C784" t="n">
-        <v>134.178787</v>
+        <v>134.178802</v>
       </c>
     </row>
     <row r="785">
@@ -12038,7 +12038,7 @@
         <v>112.333221</v>
       </c>
       <c r="C785" t="n">
-        <v>134.940628</v>
+        <v>134.940643</v>
       </c>
     </row>
     <row r="786">
@@ -12049,7 +12049,7 @@
         <v>115.087448</v>
       </c>
       <c r="C786" t="n">
-        <v>135.226334</v>
+        <v>135.226318</v>
       </c>
     </row>
     <row r="787">
@@ -12071,7 +12071,7 @@
         <v>114.595627</v>
       </c>
       <c r="C788" t="n">
-        <v>136.654785</v>
+        <v>136.65477</v>
       </c>
     </row>
     <row r="789">
@@ -12093,7 +12093,7 @@
         <v>116.366203</v>
       </c>
       <c r="C790" t="n">
-        <v>153.319992</v>
+        <v>153.319977</v>
       </c>
     </row>
     <row r="791">
@@ -12104,7 +12104,7 @@
         <v>116.218651</v>
       </c>
       <c r="C791" t="n">
-        <v>152.367691</v>
+        <v>152.367706</v>
       </c>
     </row>
     <row r="792">
@@ -12115,7 +12115,7 @@
         <v>118.82534</v>
       </c>
       <c r="C792" t="n">
-        <v>151.129715</v>
+        <v>151.1297</v>
       </c>
     </row>
     <row r="793">
@@ -12170,7 +12170,7 @@
         <v>120.54673</v>
       </c>
       <c r="C797" t="n">
-        <v>154.938904</v>
+        <v>154.938889</v>
       </c>
     </row>
     <row r="798">
@@ -12181,7 +12181,7 @@
         <v>120.497543</v>
       </c>
       <c r="C798" t="n">
-        <v>154.272293</v>
+        <v>154.272278</v>
       </c>
     </row>
     <row r="799">
@@ -12192,7 +12192,7 @@
         <v>120.349998</v>
       </c>
       <c r="C799" t="n">
-        <v>155.415054</v>
+        <v>155.415039</v>
       </c>
     </row>
     <row r="800">
@@ -12247,7 +12247,7 @@
         <v>118.25</v>
       </c>
       <c r="C804" t="n">
-        <v>155.224594</v>
+        <v>155.224579</v>
       </c>
     </row>
     <row r="805">
@@ -12258,7 +12258,7 @@
         <v>119.300003</v>
       </c>
       <c r="C805" t="n">
-        <v>159.986084</v>
+        <v>159.986069</v>
       </c>
     </row>
     <row r="806">

--- a/Danske aktiekurser.xlsx
+++ b/Danske aktiekurser.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="1020">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="1021">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -3072,6 +3072,9 @@
   </si>
   <si>
     <t xml:space="preserve">2022-01-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-01-31</t>
   </si>
 </sst>
 </file>
@@ -3422,10 +3425,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>189.887909</v>
+        <v>189.887924</v>
       </c>
       <c r="C2" t="n">
-        <v>191.282867</v>
+        <v>191.282883</v>
       </c>
     </row>
     <row r="3">
@@ -3436,7 +3439,7 @@
         <v>188.870804</v>
       </c>
       <c r="C3" t="n">
-        <v>190.82489</v>
+        <v>190.824905</v>
       </c>
     </row>
     <row r="4">
@@ -3447,7 +3450,7 @@
         <v>190.51384</v>
       </c>
       <c r="C4" t="n">
-        <v>192.351501</v>
+        <v>192.351486</v>
       </c>
     </row>
     <row r="5">
@@ -3455,10 +3458,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="n">
-        <v>190.748566</v>
+        <v>190.74855</v>
       </c>
       <c r="C5" t="n">
-        <v>192.046158</v>
+        <v>192.046188</v>
       </c>
     </row>
     <row r="6">
@@ -3466,10 +3469,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="n">
-        <v>191.843903</v>
+        <v>191.843918</v>
       </c>
       <c r="C6" t="n">
-        <v>191.74086</v>
+        <v>191.740845</v>
       </c>
     </row>
     <row r="7">
@@ -3480,7 +3483,7 @@
         <v>190.357361</v>
       </c>
       <c r="C7" t="n">
-        <v>191.588211</v>
+        <v>191.588181</v>
       </c>
     </row>
     <row r="8">
@@ -3488,7 +3491,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="n">
-        <v>194.34758</v>
+        <v>194.347595</v>
       </c>
       <c r="C8" t="n">
         <v>195.404694</v>
@@ -3499,10 +3502,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="n">
-        <v>196.147095</v>
+        <v>196.14711</v>
       </c>
       <c r="C9" t="n">
-        <v>196.320648</v>
+        <v>196.320663</v>
       </c>
     </row>
     <row r="10">
@@ -3510,10 +3513,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="n">
-        <v>194.817047</v>
+        <v>194.817032</v>
       </c>
       <c r="C10" t="n">
-        <v>195.099396</v>
+        <v>195.09938</v>
       </c>
     </row>
     <row r="11">
@@ -3521,7 +3524,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="n">
-        <v>196.303589</v>
+        <v>196.303574</v>
       </c>
       <c r="C11" t="n">
         <v>193.572784</v>
@@ -3532,7 +3535,7 @@
         <v>13</v>
       </c>
       <c r="B12" t="n">
-        <v>195.521179</v>
+        <v>195.521194</v>
       </c>
       <c r="C12" t="n">
         <v>192.50415</v>
@@ -3543,7 +3546,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="n">
-        <v>195.990631</v>
+        <v>195.990616</v>
       </c>
       <c r="C13" t="n">
         <v>191.435547</v>
@@ -3554,10 +3557,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="n">
-        <v>191.452713</v>
+        <v>191.452728</v>
       </c>
       <c r="C14" t="n">
-        <v>191.588211</v>
+        <v>191.588181</v>
       </c>
     </row>
     <row r="15">
@@ -3576,10 +3579,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="n">
-        <v>193.33049</v>
+        <v>193.330475</v>
       </c>
       <c r="C16" t="n">
-        <v>193.114777</v>
+        <v>193.114792</v>
       </c>
     </row>
     <row r="17">
@@ -3587,7 +3590,7 @@
         <v>18</v>
       </c>
       <c r="B17" t="n">
-        <v>192.078659</v>
+        <v>192.078644</v>
       </c>
       <c r="C17" t="n">
         <v>191.435547</v>
@@ -3598,7 +3601,7 @@
         <v>19</v>
       </c>
       <c r="B18" t="n">
-        <v>192.078659</v>
+        <v>192.078644</v>
       </c>
       <c r="C18" t="n">
         <v>190.214249</v>
@@ -3609,10 +3612,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="n">
-        <v>186.680084</v>
+        <v>186.680099</v>
       </c>
       <c r="C19" t="n">
-        <v>185.63446</v>
+        <v>185.634445</v>
       </c>
     </row>
     <row r="20">
@@ -3631,7 +3634,7 @@
         <v>22</v>
       </c>
       <c r="B21" t="n">
-        <v>191.843903</v>
+        <v>191.843918</v>
       </c>
       <c r="C21" t="n">
         <v>187.771698</v>
@@ -3656,7 +3659,7 @@
         <v>190.51384</v>
       </c>
       <c r="C23" t="n">
-        <v>187.008392</v>
+        <v>187.008408</v>
       </c>
     </row>
     <row r="24">
@@ -3678,7 +3681,7 @@
         <v>191.609192</v>
       </c>
       <c r="C25" t="n">
-        <v>187.619019</v>
+        <v>187.619034</v>
       </c>
     </row>
     <row r="26">
@@ -3689,7 +3692,7 @@
         <v>191.609192</v>
       </c>
       <c r="C26" t="n">
-        <v>186.397766</v>
+        <v>186.397751</v>
       </c>
     </row>
     <row r="27">
@@ -3697,7 +3700,7 @@
         <v>28</v>
       </c>
       <c r="B27" t="n">
-        <v>186.758316</v>
+        <v>186.758331</v>
       </c>
       <c r="C27" t="n">
         <v>183.9552</v>
@@ -3708,7 +3711,7 @@
         <v>29</v>
       </c>
       <c r="B28" t="n">
-        <v>189.261993</v>
+        <v>189.262009</v>
       </c>
       <c r="C28" t="n">
         <v>188.687653</v>
@@ -3719,10 +3722,10 @@
         <v>30</v>
       </c>
       <c r="B29" t="n">
-        <v>188.557861</v>
+        <v>188.557846</v>
       </c>
       <c r="C29" t="n">
-        <v>187.161057</v>
+        <v>187.161072</v>
       </c>
     </row>
     <row r="30">
@@ -3752,10 +3755,10 @@
         <v>33</v>
       </c>
       <c r="B32" t="n">
-        <v>188.949051</v>
+        <v>188.949066</v>
       </c>
       <c r="C32" t="n">
-        <v>188.535004</v>
+        <v>188.534988</v>
       </c>
     </row>
     <row r="33">
@@ -3774,7 +3777,7 @@
         <v>35</v>
       </c>
       <c r="B34" t="n">
-        <v>192.31337</v>
+        <v>192.313354</v>
       </c>
       <c r="C34" t="n">
         <v>193.420105</v>
@@ -3788,7 +3791,7 @@
         <v>194.660568</v>
       </c>
       <c r="C35" t="n">
-        <v>196.625977</v>
+        <v>196.625992</v>
       </c>
     </row>
     <row r="36">
@@ -3799,7 +3802,7 @@
         <v>194.895279</v>
       </c>
       <c r="C36" t="n">
-        <v>196.167999</v>
+        <v>196.167984</v>
       </c>
     </row>
     <row r="37">
@@ -3810,7 +3813,7 @@
         <v>191.687439</v>
       </c>
       <c r="C37" t="n">
-        <v>185.481781</v>
+        <v>185.481796</v>
       </c>
     </row>
     <row r="38">
@@ -3818,7 +3821,7 @@
         <v>39</v>
       </c>
       <c r="B38" t="n">
-        <v>192.861038</v>
+        <v>192.861023</v>
       </c>
       <c r="C38" t="n">
         <v>182.428604</v>
@@ -3829,10 +3832,10 @@
         <v>40</v>
       </c>
       <c r="B39" t="n">
-        <v>193.252243</v>
+        <v>193.252228</v>
       </c>
       <c r="C39" t="n">
-        <v>180.444016</v>
+        <v>180.444031</v>
       </c>
     </row>
     <row r="40">
@@ -3840,7 +3843,7 @@
         <v>41</v>
       </c>
       <c r="B40" t="n">
-        <v>194.504089</v>
+        <v>194.504074</v>
       </c>
       <c r="C40" t="n">
         <v>186.245102</v>
@@ -3862,10 +3865,10 @@
         <v>43</v>
       </c>
       <c r="B42" t="n">
-        <v>189.731461</v>
+        <v>189.731445</v>
       </c>
       <c r="C42" t="n">
-        <v>183.191879</v>
+        <v>183.19191</v>
       </c>
     </row>
     <row r="43">
@@ -3876,7 +3879,7 @@
         <v>192.626312</v>
       </c>
       <c r="C43" t="n">
-        <v>182.733902</v>
+        <v>182.733917</v>
       </c>
     </row>
     <row r="44">
@@ -3884,7 +3887,7 @@
         <v>45</v>
       </c>
       <c r="B44" t="n">
-        <v>190.748566</v>
+        <v>190.74855</v>
       </c>
       <c r="C44" t="n">
         <v>181.665298</v>
@@ -3895,7 +3898,7 @@
         <v>46</v>
       </c>
       <c r="B45" t="n">
-        <v>189.731461</v>
+        <v>189.731445</v>
       </c>
       <c r="C45" t="n">
         <v>177.696136</v>
@@ -3909,7 +3912,7 @@
         <v>190.044403</v>
       </c>
       <c r="C46" t="n">
-        <v>179.833374</v>
+        <v>179.833389</v>
       </c>
     </row>
     <row r="47">
@@ -3920,7 +3923,7 @@
         <v>189.34024</v>
       </c>
       <c r="C47" t="n">
-        <v>180.749359</v>
+        <v>180.749344</v>
       </c>
     </row>
     <row r="48">
@@ -3928,10 +3931,10 @@
         <v>49</v>
       </c>
       <c r="B48" t="n">
-        <v>191.530945</v>
+        <v>191.530975</v>
       </c>
       <c r="C48" t="n">
-        <v>180.749359</v>
+        <v>180.749344</v>
       </c>
     </row>
     <row r="49">
@@ -3964,7 +3967,7 @@
         <v>193.095749</v>
       </c>
       <c r="C51" t="n">
-        <v>180.291367</v>
+        <v>180.291351</v>
       </c>
     </row>
     <row r="52">
@@ -3972,10 +3975,10 @@
         <v>53</v>
       </c>
       <c r="B52" t="n">
-        <v>193.799911</v>
+        <v>193.799927</v>
       </c>
       <c r="C52" t="n">
-        <v>183.344543</v>
+        <v>183.344559</v>
       </c>
     </row>
     <row r="53">
@@ -3997,7 +4000,7 @@
         <v>191.061523</v>
       </c>
       <c r="C54" t="n">
-        <v>183.113098</v>
+        <v>183.113083</v>
       </c>
     </row>
     <row r="55">
@@ -4019,7 +4022,7 @@
         <v>191.795761</v>
       </c>
       <c r="C56" t="n">
-        <v>183.594131</v>
+        <v>183.594116</v>
       </c>
     </row>
     <row r="57">
@@ -4027,10 +4030,10 @@
         <v>58</v>
       </c>
       <c r="B57" t="n">
-        <v>191.714188</v>
+        <v>191.714172</v>
       </c>
       <c r="C57" t="n">
-        <v>185.357925</v>
+        <v>185.35791</v>
       </c>
     </row>
     <row r="58">
@@ -4041,7 +4044,7 @@
         <v>190.572052</v>
       </c>
       <c r="C58" t="n">
-        <v>184.07518</v>
+        <v>184.075165</v>
       </c>
     </row>
     <row r="59">
@@ -4060,7 +4063,7 @@
         <v>61</v>
       </c>
       <c r="B60" t="n">
-        <v>186.003525</v>
+        <v>186.00354</v>
       </c>
       <c r="C60" t="n">
         <v>182.632065</v>
@@ -4074,7 +4077,7 @@
         <v>184.208771</v>
       </c>
       <c r="C61" t="n">
-        <v>181.670013</v>
+        <v>181.669998</v>
       </c>
     </row>
     <row r="62">
@@ -4093,10 +4096,10 @@
         <v>64</v>
       </c>
       <c r="B63" t="n">
-        <v>183.882446</v>
+        <v>183.882431</v>
       </c>
       <c r="C63" t="n">
-        <v>178.142426</v>
+        <v>178.14241</v>
       </c>
     </row>
     <row r="64">
@@ -4107,7 +4110,7 @@
         <v>183.148224</v>
       </c>
       <c r="C64" t="n">
-        <v>178.463135</v>
+        <v>178.463104</v>
       </c>
     </row>
     <row r="65">
@@ -4126,10 +4129,10 @@
         <v>67</v>
       </c>
       <c r="B66" t="n">
-        <v>183.882446</v>
+        <v>183.882431</v>
       </c>
       <c r="C66" t="n">
-        <v>178.944138</v>
+        <v>178.944153</v>
       </c>
     </row>
     <row r="67">
@@ -4140,7 +4143,7 @@
         <v>182.495575</v>
       </c>
       <c r="C67" t="n">
-        <v>178.142426</v>
+        <v>178.14241</v>
       </c>
     </row>
     <row r="68">
@@ -4148,10 +4151,10 @@
         <v>69</v>
       </c>
       <c r="B68" t="n">
-        <v>182.985062</v>
+        <v>182.985046</v>
       </c>
       <c r="C68" t="n">
-        <v>180.868271</v>
+        <v>180.868301</v>
       </c>
     </row>
     <row r="69">
@@ -4173,7 +4176,7 @@
         <v>179.477097</v>
       </c>
       <c r="C70" t="n">
-        <v>180.868271</v>
+        <v>180.868301</v>
       </c>
     </row>
     <row r="71">
@@ -4192,7 +4195,7 @@
         <v>73</v>
       </c>
       <c r="B72" t="n">
-        <v>180.211319</v>
+        <v>180.211304</v>
       </c>
       <c r="C72" t="n">
         <v>182.311371</v>
@@ -4203,10 +4206,10 @@
         <v>74</v>
       </c>
       <c r="B73" t="n">
-        <v>180.374496</v>
+        <v>180.374481</v>
       </c>
       <c r="C73" t="n">
-        <v>181.990692</v>
+        <v>181.990677</v>
       </c>
     </row>
     <row r="74">
@@ -4217,7 +4220,7 @@
         <v>181.9245</v>
       </c>
       <c r="C74" t="n">
-        <v>184.07518</v>
+        <v>184.075165</v>
       </c>
     </row>
     <row r="75">
@@ -4228,7 +4231,7 @@
         <v>183.637711</v>
       </c>
       <c r="C75" t="n">
-        <v>188.083755</v>
+        <v>188.083771</v>
       </c>
     </row>
     <row r="76">
@@ -4261,7 +4264,7 @@
         <v>183.229797</v>
       </c>
       <c r="C78" t="n">
-        <v>192.894089</v>
+        <v>192.894073</v>
       </c>
     </row>
     <row r="79">
@@ -4280,10 +4283,10 @@
         <v>81</v>
       </c>
       <c r="B80" t="n">
-        <v>178.498138</v>
+        <v>178.498123</v>
       </c>
       <c r="C80" t="n">
-        <v>187.602737</v>
+        <v>187.602722</v>
       </c>
     </row>
     <row r="81">
@@ -4294,7 +4297,7 @@
         <v>179.069183</v>
       </c>
       <c r="C81" t="n">
-        <v>186.319977</v>
+        <v>186.319962</v>
       </c>
     </row>
     <row r="82">
@@ -4302,10 +4305,10 @@
         <v>83</v>
       </c>
       <c r="B82" t="n">
-        <v>175.72438</v>
+        <v>175.724396</v>
       </c>
       <c r="C82" t="n">
-        <v>183.433792</v>
+        <v>183.433777</v>
       </c>
     </row>
     <row r="83">
@@ -4313,10 +4316,10 @@
         <v>84</v>
       </c>
       <c r="B83" t="n">
-        <v>177.763901</v>
+        <v>177.763885</v>
       </c>
       <c r="C83" t="n">
-        <v>181.670013</v>
+        <v>181.669998</v>
       </c>
     </row>
     <row r="84">
@@ -4327,7 +4330,7 @@
         <v>177.84549</v>
       </c>
       <c r="C84" t="n">
-        <v>184.716522</v>
+        <v>184.716507</v>
       </c>
     </row>
     <row r="85">
@@ -4335,10 +4338,10 @@
         <v>86</v>
       </c>
       <c r="B85" t="n">
-        <v>176.050735</v>
+        <v>176.05072</v>
       </c>
       <c r="C85" t="n">
-        <v>181.990692</v>
+        <v>181.990677</v>
       </c>
     </row>
     <row r="86">
@@ -4346,10 +4349,10 @@
         <v>87</v>
       </c>
       <c r="B86" t="n">
-        <v>176.132294</v>
+        <v>176.132278</v>
       </c>
       <c r="C86" t="n">
-        <v>183.433792</v>
+        <v>183.433777</v>
       </c>
     </row>
     <row r="87">
@@ -4360,7 +4363,7 @@
         <v>175.316483</v>
       </c>
       <c r="C87" t="n">
-        <v>184.235519</v>
+        <v>184.235504</v>
       </c>
     </row>
     <row r="88">
@@ -4368,7 +4371,7 @@
         <v>89</v>
       </c>
       <c r="B88" t="n">
-        <v>176.784943</v>
+        <v>176.784927</v>
       </c>
       <c r="C88" t="n">
         <v>187.121704</v>
@@ -4382,7 +4385,7 @@
         <v>175.561234</v>
       </c>
       <c r="C89" t="n">
-        <v>186.961365</v>
+        <v>186.961349</v>
       </c>
     </row>
     <row r="90">
@@ -4390,7 +4393,7 @@
         <v>91</v>
       </c>
       <c r="B90" t="n">
-        <v>174.990173</v>
+        <v>174.990158</v>
       </c>
       <c r="C90" t="n">
         <v>186.640656</v>
@@ -4404,7 +4407,7 @@
         <v>175.561234</v>
       </c>
       <c r="C91" t="n">
-        <v>185.999298</v>
+        <v>185.999283</v>
       </c>
     </row>
     <row r="92">
@@ -4415,7 +4418,7 @@
         <v>174.255951</v>
       </c>
       <c r="C92" t="n">
-        <v>183.594131</v>
+        <v>183.594116</v>
       </c>
     </row>
     <row r="93">
@@ -4426,7 +4429,7 @@
         <v>176.540192</v>
       </c>
       <c r="C93" t="n">
-        <v>185.197586</v>
+        <v>185.197571</v>
       </c>
     </row>
     <row r="94">
@@ -4437,7 +4440,7 @@
         <v>176.458618</v>
       </c>
       <c r="C94" t="n">
-        <v>184.07518</v>
+        <v>184.075165</v>
       </c>
     </row>
     <row r="95">
@@ -4445,10 +4448,10 @@
         <v>96</v>
       </c>
       <c r="B95" t="n">
-        <v>176.132294</v>
+        <v>176.132278</v>
       </c>
       <c r="C95" t="n">
-        <v>185.357925</v>
+        <v>185.35791</v>
       </c>
     </row>
     <row r="96">
@@ -4456,10 +4459,10 @@
         <v>97</v>
       </c>
       <c r="B96" t="n">
-        <v>176.94809</v>
+        <v>176.948105</v>
       </c>
       <c r="C96" t="n">
-        <v>185.037247</v>
+        <v>185.037216</v>
       </c>
     </row>
     <row r="97">
@@ -4478,10 +4481,10 @@
         <v>99</v>
       </c>
       <c r="B98" t="n">
-        <v>173.276962</v>
+        <v>173.276978</v>
       </c>
       <c r="C98" t="n">
-        <v>181.670013</v>
+        <v>181.669998</v>
       </c>
     </row>
     <row r="99">
@@ -4492,7 +4495,7 @@
         <v>173.113815</v>
       </c>
       <c r="C99" t="n">
-        <v>181.02861</v>
+        <v>181.028625</v>
       </c>
     </row>
     <row r="100">
@@ -4503,7 +4506,7 @@
         <v>168.953217</v>
       </c>
       <c r="C100" t="n">
-        <v>174.935547</v>
+        <v>174.935532</v>
       </c>
     </row>
     <row r="101">
@@ -4511,7 +4514,7 @@
         <v>102</v>
       </c>
       <c r="B101" t="n">
-        <v>168.871628</v>
+        <v>168.871643</v>
       </c>
       <c r="C101" t="n">
         <v>175.737259</v>
@@ -4533,10 +4536,10 @@
         <v>104</v>
       </c>
       <c r="B103" t="n">
-        <v>176.295456</v>
+        <v>176.295471</v>
       </c>
       <c r="C103" t="n">
-        <v>178.30278</v>
+        <v>178.30275</v>
       </c>
     </row>
     <row r="104">
@@ -4547,7 +4550,7 @@
         <v>178.253387</v>
       </c>
       <c r="C104" t="n">
-        <v>178.944138</v>
+        <v>178.944153</v>
       </c>
     </row>
     <row r="105">
@@ -4555,10 +4558,10 @@
         <v>106</v>
       </c>
       <c r="B105" t="n">
-        <v>175.72438</v>
+        <v>175.724396</v>
       </c>
       <c r="C105" t="n">
-        <v>177.982071</v>
+        <v>177.982086</v>
       </c>
     </row>
     <row r="106">
@@ -4599,10 +4602,10 @@
         <v>110</v>
       </c>
       <c r="B109" t="n">
-        <v>178.498138</v>
+        <v>178.498123</v>
       </c>
       <c r="C109" t="n">
-        <v>177.180359</v>
+        <v>177.180344</v>
       </c>
     </row>
     <row r="110">
@@ -4613,7 +4616,7 @@
         <v>178.253387</v>
       </c>
       <c r="C110" t="n">
-        <v>177.340714</v>
+        <v>177.340698</v>
       </c>
     </row>
     <row r="111">
@@ -4621,7 +4624,7 @@
         <v>112</v>
       </c>
       <c r="B111" t="n">
-        <v>178.742889</v>
+        <v>178.742874</v>
       </c>
       <c r="C111" t="n">
         <v>178.623459</v>
@@ -4632,7 +4635,7 @@
         <v>113</v>
       </c>
       <c r="B112" t="n">
-        <v>177.682343</v>
+        <v>177.682327</v>
       </c>
       <c r="C112" t="n">
         <v>177.821732</v>
@@ -4643,7 +4646,7 @@
         <v>114</v>
       </c>
       <c r="B113" t="n">
-        <v>173.929626</v>
+        <v>173.929611</v>
       </c>
       <c r="C113" t="n">
         <v>175.897598</v>
@@ -4657,7 +4660,7 @@
         <v>171.971695</v>
       </c>
       <c r="C114" t="n">
-        <v>175.095886</v>
+        <v>175.095871</v>
       </c>
     </row>
     <row r="115">
@@ -4665,7 +4668,7 @@
         <v>116</v>
       </c>
       <c r="B115" t="n">
-        <v>170.258499</v>
+        <v>170.258484</v>
       </c>
       <c r="C115" t="n">
         <v>175.416565</v>
@@ -4687,7 +4690,7 @@
         <v>118</v>
       </c>
       <c r="B117" t="n">
-        <v>168.626892</v>
+        <v>168.626877</v>
       </c>
       <c r="C117" t="n">
         <v>174.294144</v>
@@ -4698,7 +4701,7 @@
         <v>119</v>
       </c>
       <c r="B118" t="n">
-        <v>166.0979</v>
+        <v>166.097916</v>
       </c>
       <c r="C118" t="n">
         <v>174.294144</v>
@@ -4712,7 +4715,7 @@
         <v>161.243851</v>
       </c>
       <c r="C119" t="n">
-        <v>173.813141</v>
+        <v>173.813126</v>
       </c>
     </row>
     <row r="120">
@@ -4720,10 +4723,10 @@
         <v>121</v>
       </c>
       <c r="B120" t="n">
-        <v>162.01889</v>
+        <v>162.018875</v>
       </c>
       <c r="C120" t="n">
-        <v>173.652802</v>
+        <v>173.652771</v>
       </c>
     </row>
     <row r="121">
@@ -4731,10 +4734,10 @@
         <v>122</v>
       </c>
       <c r="B121" t="n">
-        <v>162.01889</v>
+        <v>162.018875</v>
       </c>
       <c r="C121" t="n">
-        <v>174.454498</v>
+        <v>174.454514</v>
       </c>
     </row>
     <row r="122">
@@ -4800,7 +4803,7 @@
         <v>155.533218</v>
       </c>
       <c r="C127" t="n">
-        <v>177.661392</v>
+        <v>177.661407</v>
       </c>
     </row>
     <row r="128">
@@ -4811,7 +4814,7 @@
         <v>157.001663</v>
       </c>
       <c r="C128" t="n">
-        <v>180.226913</v>
+        <v>180.226898</v>
       </c>
     </row>
     <row r="129">
@@ -4819,7 +4822,7 @@
         <v>130</v>
       </c>
       <c r="B129" t="n">
-        <v>158.102997</v>
+        <v>158.103012</v>
       </c>
       <c r="C129" t="n">
         <v>182.151031</v>
@@ -4863,10 +4866,10 @@
         <v>134</v>
       </c>
       <c r="B133" t="n">
-        <v>158.062225</v>
+        <v>158.06221</v>
       </c>
       <c r="C133" t="n">
-        <v>181.990692</v>
+        <v>181.990677</v>
       </c>
     </row>
     <row r="134">
@@ -4888,7 +4891,7 @@
         <v>144.642227</v>
       </c>
       <c r="C135" t="n">
-        <v>177.661392</v>
+        <v>177.661407</v>
       </c>
     </row>
     <row r="136">
@@ -4896,7 +4899,7 @@
         <v>137</v>
       </c>
       <c r="B136" t="n">
-        <v>148.394913</v>
+        <v>148.394928</v>
       </c>
       <c r="C136" t="n">
         <v>179.74585</v>
@@ -4907,10 +4910,10 @@
         <v>138</v>
       </c>
       <c r="B137" t="n">
-        <v>147.456757</v>
+        <v>147.456741</v>
       </c>
       <c r="C137" t="n">
-        <v>180.387253</v>
+        <v>180.387222</v>
       </c>
     </row>
     <row r="138">
@@ -4918,10 +4921,10 @@
         <v>139</v>
       </c>
       <c r="B138" t="n">
-        <v>149.985748</v>
+        <v>149.985764</v>
       </c>
       <c r="C138" t="n">
-        <v>181.670013</v>
+        <v>181.669998</v>
       </c>
     </row>
     <row r="139">
@@ -4932,7 +4935,7 @@
         <v>151.94368</v>
       </c>
       <c r="C139" t="n">
-        <v>185.037247</v>
+        <v>185.037216</v>
       </c>
     </row>
     <row r="140">
@@ -4940,10 +4943,10 @@
         <v>141</v>
       </c>
       <c r="B140" t="n">
-        <v>150.923935</v>
+        <v>150.92392</v>
       </c>
       <c r="C140" t="n">
-        <v>185.51825</v>
+        <v>185.518265</v>
       </c>
     </row>
     <row r="141">
@@ -4951,10 +4954,10 @@
         <v>142</v>
       </c>
       <c r="B141" t="n">
-        <v>152.800262</v>
+        <v>152.800278</v>
       </c>
       <c r="C141" t="n">
-        <v>186.319977</v>
+        <v>186.319962</v>
       </c>
     </row>
     <row r="142">
@@ -4965,7 +4968,7 @@
         <v>153.208176</v>
       </c>
       <c r="C142" t="n">
-        <v>188.564804</v>
+        <v>188.564789</v>
       </c>
     </row>
     <row r="143">
@@ -4984,7 +4987,7 @@
         <v>145</v>
       </c>
       <c r="B144" t="n">
-        <v>151.127884</v>
+        <v>151.127869</v>
       </c>
       <c r="C144" t="n">
         <v>189.526855</v>
@@ -4995,10 +4998,10 @@
         <v>146</v>
       </c>
       <c r="B145" t="n">
-        <v>149.129166</v>
+        <v>149.12915</v>
       </c>
       <c r="C145" t="n">
-        <v>188.083755</v>
+        <v>188.083771</v>
       </c>
     </row>
     <row r="146">
@@ -5006,7 +5009,7 @@
         <v>147</v>
       </c>
       <c r="B146" t="n">
-        <v>146.029099</v>
+        <v>146.029083</v>
       </c>
       <c r="C146" t="n">
         <v>184.395844</v>
@@ -5017,10 +5020,10 @@
         <v>148</v>
       </c>
       <c r="B147" t="n">
-        <v>149.129166</v>
+        <v>149.12915</v>
       </c>
       <c r="C147" t="n">
-        <v>185.037247</v>
+        <v>185.037216</v>
       </c>
     </row>
     <row r="148">
@@ -5028,10 +5031,10 @@
         <v>149</v>
       </c>
       <c r="B148" t="n">
-        <v>147.53833</v>
+        <v>147.538345</v>
       </c>
       <c r="C148" t="n">
-        <v>177.180359</v>
+        <v>177.180344</v>
       </c>
     </row>
     <row r="149">
@@ -5039,10 +5042,10 @@
         <v>150</v>
       </c>
       <c r="B149" t="n">
-        <v>147.905441</v>
+        <v>147.905457</v>
       </c>
       <c r="C149" t="n">
-        <v>180.387253</v>
+        <v>180.387222</v>
       </c>
     </row>
     <row r="150">
@@ -5053,7 +5056,7 @@
         <v>147.415955</v>
       </c>
       <c r="C150" t="n">
-        <v>178.142426</v>
+        <v>178.14241</v>
       </c>
     </row>
     <row r="151">
@@ -5072,7 +5075,7 @@
         <v>153</v>
       </c>
       <c r="B152" t="n">
-        <v>149.700226</v>
+        <v>149.700211</v>
       </c>
       <c r="C152" t="n">
         <v>177.501038</v>
@@ -5083,10 +5086,10 @@
         <v>154</v>
       </c>
       <c r="B153" t="n">
-        <v>150.026535</v>
+        <v>150.02652</v>
       </c>
       <c r="C153" t="n">
-        <v>178.30278</v>
+        <v>178.30275</v>
       </c>
     </row>
     <row r="154">
@@ -5097,7 +5100,7 @@
         <v>147.008057</v>
       </c>
       <c r="C154" t="n">
-        <v>176.538986</v>
+        <v>176.538971</v>
       </c>
     </row>
     <row r="155">
@@ -5116,7 +5119,7 @@
         <v>157</v>
       </c>
       <c r="B156" t="n">
-        <v>148.313354</v>
+        <v>148.313339</v>
       </c>
       <c r="C156" t="n">
         <v>176.218292</v>
@@ -5127,10 +5130,10 @@
         <v>158</v>
       </c>
       <c r="B157" t="n">
-        <v>149.210739</v>
+        <v>149.210724</v>
       </c>
       <c r="C157" t="n">
-        <v>175.095886</v>
+        <v>175.095871</v>
       </c>
     </row>
     <row r="158">
@@ -5138,7 +5141,7 @@
         <v>159</v>
       </c>
       <c r="B158" t="n">
-        <v>150.230484</v>
+        <v>150.230469</v>
       </c>
       <c r="C158" t="n">
         <v>175.737259</v>
@@ -5152,7 +5155,7 @@
         <v>150.719971</v>
       </c>
       <c r="C159" t="n">
-        <v>177.661392</v>
+        <v>177.661407</v>
       </c>
     </row>
     <row r="160">
@@ -5182,7 +5185,7 @@
         <v>163</v>
       </c>
       <c r="B162" t="n">
-        <v>154.717422</v>
+        <v>154.717407</v>
       </c>
       <c r="C162" t="n">
         <v>175.256226</v>
@@ -5193,7 +5196,7 @@
         <v>164</v>
       </c>
       <c r="B163" t="n">
-        <v>157.817459</v>
+        <v>157.817474</v>
       </c>
       <c r="C163" t="n">
         <v>175.256226</v>
@@ -5207,7 +5210,7 @@
         <v>156.716141</v>
       </c>
       <c r="C164" t="n">
-        <v>155.614059</v>
+        <v>155.614075</v>
       </c>
     </row>
     <row r="165">
@@ -5218,7 +5221,7 @@
         <v>157.001663</v>
       </c>
       <c r="C165" t="n">
-        <v>153.770111</v>
+        <v>153.770096</v>
       </c>
     </row>
     <row r="166">
@@ -5229,7 +5232,7 @@
         <v>156.634567</v>
       </c>
       <c r="C166" t="n">
-        <v>151.926147</v>
+        <v>151.926132</v>
       </c>
     </row>
     <row r="167">
@@ -5237,7 +5240,7 @@
         <v>168</v>
       </c>
       <c r="B167" t="n">
-        <v>154.146332</v>
+        <v>154.146347</v>
       </c>
       <c r="C167" t="n">
         <v>150.723557</v>
@@ -5251,7 +5254,7 @@
         <v>154.309509</v>
       </c>
       <c r="C168" t="n">
-        <v>149.120117</v>
+        <v>149.120102</v>
       </c>
     </row>
     <row r="169">
@@ -5259,10 +5262,10 @@
         <v>170</v>
       </c>
       <c r="B169" t="n">
-        <v>144.764587</v>
+        <v>144.764603</v>
       </c>
       <c r="C169" t="n">
-        <v>148.398575</v>
+        <v>148.39856</v>
       </c>
     </row>
     <row r="170">
@@ -5270,7 +5273,7 @@
         <v>171</v>
       </c>
       <c r="B170" t="n">
-        <v>148.272568</v>
+        <v>148.272552</v>
       </c>
       <c r="C170" t="n">
         <v>147.917542</v>
@@ -5292,10 +5295,10 @@
         <v>173</v>
       </c>
       <c r="B172" t="n">
-        <v>144.397476</v>
+        <v>144.397491</v>
       </c>
       <c r="C172" t="n">
-        <v>148.799423</v>
+        <v>148.799438</v>
       </c>
     </row>
     <row r="173">
@@ -5306,7 +5309,7 @@
         <v>140.155304</v>
       </c>
       <c r="C173" t="n">
-        <v>148.799423</v>
+        <v>148.799438</v>
       </c>
     </row>
     <row r="174">
@@ -5314,7 +5317,7 @@
         <v>175</v>
       </c>
       <c r="B174" t="n">
-        <v>139.217133</v>
+        <v>139.217117</v>
       </c>
       <c r="C174" t="n">
         <v>147.837357</v>
@@ -5325,10 +5328,10 @@
         <v>176</v>
       </c>
       <c r="B175" t="n">
-        <v>137.096039</v>
+        <v>137.096024</v>
       </c>
       <c r="C175" t="n">
-        <v>148.398575</v>
+        <v>148.39856</v>
       </c>
     </row>
     <row r="176">
@@ -5336,7 +5339,7 @@
         <v>177</v>
       </c>
       <c r="B176" t="n">
-        <v>140.114487</v>
+        <v>140.114502</v>
       </c>
       <c r="C176" t="n">
         <v>148.879593</v>
@@ -5361,7 +5364,7 @@
         <v>137.748672</v>
       </c>
       <c r="C178" t="n">
-        <v>149.200287</v>
+        <v>149.200302</v>
       </c>
     </row>
     <row r="179">
@@ -5372,7 +5375,7 @@
         <v>142.643509</v>
       </c>
       <c r="C179" t="n">
-        <v>148.398575</v>
+        <v>148.39856</v>
       </c>
     </row>
     <row r="180">
@@ -5383,7 +5386,7 @@
         <v>137.871048</v>
       </c>
       <c r="C180" t="n">
-        <v>149.921829</v>
+        <v>149.92186</v>
       </c>
     </row>
     <row r="181">
@@ -5391,10 +5394,10 @@
         <v>182</v>
       </c>
       <c r="B181" t="n">
-        <v>144.397476</v>
+        <v>144.397491</v>
       </c>
       <c r="C181" t="n">
-        <v>151.28476</v>
+        <v>151.284775</v>
       </c>
     </row>
     <row r="182">
@@ -5438,7 +5441,7 @@
         <v>140.563202</v>
       </c>
       <c r="C185" t="n">
-        <v>155.934738</v>
+        <v>155.934753</v>
       </c>
     </row>
     <row r="186">
@@ -5446,7 +5449,7 @@
         <v>187</v>
       </c>
       <c r="B186" t="n">
-        <v>138.768433</v>
+        <v>138.768448</v>
       </c>
       <c r="C186" t="n">
         <v>151.364929</v>
@@ -5460,7 +5463,7 @@
         <v>137.626297</v>
       </c>
       <c r="C187" t="n">
-        <v>151.525269</v>
+        <v>151.525284</v>
       </c>
     </row>
     <row r="188">
@@ -5468,7 +5471,7 @@
         <v>189</v>
       </c>
       <c r="B188" t="n">
-        <v>138.238159</v>
+        <v>138.238144</v>
       </c>
       <c r="C188" t="n">
         <v>152.647675</v>
@@ -5493,7 +5496,7 @@
         <v>135.627579</v>
       </c>
       <c r="C190" t="n">
-        <v>149.440796</v>
+        <v>149.440781</v>
       </c>
     </row>
     <row r="191">
@@ -5512,10 +5515,10 @@
         <v>193</v>
       </c>
       <c r="B192" t="n">
-        <v>121.310204</v>
+        <v>121.310196</v>
       </c>
       <c r="C192" t="n">
-        <v>150.483047</v>
+        <v>150.483032</v>
       </c>
     </row>
     <row r="193">
@@ -5545,7 +5548,7 @@
         <v>196</v>
       </c>
       <c r="B195" t="n">
-        <v>117.883827</v>
+        <v>117.88382</v>
       </c>
       <c r="C195" t="n">
         <v>143.027023</v>
@@ -5567,7 +5570,7 @@
         <v>198</v>
       </c>
       <c r="B197" t="n">
-        <v>115.273254</v>
+        <v>115.273247</v>
       </c>
       <c r="C197" t="n">
         <v>141.904633</v>
@@ -5581,7 +5584,7 @@
         <v>113.886383</v>
       </c>
       <c r="C198" t="n">
-        <v>142.546021</v>
+        <v>142.546005</v>
       </c>
     </row>
     <row r="199">
@@ -5625,7 +5628,7 @@
         <v>107.033607</v>
       </c>
       <c r="C202" t="n">
-        <v>142.70636</v>
+        <v>142.706345</v>
       </c>
     </row>
     <row r="203">
@@ -5636,7 +5639,7 @@
         <v>106.421753</v>
       </c>
       <c r="C203" t="n">
-        <v>139.82016</v>
+        <v>139.820145</v>
       </c>
     </row>
     <row r="204">
@@ -5655,7 +5658,7 @@
         <v>206</v>
       </c>
       <c r="B205" t="n">
-        <v>102.50589</v>
+        <v>102.505898</v>
       </c>
       <c r="C205" t="n">
         <v>141.503769</v>
@@ -5669,7 +5672,7 @@
         <v>103.076958</v>
       </c>
       <c r="C206" t="n">
-        <v>142.064972</v>
+        <v>142.064987</v>
       </c>
     </row>
     <row r="207">
@@ -5680,7 +5683,7 @@
         <v>102.791428</v>
       </c>
       <c r="C207" t="n">
-        <v>140.862381</v>
+        <v>140.862396</v>
       </c>
     </row>
     <row r="208">
@@ -5702,7 +5705,7 @@
         <v>103.280914</v>
       </c>
       <c r="C209" t="n">
-        <v>139.900314</v>
+        <v>139.90033</v>
       </c>
     </row>
     <row r="210">
@@ -5713,7 +5716,7 @@
         <v>103.076958</v>
       </c>
       <c r="C210" t="n">
-        <v>122.102135</v>
+        <v>122.102127</v>
       </c>
     </row>
     <row r="211">
@@ -5721,7 +5724,7 @@
         <v>212</v>
       </c>
       <c r="B211" t="n">
-        <v>108.134949</v>
+        <v>108.134956</v>
       </c>
       <c r="C211" t="n">
         <v>123.625389</v>
@@ -5732,10 +5735,10 @@
         <v>213</v>
       </c>
       <c r="B212" t="n">
-        <v>111.765289</v>
+        <v>111.765282</v>
       </c>
       <c r="C212" t="n">
-        <v>127.874512</v>
+        <v>127.874504</v>
       </c>
     </row>
     <row r="213">
@@ -5743,10 +5746,10 @@
         <v>214</v>
       </c>
       <c r="B213" t="n">
-        <v>110.337616</v>
+        <v>110.337624</v>
       </c>
       <c r="C213" t="n">
-        <v>130.199509</v>
+        <v>130.199493</v>
       </c>
     </row>
     <row r="214">
@@ -5754,10 +5757,10 @@
         <v>215</v>
       </c>
       <c r="B214" t="n">
-        <v>110.174469</v>
+        <v>110.174461</v>
       </c>
       <c r="C214" t="n">
-        <v>130.680527</v>
+        <v>130.680542</v>
       </c>
     </row>
     <row r="215">
@@ -5765,10 +5768,10 @@
         <v>216</v>
       </c>
       <c r="B215" t="n">
-        <v>117.516701</v>
+        <v>117.516708</v>
       </c>
       <c r="C215" t="n">
-        <v>132.524506</v>
+        <v>132.52449</v>
       </c>
     </row>
     <row r="216">
@@ -5779,7 +5782,7 @@
         <v>117.027222</v>
       </c>
       <c r="C216" t="n">
-        <v>133.326202</v>
+        <v>133.326218</v>
       </c>
     </row>
     <row r="217">
@@ -5787,7 +5790,7 @@
         <v>218</v>
       </c>
       <c r="B217" t="n">
-        <v>117.598274</v>
+        <v>117.598282</v>
       </c>
       <c r="C217" t="n">
         <v>131.32193</v>
@@ -5798,10 +5801,10 @@
         <v>219</v>
       </c>
       <c r="B218" t="n">
-        <v>116.619316</v>
+        <v>116.619324</v>
       </c>
       <c r="C218" t="n">
-        <v>130.440002</v>
+        <v>130.440018</v>
       </c>
     </row>
     <row r="219">
@@ -5820,10 +5823,10 @@
         <v>221</v>
       </c>
       <c r="B220" t="n">
-        <v>117.598274</v>
+        <v>117.598282</v>
       </c>
       <c r="C220" t="n">
-        <v>129.237427</v>
+        <v>129.237442</v>
       </c>
     </row>
     <row r="221">
@@ -5834,7 +5837,7 @@
         <v>113.519257</v>
       </c>
       <c r="C221" t="n">
-        <v>127.874512</v>
+        <v>127.874504</v>
       </c>
     </row>
     <row r="222">
@@ -5845,7 +5848,7 @@
         <v>111.602127</v>
       </c>
       <c r="C222" t="n">
-        <v>127.553818</v>
+        <v>127.553825</v>
       </c>
     </row>
     <row r="223">
@@ -5853,7 +5856,7 @@
         <v>224</v>
       </c>
       <c r="B223" t="n">
-        <v>110.500786</v>
+        <v>110.500778</v>
       </c>
       <c r="C223" t="n">
         <v>128.756409</v>
@@ -5867,7 +5870,7 @@
         <v>106.544136</v>
       </c>
       <c r="C224" t="n">
-        <v>125.950378</v>
+        <v>125.950386</v>
       </c>
     </row>
     <row r="225">
@@ -5878,7 +5881,7 @@
         <v>107.441513</v>
       </c>
       <c r="C225" t="n">
-        <v>127.874512</v>
+        <v>127.874504</v>
       </c>
     </row>
     <row r="226">
@@ -5886,10 +5889,10 @@
         <v>227</v>
       </c>
       <c r="B226" t="n">
-        <v>108.461266</v>
+        <v>108.461273</v>
       </c>
       <c r="C226" t="n">
-        <v>127.874512</v>
+        <v>127.874504</v>
       </c>
     </row>
     <row r="227">
@@ -5897,10 +5900,10 @@
         <v>228</v>
       </c>
       <c r="B227" t="n">
-        <v>108.869171</v>
+        <v>108.869164</v>
       </c>
       <c r="C227" t="n">
-        <v>128.275375</v>
+        <v>128.27536</v>
       </c>
     </row>
     <row r="228">
@@ -5933,7 +5936,7 @@
         <v>110.949478</v>
       </c>
       <c r="C230" t="n">
-        <v>129.63829</v>
+        <v>129.638306</v>
       </c>
     </row>
     <row r="231">
@@ -5952,7 +5955,7 @@
         <v>233</v>
       </c>
       <c r="B232" t="n">
-        <v>107.196777</v>
+        <v>107.19677</v>
       </c>
       <c r="C232" t="n">
         <v>130.359848</v>
@@ -5963,10 +5966,10 @@
         <v>234</v>
       </c>
       <c r="B233" t="n">
-        <v>108.706009</v>
+        <v>108.706017</v>
       </c>
       <c r="C233" t="n">
-        <v>126.671936</v>
+        <v>126.671928</v>
       </c>
     </row>
     <row r="234">
@@ -5974,10 +5977,10 @@
         <v>235</v>
       </c>
       <c r="B234" t="n">
-        <v>108.583649</v>
+        <v>108.583641</v>
       </c>
       <c r="C234" t="n">
-        <v>127.152954</v>
+        <v>127.152977</v>
       </c>
     </row>
     <row r="235">
@@ -5985,7 +5988,7 @@
         <v>236</v>
       </c>
       <c r="B235" t="n">
-        <v>114.620598</v>
+        <v>114.620605</v>
       </c>
       <c r="C235" t="n">
         <v>129.79863</v>
@@ -5996,10 +5999,10 @@
         <v>237</v>
       </c>
       <c r="B236" t="n">
-        <v>111.316589</v>
+        <v>111.316582</v>
       </c>
       <c r="C236" t="n">
-        <v>126.992599</v>
+        <v>126.992607</v>
       </c>
     </row>
     <row r="237">
@@ -6007,7 +6010,7 @@
         <v>238</v>
       </c>
       <c r="B237" t="n">
-        <v>116.007469</v>
+        <v>116.007462</v>
       </c>
       <c r="C237" t="n">
         <v>129.558136</v>
@@ -6021,7 +6024,7 @@
         <v>112.050827</v>
       </c>
       <c r="C238" t="n">
-        <v>127.152954</v>
+        <v>127.152977</v>
       </c>
     </row>
     <row r="239">
@@ -6029,7 +6032,7 @@
         <v>240</v>
       </c>
       <c r="B239" t="n">
-        <v>114.2127</v>
+        <v>114.212692</v>
       </c>
       <c r="C239" t="n">
         <v>129.558136</v>
@@ -6043,7 +6046,7 @@
         <v>113.519257</v>
       </c>
       <c r="C240" t="n">
-        <v>129.077087</v>
+        <v>129.077103</v>
       </c>
     </row>
     <row r="241">
@@ -6051,7 +6054,7 @@
         <v>242</v>
       </c>
       <c r="B241" t="n">
-        <v>113.396896</v>
+        <v>113.396889</v>
       </c>
       <c r="C241" t="n">
         <v>128.676239</v>
@@ -6065,7 +6068,7 @@
         <v>112.62188</v>
       </c>
       <c r="C242" t="n">
-        <v>128.034851</v>
+        <v>128.034866</v>
       </c>
     </row>
     <row r="243">
@@ -6076,7 +6079,7 @@
         <v>110.459991</v>
       </c>
       <c r="C243" t="n">
-        <v>127.633995</v>
+        <v>127.633987</v>
       </c>
     </row>
     <row r="244">
@@ -6087,7 +6090,7 @@
         <v>112.213982</v>
       </c>
       <c r="C244" t="n">
-        <v>122.663322</v>
+        <v>122.663315</v>
       </c>
     </row>
     <row r="245">
@@ -6098,7 +6101,7 @@
         <v>109.725769</v>
       </c>
       <c r="C245" t="n">
-        <v>121.781425</v>
+        <v>121.781418</v>
       </c>
     </row>
     <row r="246">
@@ -6106,7 +6109,7 @@
         <v>247</v>
       </c>
       <c r="B246" t="n">
-        <v>105.442795</v>
+        <v>105.442787</v>
       </c>
       <c r="C246" t="n">
         <v>117.772827</v>
@@ -6117,10 +6120,10 @@
         <v>248</v>
       </c>
       <c r="B247" t="n">
-        <v>104.626991</v>
+        <v>104.626984</v>
       </c>
       <c r="C247" t="n">
-        <v>120.258156</v>
+        <v>120.258163</v>
       </c>
     </row>
     <row r="248">
@@ -6128,10 +6131,10 @@
         <v>249</v>
       </c>
       <c r="B248" t="n">
-        <v>102.954582</v>
+        <v>102.95459</v>
       </c>
       <c r="C248" t="n">
-        <v>120.819366</v>
+        <v>120.819351</v>
       </c>
     </row>
     <row r="249">
@@ -6142,7 +6145,7 @@
         <v>105.157257</v>
       </c>
       <c r="C249" t="n">
-        <v>124.346931</v>
+        <v>124.346947</v>
       </c>
     </row>
     <row r="250">
@@ -6153,7 +6156,7 @@
         <v>104.994102</v>
       </c>
       <c r="C250" t="n">
-        <v>126.271057</v>
+        <v>126.271065</v>
       </c>
     </row>
     <row r="251">
@@ -6161,7 +6164,7 @@
         <v>252</v>
       </c>
       <c r="B251" t="n">
-        <v>104.749359</v>
+        <v>104.749352</v>
       </c>
       <c r="C251" t="n">
         <v>123.865906</v>
@@ -6175,7 +6178,7 @@
         <v>109.195503</v>
       </c>
       <c r="C252" t="n">
-        <v>127.313316</v>
+        <v>127.313301</v>
       </c>
     </row>
     <row r="253">
@@ -6183,10 +6186,10 @@
         <v>254</v>
       </c>
       <c r="B253" t="n">
-        <v>108.909966</v>
+        <v>108.909973</v>
       </c>
       <c r="C253" t="n">
-        <v>126.591759</v>
+        <v>126.591751</v>
       </c>
     </row>
     <row r="254">
@@ -6197,7 +6200,7 @@
         <v>108.3797</v>
       </c>
       <c r="C254" t="n">
-        <v>126.832275</v>
+        <v>126.832268</v>
       </c>
     </row>
     <row r="255">
@@ -6219,7 +6222,7 @@
         <v>104.219086</v>
       </c>
       <c r="C256" t="n">
-        <v>126.591759</v>
+        <v>126.591751</v>
       </c>
     </row>
     <row r="257">
@@ -6230,7 +6233,7 @@
         <v>105.687538</v>
       </c>
       <c r="C257" t="n">
-        <v>125.469353</v>
+        <v>125.469345</v>
       </c>
     </row>
     <row r="258">
@@ -6238,10 +6241,10 @@
         <v>259</v>
       </c>
       <c r="B258" t="n">
-        <v>106.054642</v>
+        <v>106.054649</v>
       </c>
       <c r="C258" t="n">
-        <v>124.266762</v>
+        <v>124.266769</v>
       </c>
     </row>
     <row r="259">
@@ -6249,10 +6252,10 @@
         <v>260</v>
       </c>
       <c r="B259" t="n">
-        <v>104.423035</v>
+        <v>104.423042</v>
       </c>
       <c r="C259" t="n">
-        <v>122.583153</v>
+        <v>122.583145</v>
       </c>
     </row>
     <row r="260">
@@ -6263,7 +6266,7 @@
         <v>105.034897</v>
       </c>
       <c r="C260" t="n">
-        <v>126.271057</v>
+        <v>126.271065</v>
       </c>
     </row>
     <row r="261">
@@ -6274,7 +6277,7 @@
         <v>103.933556</v>
       </c>
       <c r="C261" t="n">
-        <v>126.03054</v>
+        <v>126.030548</v>
       </c>
     </row>
     <row r="262">
@@ -6282,10 +6285,10 @@
         <v>263</v>
       </c>
       <c r="B262" t="n">
-        <v>103.199333</v>
+        <v>103.199326</v>
       </c>
       <c r="C262" t="n">
-        <v>125.870201</v>
+        <v>125.870209</v>
       </c>
     </row>
     <row r="263">
@@ -6293,7 +6296,7 @@
         <v>264</v>
       </c>
       <c r="B263" t="n">
-        <v>105.238838</v>
+        <v>105.238846</v>
       </c>
       <c r="C263" t="n">
         <v>124.507286</v>
@@ -6307,7 +6310,7 @@
         <v>102.791428</v>
       </c>
       <c r="C264" t="n">
-        <v>125.709877</v>
+        <v>125.709862</v>
       </c>
     </row>
     <row r="265">
@@ -6318,7 +6321,7 @@
         <v>101.975624</v>
       </c>
       <c r="C265" t="n">
-        <v>126.19088</v>
+        <v>126.190887</v>
       </c>
     </row>
     <row r="266">
@@ -6329,7 +6332,7 @@
         <v>99.976906</v>
       </c>
       <c r="C266" t="n">
-        <v>126.110718</v>
+        <v>126.110741</v>
       </c>
     </row>
     <row r="267">
@@ -6337,10 +6340,10 @@
         <v>268</v>
       </c>
       <c r="B267" t="n">
-        <v>102.138779</v>
+        <v>102.138786</v>
       </c>
       <c r="C267" t="n">
-        <v>126.832275</v>
+        <v>126.832268</v>
       </c>
     </row>
     <row r="268">
@@ -6348,7 +6351,7 @@
         <v>269</v>
       </c>
       <c r="B268" t="n">
-        <v>99.936111</v>
+        <v>99.936104</v>
       </c>
       <c r="C268" t="n">
         <v>123.625389</v>
@@ -6359,10 +6362,10 @@
         <v>270</v>
       </c>
       <c r="B269" t="n">
-        <v>99.854523</v>
+        <v>99.85453</v>
       </c>
       <c r="C269" t="n">
-        <v>123.46505</v>
+        <v>123.465042</v>
       </c>
     </row>
     <row r="270">
@@ -6373,7 +6376,7 @@
         <v>100.140068</v>
       </c>
       <c r="C270" t="n">
-        <v>123.144356</v>
+        <v>123.144379</v>
       </c>
     </row>
     <row r="271">
@@ -6381,10 +6384,10 @@
         <v>272</v>
       </c>
       <c r="B271" t="n">
-        <v>98.304504</v>
+        <v>98.304497</v>
       </c>
       <c r="C271" t="n">
-        <v>120.739204</v>
+        <v>120.739189</v>
       </c>
     </row>
     <row r="272">
@@ -6392,10 +6395,10 @@
         <v>273</v>
       </c>
       <c r="B272" t="n">
-        <v>103.444077</v>
+        <v>103.444069</v>
       </c>
       <c r="C272" t="n">
-        <v>121.781425</v>
+        <v>121.781418</v>
       </c>
     </row>
     <row r="273">
@@ -6403,10 +6406,10 @@
         <v>274</v>
       </c>
       <c r="B273" t="n">
-        <v>101.078239</v>
+        <v>101.078232</v>
       </c>
       <c r="C273" t="n">
-        <v>122.262474</v>
+        <v>122.262466</v>
       </c>
     </row>
     <row r="274">
@@ -6414,10 +6417,10 @@
         <v>275</v>
       </c>
       <c r="B274" t="n">
-        <v>103.199333</v>
+        <v>103.199326</v>
       </c>
       <c r="C274" t="n">
-        <v>122.102135</v>
+        <v>122.102127</v>
       </c>
     </row>
     <row r="275">
@@ -6428,7 +6431,7 @@
         <v>102.66906</v>
       </c>
       <c r="C275" t="n">
-        <v>121.781425</v>
+        <v>121.781418</v>
       </c>
     </row>
     <row r="276">
@@ -6439,7 +6442,7 @@
         <v>101.975624</v>
       </c>
       <c r="C276" t="n">
-        <v>120.338348</v>
+        <v>120.338341</v>
       </c>
     </row>
     <row r="277">
@@ -6472,7 +6475,7 @@
         <v>101.119026</v>
       </c>
       <c r="C279" t="n">
-        <v>121.220222</v>
+        <v>121.22023</v>
       </c>
     </row>
     <row r="280">
@@ -6480,10 +6483,10 @@
         <v>281</v>
       </c>
       <c r="B280" t="n">
-        <v>100.180862</v>
+        <v>100.180855</v>
       </c>
       <c r="C280" t="n">
-        <v>122.262474</v>
+        <v>122.262466</v>
       </c>
     </row>
     <row r="281">
@@ -6491,10 +6494,10 @@
         <v>282</v>
       </c>
       <c r="B281" t="n">
-        <v>99.936111</v>
+        <v>99.936104</v>
       </c>
       <c r="C281" t="n">
-        <v>121.220222</v>
+        <v>121.22023</v>
       </c>
     </row>
     <row r="282">
@@ -6502,10 +6505,10 @@
         <v>283</v>
       </c>
       <c r="B282" t="n">
-        <v>101.486145</v>
+        <v>101.486137</v>
       </c>
       <c r="C282" t="n">
-        <v>122.02195</v>
+        <v>122.021935</v>
       </c>
     </row>
     <row r="283">
@@ -6524,10 +6527,10 @@
         <v>285</v>
       </c>
       <c r="B284" t="n">
-        <v>102.873009</v>
+        <v>102.873001</v>
       </c>
       <c r="C284" t="n">
-        <v>121.540909</v>
+        <v>121.540924</v>
       </c>
     </row>
     <row r="285">
@@ -6538,7 +6541,7 @@
         <v>103.117752</v>
       </c>
       <c r="C285" t="n">
-        <v>121.781425</v>
+        <v>121.781418</v>
       </c>
     </row>
     <row r="286">
@@ -6549,7 +6552,7 @@
         <v>98.712402</v>
       </c>
       <c r="C286" t="n">
-        <v>120.498688</v>
+        <v>120.498672</v>
       </c>
     </row>
     <row r="287">
@@ -6568,10 +6571,10 @@
         <v>289</v>
       </c>
       <c r="B288" t="n">
-        <v>102.301949</v>
+        <v>102.301941</v>
       </c>
       <c r="C288" t="n">
-        <v>121.781425</v>
+        <v>121.781418</v>
       </c>
     </row>
     <row r="289">
@@ -6579,10 +6582,10 @@
         <v>290</v>
       </c>
       <c r="B289" t="n">
-        <v>102.220367</v>
+        <v>102.22036</v>
       </c>
       <c r="C289" t="n">
-        <v>119.777122</v>
+        <v>119.777115</v>
       </c>
     </row>
     <row r="290">
@@ -6590,7 +6593,7 @@
         <v>291</v>
       </c>
       <c r="B290" t="n">
-        <v>106.054642</v>
+        <v>106.054649</v>
       </c>
       <c r="C290" t="n">
         <v>127.393478</v>
@@ -6601,10 +6604,10 @@
         <v>292</v>
       </c>
       <c r="B291" t="n">
-        <v>106.462547</v>
+        <v>106.462555</v>
       </c>
       <c r="C291" t="n">
-        <v>125.228821</v>
+        <v>125.228828</v>
       </c>
     </row>
     <row r="292">
@@ -6615,7 +6618,7 @@
         <v>105.973061</v>
       </c>
       <c r="C292" t="n">
-        <v>122.502991</v>
+        <v>122.502983</v>
       </c>
     </row>
     <row r="293">
@@ -6626,7 +6629,7 @@
         <v>105.687538</v>
       </c>
       <c r="C293" t="n">
-        <v>122.422813</v>
+        <v>122.422806</v>
       </c>
     </row>
     <row r="294">
@@ -6637,7 +6640,7 @@
         <v>104.83094</v>
       </c>
       <c r="C294" t="n">
-        <v>121.059875</v>
+        <v>121.059883</v>
       </c>
     </row>
     <row r="295">
@@ -6645,10 +6648,10 @@
         <v>296</v>
       </c>
       <c r="B295" t="n">
-        <v>105.442795</v>
+        <v>105.442787</v>
       </c>
       <c r="C295" t="n">
-        <v>119.616776</v>
+        <v>119.616791</v>
       </c>
     </row>
     <row r="296">
@@ -6670,7 +6673,7 @@
         <v>103.036171</v>
       </c>
       <c r="C297" t="n">
-        <v>116.570236</v>
+        <v>116.570221</v>
       </c>
     </row>
     <row r="298">
@@ -6678,10 +6681,10 @@
         <v>299</v>
       </c>
       <c r="B298" t="n">
-        <v>103.892761</v>
+        <v>103.892769</v>
       </c>
       <c r="C298" t="n">
-        <v>115.768509</v>
+        <v>115.768517</v>
       </c>
     </row>
     <row r="299">
@@ -6689,7 +6692,7 @@
         <v>300</v>
       </c>
       <c r="B299" t="n">
-        <v>104.463837</v>
+        <v>104.463829</v>
       </c>
       <c r="C299" t="n">
         <v>117.933182</v>
@@ -6711,10 +6714,10 @@
         <v>302</v>
       </c>
       <c r="B301" t="n">
-        <v>107.971802</v>
+        <v>107.971794</v>
       </c>
       <c r="C301" t="n">
-        <v>118.654709</v>
+        <v>118.654716</v>
       </c>
     </row>
     <row r="302">
@@ -6722,10 +6725,10 @@
         <v>303</v>
       </c>
       <c r="B302" t="n">
-        <v>108.706009</v>
+        <v>108.706017</v>
       </c>
       <c r="C302" t="n">
-        <v>120.258156</v>
+        <v>120.258163</v>
       </c>
     </row>
     <row r="303">
@@ -6736,7 +6739,7 @@
         <v>109.481026</v>
       </c>
       <c r="C303" t="n">
-        <v>122.102135</v>
+        <v>122.102127</v>
       </c>
     </row>
     <row r="304">
@@ -6747,7 +6750,7 @@
         <v>110.308449</v>
       </c>
       <c r="C304" t="n">
-        <v>123.304695</v>
+        <v>123.304703</v>
       </c>
     </row>
     <row r="305">
@@ -6769,7 +6772,7 @@
         <v>108.000374</v>
       </c>
       <c r="C306" t="n">
-        <v>120.899536</v>
+        <v>120.899544</v>
       </c>
     </row>
     <row r="307">
@@ -6780,7 +6783,7 @@
         <v>105.866501</v>
       </c>
       <c r="C307" t="n">
-        <v>120.096054</v>
+        <v>120.096046</v>
       </c>
     </row>
     <row r="308">
@@ -6791,7 +6794,7 @@
         <v>105.605202</v>
       </c>
       <c r="C308" t="n">
-        <v>118.386497</v>
+        <v>118.38649</v>
       </c>
     </row>
     <row r="309">
@@ -6802,7 +6805,7 @@
         <v>105.039078</v>
       </c>
       <c r="C309" t="n">
-        <v>114.540009</v>
+        <v>114.540001</v>
       </c>
     </row>
     <row r="310">
@@ -6813,7 +6816,7 @@
         <v>105.474556</v>
       </c>
       <c r="C310" t="n">
-        <v>116.762428</v>
+        <v>116.762421</v>
       </c>
     </row>
     <row r="311">
@@ -6824,7 +6827,7 @@
         <v>101.685844</v>
       </c>
       <c r="C311" t="n">
-        <v>117.104324</v>
+        <v>117.104317</v>
       </c>
     </row>
     <row r="312">
@@ -6835,7 +6838,7 @@
         <v>101.729393</v>
       </c>
       <c r="C312" t="n">
-        <v>117.959106</v>
+        <v>117.959099</v>
       </c>
     </row>
     <row r="313">
@@ -6846,7 +6849,7 @@
         <v>106.066818</v>
       </c>
       <c r="C313" t="n">
-        <v>121.12178</v>
+        <v>121.121765</v>
       </c>
     </row>
     <row r="314">
@@ -6868,7 +6871,7 @@
         <v>108.043922</v>
       </c>
       <c r="C315" t="n">
-        <v>121.292732</v>
+        <v>121.292725</v>
       </c>
     </row>
     <row r="316">
@@ -6890,7 +6893,7 @@
         <v>107.129402</v>
       </c>
       <c r="C317" t="n">
-        <v>121.207253</v>
+        <v>121.20726</v>
       </c>
     </row>
     <row r="318">
@@ -6901,7 +6904,7 @@
         <v>107.347145</v>
       </c>
       <c r="C318" t="n">
-        <v>122.062027</v>
+        <v>122.062035</v>
       </c>
     </row>
     <row r="319">
@@ -6934,7 +6937,7 @@
         <v>108.131027</v>
       </c>
       <c r="C321" t="n">
-        <v>122.232986</v>
+        <v>122.232994</v>
       </c>
     </row>
     <row r="322">
@@ -6945,7 +6948,7 @@
         <v>110.613289</v>
       </c>
       <c r="C322" t="n">
-        <v>123.515144</v>
+        <v>123.51516</v>
       </c>
     </row>
     <row r="323">
@@ -6967,7 +6970,7 @@
         <v>112.050385</v>
       </c>
       <c r="C324" t="n">
-        <v>124.028008</v>
+        <v>124.028015</v>
       </c>
     </row>
     <row r="325">
@@ -6978,7 +6981,7 @@
         <v>112.268127</v>
       </c>
       <c r="C325" t="n">
-        <v>124.968262</v>
+        <v>124.968254</v>
       </c>
     </row>
     <row r="326">
@@ -6989,7 +6992,7 @@
         <v>110.87458</v>
       </c>
       <c r="C326" t="n">
-        <v>123.429665</v>
+        <v>123.429672</v>
       </c>
     </row>
     <row r="327">
@@ -7000,7 +7003,7 @@
         <v>110.831032</v>
       </c>
       <c r="C327" t="n">
-        <v>122.062027</v>
+        <v>122.062035</v>
       </c>
     </row>
     <row r="328">
@@ -7022,7 +7025,7 @@
         <v>111.919746</v>
       </c>
       <c r="C329" t="n">
-        <v>122.916809</v>
+        <v>122.916817</v>
       </c>
     </row>
     <row r="330">
@@ -7088,7 +7091,7 @@
         <v>100.510033</v>
       </c>
       <c r="C335" t="n">
-        <v>107.78727</v>
+        <v>107.787262</v>
       </c>
     </row>
     <row r="336">
@@ -7121,7 +7124,7 @@
         <v>94.587425</v>
       </c>
       <c r="C338" t="n">
-        <v>107.01796</v>
+        <v>107.017967</v>
       </c>
     </row>
     <row r="339">
@@ -7176,7 +7179,7 @@
         <v>94.500328</v>
       </c>
       <c r="C343" t="n">
-        <v>105.821281</v>
+        <v>105.821289</v>
       </c>
     </row>
     <row r="344">
@@ -7209,7 +7212,7 @@
         <v>96.764847</v>
       </c>
       <c r="C346" t="n">
-        <v>105.906761</v>
+        <v>105.906769</v>
       </c>
     </row>
     <row r="347">
@@ -7297,7 +7300,7 @@
         <v>94.674515</v>
       </c>
       <c r="C354" t="n">
-        <v>107.61631</v>
+        <v>107.616318</v>
       </c>
     </row>
     <row r="355">
@@ -7341,7 +7344,7 @@
         <v>97.374535</v>
       </c>
       <c r="C358" t="n">
-        <v>111.97567</v>
+        <v>111.975677</v>
       </c>
     </row>
     <row r="359">
@@ -7352,7 +7355,7 @@
         <v>95.458397</v>
       </c>
       <c r="C359" t="n">
-        <v>111.377335</v>
+        <v>111.377327</v>
       </c>
     </row>
     <row r="360">
@@ -7363,7 +7366,7 @@
         <v>94.935814</v>
       </c>
       <c r="C360" t="n">
-        <v>112.403061</v>
+        <v>112.403053</v>
       </c>
     </row>
     <row r="361">
@@ -7396,7 +7399,7 @@
         <v>90.189026</v>
       </c>
       <c r="C363" t="n">
-        <v>109.66777</v>
+        <v>109.667778</v>
       </c>
     </row>
     <row r="364">
@@ -7407,7 +7410,7 @@
         <v>90.493866</v>
       </c>
       <c r="C364" t="n">
-        <v>108.727524</v>
+        <v>108.727516</v>
       </c>
     </row>
     <row r="365">
@@ -7429,7 +7432,7 @@
         <v>86.260948</v>
       </c>
       <c r="C366" t="n">
-        <v>104.539116</v>
+        <v>104.539124</v>
       </c>
     </row>
     <row r="367">
@@ -7484,7 +7487,7 @@
         <v>90.624512</v>
       </c>
       <c r="C371" t="n">
-        <v>107.958221</v>
+        <v>107.958229</v>
       </c>
     </row>
     <row r="372">
@@ -7517,7 +7520,7 @@
         <v>92.540642</v>
       </c>
       <c r="C374" t="n">
-        <v>110.693512</v>
+        <v>110.693504</v>
       </c>
     </row>
     <row r="375">
@@ -7528,7 +7531,7 @@
         <v>90.755157</v>
       </c>
       <c r="C375" t="n">
-        <v>109.411339</v>
+        <v>109.411346</v>
       </c>
     </row>
     <row r="376">
@@ -7550,7 +7553,7 @@
         <v>89.579346</v>
       </c>
       <c r="C377" t="n">
-        <v>107.958221</v>
+        <v>107.958229</v>
       </c>
     </row>
     <row r="378">
@@ -7715,7 +7718,7 @@
         <v>87.314819</v>
       </c>
       <c r="C392" t="n">
-        <v>100.350716</v>
+        <v>100.350708</v>
       </c>
     </row>
     <row r="393">
@@ -7737,7 +7740,7 @@
         <v>85.564171</v>
       </c>
       <c r="C394" t="n">
-        <v>99.154037</v>
+        <v>99.15403</v>
       </c>
     </row>
     <row r="395">
@@ -7748,7 +7751,7 @@
         <v>84.066101</v>
       </c>
       <c r="C395" t="n">
-        <v>98.042816</v>
+        <v>98.042824</v>
       </c>
     </row>
     <row r="396">
@@ -7759,7 +7762,7 @@
         <v>83.839653</v>
       </c>
       <c r="C396" t="n">
-        <v>99.923332</v>
+        <v>99.923325</v>
       </c>
     </row>
     <row r="397">
@@ -7770,7 +7773,7 @@
         <v>83.508675</v>
       </c>
       <c r="C397" t="n">
-        <v>98.726646</v>
+        <v>98.726639</v>
       </c>
     </row>
     <row r="398">
@@ -7781,7 +7784,7 @@
         <v>83.857063</v>
       </c>
       <c r="C398" t="n">
-        <v>98.641174</v>
+        <v>98.641159</v>
       </c>
     </row>
     <row r="399">
@@ -7803,7 +7806,7 @@
         <v>81.244148</v>
       </c>
       <c r="C400" t="n">
-        <v>95.991364</v>
+        <v>95.991356</v>
       </c>
     </row>
     <row r="401">
@@ -7814,7 +7817,7 @@
         <v>81.505447</v>
       </c>
       <c r="C401" t="n">
-        <v>95.56398</v>
+        <v>95.563972</v>
       </c>
     </row>
     <row r="402">
@@ -7825,7 +7828,7 @@
         <v>77.516396</v>
       </c>
       <c r="C402" t="n">
-        <v>92.230347</v>
+        <v>92.230339</v>
       </c>
     </row>
     <row r="403">
@@ -7847,7 +7850,7 @@
         <v>79.362862</v>
       </c>
       <c r="C404" t="n">
-        <v>94.709198</v>
+        <v>94.70919</v>
       </c>
     </row>
     <row r="405">
@@ -7858,7 +7861,7 @@
         <v>79.955116</v>
       </c>
       <c r="C405" t="n">
-        <v>95.307541</v>
+        <v>95.307533</v>
       </c>
     </row>
     <row r="406">
@@ -7869,7 +7872,7 @@
         <v>77.882202</v>
       </c>
       <c r="C406" t="n">
-        <v>93.597992</v>
+        <v>93.597984</v>
       </c>
     </row>
     <row r="407">
@@ -7880,7 +7883,7 @@
         <v>77.516396</v>
       </c>
       <c r="C407" t="n">
-        <v>92.657738</v>
+        <v>92.65773</v>
       </c>
     </row>
     <row r="408">
@@ -7946,7 +7949,7 @@
         <v>76.59317</v>
       </c>
       <c r="C413" t="n">
-        <v>80.348946</v>
+        <v>80.348953</v>
       </c>
     </row>
     <row r="414">
@@ -8034,7 +8037,7 @@
         <v>88.055145</v>
       </c>
       <c r="C421" t="n">
-        <v>88.55481</v>
+        <v>88.554802</v>
       </c>
     </row>
     <row r="422">
@@ -8045,7 +8048,7 @@
         <v>87.968048</v>
       </c>
       <c r="C422" t="n">
-        <v>88.041939</v>
+        <v>88.041946</v>
       </c>
     </row>
     <row r="423">
@@ -8067,7 +8070,7 @@
         <v>91.190636</v>
       </c>
       <c r="C424" t="n">
-        <v>88.55481</v>
+        <v>88.554802</v>
       </c>
     </row>
     <row r="425">
@@ -8078,7 +8081,7 @@
         <v>88.22934</v>
       </c>
       <c r="C425" t="n">
-        <v>88.640282</v>
+        <v>88.640274</v>
       </c>
     </row>
     <row r="426">
@@ -8111,7 +8114,7 @@
         <v>84.41449</v>
       </c>
       <c r="C428" t="n">
-        <v>89.495064</v>
+        <v>89.495056</v>
       </c>
     </row>
     <row r="429">
@@ -8144,7 +8147,7 @@
         <v>83.543518</v>
       </c>
       <c r="C431" t="n">
-        <v>103.34243</v>
+        <v>103.342438</v>
       </c>
     </row>
     <row r="432">
@@ -8155,7 +8158,7 @@
         <v>82.602867</v>
       </c>
       <c r="C432" t="n">
-        <v>107.958221</v>
+        <v>107.958229</v>
       </c>
     </row>
     <row r="433">
@@ -8199,7 +8202,7 @@
         <v>82.742218</v>
       </c>
       <c r="C436" t="n">
-        <v>102.402176</v>
+        <v>102.402184</v>
       </c>
     </row>
     <row r="437">
@@ -8210,7 +8213,7 @@
         <v>82.02803</v>
       </c>
       <c r="C437" t="n">
-        <v>99.923332</v>
+        <v>99.923325</v>
       </c>
     </row>
     <row r="438">
@@ -8221,7 +8224,7 @@
         <v>80.216408</v>
       </c>
       <c r="C438" t="n">
-        <v>99.23951</v>
+        <v>99.239502</v>
       </c>
     </row>
     <row r="439">
@@ -8232,7 +8235,7 @@
         <v>79.989952</v>
       </c>
       <c r="C439" t="n">
-        <v>99.154037</v>
+        <v>99.15403</v>
       </c>
     </row>
     <row r="440">
@@ -8265,7 +8268,7 @@
         <v>79.972534</v>
       </c>
       <c r="C442" t="n">
-        <v>102.316696</v>
+        <v>102.316704</v>
       </c>
     </row>
     <row r="443">
@@ -8320,7 +8323,7 @@
         <v>84.693199</v>
       </c>
       <c r="C447" t="n">
-        <v>109.924217</v>
+        <v>109.92421</v>
       </c>
     </row>
     <row r="448">
@@ -8353,7 +8356,7 @@
         <v>85.877724</v>
       </c>
       <c r="C450" t="n">
-        <v>112.6595</v>
+        <v>112.659492</v>
       </c>
     </row>
     <row r="451">
@@ -8375,7 +8378,7 @@
         <v>85.529327</v>
       </c>
       <c r="C452" t="n">
-        <v>115.394768</v>
+        <v>115.394775</v>
       </c>
     </row>
     <row r="453">
@@ -8386,7 +8389,7 @@
         <v>85.668686</v>
       </c>
       <c r="C453" t="n">
-        <v>114.881905</v>
+        <v>114.881912</v>
       </c>
     </row>
     <row r="454">
@@ -8408,7 +8411,7 @@
         <v>85.616432</v>
       </c>
       <c r="C455" t="n">
-        <v>114.454514</v>
+        <v>114.454521</v>
       </c>
     </row>
     <row r="456">
@@ -8419,7 +8422,7 @@
         <v>84.867393</v>
       </c>
       <c r="C456" t="n">
-        <v>115.736687</v>
+        <v>115.736671</v>
       </c>
     </row>
     <row r="457">
@@ -8430,7 +8433,7 @@
         <v>82.829323</v>
       </c>
       <c r="C457" t="n">
-        <v>113.856178</v>
+        <v>113.856171</v>
       </c>
     </row>
     <row r="458">
@@ -8452,7 +8455,7 @@
         <v>79.955116</v>
       </c>
       <c r="C459" t="n">
-        <v>114.540009</v>
+        <v>114.540001</v>
       </c>
     </row>
     <row r="460">
@@ -8463,7 +8466,7 @@
         <v>81.348671</v>
       </c>
       <c r="C460" t="n">
-        <v>112.403061</v>
+        <v>112.403053</v>
       </c>
     </row>
     <row r="461">
@@ -8474,7 +8477,7 @@
         <v>81.784157</v>
       </c>
       <c r="C461" t="n">
-        <v>114.454514</v>
+        <v>114.454521</v>
       </c>
     </row>
     <row r="462">
@@ -8496,7 +8499,7 @@
         <v>83.630608</v>
       </c>
       <c r="C463" t="n">
-        <v>116.335037</v>
+        <v>116.33503</v>
       </c>
     </row>
     <row r="464">
@@ -8507,7 +8510,7 @@
         <v>83.369324</v>
       </c>
       <c r="C464" t="n">
-        <v>115.993126</v>
+        <v>115.993111</v>
       </c>
     </row>
     <row r="465">
@@ -8518,7 +8521,7 @@
         <v>82.498352</v>
       </c>
       <c r="C465" t="n">
-        <v>116.676941</v>
+        <v>116.676933</v>
       </c>
     </row>
     <row r="466">
@@ -8540,7 +8543,7 @@
         <v>80.442863</v>
       </c>
       <c r="C467" t="n">
-        <v>113.514275</v>
+        <v>113.514267</v>
       </c>
     </row>
     <row r="468">
@@ -8551,7 +8554,7 @@
         <v>80.634476</v>
       </c>
       <c r="C468" t="n">
-        <v>111.377335</v>
+        <v>111.377327</v>
       </c>
     </row>
     <row r="469">
@@ -8606,7 +8609,7 @@
         <v>78.735756</v>
       </c>
       <c r="C473" t="n">
-        <v>108.727524</v>
+        <v>108.727516</v>
       </c>
     </row>
     <row r="474">
@@ -8628,7 +8631,7 @@
         <v>80.129311</v>
       </c>
       <c r="C475" t="n">
-        <v>110.693512</v>
+        <v>110.693504</v>
       </c>
     </row>
     <row r="476">
@@ -8639,7 +8642,7 @@
         <v>79.275757</v>
       </c>
       <c r="C476" t="n">
-        <v>108.727524</v>
+        <v>108.727516</v>
       </c>
     </row>
     <row r="477">
@@ -8694,7 +8697,7 @@
         <v>79.223503</v>
       </c>
       <c r="C481" t="n">
-        <v>105.47937</v>
+        <v>105.479378</v>
       </c>
     </row>
     <row r="482">
@@ -8749,7 +8752,7 @@
         <v>84.170616</v>
       </c>
       <c r="C486" t="n">
-        <v>113.343315</v>
+        <v>113.343323</v>
       </c>
     </row>
     <row r="487">
@@ -8760,7 +8763,7 @@
         <v>84.849968</v>
       </c>
       <c r="C487" t="n">
-        <v>113.856178</v>
+        <v>113.856171</v>
       </c>
     </row>
     <row r="488">
@@ -8771,7 +8774,7 @@
         <v>87.271271</v>
       </c>
       <c r="C488" t="n">
-        <v>113.94165</v>
+        <v>113.941658</v>
       </c>
     </row>
     <row r="489">
@@ -8782,7 +8785,7 @@
         <v>90.580963</v>
       </c>
       <c r="C489" t="n">
-        <v>112.403061</v>
+        <v>112.403053</v>
       </c>
     </row>
     <row r="490">
@@ -8793,7 +8796,7 @@
         <v>92.671295</v>
       </c>
       <c r="C490" t="n">
-        <v>112.488548</v>
+        <v>112.488541</v>
       </c>
     </row>
     <row r="491">
@@ -8804,7 +8807,7 @@
         <v>94.108398</v>
       </c>
       <c r="C491" t="n">
-        <v>117.104324</v>
+        <v>117.104317</v>
       </c>
     </row>
     <row r="492">
@@ -8848,7 +8851,7 @@
         <v>93.193878</v>
       </c>
       <c r="C495" t="n">
-        <v>118.899361</v>
+        <v>118.899368</v>
       </c>
     </row>
     <row r="496">
@@ -8870,7 +8873,7 @@
         <v>93.890656</v>
       </c>
       <c r="C497" t="n">
-        <v>119.497696</v>
+        <v>119.497711</v>
       </c>
     </row>
     <row r="498">
@@ -8903,7 +8906,7 @@
         <v>92.932579</v>
       </c>
       <c r="C500" t="n">
-        <v>120.608917</v>
+        <v>120.60891</v>
       </c>
     </row>
     <row r="501">
@@ -8914,7 +8917,7 @@
         <v>93.847099</v>
       </c>
       <c r="C501" t="n">
-        <v>120.694389</v>
+        <v>120.694374</v>
       </c>
     </row>
     <row r="502">
@@ -8958,7 +8961,7 @@
         <v>93.498711</v>
       </c>
       <c r="C505" t="n">
-        <v>121.891075</v>
+        <v>121.891083</v>
       </c>
     </row>
     <row r="506">
@@ -8969,7 +8972,7 @@
         <v>94.064842</v>
       </c>
       <c r="C506" t="n">
-        <v>123.686104</v>
+        <v>123.686089</v>
       </c>
     </row>
     <row r="507">
@@ -8991,7 +8994,7 @@
         <v>94.674515</v>
       </c>
       <c r="C508" t="n">
-        <v>123.600632</v>
+        <v>123.600624</v>
       </c>
     </row>
     <row r="509">
@@ -9002,7 +9005,7 @@
         <v>95.806786</v>
       </c>
       <c r="C509" t="n">
-        <v>123.344193</v>
+        <v>123.344208</v>
       </c>
     </row>
     <row r="510">
@@ -9013,7 +9016,7 @@
         <v>95.632599</v>
       </c>
       <c r="C510" t="n">
-        <v>127.361633</v>
+        <v>127.361649</v>
       </c>
     </row>
     <row r="511">
@@ -9035,7 +9038,7 @@
         <v>96.721306</v>
       </c>
       <c r="C512" t="n">
-        <v>127.703552</v>
+        <v>127.703537</v>
       </c>
     </row>
     <row r="513">
@@ -9046,7 +9049,7 @@
         <v>94.848717</v>
       </c>
       <c r="C513" t="n">
-        <v>126.93425</v>
+        <v>126.934265</v>
       </c>
     </row>
     <row r="514">
@@ -9068,7 +9071,7 @@
         <v>92.453545</v>
       </c>
       <c r="C515" t="n">
-        <v>123.087753</v>
+        <v>123.087769</v>
       </c>
     </row>
     <row r="516">
@@ -9079,7 +9082,7 @@
         <v>94.500328</v>
       </c>
       <c r="C516" t="n">
-        <v>125.224709</v>
+        <v>125.224701</v>
       </c>
     </row>
     <row r="517">
@@ -9101,7 +9104,7 @@
         <v>94.674515</v>
       </c>
       <c r="C518" t="n">
-        <v>124.198975</v>
+        <v>124.198967</v>
       </c>
     </row>
     <row r="519">
@@ -9112,7 +9115,7 @@
         <v>98.332603</v>
       </c>
       <c r="C519" t="n">
-        <v>125.481125</v>
+        <v>125.48114</v>
       </c>
     </row>
     <row r="520">
@@ -9134,7 +9137,7 @@
         <v>99.943901</v>
       </c>
       <c r="C521" t="n">
-        <v>127.276169</v>
+        <v>127.276161</v>
       </c>
     </row>
     <row r="522">
@@ -9156,7 +9159,7 @@
         <v>102.164871</v>
       </c>
       <c r="C523" t="n">
-        <v>131.29361</v>
+        <v>131.293625</v>
       </c>
     </row>
     <row r="524">
@@ -9167,7 +9170,7 @@
         <v>102.513252</v>
       </c>
       <c r="C524" t="n">
-        <v>130.438828</v>
+        <v>130.438843</v>
       </c>
     </row>
     <row r="525">
@@ -9189,7 +9192,7 @@
         <v>105.822945</v>
       </c>
       <c r="C526" t="n">
-        <v>133.516022</v>
+        <v>133.516037</v>
       </c>
     </row>
     <row r="527">
@@ -9211,7 +9214,7 @@
         <v>106.519722</v>
       </c>
       <c r="C528" t="n">
-        <v>134.199844</v>
+        <v>134.19986</v>
       </c>
     </row>
     <row r="529">
@@ -9233,7 +9236,7 @@
         <v>104.951973</v>
       </c>
       <c r="C530" t="n">
-        <v>135.909409</v>
+        <v>135.909393</v>
       </c>
     </row>
     <row r="531">
@@ -9266,7 +9269,7 @@
         <v>106.476173</v>
       </c>
       <c r="C533" t="n">
-        <v>138.473724</v>
+        <v>138.47374</v>
       </c>
     </row>
     <row r="534">
@@ -9277,7 +9280,7 @@
         <v>104.995529</v>
       </c>
       <c r="C534" t="n">
-        <v>137.020599</v>
+        <v>137.020615</v>
       </c>
     </row>
     <row r="535">
@@ -9288,7 +9291,7 @@
         <v>100.161644</v>
       </c>
       <c r="C535" t="n">
-        <v>134.199844</v>
+        <v>134.19986</v>
       </c>
     </row>
     <row r="536">
@@ -9321,7 +9324,7 @@
         <v>93.237427</v>
       </c>
       <c r="C538" t="n">
-        <v>109.240395</v>
+        <v>109.240387</v>
       </c>
     </row>
     <row r="539">
@@ -9354,7 +9357,7 @@
         <v>93.063225</v>
       </c>
       <c r="C541" t="n">
-        <v>109.83873</v>
+        <v>109.838737</v>
       </c>
     </row>
     <row r="542">
@@ -9409,7 +9412,7 @@
         <v>77.28994</v>
       </c>
       <c r="C546" t="n">
-        <v>93.854424</v>
+        <v>93.854416</v>
       </c>
     </row>
     <row r="547">
@@ -9431,7 +9434,7 @@
         <v>67.726692</v>
       </c>
       <c r="C548" t="n">
-        <v>82.272202</v>
+        <v>82.272194</v>
       </c>
     </row>
     <row r="549">
@@ -9442,7 +9445,7 @@
         <v>67.761528</v>
       </c>
       <c r="C549" t="n">
-        <v>83.682579</v>
+        <v>83.682587</v>
       </c>
     </row>
     <row r="550">
@@ -9453,7 +9456,7 @@
         <v>64.486679</v>
       </c>
       <c r="C550" t="n">
-        <v>78.895828</v>
+        <v>78.895836</v>
       </c>
     </row>
     <row r="551">
@@ -9464,7 +9467,7 @@
         <v>64.62603</v>
       </c>
       <c r="C551" t="n">
-        <v>80.220741</v>
+        <v>80.220734</v>
       </c>
     </row>
     <row r="552">
@@ -9475,7 +9478,7 @@
         <v>71.60997</v>
       </c>
       <c r="C552" t="n">
-        <v>77.399979</v>
+        <v>77.399986</v>
       </c>
     </row>
     <row r="553">
@@ -9486,7 +9489,7 @@
         <v>71.708336</v>
       </c>
       <c r="C553" t="n">
-        <v>78.126534</v>
+        <v>78.126541</v>
       </c>
     </row>
     <row r="554">
@@ -9574,7 +9577,7 @@
         <v>75.642952</v>
       </c>
       <c r="C561" t="n">
-        <v>91.515846</v>
+        <v>91.515839</v>
       </c>
     </row>
     <row r="562">
@@ -9607,7 +9610,7 @@
         <v>71.078796</v>
       </c>
       <c r="C564" t="n">
-        <v>88.706566</v>
+        <v>88.706573</v>
       </c>
     </row>
     <row r="565">
@@ -9618,7 +9621,7 @@
         <v>72.141136</v>
       </c>
       <c r="C565" t="n">
-        <v>88.37326</v>
+        <v>88.373268</v>
       </c>
     </row>
     <row r="566">
@@ -9684,7 +9687,7 @@
         <v>72.318199</v>
       </c>
       <c r="C571" t="n">
-        <v>89.373177</v>
+        <v>89.373169</v>
       </c>
     </row>
     <row r="572">
@@ -9695,7 +9698,7 @@
         <v>71.82637</v>
       </c>
       <c r="C572" t="n">
-        <v>90.992081</v>
+        <v>90.992088</v>
       </c>
     </row>
     <row r="573">
@@ -9728,7 +9731,7 @@
         <v>72.455917</v>
       </c>
       <c r="C575" t="n">
-        <v>91.230156</v>
+        <v>91.230164</v>
       </c>
     </row>
     <row r="576">
@@ -9739,7 +9742,7 @@
         <v>70.134491</v>
       </c>
       <c r="C576" t="n">
-        <v>89.706482</v>
+        <v>89.706474</v>
       </c>
     </row>
     <row r="577">
@@ -9783,7 +9786,7 @@
         <v>79.479202</v>
       </c>
       <c r="C580" t="n">
-        <v>107.895378</v>
+        <v>107.89537</v>
       </c>
     </row>
     <row r="581">
@@ -9827,7 +9830,7 @@
         <v>74.226486</v>
       </c>
       <c r="C584" t="n">
-        <v>95.086967</v>
+        <v>95.08696</v>
       </c>
     </row>
     <row r="585">
@@ -9849,7 +9852,7 @@
         <v>74.619949</v>
       </c>
       <c r="C586" t="n">
-        <v>100.086525</v>
+        <v>100.086533</v>
       </c>
     </row>
     <row r="587">
@@ -9860,7 +9863,7 @@
         <v>74.167473</v>
       </c>
       <c r="C587" t="n">
-        <v>101.134056</v>
+        <v>101.134048</v>
       </c>
     </row>
     <row r="588">
@@ -9893,7 +9896,7 @@
         <v>70.803375</v>
       </c>
       <c r="C590" t="n">
-        <v>99.991295</v>
+        <v>99.991302</v>
       </c>
     </row>
     <row r="591">
@@ -9915,7 +9918,7 @@
         <v>73.400223</v>
       </c>
       <c r="C592" t="n">
-        <v>100.657906</v>
+        <v>100.657898</v>
       </c>
     </row>
     <row r="593">
@@ -9926,7 +9929,7 @@
         <v>75.564255</v>
       </c>
       <c r="C593" t="n">
-        <v>102.46727</v>
+        <v>102.467278</v>
       </c>
     </row>
     <row r="594">
@@ -9970,7 +9973,7 @@
         <v>83.748253</v>
       </c>
       <c r="C597" t="n">
-        <v>111.799797</v>
+        <v>111.799789</v>
       </c>
     </row>
     <row r="598">
@@ -9992,7 +9995,7 @@
         <v>86.128693</v>
       </c>
       <c r="C599" t="n">
-        <v>116.656517</v>
+        <v>116.656509</v>
       </c>
     </row>
     <row r="600">
@@ -10014,7 +10017,7 @@
         <v>89.256706</v>
       </c>
       <c r="C601" t="n">
-        <v>123.89399</v>
+        <v>123.893982</v>
       </c>
     </row>
     <row r="602">
@@ -10069,7 +10072,7 @@
         <v>86.42379</v>
       </c>
       <c r="C606" t="n">
-        <v>117.704048</v>
+        <v>117.704041</v>
       </c>
     </row>
     <row r="607">
@@ -10091,7 +10094,7 @@
         <v>87.663193</v>
       </c>
       <c r="C608" t="n">
-        <v>120.751404</v>
+        <v>120.751396</v>
       </c>
     </row>
     <row r="609">
@@ -10157,7 +10160,7 @@
         <v>87.466461</v>
       </c>
       <c r="C614" t="n">
-        <v>117.704048</v>
+        <v>117.704041</v>
       </c>
     </row>
     <row r="615">
@@ -10201,7 +10204,7 @@
         <v>86.836922</v>
       </c>
       <c r="C618" t="n">
-        <v>117.132668</v>
+        <v>117.13266</v>
       </c>
     </row>
     <row r="619">
@@ -10322,7 +10325,7 @@
         <v>100.185097</v>
       </c>
       <c r="C629" t="n">
-        <v>124.465363</v>
+        <v>124.465355</v>
       </c>
     </row>
     <row r="630">
@@ -10333,7 +10336,7 @@
         <v>100.185097</v>
       </c>
       <c r="C630" t="n">
-        <v>125.512894</v>
+        <v>125.512886</v>
       </c>
     </row>
     <row r="631">
@@ -10355,7 +10358,7 @@
         <v>104.267265</v>
       </c>
       <c r="C632" t="n">
-        <v>125.036743</v>
+        <v>125.036736</v>
       </c>
     </row>
     <row r="633">
@@ -10388,7 +10391,7 @@
         <v>103.72625</v>
       </c>
       <c r="C635" t="n">
-        <v>125.322441</v>
+        <v>125.322433</v>
       </c>
     </row>
     <row r="636">
@@ -10399,7 +10402,7 @@
         <v>104.218079</v>
       </c>
       <c r="C636" t="n">
-        <v>124.941505</v>
+        <v>124.941498</v>
       </c>
     </row>
     <row r="637">
@@ -10410,7 +10413,7 @@
         <v>102.250771</v>
       </c>
       <c r="C637" t="n">
-        <v>122.655991</v>
+        <v>122.655998</v>
       </c>
     </row>
     <row r="638">
@@ -10465,7 +10468,7 @@
         <v>101.168755</v>
       </c>
       <c r="C642" t="n">
-        <v>115.894669</v>
+        <v>115.894676</v>
       </c>
     </row>
     <row r="643">
@@ -10476,7 +10479,7 @@
         <v>100.480202</v>
       </c>
       <c r="C643" t="n">
-        <v>116.751747</v>
+        <v>116.75174</v>
       </c>
     </row>
     <row r="644">
@@ -10487,7 +10490,7 @@
         <v>100.922836</v>
       </c>
       <c r="C644" t="n">
-        <v>115.989906</v>
+        <v>115.989914</v>
       </c>
     </row>
     <row r="645">
@@ -10498,7 +10501,7 @@
         <v>100.332649</v>
       </c>
       <c r="C645" t="n">
-        <v>115.418518</v>
+        <v>115.418526</v>
       </c>
     </row>
     <row r="646">
@@ -10564,7 +10567,7 @@
         <v>102.349144</v>
       </c>
       <c r="C651" t="n">
-        <v>113.609161</v>
+        <v>113.609169</v>
       </c>
     </row>
     <row r="652">
@@ -10608,7 +10611,7 @@
         <v>96.496399</v>
       </c>
       <c r="C655" t="n">
-        <v>110.466583</v>
+        <v>110.466576</v>
       </c>
     </row>
     <row r="656">
@@ -10619,7 +10622,7 @@
         <v>97.047249</v>
       </c>
       <c r="C656" t="n">
-        <v>109.799965</v>
+        <v>109.799973</v>
       </c>
     </row>
     <row r="657">
@@ -10652,7 +10655,7 @@
         <v>97.971878</v>
       </c>
       <c r="C659" t="n">
-        <v>107.22876</v>
+        <v>107.228767</v>
       </c>
     </row>
     <row r="660">
@@ -10663,7 +10666,7 @@
         <v>96.594765</v>
       </c>
       <c r="C660" t="n">
-        <v>106.847839</v>
+        <v>106.847847</v>
       </c>
     </row>
     <row r="661">
@@ -10696,7 +10699,7 @@
         <v>92.463425</v>
       </c>
       <c r="C663" t="n">
-        <v>95.705956</v>
+        <v>95.705963</v>
       </c>
     </row>
     <row r="664">
@@ -10751,7 +10754,7 @@
         <v>87.859924</v>
       </c>
       <c r="C668" t="n">
-        <v>96.467804</v>
+        <v>96.467796</v>
       </c>
     </row>
     <row r="669">
@@ -10762,7 +10765,7 @@
         <v>88.627174</v>
       </c>
       <c r="C669" t="n">
-        <v>98.181931</v>
+        <v>98.181938</v>
       </c>
     </row>
     <row r="670">
@@ -10773,7 +10776,7 @@
         <v>88.587822</v>
       </c>
       <c r="C670" t="n">
-        <v>99.705612</v>
+        <v>99.705605</v>
       </c>
     </row>
     <row r="671">
@@ -10784,7 +10787,7 @@
         <v>86.502487</v>
       </c>
       <c r="C671" t="n">
-        <v>99.610374</v>
+        <v>99.610382</v>
       </c>
     </row>
     <row r="672">
@@ -10806,7 +10809,7 @@
         <v>86.187714</v>
       </c>
       <c r="C673" t="n">
-        <v>99.134224</v>
+        <v>99.134232</v>
       </c>
     </row>
     <row r="674">
@@ -10817,7 +10820,7 @@
         <v>86.384445</v>
       </c>
       <c r="C674" t="n">
-        <v>97.89624</v>
+        <v>97.896248</v>
       </c>
     </row>
     <row r="675">
@@ -10839,7 +10842,7 @@
         <v>83.0597</v>
       </c>
       <c r="C676" t="n">
-        <v>96.372566</v>
+        <v>96.372559</v>
       </c>
     </row>
     <row r="677">
@@ -10850,7 +10853,7 @@
         <v>80.659584</v>
       </c>
       <c r="C677" t="n">
-        <v>94.372742</v>
+        <v>94.372734</v>
       </c>
     </row>
     <row r="678">
@@ -10872,7 +10875,7 @@
         <v>81.938332</v>
       </c>
       <c r="C679" t="n">
-        <v>93.563286</v>
+        <v>93.563293</v>
       </c>
     </row>
     <row r="680">
@@ -10927,7 +10930,7 @@
         <v>84.692558</v>
       </c>
       <c r="C684" t="n">
-        <v>94.848892</v>
+        <v>94.848885</v>
       </c>
     </row>
     <row r="685">
@@ -10949,7 +10952,7 @@
         <v>83.453156</v>
       </c>
       <c r="C686" t="n">
-        <v>103.133888</v>
+        <v>103.133881</v>
       </c>
     </row>
     <row r="687">
@@ -10960,7 +10963,7 @@
         <v>85.57785</v>
       </c>
       <c r="C687" t="n">
-        <v>103.133888</v>
+        <v>103.133881</v>
       </c>
     </row>
     <row r="688">
@@ -10993,7 +10996,7 @@
         <v>89.453445</v>
       </c>
       <c r="C690" t="n">
-        <v>103.990944</v>
+        <v>103.990952</v>
       </c>
     </row>
     <row r="691">
@@ -11070,7 +11073,7 @@
         <v>91.401077</v>
       </c>
       <c r="C697" t="n">
-        <v>103.990944</v>
+        <v>103.990952</v>
       </c>
     </row>
     <row r="698">
@@ -11158,7 +11161,7 @@
         <v>84.161385</v>
       </c>
       <c r="C705" t="n">
-        <v>102.37204</v>
+        <v>102.372047</v>
       </c>
     </row>
     <row r="706">
@@ -11202,7 +11205,7 @@
         <v>86.974632</v>
       </c>
       <c r="C709" t="n">
-        <v>111.799797</v>
+        <v>111.799789</v>
       </c>
     </row>
     <row r="710">
@@ -11224,7 +11227,7 @@
         <v>88.627174</v>
       </c>
       <c r="C711" t="n">
-        <v>109.514282</v>
+        <v>109.514275</v>
       </c>
     </row>
     <row r="712">
@@ -11290,7 +11293,7 @@
         <v>102.447502</v>
       </c>
       <c r="C717" t="n">
-        <v>124.274895</v>
+        <v>124.274902</v>
       </c>
     </row>
     <row r="718">
@@ -11301,7 +11304,7 @@
         <v>102.890144</v>
       </c>
       <c r="C718" t="n">
-        <v>126.274727</v>
+        <v>126.274734</v>
       </c>
     </row>
     <row r="719">
@@ -11356,7 +11359,7 @@
         <v>103.234421</v>
       </c>
       <c r="C723" t="n">
-        <v>124.751045</v>
+        <v>124.751053</v>
       </c>
     </row>
     <row r="724">
@@ -11378,7 +11381,7 @@
         <v>102.98851</v>
       </c>
       <c r="C725" t="n">
-        <v>124.751045</v>
+        <v>124.751053</v>
       </c>
     </row>
     <row r="726">
@@ -11422,7 +11425,7 @@
         <v>102.250771</v>
       </c>
       <c r="C729" t="n">
-        <v>124.751045</v>
+        <v>124.751053</v>
       </c>
     </row>
     <row r="730">
@@ -11444,7 +11447,7 @@
         <v>101.513031</v>
       </c>
       <c r="C731" t="n">
-        <v>124.274895</v>
+        <v>124.274902</v>
       </c>
     </row>
     <row r="732">
@@ -11543,7 +11546,7 @@
         <v>94.529091</v>
       </c>
       <c r="C740" t="n">
-        <v>121.608467</v>
+        <v>121.608459</v>
       </c>
     </row>
     <row r="741">
@@ -11576,7 +11579,7 @@
         <v>96.870193</v>
       </c>
       <c r="C743" t="n">
-        <v>124.941505</v>
+        <v>124.941498</v>
       </c>
     </row>
     <row r="744">
@@ -11587,7 +11590,7 @@
         <v>99.742462</v>
       </c>
       <c r="C744" t="n">
-        <v>125.989044</v>
+        <v>125.989037</v>
       </c>
     </row>
     <row r="745">
@@ -11620,7 +11623,7 @@
         <v>99.004723</v>
       </c>
       <c r="C747" t="n">
-        <v>128.084106</v>
+        <v>128.084091</v>
       </c>
     </row>
     <row r="748">
@@ -11653,7 +11656,7 @@
         <v>103.627884</v>
       </c>
       <c r="C750" t="n">
-        <v>128.941162</v>
+        <v>128.941147</v>
       </c>
     </row>
     <row r="751">
@@ -11664,7 +11667,7 @@
         <v>108.054329</v>
       </c>
       <c r="C751" t="n">
-        <v>132.369431</v>
+        <v>132.369446</v>
       </c>
     </row>
     <row r="752">
@@ -11851,7 +11854,7 @@
         <v>103.480339</v>
       </c>
       <c r="C768" t="n">
-        <v>121.608467</v>
+        <v>121.608459</v>
       </c>
     </row>
     <row r="769">
@@ -11862,7 +11865,7 @@
         <v>104.070534</v>
       </c>
       <c r="C769" t="n">
-        <v>123.89399</v>
+        <v>123.893982</v>
       </c>
     </row>
     <row r="770">
@@ -11939,7 +11942,7 @@
         <v>107.955963</v>
       </c>
       <c r="C776" t="n">
-        <v>126.750877</v>
+        <v>126.750885</v>
       </c>
     </row>
     <row r="777">
@@ -11983,7 +11986,7 @@
         <v>110.857735</v>
       </c>
       <c r="C780" t="n">
-        <v>132.369431</v>
+        <v>132.369446</v>
       </c>
     </row>
     <row r="781">
@@ -12016,7 +12019,7 @@
         <v>111.644661</v>
       </c>
       <c r="C783" t="n">
-        <v>132.940811</v>
+        <v>132.940826</v>
       </c>
     </row>
     <row r="784">
@@ -12027,7 +12030,7 @@
         <v>111.447937</v>
       </c>
       <c r="C784" t="n">
-        <v>134.178802</v>
+        <v>134.178787</v>
       </c>
     </row>
     <row r="785">
@@ -12038,7 +12041,7 @@
         <v>112.333221</v>
       </c>
       <c r="C785" t="n">
-        <v>134.940643</v>
+        <v>134.940628</v>
       </c>
     </row>
     <row r="786">
@@ -12049,7 +12052,7 @@
         <v>115.087448</v>
       </c>
       <c r="C786" t="n">
-        <v>135.226318</v>
+        <v>135.226334</v>
       </c>
     </row>
     <row r="787">
@@ -12071,7 +12074,7 @@
         <v>114.595627</v>
       </c>
       <c r="C788" t="n">
-        <v>136.65477</v>
+        <v>136.654785</v>
       </c>
     </row>
     <row r="789">
@@ -12093,7 +12096,7 @@
         <v>116.366203</v>
       </c>
       <c r="C790" t="n">
-        <v>153.319977</v>
+        <v>153.319992</v>
       </c>
     </row>
     <row r="791">
@@ -12104,7 +12107,7 @@
         <v>116.218651</v>
       </c>
       <c r="C791" t="n">
-        <v>152.367706</v>
+        <v>152.367691</v>
       </c>
     </row>
     <row r="792">
@@ -12115,7 +12118,7 @@
         <v>118.82534</v>
       </c>
       <c r="C792" t="n">
-        <v>151.1297</v>
+        <v>151.129715</v>
       </c>
     </row>
     <row r="793">
@@ -12170,7 +12173,7 @@
         <v>120.54673</v>
       </c>
       <c r="C797" t="n">
-        <v>154.938889</v>
+        <v>154.938904</v>
       </c>
     </row>
     <row r="798">
@@ -12181,7 +12184,7 @@
         <v>120.497543</v>
       </c>
       <c r="C798" t="n">
-        <v>154.272278</v>
+        <v>154.272293</v>
       </c>
     </row>
     <row r="799">
@@ -12192,7 +12195,7 @@
         <v>120.349998</v>
       </c>
       <c r="C799" t="n">
-        <v>155.415039</v>
+        <v>155.415054</v>
       </c>
     </row>
     <row r="800">
@@ -12247,7 +12250,7 @@
         <v>118.25</v>
       </c>
       <c r="C804" t="n">
-        <v>155.224579</v>
+        <v>155.224594</v>
       </c>
     </row>
     <row r="805">
@@ -12258,7 +12261,7 @@
         <v>119.300003</v>
       </c>
       <c r="C805" t="n">
-        <v>159.986069</v>
+        <v>159.986084</v>
       </c>
     </row>
     <row r="806">
@@ -14602,6 +14605,17 @@
       </c>
       <c r="C1018" t="n">
         <v>228.600006</v>
+      </c>
+    </row>
+    <row r="1019">
+      <c r="A1019" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B1019" t="n">
+        <v>127.900002</v>
+      </c>
+      <c r="C1019" t="n">
+        <v>233</v>
       </c>
     </row>
   </sheetData>

--- a/Danske aktiekurser.xlsx
+++ b/Danske aktiekurser.xlsx
@@ -3439,7 +3439,7 @@
         <v>188.870804</v>
       </c>
       <c r="C3" t="n">
-        <v>190.824905</v>
+        <v>190.82489</v>
       </c>
     </row>
     <row r="4">
@@ -3447,7 +3447,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>190.51384</v>
+        <v>190.513855</v>
       </c>
       <c r="C4" t="n">
         <v>192.351486</v>
@@ -3458,10 +3458,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="n">
-        <v>190.74855</v>
+        <v>190.748566</v>
       </c>
       <c r="C5" t="n">
-        <v>192.046188</v>
+        <v>192.046173</v>
       </c>
     </row>
     <row r="6">
@@ -3469,10 +3469,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="n">
-        <v>191.843918</v>
+        <v>191.843903</v>
       </c>
       <c r="C6" t="n">
-        <v>191.740845</v>
+        <v>191.740875</v>
       </c>
     </row>
     <row r="7">
@@ -3483,7 +3483,7 @@
         <v>190.357361</v>
       </c>
       <c r="C7" t="n">
-        <v>191.588181</v>
+        <v>191.588196</v>
       </c>
     </row>
     <row r="8">
@@ -3491,7 +3491,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="n">
-        <v>194.347595</v>
+        <v>194.34758</v>
       </c>
       <c r="C8" t="n">
         <v>195.404694</v>
@@ -3527,7 +3527,7 @@
         <v>196.303574</v>
       </c>
       <c r="C11" t="n">
-        <v>193.572784</v>
+        <v>193.5728</v>
       </c>
     </row>
     <row r="12">
@@ -3535,10 +3535,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="n">
-        <v>195.521194</v>
+        <v>195.521179</v>
       </c>
       <c r="C12" t="n">
-        <v>192.50415</v>
+        <v>192.504166</v>
       </c>
     </row>
     <row r="13">
@@ -3546,7 +3546,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="n">
-        <v>195.990616</v>
+        <v>195.990631</v>
       </c>
       <c r="C13" t="n">
         <v>191.435547</v>
@@ -3557,10 +3557,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="n">
-        <v>191.452728</v>
+        <v>191.452713</v>
       </c>
       <c r="C14" t="n">
-        <v>191.588181</v>
+        <v>191.588196</v>
       </c>
     </row>
     <row r="15">
@@ -3604,7 +3604,7 @@
         <v>192.078644</v>
       </c>
       <c r="C18" t="n">
-        <v>190.214249</v>
+        <v>190.214264</v>
       </c>
     </row>
     <row r="19">
@@ -3626,7 +3626,7 @@
         <v>189.966156</v>
       </c>
       <c r="C20" t="n">
-        <v>187.466385</v>
+        <v>187.4664</v>
       </c>
     </row>
     <row r="21">
@@ -3634,7 +3634,7 @@
         <v>22</v>
       </c>
       <c r="B21" t="n">
-        <v>191.843918</v>
+        <v>191.843903</v>
       </c>
       <c r="C21" t="n">
         <v>187.771698</v>
@@ -3648,7 +3648,7 @@
         <v>189.966156</v>
       </c>
       <c r="C22" t="n">
-        <v>185.787109</v>
+        <v>185.787125</v>
       </c>
     </row>
     <row r="23">
@@ -3656,7 +3656,7 @@
         <v>24</v>
       </c>
       <c r="B23" t="n">
-        <v>190.51384</v>
+        <v>190.513855</v>
       </c>
       <c r="C23" t="n">
         <v>187.008408</v>
@@ -3667,10 +3667,10 @@
         <v>25</v>
       </c>
       <c r="B24" t="n">
-        <v>189.418488</v>
+        <v>189.418503</v>
       </c>
       <c r="C24" t="n">
-        <v>187.466385</v>
+        <v>187.4664</v>
       </c>
     </row>
     <row r="25">
@@ -3681,7 +3681,7 @@
         <v>191.609192</v>
       </c>
       <c r="C25" t="n">
-        <v>187.619034</v>
+        <v>187.619049</v>
       </c>
     </row>
     <row r="26">
@@ -3692,7 +3692,7 @@
         <v>191.609192</v>
       </c>
       <c r="C26" t="n">
-        <v>186.397751</v>
+        <v>186.397766</v>
       </c>
     </row>
     <row r="27">
@@ -3711,7 +3711,7 @@
         <v>29</v>
       </c>
       <c r="B28" t="n">
-        <v>189.262009</v>
+        <v>189.261993</v>
       </c>
       <c r="C28" t="n">
         <v>188.687653</v>
@@ -3725,7 +3725,7 @@
         <v>188.557846</v>
       </c>
       <c r="C29" t="n">
-        <v>187.161072</v>
+        <v>187.161057</v>
       </c>
     </row>
     <row r="30">
@@ -3736,7 +3736,7 @@
         <v>188.244888</v>
       </c>
       <c r="C30" t="n">
-        <v>185.787109</v>
+        <v>185.787125</v>
       </c>
     </row>
     <row r="31">
@@ -3755,10 +3755,10 @@
         <v>33</v>
       </c>
       <c r="B32" t="n">
-        <v>188.949066</v>
+        <v>188.949051</v>
       </c>
       <c r="C32" t="n">
-        <v>188.534988</v>
+        <v>188.535004</v>
       </c>
     </row>
     <row r="33">
@@ -3766,7 +3766,7 @@
         <v>34</v>
       </c>
       <c r="B33" t="n">
-        <v>191.061523</v>
+        <v>191.061508</v>
       </c>
       <c r="C33" t="n">
         <v>193.267456</v>
@@ -3777,7 +3777,7 @@
         <v>35</v>
       </c>
       <c r="B34" t="n">
-        <v>192.313354</v>
+        <v>192.31337</v>
       </c>
       <c r="C34" t="n">
         <v>193.420105</v>
@@ -3791,7 +3791,7 @@
         <v>194.660568</v>
       </c>
       <c r="C35" t="n">
-        <v>196.625992</v>
+        <v>196.625977</v>
       </c>
     </row>
     <row r="36">
@@ -3799,10 +3799,10 @@
         <v>37</v>
       </c>
       <c r="B36" t="n">
-        <v>194.895279</v>
+        <v>194.895264</v>
       </c>
       <c r="C36" t="n">
-        <v>196.167984</v>
+        <v>196.167969</v>
       </c>
     </row>
     <row r="37">
@@ -3821,10 +3821,10 @@
         <v>39</v>
       </c>
       <c r="B38" t="n">
-        <v>192.861023</v>
+        <v>192.861053</v>
       </c>
       <c r="C38" t="n">
-        <v>182.428604</v>
+        <v>182.428589</v>
       </c>
     </row>
     <row r="39">
@@ -3832,10 +3832,10 @@
         <v>40</v>
       </c>
       <c r="B39" t="n">
-        <v>193.252228</v>
+        <v>193.252243</v>
       </c>
       <c r="C39" t="n">
-        <v>180.444031</v>
+        <v>180.444016</v>
       </c>
     </row>
     <row r="40">
@@ -3846,7 +3846,7 @@
         <v>194.504074</v>
       </c>
       <c r="C40" t="n">
-        <v>186.245102</v>
+        <v>186.245087</v>
       </c>
     </row>
     <row r="41">
@@ -3857,7 +3857,7 @@
         <v>195.677673</v>
       </c>
       <c r="C41" t="n">
-        <v>183.802536</v>
+        <v>183.802551</v>
       </c>
     </row>
     <row r="42">
@@ -3887,10 +3887,10 @@
         <v>45</v>
       </c>
       <c r="B44" t="n">
-        <v>190.74855</v>
+        <v>190.748566</v>
       </c>
       <c r="C44" t="n">
-        <v>181.665298</v>
+        <v>181.665314</v>
       </c>
     </row>
     <row r="45">
@@ -3901,7 +3901,7 @@
         <v>189.731445</v>
       </c>
       <c r="C45" t="n">
-        <v>177.696136</v>
+        <v>177.696152</v>
       </c>
     </row>
     <row r="46">
@@ -3909,7 +3909,7 @@
         <v>47</v>
       </c>
       <c r="B46" t="n">
-        <v>190.044403</v>
+        <v>190.044388</v>
       </c>
       <c r="C46" t="n">
         <v>179.833389</v>
@@ -3923,7 +3923,7 @@
         <v>189.34024</v>
       </c>
       <c r="C47" t="n">
-        <v>180.749344</v>
+        <v>180.749329</v>
       </c>
     </row>
     <row r="48">
@@ -3931,10 +3931,10 @@
         <v>49</v>
       </c>
       <c r="B48" t="n">
-        <v>191.530975</v>
+        <v>191.53096</v>
       </c>
       <c r="C48" t="n">
-        <v>180.749344</v>
+        <v>180.749329</v>
       </c>
     </row>
     <row r="49">
@@ -3942,10 +3942,10 @@
         <v>50</v>
       </c>
       <c r="B49" t="n">
-        <v>191.218002</v>
+        <v>191.217987</v>
       </c>
       <c r="C49" t="n">
-        <v>182.428604</v>
+        <v>182.428589</v>
       </c>
     </row>
     <row r="50">
@@ -3964,7 +3964,7 @@
         <v>52</v>
       </c>
       <c r="B51" t="n">
-        <v>193.095749</v>
+        <v>193.095764</v>
       </c>
       <c r="C51" t="n">
         <v>180.291351</v>
@@ -3975,7 +3975,7 @@
         <v>53</v>
       </c>
       <c r="B52" t="n">
-        <v>193.799927</v>
+        <v>193.799911</v>
       </c>
       <c r="C52" t="n">
         <v>183.344559</v>
@@ -3997,7 +3997,7 @@
         <v>55</v>
       </c>
       <c r="B54" t="n">
-        <v>191.061523</v>
+        <v>191.061508</v>
       </c>
       <c r="C54" t="n">
         <v>183.113083</v>
@@ -4030,10 +4030,10 @@
         <v>58</v>
       </c>
       <c r="B57" t="n">
-        <v>191.714172</v>
+        <v>191.714188</v>
       </c>
       <c r="C57" t="n">
-        <v>185.35791</v>
+        <v>185.357895</v>
       </c>
     </row>
     <row r="58">
@@ -4044,7 +4044,7 @@
         <v>190.572052</v>
       </c>
       <c r="C58" t="n">
-        <v>184.075165</v>
+        <v>184.07515</v>
       </c>
     </row>
     <row r="59">
@@ -4055,7 +4055,7 @@
         <v>186.493027</v>
       </c>
       <c r="C59" t="n">
-        <v>181.349304</v>
+        <v>181.349289</v>
       </c>
     </row>
     <row r="60">
@@ -4063,7 +4063,7 @@
         <v>61</v>
       </c>
       <c r="B60" t="n">
-        <v>186.00354</v>
+        <v>186.003525</v>
       </c>
       <c r="C60" t="n">
         <v>182.632065</v>
@@ -4077,7 +4077,7 @@
         <v>184.208771</v>
       </c>
       <c r="C61" t="n">
-        <v>181.669998</v>
+        <v>181.669983</v>
       </c>
     </row>
     <row r="62">
@@ -4096,7 +4096,7 @@
         <v>64</v>
       </c>
       <c r="B63" t="n">
-        <v>183.882431</v>
+        <v>183.882446</v>
       </c>
       <c r="C63" t="n">
         <v>178.14241</v>
@@ -4110,7 +4110,7 @@
         <v>183.148224</v>
       </c>
       <c r="C64" t="n">
-        <v>178.463104</v>
+        <v>178.46312</v>
       </c>
     </row>
     <row r="65">
@@ -4129,10 +4129,10 @@
         <v>67</v>
       </c>
       <c r="B66" t="n">
-        <v>183.882431</v>
+        <v>183.882446</v>
       </c>
       <c r="C66" t="n">
-        <v>178.944153</v>
+        <v>178.944138</v>
       </c>
     </row>
     <row r="67">
@@ -4151,10 +4151,10 @@
         <v>69</v>
       </c>
       <c r="B68" t="n">
-        <v>182.985046</v>
+        <v>182.985062</v>
       </c>
       <c r="C68" t="n">
-        <v>180.868301</v>
+        <v>180.868271</v>
       </c>
     </row>
     <row r="69">
@@ -4165,7 +4165,7 @@
         <v>183.39296</v>
       </c>
       <c r="C69" t="n">
-        <v>180.547592</v>
+        <v>180.547577</v>
       </c>
     </row>
     <row r="70">
@@ -4176,7 +4176,7 @@
         <v>179.477097</v>
       </c>
       <c r="C70" t="n">
-        <v>180.868301</v>
+        <v>180.868271</v>
       </c>
     </row>
     <row r="71">
@@ -4195,7 +4195,7 @@
         <v>73</v>
       </c>
       <c r="B72" t="n">
-        <v>180.211304</v>
+        <v>180.211319</v>
       </c>
       <c r="C72" t="n">
         <v>182.311371</v>
@@ -4206,7 +4206,7 @@
         <v>74</v>
       </c>
       <c r="B73" t="n">
-        <v>180.374481</v>
+        <v>180.374496</v>
       </c>
       <c r="C73" t="n">
         <v>181.990677</v>
@@ -4220,7 +4220,7 @@
         <v>181.9245</v>
       </c>
       <c r="C74" t="n">
-        <v>184.075165</v>
+        <v>184.07515</v>
       </c>
     </row>
     <row r="75">
@@ -4253,7 +4253,7 @@
         <v>182.577164</v>
       </c>
       <c r="C77" t="n">
-        <v>190.007889</v>
+        <v>190.007904</v>
       </c>
     </row>
     <row r="78">
@@ -4264,7 +4264,7 @@
         <v>183.229797</v>
       </c>
       <c r="C78" t="n">
-        <v>192.894073</v>
+        <v>192.894104</v>
       </c>
     </row>
     <row r="79">
@@ -4275,7 +4275,7 @@
         <v>184.127182</v>
       </c>
       <c r="C79" t="n">
-        <v>194.657867</v>
+        <v>194.657883</v>
       </c>
     </row>
     <row r="80">
@@ -4283,7 +4283,7 @@
         <v>81</v>
       </c>
       <c r="B80" t="n">
-        <v>178.498123</v>
+        <v>178.498138</v>
       </c>
       <c r="C80" t="n">
         <v>187.602722</v>
@@ -4297,7 +4297,7 @@
         <v>179.069183</v>
       </c>
       <c r="C81" t="n">
-        <v>186.319962</v>
+        <v>186.319977</v>
       </c>
     </row>
     <row r="82">
@@ -4305,10 +4305,10 @@
         <v>83</v>
       </c>
       <c r="B82" t="n">
-        <v>175.724396</v>
+        <v>175.72438</v>
       </c>
       <c r="C82" t="n">
-        <v>183.433777</v>
+        <v>183.433792</v>
       </c>
     </row>
     <row r="83">
@@ -4316,10 +4316,10 @@
         <v>84</v>
       </c>
       <c r="B83" t="n">
-        <v>177.763885</v>
+        <v>177.763901</v>
       </c>
       <c r="C83" t="n">
-        <v>181.669998</v>
+        <v>181.669983</v>
       </c>
     </row>
     <row r="84">
@@ -4330,7 +4330,7 @@
         <v>177.84549</v>
       </c>
       <c r="C84" t="n">
-        <v>184.716507</v>
+        <v>184.716522</v>
       </c>
     </row>
     <row r="85">
@@ -4338,7 +4338,7 @@
         <v>86</v>
       </c>
       <c r="B85" t="n">
-        <v>176.05072</v>
+        <v>176.050735</v>
       </c>
       <c r="C85" t="n">
         <v>181.990677</v>
@@ -4349,10 +4349,10 @@
         <v>87</v>
       </c>
       <c r="B86" t="n">
-        <v>176.132278</v>
+        <v>176.132294</v>
       </c>
       <c r="C86" t="n">
-        <v>183.433777</v>
+        <v>183.433792</v>
       </c>
     </row>
     <row r="87">
@@ -4371,10 +4371,10 @@
         <v>89</v>
       </c>
       <c r="B88" t="n">
-        <v>176.784927</v>
+        <v>176.784943</v>
       </c>
       <c r="C88" t="n">
-        <v>187.121704</v>
+        <v>187.121689</v>
       </c>
     </row>
     <row r="89">
@@ -4385,7 +4385,7 @@
         <v>175.561234</v>
       </c>
       <c r="C89" t="n">
-        <v>186.961349</v>
+        <v>186.961365</v>
       </c>
     </row>
     <row r="90">
@@ -4393,10 +4393,10 @@
         <v>91</v>
       </c>
       <c r="B90" t="n">
-        <v>174.990158</v>
+        <v>174.990173</v>
       </c>
       <c r="C90" t="n">
-        <v>186.640656</v>
+        <v>186.640671</v>
       </c>
     </row>
     <row r="91">
@@ -4440,7 +4440,7 @@
         <v>176.458618</v>
       </c>
       <c r="C94" t="n">
-        <v>184.075165</v>
+        <v>184.07515</v>
       </c>
     </row>
     <row r="95">
@@ -4448,10 +4448,10 @@
         <v>96</v>
       </c>
       <c r="B95" t="n">
-        <v>176.132278</v>
+        <v>176.132294</v>
       </c>
       <c r="C95" t="n">
-        <v>185.35791</v>
+        <v>185.357895</v>
       </c>
     </row>
     <row r="96">
@@ -4459,10 +4459,10 @@
         <v>97</v>
       </c>
       <c r="B96" t="n">
-        <v>176.948105</v>
+        <v>176.94809</v>
       </c>
       <c r="C96" t="n">
-        <v>185.037216</v>
+        <v>185.037231</v>
       </c>
     </row>
     <row r="97">
@@ -4481,10 +4481,10 @@
         <v>99</v>
       </c>
       <c r="B98" t="n">
-        <v>173.276978</v>
+        <v>173.276962</v>
       </c>
       <c r="C98" t="n">
-        <v>181.669998</v>
+        <v>181.669983</v>
       </c>
     </row>
     <row r="99">
@@ -4514,10 +4514,10 @@
         <v>102</v>
       </c>
       <c r="B101" t="n">
-        <v>168.871643</v>
+        <v>168.871628</v>
       </c>
       <c r="C101" t="n">
-        <v>175.737259</v>
+        <v>175.737244</v>
       </c>
     </row>
     <row r="102">
@@ -4536,10 +4536,10 @@
         <v>104</v>
       </c>
       <c r="B103" t="n">
-        <v>176.295471</v>
+        <v>176.295456</v>
       </c>
       <c r="C103" t="n">
-        <v>178.30275</v>
+        <v>178.302765</v>
       </c>
     </row>
     <row r="104">
@@ -4550,7 +4550,7 @@
         <v>178.253387</v>
       </c>
       <c r="C104" t="n">
-        <v>178.944153</v>
+        <v>178.944138</v>
       </c>
     </row>
     <row r="105">
@@ -4558,7 +4558,7 @@
         <v>106</v>
       </c>
       <c r="B105" t="n">
-        <v>175.724396</v>
+        <v>175.72438</v>
       </c>
       <c r="C105" t="n">
         <v>177.982086</v>
@@ -4572,7 +4572,7 @@
         <v>175.561234</v>
       </c>
       <c r="C106" t="n">
-        <v>177.501038</v>
+        <v>177.501053</v>
       </c>
     </row>
     <row r="107">
@@ -4583,7 +4583,7 @@
         <v>174.092773</v>
       </c>
       <c r="C107" t="n">
-        <v>175.737259</v>
+        <v>175.737244</v>
       </c>
     </row>
     <row r="108">
@@ -4602,10 +4602,10 @@
         <v>110</v>
       </c>
       <c r="B109" t="n">
-        <v>178.498123</v>
+        <v>178.498138</v>
       </c>
       <c r="C109" t="n">
-        <v>177.180344</v>
+        <v>177.180359</v>
       </c>
     </row>
     <row r="110">
@@ -4624,7 +4624,7 @@
         <v>112</v>
       </c>
       <c r="B111" t="n">
-        <v>178.742874</v>
+        <v>178.742889</v>
       </c>
       <c r="C111" t="n">
         <v>178.623459</v>
@@ -4635,10 +4635,10 @@
         <v>113</v>
       </c>
       <c r="B112" t="n">
-        <v>177.682327</v>
+        <v>177.682343</v>
       </c>
       <c r="C112" t="n">
-        <v>177.821732</v>
+        <v>177.821747</v>
       </c>
     </row>
     <row r="113">
@@ -4646,7 +4646,7 @@
         <v>114</v>
       </c>
       <c r="B113" t="n">
-        <v>173.929611</v>
+        <v>173.929626</v>
       </c>
       <c r="C113" t="n">
         <v>175.897598</v>
@@ -4660,7 +4660,7 @@
         <v>171.971695</v>
       </c>
       <c r="C114" t="n">
-        <v>175.095871</v>
+        <v>175.095886</v>
       </c>
     </row>
     <row r="115">
@@ -4668,7 +4668,7 @@
         <v>116</v>
       </c>
       <c r="B115" t="n">
-        <v>170.258484</v>
+        <v>170.258499</v>
       </c>
       <c r="C115" t="n">
         <v>175.416565</v>
@@ -4690,10 +4690,10 @@
         <v>118</v>
       </c>
       <c r="B117" t="n">
-        <v>168.626877</v>
+        <v>168.626892</v>
       </c>
       <c r="C117" t="n">
-        <v>174.294144</v>
+        <v>174.294159</v>
       </c>
     </row>
     <row r="118">
@@ -4701,10 +4701,10 @@
         <v>119</v>
       </c>
       <c r="B118" t="n">
-        <v>166.097916</v>
+        <v>166.0979</v>
       </c>
       <c r="C118" t="n">
-        <v>174.294144</v>
+        <v>174.294159</v>
       </c>
     </row>
     <row r="119">
@@ -4715,7 +4715,7 @@
         <v>161.243851</v>
       </c>
       <c r="C119" t="n">
-        <v>173.813126</v>
+        <v>173.813141</v>
       </c>
     </row>
     <row r="120">
@@ -4723,7 +4723,7 @@
         <v>121</v>
       </c>
       <c r="B120" t="n">
-        <v>162.018875</v>
+        <v>162.01889</v>
       </c>
       <c r="C120" t="n">
         <v>173.652771</v>
@@ -4734,7 +4734,7 @@
         <v>122</v>
       </c>
       <c r="B121" t="n">
-        <v>162.018875</v>
+        <v>162.01889</v>
       </c>
       <c r="C121" t="n">
         <v>174.454514</v>
@@ -4770,7 +4770,7 @@
         <v>164.303116</v>
       </c>
       <c r="C124" t="n">
-        <v>177.501038</v>
+        <v>177.501053</v>
       </c>
     </row>
     <row r="125">
@@ -4781,7 +4781,7 @@
         <v>160.999115</v>
       </c>
       <c r="C125" t="n">
-        <v>179.264847</v>
+        <v>179.264832</v>
       </c>
     </row>
     <row r="126">
@@ -4792,7 +4792,7 @@
         <v>156.797714</v>
       </c>
       <c r="C126" t="n">
-        <v>177.501038</v>
+        <v>177.501053</v>
       </c>
     </row>
     <row r="127">
@@ -4803,7 +4803,7 @@
         <v>155.533218</v>
       </c>
       <c r="C127" t="n">
-        <v>177.661407</v>
+        <v>177.661377</v>
       </c>
     </row>
     <row r="128">
@@ -4822,7 +4822,7 @@
         <v>130</v>
       </c>
       <c r="B129" t="n">
-        <v>158.103012</v>
+        <v>158.102997</v>
       </c>
       <c r="C129" t="n">
         <v>182.151031</v>
@@ -4866,7 +4866,7 @@
         <v>134</v>
       </c>
       <c r="B133" t="n">
-        <v>158.06221</v>
+        <v>158.062225</v>
       </c>
       <c r="C133" t="n">
         <v>181.990677</v>
@@ -4891,7 +4891,7 @@
         <v>144.642227</v>
       </c>
       <c r="C135" t="n">
-        <v>177.661407</v>
+        <v>177.661377</v>
       </c>
     </row>
     <row r="136">
@@ -4899,10 +4899,10 @@
         <v>137</v>
       </c>
       <c r="B136" t="n">
-        <v>148.394928</v>
+        <v>148.394913</v>
       </c>
       <c r="C136" t="n">
-        <v>179.74585</v>
+        <v>179.745865</v>
       </c>
     </row>
     <row r="137">
@@ -4910,10 +4910,10 @@
         <v>138</v>
       </c>
       <c r="B137" t="n">
-        <v>147.456741</v>
+        <v>147.456757</v>
       </c>
       <c r="C137" t="n">
-        <v>180.387222</v>
+        <v>180.387238</v>
       </c>
     </row>
     <row r="138">
@@ -4921,10 +4921,10 @@
         <v>139</v>
       </c>
       <c r="B138" t="n">
-        <v>149.985764</v>
+        <v>149.985748</v>
       </c>
       <c r="C138" t="n">
-        <v>181.669998</v>
+        <v>181.669983</v>
       </c>
     </row>
     <row r="139">
@@ -4935,7 +4935,7 @@
         <v>151.94368</v>
       </c>
       <c r="C139" t="n">
-        <v>185.037216</v>
+        <v>185.037231</v>
       </c>
     </row>
     <row r="140">
@@ -4943,7 +4943,7 @@
         <v>141</v>
       </c>
       <c r="B140" t="n">
-        <v>150.92392</v>
+        <v>150.923935</v>
       </c>
       <c r="C140" t="n">
         <v>185.518265</v>
@@ -4954,10 +4954,10 @@
         <v>142</v>
       </c>
       <c r="B141" t="n">
-        <v>152.800278</v>
+        <v>152.800262</v>
       </c>
       <c r="C141" t="n">
-        <v>186.319962</v>
+        <v>186.319977</v>
       </c>
     </row>
     <row r="142">
@@ -4987,10 +4987,10 @@
         <v>145</v>
       </c>
       <c r="B144" t="n">
-        <v>151.127869</v>
+        <v>151.127884</v>
       </c>
       <c r="C144" t="n">
-        <v>189.526855</v>
+        <v>189.526871</v>
       </c>
     </row>
     <row r="145">
@@ -4998,7 +4998,7 @@
         <v>146</v>
       </c>
       <c r="B145" t="n">
-        <v>149.12915</v>
+        <v>149.129166</v>
       </c>
       <c r="C145" t="n">
         <v>188.083771</v>
@@ -5009,7 +5009,7 @@
         <v>147</v>
       </c>
       <c r="B146" t="n">
-        <v>146.029083</v>
+        <v>146.029099</v>
       </c>
       <c r="C146" t="n">
         <v>184.395844</v>
@@ -5020,10 +5020,10 @@
         <v>148</v>
       </c>
       <c r="B147" t="n">
-        <v>149.12915</v>
+        <v>149.129166</v>
       </c>
       <c r="C147" t="n">
-        <v>185.037216</v>
+        <v>185.037231</v>
       </c>
     </row>
     <row r="148">
@@ -5031,10 +5031,10 @@
         <v>149</v>
       </c>
       <c r="B148" t="n">
-        <v>147.538345</v>
+        <v>147.53833</v>
       </c>
       <c r="C148" t="n">
-        <v>177.180344</v>
+        <v>177.180359</v>
       </c>
     </row>
     <row r="149">
@@ -5042,10 +5042,10 @@
         <v>150</v>
       </c>
       <c r="B149" t="n">
-        <v>147.905457</v>
+        <v>147.905441</v>
       </c>
       <c r="C149" t="n">
-        <v>180.387222</v>
+        <v>180.387238</v>
       </c>
     </row>
     <row r="150">
@@ -5067,7 +5067,7 @@
         <v>148.231766</v>
       </c>
       <c r="C151" t="n">
-        <v>179.264847</v>
+        <v>179.264832</v>
       </c>
     </row>
     <row r="152">
@@ -5075,10 +5075,10 @@
         <v>153</v>
       </c>
       <c r="B152" t="n">
-        <v>149.700211</v>
+        <v>149.700226</v>
       </c>
       <c r="C152" t="n">
-        <v>177.501038</v>
+        <v>177.501053</v>
       </c>
     </row>
     <row r="153">
@@ -5086,10 +5086,10 @@
         <v>154</v>
       </c>
       <c r="B153" t="n">
-        <v>150.02652</v>
+        <v>150.026535</v>
       </c>
       <c r="C153" t="n">
-        <v>178.30275</v>
+        <v>178.302765</v>
       </c>
     </row>
     <row r="154">
@@ -5119,7 +5119,7 @@
         <v>157</v>
       </c>
       <c r="B156" t="n">
-        <v>148.313339</v>
+        <v>148.313354</v>
       </c>
       <c r="C156" t="n">
         <v>176.218292</v>
@@ -5130,10 +5130,10 @@
         <v>158</v>
       </c>
       <c r="B157" t="n">
-        <v>149.210724</v>
+        <v>149.210739</v>
       </c>
       <c r="C157" t="n">
-        <v>175.095871</v>
+        <v>175.095886</v>
       </c>
     </row>
     <row r="158">
@@ -5141,10 +5141,10 @@
         <v>159</v>
       </c>
       <c r="B158" t="n">
-        <v>150.230469</v>
+        <v>150.230484</v>
       </c>
       <c r="C158" t="n">
-        <v>175.737259</v>
+        <v>175.737244</v>
       </c>
     </row>
     <row r="159">
@@ -5155,7 +5155,7 @@
         <v>150.719971</v>
       </c>
       <c r="C159" t="n">
-        <v>177.661407</v>
+        <v>177.661377</v>
       </c>
     </row>
     <row r="160">
@@ -5185,7 +5185,7 @@
         <v>163</v>
       </c>
       <c r="B162" t="n">
-        <v>154.717407</v>
+        <v>154.717422</v>
       </c>
       <c r="C162" t="n">
         <v>175.256226</v>
@@ -5196,7 +5196,7 @@
         <v>164</v>
       </c>
       <c r="B163" t="n">
-        <v>157.817474</v>
+        <v>157.817459</v>
       </c>
       <c r="C163" t="n">
         <v>175.256226</v>
@@ -5210,7 +5210,7 @@
         <v>156.716141</v>
       </c>
       <c r="C164" t="n">
-        <v>155.614075</v>
+        <v>155.614059</v>
       </c>
     </row>
     <row r="165">
@@ -5232,7 +5232,7 @@
         <v>156.634567</v>
       </c>
       <c r="C166" t="n">
-        <v>151.926132</v>
+        <v>151.926147</v>
       </c>
     </row>
     <row r="167">
@@ -5240,10 +5240,10 @@
         <v>168</v>
       </c>
       <c r="B167" t="n">
-        <v>154.146347</v>
+        <v>154.146332</v>
       </c>
       <c r="C167" t="n">
-        <v>150.723557</v>
+        <v>150.723541</v>
       </c>
     </row>
     <row r="168">
@@ -5254,7 +5254,7 @@
         <v>154.309509</v>
       </c>
       <c r="C168" t="n">
-        <v>149.120102</v>
+        <v>149.120117</v>
       </c>
     </row>
     <row r="169">
@@ -5262,7 +5262,7 @@
         <v>170</v>
       </c>
       <c r="B169" t="n">
-        <v>144.764603</v>
+        <v>144.764587</v>
       </c>
       <c r="C169" t="n">
         <v>148.39856</v>
@@ -5273,7 +5273,7 @@
         <v>171</v>
       </c>
       <c r="B170" t="n">
-        <v>148.272552</v>
+        <v>148.272568</v>
       </c>
       <c r="C170" t="n">
         <v>147.917542</v>
@@ -5287,7 +5287,7 @@
         <v>150.719971</v>
       </c>
       <c r="C171" t="n">
-        <v>148.158051</v>
+        <v>148.158066</v>
       </c>
     </row>
     <row r="172">
@@ -5295,7 +5295,7 @@
         <v>173</v>
       </c>
       <c r="B172" t="n">
-        <v>144.397491</v>
+        <v>144.397476</v>
       </c>
       <c r="C172" t="n">
         <v>148.799438</v>
@@ -5317,7 +5317,7 @@
         <v>175</v>
       </c>
       <c r="B174" t="n">
-        <v>139.217117</v>
+        <v>139.217133</v>
       </c>
       <c r="C174" t="n">
         <v>147.837357</v>
@@ -5328,7 +5328,7 @@
         <v>176</v>
       </c>
       <c r="B175" t="n">
-        <v>137.096024</v>
+        <v>137.096039</v>
       </c>
       <c r="C175" t="n">
         <v>148.39856</v>
@@ -5339,10 +5339,10 @@
         <v>177</v>
       </c>
       <c r="B176" t="n">
-        <v>140.114502</v>
+        <v>140.114487</v>
       </c>
       <c r="C176" t="n">
-        <v>148.879593</v>
+        <v>148.879578</v>
       </c>
     </row>
     <row r="177">
@@ -5364,7 +5364,7 @@
         <v>137.748672</v>
       </c>
       <c r="C178" t="n">
-        <v>149.200302</v>
+        <v>149.200287</v>
       </c>
     </row>
     <row r="179">
@@ -5386,7 +5386,7 @@
         <v>137.871048</v>
       </c>
       <c r="C180" t="n">
-        <v>149.92186</v>
+        <v>149.921844</v>
       </c>
     </row>
     <row r="181">
@@ -5394,10 +5394,10 @@
         <v>182</v>
       </c>
       <c r="B181" t="n">
-        <v>144.397491</v>
+        <v>144.397476</v>
       </c>
       <c r="C181" t="n">
-        <v>151.284775</v>
+        <v>151.28476</v>
       </c>
     </row>
     <row r="182">
@@ -5408,7 +5408,7 @@
         <v>138.727646</v>
       </c>
       <c r="C182" t="n">
-        <v>152.888214</v>
+        <v>152.888199</v>
       </c>
     </row>
     <row r="183">
@@ -5430,7 +5430,7 @@
         <v>138.686844</v>
       </c>
       <c r="C184" t="n">
-        <v>152.968384</v>
+        <v>152.968369</v>
       </c>
     </row>
     <row r="185">
@@ -5441,7 +5441,7 @@
         <v>140.563202</v>
       </c>
       <c r="C185" t="n">
-        <v>155.934753</v>
+        <v>155.934738</v>
       </c>
     </row>
     <row r="186">
@@ -5449,7 +5449,7 @@
         <v>187</v>
       </c>
       <c r="B186" t="n">
-        <v>138.768448</v>
+        <v>138.768433</v>
       </c>
       <c r="C186" t="n">
         <v>151.364929</v>
@@ -5471,10 +5471,10 @@
         <v>189</v>
       </c>
       <c r="B188" t="n">
-        <v>138.238144</v>
+        <v>138.238159</v>
       </c>
       <c r="C188" t="n">
-        <v>152.647675</v>
+        <v>152.64769</v>
       </c>
     </row>
     <row r="189">
@@ -5496,7 +5496,7 @@
         <v>135.627579</v>
       </c>
       <c r="C190" t="n">
-        <v>149.440781</v>
+        <v>149.440811</v>
       </c>
     </row>
     <row r="191">
@@ -5507,7 +5507,7 @@
         <v>129.386673</v>
       </c>
       <c r="C191" t="n">
-        <v>148.158051</v>
+        <v>148.158066</v>
       </c>
     </row>
     <row r="192">
@@ -5515,10 +5515,10 @@
         <v>193</v>
       </c>
       <c r="B192" t="n">
-        <v>121.310196</v>
+        <v>121.310204</v>
       </c>
       <c r="C192" t="n">
-        <v>150.483032</v>
+        <v>150.483047</v>
       </c>
     </row>
     <row r="193">
@@ -5548,7 +5548,7 @@
         <v>196</v>
       </c>
       <c r="B195" t="n">
-        <v>117.88382</v>
+        <v>117.883827</v>
       </c>
       <c r="C195" t="n">
         <v>143.027023</v>
@@ -5562,7 +5562,7 @@
         <v>115.191666</v>
       </c>
       <c r="C196" t="n">
-        <v>140.782227</v>
+        <v>140.782211</v>
       </c>
     </row>
     <row r="197">
@@ -5570,10 +5570,10 @@
         <v>198</v>
       </c>
       <c r="B197" t="n">
-        <v>115.273247</v>
+        <v>115.273254</v>
       </c>
       <c r="C197" t="n">
-        <v>141.904633</v>
+        <v>141.904617</v>
       </c>
     </row>
     <row r="198">
@@ -5617,7 +5617,7 @@
         <v>110.704735</v>
       </c>
       <c r="C201" t="n">
-        <v>143.187378</v>
+        <v>143.187393</v>
       </c>
     </row>
     <row r="202">
@@ -5628,7 +5628,7 @@
         <v>107.033607</v>
       </c>
       <c r="C202" t="n">
-        <v>142.706345</v>
+        <v>142.70636</v>
       </c>
     </row>
     <row r="203">
@@ -5650,7 +5650,7 @@
         <v>103.280914</v>
       </c>
       <c r="C204" t="n">
-        <v>140.782227</v>
+        <v>140.782211</v>
       </c>
     </row>
     <row r="205">
@@ -5658,7 +5658,7 @@
         <v>206</v>
       </c>
       <c r="B205" t="n">
-        <v>102.505898</v>
+        <v>102.50589</v>
       </c>
       <c r="C205" t="n">
         <v>141.503769</v>
@@ -5672,7 +5672,7 @@
         <v>103.076958</v>
       </c>
       <c r="C206" t="n">
-        <v>142.064987</v>
+        <v>142.064972</v>
       </c>
     </row>
     <row r="207">
@@ -5716,7 +5716,7 @@
         <v>103.076958</v>
       </c>
       <c r="C210" t="n">
-        <v>122.102127</v>
+        <v>122.102119</v>
       </c>
     </row>
     <row r="211">
@@ -5724,10 +5724,10 @@
         <v>212</v>
       </c>
       <c r="B211" t="n">
-        <v>108.134956</v>
+        <v>108.134949</v>
       </c>
       <c r="C211" t="n">
-        <v>123.625389</v>
+        <v>123.625381</v>
       </c>
     </row>
     <row r="212">
@@ -5735,10 +5735,10 @@
         <v>213</v>
       </c>
       <c r="B212" t="n">
-        <v>111.765282</v>
+        <v>111.765289</v>
       </c>
       <c r="C212" t="n">
-        <v>127.874504</v>
+        <v>127.874512</v>
       </c>
     </row>
     <row r="213">
@@ -5746,10 +5746,10 @@
         <v>214</v>
       </c>
       <c r="B213" t="n">
-        <v>110.337624</v>
+        <v>110.337616</v>
       </c>
       <c r="C213" t="n">
-        <v>130.199493</v>
+        <v>130.199509</v>
       </c>
     </row>
     <row r="214">
@@ -5757,10 +5757,10 @@
         <v>215</v>
       </c>
       <c r="B214" t="n">
-        <v>110.174461</v>
+        <v>110.174469</v>
       </c>
       <c r="C214" t="n">
-        <v>130.680542</v>
+        <v>130.680527</v>
       </c>
     </row>
     <row r="215">
@@ -5768,7 +5768,7 @@
         <v>216</v>
       </c>
       <c r="B215" t="n">
-        <v>117.516708</v>
+        <v>117.516701</v>
       </c>
       <c r="C215" t="n">
         <v>132.52449</v>
@@ -5790,10 +5790,10 @@
         <v>218</v>
       </c>
       <c r="B217" t="n">
-        <v>117.598282</v>
+        <v>117.598274</v>
       </c>
       <c r="C217" t="n">
-        <v>131.32193</v>
+        <v>131.321915</v>
       </c>
     </row>
     <row r="218">
@@ -5801,10 +5801,10 @@
         <v>219</v>
       </c>
       <c r="B218" t="n">
-        <v>116.619324</v>
+        <v>116.619316</v>
       </c>
       <c r="C218" t="n">
-        <v>130.440018</v>
+        <v>130.440002</v>
       </c>
     </row>
     <row r="219">
@@ -5823,10 +5823,10 @@
         <v>221</v>
       </c>
       <c r="B220" t="n">
-        <v>117.598282</v>
+        <v>117.598274</v>
       </c>
       <c r="C220" t="n">
-        <v>129.237442</v>
+        <v>129.237427</v>
       </c>
     </row>
     <row r="221">
@@ -5837,7 +5837,7 @@
         <v>113.519257</v>
       </c>
       <c r="C221" t="n">
-        <v>127.874504</v>
+        <v>127.874512</v>
       </c>
     </row>
     <row r="222">
@@ -5848,7 +5848,7 @@
         <v>111.602127</v>
       </c>
       <c r="C222" t="n">
-        <v>127.553825</v>
+        <v>127.553833</v>
       </c>
     </row>
     <row r="223">
@@ -5856,7 +5856,7 @@
         <v>224</v>
       </c>
       <c r="B223" t="n">
-        <v>110.500778</v>
+        <v>110.500786</v>
       </c>
       <c r="C223" t="n">
         <v>128.756409</v>
@@ -5870,7 +5870,7 @@
         <v>106.544136</v>
       </c>
       <c r="C224" t="n">
-        <v>125.950386</v>
+        <v>125.950378</v>
       </c>
     </row>
     <row r="225">
@@ -5881,7 +5881,7 @@
         <v>107.441513</v>
       </c>
       <c r="C225" t="n">
-        <v>127.874504</v>
+        <v>127.874512</v>
       </c>
     </row>
     <row r="226">
@@ -5889,10 +5889,10 @@
         <v>227</v>
       </c>
       <c r="B226" t="n">
-        <v>108.461273</v>
+        <v>108.461266</v>
       </c>
       <c r="C226" t="n">
-        <v>127.874504</v>
+        <v>127.874512</v>
       </c>
     </row>
     <row r="227">
@@ -5900,10 +5900,10 @@
         <v>228</v>
       </c>
       <c r="B227" t="n">
-        <v>108.869164</v>
+        <v>108.869171</v>
       </c>
       <c r="C227" t="n">
-        <v>128.27536</v>
+        <v>128.275375</v>
       </c>
     </row>
     <row r="228">
@@ -5947,7 +5947,7 @@
         <v>107.441513</v>
       </c>
       <c r="C231" t="n">
-        <v>130.359848</v>
+        <v>130.359833</v>
       </c>
     </row>
     <row r="232">
@@ -5955,10 +5955,10 @@
         <v>233</v>
       </c>
       <c r="B232" t="n">
-        <v>107.19677</v>
+        <v>107.196777</v>
       </c>
       <c r="C232" t="n">
-        <v>130.359848</v>
+        <v>130.359833</v>
       </c>
     </row>
     <row r="233">
@@ -5966,7 +5966,7 @@
         <v>234</v>
       </c>
       <c r="B233" t="n">
-        <v>108.706017</v>
+        <v>108.706009</v>
       </c>
       <c r="C233" t="n">
         <v>126.671928</v>
@@ -5977,10 +5977,10 @@
         <v>235</v>
       </c>
       <c r="B234" t="n">
-        <v>108.583641</v>
+        <v>108.583649</v>
       </c>
       <c r="C234" t="n">
-        <v>127.152977</v>
+        <v>127.152962</v>
       </c>
     </row>
     <row r="235">
@@ -5988,7 +5988,7 @@
         <v>236</v>
       </c>
       <c r="B235" t="n">
-        <v>114.620605</v>
+        <v>114.620598</v>
       </c>
       <c r="C235" t="n">
         <v>129.79863</v>
@@ -5999,10 +5999,10 @@
         <v>237</v>
       </c>
       <c r="B236" t="n">
-        <v>111.316582</v>
+        <v>111.316589</v>
       </c>
       <c r="C236" t="n">
-        <v>126.992607</v>
+        <v>126.992615</v>
       </c>
     </row>
     <row r="237">
@@ -6010,10 +6010,10 @@
         <v>238</v>
       </c>
       <c r="B237" t="n">
-        <v>116.007462</v>
+        <v>116.007469</v>
       </c>
       <c r="C237" t="n">
-        <v>129.558136</v>
+        <v>129.558121</v>
       </c>
     </row>
     <row r="238">
@@ -6024,7 +6024,7 @@
         <v>112.050827</v>
       </c>
       <c r="C238" t="n">
-        <v>127.152977</v>
+        <v>127.152962</v>
       </c>
     </row>
     <row r="239">
@@ -6032,10 +6032,10 @@
         <v>240</v>
       </c>
       <c r="B239" t="n">
-        <v>114.212692</v>
+        <v>114.2127</v>
       </c>
       <c r="C239" t="n">
-        <v>129.558136</v>
+        <v>129.558121</v>
       </c>
     </row>
     <row r="240">
@@ -6046,7 +6046,7 @@
         <v>113.519257</v>
       </c>
       <c r="C240" t="n">
-        <v>129.077103</v>
+        <v>129.077087</v>
       </c>
     </row>
     <row r="241">
@@ -6054,7 +6054,7 @@
         <v>242</v>
       </c>
       <c r="B241" t="n">
-        <v>113.396889</v>
+        <v>113.396896</v>
       </c>
       <c r="C241" t="n">
         <v>128.676239</v>
@@ -6068,7 +6068,7 @@
         <v>112.62188</v>
       </c>
       <c r="C242" t="n">
-        <v>128.034866</v>
+        <v>128.034851</v>
       </c>
     </row>
     <row r="243">
@@ -6090,7 +6090,7 @@
         <v>112.213982</v>
       </c>
       <c r="C244" t="n">
-        <v>122.663315</v>
+        <v>122.663307</v>
       </c>
     </row>
     <row r="245">
@@ -6101,7 +6101,7 @@
         <v>109.725769</v>
       </c>
       <c r="C245" t="n">
-        <v>121.781418</v>
+        <v>121.781425</v>
       </c>
     </row>
     <row r="246">
@@ -6109,7 +6109,7 @@
         <v>247</v>
       </c>
       <c r="B246" t="n">
-        <v>105.442787</v>
+        <v>105.442795</v>
       </c>
       <c r="C246" t="n">
         <v>117.772827</v>
@@ -6120,10 +6120,10 @@
         <v>248</v>
       </c>
       <c r="B247" t="n">
-        <v>104.626984</v>
+        <v>104.626991</v>
       </c>
       <c r="C247" t="n">
-        <v>120.258163</v>
+        <v>120.258156</v>
       </c>
     </row>
     <row r="248">
@@ -6131,10 +6131,10 @@
         <v>249</v>
       </c>
       <c r="B248" t="n">
-        <v>102.95459</v>
+        <v>102.954582</v>
       </c>
       <c r="C248" t="n">
-        <v>120.819351</v>
+        <v>120.819366</v>
       </c>
     </row>
     <row r="249">
@@ -6145,7 +6145,7 @@
         <v>105.157257</v>
       </c>
       <c r="C249" t="n">
-        <v>124.346947</v>
+        <v>124.346954</v>
       </c>
     </row>
     <row r="250">
@@ -6156,7 +6156,7 @@
         <v>104.994102</v>
       </c>
       <c r="C250" t="n">
-        <v>126.271065</v>
+        <v>126.271057</v>
       </c>
     </row>
     <row r="251">
@@ -6164,7 +6164,7 @@
         <v>252</v>
       </c>
       <c r="B251" t="n">
-        <v>104.749352</v>
+        <v>104.749359</v>
       </c>
       <c r="C251" t="n">
         <v>123.865906</v>
@@ -6178,7 +6178,7 @@
         <v>109.195503</v>
       </c>
       <c r="C252" t="n">
-        <v>127.313301</v>
+        <v>127.313309</v>
       </c>
     </row>
     <row r="253">
@@ -6186,10 +6186,10 @@
         <v>254</v>
       </c>
       <c r="B253" t="n">
-        <v>108.909973</v>
+        <v>108.909966</v>
       </c>
       <c r="C253" t="n">
-        <v>126.591751</v>
+        <v>126.591759</v>
       </c>
     </row>
     <row r="254">
@@ -6200,7 +6200,7 @@
         <v>108.3797</v>
       </c>
       <c r="C254" t="n">
-        <v>126.832268</v>
+        <v>126.83226</v>
       </c>
     </row>
     <row r="255">
@@ -6222,7 +6222,7 @@
         <v>104.219086</v>
       </c>
       <c r="C256" t="n">
-        <v>126.591751</v>
+        <v>126.591759</v>
       </c>
     </row>
     <row r="257">
@@ -6241,10 +6241,10 @@
         <v>259</v>
       </c>
       <c r="B258" t="n">
-        <v>106.054649</v>
+        <v>106.054642</v>
       </c>
       <c r="C258" t="n">
-        <v>124.266769</v>
+        <v>124.266777</v>
       </c>
     </row>
     <row r="259">
@@ -6252,10 +6252,10 @@
         <v>260</v>
       </c>
       <c r="B259" t="n">
-        <v>104.423042</v>
+        <v>104.423035</v>
       </c>
       <c r="C259" t="n">
-        <v>122.583145</v>
+        <v>122.583153</v>
       </c>
     </row>
     <row r="260">
@@ -6266,7 +6266,7 @@
         <v>105.034897</v>
       </c>
       <c r="C260" t="n">
-        <v>126.271065</v>
+        <v>126.271057</v>
       </c>
     </row>
     <row r="261">
@@ -6285,10 +6285,10 @@
         <v>263</v>
       </c>
       <c r="B262" t="n">
-        <v>103.199326</v>
+        <v>103.199333</v>
       </c>
       <c r="C262" t="n">
-        <v>125.870209</v>
+        <v>125.870201</v>
       </c>
     </row>
     <row r="263">
@@ -6296,10 +6296,10 @@
         <v>264</v>
       </c>
       <c r="B263" t="n">
-        <v>105.238846</v>
+        <v>105.238838</v>
       </c>
       <c r="C263" t="n">
-        <v>124.507286</v>
+        <v>124.507271</v>
       </c>
     </row>
     <row r="264">
@@ -6310,7 +6310,7 @@
         <v>102.791428</v>
       </c>
       <c r="C264" t="n">
-        <v>125.709862</v>
+        <v>125.709869</v>
       </c>
     </row>
     <row r="265">
@@ -6321,7 +6321,7 @@
         <v>101.975624</v>
       </c>
       <c r="C265" t="n">
-        <v>126.190887</v>
+        <v>126.190895</v>
       </c>
     </row>
     <row r="266">
@@ -6340,10 +6340,10 @@
         <v>268</v>
       </c>
       <c r="B267" t="n">
-        <v>102.138786</v>
+        <v>102.138779</v>
       </c>
       <c r="C267" t="n">
-        <v>126.832268</v>
+        <v>126.83226</v>
       </c>
     </row>
     <row r="268">
@@ -6351,10 +6351,10 @@
         <v>269</v>
       </c>
       <c r="B268" t="n">
-        <v>99.936104</v>
+        <v>99.936111</v>
       </c>
       <c r="C268" t="n">
-        <v>123.625389</v>
+        <v>123.625381</v>
       </c>
     </row>
     <row r="269">
@@ -6362,10 +6362,10 @@
         <v>270</v>
       </c>
       <c r="B269" t="n">
-        <v>99.85453</v>
+        <v>99.854523</v>
       </c>
       <c r="C269" t="n">
-        <v>123.465042</v>
+        <v>123.46505</v>
       </c>
     </row>
     <row r="270">
@@ -6376,7 +6376,7 @@
         <v>100.140068</v>
       </c>
       <c r="C270" t="n">
-        <v>123.144379</v>
+        <v>123.144371</v>
       </c>
     </row>
     <row r="271">
@@ -6384,10 +6384,10 @@
         <v>272</v>
       </c>
       <c r="B271" t="n">
-        <v>98.304497</v>
+        <v>98.304504</v>
       </c>
       <c r="C271" t="n">
-        <v>120.739189</v>
+        <v>120.739204</v>
       </c>
     </row>
     <row r="272">
@@ -6395,10 +6395,10 @@
         <v>273</v>
       </c>
       <c r="B272" t="n">
-        <v>103.444069</v>
+        <v>103.444077</v>
       </c>
       <c r="C272" t="n">
-        <v>121.781418</v>
+        <v>121.781425</v>
       </c>
     </row>
     <row r="273">
@@ -6406,10 +6406,10 @@
         <v>274</v>
       </c>
       <c r="B273" t="n">
-        <v>101.078232</v>
+        <v>101.078239</v>
       </c>
       <c r="C273" t="n">
-        <v>122.262466</v>
+        <v>122.262451</v>
       </c>
     </row>
     <row r="274">
@@ -6417,10 +6417,10 @@
         <v>275</v>
       </c>
       <c r="B274" t="n">
-        <v>103.199326</v>
+        <v>103.199333</v>
       </c>
       <c r="C274" t="n">
-        <v>122.102127</v>
+        <v>122.102119</v>
       </c>
     </row>
     <row r="275">
@@ -6431,7 +6431,7 @@
         <v>102.66906</v>
       </c>
       <c r="C275" t="n">
-        <v>121.781418</v>
+        <v>121.781425</v>
       </c>
     </row>
     <row r="276">
@@ -6442,7 +6442,7 @@
         <v>101.975624</v>
       </c>
       <c r="C276" t="n">
-        <v>120.338341</v>
+        <v>120.338333</v>
       </c>
     </row>
     <row r="277">
@@ -6453,7 +6453,7 @@
         <v>97.896599</v>
       </c>
       <c r="C277" t="n">
-        <v>119.456436</v>
+        <v>119.456444</v>
       </c>
     </row>
     <row r="278">
@@ -6464,7 +6464,7 @@
         <v>98.712402</v>
       </c>
       <c r="C278" t="n">
-        <v>119.13575</v>
+        <v>119.135757</v>
       </c>
     </row>
     <row r="279">
@@ -6475,7 +6475,7 @@
         <v>101.119026</v>
       </c>
       <c r="C279" t="n">
-        <v>121.22023</v>
+        <v>121.220222</v>
       </c>
     </row>
     <row r="280">
@@ -6483,10 +6483,10 @@
         <v>281</v>
       </c>
       <c r="B280" t="n">
-        <v>100.180855</v>
+        <v>100.180862</v>
       </c>
       <c r="C280" t="n">
-        <v>122.262466</v>
+        <v>122.262451</v>
       </c>
     </row>
     <row r="281">
@@ -6494,10 +6494,10 @@
         <v>282</v>
       </c>
       <c r="B281" t="n">
-        <v>99.936104</v>
+        <v>99.936111</v>
       </c>
       <c r="C281" t="n">
-        <v>121.22023</v>
+        <v>121.220222</v>
       </c>
     </row>
     <row r="282">
@@ -6505,10 +6505,10 @@
         <v>283</v>
       </c>
       <c r="B282" t="n">
-        <v>101.486137</v>
+        <v>101.486145</v>
       </c>
       <c r="C282" t="n">
-        <v>122.021935</v>
+        <v>122.021957</v>
       </c>
     </row>
     <row r="283">
@@ -6527,10 +6527,10 @@
         <v>285</v>
       </c>
       <c r="B284" t="n">
-        <v>102.873001</v>
+        <v>102.873009</v>
       </c>
       <c r="C284" t="n">
-        <v>121.540924</v>
+        <v>121.540916</v>
       </c>
     </row>
     <row r="285">
@@ -6541,7 +6541,7 @@
         <v>103.117752</v>
       </c>
       <c r="C285" t="n">
-        <v>121.781418</v>
+        <v>121.781425</v>
       </c>
     </row>
     <row r="286">
@@ -6552,7 +6552,7 @@
         <v>98.712402</v>
       </c>
       <c r="C286" t="n">
-        <v>120.498672</v>
+        <v>120.498665</v>
       </c>
     </row>
     <row r="287">
@@ -6563,7 +6563,7 @@
         <v>98.467659</v>
       </c>
       <c r="C287" t="n">
-        <v>120.578835</v>
+        <v>120.578857</v>
       </c>
     </row>
     <row r="288">
@@ -6571,10 +6571,10 @@
         <v>289</v>
       </c>
       <c r="B288" t="n">
-        <v>102.301941</v>
+        <v>102.301949</v>
       </c>
       <c r="C288" t="n">
-        <v>121.781418</v>
+        <v>121.781425</v>
       </c>
     </row>
     <row r="289">
@@ -6582,10 +6582,10 @@
         <v>290</v>
       </c>
       <c r="B289" t="n">
-        <v>102.22036</v>
+        <v>102.220367</v>
       </c>
       <c r="C289" t="n">
-        <v>119.777115</v>
+        <v>119.77713</v>
       </c>
     </row>
     <row r="290">
@@ -6593,7 +6593,7 @@
         <v>291</v>
       </c>
       <c r="B290" t="n">
-        <v>106.054649</v>
+        <v>106.054642</v>
       </c>
       <c r="C290" t="n">
         <v>127.393478</v>
@@ -6604,10 +6604,10 @@
         <v>292</v>
       </c>
       <c r="B291" t="n">
-        <v>106.462555</v>
+        <v>106.462547</v>
       </c>
       <c r="C291" t="n">
-        <v>125.228828</v>
+        <v>125.228821</v>
       </c>
     </row>
     <row r="292">
@@ -6618,7 +6618,7 @@
         <v>105.973061</v>
       </c>
       <c r="C292" t="n">
-        <v>122.502983</v>
+        <v>122.502991</v>
       </c>
     </row>
     <row r="293">
@@ -6629,7 +6629,7 @@
         <v>105.687538</v>
       </c>
       <c r="C293" t="n">
-        <v>122.422806</v>
+        <v>122.422813</v>
       </c>
     </row>
     <row r="294">
@@ -6648,7 +6648,7 @@
         <v>296</v>
       </c>
       <c r="B295" t="n">
-        <v>105.442787</v>
+        <v>105.442795</v>
       </c>
       <c r="C295" t="n">
         <v>119.616791</v>
@@ -6662,7 +6662,7 @@
         <v>104.137505</v>
       </c>
       <c r="C296" t="n">
-        <v>117.69265</v>
+        <v>117.692657</v>
       </c>
     </row>
     <row r="297">
@@ -6673,7 +6673,7 @@
         <v>103.036171</v>
       </c>
       <c r="C297" t="n">
-        <v>116.570221</v>
+        <v>116.570244</v>
       </c>
     </row>
     <row r="298">
@@ -6681,7 +6681,7 @@
         <v>299</v>
       </c>
       <c r="B298" t="n">
-        <v>103.892769</v>
+        <v>103.892761</v>
       </c>
       <c r="C298" t="n">
         <v>115.768517</v>
@@ -6692,10 +6692,10 @@
         <v>300</v>
       </c>
       <c r="B299" t="n">
-        <v>104.463829</v>
+        <v>104.463837</v>
       </c>
       <c r="C299" t="n">
-        <v>117.933182</v>
+        <v>117.933174</v>
       </c>
     </row>
     <row r="300">
@@ -6706,7 +6706,7 @@
         <v>105.361206</v>
       </c>
       <c r="C300" t="n">
-        <v>118.013336</v>
+        <v>118.013344</v>
       </c>
     </row>
     <row r="301">
@@ -6714,10 +6714,10 @@
         <v>302</v>
       </c>
       <c r="B301" t="n">
-        <v>107.971794</v>
+        <v>107.971802</v>
       </c>
       <c r="C301" t="n">
-        <v>118.654716</v>
+        <v>118.654709</v>
       </c>
     </row>
     <row r="302">
@@ -6725,10 +6725,10 @@
         <v>303</v>
       </c>
       <c r="B302" t="n">
-        <v>108.706017</v>
+        <v>108.706009</v>
       </c>
       <c r="C302" t="n">
-        <v>120.258163</v>
+        <v>120.258156</v>
       </c>
     </row>
     <row r="303">
@@ -6739,7 +6739,7 @@
         <v>109.481026</v>
       </c>
       <c r="C303" t="n">
-        <v>122.102127</v>
+        <v>122.102119</v>
       </c>
     </row>
     <row r="304">
@@ -6761,7 +6761,7 @@
         <v>109.437477</v>
       </c>
       <c r="C305" t="n">
-        <v>121.94178</v>
+        <v>121.941788</v>
       </c>
     </row>
     <row r="306">
@@ -6772,7 +6772,7 @@
         <v>108.000374</v>
       </c>
       <c r="C306" t="n">
-        <v>120.899544</v>
+        <v>120.899536</v>
       </c>
     </row>
     <row r="307">
@@ -6783,7 +6783,7 @@
         <v>105.866501</v>
       </c>
       <c r="C307" t="n">
-        <v>120.096046</v>
+        <v>120.096039</v>
       </c>
     </row>
     <row r="308">
@@ -6794,7 +6794,7 @@
         <v>105.605202</v>
       </c>
       <c r="C308" t="n">
-        <v>118.38649</v>
+        <v>118.386497</v>
       </c>
     </row>
     <row r="309">
@@ -6827,7 +6827,7 @@
         <v>101.685844</v>
       </c>
       <c r="C311" t="n">
-        <v>117.104317</v>
+        <v>117.104324</v>
       </c>
     </row>
     <row r="312">
@@ -6838,7 +6838,7 @@
         <v>101.729393</v>
       </c>
       <c r="C312" t="n">
-        <v>117.959099</v>
+        <v>117.959106</v>
       </c>
     </row>
     <row r="313">
@@ -6849,7 +6849,7 @@
         <v>106.066818</v>
       </c>
       <c r="C313" t="n">
-        <v>121.121765</v>
+        <v>121.121773</v>
       </c>
     </row>
     <row r="314">
@@ -6893,7 +6893,7 @@
         <v>107.129402</v>
       </c>
       <c r="C317" t="n">
-        <v>121.20726</v>
+        <v>121.207253</v>
       </c>
     </row>
     <row r="318">
@@ -6904,7 +6904,7 @@
         <v>107.347145</v>
       </c>
       <c r="C318" t="n">
-        <v>122.062035</v>
+        <v>122.062027</v>
       </c>
     </row>
     <row r="319">
@@ -6926,7 +6926,7 @@
         <v>105.953598</v>
       </c>
       <c r="C320" t="n">
-        <v>120.352478</v>
+        <v>120.352486</v>
       </c>
     </row>
     <row r="321">
@@ -6937,7 +6937,7 @@
         <v>108.131027</v>
       </c>
       <c r="C321" t="n">
-        <v>122.232994</v>
+        <v>122.232986</v>
       </c>
     </row>
     <row r="322">
@@ -6948,7 +6948,7 @@
         <v>110.613289</v>
       </c>
       <c r="C322" t="n">
-        <v>123.51516</v>
+        <v>123.515152</v>
       </c>
     </row>
     <row r="323">
@@ -6981,7 +6981,7 @@
         <v>112.268127</v>
       </c>
       <c r="C325" t="n">
-        <v>124.968254</v>
+        <v>124.968269</v>
       </c>
     </row>
     <row r="326">
@@ -6992,7 +6992,7 @@
         <v>110.87458</v>
       </c>
       <c r="C326" t="n">
-        <v>123.429672</v>
+        <v>123.429665</v>
       </c>
     </row>
     <row r="327">
@@ -7003,7 +7003,7 @@
         <v>110.831032</v>
       </c>
       <c r="C327" t="n">
-        <v>122.062035</v>
+        <v>122.062027</v>
       </c>
     </row>
     <row r="328">
@@ -7091,7 +7091,7 @@
         <v>100.510033</v>
       </c>
       <c r="C335" t="n">
-        <v>107.787262</v>
+        <v>107.78727</v>
       </c>
     </row>
     <row r="336">
@@ -7113,7 +7113,7 @@
         <v>97.635818</v>
       </c>
       <c r="C337" t="n">
-        <v>107.530838</v>
+        <v>107.530846</v>
       </c>
     </row>
     <row r="338">
@@ -7146,7 +7146,7 @@
         <v>96.068077</v>
       </c>
       <c r="C340" t="n">
-        <v>106.590576</v>
+        <v>106.590584</v>
       </c>
     </row>
     <row r="341">
@@ -7179,7 +7179,7 @@
         <v>94.500328</v>
       </c>
       <c r="C343" t="n">
-        <v>105.821289</v>
+        <v>105.821281</v>
       </c>
     </row>
     <row r="344">
@@ -7201,7 +7201,7 @@
         <v>96.198715</v>
       </c>
       <c r="C345" t="n">
-        <v>105.992233</v>
+        <v>105.992241</v>
       </c>
     </row>
     <row r="346">
@@ -7212,7 +7212,7 @@
         <v>96.764847</v>
       </c>
       <c r="C346" t="n">
-        <v>105.906769</v>
+        <v>105.906761</v>
       </c>
     </row>
     <row r="347">
@@ -7245,7 +7245,7 @@
         <v>98.158401</v>
       </c>
       <c r="C349" t="n">
-        <v>106.077713</v>
+        <v>106.077721</v>
       </c>
     </row>
     <row r="350">
@@ -7322,7 +7322,7 @@
         <v>96.851952</v>
       </c>
       <c r="C356" t="n">
-        <v>110.266121</v>
+        <v>110.266113</v>
       </c>
     </row>
     <row r="357">
@@ -7333,7 +7333,7 @@
         <v>96.939049</v>
       </c>
       <c r="C357" t="n">
-        <v>111.120895</v>
+        <v>111.120903</v>
       </c>
     </row>
     <row r="358">
@@ -7344,7 +7344,7 @@
         <v>97.374535</v>
       </c>
       <c r="C358" t="n">
-        <v>111.975677</v>
+        <v>111.97567</v>
       </c>
     </row>
     <row r="359">
@@ -7355,7 +7355,7 @@
         <v>95.458397</v>
       </c>
       <c r="C359" t="n">
-        <v>111.377327</v>
+        <v>111.377335</v>
       </c>
     </row>
     <row r="360">
@@ -7366,7 +7366,7 @@
         <v>94.935814</v>
       </c>
       <c r="C360" t="n">
-        <v>112.403053</v>
+        <v>112.403061</v>
       </c>
     </row>
     <row r="361">
@@ -7377,7 +7377,7 @@
         <v>90.929352</v>
       </c>
       <c r="C361" t="n">
-        <v>110.864456</v>
+        <v>110.864449</v>
       </c>
     </row>
     <row r="362">
@@ -7399,7 +7399,7 @@
         <v>90.189026</v>
       </c>
       <c r="C363" t="n">
-        <v>109.667778</v>
+        <v>109.66777</v>
       </c>
     </row>
     <row r="364">
@@ -7410,7 +7410,7 @@
         <v>90.493866</v>
       </c>
       <c r="C364" t="n">
-        <v>108.727516</v>
+        <v>108.727524</v>
       </c>
     </row>
     <row r="365">
@@ -7432,7 +7432,7 @@
         <v>86.260948</v>
       </c>
       <c r="C366" t="n">
-        <v>104.539124</v>
+        <v>104.539116</v>
       </c>
     </row>
     <row r="367">
@@ -7520,7 +7520,7 @@
         <v>92.540642</v>
       </c>
       <c r="C374" t="n">
-        <v>110.693504</v>
+        <v>110.693512</v>
       </c>
     </row>
     <row r="375">
@@ -7531,7 +7531,7 @@
         <v>90.755157</v>
       </c>
       <c r="C375" t="n">
-        <v>109.411346</v>
+        <v>109.411339</v>
       </c>
     </row>
     <row r="376">
@@ -7564,7 +7564,7 @@
         <v>89.492241</v>
       </c>
       <c r="C378" t="n">
-        <v>105.393898</v>
+        <v>105.393906</v>
       </c>
     </row>
     <row r="379">
@@ -7652,7 +7652,7 @@
         <v>90.406769</v>
       </c>
       <c r="C386" t="n">
-        <v>102.573128</v>
+        <v>102.573135</v>
       </c>
     </row>
     <row r="387">
@@ -7718,7 +7718,7 @@
         <v>87.314819</v>
       </c>
       <c r="C392" t="n">
-        <v>100.350708</v>
+        <v>100.350716</v>
       </c>
     </row>
     <row r="393">
@@ -7751,7 +7751,7 @@
         <v>84.066101</v>
       </c>
       <c r="C395" t="n">
-        <v>98.042824</v>
+        <v>98.042816</v>
       </c>
     </row>
     <row r="396">
@@ -7762,7 +7762,7 @@
         <v>83.839653</v>
       </c>
       <c r="C396" t="n">
-        <v>99.923325</v>
+        <v>99.923332</v>
       </c>
     </row>
     <row r="397">
@@ -7773,7 +7773,7 @@
         <v>83.508675</v>
       </c>
       <c r="C397" t="n">
-        <v>98.726639</v>
+        <v>98.726646</v>
       </c>
     </row>
     <row r="398">
@@ -7784,7 +7784,7 @@
         <v>83.857063</v>
       </c>
       <c r="C398" t="n">
-        <v>98.641159</v>
+        <v>98.641167</v>
       </c>
     </row>
     <row r="399">
@@ -7795,7 +7795,7 @@
         <v>82.672546</v>
       </c>
       <c r="C399" t="n">
-        <v>98.128304</v>
+        <v>98.128296</v>
       </c>
     </row>
     <row r="400">
@@ -7806,7 +7806,7 @@
         <v>81.244148</v>
       </c>
       <c r="C400" t="n">
-        <v>95.991356</v>
+        <v>95.991364</v>
       </c>
     </row>
     <row r="401">
@@ -7828,7 +7828,7 @@
         <v>77.516396</v>
       </c>
       <c r="C402" t="n">
-        <v>92.230339</v>
+        <v>92.230347</v>
       </c>
     </row>
     <row r="403">
@@ -7872,7 +7872,7 @@
         <v>77.882202</v>
       </c>
       <c r="C406" t="n">
-        <v>93.597984</v>
+        <v>93.597992</v>
       </c>
     </row>
     <row r="407">
@@ -7883,7 +7883,7 @@
         <v>77.516396</v>
       </c>
       <c r="C407" t="n">
-        <v>92.65773</v>
+        <v>92.657738</v>
       </c>
     </row>
     <row r="408">
@@ -7949,7 +7949,7 @@
         <v>76.59317</v>
       </c>
       <c r="C413" t="n">
-        <v>80.348953</v>
+        <v>80.348946</v>
       </c>
     </row>
     <row r="414">
@@ -8026,7 +8026,7 @@
         <v>86.644173</v>
       </c>
       <c r="C420" t="n">
-        <v>86.930725</v>
+        <v>86.930733</v>
       </c>
     </row>
     <row r="421">
@@ -8037,7 +8037,7 @@
         <v>88.055145</v>
       </c>
       <c r="C421" t="n">
-        <v>88.554802</v>
+        <v>88.55481</v>
       </c>
     </row>
     <row r="422">
@@ -8048,7 +8048,7 @@
         <v>87.968048</v>
       </c>
       <c r="C422" t="n">
-        <v>88.041946</v>
+        <v>88.041931</v>
       </c>
     </row>
     <row r="423">
@@ -8059,7 +8059,7 @@
         <v>88.011604</v>
       </c>
       <c r="C423" t="n">
-        <v>87.870987</v>
+        <v>87.870995</v>
       </c>
     </row>
     <row r="424">
@@ -8070,7 +8070,7 @@
         <v>91.190636</v>
       </c>
       <c r="C424" t="n">
-        <v>88.554802</v>
+        <v>88.55481</v>
       </c>
     </row>
     <row r="425">
@@ -8081,7 +8081,7 @@
         <v>88.22934</v>
       </c>
       <c r="C425" t="n">
-        <v>88.640274</v>
+        <v>88.640282</v>
       </c>
     </row>
     <row r="426">
@@ -8114,7 +8114,7 @@
         <v>84.41449</v>
       </c>
       <c r="C428" t="n">
-        <v>89.495056</v>
+        <v>89.495064</v>
       </c>
     </row>
     <row r="429">
@@ -8147,7 +8147,7 @@
         <v>83.543518</v>
       </c>
       <c r="C431" t="n">
-        <v>103.342438</v>
+        <v>103.34243</v>
       </c>
     </row>
     <row r="432">
@@ -8202,7 +8202,7 @@
         <v>82.742218</v>
       </c>
       <c r="C436" t="n">
-        <v>102.402184</v>
+        <v>102.402176</v>
       </c>
     </row>
     <row r="437">
@@ -8213,7 +8213,7 @@
         <v>82.02803</v>
       </c>
       <c r="C437" t="n">
-        <v>99.923325</v>
+        <v>99.923332</v>
       </c>
     </row>
     <row r="438">
@@ -8268,7 +8268,7 @@
         <v>79.972534</v>
       </c>
       <c r="C442" t="n">
-        <v>102.316704</v>
+        <v>102.316696</v>
       </c>
     </row>
     <row r="443">
@@ -8301,7 +8301,7 @@
         <v>83.595779</v>
       </c>
       <c r="C445" t="n">
-        <v>104.795547</v>
+        <v>104.795555</v>
       </c>
     </row>
     <row r="446">
@@ -8323,7 +8323,7 @@
         <v>84.693199</v>
       </c>
       <c r="C447" t="n">
-        <v>109.92421</v>
+        <v>109.924217</v>
       </c>
     </row>
     <row r="448">
@@ -8345,7 +8345,7 @@
         <v>83.822227</v>
       </c>
       <c r="C449" t="n">
-        <v>110.266121</v>
+        <v>110.266113</v>
       </c>
     </row>
     <row r="450">
@@ -8356,7 +8356,7 @@
         <v>85.877724</v>
       </c>
       <c r="C450" t="n">
-        <v>112.659492</v>
+        <v>112.6595</v>
       </c>
     </row>
     <row r="451">
@@ -8378,7 +8378,7 @@
         <v>85.529327</v>
       </c>
       <c r="C452" t="n">
-        <v>115.394775</v>
+        <v>115.394768</v>
       </c>
     </row>
     <row r="453">
@@ -8389,7 +8389,7 @@
         <v>85.668686</v>
       </c>
       <c r="C453" t="n">
-        <v>114.881912</v>
+        <v>114.881905</v>
       </c>
     </row>
     <row r="454">
@@ -8411,7 +8411,7 @@
         <v>85.616432</v>
       </c>
       <c r="C455" t="n">
-        <v>114.454521</v>
+        <v>114.454514</v>
       </c>
     </row>
     <row r="456">
@@ -8422,7 +8422,7 @@
         <v>84.867393</v>
       </c>
       <c r="C456" t="n">
-        <v>115.736671</v>
+        <v>115.736679</v>
       </c>
     </row>
     <row r="457">
@@ -8433,7 +8433,7 @@
         <v>82.829323</v>
       </c>
       <c r="C457" t="n">
-        <v>113.856171</v>
+        <v>113.856178</v>
       </c>
     </row>
     <row r="458">
@@ -8444,7 +8444,7 @@
         <v>83.247391</v>
       </c>
       <c r="C458" t="n">
-        <v>112.317574</v>
+        <v>112.317581</v>
       </c>
     </row>
     <row r="459">
@@ -8466,7 +8466,7 @@
         <v>81.348671</v>
       </c>
       <c r="C460" t="n">
-        <v>112.403053</v>
+        <v>112.403061</v>
       </c>
     </row>
     <row r="461">
@@ -8477,7 +8477,7 @@
         <v>81.784157</v>
       </c>
       <c r="C461" t="n">
-        <v>114.454521</v>
+        <v>114.454514</v>
       </c>
     </row>
     <row r="462">
@@ -8510,7 +8510,7 @@
         <v>83.369324</v>
       </c>
       <c r="C464" t="n">
-        <v>115.993111</v>
+        <v>115.993118</v>
       </c>
     </row>
     <row r="465">
@@ -8521,7 +8521,7 @@
         <v>82.498352</v>
       </c>
       <c r="C465" t="n">
-        <v>116.676933</v>
+        <v>116.676941</v>
       </c>
     </row>
     <row r="466">
@@ -8532,7 +8532,7 @@
         <v>82.30674</v>
       </c>
       <c r="C466" t="n">
-        <v>116.93338</v>
+        <v>116.933372</v>
       </c>
     </row>
     <row r="467">
@@ -8554,7 +8554,7 @@
         <v>80.634476</v>
       </c>
       <c r="C468" t="n">
-        <v>111.377327</v>
+        <v>111.377335</v>
       </c>
     </row>
     <row r="469">
@@ -8587,7 +8587,7 @@
         <v>79.362862</v>
       </c>
       <c r="C471" t="n">
-        <v>110.864456</v>
+        <v>110.864449</v>
       </c>
     </row>
     <row r="472">
@@ -8609,7 +8609,7 @@
         <v>78.735756</v>
       </c>
       <c r="C473" t="n">
-        <v>108.727516</v>
+        <v>108.727524</v>
       </c>
     </row>
     <row r="474">
@@ -8631,7 +8631,7 @@
         <v>80.129311</v>
       </c>
       <c r="C475" t="n">
-        <v>110.693504</v>
+        <v>110.693512</v>
       </c>
     </row>
     <row r="476">
@@ -8642,7 +8642,7 @@
         <v>79.275757</v>
       </c>
       <c r="C476" t="n">
-        <v>108.727516</v>
+        <v>108.727524</v>
       </c>
     </row>
     <row r="477">
@@ -8653,7 +8653,7 @@
         <v>80.233833</v>
       </c>
       <c r="C477" t="n">
-        <v>110.266121</v>
+        <v>110.266113</v>
       </c>
     </row>
     <row r="478">
@@ -8664,7 +8664,7 @@
         <v>80.129311</v>
       </c>
       <c r="C478" t="n">
-        <v>109.582291</v>
+        <v>109.582298</v>
       </c>
     </row>
     <row r="479">
@@ -8686,7 +8686,7 @@
         <v>80.129311</v>
       </c>
       <c r="C480" t="n">
-        <v>107.530838</v>
+        <v>107.530846</v>
       </c>
     </row>
     <row r="481">
@@ -8697,7 +8697,7 @@
         <v>79.223503</v>
       </c>
       <c r="C481" t="n">
-        <v>105.479378</v>
+        <v>105.47937</v>
       </c>
     </row>
     <row r="482">
@@ -8763,7 +8763,7 @@
         <v>84.849968</v>
       </c>
       <c r="C487" t="n">
-        <v>113.856171</v>
+        <v>113.856178</v>
       </c>
     </row>
     <row r="488">
@@ -8785,7 +8785,7 @@
         <v>90.580963</v>
       </c>
       <c r="C489" t="n">
-        <v>112.403053</v>
+        <v>112.403061</v>
       </c>
     </row>
     <row r="490">
@@ -8807,7 +8807,7 @@
         <v>94.108398</v>
       </c>
       <c r="C491" t="n">
-        <v>117.104317</v>
+        <v>117.104324</v>
       </c>
     </row>
     <row r="492">
@@ -8818,7 +8818,7 @@
         <v>93.193878</v>
       </c>
       <c r="C492" t="n">
-        <v>118.215546</v>
+        <v>118.215538</v>
       </c>
     </row>
     <row r="493">
@@ -8829,7 +8829,7 @@
         <v>92.105156</v>
       </c>
       <c r="C493" t="n">
-        <v>116.93338</v>
+        <v>116.933372</v>
       </c>
     </row>
     <row r="494">
@@ -8851,7 +8851,7 @@
         <v>93.193878</v>
       </c>
       <c r="C495" t="n">
-        <v>118.899368</v>
+        <v>118.899361</v>
       </c>
     </row>
     <row r="496">
@@ -8862,7 +8862,7 @@
         <v>93.411613</v>
       </c>
       <c r="C496" t="n">
-        <v>119.070328</v>
+        <v>119.07032</v>
       </c>
     </row>
     <row r="497">
@@ -8873,7 +8873,7 @@
         <v>93.890656</v>
       </c>
       <c r="C497" t="n">
-        <v>119.497711</v>
+        <v>119.497696</v>
       </c>
     </row>
     <row r="498">
@@ -8906,7 +8906,7 @@
         <v>92.932579</v>
       </c>
       <c r="C500" t="n">
-        <v>120.60891</v>
+        <v>120.608917</v>
       </c>
     </row>
     <row r="501">
@@ -8917,7 +8917,7 @@
         <v>93.847099</v>
       </c>
       <c r="C501" t="n">
-        <v>120.694374</v>
+        <v>120.694382</v>
       </c>
     </row>
     <row r="502">
@@ -8939,7 +8939,7 @@
         <v>96.068077</v>
       </c>
       <c r="C503" t="n">
-        <v>124.369926</v>
+        <v>124.369919</v>
       </c>
     </row>
     <row r="504">
@@ -8961,7 +8961,7 @@
         <v>93.498711</v>
       </c>
       <c r="C505" t="n">
-        <v>121.891083</v>
+        <v>121.891075</v>
       </c>
     </row>
     <row r="506">
@@ -8972,7 +8972,7 @@
         <v>94.064842</v>
       </c>
       <c r="C506" t="n">
-        <v>123.686089</v>
+        <v>123.686111</v>
       </c>
     </row>
     <row r="507">
@@ -8983,7 +8983,7 @@
         <v>93.411613</v>
       </c>
       <c r="C507" t="n">
-        <v>123.258713</v>
+        <v>123.258705</v>
       </c>
     </row>
     <row r="508">
@@ -8994,7 +8994,7 @@
         <v>94.674515</v>
       </c>
       <c r="C508" t="n">
-        <v>123.600624</v>
+        <v>123.600632</v>
       </c>
     </row>
     <row r="509">
@@ -9005,7 +9005,7 @@
         <v>95.806786</v>
       </c>
       <c r="C509" t="n">
-        <v>123.344208</v>
+        <v>123.344193</v>
       </c>
     </row>
     <row r="510">
@@ -9038,7 +9038,7 @@
         <v>96.721306</v>
       </c>
       <c r="C512" t="n">
-        <v>127.703537</v>
+        <v>127.703552</v>
       </c>
     </row>
     <row r="513">
@@ -9049,7 +9049,7 @@
         <v>94.848717</v>
       </c>
       <c r="C513" t="n">
-        <v>126.934265</v>
+        <v>126.93425</v>
       </c>
     </row>
     <row r="514">
@@ -9071,7 +9071,7 @@
         <v>92.453545</v>
       </c>
       <c r="C515" t="n">
-        <v>123.087769</v>
+        <v>123.087753</v>
       </c>
     </row>
     <row r="516">
@@ -9082,7 +9082,7 @@
         <v>94.500328</v>
       </c>
       <c r="C516" t="n">
-        <v>125.224701</v>
+        <v>125.224693</v>
       </c>
     </row>
     <row r="517">
@@ -9104,7 +9104,7 @@
         <v>94.674515</v>
       </c>
       <c r="C518" t="n">
-        <v>124.198967</v>
+        <v>124.198975</v>
       </c>
     </row>
     <row r="519">
@@ -9126,7 +9126,7 @@
         <v>97.20034</v>
       </c>
       <c r="C520" t="n">
-        <v>125.652092</v>
+        <v>125.652077</v>
       </c>
     </row>
     <row r="521">
@@ -9137,7 +9137,7 @@
         <v>99.943901</v>
       </c>
       <c r="C521" t="n">
-        <v>127.276161</v>
+        <v>127.276154</v>
       </c>
     </row>
     <row r="522">
@@ -9148,7 +9148,7 @@
         <v>100.422928</v>
       </c>
       <c r="C522" t="n">
-        <v>128.472855</v>
+        <v>128.472839</v>
       </c>
     </row>
     <row r="523">
@@ -9170,7 +9170,7 @@
         <v>102.513252</v>
       </c>
       <c r="C524" t="n">
-        <v>130.438843</v>
+        <v>130.438828</v>
       </c>
     </row>
     <row r="525">
@@ -9192,7 +9192,7 @@
         <v>105.822945</v>
       </c>
       <c r="C526" t="n">
-        <v>133.516037</v>
+        <v>133.516022</v>
       </c>
     </row>
     <row r="527">
@@ -9214,7 +9214,7 @@
         <v>106.519722</v>
       </c>
       <c r="C528" t="n">
-        <v>134.19986</v>
+        <v>134.199844</v>
       </c>
     </row>
     <row r="529">
@@ -9269,7 +9269,7 @@
         <v>106.476173</v>
       </c>
       <c r="C533" t="n">
-        <v>138.47374</v>
+        <v>138.473724</v>
       </c>
     </row>
     <row r="534">
@@ -9291,7 +9291,7 @@
         <v>100.161644</v>
       </c>
       <c r="C535" t="n">
-        <v>134.19986</v>
+        <v>134.199844</v>
       </c>
     </row>
     <row r="536">
@@ -9357,7 +9357,7 @@
         <v>93.063225</v>
       </c>
       <c r="C541" t="n">
-        <v>109.838737</v>
+        <v>109.83873</v>
       </c>
     </row>
     <row r="542">
@@ -9379,7 +9379,7 @@
         <v>91.147095</v>
       </c>
       <c r="C543" t="n">
-        <v>104.795547</v>
+        <v>104.795555</v>
       </c>
     </row>
     <row r="544">
@@ -9412,7 +9412,7 @@
         <v>77.28994</v>
       </c>
       <c r="C546" t="n">
-        <v>93.854416</v>
+        <v>93.854424</v>
       </c>
     </row>
     <row r="547">
@@ -9445,7 +9445,7 @@
         <v>67.761528</v>
       </c>
       <c r="C549" t="n">
-        <v>83.682587</v>
+        <v>83.682579</v>
       </c>
     </row>
     <row r="550">
@@ -9467,7 +9467,7 @@
         <v>64.62603</v>
       </c>
       <c r="C551" t="n">
-        <v>80.220734</v>
+        <v>80.220741</v>
       </c>
     </row>
     <row r="552">
@@ -9478,7 +9478,7 @@
         <v>71.60997</v>
       </c>
       <c r="C552" t="n">
-        <v>77.399986</v>
+        <v>77.399979</v>
       </c>
     </row>
     <row r="553">
@@ -9489,7 +9489,7 @@
         <v>71.708336</v>
       </c>
       <c r="C553" t="n">
-        <v>78.126541</v>
+        <v>78.126534</v>
       </c>
     </row>
     <row r="554">
@@ -9577,7 +9577,7 @@
         <v>75.642952</v>
       </c>
       <c r="C561" t="n">
-        <v>91.515839</v>
+        <v>91.515846</v>
       </c>
     </row>
     <row r="562">
@@ -9610,7 +9610,7 @@
         <v>71.078796</v>
       </c>
       <c r="C564" t="n">
-        <v>88.706573</v>
+        <v>88.706566</v>
       </c>
     </row>
     <row r="565">
@@ -9621,7 +9621,7 @@
         <v>72.141136</v>
       </c>
       <c r="C565" t="n">
-        <v>88.373268</v>
+        <v>88.37326</v>
       </c>
     </row>
     <row r="566">
@@ -9687,7 +9687,7 @@
         <v>72.318199</v>
       </c>
       <c r="C571" t="n">
-        <v>89.373169</v>
+        <v>89.373177</v>
       </c>
     </row>
     <row r="572">
@@ -9698,7 +9698,7 @@
         <v>71.82637</v>
       </c>
       <c r="C572" t="n">
-        <v>90.992088</v>
+        <v>90.992081</v>
       </c>
     </row>
     <row r="573">
@@ -9731,7 +9731,7 @@
         <v>72.455917</v>
       </c>
       <c r="C575" t="n">
-        <v>91.230164</v>
+        <v>91.230156</v>
       </c>
     </row>
     <row r="576">
@@ -9742,7 +9742,7 @@
         <v>70.134491</v>
       </c>
       <c r="C576" t="n">
-        <v>89.706474</v>
+        <v>89.706482</v>
       </c>
     </row>
     <row r="577">
@@ -9786,7 +9786,7 @@
         <v>79.479202</v>
       </c>
       <c r="C580" t="n">
-        <v>107.89537</v>
+        <v>107.895378</v>
       </c>
     </row>
     <row r="581">
@@ -9830,7 +9830,7 @@
         <v>74.226486</v>
       </c>
       <c r="C584" t="n">
-        <v>95.08696</v>
+        <v>95.086967</v>
       </c>
     </row>
     <row r="585">
@@ -9852,7 +9852,7 @@
         <v>74.619949</v>
       </c>
       <c r="C586" t="n">
-        <v>100.086533</v>
+        <v>100.086525</v>
       </c>
     </row>
     <row r="587">
@@ -9863,7 +9863,7 @@
         <v>74.167473</v>
       </c>
       <c r="C587" t="n">
-        <v>101.134048</v>
+        <v>101.134056</v>
       </c>
     </row>
     <row r="588">
@@ -9896,7 +9896,7 @@
         <v>70.803375</v>
       </c>
       <c r="C590" t="n">
-        <v>99.991302</v>
+        <v>99.991295</v>
       </c>
     </row>
     <row r="591">
@@ -9918,7 +9918,7 @@
         <v>73.400223</v>
       </c>
       <c r="C592" t="n">
-        <v>100.657898</v>
+        <v>100.657906</v>
       </c>
     </row>
     <row r="593">
@@ -9929,7 +9929,7 @@
         <v>75.564255</v>
       </c>
       <c r="C593" t="n">
-        <v>102.467278</v>
+        <v>102.46727</v>
       </c>
     </row>
     <row r="594">
@@ -9973,7 +9973,7 @@
         <v>83.748253</v>
       </c>
       <c r="C597" t="n">
-        <v>111.799789</v>
+        <v>111.799797</v>
       </c>
     </row>
     <row r="598">
@@ -9995,7 +9995,7 @@
         <v>86.128693</v>
       </c>
       <c r="C599" t="n">
-        <v>116.656509</v>
+        <v>116.656517</v>
       </c>
     </row>
     <row r="600">
@@ -10017,7 +10017,7 @@
         <v>89.256706</v>
       </c>
       <c r="C601" t="n">
-        <v>123.893982</v>
+        <v>123.89399</v>
       </c>
     </row>
     <row r="602">
@@ -10072,7 +10072,7 @@
         <v>86.42379</v>
       </c>
       <c r="C606" t="n">
-        <v>117.704041</v>
+        <v>117.704048</v>
       </c>
     </row>
     <row r="607">
@@ -10094,7 +10094,7 @@
         <v>87.663193</v>
       </c>
       <c r="C608" t="n">
-        <v>120.751396</v>
+        <v>120.751404</v>
       </c>
     </row>
     <row r="609">
@@ -10160,7 +10160,7 @@
         <v>87.466461</v>
       </c>
       <c r="C614" t="n">
-        <v>117.704041</v>
+        <v>117.704048</v>
       </c>
     </row>
     <row r="615">
@@ -10204,7 +10204,7 @@
         <v>86.836922</v>
       </c>
       <c r="C618" t="n">
-        <v>117.13266</v>
+        <v>117.132668</v>
       </c>
     </row>
     <row r="619">
@@ -10325,7 +10325,7 @@
         <v>100.185097</v>
       </c>
       <c r="C629" t="n">
-        <v>124.465355</v>
+        <v>124.465363</v>
       </c>
     </row>
     <row r="630">
@@ -10336,7 +10336,7 @@
         <v>100.185097</v>
       </c>
       <c r="C630" t="n">
-        <v>125.512886</v>
+        <v>125.512894</v>
       </c>
     </row>
     <row r="631">
@@ -10358,7 +10358,7 @@
         <v>104.267265</v>
       </c>
       <c r="C632" t="n">
-        <v>125.036736</v>
+        <v>125.036743</v>
       </c>
     </row>
     <row r="633">
@@ -10391,7 +10391,7 @@
         <v>103.72625</v>
       </c>
       <c r="C635" t="n">
-        <v>125.322433</v>
+        <v>125.322441</v>
       </c>
     </row>
     <row r="636">
@@ -10402,7 +10402,7 @@
         <v>104.218079</v>
       </c>
       <c r="C636" t="n">
-        <v>124.941498</v>
+        <v>124.941505</v>
       </c>
     </row>
     <row r="637">
@@ -10413,7 +10413,7 @@
         <v>102.250771</v>
       </c>
       <c r="C637" t="n">
-        <v>122.655998</v>
+        <v>122.655991</v>
       </c>
     </row>
     <row r="638">
@@ -10468,7 +10468,7 @@
         <v>101.168755</v>
       </c>
       <c r="C642" t="n">
-        <v>115.894676</v>
+        <v>115.894669</v>
       </c>
     </row>
     <row r="643">
@@ -10479,7 +10479,7 @@
         <v>100.480202</v>
       </c>
       <c r="C643" t="n">
-        <v>116.75174</v>
+        <v>116.751747</v>
       </c>
     </row>
     <row r="644">
@@ -10490,7 +10490,7 @@
         <v>100.922836</v>
       </c>
       <c r="C644" t="n">
-        <v>115.989914</v>
+        <v>115.989906</v>
       </c>
     </row>
     <row r="645">
@@ -10501,7 +10501,7 @@
         <v>100.332649</v>
       </c>
       <c r="C645" t="n">
-        <v>115.418526</v>
+        <v>115.418518</v>
       </c>
     </row>
     <row r="646">
@@ -10567,7 +10567,7 @@
         <v>102.349144</v>
       </c>
       <c r="C651" t="n">
-        <v>113.609169</v>
+        <v>113.609161</v>
       </c>
     </row>
     <row r="652">
@@ -10611,7 +10611,7 @@
         <v>96.496399</v>
       </c>
       <c r="C655" t="n">
-        <v>110.466576</v>
+        <v>110.466583</v>
       </c>
     </row>
     <row r="656">
@@ -10622,7 +10622,7 @@
         <v>97.047249</v>
       </c>
       <c r="C656" t="n">
-        <v>109.799973</v>
+        <v>109.799965</v>
       </c>
     </row>
     <row r="657">
@@ -10655,7 +10655,7 @@
         <v>97.971878</v>
       </c>
       <c r="C659" t="n">
-        <v>107.228767</v>
+        <v>107.22876</v>
       </c>
     </row>
     <row r="660">
@@ -10666,7 +10666,7 @@
         <v>96.594765</v>
       </c>
       <c r="C660" t="n">
-        <v>106.847847</v>
+        <v>106.847839</v>
       </c>
     </row>
     <row r="661">
@@ -10699,7 +10699,7 @@
         <v>92.463425</v>
       </c>
       <c r="C663" t="n">
-        <v>95.705963</v>
+        <v>95.705956</v>
       </c>
     </row>
     <row r="664">
@@ -10754,7 +10754,7 @@
         <v>87.859924</v>
       </c>
       <c r="C668" t="n">
-        <v>96.467796</v>
+        <v>96.467804</v>
       </c>
     </row>
     <row r="669">
@@ -10765,7 +10765,7 @@
         <v>88.627174</v>
       </c>
       <c r="C669" t="n">
-        <v>98.181938</v>
+        <v>98.181931</v>
       </c>
     </row>
     <row r="670">
@@ -10776,7 +10776,7 @@
         <v>88.587822</v>
       </c>
       <c r="C670" t="n">
-        <v>99.705605</v>
+        <v>99.705612</v>
       </c>
     </row>
     <row r="671">
@@ -10787,7 +10787,7 @@
         <v>86.502487</v>
       </c>
       <c r="C671" t="n">
-        <v>99.610382</v>
+        <v>99.610374</v>
       </c>
     </row>
     <row r="672">
@@ -10809,7 +10809,7 @@
         <v>86.187714</v>
       </c>
       <c r="C673" t="n">
-        <v>99.134232</v>
+        <v>99.134224</v>
       </c>
     </row>
     <row r="674">
@@ -10820,7 +10820,7 @@
         <v>86.384445</v>
       </c>
       <c r="C674" t="n">
-        <v>97.896248</v>
+        <v>97.89624</v>
       </c>
     </row>
     <row r="675">
@@ -10842,7 +10842,7 @@
         <v>83.0597</v>
       </c>
       <c r="C676" t="n">
-        <v>96.372559</v>
+        <v>96.372566</v>
       </c>
     </row>
     <row r="677">
@@ -10853,7 +10853,7 @@
         <v>80.659584</v>
       </c>
       <c r="C677" t="n">
-        <v>94.372734</v>
+        <v>94.372742</v>
       </c>
     </row>
     <row r="678">
@@ -10875,7 +10875,7 @@
         <v>81.938332</v>
       </c>
       <c r="C679" t="n">
-        <v>93.563293</v>
+        <v>93.563286</v>
       </c>
     </row>
     <row r="680">
@@ -10930,7 +10930,7 @@
         <v>84.692558</v>
       </c>
       <c r="C684" t="n">
-        <v>94.848885</v>
+        <v>94.848892</v>
       </c>
     </row>
     <row r="685">
@@ -10952,7 +10952,7 @@
         <v>83.453156</v>
       </c>
       <c r="C686" t="n">
-        <v>103.133881</v>
+        <v>103.133888</v>
       </c>
     </row>
     <row r="687">
@@ -10963,7 +10963,7 @@
         <v>85.57785</v>
       </c>
       <c r="C687" t="n">
-        <v>103.133881</v>
+        <v>103.133888</v>
       </c>
     </row>
     <row r="688">
@@ -10996,7 +10996,7 @@
         <v>89.453445</v>
       </c>
       <c r="C690" t="n">
-        <v>103.990952</v>
+        <v>103.990944</v>
       </c>
     </row>
     <row r="691">
@@ -11073,7 +11073,7 @@
         <v>91.401077</v>
       </c>
       <c r="C697" t="n">
-        <v>103.990952</v>
+        <v>103.990944</v>
       </c>
     </row>
     <row r="698">
@@ -11161,7 +11161,7 @@
         <v>84.161385</v>
       </c>
       <c r="C705" t="n">
-        <v>102.372047</v>
+        <v>102.37204</v>
       </c>
     </row>
     <row r="706">
@@ -11205,7 +11205,7 @@
         <v>86.974632</v>
       </c>
       <c r="C709" t="n">
-        <v>111.799789</v>
+        <v>111.799797</v>
       </c>
     </row>
     <row r="710">
@@ -11227,7 +11227,7 @@
         <v>88.627174</v>
       </c>
       <c r="C711" t="n">
-        <v>109.514275</v>
+        <v>109.514282</v>
       </c>
     </row>
     <row r="712">
@@ -11293,7 +11293,7 @@
         <v>102.447502</v>
       </c>
       <c r="C717" t="n">
-        <v>124.274902</v>
+        <v>124.274895</v>
       </c>
     </row>
     <row r="718">
@@ -11304,7 +11304,7 @@
         <v>102.890144</v>
       </c>
       <c r="C718" t="n">
-        <v>126.274734</v>
+        <v>126.274727</v>
       </c>
     </row>
     <row r="719">
@@ -11359,7 +11359,7 @@
         <v>103.234421</v>
       </c>
       <c r="C723" t="n">
-        <v>124.751053</v>
+        <v>124.751045</v>
       </c>
     </row>
     <row r="724">
@@ -11381,7 +11381,7 @@
         <v>102.98851</v>
       </c>
       <c r="C725" t="n">
-        <v>124.751053</v>
+        <v>124.751045</v>
       </c>
     </row>
     <row r="726">
@@ -11425,7 +11425,7 @@
         <v>102.250771</v>
       </c>
       <c r="C729" t="n">
-        <v>124.751053</v>
+        <v>124.751045</v>
       </c>
     </row>
     <row r="730">
@@ -11447,7 +11447,7 @@
         <v>101.513031</v>
       </c>
       <c r="C731" t="n">
-        <v>124.274902</v>
+        <v>124.274895</v>
       </c>
     </row>
     <row r="732">
@@ -11546,7 +11546,7 @@
         <v>94.529091</v>
       </c>
       <c r="C740" t="n">
-        <v>121.608459</v>
+        <v>121.608467</v>
       </c>
     </row>
     <row r="741">
@@ -11579,7 +11579,7 @@
         <v>96.870193</v>
       </c>
       <c r="C743" t="n">
-        <v>124.941498</v>
+        <v>124.941505</v>
       </c>
     </row>
     <row r="744">
@@ -11590,7 +11590,7 @@
         <v>99.742462</v>
       </c>
       <c r="C744" t="n">
-        <v>125.989037</v>
+        <v>125.989044</v>
       </c>
     </row>
     <row r="745">
@@ -11623,7 +11623,7 @@
         <v>99.004723</v>
       </c>
       <c r="C747" t="n">
-        <v>128.084091</v>
+        <v>128.084106</v>
       </c>
     </row>
     <row r="748">
@@ -11656,7 +11656,7 @@
         <v>103.627884</v>
       </c>
       <c r="C750" t="n">
-        <v>128.941147</v>
+        <v>128.941162</v>
       </c>
     </row>
     <row r="751">
@@ -11667,7 +11667,7 @@
         <v>108.054329</v>
       </c>
       <c r="C751" t="n">
-        <v>132.369446</v>
+        <v>132.369431</v>
       </c>
     </row>
     <row r="752">
@@ -11854,7 +11854,7 @@
         <v>103.480339</v>
       </c>
       <c r="C768" t="n">
-        <v>121.608459</v>
+        <v>121.608467</v>
       </c>
     </row>
     <row r="769">
@@ -11865,7 +11865,7 @@
         <v>104.070534</v>
       </c>
       <c r="C769" t="n">
-        <v>123.893982</v>
+        <v>123.89399</v>
       </c>
     </row>
     <row r="770">
@@ -11942,7 +11942,7 @@
         <v>107.955963</v>
       </c>
       <c r="C776" t="n">
-        <v>126.750885</v>
+        <v>126.750877</v>
       </c>
     </row>
     <row r="777">
@@ -11986,7 +11986,7 @@
         <v>110.857735</v>
       </c>
       <c r="C780" t="n">
-        <v>132.369446</v>
+        <v>132.369431</v>
       </c>
     </row>
     <row r="781">
@@ -12019,7 +12019,7 @@
         <v>111.644661</v>
       </c>
       <c r="C783" t="n">
-        <v>132.940826</v>
+        <v>132.940811</v>
       </c>
     </row>
     <row r="784">
@@ -12030,7 +12030,7 @@
         <v>111.447937</v>
       </c>
       <c r="C784" t="n">
-        <v>134.178787</v>
+        <v>134.178802</v>
       </c>
     </row>
     <row r="785">
@@ -12041,7 +12041,7 @@
         <v>112.333221</v>
       </c>
       <c r="C785" t="n">
-        <v>134.940628</v>
+        <v>134.940643</v>
       </c>
     </row>
     <row r="786">
@@ -12052,7 +12052,7 @@
         <v>115.087448</v>
       </c>
       <c r="C786" t="n">
-        <v>135.226334</v>
+        <v>135.226318</v>
       </c>
     </row>
     <row r="787">
@@ -12074,7 +12074,7 @@
         <v>114.595627</v>
       </c>
       <c r="C788" t="n">
-        <v>136.654785</v>
+        <v>136.65477</v>
       </c>
     </row>
     <row r="789">
@@ -12096,7 +12096,7 @@
         <v>116.366203</v>
       </c>
       <c r="C790" t="n">
-        <v>153.319992</v>
+        <v>153.319977</v>
       </c>
     </row>
     <row r="791">
@@ -12107,7 +12107,7 @@
         <v>116.218651</v>
       </c>
       <c r="C791" t="n">
-        <v>152.367691</v>
+        <v>152.367706</v>
       </c>
     </row>
     <row r="792">
@@ -12118,7 +12118,7 @@
         <v>118.82534</v>
       </c>
       <c r="C792" t="n">
-        <v>151.129715</v>
+        <v>151.1297</v>
       </c>
     </row>
     <row r="793">
@@ -12173,7 +12173,7 @@
         <v>120.54673</v>
       </c>
       <c r="C797" t="n">
-        <v>154.938904</v>
+        <v>154.938889</v>
       </c>
     </row>
     <row r="798">
@@ -12184,7 +12184,7 @@
         <v>120.497543</v>
       </c>
       <c r="C798" t="n">
-        <v>154.272293</v>
+        <v>154.272278</v>
       </c>
     </row>
     <row r="799">
@@ -12195,7 +12195,7 @@
         <v>120.349998</v>
       </c>
       <c r="C799" t="n">
-        <v>155.415054</v>
+        <v>155.415039</v>
       </c>
     </row>
     <row r="800">
@@ -12250,7 +12250,7 @@
         <v>118.25</v>
       </c>
       <c r="C804" t="n">
-        <v>155.224594</v>
+        <v>155.224579</v>
       </c>
     </row>
     <row r="805">
@@ -12261,7 +12261,7 @@
         <v>119.300003</v>
       </c>
       <c r="C805" t="n">
-        <v>159.986084</v>
+        <v>159.986069</v>
       </c>
     </row>
     <row r="806">

--- a/Danske aktiekurser.xlsx
+++ b/Danske aktiekurser.xlsx
@@ -3439,7 +3439,7 @@
         <v>188.870804</v>
       </c>
       <c r="C3" t="n">
-        <v>190.82489</v>
+        <v>190.824905</v>
       </c>
     </row>
     <row r="4">
@@ -3458,10 +3458,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="n">
-        <v>190.748566</v>
+        <v>190.74855</v>
       </c>
       <c r="C5" t="n">
-        <v>192.046173</v>
+        <v>192.046188</v>
       </c>
     </row>
     <row r="6">
@@ -3472,7 +3472,7 @@
         <v>191.843903</v>
       </c>
       <c r="C6" t="n">
-        <v>191.740875</v>
+        <v>191.740845</v>
       </c>
     </row>
     <row r="7">
@@ -3483,7 +3483,7 @@
         <v>190.357361</v>
       </c>
       <c r="C7" t="n">
-        <v>191.588196</v>
+        <v>191.588181</v>
       </c>
     </row>
     <row r="8">
@@ -3491,7 +3491,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="n">
-        <v>194.34758</v>
+        <v>194.347595</v>
       </c>
       <c r="C8" t="n">
         <v>195.404694</v>
@@ -3527,7 +3527,7 @@
         <v>196.303574</v>
       </c>
       <c r="C11" t="n">
-        <v>193.5728</v>
+        <v>193.572784</v>
       </c>
     </row>
     <row r="12">
@@ -3538,7 +3538,7 @@
         <v>195.521179</v>
       </c>
       <c r="C12" t="n">
-        <v>192.504166</v>
+        <v>192.50415</v>
       </c>
     </row>
     <row r="13">
@@ -3560,7 +3560,7 @@
         <v>191.452713</v>
       </c>
       <c r="C14" t="n">
-        <v>191.588196</v>
+        <v>191.588181</v>
       </c>
     </row>
     <row r="15">
@@ -3604,7 +3604,7 @@
         <v>192.078644</v>
       </c>
       <c r="C18" t="n">
-        <v>190.214264</v>
+        <v>190.214249</v>
       </c>
     </row>
     <row r="19">
@@ -3612,7 +3612,7 @@
         <v>20</v>
       </c>
       <c r="B19" t="n">
-        <v>186.680099</v>
+        <v>186.680084</v>
       </c>
       <c r="C19" t="n">
         <v>185.634445</v>
@@ -3626,7 +3626,7 @@
         <v>189.966156</v>
       </c>
       <c r="C20" t="n">
-        <v>187.4664</v>
+        <v>187.466385</v>
       </c>
     </row>
     <row r="21">
@@ -3648,7 +3648,7 @@
         <v>189.966156</v>
       </c>
       <c r="C22" t="n">
-        <v>185.787125</v>
+        <v>185.787109</v>
       </c>
     </row>
     <row r="23">
@@ -3667,10 +3667,10 @@
         <v>25</v>
       </c>
       <c r="B24" t="n">
-        <v>189.418503</v>
+        <v>189.418488</v>
       </c>
       <c r="C24" t="n">
-        <v>187.4664</v>
+        <v>187.466385</v>
       </c>
     </row>
     <row r="25">
@@ -3681,7 +3681,7 @@
         <v>191.609192</v>
       </c>
       <c r="C25" t="n">
-        <v>187.619049</v>
+        <v>187.619034</v>
       </c>
     </row>
     <row r="26">
@@ -3692,7 +3692,7 @@
         <v>191.609192</v>
       </c>
       <c r="C26" t="n">
-        <v>186.397766</v>
+        <v>186.397751</v>
       </c>
     </row>
     <row r="27">
@@ -3725,7 +3725,7 @@
         <v>188.557846</v>
       </c>
       <c r="C29" t="n">
-        <v>187.161057</v>
+        <v>187.161072</v>
       </c>
     </row>
     <row r="30">
@@ -3736,7 +3736,7 @@
         <v>188.244888</v>
       </c>
       <c r="C30" t="n">
-        <v>185.787125</v>
+        <v>185.787109</v>
       </c>
     </row>
     <row r="31">
@@ -3758,7 +3758,7 @@
         <v>188.949051</v>
       </c>
       <c r="C32" t="n">
-        <v>188.535004</v>
+        <v>188.534988</v>
       </c>
     </row>
     <row r="33">
@@ -3788,10 +3788,10 @@
         <v>36</v>
       </c>
       <c r="B35" t="n">
-        <v>194.660568</v>
+        <v>194.660553</v>
       </c>
       <c r="C35" t="n">
-        <v>196.625977</v>
+        <v>196.625992</v>
       </c>
     </row>
     <row r="36">
@@ -3799,10 +3799,10 @@
         <v>37</v>
       </c>
       <c r="B36" t="n">
-        <v>194.895264</v>
+        <v>194.895279</v>
       </c>
       <c r="C36" t="n">
-        <v>196.167969</v>
+        <v>196.167984</v>
       </c>
     </row>
     <row r="37">
@@ -3824,7 +3824,7 @@
         <v>192.861053</v>
       </c>
       <c r="C38" t="n">
-        <v>182.428589</v>
+        <v>182.428604</v>
       </c>
     </row>
     <row r="39">
@@ -3835,7 +3835,7 @@
         <v>193.252243</v>
       </c>
       <c r="C39" t="n">
-        <v>180.444016</v>
+        <v>180.444031</v>
       </c>
     </row>
     <row r="40">
@@ -3843,10 +3843,10 @@
         <v>41</v>
       </c>
       <c r="B40" t="n">
-        <v>194.504074</v>
+        <v>194.504089</v>
       </c>
       <c r="C40" t="n">
-        <v>186.245087</v>
+        <v>186.245102</v>
       </c>
     </row>
     <row r="41">
@@ -3854,10 +3854,10 @@
         <v>42</v>
       </c>
       <c r="B41" t="n">
-        <v>195.677673</v>
+        <v>195.677689</v>
       </c>
       <c r="C41" t="n">
-        <v>183.802551</v>
+        <v>183.802536</v>
       </c>
     </row>
     <row r="42">
@@ -3865,7 +3865,7 @@
         <v>43</v>
       </c>
       <c r="B42" t="n">
-        <v>189.731445</v>
+        <v>189.731461</v>
       </c>
       <c r="C42" t="n">
         <v>183.19191</v>
@@ -3876,7 +3876,7 @@
         <v>44</v>
       </c>
       <c r="B43" t="n">
-        <v>192.626312</v>
+        <v>192.626297</v>
       </c>
       <c r="C43" t="n">
         <v>182.733917</v>
@@ -3887,10 +3887,10 @@
         <v>45</v>
       </c>
       <c r="B44" t="n">
-        <v>190.748566</v>
+        <v>190.74855</v>
       </c>
       <c r="C44" t="n">
-        <v>181.665314</v>
+        <v>181.665298</v>
       </c>
     </row>
     <row r="45">
@@ -3898,10 +3898,10 @@
         <v>46</v>
       </c>
       <c r="B45" t="n">
-        <v>189.731445</v>
+        <v>189.731461</v>
       </c>
       <c r="C45" t="n">
-        <v>177.696152</v>
+        <v>177.696136</v>
       </c>
     </row>
     <row r="46">
@@ -3920,10 +3920,10 @@
         <v>48</v>
       </c>
       <c r="B47" t="n">
-        <v>189.34024</v>
+        <v>189.340256</v>
       </c>
       <c r="C47" t="n">
-        <v>180.749329</v>
+        <v>180.749344</v>
       </c>
     </row>
     <row r="48">
@@ -3931,10 +3931,10 @@
         <v>49</v>
       </c>
       <c r="B48" t="n">
-        <v>191.53096</v>
+        <v>191.530945</v>
       </c>
       <c r="C48" t="n">
-        <v>180.749329</v>
+        <v>180.749344</v>
       </c>
     </row>
     <row r="49">
@@ -3942,10 +3942,10 @@
         <v>50</v>
       </c>
       <c r="B49" t="n">
-        <v>191.217987</v>
+        <v>191.218002</v>
       </c>
       <c r="C49" t="n">
-        <v>182.428589</v>
+        <v>182.428604</v>
       </c>
     </row>
     <row r="50">
@@ -3953,7 +3953,7 @@
         <v>51</v>
       </c>
       <c r="B50" t="n">
-        <v>192.626312</v>
+        <v>192.626297</v>
       </c>
       <c r="C50" t="n">
         <v>180.902008</v>
@@ -4033,7 +4033,7 @@
         <v>191.714188</v>
       </c>
       <c r="C57" t="n">
-        <v>185.357895</v>
+        <v>185.35791</v>
       </c>
     </row>
     <row r="58">
@@ -4044,7 +4044,7 @@
         <v>190.572052</v>
       </c>
       <c r="C58" t="n">
-        <v>184.07515</v>
+        <v>184.075165</v>
       </c>
     </row>
     <row r="59">
@@ -4055,7 +4055,7 @@
         <v>186.493027</v>
       </c>
       <c r="C59" t="n">
-        <v>181.349289</v>
+        <v>181.349304</v>
       </c>
     </row>
     <row r="60">
@@ -4077,7 +4077,7 @@
         <v>184.208771</v>
       </c>
       <c r="C61" t="n">
-        <v>181.669983</v>
+        <v>181.669998</v>
       </c>
     </row>
     <row r="62">
@@ -4110,7 +4110,7 @@
         <v>183.148224</v>
       </c>
       <c r="C64" t="n">
-        <v>178.46312</v>
+        <v>178.463104</v>
       </c>
     </row>
     <row r="65">
@@ -4132,7 +4132,7 @@
         <v>183.882446</v>
       </c>
       <c r="C66" t="n">
-        <v>178.944138</v>
+        <v>178.944153</v>
       </c>
     </row>
     <row r="67">
@@ -4154,7 +4154,7 @@
         <v>182.985062</v>
       </c>
       <c r="C68" t="n">
-        <v>180.868271</v>
+        <v>180.868301</v>
       </c>
     </row>
     <row r="69">
@@ -4165,7 +4165,7 @@
         <v>183.39296</v>
       </c>
       <c r="C69" t="n">
-        <v>180.547577</v>
+        <v>180.547592</v>
       </c>
     </row>
     <row r="70">
@@ -4176,7 +4176,7 @@
         <v>179.477097</v>
       </c>
       <c r="C70" t="n">
-        <v>180.868271</v>
+        <v>180.868301</v>
       </c>
     </row>
     <row r="71">
@@ -4220,7 +4220,7 @@
         <v>181.9245</v>
       </c>
       <c r="C74" t="n">
-        <v>184.07515</v>
+        <v>184.075165</v>
       </c>
     </row>
     <row r="75">
@@ -4253,7 +4253,7 @@
         <v>182.577164</v>
       </c>
       <c r="C77" t="n">
-        <v>190.007904</v>
+        <v>190.007889</v>
       </c>
     </row>
     <row r="78">
@@ -4264,7 +4264,7 @@
         <v>183.229797</v>
       </c>
       <c r="C78" t="n">
-        <v>192.894104</v>
+        <v>192.894073</v>
       </c>
     </row>
     <row r="79">
@@ -4275,7 +4275,7 @@
         <v>184.127182</v>
       </c>
       <c r="C79" t="n">
-        <v>194.657883</v>
+        <v>194.657867</v>
       </c>
     </row>
     <row r="80">
@@ -4297,7 +4297,7 @@
         <v>179.069183</v>
       </c>
       <c r="C81" t="n">
-        <v>186.319977</v>
+        <v>186.319962</v>
       </c>
     </row>
     <row r="82">
@@ -4308,7 +4308,7 @@
         <v>175.72438</v>
       </c>
       <c r="C82" t="n">
-        <v>183.433792</v>
+        <v>183.433777</v>
       </c>
     </row>
     <row r="83">
@@ -4319,7 +4319,7 @@
         <v>177.763901</v>
       </c>
       <c r="C83" t="n">
-        <v>181.669983</v>
+        <v>181.669998</v>
       </c>
     </row>
     <row r="84">
@@ -4330,7 +4330,7 @@
         <v>177.84549</v>
       </c>
       <c r="C84" t="n">
-        <v>184.716522</v>
+        <v>184.716507</v>
       </c>
     </row>
     <row r="85">
@@ -4352,7 +4352,7 @@
         <v>176.132294</v>
       </c>
       <c r="C86" t="n">
-        <v>183.433792</v>
+        <v>183.433777</v>
       </c>
     </row>
     <row r="87">
@@ -4374,7 +4374,7 @@
         <v>176.784943</v>
       </c>
       <c r="C88" t="n">
-        <v>187.121689</v>
+        <v>187.121704</v>
       </c>
     </row>
     <row r="89">
@@ -4385,7 +4385,7 @@
         <v>175.561234</v>
       </c>
       <c r="C89" t="n">
-        <v>186.961365</v>
+        <v>186.961349</v>
       </c>
     </row>
     <row r="90">
@@ -4396,7 +4396,7 @@
         <v>174.990173</v>
       </c>
       <c r="C90" t="n">
-        <v>186.640671</v>
+        <v>186.640656</v>
       </c>
     </row>
     <row r="91">
@@ -4440,7 +4440,7 @@
         <v>176.458618</v>
       </c>
       <c r="C94" t="n">
-        <v>184.07515</v>
+        <v>184.075165</v>
       </c>
     </row>
     <row r="95">
@@ -4451,7 +4451,7 @@
         <v>176.132294</v>
       </c>
       <c r="C95" t="n">
-        <v>185.357895</v>
+        <v>185.35791</v>
       </c>
     </row>
     <row r="96">
@@ -4462,7 +4462,7 @@
         <v>176.94809</v>
       </c>
       <c r="C96" t="n">
-        <v>185.037231</v>
+        <v>185.037216</v>
       </c>
     </row>
     <row r="97">
@@ -4484,7 +4484,7 @@
         <v>173.276962</v>
       </c>
       <c r="C98" t="n">
-        <v>181.669983</v>
+        <v>181.669998</v>
       </c>
     </row>
     <row r="99">
@@ -4517,7 +4517,7 @@
         <v>168.871628</v>
       </c>
       <c r="C101" t="n">
-        <v>175.737244</v>
+        <v>175.737259</v>
       </c>
     </row>
     <row r="102">
@@ -4539,7 +4539,7 @@
         <v>176.295456</v>
       </c>
       <c r="C103" t="n">
-        <v>178.302765</v>
+        <v>178.30275</v>
       </c>
     </row>
     <row r="104">
@@ -4550,7 +4550,7 @@
         <v>178.253387</v>
       </c>
       <c r="C104" t="n">
-        <v>178.944138</v>
+        <v>178.944153</v>
       </c>
     </row>
     <row r="105">
@@ -4572,7 +4572,7 @@
         <v>175.561234</v>
       </c>
       <c r="C106" t="n">
-        <v>177.501053</v>
+        <v>177.501038</v>
       </c>
     </row>
     <row r="107">
@@ -4583,7 +4583,7 @@
         <v>174.092773</v>
       </c>
       <c r="C107" t="n">
-        <v>175.737244</v>
+        <v>175.737259</v>
       </c>
     </row>
     <row r="108">
@@ -4605,7 +4605,7 @@
         <v>178.498138</v>
       </c>
       <c r="C109" t="n">
-        <v>177.180359</v>
+        <v>177.180344</v>
       </c>
     </row>
     <row r="110">
@@ -4638,7 +4638,7 @@
         <v>177.682343</v>
       </c>
       <c r="C112" t="n">
-        <v>177.821747</v>
+        <v>177.821732</v>
       </c>
     </row>
     <row r="113">
@@ -4660,7 +4660,7 @@
         <v>171.971695</v>
       </c>
       <c r="C114" t="n">
-        <v>175.095886</v>
+        <v>175.095871</v>
       </c>
     </row>
     <row r="115">
@@ -4693,7 +4693,7 @@
         <v>168.626892</v>
       </c>
       <c r="C117" t="n">
-        <v>174.294159</v>
+        <v>174.294144</v>
       </c>
     </row>
     <row r="118">
@@ -4704,7 +4704,7 @@
         <v>166.0979</v>
       </c>
       <c r="C118" t="n">
-        <v>174.294159</v>
+        <v>174.294144</v>
       </c>
     </row>
     <row r="119">
@@ -4715,7 +4715,7 @@
         <v>161.243851</v>
       </c>
       <c r="C119" t="n">
-        <v>173.813141</v>
+        <v>173.813126</v>
       </c>
     </row>
     <row r="120">
@@ -4770,7 +4770,7 @@
         <v>164.303116</v>
       </c>
       <c r="C124" t="n">
-        <v>177.501053</v>
+        <v>177.501038</v>
       </c>
     </row>
     <row r="125">
@@ -4781,7 +4781,7 @@
         <v>160.999115</v>
       </c>
       <c r="C125" t="n">
-        <v>179.264832</v>
+        <v>179.264847</v>
       </c>
     </row>
     <row r="126">
@@ -4792,7 +4792,7 @@
         <v>156.797714</v>
       </c>
       <c r="C126" t="n">
-        <v>177.501053</v>
+        <v>177.501038</v>
       </c>
     </row>
     <row r="127">
@@ -4803,7 +4803,7 @@
         <v>155.533218</v>
       </c>
       <c r="C127" t="n">
-        <v>177.661377</v>
+        <v>177.661407</v>
       </c>
     </row>
     <row r="128">
@@ -4891,7 +4891,7 @@
         <v>144.642227</v>
       </c>
       <c r="C135" t="n">
-        <v>177.661377</v>
+        <v>177.661407</v>
       </c>
     </row>
     <row r="136">
@@ -4902,7 +4902,7 @@
         <v>148.394913</v>
       </c>
       <c r="C136" t="n">
-        <v>179.745865</v>
+        <v>179.74585</v>
       </c>
     </row>
     <row r="137">
@@ -4913,7 +4913,7 @@
         <v>147.456757</v>
       </c>
       <c r="C137" t="n">
-        <v>180.387238</v>
+        <v>180.387222</v>
       </c>
     </row>
     <row r="138">
@@ -4924,7 +4924,7 @@
         <v>149.985748</v>
       </c>
       <c r="C138" t="n">
-        <v>181.669983</v>
+        <v>181.669998</v>
       </c>
     </row>
     <row r="139">
@@ -4935,7 +4935,7 @@
         <v>151.94368</v>
       </c>
       <c r="C139" t="n">
-        <v>185.037231</v>
+        <v>185.037216</v>
       </c>
     </row>
     <row r="140">
@@ -4957,7 +4957,7 @@
         <v>152.800262</v>
       </c>
       <c r="C141" t="n">
-        <v>186.319977</v>
+        <v>186.319962</v>
       </c>
     </row>
     <row r="142">
@@ -4990,7 +4990,7 @@
         <v>151.127884</v>
       </c>
       <c r="C144" t="n">
-        <v>189.526871</v>
+        <v>189.526855</v>
       </c>
     </row>
     <row r="145">
@@ -5023,7 +5023,7 @@
         <v>149.129166</v>
       </c>
       <c r="C147" t="n">
-        <v>185.037231</v>
+        <v>185.037216</v>
       </c>
     </row>
     <row r="148">
@@ -5034,7 +5034,7 @@
         <v>147.53833</v>
       </c>
       <c r="C148" t="n">
-        <v>177.180359</v>
+        <v>177.180344</v>
       </c>
     </row>
     <row r="149">
@@ -5045,7 +5045,7 @@
         <v>147.905441</v>
       </c>
       <c r="C149" t="n">
-        <v>180.387238</v>
+        <v>180.387222</v>
       </c>
     </row>
     <row r="150">
@@ -5067,7 +5067,7 @@
         <v>148.231766</v>
       </c>
       <c r="C151" t="n">
-        <v>179.264832</v>
+        <v>179.264847</v>
       </c>
     </row>
     <row r="152">
@@ -5078,7 +5078,7 @@
         <v>149.700226</v>
       </c>
       <c r="C152" t="n">
-        <v>177.501053</v>
+        <v>177.501038</v>
       </c>
     </row>
     <row r="153">
@@ -5089,7 +5089,7 @@
         <v>150.026535</v>
       </c>
       <c r="C153" t="n">
-        <v>178.302765</v>
+        <v>178.30275</v>
       </c>
     </row>
     <row r="154">
@@ -5133,7 +5133,7 @@
         <v>149.210739</v>
       </c>
       <c r="C157" t="n">
-        <v>175.095886</v>
+        <v>175.095871</v>
       </c>
     </row>
     <row r="158">
@@ -5144,7 +5144,7 @@
         <v>150.230484</v>
       </c>
       <c r="C158" t="n">
-        <v>175.737244</v>
+        <v>175.737259</v>
       </c>
     </row>
     <row r="159">
@@ -5155,7 +5155,7 @@
         <v>150.719971</v>
       </c>
       <c r="C159" t="n">
-        <v>177.661377</v>
+        <v>177.661407</v>
       </c>
     </row>
     <row r="160">
@@ -5210,7 +5210,7 @@
         <v>156.716141</v>
       </c>
       <c r="C164" t="n">
-        <v>155.614059</v>
+        <v>155.614075</v>
       </c>
     </row>
     <row r="165">
@@ -5232,7 +5232,7 @@
         <v>156.634567</v>
       </c>
       <c r="C166" t="n">
-        <v>151.926147</v>
+        <v>151.926132</v>
       </c>
     </row>
     <row r="167">
@@ -5243,7 +5243,7 @@
         <v>154.146332</v>
       </c>
       <c r="C167" t="n">
-        <v>150.723541</v>
+        <v>150.723557</v>
       </c>
     </row>
     <row r="168">
@@ -5254,7 +5254,7 @@
         <v>154.309509</v>
       </c>
       <c r="C168" t="n">
-        <v>149.120117</v>
+        <v>149.120102</v>
       </c>
     </row>
     <row r="169">
@@ -5287,7 +5287,7 @@
         <v>150.719971</v>
       </c>
       <c r="C171" t="n">
-        <v>148.158066</v>
+        <v>148.158051</v>
       </c>
     </row>
     <row r="172">
@@ -5342,7 +5342,7 @@
         <v>140.114487</v>
       </c>
       <c r="C176" t="n">
-        <v>148.879578</v>
+        <v>148.879593</v>
       </c>
     </row>
     <row r="177">
@@ -5364,7 +5364,7 @@
         <v>137.748672</v>
       </c>
       <c r="C178" t="n">
-        <v>149.200287</v>
+        <v>149.200302</v>
       </c>
     </row>
     <row r="179">
@@ -5386,7 +5386,7 @@
         <v>137.871048</v>
       </c>
       <c r="C180" t="n">
-        <v>149.921844</v>
+        <v>149.92186</v>
       </c>
     </row>
     <row r="181">
@@ -5397,7 +5397,7 @@
         <v>144.397476</v>
       </c>
       <c r="C181" t="n">
-        <v>151.28476</v>
+        <v>151.284775</v>
       </c>
     </row>
     <row r="182">
@@ -5408,7 +5408,7 @@
         <v>138.727646</v>
       </c>
       <c r="C182" t="n">
-        <v>152.888199</v>
+        <v>152.888214</v>
       </c>
     </row>
     <row r="183">
@@ -5430,7 +5430,7 @@
         <v>138.686844</v>
       </c>
       <c r="C184" t="n">
-        <v>152.968369</v>
+        <v>152.968384</v>
       </c>
     </row>
     <row r="185">
@@ -5441,7 +5441,7 @@
         <v>140.563202</v>
       </c>
       <c r="C185" t="n">
-        <v>155.934738</v>
+        <v>155.934753</v>
       </c>
     </row>
     <row r="186">
@@ -5474,7 +5474,7 @@
         <v>138.238159</v>
       </c>
       <c r="C188" t="n">
-        <v>152.64769</v>
+        <v>152.647675</v>
       </c>
     </row>
     <row r="189">
@@ -5496,7 +5496,7 @@
         <v>135.627579</v>
       </c>
       <c r="C190" t="n">
-        <v>149.440811</v>
+        <v>149.440781</v>
       </c>
     </row>
     <row r="191">
@@ -5507,7 +5507,7 @@
         <v>129.386673</v>
       </c>
       <c r="C191" t="n">
-        <v>148.158066</v>
+        <v>148.158051</v>
       </c>
     </row>
     <row r="192">
@@ -5518,7 +5518,7 @@
         <v>121.310204</v>
       </c>
       <c r="C192" t="n">
-        <v>150.483047</v>
+        <v>150.483032</v>
       </c>
     </row>
     <row r="193">
@@ -5562,7 +5562,7 @@
         <v>115.191666</v>
       </c>
       <c r="C196" t="n">
-        <v>140.782211</v>
+        <v>140.782227</v>
       </c>
     </row>
     <row r="197">
@@ -5573,7 +5573,7 @@
         <v>115.273254</v>
       </c>
       <c r="C197" t="n">
-        <v>141.904617</v>
+        <v>141.904633</v>
       </c>
     </row>
     <row r="198">
@@ -5617,7 +5617,7 @@
         <v>110.704735</v>
       </c>
       <c r="C201" t="n">
-        <v>143.187393</v>
+        <v>143.187378</v>
       </c>
     </row>
     <row r="202">
@@ -5628,7 +5628,7 @@
         <v>107.033607</v>
       </c>
       <c r="C202" t="n">
-        <v>142.70636</v>
+        <v>142.706345</v>
       </c>
     </row>
     <row r="203">
@@ -5650,7 +5650,7 @@
         <v>103.280914</v>
       </c>
       <c r="C204" t="n">
-        <v>140.782211</v>
+        <v>140.782227</v>
       </c>
     </row>
     <row r="205">
@@ -5672,7 +5672,7 @@
         <v>103.076958</v>
       </c>
       <c r="C206" t="n">
-        <v>142.064972</v>
+        <v>142.064987</v>
       </c>
     </row>
     <row r="207">
@@ -5716,7 +5716,7 @@
         <v>103.076958</v>
       </c>
       <c r="C210" t="n">
-        <v>122.102119</v>
+        <v>122.102127</v>
       </c>
     </row>
     <row r="211">
@@ -5727,7 +5727,7 @@
         <v>108.134949</v>
       </c>
       <c r="C211" t="n">
-        <v>123.625381</v>
+        <v>123.625389</v>
       </c>
     </row>
     <row r="212">
@@ -5738,7 +5738,7 @@
         <v>111.765289</v>
       </c>
       <c r="C212" t="n">
-        <v>127.874512</v>
+        <v>127.874504</v>
       </c>
     </row>
     <row r="213">
@@ -5749,7 +5749,7 @@
         <v>110.337616</v>
       </c>
       <c r="C213" t="n">
-        <v>130.199509</v>
+        <v>130.199493</v>
       </c>
     </row>
     <row r="214">
@@ -5760,7 +5760,7 @@
         <v>110.174469</v>
       </c>
       <c r="C214" t="n">
-        <v>130.680527</v>
+        <v>130.680542</v>
       </c>
     </row>
     <row r="215">
@@ -5793,7 +5793,7 @@
         <v>117.598274</v>
       </c>
       <c r="C217" t="n">
-        <v>131.321915</v>
+        <v>131.32193</v>
       </c>
     </row>
     <row r="218">
@@ -5804,7 +5804,7 @@
         <v>116.619316</v>
       </c>
       <c r="C218" t="n">
-        <v>130.440002</v>
+        <v>130.440018</v>
       </c>
     </row>
     <row r="219">
@@ -5826,7 +5826,7 @@
         <v>117.598274</v>
       </c>
       <c r="C220" t="n">
-        <v>129.237427</v>
+        <v>129.237442</v>
       </c>
     </row>
     <row r="221">
@@ -5837,7 +5837,7 @@
         <v>113.519257</v>
       </c>
       <c r="C221" t="n">
-        <v>127.874512</v>
+        <v>127.874504</v>
       </c>
     </row>
     <row r="222">
@@ -5848,7 +5848,7 @@
         <v>111.602127</v>
       </c>
       <c r="C222" t="n">
-        <v>127.553833</v>
+        <v>127.553825</v>
       </c>
     </row>
     <row r="223">
@@ -5870,7 +5870,7 @@
         <v>106.544136</v>
       </c>
       <c r="C224" t="n">
-        <v>125.950378</v>
+        <v>125.950386</v>
       </c>
     </row>
     <row r="225">
@@ -5881,7 +5881,7 @@
         <v>107.441513</v>
       </c>
       <c r="C225" t="n">
-        <v>127.874512</v>
+        <v>127.874504</v>
       </c>
     </row>
     <row r="226">
@@ -5892,7 +5892,7 @@
         <v>108.461266</v>
       </c>
       <c r="C226" t="n">
-        <v>127.874512</v>
+        <v>127.874504</v>
       </c>
     </row>
     <row r="227">
@@ -5903,7 +5903,7 @@
         <v>108.869171</v>
       </c>
       <c r="C227" t="n">
-        <v>128.275375</v>
+        <v>128.27536</v>
       </c>
     </row>
     <row r="228">
@@ -5947,7 +5947,7 @@
         <v>107.441513</v>
       </c>
       <c r="C231" t="n">
-        <v>130.359833</v>
+        <v>130.359848</v>
       </c>
     </row>
     <row r="232">
@@ -5958,7 +5958,7 @@
         <v>107.196777</v>
       </c>
       <c r="C232" t="n">
-        <v>130.359833</v>
+        <v>130.359848</v>
       </c>
     </row>
     <row r="233">
@@ -5980,7 +5980,7 @@
         <v>108.583649</v>
       </c>
       <c r="C234" t="n">
-        <v>127.152962</v>
+        <v>127.152977</v>
       </c>
     </row>
     <row r="235">
@@ -6002,7 +6002,7 @@
         <v>111.316589</v>
       </c>
       <c r="C236" t="n">
-        <v>126.992615</v>
+        <v>126.992607</v>
       </c>
     </row>
     <row r="237">
@@ -6013,7 +6013,7 @@
         <v>116.007469</v>
       </c>
       <c r="C237" t="n">
-        <v>129.558121</v>
+        <v>129.558136</v>
       </c>
     </row>
     <row r="238">
@@ -6024,7 +6024,7 @@
         <v>112.050827</v>
       </c>
       <c r="C238" t="n">
-        <v>127.152962</v>
+        <v>127.152977</v>
       </c>
     </row>
     <row r="239">
@@ -6035,7 +6035,7 @@
         <v>114.2127</v>
       </c>
       <c r="C239" t="n">
-        <v>129.558121</v>
+        <v>129.558136</v>
       </c>
     </row>
     <row r="240">
@@ -6046,7 +6046,7 @@
         <v>113.519257</v>
       </c>
       <c r="C240" t="n">
-        <v>129.077087</v>
+        <v>129.077103</v>
       </c>
     </row>
     <row r="241">
@@ -6068,7 +6068,7 @@
         <v>112.62188</v>
       </c>
       <c r="C242" t="n">
-        <v>128.034851</v>
+        <v>128.034866</v>
       </c>
     </row>
     <row r="243">
@@ -6090,7 +6090,7 @@
         <v>112.213982</v>
       </c>
       <c r="C244" t="n">
-        <v>122.663307</v>
+        <v>122.663315</v>
       </c>
     </row>
     <row r="245">
@@ -6101,7 +6101,7 @@
         <v>109.725769</v>
       </c>
       <c r="C245" t="n">
-        <v>121.781425</v>
+        <v>121.781418</v>
       </c>
     </row>
     <row r="246">
@@ -6123,7 +6123,7 @@
         <v>104.626991</v>
       </c>
       <c r="C247" t="n">
-        <v>120.258156</v>
+        <v>120.258163</v>
       </c>
     </row>
     <row r="248">
@@ -6134,7 +6134,7 @@
         <v>102.954582</v>
       </c>
       <c r="C248" t="n">
-        <v>120.819366</v>
+        <v>120.819351</v>
       </c>
     </row>
     <row r="249">
@@ -6145,7 +6145,7 @@
         <v>105.157257</v>
       </c>
       <c r="C249" t="n">
-        <v>124.346954</v>
+        <v>124.346947</v>
       </c>
     </row>
     <row r="250">
@@ -6156,7 +6156,7 @@
         <v>104.994102</v>
       </c>
       <c r="C250" t="n">
-        <v>126.271057</v>
+        <v>126.271065</v>
       </c>
     </row>
     <row r="251">
@@ -6178,7 +6178,7 @@
         <v>109.195503</v>
       </c>
       <c r="C252" t="n">
-        <v>127.313309</v>
+        <v>127.313301</v>
       </c>
     </row>
     <row r="253">
@@ -6189,7 +6189,7 @@
         <v>108.909966</v>
       </c>
       <c r="C253" t="n">
-        <v>126.591759</v>
+        <v>126.591751</v>
       </c>
     </row>
     <row r="254">
@@ -6200,7 +6200,7 @@
         <v>108.3797</v>
       </c>
       <c r="C254" t="n">
-        <v>126.83226</v>
+        <v>126.832268</v>
       </c>
     </row>
     <row r="255">
@@ -6222,7 +6222,7 @@
         <v>104.219086</v>
       </c>
       <c r="C256" t="n">
-        <v>126.591759</v>
+        <v>126.591751</v>
       </c>
     </row>
     <row r="257">
@@ -6244,7 +6244,7 @@
         <v>106.054642</v>
       </c>
       <c r="C258" t="n">
-        <v>124.266777</v>
+        <v>124.266769</v>
       </c>
     </row>
     <row r="259">
@@ -6255,7 +6255,7 @@
         <v>104.423035</v>
       </c>
       <c r="C259" t="n">
-        <v>122.583153</v>
+        <v>122.583145</v>
       </c>
     </row>
     <row r="260">
@@ -6266,7 +6266,7 @@
         <v>105.034897</v>
       </c>
       <c r="C260" t="n">
-        <v>126.271057</v>
+        <v>126.271065</v>
       </c>
     </row>
     <row r="261">
@@ -6288,7 +6288,7 @@
         <v>103.199333</v>
       </c>
       <c r="C262" t="n">
-        <v>125.870201</v>
+        <v>125.870209</v>
       </c>
     </row>
     <row r="263">
@@ -6299,7 +6299,7 @@
         <v>105.238838</v>
       </c>
       <c r="C263" t="n">
-        <v>124.507271</v>
+        <v>124.507286</v>
       </c>
     </row>
     <row r="264">
@@ -6310,7 +6310,7 @@
         <v>102.791428</v>
       </c>
       <c r="C264" t="n">
-        <v>125.709869</v>
+        <v>125.709862</v>
       </c>
     </row>
     <row r="265">
@@ -6321,7 +6321,7 @@
         <v>101.975624</v>
       </c>
       <c r="C265" t="n">
-        <v>126.190895</v>
+        <v>126.190887</v>
       </c>
     </row>
     <row r="266">
@@ -6343,7 +6343,7 @@
         <v>102.138779</v>
       </c>
       <c r="C267" t="n">
-        <v>126.83226</v>
+        <v>126.832268</v>
       </c>
     </row>
     <row r="268">
@@ -6354,7 +6354,7 @@
         <v>99.936111</v>
       </c>
       <c r="C268" t="n">
-        <v>123.625381</v>
+        <v>123.625389</v>
       </c>
     </row>
     <row r="269">
@@ -6365,7 +6365,7 @@
         <v>99.854523</v>
       </c>
       <c r="C269" t="n">
-        <v>123.46505</v>
+        <v>123.465042</v>
       </c>
     </row>
     <row r="270">
@@ -6376,7 +6376,7 @@
         <v>100.140068</v>
       </c>
       <c r="C270" t="n">
-        <v>123.144371</v>
+        <v>123.144379</v>
       </c>
     </row>
     <row r="271">
@@ -6387,7 +6387,7 @@
         <v>98.304504</v>
       </c>
       <c r="C271" t="n">
-        <v>120.739204</v>
+        <v>120.739189</v>
       </c>
     </row>
     <row r="272">
@@ -6398,7 +6398,7 @@
         <v>103.444077</v>
       </c>
       <c r="C272" t="n">
-        <v>121.781425</v>
+        <v>121.781418</v>
       </c>
     </row>
     <row r="273">
@@ -6409,7 +6409,7 @@
         <v>101.078239</v>
       </c>
       <c r="C273" t="n">
-        <v>122.262451</v>
+        <v>122.262466</v>
       </c>
     </row>
     <row r="274">
@@ -6420,7 +6420,7 @@
         <v>103.199333</v>
       </c>
       <c r="C274" t="n">
-        <v>122.102119</v>
+        <v>122.102127</v>
       </c>
     </row>
     <row r="275">
@@ -6431,7 +6431,7 @@
         <v>102.66906</v>
       </c>
       <c r="C275" t="n">
-        <v>121.781425</v>
+        <v>121.781418</v>
       </c>
     </row>
     <row r="276">
@@ -6442,7 +6442,7 @@
         <v>101.975624</v>
       </c>
       <c r="C276" t="n">
-        <v>120.338333</v>
+        <v>120.338341</v>
       </c>
     </row>
     <row r="277">
@@ -6453,7 +6453,7 @@
         <v>97.896599</v>
       </c>
       <c r="C277" t="n">
-        <v>119.456444</v>
+        <v>119.456436</v>
       </c>
     </row>
     <row r="278">
@@ -6464,7 +6464,7 @@
         <v>98.712402</v>
       </c>
       <c r="C278" t="n">
-        <v>119.135757</v>
+        <v>119.13575</v>
       </c>
     </row>
     <row r="279">
@@ -6475,7 +6475,7 @@
         <v>101.119026</v>
       </c>
       <c r="C279" t="n">
-        <v>121.220222</v>
+        <v>121.22023</v>
       </c>
     </row>
     <row r="280">
@@ -6486,7 +6486,7 @@
         <v>100.180862</v>
       </c>
       <c r="C280" t="n">
-        <v>122.262451</v>
+        <v>122.262466</v>
       </c>
     </row>
     <row r="281">
@@ -6497,7 +6497,7 @@
         <v>99.936111</v>
       </c>
       <c r="C281" t="n">
-        <v>121.220222</v>
+        <v>121.22023</v>
       </c>
     </row>
     <row r="282">
@@ -6508,7 +6508,7 @@
         <v>101.486145</v>
       </c>
       <c r="C282" t="n">
-        <v>122.021957</v>
+        <v>122.021935</v>
       </c>
     </row>
     <row r="283">
@@ -6530,7 +6530,7 @@
         <v>102.873009</v>
       </c>
       <c r="C284" t="n">
-        <v>121.540916</v>
+        <v>121.540924</v>
       </c>
     </row>
     <row r="285">
@@ -6541,7 +6541,7 @@
         <v>103.117752</v>
       </c>
       <c r="C285" t="n">
-        <v>121.781425</v>
+        <v>121.781418</v>
       </c>
     </row>
     <row r="286">
@@ -6552,7 +6552,7 @@
         <v>98.712402</v>
       </c>
       <c r="C286" t="n">
-        <v>120.498665</v>
+        <v>120.498672</v>
       </c>
     </row>
     <row r="287">
@@ -6563,7 +6563,7 @@
         <v>98.467659</v>
       </c>
       <c r="C287" t="n">
-        <v>120.578857</v>
+        <v>120.578835</v>
       </c>
     </row>
     <row r="288">
@@ -6574,7 +6574,7 @@
         <v>102.301949</v>
       </c>
       <c r="C288" t="n">
-        <v>121.781425</v>
+        <v>121.781418</v>
       </c>
     </row>
     <row r="289">
@@ -6585,7 +6585,7 @@
         <v>102.220367</v>
       </c>
       <c r="C289" t="n">
-        <v>119.77713</v>
+        <v>119.777115</v>
       </c>
     </row>
     <row r="290">
@@ -6607,7 +6607,7 @@
         <v>106.462547</v>
       </c>
       <c r="C291" t="n">
-        <v>125.228821</v>
+        <v>125.228828</v>
       </c>
     </row>
     <row r="292">
@@ -6618,7 +6618,7 @@
         <v>105.973061</v>
       </c>
       <c r="C292" t="n">
-        <v>122.502991</v>
+        <v>122.502983</v>
       </c>
     </row>
     <row r="293">
@@ -6629,7 +6629,7 @@
         <v>105.687538</v>
       </c>
       <c r="C293" t="n">
-        <v>122.422813</v>
+        <v>122.422806</v>
       </c>
     </row>
     <row r="294">
@@ -6662,7 +6662,7 @@
         <v>104.137505</v>
       </c>
       <c r="C296" t="n">
-        <v>117.692657</v>
+        <v>117.69265</v>
       </c>
     </row>
     <row r="297">
@@ -6673,7 +6673,7 @@
         <v>103.036171</v>
       </c>
       <c r="C297" t="n">
-        <v>116.570244</v>
+        <v>116.570221</v>
       </c>
     </row>
     <row r="298">
@@ -6695,7 +6695,7 @@
         <v>104.463837</v>
       </c>
       <c r="C299" t="n">
-        <v>117.933174</v>
+        <v>117.933182</v>
       </c>
     </row>
     <row r="300">
@@ -6706,7 +6706,7 @@
         <v>105.361206</v>
       </c>
       <c r="C300" t="n">
-        <v>118.013344</v>
+        <v>118.013336</v>
       </c>
     </row>
     <row r="301">
@@ -6717,7 +6717,7 @@
         <v>107.971802</v>
       </c>
       <c r="C301" t="n">
-        <v>118.654709</v>
+        <v>118.654716</v>
       </c>
     </row>
     <row r="302">
@@ -6728,7 +6728,7 @@
         <v>108.706009</v>
       </c>
       <c r="C302" t="n">
-        <v>120.258156</v>
+        <v>120.258163</v>
       </c>
     </row>
     <row r="303">
@@ -6739,7 +6739,7 @@
         <v>109.481026</v>
       </c>
       <c r="C303" t="n">
-        <v>122.102119</v>
+        <v>122.102127</v>
       </c>
     </row>
     <row r="304">
@@ -6761,7 +6761,7 @@
         <v>109.437477</v>
       </c>
       <c r="C305" t="n">
-        <v>121.941788</v>
+        <v>121.94178</v>
       </c>
     </row>
     <row r="306">
@@ -6772,7 +6772,7 @@
         <v>108.000374</v>
       </c>
       <c r="C306" t="n">
-        <v>120.899536</v>
+        <v>120.899544</v>
       </c>
     </row>
     <row r="307">
@@ -6783,7 +6783,7 @@
         <v>105.866501</v>
       </c>
       <c r="C307" t="n">
-        <v>120.096039</v>
+        <v>120.096046</v>
       </c>
     </row>
     <row r="308">
@@ -6794,7 +6794,7 @@
         <v>105.605202</v>
       </c>
       <c r="C308" t="n">
-        <v>118.386497</v>
+        <v>118.38649</v>
       </c>
     </row>
     <row r="309">
@@ -6827,7 +6827,7 @@
         <v>101.685844</v>
       </c>
       <c r="C311" t="n">
-        <v>117.104324</v>
+        <v>117.104317</v>
       </c>
     </row>
     <row r="312">
@@ -6838,7 +6838,7 @@
         <v>101.729393</v>
       </c>
       <c r="C312" t="n">
-        <v>117.959106</v>
+        <v>117.959099</v>
       </c>
     </row>
     <row r="313">
@@ -6849,7 +6849,7 @@
         <v>106.066818</v>
       </c>
       <c r="C313" t="n">
-        <v>121.121773</v>
+        <v>121.121765</v>
       </c>
     </row>
     <row r="314">
@@ -6893,7 +6893,7 @@
         <v>107.129402</v>
       </c>
       <c r="C317" t="n">
-        <v>121.207253</v>
+        <v>121.20726</v>
       </c>
     </row>
     <row r="318">
@@ -6904,7 +6904,7 @@
         <v>107.347145</v>
       </c>
       <c r="C318" t="n">
-        <v>122.062027</v>
+        <v>122.062035</v>
       </c>
     </row>
     <row r="319">
@@ -6926,7 +6926,7 @@
         <v>105.953598</v>
       </c>
       <c r="C320" t="n">
-        <v>120.352486</v>
+        <v>120.352478</v>
       </c>
     </row>
     <row r="321">
@@ -6937,7 +6937,7 @@
         <v>108.131027</v>
       </c>
       <c r="C321" t="n">
-        <v>122.232986</v>
+        <v>122.232994</v>
       </c>
     </row>
     <row r="322">
@@ -6948,7 +6948,7 @@
         <v>110.613289</v>
       </c>
       <c r="C322" t="n">
-        <v>123.515152</v>
+        <v>123.51516</v>
       </c>
     </row>
     <row r="323">
@@ -6981,7 +6981,7 @@
         <v>112.268127</v>
       </c>
       <c r="C325" t="n">
-        <v>124.968269</v>
+        <v>124.968254</v>
       </c>
     </row>
     <row r="326">
@@ -6992,7 +6992,7 @@
         <v>110.87458</v>
       </c>
       <c r="C326" t="n">
-        <v>123.429665</v>
+        <v>123.429672</v>
       </c>
     </row>
     <row r="327">
@@ -7003,7 +7003,7 @@
         <v>110.831032</v>
       </c>
       <c r="C327" t="n">
-        <v>122.062027</v>
+        <v>122.062035</v>
       </c>
     </row>
     <row r="328">
@@ -7091,7 +7091,7 @@
         <v>100.510033</v>
       </c>
       <c r="C335" t="n">
-        <v>107.78727</v>
+        <v>107.787262</v>
       </c>
     </row>
     <row r="336">
@@ -7113,7 +7113,7 @@
         <v>97.635818</v>
       </c>
       <c r="C337" t="n">
-        <v>107.530846</v>
+        <v>107.530838</v>
       </c>
     </row>
     <row r="338">
@@ -7146,7 +7146,7 @@
         <v>96.068077</v>
       </c>
       <c r="C340" t="n">
-        <v>106.590584</v>
+        <v>106.590576</v>
       </c>
     </row>
     <row r="341">
@@ -7179,7 +7179,7 @@
         <v>94.500328</v>
       </c>
       <c r="C343" t="n">
-        <v>105.821281</v>
+        <v>105.821289</v>
       </c>
     </row>
     <row r="344">
@@ -7201,7 +7201,7 @@
         <v>96.198715</v>
       </c>
       <c r="C345" t="n">
-        <v>105.992241</v>
+        <v>105.992233</v>
       </c>
     </row>
     <row r="346">
@@ -7212,7 +7212,7 @@
         <v>96.764847</v>
       </c>
       <c r="C346" t="n">
-        <v>105.906761</v>
+        <v>105.906769</v>
       </c>
     </row>
     <row r="347">
@@ -7245,7 +7245,7 @@
         <v>98.158401</v>
       </c>
       <c r="C349" t="n">
-        <v>106.077721</v>
+        <v>106.077713</v>
       </c>
     </row>
     <row r="350">
@@ -7322,7 +7322,7 @@
         <v>96.851952</v>
       </c>
       <c r="C356" t="n">
-        <v>110.266113</v>
+        <v>110.266121</v>
       </c>
     </row>
     <row r="357">
@@ -7333,7 +7333,7 @@
         <v>96.939049</v>
       </c>
       <c r="C357" t="n">
-        <v>111.120903</v>
+        <v>111.120895</v>
       </c>
     </row>
     <row r="358">
@@ -7344,7 +7344,7 @@
         <v>97.374535</v>
       </c>
       <c r="C358" t="n">
-        <v>111.97567</v>
+        <v>111.975677</v>
       </c>
     </row>
     <row r="359">
@@ -7355,7 +7355,7 @@
         <v>95.458397</v>
       </c>
       <c r="C359" t="n">
-        <v>111.377335</v>
+        <v>111.377327</v>
       </c>
     </row>
     <row r="360">
@@ -7366,7 +7366,7 @@
         <v>94.935814</v>
       </c>
       <c r="C360" t="n">
-        <v>112.403061</v>
+        <v>112.403053</v>
       </c>
     </row>
     <row r="361">
@@ -7377,7 +7377,7 @@
         <v>90.929352</v>
       </c>
       <c r="C361" t="n">
-        <v>110.864449</v>
+        <v>110.864456</v>
       </c>
     </row>
     <row r="362">
@@ -7399,7 +7399,7 @@
         <v>90.189026</v>
       </c>
       <c r="C363" t="n">
-        <v>109.66777</v>
+        <v>109.667778</v>
       </c>
     </row>
     <row r="364">
@@ -7410,7 +7410,7 @@
         <v>90.493866</v>
       </c>
       <c r="C364" t="n">
-        <v>108.727524</v>
+        <v>108.727516</v>
       </c>
     </row>
     <row r="365">
@@ -7432,7 +7432,7 @@
         <v>86.260948</v>
       </c>
       <c r="C366" t="n">
-        <v>104.539116</v>
+        <v>104.539124</v>
       </c>
     </row>
     <row r="367">
@@ -7520,7 +7520,7 @@
         <v>92.540642</v>
       </c>
       <c r="C374" t="n">
-        <v>110.693512</v>
+        <v>110.693504</v>
       </c>
     </row>
     <row r="375">
@@ -7531,7 +7531,7 @@
         <v>90.755157</v>
       </c>
       <c r="C375" t="n">
-        <v>109.411339</v>
+        <v>109.411346</v>
       </c>
     </row>
     <row r="376">
@@ -7564,7 +7564,7 @@
         <v>89.492241</v>
       </c>
       <c r="C378" t="n">
-        <v>105.393906</v>
+        <v>105.393898</v>
       </c>
     </row>
     <row r="379">
@@ -7652,7 +7652,7 @@
         <v>90.406769</v>
       </c>
       <c r="C386" t="n">
-        <v>102.573135</v>
+        <v>102.573128</v>
       </c>
     </row>
     <row r="387">
@@ -7718,7 +7718,7 @@
         <v>87.314819</v>
       </c>
       <c r="C392" t="n">
-        <v>100.350716</v>
+        <v>100.350708</v>
       </c>
     </row>
     <row r="393">
@@ -7751,7 +7751,7 @@
         <v>84.066101</v>
       </c>
       <c r="C395" t="n">
-        <v>98.042816</v>
+        <v>98.042824</v>
       </c>
     </row>
     <row r="396">
@@ -7762,7 +7762,7 @@
         <v>83.839653</v>
       </c>
       <c r="C396" t="n">
-        <v>99.923332</v>
+        <v>99.923325</v>
       </c>
     </row>
     <row r="397">
@@ -7773,7 +7773,7 @@
         <v>83.508675</v>
       </c>
       <c r="C397" t="n">
-        <v>98.726646</v>
+        <v>98.726639</v>
       </c>
     </row>
     <row r="398">
@@ -7784,7 +7784,7 @@
         <v>83.857063</v>
       </c>
       <c r="C398" t="n">
-        <v>98.641167</v>
+        <v>98.641159</v>
       </c>
     </row>
     <row r="399">
@@ -7795,7 +7795,7 @@
         <v>82.672546</v>
       </c>
       <c r="C399" t="n">
-        <v>98.128296</v>
+        <v>98.128304</v>
       </c>
     </row>
     <row r="400">
@@ -7806,7 +7806,7 @@
         <v>81.244148</v>
       </c>
       <c r="C400" t="n">
-        <v>95.991364</v>
+        <v>95.991356</v>
       </c>
     </row>
     <row r="401">
@@ -7828,7 +7828,7 @@
         <v>77.516396</v>
       </c>
       <c r="C402" t="n">
-        <v>92.230347</v>
+        <v>92.230339</v>
       </c>
     </row>
     <row r="403">
@@ -7872,7 +7872,7 @@
         <v>77.882202</v>
       </c>
       <c r="C406" t="n">
-        <v>93.597992</v>
+        <v>93.597984</v>
       </c>
     </row>
     <row r="407">
@@ -7883,7 +7883,7 @@
         <v>77.516396</v>
       </c>
       <c r="C407" t="n">
-        <v>92.657738</v>
+        <v>92.65773</v>
       </c>
     </row>
     <row r="408">
@@ -7949,7 +7949,7 @@
         <v>76.59317</v>
       </c>
       <c r="C413" t="n">
-        <v>80.348946</v>
+        <v>80.348953</v>
       </c>
     </row>
     <row r="414">
@@ -8026,7 +8026,7 @@
         <v>86.644173</v>
       </c>
       <c r="C420" t="n">
-        <v>86.930733</v>
+        <v>86.930725</v>
       </c>
     </row>
     <row r="421">
@@ -8037,7 +8037,7 @@
         <v>88.055145</v>
       </c>
       <c r="C421" t="n">
-        <v>88.55481</v>
+        <v>88.554802</v>
       </c>
     </row>
     <row r="422">
@@ -8048,7 +8048,7 @@
         <v>87.968048</v>
       </c>
       <c r="C422" t="n">
-        <v>88.041931</v>
+        <v>88.041946</v>
       </c>
     </row>
     <row r="423">
@@ -8059,7 +8059,7 @@
         <v>88.011604</v>
       </c>
       <c r="C423" t="n">
-        <v>87.870995</v>
+        <v>87.870987</v>
       </c>
     </row>
     <row r="424">
@@ -8070,7 +8070,7 @@
         <v>91.190636</v>
       </c>
       <c r="C424" t="n">
-        <v>88.55481</v>
+        <v>88.554802</v>
       </c>
     </row>
     <row r="425">
@@ -8081,7 +8081,7 @@
         <v>88.22934</v>
       </c>
       <c r="C425" t="n">
-        <v>88.640282</v>
+        <v>88.640274</v>
       </c>
     </row>
     <row r="426">
@@ -8114,7 +8114,7 @@
         <v>84.41449</v>
       </c>
       <c r="C428" t="n">
-        <v>89.495064</v>
+        <v>89.495056</v>
       </c>
     </row>
     <row r="429">
@@ -8147,7 +8147,7 @@
         <v>83.543518</v>
       </c>
       <c r="C431" t="n">
-        <v>103.34243</v>
+        <v>103.342438</v>
       </c>
     </row>
     <row r="432">
@@ -8202,7 +8202,7 @@
         <v>82.742218</v>
       </c>
       <c r="C436" t="n">
-        <v>102.402176</v>
+        <v>102.402184</v>
       </c>
     </row>
     <row r="437">
@@ -8213,7 +8213,7 @@
         <v>82.02803</v>
       </c>
       <c r="C437" t="n">
-        <v>99.923332</v>
+        <v>99.923325</v>
       </c>
     </row>
     <row r="438">
@@ -8268,7 +8268,7 @@
         <v>79.972534</v>
       </c>
       <c r="C442" t="n">
-        <v>102.316696</v>
+        <v>102.316704</v>
       </c>
     </row>
     <row r="443">
@@ -8301,7 +8301,7 @@
         <v>83.595779</v>
       </c>
       <c r="C445" t="n">
-        <v>104.795555</v>
+        <v>104.795547</v>
       </c>
     </row>
     <row r="446">
@@ -8323,7 +8323,7 @@
         <v>84.693199</v>
       </c>
       <c r="C447" t="n">
-        <v>109.924217</v>
+        <v>109.92421</v>
       </c>
     </row>
     <row r="448">
@@ -8345,7 +8345,7 @@
         <v>83.822227</v>
       </c>
       <c r="C449" t="n">
-        <v>110.266113</v>
+        <v>110.266121</v>
       </c>
     </row>
     <row r="450">
@@ -8356,7 +8356,7 @@
         <v>85.877724</v>
       </c>
       <c r="C450" t="n">
-        <v>112.6595</v>
+        <v>112.659492</v>
       </c>
     </row>
     <row r="451">
@@ -8378,7 +8378,7 @@
         <v>85.529327</v>
       </c>
       <c r="C452" t="n">
-        <v>115.394768</v>
+        <v>115.394775</v>
       </c>
     </row>
     <row r="453">
@@ -8389,7 +8389,7 @@
         <v>85.668686</v>
       </c>
       <c r="C453" t="n">
-        <v>114.881905</v>
+        <v>114.881912</v>
       </c>
     </row>
     <row r="454">
@@ -8411,7 +8411,7 @@
         <v>85.616432</v>
       </c>
       <c r="C455" t="n">
-        <v>114.454514</v>
+        <v>114.454521</v>
       </c>
     </row>
     <row r="456">
@@ -8422,7 +8422,7 @@
         <v>84.867393</v>
       </c>
       <c r="C456" t="n">
-        <v>115.736679</v>
+        <v>115.736671</v>
       </c>
     </row>
     <row r="457">
@@ -8433,7 +8433,7 @@
         <v>82.829323</v>
       </c>
       <c r="C457" t="n">
-        <v>113.856178</v>
+        <v>113.856171</v>
       </c>
     </row>
     <row r="458">
@@ -8444,7 +8444,7 @@
         <v>83.247391</v>
       </c>
       <c r="C458" t="n">
-        <v>112.317581</v>
+        <v>112.317574</v>
       </c>
     </row>
     <row r="459">
@@ -8466,7 +8466,7 @@
         <v>81.348671</v>
       </c>
       <c r="C460" t="n">
-        <v>112.403061</v>
+        <v>112.403053</v>
       </c>
     </row>
     <row r="461">
@@ -8477,7 +8477,7 @@
         <v>81.784157</v>
       </c>
       <c r="C461" t="n">
-        <v>114.454514</v>
+        <v>114.454521</v>
       </c>
     </row>
     <row r="462">
@@ -8510,7 +8510,7 @@
         <v>83.369324</v>
       </c>
       <c r="C464" t="n">
-        <v>115.993118</v>
+        <v>115.993111</v>
       </c>
     </row>
     <row r="465">
@@ -8521,7 +8521,7 @@
         <v>82.498352</v>
       </c>
       <c r="C465" t="n">
-        <v>116.676941</v>
+        <v>116.676933</v>
       </c>
     </row>
     <row r="466">
@@ -8532,7 +8532,7 @@
         <v>82.30674</v>
       </c>
       <c r="C466" t="n">
-        <v>116.933372</v>
+        <v>116.93338</v>
       </c>
     </row>
     <row r="467">
@@ -8554,7 +8554,7 @@
         <v>80.634476</v>
       </c>
       <c r="C468" t="n">
-        <v>111.377335</v>
+        <v>111.377327</v>
       </c>
     </row>
     <row r="469">
@@ -8587,7 +8587,7 @@
         <v>79.362862</v>
       </c>
       <c r="C471" t="n">
-        <v>110.864449</v>
+        <v>110.864456</v>
       </c>
     </row>
     <row r="472">
@@ -8609,7 +8609,7 @@
         <v>78.735756</v>
       </c>
       <c r="C473" t="n">
-        <v>108.727524</v>
+        <v>108.727516</v>
       </c>
     </row>
     <row r="474">
@@ -8631,7 +8631,7 @@
         <v>80.129311</v>
       </c>
       <c r="C475" t="n">
-        <v>110.693512</v>
+        <v>110.693504</v>
       </c>
     </row>
     <row r="476">
@@ -8642,7 +8642,7 @@
         <v>79.275757</v>
       </c>
       <c r="C476" t="n">
-        <v>108.727524</v>
+        <v>108.727516</v>
       </c>
     </row>
     <row r="477">
@@ -8653,7 +8653,7 @@
         <v>80.233833</v>
       </c>
       <c r="C477" t="n">
-        <v>110.266113</v>
+        <v>110.266121</v>
       </c>
     </row>
     <row r="478">
@@ -8664,7 +8664,7 @@
         <v>80.129311</v>
       </c>
       <c r="C478" t="n">
-        <v>109.582298</v>
+        <v>109.582291</v>
       </c>
     </row>
     <row r="479">
@@ -8686,7 +8686,7 @@
         <v>80.129311</v>
       </c>
       <c r="C480" t="n">
-        <v>107.530846</v>
+        <v>107.530838</v>
       </c>
     </row>
     <row r="481">
@@ -8697,7 +8697,7 @@
         <v>79.223503</v>
       </c>
       <c r="C481" t="n">
-        <v>105.47937</v>
+        <v>105.479378</v>
       </c>
     </row>
     <row r="482">
@@ -8763,7 +8763,7 @@
         <v>84.849968</v>
       </c>
       <c r="C487" t="n">
-        <v>113.856178</v>
+        <v>113.856171</v>
       </c>
     </row>
     <row r="488">
@@ -8785,7 +8785,7 @@
         <v>90.580963</v>
       </c>
       <c r="C489" t="n">
-        <v>112.403061</v>
+        <v>112.403053</v>
       </c>
     </row>
     <row r="490">
@@ -8807,7 +8807,7 @@
         <v>94.108398</v>
       </c>
       <c r="C491" t="n">
-        <v>117.104324</v>
+        <v>117.104317</v>
       </c>
     </row>
     <row r="492">
@@ -8818,7 +8818,7 @@
         <v>93.193878</v>
       </c>
       <c r="C492" t="n">
-        <v>118.215538</v>
+        <v>118.215546</v>
       </c>
     </row>
     <row r="493">
@@ -8829,7 +8829,7 @@
         <v>92.105156</v>
       </c>
       <c r="C493" t="n">
-        <v>116.933372</v>
+        <v>116.93338</v>
       </c>
     </row>
     <row r="494">
@@ -8851,7 +8851,7 @@
         <v>93.193878</v>
       </c>
       <c r="C495" t="n">
-        <v>118.899361</v>
+        <v>118.899368</v>
       </c>
     </row>
     <row r="496">
@@ -8862,7 +8862,7 @@
         <v>93.411613</v>
       </c>
       <c r="C496" t="n">
-        <v>119.07032</v>
+        <v>119.070328</v>
       </c>
     </row>
     <row r="497">
@@ -8873,7 +8873,7 @@
         <v>93.890656</v>
       </c>
       <c r="C497" t="n">
-        <v>119.497696</v>
+        <v>119.497711</v>
       </c>
     </row>
     <row r="498">
@@ -8906,7 +8906,7 @@
         <v>92.932579</v>
       </c>
       <c r="C500" t="n">
-        <v>120.608917</v>
+        <v>120.60891</v>
       </c>
     </row>
     <row r="501">
@@ -8917,7 +8917,7 @@
         <v>93.847099</v>
       </c>
       <c r="C501" t="n">
-        <v>120.694382</v>
+        <v>120.694374</v>
       </c>
     </row>
     <row r="502">
@@ -8939,7 +8939,7 @@
         <v>96.068077</v>
       </c>
       <c r="C503" t="n">
-        <v>124.369919</v>
+        <v>124.369926</v>
       </c>
     </row>
     <row r="504">
@@ -8961,7 +8961,7 @@
         <v>93.498711</v>
       </c>
       <c r="C505" t="n">
-        <v>121.891075</v>
+        <v>121.891083</v>
       </c>
     </row>
     <row r="506">
@@ -8972,7 +8972,7 @@
         <v>94.064842</v>
       </c>
       <c r="C506" t="n">
-        <v>123.686111</v>
+        <v>123.686089</v>
       </c>
     </row>
     <row r="507">
@@ -8983,7 +8983,7 @@
         <v>93.411613</v>
       </c>
       <c r="C507" t="n">
-        <v>123.258705</v>
+        <v>123.258713</v>
       </c>
     </row>
     <row r="508">
@@ -8994,7 +8994,7 @@
         <v>94.674515</v>
       </c>
       <c r="C508" t="n">
-        <v>123.600632</v>
+        <v>123.600624</v>
       </c>
     </row>
     <row r="509">
@@ -9005,7 +9005,7 @@
         <v>95.806786</v>
       </c>
       <c r="C509" t="n">
-        <v>123.344193</v>
+        <v>123.344208</v>
       </c>
     </row>
     <row r="510">
@@ -9038,7 +9038,7 @@
         <v>96.721306</v>
       </c>
       <c r="C512" t="n">
-        <v>127.703552</v>
+        <v>127.703537</v>
       </c>
     </row>
     <row r="513">
@@ -9049,7 +9049,7 @@
         <v>94.848717</v>
       </c>
       <c r="C513" t="n">
-        <v>126.93425</v>
+        <v>126.934265</v>
       </c>
     </row>
     <row r="514">
@@ -9071,7 +9071,7 @@
         <v>92.453545</v>
       </c>
       <c r="C515" t="n">
-        <v>123.087753</v>
+        <v>123.087769</v>
       </c>
     </row>
     <row r="516">
@@ -9082,7 +9082,7 @@
         <v>94.500328</v>
       </c>
       <c r="C516" t="n">
-        <v>125.224693</v>
+        <v>125.224701</v>
       </c>
     </row>
     <row r="517">
@@ -9104,7 +9104,7 @@
         <v>94.674515</v>
       </c>
       <c r="C518" t="n">
-        <v>124.198975</v>
+        <v>124.198967</v>
       </c>
     </row>
     <row r="519">
@@ -9126,7 +9126,7 @@
         <v>97.20034</v>
       </c>
       <c r="C520" t="n">
-        <v>125.652077</v>
+        <v>125.652092</v>
       </c>
     </row>
     <row r="521">
@@ -9137,7 +9137,7 @@
         <v>99.943901</v>
       </c>
       <c r="C521" t="n">
-        <v>127.276154</v>
+        <v>127.276161</v>
       </c>
     </row>
     <row r="522">
@@ -9148,7 +9148,7 @@
         <v>100.422928</v>
       </c>
       <c r="C522" t="n">
-        <v>128.472839</v>
+        <v>128.472855</v>
       </c>
     </row>
     <row r="523">
@@ -9170,7 +9170,7 @@
         <v>102.513252</v>
       </c>
       <c r="C524" t="n">
-        <v>130.438828</v>
+        <v>130.438843</v>
       </c>
     </row>
     <row r="525">
@@ -9192,7 +9192,7 @@
         <v>105.822945</v>
       </c>
       <c r="C526" t="n">
-        <v>133.516022</v>
+        <v>133.516037</v>
       </c>
     </row>
     <row r="527">
@@ -9214,7 +9214,7 @@
         <v>106.519722</v>
       </c>
       <c r="C528" t="n">
-        <v>134.199844</v>
+        <v>134.19986</v>
       </c>
     </row>
     <row r="529">
@@ -9269,7 +9269,7 @@
         <v>106.476173</v>
       </c>
       <c r="C533" t="n">
-        <v>138.473724</v>
+        <v>138.47374</v>
       </c>
     </row>
     <row r="534">
@@ -9291,7 +9291,7 @@
         <v>100.161644</v>
       </c>
       <c r="C535" t="n">
-        <v>134.199844</v>
+        <v>134.19986</v>
       </c>
     </row>
     <row r="536">
@@ -9357,7 +9357,7 @@
         <v>93.063225</v>
       </c>
       <c r="C541" t="n">
-        <v>109.83873</v>
+        <v>109.838737</v>
       </c>
     </row>
     <row r="542">
@@ -9379,7 +9379,7 @@
         <v>91.147095</v>
       </c>
       <c r="C543" t="n">
-        <v>104.795555</v>
+        <v>104.795547</v>
       </c>
     </row>
     <row r="544">
@@ -9412,7 +9412,7 @@
         <v>77.28994</v>
       </c>
       <c r="C546" t="n">
-        <v>93.854424</v>
+        <v>93.854416</v>
       </c>
     </row>
     <row r="547">
@@ -9445,7 +9445,7 @@
         <v>67.761528</v>
       </c>
       <c r="C549" t="n">
-        <v>83.682579</v>
+        <v>83.682587</v>
       </c>
     </row>
     <row r="550">
@@ -9467,7 +9467,7 @@
         <v>64.62603</v>
       </c>
       <c r="C551" t="n">
-        <v>80.220741</v>
+        <v>80.220734</v>
       </c>
     </row>
     <row r="552">
@@ -9478,7 +9478,7 @@
         <v>71.60997</v>
       </c>
       <c r="C552" t="n">
-        <v>77.399979</v>
+        <v>77.399986</v>
       </c>
     </row>
     <row r="553">
@@ -9489,7 +9489,7 @@
         <v>71.708336</v>
       </c>
       <c r="C553" t="n">
-        <v>78.126534</v>
+        <v>78.126541</v>
       </c>
     </row>
     <row r="554">
@@ -9577,7 +9577,7 @@
         <v>75.642952</v>
       </c>
       <c r="C561" t="n">
-        <v>91.515846</v>
+        <v>91.515839</v>
       </c>
     </row>
     <row r="562">
@@ -9610,7 +9610,7 @@
         <v>71.078796</v>
       </c>
       <c r="C564" t="n">
-        <v>88.706566</v>
+        <v>88.706573</v>
       </c>
     </row>
     <row r="565">
@@ -9621,7 +9621,7 @@
         <v>72.141136</v>
       </c>
       <c r="C565" t="n">
-        <v>88.37326</v>
+        <v>88.373268</v>
       </c>
     </row>
     <row r="566">
@@ -9687,7 +9687,7 @@
         <v>72.318199</v>
       </c>
       <c r="C571" t="n">
-        <v>89.373177</v>
+        <v>89.373169</v>
       </c>
     </row>
     <row r="572">
@@ -9698,7 +9698,7 @@
         <v>71.82637</v>
       </c>
       <c r="C572" t="n">
-        <v>90.992081</v>
+        <v>90.992088</v>
       </c>
     </row>
     <row r="573">
@@ -9731,7 +9731,7 @@
         <v>72.455917</v>
       </c>
       <c r="C575" t="n">
-        <v>91.230156</v>
+        <v>91.230164</v>
       </c>
     </row>
     <row r="576">
@@ -9742,7 +9742,7 @@
         <v>70.134491</v>
       </c>
       <c r="C576" t="n">
-        <v>89.706482</v>
+        <v>89.706474</v>
       </c>
     </row>
     <row r="577">
@@ -9786,7 +9786,7 @@
         <v>79.479202</v>
       </c>
       <c r="C580" t="n">
-        <v>107.895378</v>
+        <v>107.89537</v>
       </c>
     </row>
     <row r="581">
@@ -9830,7 +9830,7 @@
         <v>74.226486</v>
       </c>
       <c r="C584" t="n">
-        <v>95.086967</v>
+        <v>95.08696</v>
       </c>
     </row>
     <row r="585">
@@ -9852,7 +9852,7 @@
         <v>74.619949</v>
       </c>
       <c r="C586" t="n">
-        <v>100.086525</v>
+        <v>100.086533</v>
       </c>
     </row>
     <row r="587">
@@ -9863,7 +9863,7 @@
         <v>74.167473</v>
       </c>
       <c r="C587" t="n">
-        <v>101.134056</v>
+        <v>101.134048</v>
       </c>
     </row>
     <row r="588">
@@ -9896,7 +9896,7 @@
         <v>70.803375</v>
       </c>
       <c r="C590" t="n">
-        <v>99.991295</v>
+        <v>99.991302</v>
       </c>
     </row>
     <row r="591">
@@ -9918,7 +9918,7 @@
         <v>73.400223</v>
       </c>
       <c r="C592" t="n">
-        <v>100.657906</v>
+        <v>100.657898</v>
       </c>
     </row>
     <row r="593">
@@ -9929,7 +9929,7 @@
         <v>75.564255</v>
       </c>
       <c r="C593" t="n">
-        <v>102.46727</v>
+        <v>102.467278</v>
       </c>
     </row>
     <row r="594">
@@ -9973,7 +9973,7 @@
         <v>83.748253</v>
       </c>
       <c r="C597" t="n">
-        <v>111.799797</v>
+        <v>111.799789</v>
       </c>
     </row>
     <row r="598">
@@ -9995,7 +9995,7 @@
         <v>86.128693</v>
       </c>
       <c r="C599" t="n">
-        <v>116.656517</v>
+        <v>116.656509</v>
       </c>
     </row>
     <row r="600">
@@ -10017,7 +10017,7 @@
         <v>89.256706</v>
       </c>
       <c r="C601" t="n">
-        <v>123.89399</v>
+        <v>123.893982</v>
       </c>
     </row>
     <row r="602">
@@ -10072,7 +10072,7 @@
         <v>86.42379</v>
       </c>
       <c r="C606" t="n">
-        <v>117.704048</v>
+        <v>117.704041</v>
       </c>
     </row>
     <row r="607">
@@ -10094,7 +10094,7 @@
         <v>87.663193</v>
       </c>
       <c r="C608" t="n">
-        <v>120.751404</v>
+        <v>120.751396</v>
       </c>
     </row>
     <row r="609">
@@ -10160,7 +10160,7 @@
         <v>87.466461</v>
       </c>
       <c r="C614" t="n">
-        <v>117.704048</v>
+        <v>117.704041</v>
       </c>
     </row>
     <row r="615">
@@ -10204,7 +10204,7 @@
         <v>86.836922</v>
       </c>
       <c r="C618" t="n">
-        <v>117.132668</v>
+        <v>117.13266</v>
       </c>
     </row>
     <row r="619">
@@ -10325,7 +10325,7 @@
         <v>100.185097</v>
       </c>
       <c r="C629" t="n">
-        <v>124.465363</v>
+        <v>124.465355</v>
       </c>
     </row>
     <row r="630">
@@ -10336,7 +10336,7 @@
         <v>100.185097</v>
       </c>
       <c r="C630" t="n">
-        <v>125.512894</v>
+        <v>125.512886</v>
       </c>
     </row>
     <row r="631">
@@ -10358,7 +10358,7 @@
         <v>104.267265</v>
       </c>
       <c r="C632" t="n">
-        <v>125.036743</v>
+        <v>125.036736</v>
       </c>
     </row>
     <row r="633">
@@ -10391,7 +10391,7 @@
         <v>103.72625</v>
       </c>
       <c r="C635" t="n">
-        <v>125.322441</v>
+        <v>125.322433</v>
       </c>
     </row>
     <row r="636">
@@ -10402,7 +10402,7 @@
         <v>104.218079</v>
       </c>
       <c r="C636" t="n">
-        <v>124.941505</v>
+        <v>124.941498</v>
       </c>
     </row>
     <row r="637">
@@ -10413,7 +10413,7 @@
         <v>102.250771</v>
       </c>
       <c r="C637" t="n">
-        <v>122.655991</v>
+        <v>122.655998</v>
       </c>
     </row>
     <row r="638">
@@ -10468,7 +10468,7 @@
         <v>101.168755</v>
       </c>
       <c r="C642" t="n">
-        <v>115.894669</v>
+        <v>115.894676</v>
       </c>
     </row>
     <row r="643">
@@ -10479,7 +10479,7 @@
         <v>100.480202</v>
       </c>
       <c r="C643" t="n">
-        <v>116.751747</v>
+        <v>116.75174</v>
       </c>
     </row>
     <row r="644">
@@ -10490,7 +10490,7 @@
         <v>100.922836</v>
       </c>
       <c r="C644" t="n">
-        <v>115.989906</v>
+        <v>115.989914</v>
       </c>
     </row>
     <row r="645">
@@ -10501,7 +10501,7 @@
         <v>100.332649</v>
       </c>
       <c r="C645" t="n">
-        <v>115.418518</v>
+        <v>115.418526</v>
       </c>
     </row>
     <row r="646">
@@ -10567,7 +10567,7 @@
         <v>102.349144</v>
       </c>
       <c r="C651" t="n">
-        <v>113.609161</v>
+        <v>113.609169</v>
       </c>
     </row>
     <row r="652">
@@ -10611,7 +10611,7 @@
         <v>96.496399</v>
       </c>
       <c r="C655" t="n">
-        <v>110.466583</v>
+        <v>110.466576</v>
       </c>
     </row>
     <row r="656">
@@ -10622,7 +10622,7 @@
         <v>97.047249</v>
       </c>
       <c r="C656" t="n">
-        <v>109.799965</v>
+        <v>109.799973</v>
       </c>
     </row>
     <row r="657">
@@ -10655,7 +10655,7 @@
         <v>97.971878</v>
       </c>
       <c r="C659" t="n">
-        <v>107.22876</v>
+        <v>107.228767</v>
       </c>
     </row>
     <row r="660">
@@ -10666,7 +10666,7 @@
         <v>96.594765</v>
       </c>
       <c r="C660" t="n">
-        <v>106.847839</v>
+        <v>106.847847</v>
       </c>
     </row>
     <row r="661">
@@ -10699,7 +10699,7 @@
         <v>92.463425</v>
       </c>
       <c r="C663" t="n">
-        <v>95.705956</v>
+        <v>95.705963</v>
       </c>
     </row>
     <row r="664">
@@ -10754,7 +10754,7 @@
         <v>87.859924</v>
       </c>
       <c r="C668" t="n">
-        <v>96.467804</v>
+        <v>96.467796</v>
       </c>
     </row>
     <row r="669">
@@ -10765,7 +10765,7 @@
         <v>88.627174</v>
       </c>
       <c r="C669" t="n">
-        <v>98.181931</v>
+        <v>98.181938</v>
       </c>
     </row>
     <row r="670">
@@ -10776,7 +10776,7 @@
         <v>88.587822</v>
       </c>
       <c r="C670" t="n">
-        <v>99.705612</v>
+        <v>99.705605</v>
       </c>
     </row>
     <row r="671">
@@ -10787,7 +10787,7 @@
         <v>86.502487</v>
       </c>
       <c r="C671" t="n">
-        <v>99.610374</v>
+        <v>99.610382</v>
       </c>
     </row>
     <row r="672">
@@ -10809,7 +10809,7 @@
         <v>86.187714</v>
       </c>
       <c r="C673" t="n">
-        <v>99.134224</v>
+        <v>99.134232</v>
       </c>
     </row>
     <row r="674">
@@ -10820,7 +10820,7 @@
         <v>86.384445</v>
       </c>
       <c r="C674" t="n">
-        <v>97.89624</v>
+        <v>97.896248</v>
       </c>
     </row>
     <row r="675">
@@ -10842,7 +10842,7 @@
         <v>83.0597</v>
       </c>
       <c r="C676" t="n">
-        <v>96.372566</v>
+        <v>96.372559</v>
       </c>
     </row>
     <row r="677">
@@ -10853,7 +10853,7 @@
         <v>80.659584</v>
       </c>
       <c r="C677" t="n">
-        <v>94.372742</v>
+        <v>94.372734</v>
       </c>
     </row>
     <row r="678">
@@ -10875,7 +10875,7 @@
         <v>81.938332</v>
       </c>
       <c r="C679" t="n">
-        <v>93.563286</v>
+        <v>93.563293</v>
       </c>
     </row>
     <row r="680">
@@ -10930,7 +10930,7 @@
         <v>84.692558</v>
       </c>
       <c r="C684" t="n">
-        <v>94.848892</v>
+        <v>94.848885</v>
       </c>
     </row>
     <row r="685">
@@ -10952,7 +10952,7 @@
         <v>83.453156</v>
       </c>
       <c r="C686" t="n">
-        <v>103.133888</v>
+        <v>103.133881</v>
       </c>
     </row>
     <row r="687">
@@ -10963,7 +10963,7 @@
         <v>85.57785</v>
       </c>
       <c r="C687" t="n">
-        <v>103.133888</v>
+        <v>103.133881</v>
       </c>
     </row>
     <row r="688">
@@ -10996,7 +10996,7 @@
         <v>89.453445</v>
       </c>
       <c r="C690" t="n">
-        <v>103.990944</v>
+        <v>103.990952</v>
       </c>
     </row>
     <row r="691">
@@ -11073,7 +11073,7 @@
         <v>91.401077</v>
       </c>
       <c r="C697" t="n">
-        <v>103.990944</v>
+        <v>103.990952</v>
       </c>
     </row>
     <row r="698">
@@ -11161,7 +11161,7 @@
         <v>84.161385</v>
       </c>
       <c r="C705" t="n">
-        <v>102.37204</v>
+        <v>102.372047</v>
       </c>
     </row>
     <row r="706">
@@ -11205,7 +11205,7 @@
         <v>86.974632</v>
       </c>
       <c r="C709" t="n">
-        <v>111.799797</v>
+        <v>111.799789</v>
       </c>
     </row>
     <row r="710">
@@ -11227,7 +11227,7 @@
         <v>88.627174</v>
       </c>
       <c r="C711" t="n">
-        <v>109.514282</v>
+        <v>109.514275</v>
       </c>
     </row>
     <row r="712">
@@ -11293,7 +11293,7 @@
         <v>102.447502</v>
       </c>
       <c r="C717" t="n">
-        <v>124.274895</v>
+        <v>124.274902</v>
       </c>
     </row>
     <row r="718">
@@ -11304,7 +11304,7 @@
         <v>102.890144</v>
       </c>
       <c r="C718" t="n">
-        <v>126.274727</v>
+        <v>126.274734</v>
       </c>
     </row>
     <row r="719">
@@ -11359,7 +11359,7 @@
         <v>103.234421</v>
       </c>
       <c r="C723" t="n">
-        <v>124.751045</v>
+        <v>124.751053</v>
       </c>
     </row>
     <row r="724">
@@ -11381,7 +11381,7 @@
         <v>102.98851</v>
       </c>
       <c r="C725" t="n">
-        <v>124.751045</v>
+        <v>124.751053</v>
       </c>
     </row>
     <row r="726">
@@ -11425,7 +11425,7 @@
         <v>102.250771</v>
       </c>
       <c r="C729" t="n">
-        <v>124.751045</v>
+        <v>124.751053</v>
       </c>
     </row>
     <row r="730">
@@ -11447,7 +11447,7 @@
         <v>101.513031</v>
       </c>
       <c r="C731" t="n">
-        <v>124.274895</v>
+        <v>124.274902</v>
       </c>
     </row>
     <row r="732">
@@ -11546,7 +11546,7 @@
         <v>94.529091</v>
       </c>
       <c r="C740" t="n">
-        <v>121.608467</v>
+        <v>121.608459</v>
       </c>
     </row>
     <row r="741">
@@ -11579,7 +11579,7 @@
         <v>96.870193</v>
       </c>
       <c r="C743" t="n">
-        <v>124.941505</v>
+        <v>124.941498</v>
       </c>
     </row>
     <row r="744">
@@ -11590,7 +11590,7 @@
         <v>99.742462</v>
       </c>
       <c r="C744" t="n">
-        <v>125.989044</v>
+        <v>125.989037</v>
       </c>
     </row>
     <row r="745">
@@ -11623,7 +11623,7 @@
         <v>99.004723</v>
       </c>
       <c r="C747" t="n">
-        <v>128.084106</v>
+        <v>128.084091</v>
       </c>
     </row>
     <row r="748">
@@ -11656,7 +11656,7 @@
         <v>103.627884</v>
       </c>
       <c r="C750" t="n">
-        <v>128.941162</v>
+        <v>128.941147</v>
       </c>
     </row>
     <row r="751">
@@ -11667,7 +11667,7 @@
         <v>108.054329</v>
       </c>
       <c r="C751" t="n">
-        <v>132.369431</v>
+        <v>132.369446</v>
       </c>
     </row>
     <row r="752">
@@ -11854,7 +11854,7 @@
         <v>103.480339</v>
       </c>
       <c r="C768" t="n">
-        <v>121.608467</v>
+        <v>121.608459</v>
       </c>
     </row>
     <row r="769">
@@ -11865,7 +11865,7 @@
         <v>104.070534</v>
       </c>
       <c r="C769" t="n">
-        <v>123.89399</v>
+        <v>123.893982</v>
       </c>
     </row>
     <row r="770">
@@ -11942,7 +11942,7 @@
         <v>107.955963</v>
       </c>
       <c r="C776" t="n">
-        <v>126.750877</v>
+        <v>126.750885</v>
       </c>
     </row>
     <row r="777">
@@ -11986,7 +11986,7 @@
         <v>110.857735</v>
       </c>
       <c r="C780" t="n">
-        <v>132.369431</v>
+        <v>132.369446</v>
       </c>
     </row>
     <row r="781">
@@ -12019,7 +12019,7 @@
         <v>111.644661</v>
       </c>
       <c r="C783" t="n">
-        <v>132.940811</v>
+        <v>132.940826</v>
       </c>
     </row>
     <row r="784">
@@ -12030,7 +12030,7 @@
         <v>111.447937</v>
       </c>
       <c r="C784" t="n">
-        <v>134.178802</v>
+        <v>134.178787</v>
       </c>
     </row>
     <row r="785">
@@ -12041,7 +12041,7 @@
         <v>112.333221</v>
       </c>
       <c r="C785" t="n">
-        <v>134.940643</v>
+        <v>134.940628</v>
       </c>
     </row>
     <row r="786">
@@ -12052,7 +12052,7 @@
         <v>115.087448</v>
       </c>
       <c r="C786" t="n">
-        <v>135.226318</v>
+        <v>135.226334</v>
       </c>
     </row>
     <row r="787">
@@ -12074,7 +12074,7 @@
         <v>114.595627</v>
       </c>
       <c r="C788" t="n">
-        <v>136.65477</v>
+        <v>136.654785</v>
       </c>
     </row>
     <row r="789">
@@ -12096,7 +12096,7 @@
         <v>116.366203</v>
       </c>
       <c r="C790" t="n">
-        <v>153.319977</v>
+        <v>153.319992</v>
       </c>
     </row>
     <row r="791">
@@ -12107,7 +12107,7 @@
         <v>116.218651</v>
       </c>
       <c r="C791" t="n">
-        <v>152.367706</v>
+        <v>152.367691</v>
       </c>
     </row>
     <row r="792">
@@ -12118,7 +12118,7 @@
         <v>118.82534</v>
       </c>
       <c r="C792" t="n">
-        <v>151.1297</v>
+        <v>151.129715</v>
       </c>
     </row>
     <row r="793">
@@ -12173,7 +12173,7 @@
         <v>120.54673</v>
       </c>
       <c r="C797" t="n">
-        <v>154.938889</v>
+        <v>154.938904</v>
       </c>
     </row>
     <row r="798">
@@ -12184,7 +12184,7 @@
         <v>120.497543</v>
       </c>
       <c r="C798" t="n">
-        <v>154.272278</v>
+        <v>154.272293</v>
       </c>
     </row>
     <row r="799">
@@ -12195,7 +12195,7 @@
         <v>120.349998</v>
       </c>
       <c r="C799" t="n">
-        <v>155.415039</v>
+        <v>155.415054</v>
       </c>
     </row>
     <row r="800">
@@ -12250,7 +12250,7 @@
         <v>118.25</v>
       </c>
       <c r="C804" t="n">
-        <v>155.224579</v>
+        <v>155.224594</v>
       </c>
     </row>
     <row r="805">
@@ -12261,7 +12261,7 @@
         <v>119.300003</v>
       </c>
       <c r="C805" t="n">
-        <v>159.986069</v>
+        <v>159.986084</v>
       </c>
     </row>
     <row r="806">

--- a/Danske aktiekurser.xlsx
+++ b/Danske aktiekurser.xlsx
@@ -3428,7 +3428,7 @@
         <v>189.887924</v>
       </c>
       <c r="C2" t="n">
-        <v>191.282883</v>
+        <v>191.282867</v>
       </c>
     </row>
     <row r="3">
@@ -3436,10 +3436,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>188.870804</v>
+        <v>188.870819</v>
       </c>
       <c r="C3" t="n">
-        <v>190.824905</v>
+        <v>190.82489</v>
       </c>
     </row>
     <row r="4">
@@ -3450,7 +3450,7 @@
         <v>190.513855</v>
       </c>
       <c r="C4" t="n">
-        <v>192.351486</v>
+        <v>192.351501</v>
       </c>
     </row>
     <row r="5">
@@ -3458,10 +3458,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="n">
-        <v>190.74855</v>
+        <v>190.748566</v>
       </c>
       <c r="C5" t="n">
-        <v>192.046188</v>
+        <v>192.046173</v>
       </c>
     </row>
     <row r="6">
@@ -3469,10 +3469,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="n">
-        <v>191.843903</v>
+        <v>191.843918</v>
       </c>
       <c r="C6" t="n">
-        <v>191.740845</v>
+        <v>191.74086</v>
       </c>
     </row>
     <row r="7">
@@ -3480,10 +3480,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="n">
-        <v>190.357361</v>
+        <v>190.357376</v>
       </c>
       <c r="C7" t="n">
-        <v>191.588181</v>
+        <v>191.588196</v>
       </c>
     </row>
     <row r="8">
@@ -3491,10 +3491,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="n">
-        <v>194.347595</v>
+        <v>194.34758</v>
       </c>
       <c r="C8" t="n">
-        <v>195.404694</v>
+        <v>195.404678</v>
       </c>
     </row>
     <row r="9">
@@ -3524,7 +3524,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="n">
-        <v>196.303574</v>
+        <v>196.303589</v>
       </c>
       <c r="C11" t="n">
         <v>193.572784</v>
@@ -3535,7 +3535,7 @@
         <v>13</v>
       </c>
       <c r="B12" t="n">
-        <v>195.521179</v>
+        <v>195.521194</v>
       </c>
       <c r="C12" t="n">
         <v>192.50415</v>
@@ -3560,7 +3560,7 @@
         <v>191.452713</v>
       </c>
       <c r="C14" t="n">
-        <v>191.588181</v>
+        <v>191.588196</v>
       </c>
     </row>
     <row r="15">
@@ -3568,7 +3568,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="n">
-        <v>190.670319</v>
+        <v>190.670334</v>
       </c>
       <c r="C15" t="n">
         <v>191.893509</v>
@@ -3590,7 +3590,7 @@
         <v>18</v>
       </c>
       <c r="B17" t="n">
-        <v>192.078644</v>
+        <v>192.078629</v>
       </c>
       <c r="C17" t="n">
         <v>191.435547</v>
@@ -3601,7 +3601,7 @@
         <v>19</v>
       </c>
       <c r="B18" t="n">
-        <v>192.078644</v>
+        <v>192.078629</v>
       </c>
       <c r="C18" t="n">
         <v>190.214249</v>
@@ -3612,10 +3612,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="n">
-        <v>186.680084</v>
+        <v>186.680099</v>
       </c>
       <c r="C19" t="n">
-        <v>185.634445</v>
+        <v>185.63446</v>
       </c>
     </row>
     <row r="20">
@@ -3623,7 +3623,7 @@
         <v>21</v>
       </c>
       <c r="B20" t="n">
-        <v>189.966156</v>
+        <v>189.966171</v>
       </c>
       <c r="C20" t="n">
         <v>187.466385</v>
@@ -3634,7 +3634,7 @@
         <v>22</v>
       </c>
       <c r="B21" t="n">
-        <v>191.843903</v>
+        <v>191.843918</v>
       </c>
       <c r="C21" t="n">
         <v>187.771698</v>
@@ -3645,7 +3645,7 @@
         <v>23</v>
       </c>
       <c r="B22" t="n">
-        <v>189.966156</v>
+        <v>189.966171</v>
       </c>
       <c r="C22" t="n">
         <v>185.787109</v>
@@ -3678,10 +3678,10 @@
         <v>26</v>
       </c>
       <c r="B25" t="n">
-        <v>191.609192</v>
+        <v>191.609207</v>
       </c>
       <c r="C25" t="n">
-        <v>187.619034</v>
+        <v>187.619049</v>
       </c>
     </row>
     <row r="26">
@@ -3689,10 +3689,10 @@
         <v>27</v>
       </c>
       <c r="B26" t="n">
-        <v>191.609192</v>
+        <v>191.609207</v>
       </c>
       <c r="C26" t="n">
-        <v>186.397751</v>
+        <v>186.397766</v>
       </c>
     </row>
     <row r="27">
@@ -3711,10 +3711,10 @@
         <v>29</v>
       </c>
       <c r="B28" t="n">
-        <v>189.261993</v>
+        <v>189.262009</v>
       </c>
       <c r="C28" t="n">
-        <v>188.687653</v>
+        <v>188.687668</v>
       </c>
     </row>
     <row r="29">
@@ -3725,7 +3725,7 @@
         <v>188.557846</v>
       </c>
       <c r="C29" t="n">
-        <v>187.161072</v>
+        <v>187.161041</v>
       </c>
     </row>
     <row r="30">
@@ -3744,10 +3744,10 @@
         <v>32</v>
       </c>
       <c r="B31" t="n">
-        <v>189.966156</v>
+        <v>189.966171</v>
       </c>
       <c r="C31" t="n">
-        <v>188.687653</v>
+        <v>188.687668</v>
       </c>
     </row>
     <row r="32">
@@ -3788,7 +3788,7 @@
         <v>36</v>
       </c>
       <c r="B35" t="n">
-        <v>194.660553</v>
+        <v>194.660568</v>
       </c>
       <c r="C35" t="n">
         <v>196.625992</v>
@@ -3821,7 +3821,7 @@
         <v>39</v>
       </c>
       <c r="B38" t="n">
-        <v>192.861053</v>
+        <v>192.861038</v>
       </c>
       <c r="C38" t="n">
         <v>182.428604</v>
@@ -3843,7 +3843,7 @@
         <v>41</v>
       </c>
       <c r="B40" t="n">
-        <v>194.504089</v>
+        <v>194.504074</v>
       </c>
       <c r="C40" t="n">
         <v>186.245102</v>
@@ -3857,7 +3857,7 @@
         <v>195.677689</v>
       </c>
       <c r="C41" t="n">
-        <v>183.802536</v>
+        <v>183.802551</v>
       </c>
     </row>
     <row r="42">
@@ -3865,7 +3865,7 @@
         <v>43</v>
       </c>
       <c r="B42" t="n">
-        <v>189.731461</v>
+        <v>189.731445</v>
       </c>
       <c r="C42" t="n">
         <v>183.19191</v>
@@ -3876,7 +3876,7 @@
         <v>44</v>
       </c>
       <c r="B43" t="n">
-        <v>192.626297</v>
+        <v>192.626328</v>
       </c>
       <c r="C43" t="n">
         <v>182.733917</v>
@@ -3887,7 +3887,7 @@
         <v>45</v>
       </c>
       <c r="B44" t="n">
-        <v>190.74855</v>
+        <v>190.748566</v>
       </c>
       <c r="C44" t="n">
         <v>181.665298</v>
@@ -3898,10 +3898,10 @@
         <v>46</v>
       </c>
       <c r="B45" t="n">
-        <v>189.731461</v>
+        <v>189.731445</v>
       </c>
       <c r="C45" t="n">
-        <v>177.696136</v>
+        <v>177.696167</v>
       </c>
     </row>
     <row r="46">
@@ -3931,7 +3931,7 @@
         <v>49</v>
       </c>
       <c r="B48" t="n">
-        <v>191.530945</v>
+        <v>191.53096</v>
       </c>
       <c r="C48" t="n">
         <v>180.749344</v>
@@ -3953,7 +3953,7 @@
         <v>51</v>
       </c>
       <c r="B50" t="n">
-        <v>192.626297</v>
+        <v>192.626328</v>
       </c>
       <c r="C50" t="n">
         <v>180.902008</v>
@@ -3964,10 +3964,10 @@
         <v>52</v>
       </c>
       <c r="B51" t="n">
-        <v>193.095764</v>
+        <v>193.095749</v>
       </c>
       <c r="C51" t="n">
-        <v>180.291351</v>
+        <v>180.291336</v>
       </c>
     </row>
     <row r="52">
@@ -3978,7 +3978,7 @@
         <v>193.799911</v>
       </c>
       <c r="C52" t="n">
-        <v>183.344559</v>
+        <v>183.344543</v>
       </c>
     </row>
     <row r="53">
@@ -4008,7 +4008,7 @@
         <v>56</v>
       </c>
       <c r="B55" t="n">
-        <v>191.306274</v>
+        <v>191.306259</v>
       </c>
       <c r="C55" t="n">
         <v>182.792404</v>
@@ -4030,7 +4030,7 @@
         <v>58</v>
       </c>
       <c r="B57" t="n">
-        <v>191.714188</v>
+        <v>191.714172</v>
       </c>
       <c r="C57" t="n">
         <v>185.35791</v>
@@ -4041,7 +4041,7 @@
         <v>59</v>
       </c>
       <c r="B58" t="n">
-        <v>190.572052</v>
+        <v>190.572037</v>
       </c>
       <c r="C58" t="n">
         <v>184.075165</v>
@@ -4063,7 +4063,7 @@
         <v>61</v>
       </c>
       <c r="B60" t="n">
-        <v>186.003525</v>
+        <v>186.00354</v>
       </c>
       <c r="C60" t="n">
         <v>182.632065</v>
@@ -4074,7 +4074,7 @@
         <v>62</v>
       </c>
       <c r="B61" t="n">
-        <v>184.208771</v>
+        <v>184.208755</v>
       </c>
       <c r="C61" t="n">
         <v>181.669998</v>
@@ -4088,7 +4088,7 @@
         <v>183.474533</v>
       </c>
       <c r="C62" t="n">
-        <v>179.585526</v>
+        <v>179.58551</v>
       </c>
     </row>
     <row r="63">
@@ -4110,7 +4110,7 @@
         <v>183.148224</v>
       </c>
       <c r="C64" t="n">
-        <v>178.463104</v>
+        <v>178.46312</v>
       </c>
     </row>
     <row r="65">
@@ -4121,7 +4121,7 @@
         <v>181.761353</v>
       </c>
       <c r="C65" t="n">
-        <v>176.378632</v>
+        <v>176.378647</v>
       </c>
     </row>
     <row r="66">
@@ -4140,7 +4140,7 @@
         <v>68</v>
       </c>
       <c r="B67" t="n">
-        <v>182.495575</v>
+        <v>182.49556</v>
       </c>
       <c r="C67" t="n">
         <v>178.14241</v>
@@ -4154,7 +4154,7 @@
         <v>182.985062</v>
       </c>
       <c r="C68" t="n">
-        <v>180.868301</v>
+        <v>180.868286</v>
       </c>
     </row>
     <row r="69">
@@ -4176,7 +4176,7 @@
         <v>179.477097</v>
       </c>
       <c r="C70" t="n">
-        <v>180.868301</v>
+        <v>180.868286</v>
       </c>
     </row>
     <row r="71">
@@ -4184,10 +4184,10 @@
         <v>72</v>
       </c>
       <c r="B71" t="n">
-        <v>180.619217</v>
+        <v>180.619202</v>
       </c>
       <c r="C71" t="n">
-        <v>184.395844</v>
+        <v>184.395859</v>
       </c>
     </row>
     <row r="72">
@@ -4198,7 +4198,7 @@
         <v>180.211319</v>
       </c>
       <c r="C72" t="n">
-        <v>182.311371</v>
+        <v>182.311386</v>
       </c>
     </row>
     <row r="73">
@@ -4206,7 +4206,7 @@
         <v>74</v>
       </c>
       <c r="B73" t="n">
-        <v>180.374496</v>
+        <v>180.374481</v>
       </c>
       <c r="C73" t="n">
         <v>181.990677</v>
@@ -4217,7 +4217,7 @@
         <v>75</v>
       </c>
       <c r="B74" t="n">
-        <v>181.9245</v>
+        <v>181.924515</v>
       </c>
       <c r="C74" t="n">
         <v>184.075165</v>
@@ -4239,7 +4239,7 @@
         <v>77</v>
       </c>
       <c r="B76" t="n">
-        <v>182.577164</v>
+        <v>182.577148</v>
       </c>
       <c r="C76" t="n">
         <v>188.885483</v>
@@ -4250,7 +4250,7 @@
         <v>78</v>
       </c>
       <c r="B77" t="n">
-        <v>182.577164</v>
+        <v>182.577148</v>
       </c>
       <c r="C77" t="n">
         <v>190.007889</v>
@@ -4264,7 +4264,7 @@
         <v>183.229797</v>
       </c>
       <c r="C78" t="n">
-        <v>192.894073</v>
+        <v>192.894089</v>
       </c>
     </row>
     <row r="79">
@@ -4283,7 +4283,7 @@
         <v>81</v>
       </c>
       <c r="B80" t="n">
-        <v>178.498138</v>
+        <v>178.498123</v>
       </c>
       <c r="C80" t="n">
         <v>187.602722</v>
@@ -4294,7 +4294,7 @@
         <v>82</v>
       </c>
       <c r="B81" t="n">
-        <v>179.069183</v>
+        <v>179.069199</v>
       </c>
       <c r="C81" t="n">
         <v>186.319962</v>
@@ -4330,7 +4330,7 @@
         <v>177.84549</v>
       </c>
       <c r="C84" t="n">
-        <v>184.716507</v>
+        <v>184.716522</v>
       </c>
     </row>
     <row r="85">
@@ -4338,7 +4338,7 @@
         <v>86</v>
       </c>
       <c r="B85" t="n">
-        <v>176.050735</v>
+        <v>176.05072</v>
       </c>
       <c r="C85" t="n">
         <v>181.990677</v>
@@ -4360,7 +4360,7 @@
         <v>88</v>
       </c>
       <c r="B87" t="n">
-        <v>175.316483</v>
+        <v>175.316498</v>
       </c>
       <c r="C87" t="n">
         <v>184.235504</v>
@@ -4396,7 +4396,7 @@
         <v>174.990173</v>
       </c>
       <c r="C90" t="n">
-        <v>186.640656</v>
+        <v>186.640671</v>
       </c>
     </row>
     <row r="91">
@@ -4459,7 +4459,7 @@
         <v>97</v>
       </c>
       <c r="B96" t="n">
-        <v>176.94809</v>
+        <v>176.948105</v>
       </c>
       <c r="C96" t="n">
         <v>185.037216</v>
@@ -4481,7 +4481,7 @@
         <v>99</v>
       </c>
       <c r="B98" t="n">
-        <v>173.276962</v>
+        <v>173.276978</v>
       </c>
       <c r="C98" t="n">
         <v>181.669998</v>
@@ -4503,10 +4503,10 @@
         <v>101</v>
       </c>
       <c r="B100" t="n">
-        <v>168.953217</v>
+        <v>168.953232</v>
       </c>
       <c r="C100" t="n">
-        <v>174.935532</v>
+        <v>174.935547</v>
       </c>
     </row>
     <row r="101">
@@ -4539,7 +4539,7 @@
         <v>176.295456</v>
       </c>
       <c r="C103" t="n">
-        <v>178.30275</v>
+        <v>178.302765</v>
       </c>
     </row>
     <row r="104">
@@ -4602,7 +4602,7 @@
         <v>110</v>
       </c>
       <c r="B109" t="n">
-        <v>178.498138</v>
+        <v>178.498123</v>
       </c>
       <c r="C109" t="n">
         <v>177.180344</v>
@@ -4624,10 +4624,10 @@
         <v>112</v>
       </c>
       <c r="B111" t="n">
-        <v>178.742889</v>
+        <v>178.742874</v>
       </c>
       <c r="C111" t="n">
-        <v>178.623459</v>
+        <v>178.623444</v>
       </c>
     </row>
     <row r="112">
@@ -4635,10 +4635,10 @@
         <v>113</v>
       </c>
       <c r="B112" t="n">
-        <v>177.682343</v>
+        <v>177.682327</v>
       </c>
       <c r="C112" t="n">
-        <v>177.821732</v>
+        <v>177.821747</v>
       </c>
     </row>
     <row r="113">
@@ -4649,7 +4649,7 @@
         <v>173.929626</v>
       </c>
       <c r="C113" t="n">
-        <v>175.897598</v>
+        <v>175.897614</v>
       </c>
     </row>
     <row r="114">
@@ -4693,7 +4693,7 @@
         <v>168.626892</v>
       </c>
       <c r="C117" t="n">
-        <v>174.294144</v>
+        <v>174.294159</v>
       </c>
     </row>
     <row r="118">
@@ -4704,7 +4704,7 @@
         <v>166.0979</v>
       </c>
       <c r="C118" t="n">
-        <v>174.294144</v>
+        <v>174.294159</v>
       </c>
     </row>
     <row r="119">
@@ -4723,10 +4723,10 @@
         <v>121</v>
       </c>
       <c r="B120" t="n">
-        <v>162.01889</v>
+        <v>162.018875</v>
       </c>
       <c r="C120" t="n">
-        <v>173.652771</v>
+        <v>173.652786</v>
       </c>
     </row>
     <row r="121">
@@ -4734,10 +4734,10 @@
         <v>122</v>
       </c>
       <c r="B121" t="n">
-        <v>162.01889</v>
+        <v>162.018875</v>
       </c>
       <c r="C121" t="n">
-        <v>174.454514</v>
+        <v>174.454529</v>
       </c>
     </row>
     <row r="122">
@@ -4748,7 +4748,7 @@
         <v>162.957047</v>
       </c>
       <c r="C122" t="n">
-        <v>175.897598</v>
+        <v>175.897614</v>
       </c>
     </row>
     <row r="123">
@@ -4814,7 +4814,7 @@
         <v>157.001663</v>
       </c>
       <c r="C128" t="n">
-        <v>180.226898</v>
+        <v>180.226883</v>
       </c>
     </row>
     <row r="129">
@@ -4825,7 +4825,7 @@
         <v>158.102997</v>
       </c>
       <c r="C129" t="n">
-        <v>182.151031</v>
+        <v>182.151016</v>
       </c>
     </row>
     <row r="130">
@@ -4833,10 +4833,10 @@
         <v>131</v>
       </c>
       <c r="B130" t="n">
-        <v>158.225372</v>
+        <v>158.225388</v>
       </c>
       <c r="C130" t="n">
-        <v>182.151031</v>
+        <v>182.151016</v>
       </c>
     </row>
     <row r="131">
@@ -4855,10 +4855,10 @@
         <v>133</v>
       </c>
       <c r="B132" t="n">
-        <v>158.225372</v>
+        <v>158.225388</v>
       </c>
       <c r="C132" t="n">
-        <v>182.151031</v>
+        <v>182.151016</v>
       </c>
     </row>
     <row r="133">
@@ -4866,7 +4866,7 @@
         <v>134</v>
       </c>
       <c r="B133" t="n">
-        <v>158.062225</v>
+        <v>158.06221</v>
       </c>
       <c r="C133" t="n">
         <v>181.990677</v>
@@ -4902,7 +4902,7 @@
         <v>148.394913</v>
       </c>
       <c r="C136" t="n">
-        <v>179.74585</v>
+        <v>179.745865</v>
       </c>
     </row>
     <row r="137">
@@ -4913,7 +4913,7 @@
         <v>147.456757</v>
       </c>
       <c r="C137" t="n">
-        <v>180.387222</v>
+        <v>180.387238</v>
       </c>
     </row>
     <row r="138">
@@ -4943,10 +4943,10 @@
         <v>141</v>
       </c>
       <c r="B140" t="n">
-        <v>150.923935</v>
+        <v>150.92392</v>
       </c>
       <c r="C140" t="n">
-        <v>185.518265</v>
+        <v>185.51825</v>
       </c>
     </row>
     <row r="141">
@@ -4954,7 +4954,7 @@
         <v>142</v>
       </c>
       <c r="B141" t="n">
-        <v>152.800262</v>
+        <v>152.800278</v>
       </c>
       <c r="C141" t="n">
         <v>186.319962</v>
@@ -5009,10 +5009,10 @@
         <v>147</v>
       </c>
       <c r="B146" t="n">
-        <v>146.029099</v>
+        <v>146.029083</v>
       </c>
       <c r="C146" t="n">
-        <v>184.395844</v>
+        <v>184.395859</v>
       </c>
     </row>
     <row r="147">
@@ -5031,7 +5031,7 @@
         <v>149</v>
       </c>
       <c r="B148" t="n">
-        <v>147.53833</v>
+        <v>147.538345</v>
       </c>
       <c r="C148" t="n">
         <v>177.180344</v>
@@ -5045,7 +5045,7 @@
         <v>147.905441</v>
       </c>
       <c r="C149" t="n">
-        <v>180.387222</v>
+        <v>180.387238</v>
       </c>
     </row>
     <row r="150">
@@ -5089,7 +5089,7 @@
         <v>150.026535</v>
       </c>
       <c r="C153" t="n">
-        <v>178.30275</v>
+        <v>178.302765</v>
       </c>
     </row>
     <row r="154">
@@ -5108,7 +5108,7 @@
         <v>156</v>
       </c>
       <c r="B155" t="n">
-        <v>145.906723</v>
+        <v>145.906738</v>
       </c>
       <c r="C155" t="n">
         <v>173.171753</v>
@@ -5152,7 +5152,7 @@
         <v>160</v>
       </c>
       <c r="B159" t="n">
-        <v>150.719971</v>
+        <v>150.719955</v>
       </c>
       <c r="C159" t="n">
         <v>177.661407</v>
@@ -5177,7 +5177,7 @@
         <v>151.94368</v>
       </c>
       <c r="C161" t="n">
-        <v>175.897598</v>
+        <v>175.897614</v>
       </c>
     </row>
     <row r="162">
@@ -5185,7 +5185,7 @@
         <v>163</v>
       </c>
       <c r="B162" t="n">
-        <v>154.717422</v>
+        <v>154.717407</v>
       </c>
       <c r="C162" t="n">
         <v>175.256226</v>
@@ -5221,7 +5221,7 @@
         <v>157.001663</v>
       </c>
       <c r="C165" t="n">
-        <v>153.770096</v>
+        <v>153.770111</v>
       </c>
     </row>
     <row r="166">
@@ -5229,7 +5229,7 @@
         <v>167</v>
       </c>
       <c r="B166" t="n">
-        <v>156.634567</v>
+        <v>156.634552</v>
       </c>
       <c r="C166" t="n">
         <v>151.926132</v>
@@ -5240,10 +5240,10 @@
         <v>168</v>
       </c>
       <c r="B167" t="n">
-        <v>154.146332</v>
+        <v>154.146347</v>
       </c>
       <c r="C167" t="n">
-        <v>150.723557</v>
+        <v>150.723572</v>
       </c>
     </row>
     <row r="168">
@@ -5273,10 +5273,10 @@
         <v>171</v>
       </c>
       <c r="B170" t="n">
-        <v>148.272568</v>
+        <v>148.272552</v>
       </c>
       <c r="C170" t="n">
-        <v>147.917542</v>
+        <v>147.917526</v>
       </c>
     </row>
     <row r="171">
@@ -5284,7 +5284,7 @@
         <v>172</v>
       </c>
       <c r="B171" t="n">
-        <v>150.719971</v>
+        <v>150.719955</v>
       </c>
       <c r="C171" t="n">
         <v>148.158051</v>
@@ -5298,7 +5298,7 @@
         <v>144.397476</v>
       </c>
       <c r="C172" t="n">
-        <v>148.799438</v>
+        <v>148.799454</v>
       </c>
     </row>
     <row r="173">
@@ -5309,7 +5309,7 @@
         <v>140.155304</v>
       </c>
       <c r="C173" t="n">
-        <v>148.799438</v>
+        <v>148.799454</v>
       </c>
     </row>
     <row r="174">
@@ -5317,7 +5317,7 @@
         <v>175</v>
       </c>
       <c r="B174" t="n">
-        <v>139.217133</v>
+        <v>139.217117</v>
       </c>
       <c r="C174" t="n">
         <v>147.837357</v>
@@ -5339,7 +5339,7 @@
         <v>177</v>
       </c>
       <c r="B176" t="n">
-        <v>140.114487</v>
+        <v>140.114502</v>
       </c>
       <c r="C176" t="n">
         <v>148.879593</v>
@@ -5353,7 +5353,7 @@
         <v>138.646057</v>
       </c>
       <c r="C177" t="n">
-        <v>147.917542</v>
+        <v>147.917526</v>
       </c>
     </row>
     <row r="178">
@@ -5386,7 +5386,7 @@
         <v>137.871048</v>
       </c>
       <c r="C180" t="n">
-        <v>149.92186</v>
+        <v>149.921844</v>
       </c>
     </row>
     <row r="181">
@@ -5397,7 +5397,7 @@
         <v>144.397476</v>
       </c>
       <c r="C181" t="n">
-        <v>151.284775</v>
+        <v>151.28476</v>
       </c>
     </row>
     <row r="182">
@@ -5419,7 +5419,7 @@
         <v>135.709167</v>
       </c>
       <c r="C183" t="n">
-        <v>151.364929</v>
+        <v>151.364944</v>
       </c>
     </row>
     <row r="184">
@@ -5427,7 +5427,7 @@
         <v>185</v>
       </c>
       <c r="B184" t="n">
-        <v>138.686844</v>
+        <v>138.686859</v>
       </c>
       <c r="C184" t="n">
         <v>152.968384</v>
@@ -5438,7 +5438,7 @@
         <v>186</v>
       </c>
       <c r="B185" t="n">
-        <v>140.563202</v>
+        <v>140.563187</v>
       </c>
       <c r="C185" t="n">
         <v>155.934753</v>
@@ -5449,10 +5449,10 @@
         <v>187</v>
       </c>
       <c r="B186" t="n">
-        <v>138.768433</v>
+        <v>138.768448</v>
       </c>
       <c r="C186" t="n">
-        <v>151.364929</v>
+        <v>151.364944</v>
       </c>
     </row>
     <row r="187">
@@ -5496,7 +5496,7 @@
         <v>135.627579</v>
       </c>
       <c r="C190" t="n">
-        <v>149.440781</v>
+        <v>149.440796</v>
       </c>
     </row>
     <row r="191">
@@ -5526,7 +5526,7 @@
         <v>194</v>
       </c>
       <c r="B193" t="n">
-        <v>116.945648</v>
+        <v>116.945656</v>
       </c>
       <c r="C193" t="n">
         <v>146.795135</v>
@@ -5548,7 +5548,7 @@
         <v>196</v>
       </c>
       <c r="B195" t="n">
-        <v>117.883827</v>
+        <v>117.883835</v>
       </c>
       <c r="C195" t="n">
         <v>143.027023</v>
@@ -5570,7 +5570,7 @@
         <v>198</v>
       </c>
       <c r="B197" t="n">
-        <v>115.273254</v>
+        <v>115.273262</v>
       </c>
       <c r="C197" t="n">
         <v>141.904633</v>
@@ -5581,7 +5581,7 @@
         <v>199</v>
       </c>
       <c r="B198" t="n">
-        <v>113.886383</v>
+        <v>113.886375</v>
       </c>
       <c r="C198" t="n">
         <v>142.546005</v>
@@ -5603,7 +5603,7 @@
         <v>201</v>
       </c>
       <c r="B200" t="n">
-        <v>112.254768</v>
+        <v>112.254776</v>
       </c>
       <c r="C200" t="n">
         <v>143.748581</v>
@@ -5614,7 +5614,7 @@
         <v>202</v>
       </c>
       <c r="B201" t="n">
-        <v>110.704735</v>
+        <v>110.704742</v>
       </c>
       <c r="C201" t="n">
         <v>143.187378</v>
@@ -5625,7 +5625,7 @@
         <v>203</v>
       </c>
       <c r="B202" t="n">
-        <v>107.033607</v>
+        <v>107.033615</v>
       </c>
       <c r="C202" t="n">
         <v>142.706345</v>
@@ -5639,7 +5639,7 @@
         <v>106.421753</v>
       </c>
       <c r="C203" t="n">
-        <v>139.820145</v>
+        <v>139.820129</v>
       </c>
     </row>
     <row r="204">
@@ -5658,7 +5658,7 @@
         <v>206</v>
       </c>
       <c r="B205" t="n">
-        <v>102.50589</v>
+        <v>102.505898</v>
       </c>
       <c r="C205" t="n">
         <v>141.503769</v>
@@ -5705,7 +5705,7 @@
         <v>103.280914</v>
       </c>
       <c r="C209" t="n">
-        <v>139.90033</v>
+        <v>139.900345</v>
       </c>
     </row>
     <row r="210">
@@ -5738,7 +5738,7 @@
         <v>111.765289</v>
       </c>
       <c r="C212" t="n">
-        <v>127.874504</v>
+        <v>127.874519</v>
       </c>
     </row>
     <row r="213">
@@ -5746,7 +5746,7 @@
         <v>214</v>
       </c>
       <c r="B213" t="n">
-        <v>110.337616</v>
+        <v>110.337624</v>
       </c>
       <c r="C213" t="n">
         <v>130.199493</v>
@@ -5790,10 +5790,10 @@
         <v>218</v>
       </c>
       <c r="B217" t="n">
-        <v>117.598274</v>
+        <v>117.598282</v>
       </c>
       <c r="C217" t="n">
-        <v>131.32193</v>
+        <v>131.321915</v>
       </c>
     </row>
     <row r="218">
@@ -5812,10 +5812,10 @@
         <v>220</v>
       </c>
       <c r="B219" t="n">
-        <v>115.028503</v>
+        <v>115.028511</v>
       </c>
       <c r="C219" t="n">
-        <v>129.79863</v>
+        <v>129.798645</v>
       </c>
     </row>
     <row r="220">
@@ -5823,7 +5823,7 @@
         <v>221</v>
       </c>
       <c r="B220" t="n">
-        <v>117.598274</v>
+        <v>117.598282</v>
       </c>
       <c r="C220" t="n">
         <v>129.237442</v>
@@ -5837,7 +5837,7 @@
         <v>113.519257</v>
       </c>
       <c r="C221" t="n">
-        <v>127.874504</v>
+        <v>127.874519</v>
       </c>
     </row>
     <row r="222">
@@ -5856,7 +5856,7 @@
         <v>224</v>
       </c>
       <c r="B223" t="n">
-        <v>110.500786</v>
+        <v>110.500778</v>
       </c>
       <c r="C223" t="n">
         <v>128.756409</v>
@@ -5881,7 +5881,7 @@
         <v>107.441513</v>
       </c>
       <c r="C225" t="n">
-        <v>127.874504</v>
+        <v>127.874519</v>
       </c>
     </row>
     <row r="226">
@@ -5889,10 +5889,10 @@
         <v>227</v>
       </c>
       <c r="B226" t="n">
-        <v>108.461266</v>
+        <v>108.461273</v>
       </c>
       <c r="C226" t="n">
-        <v>127.874504</v>
+        <v>127.874519</v>
       </c>
     </row>
     <row r="227">
@@ -5922,7 +5922,7 @@
         <v>230</v>
       </c>
       <c r="B229" t="n">
-        <v>110.133675</v>
+        <v>110.133667</v>
       </c>
       <c r="C229" t="n">
         <v>131.08139</v>
@@ -5936,7 +5936,7 @@
         <v>110.949478</v>
       </c>
       <c r="C230" t="n">
-        <v>129.638306</v>
+        <v>129.63829</v>
       </c>
     </row>
     <row r="231">
@@ -5955,7 +5955,7 @@
         <v>233</v>
       </c>
       <c r="B232" t="n">
-        <v>107.196777</v>
+        <v>107.19677</v>
       </c>
       <c r="C232" t="n">
         <v>130.359848</v>
@@ -5969,7 +5969,7 @@
         <v>108.706009</v>
       </c>
       <c r="C233" t="n">
-        <v>126.671928</v>
+        <v>126.671936</v>
       </c>
     </row>
     <row r="234">
@@ -5977,7 +5977,7 @@
         <v>235</v>
       </c>
       <c r="B234" t="n">
-        <v>108.583649</v>
+        <v>108.583641</v>
       </c>
       <c r="C234" t="n">
         <v>127.152977</v>
@@ -5988,10 +5988,10 @@
         <v>236</v>
       </c>
       <c r="B235" t="n">
-        <v>114.620598</v>
+        <v>114.62059</v>
       </c>
       <c r="C235" t="n">
-        <v>129.79863</v>
+        <v>129.798645</v>
       </c>
     </row>
     <row r="236">
@@ -5999,10 +5999,10 @@
         <v>237</v>
       </c>
       <c r="B236" t="n">
-        <v>111.316589</v>
+        <v>111.316582</v>
       </c>
       <c r="C236" t="n">
-        <v>126.992607</v>
+        <v>126.992592</v>
       </c>
     </row>
     <row r="237">
@@ -6010,7 +6010,7 @@
         <v>238</v>
       </c>
       <c r="B237" t="n">
-        <v>116.007469</v>
+        <v>116.007462</v>
       </c>
       <c r="C237" t="n">
         <v>129.558136</v>
@@ -6021,7 +6021,7 @@
         <v>239</v>
       </c>
       <c r="B238" t="n">
-        <v>112.050827</v>
+        <v>112.050819</v>
       </c>
       <c r="C238" t="n">
         <v>127.152977</v>
@@ -6054,10 +6054,10 @@
         <v>242</v>
       </c>
       <c r="B241" t="n">
-        <v>113.396896</v>
+        <v>113.396889</v>
       </c>
       <c r="C241" t="n">
-        <v>128.676239</v>
+        <v>128.676224</v>
       </c>
     </row>
     <row r="242">
@@ -6068,7 +6068,7 @@
         <v>112.62188</v>
       </c>
       <c r="C242" t="n">
-        <v>128.034866</v>
+        <v>128.034851</v>
       </c>
     </row>
     <row r="243">
@@ -6090,7 +6090,7 @@
         <v>112.213982</v>
       </c>
       <c r="C244" t="n">
-        <v>122.663315</v>
+        <v>122.663322</v>
       </c>
     </row>
     <row r="245">
@@ -6101,7 +6101,7 @@
         <v>109.725769</v>
       </c>
       <c r="C245" t="n">
-        <v>121.781418</v>
+        <v>121.781425</v>
       </c>
     </row>
     <row r="246">
@@ -6142,7 +6142,7 @@
         <v>250</v>
       </c>
       <c r="B249" t="n">
-        <v>105.157257</v>
+        <v>105.157249</v>
       </c>
       <c r="C249" t="n">
         <v>124.346947</v>
@@ -6156,7 +6156,7 @@
         <v>104.994102</v>
       </c>
       <c r="C250" t="n">
-        <v>126.271065</v>
+        <v>126.271049</v>
       </c>
     </row>
     <row r="251">
@@ -6164,10 +6164,10 @@
         <v>252</v>
       </c>
       <c r="B251" t="n">
-        <v>104.749359</v>
+        <v>104.749352</v>
       </c>
       <c r="C251" t="n">
-        <v>123.865906</v>
+        <v>123.865921</v>
       </c>
     </row>
     <row r="252">
@@ -6219,7 +6219,7 @@
         <v>257</v>
       </c>
       <c r="B256" t="n">
-        <v>104.219086</v>
+        <v>104.219078</v>
       </c>
       <c r="C256" t="n">
         <v>126.591751</v>
@@ -6241,7 +6241,7 @@
         <v>259</v>
       </c>
       <c r="B258" t="n">
-        <v>106.054642</v>
+        <v>106.054649</v>
       </c>
       <c r="C258" t="n">
         <v>124.266769</v>
@@ -6252,7 +6252,7 @@
         <v>260</v>
       </c>
       <c r="B259" t="n">
-        <v>104.423035</v>
+        <v>104.423042</v>
       </c>
       <c r="C259" t="n">
         <v>122.583145</v>
@@ -6263,10 +6263,10 @@
         <v>261</v>
       </c>
       <c r="B260" t="n">
-        <v>105.034897</v>
+        <v>105.034889</v>
       </c>
       <c r="C260" t="n">
-        <v>126.271065</v>
+        <v>126.271049</v>
       </c>
     </row>
     <row r="261">
@@ -6296,7 +6296,7 @@
         <v>264</v>
       </c>
       <c r="B263" t="n">
-        <v>105.238838</v>
+        <v>105.238846</v>
       </c>
       <c r="C263" t="n">
         <v>124.507286</v>
@@ -6310,7 +6310,7 @@
         <v>102.791428</v>
       </c>
       <c r="C264" t="n">
-        <v>125.709862</v>
+        <v>125.709877</v>
       </c>
     </row>
     <row r="265">
@@ -6329,10 +6329,10 @@
         <v>267</v>
       </c>
       <c r="B266" t="n">
-        <v>99.976906</v>
+        <v>99.976898</v>
       </c>
       <c r="C266" t="n">
-        <v>126.110741</v>
+        <v>126.110725</v>
       </c>
     </row>
     <row r="267">
@@ -6351,7 +6351,7 @@
         <v>269</v>
       </c>
       <c r="B268" t="n">
-        <v>99.936111</v>
+        <v>99.936104</v>
       </c>
       <c r="C268" t="n">
         <v>123.625389</v>
@@ -6362,10 +6362,10 @@
         <v>270</v>
       </c>
       <c r="B269" t="n">
-        <v>99.854523</v>
+        <v>99.85453</v>
       </c>
       <c r="C269" t="n">
-        <v>123.465042</v>
+        <v>123.465034</v>
       </c>
     </row>
     <row r="270">
@@ -6384,10 +6384,10 @@
         <v>272</v>
       </c>
       <c r="B271" t="n">
-        <v>98.304504</v>
+        <v>98.304497</v>
       </c>
       <c r="C271" t="n">
-        <v>120.739189</v>
+        <v>120.739204</v>
       </c>
     </row>
     <row r="272">
@@ -6398,7 +6398,7 @@
         <v>103.444077</v>
       </c>
       <c r="C272" t="n">
-        <v>121.781418</v>
+        <v>121.781425</v>
       </c>
     </row>
     <row r="273">
@@ -6409,7 +6409,7 @@
         <v>101.078239</v>
       </c>
       <c r="C273" t="n">
-        <v>122.262466</v>
+        <v>122.262451</v>
       </c>
     </row>
     <row r="274">
@@ -6428,10 +6428,10 @@
         <v>276</v>
       </c>
       <c r="B275" t="n">
-        <v>102.66906</v>
+        <v>102.669052</v>
       </c>
       <c r="C275" t="n">
-        <v>121.781418</v>
+        <v>121.781425</v>
       </c>
     </row>
     <row r="276">
@@ -6450,7 +6450,7 @@
         <v>278</v>
       </c>
       <c r="B277" t="n">
-        <v>97.896599</v>
+        <v>97.896591</v>
       </c>
       <c r="C277" t="n">
         <v>119.456436</v>
@@ -6483,10 +6483,10 @@
         <v>281</v>
       </c>
       <c r="B280" t="n">
-        <v>100.180862</v>
+        <v>100.180855</v>
       </c>
       <c r="C280" t="n">
-        <v>122.262466</v>
+        <v>122.262451</v>
       </c>
     </row>
     <row r="281">
@@ -6494,7 +6494,7 @@
         <v>282</v>
       </c>
       <c r="B281" t="n">
-        <v>99.936111</v>
+        <v>99.936104</v>
       </c>
       <c r="C281" t="n">
         <v>121.22023</v>
@@ -6505,7 +6505,7 @@
         <v>283</v>
       </c>
       <c r="B282" t="n">
-        <v>101.486145</v>
+        <v>101.486137</v>
       </c>
       <c r="C282" t="n">
         <v>122.021935</v>
@@ -6516,7 +6516,7 @@
         <v>284</v>
       </c>
       <c r="B283" t="n">
-        <v>103.321701</v>
+        <v>103.321709</v>
       </c>
       <c r="C283" t="n">
         <v>123.545227</v>
@@ -6527,10 +6527,10 @@
         <v>285</v>
       </c>
       <c r="B284" t="n">
-        <v>102.873009</v>
+        <v>102.873016</v>
       </c>
       <c r="C284" t="n">
-        <v>121.540924</v>
+        <v>121.540909</v>
       </c>
     </row>
     <row r="285">
@@ -6541,7 +6541,7 @@
         <v>103.117752</v>
       </c>
       <c r="C285" t="n">
-        <v>121.781418</v>
+        <v>121.781425</v>
       </c>
     </row>
     <row r="286">
@@ -6552,7 +6552,7 @@
         <v>98.712402</v>
       </c>
       <c r="C286" t="n">
-        <v>120.498672</v>
+        <v>120.498688</v>
       </c>
     </row>
     <row r="287">
@@ -6560,7 +6560,7 @@
         <v>288</v>
       </c>
       <c r="B287" t="n">
-        <v>98.467659</v>
+        <v>98.467667</v>
       </c>
       <c r="C287" t="n">
         <v>120.578835</v>
@@ -6571,10 +6571,10 @@
         <v>289</v>
       </c>
       <c r="B288" t="n">
-        <v>102.301949</v>
+        <v>102.301941</v>
       </c>
       <c r="C288" t="n">
-        <v>121.781418</v>
+        <v>121.781425</v>
       </c>
     </row>
     <row r="289">
@@ -6585,7 +6585,7 @@
         <v>102.220367</v>
       </c>
       <c r="C289" t="n">
-        <v>119.777115</v>
+        <v>119.77713</v>
       </c>
     </row>
     <row r="290">
@@ -6593,7 +6593,7 @@
         <v>291</v>
       </c>
       <c r="B290" t="n">
-        <v>106.054642</v>
+        <v>106.054649</v>
       </c>
       <c r="C290" t="n">
         <v>127.393478</v>
@@ -6615,7 +6615,7 @@
         <v>293</v>
       </c>
       <c r="B292" t="n">
-        <v>105.973061</v>
+        <v>105.973053</v>
       </c>
       <c r="C292" t="n">
         <v>122.502983</v>
@@ -6629,7 +6629,7 @@
         <v>105.687538</v>
       </c>
       <c r="C293" t="n">
-        <v>122.422806</v>
+        <v>122.422821</v>
       </c>
     </row>
     <row r="294">
@@ -6651,7 +6651,7 @@
         <v>105.442795</v>
       </c>
       <c r="C295" t="n">
-        <v>119.616791</v>
+        <v>119.616776</v>
       </c>
     </row>
     <row r="296">
@@ -6659,7 +6659,7 @@
         <v>297</v>
       </c>
       <c r="B296" t="n">
-        <v>104.137505</v>
+        <v>104.137512</v>
       </c>
       <c r="C296" t="n">
         <v>117.69265</v>
@@ -6673,7 +6673,7 @@
         <v>103.036171</v>
       </c>
       <c r="C297" t="n">
-        <v>116.570221</v>
+        <v>116.570236</v>
       </c>
     </row>
     <row r="298">
@@ -6692,10 +6692,10 @@
         <v>300</v>
       </c>
       <c r="B299" t="n">
-        <v>104.463837</v>
+        <v>104.463829</v>
       </c>
       <c r="C299" t="n">
-        <v>117.933182</v>
+        <v>117.933174</v>
       </c>
     </row>
     <row r="300">
@@ -6703,7 +6703,7 @@
         <v>301</v>
       </c>
       <c r="B300" t="n">
-        <v>105.361206</v>
+        <v>105.361214</v>
       </c>
       <c r="C300" t="n">
         <v>118.013336</v>
@@ -6772,7 +6772,7 @@
         <v>108.000374</v>
       </c>
       <c r="C306" t="n">
-        <v>120.899544</v>
+        <v>120.899529</v>
       </c>
     </row>
     <row r="307">
@@ -6802,7 +6802,7 @@
         <v>310</v>
       </c>
       <c r="B309" t="n">
-        <v>105.039078</v>
+        <v>105.03907</v>
       </c>
       <c r="C309" t="n">
         <v>114.540001</v>
@@ -6813,7 +6813,7 @@
         <v>311</v>
       </c>
       <c r="B310" t="n">
-        <v>105.474556</v>
+        <v>105.474564</v>
       </c>
       <c r="C310" t="n">
         <v>116.762421</v>
@@ -6824,7 +6824,7 @@
         <v>312</v>
       </c>
       <c r="B311" t="n">
-        <v>101.685844</v>
+        <v>101.685837</v>
       </c>
       <c r="C311" t="n">
         <v>117.104317</v>
@@ -6849,7 +6849,7 @@
         <v>106.066818</v>
       </c>
       <c r="C313" t="n">
-        <v>121.121765</v>
+        <v>121.12178</v>
       </c>
     </row>
     <row r="314">
@@ -6923,7 +6923,7 @@
         <v>321</v>
       </c>
       <c r="B320" t="n">
-        <v>105.953598</v>
+        <v>105.95359</v>
       </c>
       <c r="C320" t="n">
         <v>120.352478</v>
@@ -6934,10 +6934,10 @@
         <v>322</v>
       </c>
       <c r="B321" t="n">
-        <v>108.131027</v>
+        <v>108.13102</v>
       </c>
       <c r="C321" t="n">
-        <v>122.232994</v>
+        <v>122.232979</v>
       </c>
     </row>
     <row r="322">
@@ -6948,7 +6948,7 @@
         <v>110.613289</v>
       </c>
       <c r="C322" t="n">
-        <v>123.51516</v>
+        <v>123.515144</v>
       </c>
     </row>
     <row r="323">
@@ -6981,7 +6981,7 @@
         <v>112.268127</v>
       </c>
       <c r="C325" t="n">
-        <v>124.968254</v>
+        <v>124.968269</v>
       </c>
     </row>
     <row r="326">
@@ -6992,7 +6992,7 @@
         <v>110.87458</v>
       </c>
       <c r="C326" t="n">
-        <v>123.429672</v>
+        <v>123.429657</v>
       </c>
     </row>
     <row r="327">
@@ -7033,7 +7033,7 @@
         <v>331</v>
       </c>
       <c r="B330" t="n">
-        <v>113.705238</v>
+        <v>113.705231</v>
       </c>
       <c r="C330" t="n">
         <v>123.942535</v>
@@ -7044,7 +7044,7 @@
         <v>332</v>
       </c>
       <c r="B331" t="n">
-        <v>102.8181</v>
+        <v>102.818108</v>
       </c>
       <c r="C331" t="n">
         <v>122.831322</v>
@@ -7066,7 +7066,7 @@
         <v>334</v>
       </c>
       <c r="B333" t="n">
-        <v>102.382622</v>
+        <v>102.382614</v>
       </c>
       <c r="C333" t="n">
         <v>109.325867</v>
@@ -7088,7 +7088,7 @@
         <v>336</v>
       </c>
       <c r="B335" t="n">
-        <v>100.510033</v>
+        <v>100.510025</v>
       </c>
       <c r="C335" t="n">
         <v>107.787262</v>
@@ -7143,7 +7143,7 @@
         <v>341</v>
       </c>
       <c r="B340" t="n">
-        <v>96.068077</v>
+        <v>96.068085</v>
       </c>
       <c r="C340" t="n">
         <v>106.590576</v>
@@ -7154,7 +7154,7 @@
         <v>342</v>
       </c>
       <c r="B341" t="n">
-        <v>93.890656</v>
+        <v>93.890648</v>
       </c>
       <c r="C341" t="n">
         <v>106.847015</v>
@@ -7187,7 +7187,7 @@
         <v>345</v>
       </c>
       <c r="B344" t="n">
-        <v>96.416458</v>
+        <v>96.416466</v>
       </c>
       <c r="C344" t="n">
         <v>106.676064</v>
@@ -7209,10 +7209,10 @@
         <v>347</v>
       </c>
       <c r="B346" t="n">
-        <v>96.764847</v>
+        <v>96.764854</v>
       </c>
       <c r="C346" t="n">
-        <v>105.906769</v>
+        <v>105.906761</v>
       </c>
     </row>
     <row r="347">
@@ -7223,7 +7223,7 @@
         <v>96.28582</v>
       </c>
       <c r="C347" t="n">
-        <v>106.334152</v>
+        <v>106.334145</v>
       </c>
     </row>
     <row r="348">
@@ -7253,7 +7253,7 @@
         <v>351</v>
       </c>
       <c r="B350" t="n">
-        <v>97.984207</v>
+        <v>97.984215</v>
       </c>
       <c r="C350" t="n">
         <v>107.359879</v>
@@ -7275,7 +7275,7 @@
         <v>353</v>
       </c>
       <c r="B352" t="n">
-        <v>95.458397</v>
+        <v>95.458389</v>
       </c>
       <c r="C352" t="n">
         <v>107.359879</v>
@@ -7297,10 +7297,10 @@
         <v>355</v>
       </c>
       <c r="B354" t="n">
-        <v>94.674515</v>
+        <v>94.674522</v>
       </c>
       <c r="C354" t="n">
-        <v>107.616318</v>
+        <v>107.61631</v>
       </c>
     </row>
     <row r="355">
@@ -7308,7 +7308,7 @@
         <v>356</v>
       </c>
       <c r="B355" t="n">
-        <v>95.589035</v>
+        <v>95.589043</v>
       </c>
       <c r="C355" t="n">
         <v>108.813004</v>
@@ -7319,7 +7319,7 @@
         <v>357</v>
       </c>
       <c r="B356" t="n">
-        <v>96.851952</v>
+        <v>96.851944</v>
       </c>
       <c r="C356" t="n">
         <v>110.266121</v>
@@ -7333,7 +7333,7 @@
         <v>96.939049</v>
       </c>
       <c r="C357" t="n">
-        <v>111.120895</v>
+        <v>111.120888</v>
       </c>
     </row>
     <row r="358">
@@ -7344,7 +7344,7 @@
         <v>97.374535</v>
       </c>
       <c r="C358" t="n">
-        <v>111.975677</v>
+        <v>111.97567</v>
       </c>
     </row>
     <row r="359">
@@ -7352,7 +7352,7 @@
         <v>360</v>
       </c>
       <c r="B359" t="n">
-        <v>95.458397</v>
+        <v>95.458389</v>
       </c>
       <c r="C359" t="n">
         <v>111.377327</v>
@@ -7377,7 +7377,7 @@
         <v>90.929352</v>
       </c>
       <c r="C361" t="n">
-        <v>110.864456</v>
+        <v>110.864464</v>
       </c>
     </row>
     <row r="362">
@@ -7385,7 +7385,7 @@
         <v>363</v>
       </c>
       <c r="B362" t="n">
-        <v>91.800323</v>
+        <v>91.800316</v>
       </c>
       <c r="C362" t="n">
         <v>113.172348</v>
@@ -7399,7 +7399,7 @@
         <v>90.189026</v>
       </c>
       <c r="C363" t="n">
-        <v>109.667778</v>
+        <v>109.66777</v>
       </c>
     </row>
     <row r="364">
@@ -7410,7 +7410,7 @@
         <v>90.493866</v>
       </c>
       <c r="C364" t="n">
-        <v>108.727516</v>
+        <v>108.727524</v>
       </c>
     </row>
     <row r="365">
@@ -7418,7 +7418,7 @@
         <v>366</v>
       </c>
       <c r="B365" t="n">
-        <v>87.706757</v>
+        <v>87.706749</v>
       </c>
       <c r="C365" t="n">
         <v>107.274406</v>
@@ -7443,7 +7443,7 @@
         <v>87.750305</v>
       </c>
       <c r="C367" t="n">
-        <v>105.222939</v>
+        <v>105.222946</v>
       </c>
     </row>
     <row r="368">
@@ -7451,7 +7451,7 @@
         <v>369</v>
       </c>
       <c r="B368" t="n">
-        <v>89.535805</v>
+        <v>89.535797</v>
       </c>
       <c r="C368" t="n">
         <v>106.676064</v>
@@ -7462,7 +7462,7 @@
         <v>370</v>
       </c>
       <c r="B369" t="n">
-        <v>90.363213</v>
+        <v>90.36322</v>
       </c>
       <c r="C369" t="n">
         <v>106.932487</v>
@@ -7473,7 +7473,7 @@
         <v>371</v>
       </c>
       <c r="B370" t="n">
-        <v>91.234184</v>
+        <v>91.234192</v>
       </c>
       <c r="C370" t="n">
         <v>108.813004</v>
@@ -7506,7 +7506,7 @@
         <v>374</v>
       </c>
       <c r="B373" t="n">
-        <v>91.234184</v>
+        <v>91.234192</v>
       </c>
       <c r="C373" t="n">
         <v>110.180641</v>
@@ -7528,7 +7528,7 @@
         <v>376</v>
       </c>
       <c r="B375" t="n">
-        <v>90.755157</v>
+        <v>90.75515</v>
       </c>
       <c r="C375" t="n">
         <v>109.411346</v>
@@ -7561,7 +7561,7 @@
         <v>379</v>
       </c>
       <c r="B378" t="n">
-        <v>89.492241</v>
+        <v>89.492249</v>
       </c>
       <c r="C378" t="n">
         <v>105.393898</v>
@@ -7575,7 +7575,7 @@
         <v>90.232574</v>
       </c>
       <c r="C379" t="n">
-        <v>106.505096</v>
+        <v>106.505104</v>
       </c>
     </row>
     <row r="380">
@@ -7583,7 +7583,7 @@
         <v>381</v>
       </c>
       <c r="B380" t="n">
-        <v>90.668053</v>
+        <v>90.66806</v>
       </c>
       <c r="C380" t="n">
         <v>104.624596</v>
@@ -7597,7 +7597,7 @@
         <v>91.495483</v>
       </c>
       <c r="C381" t="n">
-        <v>105.222939</v>
+        <v>105.222946</v>
       </c>
     </row>
     <row r="382">
@@ -7616,7 +7616,7 @@
         <v>384</v>
       </c>
       <c r="B383" t="n">
-        <v>89.361603</v>
+        <v>89.361595</v>
       </c>
       <c r="C383" t="n">
         <v>102.145744</v>
@@ -7630,7 +7630,7 @@
         <v>89.274506</v>
       </c>
       <c r="C384" t="n">
-        <v>101.20549</v>
+        <v>101.205498</v>
       </c>
     </row>
     <row r="385">
@@ -7641,7 +7641,7 @@
         <v>88.53418</v>
       </c>
       <c r="C385" t="n">
-        <v>101.632881</v>
+        <v>101.632889</v>
       </c>
     </row>
     <row r="386">
@@ -7660,7 +7660,7 @@
         <v>388</v>
       </c>
       <c r="B387" t="n">
-        <v>89.709991</v>
+        <v>89.709984</v>
       </c>
       <c r="C387" t="n">
         <v>103.684349</v>
@@ -7671,7 +7671,7 @@
         <v>389</v>
       </c>
       <c r="B388" t="n">
-        <v>90.668053</v>
+        <v>90.66806</v>
       </c>
       <c r="C388" t="n">
         <v>104.197212</v>
@@ -7693,7 +7693,7 @@
         <v>391</v>
       </c>
       <c r="B390" t="n">
-        <v>89.143852</v>
+        <v>89.14386</v>
       </c>
       <c r="C390" t="n">
         <v>103.684349</v>
@@ -7704,10 +7704,10 @@
         <v>392</v>
       </c>
       <c r="B391" t="n">
-        <v>87.044815</v>
+        <v>87.044823</v>
       </c>
       <c r="C391" t="n">
-        <v>101.632881</v>
+        <v>101.632889</v>
       </c>
     </row>
     <row r="392">
@@ -7718,7 +7718,7 @@
         <v>87.314819</v>
       </c>
       <c r="C392" t="n">
-        <v>100.350708</v>
+        <v>100.350716</v>
       </c>
     </row>
     <row r="393">
@@ -7737,10 +7737,10 @@
         <v>395</v>
       </c>
       <c r="B394" t="n">
-        <v>85.564171</v>
+        <v>85.564163</v>
       </c>
       <c r="C394" t="n">
-        <v>99.15403</v>
+        <v>99.154037</v>
       </c>
     </row>
     <row r="395">
@@ -7748,10 +7748,10 @@
         <v>396</v>
       </c>
       <c r="B395" t="n">
-        <v>84.066101</v>
+        <v>84.066093</v>
       </c>
       <c r="C395" t="n">
-        <v>98.042824</v>
+        <v>98.042816</v>
       </c>
     </row>
     <row r="396">
@@ -7759,7 +7759,7 @@
         <v>397</v>
       </c>
       <c r="B396" t="n">
-        <v>83.839653</v>
+        <v>83.839645</v>
       </c>
       <c r="C396" t="n">
         <v>99.923325</v>
@@ -7773,7 +7773,7 @@
         <v>83.508675</v>
       </c>
       <c r="C397" t="n">
-        <v>98.726639</v>
+        <v>98.726646</v>
       </c>
     </row>
     <row r="398">
@@ -7781,10 +7781,10 @@
         <v>399</v>
       </c>
       <c r="B398" t="n">
-        <v>83.857063</v>
+        <v>83.857071</v>
       </c>
       <c r="C398" t="n">
-        <v>98.641159</v>
+        <v>98.641167</v>
       </c>
     </row>
     <row r="399">
@@ -7792,7 +7792,7 @@
         <v>400</v>
       </c>
       <c r="B399" t="n">
-        <v>82.672546</v>
+        <v>82.672539</v>
       </c>
       <c r="C399" t="n">
         <v>98.128304</v>
@@ -7817,7 +7817,7 @@
         <v>81.505447</v>
       </c>
       <c r="C401" t="n">
-        <v>95.563972</v>
+        <v>95.56398</v>
       </c>
     </row>
     <row r="402">
@@ -7825,10 +7825,10 @@
         <v>403</v>
       </c>
       <c r="B402" t="n">
-        <v>77.516396</v>
+        <v>77.516403</v>
       </c>
       <c r="C402" t="n">
-        <v>92.230339</v>
+        <v>92.230347</v>
       </c>
     </row>
     <row r="403">
@@ -7839,7 +7839,7 @@
         <v>76.749947</v>
       </c>
       <c r="C403" t="n">
-        <v>91.461044</v>
+        <v>91.461037</v>
       </c>
     </row>
     <row r="404">
@@ -7847,10 +7847,10 @@
         <v>405</v>
       </c>
       <c r="B404" t="n">
-        <v>79.362862</v>
+        <v>79.362854</v>
       </c>
       <c r="C404" t="n">
-        <v>94.70919</v>
+        <v>94.709198</v>
       </c>
     </row>
     <row r="405">
@@ -7869,7 +7869,7 @@
         <v>407</v>
       </c>
       <c r="B406" t="n">
-        <v>77.882202</v>
+        <v>77.88221</v>
       </c>
       <c r="C406" t="n">
         <v>93.597984</v>
@@ -7880,10 +7880,10 @@
         <v>408</v>
       </c>
       <c r="B407" t="n">
-        <v>77.516396</v>
+        <v>77.516403</v>
       </c>
       <c r="C407" t="n">
-        <v>92.65773</v>
+        <v>92.657738</v>
       </c>
     </row>
     <row r="408">
@@ -7891,7 +7891,7 @@
         <v>409</v>
       </c>
       <c r="B408" t="n">
-        <v>78.561554</v>
+        <v>78.561562</v>
       </c>
       <c r="C408" t="n">
         <v>94.88015</v>
@@ -7902,7 +7902,7 @@
         <v>410</v>
       </c>
       <c r="B409" t="n">
-        <v>77.67318</v>
+        <v>77.673172</v>
       </c>
       <c r="C409" t="n">
         <v>94.88015</v>
@@ -7913,7 +7913,7 @@
         <v>411</v>
       </c>
       <c r="B410" t="n">
-        <v>76.418968</v>
+        <v>76.418976</v>
       </c>
       <c r="C410" t="n">
         <v>93.256073</v>
@@ -7946,7 +7946,7 @@
         <v>414</v>
       </c>
       <c r="B413" t="n">
-        <v>76.59317</v>
+        <v>76.593178</v>
       </c>
       <c r="C413" t="n">
         <v>80.348953</v>
@@ -8004,7 +8004,7 @@
         <v>78.875107</v>
       </c>
       <c r="C418" t="n">
-        <v>82.998756</v>
+        <v>82.998764</v>
       </c>
     </row>
     <row r="419">
@@ -8034,7 +8034,7 @@
         <v>422</v>
       </c>
       <c r="B421" t="n">
-        <v>88.055145</v>
+        <v>88.055138</v>
       </c>
       <c r="C421" t="n">
         <v>88.554802</v>
@@ -8056,10 +8056,10 @@
         <v>424</v>
       </c>
       <c r="B423" t="n">
-        <v>88.011604</v>
+        <v>88.011597</v>
       </c>
       <c r="C423" t="n">
-        <v>87.870987</v>
+        <v>87.870979</v>
       </c>
     </row>
     <row r="424">
@@ -8081,7 +8081,7 @@
         <v>88.22934</v>
       </c>
       <c r="C425" t="n">
-        <v>88.640274</v>
+        <v>88.640282</v>
       </c>
     </row>
     <row r="426">
@@ -8100,7 +8100,7 @@
         <v>428</v>
       </c>
       <c r="B427" t="n">
-        <v>83.247391</v>
+        <v>83.247383</v>
       </c>
       <c r="C427" t="n">
         <v>87.529076</v>
@@ -8111,10 +8111,10 @@
         <v>429</v>
       </c>
       <c r="B428" t="n">
-        <v>84.41449</v>
+        <v>84.414482</v>
       </c>
       <c r="C428" t="n">
-        <v>89.495056</v>
+        <v>89.495064</v>
       </c>
     </row>
     <row r="429">
@@ -8122,7 +8122,7 @@
         <v>430</v>
       </c>
       <c r="B429" t="n">
-        <v>85.355141</v>
+        <v>85.355133</v>
       </c>
       <c r="C429" t="n">
         <v>99.495941</v>
@@ -8133,7 +8133,7 @@
         <v>431</v>
       </c>
       <c r="B430" t="n">
-        <v>83.613197</v>
+        <v>83.61319</v>
       </c>
       <c r="C430" t="n">
         <v>101.461922</v>
@@ -8169,7 +8169,7 @@
         <v>82.289322</v>
       </c>
       <c r="C433" t="n">
-        <v>108.385612</v>
+        <v>108.38562</v>
       </c>
     </row>
     <row r="434">
@@ -8177,7 +8177,7 @@
         <v>435</v>
       </c>
       <c r="B434" t="n">
-        <v>83.386734</v>
+        <v>83.386742</v>
       </c>
       <c r="C434" t="n">
         <v>104.881027</v>
@@ -8199,7 +8199,7 @@
         <v>437</v>
       </c>
       <c r="B436" t="n">
-        <v>82.742218</v>
+        <v>82.742226</v>
       </c>
       <c r="C436" t="n">
         <v>102.402184</v>
@@ -8235,7 +8235,7 @@
         <v>79.989952</v>
       </c>
       <c r="C439" t="n">
-        <v>99.15403</v>
+        <v>99.154037</v>
       </c>
     </row>
     <row r="440">
@@ -8257,7 +8257,7 @@
         <v>80.059631</v>
       </c>
       <c r="C441" t="n">
-        <v>102.658607</v>
+        <v>102.658615</v>
       </c>
     </row>
     <row r="442">
@@ -8276,7 +8276,7 @@
         <v>444</v>
       </c>
       <c r="B443" t="n">
-        <v>80.164154</v>
+        <v>80.164146</v>
       </c>
       <c r="C443" t="n">
         <v>100.521667</v>
@@ -8287,7 +8287,7 @@
         <v>445</v>
       </c>
       <c r="B444" t="n">
-        <v>82.881584</v>
+        <v>82.881577</v>
       </c>
       <c r="C444" t="n">
         <v>102.145744</v>
@@ -8298,10 +8298,10 @@
         <v>446</v>
       </c>
       <c r="B445" t="n">
-        <v>83.595779</v>
+        <v>83.595772</v>
       </c>
       <c r="C445" t="n">
-        <v>104.795547</v>
+        <v>104.795555</v>
       </c>
     </row>
     <row r="446">
@@ -8342,7 +8342,7 @@
         <v>450</v>
       </c>
       <c r="B449" t="n">
-        <v>83.822227</v>
+        <v>83.82222</v>
       </c>
       <c r="C449" t="n">
         <v>110.266121</v>
@@ -8353,10 +8353,10 @@
         <v>451</v>
       </c>
       <c r="B450" t="n">
-        <v>85.877724</v>
+        <v>85.877716</v>
       </c>
       <c r="C450" t="n">
-        <v>112.659492</v>
+        <v>112.6595</v>
       </c>
     </row>
     <row r="451">
@@ -8364,7 +8364,7 @@
         <v>452</v>
       </c>
       <c r="B451" t="n">
-        <v>85.877724</v>
+        <v>85.877716</v>
       </c>
       <c r="C451" t="n">
         <v>113.257835</v>
@@ -8397,7 +8397,7 @@
         <v>455</v>
       </c>
       <c r="B454" t="n">
-        <v>85.877724</v>
+        <v>85.877716</v>
       </c>
       <c r="C454" t="n">
         <v>116.078598</v>
@@ -8422,7 +8422,7 @@
         <v>84.867393</v>
       </c>
       <c r="C456" t="n">
-        <v>115.736671</v>
+        <v>115.736687</v>
       </c>
     </row>
     <row r="457">
@@ -8441,7 +8441,7 @@
         <v>459</v>
       </c>
       <c r="B458" t="n">
-        <v>83.247391</v>
+        <v>83.247383</v>
       </c>
       <c r="C458" t="n">
         <v>112.317574</v>
@@ -8485,7 +8485,7 @@
         <v>463</v>
       </c>
       <c r="B462" t="n">
-        <v>81.766731</v>
+        <v>81.766739</v>
       </c>
       <c r="C462" t="n">
         <v>115.651207</v>
@@ -8496,7 +8496,7 @@
         <v>464</v>
       </c>
       <c r="B463" t="n">
-        <v>83.630608</v>
+        <v>83.630615</v>
       </c>
       <c r="C463" t="n">
         <v>116.33503</v>
@@ -8510,7 +8510,7 @@
         <v>83.369324</v>
       </c>
       <c r="C464" t="n">
-        <v>115.993111</v>
+        <v>115.993118</v>
       </c>
     </row>
     <row r="465">
@@ -8529,7 +8529,7 @@
         <v>467</v>
       </c>
       <c r="B466" t="n">
-        <v>82.30674</v>
+        <v>82.306732</v>
       </c>
       <c r="C466" t="n">
         <v>116.93338</v>
@@ -8540,10 +8540,10 @@
         <v>468</v>
       </c>
       <c r="B467" t="n">
-        <v>80.442863</v>
+        <v>80.442856</v>
       </c>
       <c r="C467" t="n">
-        <v>113.514267</v>
+        <v>113.514275</v>
       </c>
     </row>
     <row r="468">
@@ -8573,7 +8573,7 @@
         <v>471</v>
       </c>
       <c r="B470" t="n">
-        <v>79.240929</v>
+        <v>79.240921</v>
       </c>
       <c r="C470" t="n">
         <v>110.949944</v>
@@ -8584,10 +8584,10 @@
         <v>472</v>
       </c>
       <c r="B471" t="n">
-        <v>79.362862</v>
+        <v>79.362854</v>
       </c>
       <c r="C471" t="n">
-        <v>110.864456</v>
+        <v>110.864464</v>
       </c>
     </row>
     <row r="472">
@@ -8609,7 +8609,7 @@
         <v>78.735756</v>
       </c>
       <c r="C473" t="n">
-        <v>108.727516</v>
+        <v>108.727524</v>
       </c>
     </row>
     <row r="474">
@@ -8642,7 +8642,7 @@
         <v>79.275757</v>
       </c>
       <c r="C476" t="n">
-        <v>108.727516</v>
+        <v>108.727524</v>
       </c>
     </row>
     <row r="477">
@@ -8672,10 +8672,10 @@
         <v>480</v>
       </c>
       <c r="B479" t="n">
-        <v>79.746078</v>
+        <v>79.746086</v>
       </c>
       <c r="C479" t="n">
-        <v>109.154907</v>
+        <v>109.154915</v>
       </c>
     </row>
     <row r="480">
@@ -8697,7 +8697,7 @@
         <v>79.223503</v>
       </c>
       <c r="C481" t="n">
-        <v>105.479378</v>
+        <v>105.47937</v>
       </c>
     </row>
     <row r="482">
@@ -8705,7 +8705,7 @@
         <v>483</v>
       </c>
       <c r="B482" t="n">
-        <v>79.780914</v>
+        <v>79.780922</v>
       </c>
       <c r="C482" t="n">
         <v>108.983955</v>
@@ -8716,7 +8716,7 @@
         <v>484</v>
       </c>
       <c r="B483" t="n">
-        <v>82.463509</v>
+        <v>82.463516</v>
       </c>
       <c r="C483" t="n">
         <v>110.949944</v>
@@ -8752,7 +8752,7 @@
         <v>84.170616</v>
       </c>
       <c r="C486" t="n">
-        <v>113.343323</v>
+        <v>113.343315</v>
       </c>
     </row>
     <row r="487">
@@ -8774,7 +8774,7 @@
         <v>87.271271</v>
       </c>
       <c r="C488" t="n">
-        <v>113.941658</v>
+        <v>113.94165</v>
       </c>
     </row>
     <row r="489">
@@ -8796,7 +8796,7 @@
         <v>92.671295</v>
       </c>
       <c r="C490" t="n">
-        <v>112.488541</v>
+        <v>112.488548</v>
       </c>
     </row>
     <row r="491">
@@ -8804,7 +8804,7 @@
         <v>492</v>
       </c>
       <c r="B491" t="n">
-        <v>94.108398</v>
+        <v>94.108391</v>
       </c>
       <c r="C491" t="n">
         <v>117.104317</v>
@@ -8815,7 +8815,7 @@
         <v>493</v>
       </c>
       <c r="B492" t="n">
-        <v>93.193878</v>
+        <v>93.193871</v>
       </c>
       <c r="C492" t="n">
         <v>118.215546</v>
@@ -8848,10 +8848,10 @@
         <v>496</v>
       </c>
       <c r="B495" t="n">
-        <v>93.193878</v>
+        <v>93.193871</v>
       </c>
       <c r="C495" t="n">
-        <v>118.899368</v>
+        <v>118.899353</v>
       </c>
     </row>
     <row r="496">
@@ -8870,10 +8870,10 @@
         <v>498</v>
       </c>
       <c r="B497" t="n">
-        <v>93.890656</v>
+        <v>93.890648</v>
       </c>
       <c r="C497" t="n">
-        <v>119.497711</v>
+        <v>119.497704</v>
       </c>
     </row>
     <row r="498">
@@ -8881,7 +8881,7 @@
         <v>499</v>
       </c>
       <c r="B498" t="n">
-        <v>96.111618</v>
+        <v>96.111626</v>
       </c>
       <c r="C498" t="n">
         <v>121.976547</v>
@@ -8892,7 +8892,7 @@
         <v>500</v>
       </c>
       <c r="B499" t="n">
-        <v>93.977745</v>
+        <v>93.977753</v>
       </c>
       <c r="C499" t="n">
         <v>121.463692</v>
@@ -8917,7 +8917,7 @@
         <v>93.847099</v>
       </c>
       <c r="C501" t="n">
-        <v>120.694374</v>
+        <v>120.694389</v>
       </c>
     </row>
     <row r="502">
@@ -8936,7 +8936,7 @@
         <v>504</v>
       </c>
       <c r="B503" t="n">
-        <v>96.068077</v>
+        <v>96.068085</v>
       </c>
       <c r="C503" t="n">
         <v>124.369926</v>
@@ -8947,7 +8947,7 @@
         <v>505</v>
       </c>
       <c r="B504" t="n">
-        <v>94.979362</v>
+        <v>94.97937</v>
       </c>
       <c r="C504" t="n">
         <v>121.976547</v>
@@ -8969,10 +8969,10 @@
         <v>507</v>
       </c>
       <c r="B506" t="n">
-        <v>94.064842</v>
+        <v>94.06485</v>
       </c>
       <c r="C506" t="n">
-        <v>123.686089</v>
+        <v>123.686104</v>
       </c>
     </row>
     <row r="507">
@@ -8991,10 +8991,10 @@
         <v>509</v>
       </c>
       <c r="B508" t="n">
-        <v>94.674515</v>
+        <v>94.674522</v>
       </c>
       <c r="C508" t="n">
-        <v>123.600624</v>
+        <v>123.600639</v>
       </c>
     </row>
     <row r="509">
@@ -9013,10 +9013,10 @@
         <v>511</v>
       </c>
       <c r="B510" t="n">
-        <v>95.632599</v>
+        <v>95.632591</v>
       </c>
       <c r="C510" t="n">
-        <v>127.361649</v>
+        <v>127.361641</v>
       </c>
     </row>
     <row r="511">
@@ -9038,7 +9038,7 @@
         <v>96.721306</v>
       </c>
       <c r="C512" t="n">
-        <v>127.703537</v>
+        <v>127.703552</v>
       </c>
     </row>
     <row r="513">
@@ -9049,7 +9049,7 @@
         <v>94.848717</v>
       </c>
       <c r="C513" t="n">
-        <v>126.934265</v>
+        <v>126.93425</v>
       </c>
     </row>
     <row r="514">
@@ -9057,7 +9057,7 @@
         <v>515</v>
       </c>
       <c r="B514" t="n">
-        <v>95.458397</v>
+        <v>95.458389</v>
       </c>
       <c r="C514" t="n">
         <v>125.993988</v>
@@ -9071,7 +9071,7 @@
         <v>92.453545</v>
       </c>
       <c r="C515" t="n">
-        <v>123.087769</v>
+        <v>123.087761</v>
       </c>
     </row>
     <row r="516">
@@ -9090,7 +9090,7 @@
         <v>518</v>
       </c>
       <c r="B517" t="n">
-        <v>95.893875</v>
+        <v>95.893883</v>
       </c>
       <c r="C517" t="n">
         <v>125.993988</v>
@@ -9101,10 +9101,10 @@
         <v>519</v>
       </c>
       <c r="B518" t="n">
-        <v>94.674515</v>
+        <v>94.674522</v>
       </c>
       <c r="C518" t="n">
-        <v>124.198967</v>
+        <v>124.198982</v>
       </c>
     </row>
     <row r="519">
@@ -9115,7 +9115,7 @@
         <v>98.332603</v>
       </c>
       <c r="C519" t="n">
-        <v>125.48114</v>
+        <v>125.481125</v>
       </c>
     </row>
     <row r="520">
@@ -9123,7 +9123,7 @@
         <v>521</v>
       </c>
       <c r="B520" t="n">
-        <v>97.20034</v>
+        <v>97.200333</v>
       </c>
       <c r="C520" t="n">
         <v>125.652092</v>
@@ -9134,7 +9134,7 @@
         <v>522</v>
       </c>
       <c r="B521" t="n">
-        <v>99.943901</v>
+        <v>99.943893</v>
       </c>
       <c r="C521" t="n">
         <v>127.276161</v>
@@ -9145,7 +9145,7 @@
         <v>523</v>
       </c>
       <c r="B522" t="n">
-        <v>100.422928</v>
+        <v>100.422935</v>
       </c>
       <c r="C522" t="n">
         <v>128.472855</v>
@@ -9156,7 +9156,7 @@
         <v>524</v>
       </c>
       <c r="B523" t="n">
-        <v>102.164871</v>
+        <v>102.164879</v>
       </c>
       <c r="C523" t="n">
         <v>131.293625</v>
@@ -9167,7 +9167,7 @@
         <v>525</v>
       </c>
       <c r="B524" t="n">
-        <v>102.513252</v>
+        <v>102.51326</v>
       </c>
       <c r="C524" t="n">
         <v>130.438843</v>
@@ -9189,10 +9189,10 @@
         <v>527</v>
       </c>
       <c r="B526" t="n">
-        <v>105.822945</v>
+        <v>105.822952</v>
       </c>
       <c r="C526" t="n">
-        <v>133.516037</v>
+        <v>133.516022</v>
       </c>
     </row>
     <row r="527">
@@ -9200,7 +9200,7 @@
         <v>528</v>
       </c>
       <c r="B527" t="n">
-        <v>107.608444</v>
+        <v>107.608437</v>
       </c>
       <c r="C527" t="n">
         <v>134.285324</v>
@@ -9211,7 +9211,7 @@
         <v>529</v>
       </c>
       <c r="B528" t="n">
-        <v>106.519722</v>
+        <v>106.51973</v>
       </c>
       <c r="C528" t="n">
         <v>134.19986</v>
@@ -9236,7 +9236,7 @@
         <v>104.951973</v>
       </c>
       <c r="C530" t="n">
-        <v>135.909393</v>
+        <v>135.909409</v>
       </c>
     </row>
     <row r="531">
@@ -9266,10 +9266,10 @@
         <v>534</v>
       </c>
       <c r="B533" t="n">
-        <v>106.476173</v>
+        <v>106.476181</v>
       </c>
       <c r="C533" t="n">
-        <v>138.47374</v>
+        <v>138.473724</v>
       </c>
     </row>
     <row r="534">
@@ -9302,7 +9302,7 @@
         <v>99.116478</v>
       </c>
       <c r="C536" t="n">
-        <v>130.951706</v>
+        <v>130.951691</v>
       </c>
     </row>
     <row r="537">
@@ -9343,7 +9343,7 @@
         <v>541</v>
       </c>
       <c r="B540" t="n">
-        <v>91.582573</v>
+        <v>91.582581</v>
       </c>
       <c r="C540" t="n">
         <v>107.872742</v>
@@ -9354,7 +9354,7 @@
         <v>542</v>
       </c>
       <c r="B541" t="n">
-        <v>93.063225</v>
+        <v>93.063232</v>
       </c>
       <c r="C541" t="n">
         <v>109.838737</v>
@@ -9368,7 +9368,7 @@
         <v>93.237427</v>
       </c>
       <c r="C542" t="n">
-        <v>106.505096</v>
+        <v>106.505104</v>
       </c>
     </row>
     <row r="543">
@@ -9379,7 +9379,7 @@
         <v>91.147095</v>
       </c>
       <c r="C543" t="n">
-        <v>104.795547</v>
+        <v>104.795555</v>
       </c>
     </row>
     <row r="544">
@@ -9409,7 +9409,7 @@
         <v>547</v>
       </c>
       <c r="B546" t="n">
-        <v>77.28994</v>
+        <v>77.289948</v>
       </c>
       <c r="C546" t="n">
         <v>93.854416</v>
@@ -9423,7 +9423,7 @@
         <v>74.48542</v>
       </c>
       <c r="C547" t="n">
-        <v>92.486771</v>
+        <v>92.486763</v>
       </c>
     </row>
     <row r="548">
@@ -9431,10 +9431,10 @@
         <v>549</v>
       </c>
       <c r="B548" t="n">
-        <v>67.726692</v>
+        <v>67.726685</v>
       </c>
       <c r="C548" t="n">
-        <v>82.272194</v>
+        <v>82.272202</v>
       </c>
     </row>
     <row r="549">
@@ -9445,7 +9445,7 @@
         <v>67.761528</v>
       </c>
       <c r="C549" t="n">
-        <v>83.682587</v>
+        <v>83.682579</v>
       </c>
     </row>
     <row r="550">
@@ -9467,7 +9467,7 @@
         <v>64.62603</v>
       </c>
       <c r="C551" t="n">
-        <v>80.220734</v>
+        <v>80.220741</v>
       </c>
     </row>
     <row r="552">
@@ -9478,7 +9478,7 @@
         <v>71.60997</v>
       </c>
       <c r="C552" t="n">
-        <v>77.399986</v>
+        <v>77.399979</v>
       </c>
     </row>
     <row r="553">
@@ -9577,7 +9577,7 @@
         <v>75.642952</v>
       </c>
       <c r="C561" t="n">
-        <v>91.515839</v>
+        <v>91.515846</v>
       </c>
     </row>
     <row r="562">
@@ -9610,7 +9610,7 @@
         <v>71.078796</v>
       </c>
       <c r="C564" t="n">
-        <v>88.706573</v>
+        <v>88.706566</v>
       </c>
     </row>
     <row r="565">
@@ -9621,7 +9621,7 @@
         <v>72.141136</v>
       </c>
       <c r="C565" t="n">
-        <v>88.373268</v>
+        <v>88.37326</v>
       </c>
     </row>
     <row r="566">
@@ -9687,7 +9687,7 @@
         <v>72.318199</v>
       </c>
       <c r="C571" t="n">
-        <v>89.373169</v>
+        <v>89.373177</v>
       </c>
     </row>
     <row r="572">
@@ -9698,7 +9698,7 @@
         <v>71.82637</v>
       </c>
       <c r="C572" t="n">
-        <v>90.992088</v>
+        <v>90.992081</v>
       </c>
     </row>
     <row r="573">
@@ -9731,7 +9731,7 @@
         <v>72.455917</v>
       </c>
       <c r="C575" t="n">
-        <v>91.230164</v>
+        <v>91.230156</v>
       </c>
     </row>
     <row r="576">
@@ -9742,7 +9742,7 @@
         <v>70.134491</v>
       </c>
       <c r="C576" t="n">
-        <v>89.706474</v>
+        <v>89.706482</v>
       </c>
     </row>
     <row r="577">
@@ -9786,7 +9786,7 @@
         <v>79.479202</v>
       </c>
       <c r="C580" t="n">
-        <v>107.89537</v>
+        <v>107.895378</v>
       </c>
     </row>
     <row r="581">
@@ -9830,7 +9830,7 @@
         <v>74.226486</v>
       </c>
       <c r="C584" t="n">
-        <v>95.08696</v>
+        <v>95.086967</v>
       </c>
     </row>
     <row r="585">
@@ -9852,7 +9852,7 @@
         <v>74.619949</v>
       </c>
       <c r="C586" t="n">
-        <v>100.086533</v>
+        <v>100.086525</v>
       </c>
     </row>
     <row r="587">
@@ -9863,7 +9863,7 @@
         <v>74.167473</v>
       </c>
       <c r="C587" t="n">
-        <v>101.134048</v>
+        <v>101.134056</v>
       </c>
     </row>
     <row r="588">
@@ -9896,7 +9896,7 @@
         <v>70.803375</v>
       </c>
       <c r="C590" t="n">
-        <v>99.991302</v>
+        <v>99.991295</v>
       </c>
     </row>
     <row r="591">
@@ -9918,7 +9918,7 @@
         <v>73.400223</v>
       </c>
       <c r="C592" t="n">
-        <v>100.657898</v>
+        <v>100.657906</v>
       </c>
     </row>
     <row r="593">
@@ -9929,7 +9929,7 @@
         <v>75.564255</v>
       </c>
       <c r="C593" t="n">
-        <v>102.467278</v>
+        <v>102.46727</v>
       </c>
     </row>
     <row r="594">
@@ -9973,7 +9973,7 @@
         <v>83.748253</v>
       </c>
       <c r="C597" t="n">
-        <v>111.799789</v>
+        <v>111.799797</v>
       </c>
     </row>
     <row r="598">
@@ -9995,7 +9995,7 @@
         <v>86.128693</v>
       </c>
       <c r="C599" t="n">
-        <v>116.656509</v>
+        <v>116.656517</v>
       </c>
     </row>
     <row r="600">
@@ -10017,7 +10017,7 @@
         <v>89.256706</v>
       </c>
       <c r="C601" t="n">
-        <v>123.893982</v>
+        <v>123.89399</v>
       </c>
     </row>
     <row r="602">
@@ -10072,7 +10072,7 @@
         <v>86.42379</v>
       </c>
       <c r="C606" t="n">
-        <v>117.704041</v>
+        <v>117.704048</v>
       </c>
     </row>
     <row r="607">
@@ -10094,7 +10094,7 @@
         <v>87.663193</v>
       </c>
       <c r="C608" t="n">
-        <v>120.751396</v>
+        <v>120.751404</v>
       </c>
     </row>
     <row r="609">
@@ -10160,7 +10160,7 @@
         <v>87.466461</v>
       </c>
       <c r="C614" t="n">
-        <v>117.704041</v>
+        <v>117.704048</v>
       </c>
     </row>
     <row r="615">
@@ -10204,7 +10204,7 @@
         <v>86.836922</v>
       </c>
       <c r="C618" t="n">
-        <v>117.13266</v>
+        <v>117.132668</v>
       </c>
     </row>
     <row r="619">
@@ -10325,7 +10325,7 @@
         <v>100.185097</v>
       </c>
       <c r="C629" t="n">
-        <v>124.465355</v>
+        <v>124.465363</v>
       </c>
     </row>
     <row r="630">
@@ -10336,7 +10336,7 @@
         <v>100.185097</v>
       </c>
       <c r="C630" t="n">
-        <v>125.512886</v>
+        <v>125.512894</v>
       </c>
     </row>
     <row r="631">
@@ -10358,7 +10358,7 @@
         <v>104.267265</v>
       </c>
       <c r="C632" t="n">
-        <v>125.036736</v>
+        <v>125.036743</v>
       </c>
     </row>
     <row r="633">
@@ -10391,7 +10391,7 @@
         <v>103.72625</v>
       </c>
       <c r="C635" t="n">
-        <v>125.322433</v>
+        <v>125.322441</v>
       </c>
     </row>
     <row r="636">
@@ -10402,7 +10402,7 @@
         <v>104.218079</v>
       </c>
       <c r="C636" t="n">
-        <v>124.941498</v>
+        <v>124.941505</v>
       </c>
     </row>
     <row r="637">
@@ -10413,7 +10413,7 @@
         <v>102.250771</v>
       </c>
       <c r="C637" t="n">
-        <v>122.655998</v>
+        <v>122.655991</v>
       </c>
     </row>
     <row r="638">
@@ -10468,7 +10468,7 @@
         <v>101.168755</v>
       </c>
       <c r="C642" t="n">
-        <v>115.894676</v>
+        <v>115.894669</v>
       </c>
     </row>
     <row r="643">
@@ -10479,7 +10479,7 @@
         <v>100.480202</v>
       </c>
       <c r="C643" t="n">
-        <v>116.75174</v>
+        <v>116.751747</v>
       </c>
     </row>
     <row r="644">
@@ -10490,7 +10490,7 @@
         <v>100.922836</v>
       </c>
       <c r="C644" t="n">
-        <v>115.989914</v>
+        <v>115.989906</v>
       </c>
     </row>
     <row r="645">
@@ -10501,7 +10501,7 @@
         <v>100.332649</v>
       </c>
       <c r="C645" t="n">
-        <v>115.418526</v>
+        <v>115.418518</v>
       </c>
     </row>
     <row r="646">
@@ -10567,7 +10567,7 @@
         <v>102.349144</v>
       </c>
       <c r="C651" t="n">
-        <v>113.609169</v>
+        <v>113.609161</v>
       </c>
     </row>
     <row r="652">
@@ -10611,7 +10611,7 @@
         <v>96.496399</v>
       </c>
       <c r="C655" t="n">
-        <v>110.466576</v>
+        <v>110.466583</v>
       </c>
     </row>
     <row r="656">
@@ -10622,7 +10622,7 @@
         <v>97.047249</v>
       </c>
       <c r="C656" t="n">
-        <v>109.799973</v>
+        <v>109.799965</v>
       </c>
     </row>
     <row r="657">
@@ -10655,7 +10655,7 @@
         <v>97.971878</v>
       </c>
       <c r="C659" t="n">
-        <v>107.228767</v>
+        <v>107.22876</v>
       </c>
     </row>
     <row r="660">
@@ -10666,7 +10666,7 @@
         <v>96.594765</v>
       </c>
       <c r="C660" t="n">
-        <v>106.847847</v>
+        <v>106.847839</v>
       </c>
     </row>
     <row r="661">
@@ -10699,7 +10699,7 @@
         <v>92.463425</v>
       </c>
       <c r="C663" t="n">
-        <v>95.705963</v>
+        <v>95.705956</v>
       </c>
     </row>
     <row r="664">
@@ -10754,7 +10754,7 @@
         <v>87.859924</v>
       </c>
       <c r="C668" t="n">
-        <v>96.467796</v>
+        <v>96.467804</v>
       </c>
     </row>
     <row r="669">
@@ -10765,7 +10765,7 @@
         <v>88.627174</v>
       </c>
       <c r="C669" t="n">
-        <v>98.181938</v>
+        <v>98.181931</v>
       </c>
     </row>
     <row r="670">
@@ -10776,7 +10776,7 @@
         <v>88.587822</v>
       </c>
       <c r="C670" t="n">
-        <v>99.705605</v>
+        <v>99.705612</v>
       </c>
     </row>
     <row r="671">
@@ -10787,7 +10787,7 @@
         <v>86.502487</v>
       </c>
       <c r="C671" t="n">
-        <v>99.610382</v>
+        <v>99.610374</v>
       </c>
     </row>
     <row r="672">
@@ -10809,7 +10809,7 @@
         <v>86.187714</v>
       </c>
       <c r="C673" t="n">
-        <v>99.134232</v>
+        <v>99.134224</v>
       </c>
     </row>
     <row r="674">
@@ -10820,7 +10820,7 @@
         <v>86.384445</v>
       </c>
       <c r="C674" t="n">
-        <v>97.896248</v>
+        <v>97.89624</v>
       </c>
     </row>
     <row r="675">
@@ -10842,7 +10842,7 @@
         <v>83.0597</v>
       </c>
       <c r="C676" t="n">
-        <v>96.372559</v>
+        <v>96.372566</v>
       </c>
     </row>
     <row r="677">
@@ -10853,7 +10853,7 @@
         <v>80.659584</v>
       </c>
       <c r="C677" t="n">
-        <v>94.372734</v>
+        <v>94.372742</v>
       </c>
     </row>
     <row r="678">
@@ -10875,7 +10875,7 @@
         <v>81.938332</v>
       </c>
       <c r="C679" t="n">
-        <v>93.563293</v>
+        <v>93.563286</v>
       </c>
     </row>
     <row r="680">
@@ -10930,7 +10930,7 @@
         <v>84.692558</v>
       </c>
       <c r="C684" t="n">
-        <v>94.848885</v>
+        <v>94.848892</v>
       </c>
     </row>
     <row r="685">
@@ -10952,7 +10952,7 @@
         <v>83.453156</v>
       </c>
       <c r="C686" t="n">
-        <v>103.133881</v>
+        <v>103.133888</v>
       </c>
     </row>
     <row r="687">
@@ -10963,7 +10963,7 @@
         <v>85.57785</v>
       </c>
       <c r="C687" t="n">
-        <v>103.133881</v>
+        <v>103.133888</v>
       </c>
     </row>
     <row r="688">
@@ -10996,7 +10996,7 @@
         <v>89.453445</v>
       </c>
       <c r="C690" t="n">
-        <v>103.990952</v>
+        <v>103.990944</v>
       </c>
     </row>
     <row r="691">
@@ -11073,7 +11073,7 @@
         <v>91.401077</v>
       </c>
       <c r="C697" t="n">
-        <v>103.990952</v>
+        <v>103.990944</v>
       </c>
     </row>
     <row r="698">
@@ -11161,7 +11161,7 @@
         <v>84.161385</v>
       </c>
       <c r="C705" t="n">
-        <v>102.372047</v>
+        <v>102.37204</v>
       </c>
     </row>
     <row r="706">
@@ -11205,7 +11205,7 @@
         <v>86.974632</v>
       </c>
       <c r="C709" t="n">
-        <v>111.799789</v>
+        <v>111.799797</v>
       </c>
     </row>
     <row r="710">
@@ -11227,7 +11227,7 @@
         <v>88.627174</v>
       </c>
       <c r="C711" t="n">
-        <v>109.514275</v>
+        <v>109.514282</v>
       </c>
     </row>
     <row r="712">
@@ -11293,7 +11293,7 @@
         <v>102.447502</v>
       </c>
       <c r="C717" t="n">
-        <v>124.274902</v>
+        <v>124.274895</v>
       </c>
     </row>
     <row r="718">
@@ -11304,7 +11304,7 @@
         <v>102.890144</v>
       </c>
       <c r="C718" t="n">
-        <v>126.274734</v>
+        <v>126.274727</v>
       </c>
     </row>
     <row r="719">
@@ -11359,7 +11359,7 @@
         <v>103.234421</v>
       </c>
       <c r="C723" t="n">
-        <v>124.751053</v>
+        <v>124.751045</v>
       </c>
     </row>
     <row r="724">
@@ -11381,7 +11381,7 @@
         <v>102.98851</v>
       </c>
       <c r="C725" t="n">
-        <v>124.751053</v>
+        <v>124.751045</v>
       </c>
     </row>
     <row r="726">
@@ -11425,7 +11425,7 @@
         <v>102.250771</v>
       </c>
       <c r="C729" t="n">
-        <v>124.751053</v>
+        <v>124.751045</v>
       </c>
     </row>
     <row r="730">
@@ -11447,7 +11447,7 @@
         <v>101.513031</v>
       </c>
       <c r="C731" t="n">
-        <v>124.274902</v>
+        <v>124.274895</v>
       </c>
     </row>
     <row r="732">
@@ -11546,7 +11546,7 @@
         <v>94.529091</v>
       </c>
       <c r="C740" t="n">
-        <v>121.608459</v>
+        <v>121.608467</v>
       </c>
     </row>
     <row r="741">
@@ -11579,7 +11579,7 @@
         <v>96.870193</v>
       </c>
       <c r="C743" t="n">
-        <v>124.941498</v>
+        <v>124.941505</v>
       </c>
     </row>
     <row r="744">
@@ -11590,7 +11590,7 @@
         <v>99.742462</v>
       </c>
       <c r="C744" t="n">
-        <v>125.989037</v>
+        <v>125.989044</v>
       </c>
     </row>
     <row r="745">
@@ -11623,7 +11623,7 @@
         <v>99.004723</v>
       </c>
       <c r="C747" t="n">
-        <v>128.084091</v>
+        <v>128.084106</v>
       </c>
     </row>
     <row r="748">
@@ -11656,7 +11656,7 @@
         <v>103.627884</v>
       </c>
       <c r="C750" t="n">
-        <v>128.941147</v>
+        <v>128.941162</v>
       </c>
     </row>
     <row r="751">
@@ -11667,7 +11667,7 @@
         <v>108.054329</v>
       </c>
       <c r="C751" t="n">
-        <v>132.369446</v>
+        <v>132.369431</v>
       </c>
     </row>
     <row r="752">
@@ -11854,7 +11854,7 @@
         <v>103.480339</v>
       </c>
       <c r="C768" t="n">
-        <v>121.608459</v>
+        <v>121.608467</v>
       </c>
     </row>
     <row r="769">
@@ -11865,7 +11865,7 @@
         <v>104.070534</v>
       </c>
       <c r="C769" t="n">
-        <v>123.893982</v>
+        <v>123.89399</v>
       </c>
     </row>
     <row r="770">
@@ -11942,7 +11942,7 @@
         <v>107.955963</v>
       </c>
       <c r="C776" t="n">
-        <v>126.750885</v>
+        <v>126.750877</v>
       </c>
     </row>
     <row r="777">
@@ -11986,7 +11986,7 @@
         <v>110.857735</v>
       </c>
       <c r="C780" t="n">
-        <v>132.369446</v>
+        <v>132.369431</v>
       </c>
     </row>
     <row r="781">
@@ -12019,7 +12019,7 @@
         <v>111.644661</v>
       </c>
       <c r="C783" t="n">
-        <v>132.940826</v>
+        <v>132.940811</v>
       </c>
     </row>
     <row r="784">
@@ -12030,7 +12030,7 @@
         <v>111.447937</v>
       </c>
       <c r="C784" t="n">
-        <v>134.178787</v>
+        <v>134.178802</v>
       </c>
     </row>
     <row r="785">
@@ -12041,7 +12041,7 @@
         <v>112.333221</v>
       </c>
       <c r="C785" t="n">
-        <v>134.940628</v>
+        <v>134.940643</v>
       </c>
     </row>
     <row r="786">
@@ -12052,7 +12052,7 @@
         <v>115.087448</v>
       </c>
       <c r="C786" t="n">
-        <v>135.226334</v>
+        <v>135.226318</v>
       </c>
     </row>
     <row r="787">
@@ -12074,7 +12074,7 @@
         <v>114.595627</v>
       </c>
       <c r="C788" t="n">
-        <v>136.654785</v>
+        <v>136.65477</v>
       </c>
     </row>
     <row r="789">
@@ -12096,7 +12096,7 @@
         <v>116.366203</v>
       </c>
       <c r="C790" t="n">
-        <v>153.319992</v>
+        <v>153.319977</v>
       </c>
     </row>
     <row r="791">
@@ -12107,7 +12107,7 @@
         <v>116.218651</v>
       </c>
       <c r="C791" t="n">
-        <v>152.367691</v>
+        <v>152.367706</v>
       </c>
     </row>
     <row r="792">
@@ -12118,7 +12118,7 @@
         <v>118.82534</v>
       </c>
       <c r="C792" t="n">
-        <v>151.129715</v>
+        <v>151.1297</v>
       </c>
     </row>
     <row r="793">
@@ -12173,7 +12173,7 @@
         <v>120.54673</v>
       </c>
       <c r="C797" t="n">
-        <v>154.938904</v>
+        <v>154.938889</v>
       </c>
     </row>
     <row r="798">
@@ -12184,7 +12184,7 @@
         <v>120.497543</v>
       </c>
       <c r="C798" t="n">
-        <v>154.272293</v>
+        <v>154.272278</v>
       </c>
     </row>
     <row r="799">
@@ -12195,7 +12195,7 @@
         <v>120.349998</v>
       </c>
       <c r="C799" t="n">
-        <v>155.415054</v>
+        <v>155.415039</v>
       </c>
     </row>
     <row r="800">
@@ -12250,7 +12250,7 @@
         <v>118.25</v>
       </c>
       <c r="C804" t="n">
-        <v>155.224594</v>
+        <v>155.224579</v>
       </c>
     </row>
     <row r="805">
@@ -12261,7 +12261,7 @@
         <v>119.300003</v>
       </c>
       <c r="C805" t="n">
-        <v>159.986084</v>
+        <v>159.986069</v>
       </c>
     </row>
     <row r="806">

--- a/Danske aktiekurser.xlsx
+++ b/Danske aktiekurser.xlsx
@@ -3425,10 +3425,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>189.887924</v>
+        <v>189.887909</v>
       </c>
       <c r="C2" t="n">
-        <v>191.282867</v>
+        <v>191.282883</v>
       </c>
     </row>
     <row r="3">
@@ -3439,7 +3439,7 @@
         <v>188.870819</v>
       </c>
       <c r="C3" t="n">
-        <v>190.82489</v>
+        <v>190.824905</v>
       </c>
     </row>
     <row r="4">
@@ -3447,7 +3447,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>190.513855</v>
+        <v>190.51384</v>
       </c>
       <c r="C4" t="n">
         <v>192.351501</v>
@@ -3461,7 +3461,7 @@
         <v>190.748566</v>
       </c>
       <c r="C5" t="n">
-        <v>192.046173</v>
+        <v>192.046188</v>
       </c>
     </row>
     <row r="6">
@@ -3483,7 +3483,7 @@
         <v>190.357376</v>
       </c>
       <c r="C7" t="n">
-        <v>191.588196</v>
+        <v>191.588181</v>
       </c>
     </row>
     <row r="8">
@@ -3513,7 +3513,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="n">
-        <v>194.817032</v>
+        <v>194.817047</v>
       </c>
       <c r="C10" t="n">
         <v>195.09938</v>
@@ -3535,10 +3535,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="n">
-        <v>195.521194</v>
+        <v>195.521179</v>
       </c>
       <c r="C12" t="n">
-        <v>192.50415</v>
+        <v>192.504166</v>
       </c>
     </row>
     <row r="13">
@@ -3546,7 +3546,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="n">
-        <v>195.990631</v>
+        <v>195.990616</v>
       </c>
       <c r="C13" t="n">
         <v>191.435547</v>
@@ -3560,7 +3560,7 @@
         <v>191.452713</v>
       </c>
       <c r="C14" t="n">
-        <v>191.588196</v>
+        <v>191.588181</v>
       </c>
     </row>
     <row r="15">
@@ -3582,7 +3582,7 @@
         <v>193.330475</v>
       </c>
       <c r="C16" t="n">
-        <v>193.114792</v>
+        <v>193.114807</v>
       </c>
     </row>
     <row r="17">
@@ -3590,7 +3590,7 @@
         <v>18</v>
       </c>
       <c r="B17" t="n">
-        <v>192.078629</v>
+        <v>192.078644</v>
       </c>
       <c r="C17" t="n">
         <v>191.435547</v>
@@ -3601,7 +3601,7 @@
         <v>19</v>
       </c>
       <c r="B18" t="n">
-        <v>192.078629</v>
+        <v>192.078644</v>
       </c>
       <c r="C18" t="n">
         <v>190.214249</v>
@@ -3612,7 +3612,7 @@
         <v>20</v>
       </c>
       <c r="B19" t="n">
-        <v>186.680099</v>
+        <v>186.680084</v>
       </c>
       <c r="C19" t="n">
         <v>185.63446</v>
@@ -3626,7 +3626,7 @@
         <v>189.966171</v>
       </c>
       <c r="C20" t="n">
-        <v>187.466385</v>
+        <v>187.46637</v>
       </c>
     </row>
     <row r="21">
@@ -3648,7 +3648,7 @@
         <v>189.966171</v>
       </c>
       <c r="C22" t="n">
-        <v>185.787109</v>
+        <v>185.787125</v>
       </c>
     </row>
     <row r="23">
@@ -3656,10 +3656,10 @@
         <v>24</v>
       </c>
       <c r="B23" t="n">
-        <v>190.513855</v>
+        <v>190.51384</v>
       </c>
       <c r="C23" t="n">
-        <v>187.008408</v>
+        <v>187.008392</v>
       </c>
     </row>
     <row r="24">
@@ -3670,7 +3670,7 @@
         <v>189.418488</v>
       </c>
       <c r="C24" t="n">
-        <v>187.466385</v>
+        <v>187.46637</v>
       </c>
     </row>
     <row r="25">
@@ -3681,7 +3681,7 @@
         <v>191.609207</v>
       </c>
       <c r="C25" t="n">
-        <v>187.619049</v>
+        <v>187.619034</v>
       </c>
     </row>
     <row r="26">
@@ -3703,7 +3703,7 @@
         <v>186.758331</v>
       </c>
       <c r="C27" t="n">
-        <v>183.9552</v>
+        <v>183.955215</v>
       </c>
     </row>
     <row r="28">
@@ -3714,7 +3714,7 @@
         <v>189.262009</v>
       </c>
       <c r="C28" t="n">
-        <v>188.687668</v>
+        <v>188.687653</v>
       </c>
     </row>
     <row r="29">
@@ -3725,7 +3725,7 @@
         <v>188.557846</v>
       </c>
       <c r="C29" t="n">
-        <v>187.161041</v>
+        <v>187.161057</v>
       </c>
     </row>
     <row r="30">
@@ -3736,7 +3736,7 @@
         <v>188.244888</v>
       </c>
       <c r="C30" t="n">
-        <v>185.787109</v>
+        <v>185.787125</v>
       </c>
     </row>
     <row r="31">
@@ -3747,7 +3747,7 @@
         <v>189.966171</v>
       </c>
       <c r="C31" t="n">
-        <v>188.687668</v>
+        <v>188.687653</v>
       </c>
     </row>
     <row r="32">
@@ -3788,7 +3788,7 @@
         <v>36</v>
       </c>
       <c r="B35" t="n">
-        <v>194.660568</v>
+        <v>194.660553</v>
       </c>
       <c r="C35" t="n">
         <v>196.625992</v>
@@ -3802,7 +3802,7 @@
         <v>194.895279</v>
       </c>
       <c r="C36" t="n">
-        <v>196.167984</v>
+        <v>196.167999</v>
       </c>
     </row>
     <row r="37">
@@ -3810,7 +3810,7 @@
         <v>38</v>
       </c>
       <c r="B37" t="n">
-        <v>191.687439</v>
+        <v>191.687424</v>
       </c>
       <c r="C37" t="n">
         <v>185.481796</v>
@@ -3832,7 +3832,7 @@
         <v>40</v>
       </c>
       <c r="B39" t="n">
-        <v>193.252243</v>
+        <v>193.252228</v>
       </c>
       <c r="C39" t="n">
         <v>180.444031</v>
@@ -3857,7 +3857,7 @@
         <v>195.677689</v>
       </c>
       <c r="C41" t="n">
-        <v>183.802551</v>
+        <v>183.802536</v>
       </c>
     </row>
     <row r="42">
@@ -3865,10 +3865,10 @@
         <v>43</v>
       </c>
       <c r="B42" t="n">
-        <v>189.731445</v>
+        <v>189.731461</v>
       </c>
       <c r="C42" t="n">
-        <v>183.19191</v>
+        <v>183.191895</v>
       </c>
     </row>
     <row r="43">
@@ -3876,7 +3876,7 @@
         <v>44</v>
       </c>
       <c r="B43" t="n">
-        <v>192.626328</v>
+        <v>192.626312</v>
       </c>
       <c r="C43" t="n">
         <v>182.733917</v>
@@ -3898,10 +3898,10 @@
         <v>46</v>
       </c>
       <c r="B45" t="n">
-        <v>189.731445</v>
+        <v>189.731461</v>
       </c>
       <c r="C45" t="n">
-        <v>177.696167</v>
+        <v>177.696136</v>
       </c>
     </row>
     <row r="46">
@@ -3909,7 +3909,7 @@
         <v>47</v>
       </c>
       <c r="B46" t="n">
-        <v>190.044388</v>
+        <v>190.044403</v>
       </c>
       <c r="C46" t="n">
         <v>179.833389</v>
@@ -3953,7 +3953,7 @@
         <v>51</v>
       </c>
       <c r="B50" t="n">
-        <v>192.626328</v>
+        <v>192.626312</v>
       </c>
       <c r="C50" t="n">
         <v>180.902008</v>
@@ -3964,10 +3964,10 @@
         <v>52</v>
       </c>
       <c r="B51" t="n">
-        <v>193.095749</v>
+        <v>193.095764</v>
       </c>
       <c r="C51" t="n">
-        <v>180.291336</v>
+        <v>180.291351</v>
       </c>
     </row>
     <row r="52">
@@ -3989,7 +3989,7 @@
         <v>190.983292</v>
       </c>
       <c r="C53" t="n">
-        <v>180.138702</v>
+        <v>180.138687</v>
       </c>
     </row>
     <row r="54">
@@ -4088,7 +4088,7 @@
         <v>183.474533</v>
       </c>
       <c r="C62" t="n">
-        <v>179.58551</v>
+        <v>179.585526</v>
       </c>
     </row>
     <row r="63">
@@ -4110,7 +4110,7 @@
         <v>183.148224</v>
       </c>
       <c r="C64" t="n">
-        <v>178.46312</v>
+        <v>178.463104</v>
       </c>
     </row>
     <row r="65">
@@ -4187,7 +4187,7 @@
         <v>180.619202</v>
       </c>
       <c r="C71" t="n">
-        <v>184.395859</v>
+        <v>184.395828</v>
       </c>
     </row>
     <row r="72">
@@ -4198,7 +4198,7 @@
         <v>180.211319</v>
       </c>
       <c r="C72" t="n">
-        <v>182.311386</v>
+        <v>182.311371</v>
       </c>
     </row>
     <row r="73">
@@ -4275,7 +4275,7 @@
         <v>184.127182</v>
       </c>
       <c r="C79" t="n">
-        <v>194.657867</v>
+        <v>194.657883</v>
       </c>
     </row>
     <row r="80">
@@ -4286,7 +4286,7 @@
         <v>178.498123</v>
       </c>
       <c r="C80" t="n">
-        <v>187.602722</v>
+        <v>187.602737</v>
       </c>
     </row>
     <row r="81">
@@ -4363,7 +4363,7 @@
         <v>175.316498</v>
       </c>
       <c r="C87" t="n">
-        <v>184.235504</v>
+        <v>184.235519</v>
       </c>
     </row>
     <row r="88">
@@ -4396,7 +4396,7 @@
         <v>174.990173</v>
       </c>
       <c r="C90" t="n">
-        <v>186.640671</v>
+        <v>186.640656</v>
       </c>
     </row>
     <row r="91">
@@ -4429,7 +4429,7 @@
         <v>176.540192</v>
       </c>
       <c r="C93" t="n">
-        <v>185.197571</v>
+        <v>185.197556</v>
       </c>
     </row>
     <row r="94">
@@ -4495,7 +4495,7 @@
         <v>173.113815</v>
       </c>
       <c r="C99" t="n">
-        <v>181.028625</v>
+        <v>181.02861</v>
       </c>
     </row>
     <row r="100">
@@ -4506,7 +4506,7 @@
         <v>168.953232</v>
       </c>
       <c r="C100" t="n">
-        <v>174.935547</v>
+        <v>174.935532</v>
       </c>
     </row>
     <row r="101">
@@ -4528,7 +4528,7 @@
         <v>172.461166</v>
       </c>
       <c r="C102" t="n">
-        <v>173.171753</v>
+        <v>173.171738</v>
       </c>
     </row>
     <row r="103">
@@ -4594,7 +4594,7 @@
         <v>177.84549</v>
       </c>
       <c r="C108" t="n">
-        <v>177.02002</v>
+        <v>177.020004</v>
       </c>
     </row>
     <row r="109">
@@ -4627,7 +4627,7 @@
         <v>178.742874</v>
       </c>
       <c r="C111" t="n">
-        <v>178.623444</v>
+        <v>178.623459</v>
       </c>
     </row>
     <row r="112">
@@ -4638,7 +4638,7 @@
         <v>177.682327</v>
       </c>
       <c r="C112" t="n">
-        <v>177.821747</v>
+        <v>177.821732</v>
       </c>
     </row>
     <row r="113">
@@ -4649,7 +4649,7 @@
         <v>173.929626</v>
       </c>
       <c r="C113" t="n">
-        <v>175.897614</v>
+        <v>175.897598</v>
       </c>
     </row>
     <row r="114">
@@ -4682,7 +4682,7 @@
         <v>167.811081</v>
       </c>
       <c r="C116" t="n">
-        <v>173.171753</v>
+        <v>173.171738</v>
       </c>
     </row>
     <row r="117">
@@ -4693,7 +4693,7 @@
         <v>168.626892</v>
       </c>
       <c r="C117" t="n">
-        <v>174.294159</v>
+        <v>174.294144</v>
       </c>
     </row>
     <row r="118">
@@ -4704,7 +4704,7 @@
         <v>166.0979</v>
       </c>
       <c r="C118" t="n">
-        <v>174.294159</v>
+        <v>174.294144</v>
       </c>
     </row>
     <row r="119">
@@ -4726,7 +4726,7 @@
         <v>162.018875</v>
       </c>
       <c r="C120" t="n">
-        <v>173.652786</v>
+        <v>173.652771</v>
       </c>
     </row>
     <row r="121">
@@ -4737,7 +4737,7 @@
         <v>162.018875</v>
       </c>
       <c r="C121" t="n">
-        <v>174.454529</v>
+        <v>174.454514</v>
       </c>
     </row>
     <row r="122">
@@ -4748,7 +4748,7 @@
         <v>162.957047</v>
       </c>
       <c r="C122" t="n">
-        <v>175.897614</v>
+        <v>175.897598</v>
       </c>
     </row>
     <row r="123">
@@ -4803,7 +4803,7 @@
         <v>155.533218</v>
       </c>
       <c r="C127" t="n">
-        <v>177.661407</v>
+        <v>177.661392</v>
       </c>
     </row>
     <row r="128">
@@ -4814,7 +4814,7 @@
         <v>157.001663</v>
       </c>
       <c r="C128" t="n">
-        <v>180.226883</v>
+        <v>180.226898</v>
       </c>
     </row>
     <row r="129">
@@ -4825,7 +4825,7 @@
         <v>158.102997</v>
       </c>
       <c r="C129" t="n">
-        <v>182.151016</v>
+        <v>182.151031</v>
       </c>
     </row>
     <row r="130">
@@ -4836,7 +4836,7 @@
         <v>158.225388</v>
       </c>
       <c r="C130" t="n">
-        <v>182.151016</v>
+        <v>182.151031</v>
       </c>
     </row>
     <row r="131">
@@ -4858,7 +4858,7 @@
         <v>158.225388</v>
       </c>
       <c r="C132" t="n">
-        <v>182.151016</v>
+        <v>182.151031</v>
       </c>
     </row>
     <row r="133">
@@ -4880,7 +4880,7 @@
         <v>159.163559</v>
       </c>
       <c r="C134" t="n">
-        <v>180.707932</v>
+        <v>180.707916</v>
       </c>
     </row>
     <row r="135">
@@ -4891,7 +4891,7 @@
         <v>144.642227</v>
       </c>
       <c r="C135" t="n">
-        <v>177.661407</v>
+        <v>177.661392</v>
       </c>
     </row>
     <row r="136">
@@ -5012,7 +5012,7 @@
         <v>146.029083</v>
       </c>
       <c r="C146" t="n">
-        <v>184.395859</v>
+        <v>184.395828</v>
       </c>
     </row>
     <row r="147">
@@ -5111,7 +5111,7 @@
         <v>145.906738</v>
       </c>
       <c r="C155" t="n">
-        <v>173.171753</v>
+        <v>173.171738</v>
       </c>
     </row>
     <row r="156">
@@ -5155,7 +5155,7 @@
         <v>150.719955</v>
       </c>
       <c r="C159" t="n">
-        <v>177.661407</v>
+        <v>177.661392</v>
       </c>
     </row>
     <row r="160">
@@ -5166,7 +5166,7 @@
         <v>153.616074</v>
       </c>
       <c r="C160" t="n">
-        <v>176.057953</v>
+        <v>176.057968</v>
       </c>
     </row>
     <row r="161">
@@ -5177,7 +5177,7 @@
         <v>151.94368</v>
       </c>
       <c r="C161" t="n">
-        <v>175.897614</v>
+        <v>175.897598</v>
       </c>
     </row>
     <row r="162">
@@ -5221,7 +5221,7 @@
         <v>157.001663</v>
       </c>
       <c r="C165" t="n">
-        <v>153.770111</v>
+        <v>153.770096</v>
       </c>
     </row>
     <row r="166">
@@ -5243,7 +5243,7 @@
         <v>154.146347</v>
       </c>
       <c r="C167" t="n">
-        <v>150.723572</v>
+        <v>150.723557</v>
       </c>
     </row>
     <row r="168">
@@ -5254,7 +5254,7 @@
         <v>154.309509</v>
       </c>
       <c r="C168" t="n">
-        <v>149.120102</v>
+        <v>149.120117</v>
       </c>
     </row>
     <row r="169">
@@ -5265,7 +5265,7 @@
         <v>144.764587</v>
       </c>
       <c r="C169" t="n">
-        <v>148.39856</v>
+        <v>148.398575</v>
       </c>
     </row>
     <row r="170">
@@ -5276,7 +5276,7 @@
         <v>148.272552</v>
       </c>
       <c r="C170" t="n">
-        <v>147.917526</v>
+        <v>147.917542</v>
       </c>
     </row>
     <row r="171">
@@ -5298,7 +5298,7 @@
         <v>144.397476</v>
       </c>
       <c r="C172" t="n">
-        <v>148.799454</v>
+        <v>148.799438</v>
       </c>
     </row>
     <row r="173">
@@ -5309,7 +5309,7 @@
         <v>140.155304</v>
       </c>
       <c r="C173" t="n">
-        <v>148.799454</v>
+        <v>148.799438</v>
       </c>
     </row>
     <row r="174">
@@ -5320,7 +5320,7 @@
         <v>139.217117</v>
       </c>
       <c r="C174" t="n">
-        <v>147.837357</v>
+        <v>147.837341</v>
       </c>
     </row>
     <row r="175">
@@ -5331,7 +5331,7 @@
         <v>137.096039</v>
       </c>
       <c r="C175" t="n">
-        <v>148.39856</v>
+        <v>148.398575</v>
       </c>
     </row>
     <row r="176">
@@ -5353,7 +5353,7 @@
         <v>138.646057</v>
       </c>
       <c r="C177" t="n">
-        <v>147.917526</v>
+        <v>147.917542</v>
       </c>
     </row>
     <row r="178">
@@ -5375,7 +5375,7 @@
         <v>142.643509</v>
       </c>
       <c r="C179" t="n">
-        <v>148.39856</v>
+        <v>148.398575</v>
       </c>
     </row>
     <row r="180">
@@ -5386,7 +5386,7 @@
         <v>137.871048</v>
       </c>
       <c r="C180" t="n">
-        <v>149.921844</v>
+        <v>149.92186</v>
       </c>
     </row>
     <row r="181">
@@ -5419,7 +5419,7 @@
         <v>135.709167</v>
       </c>
       <c r="C183" t="n">
-        <v>151.364944</v>
+        <v>151.364929</v>
       </c>
     </row>
     <row r="184">
@@ -5452,7 +5452,7 @@
         <v>138.768448</v>
       </c>
       <c r="C186" t="n">
-        <v>151.364944</v>
+        <v>151.364929</v>
       </c>
     </row>
     <row r="187">
@@ -5463,7 +5463,7 @@
         <v>137.626297</v>
       </c>
       <c r="C187" t="n">
-        <v>151.525284</v>
+        <v>151.525299</v>
       </c>
     </row>
     <row r="188">
@@ -5474,7 +5474,7 @@
         <v>138.238159</v>
       </c>
       <c r="C188" t="n">
-        <v>152.647675</v>
+        <v>152.64769</v>
       </c>
     </row>
     <row r="189">
@@ -5529,7 +5529,7 @@
         <v>116.945656</v>
       </c>
       <c r="C193" t="n">
-        <v>146.795135</v>
+        <v>146.79512</v>
       </c>
     </row>
     <row r="194">
@@ -5540,7 +5540,7 @@
         <v>115.925896</v>
       </c>
       <c r="C194" t="n">
-        <v>141.824448</v>
+        <v>141.824463</v>
       </c>
     </row>
     <row r="195">
@@ -5639,7 +5639,7 @@
         <v>106.421753</v>
       </c>
       <c r="C203" t="n">
-        <v>139.820129</v>
+        <v>139.820145</v>
       </c>
     </row>
     <row r="204">
@@ -5705,7 +5705,7 @@
         <v>103.280914</v>
       </c>
       <c r="C209" t="n">
-        <v>139.900345</v>
+        <v>139.90033</v>
       </c>
     </row>
     <row r="210">
@@ -5716,7 +5716,7 @@
         <v>103.076958</v>
       </c>
       <c r="C210" t="n">
-        <v>122.102127</v>
+        <v>122.102112</v>
       </c>
     </row>
     <row r="211">
@@ -5727,7 +5727,7 @@
         <v>108.134949</v>
       </c>
       <c r="C211" t="n">
-        <v>123.625389</v>
+        <v>123.625374</v>
       </c>
     </row>
     <row r="212">
@@ -5738,7 +5738,7 @@
         <v>111.765289</v>
       </c>
       <c r="C212" t="n">
-        <v>127.874519</v>
+        <v>127.874504</v>
       </c>
     </row>
     <row r="213">
@@ -5771,7 +5771,7 @@
         <v>117.516701</v>
       </c>
       <c r="C215" t="n">
-        <v>132.52449</v>
+        <v>132.524475</v>
       </c>
     </row>
     <row r="216">
@@ -5826,7 +5826,7 @@
         <v>117.598282</v>
       </c>
       <c r="C220" t="n">
-        <v>129.237442</v>
+        <v>129.237427</v>
       </c>
     </row>
     <row r="221">
@@ -5837,7 +5837,7 @@
         <v>113.519257</v>
       </c>
       <c r="C221" t="n">
-        <v>127.874519</v>
+        <v>127.874504</v>
       </c>
     </row>
     <row r="222">
@@ -5881,7 +5881,7 @@
         <v>107.441513</v>
       </c>
       <c r="C225" t="n">
-        <v>127.874519</v>
+        <v>127.874504</v>
       </c>
     </row>
     <row r="226">
@@ -5892,7 +5892,7 @@
         <v>108.461273</v>
       </c>
       <c r="C226" t="n">
-        <v>127.874519</v>
+        <v>127.874504</v>
       </c>
     </row>
     <row r="227">
@@ -5936,7 +5936,7 @@
         <v>110.949478</v>
       </c>
       <c r="C230" t="n">
-        <v>129.63829</v>
+        <v>129.638306</v>
       </c>
     </row>
     <row r="231">
@@ -5969,7 +5969,7 @@
         <v>108.706009</v>
       </c>
       <c r="C233" t="n">
-        <v>126.671936</v>
+        <v>126.671928</v>
       </c>
     </row>
     <row r="234">
@@ -6002,7 +6002,7 @@
         <v>111.316582</v>
       </c>
       <c r="C236" t="n">
-        <v>126.992592</v>
+        <v>126.992607</v>
       </c>
     </row>
     <row r="237">
@@ -6013,7 +6013,7 @@
         <v>116.007462</v>
       </c>
       <c r="C237" t="n">
-        <v>129.558136</v>
+        <v>129.558121</v>
       </c>
     </row>
     <row r="238">
@@ -6035,7 +6035,7 @@
         <v>114.2127</v>
       </c>
       <c r="C239" t="n">
-        <v>129.558136</v>
+        <v>129.558121</v>
       </c>
     </row>
     <row r="240">
@@ -6057,7 +6057,7 @@
         <v>113.396889</v>
       </c>
       <c r="C241" t="n">
-        <v>128.676224</v>
+        <v>128.676239</v>
       </c>
     </row>
     <row r="242">
@@ -6068,7 +6068,7 @@
         <v>112.62188</v>
       </c>
       <c r="C242" t="n">
-        <v>128.034851</v>
+        <v>128.034866</v>
       </c>
     </row>
     <row r="243">
@@ -6101,7 +6101,7 @@
         <v>109.725769</v>
       </c>
       <c r="C245" t="n">
-        <v>121.781425</v>
+        <v>121.781418</v>
       </c>
     </row>
     <row r="246">
@@ -6112,7 +6112,7 @@
         <v>105.442795</v>
       </c>
       <c r="C246" t="n">
-        <v>117.772827</v>
+        <v>117.77282</v>
       </c>
     </row>
     <row r="247">
@@ -6123,7 +6123,7 @@
         <v>104.626991</v>
       </c>
       <c r="C247" t="n">
-        <v>120.258163</v>
+        <v>120.258156</v>
       </c>
     </row>
     <row r="248">
@@ -6145,7 +6145,7 @@
         <v>105.157249</v>
       </c>
       <c r="C249" t="n">
-        <v>124.346947</v>
+        <v>124.346931</v>
       </c>
     </row>
     <row r="250">
@@ -6156,7 +6156,7 @@
         <v>104.994102</v>
       </c>
       <c r="C250" t="n">
-        <v>126.271049</v>
+        <v>126.271065</v>
       </c>
     </row>
     <row r="251">
@@ -6167,7 +6167,7 @@
         <v>104.749352</v>
       </c>
       <c r="C251" t="n">
-        <v>123.865921</v>
+        <v>123.865906</v>
       </c>
     </row>
     <row r="252">
@@ -6178,7 +6178,7 @@
         <v>109.195503</v>
       </c>
       <c r="C252" t="n">
-        <v>127.313301</v>
+        <v>127.313293</v>
       </c>
     </row>
     <row r="253">
@@ -6200,7 +6200,7 @@
         <v>108.3797</v>
       </c>
       <c r="C254" t="n">
-        <v>126.832268</v>
+        <v>126.832283</v>
       </c>
     </row>
     <row r="255">
@@ -6266,7 +6266,7 @@
         <v>105.034889</v>
       </c>
       <c r="C260" t="n">
-        <v>126.271049</v>
+        <v>126.271065</v>
       </c>
     </row>
     <row r="261">
@@ -6310,7 +6310,7 @@
         <v>102.791428</v>
       </c>
       <c r="C264" t="n">
-        <v>125.709877</v>
+        <v>125.709862</v>
       </c>
     </row>
     <row r="265">
@@ -6332,7 +6332,7 @@
         <v>99.976898</v>
       </c>
       <c r="C266" t="n">
-        <v>126.110725</v>
+        <v>126.110741</v>
       </c>
     </row>
     <row r="267">
@@ -6343,7 +6343,7 @@
         <v>102.138779</v>
       </c>
       <c r="C267" t="n">
-        <v>126.832268</v>
+        <v>126.832283</v>
       </c>
     </row>
     <row r="268">
@@ -6354,7 +6354,7 @@
         <v>99.936104</v>
       </c>
       <c r="C268" t="n">
-        <v>123.625389</v>
+        <v>123.625374</v>
       </c>
     </row>
     <row r="269">
@@ -6365,7 +6365,7 @@
         <v>99.85453</v>
       </c>
       <c r="C269" t="n">
-        <v>123.465034</v>
+        <v>123.465057</v>
       </c>
     </row>
     <row r="270">
@@ -6387,7 +6387,7 @@
         <v>98.304497</v>
       </c>
       <c r="C271" t="n">
-        <v>120.739204</v>
+        <v>120.739189</v>
       </c>
     </row>
     <row r="272">
@@ -6398,7 +6398,7 @@
         <v>103.444077</v>
       </c>
       <c r="C272" t="n">
-        <v>121.781425</v>
+        <v>121.781418</v>
       </c>
     </row>
     <row r="273">
@@ -6409,7 +6409,7 @@
         <v>101.078239</v>
       </c>
       <c r="C273" t="n">
-        <v>122.262451</v>
+        <v>122.262466</v>
       </c>
     </row>
     <row r="274">
@@ -6420,7 +6420,7 @@
         <v>103.199333</v>
       </c>
       <c r="C274" t="n">
-        <v>122.102127</v>
+        <v>122.102112</v>
       </c>
     </row>
     <row r="275">
@@ -6431,7 +6431,7 @@
         <v>102.669052</v>
       </c>
       <c r="C275" t="n">
-        <v>121.781425</v>
+        <v>121.781418</v>
       </c>
     </row>
     <row r="276">
@@ -6442,7 +6442,7 @@
         <v>101.975624</v>
       </c>
       <c r="C276" t="n">
-        <v>120.338341</v>
+        <v>120.338333</v>
       </c>
     </row>
     <row r="277">
@@ -6453,7 +6453,7 @@
         <v>97.896591</v>
       </c>
       <c r="C277" t="n">
-        <v>119.456436</v>
+        <v>119.456444</v>
       </c>
     </row>
     <row r="278">
@@ -6486,7 +6486,7 @@
         <v>100.180855</v>
       </c>
       <c r="C280" t="n">
-        <v>122.262451</v>
+        <v>122.262466</v>
       </c>
     </row>
     <row r="281">
@@ -6508,7 +6508,7 @@
         <v>101.486137</v>
       </c>
       <c r="C282" t="n">
-        <v>122.021935</v>
+        <v>122.02195</v>
       </c>
     </row>
     <row r="283">
@@ -6530,7 +6530,7 @@
         <v>102.873016</v>
       </c>
       <c r="C284" t="n">
-        <v>121.540909</v>
+        <v>121.540924</v>
       </c>
     </row>
     <row r="285">
@@ -6541,7 +6541,7 @@
         <v>103.117752</v>
       </c>
       <c r="C285" t="n">
-        <v>121.781425</v>
+        <v>121.781418</v>
       </c>
     </row>
     <row r="286">
@@ -6552,7 +6552,7 @@
         <v>98.712402</v>
       </c>
       <c r="C286" t="n">
-        <v>120.498688</v>
+        <v>120.498672</v>
       </c>
     </row>
     <row r="287">
@@ -6563,7 +6563,7 @@
         <v>98.467667</v>
       </c>
       <c r="C287" t="n">
-        <v>120.578835</v>
+        <v>120.57885</v>
       </c>
     </row>
     <row r="288">
@@ -6574,7 +6574,7 @@
         <v>102.301941</v>
       </c>
       <c r="C288" t="n">
-        <v>121.781425</v>
+        <v>121.781418</v>
       </c>
     </row>
     <row r="289">
@@ -6585,7 +6585,7 @@
         <v>102.220367</v>
       </c>
       <c r="C289" t="n">
-        <v>119.77713</v>
+        <v>119.777115</v>
       </c>
     </row>
     <row r="290">
@@ -6596,7 +6596,7 @@
         <v>106.054649</v>
       </c>
       <c r="C290" t="n">
-        <v>127.393478</v>
+        <v>127.393471</v>
       </c>
     </row>
     <row r="291">
@@ -6629,7 +6629,7 @@
         <v>105.687538</v>
       </c>
       <c r="C293" t="n">
-        <v>122.422821</v>
+        <v>122.422806</v>
       </c>
     </row>
     <row r="294">
@@ -6640,7 +6640,7 @@
         <v>104.83094</v>
       </c>
       <c r="C294" t="n">
-        <v>121.059883</v>
+        <v>121.059875</v>
       </c>
     </row>
     <row r="295">
@@ -6651,7 +6651,7 @@
         <v>105.442795</v>
       </c>
       <c r="C295" t="n">
-        <v>119.616776</v>
+        <v>119.616791</v>
       </c>
     </row>
     <row r="296">
@@ -6673,7 +6673,7 @@
         <v>103.036171</v>
       </c>
       <c r="C297" t="n">
-        <v>116.570236</v>
+        <v>116.570221</v>
       </c>
     </row>
     <row r="298">
@@ -6695,7 +6695,7 @@
         <v>104.463829</v>
       </c>
       <c r="C299" t="n">
-        <v>117.933174</v>
+        <v>117.933182</v>
       </c>
     </row>
     <row r="300">
@@ -6717,7 +6717,7 @@
         <v>107.971802</v>
       </c>
       <c r="C301" t="n">
-        <v>118.654716</v>
+        <v>118.654724</v>
       </c>
     </row>
     <row r="302">
@@ -6728,7 +6728,7 @@
         <v>108.706009</v>
       </c>
       <c r="C302" t="n">
-        <v>120.258163</v>
+        <v>120.258156</v>
       </c>
     </row>
     <row r="303">
@@ -6739,7 +6739,7 @@
         <v>109.481026</v>
       </c>
       <c r="C303" t="n">
-        <v>122.102127</v>
+        <v>122.102112</v>
       </c>
     </row>
     <row r="304">
@@ -6772,7 +6772,7 @@
         <v>108.000374</v>
       </c>
       <c r="C306" t="n">
-        <v>120.899529</v>
+        <v>120.899544</v>
       </c>
     </row>
     <row r="307">
@@ -6849,7 +6849,7 @@
         <v>106.066818</v>
       </c>
       <c r="C313" t="n">
-        <v>121.12178</v>
+        <v>121.121765</v>
       </c>
     </row>
     <row r="314">
@@ -6937,7 +6937,7 @@
         <v>108.13102</v>
       </c>
       <c r="C321" t="n">
-        <v>122.232979</v>
+        <v>122.232994</v>
       </c>
     </row>
     <row r="322">
@@ -6948,7 +6948,7 @@
         <v>110.613289</v>
       </c>
       <c r="C322" t="n">
-        <v>123.515144</v>
+        <v>123.51516</v>
       </c>
     </row>
     <row r="323">
@@ -6981,7 +6981,7 @@
         <v>112.268127</v>
       </c>
       <c r="C325" t="n">
-        <v>124.968269</v>
+        <v>124.968254</v>
       </c>
     </row>
     <row r="326">
@@ -6992,7 +6992,7 @@
         <v>110.87458</v>
       </c>
       <c r="C326" t="n">
-        <v>123.429657</v>
+        <v>123.429672</v>
       </c>
     </row>
     <row r="327">
@@ -7212,7 +7212,7 @@
         <v>96.764854</v>
       </c>
       <c r="C346" t="n">
-        <v>105.906761</v>
+        <v>105.906769</v>
       </c>
     </row>
     <row r="347">
@@ -7223,7 +7223,7 @@
         <v>96.28582</v>
       </c>
       <c r="C347" t="n">
-        <v>106.334145</v>
+        <v>106.334152</v>
       </c>
     </row>
     <row r="348">
@@ -7300,7 +7300,7 @@
         <v>94.674522</v>
       </c>
       <c r="C354" t="n">
-        <v>107.61631</v>
+        <v>107.616318</v>
       </c>
     </row>
     <row r="355">
@@ -7333,7 +7333,7 @@
         <v>96.939049</v>
       </c>
       <c r="C357" t="n">
-        <v>111.120888</v>
+        <v>111.120895</v>
       </c>
     </row>
     <row r="358">
@@ -7344,7 +7344,7 @@
         <v>97.374535</v>
       </c>
       <c r="C358" t="n">
-        <v>111.97567</v>
+        <v>111.975677</v>
       </c>
     </row>
     <row r="359">
@@ -7377,7 +7377,7 @@
         <v>90.929352</v>
       </c>
       <c r="C361" t="n">
-        <v>110.864464</v>
+        <v>110.864456</v>
       </c>
     </row>
     <row r="362">
@@ -7399,7 +7399,7 @@
         <v>90.189026</v>
       </c>
       <c r="C363" t="n">
-        <v>109.66777</v>
+        <v>109.667778</v>
       </c>
     </row>
     <row r="364">
@@ -7410,7 +7410,7 @@
         <v>90.493866</v>
       </c>
       <c r="C364" t="n">
-        <v>108.727524</v>
+        <v>108.727516</v>
       </c>
     </row>
     <row r="365">
@@ -7443,7 +7443,7 @@
         <v>87.750305</v>
       </c>
       <c r="C367" t="n">
-        <v>105.222946</v>
+        <v>105.222939</v>
       </c>
     </row>
     <row r="368">
@@ -7575,7 +7575,7 @@
         <v>90.232574</v>
       </c>
       <c r="C379" t="n">
-        <v>106.505104</v>
+        <v>106.505096</v>
       </c>
     </row>
     <row r="380">
@@ -7597,7 +7597,7 @@
         <v>91.495483</v>
       </c>
       <c r="C381" t="n">
-        <v>105.222946</v>
+        <v>105.222939</v>
       </c>
     </row>
     <row r="382">
@@ -7630,7 +7630,7 @@
         <v>89.274506</v>
       </c>
       <c r="C384" t="n">
-        <v>101.205498</v>
+        <v>101.20549</v>
       </c>
     </row>
     <row r="385">
@@ -7641,7 +7641,7 @@
         <v>88.53418</v>
       </c>
       <c r="C385" t="n">
-        <v>101.632889</v>
+        <v>101.632881</v>
       </c>
     </row>
     <row r="386">
@@ -7707,7 +7707,7 @@
         <v>87.044823</v>
       </c>
       <c r="C391" t="n">
-        <v>101.632889</v>
+        <v>101.632881</v>
       </c>
     </row>
     <row r="392">
@@ -7718,7 +7718,7 @@
         <v>87.314819</v>
       </c>
       <c r="C392" t="n">
-        <v>100.350716</v>
+        <v>100.350708</v>
       </c>
     </row>
     <row r="393">
@@ -7740,7 +7740,7 @@
         <v>85.564163</v>
       </c>
       <c r="C394" t="n">
-        <v>99.154037</v>
+        <v>99.15403</v>
       </c>
     </row>
     <row r="395">
@@ -7751,7 +7751,7 @@
         <v>84.066093</v>
       </c>
       <c r="C395" t="n">
-        <v>98.042816</v>
+        <v>98.042824</v>
       </c>
     </row>
     <row r="396">
@@ -7773,7 +7773,7 @@
         <v>83.508675</v>
       </c>
       <c r="C397" t="n">
-        <v>98.726646</v>
+        <v>98.726639</v>
       </c>
     </row>
     <row r="398">
@@ -7784,7 +7784,7 @@
         <v>83.857071</v>
       </c>
       <c r="C398" t="n">
-        <v>98.641167</v>
+        <v>98.641159</v>
       </c>
     </row>
     <row r="399">
@@ -7817,7 +7817,7 @@
         <v>81.505447</v>
       </c>
       <c r="C401" t="n">
-        <v>95.56398</v>
+        <v>95.563972</v>
       </c>
     </row>
     <row r="402">
@@ -7828,7 +7828,7 @@
         <v>77.516403</v>
       </c>
       <c r="C402" t="n">
-        <v>92.230347</v>
+        <v>92.230339</v>
       </c>
     </row>
     <row r="403">
@@ -7839,7 +7839,7 @@
         <v>76.749947</v>
       </c>
       <c r="C403" t="n">
-        <v>91.461037</v>
+        <v>91.461044</v>
       </c>
     </row>
     <row r="404">
@@ -7850,7 +7850,7 @@
         <v>79.362854</v>
       </c>
       <c r="C404" t="n">
-        <v>94.709198</v>
+        <v>94.70919</v>
       </c>
     </row>
     <row r="405">
@@ -7883,7 +7883,7 @@
         <v>77.516403</v>
       </c>
       <c r="C407" t="n">
-        <v>92.657738</v>
+        <v>92.65773</v>
       </c>
     </row>
     <row r="408">
@@ -8004,7 +8004,7 @@
         <v>78.875107</v>
       </c>
       <c r="C418" t="n">
-        <v>82.998764</v>
+        <v>82.998756</v>
       </c>
     </row>
     <row r="419">
@@ -8059,7 +8059,7 @@
         <v>88.011597</v>
       </c>
       <c r="C423" t="n">
-        <v>87.870979</v>
+        <v>87.870987</v>
       </c>
     </row>
     <row r="424">
@@ -8081,7 +8081,7 @@
         <v>88.22934</v>
       </c>
       <c r="C425" t="n">
-        <v>88.640282</v>
+        <v>88.640274</v>
       </c>
     </row>
     <row r="426">
@@ -8114,7 +8114,7 @@
         <v>84.414482</v>
       </c>
       <c r="C428" t="n">
-        <v>89.495064</v>
+        <v>89.495056</v>
       </c>
     </row>
     <row r="429">
@@ -8169,7 +8169,7 @@
         <v>82.289322</v>
       </c>
       <c r="C433" t="n">
-        <v>108.38562</v>
+        <v>108.385612</v>
       </c>
     </row>
     <row r="434">
@@ -8235,7 +8235,7 @@
         <v>79.989952</v>
       </c>
       <c r="C439" t="n">
-        <v>99.154037</v>
+        <v>99.15403</v>
       </c>
     </row>
     <row r="440">
@@ -8257,7 +8257,7 @@
         <v>80.059631</v>
       </c>
       <c r="C441" t="n">
-        <v>102.658615</v>
+        <v>102.658607</v>
       </c>
     </row>
     <row r="442">
@@ -8301,7 +8301,7 @@
         <v>83.595772</v>
       </c>
       <c r="C445" t="n">
-        <v>104.795555</v>
+        <v>104.795547</v>
       </c>
     </row>
     <row r="446">
@@ -8356,7 +8356,7 @@
         <v>85.877716</v>
       </c>
       <c r="C450" t="n">
-        <v>112.6595</v>
+        <v>112.659492</v>
       </c>
     </row>
     <row r="451">
@@ -8422,7 +8422,7 @@
         <v>84.867393</v>
       </c>
       <c r="C456" t="n">
-        <v>115.736687</v>
+        <v>115.736671</v>
       </c>
     </row>
     <row r="457">
@@ -8510,7 +8510,7 @@
         <v>83.369324</v>
       </c>
       <c r="C464" t="n">
-        <v>115.993118</v>
+        <v>115.993111</v>
       </c>
     </row>
     <row r="465">
@@ -8543,7 +8543,7 @@
         <v>80.442856</v>
       </c>
       <c r="C467" t="n">
-        <v>113.514275</v>
+        <v>113.514267</v>
       </c>
     </row>
     <row r="468">
@@ -8587,7 +8587,7 @@
         <v>79.362854</v>
       </c>
       <c r="C471" t="n">
-        <v>110.864464</v>
+        <v>110.864456</v>
       </c>
     </row>
     <row r="472">
@@ -8609,7 +8609,7 @@
         <v>78.735756</v>
       </c>
       <c r="C473" t="n">
-        <v>108.727524</v>
+        <v>108.727516</v>
       </c>
     </row>
     <row r="474">
@@ -8642,7 +8642,7 @@
         <v>79.275757</v>
       </c>
       <c r="C476" t="n">
-        <v>108.727524</v>
+        <v>108.727516</v>
       </c>
     </row>
     <row r="477">
@@ -8675,7 +8675,7 @@
         <v>79.746086</v>
       </c>
       <c r="C479" t="n">
-        <v>109.154915</v>
+        <v>109.154907</v>
       </c>
     </row>
     <row r="480">
@@ -8697,7 +8697,7 @@
         <v>79.223503</v>
       </c>
       <c r="C481" t="n">
-        <v>105.47937</v>
+        <v>105.479378</v>
       </c>
     </row>
     <row r="482">
@@ -8752,7 +8752,7 @@
         <v>84.170616</v>
       </c>
       <c r="C486" t="n">
-        <v>113.343315</v>
+        <v>113.343323</v>
       </c>
     </row>
     <row r="487">
@@ -8774,7 +8774,7 @@
         <v>87.271271</v>
       </c>
       <c r="C488" t="n">
-        <v>113.94165</v>
+        <v>113.941658</v>
       </c>
     </row>
     <row r="489">
@@ -8796,7 +8796,7 @@
         <v>92.671295</v>
       </c>
       <c r="C490" t="n">
-        <v>112.488548</v>
+        <v>112.488541</v>
       </c>
     </row>
     <row r="491">
@@ -8851,7 +8851,7 @@
         <v>93.193871</v>
       </c>
       <c r="C495" t="n">
-        <v>118.899353</v>
+        <v>118.899368</v>
       </c>
     </row>
     <row r="496">
@@ -8873,7 +8873,7 @@
         <v>93.890648</v>
       </c>
       <c r="C497" t="n">
-        <v>119.497704</v>
+        <v>119.497711</v>
       </c>
     </row>
     <row r="498">
@@ -8917,7 +8917,7 @@
         <v>93.847099</v>
       </c>
       <c r="C501" t="n">
-        <v>120.694389</v>
+        <v>120.694374</v>
       </c>
     </row>
     <row r="502">
@@ -8972,7 +8972,7 @@
         <v>94.06485</v>
       </c>
       <c r="C506" t="n">
-        <v>123.686104</v>
+        <v>123.686089</v>
       </c>
     </row>
     <row r="507">
@@ -8994,7 +8994,7 @@
         <v>94.674522</v>
       </c>
       <c r="C508" t="n">
-        <v>123.600639</v>
+        <v>123.600624</v>
       </c>
     </row>
     <row r="509">
@@ -9016,7 +9016,7 @@
         <v>95.632591</v>
       </c>
       <c r="C510" t="n">
-        <v>127.361641</v>
+        <v>127.361649</v>
       </c>
     </row>
     <row r="511">
@@ -9038,7 +9038,7 @@
         <v>96.721306</v>
       </c>
       <c r="C512" t="n">
-        <v>127.703552</v>
+        <v>127.703537</v>
       </c>
     </row>
     <row r="513">
@@ -9049,7 +9049,7 @@
         <v>94.848717</v>
       </c>
       <c r="C513" t="n">
-        <v>126.93425</v>
+        <v>126.934265</v>
       </c>
     </row>
     <row r="514">
@@ -9071,7 +9071,7 @@
         <v>92.453545</v>
       </c>
       <c r="C515" t="n">
-        <v>123.087761</v>
+        <v>123.087769</v>
       </c>
     </row>
     <row r="516">
@@ -9104,7 +9104,7 @@
         <v>94.674522</v>
       </c>
       <c r="C518" t="n">
-        <v>124.198982</v>
+        <v>124.198967</v>
       </c>
     </row>
     <row r="519">
@@ -9115,7 +9115,7 @@
         <v>98.332603</v>
       </c>
       <c r="C519" t="n">
-        <v>125.481125</v>
+        <v>125.48114</v>
       </c>
     </row>
     <row r="520">
@@ -9192,7 +9192,7 @@
         <v>105.822952</v>
       </c>
       <c r="C526" t="n">
-        <v>133.516022</v>
+        <v>133.516037</v>
       </c>
     </row>
     <row r="527">
@@ -9236,7 +9236,7 @@
         <v>104.951973</v>
       </c>
       <c r="C530" t="n">
-        <v>135.909409</v>
+        <v>135.909393</v>
       </c>
     </row>
     <row r="531">
@@ -9269,7 +9269,7 @@
         <v>106.476181</v>
       </c>
       <c r="C533" t="n">
-        <v>138.473724</v>
+        <v>138.47374</v>
       </c>
     </row>
     <row r="534">
@@ -9302,7 +9302,7 @@
         <v>99.116478</v>
       </c>
       <c r="C536" t="n">
-        <v>130.951691</v>
+        <v>130.951706</v>
       </c>
     </row>
     <row r="537">
@@ -9368,7 +9368,7 @@
         <v>93.237427</v>
       </c>
       <c r="C542" t="n">
-        <v>106.505104</v>
+        <v>106.505096</v>
       </c>
     </row>
     <row r="543">
@@ -9379,7 +9379,7 @@
         <v>91.147095</v>
       </c>
       <c r="C543" t="n">
-        <v>104.795555</v>
+        <v>104.795547</v>
       </c>
     </row>
     <row r="544">
@@ -9423,7 +9423,7 @@
         <v>74.48542</v>
       </c>
       <c r="C547" t="n">
-        <v>92.486763</v>
+        <v>92.486771</v>
       </c>
     </row>
     <row r="548">
@@ -9434,7 +9434,7 @@
         <v>67.726685</v>
       </c>
       <c r="C548" t="n">
-        <v>82.272202</v>
+        <v>82.272194</v>
       </c>
     </row>
     <row r="549">
@@ -9445,7 +9445,7 @@
         <v>67.761528</v>
       </c>
       <c r="C549" t="n">
-        <v>83.682579</v>
+        <v>83.682587</v>
       </c>
     </row>
     <row r="550">
@@ -9467,7 +9467,7 @@
         <v>64.62603</v>
       </c>
       <c r="C551" t="n">
-        <v>80.220741</v>
+        <v>80.220734</v>
       </c>
     </row>
     <row r="552">
@@ -9478,7 +9478,7 @@
         <v>71.60997</v>
       </c>
       <c r="C552" t="n">
-        <v>77.399979</v>
+        <v>77.399986</v>
       </c>
     </row>
     <row r="553">
@@ -9577,7 +9577,7 @@
         <v>75.642952</v>
       </c>
       <c r="C561" t="n">
-        <v>91.515846</v>
+        <v>91.515839</v>
       </c>
     </row>
     <row r="562">
@@ -9610,7 +9610,7 @@
         <v>71.078796</v>
       </c>
       <c r="C564" t="n">
-        <v>88.706566</v>
+        <v>88.706573</v>
       </c>
     </row>
     <row r="565">
@@ -9621,7 +9621,7 @@
         <v>72.141136</v>
       </c>
       <c r="C565" t="n">
-        <v>88.37326</v>
+        <v>88.373268</v>
       </c>
     </row>
     <row r="566">
@@ -9687,7 +9687,7 @@
         <v>72.318199</v>
       </c>
       <c r="C571" t="n">
-        <v>89.373177</v>
+        <v>89.373169</v>
       </c>
     </row>
     <row r="572">
@@ -9698,7 +9698,7 @@
         <v>71.82637</v>
       </c>
       <c r="C572" t="n">
-        <v>90.992081</v>
+        <v>90.992088</v>
       </c>
     </row>
     <row r="573">
@@ -9731,7 +9731,7 @@
         <v>72.455917</v>
       </c>
       <c r="C575" t="n">
-        <v>91.230156</v>
+        <v>91.230164</v>
       </c>
     </row>
     <row r="576">
@@ -9742,7 +9742,7 @@
         <v>70.134491</v>
       </c>
       <c r="C576" t="n">
-        <v>89.706482</v>
+        <v>89.706474</v>
       </c>
     </row>
     <row r="577">
@@ -9786,7 +9786,7 @@
         <v>79.479202</v>
       </c>
       <c r="C580" t="n">
-        <v>107.895378</v>
+        <v>107.89537</v>
       </c>
     </row>
     <row r="581">
@@ -9830,7 +9830,7 @@
         <v>74.226486</v>
       </c>
       <c r="C584" t="n">
-        <v>95.086967</v>
+        <v>95.08696</v>
       </c>
     </row>
     <row r="585">
@@ -9852,7 +9852,7 @@
         <v>74.619949</v>
       </c>
       <c r="C586" t="n">
-        <v>100.086525</v>
+        <v>100.086533</v>
       </c>
     </row>
     <row r="587">
@@ -9863,7 +9863,7 @@
         <v>74.167473</v>
       </c>
       <c r="C587" t="n">
-        <v>101.134056</v>
+        <v>101.134048</v>
       </c>
     </row>
     <row r="588">
@@ -9896,7 +9896,7 @@
         <v>70.803375</v>
       </c>
       <c r="C590" t="n">
-        <v>99.991295</v>
+        <v>99.991302</v>
       </c>
     </row>
     <row r="591">
@@ -9918,7 +9918,7 @@
         <v>73.400223</v>
       </c>
       <c r="C592" t="n">
-        <v>100.657906</v>
+        <v>100.657898</v>
       </c>
     </row>
     <row r="593">
@@ -9929,7 +9929,7 @@
         <v>75.564255</v>
       </c>
       <c r="C593" t="n">
-        <v>102.46727</v>
+        <v>102.467278</v>
       </c>
     </row>
     <row r="594">
@@ -9973,7 +9973,7 @@
         <v>83.748253</v>
       </c>
       <c r="C597" t="n">
-        <v>111.799797</v>
+        <v>111.799789</v>
       </c>
     </row>
     <row r="598">
@@ -9995,7 +9995,7 @@
         <v>86.128693</v>
       </c>
       <c r="C599" t="n">
-        <v>116.656517</v>
+        <v>116.656509</v>
       </c>
     </row>
     <row r="600">
@@ -10017,7 +10017,7 @@
         <v>89.256706</v>
       </c>
       <c r="C601" t="n">
-        <v>123.89399</v>
+        <v>123.893982</v>
       </c>
     </row>
     <row r="602">
@@ -10072,7 +10072,7 @@
         <v>86.42379</v>
       </c>
       <c r="C606" t="n">
-        <v>117.704048</v>
+        <v>117.704041</v>
       </c>
     </row>
     <row r="607">
@@ -10094,7 +10094,7 @@
         <v>87.663193</v>
       </c>
       <c r="C608" t="n">
-        <v>120.751404</v>
+        <v>120.751396</v>
       </c>
     </row>
     <row r="609">
@@ -10160,7 +10160,7 @@
         <v>87.466461</v>
       </c>
       <c r="C614" t="n">
-        <v>117.704048</v>
+        <v>117.704041</v>
       </c>
     </row>
     <row r="615">
@@ -10204,7 +10204,7 @@
         <v>86.836922</v>
       </c>
       <c r="C618" t="n">
-        <v>117.132668</v>
+        <v>117.13266</v>
       </c>
     </row>
     <row r="619">
@@ -10325,7 +10325,7 @@
         <v>100.185097</v>
       </c>
       <c r="C629" t="n">
-        <v>124.465363</v>
+        <v>124.465355</v>
       </c>
     </row>
     <row r="630">
@@ -10336,7 +10336,7 @@
         <v>100.185097</v>
       </c>
       <c r="C630" t="n">
-        <v>125.512894</v>
+        <v>125.512886</v>
       </c>
     </row>
     <row r="631">
@@ -10358,7 +10358,7 @@
         <v>104.267265</v>
       </c>
       <c r="C632" t="n">
-        <v>125.036743</v>
+        <v>125.036736</v>
       </c>
     </row>
     <row r="633">
@@ -10391,7 +10391,7 @@
         <v>103.72625</v>
       </c>
       <c r="C635" t="n">
-        <v>125.322441</v>
+        <v>125.322433</v>
       </c>
     </row>
     <row r="636">
@@ -10402,7 +10402,7 @@
         <v>104.218079</v>
       </c>
       <c r="C636" t="n">
-        <v>124.941505</v>
+        <v>124.941498</v>
       </c>
     </row>
     <row r="637">
@@ -10413,7 +10413,7 @@
         <v>102.250771</v>
       </c>
       <c r="C637" t="n">
-        <v>122.655991</v>
+        <v>122.655998</v>
       </c>
     </row>
     <row r="638">
@@ -10468,7 +10468,7 @@
         <v>101.168755</v>
       </c>
       <c r="C642" t="n">
-        <v>115.894669</v>
+        <v>115.894676</v>
       </c>
     </row>
     <row r="643">
@@ -10479,7 +10479,7 @@
         <v>100.480202</v>
       </c>
       <c r="C643" t="n">
-        <v>116.751747</v>
+        <v>116.75174</v>
       </c>
     </row>
     <row r="644">
@@ -10490,7 +10490,7 @@
         <v>100.922836</v>
       </c>
       <c r="C644" t="n">
-        <v>115.989906</v>
+        <v>115.989914</v>
       </c>
     </row>
     <row r="645">
@@ -10501,7 +10501,7 @@
         <v>100.332649</v>
       </c>
       <c r="C645" t="n">
-        <v>115.418518</v>
+        <v>115.418526</v>
       </c>
     </row>
     <row r="646">
@@ -10567,7 +10567,7 @@
         <v>102.349144</v>
       </c>
       <c r="C651" t="n">
-        <v>113.609161</v>
+        <v>113.609169</v>
       </c>
     </row>
     <row r="652">
@@ -10611,7 +10611,7 @@
         <v>96.496399</v>
       </c>
       <c r="C655" t="n">
-        <v>110.466583</v>
+        <v>110.466576</v>
       </c>
     </row>
     <row r="656">
@@ -10622,7 +10622,7 @@
         <v>97.047249</v>
       </c>
       <c r="C656" t="n">
-        <v>109.799965</v>
+        <v>109.799973</v>
       </c>
     </row>
     <row r="657">
@@ -10655,7 +10655,7 @@
         <v>97.971878</v>
       </c>
       <c r="C659" t="n">
-        <v>107.22876</v>
+        <v>107.228767</v>
       </c>
     </row>
     <row r="660">
@@ -10666,7 +10666,7 @@
         <v>96.594765</v>
       </c>
       <c r="C660" t="n">
-        <v>106.847839</v>
+        <v>106.847847</v>
       </c>
     </row>
     <row r="661">
@@ -10699,7 +10699,7 @@
         <v>92.463425</v>
       </c>
       <c r="C663" t="n">
-        <v>95.705956</v>
+        <v>95.705963</v>
       </c>
     </row>
     <row r="664">
@@ -10754,7 +10754,7 @@
         <v>87.859924</v>
       </c>
       <c r="C668" t="n">
-        <v>96.467804</v>
+        <v>96.467796</v>
       </c>
     </row>
     <row r="669">
@@ -10765,7 +10765,7 @@
         <v>88.627174</v>
       </c>
       <c r="C669" t="n">
-        <v>98.181931</v>
+        <v>98.181938</v>
       </c>
     </row>
     <row r="670">
@@ -10776,7 +10776,7 @@
         <v>88.587822</v>
       </c>
       <c r="C670" t="n">
-        <v>99.705612</v>
+        <v>99.705605</v>
       </c>
     </row>
     <row r="671">
@@ -10787,7 +10787,7 @@
         <v>86.502487</v>
       </c>
       <c r="C671" t="n">
-        <v>99.610374</v>
+        <v>99.610382</v>
       </c>
     </row>
     <row r="672">
@@ -10809,7 +10809,7 @@
         <v>86.187714</v>
       </c>
       <c r="C673" t="n">
-        <v>99.134224</v>
+        <v>99.134232</v>
       </c>
     </row>
     <row r="674">
@@ -10820,7 +10820,7 @@
         <v>86.384445</v>
       </c>
       <c r="C674" t="n">
-        <v>97.89624</v>
+        <v>97.896248</v>
       </c>
     </row>
     <row r="675">
@@ -10842,7 +10842,7 @@
         <v>83.0597</v>
       </c>
       <c r="C676" t="n">
-        <v>96.372566</v>
+        <v>96.372559</v>
       </c>
     </row>
     <row r="677">
@@ -10853,7 +10853,7 @@
         <v>80.659584</v>
       </c>
       <c r="C677" t="n">
-        <v>94.372742</v>
+        <v>94.372734</v>
       </c>
     </row>
     <row r="678">
@@ -10875,7 +10875,7 @@
         <v>81.938332</v>
       </c>
       <c r="C679" t="n">
-        <v>93.563286</v>
+        <v>93.563293</v>
       </c>
     </row>
     <row r="680">
@@ -10930,7 +10930,7 @@
         <v>84.692558</v>
       </c>
       <c r="C684" t="n">
-        <v>94.848892</v>
+        <v>94.848885</v>
       </c>
     </row>
     <row r="685">
@@ -10952,7 +10952,7 @@
         <v>83.453156</v>
       </c>
       <c r="C686" t="n">
-        <v>103.133888</v>
+        <v>103.133881</v>
       </c>
     </row>
     <row r="687">
@@ -10963,7 +10963,7 @@
         <v>85.57785</v>
       </c>
       <c r="C687" t="n">
-        <v>103.133888</v>
+        <v>103.133881</v>
       </c>
     </row>
     <row r="688">
@@ -10996,7 +10996,7 @@
         <v>89.453445</v>
       </c>
       <c r="C690" t="n">
-        <v>103.990944</v>
+        <v>103.990952</v>
       </c>
     </row>
     <row r="691">
@@ -11073,7 +11073,7 @@
         <v>91.401077</v>
       </c>
       <c r="C697" t="n">
-        <v>103.990944</v>
+        <v>103.990952</v>
       </c>
     </row>
     <row r="698">
@@ -11161,7 +11161,7 @@
         <v>84.161385</v>
       </c>
       <c r="C705" t="n">
-        <v>102.37204</v>
+        <v>102.372047</v>
       </c>
     </row>
     <row r="706">
@@ -11205,7 +11205,7 @@
         <v>86.974632</v>
       </c>
       <c r="C709" t="n">
-        <v>111.799797</v>
+        <v>111.799789</v>
       </c>
     </row>
     <row r="710">
@@ -11227,7 +11227,7 @@
         <v>88.627174</v>
       </c>
       <c r="C711" t="n">
-        <v>109.514282</v>
+        <v>109.514275</v>
       </c>
     </row>
     <row r="712">
@@ -11293,7 +11293,7 @@
         <v>102.447502</v>
       </c>
       <c r="C717" t="n">
-        <v>124.274895</v>
+        <v>124.274902</v>
       </c>
     </row>
     <row r="718">
@@ -11304,7 +11304,7 @@
         <v>102.890144</v>
       </c>
       <c r="C718" t="n">
-        <v>126.274727</v>
+        <v>126.274734</v>
       </c>
     </row>
     <row r="719">
@@ -11359,7 +11359,7 @@
         <v>103.234421</v>
       </c>
       <c r="C723" t="n">
-        <v>124.751045</v>
+        <v>124.751053</v>
       </c>
     </row>
     <row r="724">
@@ -11381,7 +11381,7 @@
         <v>102.98851</v>
       </c>
       <c r="C725" t="n">
-        <v>124.751045</v>
+        <v>124.751053</v>
       </c>
     </row>
     <row r="726">
@@ -11425,7 +11425,7 @@
         <v>102.250771</v>
       </c>
       <c r="C729" t="n">
-        <v>124.751045</v>
+        <v>124.751053</v>
       </c>
     </row>
     <row r="730">
@@ -11447,7 +11447,7 @@
         <v>101.513031</v>
       </c>
       <c r="C731" t="n">
-        <v>124.274895</v>
+        <v>124.274902</v>
       </c>
     </row>
     <row r="732">
@@ -11546,7 +11546,7 @@
         <v>94.529091</v>
       </c>
       <c r="C740" t="n">
-        <v>121.608467</v>
+        <v>121.608459</v>
       </c>
     </row>
     <row r="741">
@@ -11579,7 +11579,7 @@
         <v>96.870193</v>
       </c>
       <c r="C743" t="n">
-        <v>124.941505</v>
+        <v>124.941498</v>
       </c>
     </row>
     <row r="744">
@@ -11590,7 +11590,7 @@
         <v>99.742462</v>
       </c>
       <c r="C744" t="n">
-        <v>125.989044</v>
+        <v>125.989037</v>
       </c>
     </row>
     <row r="745">
@@ -11623,7 +11623,7 @@
         <v>99.004723</v>
       </c>
       <c r="C747" t="n">
-        <v>128.084106</v>
+        <v>128.084091</v>
       </c>
     </row>
     <row r="748">
@@ -11656,7 +11656,7 @@
         <v>103.627884</v>
       </c>
       <c r="C750" t="n">
-        <v>128.941162</v>
+        <v>128.941147</v>
       </c>
     </row>
     <row r="751">
@@ -11667,7 +11667,7 @@
         <v>108.054329</v>
       </c>
       <c r="C751" t="n">
-        <v>132.369431</v>
+        <v>132.369446</v>
       </c>
     </row>
     <row r="752">
@@ -11854,7 +11854,7 @@
         <v>103.480339</v>
       </c>
       <c r="C768" t="n">
-        <v>121.608467</v>
+        <v>121.608459</v>
       </c>
     </row>
     <row r="769">
@@ -11865,7 +11865,7 @@
         <v>104.070534</v>
       </c>
       <c r="C769" t="n">
-        <v>123.89399</v>
+        <v>123.893982</v>
       </c>
     </row>
     <row r="770">
@@ -11942,7 +11942,7 @@
         <v>107.955963</v>
       </c>
       <c r="C776" t="n">
-        <v>126.750877</v>
+        <v>126.750885</v>
       </c>
     </row>
     <row r="777">
@@ -11986,7 +11986,7 @@
         <v>110.857735</v>
       </c>
       <c r="C780" t="n">
-        <v>132.369431</v>
+        <v>132.369446</v>
       </c>
     </row>
     <row r="781">
@@ -12019,7 +12019,7 @@
         <v>111.644661</v>
       </c>
       <c r="C783" t="n">
-        <v>132.940811</v>
+        <v>132.940826</v>
       </c>
     </row>
     <row r="784">
@@ -12030,7 +12030,7 @@
         <v>111.447937</v>
       </c>
       <c r="C784" t="n">
-        <v>134.178802</v>
+        <v>134.178787</v>
       </c>
     </row>
     <row r="785">
@@ -12041,7 +12041,7 @@
         <v>112.333221</v>
       </c>
       <c r="C785" t="n">
-        <v>134.940643</v>
+        <v>134.940628</v>
       </c>
     </row>
     <row r="786">
@@ -12052,7 +12052,7 @@
         <v>115.087448</v>
       </c>
       <c r="C786" t="n">
-        <v>135.226318</v>
+        <v>135.226334</v>
       </c>
     </row>
     <row r="787">
@@ -12074,7 +12074,7 @@
         <v>114.595627</v>
       </c>
       <c r="C788" t="n">
-        <v>136.65477</v>
+        <v>136.654785</v>
       </c>
     </row>
     <row r="789">
@@ -12096,7 +12096,7 @@
         <v>116.366203</v>
       </c>
       <c r="C790" t="n">
-        <v>153.319977</v>
+        <v>153.319992</v>
       </c>
     </row>
     <row r="791">
@@ -12107,7 +12107,7 @@
         <v>116.218651</v>
       </c>
       <c r="C791" t="n">
-        <v>152.367706</v>
+        <v>152.367691</v>
       </c>
     </row>
     <row r="792">
@@ -12118,7 +12118,7 @@
         <v>118.82534</v>
       </c>
       <c r="C792" t="n">
-        <v>151.1297</v>
+        <v>151.129715</v>
       </c>
     </row>
     <row r="793">
@@ -12173,7 +12173,7 @@
         <v>120.54673</v>
       </c>
       <c r="C797" t="n">
-        <v>154.938889</v>
+        <v>154.938904</v>
       </c>
     </row>
     <row r="798">
@@ -12184,7 +12184,7 @@
         <v>120.497543</v>
       </c>
       <c r="C798" t="n">
-        <v>154.272278</v>
+        <v>154.272293</v>
       </c>
     </row>
     <row r="799">
@@ -12195,7 +12195,7 @@
         <v>120.349998</v>
       </c>
       <c r="C799" t="n">
-        <v>155.415039</v>
+        <v>155.415054</v>
       </c>
     </row>
     <row r="800">
@@ -12250,7 +12250,7 @@
         <v>118.25</v>
       </c>
       <c r="C804" t="n">
-        <v>155.224579</v>
+        <v>155.224594</v>
       </c>
     </row>
     <row r="805">
@@ -12261,7 +12261,7 @@
         <v>119.300003</v>
       </c>
       <c r="C805" t="n">
-        <v>159.986069</v>
+        <v>159.986084</v>
       </c>
     </row>
     <row r="806">

--- a/Danske aktiekurser.xlsx
+++ b/Danske aktiekurser.xlsx
@@ -3425,10 +3425,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>189.887909</v>
+        <v>189.887924</v>
       </c>
       <c r="C2" t="n">
-        <v>191.282883</v>
+        <v>191.282867</v>
       </c>
     </row>
     <row r="3">
@@ -3447,10 +3447,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>190.51384</v>
+        <v>190.513855</v>
       </c>
       <c r="C4" t="n">
-        <v>192.351501</v>
+        <v>192.351486</v>
       </c>
     </row>
     <row r="5">
@@ -3461,7 +3461,7 @@
         <v>190.748566</v>
       </c>
       <c r="C5" t="n">
-        <v>192.046188</v>
+        <v>192.046173</v>
       </c>
     </row>
     <row r="6">
@@ -3483,7 +3483,7 @@
         <v>190.357376</v>
       </c>
       <c r="C7" t="n">
-        <v>191.588181</v>
+        <v>191.588196</v>
       </c>
     </row>
     <row r="8">
@@ -3494,7 +3494,7 @@
         <v>194.34758</v>
       </c>
       <c r="C8" t="n">
-        <v>195.404678</v>
+        <v>195.404694</v>
       </c>
     </row>
     <row r="9">
@@ -3513,10 +3513,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="n">
-        <v>194.817047</v>
+        <v>194.817032</v>
       </c>
       <c r="C10" t="n">
-        <v>195.09938</v>
+        <v>195.099396</v>
       </c>
     </row>
     <row r="11">
@@ -3527,7 +3527,7 @@
         <v>196.303589</v>
       </c>
       <c r="C11" t="n">
-        <v>193.572784</v>
+        <v>193.5728</v>
       </c>
     </row>
     <row r="12">
@@ -3535,7 +3535,7 @@
         <v>13</v>
       </c>
       <c r="B12" t="n">
-        <v>195.521179</v>
+        <v>195.521194</v>
       </c>
       <c r="C12" t="n">
         <v>192.504166</v>
@@ -3546,7 +3546,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="n">
-        <v>195.990616</v>
+        <v>195.990631</v>
       </c>
       <c r="C13" t="n">
         <v>191.435547</v>
@@ -3560,7 +3560,7 @@
         <v>191.452713</v>
       </c>
       <c r="C14" t="n">
-        <v>191.588181</v>
+        <v>191.588196</v>
       </c>
     </row>
     <row r="15">
@@ -3582,7 +3582,7 @@
         <v>193.330475</v>
       </c>
       <c r="C16" t="n">
-        <v>193.114807</v>
+        <v>193.114792</v>
       </c>
     </row>
     <row r="17">
@@ -3590,7 +3590,7 @@
         <v>18</v>
       </c>
       <c r="B17" t="n">
-        <v>192.078644</v>
+        <v>192.078629</v>
       </c>
       <c r="C17" t="n">
         <v>191.435547</v>
@@ -3601,10 +3601,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="n">
-        <v>192.078644</v>
+        <v>192.078629</v>
       </c>
       <c r="C18" t="n">
-        <v>190.214249</v>
+        <v>190.214264</v>
       </c>
     </row>
     <row r="19">
@@ -3612,10 +3612,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="n">
-        <v>186.680084</v>
+        <v>186.680099</v>
       </c>
       <c r="C19" t="n">
-        <v>185.63446</v>
+        <v>185.634445</v>
       </c>
     </row>
     <row r="20">
@@ -3626,7 +3626,7 @@
         <v>189.966171</v>
       </c>
       <c r="C20" t="n">
-        <v>187.46637</v>
+        <v>187.466385</v>
       </c>
     </row>
     <row r="21">
@@ -3656,7 +3656,7 @@
         <v>24</v>
       </c>
       <c r="B23" t="n">
-        <v>190.51384</v>
+        <v>190.513855</v>
       </c>
       <c r="C23" t="n">
         <v>187.008392</v>
@@ -3670,7 +3670,7 @@
         <v>189.418488</v>
       </c>
       <c r="C24" t="n">
-        <v>187.46637</v>
+        <v>187.466385</v>
       </c>
     </row>
     <row r="25">
@@ -3681,7 +3681,7 @@
         <v>191.609207</v>
       </c>
       <c r="C25" t="n">
-        <v>187.619034</v>
+        <v>187.619049</v>
       </c>
     </row>
     <row r="26">
@@ -3692,7 +3692,7 @@
         <v>191.609207</v>
       </c>
       <c r="C26" t="n">
-        <v>186.397766</v>
+        <v>186.397751</v>
       </c>
     </row>
     <row r="27">
@@ -3703,7 +3703,7 @@
         <v>186.758331</v>
       </c>
       <c r="C27" t="n">
-        <v>183.955215</v>
+        <v>183.955185</v>
       </c>
     </row>
     <row r="28">
@@ -3758,7 +3758,7 @@
         <v>188.949051</v>
       </c>
       <c r="C32" t="n">
-        <v>188.534988</v>
+        <v>188.535004</v>
       </c>
     </row>
     <row r="33">
@@ -3780,7 +3780,7 @@
         <v>192.31337</v>
       </c>
       <c r="C34" t="n">
-        <v>193.420105</v>
+        <v>193.42012</v>
       </c>
     </row>
     <row r="35">
@@ -3788,10 +3788,10 @@
         <v>36</v>
       </c>
       <c r="B35" t="n">
-        <v>194.660553</v>
+        <v>194.660568</v>
       </c>
       <c r="C35" t="n">
-        <v>196.625992</v>
+        <v>196.625977</v>
       </c>
     </row>
     <row r="36">
@@ -3810,10 +3810,10 @@
         <v>38</v>
       </c>
       <c r="B37" t="n">
-        <v>191.687424</v>
+        <v>191.687439</v>
       </c>
       <c r="C37" t="n">
-        <v>185.481796</v>
+        <v>185.481781</v>
       </c>
     </row>
     <row r="38">
@@ -3824,7 +3824,7 @@
         <v>192.861038</v>
       </c>
       <c r="C38" t="n">
-        <v>182.428604</v>
+        <v>182.428619</v>
       </c>
     </row>
     <row r="39">
@@ -3832,10 +3832,10 @@
         <v>40</v>
       </c>
       <c r="B39" t="n">
-        <v>193.252228</v>
+        <v>193.252243</v>
       </c>
       <c r="C39" t="n">
-        <v>180.444031</v>
+        <v>180.444016</v>
       </c>
     </row>
     <row r="40">
@@ -3846,7 +3846,7 @@
         <v>194.504074</v>
       </c>
       <c r="C40" t="n">
-        <v>186.245102</v>
+        <v>186.245087</v>
       </c>
     </row>
     <row r="41">
@@ -3865,10 +3865,10 @@
         <v>43</v>
       </c>
       <c r="B42" t="n">
-        <v>189.731461</v>
+        <v>189.731445</v>
       </c>
       <c r="C42" t="n">
-        <v>183.191895</v>
+        <v>183.19191</v>
       </c>
     </row>
     <row r="43">
@@ -3876,7 +3876,7 @@
         <v>44</v>
       </c>
       <c r="B43" t="n">
-        <v>192.626312</v>
+        <v>192.626328</v>
       </c>
       <c r="C43" t="n">
         <v>182.733917</v>
@@ -3890,7 +3890,7 @@
         <v>190.748566</v>
       </c>
       <c r="C44" t="n">
-        <v>181.665298</v>
+        <v>181.665314</v>
       </c>
     </row>
     <row r="45">
@@ -3898,7 +3898,7 @@
         <v>46</v>
       </c>
       <c r="B45" t="n">
-        <v>189.731461</v>
+        <v>189.731445</v>
       </c>
       <c r="C45" t="n">
         <v>177.696136</v>
@@ -3909,7 +3909,7 @@
         <v>47</v>
       </c>
       <c r="B46" t="n">
-        <v>190.044403</v>
+        <v>190.044388</v>
       </c>
       <c r="C46" t="n">
         <v>179.833389</v>
@@ -3923,7 +3923,7 @@
         <v>189.340256</v>
       </c>
       <c r="C47" t="n">
-        <v>180.749344</v>
+        <v>180.749359</v>
       </c>
     </row>
     <row r="48">
@@ -3934,7 +3934,7 @@
         <v>191.53096</v>
       </c>
       <c r="C48" t="n">
-        <v>180.749344</v>
+        <v>180.749359</v>
       </c>
     </row>
     <row r="49">
@@ -3945,7 +3945,7 @@
         <v>191.218002</v>
       </c>
       <c r="C49" t="n">
-        <v>182.428604</v>
+        <v>182.428619</v>
       </c>
     </row>
     <row r="50">
@@ -3953,10 +3953,10 @@
         <v>51</v>
       </c>
       <c r="B50" t="n">
-        <v>192.626312</v>
+        <v>192.626328</v>
       </c>
       <c r="C50" t="n">
-        <v>180.902008</v>
+        <v>180.902023</v>
       </c>
     </row>
     <row r="51">
@@ -3964,10 +3964,10 @@
         <v>52</v>
       </c>
       <c r="B51" t="n">
-        <v>193.095764</v>
+        <v>193.095749</v>
       </c>
       <c r="C51" t="n">
-        <v>180.291351</v>
+        <v>180.291367</v>
       </c>
     </row>
     <row r="52">
@@ -3978,7 +3978,7 @@
         <v>193.799911</v>
       </c>
       <c r="C52" t="n">
-        <v>183.344543</v>
+        <v>183.344559</v>
       </c>
     </row>
     <row r="53">
@@ -3989,7 +3989,7 @@
         <v>190.983292</v>
       </c>
       <c r="C53" t="n">
-        <v>180.138687</v>
+        <v>180.138718</v>
       </c>
     </row>
     <row r="54">
@@ -4055,7 +4055,7 @@
         <v>186.493027</v>
       </c>
       <c r="C59" t="n">
-        <v>181.349304</v>
+        <v>181.349289</v>
       </c>
     </row>
     <row r="60">
@@ -4099,7 +4099,7 @@
         <v>183.882446</v>
       </c>
       <c r="C63" t="n">
-        <v>178.14241</v>
+        <v>178.142426</v>
       </c>
     </row>
     <row r="64">
@@ -4110,7 +4110,7 @@
         <v>183.148224</v>
       </c>
       <c r="C64" t="n">
-        <v>178.463104</v>
+        <v>178.463135</v>
       </c>
     </row>
     <row r="65">
@@ -4121,7 +4121,7 @@
         <v>181.761353</v>
       </c>
       <c r="C65" t="n">
-        <v>176.378647</v>
+        <v>176.378632</v>
       </c>
     </row>
     <row r="66">
@@ -4132,7 +4132,7 @@
         <v>183.882446</v>
       </c>
       <c r="C66" t="n">
-        <v>178.944153</v>
+        <v>178.944138</v>
       </c>
     </row>
     <row r="67">
@@ -4143,7 +4143,7 @@
         <v>182.49556</v>
       </c>
       <c r="C67" t="n">
-        <v>178.14241</v>
+        <v>178.142426</v>
       </c>
     </row>
     <row r="68">
@@ -4154,7 +4154,7 @@
         <v>182.985062</v>
       </c>
       <c r="C68" t="n">
-        <v>180.868286</v>
+        <v>180.868271</v>
       </c>
     </row>
     <row r="69">
@@ -4165,7 +4165,7 @@
         <v>183.39296</v>
       </c>
       <c r="C69" t="n">
-        <v>180.547592</v>
+        <v>180.547577</v>
       </c>
     </row>
     <row r="70">
@@ -4176,7 +4176,7 @@
         <v>179.477097</v>
       </c>
       <c r="C70" t="n">
-        <v>180.868286</v>
+        <v>180.868271</v>
       </c>
     </row>
     <row r="71">
@@ -4187,7 +4187,7 @@
         <v>180.619202</v>
       </c>
       <c r="C71" t="n">
-        <v>184.395828</v>
+        <v>184.395844</v>
       </c>
     </row>
     <row r="72">
@@ -4198,7 +4198,7 @@
         <v>180.211319</v>
       </c>
       <c r="C72" t="n">
-        <v>182.311371</v>
+        <v>182.311356</v>
       </c>
     </row>
     <row r="73">
@@ -4209,7 +4209,7 @@
         <v>180.374481</v>
       </c>
       <c r="C73" t="n">
-        <v>181.990677</v>
+        <v>181.990692</v>
       </c>
     </row>
     <row r="74">
@@ -4264,7 +4264,7 @@
         <v>183.229797</v>
       </c>
       <c r="C78" t="n">
-        <v>192.894089</v>
+        <v>192.894104</v>
       </c>
     </row>
     <row r="79">
@@ -4275,7 +4275,7 @@
         <v>184.127182</v>
       </c>
       <c r="C79" t="n">
-        <v>194.657883</v>
+        <v>194.657867</v>
       </c>
     </row>
     <row r="80">
@@ -4297,7 +4297,7 @@
         <v>179.069199</v>
       </c>
       <c r="C81" t="n">
-        <v>186.319962</v>
+        <v>186.319977</v>
       </c>
     </row>
     <row r="82">
@@ -4308,7 +4308,7 @@
         <v>175.72438</v>
       </c>
       <c r="C82" t="n">
-        <v>183.433777</v>
+        <v>183.433792</v>
       </c>
     </row>
     <row r="83">
@@ -4330,7 +4330,7 @@
         <v>177.84549</v>
       </c>
       <c r="C84" t="n">
-        <v>184.716522</v>
+        <v>184.716507</v>
       </c>
     </row>
     <row r="85">
@@ -4341,7 +4341,7 @@
         <v>176.05072</v>
       </c>
       <c r="C85" t="n">
-        <v>181.990677</v>
+        <v>181.990692</v>
       </c>
     </row>
     <row r="86">
@@ -4352,7 +4352,7 @@
         <v>176.132294</v>
       </c>
       <c r="C86" t="n">
-        <v>183.433777</v>
+        <v>183.433792</v>
       </c>
     </row>
     <row r="87">
@@ -4363,7 +4363,7 @@
         <v>175.316498</v>
       </c>
       <c r="C87" t="n">
-        <v>184.235519</v>
+        <v>184.235504</v>
       </c>
     </row>
     <row r="88">
@@ -4374,7 +4374,7 @@
         <v>176.784943</v>
       </c>
       <c r="C88" t="n">
-        <v>187.121704</v>
+        <v>187.121689</v>
       </c>
     </row>
     <row r="89">
@@ -4385,7 +4385,7 @@
         <v>175.561234</v>
       </c>
       <c r="C89" t="n">
-        <v>186.961349</v>
+        <v>186.961365</v>
       </c>
     </row>
     <row r="90">
@@ -4429,7 +4429,7 @@
         <v>176.540192</v>
       </c>
       <c r="C93" t="n">
-        <v>185.197556</v>
+        <v>185.197586</v>
       </c>
     </row>
     <row r="94">
@@ -4462,7 +4462,7 @@
         <v>176.948105</v>
       </c>
       <c r="C96" t="n">
-        <v>185.037216</v>
+        <v>185.037231</v>
       </c>
     </row>
     <row r="97">
@@ -4506,7 +4506,7 @@
         <v>168.953232</v>
       </c>
       <c r="C100" t="n">
-        <v>174.935532</v>
+        <v>174.935547</v>
       </c>
     </row>
     <row r="101">
@@ -4517,7 +4517,7 @@
         <v>168.871628</v>
       </c>
       <c r="C101" t="n">
-        <v>175.737259</v>
+        <v>175.737244</v>
       </c>
     </row>
     <row r="102">
@@ -4528,7 +4528,7 @@
         <v>172.461166</v>
       </c>
       <c r="C102" t="n">
-        <v>173.171738</v>
+        <v>173.171753</v>
       </c>
     </row>
     <row r="103">
@@ -4550,7 +4550,7 @@
         <v>178.253387</v>
       </c>
       <c r="C104" t="n">
-        <v>178.944153</v>
+        <v>178.944138</v>
       </c>
     </row>
     <row r="105">
@@ -4561,7 +4561,7 @@
         <v>175.72438</v>
       </c>
       <c r="C105" t="n">
-        <v>177.982086</v>
+        <v>177.982071</v>
       </c>
     </row>
     <row r="106">
@@ -4583,7 +4583,7 @@
         <v>174.092773</v>
       </c>
       <c r="C107" t="n">
-        <v>175.737259</v>
+        <v>175.737244</v>
       </c>
     </row>
     <row r="108">
@@ -4594,7 +4594,7 @@
         <v>177.84549</v>
       </c>
       <c r="C108" t="n">
-        <v>177.020004</v>
+        <v>177.02002</v>
       </c>
     </row>
     <row r="109">
@@ -4605,7 +4605,7 @@
         <v>178.498123</v>
       </c>
       <c r="C109" t="n">
-        <v>177.180344</v>
+        <v>177.180359</v>
       </c>
     </row>
     <row r="110">
@@ -4660,7 +4660,7 @@
         <v>171.971695</v>
       </c>
       <c r="C114" t="n">
-        <v>175.095871</v>
+        <v>175.095886</v>
       </c>
     </row>
     <row r="115">
@@ -4682,7 +4682,7 @@
         <v>167.811081</v>
       </c>
       <c r="C116" t="n">
-        <v>173.171738</v>
+        <v>173.171753</v>
       </c>
     </row>
     <row r="117">
@@ -4715,7 +4715,7 @@
         <v>161.243851</v>
       </c>
       <c r="C119" t="n">
-        <v>173.813126</v>
+        <v>173.813141</v>
       </c>
     </row>
     <row r="120">
@@ -4726,7 +4726,7 @@
         <v>162.018875</v>
       </c>
       <c r="C120" t="n">
-        <v>173.652771</v>
+        <v>173.652786</v>
       </c>
     </row>
     <row r="121">
@@ -4781,7 +4781,7 @@
         <v>160.999115</v>
       </c>
       <c r="C125" t="n">
-        <v>179.264847</v>
+        <v>179.264832</v>
       </c>
     </row>
     <row r="126">
@@ -4803,7 +4803,7 @@
         <v>155.533218</v>
       </c>
       <c r="C127" t="n">
-        <v>177.661392</v>
+        <v>177.661377</v>
       </c>
     </row>
     <row r="128">
@@ -4869,7 +4869,7 @@
         <v>158.06221</v>
       </c>
       <c r="C133" t="n">
-        <v>181.990677</v>
+        <v>181.990692</v>
       </c>
     </row>
     <row r="134">
@@ -4880,7 +4880,7 @@
         <v>159.163559</v>
       </c>
       <c r="C134" t="n">
-        <v>180.707916</v>
+        <v>180.707932</v>
       </c>
     </row>
     <row r="135">
@@ -4891,7 +4891,7 @@
         <v>144.642227</v>
       </c>
       <c r="C135" t="n">
-        <v>177.661392</v>
+        <v>177.661377</v>
       </c>
     </row>
     <row r="136">
@@ -4902,7 +4902,7 @@
         <v>148.394913</v>
       </c>
       <c r="C136" t="n">
-        <v>179.745865</v>
+        <v>179.74585</v>
       </c>
     </row>
     <row r="137">
@@ -4913,7 +4913,7 @@
         <v>147.456757</v>
       </c>
       <c r="C137" t="n">
-        <v>180.387238</v>
+        <v>180.387253</v>
       </c>
     </row>
     <row r="138">
@@ -4935,7 +4935,7 @@
         <v>151.94368</v>
       </c>
       <c r="C139" t="n">
-        <v>185.037216</v>
+        <v>185.037231</v>
       </c>
     </row>
     <row r="140">
@@ -4957,7 +4957,7 @@
         <v>152.800278</v>
       </c>
       <c r="C141" t="n">
-        <v>186.319962</v>
+        <v>186.319977</v>
       </c>
     </row>
     <row r="142">
@@ -4968,7 +4968,7 @@
         <v>153.208176</v>
       </c>
       <c r="C142" t="n">
-        <v>188.564789</v>
+        <v>188.564804</v>
       </c>
     </row>
     <row r="143">
@@ -5012,7 +5012,7 @@
         <v>146.029083</v>
       </c>
       <c r="C146" t="n">
-        <v>184.395828</v>
+        <v>184.395844</v>
       </c>
     </row>
     <row r="147">
@@ -5023,7 +5023,7 @@
         <v>149.129166</v>
       </c>
       <c r="C147" t="n">
-        <v>185.037216</v>
+        <v>185.037231</v>
       </c>
     </row>
     <row r="148">
@@ -5034,7 +5034,7 @@
         <v>147.538345</v>
       </c>
       <c r="C148" t="n">
-        <v>177.180344</v>
+        <v>177.180359</v>
       </c>
     </row>
     <row r="149">
@@ -5045,7 +5045,7 @@
         <v>147.905441</v>
       </c>
       <c r="C149" t="n">
-        <v>180.387238</v>
+        <v>180.387253</v>
       </c>
     </row>
     <row r="150">
@@ -5056,7 +5056,7 @@
         <v>147.415955</v>
       </c>
       <c r="C150" t="n">
-        <v>178.14241</v>
+        <v>178.142426</v>
       </c>
     </row>
     <row r="151">
@@ -5067,7 +5067,7 @@
         <v>148.231766</v>
       </c>
       <c r="C151" t="n">
-        <v>179.264847</v>
+        <v>179.264832</v>
       </c>
     </row>
     <row r="152">
@@ -5111,7 +5111,7 @@
         <v>145.906738</v>
       </c>
       <c r="C155" t="n">
-        <v>173.171738</v>
+        <v>173.171753</v>
       </c>
     </row>
     <row r="156">
@@ -5133,7 +5133,7 @@
         <v>149.210739</v>
       </c>
       <c r="C157" t="n">
-        <v>175.095871</v>
+        <v>175.095886</v>
       </c>
     </row>
     <row r="158">
@@ -5144,7 +5144,7 @@
         <v>150.230484</v>
       </c>
       <c r="C158" t="n">
-        <v>175.737259</v>
+        <v>175.737244</v>
       </c>
     </row>
     <row r="159">
@@ -5155,7 +5155,7 @@
         <v>150.719955</v>
       </c>
       <c r="C159" t="n">
-        <v>177.661392</v>
+        <v>177.661377</v>
       </c>
     </row>
     <row r="160">
@@ -5166,7 +5166,7 @@
         <v>153.616074</v>
       </c>
       <c r="C160" t="n">
-        <v>176.057968</v>
+        <v>176.057953</v>
       </c>
     </row>
     <row r="161">
@@ -5210,7 +5210,7 @@
         <v>156.716141</v>
       </c>
       <c r="C164" t="n">
-        <v>155.614075</v>
+        <v>155.614059</v>
       </c>
     </row>
     <row r="165">
@@ -5221,7 +5221,7 @@
         <v>157.001663</v>
       </c>
       <c r="C165" t="n">
-        <v>153.770096</v>
+        <v>153.770111</v>
       </c>
     </row>
     <row r="166">
@@ -5232,7 +5232,7 @@
         <v>156.634552</v>
       </c>
       <c r="C166" t="n">
-        <v>151.926132</v>
+        <v>151.926147</v>
       </c>
     </row>
     <row r="167">
@@ -5320,7 +5320,7 @@
         <v>139.217117</v>
       </c>
       <c r="C174" t="n">
-        <v>147.837341</v>
+        <v>147.837357</v>
       </c>
     </row>
     <row r="175">
@@ -5342,7 +5342,7 @@
         <v>140.114502</v>
       </c>
       <c r="C176" t="n">
-        <v>148.879593</v>
+        <v>148.879578</v>
       </c>
     </row>
     <row r="177">
@@ -5364,7 +5364,7 @@
         <v>137.748672</v>
       </c>
       <c r="C178" t="n">
-        <v>149.200302</v>
+        <v>149.200287</v>
       </c>
     </row>
     <row r="179">
@@ -5386,7 +5386,7 @@
         <v>137.871048</v>
       </c>
       <c r="C180" t="n">
-        <v>149.92186</v>
+        <v>149.921829</v>
       </c>
     </row>
     <row r="181">
@@ -5441,7 +5441,7 @@
         <v>140.563187</v>
       </c>
       <c r="C185" t="n">
-        <v>155.934753</v>
+        <v>155.934738</v>
       </c>
     </row>
     <row r="186">
@@ -5463,7 +5463,7 @@
         <v>137.626297</v>
       </c>
       <c r="C187" t="n">
-        <v>151.525299</v>
+        <v>151.525284</v>
       </c>
     </row>
     <row r="188">
@@ -5496,7 +5496,7 @@
         <v>135.627579</v>
       </c>
       <c r="C190" t="n">
-        <v>149.440796</v>
+        <v>149.440811</v>
       </c>
     </row>
     <row r="191">
@@ -5518,7 +5518,7 @@
         <v>121.310204</v>
       </c>
       <c r="C192" t="n">
-        <v>150.483032</v>
+        <v>150.483047</v>
       </c>
     </row>
     <row r="193">
@@ -5529,7 +5529,7 @@
         <v>116.945656</v>
       </c>
       <c r="C193" t="n">
-        <v>146.79512</v>
+        <v>146.795135</v>
       </c>
     </row>
     <row r="194">
@@ -5540,7 +5540,7 @@
         <v>115.925896</v>
       </c>
       <c r="C194" t="n">
-        <v>141.824463</v>
+        <v>141.824448</v>
       </c>
     </row>
     <row r="195">
@@ -5562,7 +5562,7 @@
         <v>115.191666</v>
       </c>
       <c r="C196" t="n">
-        <v>140.782227</v>
+        <v>140.782211</v>
       </c>
     </row>
     <row r="197">
@@ -5573,7 +5573,7 @@
         <v>115.273262</v>
       </c>
       <c r="C197" t="n">
-        <v>141.904633</v>
+        <v>141.904617</v>
       </c>
     </row>
     <row r="198">
@@ -5628,7 +5628,7 @@
         <v>107.033615</v>
       </c>
       <c r="C202" t="n">
-        <v>142.706345</v>
+        <v>142.70636</v>
       </c>
     </row>
     <row r="203">
@@ -5639,7 +5639,7 @@
         <v>106.421753</v>
       </c>
       <c r="C203" t="n">
-        <v>139.820145</v>
+        <v>139.82016</v>
       </c>
     </row>
     <row r="204">
@@ -5650,7 +5650,7 @@
         <v>103.280914</v>
       </c>
       <c r="C204" t="n">
-        <v>140.782227</v>
+        <v>140.782211</v>
       </c>
     </row>
     <row r="205">
@@ -5672,7 +5672,7 @@
         <v>103.076958</v>
       </c>
       <c r="C206" t="n">
-        <v>142.064987</v>
+        <v>142.064972</v>
       </c>
     </row>
     <row r="207">
@@ -5716,7 +5716,7 @@
         <v>103.076958</v>
       </c>
       <c r="C210" t="n">
-        <v>122.102112</v>
+        <v>122.102119</v>
       </c>
     </row>
     <row r="211">
@@ -5727,7 +5727,7 @@
         <v>108.134949</v>
       </c>
       <c r="C211" t="n">
-        <v>123.625374</v>
+        <v>123.625389</v>
       </c>
     </row>
     <row r="212">
@@ -5738,7 +5738,7 @@
         <v>111.765289</v>
       </c>
       <c r="C212" t="n">
-        <v>127.874504</v>
+        <v>127.874512</v>
       </c>
     </row>
     <row r="213">
@@ -5749,7 +5749,7 @@
         <v>110.337624</v>
       </c>
       <c r="C213" t="n">
-        <v>130.199493</v>
+        <v>130.199509</v>
       </c>
     </row>
     <row r="214">
@@ -5760,7 +5760,7 @@
         <v>110.174469</v>
       </c>
       <c r="C214" t="n">
-        <v>130.680542</v>
+        <v>130.680527</v>
       </c>
     </row>
     <row r="215">
@@ -5771,7 +5771,7 @@
         <v>117.516701</v>
       </c>
       <c r="C215" t="n">
-        <v>132.524475</v>
+        <v>132.524506</v>
       </c>
     </row>
     <row r="216">
@@ -5793,7 +5793,7 @@
         <v>117.598282</v>
       </c>
       <c r="C217" t="n">
-        <v>131.321915</v>
+        <v>131.32193</v>
       </c>
     </row>
     <row r="218">
@@ -5804,7 +5804,7 @@
         <v>116.619316</v>
       </c>
       <c r="C218" t="n">
-        <v>130.440018</v>
+        <v>130.440002</v>
       </c>
     </row>
     <row r="219">
@@ -5815,7 +5815,7 @@
         <v>115.028511</v>
       </c>
       <c r="C219" t="n">
-        <v>129.798645</v>
+        <v>129.79863</v>
       </c>
     </row>
     <row r="220">
@@ -5826,7 +5826,7 @@
         <v>117.598282</v>
       </c>
       <c r="C220" t="n">
-        <v>129.237427</v>
+        <v>129.237411</v>
       </c>
     </row>
     <row r="221">
@@ -5837,7 +5837,7 @@
         <v>113.519257</v>
       </c>
       <c r="C221" t="n">
-        <v>127.874504</v>
+        <v>127.874512</v>
       </c>
     </row>
     <row r="222">
@@ -5848,7 +5848,7 @@
         <v>111.602127</v>
       </c>
       <c r="C222" t="n">
-        <v>127.553825</v>
+        <v>127.553833</v>
       </c>
     </row>
     <row r="223">
@@ -5870,7 +5870,7 @@
         <v>106.544136</v>
       </c>
       <c r="C224" t="n">
-        <v>125.950386</v>
+        <v>125.950378</v>
       </c>
     </row>
     <row r="225">
@@ -5881,7 +5881,7 @@
         <v>107.441513</v>
       </c>
       <c r="C225" t="n">
-        <v>127.874504</v>
+        <v>127.874512</v>
       </c>
     </row>
     <row r="226">
@@ -5892,7 +5892,7 @@
         <v>108.461273</v>
       </c>
       <c r="C226" t="n">
-        <v>127.874504</v>
+        <v>127.874512</v>
       </c>
     </row>
     <row r="227">
@@ -5903,7 +5903,7 @@
         <v>108.869171</v>
       </c>
       <c r="C227" t="n">
-        <v>128.27536</v>
+        <v>128.275375</v>
       </c>
     </row>
     <row r="228">
@@ -5936,7 +5936,7 @@
         <v>110.949478</v>
       </c>
       <c r="C230" t="n">
-        <v>129.638306</v>
+        <v>129.63829</v>
       </c>
     </row>
     <row r="231">
@@ -5947,7 +5947,7 @@
         <v>107.441513</v>
       </c>
       <c r="C231" t="n">
-        <v>130.359848</v>
+        <v>130.359833</v>
       </c>
     </row>
     <row r="232">
@@ -5958,7 +5958,7 @@
         <v>107.19677</v>
       </c>
       <c r="C232" t="n">
-        <v>130.359848</v>
+        <v>130.359833</v>
       </c>
     </row>
     <row r="233">
@@ -5969,7 +5969,7 @@
         <v>108.706009</v>
       </c>
       <c r="C233" t="n">
-        <v>126.671928</v>
+        <v>126.671936</v>
       </c>
     </row>
     <row r="234">
@@ -5980,7 +5980,7 @@
         <v>108.583641</v>
       </c>
       <c r="C234" t="n">
-        <v>127.152977</v>
+        <v>127.152954</v>
       </c>
     </row>
     <row r="235">
@@ -5991,7 +5991,7 @@
         <v>114.62059</v>
       </c>
       <c r="C235" t="n">
-        <v>129.798645</v>
+        <v>129.79863</v>
       </c>
     </row>
     <row r="236">
@@ -6002,7 +6002,7 @@
         <v>111.316582</v>
       </c>
       <c r="C236" t="n">
-        <v>126.992607</v>
+        <v>126.992599</v>
       </c>
     </row>
     <row r="237">
@@ -6013,7 +6013,7 @@
         <v>116.007462</v>
       </c>
       <c r="C237" t="n">
-        <v>129.558121</v>
+        <v>129.558136</v>
       </c>
     </row>
     <row r="238">
@@ -6024,7 +6024,7 @@
         <v>112.050819</v>
       </c>
       <c r="C238" t="n">
-        <v>127.152977</v>
+        <v>127.152954</v>
       </c>
     </row>
     <row r="239">
@@ -6035,7 +6035,7 @@
         <v>114.2127</v>
       </c>
       <c r="C239" t="n">
-        <v>129.558121</v>
+        <v>129.558136</v>
       </c>
     </row>
     <row r="240">
@@ -6068,7 +6068,7 @@
         <v>112.62188</v>
       </c>
       <c r="C242" t="n">
-        <v>128.034866</v>
+        <v>128.034851</v>
       </c>
     </row>
     <row r="243">
@@ -6079,7 +6079,7 @@
         <v>110.459991</v>
       </c>
       <c r="C243" t="n">
-        <v>127.633987</v>
+        <v>127.633995</v>
       </c>
     </row>
     <row r="244">
@@ -6090,7 +6090,7 @@
         <v>112.213982</v>
       </c>
       <c r="C244" t="n">
-        <v>122.663322</v>
+        <v>122.663307</v>
       </c>
     </row>
     <row r="245">
@@ -6101,7 +6101,7 @@
         <v>109.725769</v>
       </c>
       <c r="C245" t="n">
-        <v>121.781418</v>
+        <v>121.781425</v>
       </c>
     </row>
     <row r="246">
@@ -6112,7 +6112,7 @@
         <v>105.442795</v>
       </c>
       <c r="C246" t="n">
-        <v>117.77282</v>
+        <v>117.772827</v>
       </c>
     </row>
     <row r="247">
@@ -6134,7 +6134,7 @@
         <v>102.954582</v>
       </c>
       <c r="C248" t="n">
-        <v>120.819351</v>
+        <v>120.819366</v>
       </c>
     </row>
     <row r="249">
@@ -6145,7 +6145,7 @@
         <v>105.157249</v>
       </c>
       <c r="C249" t="n">
-        <v>124.346931</v>
+        <v>124.346947</v>
       </c>
     </row>
     <row r="250">
@@ -6156,7 +6156,7 @@
         <v>104.994102</v>
       </c>
       <c r="C250" t="n">
-        <v>126.271065</v>
+        <v>126.271057</v>
       </c>
     </row>
     <row r="251">
@@ -6178,7 +6178,7 @@
         <v>109.195503</v>
       </c>
       <c r="C252" t="n">
-        <v>127.313293</v>
+        <v>127.313316</v>
       </c>
     </row>
     <row r="253">
@@ -6189,7 +6189,7 @@
         <v>108.909966</v>
       </c>
       <c r="C253" t="n">
-        <v>126.591751</v>
+        <v>126.591759</v>
       </c>
     </row>
     <row r="254">
@@ -6200,7 +6200,7 @@
         <v>108.3797</v>
       </c>
       <c r="C254" t="n">
-        <v>126.832283</v>
+        <v>126.832275</v>
       </c>
     </row>
     <row r="255">
@@ -6222,7 +6222,7 @@
         <v>104.219078</v>
       </c>
       <c r="C256" t="n">
-        <v>126.591751</v>
+        <v>126.591759</v>
       </c>
     </row>
     <row r="257">
@@ -6233,7 +6233,7 @@
         <v>105.687538</v>
       </c>
       <c r="C257" t="n">
-        <v>125.469345</v>
+        <v>125.469353</v>
       </c>
     </row>
     <row r="258">
@@ -6255,7 +6255,7 @@
         <v>104.423042</v>
       </c>
       <c r="C259" t="n">
-        <v>122.583145</v>
+        <v>122.583153</v>
       </c>
     </row>
     <row r="260">
@@ -6266,7 +6266,7 @@
         <v>105.034889</v>
       </c>
       <c r="C260" t="n">
-        <v>126.271065</v>
+        <v>126.271057</v>
       </c>
     </row>
     <row r="261">
@@ -6277,7 +6277,7 @@
         <v>103.933556</v>
       </c>
       <c r="C261" t="n">
-        <v>126.030548</v>
+        <v>126.03054</v>
       </c>
     </row>
     <row r="262">
@@ -6288,7 +6288,7 @@
         <v>103.199333</v>
       </c>
       <c r="C262" t="n">
-        <v>125.870209</v>
+        <v>125.870201</v>
       </c>
     </row>
     <row r="263">
@@ -6299,7 +6299,7 @@
         <v>105.238846</v>
       </c>
       <c r="C263" t="n">
-        <v>124.507286</v>
+        <v>124.507271</v>
       </c>
     </row>
     <row r="264">
@@ -6310,7 +6310,7 @@
         <v>102.791428</v>
       </c>
       <c r="C264" t="n">
-        <v>125.709862</v>
+        <v>125.709877</v>
       </c>
     </row>
     <row r="265">
@@ -6321,7 +6321,7 @@
         <v>101.975624</v>
       </c>
       <c r="C265" t="n">
-        <v>126.190887</v>
+        <v>126.190895</v>
       </c>
     </row>
     <row r="266">
@@ -6332,7 +6332,7 @@
         <v>99.976898</v>
       </c>
       <c r="C266" t="n">
-        <v>126.110741</v>
+        <v>126.110733</v>
       </c>
     </row>
     <row r="267">
@@ -6343,7 +6343,7 @@
         <v>102.138779</v>
       </c>
       <c r="C267" t="n">
-        <v>126.832283</v>
+        <v>126.832275</v>
       </c>
     </row>
     <row r="268">
@@ -6354,7 +6354,7 @@
         <v>99.936104</v>
       </c>
       <c r="C268" t="n">
-        <v>123.625374</v>
+        <v>123.625389</v>
       </c>
     </row>
     <row r="269">
@@ -6365,7 +6365,7 @@
         <v>99.85453</v>
       </c>
       <c r="C269" t="n">
-        <v>123.465057</v>
+        <v>123.46505</v>
       </c>
     </row>
     <row r="270">
@@ -6376,7 +6376,7 @@
         <v>100.140068</v>
       </c>
       <c r="C270" t="n">
-        <v>123.144379</v>
+        <v>123.144371</v>
       </c>
     </row>
     <row r="271">
@@ -6387,7 +6387,7 @@
         <v>98.304497</v>
       </c>
       <c r="C271" t="n">
-        <v>120.739189</v>
+        <v>120.739204</v>
       </c>
     </row>
     <row r="272">
@@ -6398,7 +6398,7 @@
         <v>103.444077</v>
       </c>
       <c r="C272" t="n">
-        <v>121.781418</v>
+        <v>121.781425</v>
       </c>
     </row>
     <row r="273">
@@ -6409,7 +6409,7 @@
         <v>101.078239</v>
       </c>
       <c r="C273" t="n">
-        <v>122.262466</v>
+        <v>122.262459</v>
       </c>
     </row>
     <row r="274">
@@ -6420,7 +6420,7 @@
         <v>103.199333</v>
       </c>
       <c r="C274" t="n">
-        <v>122.102112</v>
+        <v>122.102119</v>
       </c>
     </row>
     <row r="275">
@@ -6431,7 +6431,7 @@
         <v>102.669052</v>
       </c>
       <c r="C275" t="n">
-        <v>121.781418</v>
+        <v>121.781425</v>
       </c>
     </row>
     <row r="276">
@@ -6453,7 +6453,7 @@
         <v>97.896591</v>
       </c>
       <c r="C277" t="n">
-        <v>119.456444</v>
+        <v>119.456451</v>
       </c>
     </row>
     <row r="278">
@@ -6475,7 +6475,7 @@
         <v>101.119026</v>
       </c>
       <c r="C279" t="n">
-        <v>121.22023</v>
+        <v>121.220222</v>
       </c>
     </row>
     <row r="280">
@@ -6486,7 +6486,7 @@
         <v>100.180855</v>
       </c>
       <c r="C280" t="n">
-        <v>122.262466</v>
+        <v>122.262459</v>
       </c>
     </row>
     <row r="281">
@@ -6497,7 +6497,7 @@
         <v>99.936104</v>
       </c>
       <c r="C281" t="n">
-        <v>121.22023</v>
+        <v>121.220222</v>
       </c>
     </row>
     <row r="282">
@@ -6530,7 +6530,7 @@
         <v>102.873016</v>
       </c>
       <c r="C284" t="n">
-        <v>121.540924</v>
+        <v>121.540909</v>
       </c>
     </row>
     <row r="285">
@@ -6541,7 +6541,7 @@
         <v>103.117752</v>
       </c>
       <c r="C285" t="n">
-        <v>121.781418</v>
+        <v>121.781425</v>
       </c>
     </row>
     <row r="286">
@@ -6574,7 +6574,7 @@
         <v>102.301941</v>
       </c>
       <c r="C288" t="n">
-        <v>121.781418</v>
+        <v>121.781425</v>
       </c>
     </row>
     <row r="289">
@@ -6585,7 +6585,7 @@
         <v>102.220367</v>
       </c>
       <c r="C289" t="n">
-        <v>119.777115</v>
+        <v>119.777122</v>
       </c>
     </row>
     <row r="290">
@@ -6596,7 +6596,7 @@
         <v>106.054649</v>
       </c>
       <c r="C290" t="n">
-        <v>127.393471</v>
+        <v>127.393478</v>
       </c>
     </row>
     <row r="291">
@@ -6607,7 +6607,7 @@
         <v>106.462547</v>
       </c>
       <c r="C291" t="n">
-        <v>125.228828</v>
+        <v>125.228821</v>
       </c>
     </row>
     <row r="292">
@@ -6618,7 +6618,7 @@
         <v>105.973053</v>
       </c>
       <c r="C292" t="n">
-        <v>122.502983</v>
+        <v>122.502991</v>
       </c>
     </row>
     <row r="293">
@@ -6629,7 +6629,7 @@
         <v>105.687538</v>
       </c>
       <c r="C293" t="n">
-        <v>122.422806</v>
+        <v>122.422813</v>
       </c>
     </row>
     <row r="294">
@@ -6662,7 +6662,7 @@
         <v>104.137512</v>
       </c>
       <c r="C296" t="n">
-        <v>117.69265</v>
+        <v>117.692657</v>
       </c>
     </row>
     <row r="297">
@@ -6673,7 +6673,7 @@
         <v>103.036171</v>
       </c>
       <c r="C297" t="n">
-        <v>116.570221</v>
+        <v>116.570244</v>
       </c>
     </row>
     <row r="298">
@@ -6684,7 +6684,7 @@
         <v>103.892761</v>
       </c>
       <c r="C298" t="n">
-        <v>115.768517</v>
+        <v>115.768509</v>
       </c>
     </row>
     <row r="299">
@@ -6717,7 +6717,7 @@
         <v>107.971802</v>
       </c>
       <c r="C301" t="n">
-        <v>118.654724</v>
+        <v>118.654709</v>
       </c>
     </row>
     <row r="302">
@@ -6739,7 +6739,7 @@
         <v>109.481026</v>
       </c>
       <c r="C303" t="n">
-        <v>122.102112</v>
+        <v>122.102119</v>
       </c>
     </row>
     <row r="304">
@@ -6750,7 +6750,7 @@
         <v>110.308449</v>
       </c>
       <c r="C304" t="n">
-        <v>123.304703</v>
+        <v>123.304695</v>
       </c>
     </row>
     <row r="305">
@@ -6772,7 +6772,7 @@
         <v>108.000374</v>
       </c>
       <c r="C306" t="n">
-        <v>120.899544</v>
+        <v>120.899536</v>
       </c>
     </row>
     <row r="307">
@@ -6783,7 +6783,7 @@
         <v>105.866501</v>
       </c>
       <c r="C307" t="n">
-        <v>120.096046</v>
+        <v>120.096039</v>
       </c>
     </row>
     <row r="308">
@@ -6794,7 +6794,7 @@
         <v>105.605202</v>
       </c>
       <c r="C308" t="n">
-        <v>118.38649</v>
+        <v>118.386497</v>
       </c>
     </row>
     <row r="309">
@@ -6827,7 +6827,7 @@
         <v>101.685837</v>
       </c>
       <c r="C311" t="n">
-        <v>117.104317</v>
+        <v>117.104324</v>
       </c>
     </row>
     <row r="312">
@@ -6838,7 +6838,7 @@
         <v>101.729393</v>
       </c>
       <c r="C312" t="n">
-        <v>117.959099</v>
+        <v>117.959106</v>
       </c>
     </row>
     <row r="313">
@@ -6849,7 +6849,7 @@
         <v>106.066818</v>
       </c>
       <c r="C313" t="n">
-        <v>121.121765</v>
+        <v>121.121773</v>
       </c>
     </row>
     <row r="314">
@@ -6893,7 +6893,7 @@
         <v>107.129402</v>
       </c>
       <c r="C317" t="n">
-        <v>121.20726</v>
+        <v>121.207253</v>
       </c>
     </row>
     <row r="318">
@@ -6904,7 +6904,7 @@
         <v>107.347145</v>
       </c>
       <c r="C318" t="n">
-        <v>122.062035</v>
+        <v>122.062027</v>
       </c>
     </row>
     <row r="319">
@@ -6926,7 +6926,7 @@
         <v>105.95359</v>
       </c>
       <c r="C320" t="n">
-        <v>120.352478</v>
+        <v>120.352486</v>
       </c>
     </row>
     <row r="321">
@@ -6937,7 +6937,7 @@
         <v>108.13102</v>
       </c>
       <c r="C321" t="n">
-        <v>122.232994</v>
+        <v>122.232986</v>
       </c>
     </row>
     <row r="322">
@@ -6948,7 +6948,7 @@
         <v>110.613289</v>
       </c>
       <c r="C322" t="n">
-        <v>123.51516</v>
+        <v>123.515152</v>
       </c>
     </row>
     <row r="323">
@@ -6981,7 +6981,7 @@
         <v>112.268127</v>
       </c>
       <c r="C325" t="n">
-        <v>124.968254</v>
+        <v>124.968269</v>
       </c>
     </row>
     <row r="326">
@@ -6992,7 +6992,7 @@
         <v>110.87458</v>
       </c>
       <c r="C326" t="n">
-        <v>123.429672</v>
+        <v>123.429665</v>
       </c>
     </row>
     <row r="327">
@@ -7003,7 +7003,7 @@
         <v>110.831032</v>
       </c>
       <c r="C327" t="n">
-        <v>122.062035</v>
+        <v>122.062027</v>
       </c>
     </row>
     <row r="328">
@@ -7091,7 +7091,7 @@
         <v>100.510025</v>
       </c>
       <c r="C335" t="n">
-        <v>107.787262</v>
+        <v>107.78727</v>
       </c>
     </row>
     <row r="336">
@@ -7113,7 +7113,7 @@
         <v>97.635818</v>
       </c>
       <c r="C337" t="n">
-        <v>107.530838</v>
+        <v>107.530846</v>
       </c>
     </row>
     <row r="338">
@@ -7146,7 +7146,7 @@
         <v>96.068085</v>
       </c>
       <c r="C340" t="n">
-        <v>106.590576</v>
+        <v>106.590584</v>
       </c>
     </row>
     <row r="341">
@@ -7179,7 +7179,7 @@
         <v>94.500328</v>
       </c>
       <c r="C343" t="n">
-        <v>105.821289</v>
+        <v>105.821281</v>
       </c>
     </row>
     <row r="344">
@@ -7201,7 +7201,7 @@
         <v>96.198715</v>
       </c>
       <c r="C345" t="n">
-        <v>105.992233</v>
+        <v>105.992241</v>
       </c>
     </row>
     <row r="346">
@@ -7212,7 +7212,7 @@
         <v>96.764854</v>
       </c>
       <c r="C346" t="n">
-        <v>105.906769</v>
+        <v>105.906761</v>
       </c>
     </row>
     <row r="347">
@@ -7245,7 +7245,7 @@
         <v>98.158401</v>
       </c>
       <c r="C349" t="n">
-        <v>106.077713</v>
+        <v>106.077721</v>
       </c>
     </row>
     <row r="350">
@@ -7322,7 +7322,7 @@
         <v>96.851944</v>
       </c>
       <c r="C356" t="n">
-        <v>110.266121</v>
+        <v>110.266113</v>
       </c>
     </row>
     <row r="357">
@@ -7333,7 +7333,7 @@
         <v>96.939049</v>
       </c>
       <c r="C357" t="n">
-        <v>111.120895</v>
+        <v>111.120903</v>
       </c>
     </row>
     <row r="358">
@@ -7344,7 +7344,7 @@
         <v>97.374535</v>
       </c>
       <c r="C358" t="n">
-        <v>111.975677</v>
+        <v>111.97567</v>
       </c>
     </row>
     <row r="359">
@@ -7355,7 +7355,7 @@
         <v>95.458389</v>
       </c>
       <c r="C359" t="n">
-        <v>111.377327</v>
+        <v>111.377335</v>
       </c>
     </row>
     <row r="360">
@@ -7366,7 +7366,7 @@
         <v>94.935814</v>
       </c>
       <c r="C360" t="n">
-        <v>112.403053</v>
+        <v>112.403061</v>
       </c>
     </row>
     <row r="361">
@@ -7377,7 +7377,7 @@
         <v>90.929352</v>
       </c>
       <c r="C361" t="n">
-        <v>110.864456</v>
+        <v>110.864449</v>
       </c>
     </row>
     <row r="362">
@@ -7399,7 +7399,7 @@
         <v>90.189026</v>
       </c>
       <c r="C363" t="n">
-        <v>109.667778</v>
+        <v>109.66777</v>
       </c>
     </row>
     <row r="364">
@@ -7410,7 +7410,7 @@
         <v>90.493866</v>
       </c>
       <c r="C364" t="n">
-        <v>108.727516</v>
+        <v>108.727524</v>
       </c>
     </row>
     <row r="365">
@@ -7432,7 +7432,7 @@
         <v>86.260948</v>
       </c>
       <c r="C366" t="n">
-        <v>104.539124</v>
+        <v>104.539116</v>
       </c>
     </row>
     <row r="367">
@@ -7520,7 +7520,7 @@
         <v>92.540642</v>
       </c>
       <c r="C374" t="n">
-        <v>110.693504</v>
+        <v>110.693512</v>
       </c>
     </row>
     <row r="375">
@@ -7531,7 +7531,7 @@
         <v>90.75515</v>
       </c>
       <c r="C375" t="n">
-        <v>109.411346</v>
+        <v>109.411339</v>
       </c>
     </row>
     <row r="376">
@@ -7564,7 +7564,7 @@
         <v>89.492249</v>
       </c>
       <c r="C378" t="n">
-        <v>105.393898</v>
+        <v>105.393906</v>
       </c>
     </row>
     <row r="379">
@@ -7652,7 +7652,7 @@
         <v>90.406769</v>
       </c>
       <c r="C386" t="n">
-        <v>102.573128</v>
+        <v>102.573135</v>
       </c>
     </row>
     <row r="387">
@@ -7718,7 +7718,7 @@
         <v>87.314819</v>
       </c>
       <c r="C392" t="n">
-        <v>100.350708</v>
+        <v>100.350716</v>
       </c>
     </row>
     <row r="393">
@@ -7751,7 +7751,7 @@
         <v>84.066093</v>
       </c>
       <c r="C395" t="n">
-        <v>98.042824</v>
+        <v>98.042816</v>
       </c>
     </row>
     <row r="396">
@@ -7762,7 +7762,7 @@
         <v>83.839645</v>
       </c>
       <c r="C396" t="n">
-        <v>99.923325</v>
+        <v>99.923332</v>
       </c>
     </row>
     <row r="397">
@@ -7773,7 +7773,7 @@
         <v>83.508675</v>
       </c>
       <c r="C397" t="n">
-        <v>98.726639</v>
+        <v>98.726646</v>
       </c>
     </row>
     <row r="398">
@@ -7784,7 +7784,7 @@
         <v>83.857071</v>
       </c>
       <c r="C398" t="n">
-        <v>98.641159</v>
+        <v>98.641167</v>
       </c>
     </row>
     <row r="399">
@@ -7795,7 +7795,7 @@
         <v>82.672539</v>
       </c>
       <c r="C399" t="n">
-        <v>98.128304</v>
+        <v>98.128296</v>
       </c>
     </row>
     <row r="400">
@@ -7806,7 +7806,7 @@
         <v>81.244148</v>
       </c>
       <c r="C400" t="n">
-        <v>95.991356</v>
+        <v>95.991364</v>
       </c>
     </row>
     <row r="401">
@@ -7828,7 +7828,7 @@
         <v>77.516403</v>
       </c>
       <c r="C402" t="n">
-        <v>92.230339</v>
+        <v>92.230347</v>
       </c>
     </row>
     <row r="403">
@@ -7872,7 +7872,7 @@
         <v>77.88221</v>
       </c>
       <c r="C406" t="n">
-        <v>93.597984</v>
+        <v>93.597992</v>
       </c>
     </row>
     <row r="407">
@@ -7883,7 +7883,7 @@
         <v>77.516403</v>
       </c>
       <c r="C407" t="n">
-        <v>92.65773</v>
+        <v>92.657738</v>
       </c>
     </row>
     <row r="408">
@@ -7949,7 +7949,7 @@
         <v>76.593178</v>
       </c>
       <c r="C413" t="n">
-        <v>80.348953</v>
+        <v>80.348946</v>
       </c>
     </row>
     <row r="414">
@@ -8026,7 +8026,7 @@
         <v>86.644173</v>
       </c>
       <c r="C420" t="n">
-        <v>86.930725</v>
+        <v>86.930733</v>
       </c>
     </row>
     <row r="421">
@@ -8037,7 +8037,7 @@
         <v>88.055138</v>
       </c>
       <c r="C421" t="n">
-        <v>88.554802</v>
+        <v>88.55481</v>
       </c>
     </row>
     <row r="422">
@@ -8048,7 +8048,7 @@
         <v>87.968048</v>
       </c>
       <c r="C422" t="n">
-        <v>88.041946</v>
+        <v>88.041931</v>
       </c>
     </row>
     <row r="423">
@@ -8059,7 +8059,7 @@
         <v>88.011597</v>
       </c>
       <c r="C423" t="n">
-        <v>87.870987</v>
+        <v>87.870995</v>
       </c>
     </row>
     <row r="424">
@@ -8070,7 +8070,7 @@
         <v>91.190636</v>
       </c>
       <c r="C424" t="n">
-        <v>88.554802</v>
+        <v>88.55481</v>
       </c>
     </row>
     <row r="425">
@@ -8081,7 +8081,7 @@
         <v>88.22934</v>
       </c>
       <c r="C425" t="n">
-        <v>88.640274</v>
+        <v>88.640282</v>
       </c>
     </row>
     <row r="426">
@@ -8114,7 +8114,7 @@
         <v>84.414482</v>
       </c>
       <c r="C428" t="n">
-        <v>89.495056</v>
+        <v>89.495064</v>
       </c>
     </row>
     <row r="429">
@@ -8147,7 +8147,7 @@
         <v>83.543518</v>
       </c>
       <c r="C431" t="n">
-        <v>103.342438</v>
+        <v>103.34243</v>
       </c>
     </row>
     <row r="432">
@@ -8202,7 +8202,7 @@
         <v>82.742226</v>
       </c>
       <c r="C436" t="n">
-        <v>102.402184</v>
+        <v>102.402176</v>
       </c>
     </row>
     <row r="437">
@@ -8213,7 +8213,7 @@
         <v>82.02803</v>
       </c>
       <c r="C437" t="n">
-        <v>99.923325</v>
+        <v>99.923332</v>
       </c>
     </row>
     <row r="438">
@@ -8268,7 +8268,7 @@
         <v>79.972534</v>
       </c>
       <c r="C442" t="n">
-        <v>102.316704</v>
+        <v>102.316696</v>
       </c>
     </row>
     <row r="443">
@@ -8301,7 +8301,7 @@
         <v>83.595772</v>
       </c>
       <c r="C445" t="n">
-        <v>104.795547</v>
+        <v>104.795555</v>
       </c>
     </row>
     <row r="446">
@@ -8323,7 +8323,7 @@
         <v>84.693199</v>
       </c>
       <c r="C447" t="n">
-        <v>109.92421</v>
+        <v>109.924217</v>
       </c>
     </row>
     <row r="448">
@@ -8345,7 +8345,7 @@
         <v>83.82222</v>
       </c>
       <c r="C449" t="n">
-        <v>110.266121</v>
+        <v>110.266113</v>
       </c>
     </row>
     <row r="450">
@@ -8356,7 +8356,7 @@
         <v>85.877716</v>
       </c>
       <c r="C450" t="n">
-        <v>112.659492</v>
+        <v>112.6595</v>
       </c>
     </row>
     <row r="451">
@@ -8378,7 +8378,7 @@
         <v>85.529327</v>
       </c>
       <c r="C452" t="n">
-        <v>115.394775</v>
+        <v>115.394768</v>
       </c>
     </row>
     <row r="453">
@@ -8389,7 +8389,7 @@
         <v>85.668686</v>
       </c>
       <c r="C453" t="n">
-        <v>114.881912</v>
+        <v>114.881905</v>
       </c>
     </row>
     <row r="454">
@@ -8411,7 +8411,7 @@
         <v>85.616432</v>
       </c>
       <c r="C455" t="n">
-        <v>114.454521</v>
+        <v>114.454514</v>
       </c>
     </row>
     <row r="456">
@@ -8422,7 +8422,7 @@
         <v>84.867393</v>
       </c>
       <c r="C456" t="n">
-        <v>115.736671</v>
+        <v>115.736679</v>
       </c>
     </row>
     <row r="457">
@@ -8433,7 +8433,7 @@
         <v>82.829323</v>
       </c>
       <c r="C457" t="n">
-        <v>113.856171</v>
+        <v>113.856178</v>
       </c>
     </row>
     <row r="458">
@@ -8444,7 +8444,7 @@
         <v>83.247383</v>
       </c>
       <c r="C458" t="n">
-        <v>112.317574</v>
+        <v>112.317581</v>
       </c>
     </row>
     <row r="459">
@@ -8466,7 +8466,7 @@
         <v>81.348671</v>
       </c>
       <c r="C460" t="n">
-        <v>112.403053</v>
+        <v>112.403061</v>
       </c>
     </row>
     <row r="461">
@@ -8477,7 +8477,7 @@
         <v>81.784157</v>
       </c>
       <c r="C461" t="n">
-        <v>114.454521</v>
+        <v>114.454514</v>
       </c>
     </row>
     <row r="462">
@@ -8510,7 +8510,7 @@
         <v>83.369324</v>
       </c>
       <c r="C464" t="n">
-        <v>115.993111</v>
+        <v>115.993118</v>
       </c>
     </row>
     <row r="465">
@@ -8521,7 +8521,7 @@
         <v>82.498352</v>
       </c>
       <c r="C465" t="n">
-        <v>116.676933</v>
+        <v>116.676941</v>
       </c>
     </row>
     <row r="466">
@@ -8532,7 +8532,7 @@
         <v>82.306732</v>
       </c>
       <c r="C466" t="n">
-        <v>116.93338</v>
+        <v>116.933372</v>
       </c>
     </row>
     <row r="467">
@@ -8554,7 +8554,7 @@
         <v>80.634476</v>
       </c>
       <c r="C468" t="n">
-        <v>111.377327</v>
+        <v>111.377335</v>
       </c>
     </row>
     <row r="469">
@@ -8587,7 +8587,7 @@
         <v>79.362854</v>
       </c>
       <c r="C471" t="n">
-        <v>110.864456</v>
+        <v>110.864449</v>
       </c>
     </row>
     <row r="472">
@@ -8609,7 +8609,7 @@
         <v>78.735756</v>
       </c>
       <c r="C473" t="n">
-        <v>108.727516</v>
+        <v>108.727524</v>
       </c>
     </row>
     <row r="474">
@@ -8631,7 +8631,7 @@
         <v>80.129311</v>
       </c>
       <c r="C475" t="n">
-        <v>110.693504</v>
+        <v>110.693512</v>
       </c>
     </row>
     <row r="476">
@@ -8642,7 +8642,7 @@
         <v>79.275757</v>
       </c>
       <c r="C476" t="n">
-        <v>108.727516</v>
+        <v>108.727524</v>
       </c>
     </row>
     <row r="477">
@@ -8653,7 +8653,7 @@
         <v>80.233833</v>
       </c>
       <c r="C477" t="n">
-        <v>110.266121</v>
+        <v>110.266113</v>
       </c>
     </row>
     <row r="478">
@@ -8664,7 +8664,7 @@
         <v>80.129311</v>
       </c>
       <c r="C478" t="n">
-        <v>109.582291</v>
+        <v>109.582298</v>
       </c>
     </row>
     <row r="479">
@@ -8686,7 +8686,7 @@
         <v>80.129311</v>
       </c>
       <c r="C480" t="n">
-        <v>107.530838</v>
+        <v>107.530846</v>
       </c>
     </row>
     <row r="481">
@@ -8697,7 +8697,7 @@
         <v>79.223503</v>
       </c>
       <c r="C481" t="n">
-        <v>105.479378</v>
+        <v>105.47937</v>
       </c>
     </row>
     <row r="482">
@@ -8763,7 +8763,7 @@
         <v>84.849968</v>
       </c>
       <c r="C487" t="n">
-        <v>113.856171</v>
+        <v>113.856178</v>
       </c>
     </row>
     <row r="488">
@@ -8785,7 +8785,7 @@
         <v>90.580963</v>
       </c>
       <c r="C489" t="n">
-        <v>112.403053</v>
+        <v>112.403061</v>
       </c>
     </row>
     <row r="490">
@@ -8807,7 +8807,7 @@
         <v>94.108391</v>
       </c>
       <c r="C491" t="n">
-        <v>117.104317</v>
+        <v>117.104324</v>
       </c>
     </row>
     <row r="492">
@@ -8818,7 +8818,7 @@
         <v>93.193871</v>
       </c>
       <c r="C492" t="n">
-        <v>118.215546</v>
+        <v>118.215538</v>
       </c>
     </row>
     <row r="493">
@@ -8829,7 +8829,7 @@
         <v>92.105156</v>
       </c>
       <c r="C493" t="n">
-        <v>116.93338</v>
+        <v>116.933372</v>
       </c>
     </row>
     <row r="494">
@@ -8851,7 +8851,7 @@
         <v>93.193871</v>
       </c>
       <c r="C495" t="n">
-        <v>118.899368</v>
+        <v>118.899361</v>
       </c>
     </row>
     <row r="496">
@@ -8862,7 +8862,7 @@
         <v>93.411613</v>
       </c>
       <c r="C496" t="n">
-        <v>119.070328</v>
+        <v>119.07032</v>
       </c>
     </row>
     <row r="497">
@@ -8873,7 +8873,7 @@
         <v>93.890648</v>
       </c>
       <c r="C497" t="n">
-        <v>119.497711</v>
+        <v>119.497696</v>
       </c>
     </row>
     <row r="498">
@@ -8906,7 +8906,7 @@
         <v>92.932579</v>
       </c>
       <c r="C500" t="n">
-        <v>120.60891</v>
+        <v>120.608917</v>
       </c>
     </row>
     <row r="501">
@@ -8917,7 +8917,7 @@
         <v>93.847099</v>
       </c>
       <c r="C501" t="n">
-        <v>120.694374</v>
+        <v>120.694382</v>
       </c>
     </row>
     <row r="502">
@@ -8939,7 +8939,7 @@
         <v>96.068085</v>
       </c>
       <c r="C503" t="n">
-        <v>124.369926</v>
+        <v>124.369919</v>
       </c>
     </row>
     <row r="504">
@@ -8961,7 +8961,7 @@
         <v>93.498711</v>
       </c>
       <c r="C505" t="n">
-        <v>121.891083</v>
+        <v>121.891075</v>
       </c>
     </row>
     <row r="506">
@@ -8972,7 +8972,7 @@
         <v>94.06485</v>
       </c>
       <c r="C506" t="n">
-        <v>123.686089</v>
+        <v>123.686111</v>
       </c>
     </row>
     <row r="507">
@@ -8983,7 +8983,7 @@
         <v>93.411613</v>
       </c>
       <c r="C507" t="n">
-        <v>123.258713</v>
+        <v>123.258705</v>
       </c>
     </row>
     <row r="508">
@@ -8994,7 +8994,7 @@
         <v>94.674522</v>
       </c>
       <c r="C508" t="n">
-        <v>123.600624</v>
+        <v>123.600632</v>
       </c>
     </row>
     <row r="509">
@@ -9005,7 +9005,7 @@
         <v>95.806786</v>
       </c>
       <c r="C509" t="n">
-        <v>123.344208</v>
+        <v>123.344193</v>
       </c>
     </row>
     <row r="510">
@@ -9038,7 +9038,7 @@
         <v>96.721306</v>
       </c>
       <c r="C512" t="n">
-        <v>127.703537</v>
+        <v>127.703552</v>
       </c>
     </row>
     <row r="513">
@@ -9049,7 +9049,7 @@
         <v>94.848717</v>
       </c>
       <c r="C513" t="n">
-        <v>126.934265</v>
+        <v>126.93425</v>
       </c>
     </row>
     <row r="514">
@@ -9071,7 +9071,7 @@
         <v>92.453545</v>
       </c>
       <c r="C515" t="n">
-        <v>123.087769</v>
+        <v>123.087753</v>
       </c>
     </row>
     <row r="516">
@@ -9082,7 +9082,7 @@
         <v>94.500328</v>
       </c>
       <c r="C516" t="n">
-        <v>125.224701</v>
+        <v>125.224693</v>
       </c>
     </row>
     <row r="517">
@@ -9104,7 +9104,7 @@
         <v>94.674522</v>
       </c>
       <c r="C518" t="n">
-        <v>124.198967</v>
+        <v>124.198975</v>
       </c>
     </row>
     <row r="519">
@@ -9126,7 +9126,7 @@
         <v>97.200333</v>
       </c>
       <c r="C520" t="n">
-        <v>125.652092</v>
+        <v>125.652077</v>
       </c>
     </row>
     <row r="521">
@@ -9137,7 +9137,7 @@
         <v>99.943893</v>
       </c>
       <c r="C521" t="n">
-        <v>127.276161</v>
+        <v>127.276154</v>
       </c>
     </row>
     <row r="522">
@@ -9148,7 +9148,7 @@
         <v>100.422935</v>
       </c>
       <c r="C522" t="n">
-        <v>128.472855</v>
+        <v>128.472839</v>
       </c>
     </row>
     <row r="523">
@@ -9170,7 +9170,7 @@
         <v>102.51326</v>
       </c>
       <c r="C524" t="n">
-        <v>130.438843</v>
+        <v>130.438828</v>
       </c>
     </row>
     <row r="525">
@@ -9192,7 +9192,7 @@
         <v>105.822952</v>
       </c>
       <c r="C526" t="n">
-        <v>133.516037</v>
+        <v>133.516022</v>
       </c>
     </row>
     <row r="527">
@@ -9214,7 +9214,7 @@
         <v>106.51973</v>
       </c>
       <c r="C528" t="n">
-        <v>134.19986</v>
+        <v>134.199844</v>
       </c>
     </row>
     <row r="529">
@@ -9269,7 +9269,7 @@
         <v>106.476181</v>
       </c>
       <c r="C533" t="n">
-        <v>138.47374</v>
+        <v>138.473724</v>
       </c>
     </row>
     <row r="534">
@@ -9291,7 +9291,7 @@
         <v>100.161644</v>
       </c>
       <c r="C535" t="n">
-        <v>134.19986</v>
+        <v>134.199844</v>
       </c>
     </row>
     <row r="536">
@@ -9357,7 +9357,7 @@
         <v>93.063232</v>
       </c>
       <c r="C541" t="n">
-        <v>109.838737</v>
+        <v>109.83873</v>
       </c>
     </row>
     <row r="542">
@@ -9379,7 +9379,7 @@
         <v>91.147095</v>
       </c>
       <c r="C543" t="n">
-        <v>104.795547</v>
+        <v>104.795555</v>
       </c>
     </row>
     <row r="544">
@@ -9412,7 +9412,7 @@
         <v>77.289948</v>
       </c>
       <c r="C546" t="n">
-        <v>93.854416</v>
+        <v>93.854424</v>
       </c>
     </row>
     <row r="547">
@@ -9445,7 +9445,7 @@
         <v>67.761528</v>
       </c>
       <c r="C549" t="n">
-        <v>83.682587</v>
+        <v>83.682579</v>
       </c>
     </row>
     <row r="550">
@@ -9467,7 +9467,7 @@
         <v>64.62603</v>
       </c>
       <c r="C551" t="n">
-        <v>80.220734</v>
+        <v>80.220741</v>
       </c>
     </row>
     <row r="552">
@@ -9478,7 +9478,7 @@
         <v>71.60997</v>
       </c>
       <c r="C552" t="n">
-        <v>77.399986</v>
+        <v>77.399979</v>
       </c>
     </row>
     <row r="553">
@@ -9489,7 +9489,7 @@
         <v>71.708336</v>
       </c>
       <c r="C553" t="n">
-        <v>78.126541</v>
+        <v>78.126534</v>
       </c>
     </row>
     <row r="554">
@@ -9577,7 +9577,7 @@
         <v>75.642952</v>
       </c>
       <c r="C561" t="n">
-        <v>91.515839</v>
+        <v>91.515846</v>
       </c>
     </row>
     <row r="562">
@@ -9610,7 +9610,7 @@
         <v>71.078796</v>
       </c>
       <c r="C564" t="n">
-        <v>88.706573</v>
+        <v>88.706566</v>
       </c>
     </row>
     <row r="565">
@@ -9621,7 +9621,7 @@
         <v>72.141136</v>
       </c>
       <c r="C565" t="n">
-        <v>88.373268</v>
+        <v>88.37326</v>
       </c>
     </row>
     <row r="566">
@@ -9687,7 +9687,7 @@
         <v>72.318199</v>
       </c>
       <c r="C571" t="n">
-        <v>89.373169</v>
+        <v>89.373177</v>
       </c>
     </row>
     <row r="572">
@@ -9698,7 +9698,7 @@
         <v>71.82637</v>
       </c>
       <c r="C572" t="n">
-        <v>90.992088</v>
+        <v>90.992081</v>
       </c>
     </row>
     <row r="573">
@@ -9731,7 +9731,7 @@
         <v>72.455917</v>
       </c>
       <c r="C575" t="n">
-        <v>91.230164</v>
+        <v>91.230156</v>
       </c>
     </row>
     <row r="576">
@@ -9742,7 +9742,7 @@
         <v>70.134491</v>
       </c>
       <c r="C576" t="n">
-        <v>89.706474</v>
+        <v>89.706482</v>
       </c>
     </row>
     <row r="577">
@@ -9786,7 +9786,7 @@
         <v>79.479202</v>
       </c>
       <c r="C580" t="n">
-        <v>107.89537</v>
+        <v>107.895378</v>
       </c>
     </row>
     <row r="581">
@@ -9830,7 +9830,7 @@
         <v>74.226486</v>
       </c>
       <c r="C584" t="n">
-        <v>95.08696</v>
+        <v>95.086967</v>
       </c>
     </row>
     <row r="585">
@@ -9852,7 +9852,7 @@
         <v>74.619949</v>
       </c>
       <c r="C586" t="n">
-        <v>100.086533</v>
+        <v>100.086525</v>
       </c>
     </row>
     <row r="587">
@@ -9863,7 +9863,7 @@
         <v>74.167473</v>
       </c>
       <c r="C587" t="n">
-        <v>101.134048</v>
+        <v>101.134056</v>
       </c>
     </row>
     <row r="588">
@@ -9896,7 +9896,7 @@
         <v>70.803375</v>
       </c>
       <c r="C590" t="n">
-        <v>99.991302</v>
+        <v>99.991295</v>
       </c>
     </row>
     <row r="591">
@@ -9918,7 +9918,7 @@
         <v>73.400223</v>
       </c>
       <c r="C592" t="n">
-        <v>100.657898</v>
+        <v>100.657906</v>
       </c>
     </row>
     <row r="593">
@@ -9929,7 +9929,7 @@
         <v>75.564255</v>
       </c>
       <c r="C593" t="n">
-        <v>102.467278</v>
+        <v>102.46727</v>
       </c>
     </row>
     <row r="594">
@@ -9973,7 +9973,7 @@
         <v>83.748253</v>
       </c>
       <c r="C597" t="n">
-        <v>111.799789</v>
+        <v>111.799797</v>
       </c>
     </row>
     <row r="598">
@@ -9995,7 +9995,7 @@
         <v>86.128693</v>
       </c>
       <c r="C599" t="n">
-        <v>116.656509</v>
+        <v>116.656517</v>
       </c>
     </row>
     <row r="600">
@@ -10017,7 +10017,7 @@
         <v>89.256706</v>
       </c>
       <c r="C601" t="n">
-        <v>123.893982</v>
+        <v>123.89399</v>
       </c>
     </row>
     <row r="602">
@@ -10072,7 +10072,7 @@
         <v>86.42379</v>
       </c>
       <c r="C606" t="n">
-        <v>117.704041</v>
+        <v>117.704048</v>
       </c>
     </row>
     <row r="607">
@@ -10094,7 +10094,7 @@
         <v>87.663193</v>
       </c>
       <c r="C608" t="n">
-        <v>120.751396</v>
+        <v>120.751404</v>
       </c>
     </row>
     <row r="609">
@@ -10160,7 +10160,7 @@
         <v>87.466461</v>
       </c>
       <c r="C614" t="n">
-        <v>117.704041</v>
+        <v>117.704048</v>
       </c>
     </row>
     <row r="615">
@@ -10204,7 +10204,7 @@
         <v>86.836922</v>
       </c>
       <c r="C618" t="n">
-        <v>117.13266</v>
+        <v>117.132668</v>
       </c>
     </row>
     <row r="619">
@@ -10325,7 +10325,7 @@
         <v>100.185097</v>
       </c>
       <c r="C629" t="n">
-        <v>124.465355</v>
+        <v>124.465363</v>
       </c>
     </row>
     <row r="630">
@@ -10336,7 +10336,7 @@
         <v>100.185097</v>
       </c>
       <c r="C630" t="n">
-        <v>125.512886</v>
+        <v>125.512894</v>
       </c>
     </row>
     <row r="631">
@@ -10358,7 +10358,7 @@
         <v>104.267265</v>
       </c>
       <c r="C632" t="n">
-        <v>125.036736</v>
+        <v>125.036743</v>
       </c>
     </row>
     <row r="633">
@@ -10391,7 +10391,7 @@
         <v>103.72625</v>
       </c>
       <c r="C635" t="n">
-        <v>125.322433</v>
+        <v>125.322441</v>
       </c>
     </row>
     <row r="636">
@@ -10402,7 +10402,7 @@
         <v>104.218079</v>
       </c>
       <c r="C636" t="n">
-        <v>124.941498</v>
+        <v>124.941505</v>
       </c>
     </row>
     <row r="637">
@@ -10413,7 +10413,7 @@
         <v>102.250771</v>
       </c>
       <c r="C637" t="n">
-        <v>122.655998</v>
+        <v>122.655991</v>
       </c>
     </row>
     <row r="638">
@@ -10468,7 +10468,7 @@
         <v>101.168755</v>
       </c>
       <c r="C642" t="n">
-        <v>115.894676</v>
+        <v>115.894669</v>
       </c>
     </row>
     <row r="643">
@@ -10479,7 +10479,7 @@
         <v>100.480202</v>
       </c>
       <c r="C643" t="n">
-        <v>116.75174</v>
+        <v>116.751747</v>
       </c>
     </row>
     <row r="644">
@@ -10490,7 +10490,7 @@
         <v>100.922836</v>
       </c>
       <c r="C644" t="n">
-        <v>115.989914</v>
+        <v>115.989906</v>
       </c>
     </row>
     <row r="645">
@@ -10501,7 +10501,7 @@
         <v>100.332649</v>
       </c>
       <c r="C645" t="n">
-        <v>115.418526</v>
+        <v>115.418518</v>
       </c>
     </row>
     <row r="646">
@@ -10567,7 +10567,7 @@
         <v>102.349144</v>
       </c>
       <c r="C651" t="n">
-        <v>113.609169</v>
+        <v>113.609161</v>
       </c>
     </row>
     <row r="652">
@@ -10611,7 +10611,7 @@
         <v>96.496399</v>
       </c>
       <c r="C655" t="n">
-        <v>110.466576</v>
+        <v>110.466583</v>
       </c>
     </row>
     <row r="656">
@@ -10622,7 +10622,7 @@
         <v>97.047249</v>
       </c>
       <c r="C656" t="n">
-        <v>109.799973</v>
+        <v>109.799965</v>
       </c>
     </row>
     <row r="657">
@@ -10655,7 +10655,7 @@
         <v>97.971878</v>
       </c>
       <c r="C659" t="n">
-        <v>107.228767</v>
+        <v>107.22876</v>
       </c>
     </row>
     <row r="660">
@@ -10666,7 +10666,7 @@
         <v>96.594765</v>
       </c>
       <c r="C660" t="n">
-        <v>106.847847</v>
+        <v>106.847839</v>
       </c>
     </row>
     <row r="661">
@@ -10699,7 +10699,7 @@
         <v>92.463425</v>
       </c>
       <c r="C663" t="n">
-        <v>95.705963</v>
+        <v>95.705956</v>
       </c>
     </row>
     <row r="664">
@@ -10754,7 +10754,7 @@
         <v>87.859924</v>
       </c>
       <c r="C668" t="n">
-        <v>96.467796</v>
+        <v>96.467804</v>
       </c>
     </row>
     <row r="669">
@@ -10765,7 +10765,7 @@
         <v>88.627174</v>
       </c>
       <c r="C669" t="n">
-        <v>98.181938</v>
+        <v>98.181931</v>
       </c>
     </row>
     <row r="670">
@@ -10776,7 +10776,7 @@
         <v>88.587822</v>
       </c>
       <c r="C670" t="n">
-        <v>99.705605</v>
+        <v>99.705612</v>
       </c>
     </row>
     <row r="671">
@@ -10787,7 +10787,7 @@
         <v>86.502487</v>
       </c>
       <c r="C671" t="n">
-        <v>99.610382</v>
+        <v>99.610374</v>
       </c>
     </row>
     <row r="672">
@@ -10809,7 +10809,7 @@
         <v>86.187714</v>
       </c>
       <c r="C673" t="n">
-        <v>99.134232</v>
+        <v>99.134224</v>
       </c>
     </row>
     <row r="674">
@@ -10820,7 +10820,7 @@
         <v>86.384445</v>
       </c>
       <c r="C674" t="n">
-        <v>97.896248</v>
+        <v>97.89624</v>
       </c>
     </row>
     <row r="675">
@@ -10842,7 +10842,7 @@
         <v>83.0597</v>
       </c>
       <c r="C676" t="n">
-        <v>96.372559</v>
+        <v>96.372566</v>
       </c>
     </row>
     <row r="677">
@@ -10853,7 +10853,7 @@
         <v>80.659584</v>
       </c>
       <c r="C677" t="n">
-        <v>94.372734</v>
+        <v>94.372742</v>
       </c>
     </row>
     <row r="678">
@@ -10875,7 +10875,7 @@
         <v>81.938332</v>
       </c>
       <c r="C679" t="n">
-        <v>93.563293</v>
+        <v>93.563286</v>
       </c>
     </row>
     <row r="680">
@@ -10930,7 +10930,7 @@
         <v>84.692558</v>
       </c>
       <c r="C684" t="n">
-        <v>94.848885</v>
+        <v>94.848892</v>
       </c>
     </row>
     <row r="685">
@@ -10952,7 +10952,7 @@
         <v>83.453156</v>
       </c>
       <c r="C686" t="n">
-        <v>103.133881</v>
+        <v>103.133888</v>
       </c>
     </row>
     <row r="687">
@@ -10963,7 +10963,7 @@
         <v>85.57785</v>
       </c>
       <c r="C687" t="n">
-        <v>103.133881</v>
+        <v>103.133888</v>
       </c>
     </row>
     <row r="688">
@@ -10996,7 +10996,7 @@
         <v>89.453445</v>
       </c>
       <c r="C690" t="n">
-        <v>103.990952</v>
+        <v>103.990944</v>
       </c>
     </row>
     <row r="691">
@@ -11073,7 +11073,7 @@
         <v>91.401077</v>
       </c>
       <c r="C697" t="n">
-        <v>103.990952</v>
+        <v>103.990944</v>
       </c>
     </row>
     <row r="698">
@@ -11161,7 +11161,7 @@
         <v>84.161385</v>
       </c>
       <c r="C705" t="n">
-        <v>102.372047</v>
+        <v>102.37204</v>
       </c>
     </row>
     <row r="706">
@@ -11205,7 +11205,7 @@
         <v>86.974632</v>
       </c>
       <c r="C709" t="n">
-        <v>111.799789</v>
+        <v>111.799797</v>
       </c>
     </row>
     <row r="710">
@@ -11227,7 +11227,7 @@
         <v>88.627174</v>
       </c>
       <c r="C711" t="n">
-        <v>109.514275</v>
+        <v>109.514282</v>
       </c>
     </row>
     <row r="712">
@@ -11293,7 +11293,7 @@
         <v>102.447502</v>
       </c>
       <c r="C717" t="n">
-        <v>124.274902</v>
+        <v>124.274895</v>
       </c>
     </row>
     <row r="718">
@@ -11304,7 +11304,7 @@
         <v>102.890144</v>
       </c>
       <c r="C718" t="n">
-        <v>126.274734</v>
+        <v>126.274727</v>
       </c>
     </row>
     <row r="719">
@@ -11359,7 +11359,7 @@
         <v>103.234421</v>
       </c>
       <c r="C723" t="n">
-        <v>124.751053</v>
+        <v>124.751045</v>
       </c>
     </row>
     <row r="724">
@@ -11381,7 +11381,7 @@
         <v>102.98851</v>
       </c>
       <c r="C725" t="n">
-        <v>124.751053</v>
+        <v>124.751045</v>
       </c>
     </row>
     <row r="726">
@@ -11425,7 +11425,7 @@
         <v>102.250771</v>
       </c>
       <c r="C729" t="n">
-        <v>124.751053</v>
+        <v>124.751045</v>
       </c>
     </row>
     <row r="730">
@@ -11447,7 +11447,7 @@
         <v>101.513031</v>
       </c>
       <c r="C731" t="n">
-        <v>124.274902</v>
+        <v>124.274895</v>
       </c>
     </row>
     <row r="732">
@@ -11546,7 +11546,7 @@
         <v>94.529091</v>
       </c>
       <c r="C740" t="n">
-        <v>121.608459</v>
+        <v>121.608467</v>
       </c>
     </row>
     <row r="741">
@@ -11579,7 +11579,7 @@
         <v>96.870193</v>
       </c>
       <c r="C743" t="n">
-        <v>124.941498</v>
+        <v>124.941505</v>
       </c>
     </row>
     <row r="744">
@@ -11590,7 +11590,7 @@
         <v>99.742462</v>
       </c>
       <c r="C744" t="n">
-        <v>125.989037</v>
+        <v>125.989044</v>
       </c>
     </row>
     <row r="745">
@@ -11623,7 +11623,7 @@
         <v>99.004723</v>
       </c>
       <c r="C747" t="n">
-        <v>128.084091</v>
+        <v>128.084106</v>
       </c>
     </row>
     <row r="748">
@@ -11656,7 +11656,7 @@
         <v>103.627884</v>
       </c>
       <c r="C750" t="n">
-        <v>128.941147</v>
+        <v>128.941162</v>
       </c>
     </row>
     <row r="751">
@@ -11667,7 +11667,7 @@
         <v>108.054329</v>
       </c>
       <c r="C751" t="n">
-        <v>132.369446</v>
+        <v>132.369431</v>
       </c>
     </row>
     <row r="752">
@@ -11854,7 +11854,7 @@
         <v>103.480339</v>
       </c>
       <c r="C768" t="n">
-        <v>121.608459</v>
+        <v>121.608467</v>
       </c>
     </row>
     <row r="769">
@@ -11865,7 +11865,7 @@
         <v>104.070534</v>
       </c>
       <c r="C769" t="n">
-        <v>123.893982</v>
+        <v>123.89399</v>
       </c>
     </row>
     <row r="770">
@@ -11942,7 +11942,7 @@
         <v>107.955963</v>
       </c>
       <c r="C776" t="n">
-        <v>126.750885</v>
+        <v>126.750877</v>
       </c>
     </row>
     <row r="777">
@@ -11986,7 +11986,7 @@
         <v>110.857735</v>
       </c>
       <c r="C780" t="n">
-        <v>132.369446</v>
+        <v>132.369431</v>
       </c>
     </row>
     <row r="781">
@@ -12019,7 +12019,7 @@
         <v>111.644661</v>
       </c>
       <c r="C783" t="n">
-        <v>132.940826</v>
+        <v>132.940811</v>
       </c>
     </row>
     <row r="784">
@@ -12030,7 +12030,7 @@
         <v>111.447937</v>
       </c>
       <c r="C784" t="n">
-        <v>134.178787</v>
+        <v>134.178802</v>
       </c>
     </row>
     <row r="785">
@@ -12041,7 +12041,7 @@
         <v>112.333221</v>
       </c>
       <c r="C785" t="n">
-        <v>134.940628</v>
+        <v>134.940643</v>
       </c>
     </row>
     <row r="786">
@@ -12052,7 +12052,7 @@
         <v>115.087448</v>
       </c>
       <c r="C786" t="n">
-        <v>135.226334</v>
+        <v>135.226318</v>
       </c>
     </row>
     <row r="787">
@@ -12074,7 +12074,7 @@
         <v>114.595627</v>
       </c>
       <c r="C788" t="n">
-        <v>136.654785</v>
+        <v>136.65477</v>
       </c>
     </row>
     <row r="789">
@@ -12096,7 +12096,7 @@
         <v>116.366203</v>
       </c>
       <c r="C790" t="n">
-        <v>153.319992</v>
+        <v>153.319977</v>
       </c>
     </row>
     <row r="791">
@@ -12107,7 +12107,7 @@
         <v>116.218651</v>
       </c>
       <c r="C791" t="n">
-        <v>152.367691</v>
+        <v>152.367706</v>
       </c>
     </row>
     <row r="792">
@@ -12118,7 +12118,7 @@
         <v>118.82534</v>
       </c>
       <c r="C792" t="n">
-        <v>151.129715</v>
+        <v>151.1297</v>
       </c>
     </row>
     <row r="793">
@@ -12173,7 +12173,7 @@
         <v>120.54673</v>
       </c>
       <c r="C797" t="n">
-        <v>154.938904</v>
+        <v>154.938889</v>
       </c>
     </row>
     <row r="798">
@@ -12184,7 +12184,7 @@
         <v>120.497543</v>
       </c>
       <c r="C798" t="n">
-        <v>154.272293</v>
+        <v>154.272278</v>
       </c>
     </row>
     <row r="799">
@@ -12195,7 +12195,7 @@
         <v>120.349998</v>
       </c>
       <c r="C799" t="n">
-        <v>155.415054</v>
+        <v>155.415039</v>
       </c>
     </row>
     <row r="800">
@@ -12250,7 +12250,7 @@
         <v>118.25</v>
       </c>
       <c r="C804" t="n">
-        <v>155.224594</v>
+        <v>155.224579</v>
       </c>
     </row>
     <row r="805">
@@ -12261,7 +12261,7 @@
         <v>119.300003</v>
       </c>
       <c r="C805" t="n">
-        <v>159.986084</v>
+        <v>159.986069</v>
       </c>
     </row>
     <row r="806">

--- a/Danske aktiekurser.xlsx
+++ b/Danske aktiekurser.xlsx
@@ -3425,10 +3425,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>189.887924</v>
+        <v>189.887909</v>
       </c>
       <c r="C2" t="n">
-        <v>191.282867</v>
+        <v>191.282898</v>
       </c>
     </row>
     <row r="3">
@@ -3439,7 +3439,7 @@
         <v>188.870819</v>
       </c>
       <c r="C3" t="n">
-        <v>190.824905</v>
+        <v>190.82489</v>
       </c>
     </row>
     <row r="4">
@@ -3447,10 +3447,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>190.513855</v>
+        <v>190.51384</v>
       </c>
       <c r="C4" t="n">
-        <v>192.351486</v>
+        <v>192.351501</v>
       </c>
     </row>
     <row r="5">
@@ -3480,7 +3480,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="n">
-        <v>190.357376</v>
+        <v>190.357361</v>
       </c>
       <c r="C7" t="n">
         <v>191.588196</v>
@@ -3505,7 +3505,7 @@
         <v>196.14711</v>
       </c>
       <c r="C9" t="n">
-        <v>196.320663</v>
+        <v>196.320648</v>
       </c>
     </row>
     <row r="10">
@@ -3513,10 +3513,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="n">
-        <v>194.817032</v>
+        <v>194.817047</v>
       </c>
       <c r="C10" t="n">
-        <v>195.099396</v>
+        <v>195.09938</v>
       </c>
     </row>
     <row r="11">
@@ -3527,7 +3527,7 @@
         <v>196.303589</v>
       </c>
       <c r="C11" t="n">
-        <v>193.5728</v>
+        <v>193.572784</v>
       </c>
     </row>
     <row r="12">
@@ -3535,7 +3535,7 @@
         <v>13</v>
       </c>
       <c r="B12" t="n">
-        <v>195.521194</v>
+        <v>195.521179</v>
       </c>
       <c r="C12" t="n">
         <v>192.504166</v>
@@ -3549,7 +3549,7 @@
         <v>195.990631</v>
       </c>
       <c r="C13" t="n">
-        <v>191.435547</v>
+        <v>191.435532</v>
       </c>
     </row>
     <row r="14">
@@ -3568,7 +3568,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="n">
-        <v>190.670334</v>
+        <v>190.670319</v>
       </c>
       <c r="C15" t="n">
         <v>191.893509</v>
@@ -3590,10 +3590,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="n">
-        <v>192.078629</v>
+        <v>192.078659</v>
       </c>
       <c r="C17" t="n">
-        <v>191.435547</v>
+        <v>191.435532</v>
       </c>
     </row>
     <row r="18">
@@ -3601,10 +3601,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="n">
-        <v>192.078629</v>
+        <v>192.078659</v>
       </c>
       <c r="C18" t="n">
-        <v>190.214264</v>
+        <v>190.214249</v>
       </c>
     </row>
     <row r="19">
@@ -3612,10 +3612,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="n">
-        <v>186.680099</v>
+        <v>186.680084</v>
       </c>
       <c r="C19" t="n">
-        <v>185.634445</v>
+        <v>185.63446</v>
       </c>
     </row>
     <row r="20">
@@ -3626,7 +3626,7 @@
         <v>189.966171</v>
       </c>
       <c r="C20" t="n">
-        <v>187.466385</v>
+        <v>187.4664</v>
       </c>
     </row>
     <row r="21">
@@ -3656,10 +3656,10 @@
         <v>24</v>
       </c>
       <c r="B23" t="n">
-        <v>190.513855</v>
+        <v>190.51384</v>
       </c>
       <c r="C23" t="n">
-        <v>187.008392</v>
+        <v>187.008377</v>
       </c>
     </row>
     <row r="24">
@@ -3670,7 +3670,7 @@
         <v>189.418488</v>
       </c>
       <c r="C24" t="n">
-        <v>187.466385</v>
+        <v>187.4664</v>
       </c>
     </row>
     <row r="25">
@@ -3678,10 +3678,10 @@
         <v>26</v>
       </c>
       <c r="B25" t="n">
-        <v>191.609207</v>
+        <v>191.609192</v>
       </c>
       <c r="C25" t="n">
-        <v>187.619049</v>
+        <v>187.619034</v>
       </c>
     </row>
     <row r="26">
@@ -3689,10 +3689,10 @@
         <v>27</v>
       </c>
       <c r="B26" t="n">
-        <v>191.609207</v>
+        <v>191.609192</v>
       </c>
       <c r="C26" t="n">
-        <v>186.397751</v>
+        <v>186.397766</v>
       </c>
     </row>
     <row r="27">
@@ -3711,7 +3711,7 @@
         <v>29</v>
       </c>
       <c r="B28" t="n">
-        <v>189.262009</v>
+        <v>189.261993</v>
       </c>
       <c r="C28" t="n">
         <v>188.687653</v>
@@ -3766,10 +3766,10 @@
         <v>34</v>
       </c>
       <c r="B33" t="n">
-        <v>191.061508</v>
+        <v>191.061523</v>
       </c>
       <c r="C33" t="n">
-        <v>193.267456</v>
+        <v>193.267441</v>
       </c>
     </row>
     <row r="34">
@@ -3788,10 +3788,10 @@
         <v>36</v>
       </c>
       <c r="B35" t="n">
-        <v>194.660568</v>
+        <v>194.660553</v>
       </c>
       <c r="C35" t="n">
-        <v>196.625977</v>
+        <v>196.625992</v>
       </c>
     </row>
     <row r="36">
@@ -3799,7 +3799,7 @@
         <v>37</v>
       </c>
       <c r="B36" t="n">
-        <v>194.895279</v>
+        <v>194.895264</v>
       </c>
       <c r="C36" t="n">
         <v>196.167999</v>
@@ -3810,7 +3810,7 @@
         <v>38</v>
       </c>
       <c r="B37" t="n">
-        <v>191.687439</v>
+        <v>191.687424</v>
       </c>
       <c r="C37" t="n">
         <v>185.481781</v>
@@ -3824,7 +3824,7 @@
         <v>192.861038</v>
       </c>
       <c r="C38" t="n">
-        <v>182.428619</v>
+        <v>182.428604</v>
       </c>
     </row>
     <row r="39">
@@ -3832,10 +3832,10 @@
         <v>40</v>
       </c>
       <c r="B39" t="n">
-        <v>193.252243</v>
+        <v>193.252228</v>
       </c>
       <c r="C39" t="n">
-        <v>180.444016</v>
+        <v>180.444</v>
       </c>
     </row>
     <row r="40">
@@ -3843,10 +3843,10 @@
         <v>41</v>
       </c>
       <c r="B40" t="n">
-        <v>194.504074</v>
+        <v>194.504089</v>
       </c>
       <c r="C40" t="n">
-        <v>186.245087</v>
+        <v>186.245117</v>
       </c>
     </row>
     <row r="41">
@@ -3854,7 +3854,7 @@
         <v>42</v>
       </c>
       <c r="B41" t="n">
-        <v>195.677689</v>
+        <v>195.677673</v>
       </c>
       <c r="C41" t="n">
         <v>183.802536</v>
@@ -3865,10 +3865,10 @@
         <v>43</v>
       </c>
       <c r="B42" t="n">
-        <v>189.731445</v>
+        <v>189.731461</v>
       </c>
       <c r="C42" t="n">
-        <v>183.19191</v>
+        <v>183.191895</v>
       </c>
     </row>
     <row r="43">
@@ -3876,7 +3876,7 @@
         <v>44</v>
       </c>
       <c r="B43" t="n">
-        <v>192.626328</v>
+        <v>192.626312</v>
       </c>
       <c r="C43" t="n">
         <v>182.733917</v>
@@ -3890,7 +3890,7 @@
         <v>190.748566</v>
       </c>
       <c r="C44" t="n">
-        <v>181.665314</v>
+        <v>181.665298</v>
       </c>
     </row>
     <row r="45">
@@ -3898,7 +3898,7 @@
         <v>46</v>
       </c>
       <c r="B45" t="n">
-        <v>189.731445</v>
+        <v>189.731461</v>
       </c>
       <c r="C45" t="n">
         <v>177.696136</v>
@@ -3909,10 +3909,10 @@
         <v>47</v>
       </c>
       <c r="B46" t="n">
-        <v>190.044388</v>
+        <v>190.044403</v>
       </c>
       <c r="C46" t="n">
-        <v>179.833389</v>
+        <v>179.833405</v>
       </c>
     </row>
     <row r="47">
@@ -3920,10 +3920,10 @@
         <v>48</v>
       </c>
       <c r="B47" t="n">
-        <v>189.340256</v>
+        <v>189.34024</v>
       </c>
       <c r="C47" t="n">
-        <v>180.749359</v>
+        <v>180.749344</v>
       </c>
     </row>
     <row r="48">
@@ -3934,7 +3934,7 @@
         <v>191.53096</v>
       </c>
       <c r="C48" t="n">
-        <v>180.749359</v>
+        <v>180.749344</v>
       </c>
     </row>
     <row r="49">
@@ -3945,7 +3945,7 @@
         <v>191.218002</v>
       </c>
       <c r="C49" t="n">
-        <v>182.428619</v>
+        <v>182.428604</v>
       </c>
     </row>
     <row r="50">
@@ -3953,10 +3953,10 @@
         <v>51</v>
       </c>
       <c r="B50" t="n">
-        <v>192.626328</v>
+        <v>192.626312</v>
       </c>
       <c r="C50" t="n">
-        <v>180.902023</v>
+        <v>180.902008</v>
       </c>
     </row>
     <row r="51">
@@ -3964,10 +3964,10 @@
         <v>52</v>
       </c>
       <c r="B51" t="n">
-        <v>193.095749</v>
+        <v>193.095764</v>
       </c>
       <c r="C51" t="n">
-        <v>180.291367</v>
+        <v>180.291351</v>
       </c>
     </row>
     <row r="52">
@@ -3989,7 +3989,7 @@
         <v>190.983292</v>
       </c>
       <c r="C53" t="n">
-        <v>180.138718</v>
+        <v>180.138702</v>
       </c>
     </row>
     <row r="54">
@@ -3997,7 +3997,7 @@
         <v>55</v>
       </c>
       <c r="B54" t="n">
-        <v>191.061508</v>
+        <v>191.061523</v>
       </c>
       <c r="C54" t="n">
         <v>183.113083</v>
@@ -4011,7 +4011,7 @@
         <v>191.306259</v>
       </c>
       <c r="C55" t="n">
-        <v>182.792404</v>
+        <v>182.792419</v>
       </c>
     </row>
     <row r="56">
@@ -4022,7 +4022,7 @@
         <v>191.795761</v>
       </c>
       <c r="C56" t="n">
-        <v>183.594116</v>
+        <v>183.594131</v>
       </c>
     </row>
     <row r="57">
@@ -4033,7 +4033,7 @@
         <v>191.714172</v>
       </c>
       <c r="C57" t="n">
-        <v>185.35791</v>
+        <v>185.357895</v>
       </c>
     </row>
     <row r="58">
@@ -4110,7 +4110,7 @@
         <v>183.148224</v>
       </c>
       <c r="C64" t="n">
-        <v>178.463135</v>
+        <v>178.46312</v>
       </c>
     </row>
     <row r="65">
@@ -4154,7 +4154,7 @@
         <v>182.985062</v>
       </c>
       <c r="C68" t="n">
-        <v>180.868271</v>
+        <v>180.868256</v>
       </c>
     </row>
     <row r="69">
@@ -4165,7 +4165,7 @@
         <v>183.39296</v>
       </c>
       <c r="C69" t="n">
-        <v>180.547577</v>
+        <v>180.547592</v>
       </c>
     </row>
     <row r="70">
@@ -4176,7 +4176,7 @@
         <v>179.477097</v>
       </c>
       <c r="C70" t="n">
-        <v>180.868271</v>
+        <v>180.868256</v>
       </c>
     </row>
     <row r="71">
@@ -4198,7 +4198,7 @@
         <v>180.211319</v>
       </c>
       <c r="C72" t="n">
-        <v>182.311356</v>
+        <v>182.311371</v>
       </c>
     </row>
     <row r="73">
@@ -4209,7 +4209,7 @@
         <v>180.374481</v>
       </c>
       <c r="C73" t="n">
-        <v>181.990692</v>
+        <v>181.990677</v>
       </c>
     </row>
     <row r="74">
@@ -4264,7 +4264,7 @@
         <v>183.229797</v>
       </c>
       <c r="C78" t="n">
-        <v>192.894104</v>
+        <v>192.894089</v>
       </c>
     </row>
     <row r="79">
@@ -4275,7 +4275,7 @@
         <v>184.127182</v>
       </c>
       <c r="C79" t="n">
-        <v>194.657867</v>
+        <v>194.657883</v>
       </c>
     </row>
     <row r="80">
@@ -4330,7 +4330,7 @@
         <v>177.84549</v>
       </c>
       <c r="C84" t="n">
-        <v>184.716507</v>
+        <v>184.716522</v>
       </c>
     </row>
     <row r="85">
@@ -4341,7 +4341,7 @@
         <v>176.05072</v>
       </c>
       <c r="C85" t="n">
-        <v>181.990692</v>
+        <v>181.990677</v>
       </c>
     </row>
     <row r="86">
@@ -4374,7 +4374,7 @@
         <v>176.784943</v>
       </c>
       <c r="C88" t="n">
-        <v>187.121689</v>
+        <v>187.121704</v>
       </c>
     </row>
     <row r="89">
@@ -4396,7 +4396,7 @@
         <v>174.990173</v>
       </c>
       <c r="C90" t="n">
-        <v>186.640656</v>
+        <v>186.640671</v>
       </c>
     </row>
     <row r="91">
@@ -4418,7 +4418,7 @@
         <v>174.255951</v>
       </c>
       <c r="C92" t="n">
-        <v>183.594116</v>
+        <v>183.594131</v>
       </c>
     </row>
     <row r="93">
@@ -4429,7 +4429,7 @@
         <v>176.540192</v>
       </c>
       <c r="C93" t="n">
-        <v>185.197586</v>
+        <v>185.197556</v>
       </c>
     </row>
     <row r="94">
@@ -4451,7 +4451,7 @@
         <v>176.132294</v>
       </c>
       <c r="C95" t="n">
-        <v>185.35791</v>
+        <v>185.357895</v>
       </c>
     </row>
     <row r="96">
@@ -4462,7 +4462,7 @@
         <v>176.948105</v>
       </c>
       <c r="C96" t="n">
-        <v>185.037231</v>
+        <v>185.037216</v>
       </c>
     </row>
     <row r="97">
@@ -4506,7 +4506,7 @@
         <v>168.953232</v>
       </c>
       <c r="C100" t="n">
-        <v>174.935547</v>
+        <v>174.935532</v>
       </c>
     </row>
     <row r="101">
@@ -4517,7 +4517,7 @@
         <v>168.871628</v>
       </c>
       <c r="C101" t="n">
-        <v>175.737244</v>
+        <v>175.737274</v>
       </c>
     </row>
     <row r="102">
@@ -4528,7 +4528,7 @@
         <v>172.461166</v>
       </c>
       <c r="C102" t="n">
-        <v>173.171753</v>
+        <v>173.171738</v>
       </c>
     </row>
     <row r="103">
@@ -4583,7 +4583,7 @@
         <v>174.092773</v>
       </c>
       <c r="C107" t="n">
-        <v>175.737244</v>
+        <v>175.737274</v>
       </c>
     </row>
     <row r="108">
@@ -4594,7 +4594,7 @@
         <v>177.84549</v>
       </c>
       <c r="C108" t="n">
-        <v>177.02002</v>
+        <v>177.020004</v>
       </c>
     </row>
     <row r="109">
@@ -4605,7 +4605,7 @@
         <v>178.498123</v>
       </c>
       <c r="C109" t="n">
-        <v>177.180359</v>
+        <v>177.180344</v>
       </c>
     </row>
     <row r="110">
@@ -4616,7 +4616,7 @@
         <v>178.253387</v>
       </c>
       <c r="C110" t="n">
-        <v>177.340698</v>
+        <v>177.340683</v>
       </c>
     </row>
     <row r="111">
@@ -4649,7 +4649,7 @@
         <v>173.929626</v>
       </c>
       <c r="C113" t="n">
-        <v>175.897598</v>
+        <v>175.897614</v>
       </c>
     </row>
     <row r="114">
@@ -4660,7 +4660,7 @@
         <v>171.971695</v>
       </c>
       <c r="C114" t="n">
-        <v>175.095886</v>
+        <v>175.095871</v>
       </c>
     </row>
     <row r="115">
@@ -4671,7 +4671,7 @@
         <v>170.258499</v>
       </c>
       <c r="C115" t="n">
-        <v>175.416565</v>
+        <v>175.41658</v>
       </c>
     </row>
     <row r="116">
@@ -4682,7 +4682,7 @@
         <v>167.811081</v>
       </c>
       <c r="C116" t="n">
-        <v>173.171753</v>
+        <v>173.171738</v>
       </c>
     </row>
     <row r="117">
@@ -4693,7 +4693,7 @@
         <v>168.626892</v>
       </c>
       <c r="C117" t="n">
-        <v>174.294144</v>
+        <v>174.294159</v>
       </c>
     </row>
     <row r="118">
@@ -4704,7 +4704,7 @@
         <v>166.0979</v>
       </c>
       <c r="C118" t="n">
-        <v>174.294144</v>
+        <v>174.294159</v>
       </c>
     </row>
     <row r="119">
@@ -4715,7 +4715,7 @@
         <v>161.243851</v>
       </c>
       <c r="C119" t="n">
-        <v>173.813141</v>
+        <v>173.813126</v>
       </c>
     </row>
     <row r="120">
@@ -4737,7 +4737,7 @@
         <v>162.018875</v>
       </c>
       <c r="C121" t="n">
-        <v>174.454514</v>
+        <v>174.454498</v>
       </c>
     </row>
     <row r="122">
@@ -4748,7 +4748,7 @@
         <v>162.957047</v>
       </c>
       <c r="C122" t="n">
-        <v>175.897598</v>
+        <v>175.897614</v>
       </c>
     </row>
     <row r="123">
@@ -4759,7 +4759,7 @@
         <v>162.671509</v>
       </c>
       <c r="C123" t="n">
-        <v>175.416565</v>
+        <v>175.41658</v>
       </c>
     </row>
     <row r="124">
@@ -4781,7 +4781,7 @@
         <v>160.999115</v>
       </c>
       <c r="C125" t="n">
-        <v>179.264832</v>
+        <v>179.264847</v>
       </c>
     </row>
     <row r="126">
@@ -4803,7 +4803,7 @@
         <v>155.533218</v>
       </c>
       <c r="C127" t="n">
-        <v>177.661377</v>
+        <v>177.661392</v>
       </c>
     </row>
     <row r="128">
@@ -4869,7 +4869,7 @@
         <v>158.06221</v>
       </c>
       <c r="C133" t="n">
-        <v>181.990692</v>
+        <v>181.990677</v>
       </c>
     </row>
     <row r="134">
@@ -4880,7 +4880,7 @@
         <v>159.163559</v>
       </c>
       <c r="C134" t="n">
-        <v>180.707932</v>
+        <v>180.707916</v>
       </c>
     </row>
     <row r="135">
@@ -4891,7 +4891,7 @@
         <v>144.642227</v>
       </c>
       <c r="C135" t="n">
-        <v>177.661377</v>
+        <v>177.661392</v>
       </c>
     </row>
     <row r="136">
@@ -4902,7 +4902,7 @@
         <v>148.394913</v>
       </c>
       <c r="C136" t="n">
-        <v>179.74585</v>
+        <v>179.745865</v>
       </c>
     </row>
     <row r="137">
@@ -4913,7 +4913,7 @@
         <v>147.456757</v>
       </c>
       <c r="C137" t="n">
-        <v>180.387253</v>
+        <v>180.387238</v>
       </c>
     </row>
     <row r="138">
@@ -4935,7 +4935,7 @@
         <v>151.94368</v>
       </c>
       <c r="C139" t="n">
-        <v>185.037231</v>
+        <v>185.037216</v>
       </c>
     </row>
     <row r="140">
@@ -4946,7 +4946,7 @@
         <v>150.92392</v>
       </c>
       <c r="C140" t="n">
-        <v>185.51825</v>
+        <v>185.518234</v>
       </c>
     </row>
     <row r="141">
@@ -4968,7 +4968,7 @@
         <v>153.208176</v>
       </c>
       <c r="C142" t="n">
-        <v>188.564804</v>
+        <v>188.564789</v>
       </c>
     </row>
     <row r="143">
@@ -4990,7 +4990,7 @@
         <v>151.127884</v>
       </c>
       <c r="C144" t="n">
-        <v>189.526855</v>
+        <v>189.52684</v>
       </c>
     </row>
     <row r="145">
@@ -5023,7 +5023,7 @@
         <v>149.129166</v>
       </c>
       <c r="C147" t="n">
-        <v>185.037231</v>
+        <v>185.037216</v>
       </c>
     </row>
     <row r="148">
@@ -5034,7 +5034,7 @@
         <v>147.538345</v>
       </c>
       <c r="C148" t="n">
-        <v>177.180359</v>
+        <v>177.180344</v>
       </c>
     </row>
     <row r="149">
@@ -5045,7 +5045,7 @@
         <v>147.905441</v>
       </c>
       <c r="C149" t="n">
-        <v>180.387253</v>
+        <v>180.387238</v>
       </c>
     </row>
     <row r="150">
@@ -5067,7 +5067,7 @@
         <v>148.231766</v>
       </c>
       <c r="C151" t="n">
-        <v>179.264832</v>
+        <v>179.264847</v>
       </c>
     </row>
     <row r="152">
@@ -5111,7 +5111,7 @@
         <v>145.906738</v>
       </c>
       <c r="C155" t="n">
-        <v>173.171753</v>
+        <v>173.171738</v>
       </c>
     </row>
     <row r="156">
@@ -5133,7 +5133,7 @@
         <v>149.210739</v>
       </c>
       <c r="C157" t="n">
-        <v>175.095886</v>
+        <v>175.095871</v>
       </c>
     </row>
     <row r="158">
@@ -5144,7 +5144,7 @@
         <v>150.230484</v>
       </c>
       <c r="C158" t="n">
-        <v>175.737244</v>
+        <v>175.737274</v>
       </c>
     </row>
     <row r="159">
@@ -5155,7 +5155,7 @@
         <v>150.719955</v>
       </c>
       <c r="C159" t="n">
-        <v>177.661377</v>
+        <v>177.661392</v>
       </c>
     </row>
     <row r="160">
@@ -5166,7 +5166,7 @@
         <v>153.616074</v>
       </c>
       <c r="C160" t="n">
-        <v>176.057953</v>
+        <v>176.057968</v>
       </c>
     </row>
     <row r="161">
@@ -5177,7 +5177,7 @@
         <v>151.94368</v>
       </c>
       <c r="C161" t="n">
-        <v>175.897598</v>
+        <v>175.897614</v>
       </c>
     </row>
     <row r="162">
@@ -5188,7 +5188,7 @@
         <v>154.717407</v>
       </c>
       <c r="C162" t="n">
-        <v>175.256226</v>
+        <v>175.256241</v>
       </c>
     </row>
     <row r="163">
@@ -5199,7 +5199,7 @@
         <v>157.817459</v>
       </c>
       <c r="C163" t="n">
-        <v>175.256226</v>
+        <v>175.256241</v>
       </c>
     </row>
     <row r="164">
@@ -5221,7 +5221,7 @@
         <v>157.001663</v>
       </c>
       <c r="C165" t="n">
-        <v>153.770111</v>
+        <v>153.770096</v>
       </c>
     </row>
     <row r="166">
@@ -5232,7 +5232,7 @@
         <v>156.634552</v>
       </c>
       <c r="C166" t="n">
-        <v>151.926147</v>
+        <v>151.926132</v>
       </c>
     </row>
     <row r="167">
@@ -5276,7 +5276,7 @@
         <v>148.272552</v>
       </c>
       <c r="C170" t="n">
-        <v>147.917542</v>
+        <v>147.917526</v>
       </c>
     </row>
     <row r="171">
@@ -5287,7 +5287,7 @@
         <v>150.719955</v>
       </c>
       <c r="C171" t="n">
-        <v>148.158051</v>
+        <v>148.158066</v>
       </c>
     </row>
     <row r="172">
@@ -5342,7 +5342,7 @@
         <v>140.114502</v>
       </c>
       <c r="C176" t="n">
-        <v>148.879578</v>
+        <v>148.879608</v>
       </c>
     </row>
     <row r="177">
@@ -5353,7 +5353,7 @@
         <v>138.646057</v>
       </c>
       <c r="C177" t="n">
-        <v>147.917542</v>
+        <v>147.917526</v>
       </c>
     </row>
     <row r="178">
@@ -5364,7 +5364,7 @@
         <v>137.748672</v>
       </c>
       <c r="C178" t="n">
-        <v>149.200287</v>
+        <v>149.200302</v>
       </c>
     </row>
     <row r="179">
@@ -5386,7 +5386,7 @@
         <v>137.871048</v>
       </c>
       <c r="C180" t="n">
-        <v>149.921829</v>
+        <v>149.921844</v>
       </c>
     </row>
     <row r="181">
@@ -5441,7 +5441,7 @@
         <v>140.563187</v>
       </c>
       <c r="C185" t="n">
-        <v>155.934738</v>
+        <v>155.934753</v>
       </c>
     </row>
     <row r="186">
@@ -5474,7 +5474,7 @@
         <v>138.238159</v>
       </c>
       <c r="C188" t="n">
-        <v>152.64769</v>
+        <v>152.647705</v>
       </c>
     </row>
     <row r="189">
@@ -5496,7 +5496,7 @@
         <v>135.627579</v>
       </c>
       <c r="C190" t="n">
-        <v>149.440811</v>
+        <v>149.440796</v>
       </c>
     </row>
     <row r="191">
@@ -5507,7 +5507,7 @@
         <v>129.386673</v>
       </c>
       <c r="C191" t="n">
-        <v>148.158051</v>
+        <v>148.158066</v>
       </c>
     </row>
     <row r="192">
@@ -5518,7 +5518,7 @@
         <v>121.310204</v>
       </c>
       <c r="C192" t="n">
-        <v>150.483047</v>
+        <v>150.483032</v>
       </c>
     </row>
     <row r="193">
@@ -5562,7 +5562,7 @@
         <v>115.191666</v>
       </c>
       <c r="C196" t="n">
-        <v>140.782211</v>
+        <v>140.782227</v>
       </c>
     </row>
     <row r="197">
@@ -5573,7 +5573,7 @@
         <v>115.273262</v>
       </c>
       <c r="C197" t="n">
-        <v>141.904617</v>
+        <v>141.904633</v>
       </c>
     </row>
     <row r="198">
@@ -5584,7 +5584,7 @@
         <v>113.886375</v>
       </c>
       <c r="C198" t="n">
-        <v>142.546005</v>
+        <v>142.54599</v>
       </c>
     </row>
     <row r="199">
@@ -5595,7 +5595,7 @@
         <v>115.436401</v>
       </c>
       <c r="C199" t="n">
-        <v>143.588242</v>
+        <v>143.588226</v>
       </c>
     </row>
     <row r="200">
@@ -5628,7 +5628,7 @@
         <v>107.033615</v>
       </c>
       <c r="C202" t="n">
-        <v>142.70636</v>
+        <v>142.706345</v>
       </c>
     </row>
     <row r="203">
@@ -5650,7 +5650,7 @@
         <v>103.280914</v>
       </c>
       <c r="C204" t="n">
-        <v>140.782211</v>
+        <v>140.782227</v>
       </c>
     </row>
     <row r="205">
@@ -5694,7 +5694,7 @@
         <v>104.586197</v>
       </c>
       <c r="C208" t="n">
-        <v>144.069275</v>
+        <v>144.06926</v>
       </c>
     </row>
     <row r="209">
@@ -5705,7 +5705,7 @@
         <v>103.280914</v>
       </c>
       <c r="C209" t="n">
-        <v>139.90033</v>
+        <v>139.900314</v>
       </c>
     </row>
     <row r="210">
@@ -5727,7 +5727,7 @@
         <v>108.134949</v>
       </c>
       <c r="C211" t="n">
-        <v>123.625389</v>
+        <v>123.625381</v>
       </c>
     </row>
     <row r="212">
@@ -5738,7 +5738,7 @@
         <v>111.765289</v>
       </c>
       <c r="C212" t="n">
-        <v>127.874512</v>
+        <v>127.874504</v>
       </c>
     </row>
     <row r="213">
@@ -5749,7 +5749,7 @@
         <v>110.337624</v>
       </c>
       <c r="C213" t="n">
-        <v>130.199509</v>
+        <v>130.199493</v>
       </c>
     </row>
     <row r="214">
@@ -5760,7 +5760,7 @@
         <v>110.174469</v>
       </c>
       <c r="C214" t="n">
-        <v>130.680527</v>
+        <v>130.680542</v>
       </c>
     </row>
     <row r="215">
@@ -5771,7 +5771,7 @@
         <v>117.516701</v>
       </c>
       <c r="C215" t="n">
-        <v>132.524506</v>
+        <v>132.52449</v>
       </c>
     </row>
     <row r="216">
@@ -5793,7 +5793,7 @@
         <v>117.598282</v>
       </c>
       <c r="C217" t="n">
-        <v>131.32193</v>
+        <v>131.321915</v>
       </c>
     </row>
     <row r="218">
@@ -5804,7 +5804,7 @@
         <v>116.619316</v>
       </c>
       <c r="C218" t="n">
-        <v>130.440002</v>
+        <v>130.440033</v>
       </c>
     </row>
     <row r="219">
@@ -5815,7 +5815,7 @@
         <v>115.028511</v>
       </c>
       <c r="C219" t="n">
-        <v>129.79863</v>
+        <v>129.798645</v>
       </c>
     </row>
     <row r="220">
@@ -5826,7 +5826,7 @@
         <v>117.598282</v>
       </c>
       <c r="C220" t="n">
-        <v>129.237411</v>
+        <v>129.237442</v>
       </c>
     </row>
     <row r="221">
@@ -5837,7 +5837,7 @@
         <v>113.519257</v>
       </c>
       <c r="C221" t="n">
-        <v>127.874512</v>
+        <v>127.874504</v>
       </c>
     </row>
     <row r="222">
@@ -5848,7 +5848,7 @@
         <v>111.602127</v>
       </c>
       <c r="C222" t="n">
-        <v>127.553833</v>
+        <v>127.553825</v>
       </c>
     </row>
     <row r="223">
@@ -5870,7 +5870,7 @@
         <v>106.544136</v>
       </c>
       <c r="C224" t="n">
-        <v>125.950378</v>
+        <v>125.950394</v>
       </c>
     </row>
     <row r="225">
@@ -5881,7 +5881,7 @@
         <v>107.441513</v>
       </c>
       <c r="C225" t="n">
-        <v>127.874512</v>
+        <v>127.874504</v>
       </c>
     </row>
     <row r="226">
@@ -5892,7 +5892,7 @@
         <v>108.461273</v>
       </c>
       <c r="C226" t="n">
-        <v>127.874512</v>
+        <v>127.874504</v>
       </c>
     </row>
     <row r="227">
@@ -5914,7 +5914,7 @@
         <v>111.071846</v>
       </c>
       <c r="C228" t="n">
-        <v>131.08139</v>
+        <v>131.081406</v>
       </c>
     </row>
     <row r="229">
@@ -5925,7 +5925,7 @@
         <v>110.133667</v>
       </c>
       <c r="C229" t="n">
-        <v>131.08139</v>
+        <v>131.081406</v>
       </c>
     </row>
     <row r="230">
@@ -5947,7 +5947,7 @@
         <v>107.441513</v>
       </c>
       <c r="C231" t="n">
-        <v>130.359833</v>
+        <v>130.359848</v>
       </c>
     </row>
     <row r="232">
@@ -5958,7 +5958,7 @@
         <v>107.19677</v>
       </c>
       <c r="C232" t="n">
-        <v>130.359833</v>
+        <v>130.359848</v>
       </c>
     </row>
     <row r="233">
@@ -5969,7 +5969,7 @@
         <v>108.706009</v>
       </c>
       <c r="C233" t="n">
-        <v>126.671936</v>
+        <v>126.671944</v>
       </c>
     </row>
     <row r="234">
@@ -5980,7 +5980,7 @@
         <v>108.583641</v>
       </c>
       <c r="C234" t="n">
-        <v>127.152954</v>
+        <v>127.152969</v>
       </c>
     </row>
     <row r="235">
@@ -5991,7 +5991,7 @@
         <v>114.62059</v>
       </c>
       <c r="C235" t="n">
-        <v>129.79863</v>
+        <v>129.798645</v>
       </c>
     </row>
     <row r="236">
@@ -6002,7 +6002,7 @@
         <v>111.316582</v>
       </c>
       <c r="C236" t="n">
-        <v>126.992599</v>
+        <v>126.992615</v>
       </c>
     </row>
     <row r="237">
@@ -6024,7 +6024,7 @@
         <v>112.050819</v>
       </c>
       <c r="C238" t="n">
-        <v>127.152954</v>
+        <v>127.152969</v>
       </c>
     </row>
     <row r="239">
@@ -6057,7 +6057,7 @@
         <v>113.396889</v>
       </c>
       <c r="C241" t="n">
-        <v>128.676239</v>
+        <v>128.676224</v>
       </c>
     </row>
     <row r="242">
@@ -6079,7 +6079,7 @@
         <v>110.459991</v>
       </c>
       <c r="C243" t="n">
-        <v>127.633995</v>
+        <v>127.633972</v>
       </c>
     </row>
     <row r="244">
@@ -6090,7 +6090,7 @@
         <v>112.213982</v>
       </c>
       <c r="C244" t="n">
-        <v>122.663307</v>
+        <v>122.66333</v>
       </c>
     </row>
     <row r="245">
@@ -6112,7 +6112,7 @@
         <v>105.442795</v>
       </c>
       <c r="C246" t="n">
-        <v>117.772827</v>
+        <v>117.77282</v>
       </c>
     </row>
     <row r="247">
@@ -6123,7 +6123,7 @@
         <v>104.626991</v>
       </c>
       <c r="C247" t="n">
-        <v>120.258156</v>
+        <v>120.258163</v>
       </c>
     </row>
     <row r="248">
@@ -6134,7 +6134,7 @@
         <v>102.954582</v>
       </c>
       <c r="C248" t="n">
-        <v>120.819366</v>
+        <v>120.819359</v>
       </c>
     </row>
     <row r="249">
@@ -6145,7 +6145,7 @@
         <v>105.157249</v>
       </c>
       <c r="C249" t="n">
-        <v>124.346947</v>
+        <v>124.346939</v>
       </c>
     </row>
     <row r="250">
@@ -6156,7 +6156,7 @@
         <v>104.994102</v>
       </c>
       <c r="C250" t="n">
-        <v>126.271057</v>
+        <v>126.271072</v>
       </c>
     </row>
     <row r="251">
@@ -6167,7 +6167,7 @@
         <v>104.749352</v>
       </c>
       <c r="C251" t="n">
-        <v>123.865906</v>
+        <v>123.865891</v>
       </c>
     </row>
     <row r="252">
@@ -6178,7 +6178,7 @@
         <v>109.195503</v>
       </c>
       <c r="C252" t="n">
-        <v>127.313316</v>
+        <v>127.313293</v>
       </c>
     </row>
     <row r="253">
@@ -6189,7 +6189,7 @@
         <v>108.909966</v>
       </c>
       <c r="C253" t="n">
-        <v>126.591759</v>
+        <v>126.591751</v>
       </c>
     </row>
     <row r="254">
@@ -6211,7 +6211,7 @@
         <v>107.074402</v>
       </c>
       <c r="C255" t="n">
-        <v>126.431419</v>
+        <v>126.431412</v>
       </c>
     </row>
     <row r="256">
@@ -6222,7 +6222,7 @@
         <v>104.219078</v>
       </c>
       <c r="C256" t="n">
-        <v>126.591759</v>
+        <v>126.591751</v>
       </c>
     </row>
     <row r="257">
@@ -6233,7 +6233,7 @@
         <v>105.687538</v>
       </c>
       <c r="C257" t="n">
-        <v>125.469353</v>
+        <v>125.469345</v>
       </c>
     </row>
     <row r="258">
@@ -6255,7 +6255,7 @@
         <v>104.423042</v>
       </c>
       <c r="C259" t="n">
-        <v>122.583153</v>
+        <v>122.583145</v>
       </c>
     </row>
     <row r="260">
@@ -6266,7 +6266,7 @@
         <v>105.034889</v>
       </c>
       <c r="C260" t="n">
-        <v>126.271057</v>
+        <v>126.271072</v>
       </c>
     </row>
     <row r="261">
@@ -6277,7 +6277,7 @@
         <v>103.933556</v>
       </c>
       <c r="C261" t="n">
-        <v>126.03054</v>
+        <v>126.030556</v>
       </c>
     </row>
     <row r="262">
@@ -6299,7 +6299,7 @@
         <v>105.238846</v>
       </c>
       <c r="C263" t="n">
-        <v>124.507271</v>
+        <v>124.507294</v>
       </c>
     </row>
     <row r="264">
@@ -6310,7 +6310,7 @@
         <v>102.791428</v>
       </c>
       <c r="C264" t="n">
-        <v>125.709877</v>
+        <v>125.709862</v>
       </c>
     </row>
     <row r="265">
@@ -6354,7 +6354,7 @@
         <v>99.936104</v>
       </c>
       <c r="C268" t="n">
-        <v>123.625389</v>
+        <v>123.625381</v>
       </c>
     </row>
     <row r="269">
@@ -6409,7 +6409,7 @@
         <v>101.078239</v>
       </c>
       <c r="C273" t="n">
-        <v>122.262459</v>
+        <v>122.262474</v>
       </c>
     </row>
     <row r="274">
@@ -6453,7 +6453,7 @@
         <v>97.896591</v>
       </c>
       <c r="C277" t="n">
-        <v>119.456451</v>
+        <v>119.456436</v>
       </c>
     </row>
     <row r="278">
@@ -6464,7 +6464,7 @@
         <v>98.712402</v>
       </c>
       <c r="C278" t="n">
-        <v>119.13575</v>
+        <v>119.135757</v>
       </c>
     </row>
     <row r="279">
@@ -6475,7 +6475,7 @@
         <v>101.119026</v>
       </c>
       <c r="C279" t="n">
-        <v>121.220222</v>
+        <v>121.220215</v>
       </c>
     </row>
     <row r="280">
@@ -6486,7 +6486,7 @@
         <v>100.180855</v>
       </c>
       <c r="C280" t="n">
-        <v>122.262459</v>
+        <v>122.262474</v>
       </c>
     </row>
     <row r="281">
@@ -6497,7 +6497,7 @@
         <v>99.936104</v>
       </c>
       <c r="C281" t="n">
-        <v>121.220222</v>
+        <v>121.220215</v>
       </c>
     </row>
     <row r="282">
@@ -6519,7 +6519,7 @@
         <v>103.321709</v>
       </c>
       <c r="C283" t="n">
-        <v>123.545227</v>
+        <v>123.545212</v>
       </c>
     </row>
     <row r="284">
@@ -6530,7 +6530,7 @@
         <v>102.873016</v>
       </c>
       <c r="C284" t="n">
-        <v>121.540909</v>
+        <v>121.540916</v>
       </c>
     </row>
     <row r="285">
@@ -6552,7 +6552,7 @@
         <v>98.712402</v>
       </c>
       <c r="C286" t="n">
-        <v>120.498672</v>
+        <v>120.49868</v>
       </c>
     </row>
     <row r="287">
@@ -6563,7 +6563,7 @@
         <v>98.467667</v>
       </c>
       <c r="C287" t="n">
-        <v>120.57885</v>
+        <v>120.578835</v>
       </c>
     </row>
     <row r="288">
@@ -6585,7 +6585,7 @@
         <v>102.220367</v>
       </c>
       <c r="C289" t="n">
-        <v>119.777122</v>
+        <v>119.777115</v>
       </c>
     </row>
     <row r="290">
@@ -6596,7 +6596,7 @@
         <v>106.054649</v>
       </c>
       <c r="C290" t="n">
-        <v>127.393478</v>
+        <v>127.393471</v>
       </c>
     </row>
     <row r="291">
@@ -6607,7 +6607,7 @@
         <v>106.462547</v>
       </c>
       <c r="C291" t="n">
-        <v>125.228821</v>
+        <v>125.228813</v>
       </c>
     </row>
     <row r="292">
@@ -6662,7 +6662,7 @@
         <v>104.137512</v>
       </c>
       <c r="C296" t="n">
-        <v>117.692657</v>
+        <v>117.69265</v>
       </c>
     </row>
     <row r="297">
@@ -6673,7 +6673,7 @@
         <v>103.036171</v>
       </c>
       <c r="C297" t="n">
-        <v>116.570244</v>
+        <v>116.570236</v>
       </c>
     </row>
     <row r="298">
@@ -6684,7 +6684,7 @@
         <v>103.892761</v>
       </c>
       <c r="C298" t="n">
-        <v>115.768509</v>
+        <v>115.768524</v>
       </c>
     </row>
     <row r="299">
@@ -6695,7 +6695,7 @@
         <v>104.463829</v>
       </c>
       <c r="C299" t="n">
-        <v>117.933182</v>
+        <v>117.933174</v>
       </c>
     </row>
     <row r="300">
@@ -6706,7 +6706,7 @@
         <v>105.361214</v>
       </c>
       <c r="C300" t="n">
-        <v>118.013336</v>
+        <v>118.013344</v>
       </c>
     </row>
     <row r="301">
@@ -6717,7 +6717,7 @@
         <v>107.971802</v>
       </c>
       <c r="C301" t="n">
-        <v>118.654709</v>
+        <v>118.654724</v>
       </c>
     </row>
     <row r="302">
@@ -6728,7 +6728,7 @@
         <v>108.706009</v>
       </c>
       <c r="C302" t="n">
-        <v>120.258156</v>
+        <v>120.258163</v>
       </c>
     </row>
     <row r="303">
@@ -6750,7 +6750,7 @@
         <v>110.308449</v>
       </c>
       <c r="C304" t="n">
-        <v>123.304695</v>
+        <v>123.30471</v>
       </c>
     </row>
     <row r="305">
@@ -6772,7 +6772,7 @@
         <v>108.000374</v>
       </c>
       <c r="C306" t="n">
-        <v>120.899536</v>
+        <v>120.899544</v>
       </c>
     </row>
     <row r="307">
@@ -6794,7 +6794,7 @@
         <v>105.605202</v>
       </c>
       <c r="C308" t="n">
-        <v>118.386497</v>
+        <v>118.38649</v>
       </c>
     </row>
     <row r="309">
@@ -6849,7 +6849,7 @@
         <v>106.066818</v>
       </c>
       <c r="C313" t="n">
-        <v>121.121773</v>
+        <v>121.121765</v>
       </c>
     </row>
     <row r="314">
@@ -6860,7 +6860,7 @@
         <v>106.737473</v>
       </c>
       <c r="C314" t="n">
-        <v>121.463692</v>
+        <v>121.463684</v>
       </c>
     </row>
     <row r="315">
@@ -6882,7 +6882,7 @@
         <v>109.132637</v>
       </c>
       <c r="C316" t="n">
-        <v>122.745857</v>
+        <v>122.745865</v>
       </c>
     </row>
     <row r="317">
@@ -6893,7 +6893,7 @@
         <v>107.129402</v>
       </c>
       <c r="C317" t="n">
-        <v>121.207253</v>
+        <v>121.20726</v>
       </c>
     </row>
     <row r="318">
@@ -6915,7 +6915,7 @@
         <v>106.389084</v>
       </c>
       <c r="C319" t="n">
-        <v>120.523438</v>
+        <v>120.52343</v>
       </c>
     </row>
     <row r="320">
@@ -6926,7 +6926,7 @@
         <v>105.95359</v>
       </c>
       <c r="C320" t="n">
-        <v>120.352486</v>
+        <v>120.352478</v>
       </c>
     </row>
     <row r="321">
@@ -6981,7 +6981,7 @@
         <v>112.268127</v>
       </c>
       <c r="C325" t="n">
-        <v>124.968269</v>
+        <v>124.968254</v>
       </c>
     </row>
     <row r="326">
@@ -6992,7 +6992,7 @@
         <v>110.87458</v>
       </c>
       <c r="C326" t="n">
-        <v>123.429665</v>
+        <v>123.429672</v>
       </c>
     </row>
     <row r="327">
@@ -7014,7 +7014,7 @@
         <v>110.221359</v>
       </c>
       <c r="C328" t="n">
-        <v>119.412224</v>
+        <v>119.412231</v>
       </c>
     </row>
     <row r="329">
@@ -7025,7 +7025,7 @@
         <v>111.919746</v>
       </c>
       <c r="C329" t="n">
-        <v>122.916817</v>
+        <v>122.916809</v>
       </c>
     </row>
     <row r="330">
@@ -7047,7 +7047,7 @@
         <v>102.818108</v>
       </c>
       <c r="C331" t="n">
-        <v>122.831322</v>
+        <v>122.831329</v>
       </c>
     </row>
     <row r="332">
@@ -7058,7 +7058,7 @@
         <v>103.993912</v>
       </c>
       <c r="C332" t="n">
-        <v>120.779869</v>
+        <v>120.779861</v>
       </c>
     </row>
     <row r="333">
@@ -7113,7 +7113,7 @@
         <v>97.635818</v>
       </c>
       <c r="C337" t="n">
-        <v>107.530846</v>
+        <v>107.530838</v>
       </c>
     </row>
     <row r="338">
@@ -7135,7 +7135,7 @@
         <v>97.635818</v>
       </c>
       <c r="C339" t="n">
-        <v>108.214653</v>
+        <v>108.214661</v>
       </c>
     </row>
     <row r="340">
@@ -7146,7 +7146,7 @@
         <v>96.068085</v>
       </c>
       <c r="C340" t="n">
-        <v>106.590584</v>
+        <v>106.590576</v>
       </c>
     </row>
     <row r="341">
@@ -7157,7 +7157,7 @@
         <v>93.890648</v>
       </c>
       <c r="C341" t="n">
-        <v>106.847015</v>
+        <v>106.847008</v>
       </c>
     </row>
     <row r="342">
@@ -7179,7 +7179,7 @@
         <v>94.500328</v>
       </c>
       <c r="C343" t="n">
-        <v>105.821281</v>
+        <v>105.821289</v>
       </c>
     </row>
     <row r="344">
@@ -7289,7 +7289,7 @@
         <v>97.592278</v>
       </c>
       <c r="C353" t="n">
-        <v>106.847015</v>
+        <v>106.847008</v>
       </c>
     </row>
     <row r="354">
@@ -7322,7 +7322,7 @@
         <v>96.851944</v>
       </c>
       <c r="C356" t="n">
-        <v>110.266113</v>
+        <v>110.266121</v>
       </c>
     </row>
     <row r="357">
@@ -7333,7 +7333,7 @@
         <v>96.939049</v>
       </c>
       <c r="C357" t="n">
-        <v>111.120903</v>
+        <v>111.120895</v>
       </c>
     </row>
     <row r="358">
@@ -7344,7 +7344,7 @@
         <v>97.374535</v>
       </c>
       <c r="C358" t="n">
-        <v>111.97567</v>
+        <v>111.975677</v>
       </c>
     </row>
     <row r="359">
@@ -7366,7 +7366,7 @@
         <v>94.935814</v>
       </c>
       <c r="C360" t="n">
-        <v>112.403061</v>
+        <v>112.403053</v>
       </c>
     </row>
     <row r="361">
@@ -7377,7 +7377,7 @@
         <v>90.929352</v>
       </c>
       <c r="C361" t="n">
-        <v>110.864449</v>
+        <v>110.864456</v>
       </c>
     </row>
     <row r="362">
@@ -7388,7 +7388,7 @@
         <v>91.800316</v>
       </c>
       <c r="C362" t="n">
-        <v>113.172348</v>
+        <v>113.172356</v>
       </c>
     </row>
     <row r="363">
@@ -7399,7 +7399,7 @@
         <v>90.189026</v>
       </c>
       <c r="C363" t="n">
-        <v>109.66777</v>
+        <v>109.667778</v>
       </c>
     </row>
     <row r="364">
@@ -7410,7 +7410,7 @@
         <v>90.493866</v>
       </c>
       <c r="C364" t="n">
-        <v>108.727524</v>
+        <v>108.727516</v>
       </c>
     </row>
     <row r="365">
@@ -7432,7 +7432,7 @@
         <v>86.260948</v>
       </c>
       <c r="C366" t="n">
-        <v>104.539116</v>
+        <v>104.539124</v>
       </c>
     </row>
     <row r="367">
@@ -7520,7 +7520,7 @@
         <v>92.540642</v>
       </c>
       <c r="C374" t="n">
-        <v>110.693512</v>
+        <v>110.693504</v>
       </c>
     </row>
     <row r="375">
@@ -7564,7 +7564,7 @@
         <v>89.492249</v>
       </c>
       <c r="C378" t="n">
-        <v>105.393906</v>
+        <v>105.393898</v>
       </c>
     </row>
     <row r="379">
@@ -7619,7 +7619,7 @@
         <v>89.361595</v>
       </c>
       <c r="C383" t="n">
-        <v>102.145744</v>
+        <v>102.145752</v>
       </c>
     </row>
     <row r="384">
@@ -7652,7 +7652,7 @@
         <v>90.406769</v>
       </c>
       <c r="C386" t="n">
-        <v>102.573135</v>
+        <v>102.573128</v>
       </c>
     </row>
     <row r="387">
@@ -7674,7 +7674,7 @@
         <v>90.66806</v>
       </c>
       <c r="C388" t="n">
-        <v>104.197212</v>
+        <v>104.19722</v>
       </c>
     </row>
     <row r="389">
@@ -7751,7 +7751,7 @@
         <v>84.066093</v>
       </c>
       <c r="C395" t="n">
-        <v>98.042816</v>
+        <v>98.042824</v>
       </c>
     </row>
     <row r="396">
@@ -7773,7 +7773,7 @@
         <v>83.508675</v>
       </c>
       <c r="C397" t="n">
-        <v>98.726646</v>
+        <v>98.726639</v>
       </c>
     </row>
     <row r="398">
@@ -7795,7 +7795,7 @@
         <v>82.672539</v>
       </c>
       <c r="C399" t="n">
-        <v>98.128296</v>
+        <v>98.128304</v>
       </c>
     </row>
     <row r="400">
@@ -7817,7 +7817,7 @@
         <v>81.505447</v>
       </c>
       <c r="C401" t="n">
-        <v>95.563972</v>
+        <v>95.56398</v>
       </c>
     </row>
     <row r="402">
@@ -7828,7 +7828,7 @@
         <v>77.516403</v>
       </c>
       <c r="C402" t="n">
-        <v>92.230347</v>
+        <v>92.230339</v>
       </c>
     </row>
     <row r="403">
@@ -7850,7 +7850,7 @@
         <v>79.362854</v>
       </c>
       <c r="C404" t="n">
-        <v>94.70919</v>
+        <v>94.709198</v>
       </c>
     </row>
     <row r="405">
@@ -7861,7 +7861,7 @@
         <v>79.955116</v>
       </c>
       <c r="C405" t="n">
-        <v>95.307533</v>
+        <v>95.307541</v>
       </c>
     </row>
     <row r="406">
@@ -7872,7 +7872,7 @@
         <v>77.88221</v>
       </c>
       <c r="C406" t="n">
-        <v>93.597992</v>
+        <v>93.597984</v>
       </c>
     </row>
     <row r="407">
@@ -7883,7 +7883,7 @@
         <v>77.516403</v>
       </c>
       <c r="C407" t="n">
-        <v>92.657738</v>
+        <v>92.65773</v>
       </c>
     </row>
     <row r="408">
@@ -7894,7 +7894,7 @@
         <v>78.561562</v>
       </c>
       <c r="C408" t="n">
-        <v>94.88015</v>
+        <v>94.880142</v>
       </c>
     </row>
     <row r="409">
@@ -7905,7 +7905,7 @@
         <v>77.673172</v>
       </c>
       <c r="C409" t="n">
-        <v>94.88015</v>
+        <v>94.880142</v>
       </c>
     </row>
     <row r="410">
@@ -7949,7 +7949,7 @@
         <v>76.593178</v>
       </c>
       <c r="C413" t="n">
-        <v>80.348946</v>
+        <v>80.348953</v>
       </c>
     </row>
     <row r="414">
@@ -7982,7 +7982,7 @@
         <v>75.251877</v>
       </c>
       <c r="C416" t="n">
-        <v>80.562645</v>
+        <v>80.562653</v>
       </c>
     </row>
     <row r="417">
@@ -8037,7 +8037,7 @@
         <v>88.055138</v>
       </c>
       <c r="C421" t="n">
-        <v>88.55481</v>
+        <v>88.554802</v>
       </c>
     </row>
     <row r="422">
@@ -8048,7 +8048,7 @@
         <v>87.968048</v>
       </c>
       <c r="C422" t="n">
-        <v>88.041931</v>
+        <v>88.041939</v>
       </c>
     </row>
     <row r="423">
@@ -8070,7 +8070,7 @@
         <v>91.190636</v>
       </c>
       <c r="C424" t="n">
-        <v>88.55481</v>
+        <v>88.554802</v>
       </c>
     </row>
     <row r="425">
@@ -8081,7 +8081,7 @@
         <v>88.22934</v>
       </c>
       <c r="C425" t="n">
-        <v>88.640282</v>
+        <v>88.640274</v>
       </c>
     </row>
     <row r="426">
@@ -8092,7 +8092,7 @@
         <v>85.02417</v>
       </c>
       <c r="C426" t="n">
-        <v>87.187164</v>
+        <v>87.187157</v>
       </c>
     </row>
     <row r="427">
@@ -8103,7 +8103,7 @@
         <v>83.247383</v>
       </c>
       <c r="C427" t="n">
-        <v>87.529076</v>
+        <v>87.529083</v>
       </c>
     </row>
     <row r="428">
@@ -8114,7 +8114,7 @@
         <v>84.414482</v>
       </c>
       <c r="C428" t="n">
-        <v>89.495064</v>
+        <v>89.495056</v>
       </c>
     </row>
     <row r="429">
@@ -8147,7 +8147,7 @@
         <v>83.543518</v>
       </c>
       <c r="C431" t="n">
-        <v>103.34243</v>
+        <v>103.342438</v>
       </c>
     </row>
     <row r="432">
@@ -8191,7 +8191,7 @@
         <v>83.073189</v>
       </c>
       <c r="C435" t="n">
-        <v>103.256958</v>
+        <v>103.25695</v>
       </c>
     </row>
     <row r="436">
@@ -8202,7 +8202,7 @@
         <v>82.742226</v>
       </c>
       <c r="C436" t="n">
-        <v>102.402176</v>
+        <v>102.402184</v>
       </c>
     </row>
     <row r="437">
@@ -8224,7 +8224,7 @@
         <v>80.216408</v>
       </c>
       <c r="C438" t="n">
-        <v>99.239502</v>
+        <v>99.23951</v>
       </c>
     </row>
     <row r="439">
@@ -8290,7 +8290,7 @@
         <v>82.881577</v>
       </c>
       <c r="C444" t="n">
-        <v>102.145744</v>
+        <v>102.145752</v>
       </c>
     </row>
     <row r="445">
@@ -8345,7 +8345,7 @@
         <v>83.82222</v>
       </c>
       <c r="C449" t="n">
-        <v>110.266113</v>
+        <v>110.266121</v>
       </c>
     </row>
     <row r="450">
@@ -8356,7 +8356,7 @@
         <v>85.877716</v>
       </c>
       <c r="C450" t="n">
-        <v>112.6595</v>
+        <v>112.659492</v>
       </c>
     </row>
     <row r="451">
@@ -8378,7 +8378,7 @@
         <v>85.529327</v>
       </c>
       <c r="C452" t="n">
-        <v>115.394768</v>
+        <v>115.394783</v>
       </c>
     </row>
     <row r="453">
@@ -8400,7 +8400,7 @@
         <v>85.877716</v>
       </c>
       <c r="C454" t="n">
-        <v>116.078598</v>
+        <v>116.07859</v>
       </c>
     </row>
     <row r="455">
@@ -8411,7 +8411,7 @@
         <v>85.616432</v>
       </c>
       <c r="C455" t="n">
-        <v>114.454514</v>
+        <v>114.454521</v>
       </c>
     </row>
     <row r="456">
@@ -8422,7 +8422,7 @@
         <v>84.867393</v>
       </c>
       <c r="C456" t="n">
-        <v>115.736679</v>
+        <v>115.736671</v>
       </c>
     </row>
     <row r="457">
@@ -8444,7 +8444,7 @@
         <v>83.247383</v>
       </c>
       <c r="C458" t="n">
-        <v>112.317581</v>
+        <v>112.317574</v>
       </c>
     </row>
     <row r="459">
@@ -8466,7 +8466,7 @@
         <v>81.348671</v>
       </c>
       <c r="C460" t="n">
-        <v>112.403061</v>
+        <v>112.403053</v>
       </c>
     </row>
     <row r="461">
@@ -8477,7 +8477,7 @@
         <v>81.784157</v>
       </c>
       <c r="C461" t="n">
-        <v>114.454514</v>
+        <v>114.454521</v>
       </c>
     </row>
     <row r="462">
@@ -8510,7 +8510,7 @@
         <v>83.369324</v>
       </c>
       <c r="C464" t="n">
-        <v>115.993118</v>
+        <v>115.993111</v>
       </c>
     </row>
     <row r="465">
@@ -8521,7 +8521,7 @@
         <v>82.498352</v>
       </c>
       <c r="C465" t="n">
-        <v>116.676941</v>
+        <v>116.676933</v>
       </c>
     </row>
     <row r="466">
@@ -8543,7 +8543,7 @@
         <v>80.442856</v>
       </c>
       <c r="C467" t="n">
-        <v>113.514267</v>
+        <v>113.514275</v>
       </c>
     </row>
     <row r="468">
@@ -8576,7 +8576,7 @@
         <v>79.240921</v>
       </c>
       <c r="C470" t="n">
-        <v>110.949944</v>
+        <v>110.949936</v>
       </c>
     </row>
     <row r="471">
@@ -8587,7 +8587,7 @@
         <v>79.362854</v>
       </c>
       <c r="C471" t="n">
-        <v>110.864449</v>
+        <v>110.864456</v>
       </c>
     </row>
     <row r="472">
@@ -8609,7 +8609,7 @@
         <v>78.735756</v>
       </c>
       <c r="C473" t="n">
-        <v>108.727524</v>
+        <v>108.727516</v>
       </c>
     </row>
     <row r="474">
@@ -8631,7 +8631,7 @@
         <v>80.129311</v>
       </c>
       <c r="C475" t="n">
-        <v>110.693512</v>
+        <v>110.693504</v>
       </c>
     </row>
     <row r="476">
@@ -8642,7 +8642,7 @@
         <v>79.275757</v>
       </c>
       <c r="C476" t="n">
-        <v>108.727524</v>
+        <v>108.727516</v>
       </c>
     </row>
     <row r="477">
@@ -8653,7 +8653,7 @@
         <v>80.233833</v>
       </c>
       <c r="C477" t="n">
-        <v>110.266113</v>
+        <v>110.266121</v>
       </c>
     </row>
     <row r="478">
@@ -8686,7 +8686,7 @@
         <v>80.129311</v>
       </c>
       <c r="C480" t="n">
-        <v>107.530846</v>
+        <v>107.530838</v>
       </c>
     </row>
     <row r="481">
@@ -8697,7 +8697,7 @@
         <v>79.223503</v>
       </c>
       <c r="C481" t="n">
-        <v>105.47937</v>
+        <v>105.479378</v>
       </c>
     </row>
     <row r="482">
@@ -8719,7 +8719,7 @@
         <v>82.463516</v>
       </c>
       <c r="C483" t="n">
-        <v>110.949944</v>
+        <v>110.949936</v>
       </c>
     </row>
     <row r="484">
@@ -8741,7 +8741,7 @@
         <v>84.01384</v>
       </c>
       <c r="C485" t="n">
-        <v>113.172348</v>
+        <v>113.172356</v>
       </c>
     </row>
     <row r="486">
@@ -8752,7 +8752,7 @@
         <v>84.170616</v>
       </c>
       <c r="C486" t="n">
-        <v>113.343323</v>
+        <v>113.343315</v>
       </c>
     </row>
     <row r="487">
@@ -8785,7 +8785,7 @@
         <v>90.580963</v>
       </c>
       <c r="C489" t="n">
-        <v>112.403061</v>
+        <v>112.403053</v>
       </c>
     </row>
     <row r="490">
@@ -8796,7 +8796,7 @@
         <v>92.671295</v>
       </c>
       <c r="C490" t="n">
-        <v>112.488541</v>
+        <v>112.488533</v>
       </c>
     </row>
     <row r="491">
@@ -8818,7 +8818,7 @@
         <v>93.193871</v>
       </c>
       <c r="C492" t="n">
-        <v>118.215538</v>
+        <v>118.215546</v>
       </c>
     </row>
     <row r="493">
@@ -8851,7 +8851,7 @@
         <v>93.193871</v>
       </c>
       <c r="C495" t="n">
-        <v>118.899361</v>
+        <v>118.899368</v>
       </c>
     </row>
     <row r="496">
@@ -8873,7 +8873,7 @@
         <v>93.890648</v>
       </c>
       <c r="C497" t="n">
-        <v>119.497696</v>
+        <v>119.497711</v>
       </c>
     </row>
     <row r="498">
@@ -8895,7 +8895,7 @@
         <v>93.977753</v>
       </c>
       <c r="C499" t="n">
-        <v>121.463692</v>
+        <v>121.463684</v>
       </c>
     </row>
     <row r="500">
@@ -8928,7 +8928,7 @@
         <v>94.282585</v>
       </c>
       <c r="C502" t="n">
-        <v>120.523438</v>
+        <v>120.52343</v>
       </c>
     </row>
     <row r="503">
@@ -8961,7 +8961,7 @@
         <v>93.498711</v>
       </c>
       <c r="C505" t="n">
-        <v>121.891075</v>
+        <v>121.891083</v>
       </c>
     </row>
     <row r="506">
@@ -8972,7 +8972,7 @@
         <v>94.06485</v>
       </c>
       <c r="C506" t="n">
-        <v>123.686111</v>
+        <v>123.686096</v>
       </c>
     </row>
     <row r="507">
@@ -8983,7 +8983,7 @@
         <v>93.411613</v>
       </c>
       <c r="C507" t="n">
-        <v>123.258705</v>
+        <v>123.258713</v>
       </c>
     </row>
     <row r="508">
@@ -8994,7 +8994,7 @@
         <v>94.674522</v>
       </c>
       <c r="C508" t="n">
-        <v>123.600632</v>
+        <v>123.600624</v>
       </c>
     </row>
     <row r="509">
@@ -9005,7 +9005,7 @@
         <v>95.806786</v>
       </c>
       <c r="C509" t="n">
-        <v>123.344193</v>
+        <v>123.3442</v>
       </c>
     </row>
     <row r="510">
@@ -9016,7 +9016,7 @@
         <v>95.632591</v>
       </c>
       <c r="C510" t="n">
-        <v>127.361649</v>
+        <v>127.361641</v>
       </c>
     </row>
     <row r="511">
@@ -9027,7 +9027,7 @@
         <v>95.806786</v>
       </c>
       <c r="C511" t="n">
-        <v>125.993988</v>
+        <v>125.993996</v>
       </c>
     </row>
     <row r="512">
@@ -9038,7 +9038,7 @@
         <v>96.721306</v>
       </c>
       <c r="C512" t="n">
-        <v>127.703552</v>
+        <v>127.703537</v>
       </c>
     </row>
     <row r="513">
@@ -9049,7 +9049,7 @@
         <v>94.848717</v>
       </c>
       <c r="C513" t="n">
-        <v>126.93425</v>
+        <v>126.934258</v>
       </c>
     </row>
     <row r="514">
@@ -9060,7 +9060,7 @@
         <v>95.458389</v>
       </c>
       <c r="C514" t="n">
-        <v>125.993988</v>
+        <v>125.993996</v>
       </c>
     </row>
     <row r="515">
@@ -9071,7 +9071,7 @@
         <v>92.453545</v>
       </c>
       <c r="C515" t="n">
-        <v>123.087753</v>
+        <v>123.087769</v>
       </c>
     </row>
     <row r="516">
@@ -9093,7 +9093,7 @@
         <v>95.893883</v>
       </c>
       <c r="C517" t="n">
-        <v>125.993988</v>
+        <v>125.993996</v>
       </c>
     </row>
     <row r="518">
@@ -9104,7 +9104,7 @@
         <v>94.674522</v>
       </c>
       <c r="C518" t="n">
-        <v>124.198975</v>
+        <v>124.198967</v>
       </c>
     </row>
     <row r="519">
@@ -9115,7 +9115,7 @@
         <v>98.332603</v>
       </c>
       <c r="C519" t="n">
-        <v>125.48114</v>
+        <v>125.481133</v>
       </c>
     </row>
     <row r="520">
@@ -9126,7 +9126,7 @@
         <v>97.200333</v>
       </c>
       <c r="C520" t="n">
-        <v>125.652077</v>
+        <v>125.652092</v>
       </c>
     </row>
     <row r="521">
@@ -9137,7 +9137,7 @@
         <v>99.943893</v>
       </c>
       <c r="C521" t="n">
-        <v>127.276154</v>
+        <v>127.276169</v>
       </c>
     </row>
     <row r="522">
@@ -9148,7 +9148,7 @@
         <v>100.422935</v>
       </c>
       <c r="C522" t="n">
-        <v>128.472839</v>
+        <v>128.472855</v>
       </c>
     </row>
     <row r="523">
@@ -9170,7 +9170,7 @@
         <v>102.51326</v>
       </c>
       <c r="C524" t="n">
-        <v>130.438828</v>
+        <v>130.438843</v>
       </c>
     </row>
     <row r="525">
@@ -9203,7 +9203,7 @@
         <v>107.608437</v>
       </c>
       <c r="C527" t="n">
-        <v>134.285324</v>
+        <v>134.285339</v>
       </c>
     </row>
     <row r="528">
@@ -9225,7 +9225,7 @@
         <v>105.866501</v>
       </c>
       <c r="C529" t="n">
-        <v>134.883682</v>
+        <v>134.883667</v>
       </c>
     </row>
     <row r="530">
@@ -9280,7 +9280,7 @@
         <v>104.995529</v>
       </c>
       <c r="C534" t="n">
-        <v>137.020615</v>
+        <v>137.020599</v>
       </c>
     </row>
     <row r="535">
@@ -9335,7 +9335,7 @@
         <v>91.147095</v>
       </c>
       <c r="C539" t="n">
-        <v>106.847015</v>
+        <v>106.847008</v>
       </c>
     </row>
     <row r="540">
@@ -9445,7 +9445,7 @@
         <v>67.761528</v>
       </c>
       <c r="C549" t="n">
-        <v>83.682579</v>
+        <v>83.682587</v>
       </c>
     </row>
     <row r="550">
@@ -9456,7 +9456,7 @@
         <v>64.486679</v>
       </c>
       <c r="C550" t="n">
-        <v>78.895836</v>
+        <v>78.895844</v>
       </c>
     </row>
     <row r="551">
@@ -9467,7 +9467,7 @@
         <v>64.62603</v>
       </c>
       <c r="C551" t="n">
-        <v>80.220741</v>
+        <v>80.220734</v>
       </c>
     </row>
     <row r="552">
@@ -9577,7 +9577,7 @@
         <v>75.642952</v>
       </c>
       <c r="C561" t="n">
-        <v>91.515846</v>
+        <v>91.515839</v>
       </c>
     </row>
     <row r="562">
@@ -9610,7 +9610,7 @@
         <v>71.078796</v>
       </c>
       <c r="C564" t="n">
-        <v>88.706566</v>
+        <v>88.706573</v>
       </c>
     </row>
     <row r="565">
@@ -9621,7 +9621,7 @@
         <v>72.141136</v>
       </c>
       <c r="C565" t="n">
-        <v>88.37326</v>
+        <v>88.373268</v>
       </c>
     </row>
     <row r="566">
@@ -9687,7 +9687,7 @@
         <v>72.318199</v>
       </c>
       <c r="C571" t="n">
-        <v>89.373177</v>
+        <v>89.373169</v>
       </c>
     </row>
     <row r="572">
@@ -9698,7 +9698,7 @@
         <v>71.82637</v>
       </c>
       <c r="C572" t="n">
-        <v>90.992081</v>
+        <v>90.992088</v>
       </c>
     </row>
     <row r="573">
@@ -9731,7 +9731,7 @@
         <v>72.455917</v>
       </c>
       <c r="C575" t="n">
-        <v>91.230156</v>
+        <v>91.230164</v>
       </c>
     </row>
     <row r="576">
@@ -9742,7 +9742,7 @@
         <v>70.134491</v>
       </c>
       <c r="C576" t="n">
-        <v>89.706482</v>
+        <v>89.706474</v>
       </c>
     </row>
     <row r="577">
@@ -9786,7 +9786,7 @@
         <v>79.479202</v>
       </c>
       <c r="C580" t="n">
-        <v>107.895378</v>
+        <v>107.89537</v>
       </c>
     </row>
     <row r="581">
@@ -9830,7 +9830,7 @@
         <v>74.226486</v>
       </c>
       <c r="C584" t="n">
-        <v>95.086967</v>
+        <v>95.08696</v>
       </c>
     </row>
     <row r="585">
@@ -9852,7 +9852,7 @@
         <v>74.619949</v>
       </c>
       <c r="C586" t="n">
-        <v>100.086525</v>
+        <v>100.086533</v>
       </c>
     </row>
     <row r="587">
@@ -9863,7 +9863,7 @@
         <v>74.167473</v>
       </c>
       <c r="C587" t="n">
-        <v>101.134056</v>
+        <v>101.134048</v>
       </c>
     </row>
     <row r="588">
@@ -9896,7 +9896,7 @@
         <v>70.803375</v>
       </c>
       <c r="C590" t="n">
-        <v>99.991295</v>
+        <v>99.991302</v>
       </c>
     </row>
     <row r="591">
@@ -9918,7 +9918,7 @@
         <v>73.400223</v>
       </c>
       <c r="C592" t="n">
-        <v>100.657906</v>
+        <v>100.657898</v>
       </c>
     </row>
     <row r="593">
@@ -9929,7 +9929,7 @@
         <v>75.564255</v>
       </c>
       <c r="C593" t="n">
-        <v>102.46727</v>
+        <v>102.467278</v>
       </c>
     </row>
     <row r="594">
@@ -9973,7 +9973,7 @@
         <v>83.748253</v>
       </c>
       <c r="C597" t="n">
-        <v>111.799797</v>
+        <v>111.799789</v>
       </c>
     </row>
     <row r="598">
@@ -9995,7 +9995,7 @@
         <v>86.128693</v>
       </c>
       <c r="C599" t="n">
-        <v>116.656517</v>
+        <v>116.656509</v>
       </c>
     </row>
     <row r="600">
@@ -10017,7 +10017,7 @@
         <v>89.256706</v>
       </c>
       <c r="C601" t="n">
-        <v>123.89399</v>
+        <v>123.893982</v>
       </c>
     </row>
     <row r="602">
@@ -10072,7 +10072,7 @@
         <v>86.42379</v>
       </c>
       <c r="C606" t="n">
-        <v>117.704048</v>
+        <v>117.704041</v>
       </c>
     </row>
     <row r="607">
@@ -10094,7 +10094,7 @@
         <v>87.663193</v>
       </c>
       <c r="C608" t="n">
-        <v>120.751404</v>
+        <v>120.751396</v>
       </c>
     </row>
     <row r="609">
@@ -10160,7 +10160,7 @@
         <v>87.466461</v>
       </c>
       <c r="C614" t="n">
-        <v>117.704048</v>
+        <v>117.704041</v>
       </c>
     </row>
     <row r="615">
@@ -10204,7 +10204,7 @@
         <v>86.836922</v>
       </c>
       <c r="C618" t="n">
-        <v>117.132668</v>
+        <v>117.13266</v>
       </c>
     </row>
     <row r="619">
@@ -10325,7 +10325,7 @@
         <v>100.185097</v>
       </c>
       <c r="C629" t="n">
-        <v>124.465363</v>
+        <v>124.465355</v>
       </c>
     </row>
     <row r="630">
@@ -10336,7 +10336,7 @@
         <v>100.185097</v>
       </c>
       <c r="C630" t="n">
-        <v>125.512894</v>
+        <v>125.512886</v>
       </c>
     </row>
     <row r="631">
@@ -10358,7 +10358,7 @@
         <v>104.267265</v>
       </c>
       <c r="C632" t="n">
-        <v>125.036743</v>
+        <v>125.036736</v>
       </c>
     </row>
     <row r="633">
@@ -10391,7 +10391,7 @@
         <v>103.72625</v>
       </c>
       <c r="C635" t="n">
-        <v>125.322441</v>
+        <v>125.322433</v>
       </c>
     </row>
     <row r="636">
@@ -10402,7 +10402,7 @@
         <v>104.218079</v>
       </c>
       <c r="C636" t="n">
-        <v>124.941505</v>
+        <v>124.941498</v>
       </c>
     </row>
     <row r="637">
@@ -10413,7 +10413,7 @@
         <v>102.250771</v>
       </c>
       <c r="C637" t="n">
-        <v>122.655991</v>
+        <v>122.655998</v>
       </c>
     </row>
     <row r="638">
@@ -10468,7 +10468,7 @@
         <v>101.168755</v>
       </c>
       <c r="C642" t="n">
-        <v>115.894669</v>
+        <v>115.894676</v>
       </c>
     </row>
     <row r="643">
@@ -10479,7 +10479,7 @@
         <v>100.480202</v>
       </c>
       <c r="C643" t="n">
-        <v>116.751747</v>
+        <v>116.75174</v>
       </c>
     </row>
     <row r="644">
@@ -10490,7 +10490,7 @@
         <v>100.922836</v>
       </c>
       <c r="C644" t="n">
-        <v>115.989906</v>
+        <v>115.989914</v>
       </c>
     </row>
     <row r="645">
@@ -10501,7 +10501,7 @@
         <v>100.332649</v>
       </c>
       <c r="C645" t="n">
-        <v>115.418518</v>
+        <v>115.418526</v>
       </c>
     </row>
     <row r="646">
@@ -10567,7 +10567,7 @@
         <v>102.349144</v>
       </c>
       <c r="C651" t="n">
-        <v>113.609161</v>
+        <v>113.609169</v>
       </c>
     </row>
     <row r="652">
@@ -10611,7 +10611,7 @@
         <v>96.496399</v>
       </c>
       <c r="C655" t="n">
-        <v>110.466583</v>
+        <v>110.466576</v>
       </c>
     </row>
     <row r="656">
@@ -10622,7 +10622,7 @@
         <v>97.047249</v>
       </c>
       <c r="C656" t="n">
-        <v>109.799965</v>
+        <v>109.799973</v>
       </c>
     </row>
     <row r="657">
@@ -10655,7 +10655,7 @@
         <v>97.971878</v>
       </c>
       <c r="C659" t="n">
-        <v>107.22876</v>
+        <v>107.228767</v>
       </c>
     </row>
     <row r="660">
@@ -10666,7 +10666,7 @@
         <v>96.594765</v>
       </c>
       <c r="C660" t="n">
-        <v>106.847839</v>
+        <v>106.847847</v>
       </c>
     </row>
     <row r="661">
@@ -10699,7 +10699,7 @@
         <v>92.463425</v>
       </c>
       <c r="C663" t="n">
-        <v>95.705956</v>
+        <v>95.705963</v>
       </c>
     </row>
     <row r="664">
@@ -10754,7 +10754,7 @@
         <v>87.859924</v>
       </c>
       <c r="C668" t="n">
-        <v>96.467804</v>
+        <v>96.467796</v>
       </c>
     </row>
     <row r="669">
@@ -10765,7 +10765,7 @@
         <v>88.627174</v>
       </c>
       <c r="C669" t="n">
-        <v>98.181931</v>
+        <v>98.181938</v>
       </c>
     </row>
     <row r="670">
@@ -10776,7 +10776,7 @@
         <v>88.587822</v>
       </c>
       <c r="C670" t="n">
-        <v>99.705612</v>
+        <v>99.705605</v>
       </c>
     </row>
     <row r="671">
@@ -10787,7 +10787,7 @@
         <v>86.502487</v>
       </c>
       <c r="C671" t="n">
-        <v>99.610374</v>
+        <v>99.610382</v>
       </c>
     </row>
     <row r="672">
@@ -10809,7 +10809,7 @@
         <v>86.187714</v>
       </c>
       <c r="C673" t="n">
-        <v>99.134224</v>
+        <v>99.134232</v>
       </c>
     </row>
     <row r="674">
@@ -10820,7 +10820,7 @@
         <v>86.384445</v>
       </c>
       <c r="C674" t="n">
-        <v>97.89624</v>
+        <v>97.896248</v>
       </c>
     </row>
     <row r="675">
@@ -10842,7 +10842,7 @@
         <v>83.0597</v>
       </c>
       <c r="C676" t="n">
-        <v>96.372566</v>
+        <v>96.372559</v>
       </c>
     </row>
     <row r="677">
@@ -10853,7 +10853,7 @@
         <v>80.659584</v>
       </c>
       <c r="C677" t="n">
-        <v>94.372742</v>
+        <v>94.372734</v>
       </c>
     </row>
     <row r="678">
@@ -10875,7 +10875,7 @@
         <v>81.938332</v>
       </c>
       <c r="C679" t="n">
-        <v>93.563286</v>
+        <v>93.563293</v>
       </c>
     </row>
     <row r="680">
@@ -10930,7 +10930,7 @@
         <v>84.692558</v>
       </c>
       <c r="C684" t="n">
-        <v>94.848892</v>
+        <v>94.848885</v>
       </c>
     </row>
     <row r="685">
@@ -10952,7 +10952,7 @@
         <v>83.453156</v>
       </c>
       <c r="C686" t="n">
-        <v>103.133888</v>
+        <v>103.133881</v>
       </c>
     </row>
     <row r="687">
@@ -10963,7 +10963,7 @@
         <v>85.57785</v>
       </c>
       <c r="C687" t="n">
-        <v>103.133888</v>
+        <v>103.133881</v>
       </c>
     </row>
     <row r="688">
@@ -10996,7 +10996,7 @@
         <v>89.453445</v>
       </c>
       <c r="C690" t="n">
-        <v>103.990944</v>
+        <v>103.990952</v>
       </c>
     </row>
     <row r="691">
@@ -11073,7 +11073,7 @@
         <v>91.401077</v>
       </c>
       <c r="C697" t="n">
-        <v>103.990944</v>
+        <v>103.990952</v>
       </c>
     </row>
     <row r="698">
@@ -11161,7 +11161,7 @@
         <v>84.161385</v>
       </c>
       <c r="C705" t="n">
-        <v>102.37204</v>
+        <v>102.372047</v>
       </c>
     </row>
     <row r="706">
@@ -11205,7 +11205,7 @@
         <v>86.974632</v>
       </c>
       <c r="C709" t="n">
-        <v>111.799797</v>
+        <v>111.799789</v>
       </c>
     </row>
     <row r="710">
@@ -11227,7 +11227,7 @@
         <v>88.627174</v>
       </c>
       <c r="C711" t="n">
-        <v>109.514282</v>
+        <v>109.514275</v>
       </c>
     </row>
     <row r="712">
@@ -11293,7 +11293,7 @@
         <v>102.447502</v>
       </c>
       <c r="C717" t="n">
-        <v>124.274895</v>
+        <v>124.274902</v>
       </c>
     </row>
     <row r="718">
@@ -11304,7 +11304,7 @@
         <v>102.890144</v>
       </c>
       <c r="C718" t="n">
-        <v>126.274727</v>
+        <v>126.274734</v>
       </c>
     </row>
     <row r="719">
@@ -11359,7 +11359,7 @@
         <v>103.234421</v>
       </c>
       <c r="C723" t="n">
-        <v>124.751045</v>
+        <v>124.751053</v>
       </c>
     </row>
     <row r="724">
@@ -11381,7 +11381,7 @@
         <v>102.98851</v>
       </c>
       <c r="C725" t="n">
-        <v>124.751045</v>
+        <v>124.751053</v>
       </c>
     </row>
     <row r="726">
@@ -11425,7 +11425,7 @@
         <v>102.250771</v>
       </c>
       <c r="C729" t="n">
-        <v>124.751045</v>
+        <v>124.751053</v>
       </c>
     </row>
     <row r="730">
@@ -11447,7 +11447,7 @@
         <v>101.513031</v>
       </c>
       <c r="C731" t="n">
-        <v>124.274895</v>
+        <v>124.274902</v>
       </c>
     </row>
     <row r="732">
@@ -11546,7 +11546,7 @@
         <v>94.529091</v>
       </c>
       <c r="C740" t="n">
-        <v>121.608467</v>
+        <v>121.608459</v>
       </c>
     </row>
     <row r="741">
@@ -11579,7 +11579,7 @@
         <v>96.870193</v>
       </c>
       <c r="C743" t="n">
-        <v>124.941505</v>
+        <v>124.941498</v>
       </c>
     </row>
     <row r="744">
@@ -11590,7 +11590,7 @@
         <v>99.742462</v>
       </c>
       <c r="C744" t="n">
-        <v>125.989044</v>
+        <v>125.989037</v>
       </c>
     </row>
     <row r="745">
@@ -11623,7 +11623,7 @@
         <v>99.004723</v>
       </c>
       <c r="C747" t="n">
-        <v>128.084106</v>
+        <v>128.084091</v>
       </c>
     </row>
     <row r="748">
@@ -11656,7 +11656,7 @@
         <v>103.627884</v>
       </c>
       <c r="C750" t="n">
-        <v>128.941162</v>
+        <v>128.941147</v>
       </c>
     </row>
     <row r="751">
@@ -11667,7 +11667,7 @@
         <v>108.054329</v>
       </c>
       <c r="C751" t="n">
-        <v>132.369431</v>
+        <v>132.369446</v>
       </c>
     </row>
     <row r="752">
@@ -11854,7 +11854,7 @@
         <v>103.480339</v>
       </c>
       <c r="C768" t="n">
-        <v>121.608467</v>
+        <v>121.608459</v>
       </c>
     </row>
     <row r="769">
@@ -11865,7 +11865,7 @@
         <v>104.070534</v>
       </c>
       <c r="C769" t="n">
-        <v>123.89399</v>
+        <v>123.893982</v>
       </c>
     </row>
     <row r="770">
@@ -11942,7 +11942,7 @@
         <v>107.955963</v>
       </c>
       <c r="C776" t="n">
-        <v>126.750877</v>
+        <v>126.750885</v>
       </c>
     </row>
     <row r="777">
@@ -11986,7 +11986,7 @@
         <v>110.857735</v>
       </c>
       <c r="C780" t="n">
-        <v>132.369431</v>
+        <v>132.369446</v>
       </c>
     </row>
     <row r="781">
@@ -12019,7 +12019,7 @@
         <v>111.644661</v>
       </c>
       <c r="C783" t="n">
-        <v>132.940811</v>
+        <v>132.940826</v>
       </c>
     </row>
     <row r="784">
@@ -12030,7 +12030,7 @@
         <v>111.447937</v>
       </c>
       <c r="C784" t="n">
-        <v>134.178802</v>
+        <v>134.178787</v>
       </c>
     </row>
     <row r="785">
@@ -12041,7 +12041,7 @@
         <v>112.333221</v>
       </c>
       <c r="C785" t="n">
-        <v>134.940643</v>
+        <v>134.940628</v>
       </c>
     </row>
     <row r="786">
@@ -12052,7 +12052,7 @@
         <v>115.087448</v>
       </c>
       <c r="C786" t="n">
-        <v>135.226318</v>
+        <v>135.226334</v>
       </c>
     </row>
     <row r="787">
@@ -12074,7 +12074,7 @@
         <v>114.595627</v>
       </c>
       <c r="C788" t="n">
-        <v>136.65477</v>
+        <v>136.654785</v>
       </c>
     </row>
     <row r="789">
@@ -12096,7 +12096,7 @@
         <v>116.366203</v>
       </c>
       <c r="C790" t="n">
-        <v>153.319977</v>
+        <v>153.319992</v>
       </c>
     </row>
     <row r="791">
@@ -12107,7 +12107,7 @@
         <v>116.218651</v>
       </c>
       <c r="C791" t="n">
-        <v>152.367706</v>
+        <v>152.367691</v>
       </c>
     </row>
     <row r="792">
@@ -12118,7 +12118,7 @@
         <v>118.82534</v>
       </c>
       <c r="C792" t="n">
-        <v>151.1297</v>
+        <v>151.129715</v>
       </c>
     </row>
     <row r="793">
@@ -12173,7 +12173,7 @@
         <v>120.54673</v>
       </c>
       <c r="C797" t="n">
-        <v>154.938889</v>
+        <v>154.938904</v>
       </c>
     </row>
     <row r="798">
@@ -12184,7 +12184,7 @@
         <v>120.497543</v>
       </c>
       <c r="C798" t="n">
-        <v>154.272278</v>
+        <v>154.272293</v>
       </c>
     </row>
     <row r="799">
@@ -12195,7 +12195,7 @@
         <v>120.349998</v>
       </c>
       <c r="C799" t="n">
-        <v>155.415039</v>
+        <v>155.415054</v>
       </c>
     </row>
     <row r="800">
@@ -12250,7 +12250,7 @@
         <v>118.25</v>
       </c>
       <c r="C804" t="n">
-        <v>155.224579</v>
+        <v>155.224594</v>
       </c>
     </row>
     <row r="805">
@@ -12261,7 +12261,7 @@
         <v>119.300003</v>
       </c>
       <c r="C805" t="n">
-        <v>159.986069</v>
+        <v>159.986084</v>
       </c>
     </row>
     <row r="806">

--- a/Danske aktiekurser.xlsx
+++ b/Danske aktiekurser.xlsx
@@ -3425,10 +3425,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>189.887909</v>
+        <v>189.887939</v>
       </c>
       <c r="C2" t="n">
-        <v>191.282898</v>
+        <v>191.282883</v>
       </c>
     </row>
     <row r="3">
@@ -3436,10 +3436,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>188.870819</v>
+        <v>188.870789</v>
       </c>
       <c r="C3" t="n">
-        <v>190.82489</v>
+        <v>190.824905</v>
       </c>
     </row>
     <row r="4">
@@ -3447,10 +3447,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>190.51384</v>
+        <v>190.513855</v>
       </c>
       <c r="C4" t="n">
-        <v>192.351501</v>
+        <v>192.351471</v>
       </c>
     </row>
     <row r="5">
@@ -3458,10 +3458,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="n">
-        <v>190.748566</v>
+        <v>190.74855</v>
       </c>
       <c r="C5" t="n">
-        <v>192.046173</v>
+        <v>192.046188</v>
       </c>
     </row>
     <row r="6">
@@ -3469,7 +3469,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="n">
-        <v>191.843918</v>
+        <v>191.843903</v>
       </c>
       <c r="C6" t="n">
         <v>191.74086</v>
@@ -3483,7 +3483,7 @@
         <v>190.357361</v>
       </c>
       <c r="C7" t="n">
-        <v>191.588196</v>
+        <v>191.588211</v>
       </c>
     </row>
     <row r="8">
@@ -3491,7 +3491,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="n">
-        <v>194.34758</v>
+        <v>194.347595</v>
       </c>
       <c r="C8" t="n">
         <v>195.404694</v>
@@ -3505,7 +3505,7 @@
         <v>196.14711</v>
       </c>
       <c r="C9" t="n">
-        <v>196.320648</v>
+        <v>196.320663</v>
       </c>
     </row>
     <row r="10">
@@ -3513,7 +3513,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="n">
-        <v>194.817047</v>
+        <v>194.817032</v>
       </c>
       <c r="C10" t="n">
         <v>195.09938</v>
@@ -3524,7 +3524,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="n">
-        <v>196.303589</v>
+        <v>196.303574</v>
       </c>
       <c r="C11" t="n">
         <v>193.572784</v>
@@ -3538,7 +3538,7 @@
         <v>195.521179</v>
       </c>
       <c r="C12" t="n">
-        <v>192.504166</v>
+        <v>192.50415</v>
       </c>
     </row>
     <row r="13">
@@ -3546,10 +3546,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="n">
-        <v>195.990631</v>
+        <v>195.990616</v>
       </c>
       <c r="C13" t="n">
-        <v>191.435532</v>
+        <v>191.435547</v>
       </c>
     </row>
     <row r="14">
@@ -3557,10 +3557,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="n">
-        <v>191.452713</v>
+        <v>191.452728</v>
       </c>
       <c r="C14" t="n">
-        <v>191.588196</v>
+        <v>191.588211</v>
       </c>
     </row>
     <row r="15">
@@ -3590,10 +3590,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="n">
-        <v>192.078659</v>
+        <v>192.078644</v>
       </c>
       <c r="C17" t="n">
-        <v>191.435532</v>
+        <v>191.435547</v>
       </c>
     </row>
     <row r="18">
@@ -3601,7 +3601,7 @@
         <v>19</v>
       </c>
       <c r="B18" t="n">
-        <v>192.078659</v>
+        <v>192.078644</v>
       </c>
       <c r="C18" t="n">
         <v>190.214249</v>
@@ -3612,10 +3612,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="n">
-        <v>186.680084</v>
+        <v>186.680099</v>
       </c>
       <c r="C19" t="n">
-        <v>185.63446</v>
+        <v>185.634445</v>
       </c>
     </row>
     <row r="20">
@@ -3623,7 +3623,7 @@
         <v>21</v>
       </c>
       <c r="B20" t="n">
-        <v>189.966171</v>
+        <v>189.966156</v>
       </c>
       <c r="C20" t="n">
         <v>187.4664</v>
@@ -3634,7 +3634,7 @@
         <v>22</v>
       </c>
       <c r="B21" t="n">
-        <v>191.843918</v>
+        <v>191.843903</v>
       </c>
       <c r="C21" t="n">
         <v>187.771698</v>
@@ -3645,7 +3645,7 @@
         <v>23</v>
       </c>
       <c r="B22" t="n">
-        <v>189.966171</v>
+        <v>189.966156</v>
       </c>
       <c r="C22" t="n">
         <v>185.787125</v>
@@ -3656,10 +3656,10 @@
         <v>24</v>
       </c>
       <c r="B23" t="n">
-        <v>190.51384</v>
+        <v>190.513855</v>
       </c>
       <c r="C23" t="n">
-        <v>187.008377</v>
+        <v>187.008408</v>
       </c>
     </row>
     <row r="24">
@@ -3667,7 +3667,7 @@
         <v>25</v>
       </c>
       <c r="B24" t="n">
-        <v>189.418488</v>
+        <v>189.418503</v>
       </c>
       <c r="C24" t="n">
         <v>187.4664</v>
@@ -3681,7 +3681,7 @@
         <v>191.609192</v>
       </c>
       <c r="C25" t="n">
-        <v>187.619034</v>
+        <v>187.619064</v>
       </c>
     </row>
     <row r="26">
@@ -3692,7 +3692,7 @@
         <v>191.609192</v>
       </c>
       <c r="C26" t="n">
-        <v>186.397766</v>
+        <v>186.397751</v>
       </c>
     </row>
     <row r="27">
@@ -3703,7 +3703,7 @@
         <v>186.758331</v>
       </c>
       <c r="C27" t="n">
-        <v>183.955185</v>
+        <v>183.9552</v>
       </c>
     </row>
     <row r="28">
@@ -3711,7 +3711,7 @@
         <v>29</v>
       </c>
       <c r="B28" t="n">
-        <v>189.261993</v>
+        <v>189.262009</v>
       </c>
       <c r="C28" t="n">
         <v>188.687653</v>
@@ -3725,7 +3725,7 @@
         <v>188.557846</v>
       </c>
       <c r="C29" t="n">
-        <v>187.161057</v>
+        <v>187.161072</v>
       </c>
     </row>
     <row r="30">
@@ -3744,7 +3744,7 @@
         <v>32</v>
       </c>
       <c r="B31" t="n">
-        <v>189.966171</v>
+        <v>189.966156</v>
       </c>
       <c r="C31" t="n">
         <v>188.687653</v>
@@ -3755,10 +3755,10 @@
         <v>33</v>
       </c>
       <c r="B32" t="n">
-        <v>188.949051</v>
+        <v>188.949066</v>
       </c>
       <c r="C32" t="n">
-        <v>188.535004</v>
+        <v>188.534988</v>
       </c>
     </row>
     <row r="33">
@@ -3766,10 +3766,10 @@
         <v>34</v>
       </c>
       <c r="B33" t="n">
-        <v>191.061523</v>
+        <v>191.061508</v>
       </c>
       <c r="C33" t="n">
-        <v>193.267441</v>
+        <v>193.267456</v>
       </c>
     </row>
     <row r="34">
@@ -3777,10 +3777,10 @@
         <v>35</v>
       </c>
       <c r="B34" t="n">
-        <v>192.31337</v>
+        <v>192.313354</v>
       </c>
       <c r="C34" t="n">
-        <v>193.42012</v>
+        <v>193.420135</v>
       </c>
     </row>
     <row r="35">
@@ -3788,10 +3788,10 @@
         <v>36</v>
       </c>
       <c r="B35" t="n">
-        <v>194.660553</v>
+        <v>194.660568</v>
       </c>
       <c r="C35" t="n">
-        <v>196.625992</v>
+        <v>196.625961</v>
       </c>
     </row>
     <row r="36">
@@ -3799,7 +3799,7 @@
         <v>37</v>
       </c>
       <c r="B36" t="n">
-        <v>194.895264</v>
+        <v>194.895279</v>
       </c>
       <c r="C36" t="n">
         <v>196.167999</v>
@@ -3810,10 +3810,10 @@
         <v>38</v>
       </c>
       <c r="B37" t="n">
-        <v>191.687424</v>
+        <v>191.687439</v>
       </c>
       <c r="C37" t="n">
-        <v>185.481781</v>
+        <v>185.481796</v>
       </c>
     </row>
     <row r="38">
@@ -3832,10 +3832,10 @@
         <v>40</v>
       </c>
       <c r="B39" t="n">
-        <v>193.252228</v>
+        <v>193.252243</v>
       </c>
       <c r="C39" t="n">
-        <v>180.444</v>
+        <v>180.444016</v>
       </c>
     </row>
     <row r="40">
@@ -3843,10 +3843,10 @@
         <v>41</v>
       </c>
       <c r="B40" t="n">
-        <v>194.504089</v>
+        <v>194.504074</v>
       </c>
       <c r="C40" t="n">
-        <v>186.245117</v>
+        <v>186.245087</v>
       </c>
     </row>
     <row r="41">
@@ -3865,10 +3865,10 @@
         <v>43</v>
       </c>
       <c r="B42" t="n">
-        <v>189.731461</v>
+        <v>189.731445</v>
       </c>
       <c r="C42" t="n">
-        <v>183.191895</v>
+        <v>183.19191</v>
       </c>
     </row>
     <row r="43">
@@ -3876,7 +3876,7 @@
         <v>44</v>
       </c>
       <c r="B43" t="n">
-        <v>192.626312</v>
+        <v>192.626297</v>
       </c>
       <c r="C43" t="n">
         <v>182.733917</v>
@@ -3887,10 +3887,10 @@
         <v>45</v>
       </c>
       <c r="B44" t="n">
-        <v>190.748566</v>
+        <v>190.74855</v>
       </c>
       <c r="C44" t="n">
-        <v>181.665298</v>
+        <v>181.665314</v>
       </c>
     </row>
     <row r="45">
@@ -3898,10 +3898,10 @@
         <v>46</v>
       </c>
       <c r="B45" t="n">
-        <v>189.731461</v>
+        <v>189.731445</v>
       </c>
       <c r="C45" t="n">
-        <v>177.696136</v>
+        <v>177.696152</v>
       </c>
     </row>
     <row r="46">
@@ -3912,7 +3912,7 @@
         <v>190.044403</v>
       </c>
       <c r="C46" t="n">
-        <v>179.833405</v>
+        <v>179.833389</v>
       </c>
     </row>
     <row r="47">
@@ -3923,7 +3923,7 @@
         <v>189.34024</v>
       </c>
       <c r="C47" t="n">
-        <v>180.749344</v>
+        <v>180.749359</v>
       </c>
     </row>
     <row r="48">
@@ -3934,7 +3934,7 @@
         <v>191.53096</v>
       </c>
       <c r="C48" t="n">
-        <v>180.749344</v>
+        <v>180.749359</v>
       </c>
     </row>
     <row r="49">
@@ -3942,7 +3942,7 @@
         <v>50</v>
       </c>
       <c r="B49" t="n">
-        <v>191.218002</v>
+        <v>191.217987</v>
       </c>
       <c r="C49" t="n">
         <v>182.428604</v>
@@ -3953,10 +3953,10 @@
         <v>51</v>
       </c>
       <c r="B50" t="n">
-        <v>192.626312</v>
+        <v>192.626297</v>
       </c>
       <c r="C50" t="n">
-        <v>180.902008</v>
+        <v>180.902023</v>
       </c>
     </row>
     <row r="51">
@@ -3967,7 +3967,7 @@
         <v>193.095764</v>
       </c>
       <c r="C51" t="n">
-        <v>180.291351</v>
+        <v>180.291367</v>
       </c>
     </row>
     <row r="52">
@@ -3997,7 +3997,7 @@
         <v>55</v>
       </c>
       <c r="B54" t="n">
-        <v>191.061523</v>
+        <v>191.061508</v>
       </c>
       <c r="C54" t="n">
         <v>183.113083</v>
@@ -4008,10 +4008,10 @@
         <v>56</v>
       </c>
       <c r="B55" t="n">
-        <v>191.306259</v>
+        <v>191.306274</v>
       </c>
       <c r="C55" t="n">
-        <v>182.792419</v>
+        <v>182.792404</v>
       </c>
     </row>
     <row r="56">
@@ -4022,7 +4022,7 @@
         <v>191.795761</v>
       </c>
       <c r="C56" t="n">
-        <v>183.594131</v>
+        <v>183.594116</v>
       </c>
     </row>
     <row r="57">
@@ -4041,10 +4041,10 @@
         <v>59</v>
       </c>
       <c r="B58" t="n">
-        <v>190.572037</v>
+        <v>190.572052</v>
       </c>
       <c r="C58" t="n">
-        <v>184.075165</v>
+        <v>184.07515</v>
       </c>
     </row>
     <row r="59">
@@ -4074,10 +4074,10 @@
         <v>62</v>
       </c>
       <c r="B61" t="n">
-        <v>184.208755</v>
+        <v>184.208771</v>
       </c>
       <c r="C61" t="n">
-        <v>181.669998</v>
+        <v>181.669983</v>
       </c>
     </row>
     <row r="62">
@@ -4096,10 +4096,10 @@
         <v>64</v>
       </c>
       <c r="B63" t="n">
-        <v>183.882446</v>
+        <v>183.882431</v>
       </c>
       <c r="C63" t="n">
-        <v>178.142426</v>
+        <v>178.14241</v>
       </c>
     </row>
     <row r="64">
@@ -4110,7 +4110,7 @@
         <v>183.148224</v>
       </c>
       <c r="C64" t="n">
-        <v>178.46312</v>
+        <v>178.463104</v>
       </c>
     </row>
     <row r="65">
@@ -4129,7 +4129,7 @@
         <v>67</v>
       </c>
       <c r="B66" t="n">
-        <v>183.882446</v>
+        <v>183.882431</v>
       </c>
       <c r="C66" t="n">
         <v>178.944138</v>
@@ -4140,10 +4140,10 @@
         <v>68</v>
       </c>
       <c r="B67" t="n">
-        <v>182.49556</v>
+        <v>182.495575</v>
       </c>
       <c r="C67" t="n">
-        <v>178.142426</v>
+        <v>178.14241</v>
       </c>
     </row>
     <row r="68">
@@ -4151,10 +4151,10 @@
         <v>69</v>
       </c>
       <c r="B68" t="n">
-        <v>182.985062</v>
+        <v>182.985046</v>
       </c>
       <c r="C68" t="n">
-        <v>180.868256</v>
+        <v>180.868271</v>
       </c>
     </row>
     <row r="69">
@@ -4165,7 +4165,7 @@
         <v>183.39296</v>
       </c>
       <c r="C69" t="n">
-        <v>180.547592</v>
+        <v>180.547577</v>
       </c>
     </row>
     <row r="70">
@@ -4176,7 +4176,7 @@
         <v>179.477097</v>
       </c>
       <c r="C70" t="n">
-        <v>180.868256</v>
+        <v>180.868271</v>
       </c>
     </row>
     <row r="71">
@@ -4184,7 +4184,7 @@
         <v>72</v>
       </c>
       <c r="B71" t="n">
-        <v>180.619202</v>
+        <v>180.619217</v>
       </c>
       <c r="C71" t="n">
         <v>184.395844</v>
@@ -4195,10 +4195,10 @@
         <v>73</v>
       </c>
       <c r="B72" t="n">
-        <v>180.211319</v>
+        <v>180.211304</v>
       </c>
       <c r="C72" t="n">
-        <v>182.311371</v>
+        <v>182.311356</v>
       </c>
     </row>
     <row r="73">
@@ -4217,10 +4217,10 @@
         <v>75</v>
       </c>
       <c r="B74" t="n">
-        <v>181.924515</v>
+        <v>181.9245</v>
       </c>
       <c r="C74" t="n">
-        <v>184.075165</v>
+        <v>184.07515</v>
       </c>
     </row>
     <row r="75">
@@ -4239,7 +4239,7 @@
         <v>77</v>
       </c>
       <c r="B76" t="n">
-        <v>182.577148</v>
+        <v>182.577164</v>
       </c>
       <c r="C76" t="n">
         <v>188.885483</v>
@@ -4250,10 +4250,10 @@
         <v>78</v>
       </c>
       <c r="B77" t="n">
-        <v>182.577148</v>
+        <v>182.577164</v>
       </c>
       <c r="C77" t="n">
-        <v>190.007889</v>
+        <v>190.007904</v>
       </c>
     </row>
     <row r="78">
@@ -4264,7 +4264,7 @@
         <v>183.229797</v>
       </c>
       <c r="C78" t="n">
-        <v>192.894089</v>
+        <v>192.894104</v>
       </c>
     </row>
     <row r="79">
@@ -4283,10 +4283,10 @@
         <v>81</v>
       </c>
       <c r="B80" t="n">
-        <v>178.498123</v>
+        <v>178.498138</v>
       </c>
       <c r="C80" t="n">
-        <v>187.602737</v>
+        <v>187.602722</v>
       </c>
     </row>
     <row r="81">
@@ -4294,7 +4294,7 @@
         <v>82</v>
       </c>
       <c r="B81" t="n">
-        <v>179.069199</v>
+        <v>179.069183</v>
       </c>
       <c r="C81" t="n">
         <v>186.319977</v>
@@ -4319,7 +4319,7 @@
         <v>177.763901</v>
       </c>
       <c r="C83" t="n">
-        <v>181.669998</v>
+        <v>181.669983</v>
       </c>
     </row>
     <row r="84">
@@ -4360,7 +4360,7 @@
         <v>88</v>
       </c>
       <c r="B87" t="n">
-        <v>175.316498</v>
+        <v>175.316483</v>
       </c>
       <c r="C87" t="n">
         <v>184.235504</v>
@@ -4371,7 +4371,7 @@
         <v>89</v>
       </c>
       <c r="B88" t="n">
-        <v>176.784943</v>
+        <v>176.784927</v>
       </c>
       <c r="C88" t="n">
         <v>187.121704</v>
@@ -4385,7 +4385,7 @@
         <v>175.561234</v>
       </c>
       <c r="C89" t="n">
-        <v>186.961365</v>
+        <v>186.961349</v>
       </c>
     </row>
     <row r="90">
@@ -4418,7 +4418,7 @@
         <v>174.255951</v>
       </c>
       <c r="C92" t="n">
-        <v>183.594131</v>
+        <v>183.594116</v>
       </c>
     </row>
     <row r="93">
@@ -4429,7 +4429,7 @@
         <v>176.540192</v>
       </c>
       <c r="C93" t="n">
-        <v>185.197556</v>
+        <v>185.197571</v>
       </c>
     </row>
     <row r="94">
@@ -4437,10 +4437,10 @@
         <v>95</v>
       </c>
       <c r="B94" t="n">
-        <v>176.458618</v>
+        <v>176.458603</v>
       </c>
       <c r="C94" t="n">
-        <v>184.075165</v>
+        <v>184.07515</v>
       </c>
     </row>
     <row r="95">
@@ -4459,10 +4459,10 @@
         <v>97</v>
       </c>
       <c r="B96" t="n">
-        <v>176.948105</v>
+        <v>176.94809</v>
       </c>
       <c r="C96" t="n">
-        <v>185.037216</v>
+        <v>185.037231</v>
       </c>
     </row>
     <row r="97">
@@ -4484,7 +4484,7 @@
         <v>173.276978</v>
       </c>
       <c r="C98" t="n">
-        <v>181.669998</v>
+        <v>181.669983</v>
       </c>
     </row>
     <row r="99">
@@ -4495,7 +4495,7 @@
         <v>173.113815</v>
       </c>
       <c r="C99" t="n">
-        <v>181.02861</v>
+        <v>181.028625</v>
       </c>
     </row>
     <row r="100">
@@ -4503,7 +4503,7 @@
         <v>101</v>
       </c>
       <c r="B100" t="n">
-        <v>168.953232</v>
+        <v>168.953201</v>
       </c>
       <c r="C100" t="n">
         <v>174.935532</v>
@@ -4517,7 +4517,7 @@
         <v>168.871628</v>
       </c>
       <c r="C101" t="n">
-        <v>175.737274</v>
+        <v>175.737244</v>
       </c>
     </row>
     <row r="102">
@@ -4528,7 +4528,7 @@
         <v>172.461166</v>
       </c>
       <c r="C102" t="n">
-        <v>173.171738</v>
+        <v>173.171768</v>
       </c>
     </row>
     <row r="103">
@@ -4561,7 +4561,7 @@
         <v>175.72438</v>
       </c>
       <c r="C105" t="n">
-        <v>177.982071</v>
+        <v>177.982086</v>
       </c>
     </row>
     <row r="106">
@@ -4583,7 +4583,7 @@
         <v>174.092773</v>
       </c>
       <c r="C107" t="n">
-        <v>175.737274</v>
+        <v>175.737244</v>
       </c>
     </row>
     <row r="108">
@@ -4594,7 +4594,7 @@
         <v>177.84549</v>
       </c>
       <c r="C108" t="n">
-        <v>177.020004</v>
+        <v>177.02002</v>
       </c>
     </row>
     <row r="109">
@@ -4602,10 +4602,10 @@
         <v>110</v>
       </c>
       <c r="B109" t="n">
-        <v>178.498123</v>
+        <v>178.498138</v>
       </c>
       <c r="C109" t="n">
-        <v>177.180344</v>
+        <v>177.180359</v>
       </c>
     </row>
     <row r="110">
@@ -4616,7 +4616,7 @@
         <v>178.253387</v>
       </c>
       <c r="C110" t="n">
-        <v>177.340683</v>
+        <v>177.340698</v>
       </c>
     </row>
     <row r="111">
@@ -4649,7 +4649,7 @@
         <v>173.929626</v>
       </c>
       <c r="C113" t="n">
-        <v>175.897614</v>
+        <v>175.897598</v>
       </c>
     </row>
     <row r="114">
@@ -4660,7 +4660,7 @@
         <v>171.971695</v>
       </c>
       <c r="C114" t="n">
-        <v>175.095871</v>
+        <v>175.095886</v>
       </c>
     </row>
     <row r="115">
@@ -4682,7 +4682,7 @@
         <v>167.811081</v>
       </c>
       <c r="C116" t="n">
-        <v>173.171738</v>
+        <v>173.171768</v>
       </c>
     </row>
     <row r="117">
@@ -4715,7 +4715,7 @@
         <v>161.243851</v>
       </c>
       <c r="C119" t="n">
-        <v>173.813126</v>
+        <v>173.813141</v>
       </c>
     </row>
     <row r="120">
@@ -4737,7 +4737,7 @@
         <v>162.018875</v>
       </c>
       <c r="C121" t="n">
-        <v>174.454498</v>
+        <v>174.454514</v>
       </c>
     </row>
     <row r="122">
@@ -4748,7 +4748,7 @@
         <v>162.957047</v>
       </c>
       <c r="C122" t="n">
-        <v>175.897614</v>
+        <v>175.897598</v>
       </c>
     </row>
     <row r="123">
@@ -4781,7 +4781,7 @@
         <v>160.999115</v>
       </c>
       <c r="C125" t="n">
-        <v>179.264847</v>
+        <v>179.264832</v>
       </c>
     </row>
     <row r="126">
@@ -4833,7 +4833,7 @@
         <v>131</v>
       </c>
       <c r="B130" t="n">
-        <v>158.225388</v>
+        <v>158.225372</v>
       </c>
       <c r="C130" t="n">
         <v>182.151031</v>
@@ -4855,7 +4855,7 @@
         <v>133</v>
       </c>
       <c r="B132" t="n">
-        <v>158.225388</v>
+        <v>158.225372</v>
       </c>
       <c r="C132" t="n">
         <v>182.151031</v>
@@ -4877,7 +4877,7 @@
         <v>135</v>
       </c>
       <c r="B134" t="n">
-        <v>159.163559</v>
+        <v>159.163544</v>
       </c>
       <c r="C134" t="n">
         <v>180.707916</v>
@@ -4902,7 +4902,7 @@
         <v>148.394913</v>
       </c>
       <c r="C136" t="n">
-        <v>179.745865</v>
+        <v>179.74585</v>
       </c>
     </row>
     <row r="137">
@@ -4921,10 +4921,10 @@
         <v>139</v>
       </c>
       <c r="B138" t="n">
-        <v>149.985748</v>
+        <v>149.985764</v>
       </c>
       <c r="C138" t="n">
-        <v>181.669998</v>
+        <v>181.669983</v>
       </c>
     </row>
     <row r="139">
@@ -4935,7 +4935,7 @@
         <v>151.94368</v>
       </c>
       <c r="C139" t="n">
-        <v>185.037216</v>
+        <v>185.037231</v>
       </c>
     </row>
     <row r="140">
@@ -4946,7 +4946,7 @@
         <v>150.92392</v>
       </c>
       <c r="C140" t="n">
-        <v>185.518234</v>
+        <v>185.518265</v>
       </c>
     </row>
     <row r="141">
@@ -4987,10 +4987,10 @@
         <v>145</v>
       </c>
       <c r="B144" t="n">
-        <v>151.127884</v>
+        <v>151.127869</v>
       </c>
       <c r="C144" t="n">
-        <v>189.52684</v>
+        <v>189.526855</v>
       </c>
     </row>
     <row r="145">
@@ -4998,7 +4998,7 @@
         <v>146</v>
       </c>
       <c r="B145" t="n">
-        <v>149.129166</v>
+        <v>149.12915</v>
       </c>
       <c r="C145" t="n">
         <v>188.083771</v>
@@ -5009,7 +5009,7 @@
         <v>147</v>
       </c>
       <c r="B146" t="n">
-        <v>146.029083</v>
+        <v>146.029099</v>
       </c>
       <c r="C146" t="n">
         <v>184.395844</v>
@@ -5020,10 +5020,10 @@
         <v>148</v>
       </c>
       <c r="B147" t="n">
-        <v>149.129166</v>
+        <v>149.12915</v>
       </c>
       <c r="C147" t="n">
-        <v>185.037216</v>
+        <v>185.037231</v>
       </c>
     </row>
     <row r="148">
@@ -5031,10 +5031,10 @@
         <v>149</v>
       </c>
       <c r="B148" t="n">
-        <v>147.538345</v>
+        <v>147.53833</v>
       </c>
       <c r="C148" t="n">
-        <v>177.180344</v>
+        <v>177.180359</v>
       </c>
     </row>
     <row r="149">
@@ -5056,7 +5056,7 @@
         <v>147.415955</v>
       </c>
       <c r="C150" t="n">
-        <v>178.142426</v>
+        <v>178.14241</v>
       </c>
     </row>
     <row r="151">
@@ -5067,7 +5067,7 @@
         <v>148.231766</v>
       </c>
       <c r="C151" t="n">
-        <v>179.264847</v>
+        <v>179.264832</v>
       </c>
     </row>
     <row r="152">
@@ -5075,7 +5075,7 @@
         <v>153</v>
       </c>
       <c r="B152" t="n">
-        <v>149.700226</v>
+        <v>149.700211</v>
       </c>
       <c r="C152" t="n">
         <v>177.501038</v>
@@ -5086,7 +5086,7 @@
         <v>154</v>
       </c>
       <c r="B153" t="n">
-        <v>150.026535</v>
+        <v>150.02652</v>
       </c>
       <c r="C153" t="n">
         <v>178.302765</v>
@@ -5108,10 +5108,10 @@
         <v>156</v>
       </c>
       <c r="B155" t="n">
-        <v>145.906738</v>
+        <v>145.906723</v>
       </c>
       <c r="C155" t="n">
-        <v>173.171738</v>
+        <v>173.171768</v>
       </c>
     </row>
     <row r="156">
@@ -5133,7 +5133,7 @@
         <v>149.210739</v>
       </c>
       <c r="C157" t="n">
-        <v>175.095871</v>
+        <v>175.095886</v>
       </c>
     </row>
     <row r="158">
@@ -5141,10 +5141,10 @@
         <v>159</v>
       </c>
       <c r="B158" t="n">
-        <v>150.230484</v>
+        <v>150.230469</v>
       </c>
       <c r="C158" t="n">
-        <v>175.737274</v>
+        <v>175.737244</v>
       </c>
     </row>
     <row r="159">
@@ -5152,7 +5152,7 @@
         <v>160</v>
       </c>
       <c r="B159" t="n">
-        <v>150.719955</v>
+        <v>150.719971</v>
       </c>
       <c r="C159" t="n">
         <v>177.661392</v>
@@ -5166,7 +5166,7 @@
         <v>153.616074</v>
       </c>
       <c r="C160" t="n">
-        <v>176.057968</v>
+        <v>176.057953</v>
       </c>
     </row>
     <row r="161">
@@ -5177,7 +5177,7 @@
         <v>151.94368</v>
       </c>
       <c r="C161" t="n">
-        <v>175.897614</v>
+        <v>175.897598</v>
       </c>
     </row>
     <row r="162">
@@ -5185,10 +5185,10 @@
         <v>163</v>
       </c>
       <c r="B162" t="n">
-        <v>154.717407</v>
+        <v>154.717422</v>
       </c>
       <c r="C162" t="n">
-        <v>175.256241</v>
+        <v>175.25621</v>
       </c>
     </row>
     <row r="163">
@@ -5196,10 +5196,10 @@
         <v>164</v>
       </c>
       <c r="B163" t="n">
-        <v>157.817459</v>
+        <v>157.817474</v>
       </c>
       <c r="C163" t="n">
-        <v>175.256241</v>
+        <v>175.25621</v>
       </c>
     </row>
     <row r="164">
@@ -5207,7 +5207,7 @@
         <v>165</v>
       </c>
       <c r="B164" t="n">
-        <v>156.716141</v>
+        <v>156.716156</v>
       </c>
       <c r="C164" t="n">
         <v>155.614059</v>
@@ -5229,10 +5229,10 @@
         <v>167</v>
       </c>
       <c r="B166" t="n">
-        <v>156.634552</v>
+        <v>156.634567</v>
       </c>
       <c r="C166" t="n">
-        <v>151.926132</v>
+        <v>151.926147</v>
       </c>
     </row>
     <row r="167">
@@ -5240,7 +5240,7 @@
         <v>168</v>
       </c>
       <c r="B167" t="n">
-        <v>154.146347</v>
+        <v>154.146332</v>
       </c>
       <c r="C167" t="n">
         <v>150.723557</v>
@@ -5262,10 +5262,10 @@
         <v>170</v>
       </c>
       <c r="B169" t="n">
-        <v>144.764587</v>
+        <v>144.764603</v>
       </c>
       <c r="C169" t="n">
-        <v>148.398575</v>
+        <v>148.39856</v>
       </c>
     </row>
     <row r="170">
@@ -5276,7 +5276,7 @@
         <v>148.272552</v>
       </c>
       <c r="C170" t="n">
-        <v>147.917526</v>
+        <v>147.917542</v>
       </c>
     </row>
     <row r="171">
@@ -5284,7 +5284,7 @@
         <v>172</v>
       </c>
       <c r="B171" t="n">
-        <v>150.719955</v>
+        <v>150.719971</v>
       </c>
       <c r="C171" t="n">
         <v>148.158066</v>
@@ -5295,7 +5295,7 @@
         <v>173</v>
       </c>
       <c r="B172" t="n">
-        <v>144.397476</v>
+        <v>144.397491</v>
       </c>
       <c r="C172" t="n">
         <v>148.799438</v>
@@ -5317,10 +5317,10 @@
         <v>175</v>
       </c>
       <c r="B174" t="n">
-        <v>139.217117</v>
+        <v>139.217133</v>
       </c>
       <c r="C174" t="n">
-        <v>147.837357</v>
+        <v>147.837341</v>
       </c>
     </row>
     <row r="175">
@@ -5331,7 +5331,7 @@
         <v>137.096039</v>
       </c>
       <c r="C175" t="n">
-        <v>148.398575</v>
+        <v>148.39856</v>
       </c>
     </row>
     <row r="176">
@@ -5342,7 +5342,7 @@
         <v>140.114502</v>
       </c>
       <c r="C176" t="n">
-        <v>148.879608</v>
+        <v>148.879593</v>
       </c>
     </row>
     <row r="177">
@@ -5353,7 +5353,7 @@
         <v>138.646057</v>
       </c>
       <c r="C177" t="n">
-        <v>147.917526</v>
+        <v>147.917542</v>
       </c>
     </row>
     <row r="178">
@@ -5364,7 +5364,7 @@
         <v>137.748672</v>
       </c>
       <c r="C178" t="n">
-        <v>149.200302</v>
+        <v>149.200287</v>
       </c>
     </row>
     <row r="179">
@@ -5375,7 +5375,7 @@
         <v>142.643509</v>
       </c>
       <c r="C179" t="n">
-        <v>148.398575</v>
+        <v>148.39856</v>
       </c>
     </row>
     <row r="180">
@@ -5394,7 +5394,7 @@
         <v>182</v>
       </c>
       <c r="B181" t="n">
-        <v>144.397476</v>
+        <v>144.397491</v>
       </c>
       <c r="C181" t="n">
         <v>151.28476</v>
@@ -5427,7 +5427,7 @@
         <v>185</v>
       </c>
       <c r="B184" t="n">
-        <v>138.686859</v>
+        <v>138.686844</v>
       </c>
       <c r="C184" t="n">
         <v>152.968384</v>
@@ -5438,10 +5438,10 @@
         <v>186</v>
       </c>
       <c r="B185" t="n">
-        <v>140.563187</v>
+        <v>140.563202</v>
       </c>
       <c r="C185" t="n">
-        <v>155.934753</v>
+        <v>155.934738</v>
       </c>
     </row>
     <row r="186">
@@ -5449,7 +5449,7 @@
         <v>187</v>
       </c>
       <c r="B186" t="n">
-        <v>138.768448</v>
+        <v>138.768433</v>
       </c>
       <c r="C186" t="n">
         <v>151.364929</v>
@@ -5471,10 +5471,10 @@
         <v>189</v>
       </c>
       <c r="B188" t="n">
-        <v>138.238159</v>
+        <v>138.238144</v>
       </c>
       <c r="C188" t="n">
-        <v>152.647705</v>
+        <v>152.647675</v>
       </c>
     </row>
     <row r="189">
@@ -5482,7 +5482,7 @@
         <v>190</v>
       </c>
       <c r="B189" t="n">
-        <v>137.667084</v>
+        <v>137.667099</v>
       </c>
       <c r="C189" t="n">
         <v>150.402878</v>
@@ -5493,7 +5493,7 @@
         <v>191</v>
       </c>
       <c r="B190" t="n">
-        <v>135.627579</v>
+        <v>135.627563</v>
       </c>
       <c r="C190" t="n">
         <v>149.440796</v>
@@ -5515,10 +5515,10 @@
         <v>193</v>
       </c>
       <c r="B192" t="n">
-        <v>121.310204</v>
+        <v>121.310196</v>
       </c>
       <c r="C192" t="n">
-        <v>150.483032</v>
+        <v>150.483047</v>
       </c>
     </row>
     <row r="193">
@@ -5526,10 +5526,10 @@
         <v>194</v>
       </c>
       <c r="B193" t="n">
-        <v>116.945656</v>
+        <v>116.945648</v>
       </c>
       <c r="C193" t="n">
-        <v>146.795135</v>
+        <v>146.79512</v>
       </c>
     </row>
     <row r="194">
@@ -5548,7 +5548,7 @@
         <v>196</v>
       </c>
       <c r="B195" t="n">
-        <v>117.883835</v>
+        <v>117.88382</v>
       </c>
       <c r="C195" t="n">
         <v>143.027023</v>
@@ -5559,7 +5559,7 @@
         <v>197</v>
       </c>
       <c r="B196" t="n">
-        <v>115.191666</v>
+        <v>115.191658</v>
       </c>
       <c r="C196" t="n">
         <v>140.782227</v>
@@ -5570,7 +5570,7 @@
         <v>198</v>
       </c>
       <c r="B197" t="n">
-        <v>115.273262</v>
+        <v>115.273254</v>
       </c>
       <c r="C197" t="n">
         <v>141.904633</v>
@@ -5581,10 +5581,10 @@
         <v>199</v>
       </c>
       <c r="B198" t="n">
-        <v>113.886375</v>
+        <v>113.886383</v>
       </c>
       <c r="C198" t="n">
-        <v>142.54599</v>
+        <v>142.546021</v>
       </c>
     </row>
     <row r="199">
@@ -5595,7 +5595,7 @@
         <v>115.436401</v>
       </c>
       <c r="C199" t="n">
-        <v>143.588226</v>
+        <v>143.588242</v>
       </c>
     </row>
     <row r="200">
@@ -5603,10 +5603,10 @@
         <v>201</v>
       </c>
       <c r="B200" t="n">
-        <v>112.254776</v>
+        <v>112.254768</v>
       </c>
       <c r="C200" t="n">
-        <v>143.748581</v>
+        <v>143.748596</v>
       </c>
     </row>
     <row r="201">
@@ -5614,10 +5614,10 @@
         <v>202</v>
       </c>
       <c r="B201" t="n">
-        <v>110.704742</v>
+        <v>110.704735</v>
       </c>
       <c r="C201" t="n">
-        <v>143.187378</v>
+        <v>143.187393</v>
       </c>
     </row>
     <row r="202">
@@ -5625,7 +5625,7 @@
         <v>203</v>
       </c>
       <c r="B202" t="n">
-        <v>107.033615</v>
+        <v>107.033607</v>
       </c>
       <c r="C202" t="n">
         <v>142.706345</v>
@@ -5639,7 +5639,7 @@
         <v>106.421753</v>
       </c>
       <c r="C203" t="n">
-        <v>139.82016</v>
+        <v>139.820145</v>
       </c>
     </row>
     <row r="204">
@@ -5647,7 +5647,7 @@
         <v>205</v>
       </c>
       <c r="B204" t="n">
-        <v>103.280914</v>
+        <v>103.280907</v>
       </c>
       <c r="C204" t="n">
         <v>140.782227</v>
@@ -5658,10 +5658,10 @@
         <v>206</v>
       </c>
       <c r="B205" t="n">
-        <v>102.505898</v>
+        <v>102.50589</v>
       </c>
       <c r="C205" t="n">
-        <v>141.503769</v>
+        <v>141.503784</v>
       </c>
     </row>
     <row r="206">
@@ -5683,7 +5683,7 @@
         <v>102.791428</v>
       </c>
       <c r="C207" t="n">
-        <v>140.862396</v>
+        <v>140.862381</v>
       </c>
     </row>
     <row r="208">
@@ -5694,7 +5694,7 @@
         <v>104.586197</v>
       </c>
       <c r="C208" t="n">
-        <v>144.06926</v>
+        <v>144.069275</v>
       </c>
     </row>
     <row r="209">
@@ -5702,10 +5702,10 @@
         <v>210</v>
       </c>
       <c r="B209" t="n">
-        <v>103.280914</v>
+        <v>103.280907</v>
       </c>
       <c r="C209" t="n">
-        <v>139.900314</v>
+        <v>139.900345</v>
       </c>
     </row>
     <row r="210">
@@ -5724,7 +5724,7 @@
         <v>212</v>
       </c>
       <c r="B211" t="n">
-        <v>108.134949</v>
+        <v>108.134956</v>
       </c>
       <c r="C211" t="n">
         <v>123.625381</v>
@@ -5735,10 +5735,10 @@
         <v>213</v>
       </c>
       <c r="B212" t="n">
-        <v>111.765289</v>
+        <v>111.765282</v>
       </c>
       <c r="C212" t="n">
-        <v>127.874504</v>
+        <v>127.874512</v>
       </c>
     </row>
     <row r="213">
@@ -5746,10 +5746,10 @@
         <v>214</v>
       </c>
       <c r="B213" t="n">
-        <v>110.337624</v>
+        <v>110.337616</v>
       </c>
       <c r="C213" t="n">
-        <v>130.199493</v>
+        <v>130.199509</v>
       </c>
     </row>
     <row r="214">
@@ -5757,10 +5757,10 @@
         <v>215</v>
       </c>
       <c r="B214" t="n">
-        <v>110.174469</v>
+        <v>110.174461</v>
       </c>
       <c r="C214" t="n">
-        <v>130.680542</v>
+        <v>130.680527</v>
       </c>
     </row>
     <row r="215">
@@ -5768,7 +5768,7 @@
         <v>216</v>
       </c>
       <c r="B215" t="n">
-        <v>117.516701</v>
+        <v>117.516708</v>
       </c>
       <c r="C215" t="n">
         <v>132.52449</v>
@@ -5801,10 +5801,10 @@
         <v>219</v>
       </c>
       <c r="B218" t="n">
-        <v>116.619316</v>
+        <v>116.619324</v>
       </c>
       <c r="C218" t="n">
-        <v>130.440033</v>
+        <v>130.440018</v>
       </c>
     </row>
     <row r="219">
@@ -5812,10 +5812,10 @@
         <v>220</v>
       </c>
       <c r="B219" t="n">
-        <v>115.028511</v>
+        <v>115.028503</v>
       </c>
       <c r="C219" t="n">
-        <v>129.798645</v>
+        <v>129.79863</v>
       </c>
     </row>
     <row r="220">
@@ -5826,7 +5826,7 @@
         <v>117.598282</v>
       </c>
       <c r="C220" t="n">
-        <v>129.237442</v>
+        <v>129.237427</v>
       </c>
     </row>
     <row r="221">
@@ -5837,7 +5837,7 @@
         <v>113.519257</v>
       </c>
       <c r="C221" t="n">
-        <v>127.874504</v>
+        <v>127.874512</v>
       </c>
     </row>
     <row r="222">
@@ -5845,10 +5845,10 @@
         <v>223</v>
       </c>
       <c r="B222" t="n">
-        <v>111.602127</v>
+        <v>111.602119</v>
       </c>
       <c r="C222" t="n">
-        <v>127.553825</v>
+        <v>127.553833</v>
       </c>
     </row>
     <row r="223">
@@ -5859,7 +5859,7 @@
         <v>110.500778</v>
       </c>
       <c r="C223" t="n">
-        <v>128.756409</v>
+        <v>128.756393</v>
       </c>
     </row>
     <row r="224">
@@ -5878,10 +5878,10 @@
         <v>226</v>
       </c>
       <c r="B225" t="n">
-        <v>107.441513</v>
+        <v>107.441521</v>
       </c>
       <c r="C225" t="n">
-        <v>127.874504</v>
+        <v>127.874512</v>
       </c>
     </row>
     <row r="226">
@@ -5889,10 +5889,10 @@
         <v>227</v>
       </c>
       <c r="B226" t="n">
-        <v>108.461273</v>
+        <v>108.461266</v>
       </c>
       <c r="C226" t="n">
-        <v>127.874504</v>
+        <v>127.874512</v>
       </c>
     </row>
     <row r="227">
@@ -5914,7 +5914,7 @@
         <v>111.071846</v>
       </c>
       <c r="C228" t="n">
-        <v>131.081406</v>
+        <v>131.08139</v>
       </c>
     </row>
     <row r="229">
@@ -5922,10 +5922,10 @@
         <v>230</v>
       </c>
       <c r="B229" t="n">
-        <v>110.133667</v>
+        <v>110.133675</v>
       </c>
       <c r="C229" t="n">
-        <v>131.081406</v>
+        <v>131.08139</v>
       </c>
     </row>
     <row r="230">
@@ -5936,7 +5936,7 @@
         <v>110.949478</v>
       </c>
       <c r="C230" t="n">
-        <v>129.63829</v>
+        <v>129.638306</v>
       </c>
     </row>
     <row r="231">
@@ -5944,10 +5944,10 @@
         <v>232</v>
       </c>
       <c r="B231" t="n">
-        <v>107.441513</v>
+        <v>107.441521</v>
       </c>
       <c r="C231" t="n">
-        <v>130.359848</v>
+        <v>130.359833</v>
       </c>
     </row>
     <row r="232">
@@ -5958,7 +5958,7 @@
         <v>107.19677</v>
       </c>
       <c r="C232" t="n">
-        <v>130.359848</v>
+        <v>130.359833</v>
       </c>
     </row>
     <row r="233">
@@ -5977,10 +5977,10 @@
         <v>235</v>
       </c>
       <c r="B234" t="n">
-        <v>108.583641</v>
+        <v>108.583649</v>
       </c>
       <c r="C234" t="n">
-        <v>127.152969</v>
+        <v>127.152962</v>
       </c>
     </row>
     <row r="235">
@@ -5988,10 +5988,10 @@
         <v>236</v>
       </c>
       <c r="B235" t="n">
-        <v>114.62059</v>
+        <v>114.620598</v>
       </c>
       <c r="C235" t="n">
-        <v>129.798645</v>
+        <v>129.79863</v>
       </c>
     </row>
     <row r="236">
@@ -6024,7 +6024,7 @@
         <v>112.050819</v>
       </c>
       <c r="C238" t="n">
-        <v>127.152969</v>
+        <v>127.152962</v>
       </c>
     </row>
     <row r="239">
@@ -6046,7 +6046,7 @@
         <v>113.519257</v>
       </c>
       <c r="C240" t="n">
-        <v>129.077103</v>
+        <v>129.077087</v>
       </c>
     </row>
     <row r="241">
@@ -6054,10 +6054,10 @@
         <v>242</v>
       </c>
       <c r="B241" t="n">
-        <v>113.396889</v>
+        <v>113.396896</v>
       </c>
       <c r="C241" t="n">
-        <v>128.676224</v>
+        <v>128.676239</v>
       </c>
     </row>
     <row r="242">
@@ -6079,7 +6079,7 @@
         <v>110.459991</v>
       </c>
       <c r="C243" t="n">
-        <v>127.633972</v>
+        <v>127.633987</v>
       </c>
     </row>
     <row r="244">
@@ -6087,10 +6087,10 @@
         <v>245</v>
       </c>
       <c r="B244" t="n">
-        <v>112.213982</v>
+        <v>112.213974</v>
       </c>
       <c r="C244" t="n">
-        <v>122.66333</v>
+        <v>122.663307</v>
       </c>
     </row>
     <row r="245">
@@ -6109,7 +6109,7 @@
         <v>247</v>
       </c>
       <c r="B246" t="n">
-        <v>105.442795</v>
+        <v>105.442787</v>
       </c>
       <c r="C246" t="n">
         <v>117.77282</v>
@@ -6120,10 +6120,10 @@
         <v>248</v>
       </c>
       <c r="B247" t="n">
-        <v>104.626991</v>
+        <v>104.626984</v>
       </c>
       <c r="C247" t="n">
-        <v>120.258163</v>
+        <v>120.258156</v>
       </c>
     </row>
     <row r="248">
@@ -6131,10 +6131,10 @@
         <v>249</v>
       </c>
       <c r="B248" t="n">
-        <v>102.954582</v>
+        <v>102.95459</v>
       </c>
       <c r="C248" t="n">
-        <v>120.819359</v>
+        <v>120.819374</v>
       </c>
     </row>
     <row r="249">
@@ -6142,10 +6142,10 @@
         <v>250</v>
       </c>
       <c r="B249" t="n">
-        <v>105.157249</v>
+        <v>105.157257</v>
       </c>
       <c r="C249" t="n">
-        <v>124.346939</v>
+        <v>124.346954</v>
       </c>
     </row>
     <row r="250">
@@ -6156,7 +6156,7 @@
         <v>104.994102</v>
       </c>
       <c r="C250" t="n">
-        <v>126.271072</v>
+        <v>126.271057</v>
       </c>
     </row>
     <row r="251">
@@ -6164,7 +6164,7 @@
         <v>252</v>
       </c>
       <c r="B251" t="n">
-        <v>104.749352</v>
+        <v>104.749359</v>
       </c>
       <c r="C251" t="n">
         <v>123.865891</v>
@@ -6175,10 +6175,10 @@
         <v>253</v>
       </c>
       <c r="B252" t="n">
-        <v>109.195503</v>
+        <v>109.195496</v>
       </c>
       <c r="C252" t="n">
-        <v>127.313293</v>
+        <v>127.313324</v>
       </c>
     </row>
     <row r="253">
@@ -6189,7 +6189,7 @@
         <v>108.909966</v>
       </c>
       <c r="C253" t="n">
-        <v>126.591751</v>
+        <v>126.591759</v>
       </c>
     </row>
     <row r="254">
@@ -6197,10 +6197,10 @@
         <v>255</v>
       </c>
       <c r="B254" t="n">
-        <v>108.3797</v>
+        <v>108.379692</v>
       </c>
       <c r="C254" t="n">
-        <v>126.832275</v>
+        <v>126.83226</v>
       </c>
     </row>
     <row r="255">
@@ -6211,7 +6211,7 @@
         <v>107.074402</v>
       </c>
       <c r="C255" t="n">
-        <v>126.431412</v>
+        <v>126.431419</v>
       </c>
     </row>
     <row r="256">
@@ -6219,10 +6219,10 @@
         <v>257</v>
       </c>
       <c r="B256" t="n">
-        <v>104.219078</v>
+        <v>104.219093</v>
       </c>
       <c r="C256" t="n">
-        <v>126.591751</v>
+        <v>126.591759</v>
       </c>
     </row>
     <row r="257">
@@ -6241,10 +6241,10 @@
         <v>259</v>
       </c>
       <c r="B258" t="n">
-        <v>106.054649</v>
+        <v>106.054642</v>
       </c>
       <c r="C258" t="n">
-        <v>124.266769</v>
+        <v>124.266762</v>
       </c>
     </row>
     <row r="259">
@@ -6252,10 +6252,10 @@
         <v>260</v>
       </c>
       <c r="B259" t="n">
-        <v>104.423042</v>
+        <v>104.423035</v>
       </c>
       <c r="C259" t="n">
-        <v>122.583145</v>
+        <v>122.583153</v>
       </c>
     </row>
     <row r="260">
@@ -6263,10 +6263,10 @@
         <v>261</v>
       </c>
       <c r="B260" t="n">
-        <v>105.034889</v>
+        <v>105.034897</v>
       </c>
       <c r="C260" t="n">
-        <v>126.271072</v>
+        <v>126.271057</v>
       </c>
     </row>
     <row r="261">
@@ -6277,7 +6277,7 @@
         <v>103.933556</v>
       </c>
       <c r="C261" t="n">
-        <v>126.030556</v>
+        <v>126.030548</v>
       </c>
     </row>
     <row r="262">
@@ -6285,7 +6285,7 @@
         <v>263</v>
       </c>
       <c r="B262" t="n">
-        <v>103.199333</v>
+        <v>103.199326</v>
       </c>
       <c r="C262" t="n">
         <v>125.870201</v>
@@ -6296,10 +6296,10 @@
         <v>264</v>
       </c>
       <c r="B263" t="n">
-        <v>105.238846</v>
+        <v>105.238838</v>
       </c>
       <c r="C263" t="n">
-        <v>124.507294</v>
+        <v>124.507271</v>
       </c>
     </row>
     <row r="264">
@@ -6310,7 +6310,7 @@
         <v>102.791428</v>
       </c>
       <c r="C264" t="n">
-        <v>125.709862</v>
+        <v>125.709869</v>
       </c>
     </row>
     <row r="265">
@@ -6329,10 +6329,10 @@
         <v>267</v>
       </c>
       <c r="B266" t="n">
-        <v>99.976898</v>
+        <v>99.976906</v>
       </c>
       <c r="C266" t="n">
-        <v>126.110733</v>
+        <v>126.110725</v>
       </c>
     </row>
     <row r="267">
@@ -6343,7 +6343,7 @@
         <v>102.138779</v>
       </c>
       <c r="C267" t="n">
-        <v>126.832275</v>
+        <v>126.83226</v>
       </c>
     </row>
     <row r="268">
@@ -6351,7 +6351,7 @@
         <v>269</v>
       </c>
       <c r="B268" t="n">
-        <v>99.936104</v>
+        <v>99.936111</v>
       </c>
       <c r="C268" t="n">
         <v>123.625381</v>
@@ -6406,10 +6406,10 @@
         <v>274</v>
       </c>
       <c r="B273" t="n">
-        <v>101.078239</v>
+        <v>101.078232</v>
       </c>
       <c r="C273" t="n">
-        <v>122.262474</v>
+        <v>122.262451</v>
       </c>
     </row>
     <row r="274">
@@ -6417,7 +6417,7 @@
         <v>275</v>
       </c>
       <c r="B274" t="n">
-        <v>103.199333</v>
+        <v>103.199326</v>
       </c>
       <c r="C274" t="n">
         <v>122.102119</v>
@@ -6450,7 +6450,7 @@
         <v>278</v>
       </c>
       <c r="B277" t="n">
-        <v>97.896591</v>
+        <v>97.896599</v>
       </c>
       <c r="C277" t="n">
         <v>119.456436</v>
@@ -6464,7 +6464,7 @@
         <v>98.712402</v>
       </c>
       <c r="C278" t="n">
-        <v>119.135757</v>
+        <v>119.13575</v>
       </c>
     </row>
     <row r="279">
@@ -6475,7 +6475,7 @@
         <v>101.119026</v>
       </c>
       <c r="C279" t="n">
-        <v>121.220215</v>
+        <v>121.22023</v>
       </c>
     </row>
     <row r="280">
@@ -6486,7 +6486,7 @@
         <v>100.180855</v>
       </c>
       <c r="C280" t="n">
-        <v>122.262474</v>
+        <v>122.262451</v>
       </c>
     </row>
     <row r="281">
@@ -6494,10 +6494,10 @@
         <v>282</v>
       </c>
       <c r="B281" t="n">
-        <v>99.936104</v>
+        <v>99.936111</v>
       </c>
       <c r="C281" t="n">
-        <v>121.220215</v>
+        <v>121.22023</v>
       </c>
     </row>
     <row r="282">
@@ -6505,10 +6505,10 @@
         <v>283</v>
       </c>
       <c r="B282" t="n">
-        <v>101.486137</v>
+        <v>101.486145</v>
       </c>
       <c r="C282" t="n">
-        <v>122.02195</v>
+        <v>122.021942</v>
       </c>
     </row>
     <row r="283">
@@ -6516,7 +6516,7 @@
         <v>284</v>
       </c>
       <c r="B283" t="n">
-        <v>103.321709</v>
+        <v>103.321701</v>
       </c>
       <c r="C283" t="n">
         <v>123.545212</v>
@@ -6527,7 +6527,7 @@
         <v>285</v>
       </c>
       <c r="B284" t="n">
-        <v>102.873016</v>
+        <v>102.873009</v>
       </c>
       <c r="C284" t="n">
         <v>121.540916</v>
@@ -6560,10 +6560,10 @@
         <v>288</v>
       </c>
       <c r="B287" t="n">
-        <v>98.467667</v>
+        <v>98.467651</v>
       </c>
       <c r="C287" t="n">
-        <v>120.578835</v>
+        <v>120.578857</v>
       </c>
     </row>
     <row r="288">
@@ -6571,7 +6571,7 @@
         <v>289</v>
       </c>
       <c r="B288" t="n">
-        <v>102.301941</v>
+        <v>102.301949</v>
       </c>
       <c r="C288" t="n">
         <v>121.781425</v>
@@ -6582,7 +6582,7 @@
         <v>290</v>
       </c>
       <c r="B289" t="n">
-        <v>102.220367</v>
+        <v>102.22036</v>
       </c>
       <c r="C289" t="n">
         <v>119.777115</v>
@@ -6593,10 +6593,10 @@
         <v>291</v>
       </c>
       <c r="B290" t="n">
-        <v>106.054649</v>
+        <v>106.054642</v>
       </c>
       <c r="C290" t="n">
-        <v>127.393471</v>
+        <v>127.393478</v>
       </c>
     </row>
     <row r="291">
@@ -6604,10 +6604,10 @@
         <v>292</v>
       </c>
       <c r="B291" t="n">
-        <v>106.462547</v>
+        <v>106.462555</v>
       </c>
       <c r="C291" t="n">
-        <v>125.228813</v>
+        <v>125.228821</v>
       </c>
     </row>
     <row r="292">
@@ -6615,7 +6615,7 @@
         <v>293</v>
       </c>
       <c r="B292" t="n">
-        <v>105.973053</v>
+        <v>105.973061</v>
       </c>
       <c r="C292" t="n">
         <v>122.502991</v>
@@ -6629,7 +6629,7 @@
         <v>105.687538</v>
       </c>
       <c r="C293" t="n">
-        <v>122.422813</v>
+        <v>122.422798</v>
       </c>
     </row>
     <row r="294">
@@ -6637,10 +6637,10 @@
         <v>295</v>
       </c>
       <c r="B294" t="n">
-        <v>104.83094</v>
+        <v>104.830948</v>
       </c>
       <c r="C294" t="n">
-        <v>121.059875</v>
+        <v>121.059868</v>
       </c>
     </row>
     <row r="295">
@@ -6648,7 +6648,7 @@
         <v>296</v>
       </c>
       <c r="B295" t="n">
-        <v>105.442795</v>
+        <v>105.442787</v>
       </c>
       <c r="C295" t="n">
         <v>119.616791</v>
@@ -6659,10 +6659,10 @@
         <v>297</v>
       </c>
       <c r="B296" t="n">
-        <v>104.137512</v>
+        <v>104.137505</v>
       </c>
       <c r="C296" t="n">
-        <v>117.69265</v>
+        <v>117.692665</v>
       </c>
     </row>
     <row r="297">
@@ -6670,10 +6670,10 @@
         <v>298</v>
       </c>
       <c r="B297" t="n">
-        <v>103.036171</v>
+        <v>103.036163</v>
       </c>
       <c r="C297" t="n">
-        <v>116.570236</v>
+        <v>116.570244</v>
       </c>
     </row>
     <row r="298">
@@ -6684,7 +6684,7 @@
         <v>103.892761</v>
       </c>
       <c r="C298" t="n">
-        <v>115.768524</v>
+        <v>115.768517</v>
       </c>
     </row>
     <row r="299">
@@ -6717,7 +6717,7 @@
         <v>107.971802</v>
       </c>
       <c r="C301" t="n">
-        <v>118.654724</v>
+        <v>118.654716</v>
       </c>
     </row>
     <row r="302">
@@ -6728,7 +6728,7 @@
         <v>108.706009</v>
       </c>
       <c r="C302" t="n">
-        <v>120.258163</v>
+        <v>120.258156</v>
       </c>
     </row>
     <row r="303">
@@ -6750,7 +6750,7 @@
         <v>110.308449</v>
       </c>
       <c r="C304" t="n">
-        <v>123.30471</v>
+        <v>123.304703</v>
       </c>
     </row>
     <row r="305">
@@ -6761,7 +6761,7 @@
         <v>109.437477</v>
       </c>
       <c r="C305" t="n">
-        <v>121.94178</v>
+        <v>121.941788</v>
       </c>
     </row>
     <row r="306">
@@ -6772,7 +6772,7 @@
         <v>108.000374</v>
       </c>
       <c r="C306" t="n">
-        <v>120.899544</v>
+        <v>120.899536</v>
       </c>
     </row>
     <row r="307">
@@ -6802,7 +6802,7 @@
         <v>310</v>
       </c>
       <c r="B309" t="n">
-        <v>105.03907</v>
+        <v>105.039078</v>
       </c>
       <c r="C309" t="n">
         <v>114.540001</v>
@@ -6813,10 +6813,10 @@
         <v>311</v>
       </c>
       <c r="B310" t="n">
-        <v>105.474564</v>
+        <v>105.474556</v>
       </c>
       <c r="C310" t="n">
-        <v>116.762421</v>
+        <v>116.762428</v>
       </c>
     </row>
     <row r="311">
@@ -6824,10 +6824,10 @@
         <v>312</v>
       </c>
       <c r="B311" t="n">
-        <v>101.685837</v>
+        <v>101.685844</v>
       </c>
       <c r="C311" t="n">
-        <v>117.104324</v>
+        <v>117.104332</v>
       </c>
     </row>
     <row r="312">
@@ -6882,7 +6882,7 @@
         <v>109.132637</v>
       </c>
       <c r="C316" t="n">
-        <v>122.745865</v>
+        <v>122.745857</v>
       </c>
     </row>
     <row r="317">
@@ -6923,10 +6923,10 @@
         <v>321</v>
       </c>
       <c r="B320" t="n">
-        <v>105.95359</v>
+        <v>105.953598</v>
       </c>
       <c r="C320" t="n">
-        <v>120.352478</v>
+        <v>120.352486</v>
       </c>
     </row>
     <row r="321">
@@ -6934,7 +6934,7 @@
         <v>322</v>
       </c>
       <c r="B321" t="n">
-        <v>108.13102</v>
+        <v>108.131027</v>
       </c>
       <c r="C321" t="n">
         <v>122.232986</v>
@@ -6970,7 +6970,7 @@
         <v>112.050385</v>
       </c>
       <c r="C324" t="n">
-        <v>124.028015</v>
+        <v>124.028023</v>
       </c>
     </row>
     <row r="325">
@@ -6981,7 +6981,7 @@
         <v>112.268127</v>
       </c>
       <c r="C325" t="n">
-        <v>124.968254</v>
+        <v>124.968269</v>
       </c>
     </row>
     <row r="326">
@@ -6992,7 +6992,7 @@
         <v>110.87458</v>
       </c>
       <c r="C326" t="n">
-        <v>123.429672</v>
+        <v>123.429665</v>
       </c>
     </row>
     <row r="327">
@@ -7014,7 +7014,7 @@
         <v>110.221359</v>
       </c>
       <c r="C328" t="n">
-        <v>119.412231</v>
+        <v>119.412224</v>
       </c>
     </row>
     <row r="329">
@@ -7033,7 +7033,7 @@
         <v>331</v>
       </c>
       <c r="B330" t="n">
-        <v>113.705231</v>
+        <v>113.705238</v>
       </c>
       <c r="C330" t="n">
         <v>123.942535</v>
@@ -7044,7 +7044,7 @@
         <v>332</v>
       </c>
       <c r="B331" t="n">
-        <v>102.818108</v>
+        <v>102.8181</v>
       </c>
       <c r="C331" t="n">
         <v>122.831329</v>
@@ -7066,7 +7066,7 @@
         <v>334</v>
       </c>
       <c r="B333" t="n">
-        <v>102.382614</v>
+        <v>102.382622</v>
       </c>
       <c r="C333" t="n">
         <v>109.325867</v>
@@ -7088,7 +7088,7 @@
         <v>336</v>
       </c>
       <c r="B335" t="n">
-        <v>100.510025</v>
+        <v>100.510033</v>
       </c>
       <c r="C335" t="n">
         <v>107.78727</v>
@@ -7102,7 +7102,7 @@
         <v>98.463249</v>
       </c>
       <c r="C336" t="n">
-        <v>108.471085</v>
+        <v>108.471092</v>
       </c>
     </row>
     <row r="337">
@@ -7135,7 +7135,7 @@
         <v>97.635818</v>
       </c>
       <c r="C339" t="n">
-        <v>108.214661</v>
+        <v>108.214653</v>
       </c>
     </row>
     <row r="340">
@@ -7143,10 +7143,10 @@
         <v>341</v>
       </c>
       <c r="B340" t="n">
-        <v>96.068085</v>
+        <v>96.068077</v>
       </c>
       <c r="C340" t="n">
-        <v>106.590576</v>
+        <v>106.590584</v>
       </c>
     </row>
     <row r="341">
@@ -7154,7 +7154,7 @@
         <v>342</v>
       </c>
       <c r="B341" t="n">
-        <v>93.890648</v>
+        <v>93.890656</v>
       </c>
       <c r="C341" t="n">
         <v>106.847008</v>
@@ -7168,7 +7168,7 @@
         <v>92.758385</v>
       </c>
       <c r="C342" t="n">
-        <v>106.163193</v>
+        <v>106.163185</v>
       </c>
     </row>
     <row r="343">
@@ -7179,7 +7179,7 @@
         <v>94.500328</v>
       </c>
       <c r="C343" t="n">
-        <v>105.821289</v>
+        <v>105.821281</v>
       </c>
     </row>
     <row r="344">
@@ -7187,7 +7187,7 @@
         <v>345</v>
       </c>
       <c r="B344" t="n">
-        <v>96.416466</v>
+        <v>96.416458</v>
       </c>
       <c r="C344" t="n">
         <v>106.676064</v>
@@ -7209,7 +7209,7 @@
         <v>347</v>
       </c>
       <c r="B346" t="n">
-        <v>96.764854</v>
+        <v>96.764847</v>
       </c>
       <c r="C346" t="n">
         <v>105.906761</v>
@@ -7253,10 +7253,10 @@
         <v>351</v>
       </c>
       <c r="B350" t="n">
-        <v>97.984215</v>
+        <v>97.984207</v>
       </c>
       <c r="C350" t="n">
-        <v>107.359879</v>
+        <v>107.359871</v>
       </c>
     </row>
     <row r="351">
@@ -7275,10 +7275,10 @@
         <v>353</v>
       </c>
       <c r="B352" t="n">
-        <v>95.458389</v>
+        <v>95.458397</v>
       </c>
       <c r="C352" t="n">
-        <v>107.359879</v>
+        <v>107.359871</v>
       </c>
     </row>
     <row r="353">
@@ -7297,7 +7297,7 @@
         <v>355</v>
       </c>
       <c r="B354" t="n">
-        <v>94.674522</v>
+        <v>94.674515</v>
       </c>
       <c r="C354" t="n">
         <v>107.616318</v>
@@ -7308,7 +7308,7 @@
         <v>356</v>
       </c>
       <c r="B355" t="n">
-        <v>95.589043</v>
+        <v>95.589035</v>
       </c>
       <c r="C355" t="n">
         <v>108.813004</v>
@@ -7319,10 +7319,10 @@
         <v>357</v>
       </c>
       <c r="B356" t="n">
-        <v>96.851944</v>
+        <v>96.851952</v>
       </c>
       <c r="C356" t="n">
-        <v>110.266121</v>
+        <v>110.266113</v>
       </c>
     </row>
     <row r="357">
@@ -7333,7 +7333,7 @@
         <v>96.939049</v>
       </c>
       <c r="C357" t="n">
-        <v>111.120895</v>
+        <v>111.120903</v>
       </c>
     </row>
     <row r="358">
@@ -7352,7 +7352,7 @@
         <v>360</v>
       </c>
       <c r="B359" t="n">
-        <v>95.458389</v>
+        <v>95.458397</v>
       </c>
       <c r="C359" t="n">
         <v>111.377335</v>
@@ -7366,7 +7366,7 @@
         <v>94.935814</v>
       </c>
       <c r="C360" t="n">
-        <v>112.403053</v>
+        <v>112.403061</v>
       </c>
     </row>
     <row r="361">
@@ -7385,7 +7385,7 @@
         <v>363</v>
       </c>
       <c r="B362" t="n">
-        <v>91.800316</v>
+        <v>91.800323</v>
       </c>
       <c r="C362" t="n">
         <v>113.172356</v>
@@ -7418,7 +7418,7 @@
         <v>366</v>
       </c>
       <c r="B365" t="n">
-        <v>87.706749</v>
+        <v>87.706757</v>
       </c>
       <c r="C365" t="n">
         <v>107.274406</v>
@@ -7451,7 +7451,7 @@
         <v>369</v>
       </c>
       <c r="B368" t="n">
-        <v>89.535797</v>
+        <v>89.535805</v>
       </c>
       <c r="C368" t="n">
         <v>106.676064</v>
@@ -7462,10 +7462,10 @@
         <v>370</v>
       </c>
       <c r="B369" t="n">
-        <v>90.36322</v>
+        <v>90.363213</v>
       </c>
       <c r="C369" t="n">
-        <v>106.932487</v>
+        <v>106.932495</v>
       </c>
     </row>
     <row r="370">
@@ -7473,7 +7473,7 @@
         <v>371</v>
       </c>
       <c r="B370" t="n">
-        <v>91.234192</v>
+        <v>91.234184</v>
       </c>
       <c r="C370" t="n">
         <v>108.813004</v>
@@ -7506,7 +7506,7 @@
         <v>374</v>
       </c>
       <c r="B373" t="n">
-        <v>91.234192</v>
+        <v>91.234184</v>
       </c>
       <c r="C373" t="n">
         <v>110.180641</v>
@@ -7528,7 +7528,7 @@
         <v>376</v>
       </c>
       <c r="B375" t="n">
-        <v>90.75515</v>
+        <v>90.755157</v>
       </c>
       <c r="C375" t="n">
         <v>109.411339</v>
@@ -7561,10 +7561,10 @@
         <v>379</v>
       </c>
       <c r="B378" t="n">
-        <v>89.492249</v>
+        <v>89.492241</v>
       </c>
       <c r="C378" t="n">
-        <v>105.393898</v>
+        <v>105.393906</v>
       </c>
     </row>
     <row r="379">
@@ -7583,7 +7583,7 @@
         <v>381</v>
       </c>
       <c r="B380" t="n">
-        <v>90.66806</v>
+        <v>90.668053</v>
       </c>
       <c r="C380" t="n">
         <v>104.624596</v>
@@ -7608,7 +7608,7 @@
         <v>88.795464</v>
       </c>
       <c r="C382" t="n">
-        <v>103.171471</v>
+        <v>103.171478</v>
       </c>
     </row>
     <row r="383">
@@ -7616,7 +7616,7 @@
         <v>384</v>
       </c>
       <c r="B383" t="n">
-        <v>89.361595</v>
+        <v>89.361603</v>
       </c>
       <c r="C383" t="n">
         <v>102.145752</v>
@@ -7652,7 +7652,7 @@
         <v>90.406769</v>
       </c>
       <c r="C386" t="n">
-        <v>102.573128</v>
+        <v>102.573135</v>
       </c>
     </row>
     <row r="387">
@@ -7660,7 +7660,7 @@
         <v>388</v>
       </c>
       <c r="B387" t="n">
-        <v>89.709984</v>
+        <v>89.709991</v>
       </c>
       <c r="C387" t="n">
         <v>103.684349</v>
@@ -7671,10 +7671,10 @@
         <v>389</v>
       </c>
       <c r="B388" t="n">
-        <v>90.66806</v>
+        <v>90.668053</v>
       </c>
       <c r="C388" t="n">
-        <v>104.19722</v>
+        <v>104.197212</v>
       </c>
     </row>
     <row r="389">
@@ -7693,7 +7693,7 @@
         <v>391</v>
       </c>
       <c r="B390" t="n">
-        <v>89.14386</v>
+        <v>89.143852</v>
       </c>
       <c r="C390" t="n">
         <v>103.684349</v>
@@ -7704,7 +7704,7 @@
         <v>392</v>
       </c>
       <c r="B391" t="n">
-        <v>87.044823</v>
+        <v>87.044815</v>
       </c>
       <c r="C391" t="n">
         <v>101.632881</v>
@@ -7737,7 +7737,7 @@
         <v>395</v>
       </c>
       <c r="B394" t="n">
-        <v>85.564163</v>
+        <v>85.564171</v>
       </c>
       <c r="C394" t="n">
         <v>99.15403</v>
@@ -7748,10 +7748,10 @@
         <v>396</v>
       </c>
       <c r="B395" t="n">
-        <v>84.066093</v>
+        <v>84.066101</v>
       </c>
       <c r="C395" t="n">
-        <v>98.042824</v>
+        <v>98.042816</v>
       </c>
     </row>
     <row r="396">
@@ -7759,7 +7759,7 @@
         <v>397</v>
       </c>
       <c r="B396" t="n">
-        <v>83.839645</v>
+        <v>83.839653</v>
       </c>
       <c r="C396" t="n">
         <v>99.923332</v>
@@ -7773,7 +7773,7 @@
         <v>83.508675</v>
       </c>
       <c r="C397" t="n">
-        <v>98.726639</v>
+        <v>98.726646</v>
       </c>
     </row>
     <row r="398">
@@ -7781,7 +7781,7 @@
         <v>399</v>
       </c>
       <c r="B398" t="n">
-        <v>83.857071</v>
+        <v>83.857063</v>
       </c>
       <c r="C398" t="n">
         <v>98.641167</v>
@@ -7792,10 +7792,10 @@
         <v>400</v>
       </c>
       <c r="B399" t="n">
-        <v>82.672539</v>
+        <v>82.672546</v>
       </c>
       <c r="C399" t="n">
-        <v>98.128304</v>
+        <v>98.128296</v>
       </c>
     </row>
     <row r="400">
@@ -7806,7 +7806,7 @@
         <v>81.244148</v>
       </c>
       <c r="C400" t="n">
-        <v>95.991364</v>
+        <v>95.991356</v>
       </c>
     </row>
     <row r="401">
@@ -7817,7 +7817,7 @@
         <v>81.505447</v>
       </c>
       <c r="C401" t="n">
-        <v>95.56398</v>
+        <v>95.563972</v>
       </c>
     </row>
     <row r="402">
@@ -7825,7 +7825,7 @@
         <v>403</v>
       </c>
       <c r="B402" t="n">
-        <v>77.516403</v>
+        <v>77.516396</v>
       </c>
       <c r="C402" t="n">
         <v>92.230339</v>
@@ -7847,7 +7847,7 @@
         <v>405</v>
       </c>
       <c r="B404" t="n">
-        <v>79.362854</v>
+        <v>79.362862</v>
       </c>
       <c r="C404" t="n">
         <v>94.709198</v>
@@ -7861,7 +7861,7 @@
         <v>79.955116</v>
       </c>
       <c r="C405" t="n">
-        <v>95.307541</v>
+        <v>95.307533</v>
       </c>
     </row>
     <row r="406">
@@ -7869,7 +7869,7 @@
         <v>407</v>
       </c>
       <c r="B406" t="n">
-        <v>77.88221</v>
+        <v>77.882202</v>
       </c>
       <c r="C406" t="n">
         <v>93.597984</v>
@@ -7880,10 +7880,10 @@
         <v>408</v>
       </c>
       <c r="B407" t="n">
-        <v>77.516403</v>
+        <v>77.516396</v>
       </c>
       <c r="C407" t="n">
-        <v>92.65773</v>
+        <v>92.657738</v>
       </c>
     </row>
     <row r="408">
@@ -7891,10 +7891,10 @@
         <v>409</v>
       </c>
       <c r="B408" t="n">
-        <v>78.561562</v>
+        <v>78.561554</v>
       </c>
       <c r="C408" t="n">
-        <v>94.880142</v>
+        <v>94.88015</v>
       </c>
     </row>
     <row r="409">
@@ -7902,10 +7902,10 @@
         <v>410</v>
       </c>
       <c r="B409" t="n">
-        <v>77.673172</v>
+        <v>77.67318</v>
       </c>
       <c r="C409" t="n">
-        <v>94.880142</v>
+        <v>94.88015</v>
       </c>
     </row>
     <row r="410">
@@ -7913,7 +7913,7 @@
         <v>411</v>
       </c>
       <c r="B410" t="n">
-        <v>76.418976</v>
+        <v>76.418968</v>
       </c>
       <c r="C410" t="n">
         <v>93.256073</v>
@@ -7927,7 +7927,7 @@
         <v>76.401558</v>
       </c>
       <c r="C411" t="n">
-        <v>92.315819</v>
+        <v>92.315826</v>
       </c>
     </row>
     <row r="412">
@@ -7946,7 +7946,7 @@
         <v>414</v>
       </c>
       <c r="B413" t="n">
-        <v>76.593178</v>
+        <v>76.59317</v>
       </c>
       <c r="C413" t="n">
         <v>80.348953</v>
@@ -8034,10 +8034,10 @@
         <v>422</v>
       </c>
       <c r="B421" t="n">
-        <v>88.055138</v>
+        <v>88.055145</v>
       </c>
       <c r="C421" t="n">
-        <v>88.554802</v>
+        <v>88.55481</v>
       </c>
     </row>
     <row r="422">
@@ -8056,7 +8056,7 @@
         <v>424</v>
       </c>
       <c r="B423" t="n">
-        <v>88.011597</v>
+        <v>88.011604</v>
       </c>
       <c r="C423" t="n">
         <v>87.870995</v>
@@ -8070,7 +8070,7 @@
         <v>91.190636</v>
       </c>
       <c r="C424" t="n">
-        <v>88.554802</v>
+        <v>88.55481</v>
       </c>
     </row>
     <row r="425">
@@ -8092,7 +8092,7 @@
         <v>85.02417</v>
       </c>
       <c r="C426" t="n">
-        <v>87.187157</v>
+        <v>87.187164</v>
       </c>
     </row>
     <row r="427">
@@ -8100,7 +8100,7 @@
         <v>428</v>
       </c>
       <c r="B427" t="n">
-        <v>83.247383</v>
+        <v>83.247391</v>
       </c>
       <c r="C427" t="n">
         <v>87.529083</v>
@@ -8111,7 +8111,7 @@
         <v>429</v>
       </c>
       <c r="B428" t="n">
-        <v>84.414482</v>
+        <v>84.41449</v>
       </c>
       <c r="C428" t="n">
         <v>89.495056</v>
@@ -8122,7 +8122,7 @@
         <v>430</v>
       </c>
       <c r="B429" t="n">
-        <v>85.355133</v>
+        <v>85.355141</v>
       </c>
       <c r="C429" t="n">
         <v>99.495941</v>
@@ -8133,7 +8133,7 @@
         <v>431</v>
       </c>
       <c r="B430" t="n">
-        <v>83.61319</v>
+        <v>83.613197</v>
       </c>
       <c r="C430" t="n">
         <v>101.461922</v>
@@ -8177,7 +8177,7 @@
         <v>435</v>
       </c>
       <c r="B434" t="n">
-        <v>83.386742</v>
+        <v>83.386734</v>
       </c>
       <c r="C434" t="n">
         <v>104.881027</v>
@@ -8199,7 +8199,7 @@
         <v>437</v>
       </c>
       <c r="B436" t="n">
-        <v>82.742226</v>
+        <v>82.742218</v>
       </c>
       <c r="C436" t="n">
         <v>102.402184</v>
@@ -8276,7 +8276,7 @@
         <v>444</v>
       </c>
       <c r="B443" t="n">
-        <v>80.164146</v>
+        <v>80.164154</v>
       </c>
       <c r="C443" t="n">
         <v>100.521667</v>
@@ -8287,7 +8287,7 @@
         <v>445</v>
       </c>
       <c r="B444" t="n">
-        <v>82.881577</v>
+        <v>82.881584</v>
       </c>
       <c r="C444" t="n">
         <v>102.145752</v>
@@ -8298,7 +8298,7 @@
         <v>446</v>
       </c>
       <c r="B445" t="n">
-        <v>83.595772</v>
+        <v>83.595779</v>
       </c>
       <c r="C445" t="n">
         <v>104.795555</v>
@@ -8312,7 +8312,7 @@
         <v>84.693199</v>
       </c>
       <c r="C446" t="n">
-        <v>108.471085</v>
+        <v>108.471092</v>
       </c>
     </row>
     <row r="447">
@@ -8323,7 +8323,7 @@
         <v>84.693199</v>
       </c>
       <c r="C447" t="n">
-        <v>109.924217</v>
+        <v>109.92421</v>
       </c>
     </row>
     <row r="448">
@@ -8342,10 +8342,10 @@
         <v>450</v>
       </c>
       <c r="B449" t="n">
-        <v>83.82222</v>
+        <v>83.822227</v>
       </c>
       <c r="C449" t="n">
-        <v>110.266121</v>
+        <v>110.266113</v>
       </c>
     </row>
     <row r="450">
@@ -8353,10 +8353,10 @@
         <v>451</v>
       </c>
       <c r="B450" t="n">
-        <v>85.877716</v>
+        <v>85.877724</v>
       </c>
       <c r="C450" t="n">
-        <v>112.659492</v>
+        <v>112.6595</v>
       </c>
     </row>
     <row r="451">
@@ -8364,7 +8364,7 @@
         <v>452</v>
       </c>
       <c r="B451" t="n">
-        <v>85.877716</v>
+        <v>85.877724</v>
       </c>
       <c r="C451" t="n">
         <v>113.257835</v>
@@ -8378,7 +8378,7 @@
         <v>85.529327</v>
       </c>
       <c r="C452" t="n">
-        <v>115.394783</v>
+        <v>115.394775</v>
       </c>
     </row>
     <row r="453">
@@ -8397,10 +8397,10 @@
         <v>455</v>
       </c>
       <c r="B454" t="n">
-        <v>85.877716</v>
+        <v>85.877724</v>
       </c>
       <c r="C454" t="n">
-        <v>116.07859</v>
+        <v>116.078598</v>
       </c>
     </row>
     <row r="455">
@@ -8411,7 +8411,7 @@
         <v>85.616432</v>
       </c>
       <c r="C455" t="n">
-        <v>114.454521</v>
+        <v>114.454514</v>
       </c>
     </row>
     <row r="456">
@@ -8422,7 +8422,7 @@
         <v>84.867393</v>
       </c>
       <c r="C456" t="n">
-        <v>115.736671</v>
+        <v>115.736679</v>
       </c>
     </row>
     <row r="457">
@@ -8441,10 +8441,10 @@
         <v>459</v>
       </c>
       <c r="B458" t="n">
-        <v>83.247383</v>
+        <v>83.247391</v>
       </c>
       <c r="C458" t="n">
-        <v>112.317574</v>
+        <v>112.317581</v>
       </c>
     </row>
     <row r="459">
@@ -8466,7 +8466,7 @@
         <v>81.348671</v>
       </c>
       <c r="C460" t="n">
-        <v>112.403053</v>
+        <v>112.403061</v>
       </c>
     </row>
     <row r="461">
@@ -8477,7 +8477,7 @@
         <v>81.784157</v>
       </c>
       <c r="C461" t="n">
-        <v>114.454521</v>
+        <v>114.454514</v>
       </c>
     </row>
     <row r="462">
@@ -8485,7 +8485,7 @@
         <v>463</v>
       </c>
       <c r="B462" t="n">
-        <v>81.766739</v>
+        <v>81.766731</v>
       </c>
       <c r="C462" t="n">
         <v>115.651207</v>
@@ -8496,7 +8496,7 @@
         <v>464</v>
       </c>
       <c r="B463" t="n">
-        <v>83.630615</v>
+        <v>83.630608</v>
       </c>
       <c r="C463" t="n">
         <v>116.33503</v>
@@ -8529,7 +8529,7 @@
         <v>467</v>
       </c>
       <c r="B466" t="n">
-        <v>82.306732</v>
+        <v>82.30674</v>
       </c>
       <c r="C466" t="n">
         <v>116.933372</v>
@@ -8540,7 +8540,7 @@
         <v>468</v>
       </c>
       <c r="B467" t="n">
-        <v>80.442856</v>
+        <v>80.442863</v>
       </c>
       <c r="C467" t="n">
         <v>113.514275</v>
@@ -8573,10 +8573,10 @@
         <v>471</v>
       </c>
       <c r="B470" t="n">
-        <v>79.240921</v>
+        <v>79.240929</v>
       </c>
       <c r="C470" t="n">
-        <v>110.949936</v>
+        <v>110.949944</v>
       </c>
     </row>
     <row r="471">
@@ -8584,7 +8584,7 @@
         <v>472</v>
       </c>
       <c r="B471" t="n">
-        <v>79.362854</v>
+        <v>79.362862</v>
       </c>
       <c r="C471" t="n">
         <v>110.864456</v>
@@ -8653,7 +8653,7 @@
         <v>80.233833</v>
       </c>
       <c r="C477" t="n">
-        <v>110.266121</v>
+        <v>110.266113</v>
       </c>
     </row>
     <row r="478">
@@ -8672,7 +8672,7 @@
         <v>480</v>
       </c>
       <c r="B479" t="n">
-        <v>79.746086</v>
+        <v>79.746078</v>
       </c>
       <c r="C479" t="n">
         <v>109.154907</v>
@@ -8697,7 +8697,7 @@
         <v>79.223503</v>
       </c>
       <c r="C481" t="n">
-        <v>105.479378</v>
+        <v>105.47937</v>
       </c>
     </row>
     <row r="482">
@@ -8705,7 +8705,7 @@
         <v>483</v>
       </c>
       <c r="B482" t="n">
-        <v>79.780922</v>
+        <v>79.780914</v>
       </c>
       <c r="C482" t="n">
         <v>108.983955</v>
@@ -8716,10 +8716,10 @@
         <v>484</v>
       </c>
       <c r="B483" t="n">
-        <v>82.463516</v>
+        <v>82.463509</v>
       </c>
       <c r="C483" t="n">
-        <v>110.949936</v>
+        <v>110.949944</v>
       </c>
     </row>
     <row r="484">
@@ -8752,7 +8752,7 @@
         <v>84.170616</v>
       </c>
       <c r="C486" t="n">
-        <v>113.343315</v>
+        <v>113.343323</v>
       </c>
     </row>
     <row r="487">
@@ -8785,7 +8785,7 @@
         <v>90.580963</v>
       </c>
       <c r="C489" t="n">
-        <v>112.403053</v>
+        <v>112.403061</v>
       </c>
     </row>
     <row r="490">
@@ -8796,7 +8796,7 @@
         <v>92.671295</v>
       </c>
       <c r="C490" t="n">
-        <v>112.488533</v>
+        <v>112.488541</v>
       </c>
     </row>
     <row r="491">
@@ -8804,10 +8804,10 @@
         <v>492</v>
       </c>
       <c r="B491" t="n">
-        <v>94.108391</v>
+        <v>94.108398</v>
       </c>
       <c r="C491" t="n">
-        <v>117.104324</v>
+        <v>117.104332</v>
       </c>
     </row>
     <row r="492">
@@ -8815,10 +8815,10 @@
         <v>493</v>
       </c>
       <c r="B492" t="n">
-        <v>93.193871</v>
+        <v>93.193878</v>
       </c>
       <c r="C492" t="n">
-        <v>118.215546</v>
+        <v>118.215538</v>
       </c>
     </row>
     <row r="493">
@@ -8840,7 +8840,7 @@
         <v>92.497093</v>
       </c>
       <c r="C494" t="n">
-        <v>117.873619</v>
+        <v>117.873611</v>
       </c>
     </row>
     <row r="495">
@@ -8848,10 +8848,10 @@
         <v>496</v>
       </c>
       <c r="B495" t="n">
-        <v>93.193871</v>
+        <v>93.193878</v>
       </c>
       <c r="C495" t="n">
-        <v>118.899368</v>
+        <v>118.899361</v>
       </c>
     </row>
     <row r="496">
@@ -8862,7 +8862,7 @@
         <v>93.411613</v>
       </c>
       <c r="C496" t="n">
-        <v>119.07032</v>
+        <v>119.070313</v>
       </c>
     </row>
     <row r="497">
@@ -8870,10 +8870,10 @@
         <v>498</v>
       </c>
       <c r="B497" t="n">
-        <v>93.890648</v>
+        <v>93.890656</v>
       </c>
       <c r="C497" t="n">
-        <v>119.497711</v>
+        <v>119.497704</v>
       </c>
     </row>
     <row r="498">
@@ -8881,10 +8881,10 @@
         <v>499</v>
       </c>
       <c r="B498" t="n">
-        <v>96.111626</v>
+        <v>96.111618</v>
       </c>
       <c r="C498" t="n">
-        <v>121.976547</v>
+        <v>121.97654</v>
       </c>
     </row>
     <row r="499">
@@ -8892,7 +8892,7 @@
         <v>500</v>
       </c>
       <c r="B499" t="n">
-        <v>93.977753</v>
+        <v>93.977745</v>
       </c>
       <c r="C499" t="n">
         <v>121.463684</v>
@@ -8917,7 +8917,7 @@
         <v>93.847099</v>
       </c>
       <c r="C501" t="n">
-        <v>120.694382</v>
+        <v>120.694389</v>
       </c>
     </row>
     <row r="502">
@@ -8936,7 +8936,7 @@
         <v>504</v>
       </c>
       <c r="B503" t="n">
-        <v>96.068085</v>
+        <v>96.068077</v>
       </c>
       <c r="C503" t="n">
         <v>124.369919</v>
@@ -8947,10 +8947,10 @@
         <v>505</v>
       </c>
       <c r="B504" t="n">
-        <v>94.97937</v>
+        <v>94.979362</v>
       </c>
       <c r="C504" t="n">
-        <v>121.976547</v>
+        <v>121.97654</v>
       </c>
     </row>
     <row r="505">
@@ -8969,10 +8969,10 @@
         <v>507</v>
       </c>
       <c r="B506" t="n">
-        <v>94.06485</v>
+        <v>94.064842</v>
       </c>
       <c r="C506" t="n">
-        <v>123.686096</v>
+        <v>123.686111</v>
       </c>
     </row>
     <row r="507">
@@ -8991,10 +8991,10 @@
         <v>509</v>
       </c>
       <c r="B508" t="n">
-        <v>94.674522</v>
+        <v>94.674515</v>
       </c>
       <c r="C508" t="n">
-        <v>123.600624</v>
+        <v>123.600639</v>
       </c>
     </row>
     <row r="509">
@@ -9013,7 +9013,7 @@
         <v>511</v>
       </c>
       <c r="B510" t="n">
-        <v>95.632591</v>
+        <v>95.632599</v>
       </c>
       <c r="C510" t="n">
         <v>127.361641</v>
@@ -9049,7 +9049,7 @@
         <v>94.848717</v>
       </c>
       <c r="C513" t="n">
-        <v>126.934258</v>
+        <v>126.934242</v>
       </c>
     </row>
     <row r="514">
@@ -9057,7 +9057,7 @@
         <v>515</v>
       </c>
       <c r="B514" t="n">
-        <v>95.458389</v>
+        <v>95.458397</v>
       </c>
       <c r="C514" t="n">
         <v>125.993996</v>
@@ -9071,7 +9071,7 @@
         <v>92.453545</v>
       </c>
       <c r="C515" t="n">
-        <v>123.087769</v>
+        <v>123.087753</v>
       </c>
     </row>
     <row r="516">
@@ -9090,7 +9090,7 @@
         <v>518</v>
       </c>
       <c r="B517" t="n">
-        <v>95.893883</v>
+        <v>95.893875</v>
       </c>
       <c r="C517" t="n">
         <v>125.993996</v>
@@ -9101,10 +9101,10 @@
         <v>519</v>
       </c>
       <c r="B518" t="n">
-        <v>94.674522</v>
+        <v>94.674515</v>
       </c>
       <c r="C518" t="n">
-        <v>124.198967</v>
+        <v>124.198982</v>
       </c>
     </row>
     <row r="519">
@@ -9115,7 +9115,7 @@
         <v>98.332603</v>
       </c>
       <c r="C519" t="n">
-        <v>125.481133</v>
+        <v>125.481148</v>
       </c>
     </row>
     <row r="520">
@@ -9123,10 +9123,10 @@
         <v>521</v>
       </c>
       <c r="B520" t="n">
-        <v>97.200333</v>
+        <v>97.20034</v>
       </c>
       <c r="C520" t="n">
-        <v>125.652092</v>
+        <v>125.652084</v>
       </c>
     </row>
     <row r="521">
@@ -9134,10 +9134,10 @@
         <v>522</v>
       </c>
       <c r="B521" t="n">
-        <v>99.943893</v>
+        <v>99.943901</v>
       </c>
       <c r="C521" t="n">
-        <v>127.276169</v>
+        <v>127.276154</v>
       </c>
     </row>
     <row r="522">
@@ -9145,7 +9145,7 @@
         <v>523</v>
       </c>
       <c r="B522" t="n">
-        <v>100.422935</v>
+        <v>100.422928</v>
       </c>
       <c r="C522" t="n">
         <v>128.472855</v>
@@ -9156,7 +9156,7 @@
         <v>524</v>
       </c>
       <c r="B523" t="n">
-        <v>102.164879</v>
+        <v>102.164871</v>
       </c>
       <c r="C523" t="n">
         <v>131.293625</v>
@@ -9167,7 +9167,7 @@
         <v>525</v>
       </c>
       <c r="B524" t="n">
-        <v>102.51326</v>
+        <v>102.513252</v>
       </c>
       <c r="C524" t="n">
         <v>130.438843</v>
@@ -9189,7 +9189,7 @@
         <v>527</v>
       </c>
       <c r="B526" t="n">
-        <v>105.822952</v>
+        <v>105.822945</v>
       </c>
       <c r="C526" t="n">
         <v>133.516022</v>
@@ -9200,7 +9200,7 @@
         <v>528</v>
       </c>
       <c r="B527" t="n">
-        <v>107.608437</v>
+        <v>107.608444</v>
       </c>
       <c r="C527" t="n">
         <v>134.285339</v>
@@ -9211,7 +9211,7 @@
         <v>529</v>
       </c>
       <c r="B528" t="n">
-        <v>106.51973</v>
+        <v>106.519722</v>
       </c>
       <c r="C528" t="n">
         <v>134.199844</v>
@@ -9266,7 +9266,7 @@
         <v>534</v>
       </c>
       <c r="B533" t="n">
-        <v>106.476181</v>
+        <v>106.476173</v>
       </c>
       <c r="C533" t="n">
         <v>138.473724</v>
@@ -9280,7 +9280,7 @@
         <v>104.995529</v>
       </c>
       <c r="C534" t="n">
-        <v>137.020599</v>
+        <v>137.020615</v>
       </c>
     </row>
     <row r="535">
@@ -9324,7 +9324,7 @@
         <v>93.237427</v>
       </c>
       <c r="C538" t="n">
-        <v>109.240387</v>
+        <v>109.240379</v>
       </c>
     </row>
     <row r="539">
@@ -9343,7 +9343,7 @@
         <v>541</v>
       </c>
       <c r="B540" t="n">
-        <v>91.582581</v>
+        <v>91.582573</v>
       </c>
       <c r="C540" t="n">
         <v>107.872742</v>
@@ -9354,7 +9354,7 @@
         <v>542</v>
       </c>
       <c r="B541" t="n">
-        <v>93.063232</v>
+        <v>93.063225</v>
       </c>
       <c r="C541" t="n">
         <v>109.83873</v>
@@ -9409,7 +9409,7 @@
         <v>547</v>
       </c>
       <c r="B546" t="n">
-        <v>77.289948</v>
+        <v>77.28994</v>
       </c>
       <c r="C546" t="n">
         <v>93.854424</v>
@@ -9431,7 +9431,7 @@
         <v>549</v>
       </c>
       <c r="B548" t="n">
-        <v>67.726685</v>
+        <v>67.726692</v>
       </c>
       <c r="C548" t="n">
         <v>82.272194</v>
@@ -9467,7 +9467,7 @@
         <v>64.62603</v>
       </c>
       <c r="C551" t="n">
-        <v>80.220734</v>
+        <v>80.220741</v>
       </c>
     </row>
     <row r="552">

--- a/Danske aktiekurser.xlsx
+++ b/Danske aktiekurser.xlsx
@@ -3428,7 +3428,7 @@
         <v>189.887939</v>
       </c>
       <c r="C2" t="n">
-        <v>191.282883</v>
+        <v>191.282898</v>
       </c>
     </row>
     <row r="3">
@@ -3436,10 +3436,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>188.870789</v>
+        <v>188.870804</v>
       </c>
       <c r="C3" t="n">
-        <v>190.824905</v>
+        <v>190.82489</v>
       </c>
     </row>
     <row r="4">
@@ -3447,10 +3447,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>190.513855</v>
+        <v>190.51384</v>
       </c>
       <c r="C4" t="n">
-        <v>192.351471</v>
+        <v>192.351501</v>
       </c>
     </row>
     <row r="5">
@@ -3461,7 +3461,7 @@
         <v>190.74855</v>
       </c>
       <c r="C5" t="n">
-        <v>192.046188</v>
+        <v>192.046158</v>
       </c>
     </row>
     <row r="6">
@@ -3483,7 +3483,7 @@
         <v>190.357361</v>
       </c>
       <c r="C7" t="n">
-        <v>191.588211</v>
+        <v>191.588196</v>
       </c>
     </row>
     <row r="8">
@@ -3516,7 +3516,7 @@
         <v>194.817032</v>
       </c>
       <c r="C10" t="n">
-        <v>195.09938</v>
+        <v>195.099365</v>
       </c>
     </row>
     <row r="11">
@@ -3538,7 +3538,7 @@
         <v>195.521179</v>
       </c>
       <c r="C12" t="n">
-        <v>192.50415</v>
+        <v>192.504166</v>
       </c>
     </row>
     <row r="13">
@@ -3557,10 +3557,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="n">
-        <v>191.452728</v>
+        <v>191.452713</v>
       </c>
       <c r="C14" t="n">
-        <v>191.588211</v>
+        <v>191.588196</v>
       </c>
     </row>
     <row r="15">
@@ -3582,7 +3582,7 @@
         <v>193.330475</v>
       </c>
       <c r="C16" t="n">
-        <v>193.114792</v>
+        <v>193.114807</v>
       </c>
     </row>
     <row r="17">
@@ -3615,7 +3615,7 @@
         <v>186.680099</v>
       </c>
       <c r="C19" t="n">
-        <v>185.634445</v>
+        <v>185.63446</v>
       </c>
     </row>
     <row r="20">
@@ -3637,7 +3637,7 @@
         <v>191.843903</v>
       </c>
       <c r="C21" t="n">
-        <v>187.771698</v>
+        <v>187.771683</v>
       </c>
     </row>
     <row r="22">
@@ -3648,7 +3648,7 @@
         <v>189.966156</v>
       </c>
       <c r="C22" t="n">
-        <v>185.787125</v>
+        <v>185.787109</v>
       </c>
     </row>
     <row r="23">
@@ -3656,10 +3656,10 @@
         <v>24</v>
       </c>
       <c r="B23" t="n">
-        <v>190.513855</v>
+        <v>190.51384</v>
       </c>
       <c r="C23" t="n">
-        <v>187.008408</v>
+        <v>187.008392</v>
       </c>
     </row>
     <row r="24">
@@ -3667,7 +3667,7 @@
         <v>25</v>
       </c>
       <c r="B24" t="n">
-        <v>189.418503</v>
+        <v>189.418488</v>
       </c>
       <c r="C24" t="n">
         <v>187.4664</v>
@@ -3681,7 +3681,7 @@
         <v>191.609192</v>
       </c>
       <c r="C25" t="n">
-        <v>187.619064</v>
+        <v>187.619034</v>
       </c>
     </row>
     <row r="26">
@@ -3703,7 +3703,7 @@
         <v>186.758331</v>
       </c>
       <c r="C27" t="n">
-        <v>183.9552</v>
+        <v>183.955185</v>
       </c>
     </row>
     <row r="28">
@@ -3722,10 +3722,10 @@
         <v>30</v>
       </c>
       <c r="B29" t="n">
-        <v>188.557846</v>
+        <v>188.557861</v>
       </c>
       <c r="C29" t="n">
-        <v>187.161072</v>
+        <v>187.161057</v>
       </c>
     </row>
     <row r="30">
@@ -3733,10 +3733,10 @@
         <v>31</v>
       </c>
       <c r="B30" t="n">
-        <v>188.244888</v>
+        <v>188.244904</v>
       </c>
       <c r="C30" t="n">
-        <v>185.787125</v>
+        <v>185.787109</v>
       </c>
     </row>
     <row r="31">
@@ -3755,10 +3755,10 @@
         <v>33</v>
       </c>
       <c r="B32" t="n">
-        <v>188.949066</v>
+        <v>188.949051</v>
       </c>
       <c r="C32" t="n">
-        <v>188.534988</v>
+        <v>188.535004</v>
       </c>
     </row>
     <row r="33">
@@ -3780,7 +3780,7 @@
         <v>192.313354</v>
       </c>
       <c r="C34" t="n">
-        <v>193.420135</v>
+        <v>193.420105</v>
       </c>
     </row>
     <row r="35">
@@ -3791,7 +3791,7 @@
         <v>194.660568</v>
       </c>
       <c r="C35" t="n">
-        <v>196.625961</v>
+        <v>196.625992</v>
       </c>
     </row>
     <row r="36">
@@ -3802,7 +3802,7 @@
         <v>194.895279</v>
       </c>
       <c r="C36" t="n">
-        <v>196.167999</v>
+        <v>196.167984</v>
       </c>
     </row>
     <row r="37">
@@ -3813,7 +3813,7 @@
         <v>191.687439</v>
       </c>
       <c r="C37" t="n">
-        <v>185.481796</v>
+        <v>185.481812</v>
       </c>
     </row>
     <row r="38">
@@ -3846,7 +3846,7 @@
         <v>194.504074</v>
       </c>
       <c r="C40" t="n">
-        <v>186.245087</v>
+        <v>186.245117</v>
       </c>
     </row>
     <row r="41">
@@ -3890,7 +3890,7 @@
         <v>190.74855</v>
       </c>
       <c r="C44" t="n">
-        <v>181.665314</v>
+        <v>181.665298</v>
       </c>
     </row>
     <row r="45">
@@ -3901,7 +3901,7 @@
         <v>189.731445</v>
       </c>
       <c r="C45" t="n">
-        <v>177.696152</v>
+        <v>177.696136</v>
       </c>
     </row>
     <row r="46">
@@ -3923,7 +3923,7 @@
         <v>189.34024</v>
       </c>
       <c r="C47" t="n">
-        <v>180.749359</v>
+        <v>180.749344</v>
       </c>
     </row>
     <row r="48">
@@ -3931,10 +3931,10 @@
         <v>49</v>
       </c>
       <c r="B48" t="n">
-        <v>191.53096</v>
+        <v>191.530945</v>
       </c>
       <c r="C48" t="n">
-        <v>180.749359</v>
+        <v>180.749344</v>
       </c>
     </row>
     <row r="49">
@@ -3956,7 +3956,7 @@
         <v>192.626297</v>
       </c>
       <c r="C50" t="n">
-        <v>180.902023</v>
+        <v>180.901993</v>
       </c>
     </row>
     <row r="51">
@@ -3967,7 +3967,7 @@
         <v>193.095764</v>
       </c>
       <c r="C51" t="n">
-        <v>180.291367</v>
+        <v>180.291351</v>
       </c>
     </row>
     <row r="52">
@@ -4000,7 +4000,7 @@
         <v>191.061508</v>
       </c>
       <c r="C54" t="n">
-        <v>183.113083</v>
+        <v>183.113098</v>
       </c>
     </row>
     <row r="55">
@@ -4011,7 +4011,7 @@
         <v>191.306274</v>
       </c>
       <c r="C55" t="n">
-        <v>182.792404</v>
+        <v>182.792419</v>
       </c>
     </row>
     <row r="56">
@@ -4022,7 +4022,7 @@
         <v>191.795761</v>
       </c>
       <c r="C56" t="n">
-        <v>183.594116</v>
+        <v>183.594131</v>
       </c>
     </row>
     <row r="57">
@@ -4033,7 +4033,7 @@
         <v>191.714172</v>
       </c>
       <c r="C57" t="n">
-        <v>185.357895</v>
+        <v>185.35791</v>
       </c>
     </row>
     <row r="58">
@@ -4044,7 +4044,7 @@
         <v>190.572052</v>
       </c>
       <c r="C58" t="n">
-        <v>184.07515</v>
+        <v>184.075165</v>
       </c>
     </row>
     <row r="59">
@@ -4055,7 +4055,7 @@
         <v>186.493027</v>
       </c>
       <c r="C59" t="n">
-        <v>181.349289</v>
+        <v>181.349304</v>
       </c>
     </row>
     <row r="60">
@@ -4077,7 +4077,7 @@
         <v>184.208771</v>
       </c>
       <c r="C61" t="n">
-        <v>181.669983</v>
+        <v>181.669998</v>
       </c>
     </row>
     <row r="62">
@@ -4110,7 +4110,7 @@
         <v>183.148224</v>
       </c>
       <c r="C64" t="n">
-        <v>178.463104</v>
+        <v>178.46312</v>
       </c>
     </row>
     <row r="65">
@@ -4121,7 +4121,7 @@
         <v>181.761353</v>
       </c>
       <c r="C65" t="n">
-        <v>176.378632</v>
+        <v>176.378616</v>
       </c>
     </row>
     <row r="66">
@@ -4154,7 +4154,7 @@
         <v>182.985046</v>
       </c>
       <c r="C68" t="n">
-        <v>180.868271</v>
+        <v>180.868286</v>
       </c>
     </row>
     <row r="69">
@@ -4176,7 +4176,7 @@
         <v>179.477097</v>
       </c>
       <c r="C70" t="n">
-        <v>180.868271</v>
+        <v>180.868286</v>
       </c>
     </row>
     <row r="71">
@@ -4198,7 +4198,7 @@
         <v>180.211304</v>
       </c>
       <c r="C72" t="n">
-        <v>182.311356</v>
+        <v>182.311371</v>
       </c>
     </row>
     <row r="73">
@@ -4220,7 +4220,7 @@
         <v>181.9245</v>
       </c>
       <c r="C74" t="n">
-        <v>184.07515</v>
+        <v>184.075165</v>
       </c>
     </row>
     <row r="75">
@@ -4231,7 +4231,7 @@
         <v>183.637711</v>
       </c>
       <c r="C75" t="n">
-        <v>188.083771</v>
+        <v>188.083755</v>
       </c>
     </row>
     <row r="76">
@@ -4253,7 +4253,7 @@
         <v>182.577164</v>
       </c>
       <c r="C77" t="n">
-        <v>190.007904</v>
+        <v>190.007889</v>
       </c>
     </row>
     <row r="78">
@@ -4264,7 +4264,7 @@
         <v>183.229797</v>
       </c>
       <c r="C78" t="n">
-        <v>192.894104</v>
+        <v>192.894073</v>
       </c>
     </row>
     <row r="79">
@@ -4275,7 +4275,7 @@
         <v>184.127182</v>
       </c>
       <c r="C79" t="n">
-        <v>194.657883</v>
+        <v>194.657867</v>
       </c>
     </row>
     <row r="80">
@@ -4286,7 +4286,7 @@
         <v>178.498138</v>
       </c>
       <c r="C80" t="n">
-        <v>187.602722</v>
+        <v>187.602737</v>
       </c>
     </row>
     <row r="81">
@@ -4319,7 +4319,7 @@
         <v>177.763901</v>
       </c>
       <c r="C83" t="n">
-        <v>181.669983</v>
+        <v>181.669998</v>
       </c>
     </row>
     <row r="84">
@@ -4330,7 +4330,7 @@
         <v>177.84549</v>
       </c>
       <c r="C84" t="n">
-        <v>184.716522</v>
+        <v>184.716507</v>
       </c>
     </row>
     <row r="85">
@@ -4363,7 +4363,7 @@
         <v>175.316483</v>
       </c>
       <c r="C87" t="n">
-        <v>184.235504</v>
+        <v>184.235489</v>
       </c>
     </row>
     <row r="88">
@@ -4385,7 +4385,7 @@
         <v>175.561234</v>
       </c>
       <c r="C89" t="n">
-        <v>186.961349</v>
+        <v>186.961365</v>
       </c>
     </row>
     <row r="90">
@@ -4418,7 +4418,7 @@
         <v>174.255951</v>
       </c>
       <c r="C92" t="n">
-        <v>183.594116</v>
+        <v>183.594131</v>
       </c>
     </row>
     <row r="93">
@@ -4440,7 +4440,7 @@
         <v>176.458603</v>
       </c>
       <c r="C94" t="n">
-        <v>184.07515</v>
+        <v>184.075165</v>
       </c>
     </row>
     <row r="95">
@@ -4451,7 +4451,7 @@
         <v>176.132294</v>
       </c>
       <c r="C95" t="n">
-        <v>185.357895</v>
+        <v>185.35791</v>
       </c>
     </row>
     <row r="96">
@@ -4462,7 +4462,7 @@
         <v>176.94809</v>
       </c>
       <c r="C96" t="n">
-        <v>185.037231</v>
+        <v>185.037216</v>
       </c>
     </row>
     <row r="97">
@@ -4484,7 +4484,7 @@
         <v>173.276978</v>
       </c>
       <c r="C98" t="n">
-        <v>181.669983</v>
+        <v>181.669998</v>
       </c>
     </row>
     <row r="99">
@@ -4506,7 +4506,7 @@
         <v>168.953201</v>
       </c>
       <c r="C100" t="n">
-        <v>174.935532</v>
+        <v>174.935547</v>
       </c>
     </row>
     <row r="101">
@@ -4517,7 +4517,7 @@
         <v>168.871628</v>
       </c>
       <c r="C101" t="n">
-        <v>175.737244</v>
+        <v>175.737259</v>
       </c>
     </row>
     <row r="102">
@@ -4528,7 +4528,7 @@
         <v>172.461166</v>
       </c>
       <c r="C102" t="n">
-        <v>173.171768</v>
+        <v>173.171753</v>
       </c>
     </row>
     <row r="103">
@@ -4539,7 +4539,7 @@
         <v>176.295456</v>
       </c>
       <c r="C103" t="n">
-        <v>178.302765</v>
+        <v>178.30275</v>
       </c>
     </row>
     <row r="104">
@@ -4583,7 +4583,7 @@
         <v>174.092773</v>
       </c>
       <c r="C107" t="n">
-        <v>175.737244</v>
+        <v>175.737259</v>
       </c>
     </row>
     <row r="108">
@@ -4605,7 +4605,7 @@
         <v>178.498138</v>
       </c>
       <c r="C109" t="n">
-        <v>177.180359</v>
+        <v>177.180344</v>
       </c>
     </row>
     <row r="110">
@@ -4660,7 +4660,7 @@
         <v>171.971695</v>
       </c>
       <c r="C114" t="n">
-        <v>175.095886</v>
+        <v>175.095871</v>
       </c>
     </row>
     <row r="115">
@@ -4682,7 +4682,7 @@
         <v>167.811081</v>
       </c>
       <c r="C116" t="n">
-        <v>173.171768</v>
+        <v>173.171753</v>
       </c>
     </row>
     <row r="117">
@@ -4693,7 +4693,7 @@
         <v>168.626892</v>
       </c>
       <c r="C117" t="n">
-        <v>174.294159</v>
+        <v>174.294144</v>
       </c>
     </row>
     <row r="118">
@@ -4704,7 +4704,7 @@
         <v>166.0979</v>
       </c>
       <c r="C118" t="n">
-        <v>174.294159</v>
+        <v>174.294144</v>
       </c>
     </row>
     <row r="119">
@@ -4715,7 +4715,7 @@
         <v>161.243851</v>
       </c>
       <c r="C119" t="n">
-        <v>173.813141</v>
+        <v>173.813126</v>
       </c>
     </row>
     <row r="120">
@@ -4781,7 +4781,7 @@
         <v>160.999115</v>
       </c>
       <c r="C125" t="n">
-        <v>179.264832</v>
+        <v>179.264847</v>
       </c>
     </row>
     <row r="126">
@@ -4814,7 +4814,7 @@
         <v>157.001663</v>
       </c>
       <c r="C128" t="n">
-        <v>180.226898</v>
+        <v>180.226883</v>
       </c>
     </row>
     <row r="129">
@@ -4825,7 +4825,7 @@
         <v>158.102997</v>
       </c>
       <c r="C129" t="n">
-        <v>182.151031</v>
+        <v>182.151016</v>
       </c>
     </row>
     <row r="130">
@@ -4836,7 +4836,7 @@
         <v>158.225372</v>
       </c>
       <c r="C130" t="n">
-        <v>182.151031</v>
+        <v>182.151016</v>
       </c>
     </row>
     <row r="131">
@@ -4858,7 +4858,7 @@
         <v>158.225372</v>
       </c>
       <c r="C132" t="n">
-        <v>182.151031</v>
+        <v>182.151016</v>
       </c>
     </row>
     <row r="133">
@@ -4902,7 +4902,7 @@
         <v>148.394913</v>
       </c>
       <c r="C136" t="n">
-        <v>179.74585</v>
+        <v>179.745865</v>
       </c>
     </row>
     <row r="137">
@@ -4913,7 +4913,7 @@
         <v>147.456757</v>
       </c>
       <c r="C137" t="n">
-        <v>180.387238</v>
+        <v>180.387222</v>
       </c>
     </row>
     <row r="138">
@@ -4924,7 +4924,7 @@
         <v>149.985764</v>
       </c>
       <c r="C138" t="n">
-        <v>181.669983</v>
+        <v>181.669998</v>
       </c>
     </row>
     <row r="139">
@@ -4935,7 +4935,7 @@
         <v>151.94368</v>
       </c>
       <c r="C139" t="n">
-        <v>185.037231</v>
+        <v>185.037216</v>
       </c>
     </row>
     <row r="140">
@@ -4946,7 +4946,7 @@
         <v>150.92392</v>
       </c>
       <c r="C140" t="n">
-        <v>185.518265</v>
+        <v>185.51825</v>
       </c>
     </row>
     <row r="141">
@@ -4968,7 +4968,7 @@
         <v>153.208176</v>
       </c>
       <c r="C142" t="n">
-        <v>188.564789</v>
+        <v>188.564774</v>
       </c>
     </row>
     <row r="143">
@@ -5001,7 +5001,7 @@
         <v>149.12915</v>
       </c>
       <c r="C145" t="n">
-        <v>188.083771</v>
+        <v>188.083755</v>
       </c>
     </row>
     <row r="146">
@@ -5023,7 +5023,7 @@
         <v>149.12915</v>
       </c>
       <c r="C147" t="n">
-        <v>185.037231</v>
+        <v>185.037216</v>
       </c>
     </row>
     <row r="148">
@@ -5034,7 +5034,7 @@
         <v>147.53833</v>
       </c>
       <c r="C148" t="n">
-        <v>177.180359</v>
+        <v>177.180344</v>
       </c>
     </row>
     <row r="149">
@@ -5045,7 +5045,7 @@
         <v>147.905441</v>
       </c>
       <c r="C149" t="n">
-        <v>180.387238</v>
+        <v>180.387222</v>
       </c>
     </row>
     <row r="150">
@@ -5067,7 +5067,7 @@
         <v>148.231766</v>
       </c>
       <c r="C151" t="n">
-        <v>179.264832</v>
+        <v>179.264847</v>
       </c>
     </row>
     <row r="152">
@@ -5089,7 +5089,7 @@
         <v>150.02652</v>
       </c>
       <c r="C153" t="n">
-        <v>178.302765</v>
+        <v>178.30275</v>
       </c>
     </row>
     <row r="154">
@@ -5111,7 +5111,7 @@
         <v>145.906723</v>
       </c>
       <c r="C155" t="n">
-        <v>173.171768</v>
+        <v>173.171753</v>
       </c>
     </row>
     <row r="156">
@@ -5133,7 +5133,7 @@
         <v>149.210739</v>
       </c>
       <c r="C157" t="n">
-        <v>175.095886</v>
+        <v>175.095871</v>
       </c>
     </row>
     <row r="158">
@@ -5144,7 +5144,7 @@
         <v>150.230469</v>
       </c>
       <c r="C158" t="n">
-        <v>175.737244</v>
+        <v>175.737259</v>
       </c>
     </row>
     <row r="159">
@@ -5188,7 +5188,7 @@
         <v>154.717422</v>
       </c>
       <c r="C162" t="n">
-        <v>175.25621</v>
+        <v>175.256241</v>
       </c>
     </row>
     <row r="163">
@@ -5199,7 +5199,7 @@
         <v>157.817474</v>
       </c>
       <c r="C163" t="n">
-        <v>175.25621</v>
+        <v>175.256241</v>
       </c>
     </row>
     <row r="164">
@@ -5232,7 +5232,7 @@
         <v>156.634567</v>
       </c>
       <c r="C166" t="n">
-        <v>151.926147</v>
+        <v>151.926132</v>
       </c>
     </row>
     <row r="167">
@@ -5276,7 +5276,7 @@
         <v>148.272552</v>
       </c>
       <c r="C170" t="n">
-        <v>147.917542</v>
+        <v>147.917526</v>
       </c>
     </row>
     <row r="171">
@@ -5298,7 +5298,7 @@
         <v>144.397491</v>
       </c>
       <c r="C172" t="n">
-        <v>148.799438</v>
+        <v>148.799454</v>
       </c>
     </row>
     <row r="173">
@@ -5309,7 +5309,7 @@
         <v>140.155304</v>
       </c>
       <c r="C173" t="n">
-        <v>148.799438</v>
+        <v>148.799454</v>
       </c>
     </row>
     <row r="174">
@@ -5320,7 +5320,7 @@
         <v>139.217133</v>
       </c>
       <c r="C174" t="n">
-        <v>147.837341</v>
+        <v>147.837372</v>
       </c>
     </row>
     <row r="175">
@@ -5342,7 +5342,7 @@
         <v>140.114502</v>
       </c>
       <c r="C176" t="n">
-        <v>148.879593</v>
+        <v>148.879608</v>
       </c>
     </row>
     <row r="177">
@@ -5353,7 +5353,7 @@
         <v>138.646057</v>
       </c>
       <c r="C177" t="n">
-        <v>147.917542</v>
+        <v>147.917526</v>
       </c>
     </row>
     <row r="178">
@@ -5364,7 +5364,7 @@
         <v>137.748672</v>
       </c>
       <c r="C178" t="n">
-        <v>149.200287</v>
+        <v>149.200302</v>
       </c>
     </row>
     <row r="179">
@@ -5419,7 +5419,7 @@
         <v>135.709167</v>
       </c>
       <c r="C183" t="n">
-        <v>151.364929</v>
+        <v>151.364944</v>
       </c>
     </row>
     <row r="184">
@@ -5441,7 +5441,7 @@
         <v>140.563202</v>
       </c>
       <c r="C185" t="n">
-        <v>155.934738</v>
+        <v>155.934753</v>
       </c>
     </row>
     <row r="186">
@@ -5452,7 +5452,7 @@
         <v>138.768433</v>
       </c>
       <c r="C186" t="n">
-        <v>151.364929</v>
+        <v>151.364944</v>
       </c>
     </row>
     <row r="187">
@@ -5463,7 +5463,7 @@
         <v>137.626297</v>
       </c>
       <c r="C187" t="n">
-        <v>151.525284</v>
+        <v>151.525269</v>
       </c>
     </row>
     <row r="188">
@@ -5474,7 +5474,7 @@
         <v>138.238144</v>
       </c>
       <c r="C188" t="n">
-        <v>152.647675</v>
+        <v>152.64769</v>
       </c>
     </row>
     <row r="189">
@@ -5496,7 +5496,7 @@
         <v>135.627563</v>
       </c>
       <c r="C190" t="n">
-        <v>149.440796</v>
+        <v>149.440781</v>
       </c>
     </row>
     <row r="191">
@@ -5518,7 +5518,7 @@
         <v>121.310196</v>
       </c>
       <c r="C192" t="n">
-        <v>150.483047</v>
+        <v>150.483032</v>
       </c>
     </row>
     <row r="193">
@@ -5529,7 +5529,7 @@
         <v>116.945648</v>
       </c>
       <c r="C193" t="n">
-        <v>146.79512</v>
+        <v>146.795151</v>
       </c>
     </row>
     <row r="194">
@@ -5573,7 +5573,7 @@
         <v>115.273254</v>
       </c>
       <c r="C197" t="n">
-        <v>141.904633</v>
+        <v>141.904617</v>
       </c>
     </row>
     <row r="198">
@@ -5584,7 +5584,7 @@
         <v>113.886383</v>
       </c>
       <c r="C198" t="n">
-        <v>142.546021</v>
+        <v>142.546005</v>
       </c>
     </row>
     <row r="199">
@@ -5606,7 +5606,7 @@
         <v>112.254768</v>
       </c>
       <c r="C200" t="n">
-        <v>143.748596</v>
+        <v>143.748581</v>
       </c>
     </row>
     <row r="201">
@@ -5617,7 +5617,7 @@
         <v>110.704735</v>
       </c>
       <c r="C201" t="n">
-        <v>143.187393</v>
+        <v>143.187378</v>
       </c>
     </row>
     <row r="202">
@@ -5661,7 +5661,7 @@
         <v>102.50589</v>
       </c>
       <c r="C205" t="n">
-        <v>141.503784</v>
+        <v>141.503769</v>
       </c>
     </row>
     <row r="206">
@@ -5694,7 +5694,7 @@
         <v>104.586197</v>
       </c>
       <c r="C208" t="n">
-        <v>144.069275</v>
+        <v>144.06926</v>
       </c>
     </row>
     <row r="209">
@@ -5705,7 +5705,7 @@
         <v>103.280907</v>
       </c>
       <c r="C209" t="n">
-        <v>139.900345</v>
+        <v>139.90033</v>
       </c>
     </row>
     <row r="210">
@@ -5716,7 +5716,7 @@
         <v>103.076958</v>
       </c>
       <c r="C210" t="n">
-        <v>122.102119</v>
+        <v>122.102135</v>
       </c>
     </row>
     <row r="211">
@@ -5727,7 +5727,7 @@
         <v>108.134956</v>
       </c>
       <c r="C211" t="n">
-        <v>123.625381</v>
+        <v>123.625389</v>
       </c>
     </row>
     <row r="212">
@@ -5738,7 +5738,7 @@
         <v>111.765282</v>
       </c>
       <c r="C212" t="n">
-        <v>127.874512</v>
+        <v>127.874504</v>
       </c>
     </row>
     <row r="213">
@@ -5749,7 +5749,7 @@
         <v>110.337616</v>
       </c>
       <c r="C213" t="n">
-        <v>130.199509</v>
+        <v>130.199478</v>
       </c>
     </row>
     <row r="214">
@@ -5793,7 +5793,7 @@
         <v>117.598282</v>
       </c>
       <c r="C217" t="n">
-        <v>131.321915</v>
+        <v>131.32193</v>
       </c>
     </row>
     <row r="218">
@@ -5826,7 +5826,7 @@
         <v>117.598282</v>
       </c>
       <c r="C220" t="n">
-        <v>129.237427</v>
+        <v>129.237442</v>
       </c>
     </row>
     <row r="221">
@@ -5837,7 +5837,7 @@
         <v>113.519257</v>
       </c>
       <c r="C221" t="n">
-        <v>127.874512</v>
+        <v>127.874504</v>
       </c>
     </row>
     <row r="222">
@@ -5848,7 +5848,7 @@
         <v>111.602119</v>
       </c>
       <c r="C222" t="n">
-        <v>127.553833</v>
+        <v>127.553825</v>
       </c>
     </row>
     <row r="223">
@@ -5859,7 +5859,7 @@
         <v>110.500778</v>
       </c>
       <c r="C223" t="n">
-        <v>128.756393</v>
+        <v>128.756409</v>
       </c>
     </row>
     <row r="224">
@@ -5870,7 +5870,7 @@
         <v>106.544136</v>
       </c>
       <c r="C224" t="n">
-        <v>125.950394</v>
+        <v>125.950378</v>
       </c>
     </row>
     <row r="225">
@@ -5881,7 +5881,7 @@
         <v>107.441521</v>
       </c>
       <c r="C225" t="n">
-        <v>127.874512</v>
+        <v>127.874504</v>
       </c>
     </row>
     <row r="226">
@@ -5892,7 +5892,7 @@
         <v>108.461266</v>
       </c>
       <c r="C226" t="n">
-        <v>127.874512</v>
+        <v>127.874504</v>
       </c>
     </row>
     <row r="227">
@@ -5914,7 +5914,7 @@
         <v>111.071846</v>
       </c>
       <c r="C228" t="n">
-        <v>131.08139</v>
+        <v>131.081406</v>
       </c>
     </row>
     <row r="229">
@@ -5925,7 +5925,7 @@
         <v>110.133675</v>
       </c>
       <c r="C229" t="n">
-        <v>131.08139</v>
+        <v>131.081406</v>
       </c>
     </row>
     <row r="230">
@@ -5936,7 +5936,7 @@
         <v>110.949478</v>
       </c>
       <c r="C230" t="n">
-        <v>129.638306</v>
+        <v>129.63829</v>
       </c>
     </row>
     <row r="231">
@@ -5947,7 +5947,7 @@
         <v>107.441521</v>
       </c>
       <c r="C231" t="n">
-        <v>130.359833</v>
+        <v>130.359848</v>
       </c>
     </row>
     <row r="232">
@@ -5958,7 +5958,7 @@
         <v>107.19677</v>
       </c>
       <c r="C232" t="n">
-        <v>130.359833</v>
+        <v>130.359848</v>
       </c>
     </row>
     <row r="233">
@@ -5969,7 +5969,7 @@
         <v>108.706009</v>
       </c>
       <c r="C233" t="n">
-        <v>126.671944</v>
+        <v>126.671928</v>
       </c>
     </row>
     <row r="234">
@@ -5980,7 +5980,7 @@
         <v>108.583649</v>
       </c>
       <c r="C234" t="n">
-        <v>127.152962</v>
+        <v>127.152969</v>
       </c>
     </row>
     <row r="235">
@@ -6013,7 +6013,7 @@
         <v>116.007462</v>
       </c>
       <c r="C237" t="n">
-        <v>129.558136</v>
+        <v>129.558151</v>
       </c>
     </row>
     <row r="238">
@@ -6024,7 +6024,7 @@
         <v>112.050819</v>
       </c>
       <c r="C238" t="n">
-        <v>127.152962</v>
+        <v>127.152969</v>
       </c>
     </row>
     <row r="239">
@@ -6035,7 +6035,7 @@
         <v>114.2127</v>
       </c>
       <c r="C239" t="n">
-        <v>129.558136</v>
+        <v>129.558151</v>
       </c>
     </row>
     <row r="240">
@@ -6046,7 +6046,7 @@
         <v>113.519257</v>
       </c>
       <c r="C240" t="n">
-        <v>129.077087</v>
+        <v>129.077103</v>
       </c>
     </row>
     <row r="241">
@@ -6057,7 +6057,7 @@
         <v>113.396896</v>
       </c>
       <c r="C241" t="n">
-        <v>128.676239</v>
+        <v>128.676224</v>
       </c>
     </row>
     <row r="242">
@@ -6090,7 +6090,7 @@
         <v>112.213974</v>
       </c>
       <c r="C244" t="n">
-        <v>122.663307</v>
+        <v>122.663315</v>
       </c>
     </row>
     <row r="245">
@@ -6101,7 +6101,7 @@
         <v>109.725769</v>
       </c>
       <c r="C245" t="n">
-        <v>121.781425</v>
+        <v>121.781418</v>
       </c>
     </row>
     <row r="246">
@@ -6112,7 +6112,7 @@
         <v>105.442787</v>
       </c>
       <c r="C246" t="n">
-        <v>117.77282</v>
+        <v>117.772827</v>
       </c>
     </row>
     <row r="247">
@@ -6123,7 +6123,7 @@
         <v>104.626984</v>
       </c>
       <c r="C247" t="n">
-        <v>120.258156</v>
+        <v>120.258163</v>
       </c>
     </row>
     <row r="248">
@@ -6134,7 +6134,7 @@
         <v>102.95459</v>
       </c>
       <c r="C248" t="n">
-        <v>120.819374</v>
+        <v>120.819366</v>
       </c>
     </row>
     <row r="249">
@@ -6145,7 +6145,7 @@
         <v>105.157257</v>
       </c>
       <c r="C249" t="n">
-        <v>124.346954</v>
+        <v>124.346947</v>
       </c>
     </row>
     <row r="250">
@@ -6156,7 +6156,7 @@
         <v>104.994102</v>
       </c>
       <c r="C250" t="n">
-        <v>126.271057</v>
+        <v>126.271072</v>
       </c>
     </row>
     <row r="251">
@@ -6167,7 +6167,7 @@
         <v>104.749359</v>
       </c>
       <c r="C251" t="n">
-        <v>123.865891</v>
+        <v>123.865906</v>
       </c>
     </row>
     <row r="252">
@@ -6178,7 +6178,7 @@
         <v>109.195496</v>
       </c>
       <c r="C252" t="n">
-        <v>127.313324</v>
+        <v>127.313309</v>
       </c>
     </row>
     <row r="253">
@@ -6189,7 +6189,7 @@
         <v>108.909966</v>
       </c>
       <c r="C253" t="n">
-        <v>126.591759</v>
+        <v>126.591751</v>
       </c>
     </row>
     <row r="254">
@@ -6200,7 +6200,7 @@
         <v>108.379692</v>
       </c>
       <c r="C254" t="n">
-        <v>126.83226</v>
+        <v>126.832268</v>
       </c>
     </row>
     <row r="255">
@@ -6211,7 +6211,7 @@
         <v>107.074402</v>
       </c>
       <c r="C255" t="n">
-        <v>126.431419</v>
+        <v>126.431412</v>
       </c>
     </row>
     <row r="256">
@@ -6222,7 +6222,7 @@
         <v>104.219093</v>
       </c>
       <c r="C256" t="n">
-        <v>126.591759</v>
+        <v>126.591751</v>
       </c>
     </row>
     <row r="257">
@@ -6244,7 +6244,7 @@
         <v>106.054642</v>
       </c>
       <c r="C258" t="n">
-        <v>124.266762</v>
+        <v>124.266769</v>
       </c>
     </row>
     <row r="259">
@@ -6266,7 +6266,7 @@
         <v>105.034897</v>
       </c>
       <c r="C260" t="n">
-        <v>126.271057</v>
+        <v>126.271072</v>
       </c>
     </row>
     <row r="261">
@@ -6277,7 +6277,7 @@
         <v>103.933556</v>
       </c>
       <c r="C261" t="n">
-        <v>126.030548</v>
+        <v>126.030556</v>
       </c>
     </row>
     <row r="262">
@@ -6299,7 +6299,7 @@
         <v>105.238838</v>
       </c>
       <c r="C263" t="n">
-        <v>124.507271</v>
+        <v>124.507286</v>
       </c>
     </row>
     <row r="264">
@@ -6310,7 +6310,7 @@
         <v>102.791428</v>
       </c>
       <c r="C264" t="n">
-        <v>125.709869</v>
+        <v>125.709877</v>
       </c>
     </row>
     <row r="265">
@@ -6332,7 +6332,7 @@
         <v>99.976906</v>
       </c>
       <c r="C266" t="n">
-        <v>126.110725</v>
+        <v>126.110733</v>
       </c>
     </row>
     <row r="267">
@@ -6343,7 +6343,7 @@
         <v>102.138779</v>
       </c>
       <c r="C267" t="n">
-        <v>126.83226</v>
+        <v>126.832268</v>
       </c>
     </row>
     <row r="268">
@@ -6354,7 +6354,7 @@
         <v>99.936111</v>
       </c>
       <c r="C268" t="n">
-        <v>123.625381</v>
+        <v>123.625389</v>
       </c>
     </row>
     <row r="269">
@@ -6365,7 +6365,7 @@
         <v>99.85453</v>
       </c>
       <c r="C269" t="n">
-        <v>123.46505</v>
+        <v>123.465042</v>
       </c>
     </row>
     <row r="270">
@@ -6387,7 +6387,7 @@
         <v>98.304497</v>
       </c>
       <c r="C271" t="n">
-        <v>120.739204</v>
+        <v>120.739197</v>
       </c>
     </row>
     <row r="272">
@@ -6398,7 +6398,7 @@
         <v>103.444077</v>
       </c>
       <c r="C272" t="n">
-        <v>121.781425</v>
+        <v>121.781418</v>
       </c>
     </row>
     <row r="273">
@@ -6409,7 +6409,7 @@
         <v>101.078232</v>
       </c>
       <c r="C273" t="n">
-        <v>122.262451</v>
+        <v>122.262466</v>
       </c>
     </row>
     <row r="274">
@@ -6420,7 +6420,7 @@
         <v>103.199326</v>
       </c>
       <c r="C274" t="n">
-        <v>122.102119</v>
+        <v>122.102135</v>
       </c>
     </row>
     <row r="275">
@@ -6431,7 +6431,7 @@
         <v>102.669052</v>
       </c>
       <c r="C275" t="n">
-        <v>121.781425</v>
+        <v>121.781418</v>
       </c>
     </row>
     <row r="276">
@@ -6442,7 +6442,7 @@
         <v>101.975624</v>
       </c>
       <c r="C276" t="n">
-        <v>120.338333</v>
+        <v>120.338348</v>
       </c>
     </row>
     <row r="277">
@@ -6475,7 +6475,7 @@
         <v>101.119026</v>
       </c>
       <c r="C279" t="n">
-        <v>121.22023</v>
+        <v>121.220222</v>
       </c>
     </row>
     <row r="280">
@@ -6486,7 +6486,7 @@
         <v>100.180855</v>
       </c>
       <c r="C280" t="n">
-        <v>122.262451</v>
+        <v>122.262466</v>
       </c>
     </row>
     <row r="281">
@@ -6497,7 +6497,7 @@
         <v>99.936111</v>
       </c>
       <c r="C281" t="n">
-        <v>121.22023</v>
+        <v>121.220222</v>
       </c>
     </row>
     <row r="282">
@@ -6508,7 +6508,7 @@
         <v>101.486145</v>
       </c>
       <c r="C282" t="n">
-        <v>122.021942</v>
+        <v>122.021935</v>
       </c>
     </row>
     <row r="283">
@@ -6519,7 +6519,7 @@
         <v>103.321701</v>
       </c>
       <c r="C283" t="n">
-        <v>123.545212</v>
+        <v>123.545219</v>
       </c>
     </row>
     <row r="284">
@@ -6541,7 +6541,7 @@
         <v>103.117752</v>
       </c>
       <c r="C285" t="n">
-        <v>121.781425</v>
+        <v>121.781418</v>
       </c>
     </row>
     <row r="286">
@@ -6563,7 +6563,7 @@
         <v>98.467651</v>
       </c>
       <c r="C287" t="n">
-        <v>120.578857</v>
+        <v>120.578835</v>
       </c>
     </row>
     <row r="288">
@@ -6574,7 +6574,7 @@
         <v>102.301949</v>
       </c>
       <c r="C288" t="n">
-        <v>121.781425</v>
+        <v>121.781418</v>
       </c>
     </row>
     <row r="289">
@@ -6596,7 +6596,7 @@
         <v>106.054642</v>
       </c>
       <c r="C290" t="n">
-        <v>127.393478</v>
+        <v>127.393471</v>
       </c>
     </row>
     <row r="291">
@@ -6607,7 +6607,7 @@
         <v>106.462555</v>
       </c>
       <c r="C291" t="n">
-        <v>125.228821</v>
+        <v>125.228828</v>
       </c>
     </row>
     <row r="292">
@@ -6618,7 +6618,7 @@
         <v>105.973061</v>
       </c>
       <c r="C292" t="n">
-        <v>122.502991</v>
+        <v>122.502983</v>
       </c>
     </row>
     <row r="293">
@@ -6629,7 +6629,7 @@
         <v>105.687538</v>
       </c>
       <c r="C293" t="n">
-        <v>122.422798</v>
+        <v>122.422813</v>
       </c>
     </row>
     <row r="294">
@@ -6640,7 +6640,7 @@
         <v>104.830948</v>
       </c>
       <c r="C294" t="n">
-        <v>121.059868</v>
+        <v>121.059883</v>
       </c>
     </row>
     <row r="295">
@@ -6651,7 +6651,7 @@
         <v>105.442787</v>
       </c>
       <c r="C295" t="n">
-        <v>119.616791</v>
+        <v>119.616783</v>
       </c>
     </row>
     <row r="296">
@@ -6662,7 +6662,7 @@
         <v>104.137505</v>
       </c>
       <c r="C296" t="n">
-        <v>117.692665</v>
+        <v>117.69265</v>
       </c>
     </row>
     <row r="297">
@@ -6673,7 +6673,7 @@
         <v>103.036163</v>
       </c>
       <c r="C297" t="n">
-        <v>116.570244</v>
+        <v>116.570229</v>
       </c>
     </row>
     <row r="298">
@@ -6695,7 +6695,7 @@
         <v>104.463829</v>
       </c>
       <c r="C299" t="n">
-        <v>117.933174</v>
+        <v>117.933182</v>
       </c>
     </row>
     <row r="300">
@@ -6706,7 +6706,7 @@
         <v>105.361214</v>
       </c>
       <c r="C300" t="n">
-        <v>118.013344</v>
+        <v>118.013336</v>
       </c>
     </row>
     <row r="301">
@@ -6728,7 +6728,7 @@
         <v>108.706009</v>
       </c>
       <c r="C302" t="n">
-        <v>120.258156</v>
+        <v>120.258163</v>
       </c>
     </row>
     <row r="303">
@@ -6739,7 +6739,7 @@
         <v>109.481026</v>
       </c>
       <c r="C303" t="n">
-        <v>122.102119</v>
+        <v>122.102135</v>
       </c>
     </row>
     <row r="304">
@@ -6761,7 +6761,7 @@
         <v>109.437477</v>
       </c>
       <c r="C305" t="n">
-        <v>121.941788</v>
+        <v>121.94178</v>
       </c>
     </row>
     <row r="306">
@@ -6772,7 +6772,7 @@
         <v>108.000374</v>
       </c>
       <c r="C306" t="n">
-        <v>120.899536</v>
+        <v>120.899544</v>
       </c>
     </row>
     <row r="307">
@@ -6816,7 +6816,7 @@
         <v>105.474556</v>
       </c>
       <c r="C310" t="n">
-        <v>116.762428</v>
+        <v>116.762421</v>
       </c>
     </row>
     <row r="311">
@@ -6827,7 +6827,7 @@
         <v>101.685844</v>
       </c>
       <c r="C311" t="n">
-        <v>117.104332</v>
+        <v>117.104324</v>
       </c>
     </row>
     <row r="312">
@@ -6882,7 +6882,7 @@
         <v>109.132637</v>
       </c>
       <c r="C316" t="n">
-        <v>122.745857</v>
+        <v>122.745865</v>
       </c>
     </row>
     <row r="317">
@@ -6926,7 +6926,7 @@
         <v>105.953598</v>
       </c>
       <c r="C320" t="n">
-        <v>120.352486</v>
+        <v>120.352478</v>
       </c>
     </row>
     <row r="321">
@@ -6970,7 +6970,7 @@
         <v>112.050385</v>
       </c>
       <c r="C324" t="n">
-        <v>124.028023</v>
+        <v>124.028015</v>
       </c>
     </row>
     <row r="325">
@@ -6981,7 +6981,7 @@
         <v>112.268127</v>
       </c>
       <c r="C325" t="n">
-        <v>124.968269</v>
+        <v>124.968254</v>
       </c>
     </row>
     <row r="326">
@@ -6992,7 +6992,7 @@
         <v>110.87458</v>
       </c>
       <c r="C326" t="n">
-        <v>123.429665</v>
+        <v>123.429672</v>
       </c>
     </row>
     <row r="327">
@@ -7014,7 +7014,7 @@
         <v>110.221359</v>
       </c>
       <c r="C328" t="n">
-        <v>119.412224</v>
+        <v>119.412231</v>
       </c>
     </row>
     <row r="329">
@@ -7102,7 +7102,7 @@
         <v>98.463249</v>
       </c>
       <c r="C336" t="n">
-        <v>108.471092</v>
+        <v>108.471085</v>
       </c>
     </row>
     <row r="337">
@@ -7135,7 +7135,7 @@
         <v>97.635818</v>
       </c>
       <c r="C339" t="n">
-        <v>108.214653</v>
+        <v>108.214661</v>
       </c>
     </row>
     <row r="340">
@@ -7146,7 +7146,7 @@
         <v>96.068077</v>
       </c>
       <c r="C340" t="n">
-        <v>106.590584</v>
+        <v>106.590576</v>
       </c>
     </row>
     <row r="341">
@@ -7168,7 +7168,7 @@
         <v>92.758385</v>
       </c>
       <c r="C342" t="n">
-        <v>106.163185</v>
+        <v>106.163193</v>
       </c>
     </row>
     <row r="343">
@@ -7179,7 +7179,7 @@
         <v>94.500328</v>
       </c>
       <c r="C343" t="n">
-        <v>105.821281</v>
+        <v>105.821289</v>
       </c>
     </row>
     <row r="344">
@@ -7256,7 +7256,7 @@
         <v>97.984207</v>
       </c>
       <c r="C350" t="n">
-        <v>107.359871</v>
+        <v>107.359879</v>
       </c>
     </row>
     <row r="351">
@@ -7278,7 +7278,7 @@
         <v>95.458397</v>
       </c>
       <c r="C352" t="n">
-        <v>107.359871</v>
+        <v>107.359879</v>
       </c>
     </row>
     <row r="353">
@@ -7322,7 +7322,7 @@
         <v>96.851952</v>
       </c>
       <c r="C356" t="n">
-        <v>110.266113</v>
+        <v>110.266121</v>
       </c>
     </row>
     <row r="357">
@@ -7333,7 +7333,7 @@
         <v>96.939049</v>
       </c>
       <c r="C357" t="n">
-        <v>111.120903</v>
+        <v>111.120895</v>
       </c>
     </row>
     <row r="358">
@@ -7366,7 +7366,7 @@
         <v>94.935814</v>
       </c>
       <c r="C360" t="n">
-        <v>112.403061</v>
+        <v>112.403053</v>
       </c>
     </row>
     <row r="361">
@@ -7465,7 +7465,7 @@
         <v>90.363213</v>
       </c>
       <c r="C369" t="n">
-        <v>106.932495</v>
+        <v>106.932487</v>
       </c>
     </row>
     <row r="370">
@@ -7564,7 +7564,7 @@
         <v>89.492241</v>
       </c>
       <c r="C378" t="n">
-        <v>105.393906</v>
+        <v>105.393898</v>
       </c>
     </row>
     <row r="379">
@@ -7608,7 +7608,7 @@
         <v>88.795464</v>
       </c>
       <c r="C382" t="n">
-        <v>103.171478</v>
+        <v>103.171471</v>
       </c>
     </row>
     <row r="383">
@@ -7652,7 +7652,7 @@
         <v>90.406769</v>
       </c>
       <c r="C386" t="n">
-        <v>102.573135</v>
+        <v>102.573128</v>
       </c>
     </row>
     <row r="387">
@@ -7674,7 +7674,7 @@
         <v>90.668053</v>
       </c>
       <c r="C388" t="n">
-        <v>104.197212</v>
+        <v>104.19722</v>
       </c>
     </row>
     <row r="389">
@@ -7751,7 +7751,7 @@
         <v>84.066101</v>
       </c>
       <c r="C395" t="n">
-        <v>98.042816</v>
+        <v>98.042824</v>
       </c>
     </row>
     <row r="396">
@@ -7773,7 +7773,7 @@
         <v>83.508675</v>
       </c>
       <c r="C397" t="n">
-        <v>98.726646</v>
+        <v>98.726639</v>
       </c>
     </row>
     <row r="398">
@@ -7795,7 +7795,7 @@
         <v>82.672546</v>
       </c>
       <c r="C399" t="n">
-        <v>98.128296</v>
+        <v>98.128304</v>
       </c>
     </row>
     <row r="400">
@@ -7806,7 +7806,7 @@
         <v>81.244148</v>
       </c>
       <c r="C400" t="n">
-        <v>95.991356</v>
+        <v>95.991364</v>
       </c>
     </row>
     <row r="401">
@@ -7817,7 +7817,7 @@
         <v>81.505447</v>
       </c>
       <c r="C401" t="n">
-        <v>95.563972</v>
+        <v>95.56398</v>
       </c>
     </row>
     <row r="402">
@@ -7861,7 +7861,7 @@
         <v>79.955116</v>
       </c>
       <c r="C405" t="n">
-        <v>95.307533</v>
+        <v>95.307541</v>
       </c>
     </row>
     <row r="406">
@@ -7883,7 +7883,7 @@
         <v>77.516396</v>
       </c>
       <c r="C407" t="n">
-        <v>92.657738</v>
+        <v>92.65773</v>
       </c>
     </row>
     <row r="408">
@@ -7894,7 +7894,7 @@
         <v>78.561554</v>
       </c>
       <c r="C408" t="n">
-        <v>94.88015</v>
+        <v>94.880142</v>
       </c>
     </row>
     <row r="409">
@@ -7905,7 +7905,7 @@
         <v>77.67318</v>
       </c>
       <c r="C409" t="n">
-        <v>94.88015</v>
+        <v>94.880142</v>
       </c>
     </row>
     <row r="410">
@@ -7927,7 +7927,7 @@
         <v>76.401558</v>
       </c>
       <c r="C411" t="n">
-        <v>92.315826</v>
+        <v>92.315819</v>
       </c>
     </row>
     <row r="412">
@@ -8037,7 +8037,7 @@
         <v>88.055145</v>
       </c>
       <c r="C421" t="n">
-        <v>88.55481</v>
+        <v>88.554802</v>
       </c>
     </row>
     <row r="422">
@@ -8070,7 +8070,7 @@
         <v>91.190636</v>
       </c>
       <c r="C424" t="n">
-        <v>88.55481</v>
+        <v>88.554802</v>
       </c>
     </row>
     <row r="425">
@@ -8092,7 +8092,7 @@
         <v>85.02417</v>
       </c>
       <c r="C426" t="n">
-        <v>87.187164</v>
+        <v>87.187157</v>
       </c>
     </row>
     <row r="427">
@@ -8312,7 +8312,7 @@
         <v>84.693199</v>
       </c>
       <c r="C446" t="n">
-        <v>108.471092</v>
+        <v>108.471085</v>
       </c>
     </row>
     <row r="447">
@@ -8323,7 +8323,7 @@
         <v>84.693199</v>
       </c>
       <c r="C447" t="n">
-        <v>109.92421</v>
+        <v>109.924217</v>
       </c>
     </row>
     <row r="448">
@@ -8345,7 +8345,7 @@
         <v>83.822227</v>
       </c>
       <c r="C449" t="n">
-        <v>110.266113</v>
+        <v>110.266121</v>
       </c>
     </row>
     <row r="450">
@@ -8356,7 +8356,7 @@
         <v>85.877724</v>
       </c>
       <c r="C450" t="n">
-        <v>112.6595</v>
+        <v>112.659492</v>
       </c>
     </row>
     <row r="451">
@@ -8378,7 +8378,7 @@
         <v>85.529327</v>
       </c>
       <c r="C452" t="n">
-        <v>115.394775</v>
+        <v>115.394783</v>
       </c>
     </row>
     <row r="453">
@@ -8400,7 +8400,7 @@
         <v>85.877724</v>
       </c>
       <c r="C454" t="n">
-        <v>116.078598</v>
+        <v>116.07859</v>
       </c>
     </row>
     <row r="455">
@@ -8411,7 +8411,7 @@
         <v>85.616432</v>
       </c>
       <c r="C455" t="n">
-        <v>114.454514</v>
+        <v>114.454521</v>
       </c>
     </row>
     <row r="456">
@@ -8422,7 +8422,7 @@
         <v>84.867393</v>
       </c>
       <c r="C456" t="n">
-        <v>115.736679</v>
+        <v>115.736671</v>
       </c>
     </row>
     <row r="457">
@@ -8444,7 +8444,7 @@
         <v>83.247391</v>
       </c>
       <c r="C458" t="n">
-        <v>112.317581</v>
+        <v>112.317574</v>
       </c>
     </row>
     <row r="459">
@@ -8466,7 +8466,7 @@
         <v>81.348671</v>
       </c>
       <c r="C460" t="n">
-        <v>112.403061</v>
+        <v>112.403053</v>
       </c>
     </row>
     <row r="461">
@@ -8477,7 +8477,7 @@
         <v>81.784157</v>
       </c>
       <c r="C461" t="n">
-        <v>114.454514</v>
+        <v>114.454521</v>
       </c>
     </row>
     <row r="462">
@@ -8576,7 +8576,7 @@
         <v>79.240929</v>
       </c>
       <c r="C470" t="n">
-        <v>110.949944</v>
+        <v>110.949936</v>
       </c>
     </row>
     <row r="471">
@@ -8653,7 +8653,7 @@
         <v>80.233833</v>
       </c>
       <c r="C477" t="n">
-        <v>110.266113</v>
+        <v>110.266121</v>
       </c>
     </row>
     <row r="478">
@@ -8697,7 +8697,7 @@
         <v>79.223503</v>
       </c>
       <c r="C481" t="n">
-        <v>105.47937</v>
+        <v>105.479378</v>
       </c>
     </row>
     <row r="482">
@@ -8719,7 +8719,7 @@
         <v>82.463509</v>
       </c>
       <c r="C483" t="n">
-        <v>110.949944</v>
+        <v>110.949936</v>
       </c>
     </row>
     <row r="484">
@@ -8752,7 +8752,7 @@
         <v>84.170616</v>
       </c>
       <c r="C486" t="n">
-        <v>113.343323</v>
+        <v>113.343315</v>
       </c>
     </row>
     <row r="487">
@@ -8785,7 +8785,7 @@
         <v>90.580963</v>
       </c>
       <c r="C489" t="n">
-        <v>112.403061</v>
+        <v>112.403053</v>
       </c>
     </row>
     <row r="490">
@@ -8796,7 +8796,7 @@
         <v>92.671295</v>
       </c>
       <c r="C490" t="n">
-        <v>112.488541</v>
+        <v>112.488533</v>
       </c>
     </row>
     <row r="491">
@@ -8807,7 +8807,7 @@
         <v>94.108398</v>
       </c>
       <c r="C491" t="n">
-        <v>117.104332</v>
+        <v>117.104324</v>
       </c>
     </row>
     <row r="492">
@@ -8818,7 +8818,7 @@
         <v>93.193878</v>
       </c>
       <c r="C492" t="n">
-        <v>118.215538</v>
+        <v>118.215546</v>
       </c>
     </row>
     <row r="493">
@@ -8840,7 +8840,7 @@
         <v>92.497093</v>
       </c>
       <c r="C494" t="n">
-        <v>117.873611</v>
+        <v>117.873619</v>
       </c>
     </row>
     <row r="495">
@@ -8851,7 +8851,7 @@
         <v>93.193878</v>
       </c>
       <c r="C495" t="n">
-        <v>118.899361</v>
+        <v>118.899368</v>
       </c>
     </row>
     <row r="496">
@@ -8862,7 +8862,7 @@
         <v>93.411613</v>
       </c>
       <c r="C496" t="n">
-        <v>119.070313</v>
+        <v>119.07032</v>
       </c>
     </row>
     <row r="497">
@@ -8873,7 +8873,7 @@
         <v>93.890656</v>
       </c>
       <c r="C497" t="n">
-        <v>119.497704</v>
+        <v>119.497711</v>
       </c>
     </row>
     <row r="498">
@@ -8884,7 +8884,7 @@
         <v>96.111618</v>
       </c>
       <c r="C498" t="n">
-        <v>121.97654</v>
+        <v>121.976547</v>
       </c>
     </row>
     <row r="499">
@@ -8917,7 +8917,7 @@
         <v>93.847099</v>
       </c>
       <c r="C501" t="n">
-        <v>120.694389</v>
+        <v>120.694382</v>
       </c>
     </row>
     <row r="502">
@@ -8950,7 +8950,7 @@
         <v>94.979362</v>
       </c>
       <c r="C504" t="n">
-        <v>121.97654</v>
+        <v>121.976547</v>
       </c>
     </row>
     <row r="505">
@@ -8972,7 +8972,7 @@
         <v>94.064842</v>
       </c>
       <c r="C506" t="n">
-        <v>123.686111</v>
+        <v>123.686096</v>
       </c>
     </row>
     <row r="507">
@@ -8994,7 +8994,7 @@
         <v>94.674515</v>
       </c>
       <c r="C508" t="n">
-        <v>123.600639</v>
+        <v>123.600624</v>
       </c>
     </row>
     <row r="509">
@@ -9049,7 +9049,7 @@
         <v>94.848717</v>
       </c>
       <c r="C513" t="n">
-        <v>126.934242</v>
+        <v>126.934258</v>
       </c>
     </row>
     <row r="514">
@@ -9071,7 +9071,7 @@
         <v>92.453545</v>
       </c>
       <c r="C515" t="n">
-        <v>123.087753</v>
+        <v>123.087769</v>
       </c>
     </row>
     <row r="516">
@@ -9104,7 +9104,7 @@
         <v>94.674515</v>
       </c>
       <c r="C518" t="n">
-        <v>124.198982</v>
+        <v>124.198967</v>
       </c>
     </row>
     <row r="519">
@@ -9115,7 +9115,7 @@
         <v>98.332603</v>
       </c>
       <c r="C519" t="n">
-        <v>125.481148</v>
+        <v>125.481133</v>
       </c>
     </row>
     <row r="520">
@@ -9126,7 +9126,7 @@
         <v>97.20034</v>
       </c>
       <c r="C520" t="n">
-        <v>125.652084</v>
+        <v>125.652092</v>
       </c>
     </row>
     <row r="521">
@@ -9137,7 +9137,7 @@
         <v>99.943901</v>
       </c>
       <c r="C521" t="n">
-        <v>127.276154</v>
+        <v>127.276169</v>
       </c>
     </row>
     <row r="522">
@@ -9280,7 +9280,7 @@
         <v>104.995529</v>
       </c>
       <c r="C534" t="n">
-        <v>137.020615</v>
+        <v>137.020599</v>
       </c>
     </row>
     <row r="535">
@@ -9324,7 +9324,7 @@
         <v>93.237427</v>
       </c>
       <c r="C538" t="n">
-        <v>109.240379</v>
+        <v>109.240387</v>
       </c>
     </row>
     <row r="539">
@@ -9467,7 +9467,7 @@
         <v>64.62603</v>
       </c>
       <c r="C551" t="n">
-        <v>80.220741</v>
+        <v>80.220734</v>
       </c>
     </row>
     <row r="552">

--- a/Danske aktiekurser.xlsx
+++ b/Danske aktiekurser.xlsx
@@ -3425,10 +3425,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>189.887939</v>
+        <v>189.887924</v>
       </c>
       <c r="C2" t="n">
-        <v>191.282898</v>
+        <v>191.282867</v>
       </c>
     </row>
     <row r="3">
@@ -3439,7 +3439,7 @@
         <v>188.870804</v>
       </c>
       <c r="C3" t="n">
-        <v>190.82489</v>
+        <v>190.824905</v>
       </c>
     </row>
     <row r="4">
@@ -3458,10 +3458,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="n">
-        <v>190.74855</v>
+        <v>190.748581</v>
       </c>
       <c r="C5" t="n">
-        <v>192.046158</v>
+        <v>192.046188</v>
       </c>
     </row>
     <row r="6">
@@ -3469,7 +3469,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="n">
-        <v>191.843903</v>
+        <v>191.843918</v>
       </c>
       <c r="C6" t="n">
         <v>191.74086</v>
@@ -3491,7 +3491,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="n">
-        <v>194.347595</v>
+        <v>194.34758</v>
       </c>
       <c r="C8" t="n">
         <v>195.404694</v>
@@ -3502,7 +3502,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="n">
-        <v>196.14711</v>
+        <v>196.147125</v>
       </c>
       <c r="C9" t="n">
         <v>196.320663</v>
@@ -3516,7 +3516,7 @@
         <v>194.817032</v>
       </c>
       <c r="C10" t="n">
-        <v>195.099365</v>
+        <v>195.09938</v>
       </c>
     </row>
     <row r="11">
@@ -3524,7 +3524,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="n">
-        <v>196.303574</v>
+        <v>196.303589</v>
       </c>
       <c r="C11" t="n">
         <v>193.572784</v>
@@ -3535,10 +3535,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="n">
-        <v>195.521179</v>
+        <v>195.521194</v>
       </c>
       <c r="C12" t="n">
-        <v>192.504166</v>
+        <v>192.50415</v>
       </c>
     </row>
     <row r="13">
@@ -3546,7 +3546,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="n">
-        <v>195.990616</v>
+        <v>195.990631</v>
       </c>
       <c r="C13" t="n">
         <v>191.435547</v>
@@ -3557,7 +3557,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="n">
-        <v>191.452713</v>
+        <v>191.452728</v>
       </c>
       <c r="C14" t="n">
         <v>191.588196</v>
@@ -3568,7 +3568,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="n">
-        <v>190.670319</v>
+        <v>190.670334</v>
       </c>
       <c r="C15" t="n">
         <v>191.893509</v>
@@ -3582,7 +3582,7 @@
         <v>193.330475</v>
       </c>
       <c r="C16" t="n">
-        <v>193.114807</v>
+        <v>193.114792</v>
       </c>
     </row>
     <row r="17">
@@ -3623,10 +3623,10 @@
         <v>21</v>
       </c>
       <c r="B20" t="n">
-        <v>189.966156</v>
+        <v>189.966171</v>
       </c>
       <c r="C20" t="n">
-        <v>187.4664</v>
+        <v>187.466385</v>
       </c>
     </row>
     <row r="21">
@@ -3634,10 +3634,10 @@
         <v>22</v>
       </c>
       <c r="B21" t="n">
-        <v>191.843903</v>
+        <v>191.843918</v>
       </c>
       <c r="C21" t="n">
-        <v>187.771683</v>
+        <v>187.771698</v>
       </c>
     </row>
     <row r="22">
@@ -3645,7 +3645,7 @@
         <v>23</v>
       </c>
       <c r="B22" t="n">
-        <v>189.966156</v>
+        <v>189.966171</v>
       </c>
       <c r="C22" t="n">
         <v>185.787109</v>
@@ -3659,7 +3659,7 @@
         <v>190.51384</v>
       </c>
       <c r="C23" t="n">
-        <v>187.008392</v>
+        <v>187.008423</v>
       </c>
     </row>
     <row r="24">
@@ -3670,7 +3670,7 @@
         <v>189.418488</v>
       </c>
       <c r="C24" t="n">
-        <v>187.4664</v>
+        <v>187.466385</v>
       </c>
     </row>
     <row r="25">
@@ -3678,7 +3678,7 @@
         <v>26</v>
       </c>
       <c r="B25" t="n">
-        <v>191.609192</v>
+        <v>191.609207</v>
       </c>
       <c r="C25" t="n">
         <v>187.619034</v>
@@ -3689,10 +3689,10 @@
         <v>27</v>
       </c>
       <c r="B26" t="n">
-        <v>191.609192</v>
+        <v>191.609207</v>
       </c>
       <c r="C26" t="n">
-        <v>186.397751</v>
+        <v>186.397766</v>
       </c>
     </row>
     <row r="27">
@@ -3703,7 +3703,7 @@
         <v>186.758331</v>
       </c>
       <c r="C27" t="n">
-        <v>183.955185</v>
+        <v>183.9552</v>
       </c>
     </row>
     <row r="28">
@@ -3711,10 +3711,10 @@
         <v>29</v>
       </c>
       <c r="B28" t="n">
-        <v>189.262009</v>
+        <v>189.261993</v>
       </c>
       <c r="C28" t="n">
-        <v>188.687653</v>
+        <v>188.687668</v>
       </c>
     </row>
     <row r="29">
@@ -3722,10 +3722,10 @@
         <v>30</v>
       </c>
       <c r="B29" t="n">
-        <v>188.557861</v>
+        <v>188.557846</v>
       </c>
       <c r="C29" t="n">
-        <v>187.161057</v>
+        <v>187.161041</v>
       </c>
     </row>
     <row r="30">
@@ -3744,10 +3744,10 @@
         <v>32</v>
       </c>
       <c r="B31" t="n">
-        <v>189.966156</v>
+        <v>189.966171</v>
       </c>
       <c r="C31" t="n">
-        <v>188.687653</v>
+        <v>188.687668</v>
       </c>
     </row>
     <row r="32">
@@ -3758,7 +3758,7 @@
         <v>188.949051</v>
       </c>
       <c r="C32" t="n">
-        <v>188.535004</v>
+        <v>188.534988</v>
       </c>
     </row>
     <row r="33">
@@ -3766,7 +3766,7 @@
         <v>34</v>
       </c>
       <c r="B33" t="n">
-        <v>191.061508</v>
+        <v>191.061523</v>
       </c>
       <c r="C33" t="n">
         <v>193.267456</v>
@@ -3788,10 +3788,10 @@
         <v>36</v>
       </c>
       <c r="B35" t="n">
-        <v>194.660568</v>
+        <v>194.660553</v>
       </c>
       <c r="C35" t="n">
-        <v>196.625992</v>
+        <v>196.625977</v>
       </c>
     </row>
     <row r="36">
@@ -3802,7 +3802,7 @@
         <v>194.895279</v>
       </c>
       <c r="C36" t="n">
-        <v>196.167984</v>
+        <v>196.167999</v>
       </c>
     </row>
     <row r="37">
@@ -3813,7 +3813,7 @@
         <v>191.687439</v>
       </c>
       <c r="C37" t="n">
-        <v>185.481812</v>
+        <v>185.481796</v>
       </c>
     </row>
     <row r="38">
@@ -3846,7 +3846,7 @@
         <v>194.504074</v>
       </c>
       <c r="C40" t="n">
-        <v>186.245117</v>
+        <v>186.245102</v>
       </c>
     </row>
     <row r="41">
@@ -3854,7 +3854,7 @@
         <v>42</v>
       </c>
       <c r="B41" t="n">
-        <v>195.677673</v>
+        <v>195.677689</v>
       </c>
       <c r="C41" t="n">
         <v>183.802536</v>
@@ -3868,7 +3868,7 @@
         <v>189.731445</v>
       </c>
       <c r="C42" t="n">
-        <v>183.19191</v>
+        <v>183.191895</v>
       </c>
     </row>
     <row r="43">
@@ -3876,7 +3876,7 @@
         <v>44</v>
       </c>
       <c r="B43" t="n">
-        <v>192.626297</v>
+        <v>192.626328</v>
       </c>
       <c r="C43" t="n">
         <v>182.733917</v>
@@ -3887,7 +3887,7 @@
         <v>45</v>
       </c>
       <c r="B44" t="n">
-        <v>190.74855</v>
+        <v>190.748581</v>
       </c>
       <c r="C44" t="n">
         <v>181.665298</v>
@@ -3901,7 +3901,7 @@
         <v>189.731445</v>
       </c>
       <c r="C45" t="n">
-        <v>177.696136</v>
+        <v>177.696152</v>
       </c>
     </row>
     <row r="46">
@@ -3909,10 +3909,10 @@
         <v>47</v>
       </c>
       <c r="B46" t="n">
-        <v>190.044403</v>
+        <v>190.044388</v>
       </c>
       <c r="C46" t="n">
-        <v>179.833389</v>
+        <v>179.833405</v>
       </c>
     </row>
     <row r="47">
@@ -3920,7 +3920,7 @@
         <v>48</v>
       </c>
       <c r="B47" t="n">
-        <v>189.34024</v>
+        <v>189.340256</v>
       </c>
       <c r="C47" t="n">
         <v>180.749344</v>
@@ -3931,7 +3931,7 @@
         <v>49</v>
       </c>
       <c r="B48" t="n">
-        <v>191.530945</v>
+        <v>191.53096</v>
       </c>
       <c r="C48" t="n">
         <v>180.749344</v>
@@ -3942,7 +3942,7 @@
         <v>50</v>
       </c>
       <c r="B49" t="n">
-        <v>191.217987</v>
+        <v>191.218002</v>
       </c>
       <c r="C49" t="n">
         <v>182.428604</v>
@@ -3953,10 +3953,10 @@
         <v>51</v>
       </c>
       <c r="B50" t="n">
-        <v>192.626297</v>
+        <v>192.626328</v>
       </c>
       <c r="C50" t="n">
-        <v>180.901993</v>
+        <v>180.902008</v>
       </c>
     </row>
     <row r="51">
@@ -3964,7 +3964,7 @@
         <v>52</v>
       </c>
       <c r="B51" t="n">
-        <v>193.095764</v>
+        <v>193.095749</v>
       </c>
       <c r="C51" t="n">
         <v>180.291351</v>
@@ -3997,7 +3997,7 @@
         <v>55</v>
       </c>
       <c r="B54" t="n">
-        <v>191.061508</v>
+        <v>191.061523</v>
       </c>
       <c r="C54" t="n">
         <v>183.113098</v>
@@ -4011,7 +4011,7 @@
         <v>191.306274</v>
       </c>
       <c r="C55" t="n">
-        <v>182.792419</v>
+        <v>182.792404</v>
       </c>
     </row>
     <row r="56">
@@ -4022,7 +4022,7 @@
         <v>191.795761</v>
       </c>
       <c r="C56" t="n">
-        <v>183.594131</v>
+        <v>183.594116</v>
       </c>
     </row>
     <row r="57">
@@ -4088,7 +4088,7 @@
         <v>183.474533</v>
       </c>
       <c r="C62" t="n">
-        <v>179.585526</v>
+        <v>179.58551</v>
       </c>
     </row>
     <row r="63">
@@ -4121,7 +4121,7 @@
         <v>181.761353</v>
       </c>
       <c r="C65" t="n">
-        <v>176.378616</v>
+        <v>176.378632</v>
       </c>
     </row>
     <row r="66">
@@ -4132,7 +4132,7 @@
         <v>183.882431</v>
       </c>
       <c r="C66" t="n">
-        <v>178.944138</v>
+        <v>178.944153</v>
       </c>
     </row>
     <row r="67">
@@ -4151,10 +4151,10 @@
         <v>69</v>
       </c>
       <c r="B68" t="n">
-        <v>182.985046</v>
+        <v>182.985062</v>
       </c>
       <c r="C68" t="n">
-        <v>180.868286</v>
+        <v>180.868271</v>
       </c>
     </row>
     <row r="69">
@@ -4165,7 +4165,7 @@
         <v>183.39296</v>
       </c>
       <c r="C69" t="n">
-        <v>180.547577</v>
+        <v>180.547592</v>
       </c>
     </row>
     <row r="70">
@@ -4176,7 +4176,7 @@
         <v>179.477097</v>
       </c>
       <c r="C70" t="n">
-        <v>180.868286</v>
+        <v>180.868271</v>
       </c>
     </row>
     <row r="71">
@@ -4187,7 +4187,7 @@
         <v>180.619217</v>
       </c>
       <c r="C71" t="n">
-        <v>184.395844</v>
+        <v>184.395859</v>
       </c>
     </row>
     <row r="72">
@@ -4195,10 +4195,10 @@
         <v>73</v>
       </c>
       <c r="B72" t="n">
-        <v>180.211304</v>
+        <v>180.211319</v>
       </c>
       <c r="C72" t="n">
-        <v>182.311371</v>
+        <v>182.311386</v>
       </c>
     </row>
     <row r="73">
@@ -4217,7 +4217,7 @@
         <v>75</v>
       </c>
       <c r="B74" t="n">
-        <v>181.9245</v>
+        <v>181.924515</v>
       </c>
       <c r="C74" t="n">
         <v>184.075165</v>
@@ -4231,7 +4231,7 @@
         <v>183.637711</v>
       </c>
       <c r="C75" t="n">
-        <v>188.083755</v>
+        <v>188.083771</v>
       </c>
     </row>
     <row r="76">
@@ -4242,7 +4242,7 @@
         <v>182.577164</v>
       </c>
       <c r="C76" t="n">
-        <v>188.885483</v>
+        <v>188.885498</v>
       </c>
     </row>
     <row r="77">
@@ -4264,7 +4264,7 @@
         <v>183.229797</v>
       </c>
       <c r="C78" t="n">
-        <v>192.894073</v>
+        <v>192.894089</v>
       </c>
     </row>
     <row r="79">
@@ -4275,7 +4275,7 @@
         <v>184.127182</v>
       </c>
       <c r="C79" t="n">
-        <v>194.657867</v>
+        <v>194.657883</v>
       </c>
     </row>
     <row r="80">
@@ -4283,10 +4283,10 @@
         <v>81</v>
       </c>
       <c r="B80" t="n">
-        <v>178.498138</v>
+        <v>178.498123</v>
       </c>
       <c r="C80" t="n">
-        <v>187.602737</v>
+        <v>187.602722</v>
       </c>
     </row>
     <row r="81">
@@ -4294,10 +4294,10 @@
         <v>82</v>
       </c>
       <c r="B81" t="n">
-        <v>179.069183</v>
+        <v>179.069199</v>
       </c>
       <c r="C81" t="n">
-        <v>186.319977</v>
+        <v>186.319962</v>
       </c>
     </row>
     <row r="82">
@@ -4308,7 +4308,7 @@
         <v>175.72438</v>
       </c>
       <c r="C82" t="n">
-        <v>183.433792</v>
+        <v>183.433777</v>
       </c>
     </row>
     <row r="83">
@@ -4330,7 +4330,7 @@
         <v>177.84549</v>
       </c>
       <c r="C84" t="n">
-        <v>184.716507</v>
+        <v>184.716522</v>
       </c>
     </row>
     <row r="85">
@@ -4352,7 +4352,7 @@
         <v>176.132294</v>
       </c>
       <c r="C86" t="n">
-        <v>183.433792</v>
+        <v>183.433777</v>
       </c>
     </row>
     <row r="87">
@@ -4363,7 +4363,7 @@
         <v>175.316483</v>
       </c>
       <c r="C87" t="n">
-        <v>184.235489</v>
+        <v>184.235504</v>
       </c>
     </row>
     <row r="88">
@@ -4371,7 +4371,7 @@
         <v>89</v>
       </c>
       <c r="B88" t="n">
-        <v>176.784927</v>
+        <v>176.784943</v>
       </c>
       <c r="C88" t="n">
         <v>187.121704</v>
@@ -4385,7 +4385,7 @@
         <v>175.561234</v>
       </c>
       <c r="C89" t="n">
-        <v>186.961365</v>
+        <v>186.961349</v>
       </c>
     </row>
     <row r="90">
@@ -4396,7 +4396,7 @@
         <v>174.990173</v>
       </c>
       <c r="C90" t="n">
-        <v>186.640671</v>
+        <v>186.640656</v>
       </c>
     </row>
     <row r="91">
@@ -4407,7 +4407,7 @@
         <v>175.561234</v>
       </c>
       <c r="C91" t="n">
-        <v>185.999283</v>
+        <v>185.999298</v>
       </c>
     </row>
     <row r="92">
@@ -4418,7 +4418,7 @@
         <v>174.255951</v>
       </c>
       <c r="C92" t="n">
-        <v>183.594131</v>
+        <v>183.594116</v>
       </c>
     </row>
     <row r="93">
@@ -4437,7 +4437,7 @@
         <v>95</v>
       </c>
       <c r="B94" t="n">
-        <v>176.458603</v>
+        <v>176.458618</v>
       </c>
       <c r="C94" t="n">
         <v>184.075165</v>
@@ -4462,7 +4462,7 @@
         <v>176.94809</v>
       </c>
       <c r="C96" t="n">
-        <v>185.037216</v>
+        <v>185.037231</v>
       </c>
     </row>
     <row r="97">
@@ -4470,7 +4470,7 @@
         <v>98</v>
       </c>
       <c r="B97" t="n">
-        <v>173.603302</v>
+        <v>173.603317</v>
       </c>
       <c r="C97" t="n">
         <v>182.632065</v>
@@ -4503,7 +4503,7 @@
         <v>101</v>
       </c>
       <c r="B100" t="n">
-        <v>168.953201</v>
+        <v>168.953217</v>
       </c>
       <c r="C100" t="n">
         <v>174.935547</v>
@@ -4539,7 +4539,7 @@
         <v>176.295456</v>
       </c>
       <c r="C103" t="n">
-        <v>178.30275</v>
+        <v>178.302765</v>
       </c>
     </row>
     <row r="104">
@@ -4550,7 +4550,7 @@
         <v>178.253387</v>
       </c>
       <c r="C104" t="n">
-        <v>178.944138</v>
+        <v>178.944153</v>
       </c>
     </row>
     <row r="105">
@@ -4561,7 +4561,7 @@
         <v>175.72438</v>
       </c>
       <c r="C105" t="n">
-        <v>177.982086</v>
+        <v>177.982071</v>
       </c>
     </row>
     <row r="106">
@@ -4602,7 +4602,7 @@
         <v>110</v>
       </c>
       <c r="B109" t="n">
-        <v>178.498138</v>
+        <v>178.498123</v>
       </c>
       <c r="C109" t="n">
         <v>177.180344</v>
@@ -4638,7 +4638,7 @@
         <v>177.682327</v>
       </c>
       <c r="C112" t="n">
-        <v>177.821732</v>
+        <v>177.821747</v>
       </c>
     </row>
     <row r="113">
@@ -4671,7 +4671,7 @@
         <v>170.258499</v>
       </c>
       <c r="C115" t="n">
-        <v>175.41658</v>
+        <v>175.41655</v>
       </c>
     </row>
     <row r="116">
@@ -4679,7 +4679,7 @@
         <v>117</v>
       </c>
       <c r="B116" t="n">
-        <v>167.811081</v>
+        <v>167.811096</v>
       </c>
       <c r="C116" t="n">
         <v>173.171753</v>
@@ -4693,7 +4693,7 @@
         <v>168.626892</v>
       </c>
       <c r="C117" t="n">
-        <v>174.294144</v>
+        <v>174.294159</v>
       </c>
     </row>
     <row r="118">
@@ -4704,7 +4704,7 @@
         <v>166.0979</v>
       </c>
       <c r="C118" t="n">
-        <v>174.294144</v>
+        <v>174.294159</v>
       </c>
     </row>
     <row r="119">
@@ -4726,7 +4726,7 @@
         <v>162.018875</v>
       </c>
       <c r="C120" t="n">
-        <v>173.652786</v>
+        <v>173.652802</v>
       </c>
     </row>
     <row r="121">
@@ -4759,7 +4759,7 @@
         <v>162.671509</v>
       </c>
       <c r="C123" t="n">
-        <v>175.41658</v>
+        <v>175.41655</v>
       </c>
     </row>
     <row r="124">
@@ -4803,7 +4803,7 @@
         <v>155.533218</v>
       </c>
       <c r="C127" t="n">
-        <v>177.661392</v>
+        <v>177.661407</v>
       </c>
     </row>
     <row r="128">
@@ -4814,7 +4814,7 @@
         <v>157.001663</v>
       </c>
       <c r="C128" t="n">
-        <v>180.226883</v>
+        <v>180.226898</v>
       </c>
     </row>
     <row r="129">
@@ -4825,7 +4825,7 @@
         <v>158.102997</v>
       </c>
       <c r="C129" t="n">
-        <v>182.151016</v>
+        <v>182.151031</v>
       </c>
     </row>
     <row r="130">
@@ -4836,7 +4836,7 @@
         <v>158.225372</v>
       </c>
       <c r="C130" t="n">
-        <v>182.151016</v>
+        <v>182.151031</v>
       </c>
     </row>
     <row r="131">
@@ -4844,7 +4844,7 @@
         <v>132</v>
       </c>
       <c r="B131" t="n">
-        <v>159.122772</v>
+        <v>159.122757</v>
       </c>
       <c r="C131" t="n">
         <v>183.754471</v>
@@ -4858,7 +4858,7 @@
         <v>158.225372</v>
       </c>
       <c r="C132" t="n">
-        <v>182.151016</v>
+        <v>182.151031</v>
       </c>
     </row>
     <row r="133">
@@ -4880,7 +4880,7 @@
         <v>159.163544</v>
       </c>
       <c r="C134" t="n">
-        <v>180.707916</v>
+        <v>180.707932</v>
       </c>
     </row>
     <row r="135">
@@ -4888,10 +4888,10 @@
         <v>136</v>
       </c>
       <c r="B135" t="n">
-        <v>144.642227</v>
+        <v>144.642212</v>
       </c>
       <c r="C135" t="n">
-        <v>177.661392</v>
+        <v>177.661407</v>
       </c>
     </row>
     <row r="136">
@@ -4899,7 +4899,7 @@
         <v>137</v>
       </c>
       <c r="B136" t="n">
-        <v>148.394913</v>
+        <v>148.394928</v>
       </c>
       <c r="C136" t="n">
         <v>179.745865</v>
@@ -4913,7 +4913,7 @@
         <v>147.456757</v>
       </c>
       <c r="C137" t="n">
-        <v>180.387222</v>
+        <v>180.387238</v>
       </c>
     </row>
     <row r="138">
@@ -4921,7 +4921,7 @@
         <v>139</v>
       </c>
       <c r="B138" t="n">
-        <v>149.985764</v>
+        <v>149.985748</v>
       </c>
       <c r="C138" t="n">
         <v>181.669998</v>
@@ -4935,7 +4935,7 @@
         <v>151.94368</v>
       </c>
       <c r="C139" t="n">
-        <v>185.037216</v>
+        <v>185.037231</v>
       </c>
     </row>
     <row r="140">
@@ -4957,7 +4957,7 @@
         <v>152.800278</v>
       </c>
       <c r="C141" t="n">
-        <v>186.319977</v>
+        <v>186.319962</v>
       </c>
     </row>
     <row r="142">
@@ -4968,7 +4968,7 @@
         <v>153.208176</v>
       </c>
       <c r="C142" t="n">
-        <v>188.564774</v>
+        <v>188.564789</v>
       </c>
     </row>
     <row r="143">
@@ -4987,10 +4987,10 @@
         <v>145</v>
       </c>
       <c r="B144" t="n">
-        <v>151.127869</v>
+        <v>151.127884</v>
       </c>
       <c r="C144" t="n">
-        <v>189.526855</v>
+        <v>189.52684</v>
       </c>
     </row>
     <row r="145">
@@ -5001,7 +5001,7 @@
         <v>149.12915</v>
       </c>
       <c r="C145" t="n">
-        <v>188.083755</v>
+        <v>188.083771</v>
       </c>
     </row>
     <row r="146">
@@ -5009,10 +5009,10 @@
         <v>147</v>
       </c>
       <c r="B146" t="n">
-        <v>146.029099</v>
+        <v>146.029083</v>
       </c>
       <c r="C146" t="n">
-        <v>184.395844</v>
+        <v>184.395859</v>
       </c>
     </row>
     <row r="147">
@@ -5023,7 +5023,7 @@
         <v>149.12915</v>
       </c>
       <c r="C147" t="n">
-        <v>185.037216</v>
+        <v>185.037231</v>
       </c>
     </row>
     <row r="148">
@@ -5045,7 +5045,7 @@
         <v>147.905441</v>
       </c>
       <c r="C149" t="n">
-        <v>180.387222</v>
+        <v>180.387238</v>
       </c>
     </row>
     <row r="150">
@@ -5086,10 +5086,10 @@
         <v>154</v>
       </c>
       <c r="B153" t="n">
-        <v>150.02652</v>
+        <v>150.026535</v>
       </c>
       <c r="C153" t="n">
-        <v>178.30275</v>
+        <v>178.302765</v>
       </c>
     </row>
     <row r="154">
@@ -5100,7 +5100,7 @@
         <v>147.008057</v>
       </c>
       <c r="C154" t="n">
-        <v>176.538971</v>
+        <v>176.538986</v>
       </c>
     </row>
     <row r="155">
@@ -5122,7 +5122,7 @@
         <v>148.313354</v>
       </c>
       <c r="C156" t="n">
-        <v>176.218292</v>
+        <v>176.218277</v>
       </c>
     </row>
     <row r="157">
@@ -5130,7 +5130,7 @@
         <v>158</v>
       </c>
       <c r="B157" t="n">
-        <v>149.210739</v>
+        <v>149.210724</v>
       </c>
       <c r="C157" t="n">
         <v>175.095871</v>
@@ -5141,7 +5141,7 @@
         <v>159</v>
       </c>
       <c r="B158" t="n">
-        <v>150.230469</v>
+        <v>150.230484</v>
       </c>
       <c r="C158" t="n">
         <v>175.737259</v>
@@ -5152,10 +5152,10 @@
         <v>160</v>
       </c>
       <c r="B159" t="n">
-        <v>150.719971</v>
+        <v>150.719955</v>
       </c>
       <c r="C159" t="n">
-        <v>177.661392</v>
+        <v>177.661407</v>
       </c>
     </row>
     <row r="160">
@@ -5185,10 +5185,10 @@
         <v>163</v>
       </c>
       <c r="B162" t="n">
-        <v>154.717422</v>
+        <v>154.717407</v>
       </c>
       <c r="C162" t="n">
-        <v>175.256241</v>
+        <v>175.256226</v>
       </c>
     </row>
     <row r="163">
@@ -5196,10 +5196,10 @@
         <v>164</v>
       </c>
       <c r="B163" t="n">
-        <v>157.817474</v>
+        <v>157.817459</v>
       </c>
       <c r="C163" t="n">
-        <v>175.256241</v>
+        <v>175.256226</v>
       </c>
     </row>
     <row r="164">
@@ -5207,10 +5207,10 @@
         <v>165</v>
       </c>
       <c r="B164" t="n">
-        <v>156.716156</v>
+        <v>156.716141</v>
       </c>
       <c r="C164" t="n">
-        <v>155.614059</v>
+        <v>155.614075</v>
       </c>
     </row>
     <row r="165">
@@ -5221,7 +5221,7 @@
         <v>157.001663</v>
       </c>
       <c r="C165" t="n">
-        <v>153.770096</v>
+        <v>153.770111</v>
       </c>
     </row>
     <row r="166">
@@ -5229,7 +5229,7 @@
         <v>167</v>
       </c>
       <c r="B166" t="n">
-        <v>156.634567</v>
+        <v>156.634552</v>
       </c>
       <c r="C166" t="n">
         <v>151.926132</v>
@@ -5240,7 +5240,7 @@
         <v>168</v>
       </c>
       <c r="B167" t="n">
-        <v>154.146332</v>
+        <v>154.146347</v>
       </c>
       <c r="C167" t="n">
         <v>150.723557</v>
@@ -5284,10 +5284,10 @@
         <v>172</v>
       </c>
       <c r="B171" t="n">
-        <v>150.719971</v>
+        <v>150.719955</v>
       </c>
       <c r="C171" t="n">
-        <v>148.158066</v>
+        <v>148.158051</v>
       </c>
     </row>
     <row r="172">
@@ -5295,10 +5295,10 @@
         <v>173</v>
       </c>
       <c r="B172" t="n">
-        <v>144.397491</v>
+        <v>144.397476</v>
       </c>
       <c r="C172" t="n">
-        <v>148.799454</v>
+        <v>148.799438</v>
       </c>
     </row>
     <row r="173">
@@ -5309,7 +5309,7 @@
         <v>140.155304</v>
       </c>
       <c r="C173" t="n">
-        <v>148.799454</v>
+        <v>148.799438</v>
       </c>
     </row>
     <row r="174">
@@ -5317,10 +5317,10 @@
         <v>175</v>
       </c>
       <c r="B174" t="n">
-        <v>139.217133</v>
+        <v>139.217117</v>
       </c>
       <c r="C174" t="n">
-        <v>147.837372</v>
+        <v>147.837341</v>
       </c>
     </row>
     <row r="175">
@@ -5342,7 +5342,7 @@
         <v>140.114502</v>
       </c>
       <c r="C176" t="n">
-        <v>148.879608</v>
+        <v>148.879593</v>
       </c>
     </row>
     <row r="177">
@@ -5364,7 +5364,7 @@
         <v>137.748672</v>
       </c>
       <c r="C178" t="n">
-        <v>149.200302</v>
+        <v>149.200287</v>
       </c>
     </row>
     <row r="179">
@@ -5394,10 +5394,10 @@
         <v>182</v>
       </c>
       <c r="B181" t="n">
-        <v>144.397491</v>
+        <v>144.397476</v>
       </c>
       <c r="C181" t="n">
-        <v>151.28476</v>
+        <v>151.284744</v>
       </c>
     </row>
     <row r="182">
@@ -5408,7 +5408,7 @@
         <v>138.727646</v>
       </c>
       <c r="C182" t="n">
-        <v>152.888214</v>
+        <v>152.888199</v>
       </c>
     </row>
     <row r="183">
@@ -5427,7 +5427,7 @@
         <v>185</v>
       </c>
       <c r="B184" t="n">
-        <v>138.686844</v>
+        <v>138.686859</v>
       </c>
       <c r="C184" t="n">
         <v>152.968384</v>
@@ -5441,7 +5441,7 @@
         <v>140.563202</v>
       </c>
       <c r="C185" t="n">
-        <v>155.934753</v>
+        <v>155.934738</v>
       </c>
     </row>
     <row r="186">
@@ -5460,10 +5460,10 @@
         <v>188</v>
       </c>
       <c r="B187" t="n">
-        <v>137.626297</v>
+        <v>137.626312</v>
       </c>
       <c r="C187" t="n">
-        <v>151.525269</v>
+        <v>151.525284</v>
       </c>
     </row>
     <row r="188">
@@ -5474,7 +5474,7 @@
         <v>138.238144</v>
       </c>
       <c r="C188" t="n">
-        <v>152.64769</v>
+        <v>152.647675</v>
       </c>
     </row>
     <row r="189">
@@ -5493,10 +5493,10 @@
         <v>191</v>
       </c>
       <c r="B190" t="n">
-        <v>135.627563</v>
+        <v>135.627579</v>
       </c>
       <c r="C190" t="n">
-        <v>149.440781</v>
+        <v>149.440796</v>
       </c>
     </row>
     <row r="191">
@@ -5504,10 +5504,10 @@
         <v>192</v>
       </c>
       <c r="B191" t="n">
-        <v>129.386673</v>
+        <v>129.386688</v>
       </c>
       <c r="C191" t="n">
-        <v>148.158066</v>
+        <v>148.158051</v>
       </c>
     </row>
     <row r="192">
@@ -5515,7 +5515,7 @@
         <v>193</v>
       </c>
       <c r="B192" t="n">
-        <v>121.310196</v>
+        <v>121.310188</v>
       </c>
       <c r="C192" t="n">
         <v>150.483032</v>
@@ -5526,10 +5526,10 @@
         <v>194</v>
       </c>
       <c r="B193" t="n">
-        <v>116.945648</v>
+        <v>116.945656</v>
       </c>
       <c r="C193" t="n">
-        <v>146.795151</v>
+        <v>146.795135</v>
       </c>
     </row>
     <row r="194">
@@ -5540,7 +5540,7 @@
         <v>115.925896</v>
       </c>
       <c r="C194" t="n">
-        <v>141.824448</v>
+        <v>141.824432</v>
       </c>
     </row>
     <row r="195">
@@ -5559,7 +5559,7 @@
         <v>197</v>
       </c>
       <c r="B196" t="n">
-        <v>115.191658</v>
+        <v>115.191666</v>
       </c>
       <c r="C196" t="n">
         <v>140.782227</v>
@@ -5570,10 +5570,10 @@
         <v>198</v>
       </c>
       <c r="B197" t="n">
-        <v>115.273254</v>
+        <v>115.273247</v>
       </c>
       <c r="C197" t="n">
-        <v>141.904617</v>
+        <v>141.904648</v>
       </c>
     </row>
     <row r="198">
@@ -5581,7 +5581,7 @@
         <v>199</v>
       </c>
       <c r="B198" t="n">
-        <v>113.886383</v>
+        <v>113.886375</v>
       </c>
       <c r="C198" t="n">
         <v>142.546005</v>
@@ -5592,7 +5592,7 @@
         <v>200</v>
       </c>
       <c r="B199" t="n">
-        <v>115.436401</v>
+        <v>115.436417</v>
       </c>
       <c r="C199" t="n">
         <v>143.588242</v>
@@ -5603,7 +5603,7 @@
         <v>201</v>
       </c>
       <c r="B200" t="n">
-        <v>112.254768</v>
+        <v>112.254776</v>
       </c>
       <c r="C200" t="n">
         <v>143.748581</v>
@@ -5625,10 +5625,10 @@
         <v>203</v>
       </c>
       <c r="B202" t="n">
-        <v>107.033607</v>
+        <v>107.033615</v>
       </c>
       <c r="C202" t="n">
-        <v>142.706345</v>
+        <v>142.70636</v>
       </c>
     </row>
     <row r="203">
@@ -5647,7 +5647,7 @@
         <v>205</v>
       </c>
       <c r="B204" t="n">
-        <v>103.280907</v>
+        <v>103.280914</v>
       </c>
       <c r="C204" t="n">
         <v>140.782227</v>
@@ -5658,7 +5658,7 @@
         <v>206</v>
       </c>
       <c r="B205" t="n">
-        <v>102.50589</v>
+        <v>102.505898</v>
       </c>
       <c r="C205" t="n">
         <v>141.503769</v>
@@ -5683,7 +5683,7 @@
         <v>102.791428</v>
       </c>
       <c r="C207" t="n">
-        <v>140.862381</v>
+        <v>140.862396</v>
       </c>
     </row>
     <row r="208">
@@ -5691,10 +5691,10 @@
         <v>209</v>
       </c>
       <c r="B208" t="n">
-        <v>104.586197</v>
+        <v>104.586189</v>
       </c>
       <c r="C208" t="n">
-        <v>144.06926</v>
+        <v>144.069275</v>
       </c>
     </row>
     <row r="209">
@@ -5702,7 +5702,7 @@
         <v>210</v>
       </c>
       <c r="B209" t="n">
-        <v>103.280907</v>
+        <v>103.280914</v>
       </c>
       <c r="C209" t="n">
         <v>139.90033</v>
@@ -5716,7 +5716,7 @@
         <v>103.076958</v>
       </c>
       <c r="C210" t="n">
-        <v>122.102135</v>
+        <v>122.102127</v>
       </c>
     </row>
     <row r="211">
@@ -5735,10 +5735,10 @@
         <v>213</v>
       </c>
       <c r="B212" t="n">
-        <v>111.765282</v>
+        <v>111.765274</v>
       </c>
       <c r="C212" t="n">
-        <v>127.874504</v>
+        <v>127.874519</v>
       </c>
     </row>
     <row r="213">
@@ -5746,10 +5746,10 @@
         <v>214</v>
       </c>
       <c r="B213" t="n">
-        <v>110.337616</v>
+        <v>110.337624</v>
       </c>
       <c r="C213" t="n">
-        <v>130.199478</v>
+        <v>130.199493</v>
       </c>
     </row>
     <row r="214">
@@ -5760,7 +5760,7 @@
         <v>110.174461</v>
       </c>
       <c r="C214" t="n">
-        <v>130.680527</v>
+        <v>130.680542</v>
       </c>
     </row>
     <row r="215">
@@ -5768,10 +5768,10 @@
         <v>216</v>
       </c>
       <c r="B215" t="n">
-        <v>117.516708</v>
+        <v>117.516716</v>
       </c>
       <c r="C215" t="n">
-        <v>132.52449</v>
+        <v>132.524506</v>
       </c>
     </row>
     <row r="216">
@@ -5779,7 +5779,7 @@
         <v>217</v>
       </c>
       <c r="B216" t="n">
-        <v>117.027222</v>
+        <v>117.027229</v>
       </c>
       <c r="C216" t="n">
         <v>133.326218</v>
@@ -5793,7 +5793,7 @@
         <v>117.598282</v>
       </c>
       <c r="C217" t="n">
-        <v>131.32193</v>
+        <v>131.321915</v>
       </c>
     </row>
     <row r="218">
@@ -5801,7 +5801,7 @@
         <v>219</v>
       </c>
       <c r="B218" t="n">
-        <v>116.619324</v>
+        <v>116.619316</v>
       </c>
       <c r="C218" t="n">
         <v>130.440018</v>
@@ -5812,10 +5812,10 @@
         <v>220</v>
       </c>
       <c r="B219" t="n">
-        <v>115.028503</v>
+        <v>115.028496</v>
       </c>
       <c r="C219" t="n">
-        <v>129.79863</v>
+        <v>129.798645</v>
       </c>
     </row>
     <row r="220">
@@ -5837,7 +5837,7 @@
         <v>113.519257</v>
       </c>
       <c r="C221" t="n">
-        <v>127.874504</v>
+        <v>127.874519</v>
       </c>
     </row>
     <row r="222">
@@ -5845,7 +5845,7 @@
         <v>223</v>
       </c>
       <c r="B222" t="n">
-        <v>111.602119</v>
+        <v>111.602127</v>
       </c>
       <c r="C222" t="n">
         <v>127.553825</v>
@@ -5856,7 +5856,7 @@
         <v>224</v>
       </c>
       <c r="B223" t="n">
-        <v>110.500778</v>
+        <v>110.500786</v>
       </c>
       <c r="C223" t="n">
         <v>128.756409</v>
@@ -5870,7 +5870,7 @@
         <v>106.544136</v>
       </c>
       <c r="C224" t="n">
-        <v>125.950378</v>
+        <v>125.950394</v>
       </c>
     </row>
     <row r="225">
@@ -5878,10 +5878,10 @@
         <v>226</v>
       </c>
       <c r="B225" t="n">
-        <v>107.441521</v>
+        <v>107.441513</v>
       </c>
       <c r="C225" t="n">
-        <v>127.874504</v>
+        <v>127.874519</v>
       </c>
     </row>
     <row r="226">
@@ -5892,7 +5892,7 @@
         <v>108.461266</v>
       </c>
       <c r="C226" t="n">
-        <v>127.874504</v>
+        <v>127.874519</v>
       </c>
     </row>
     <row r="227">
@@ -5900,10 +5900,10 @@
         <v>228</v>
       </c>
       <c r="B227" t="n">
-        <v>108.869171</v>
+        <v>108.869164</v>
       </c>
       <c r="C227" t="n">
-        <v>128.275375</v>
+        <v>128.27536</v>
       </c>
     </row>
     <row r="228">
@@ -5911,10 +5911,10 @@
         <v>229</v>
       </c>
       <c r="B228" t="n">
-        <v>111.071846</v>
+        <v>111.071838</v>
       </c>
       <c r="C228" t="n">
-        <v>131.081406</v>
+        <v>131.08139</v>
       </c>
     </row>
     <row r="229">
@@ -5922,10 +5922,10 @@
         <v>230</v>
       </c>
       <c r="B229" t="n">
-        <v>110.133675</v>
+        <v>110.133667</v>
       </c>
       <c r="C229" t="n">
-        <v>131.081406</v>
+        <v>131.08139</v>
       </c>
     </row>
     <row r="230">
@@ -5936,7 +5936,7 @@
         <v>110.949478</v>
       </c>
       <c r="C230" t="n">
-        <v>129.63829</v>
+        <v>129.638306</v>
       </c>
     </row>
     <row r="231">
@@ -5944,7 +5944,7 @@
         <v>232</v>
       </c>
       <c r="B231" t="n">
-        <v>107.441521</v>
+        <v>107.441513</v>
       </c>
       <c r="C231" t="n">
         <v>130.359848</v>
@@ -5955,7 +5955,7 @@
         <v>233</v>
       </c>
       <c r="B232" t="n">
-        <v>107.19677</v>
+        <v>107.196777</v>
       </c>
       <c r="C232" t="n">
         <v>130.359848</v>
@@ -5966,7 +5966,7 @@
         <v>234</v>
       </c>
       <c r="B233" t="n">
-        <v>108.706009</v>
+        <v>108.706017</v>
       </c>
       <c r="C233" t="n">
         <v>126.671928</v>
@@ -5977,10 +5977,10 @@
         <v>235</v>
       </c>
       <c r="B234" t="n">
-        <v>108.583649</v>
+        <v>108.583641</v>
       </c>
       <c r="C234" t="n">
-        <v>127.152969</v>
+        <v>127.152962</v>
       </c>
     </row>
     <row r="235">
@@ -5988,10 +5988,10 @@
         <v>236</v>
       </c>
       <c r="B235" t="n">
-        <v>114.620598</v>
+        <v>114.620605</v>
       </c>
       <c r="C235" t="n">
-        <v>129.79863</v>
+        <v>129.798645</v>
       </c>
     </row>
     <row r="236">
@@ -5999,10 +5999,10 @@
         <v>237</v>
       </c>
       <c r="B236" t="n">
-        <v>111.316582</v>
+        <v>111.316589</v>
       </c>
       <c r="C236" t="n">
-        <v>126.992615</v>
+        <v>126.992607</v>
       </c>
     </row>
     <row r="237">
@@ -6013,7 +6013,7 @@
         <v>116.007462</v>
       </c>
       <c r="C237" t="n">
-        <v>129.558151</v>
+        <v>129.558121</v>
       </c>
     </row>
     <row r="238">
@@ -6021,10 +6021,10 @@
         <v>239</v>
       </c>
       <c r="B238" t="n">
-        <v>112.050819</v>
+        <v>112.050812</v>
       </c>
       <c r="C238" t="n">
-        <v>127.152969</v>
+        <v>127.152962</v>
       </c>
     </row>
     <row r="239">
@@ -6035,7 +6035,7 @@
         <v>114.2127</v>
       </c>
       <c r="C239" t="n">
-        <v>129.558151</v>
+        <v>129.558121</v>
       </c>
     </row>
     <row r="240">
@@ -6054,10 +6054,10 @@
         <v>242</v>
       </c>
       <c r="B241" t="n">
-        <v>113.396896</v>
+        <v>113.396889</v>
       </c>
       <c r="C241" t="n">
-        <v>128.676224</v>
+        <v>128.676239</v>
       </c>
     </row>
     <row r="242">
@@ -6068,7 +6068,7 @@
         <v>112.62188</v>
       </c>
       <c r="C242" t="n">
-        <v>128.034851</v>
+        <v>128.034866</v>
       </c>
     </row>
     <row r="243">
@@ -6076,7 +6076,7 @@
         <v>244</v>
       </c>
       <c r="B243" t="n">
-        <v>110.459991</v>
+        <v>110.459984</v>
       </c>
       <c r="C243" t="n">
         <v>127.633987</v>
@@ -6087,10 +6087,10 @@
         <v>245</v>
       </c>
       <c r="B244" t="n">
-        <v>112.213974</v>
+        <v>112.213982</v>
       </c>
       <c r="C244" t="n">
-        <v>122.663315</v>
+        <v>122.663322</v>
       </c>
     </row>
     <row r="245">
@@ -6101,7 +6101,7 @@
         <v>109.725769</v>
       </c>
       <c r="C245" t="n">
-        <v>121.781418</v>
+        <v>121.781425</v>
       </c>
     </row>
     <row r="246">
@@ -6109,10 +6109,10 @@
         <v>247</v>
       </c>
       <c r="B246" t="n">
-        <v>105.442787</v>
+        <v>105.442795</v>
       </c>
       <c r="C246" t="n">
-        <v>117.772827</v>
+        <v>117.77282</v>
       </c>
     </row>
     <row r="247">
@@ -6123,7 +6123,7 @@
         <v>104.626984</v>
       </c>
       <c r="C247" t="n">
-        <v>120.258163</v>
+        <v>120.258156</v>
       </c>
     </row>
     <row r="248">
@@ -6134,7 +6134,7 @@
         <v>102.95459</v>
       </c>
       <c r="C248" t="n">
-        <v>120.819366</v>
+        <v>120.819351</v>
       </c>
     </row>
     <row r="249">
@@ -6153,10 +6153,10 @@
         <v>251</v>
       </c>
       <c r="B250" t="n">
-        <v>104.994102</v>
+        <v>104.994095</v>
       </c>
       <c r="C250" t="n">
-        <v>126.271072</v>
+        <v>126.271065</v>
       </c>
     </row>
     <row r="251">
@@ -6164,7 +6164,7 @@
         <v>252</v>
       </c>
       <c r="B251" t="n">
-        <v>104.749359</v>
+        <v>104.749352</v>
       </c>
       <c r="C251" t="n">
         <v>123.865906</v>
@@ -6175,10 +6175,10 @@
         <v>253</v>
       </c>
       <c r="B252" t="n">
-        <v>109.195496</v>
+        <v>109.195503</v>
       </c>
       <c r="C252" t="n">
-        <v>127.313309</v>
+        <v>127.313316</v>
       </c>
     </row>
     <row r="253">
@@ -6197,7 +6197,7 @@
         <v>255</v>
       </c>
       <c r="B254" t="n">
-        <v>108.379692</v>
+        <v>108.3797</v>
       </c>
       <c r="C254" t="n">
         <v>126.832268</v>
@@ -6211,7 +6211,7 @@
         <v>107.074402</v>
       </c>
       <c r="C255" t="n">
-        <v>126.431412</v>
+        <v>126.431404</v>
       </c>
     </row>
     <row r="256">
@@ -6219,7 +6219,7 @@
         <v>257</v>
       </c>
       <c r="B256" t="n">
-        <v>104.219093</v>
+        <v>104.219086</v>
       </c>
       <c r="C256" t="n">
         <v>126.591751</v>
@@ -6241,10 +6241,10 @@
         <v>259</v>
       </c>
       <c r="B258" t="n">
-        <v>106.054642</v>
+        <v>106.054649</v>
       </c>
       <c r="C258" t="n">
-        <v>124.266769</v>
+        <v>124.266754</v>
       </c>
     </row>
     <row r="259">
@@ -6252,10 +6252,10 @@
         <v>260</v>
       </c>
       <c r="B259" t="n">
-        <v>104.423035</v>
+        <v>104.423042</v>
       </c>
       <c r="C259" t="n">
-        <v>122.583153</v>
+        <v>122.583145</v>
       </c>
     </row>
     <row r="260">
@@ -6263,10 +6263,10 @@
         <v>261</v>
       </c>
       <c r="B260" t="n">
-        <v>105.034897</v>
+        <v>105.034889</v>
       </c>
       <c r="C260" t="n">
-        <v>126.271072</v>
+        <v>126.271065</v>
       </c>
     </row>
     <row r="261">
@@ -6277,7 +6277,7 @@
         <v>103.933556</v>
       </c>
       <c r="C261" t="n">
-        <v>126.030556</v>
+        <v>126.030548</v>
       </c>
     </row>
     <row r="262">
@@ -6285,10 +6285,10 @@
         <v>263</v>
       </c>
       <c r="B262" t="n">
-        <v>103.199326</v>
+        <v>103.199333</v>
       </c>
       <c r="C262" t="n">
-        <v>125.870201</v>
+        <v>125.870209</v>
       </c>
     </row>
     <row r="263">
@@ -6321,7 +6321,7 @@
         <v>101.975624</v>
       </c>
       <c r="C265" t="n">
-        <v>126.190895</v>
+        <v>126.190887</v>
       </c>
     </row>
     <row r="266">
@@ -6329,10 +6329,10 @@
         <v>267</v>
       </c>
       <c r="B266" t="n">
-        <v>99.976906</v>
+        <v>99.976898</v>
       </c>
       <c r="C266" t="n">
-        <v>126.110733</v>
+        <v>126.110725</v>
       </c>
     </row>
     <row r="267">
@@ -6351,7 +6351,7 @@
         <v>269</v>
       </c>
       <c r="B268" t="n">
-        <v>99.936111</v>
+        <v>99.936104</v>
       </c>
       <c r="C268" t="n">
         <v>123.625389</v>
@@ -6376,7 +6376,7 @@
         <v>100.140068</v>
       </c>
       <c r="C270" t="n">
-        <v>123.144371</v>
+        <v>123.144363</v>
       </c>
     </row>
     <row r="271">
@@ -6387,7 +6387,7 @@
         <v>98.304497</v>
       </c>
       <c r="C271" t="n">
-        <v>120.739197</v>
+        <v>120.739204</v>
       </c>
     </row>
     <row r="272">
@@ -6398,7 +6398,7 @@
         <v>103.444077</v>
       </c>
       <c r="C272" t="n">
-        <v>121.781418</v>
+        <v>121.781425</v>
       </c>
     </row>
     <row r="273">
@@ -6406,7 +6406,7 @@
         <v>274</v>
       </c>
       <c r="B273" t="n">
-        <v>101.078232</v>
+        <v>101.078239</v>
       </c>
       <c r="C273" t="n">
         <v>122.262466</v>
@@ -6417,10 +6417,10 @@
         <v>275</v>
       </c>
       <c r="B274" t="n">
-        <v>103.199326</v>
+        <v>103.199333</v>
       </c>
       <c r="C274" t="n">
-        <v>122.102135</v>
+        <v>122.102127</v>
       </c>
     </row>
     <row r="275">
@@ -6428,10 +6428,10 @@
         <v>276</v>
       </c>
       <c r="B275" t="n">
-        <v>102.669052</v>
+        <v>102.66906</v>
       </c>
       <c r="C275" t="n">
-        <v>121.781418</v>
+        <v>121.781425</v>
       </c>
     </row>
     <row r="276">
@@ -6442,7 +6442,7 @@
         <v>101.975624</v>
       </c>
       <c r="C276" t="n">
-        <v>120.338348</v>
+        <v>120.338341</v>
       </c>
     </row>
     <row r="277">
@@ -6464,7 +6464,7 @@
         <v>98.712402</v>
       </c>
       <c r="C278" t="n">
-        <v>119.13575</v>
+        <v>119.135765</v>
       </c>
     </row>
     <row r="279">
@@ -6475,7 +6475,7 @@
         <v>101.119026</v>
       </c>
       <c r="C279" t="n">
-        <v>121.220222</v>
+        <v>121.22023</v>
       </c>
     </row>
     <row r="280">
@@ -6494,10 +6494,10 @@
         <v>282</v>
       </c>
       <c r="B281" t="n">
-        <v>99.936111</v>
+        <v>99.936104</v>
       </c>
       <c r="C281" t="n">
-        <v>121.220222</v>
+        <v>121.22023</v>
       </c>
     </row>
     <row r="282">
@@ -6505,10 +6505,10 @@
         <v>283</v>
       </c>
       <c r="B282" t="n">
-        <v>101.486145</v>
+        <v>101.486137</v>
       </c>
       <c r="C282" t="n">
-        <v>122.021935</v>
+        <v>122.02195</v>
       </c>
     </row>
     <row r="283">
@@ -6519,7 +6519,7 @@
         <v>103.321701</v>
       </c>
       <c r="C283" t="n">
-        <v>123.545219</v>
+        <v>123.545212</v>
       </c>
     </row>
     <row r="284">
@@ -6530,7 +6530,7 @@
         <v>102.873009</v>
       </c>
       <c r="C284" t="n">
-        <v>121.540916</v>
+        <v>121.540909</v>
       </c>
     </row>
     <row r="285">
@@ -6538,10 +6538,10 @@
         <v>286</v>
       </c>
       <c r="B285" t="n">
-        <v>103.117752</v>
+        <v>103.117744</v>
       </c>
       <c r="C285" t="n">
-        <v>121.781418</v>
+        <v>121.781425</v>
       </c>
     </row>
     <row r="286">
@@ -6552,7 +6552,7 @@
         <v>98.712402</v>
       </c>
       <c r="C286" t="n">
-        <v>120.49868</v>
+        <v>120.498688</v>
       </c>
     </row>
     <row r="287">
@@ -6560,7 +6560,7 @@
         <v>288</v>
       </c>
       <c r="B287" t="n">
-        <v>98.467651</v>
+        <v>98.467667</v>
       </c>
       <c r="C287" t="n">
         <v>120.578835</v>
@@ -6574,7 +6574,7 @@
         <v>102.301949</v>
       </c>
       <c r="C288" t="n">
-        <v>121.781418</v>
+        <v>121.781425</v>
       </c>
     </row>
     <row r="289">
@@ -6582,10 +6582,10 @@
         <v>290</v>
       </c>
       <c r="B289" t="n">
-        <v>102.22036</v>
+        <v>102.220367</v>
       </c>
       <c r="C289" t="n">
-        <v>119.777115</v>
+        <v>119.77713</v>
       </c>
     </row>
     <row r="290">
@@ -6593,7 +6593,7 @@
         <v>291</v>
       </c>
       <c r="B290" t="n">
-        <v>106.054642</v>
+        <v>106.054649</v>
       </c>
       <c r="C290" t="n">
         <v>127.393471</v>
@@ -6629,7 +6629,7 @@
         <v>105.687538</v>
       </c>
       <c r="C293" t="n">
-        <v>122.422813</v>
+        <v>122.422806</v>
       </c>
     </row>
     <row r="294">
@@ -6637,7 +6637,7 @@
         <v>295</v>
       </c>
       <c r="B294" t="n">
-        <v>104.830948</v>
+        <v>104.83094</v>
       </c>
       <c r="C294" t="n">
         <v>121.059883</v>
@@ -6648,10 +6648,10 @@
         <v>296</v>
       </c>
       <c r="B295" t="n">
-        <v>105.442787</v>
+        <v>105.442795</v>
       </c>
       <c r="C295" t="n">
-        <v>119.616783</v>
+        <v>119.616776</v>
       </c>
     </row>
     <row r="296">
@@ -6659,7 +6659,7 @@
         <v>297</v>
       </c>
       <c r="B296" t="n">
-        <v>104.137505</v>
+        <v>104.137512</v>
       </c>
       <c r="C296" t="n">
         <v>117.69265</v>
@@ -6670,10 +6670,10 @@
         <v>298</v>
       </c>
       <c r="B297" t="n">
-        <v>103.036163</v>
+        <v>103.036171</v>
       </c>
       <c r="C297" t="n">
-        <v>116.570229</v>
+        <v>116.570236</v>
       </c>
     </row>
     <row r="298">
@@ -6681,7 +6681,7 @@
         <v>299</v>
       </c>
       <c r="B298" t="n">
-        <v>103.892761</v>
+        <v>103.892769</v>
       </c>
       <c r="C298" t="n">
         <v>115.768517</v>
@@ -6695,7 +6695,7 @@
         <v>104.463829</v>
       </c>
       <c r="C299" t="n">
-        <v>117.933182</v>
+        <v>117.933174</v>
       </c>
     </row>
     <row r="300">
@@ -6703,7 +6703,7 @@
         <v>301</v>
       </c>
       <c r="B300" t="n">
-        <v>105.361214</v>
+        <v>105.361206</v>
       </c>
       <c r="C300" t="n">
         <v>118.013336</v>
@@ -6725,10 +6725,10 @@
         <v>303</v>
       </c>
       <c r="B302" t="n">
-        <v>108.706009</v>
+        <v>108.706017</v>
       </c>
       <c r="C302" t="n">
-        <v>120.258163</v>
+        <v>120.258156</v>
       </c>
     </row>
     <row r="303">
@@ -6739,7 +6739,7 @@
         <v>109.481026</v>
       </c>
       <c r="C303" t="n">
-        <v>122.102135</v>
+        <v>122.102127</v>
       </c>
     </row>
     <row r="304">
@@ -6761,7 +6761,7 @@
         <v>109.437477</v>
       </c>
       <c r="C305" t="n">
-        <v>121.94178</v>
+        <v>121.941772</v>
       </c>
     </row>
     <row r="306">
@@ -6772,7 +6772,7 @@
         <v>108.000374</v>
       </c>
       <c r="C306" t="n">
-        <v>120.899544</v>
+        <v>120.899529</v>
       </c>
     </row>
     <row r="307">
@@ -6783,7 +6783,7 @@
         <v>105.866501</v>
       </c>
       <c r="C307" t="n">
-        <v>120.096039</v>
+        <v>120.096046</v>
       </c>
     </row>
     <row r="308">
@@ -6802,7 +6802,7 @@
         <v>310</v>
       </c>
       <c r="B309" t="n">
-        <v>105.039078</v>
+        <v>105.03907</v>
       </c>
       <c r="C309" t="n">
         <v>114.540001</v>
@@ -6813,7 +6813,7 @@
         <v>311</v>
       </c>
       <c r="B310" t="n">
-        <v>105.474556</v>
+        <v>105.474564</v>
       </c>
       <c r="C310" t="n">
         <v>116.762421</v>
@@ -6824,10 +6824,10 @@
         <v>312</v>
       </c>
       <c r="B311" t="n">
-        <v>101.685844</v>
+        <v>101.685837</v>
       </c>
       <c r="C311" t="n">
-        <v>117.104324</v>
+        <v>117.104317</v>
       </c>
     </row>
     <row r="312">
@@ -6838,7 +6838,7 @@
         <v>101.729393</v>
       </c>
       <c r="C312" t="n">
-        <v>117.959106</v>
+        <v>117.959099</v>
       </c>
     </row>
     <row r="313">
@@ -6849,7 +6849,7 @@
         <v>106.066818</v>
       </c>
       <c r="C313" t="n">
-        <v>121.121765</v>
+        <v>121.12178</v>
       </c>
     </row>
     <row r="314">
@@ -6860,7 +6860,7 @@
         <v>106.737473</v>
       </c>
       <c r="C314" t="n">
-        <v>121.463684</v>
+        <v>121.463692</v>
       </c>
     </row>
     <row r="315">
@@ -6882,7 +6882,7 @@
         <v>109.132637</v>
       </c>
       <c r="C316" t="n">
-        <v>122.745865</v>
+        <v>122.745857</v>
       </c>
     </row>
     <row r="317">
@@ -6904,7 +6904,7 @@
         <v>107.347145</v>
       </c>
       <c r="C318" t="n">
-        <v>122.062027</v>
+        <v>122.062035</v>
       </c>
     </row>
     <row r="319">
@@ -6915,7 +6915,7 @@
         <v>106.389084</v>
       </c>
       <c r="C319" t="n">
-        <v>120.52343</v>
+        <v>120.523438</v>
       </c>
     </row>
     <row r="320">
@@ -6923,7 +6923,7 @@
         <v>321</v>
       </c>
       <c r="B320" t="n">
-        <v>105.953598</v>
+        <v>105.95359</v>
       </c>
       <c r="C320" t="n">
         <v>120.352478</v>
@@ -6934,10 +6934,10 @@
         <v>322</v>
       </c>
       <c r="B321" t="n">
-        <v>108.131027</v>
+        <v>108.13102</v>
       </c>
       <c r="C321" t="n">
-        <v>122.232986</v>
+        <v>122.232979</v>
       </c>
     </row>
     <row r="322">
@@ -6948,7 +6948,7 @@
         <v>110.613289</v>
       </c>
       <c r="C322" t="n">
-        <v>123.515152</v>
+        <v>123.515144</v>
       </c>
     </row>
     <row r="323">
@@ -6981,7 +6981,7 @@
         <v>112.268127</v>
       </c>
       <c r="C325" t="n">
-        <v>124.968254</v>
+        <v>124.968269</v>
       </c>
     </row>
     <row r="326">
@@ -6992,7 +6992,7 @@
         <v>110.87458</v>
       </c>
       <c r="C326" t="n">
-        <v>123.429672</v>
+        <v>123.429657</v>
       </c>
     </row>
     <row r="327">
@@ -7003,7 +7003,7 @@
         <v>110.831032</v>
       </c>
       <c r="C327" t="n">
-        <v>122.062027</v>
+        <v>122.062035</v>
       </c>
     </row>
     <row r="328">
@@ -7014,7 +7014,7 @@
         <v>110.221359</v>
       </c>
       <c r="C328" t="n">
-        <v>119.412231</v>
+        <v>119.412224</v>
       </c>
     </row>
     <row r="329">
@@ -7025,7 +7025,7 @@
         <v>111.919746</v>
       </c>
       <c r="C329" t="n">
-        <v>122.916809</v>
+        <v>122.916817</v>
       </c>
     </row>
     <row r="330">
@@ -7033,7 +7033,7 @@
         <v>331</v>
       </c>
       <c r="B330" t="n">
-        <v>113.705238</v>
+        <v>113.705231</v>
       </c>
       <c r="C330" t="n">
         <v>123.942535</v>
@@ -7044,10 +7044,10 @@
         <v>332</v>
       </c>
       <c r="B331" t="n">
-        <v>102.8181</v>
+        <v>102.818108</v>
       </c>
       <c r="C331" t="n">
-        <v>122.831329</v>
+        <v>122.831322</v>
       </c>
     </row>
     <row r="332">
@@ -7058,7 +7058,7 @@
         <v>103.993912</v>
       </c>
       <c r="C332" t="n">
-        <v>120.779861</v>
+        <v>120.779869</v>
       </c>
     </row>
     <row r="333">
@@ -7066,7 +7066,7 @@
         <v>334</v>
       </c>
       <c r="B333" t="n">
-        <v>102.382622</v>
+        <v>102.382614</v>
       </c>
       <c r="C333" t="n">
         <v>109.325867</v>
@@ -7088,10 +7088,10 @@
         <v>336</v>
       </c>
       <c r="B335" t="n">
-        <v>100.510033</v>
+        <v>100.510025</v>
       </c>
       <c r="C335" t="n">
-        <v>107.78727</v>
+        <v>107.787262</v>
       </c>
     </row>
     <row r="336">
@@ -7135,7 +7135,7 @@
         <v>97.635818</v>
       </c>
       <c r="C339" t="n">
-        <v>108.214661</v>
+        <v>108.214653</v>
       </c>
     </row>
     <row r="340">
@@ -7143,7 +7143,7 @@
         <v>341</v>
       </c>
       <c r="B340" t="n">
-        <v>96.068077</v>
+        <v>96.068085</v>
       </c>
       <c r="C340" t="n">
         <v>106.590576</v>
@@ -7154,10 +7154,10 @@
         <v>342</v>
       </c>
       <c r="B341" t="n">
-        <v>93.890656</v>
+        <v>93.890648</v>
       </c>
       <c r="C341" t="n">
-        <v>106.847008</v>
+        <v>106.847015</v>
       </c>
     </row>
     <row r="342">
@@ -7187,7 +7187,7 @@
         <v>345</v>
       </c>
       <c r="B344" t="n">
-        <v>96.416458</v>
+        <v>96.416466</v>
       </c>
       <c r="C344" t="n">
         <v>106.676064</v>
@@ -7201,7 +7201,7 @@
         <v>96.198715</v>
       </c>
       <c r="C345" t="n">
-        <v>105.992241</v>
+        <v>105.992233</v>
       </c>
     </row>
     <row r="346">
@@ -7209,7 +7209,7 @@
         <v>347</v>
       </c>
       <c r="B346" t="n">
-        <v>96.764847</v>
+        <v>96.764854</v>
       </c>
       <c r="C346" t="n">
         <v>105.906761</v>
@@ -7223,7 +7223,7 @@
         <v>96.28582</v>
       </c>
       <c r="C347" t="n">
-        <v>106.334152</v>
+        <v>106.334145</v>
       </c>
     </row>
     <row r="348">
@@ -7245,7 +7245,7 @@
         <v>98.158401</v>
       </c>
       <c r="C349" t="n">
-        <v>106.077721</v>
+        <v>106.077713</v>
       </c>
     </row>
     <row r="350">
@@ -7253,7 +7253,7 @@
         <v>351</v>
       </c>
       <c r="B350" t="n">
-        <v>97.984207</v>
+        <v>97.984215</v>
       </c>
       <c r="C350" t="n">
         <v>107.359879</v>
@@ -7275,7 +7275,7 @@
         <v>353</v>
       </c>
       <c r="B352" t="n">
-        <v>95.458397</v>
+        <v>95.458389</v>
       </c>
       <c r="C352" t="n">
         <v>107.359879</v>
@@ -7289,7 +7289,7 @@
         <v>97.592278</v>
       </c>
       <c r="C353" t="n">
-        <v>106.847008</v>
+        <v>106.847015</v>
       </c>
     </row>
     <row r="354">
@@ -7297,10 +7297,10 @@
         <v>355</v>
       </c>
       <c r="B354" t="n">
-        <v>94.674515</v>
+        <v>94.674522</v>
       </c>
       <c r="C354" t="n">
-        <v>107.616318</v>
+        <v>107.61631</v>
       </c>
     </row>
     <row r="355">
@@ -7308,7 +7308,7 @@
         <v>356</v>
       </c>
       <c r="B355" t="n">
-        <v>95.589035</v>
+        <v>95.589043</v>
       </c>
       <c r="C355" t="n">
         <v>108.813004</v>
@@ -7319,7 +7319,7 @@
         <v>357</v>
       </c>
       <c r="B356" t="n">
-        <v>96.851952</v>
+        <v>96.851944</v>
       </c>
       <c r="C356" t="n">
         <v>110.266121</v>
@@ -7333,7 +7333,7 @@
         <v>96.939049</v>
       </c>
       <c r="C357" t="n">
-        <v>111.120895</v>
+        <v>111.120888</v>
       </c>
     </row>
     <row r="358">
@@ -7344,7 +7344,7 @@
         <v>97.374535</v>
       </c>
       <c r="C358" t="n">
-        <v>111.975677</v>
+        <v>111.97567</v>
       </c>
     </row>
     <row r="359">
@@ -7352,10 +7352,10 @@
         <v>360</v>
       </c>
       <c r="B359" t="n">
-        <v>95.458397</v>
+        <v>95.458389</v>
       </c>
       <c r="C359" t="n">
-        <v>111.377335</v>
+        <v>111.377327</v>
       </c>
     </row>
     <row r="360">
@@ -7377,7 +7377,7 @@
         <v>90.929352</v>
       </c>
       <c r="C361" t="n">
-        <v>110.864456</v>
+        <v>110.864464</v>
       </c>
     </row>
     <row r="362">
@@ -7385,10 +7385,10 @@
         <v>363</v>
       </c>
       <c r="B362" t="n">
-        <v>91.800323</v>
+        <v>91.800316</v>
       </c>
       <c r="C362" t="n">
-        <v>113.172356</v>
+        <v>113.172348</v>
       </c>
     </row>
     <row r="363">
@@ -7399,7 +7399,7 @@
         <v>90.189026</v>
       </c>
       <c r="C363" t="n">
-        <v>109.667778</v>
+        <v>109.66777</v>
       </c>
     </row>
     <row r="364">
@@ -7410,7 +7410,7 @@
         <v>90.493866</v>
       </c>
       <c r="C364" t="n">
-        <v>108.727516</v>
+        <v>108.727524</v>
       </c>
     </row>
     <row r="365">
@@ -7418,7 +7418,7 @@
         <v>366</v>
       </c>
       <c r="B365" t="n">
-        <v>87.706757</v>
+        <v>87.706749</v>
       </c>
       <c r="C365" t="n">
         <v>107.274406</v>
@@ -7443,7 +7443,7 @@
         <v>87.750305</v>
       </c>
       <c r="C367" t="n">
-        <v>105.222939</v>
+        <v>105.222946</v>
       </c>
     </row>
     <row r="368">
@@ -7451,7 +7451,7 @@
         <v>369</v>
       </c>
       <c r="B368" t="n">
-        <v>89.535805</v>
+        <v>89.535797</v>
       </c>
       <c r="C368" t="n">
         <v>106.676064</v>
@@ -7462,7 +7462,7 @@
         <v>370</v>
       </c>
       <c r="B369" t="n">
-        <v>90.363213</v>
+        <v>90.36322</v>
       </c>
       <c r="C369" t="n">
         <v>106.932487</v>
@@ -7473,7 +7473,7 @@
         <v>371</v>
       </c>
       <c r="B370" t="n">
-        <v>91.234184</v>
+        <v>91.234192</v>
       </c>
       <c r="C370" t="n">
         <v>108.813004</v>
@@ -7506,7 +7506,7 @@
         <v>374</v>
       </c>
       <c r="B373" t="n">
-        <v>91.234184</v>
+        <v>91.234192</v>
       </c>
       <c r="C373" t="n">
         <v>110.180641</v>
@@ -7528,10 +7528,10 @@
         <v>376</v>
       </c>
       <c r="B375" t="n">
-        <v>90.755157</v>
+        <v>90.75515</v>
       </c>
       <c r="C375" t="n">
-        <v>109.411339</v>
+        <v>109.411346</v>
       </c>
     </row>
     <row r="376">
@@ -7561,7 +7561,7 @@
         <v>379</v>
       </c>
       <c r="B378" t="n">
-        <v>89.492241</v>
+        <v>89.492249</v>
       </c>
       <c r="C378" t="n">
         <v>105.393898</v>
@@ -7575,7 +7575,7 @@
         <v>90.232574</v>
       </c>
       <c r="C379" t="n">
-        <v>106.505096</v>
+        <v>106.505104</v>
       </c>
     </row>
     <row r="380">
@@ -7583,7 +7583,7 @@
         <v>381</v>
       </c>
       <c r="B380" t="n">
-        <v>90.668053</v>
+        <v>90.66806</v>
       </c>
       <c r="C380" t="n">
         <v>104.624596</v>
@@ -7597,7 +7597,7 @@
         <v>91.495483</v>
       </c>
       <c r="C381" t="n">
-        <v>105.222939</v>
+        <v>105.222946</v>
       </c>
     </row>
     <row r="382">
@@ -7616,10 +7616,10 @@
         <v>384</v>
       </c>
       <c r="B383" t="n">
-        <v>89.361603</v>
+        <v>89.361595</v>
       </c>
       <c r="C383" t="n">
-        <v>102.145752</v>
+        <v>102.145744</v>
       </c>
     </row>
     <row r="384">
@@ -7630,7 +7630,7 @@
         <v>89.274506</v>
       </c>
       <c r="C384" t="n">
-        <v>101.20549</v>
+        <v>101.205498</v>
       </c>
     </row>
     <row r="385">
@@ -7641,7 +7641,7 @@
         <v>88.53418</v>
       </c>
       <c r="C385" t="n">
-        <v>101.632881</v>
+        <v>101.632889</v>
       </c>
     </row>
     <row r="386">
@@ -7660,7 +7660,7 @@
         <v>388</v>
       </c>
       <c r="B387" t="n">
-        <v>89.709991</v>
+        <v>89.709984</v>
       </c>
       <c r="C387" t="n">
         <v>103.684349</v>
@@ -7671,10 +7671,10 @@
         <v>389</v>
       </c>
       <c r="B388" t="n">
-        <v>90.668053</v>
+        <v>90.66806</v>
       </c>
       <c r="C388" t="n">
-        <v>104.19722</v>
+        <v>104.197212</v>
       </c>
     </row>
     <row r="389">
@@ -7693,7 +7693,7 @@
         <v>391</v>
       </c>
       <c r="B390" t="n">
-        <v>89.143852</v>
+        <v>89.14386</v>
       </c>
       <c r="C390" t="n">
         <v>103.684349</v>
@@ -7704,10 +7704,10 @@
         <v>392</v>
       </c>
       <c r="B391" t="n">
-        <v>87.044815</v>
+        <v>87.044823</v>
       </c>
       <c r="C391" t="n">
-        <v>101.632881</v>
+        <v>101.632889</v>
       </c>
     </row>
     <row r="392">
@@ -7737,10 +7737,10 @@
         <v>395</v>
       </c>
       <c r="B394" t="n">
-        <v>85.564171</v>
+        <v>85.564163</v>
       </c>
       <c r="C394" t="n">
-        <v>99.15403</v>
+        <v>99.154037</v>
       </c>
     </row>
     <row r="395">
@@ -7748,10 +7748,10 @@
         <v>396</v>
       </c>
       <c r="B395" t="n">
-        <v>84.066101</v>
+        <v>84.066093</v>
       </c>
       <c r="C395" t="n">
-        <v>98.042824</v>
+        <v>98.042816</v>
       </c>
     </row>
     <row r="396">
@@ -7759,10 +7759,10 @@
         <v>397</v>
       </c>
       <c r="B396" t="n">
-        <v>83.839653</v>
+        <v>83.839645</v>
       </c>
       <c r="C396" t="n">
-        <v>99.923332</v>
+        <v>99.923325</v>
       </c>
     </row>
     <row r="397">
@@ -7773,7 +7773,7 @@
         <v>83.508675</v>
       </c>
       <c r="C397" t="n">
-        <v>98.726639</v>
+        <v>98.726646</v>
       </c>
     </row>
     <row r="398">
@@ -7781,7 +7781,7 @@
         <v>399</v>
       </c>
       <c r="B398" t="n">
-        <v>83.857063</v>
+        <v>83.857071</v>
       </c>
       <c r="C398" t="n">
         <v>98.641167</v>
@@ -7792,7 +7792,7 @@
         <v>400</v>
       </c>
       <c r="B399" t="n">
-        <v>82.672546</v>
+        <v>82.672539</v>
       </c>
       <c r="C399" t="n">
         <v>98.128304</v>
@@ -7806,7 +7806,7 @@
         <v>81.244148</v>
       </c>
       <c r="C400" t="n">
-        <v>95.991364</v>
+        <v>95.991356</v>
       </c>
     </row>
     <row r="401">
@@ -7825,10 +7825,10 @@
         <v>403</v>
       </c>
       <c r="B402" t="n">
-        <v>77.516396</v>
+        <v>77.516403</v>
       </c>
       <c r="C402" t="n">
-        <v>92.230339</v>
+        <v>92.230347</v>
       </c>
     </row>
     <row r="403">
@@ -7839,7 +7839,7 @@
         <v>76.749947</v>
       </c>
       <c r="C403" t="n">
-        <v>91.461044</v>
+        <v>91.461037</v>
       </c>
     </row>
     <row r="404">
@@ -7847,7 +7847,7 @@
         <v>405</v>
       </c>
       <c r="B404" t="n">
-        <v>79.362862</v>
+        <v>79.362854</v>
       </c>
       <c r="C404" t="n">
         <v>94.709198</v>
@@ -7861,7 +7861,7 @@
         <v>79.955116</v>
       </c>
       <c r="C405" t="n">
-        <v>95.307541</v>
+        <v>95.307533</v>
       </c>
     </row>
     <row r="406">
@@ -7869,7 +7869,7 @@
         <v>407</v>
       </c>
       <c r="B406" t="n">
-        <v>77.882202</v>
+        <v>77.88221</v>
       </c>
       <c r="C406" t="n">
         <v>93.597984</v>
@@ -7880,10 +7880,10 @@
         <v>408</v>
       </c>
       <c r="B407" t="n">
-        <v>77.516396</v>
+        <v>77.516403</v>
       </c>
       <c r="C407" t="n">
-        <v>92.65773</v>
+        <v>92.657738</v>
       </c>
     </row>
     <row r="408">
@@ -7891,10 +7891,10 @@
         <v>409</v>
       </c>
       <c r="B408" t="n">
-        <v>78.561554</v>
+        <v>78.561562</v>
       </c>
       <c r="C408" t="n">
-        <v>94.880142</v>
+        <v>94.88015</v>
       </c>
     </row>
     <row r="409">
@@ -7902,10 +7902,10 @@
         <v>410</v>
       </c>
       <c r="B409" t="n">
-        <v>77.67318</v>
+        <v>77.673172</v>
       </c>
       <c r="C409" t="n">
-        <v>94.880142</v>
+        <v>94.88015</v>
       </c>
     </row>
     <row r="410">
@@ -7913,7 +7913,7 @@
         <v>411</v>
       </c>
       <c r="B410" t="n">
-        <v>76.418968</v>
+        <v>76.418976</v>
       </c>
       <c r="C410" t="n">
         <v>93.256073</v>
@@ -7946,7 +7946,7 @@
         <v>414</v>
       </c>
       <c r="B413" t="n">
-        <v>76.59317</v>
+        <v>76.593178</v>
       </c>
       <c r="C413" t="n">
         <v>80.348953</v>
@@ -7982,7 +7982,7 @@
         <v>75.251877</v>
       </c>
       <c r="C416" t="n">
-        <v>80.562653</v>
+        <v>80.562645</v>
       </c>
     </row>
     <row r="417">
@@ -8004,7 +8004,7 @@
         <v>78.875107</v>
       </c>
       <c r="C418" t="n">
-        <v>82.998756</v>
+        <v>82.998764</v>
       </c>
     </row>
     <row r="419">
@@ -8026,7 +8026,7 @@
         <v>86.644173</v>
       </c>
       <c r="C420" t="n">
-        <v>86.930733</v>
+        <v>86.930725</v>
       </c>
     </row>
     <row r="421">
@@ -8034,7 +8034,7 @@
         <v>422</v>
       </c>
       <c r="B421" t="n">
-        <v>88.055145</v>
+        <v>88.055138</v>
       </c>
       <c r="C421" t="n">
         <v>88.554802</v>
@@ -8048,7 +8048,7 @@
         <v>87.968048</v>
       </c>
       <c r="C422" t="n">
-        <v>88.041939</v>
+        <v>88.041946</v>
       </c>
     </row>
     <row r="423">
@@ -8056,10 +8056,10 @@
         <v>424</v>
       </c>
       <c r="B423" t="n">
-        <v>88.011604</v>
+        <v>88.011597</v>
       </c>
       <c r="C423" t="n">
-        <v>87.870995</v>
+        <v>87.870979</v>
       </c>
     </row>
     <row r="424">
@@ -8081,7 +8081,7 @@
         <v>88.22934</v>
       </c>
       <c r="C425" t="n">
-        <v>88.640274</v>
+        <v>88.640282</v>
       </c>
     </row>
     <row r="426">
@@ -8092,7 +8092,7 @@
         <v>85.02417</v>
       </c>
       <c r="C426" t="n">
-        <v>87.187157</v>
+        <v>87.187164</v>
       </c>
     </row>
     <row r="427">
@@ -8100,10 +8100,10 @@
         <v>428</v>
       </c>
       <c r="B427" t="n">
-        <v>83.247391</v>
+        <v>83.247383</v>
       </c>
       <c r="C427" t="n">
-        <v>87.529083</v>
+        <v>87.529076</v>
       </c>
     </row>
     <row r="428">
@@ -8111,10 +8111,10 @@
         <v>429</v>
       </c>
       <c r="B428" t="n">
-        <v>84.41449</v>
+        <v>84.414482</v>
       </c>
       <c r="C428" t="n">
-        <v>89.495056</v>
+        <v>89.495064</v>
       </c>
     </row>
     <row r="429">
@@ -8122,7 +8122,7 @@
         <v>430</v>
       </c>
       <c r="B429" t="n">
-        <v>85.355141</v>
+        <v>85.355133</v>
       </c>
       <c r="C429" t="n">
         <v>99.495941</v>
@@ -8133,7 +8133,7 @@
         <v>431</v>
       </c>
       <c r="B430" t="n">
-        <v>83.613197</v>
+        <v>83.61319</v>
       </c>
       <c r="C430" t="n">
         <v>101.461922</v>
@@ -8169,7 +8169,7 @@
         <v>82.289322</v>
       </c>
       <c r="C433" t="n">
-        <v>108.385612</v>
+        <v>108.38562</v>
       </c>
     </row>
     <row r="434">
@@ -8177,7 +8177,7 @@
         <v>435</v>
       </c>
       <c r="B434" t="n">
-        <v>83.386734</v>
+        <v>83.386742</v>
       </c>
       <c r="C434" t="n">
         <v>104.881027</v>
@@ -8191,7 +8191,7 @@
         <v>83.073189</v>
       </c>
       <c r="C435" t="n">
-        <v>103.25695</v>
+        <v>103.256958</v>
       </c>
     </row>
     <row r="436">
@@ -8199,7 +8199,7 @@
         <v>437</v>
       </c>
       <c r="B436" t="n">
-        <v>82.742218</v>
+        <v>82.742226</v>
       </c>
       <c r="C436" t="n">
         <v>102.402184</v>
@@ -8213,7 +8213,7 @@
         <v>82.02803</v>
       </c>
       <c r="C437" t="n">
-        <v>99.923332</v>
+        <v>99.923325</v>
       </c>
     </row>
     <row r="438">
@@ -8224,7 +8224,7 @@
         <v>80.216408</v>
       </c>
       <c r="C438" t="n">
-        <v>99.23951</v>
+        <v>99.239502</v>
       </c>
     </row>
     <row r="439">
@@ -8235,7 +8235,7 @@
         <v>79.989952</v>
       </c>
       <c r="C439" t="n">
-        <v>99.15403</v>
+        <v>99.154037</v>
       </c>
     </row>
     <row r="440">
@@ -8257,7 +8257,7 @@
         <v>80.059631</v>
       </c>
       <c r="C441" t="n">
-        <v>102.658607</v>
+        <v>102.658615</v>
       </c>
     </row>
     <row r="442">
@@ -8268,7 +8268,7 @@
         <v>79.972534</v>
       </c>
       <c r="C442" t="n">
-        <v>102.316696</v>
+        <v>102.316704</v>
       </c>
     </row>
     <row r="443">
@@ -8276,7 +8276,7 @@
         <v>444</v>
       </c>
       <c r="B443" t="n">
-        <v>80.164154</v>
+        <v>80.164146</v>
       </c>
       <c r="C443" t="n">
         <v>100.521667</v>
@@ -8287,10 +8287,10 @@
         <v>445</v>
       </c>
       <c r="B444" t="n">
-        <v>82.881584</v>
+        <v>82.881577</v>
       </c>
       <c r="C444" t="n">
-        <v>102.145752</v>
+        <v>102.145744</v>
       </c>
     </row>
     <row r="445">
@@ -8298,7 +8298,7 @@
         <v>446</v>
       </c>
       <c r="B445" t="n">
-        <v>83.595779</v>
+        <v>83.595772</v>
       </c>
       <c r="C445" t="n">
         <v>104.795555</v>
@@ -8323,7 +8323,7 @@
         <v>84.693199</v>
       </c>
       <c r="C447" t="n">
-        <v>109.924217</v>
+        <v>109.92421</v>
       </c>
     </row>
     <row r="448">
@@ -8342,7 +8342,7 @@
         <v>450</v>
       </c>
       <c r="B449" t="n">
-        <v>83.822227</v>
+        <v>83.82222</v>
       </c>
       <c r="C449" t="n">
         <v>110.266121</v>
@@ -8353,10 +8353,10 @@
         <v>451</v>
       </c>
       <c r="B450" t="n">
-        <v>85.877724</v>
+        <v>85.877716</v>
       </c>
       <c r="C450" t="n">
-        <v>112.659492</v>
+        <v>112.6595</v>
       </c>
     </row>
     <row r="451">
@@ -8364,7 +8364,7 @@
         <v>452</v>
       </c>
       <c r="B451" t="n">
-        <v>85.877724</v>
+        <v>85.877716</v>
       </c>
       <c r="C451" t="n">
         <v>113.257835</v>
@@ -8378,7 +8378,7 @@
         <v>85.529327</v>
       </c>
       <c r="C452" t="n">
-        <v>115.394783</v>
+        <v>115.394775</v>
       </c>
     </row>
     <row r="453">
@@ -8389,7 +8389,7 @@
         <v>85.668686</v>
       </c>
       <c r="C453" t="n">
-        <v>114.881905</v>
+        <v>114.881912</v>
       </c>
     </row>
     <row r="454">
@@ -8397,10 +8397,10 @@
         <v>455</v>
       </c>
       <c r="B454" t="n">
-        <v>85.877724</v>
+        <v>85.877716</v>
       </c>
       <c r="C454" t="n">
-        <v>116.07859</v>
+        <v>116.078598</v>
       </c>
     </row>
     <row r="455">
@@ -8422,7 +8422,7 @@
         <v>84.867393</v>
       </c>
       <c r="C456" t="n">
-        <v>115.736671</v>
+        <v>115.736687</v>
       </c>
     </row>
     <row r="457">
@@ -8433,7 +8433,7 @@
         <v>82.829323</v>
       </c>
       <c r="C457" t="n">
-        <v>113.856178</v>
+        <v>113.856171</v>
       </c>
     </row>
     <row r="458">
@@ -8441,7 +8441,7 @@
         <v>459</v>
       </c>
       <c r="B458" t="n">
-        <v>83.247391</v>
+        <v>83.247383</v>
       </c>
       <c r="C458" t="n">
         <v>112.317574</v>
@@ -8485,7 +8485,7 @@
         <v>463</v>
       </c>
       <c r="B462" t="n">
-        <v>81.766731</v>
+        <v>81.766739</v>
       </c>
       <c r="C462" t="n">
         <v>115.651207</v>
@@ -8496,7 +8496,7 @@
         <v>464</v>
       </c>
       <c r="B463" t="n">
-        <v>83.630608</v>
+        <v>83.630615</v>
       </c>
       <c r="C463" t="n">
         <v>116.33503</v>
@@ -8510,7 +8510,7 @@
         <v>83.369324</v>
       </c>
       <c r="C464" t="n">
-        <v>115.993111</v>
+        <v>115.993118</v>
       </c>
     </row>
     <row r="465">
@@ -8529,10 +8529,10 @@
         <v>467</v>
       </c>
       <c r="B466" t="n">
-        <v>82.30674</v>
+        <v>82.306732</v>
       </c>
       <c r="C466" t="n">
-        <v>116.933372</v>
+        <v>116.93338</v>
       </c>
     </row>
     <row r="467">
@@ -8540,7 +8540,7 @@
         <v>468</v>
       </c>
       <c r="B467" t="n">
-        <v>80.442863</v>
+        <v>80.442856</v>
       </c>
       <c r="C467" t="n">
         <v>113.514275</v>
@@ -8554,7 +8554,7 @@
         <v>80.634476</v>
       </c>
       <c r="C468" t="n">
-        <v>111.377335</v>
+        <v>111.377327</v>
       </c>
     </row>
     <row r="469">
@@ -8573,10 +8573,10 @@
         <v>471</v>
       </c>
       <c r="B470" t="n">
-        <v>79.240929</v>
+        <v>79.240921</v>
       </c>
       <c r="C470" t="n">
-        <v>110.949936</v>
+        <v>110.949944</v>
       </c>
     </row>
     <row r="471">
@@ -8584,10 +8584,10 @@
         <v>472</v>
       </c>
       <c r="B471" t="n">
-        <v>79.362862</v>
+        <v>79.362854</v>
       </c>
       <c r="C471" t="n">
-        <v>110.864456</v>
+        <v>110.864464</v>
       </c>
     </row>
     <row r="472">
@@ -8609,7 +8609,7 @@
         <v>78.735756</v>
       </c>
       <c r="C473" t="n">
-        <v>108.727516</v>
+        <v>108.727524</v>
       </c>
     </row>
     <row r="474">
@@ -8642,7 +8642,7 @@
         <v>79.275757</v>
       </c>
       <c r="C476" t="n">
-        <v>108.727516</v>
+        <v>108.727524</v>
       </c>
     </row>
     <row r="477">
@@ -8664,7 +8664,7 @@
         <v>80.129311</v>
       </c>
       <c r="C478" t="n">
-        <v>109.582298</v>
+        <v>109.582291</v>
       </c>
     </row>
     <row r="479">
@@ -8672,10 +8672,10 @@
         <v>480</v>
       </c>
       <c r="B479" t="n">
-        <v>79.746078</v>
+        <v>79.746086</v>
       </c>
       <c r="C479" t="n">
-        <v>109.154907</v>
+        <v>109.154915</v>
       </c>
     </row>
     <row r="480">
@@ -8697,7 +8697,7 @@
         <v>79.223503</v>
       </c>
       <c r="C481" t="n">
-        <v>105.479378</v>
+        <v>105.47937</v>
       </c>
     </row>
     <row r="482">
@@ -8705,7 +8705,7 @@
         <v>483</v>
       </c>
       <c r="B482" t="n">
-        <v>79.780914</v>
+        <v>79.780922</v>
       </c>
       <c r="C482" t="n">
         <v>108.983955</v>
@@ -8716,10 +8716,10 @@
         <v>484</v>
       </c>
       <c r="B483" t="n">
-        <v>82.463509</v>
+        <v>82.463516</v>
       </c>
       <c r="C483" t="n">
-        <v>110.949936</v>
+        <v>110.949944</v>
       </c>
     </row>
     <row r="484">
@@ -8741,7 +8741,7 @@
         <v>84.01384</v>
       </c>
       <c r="C485" t="n">
-        <v>113.172356</v>
+        <v>113.172348</v>
       </c>
     </row>
     <row r="486">
@@ -8763,7 +8763,7 @@
         <v>84.849968</v>
       </c>
       <c r="C487" t="n">
-        <v>113.856178</v>
+        <v>113.856171</v>
       </c>
     </row>
     <row r="488">
@@ -8774,7 +8774,7 @@
         <v>87.271271</v>
       </c>
       <c r="C488" t="n">
-        <v>113.941658</v>
+        <v>113.94165</v>
       </c>
     </row>
     <row r="489">
@@ -8796,7 +8796,7 @@
         <v>92.671295</v>
       </c>
       <c r="C490" t="n">
-        <v>112.488533</v>
+        <v>112.488548</v>
       </c>
     </row>
     <row r="491">
@@ -8804,10 +8804,10 @@
         <v>492</v>
       </c>
       <c r="B491" t="n">
-        <v>94.108398</v>
+        <v>94.108391</v>
       </c>
       <c r="C491" t="n">
-        <v>117.104324</v>
+        <v>117.104317</v>
       </c>
     </row>
     <row r="492">
@@ -8815,7 +8815,7 @@
         <v>493</v>
       </c>
       <c r="B492" t="n">
-        <v>93.193878</v>
+        <v>93.193871</v>
       </c>
       <c r="C492" t="n">
         <v>118.215546</v>
@@ -8829,7 +8829,7 @@
         <v>92.105156</v>
       </c>
       <c r="C493" t="n">
-        <v>116.933372</v>
+        <v>116.93338</v>
       </c>
     </row>
     <row r="494">
@@ -8848,10 +8848,10 @@
         <v>496</v>
       </c>
       <c r="B495" t="n">
-        <v>93.193878</v>
+        <v>93.193871</v>
       </c>
       <c r="C495" t="n">
-        <v>118.899368</v>
+        <v>118.899353</v>
       </c>
     </row>
     <row r="496">
@@ -8862,7 +8862,7 @@
         <v>93.411613</v>
       </c>
       <c r="C496" t="n">
-        <v>119.07032</v>
+        <v>119.070328</v>
       </c>
     </row>
     <row r="497">
@@ -8870,10 +8870,10 @@
         <v>498</v>
       </c>
       <c r="B497" t="n">
-        <v>93.890656</v>
+        <v>93.890648</v>
       </c>
       <c r="C497" t="n">
-        <v>119.497711</v>
+        <v>119.497704</v>
       </c>
     </row>
     <row r="498">
@@ -8881,7 +8881,7 @@
         <v>499</v>
       </c>
       <c r="B498" t="n">
-        <v>96.111618</v>
+        <v>96.111626</v>
       </c>
       <c r="C498" t="n">
         <v>121.976547</v>
@@ -8892,10 +8892,10 @@
         <v>500</v>
       </c>
       <c r="B499" t="n">
-        <v>93.977745</v>
+        <v>93.977753</v>
       </c>
       <c r="C499" t="n">
-        <v>121.463684</v>
+        <v>121.463692</v>
       </c>
     </row>
     <row r="500">
@@ -8906,7 +8906,7 @@
         <v>92.932579</v>
       </c>
       <c r="C500" t="n">
-        <v>120.608917</v>
+        <v>120.60891</v>
       </c>
     </row>
     <row r="501">
@@ -8917,7 +8917,7 @@
         <v>93.847099</v>
       </c>
       <c r="C501" t="n">
-        <v>120.694382</v>
+        <v>120.694389</v>
       </c>
     </row>
     <row r="502">
@@ -8928,7 +8928,7 @@
         <v>94.282585</v>
       </c>
       <c r="C502" t="n">
-        <v>120.52343</v>
+        <v>120.523438</v>
       </c>
     </row>
     <row r="503">
@@ -8936,10 +8936,10 @@
         <v>504</v>
       </c>
       <c r="B503" t="n">
-        <v>96.068077</v>
+        <v>96.068085</v>
       </c>
       <c r="C503" t="n">
-        <v>124.369919</v>
+        <v>124.369926</v>
       </c>
     </row>
     <row r="504">
@@ -8947,7 +8947,7 @@
         <v>505</v>
       </c>
       <c r="B504" t="n">
-        <v>94.979362</v>
+        <v>94.97937</v>
       </c>
       <c r="C504" t="n">
         <v>121.976547</v>
@@ -8969,10 +8969,10 @@
         <v>507</v>
       </c>
       <c r="B506" t="n">
-        <v>94.064842</v>
+        <v>94.06485</v>
       </c>
       <c r="C506" t="n">
-        <v>123.686096</v>
+        <v>123.686104</v>
       </c>
     </row>
     <row r="507">
@@ -8991,10 +8991,10 @@
         <v>509</v>
       </c>
       <c r="B508" t="n">
-        <v>94.674515</v>
+        <v>94.674522</v>
       </c>
       <c r="C508" t="n">
-        <v>123.600624</v>
+        <v>123.600639</v>
       </c>
     </row>
     <row r="509">
@@ -9005,7 +9005,7 @@
         <v>95.806786</v>
       </c>
       <c r="C509" t="n">
-        <v>123.3442</v>
+        <v>123.344208</v>
       </c>
     </row>
     <row r="510">
@@ -9013,7 +9013,7 @@
         <v>511</v>
       </c>
       <c r="B510" t="n">
-        <v>95.632599</v>
+        <v>95.632591</v>
       </c>
       <c r="C510" t="n">
         <v>127.361641</v>
@@ -9027,7 +9027,7 @@
         <v>95.806786</v>
       </c>
       <c r="C511" t="n">
-        <v>125.993996</v>
+        <v>125.993988</v>
       </c>
     </row>
     <row r="512">
@@ -9038,7 +9038,7 @@
         <v>96.721306</v>
       </c>
       <c r="C512" t="n">
-        <v>127.703537</v>
+        <v>127.703552</v>
       </c>
     </row>
     <row r="513">
@@ -9049,7 +9049,7 @@
         <v>94.848717</v>
       </c>
       <c r="C513" t="n">
-        <v>126.934258</v>
+        <v>126.93425</v>
       </c>
     </row>
     <row r="514">
@@ -9057,10 +9057,10 @@
         <v>515</v>
       </c>
       <c r="B514" t="n">
-        <v>95.458397</v>
+        <v>95.458389</v>
       </c>
       <c r="C514" t="n">
-        <v>125.993996</v>
+        <v>125.993988</v>
       </c>
     </row>
     <row r="515">
@@ -9071,7 +9071,7 @@
         <v>92.453545</v>
       </c>
       <c r="C515" t="n">
-        <v>123.087769</v>
+        <v>123.087761</v>
       </c>
     </row>
     <row r="516">
@@ -9082,7 +9082,7 @@
         <v>94.500328</v>
       </c>
       <c r="C516" t="n">
-        <v>125.224693</v>
+        <v>125.224701</v>
       </c>
     </row>
     <row r="517">
@@ -9090,10 +9090,10 @@
         <v>518</v>
       </c>
       <c r="B517" t="n">
-        <v>95.893875</v>
+        <v>95.893883</v>
       </c>
       <c r="C517" t="n">
-        <v>125.993996</v>
+        <v>125.993988</v>
       </c>
     </row>
     <row r="518">
@@ -9101,10 +9101,10 @@
         <v>519</v>
       </c>
       <c r="B518" t="n">
-        <v>94.674515</v>
+        <v>94.674522</v>
       </c>
       <c r="C518" t="n">
-        <v>124.198967</v>
+        <v>124.198982</v>
       </c>
     </row>
     <row r="519">
@@ -9115,7 +9115,7 @@
         <v>98.332603</v>
       </c>
       <c r="C519" t="n">
-        <v>125.481133</v>
+        <v>125.481125</v>
       </c>
     </row>
     <row r="520">
@@ -9123,7 +9123,7 @@
         <v>521</v>
       </c>
       <c r="B520" t="n">
-        <v>97.20034</v>
+        <v>97.200333</v>
       </c>
       <c r="C520" t="n">
         <v>125.652092</v>
@@ -9134,10 +9134,10 @@
         <v>522</v>
       </c>
       <c r="B521" t="n">
-        <v>99.943901</v>
+        <v>99.943893</v>
       </c>
       <c r="C521" t="n">
-        <v>127.276169</v>
+        <v>127.276161</v>
       </c>
     </row>
     <row r="522">
@@ -9145,7 +9145,7 @@
         <v>523</v>
       </c>
       <c r="B522" t="n">
-        <v>100.422928</v>
+        <v>100.422935</v>
       </c>
       <c r="C522" t="n">
         <v>128.472855</v>
@@ -9156,7 +9156,7 @@
         <v>524</v>
       </c>
       <c r="B523" t="n">
-        <v>102.164871</v>
+        <v>102.164879</v>
       </c>
       <c r="C523" t="n">
         <v>131.293625</v>
@@ -9167,7 +9167,7 @@
         <v>525</v>
       </c>
       <c r="B524" t="n">
-        <v>102.513252</v>
+        <v>102.51326</v>
       </c>
       <c r="C524" t="n">
         <v>130.438843</v>
@@ -9189,7 +9189,7 @@
         <v>527</v>
       </c>
       <c r="B526" t="n">
-        <v>105.822945</v>
+        <v>105.822952</v>
       </c>
       <c r="C526" t="n">
         <v>133.516022</v>
@@ -9200,10 +9200,10 @@
         <v>528</v>
       </c>
       <c r="B527" t="n">
-        <v>107.608444</v>
+        <v>107.608437</v>
       </c>
       <c r="C527" t="n">
-        <v>134.285339</v>
+        <v>134.285324</v>
       </c>
     </row>
     <row r="528">
@@ -9211,10 +9211,10 @@
         <v>529</v>
       </c>
       <c r="B528" t="n">
-        <v>106.519722</v>
+        <v>106.51973</v>
       </c>
       <c r="C528" t="n">
-        <v>134.199844</v>
+        <v>134.19986</v>
       </c>
     </row>
     <row r="529">
@@ -9225,7 +9225,7 @@
         <v>105.866501</v>
       </c>
       <c r="C529" t="n">
-        <v>134.883667</v>
+        <v>134.883682</v>
       </c>
     </row>
     <row r="530">
@@ -9236,7 +9236,7 @@
         <v>104.951973</v>
       </c>
       <c r="C530" t="n">
-        <v>135.909393</v>
+        <v>135.909409</v>
       </c>
     </row>
     <row r="531">
@@ -9266,7 +9266,7 @@
         <v>534</v>
       </c>
       <c r="B533" t="n">
-        <v>106.476173</v>
+        <v>106.476181</v>
       </c>
       <c r="C533" t="n">
         <v>138.473724</v>
@@ -9280,7 +9280,7 @@
         <v>104.995529</v>
       </c>
       <c r="C534" t="n">
-        <v>137.020599</v>
+        <v>137.020615</v>
       </c>
     </row>
     <row r="535">
@@ -9291,7 +9291,7 @@
         <v>100.161644</v>
       </c>
       <c r="C535" t="n">
-        <v>134.199844</v>
+        <v>134.19986</v>
       </c>
     </row>
     <row r="536">
@@ -9302,7 +9302,7 @@
         <v>99.116478</v>
       </c>
       <c r="C536" t="n">
-        <v>130.951706</v>
+        <v>130.951691</v>
       </c>
     </row>
     <row r="537">
@@ -9335,7 +9335,7 @@
         <v>91.147095</v>
       </c>
       <c r="C539" t="n">
-        <v>106.847008</v>
+        <v>106.847015</v>
       </c>
     </row>
     <row r="540">
@@ -9343,7 +9343,7 @@
         <v>541</v>
       </c>
       <c r="B540" t="n">
-        <v>91.582573</v>
+        <v>91.582581</v>
       </c>
       <c r="C540" t="n">
         <v>107.872742</v>
@@ -9354,10 +9354,10 @@
         <v>542</v>
       </c>
       <c r="B541" t="n">
-        <v>93.063225</v>
+        <v>93.063232</v>
       </c>
       <c r="C541" t="n">
-        <v>109.83873</v>
+        <v>109.838737</v>
       </c>
     </row>
     <row r="542">
@@ -9368,7 +9368,7 @@
         <v>93.237427</v>
       </c>
       <c r="C542" t="n">
-        <v>106.505096</v>
+        <v>106.505104</v>
       </c>
     </row>
     <row r="543">
@@ -9409,10 +9409,10 @@
         <v>547</v>
       </c>
       <c r="B546" t="n">
-        <v>77.28994</v>
+        <v>77.289948</v>
       </c>
       <c r="C546" t="n">
-        <v>93.854424</v>
+        <v>93.854416</v>
       </c>
     </row>
     <row r="547">
@@ -9423,7 +9423,7 @@
         <v>74.48542</v>
       </c>
       <c r="C547" t="n">
-        <v>92.486771</v>
+        <v>92.486763</v>
       </c>
     </row>
     <row r="548">
@@ -9431,10 +9431,10 @@
         <v>549</v>
       </c>
       <c r="B548" t="n">
-        <v>67.726692</v>
+        <v>67.726685</v>
       </c>
       <c r="C548" t="n">
-        <v>82.272194</v>
+        <v>82.272202</v>
       </c>
     </row>
     <row r="549">
@@ -9445,7 +9445,7 @@
         <v>67.761528</v>
       </c>
       <c r="C549" t="n">
-        <v>83.682587</v>
+        <v>83.682579</v>
       </c>
     </row>
     <row r="550">
@@ -9456,7 +9456,7 @@
         <v>64.486679</v>
       </c>
       <c r="C550" t="n">
-        <v>78.895844</v>
+        <v>78.895836</v>
       </c>
     </row>
     <row r="551">
@@ -9467,7 +9467,7 @@
         <v>64.62603</v>
       </c>
       <c r="C551" t="n">
-        <v>80.220734</v>
+        <v>80.220741</v>
       </c>
     </row>
     <row r="552">
@@ -9489,7 +9489,7 @@
         <v>71.708336</v>
       </c>
       <c r="C553" t="n">
-        <v>78.126534</v>
+        <v>78.126541</v>
       </c>
     </row>
     <row r="554">
@@ -9577,7 +9577,7 @@
         <v>75.642952</v>
       </c>
       <c r="C561" t="n">
-        <v>91.515839</v>
+        <v>91.515846</v>
       </c>
     </row>
     <row r="562">
@@ -9610,7 +9610,7 @@
         <v>71.078796</v>
       </c>
       <c r="C564" t="n">
-        <v>88.706573</v>
+        <v>88.706566</v>
       </c>
     </row>
     <row r="565">
@@ -9621,7 +9621,7 @@
         <v>72.141136</v>
       </c>
       <c r="C565" t="n">
-        <v>88.373268</v>
+        <v>88.37326</v>
       </c>
     </row>
     <row r="566">
@@ -9687,7 +9687,7 @@
         <v>72.318199</v>
       </c>
       <c r="C571" t="n">
-        <v>89.373169</v>
+        <v>89.373177</v>
       </c>
     </row>
     <row r="572">
@@ -9698,7 +9698,7 @@
         <v>71.82637</v>
       </c>
       <c r="C572" t="n">
-        <v>90.992088</v>
+        <v>90.992081</v>
       </c>
     </row>
     <row r="573">
@@ -9731,7 +9731,7 @@
         <v>72.455917</v>
       </c>
       <c r="C575" t="n">
-        <v>91.230164</v>
+        <v>91.230156</v>
       </c>
     </row>
     <row r="576">
@@ -9742,7 +9742,7 @@
         <v>70.134491</v>
       </c>
       <c r="C576" t="n">
-        <v>89.706474</v>
+        <v>89.706482</v>
       </c>
     </row>
     <row r="577">
@@ -9786,7 +9786,7 @@
         <v>79.479202</v>
       </c>
       <c r="C580" t="n">
-        <v>107.89537</v>
+        <v>107.895378</v>
       </c>
     </row>
     <row r="581">
@@ -9830,7 +9830,7 @@
         <v>74.226486</v>
       </c>
       <c r="C584" t="n">
-        <v>95.08696</v>
+        <v>95.086967</v>
       </c>
     </row>
     <row r="585">
@@ -9852,7 +9852,7 @@
         <v>74.619949</v>
       </c>
       <c r="C586" t="n">
-        <v>100.086533</v>
+        <v>100.086525</v>
       </c>
     </row>
     <row r="587">
@@ -9863,7 +9863,7 @@
         <v>74.167473</v>
       </c>
       <c r="C587" t="n">
-        <v>101.134048</v>
+        <v>101.134056</v>
       </c>
     </row>
     <row r="588">
@@ -9896,7 +9896,7 @@
         <v>70.803375</v>
       </c>
       <c r="C590" t="n">
-        <v>99.991302</v>
+        <v>99.991295</v>
       </c>
     </row>
     <row r="591">
@@ -9918,7 +9918,7 @@
         <v>73.400223</v>
       </c>
       <c r="C592" t="n">
-        <v>100.657898</v>
+        <v>100.657906</v>
       </c>
     </row>
     <row r="593">
@@ -9929,7 +9929,7 @@
         <v>75.564255</v>
       </c>
       <c r="C593" t="n">
-        <v>102.467278</v>
+        <v>102.46727</v>
       </c>
     </row>
     <row r="594">
@@ -9973,7 +9973,7 @@
         <v>83.748253</v>
       </c>
       <c r="C597" t="n">
-        <v>111.799789</v>
+        <v>111.799797</v>
       </c>
     </row>
     <row r="598">
@@ -9995,7 +9995,7 @@
         <v>86.128693</v>
       </c>
       <c r="C599" t="n">
-        <v>116.656509</v>
+        <v>116.656517</v>
       </c>
     </row>
     <row r="600">
@@ -10017,7 +10017,7 @@
         <v>89.256706</v>
       </c>
       <c r="C601" t="n">
-        <v>123.893982</v>
+        <v>123.89399</v>
       </c>
     </row>
     <row r="602">
@@ -10072,7 +10072,7 @@
         <v>86.42379</v>
       </c>
       <c r="C606" t="n">
-        <v>117.704041</v>
+        <v>117.704048</v>
       </c>
     </row>
     <row r="607">
@@ -10094,7 +10094,7 @@
         <v>87.663193</v>
       </c>
       <c r="C608" t="n">
-        <v>120.751396</v>
+        <v>120.751404</v>
       </c>
     </row>
     <row r="609">
@@ -10160,7 +10160,7 @@
         <v>87.466461</v>
       </c>
       <c r="C614" t="n">
-        <v>117.704041</v>
+        <v>117.704048</v>
       </c>
     </row>
     <row r="615">
@@ -10204,7 +10204,7 @@
         <v>86.836922</v>
       </c>
       <c r="C618" t="n">
-        <v>117.13266</v>
+        <v>117.132668</v>
       </c>
     </row>
     <row r="619">
@@ -10325,7 +10325,7 @@
         <v>100.185097</v>
       </c>
       <c r="C629" t="n">
-        <v>124.465355</v>
+        <v>124.465363</v>
       </c>
     </row>
     <row r="630">
@@ -10336,7 +10336,7 @@
         <v>100.185097</v>
       </c>
       <c r="C630" t="n">
-        <v>125.512886</v>
+        <v>125.512894</v>
       </c>
     </row>
     <row r="631">
@@ -10358,7 +10358,7 @@
         <v>104.267265</v>
       </c>
       <c r="C632" t="n">
-        <v>125.036736</v>
+        <v>125.036743</v>
       </c>
     </row>
     <row r="633">
@@ -10391,7 +10391,7 @@
         <v>103.72625</v>
       </c>
       <c r="C635" t="n">
-        <v>125.322433</v>
+        <v>125.322441</v>
       </c>
     </row>
     <row r="636">
@@ -10402,7 +10402,7 @@
         <v>104.218079</v>
       </c>
       <c r="C636" t="n">
-        <v>124.941498</v>
+        <v>124.941505</v>
       </c>
     </row>
     <row r="637">
@@ -10413,7 +10413,7 @@
         <v>102.250771</v>
       </c>
       <c r="C637" t="n">
-        <v>122.655998</v>
+        <v>122.655991</v>
       </c>
     </row>
     <row r="638">
@@ -10468,7 +10468,7 @@
         <v>101.168755</v>
       </c>
       <c r="C642" t="n">
-        <v>115.894676</v>
+        <v>115.894669</v>
       </c>
     </row>
     <row r="643">
@@ -10479,7 +10479,7 @@
         <v>100.480202</v>
       </c>
       <c r="C643" t="n">
-        <v>116.75174</v>
+        <v>116.751747</v>
       </c>
     </row>
     <row r="644">
@@ -10490,7 +10490,7 @@
         <v>100.922836</v>
       </c>
       <c r="C644" t="n">
-        <v>115.989914</v>
+        <v>115.989906</v>
       </c>
     </row>
     <row r="645">
@@ -10501,7 +10501,7 @@
         <v>100.332649</v>
       </c>
       <c r="C645" t="n">
-        <v>115.418526</v>
+        <v>115.418518</v>
       </c>
     </row>
     <row r="646">
@@ -10567,7 +10567,7 @@
         <v>102.349144</v>
       </c>
       <c r="C651" t="n">
-        <v>113.609169</v>
+        <v>113.609161</v>
       </c>
     </row>
     <row r="652">
@@ -10611,7 +10611,7 @@
         <v>96.496399</v>
       </c>
       <c r="C655" t="n">
-        <v>110.466576</v>
+        <v>110.466583</v>
       </c>
     </row>
     <row r="656">
@@ -10622,7 +10622,7 @@
         <v>97.047249</v>
       </c>
       <c r="C656" t="n">
-        <v>109.799973</v>
+        <v>109.799965</v>
       </c>
     </row>
     <row r="657">
@@ -10655,7 +10655,7 @@
         <v>97.971878</v>
       </c>
       <c r="C659" t="n">
-        <v>107.228767</v>
+        <v>107.22876</v>
       </c>
     </row>
     <row r="660">
@@ -10666,7 +10666,7 @@
         <v>96.594765</v>
       </c>
       <c r="C660" t="n">
-        <v>106.847847</v>
+        <v>106.847839</v>
       </c>
     </row>
     <row r="661">
@@ -10699,7 +10699,7 @@
         <v>92.463425</v>
       </c>
       <c r="C663" t="n">
-        <v>95.705963</v>
+        <v>95.705956</v>
       </c>
     </row>
     <row r="664">
@@ -10754,7 +10754,7 @@
         <v>87.859924</v>
       </c>
       <c r="C668" t="n">
-        <v>96.467796</v>
+        <v>96.467804</v>
       </c>
     </row>
     <row r="669">
@@ -10765,7 +10765,7 @@
         <v>88.627174</v>
       </c>
       <c r="C669" t="n">
-        <v>98.181938</v>
+        <v>98.181931</v>
       </c>
     </row>
     <row r="670">
@@ -10776,7 +10776,7 @@
         <v>88.587822</v>
       </c>
       <c r="C670" t="n">
-        <v>99.705605</v>
+        <v>99.705612</v>
       </c>
     </row>
     <row r="671">
@@ -10787,7 +10787,7 @@
         <v>86.502487</v>
       </c>
       <c r="C671" t="n">
-        <v>99.610382</v>
+        <v>99.610374</v>
       </c>
     </row>
     <row r="672">
@@ -10809,7 +10809,7 @@
         <v>86.187714</v>
       </c>
       <c r="C673" t="n">
-        <v>99.134232</v>
+        <v>99.134224</v>
       </c>
     </row>
     <row r="674">
@@ -10820,7 +10820,7 @@
         <v>86.384445</v>
       </c>
       <c r="C674" t="n">
-        <v>97.896248</v>
+        <v>97.89624</v>
       </c>
     </row>
     <row r="675">
@@ -10842,7 +10842,7 @@
         <v>83.0597</v>
       </c>
       <c r="C676" t="n">
-        <v>96.372559</v>
+        <v>96.372566</v>
       </c>
     </row>
     <row r="677">
@@ -10853,7 +10853,7 @@
         <v>80.659584</v>
       </c>
       <c r="C677" t="n">
-        <v>94.372734</v>
+        <v>94.372742</v>
       </c>
     </row>
     <row r="678">
@@ -10875,7 +10875,7 @@
         <v>81.938332</v>
       </c>
       <c r="C679" t="n">
-        <v>93.563293</v>
+        <v>93.563286</v>
       </c>
     </row>
     <row r="680">
@@ -10930,7 +10930,7 @@
         <v>84.692558</v>
       </c>
       <c r="C684" t="n">
-        <v>94.848885</v>
+        <v>94.848892</v>
       </c>
     </row>
     <row r="685">
@@ -10952,7 +10952,7 @@
         <v>83.453156</v>
       </c>
       <c r="C686" t="n">
-        <v>103.133881</v>
+        <v>103.133888</v>
       </c>
     </row>
     <row r="687">
@@ -10963,7 +10963,7 @@
         <v>85.57785</v>
       </c>
       <c r="C687" t="n">
-        <v>103.133881</v>
+        <v>103.133888</v>
       </c>
     </row>
     <row r="688">
@@ -10996,7 +10996,7 @@
         <v>89.453445</v>
       </c>
       <c r="C690" t="n">
-        <v>103.990952</v>
+        <v>103.990944</v>
       </c>
     </row>
     <row r="691">
@@ -11073,7 +11073,7 @@
         <v>91.401077</v>
       </c>
       <c r="C697" t="n">
-        <v>103.990952</v>
+        <v>103.990944</v>
       </c>
     </row>
     <row r="698">
@@ -11161,7 +11161,7 @@
         <v>84.161385</v>
       </c>
       <c r="C705" t="n">
-        <v>102.372047</v>
+        <v>102.37204</v>
       </c>
     </row>
     <row r="706">
@@ -11205,7 +11205,7 @@
         <v>86.974632</v>
       </c>
       <c r="C709" t="n">
-        <v>111.799789</v>
+        <v>111.799797</v>
       </c>
     </row>
     <row r="710">
@@ -11227,7 +11227,7 @@
         <v>88.627174</v>
       </c>
       <c r="C711" t="n">
-        <v>109.514275</v>
+        <v>109.514282</v>
       </c>
     </row>
     <row r="712">
@@ -11293,7 +11293,7 @@
         <v>102.447502</v>
       </c>
       <c r="C717" t="n">
-        <v>124.274902</v>
+        <v>124.274895</v>
       </c>
     </row>
     <row r="718">
@@ -11304,7 +11304,7 @@
         <v>102.890144</v>
       </c>
       <c r="C718" t="n">
-        <v>126.274734</v>
+        <v>126.274727</v>
       </c>
     </row>
     <row r="719">
@@ -11359,7 +11359,7 @@
         <v>103.234421</v>
       </c>
       <c r="C723" t="n">
-        <v>124.751053</v>
+        <v>124.751045</v>
       </c>
     </row>
     <row r="724">
@@ -11381,7 +11381,7 @@
         <v>102.98851</v>
       </c>
       <c r="C725" t="n">
-        <v>124.751053</v>
+        <v>124.751045</v>
       </c>
     </row>
     <row r="726">
@@ -11425,7 +11425,7 @@
         <v>102.250771</v>
       </c>
       <c r="C729" t="n">
-        <v>124.751053</v>
+        <v>124.751045</v>
       </c>
     </row>
     <row r="730">
@@ -11447,7 +11447,7 @@
         <v>101.513031</v>
       </c>
       <c r="C731" t="n">
-        <v>124.274902</v>
+        <v>124.274895</v>
       </c>
     </row>
     <row r="732">
@@ -11546,7 +11546,7 @@
         <v>94.529091</v>
       </c>
       <c r="C740" t="n">
-        <v>121.608459</v>
+        <v>121.608467</v>
       </c>
     </row>
     <row r="741">
@@ -11579,7 +11579,7 @@
         <v>96.870193</v>
       </c>
       <c r="C743" t="n">
-        <v>124.941498</v>
+        <v>124.941505</v>
       </c>
     </row>
     <row r="744">
@@ -11590,7 +11590,7 @@
         <v>99.742462</v>
       </c>
       <c r="C744" t="n">
-        <v>125.989037</v>
+        <v>125.989044</v>
       </c>
     </row>
     <row r="745">
@@ -11623,7 +11623,7 @@
         <v>99.004723</v>
       </c>
       <c r="C747" t="n">
-        <v>128.084091</v>
+        <v>128.084106</v>
       </c>
     </row>
     <row r="748">
@@ -11656,7 +11656,7 @@
         <v>103.627884</v>
       </c>
       <c r="C750" t="n">
-        <v>128.941147</v>
+        <v>128.941162</v>
       </c>
     </row>
     <row r="751">
@@ -11667,7 +11667,7 @@
         <v>108.054329</v>
       </c>
       <c r="C751" t="n">
-        <v>132.369446</v>
+        <v>132.369431</v>
       </c>
     </row>
     <row r="752">
@@ -11854,7 +11854,7 @@
         <v>103.480339</v>
       </c>
       <c r="C768" t="n">
-        <v>121.608459</v>
+        <v>121.608467</v>
       </c>
     </row>
     <row r="769">
@@ -11865,7 +11865,7 @@
         <v>104.070534</v>
       </c>
       <c r="C769" t="n">
-        <v>123.893982</v>
+        <v>123.89399</v>
       </c>
     </row>
     <row r="770">
@@ -11942,7 +11942,7 @@
         <v>107.955963</v>
       </c>
       <c r="C776" t="n">
-        <v>126.750885</v>
+        <v>126.750877</v>
       </c>
     </row>
     <row r="777">
@@ -11986,7 +11986,7 @@
         <v>110.857735</v>
       </c>
       <c r="C780" t="n">
-        <v>132.369446</v>
+        <v>132.369431</v>
       </c>
     </row>
     <row r="781">
@@ -12019,7 +12019,7 @@
         <v>111.644661</v>
       </c>
       <c r="C783" t="n">
-        <v>132.940826</v>
+        <v>132.940811</v>
       </c>
     </row>
     <row r="784">
@@ -12030,7 +12030,7 @@
         <v>111.447937</v>
       </c>
       <c r="C784" t="n">
-        <v>134.178787</v>
+        <v>134.178802</v>
       </c>
     </row>
     <row r="785">
@@ -12041,7 +12041,7 @@
         <v>112.333221</v>
       </c>
       <c r="C785" t="n">
-        <v>134.940628</v>
+        <v>134.940643</v>
       </c>
     </row>
     <row r="786">
@@ -12052,7 +12052,7 @@
         <v>115.087448</v>
       </c>
       <c r="C786" t="n">
-        <v>135.226334</v>
+        <v>135.226318</v>
       </c>
     </row>
     <row r="787">
@@ -12074,7 +12074,7 @@
         <v>114.595627</v>
       </c>
       <c r="C788" t="n">
-        <v>136.654785</v>
+        <v>136.65477</v>
       </c>
     </row>
     <row r="789">
@@ -12096,7 +12096,7 @@
         <v>116.366203</v>
       </c>
       <c r="C790" t="n">
-        <v>153.319992</v>
+        <v>153.319977</v>
       </c>
     </row>
     <row r="791">
@@ -12107,7 +12107,7 @@
         <v>116.218651</v>
       </c>
       <c r="C791" t="n">
-        <v>152.367691</v>
+        <v>152.367706</v>
       </c>
     </row>
     <row r="792">
@@ -12118,7 +12118,7 @@
         <v>118.82534</v>
       </c>
       <c r="C792" t="n">
-        <v>151.129715</v>
+        <v>151.1297</v>
       </c>
     </row>
     <row r="793">
@@ -12173,7 +12173,7 @@
         <v>120.54673</v>
       </c>
       <c r="C797" t="n">
-        <v>154.938904</v>
+        <v>154.938889</v>
       </c>
     </row>
     <row r="798">
@@ -12184,7 +12184,7 @@
         <v>120.497543</v>
       </c>
       <c r="C798" t="n">
-        <v>154.272293</v>
+        <v>154.272278</v>
       </c>
     </row>
     <row r="799">
@@ -12195,7 +12195,7 @@
         <v>120.349998</v>
       </c>
       <c r="C799" t="n">
-        <v>155.415054</v>
+        <v>155.415039</v>
       </c>
     </row>
     <row r="800">
@@ -12250,7 +12250,7 @@
         <v>118.25</v>
       </c>
       <c r="C804" t="n">
-        <v>155.224594</v>
+        <v>155.224579</v>
       </c>
     </row>
     <row r="805">
@@ -12261,7 +12261,7 @@
         <v>119.300003</v>
       </c>
       <c r="C805" t="n">
-        <v>159.986084</v>
+        <v>159.986069</v>
       </c>
     </row>
     <row r="806">

--- a/Danske aktiekurser.xlsx
+++ b/Danske aktiekurser.xlsx
@@ -3428,7 +3428,7 @@
         <v>189.887924</v>
       </c>
       <c r="C2" t="n">
-        <v>191.282867</v>
+        <v>191.282883</v>
       </c>
     </row>
     <row r="3">
@@ -3450,7 +3450,7 @@
         <v>190.51384</v>
       </c>
       <c r="C4" t="n">
-        <v>192.351501</v>
+        <v>192.351486</v>
       </c>
     </row>
     <row r="5">
@@ -3458,10 +3458,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="n">
-        <v>190.748581</v>
+        <v>190.748566</v>
       </c>
       <c r="C5" t="n">
-        <v>192.046188</v>
+        <v>192.046173</v>
       </c>
     </row>
     <row r="6">
@@ -3480,7 +3480,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="n">
-        <v>190.357361</v>
+        <v>190.357376</v>
       </c>
       <c r="C7" t="n">
         <v>191.588196</v>
@@ -3494,7 +3494,7 @@
         <v>194.34758</v>
       </c>
       <c r="C8" t="n">
-        <v>195.404694</v>
+        <v>195.404678</v>
       </c>
     </row>
     <row r="9">
@@ -3516,7 +3516,7 @@
         <v>194.817032</v>
       </c>
       <c r="C10" t="n">
-        <v>195.09938</v>
+        <v>195.099365</v>
       </c>
     </row>
     <row r="11">
@@ -3524,7 +3524,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="n">
-        <v>196.303589</v>
+        <v>196.303574</v>
       </c>
       <c r="C11" t="n">
         <v>193.572784</v>
@@ -3538,7 +3538,7 @@
         <v>195.521194</v>
       </c>
       <c r="C12" t="n">
-        <v>192.50415</v>
+        <v>192.504166</v>
       </c>
     </row>
     <row r="13">
@@ -3546,10 +3546,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="n">
-        <v>195.990631</v>
+        <v>195.990616</v>
       </c>
       <c r="C13" t="n">
-        <v>191.435547</v>
+        <v>191.435562</v>
       </c>
     </row>
     <row r="14">
@@ -3557,7 +3557,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="n">
-        <v>191.452728</v>
+        <v>191.452713</v>
       </c>
       <c r="C14" t="n">
         <v>191.588196</v>
@@ -3579,10 +3579,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="n">
-        <v>193.330475</v>
+        <v>193.33049</v>
       </c>
       <c r="C16" t="n">
-        <v>193.114792</v>
+        <v>193.114807</v>
       </c>
     </row>
     <row r="17">
@@ -3590,10 +3590,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="n">
-        <v>192.078644</v>
+        <v>192.078629</v>
       </c>
       <c r="C17" t="n">
-        <v>191.435547</v>
+        <v>191.435562</v>
       </c>
     </row>
     <row r="18">
@@ -3601,7 +3601,7 @@
         <v>19</v>
       </c>
       <c r="B18" t="n">
-        <v>192.078644</v>
+        <v>192.078629</v>
       </c>
       <c r="C18" t="n">
         <v>190.214249</v>
@@ -3615,7 +3615,7 @@
         <v>186.680099</v>
       </c>
       <c r="C19" t="n">
-        <v>185.63446</v>
+        <v>185.634476</v>
       </c>
     </row>
     <row r="20">
@@ -3648,7 +3648,7 @@
         <v>189.966171</v>
       </c>
       <c r="C22" t="n">
-        <v>185.787109</v>
+        <v>185.787125</v>
       </c>
     </row>
     <row r="23">
@@ -3659,7 +3659,7 @@
         <v>190.51384</v>
       </c>
       <c r="C23" t="n">
-        <v>187.008423</v>
+        <v>187.008392</v>
       </c>
     </row>
     <row r="24">
@@ -3692,7 +3692,7 @@
         <v>191.609207</v>
       </c>
       <c r="C26" t="n">
-        <v>186.397766</v>
+        <v>186.397751</v>
       </c>
     </row>
     <row r="27">
@@ -3722,10 +3722,10 @@
         <v>30</v>
       </c>
       <c r="B29" t="n">
-        <v>188.557846</v>
+        <v>188.557861</v>
       </c>
       <c r="C29" t="n">
-        <v>187.161041</v>
+        <v>187.161057</v>
       </c>
     </row>
     <row r="30">
@@ -3736,7 +3736,7 @@
         <v>188.244904</v>
       </c>
       <c r="C30" t="n">
-        <v>185.787109</v>
+        <v>185.787125</v>
       </c>
     </row>
     <row r="31">
@@ -3758,7 +3758,7 @@
         <v>188.949051</v>
       </c>
       <c r="C32" t="n">
-        <v>188.534988</v>
+        <v>188.535004</v>
       </c>
     </row>
     <row r="33">
@@ -3780,7 +3780,7 @@
         <v>192.313354</v>
       </c>
       <c r="C34" t="n">
-        <v>193.420105</v>
+        <v>193.42012</v>
       </c>
     </row>
     <row r="35">
@@ -3788,10 +3788,10 @@
         <v>36</v>
       </c>
       <c r="B35" t="n">
-        <v>194.660553</v>
+        <v>194.660568</v>
       </c>
       <c r="C35" t="n">
-        <v>196.625977</v>
+        <v>196.625992</v>
       </c>
     </row>
     <row r="36">
@@ -3799,7 +3799,7 @@
         <v>37</v>
       </c>
       <c r="B36" t="n">
-        <v>194.895279</v>
+        <v>194.895294</v>
       </c>
       <c r="C36" t="n">
         <v>196.167999</v>
@@ -3824,7 +3824,7 @@
         <v>192.861038</v>
       </c>
       <c r="C38" t="n">
-        <v>182.428604</v>
+        <v>182.428619</v>
       </c>
     </row>
     <row r="39">
@@ -3832,7 +3832,7 @@
         <v>40</v>
       </c>
       <c r="B39" t="n">
-        <v>193.252243</v>
+        <v>193.252228</v>
       </c>
       <c r="C39" t="n">
         <v>180.444016</v>
@@ -3854,7 +3854,7 @@
         <v>42</v>
       </c>
       <c r="B41" t="n">
-        <v>195.677689</v>
+        <v>195.677673</v>
       </c>
       <c r="C41" t="n">
         <v>183.802536</v>
@@ -3865,7 +3865,7 @@
         <v>43</v>
       </c>
       <c r="B42" t="n">
-        <v>189.731445</v>
+        <v>189.731461</v>
       </c>
       <c r="C42" t="n">
         <v>183.191895</v>
@@ -3876,10 +3876,10 @@
         <v>44</v>
       </c>
       <c r="B43" t="n">
-        <v>192.626328</v>
+        <v>192.626312</v>
       </c>
       <c r="C43" t="n">
-        <v>182.733917</v>
+        <v>182.733932</v>
       </c>
     </row>
     <row r="44">
@@ -3887,7 +3887,7 @@
         <v>45</v>
       </c>
       <c r="B44" t="n">
-        <v>190.748581</v>
+        <v>190.748566</v>
       </c>
       <c r="C44" t="n">
         <v>181.665298</v>
@@ -3898,10 +3898,10 @@
         <v>46</v>
       </c>
       <c r="B45" t="n">
-        <v>189.731445</v>
+        <v>189.731461</v>
       </c>
       <c r="C45" t="n">
-        <v>177.696152</v>
+        <v>177.696136</v>
       </c>
     </row>
     <row r="46">
@@ -3909,10 +3909,10 @@
         <v>47</v>
       </c>
       <c r="B46" t="n">
-        <v>190.044388</v>
+        <v>190.044403</v>
       </c>
       <c r="C46" t="n">
-        <v>179.833405</v>
+        <v>179.833389</v>
       </c>
     </row>
     <row r="47">
@@ -3945,7 +3945,7 @@
         <v>191.218002</v>
       </c>
       <c r="C49" t="n">
-        <v>182.428604</v>
+        <v>182.428619</v>
       </c>
     </row>
     <row r="50">
@@ -3953,7 +3953,7 @@
         <v>51</v>
       </c>
       <c r="B50" t="n">
-        <v>192.626328</v>
+        <v>192.626312</v>
       </c>
       <c r="C50" t="n">
         <v>180.902008</v>
@@ -3978,7 +3978,7 @@
         <v>193.799911</v>
       </c>
       <c r="C52" t="n">
-        <v>183.344559</v>
+        <v>183.344543</v>
       </c>
     </row>
     <row r="53">
@@ -4000,7 +4000,7 @@
         <v>191.061523</v>
       </c>
       <c r="C54" t="n">
-        <v>183.113098</v>
+        <v>183.113083</v>
       </c>
     </row>
     <row r="55">
@@ -4088,7 +4088,7 @@
         <v>183.474533</v>
       </c>
       <c r="C62" t="n">
-        <v>179.58551</v>
+        <v>179.585526</v>
       </c>
     </row>
     <row r="63">
@@ -4110,7 +4110,7 @@
         <v>183.148224</v>
       </c>
       <c r="C64" t="n">
-        <v>178.46312</v>
+        <v>178.463104</v>
       </c>
     </row>
     <row r="65">
@@ -4121,7 +4121,7 @@
         <v>181.761353</v>
       </c>
       <c r="C65" t="n">
-        <v>176.378632</v>
+        <v>176.378647</v>
       </c>
     </row>
     <row r="66">
@@ -4154,7 +4154,7 @@
         <v>182.985062</v>
       </c>
       <c r="C68" t="n">
-        <v>180.868271</v>
+        <v>180.868286</v>
       </c>
     </row>
     <row r="69">
@@ -4176,7 +4176,7 @@
         <v>179.477097</v>
       </c>
       <c r="C70" t="n">
-        <v>180.868271</v>
+        <v>180.868286</v>
       </c>
     </row>
     <row r="71">
@@ -4187,7 +4187,7 @@
         <v>180.619217</v>
       </c>
       <c r="C71" t="n">
-        <v>184.395859</v>
+        <v>184.395828</v>
       </c>
     </row>
     <row r="72">
@@ -4198,7 +4198,7 @@
         <v>180.211319</v>
       </c>
       <c r="C72" t="n">
-        <v>182.311386</v>
+        <v>182.311371</v>
       </c>
     </row>
     <row r="73">
@@ -4242,7 +4242,7 @@
         <v>182.577164</v>
       </c>
       <c r="C76" t="n">
-        <v>188.885498</v>
+        <v>188.885483</v>
       </c>
     </row>
     <row r="77">
@@ -4286,7 +4286,7 @@
         <v>178.498123</v>
       </c>
       <c r="C80" t="n">
-        <v>187.602722</v>
+        <v>187.602737</v>
       </c>
     </row>
     <row r="81">
@@ -4363,7 +4363,7 @@
         <v>175.316483</v>
       </c>
       <c r="C87" t="n">
-        <v>184.235504</v>
+        <v>184.235519</v>
       </c>
     </row>
     <row r="88">
@@ -4407,7 +4407,7 @@
         <v>175.561234</v>
       </c>
       <c r="C91" t="n">
-        <v>185.999298</v>
+        <v>185.999283</v>
       </c>
     </row>
     <row r="92">
@@ -4429,7 +4429,7 @@
         <v>176.540192</v>
       </c>
       <c r="C93" t="n">
-        <v>185.197571</v>
+        <v>185.197556</v>
       </c>
     </row>
     <row r="94">
@@ -4462,7 +4462,7 @@
         <v>176.94809</v>
       </c>
       <c r="C96" t="n">
-        <v>185.037231</v>
+        <v>185.037216</v>
       </c>
     </row>
     <row r="97">
@@ -4495,7 +4495,7 @@
         <v>173.113815</v>
       </c>
       <c r="C99" t="n">
-        <v>181.028625</v>
+        <v>181.02861</v>
       </c>
     </row>
     <row r="100">
@@ -4506,7 +4506,7 @@
         <v>168.953217</v>
       </c>
       <c r="C100" t="n">
-        <v>174.935547</v>
+        <v>174.935532</v>
       </c>
     </row>
     <row r="101">
@@ -4528,7 +4528,7 @@
         <v>172.461166</v>
       </c>
       <c r="C102" t="n">
-        <v>173.171753</v>
+        <v>173.171738</v>
       </c>
     </row>
     <row r="103">
@@ -4561,7 +4561,7 @@
         <v>175.72438</v>
       </c>
       <c r="C105" t="n">
-        <v>177.982071</v>
+        <v>177.982086</v>
       </c>
     </row>
     <row r="106">
@@ -4594,7 +4594,7 @@
         <v>177.84549</v>
       </c>
       <c r="C108" t="n">
-        <v>177.02002</v>
+        <v>177.020004</v>
       </c>
     </row>
     <row r="109">
@@ -4638,7 +4638,7 @@
         <v>177.682327</v>
       </c>
       <c r="C112" t="n">
-        <v>177.821747</v>
+        <v>177.821732</v>
       </c>
     </row>
     <row r="113">
@@ -4671,7 +4671,7 @@
         <v>170.258499</v>
       </c>
       <c r="C115" t="n">
-        <v>175.41655</v>
+        <v>175.416565</v>
       </c>
     </row>
     <row r="116">
@@ -4682,7 +4682,7 @@
         <v>167.811096</v>
       </c>
       <c r="C116" t="n">
-        <v>173.171753</v>
+        <v>173.171738</v>
       </c>
     </row>
     <row r="117">
@@ -4693,7 +4693,7 @@
         <v>168.626892</v>
       </c>
       <c r="C117" t="n">
-        <v>174.294159</v>
+        <v>174.294144</v>
       </c>
     </row>
     <row r="118">
@@ -4704,7 +4704,7 @@
         <v>166.0979</v>
       </c>
       <c r="C118" t="n">
-        <v>174.294159</v>
+        <v>174.294144</v>
       </c>
     </row>
     <row r="119">
@@ -4726,7 +4726,7 @@
         <v>162.018875</v>
       </c>
       <c r="C120" t="n">
-        <v>173.652802</v>
+        <v>173.652771</v>
       </c>
     </row>
     <row r="121">
@@ -4759,7 +4759,7 @@
         <v>162.671509</v>
       </c>
       <c r="C123" t="n">
-        <v>175.41655</v>
+        <v>175.416565</v>
       </c>
     </row>
     <row r="124">
@@ -4803,7 +4803,7 @@
         <v>155.533218</v>
       </c>
       <c r="C127" t="n">
-        <v>177.661407</v>
+        <v>177.661392</v>
       </c>
     </row>
     <row r="128">
@@ -4880,7 +4880,7 @@
         <v>159.163544</v>
       </c>
       <c r="C134" t="n">
-        <v>180.707932</v>
+        <v>180.707916</v>
       </c>
     </row>
     <row r="135">
@@ -4891,7 +4891,7 @@
         <v>144.642212</v>
       </c>
       <c r="C135" t="n">
-        <v>177.661407</v>
+        <v>177.661392</v>
       </c>
     </row>
     <row r="136">
@@ -4935,7 +4935,7 @@
         <v>151.94368</v>
       </c>
       <c r="C139" t="n">
-        <v>185.037231</v>
+        <v>185.037216</v>
       </c>
     </row>
     <row r="140">
@@ -4990,7 +4990,7 @@
         <v>151.127884</v>
       </c>
       <c r="C144" t="n">
-        <v>189.52684</v>
+        <v>189.526855</v>
       </c>
     </row>
     <row r="145">
@@ -5012,7 +5012,7 @@
         <v>146.029083</v>
       </c>
       <c r="C146" t="n">
-        <v>184.395859</v>
+        <v>184.395828</v>
       </c>
     </row>
     <row r="147">
@@ -5023,7 +5023,7 @@
         <v>149.12915</v>
       </c>
       <c r="C147" t="n">
-        <v>185.037231</v>
+        <v>185.037216</v>
       </c>
     </row>
     <row r="148">
@@ -5100,7 +5100,7 @@
         <v>147.008057</v>
       </c>
       <c r="C154" t="n">
-        <v>176.538986</v>
+        <v>176.538971</v>
       </c>
     </row>
     <row r="155">
@@ -5111,7 +5111,7 @@
         <v>145.906723</v>
       </c>
       <c r="C155" t="n">
-        <v>173.171753</v>
+        <v>173.171738</v>
       </c>
     </row>
     <row r="156">
@@ -5122,7 +5122,7 @@
         <v>148.313354</v>
       </c>
       <c r="C156" t="n">
-        <v>176.218277</v>
+        <v>176.218292</v>
       </c>
     </row>
     <row r="157">
@@ -5155,7 +5155,7 @@
         <v>150.719955</v>
       </c>
       <c r="C159" t="n">
-        <v>177.661407</v>
+        <v>177.661392</v>
       </c>
     </row>
     <row r="160">
@@ -5166,7 +5166,7 @@
         <v>153.616074</v>
       </c>
       <c r="C160" t="n">
-        <v>176.057953</v>
+        <v>176.057968</v>
       </c>
     </row>
     <row r="161">
@@ -5221,7 +5221,7 @@
         <v>157.001663</v>
       </c>
       <c r="C165" t="n">
-        <v>153.770111</v>
+        <v>153.770096</v>
       </c>
     </row>
     <row r="166">
@@ -5265,7 +5265,7 @@
         <v>144.764603</v>
       </c>
       <c r="C169" t="n">
-        <v>148.39856</v>
+        <v>148.398575</v>
       </c>
     </row>
     <row r="170">
@@ -5276,7 +5276,7 @@
         <v>148.272552</v>
       </c>
       <c r="C170" t="n">
-        <v>147.917526</v>
+        <v>147.917542</v>
       </c>
     </row>
     <row r="171">
@@ -5331,7 +5331,7 @@
         <v>137.096039</v>
       </c>
       <c r="C175" t="n">
-        <v>148.39856</v>
+        <v>148.398575</v>
       </c>
     </row>
     <row r="176">
@@ -5353,7 +5353,7 @@
         <v>138.646057</v>
       </c>
       <c r="C177" t="n">
-        <v>147.917526</v>
+        <v>147.917542</v>
       </c>
     </row>
     <row r="178">
@@ -5364,7 +5364,7 @@
         <v>137.748672</v>
       </c>
       <c r="C178" t="n">
-        <v>149.200287</v>
+        <v>149.200302</v>
       </c>
     </row>
     <row r="179">
@@ -5375,7 +5375,7 @@
         <v>142.643509</v>
       </c>
       <c r="C179" t="n">
-        <v>148.39856</v>
+        <v>148.398575</v>
       </c>
     </row>
     <row r="180">
@@ -5386,7 +5386,7 @@
         <v>137.871048</v>
       </c>
       <c r="C180" t="n">
-        <v>149.921844</v>
+        <v>149.92186</v>
       </c>
     </row>
     <row r="181">
@@ -5397,7 +5397,7 @@
         <v>144.397476</v>
       </c>
       <c r="C181" t="n">
-        <v>151.284744</v>
+        <v>151.28476</v>
       </c>
     </row>
     <row r="182">
@@ -5408,7 +5408,7 @@
         <v>138.727646</v>
       </c>
       <c r="C182" t="n">
-        <v>152.888199</v>
+        <v>152.888214</v>
       </c>
     </row>
     <row r="183">
@@ -5419,7 +5419,7 @@
         <v>135.709167</v>
       </c>
       <c r="C183" t="n">
-        <v>151.364944</v>
+        <v>151.364929</v>
       </c>
     </row>
     <row r="184">
@@ -5441,7 +5441,7 @@
         <v>140.563202</v>
       </c>
       <c r="C185" t="n">
-        <v>155.934738</v>
+        <v>155.934753</v>
       </c>
     </row>
     <row r="186">
@@ -5452,7 +5452,7 @@
         <v>138.768433</v>
       </c>
       <c r="C186" t="n">
-        <v>151.364944</v>
+        <v>151.364929</v>
       </c>
     </row>
     <row r="187">
@@ -5463,7 +5463,7 @@
         <v>137.626312</v>
       </c>
       <c r="C187" t="n">
-        <v>151.525284</v>
+        <v>151.525299</v>
       </c>
     </row>
     <row r="188">
@@ -5474,7 +5474,7 @@
         <v>138.238144</v>
       </c>
       <c r="C188" t="n">
-        <v>152.647675</v>
+        <v>152.64769</v>
       </c>
     </row>
     <row r="189">
@@ -5529,7 +5529,7 @@
         <v>116.945656</v>
       </c>
       <c r="C193" t="n">
-        <v>146.795135</v>
+        <v>146.79512</v>
       </c>
     </row>
     <row r="194">
@@ -5540,7 +5540,7 @@
         <v>115.925896</v>
       </c>
       <c r="C194" t="n">
-        <v>141.824432</v>
+        <v>141.824463</v>
       </c>
     </row>
     <row r="195">
@@ -5573,7 +5573,7 @@
         <v>115.273247</v>
       </c>
       <c r="C197" t="n">
-        <v>141.904648</v>
+        <v>141.904633</v>
       </c>
     </row>
     <row r="198">
@@ -5628,7 +5628,7 @@
         <v>107.033615</v>
       </c>
       <c r="C202" t="n">
-        <v>142.70636</v>
+        <v>142.706345</v>
       </c>
     </row>
     <row r="203">
@@ -5672,7 +5672,7 @@
         <v>103.076958</v>
       </c>
       <c r="C206" t="n">
-        <v>142.064972</v>
+        <v>142.064987</v>
       </c>
     </row>
     <row r="207">
@@ -5716,7 +5716,7 @@
         <v>103.076958</v>
       </c>
       <c r="C210" t="n">
-        <v>122.102127</v>
+        <v>122.102112</v>
       </c>
     </row>
     <row r="211">
@@ -5727,7 +5727,7 @@
         <v>108.134956</v>
       </c>
       <c r="C211" t="n">
-        <v>123.625389</v>
+        <v>123.625374</v>
       </c>
     </row>
     <row r="212">
@@ -5738,7 +5738,7 @@
         <v>111.765274</v>
       </c>
       <c r="C212" t="n">
-        <v>127.874519</v>
+        <v>127.874504</v>
       </c>
     </row>
     <row r="213">
@@ -5771,7 +5771,7 @@
         <v>117.516716</v>
       </c>
       <c r="C215" t="n">
-        <v>132.524506</v>
+        <v>132.524475</v>
       </c>
     </row>
     <row r="216">
@@ -5826,7 +5826,7 @@
         <v>117.598282</v>
       </c>
       <c r="C220" t="n">
-        <v>129.237442</v>
+        <v>129.237427</v>
       </c>
     </row>
     <row r="221">
@@ -5837,7 +5837,7 @@
         <v>113.519257</v>
       </c>
       <c r="C221" t="n">
-        <v>127.874519</v>
+        <v>127.874504</v>
       </c>
     </row>
     <row r="222">
@@ -5870,7 +5870,7 @@
         <v>106.544136</v>
       </c>
       <c r="C224" t="n">
-        <v>125.950394</v>
+        <v>125.950386</v>
       </c>
     </row>
     <row r="225">
@@ -5881,7 +5881,7 @@
         <v>107.441513</v>
       </c>
       <c r="C225" t="n">
-        <v>127.874519</v>
+        <v>127.874504</v>
       </c>
     </row>
     <row r="226">
@@ -5892,7 +5892,7 @@
         <v>108.461266</v>
       </c>
       <c r="C226" t="n">
-        <v>127.874519</v>
+        <v>127.874504</v>
       </c>
     </row>
     <row r="227">
@@ -5980,7 +5980,7 @@
         <v>108.583641</v>
       </c>
       <c r="C234" t="n">
-        <v>127.152962</v>
+        <v>127.152977</v>
       </c>
     </row>
     <row r="235">
@@ -6024,7 +6024,7 @@
         <v>112.050812</v>
       </c>
       <c r="C238" t="n">
-        <v>127.152962</v>
+        <v>127.152977</v>
       </c>
     </row>
     <row r="239">
@@ -6101,7 +6101,7 @@
         <v>109.725769</v>
       </c>
       <c r="C245" t="n">
-        <v>121.781425</v>
+        <v>121.781418</v>
       </c>
     </row>
     <row r="246">
@@ -6145,7 +6145,7 @@
         <v>105.157257</v>
       </c>
       <c r="C249" t="n">
-        <v>124.346947</v>
+        <v>124.346931</v>
       </c>
     </row>
     <row r="250">
@@ -6178,7 +6178,7 @@
         <v>109.195503</v>
       </c>
       <c r="C252" t="n">
-        <v>127.313316</v>
+        <v>127.313293</v>
       </c>
     </row>
     <row r="253">
@@ -6200,7 +6200,7 @@
         <v>108.3797</v>
       </c>
       <c r="C254" t="n">
-        <v>126.832268</v>
+        <v>126.832283</v>
       </c>
     </row>
     <row r="255">
@@ -6211,7 +6211,7 @@
         <v>107.074402</v>
       </c>
       <c r="C255" t="n">
-        <v>126.431404</v>
+        <v>126.431419</v>
       </c>
     </row>
     <row r="256">
@@ -6244,7 +6244,7 @@
         <v>106.054649</v>
       </c>
       <c r="C258" t="n">
-        <v>124.266754</v>
+        <v>124.266769</v>
       </c>
     </row>
     <row r="259">
@@ -6310,7 +6310,7 @@
         <v>102.791428</v>
       </c>
       <c r="C264" t="n">
-        <v>125.709877</v>
+        <v>125.709862</v>
       </c>
     </row>
     <row r="265">
@@ -6332,7 +6332,7 @@
         <v>99.976898</v>
       </c>
       <c r="C266" t="n">
-        <v>126.110725</v>
+        <v>126.110741</v>
       </c>
     </row>
     <row r="267">
@@ -6343,7 +6343,7 @@
         <v>102.138779</v>
       </c>
       <c r="C267" t="n">
-        <v>126.832268</v>
+        <v>126.832283</v>
       </c>
     </row>
     <row r="268">
@@ -6354,7 +6354,7 @@
         <v>99.936104</v>
       </c>
       <c r="C268" t="n">
-        <v>123.625389</v>
+        <v>123.625374</v>
       </c>
     </row>
     <row r="269">
@@ -6365,7 +6365,7 @@
         <v>99.85453</v>
       </c>
       <c r="C269" t="n">
-        <v>123.465042</v>
+        <v>123.465057</v>
       </c>
     </row>
     <row r="270">
@@ -6376,7 +6376,7 @@
         <v>100.140068</v>
       </c>
       <c r="C270" t="n">
-        <v>123.144363</v>
+        <v>123.144379</v>
       </c>
     </row>
     <row r="271">
@@ -6387,7 +6387,7 @@
         <v>98.304497</v>
       </c>
       <c r="C271" t="n">
-        <v>120.739204</v>
+        <v>120.739189</v>
       </c>
     </row>
     <row r="272">
@@ -6398,7 +6398,7 @@
         <v>103.444077</v>
       </c>
       <c r="C272" t="n">
-        <v>121.781425</v>
+        <v>121.781418</v>
       </c>
     </row>
     <row r="273">
@@ -6420,7 +6420,7 @@
         <v>103.199333</v>
       </c>
       <c r="C274" t="n">
-        <v>122.102127</v>
+        <v>122.102112</v>
       </c>
     </row>
     <row r="275">
@@ -6431,7 +6431,7 @@
         <v>102.66906</v>
       </c>
       <c r="C275" t="n">
-        <v>121.781425</v>
+        <v>121.781418</v>
       </c>
     </row>
     <row r="276">
@@ -6442,7 +6442,7 @@
         <v>101.975624</v>
       </c>
       <c r="C276" t="n">
-        <v>120.338341</v>
+        <v>120.338333</v>
       </c>
     </row>
     <row r="277">
@@ -6453,7 +6453,7 @@
         <v>97.896599</v>
       </c>
       <c r="C277" t="n">
-        <v>119.456436</v>
+        <v>119.456444</v>
       </c>
     </row>
     <row r="278">
@@ -6464,7 +6464,7 @@
         <v>98.712402</v>
       </c>
       <c r="C278" t="n">
-        <v>119.135765</v>
+        <v>119.13575</v>
       </c>
     </row>
     <row r="279">
@@ -6519,7 +6519,7 @@
         <v>103.321701</v>
       </c>
       <c r="C283" t="n">
-        <v>123.545212</v>
+        <v>123.545227</v>
       </c>
     </row>
     <row r="284">
@@ -6530,7 +6530,7 @@
         <v>102.873009</v>
       </c>
       <c r="C284" t="n">
-        <v>121.540909</v>
+        <v>121.540924</v>
       </c>
     </row>
     <row r="285">
@@ -6541,7 +6541,7 @@
         <v>103.117744</v>
       </c>
       <c r="C285" t="n">
-        <v>121.781425</v>
+        <v>121.781418</v>
       </c>
     </row>
     <row r="286">
@@ -6552,7 +6552,7 @@
         <v>98.712402</v>
       </c>
       <c r="C286" t="n">
-        <v>120.498688</v>
+        <v>120.498672</v>
       </c>
     </row>
     <row r="287">
@@ -6563,7 +6563,7 @@
         <v>98.467667</v>
       </c>
       <c r="C287" t="n">
-        <v>120.578835</v>
+        <v>120.57885</v>
       </c>
     </row>
     <row r="288">
@@ -6574,7 +6574,7 @@
         <v>102.301949</v>
       </c>
       <c r="C288" t="n">
-        <v>121.781425</v>
+        <v>121.781418</v>
       </c>
     </row>
     <row r="289">
@@ -6585,7 +6585,7 @@
         <v>102.220367</v>
       </c>
       <c r="C289" t="n">
-        <v>119.77713</v>
+        <v>119.777115</v>
       </c>
     </row>
     <row r="290">
@@ -6640,7 +6640,7 @@
         <v>104.83094</v>
       </c>
       <c r="C294" t="n">
-        <v>121.059883</v>
+        <v>121.059875</v>
       </c>
     </row>
     <row r="295">
@@ -6651,7 +6651,7 @@
         <v>105.442795</v>
       </c>
       <c r="C295" t="n">
-        <v>119.616776</v>
+        <v>119.616791</v>
       </c>
     </row>
     <row r="296">
@@ -6673,7 +6673,7 @@
         <v>103.036171</v>
       </c>
       <c r="C297" t="n">
-        <v>116.570236</v>
+        <v>116.570221</v>
       </c>
     </row>
     <row r="298">
@@ -6695,7 +6695,7 @@
         <v>104.463829</v>
       </c>
       <c r="C299" t="n">
-        <v>117.933174</v>
+        <v>117.933182</v>
       </c>
     </row>
     <row r="300">
@@ -6717,7 +6717,7 @@
         <v>107.971802</v>
       </c>
       <c r="C301" t="n">
-        <v>118.654716</v>
+        <v>118.654724</v>
       </c>
     </row>
     <row r="302">
@@ -6739,7 +6739,7 @@
         <v>109.481026</v>
       </c>
       <c r="C303" t="n">
-        <v>122.102127</v>
+        <v>122.102112</v>
       </c>
     </row>
     <row r="304">
@@ -6761,7 +6761,7 @@
         <v>109.437477</v>
       </c>
       <c r="C305" t="n">
-        <v>121.941772</v>
+        <v>121.94178</v>
       </c>
     </row>
     <row r="306">
@@ -6772,7 +6772,7 @@
         <v>108.000374</v>
       </c>
       <c r="C306" t="n">
-        <v>120.899529</v>
+        <v>120.899544</v>
       </c>
     </row>
     <row r="307">
@@ -6849,7 +6849,7 @@
         <v>106.066818</v>
       </c>
       <c r="C313" t="n">
-        <v>121.12178</v>
+        <v>121.121765</v>
       </c>
     </row>
     <row r="314">
@@ -6937,7 +6937,7 @@
         <v>108.13102</v>
       </c>
       <c r="C321" t="n">
-        <v>122.232979</v>
+        <v>122.232994</v>
       </c>
     </row>
     <row r="322">
@@ -6948,7 +6948,7 @@
         <v>110.613289</v>
       </c>
       <c r="C322" t="n">
-        <v>123.515144</v>
+        <v>123.51516</v>
       </c>
     </row>
     <row r="323">
@@ -6981,7 +6981,7 @@
         <v>112.268127</v>
       </c>
       <c r="C325" t="n">
-        <v>124.968269</v>
+        <v>124.968254</v>
       </c>
     </row>
     <row r="326">
@@ -6992,7 +6992,7 @@
         <v>110.87458</v>
       </c>
       <c r="C326" t="n">
-        <v>123.429657</v>
+        <v>123.429672</v>
       </c>
     </row>
     <row r="327">
@@ -7212,7 +7212,7 @@
         <v>96.764854</v>
       </c>
       <c r="C346" t="n">
-        <v>105.906761</v>
+        <v>105.906769</v>
       </c>
     </row>
     <row r="347">
@@ -7223,7 +7223,7 @@
         <v>96.28582</v>
       </c>
       <c r="C347" t="n">
-        <v>106.334145</v>
+        <v>106.334152</v>
       </c>
     </row>
     <row r="348">
@@ -7300,7 +7300,7 @@
         <v>94.674522</v>
       </c>
       <c r="C354" t="n">
-        <v>107.61631</v>
+        <v>107.616318</v>
       </c>
     </row>
     <row r="355">
@@ -7333,7 +7333,7 @@
         <v>96.939049</v>
       </c>
       <c r="C357" t="n">
-        <v>111.120888</v>
+        <v>111.120895</v>
       </c>
     </row>
     <row r="358">
@@ -7344,7 +7344,7 @@
         <v>97.374535</v>
       </c>
       <c r="C358" t="n">
-        <v>111.97567</v>
+        <v>111.975677</v>
       </c>
     </row>
     <row r="359">
@@ -7377,7 +7377,7 @@
         <v>90.929352</v>
       </c>
       <c r="C361" t="n">
-        <v>110.864464</v>
+        <v>110.864456</v>
       </c>
     </row>
     <row r="362">
@@ -7399,7 +7399,7 @@
         <v>90.189026</v>
       </c>
       <c r="C363" t="n">
-        <v>109.66777</v>
+        <v>109.667778</v>
       </c>
     </row>
     <row r="364">
@@ -7410,7 +7410,7 @@
         <v>90.493866</v>
       </c>
       <c r="C364" t="n">
-        <v>108.727524</v>
+        <v>108.727516</v>
       </c>
     </row>
     <row r="365">
@@ -7443,7 +7443,7 @@
         <v>87.750305</v>
       </c>
       <c r="C367" t="n">
-        <v>105.222946</v>
+        <v>105.222939</v>
       </c>
     </row>
     <row r="368">
@@ -7575,7 +7575,7 @@
         <v>90.232574</v>
       </c>
       <c r="C379" t="n">
-        <v>106.505104</v>
+        <v>106.505096</v>
       </c>
     </row>
     <row r="380">
@@ -7597,7 +7597,7 @@
         <v>91.495483</v>
       </c>
       <c r="C381" t="n">
-        <v>105.222946</v>
+        <v>105.222939</v>
       </c>
     </row>
     <row r="382">
@@ -7630,7 +7630,7 @@
         <v>89.274506</v>
       </c>
       <c r="C384" t="n">
-        <v>101.205498</v>
+        <v>101.20549</v>
       </c>
     </row>
     <row r="385">
@@ -7641,7 +7641,7 @@
         <v>88.53418</v>
       </c>
       <c r="C385" t="n">
-        <v>101.632889</v>
+        <v>101.632881</v>
       </c>
     </row>
     <row r="386">
@@ -7707,7 +7707,7 @@
         <v>87.044823</v>
       </c>
       <c r="C391" t="n">
-        <v>101.632889</v>
+        <v>101.632881</v>
       </c>
     </row>
     <row r="392">
@@ -7718,7 +7718,7 @@
         <v>87.314819</v>
       </c>
       <c r="C392" t="n">
-        <v>100.350716</v>
+        <v>100.350708</v>
       </c>
     </row>
     <row r="393">
@@ -7740,7 +7740,7 @@
         <v>85.564163</v>
       </c>
       <c r="C394" t="n">
-        <v>99.154037</v>
+        <v>99.15403</v>
       </c>
     </row>
     <row r="395">
@@ -7751,7 +7751,7 @@
         <v>84.066093</v>
       </c>
       <c r="C395" t="n">
-        <v>98.042816</v>
+        <v>98.042824</v>
       </c>
     </row>
     <row r="396">
@@ -7773,7 +7773,7 @@
         <v>83.508675</v>
       </c>
       <c r="C397" t="n">
-        <v>98.726646</v>
+        <v>98.726639</v>
       </c>
     </row>
     <row r="398">
@@ -7784,7 +7784,7 @@
         <v>83.857071</v>
       </c>
       <c r="C398" t="n">
-        <v>98.641167</v>
+        <v>98.641159</v>
       </c>
     </row>
     <row r="399">
@@ -7817,7 +7817,7 @@
         <v>81.505447</v>
       </c>
       <c r="C401" t="n">
-        <v>95.56398</v>
+        <v>95.563972</v>
       </c>
     </row>
     <row r="402">
@@ -7828,7 +7828,7 @@
         <v>77.516403</v>
       </c>
       <c r="C402" t="n">
-        <v>92.230347</v>
+        <v>92.230339</v>
       </c>
     </row>
     <row r="403">
@@ -7839,7 +7839,7 @@
         <v>76.749947</v>
       </c>
       <c r="C403" t="n">
-        <v>91.461037</v>
+        <v>91.461044</v>
       </c>
     </row>
     <row r="404">
@@ -7850,7 +7850,7 @@
         <v>79.362854</v>
       </c>
       <c r="C404" t="n">
-        <v>94.709198</v>
+        <v>94.70919</v>
       </c>
     </row>
     <row r="405">
@@ -7883,7 +7883,7 @@
         <v>77.516403</v>
       </c>
       <c r="C407" t="n">
-        <v>92.657738</v>
+        <v>92.65773</v>
       </c>
     </row>
     <row r="408">
@@ -8004,7 +8004,7 @@
         <v>78.875107</v>
       </c>
       <c r="C418" t="n">
-        <v>82.998764</v>
+        <v>82.998756</v>
       </c>
     </row>
     <row r="419">
@@ -8059,7 +8059,7 @@
         <v>88.011597</v>
       </c>
       <c r="C423" t="n">
-        <v>87.870979</v>
+        <v>87.870987</v>
       </c>
     </row>
     <row r="424">
@@ -8081,7 +8081,7 @@
         <v>88.22934</v>
       </c>
       <c r="C425" t="n">
-        <v>88.640282</v>
+        <v>88.640274</v>
       </c>
     </row>
     <row r="426">
@@ -8114,7 +8114,7 @@
         <v>84.414482</v>
       </c>
       <c r="C428" t="n">
-        <v>89.495064</v>
+        <v>89.495056</v>
       </c>
     </row>
     <row r="429">
@@ -8169,7 +8169,7 @@
         <v>82.289322</v>
       </c>
       <c r="C433" t="n">
-        <v>108.38562</v>
+        <v>108.385612</v>
       </c>
     </row>
     <row r="434">
@@ -8235,7 +8235,7 @@
         <v>79.989952</v>
       </c>
       <c r="C439" t="n">
-        <v>99.154037</v>
+        <v>99.15403</v>
       </c>
     </row>
     <row r="440">
@@ -8257,7 +8257,7 @@
         <v>80.059631</v>
       </c>
       <c r="C441" t="n">
-        <v>102.658615</v>
+        <v>102.658607</v>
       </c>
     </row>
     <row r="442">
@@ -8301,7 +8301,7 @@
         <v>83.595772</v>
       </c>
       <c r="C445" t="n">
-        <v>104.795555</v>
+        <v>104.795547</v>
       </c>
     </row>
     <row r="446">
@@ -8356,7 +8356,7 @@
         <v>85.877716</v>
       </c>
       <c r="C450" t="n">
-        <v>112.6595</v>
+        <v>112.659492</v>
       </c>
     </row>
     <row r="451">
@@ -8422,7 +8422,7 @@
         <v>84.867393</v>
       </c>
       <c r="C456" t="n">
-        <v>115.736687</v>
+        <v>115.736671</v>
       </c>
     </row>
     <row r="457">
@@ -8510,7 +8510,7 @@
         <v>83.369324</v>
       </c>
       <c r="C464" t="n">
-        <v>115.993118</v>
+        <v>115.993111</v>
       </c>
     </row>
     <row r="465">
@@ -8543,7 +8543,7 @@
         <v>80.442856</v>
       </c>
       <c r="C467" t="n">
-        <v>113.514275</v>
+        <v>113.514267</v>
       </c>
     </row>
     <row r="468">
@@ -8587,7 +8587,7 @@
         <v>79.362854</v>
       </c>
       <c r="C471" t="n">
-        <v>110.864464</v>
+        <v>110.864456</v>
       </c>
     </row>
     <row r="472">
@@ -8609,7 +8609,7 @@
         <v>78.735756</v>
       </c>
       <c r="C473" t="n">
-        <v>108.727524</v>
+        <v>108.727516</v>
       </c>
     </row>
     <row r="474">
@@ -8642,7 +8642,7 @@
         <v>79.275757</v>
       </c>
       <c r="C476" t="n">
-        <v>108.727524</v>
+        <v>108.727516</v>
       </c>
     </row>
     <row r="477">
@@ -8675,7 +8675,7 @@
         <v>79.746086</v>
       </c>
       <c r="C479" t="n">
-        <v>109.154915</v>
+        <v>109.154907</v>
       </c>
     </row>
     <row r="480">
@@ -8697,7 +8697,7 @@
         <v>79.223503</v>
       </c>
       <c r="C481" t="n">
-        <v>105.47937</v>
+        <v>105.479378</v>
       </c>
     </row>
     <row r="482">
@@ -8752,7 +8752,7 @@
         <v>84.170616</v>
       </c>
       <c r="C486" t="n">
-        <v>113.343315</v>
+        <v>113.343323</v>
       </c>
     </row>
     <row r="487">
@@ -8774,7 +8774,7 @@
         <v>87.271271</v>
       </c>
       <c r="C488" t="n">
-        <v>113.94165</v>
+        <v>113.941658</v>
       </c>
     </row>
     <row r="489">
@@ -8796,7 +8796,7 @@
         <v>92.671295</v>
       </c>
       <c r="C490" t="n">
-        <v>112.488548</v>
+        <v>112.488541</v>
       </c>
     </row>
     <row r="491">
@@ -8851,7 +8851,7 @@
         <v>93.193871</v>
       </c>
       <c r="C495" t="n">
-        <v>118.899353</v>
+        <v>118.899368</v>
       </c>
     </row>
     <row r="496">
@@ -8873,7 +8873,7 @@
         <v>93.890648</v>
       </c>
       <c r="C497" t="n">
-        <v>119.497704</v>
+        <v>119.497711</v>
       </c>
     </row>
     <row r="498">
@@ -8917,7 +8917,7 @@
         <v>93.847099</v>
       </c>
       <c r="C501" t="n">
-        <v>120.694389</v>
+        <v>120.694374</v>
       </c>
     </row>
     <row r="502">
@@ -8972,7 +8972,7 @@
         <v>94.06485</v>
       </c>
       <c r="C506" t="n">
-        <v>123.686104</v>
+        <v>123.686089</v>
       </c>
     </row>
     <row r="507">
@@ -8994,7 +8994,7 @@
         <v>94.674522</v>
       </c>
       <c r="C508" t="n">
-        <v>123.600639</v>
+        <v>123.600624</v>
       </c>
     </row>
     <row r="509">
@@ -9016,7 +9016,7 @@
         <v>95.632591</v>
       </c>
       <c r="C510" t="n">
-        <v>127.361641</v>
+        <v>127.361649</v>
       </c>
     </row>
     <row r="511">
@@ -9038,7 +9038,7 @@
         <v>96.721306</v>
       </c>
       <c r="C512" t="n">
-        <v>127.703552</v>
+        <v>127.703537</v>
       </c>
     </row>
     <row r="513">
@@ -9049,7 +9049,7 @@
         <v>94.848717</v>
       </c>
       <c r="C513" t="n">
-        <v>126.93425</v>
+        <v>126.934265</v>
       </c>
     </row>
     <row r="514">
@@ -9071,7 +9071,7 @@
         <v>92.453545</v>
       </c>
       <c r="C515" t="n">
-        <v>123.087761</v>
+        <v>123.087769</v>
       </c>
     </row>
     <row r="516">
@@ -9104,7 +9104,7 @@
         <v>94.674522</v>
       </c>
       <c r="C518" t="n">
-        <v>124.198982</v>
+        <v>124.198967</v>
       </c>
     </row>
     <row r="519">
@@ -9115,7 +9115,7 @@
         <v>98.332603</v>
       </c>
       <c r="C519" t="n">
-        <v>125.481125</v>
+        <v>125.48114</v>
       </c>
     </row>
     <row r="520">
@@ -9192,7 +9192,7 @@
         <v>105.822952</v>
       </c>
       <c r="C526" t="n">
-        <v>133.516022</v>
+        <v>133.516037</v>
       </c>
     </row>
     <row r="527">
@@ -9236,7 +9236,7 @@
         <v>104.951973</v>
       </c>
       <c r="C530" t="n">
-        <v>135.909409</v>
+        <v>135.909393</v>
       </c>
     </row>
     <row r="531">
@@ -9269,7 +9269,7 @@
         <v>106.476181</v>
       </c>
       <c r="C533" t="n">
-        <v>138.473724</v>
+        <v>138.47374</v>
       </c>
     </row>
     <row r="534">
@@ -9302,7 +9302,7 @@
         <v>99.116478</v>
       </c>
       <c r="C536" t="n">
-        <v>130.951691</v>
+        <v>130.951706</v>
       </c>
     </row>
     <row r="537">
@@ -9368,7 +9368,7 @@
         <v>93.237427</v>
       </c>
       <c r="C542" t="n">
-        <v>106.505104</v>
+        <v>106.505096</v>
       </c>
     </row>
     <row r="543">
@@ -9379,7 +9379,7 @@
         <v>91.147095</v>
       </c>
       <c r="C543" t="n">
-        <v>104.795555</v>
+        <v>104.795547</v>
       </c>
     </row>
     <row r="544">
@@ -9423,7 +9423,7 @@
         <v>74.48542</v>
       </c>
       <c r="C547" t="n">
-        <v>92.486763</v>
+        <v>92.486771</v>
       </c>
     </row>
     <row r="548">
@@ -9434,7 +9434,7 @@
         <v>67.726685</v>
       </c>
       <c r="C548" t="n">
-        <v>82.272202</v>
+        <v>82.272194</v>
       </c>
     </row>
     <row r="549">
@@ -9445,7 +9445,7 @@
         <v>67.761528</v>
       </c>
       <c r="C549" t="n">
-        <v>83.682579</v>
+        <v>83.682587</v>
       </c>
     </row>
     <row r="550">
@@ -9467,7 +9467,7 @@
         <v>64.62603</v>
       </c>
       <c r="C551" t="n">
-        <v>80.220741</v>
+        <v>80.220734</v>
       </c>
     </row>
     <row r="552">
@@ -9478,7 +9478,7 @@
         <v>71.60997</v>
       </c>
       <c r="C552" t="n">
-        <v>77.399979</v>
+        <v>77.399986</v>
       </c>
     </row>
     <row r="553">
@@ -9577,7 +9577,7 @@
         <v>75.642952</v>
       </c>
       <c r="C561" t="n">
-        <v>91.515846</v>
+        <v>91.515839</v>
       </c>
     </row>
     <row r="562">
@@ -9610,7 +9610,7 @@
         <v>71.078796</v>
       </c>
       <c r="C564" t="n">
-        <v>88.706566</v>
+        <v>88.706573</v>
       </c>
     </row>
     <row r="565">
@@ -9621,7 +9621,7 @@
         <v>72.141136</v>
       </c>
       <c r="C565" t="n">
-        <v>88.37326</v>
+        <v>88.373268</v>
       </c>
     </row>
     <row r="566">
@@ -9687,7 +9687,7 @@
         <v>72.318199</v>
       </c>
       <c r="C571" t="n">
-        <v>89.373177</v>
+        <v>89.373169</v>
       </c>
     </row>
     <row r="572">
@@ -9698,7 +9698,7 @@
         <v>71.82637</v>
       </c>
       <c r="C572" t="n">
-        <v>90.992081</v>
+        <v>90.992088</v>
       </c>
     </row>
     <row r="573">
@@ -9731,7 +9731,7 @@
         <v>72.455917</v>
       </c>
       <c r="C575" t="n">
-        <v>91.230156</v>
+        <v>91.230164</v>
       </c>
     </row>
     <row r="576">
@@ -9742,7 +9742,7 @@
         <v>70.134491</v>
       </c>
       <c r="C576" t="n">
-        <v>89.706482</v>
+        <v>89.706474</v>
       </c>
     </row>
     <row r="577">
@@ -9786,7 +9786,7 @@
         <v>79.479202</v>
       </c>
       <c r="C580" t="n">
-        <v>107.895378</v>
+        <v>107.89537</v>
       </c>
     </row>
     <row r="581">
@@ -9830,7 +9830,7 @@
         <v>74.226486</v>
       </c>
       <c r="C584" t="n">
-        <v>95.086967</v>
+        <v>95.08696</v>
       </c>
     </row>
     <row r="585">
@@ -9852,7 +9852,7 @@
         <v>74.619949</v>
       </c>
       <c r="C586" t="n">
-        <v>100.086525</v>
+        <v>100.086533</v>
       </c>
     </row>
     <row r="587">
@@ -9863,7 +9863,7 @@
         <v>74.167473</v>
       </c>
       <c r="C587" t="n">
-        <v>101.134056</v>
+        <v>101.134048</v>
       </c>
     </row>
     <row r="588">
@@ -9896,7 +9896,7 @@
         <v>70.803375</v>
       </c>
       <c r="C590" t="n">
-        <v>99.991295</v>
+        <v>99.991302</v>
       </c>
     </row>
     <row r="591">
@@ -9918,7 +9918,7 @@
         <v>73.400223</v>
       </c>
       <c r="C592" t="n">
-        <v>100.657906</v>
+        <v>100.657898</v>
       </c>
     </row>
     <row r="593">
@@ -9929,7 +9929,7 @@
         <v>75.564255</v>
       </c>
       <c r="C593" t="n">
-        <v>102.46727</v>
+        <v>102.467278</v>
       </c>
     </row>
     <row r="594">
@@ -9973,7 +9973,7 @@
         <v>83.748253</v>
       </c>
       <c r="C597" t="n">
-        <v>111.799797</v>
+        <v>111.799789</v>
       </c>
     </row>
     <row r="598">
@@ -9995,7 +9995,7 @@
         <v>86.128693</v>
       </c>
       <c r="C599" t="n">
-        <v>116.656517</v>
+        <v>116.656509</v>
       </c>
     </row>
     <row r="600">
@@ -10017,7 +10017,7 @@
         <v>89.256706</v>
       </c>
       <c r="C601" t="n">
-        <v>123.89399</v>
+        <v>123.893982</v>
       </c>
     </row>
     <row r="602">
@@ -10072,7 +10072,7 @@
         <v>86.42379</v>
       </c>
       <c r="C606" t="n">
-        <v>117.704048</v>
+        <v>117.704041</v>
       </c>
     </row>
     <row r="607">
@@ -10094,7 +10094,7 @@
         <v>87.663193</v>
       </c>
       <c r="C608" t="n">
-        <v>120.751404</v>
+        <v>120.751396</v>
       </c>
     </row>
     <row r="609">
@@ -10160,7 +10160,7 @@
         <v>87.466461</v>
       </c>
       <c r="C614" t="n">
-        <v>117.704048</v>
+        <v>117.704041</v>
       </c>
     </row>
     <row r="615">
@@ -10204,7 +10204,7 @@
         <v>86.836922</v>
       </c>
       <c r="C618" t="n">
-        <v>117.132668</v>
+        <v>117.13266</v>
       </c>
     </row>
     <row r="619">
@@ -10325,7 +10325,7 @@
         <v>100.185097</v>
       </c>
       <c r="C629" t="n">
-        <v>124.465363</v>
+        <v>124.465355</v>
       </c>
     </row>
     <row r="630">
@@ -10336,7 +10336,7 @@
         <v>100.185097</v>
       </c>
       <c r="C630" t="n">
-        <v>125.512894</v>
+        <v>125.512886</v>
       </c>
     </row>
     <row r="631">
@@ -10358,7 +10358,7 @@
         <v>104.267265</v>
       </c>
       <c r="C632" t="n">
-        <v>125.036743</v>
+        <v>125.036736</v>
       </c>
     </row>
     <row r="633">
@@ -10391,7 +10391,7 @@
         <v>103.72625</v>
       </c>
       <c r="C635" t="n">
-        <v>125.322441</v>
+        <v>125.322433</v>
       </c>
     </row>
     <row r="636">
@@ -10402,7 +10402,7 @@
         <v>104.218079</v>
       </c>
       <c r="C636" t="n">
-        <v>124.941505</v>
+        <v>124.941498</v>
       </c>
     </row>
     <row r="637">
@@ -10413,7 +10413,7 @@
         <v>102.250771</v>
       </c>
       <c r="C637" t="n">
-        <v>122.655991</v>
+        <v>122.655998</v>
       </c>
     </row>
     <row r="638">
@@ -10468,7 +10468,7 @@
         <v>101.168755</v>
       </c>
       <c r="C642" t="n">
-        <v>115.894669</v>
+        <v>115.894676</v>
       </c>
     </row>
     <row r="643">
@@ -10479,7 +10479,7 @@
         <v>100.480202</v>
       </c>
       <c r="C643" t="n">
-        <v>116.751747</v>
+        <v>116.75174</v>
       </c>
     </row>
     <row r="644">
@@ -10490,7 +10490,7 @@
         <v>100.922836</v>
       </c>
       <c r="C644" t="n">
-        <v>115.989906</v>
+        <v>115.989914</v>
       </c>
     </row>
     <row r="645">
@@ -10501,7 +10501,7 @@
         <v>100.332649</v>
       </c>
       <c r="C645" t="n">
-        <v>115.418518</v>
+        <v>115.418526</v>
       </c>
     </row>
     <row r="646">
@@ -10567,7 +10567,7 @@
         <v>102.349144</v>
       </c>
       <c r="C651" t="n">
-        <v>113.609161</v>
+        <v>113.609169</v>
       </c>
     </row>
     <row r="652">
@@ -10611,7 +10611,7 @@
         <v>96.496399</v>
       </c>
       <c r="C655" t="n">
-        <v>110.466583</v>
+        <v>110.466576</v>
       </c>
     </row>
     <row r="656">
@@ -10622,7 +10622,7 @@
         <v>97.047249</v>
       </c>
       <c r="C656" t="n">
-        <v>109.799965</v>
+        <v>109.799973</v>
       </c>
     </row>
     <row r="657">
@@ -10655,7 +10655,7 @@
         <v>97.971878</v>
       </c>
       <c r="C659" t="n">
-        <v>107.22876</v>
+        <v>107.228767</v>
       </c>
     </row>
     <row r="660">
@@ -10666,7 +10666,7 @@
         <v>96.594765</v>
       </c>
       <c r="C660" t="n">
-        <v>106.847839</v>
+        <v>106.847847</v>
       </c>
     </row>
     <row r="661">
@@ -10699,7 +10699,7 @@
         <v>92.463425</v>
       </c>
       <c r="C663" t="n">
-        <v>95.705956</v>
+        <v>95.705963</v>
       </c>
     </row>
     <row r="664">
@@ -10754,7 +10754,7 @@
         <v>87.859924</v>
       </c>
       <c r="C668" t="n">
-        <v>96.467804</v>
+        <v>96.467796</v>
       </c>
     </row>
     <row r="669">
@@ -10765,7 +10765,7 @@
         <v>88.627174</v>
       </c>
       <c r="C669" t="n">
-        <v>98.181931</v>
+        <v>98.181938</v>
       </c>
     </row>
     <row r="670">
@@ -10776,7 +10776,7 @@
         <v>88.587822</v>
       </c>
       <c r="C670" t="n">
-        <v>99.705612</v>
+        <v>99.705605</v>
       </c>
     </row>
     <row r="671">
@@ -10787,7 +10787,7 @@
         <v>86.502487</v>
       </c>
       <c r="C671" t="n">
-        <v>99.610374</v>
+        <v>99.610382</v>
       </c>
     </row>
     <row r="672">
@@ -10809,7 +10809,7 @@
         <v>86.187714</v>
       </c>
       <c r="C673" t="n">
-        <v>99.134224</v>
+        <v>99.134232</v>
       </c>
     </row>
     <row r="674">
@@ -10820,7 +10820,7 @@
         <v>86.384445</v>
       </c>
       <c r="C674" t="n">
-        <v>97.89624</v>
+        <v>97.896248</v>
       </c>
     </row>
     <row r="675">
@@ -10842,7 +10842,7 @@
         <v>83.0597</v>
       </c>
       <c r="C676" t="n">
-        <v>96.372566</v>
+        <v>96.372559</v>
       </c>
     </row>
     <row r="677">
@@ -10853,7 +10853,7 @@
         <v>80.659584</v>
       </c>
       <c r="C677" t="n">
-        <v>94.372742</v>
+        <v>94.372734</v>
       </c>
     </row>
     <row r="678">
@@ -10875,7 +10875,7 @@
         <v>81.938332</v>
       </c>
       <c r="C679" t="n">
-        <v>93.563286</v>
+        <v>93.563293</v>
       </c>
     </row>
     <row r="680">
@@ -10930,7 +10930,7 @@
         <v>84.692558</v>
       </c>
       <c r="C684" t="n">
-        <v>94.848892</v>
+        <v>94.848885</v>
       </c>
     </row>
     <row r="685">
@@ -10952,7 +10952,7 @@
         <v>83.453156</v>
       </c>
       <c r="C686" t="n">
-        <v>103.133888</v>
+        <v>103.133881</v>
       </c>
     </row>
     <row r="687">
@@ -10963,7 +10963,7 @@
         <v>85.57785</v>
       </c>
       <c r="C687" t="n">
-        <v>103.133888</v>
+        <v>103.133881</v>
       </c>
     </row>
     <row r="688">
@@ -10996,7 +10996,7 @@
         <v>89.453445</v>
       </c>
       <c r="C690" t="n">
-        <v>103.990944</v>
+        <v>103.990952</v>
       </c>
     </row>
     <row r="691">
@@ -11073,7 +11073,7 @@
         <v>91.401077</v>
       </c>
       <c r="C697" t="n">
-        <v>103.990944</v>
+        <v>103.990952</v>
       </c>
     </row>
     <row r="698">
@@ -11161,7 +11161,7 @@
         <v>84.161385</v>
       </c>
       <c r="C705" t="n">
-        <v>102.37204</v>
+        <v>102.372047</v>
       </c>
     </row>
     <row r="706">
@@ -11205,7 +11205,7 @@
         <v>86.974632</v>
       </c>
       <c r="C709" t="n">
-        <v>111.799797</v>
+        <v>111.799789</v>
       </c>
     </row>
     <row r="710">
@@ -11227,7 +11227,7 @@
         <v>88.627174</v>
       </c>
       <c r="C711" t="n">
-        <v>109.514282</v>
+        <v>109.514275</v>
       </c>
     </row>
     <row r="712">
@@ -11293,7 +11293,7 @@
         <v>102.447502</v>
       </c>
       <c r="C717" t="n">
-        <v>124.274895</v>
+        <v>124.274902</v>
       </c>
     </row>
     <row r="718">
@@ -11304,7 +11304,7 @@
         <v>102.890144</v>
       </c>
       <c r="C718" t="n">
-        <v>126.274727</v>
+        <v>126.274734</v>
       </c>
     </row>
     <row r="719">
@@ -11359,7 +11359,7 @@
         <v>103.234421</v>
       </c>
       <c r="C723" t="n">
-        <v>124.751045</v>
+        <v>124.751053</v>
       </c>
     </row>
     <row r="724">
@@ -11381,7 +11381,7 @@
         <v>102.98851</v>
       </c>
       <c r="C725" t="n">
-        <v>124.751045</v>
+        <v>124.751053</v>
       </c>
     </row>
     <row r="726">
@@ -11425,7 +11425,7 @@
         <v>102.250771</v>
       </c>
       <c r="C729" t="n">
-        <v>124.751045</v>
+        <v>124.751053</v>
       </c>
     </row>
     <row r="730">
@@ -11447,7 +11447,7 @@
         <v>101.513031</v>
       </c>
       <c r="C731" t="n">
-        <v>124.274895</v>
+        <v>124.274902</v>
       </c>
     </row>
     <row r="732">
@@ -11546,7 +11546,7 @@
         <v>94.529091</v>
       </c>
       <c r="C740" t="n">
-        <v>121.608467</v>
+        <v>121.608459</v>
       </c>
     </row>
     <row r="741">
@@ -11579,7 +11579,7 @@
         <v>96.870193</v>
       </c>
       <c r="C743" t="n">
-        <v>124.941505</v>
+        <v>124.941498</v>
       </c>
     </row>
     <row r="744">
@@ -11590,7 +11590,7 @@
         <v>99.742462</v>
       </c>
       <c r="C744" t="n">
-        <v>125.989044</v>
+        <v>125.989037</v>
       </c>
     </row>
     <row r="745">
@@ -11623,7 +11623,7 @@
         <v>99.004723</v>
       </c>
       <c r="C747" t="n">
-        <v>128.084106</v>
+        <v>128.084091</v>
       </c>
     </row>
     <row r="748">
@@ -11656,7 +11656,7 @@
         <v>103.627884</v>
       </c>
       <c r="C750" t="n">
-        <v>128.941162</v>
+        <v>128.941147</v>
       </c>
     </row>
     <row r="751">
@@ -11667,7 +11667,7 @@
         <v>108.054329</v>
       </c>
       <c r="C751" t="n">
-        <v>132.369431</v>
+        <v>132.369446</v>
       </c>
     </row>
     <row r="752">
@@ -11854,7 +11854,7 @@
         <v>103.480339</v>
       </c>
       <c r="C768" t="n">
-        <v>121.608467</v>
+        <v>121.608459</v>
       </c>
     </row>
     <row r="769">
@@ -11865,7 +11865,7 @@
         <v>104.070534</v>
       </c>
       <c r="C769" t="n">
-        <v>123.89399</v>
+        <v>123.893982</v>
       </c>
     </row>
     <row r="770">
@@ -11942,7 +11942,7 @@
         <v>107.955963</v>
       </c>
       <c r="C776" t="n">
-        <v>126.750877</v>
+        <v>126.750885</v>
       </c>
     </row>
     <row r="777">
@@ -11986,7 +11986,7 @@
         <v>110.857735</v>
       </c>
       <c r="C780" t="n">
-        <v>132.369431</v>
+        <v>132.369446</v>
       </c>
     </row>
     <row r="781">
@@ -12019,7 +12019,7 @@
         <v>111.644661</v>
       </c>
       <c r="C783" t="n">
-        <v>132.940811</v>
+        <v>132.940826</v>
       </c>
     </row>
     <row r="784">
@@ -12030,7 +12030,7 @@
         <v>111.447937</v>
       </c>
       <c r="C784" t="n">
-        <v>134.178802</v>
+        <v>134.178787</v>
       </c>
     </row>
     <row r="785">
@@ -12041,7 +12041,7 @@
         <v>112.333221</v>
       </c>
       <c r="C785" t="n">
-        <v>134.940643</v>
+        <v>134.940628</v>
       </c>
     </row>
     <row r="786">
@@ -12052,7 +12052,7 @@
         <v>115.087448</v>
       </c>
       <c r="C786" t="n">
-        <v>135.226318</v>
+        <v>135.226334</v>
       </c>
     </row>
     <row r="787">
@@ -12074,7 +12074,7 @@
         <v>114.595627</v>
       </c>
       <c r="C788" t="n">
-        <v>136.65477</v>
+        <v>136.654785</v>
       </c>
     </row>
     <row r="789">
@@ -12096,7 +12096,7 @@
         <v>116.366203</v>
       </c>
       <c r="C790" t="n">
-        <v>153.319977</v>
+        <v>153.319992</v>
       </c>
     </row>
     <row r="791">
@@ -12107,7 +12107,7 @@
         <v>116.218651</v>
       </c>
       <c r="C791" t="n">
-        <v>152.367706</v>
+        <v>152.367691</v>
       </c>
     </row>
     <row r="792">
@@ -12118,7 +12118,7 @@
         <v>118.82534</v>
       </c>
       <c r="C792" t="n">
-        <v>151.1297</v>
+        <v>151.129715</v>
       </c>
     </row>
     <row r="793">
@@ -12173,7 +12173,7 @@
         <v>120.54673</v>
       </c>
       <c r="C797" t="n">
-        <v>154.938889</v>
+        <v>154.938904</v>
       </c>
     </row>
     <row r="798">
@@ -12184,7 +12184,7 @@
         <v>120.497543</v>
       </c>
       <c r="C798" t="n">
-        <v>154.272278</v>
+        <v>154.272293</v>
       </c>
     </row>
     <row r="799">
@@ -12195,7 +12195,7 @@
         <v>120.349998</v>
       </c>
       <c r="C799" t="n">
-        <v>155.415039</v>
+        <v>155.415054</v>
       </c>
     </row>
     <row r="800">
@@ -12250,7 +12250,7 @@
         <v>118.25</v>
       </c>
       <c r="C804" t="n">
-        <v>155.224579</v>
+        <v>155.224594</v>
       </c>
     </row>
     <row r="805">
@@ -12261,7 +12261,7 @@
         <v>119.300003</v>
       </c>
       <c r="C805" t="n">
-        <v>159.986069</v>
+        <v>159.986084</v>
       </c>
     </row>
     <row r="806">

--- a/Danske aktiekurser.xlsx
+++ b/Danske aktiekurser.xlsx
@@ -3436,7 +3436,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>188.870804</v>
+        <v>188.870819</v>
       </c>
       <c r="C3" t="n">
         <v>190.824905</v>
@@ -3458,7 +3458,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="n">
-        <v>190.748566</v>
+        <v>190.748581</v>
       </c>
       <c r="C5" t="n">
         <v>192.046173</v>
@@ -3480,10 +3480,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="n">
-        <v>190.357376</v>
+        <v>190.357361</v>
       </c>
       <c r="C7" t="n">
-        <v>191.588196</v>
+        <v>191.588181</v>
       </c>
     </row>
     <row r="8">
@@ -3494,7 +3494,7 @@
         <v>194.34758</v>
       </c>
       <c r="C8" t="n">
-        <v>195.404678</v>
+        <v>195.404694</v>
       </c>
     </row>
     <row r="9">
@@ -3502,7 +3502,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="n">
-        <v>196.147125</v>
+        <v>196.14711</v>
       </c>
       <c r="C9" t="n">
         <v>196.320663</v>
@@ -3516,7 +3516,7 @@
         <v>194.817032</v>
       </c>
       <c r="C10" t="n">
-        <v>195.099365</v>
+        <v>195.09938</v>
       </c>
     </row>
     <row r="11">
@@ -3524,7 +3524,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="n">
-        <v>196.303574</v>
+        <v>196.303589</v>
       </c>
       <c r="C11" t="n">
         <v>193.572784</v>
@@ -3535,7 +3535,7 @@
         <v>13</v>
       </c>
       <c r="B12" t="n">
-        <v>195.521194</v>
+        <v>195.521179</v>
       </c>
       <c r="C12" t="n">
         <v>192.504166</v>
@@ -3546,7 +3546,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="n">
-        <v>195.990616</v>
+        <v>195.990631</v>
       </c>
       <c r="C13" t="n">
         <v>191.435562</v>
@@ -3560,7 +3560,7 @@
         <v>191.452713</v>
       </c>
       <c r="C14" t="n">
-        <v>191.588196</v>
+        <v>191.588181</v>
       </c>
     </row>
     <row r="15">
@@ -3568,7 +3568,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="n">
-        <v>190.670334</v>
+        <v>190.670319</v>
       </c>
       <c r="C15" t="n">
         <v>191.893509</v>
@@ -3579,7 +3579,7 @@
         <v>17</v>
       </c>
       <c r="B16" t="n">
-        <v>193.33049</v>
+        <v>193.330475</v>
       </c>
       <c r="C16" t="n">
         <v>193.114807</v>
@@ -3590,7 +3590,7 @@
         <v>18</v>
       </c>
       <c r="B17" t="n">
-        <v>192.078629</v>
+        <v>192.078659</v>
       </c>
       <c r="C17" t="n">
         <v>191.435562</v>
@@ -3601,7 +3601,7 @@
         <v>19</v>
       </c>
       <c r="B18" t="n">
-        <v>192.078629</v>
+        <v>192.078659</v>
       </c>
       <c r="C18" t="n">
         <v>190.214249</v>
@@ -3612,10 +3612,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="n">
-        <v>186.680099</v>
+        <v>186.680084</v>
       </c>
       <c r="C19" t="n">
-        <v>185.634476</v>
+        <v>185.634445</v>
       </c>
     </row>
     <row r="20">
@@ -3648,7 +3648,7 @@
         <v>189.966171</v>
       </c>
       <c r="C22" t="n">
-        <v>185.787125</v>
+        <v>185.787109</v>
       </c>
     </row>
     <row r="23">
@@ -3659,7 +3659,7 @@
         <v>190.51384</v>
       </c>
       <c r="C23" t="n">
-        <v>187.008392</v>
+        <v>187.008408</v>
       </c>
     </row>
     <row r="24">
@@ -3678,7 +3678,7 @@
         <v>26</v>
       </c>
       <c r="B25" t="n">
-        <v>191.609207</v>
+        <v>191.609192</v>
       </c>
       <c r="C25" t="n">
         <v>187.619034</v>
@@ -3689,10 +3689,10 @@
         <v>27</v>
       </c>
       <c r="B26" t="n">
-        <v>191.609207</v>
+        <v>191.609192</v>
       </c>
       <c r="C26" t="n">
-        <v>186.397751</v>
+        <v>186.397766</v>
       </c>
     </row>
     <row r="27">
@@ -3714,7 +3714,7 @@
         <v>189.261993</v>
       </c>
       <c r="C28" t="n">
-        <v>188.687668</v>
+        <v>188.687653</v>
       </c>
     </row>
     <row r="29">
@@ -3722,7 +3722,7 @@
         <v>30</v>
       </c>
       <c r="B29" t="n">
-        <v>188.557861</v>
+        <v>188.557846</v>
       </c>
       <c r="C29" t="n">
         <v>187.161057</v>
@@ -3736,7 +3736,7 @@
         <v>188.244904</v>
       </c>
       <c r="C30" t="n">
-        <v>185.787125</v>
+        <v>185.787109</v>
       </c>
     </row>
     <row r="31">
@@ -3747,7 +3747,7 @@
         <v>189.966171</v>
       </c>
       <c r="C31" t="n">
-        <v>188.687668</v>
+        <v>188.687653</v>
       </c>
     </row>
     <row r="32">
@@ -3758,7 +3758,7 @@
         <v>188.949051</v>
       </c>
       <c r="C32" t="n">
-        <v>188.535004</v>
+        <v>188.534988</v>
       </c>
     </row>
     <row r="33">
@@ -3777,10 +3777,10 @@
         <v>35</v>
       </c>
       <c r="B34" t="n">
-        <v>192.313354</v>
+        <v>192.31337</v>
       </c>
       <c r="C34" t="n">
-        <v>193.42012</v>
+        <v>193.420105</v>
       </c>
     </row>
     <row r="35">
@@ -3788,7 +3788,7 @@
         <v>36</v>
       </c>
       <c r="B35" t="n">
-        <v>194.660568</v>
+        <v>194.660553</v>
       </c>
       <c r="C35" t="n">
         <v>196.625992</v>
@@ -3799,10 +3799,10 @@
         <v>37</v>
       </c>
       <c r="B36" t="n">
-        <v>194.895294</v>
+        <v>194.895279</v>
       </c>
       <c r="C36" t="n">
-        <v>196.167999</v>
+        <v>196.167984</v>
       </c>
     </row>
     <row r="37">
@@ -3810,7 +3810,7 @@
         <v>38</v>
       </c>
       <c r="B37" t="n">
-        <v>191.687439</v>
+        <v>191.687424</v>
       </c>
       <c r="C37" t="n">
         <v>185.481796</v>
@@ -3824,7 +3824,7 @@
         <v>192.861038</v>
       </c>
       <c r="C38" t="n">
-        <v>182.428619</v>
+        <v>182.428604</v>
       </c>
     </row>
     <row r="39">
@@ -3832,7 +3832,7 @@
         <v>40</v>
       </c>
       <c r="B39" t="n">
-        <v>193.252228</v>
+        <v>193.252243</v>
       </c>
       <c r="C39" t="n">
         <v>180.444016</v>
@@ -3843,7 +3843,7 @@
         <v>41</v>
       </c>
       <c r="B40" t="n">
-        <v>194.504074</v>
+        <v>194.504089</v>
       </c>
       <c r="C40" t="n">
         <v>186.245102</v>
@@ -3865,10 +3865,10 @@
         <v>43</v>
       </c>
       <c r="B42" t="n">
-        <v>189.731461</v>
+        <v>189.731445</v>
       </c>
       <c r="C42" t="n">
-        <v>183.191895</v>
+        <v>183.19191</v>
       </c>
     </row>
     <row r="43">
@@ -3876,10 +3876,10 @@
         <v>44</v>
       </c>
       <c r="B43" t="n">
-        <v>192.626312</v>
+        <v>192.626328</v>
       </c>
       <c r="C43" t="n">
-        <v>182.733932</v>
+        <v>182.733917</v>
       </c>
     </row>
     <row r="44">
@@ -3887,7 +3887,7 @@
         <v>45</v>
       </c>
       <c r="B44" t="n">
-        <v>190.748566</v>
+        <v>190.748581</v>
       </c>
       <c r="C44" t="n">
         <v>181.665298</v>
@@ -3898,7 +3898,7 @@
         <v>46</v>
       </c>
       <c r="B45" t="n">
-        <v>189.731461</v>
+        <v>189.731445</v>
       </c>
       <c r="C45" t="n">
         <v>177.696136</v>
@@ -3920,7 +3920,7 @@
         <v>48</v>
       </c>
       <c r="B47" t="n">
-        <v>189.340256</v>
+        <v>189.34024</v>
       </c>
       <c r="C47" t="n">
         <v>180.749344</v>
@@ -3945,7 +3945,7 @@
         <v>191.218002</v>
       </c>
       <c r="C49" t="n">
-        <v>182.428619</v>
+        <v>182.428604</v>
       </c>
     </row>
     <row r="50">
@@ -3953,7 +3953,7 @@
         <v>51</v>
       </c>
       <c r="B50" t="n">
-        <v>192.626312</v>
+        <v>192.626328</v>
       </c>
       <c r="C50" t="n">
         <v>180.902008</v>
@@ -3964,7 +3964,7 @@
         <v>52</v>
       </c>
       <c r="B51" t="n">
-        <v>193.095749</v>
+        <v>193.095764</v>
       </c>
       <c r="C51" t="n">
         <v>180.291351</v>
@@ -3978,7 +3978,7 @@
         <v>193.799911</v>
       </c>
       <c r="C52" t="n">
-        <v>183.344543</v>
+        <v>183.344559</v>
       </c>
     </row>
     <row r="53">
@@ -4121,7 +4121,7 @@
         <v>181.761353</v>
       </c>
       <c r="C65" t="n">
-        <v>176.378647</v>
+        <v>176.378632</v>
       </c>
     </row>
     <row r="66">
@@ -4154,7 +4154,7 @@
         <v>182.985062</v>
       </c>
       <c r="C68" t="n">
-        <v>180.868286</v>
+        <v>180.868301</v>
       </c>
     </row>
     <row r="69">
@@ -4176,7 +4176,7 @@
         <v>179.477097</v>
       </c>
       <c r="C70" t="n">
-        <v>180.868286</v>
+        <v>180.868301</v>
       </c>
     </row>
     <row r="71">
@@ -4187,7 +4187,7 @@
         <v>180.619217</v>
       </c>
       <c r="C71" t="n">
-        <v>184.395828</v>
+        <v>184.395844</v>
       </c>
     </row>
     <row r="72">
@@ -4264,7 +4264,7 @@
         <v>183.229797</v>
       </c>
       <c r="C78" t="n">
-        <v>192.894089</v>
+        <v>192.894073</v>
       </c>
     </row>
     <row r="79">
@@ -4275,7 +4275,7 @@
         <v>184.127182</v>
       </c>
       <c r="C79" t="n">
-        <v>194.657883</v>
+        <v>194.657867</v>
       </c>
     </row>
     <row r="80">
@@ -4286,7 +4286,7 @@
         <v>178.498123</v>
       </c>
       <c r="C80" t="n">
-        <v>187.602737</v>
+        <v>187.602722</v>
       </c>
     </row>
     <row r="81">
@@ -4330,7 +4330,7 @@
         <v>177.84549</v>
       </c>
       <c r="C84" t="n">
-        <v>184.716522</v>
+        <v>184.716507</v>
       </c>
     </row>
     <row r="85">
@@ -4363,7 +4363,7 @@
         <v>175.316483</v>
       </c>
       <c r="C87" t="n">
-        <v>184.235519</v>
+        <v>184.235504</v>
       </c>
     </row>
     <row r="88">
@@ -4429,7 +4429,7 @@
         <v>176.540192</v>
       </c>
       <c r="C93" t="n">
-        <v>185.197556</v>
+        <v>185.197571</v>
       </c>
     </row>
     <row r="94">
@@ -4495,7 +4495,7 @@
         <v>173.113815</v>
       </c>
       <c r="C99" t="n">
-        <v>181.02861</v>
+        <v>181.028625</v>
       </c>
     </row>
     <row r="100">
@@ -4528,7 +4528,7 @@
         <v>172.461166</v>
       </c>
       <c r="C102" t="n">
-        <v>173.171738</v>
+        <v>173.171753</v>
       </c>
     </row>
     <row r="103">
@@ -4539,7 +4539,7 @@
         <v>176.295456</v>
       </c>
       <c r="C103" t="n">
-        <v>178.302765</v>
+        <v>178.30275</v>
       </c>
     </row>
     <row r="104">
@@ -4594,7 +4594,7 @@
         <v>177.84549</v>
       </c>
       <c r="C108" t="n">
-        <v>177.020004</v>
+        <v>177.02002</v>
       </c>
     </row>
     <row r="109">
@@ -4682,7 +4682,7 @@
         <v>167.811096</v>
       </c>
       <c r="C116" t="n">
-        <v>173.171738</v>
+        <v>173.171753</v>
       </c>
     </row>
     <row r="117">
@@ -4803,7 +4803,7 @@
         <v>155.533218</v>
       </c>
       <c r="C127" t="n">
-        <v>177.661392</v>
+        <v>177.661407</v>
       </c>
     </row>
     <row r="128">
@@ -4880,7 +4880,7 @@
         <v>159.163544</v>
       </c>
       <c r="C134" t="n">
-        <v>180.707916</v>
+        <v>180.707932</v>
       </c>
     </row>
     <row r="135">
@@ -4891,7 +4891,7 @@
         <v>144.642212</v>
       </c>
       <c r="C135" t="n">
-        <v>177.661392</v>
+        <v>177.661407</v>
       </c>
     </row>
     <row r="136">
@@ -4902,7 +4902,7 @@
         <v>148.394928</v>
       </c>
       <c r="C136" t="n">
-        <v>179.745865</v>
+        <v>179.74585</v>
       </c>
     </row>
     <row r="137">
@@ -4913,7 +4913,7 @@
         <v>147.456757</v>
       </c>
       <c r="C137" t="n">
-        <v>180.387238</v>
+        <v>180.387222</v>
       </c>
     </row>
     <row r="138">
@@ -4946,7 +4946,7 @@
         <v>150.92392</v>
       </c>
       <c r="C140" t="n">
-        <v>185.51825</v>
+        <v>185.518265</v>
       </c>
     </row>
     <row r="141">
@@ -5012,7 +5012,7 @@
         <v>146.029083</v>
       </c>
       <c r="C146" t="n">
-        <v>184.395828</v>
+        <v>184.395844</v>
       </c>
     </row>
     <row r="147">
@@ -5045,7 +5045,7 @@
         <v>147.905441</v>
       </c>
       <c r="C149" t="n">
-        <v>180.387238</v>
+        <v>180.387222</v>
       </c>
     </row>
     <row r="150">
@@ -5089,7 +5089,7 @@
         <v>150.026535</v>
       </c>
       <c r="C153" t="n">
-        <v>178.302765</v>
+        <v>178.30275</v>
       </c>
     </row>
     <row r="154">
@@ -5111,7 +5111,7 @@
         <v>145.906723</v>
       </c>
       <c r="C155" t="n">
-        <v>173.171738</v>
+        <v>173.171753</v>
       </c>
     </row>
     <row r="156">
@@ -5155,7 +5155,7 @@
         <v>150.719955</v>
       </c>
       <c r="C159" t="n">
-        <v>177.661392</v>
+        <v>177.661407</v>
       </c>
     </row>
     <row r="160">
@@ -5166,7 +5166,7 @@
         <v>153.616074</v>
       </c>
       <c r="C160" t="n">
-        <v>176.057968</v>
+        <v>176.057953</v>
       </c>
     </row>
     <row r="161">
@@ -5254,7 +5254,7 @@
         <v>154.309509</v>
       </c>
       <c r="C168" t="n">
-        <v>149.120117</v>
+        <v>149.120102</v>
       </c>
     </row>
     <row r="169">
@@ -5265,7 +5265,7 @@
         <v>144.764603</v>
       </c>
       <c r="C169" t="n">
-        <v>148.398575</v>
+        <v>148.39856</v>
       </c>
     </row>
     <row r="170">
@@ -5320,7 +5320,7 @@
         <v>139.217117</v>
       </c>
       <c r="C174" t="n">
-        <v>147.837341</v>
+        <v>147.837357</v>
       </c>
     </row>
     <row r="175">
@@ -5331,7 +5331,7 @@
         <v>137.096039</v>
       </c>
       <c r="C175" t="n">
-        <v>148.398575</v>
+        <v>148.39856</v>
       </c>
     </row>
     <row r="176">
@@ -5375,7 +5375,7 @@
         <v>142.643509</v>
       </c>
       <c r="C179" t="n">
-        <v>148.398575</v>
+        <v>148.39856</v>
       </c>
     </row>
     <row r="180">
@@ -5397,7 +5397,7 @@
         <v>144.397476</v>
       </c>
       <c r="C181" t="n">
-        <v>151.28476</v>
+        <v>151.284775</v>
       </c>
     </row>
     <row r="182">
@@ -5463,7 +5463,7 @@
         <v>137.626312</v>
       </c>
       <c r="C187" t="n">
-        <v>151.525299</v>
+        <v>151.525284</v>
       </c>
     </row>
     <row r="188">
@@ -5474,7 +5474,7 @@
         <v>138.238144</v>
       </c>
       <c r="C188" t="n">
-        <v>152.64769</v>
+        <v>152.647675</v>
       </c>
     </row>
     <row r="189">
@@ -5496,7 +5496,7 @@
         <v>135.627579</v>
       </c>
       <c r="C190" t="n">
-        <v>149.440796</v>
+        <v>149.440781</v>
       </c>
     </row>
     <row r="191">
@@ -5529,7 +5529,7 @@
         <v>116.945656</v>
       </c>
       <c r="C193" t="n">
-        <v>146.79512</v>
+        <v>146.795135</v>
       </c>
     </row>
     <row r="194">
@@ -5540,7 +5540,7 @@
         <v>115.925896</v>
       </c>
       <c r="C194" t="n">
-        <v>141.824463</v>
+        <v>141.824448</v>
       </c>
     </row>
     <row r="195">
@@ -5716,7 +5716,7 @@
         <v>103.076958</v>
       </c>
       <c r="C210" t="n">
-        <v>122.102112</v>
+        <v>122.102127</v>
       </c>
     </row>
     <row r="211">
@@ -5727,7 +5727,7 @@
         <v>108.134956</v>
       </c>
       <c r="C211" t="n">
-        <v>123.625374</v>
+        <v>123.625389</v>
       </c>
     </row>
     <row r="212">
@@ -5771,7 +5771,7 @@
         <v>117.516716</v>
       </c>
       <c r="C215" t="n">
-        <v>132.524475</v>
+        <v>132.52449</v>
       </c>
     </row>
     <row r="216">
@@ -5793,7 +5793,7 @@
         <v>117.598282</v>
       </c>
       <c r="C217" t="n">
-        <v>131.321915</v>
+        <v>131.32193</v>
       </c>
     </row>
     <row r="218">
@@ -5815,7 +5815,7 @@
         <v>115.028496</v>
       </c>
       <c r="C219" t="n">
-        <v>129.798645</v>
+        <v>129.79863</v>
       </c>
     </row>
     <row r="220">
@@ -5826,7 +5826,7 @@
         <v>117.598282</v>
       </c>
       <c r="C220" t="n">
-        <v>129.237427</v>
+        <v>129.237442</v>
       </c>
     </row>
     <row r="221">
@@ -5991,7 +5991,7 @@
         <v>114.620605</v>
       </c>
       <c r="C235" t="n">
-        <v>129.798645</v>
+        <v>129.79863</v>
       </c>
     </row>
     <row r="236">
@@ -6013,7 +6013,7 @@
         <v>116.007462</v>
       </c>
       <c r="C237" t="n">
-        <v>129.558121</v>
+        <v>129.558136</v>
       </c>
     </row>
     <row r="238">
@@ -6035,7 +6035,7 @@
         <v>114.2127</v>
       </c>
       <c r="C239" t="n">
-        <v>129.558121</v>
+        <v>129.558136</v>
       </c>
     </row>
     <row r="240">
@@ -6090,7 +6090,7 @@
         <v>112.213982</v>
       </c>
       <c r="C244" t="n">
-        <v>122.663322</v>
+        <v>122.663315</v>
       </c>
     </row>
     <row r="245">
@@ -6112,7 +6112,7 @@
         <v>105.442795</v>
       </c>
       <c r="C246" t="n">
-        <v>117.77282</v>
+        <v>117.772827</v>
       </c>
     </row>
     <row r="247">
@@ -6123,7 +6123,7 @@
         <v>104.626984</v>
       </c>
       <c r="C247" t="n">
-        <v>120.258156</v>
+        <v>120.258163</v>
       </c>
     </row>
     <row r="248">
@@ -6145,7 +6145,7 @@
         <v>105.157257</v>
       </c>
       <c r="C249" t="n">
-        <v>124.346931</v>
+        <v>124.346947</v>
       </c>
     </row>
     <row r="250">
@@ -6178,7 +6178,7 @@
         <v>109.195503</v>
       </c>
       <c r="C252" t="n">
-        <v>127.313293</v>
+        <v>127.313301</v>
       </c>
     </row>
     <row r="253">
@@ -6200,7 +6200,7 @@
         <v>108.3797</v>
       </c>
       <c r="C254" t="n">
-        <v>126.832283</v>
+        <v>126.832268</v>
       </c>
     </row>
     <row r="255">
@@ -6343,7 +6343,7 @@
         <v>102.138779</v>
       </c>
       <c r="C267" t="n">
-        <v>126.832283</v>
+        <v>126.832268</v>
       </c>
     </row>
     <row r="268">
@@ -6354,7 +6354,7 @@
         <v>99.936104</v>
       </c>
       <c r="C268" t="n">
-        <v>123.625374</v>
+        <v>123.625389</v>
       </c>
     </row>
     <row r="269">
@@ -6365,7 +6365,7 @@
         <v>99.85453</v>
       </c>
       <c r="C269" t="n">
-        <v>123.465057</v>
+        <v>123.465042</v>
       </c>
     </row>
     <row r="270">
@@ -6420,7 +6420,7 @@
         <v>103.199333</v>
       </c>
       <c r="C274" t="n">
-        <v>122.102112</v>
+        <v>122.102127</v>
       </c>
     </row>
     <row r="275">
@@ -6442,7 +6442,7 @@
         <v>101.975624</v>
       </c>
       <c r="C276" t="n">
-        <v>120.338333</v>
+        <v>120.338341</v>
       </c>
     </row>
     <row r="277">
@@ -6453,7 +6453,7 @@
         <v>97.896599</v>
       </c>
       <c r="C277" t="n">
-        <v>119.456444</v>
+        <v>119.456436</v>
       </c>
     </row>
     <row r="278">
@@ -6508,7 +6508,7 @@
         <v>101.486137</v>
       </c>
       <c r="C282" t="n">
-        <v>122.02195</v>
+        <v>122.021935</v>
       </c>
     </row>
     <row r="283">
@@ -6563,7 +6563,7 @@
         <v>98.467667</v>
       </c>
       <c r="C287" t="n">
-        <v>120.57885</v>
+        <v>120.578835</v>
       </c>
     </row>
     <row r="288">
@@ -6596,7 +6596,7 @@
         <v>106.054649</v>
       </c>
       <c r="C290" t="n">
-        <v>127.393471</v>
+        <v>127.393478</v>
       </c>
     </row>
     <row r="291">
@@ -6640,7 +6640,7 @@
         <v>104.83094</v>
       </c>
       <c r="C294" t="n">
-        <v>121.059875</v>
+        <v>121.059883</v>
       </c>
     </row>
     <row r="295">
@@ -6717,7 +6717,7 @@
         <v>107.971802</v>
       </c>
       <c r="C301" t="n">
-        <v>118.654724</v>
+        <v>118.654716</v>
       </c>
     </row>
     <row r="302">
@@ -6728,7 +6728,7 @@
         <v>108.706017</v>
       </c>
       <c r="C302" t="n">
-        <v>120.258156</v>
+        <v>120.258163</v>
       </c>
     </row>
     <row r="303">
@@ -6739,7 +6739,7 @@
         <v>109.481026</v>
       </c>
       <c r="C303" t="n">
-        <v>122.102112</v>
+        <v>122.102127</v>
       </c>
     </row>
     <row r="304">

--- a/Danske aktiekurser.xlsx
+++ b/Danske aktiekurser.xlsx
@@ -3911,7 +3911,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>186.582642</v>
+        <v>186.582657</v>
       </c>
       <c r="C2" t="n">
         <v>181.638367</v>
@@ -3922,10 +3922,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>185.583237</v>
+        <v>185.583221</v>
       </c>
       <c r="C3" t="n">
-        <v>181.203461</v>
+        <v>181.203491</v>
       </c>
     </row>
     <row r="4">
@@ -3955,10 +3955,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="n">
-        <v>188.504593</v>
+        <v>188.504608</v>
       </c>
       <c r="C6" t="n">
-        <v>182.073242</v>
+        <v>182.073257</v>
       </c>
     </row>
     <row r="7">
@@ -3966,7 +3966,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="n">
-        <v>187.043915</v>
+        <v>187.04393</v>
       </c>
       <c r="C7" t="n">
         <v>181.928299</v>
@@ -3980,7 +3980,7 @@
         <v>190.964676</v>
       </c>
       <c r="C8" t="n">
-        <v>185.552368</v>
+        <v>185.552353</v>
       </c>
     </row>
     <row r="9">
@@ -3991,7 +3991,7 @@
         <v>192.73288</v>
       </c>
       <c r="C9" t="n">
-        <v>186.42215</v>
+        <v>186.422165</v>
       </c>
     </row>
     <row r="10">
@@ -3999,7 +3999,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="n">
-        <v>191.425964</v>
+        <v>191.425949</v>
       </c>
       <c r="C10" t="n">
         <v>185.262436</v>
@@ -4013,7 +4013,7 @@
         <v>192.886627</v>
       </c>
       <c r="C11" t="n">
-        <v>183.812805</v>
+        <v>183.81279</v>
       </c>
     </row>
     <row r="12">
@@ -4021,7 +4021,7 @@
         <v>13</v>
       </c>
       <c r="B12" t="n">
-        <v>192.117844</v>
+        <v>192.117859</v>
       </c>
       <c r="C12" t="n">
         <v>182.79805</v>
@@ -4065,10 +4065,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="n">
-        <v>189.965271</v>
+        <v>189.965286</v>
       </c>
       <c r="C16" t="n">
-        <v>183.377914</v>
+        <v>183.37793</v>
       </c>
     </row>
     <row r="17">
@@ -4076,7 +4076,7 @@
         <v>18</v>
       </c>
       <c r="B17" t="n">
-        <v>188.735229</v>
+        <v>188.735214</v>
       </c>
       <c r="C17" t="n">
         <v>181.783325</v>
@@ -4087,10 +4087,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="n">
-        <v>188.735229</v>
+        <v>188.735214</v>
       </c>
       <c r="C18" t="n">
-        <v>180.623627</v>
+        <v>180.623611</v>
       </c>
     </row>
     <row r="19">
@@ -4098,7 +4098,7 @@
         <v>20</v>
       </c>
       <c r="B19" t="n">
-        <v>183.430649</v>
+        <v>183.430664</v>
       </c>
       <c r="C19" t="n">
         <v>176.274734</v>
@@ -4109,10 +4109,10 @@
         <v>21</v>
       </c>
       <c r="B20" t="n">
-        <v>186.659531</v>
+        <v>186.659546</v>
       </c>
       <c r="C20" t="n">
-        <v>178.014282</v>
+        <v>178.014297</v>
       </c>
     </row>
     <row r="21">
@@ -4120,10 +4120,10 @@
         <v>22</v>
       </c>
       <c r="B21" t="n">
-        <v>188.504593</v>
+        <v>188.504608</v>
       </c>
       <c r="C21" t="n">
-        <v>178.30423</v>
+        <v>178.304214</v>
       </c>
     </row>
     <row r="22">
@@ -4131,10 +4131,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="n">
-        <v>186.659531</v>
+        <v>186.659546</v>
       </c>
       <c r="C22" t="n">
-        <v>176.419693</v>
+        <v>176.419708</v>
       </c>
     </row>
     <row r="23">
@@ -4145,7 +4145,7 @@
         <v>187.197662</v>
       </c>
       <c r="C23" t="n">
-        <v>177.579407</v>
+        <v>177.579422</v>
       </c>
     </row>
     <row r="24">
@@ -4153,10 +4153,10 @@
         <v>25</v>
       </c>
       <c r="B24" t="n">
-        <v>186.121384</v>
+        <v>186.121368</v>
       </c>
       <c r="C24" t="n">
-        <v>178.014282</v>
+        <v>178.014297</v>
       </c>
     </row>
     <row r="25">
@@ -4167,7 +4167,7 @@
         <v>188.273956</v>
       </c>
       <c r="C25" t="n">
-        <v>178.159271</v>
+        <v>178.159256</v>
       </c>
     </row>
     <row r="26">
@@ -4178,7 +4178,7 @@
         <v>188.273956</v>
       </c>
       <c r="C26" t="n">
-        <v>176.999557</v>
+        <v>176.999542</v>
       </c>
     </row>
     <row r="27">
@@ -4189,7 +4189,7 @@
         <v>183.507538</v>
       </c>
       <c r="C27" t="n">
-        <v>174.680161</v>
+        <v>174.680145</v>
       </c>
     </row>
     <row r="28">
@@ -4219,10 +4219,10 @@
         <v>31</v>
       </c>
       <c r="B30" t="n">
-        <v>184.968201</v>
+        <v>184.968216</v>
       </c>
       <c r="C30" t="n">
-        <v>176.419693</v>
+        <v>176.419708</v>
       </c>
     </row>
     <row r="31">
@@ -4230,7 +4230,7 @@
         <v>32</v>
       </c>
       <c r="B31" t="n">
-        <v>186.659531</v>
+        <v>186.659546</v>
       </c>
       <c r="C31" t="n">
         <v>179.173996</v>
@@ -4244,7 +4244,7 @@
         <v>185.660126</v>
       </c>
       <c r="C32" t="n">
-        <v>179.029037</v>
+        <v>179.029022</v>
       </c>
     </row>
     <row r="33">
@@ -4255,7 +4255,7 @@
         <v>187.735809</v>
       </c>
       <c r="C33" t="n">
-        <v>183.522873</v>
+        <v>183.522888</v>
       </c>
     </row>
     <row r="34">
@@ -4266,7 +4266,7 @@
         <v>188.965881</v>
       </c>
       <c r="C34" t="n">
-        <v>183.667862</v>
+        <v>183.667831</v>
       </c>
     </row>
     <row r="35">
@@ -4285,10 +4285,10 @@
         <v>37</v>
       </c>
       <c r="B36" t="n">
-        <v>191.502823</v>
+        <v>191.502838</v>
       </c>
       <c r="C36" t="n">
-        <v>186.277176</v>
+        <v>186.277161</v>
       </c>
     </row>
     <row r="37">
@@ -4299,7 +4299,7 @@
         <v>188.350845</v>
       </c>
       <c r="C37" t="n">
-        <v>176.129761</v>
+        <v>176.129776</v>
       </c>
     </row>
     <row r="38">
@@ -4307,10 +4307,10 @@
         <v>39</v>
       </c>
       <c r="B38" t="n">
-        <v>189.504013</v>
+        <v>189.503998</v>
       </c>
       <c r="C38" t="n">
-        <v>173.230515</v>
+        <v>173.23053</v>
       </c>
     </row>
     <row r="39">
@@ -4318,10 +4318,10 @@
         <v>40</v>
       </c>
       <c r="B39" t="n">
-        <v>189.888382</v>
+        <v>189.888397</v>
       </c>
       <c r="C39" t="n">
-        <v>171.345978</v>
+        <v>171.345993</v>
       </c>
     </row>
     <row r="40">
@@ -4329,10 +4329,10 @@
         <v>41</v>
       </c>
       <c r="B40" t="n">
-        <v>191.118454</v>
+        <v>191.118439</v>
       </c>
       <c r="C40" t="n">
-        <v>176.854584</v>
+        <v>176.854599</v>
       </c>
     </row>
     <row r="41">
@@ -4343,7 +4343,7 @@
         <v>192.271622</v>
       </c>
       <c r="C41" t="n">
-        <v>174.535187</v>
+        <v>174.535202</v>
       </c>
     </row>
     <row r="42">
@@ -4351,10 +4351,10 @@
         <v>43</v>
       </c>
       <c r="B42" t="n">
-        <v>186.428894</v>
+        <v>186.428879</v>
       </c>
       <c r="C42" t="n">
-        <v>173.955338</v>
+        <v>173.955322</v>
       </c>
     </row>
     <row r="43">
@@ -4365,7 +4365,7 @@
         <v>189.273376</v>
       </c>
       <c r="C43" t="n">
-        <v>173.520462</v>
+        <v>173.520447</v>
       </c>
     </row>
     <row r="44">
@@ -4384,7 +4384,7 @@
         <v>46</v>
       </c>
       <c r="B45" t="n">
-        <v>186.428894</v>
+        <v>186.428879</v>
       </c>
       <c r="C45" t="n">
         <v>168.736679</v>
@@ -4409,7 +4409,7 @@
         <v>186.04451</v>
       </c>
       <c r="C47" t="n">
-        <v>171.635956</v>
+        <v>171.635925</v>
       </c>
     </row>
     <row r="48">
@@ -4420,7 +4420,7 @@
         <v>188.197083</v>
       </c>
       <c r="C48" t="n">
-        <v>171.635956</v>
+        <v>171.635925</v>
       </c>
     </row>
     <row r="49">
@@ -4431,7 +4431,7 @@
         <v>187.889572</v>
       </c>
       <c r="C49" t="n">
-        <v>173.230515</v>
+        <v>173.23053</v>
       </c>
     </row>
     <row r="50">
@@ -4442,7 +4442,7 @@
         <v>189.273376</v>
       </c>
       <c r="C50" t="n">
-        <v>171.780899</v>
+        <v>171.780884</v>
       </c>
     </row>
     <row r="51">
@@ -4453,7 +4453,7 @@
         <v>189.73465</v>
       </c>
       <c r="C51" t="n">
-        <v>171.201035</v>
+        <v>171.20105</v>
       </c>
     </row>
     <row r="52">
@@ -4464,7 +4464,7 @@
         <v>190.426544</v>
       </c>
       <c r="C52" t="n">
-        <v>174.100296</v>
+        <v>174.100311</v>
       </c>
     </row>
     <row r="53">
@@ -4472,10 +4472,10 @@
         <v>54</v>
       </c>
       <c r="B53" t="n">
-        <v>187.658936</v>
+        <v>187.658951</v>
       </c>
       <c r="C53" t="n">
-        <v>171.056091</v>
+        <v>171.056076</v>
       </c>
     </row>
     <row r="54">
@@ -4497,7 +4497,7 @@
         <v>187.976288</v>
       </c>
       <c r="C55" t="n">
-        <v>173.575989</v>
+        <v>173.575974</v>
       </c>
     </row>
     <row r="56">
@@ -4508,7 +4508,7 @@
         <v>188.457275</v>
       </c>
       <c r="C56" t="n">
-        <v>174.337265</v>
+        <v>174.33728</v>
       </c>
     </row>
     <row r="57">
@@ -4563,7 +4563,7 @@
         <v>181.002335</v>
       </c>
       <c r="C61" t="n">
-        <v>172.510178</v>
+        <v>172.510147</v>
       </c>
     </row>
     <row r="62">
@@ -4585,7 +4585,7 @@
         <v>180.681702</v>
       </c>
       <c r="C63" t="n">
-        <v>169.160446</v>
+        <v>169.160461</v>
       </c>
     </row>
     <row r="64">
@@ -4596,7 +4596,7 @@
         <v>179.960266</v>
       </c>
       <c r="C64" t="n">
-        <v>169.464981</v>
+        <v>169.464996</v>
       </c>
     </row>
     <row r="65">
@@ -4607,7 +4607,7 @@
         <v>178.597534</v>
       </c>
       <c r="C65" t="n">
-        <v>167.485596</v>
+        <v>167.48558</v>
       </c>
     </row>
     <row r="66">
@@ -4618,7 +4618,7 @@
         <v>180.681702</v>
       </c>
       <c r="C66" t="n">
-        <v>169.921753</v>
+        <v>169.921738</v>
       </c>
     </row>
     <row r="67">
@@ -4629,7 +4629,7 @@
         <v>179.318954</v>
       </c>
       <c r="C67" t="n">
-        <v>169.160446</v>
+        <v>169.160461</v>
       </c>
     </row>
     <row r="68">
@@ -4651,7 +4651,7 @@
         <v>180.200729</v>
       </c>
       <c r="C69" t="n">
-        <v>171.444321</v>
+        <v>171.444351</v>
       </c>
     </row>
     <row r="70">
@@ -4750,7 +4750,7 @@
         <v>180.040421</v>
       </c>
       <c r="C78" t="n">
-        <v>183.16835</v>
+        <v>183.168365</v>
       </c>
     </row>
     <row r="79">
@@ -4805,7 +4805,7 @@
         <v>174.669647</v>
       </c>
       <c r="C83" t="n">
-        <v>172.510178</v>
+        <v>172.510147</v>
       </c>
     </row>
     <row r="84">
@@ -4904,7 +4904,7 @@
         <v>171.222778</v>
       </c>
       <c r="C92" t="n">
-        <v>174.337265</v>
+        <v>174.33728</v>
       </c>
     </row>
     <row r="93">
@@ -4970,7 +4970,7 @@
         <v>170.260834</v>
       </c>
       <c r="C98" t="n">
-        <v>172.510178</v>
+        <v>172.510147</v>
       </c>
     </row>
     <row r="99">
@@ -4981,7 +4981,7 @@
         <v>170.10051</v>
       </c>
       <c r="C99" t="n">
-        <v>171.901138</v>
+        <v>171.901123</v>
       </c>
     </row>
     <row r="100">
@@ -5003,7 +5003,7 @@
         <v>165.932175</v>
       </c>
       <c r="C101" t="n">
-        <v>166.876541</v>
+        <v>166.876556</v>
       </c>
     </row>
     <row r="102">
@@ -5014,7 +5014,7 @@
         <v>169.459229</v>
       </c>
       <c r="C102" t="n">
-        <v>164.440399</v>
+        <v>164.440414</v>
       </c>
     </row>
     <row r="103">
@@ -5025,7 +5025,7 @@
         <v>173.226776</v>
       </c>
       <c r="C103" t="n">
-        <v>169.312698</v>
+        <v>169.312714</v>
       </c>
     </row>
     <row r="104">
@@ -5036,7 +5036,7 @@
         <v>175.15062</v>
       </c>
       <c r="C104" t="n">
-        <v>169.921753</v>
+        <v>169.921738</v>
       </c>
     </row>
     <row r="105">
@@ -5047,7 +5047,7 @@
         <v>172.665649</v>
       </c>
       <c r="C105" t="n">
-        <v>169.008194</v>
+        <v>169.008179</v>
       </c>
     </row>
     <row r="106">
@@ -5069,7 +5069,7 @@
         <v>171.062439</v>
       </c>
       <c r="C107" t="n">
-        <v>166.876541</v>
+        <v>166.876556</v>
       </c>
     </row>
     <row r="108">
@@ -5080,7 +5080,7 @@
         <v>174.749832</v>
       </c>
       <c r="C108" t="n">
-        <v>168.094635</v>
+        <v>168.09465</v>
       </c>
     </row>
     <row r="109">
@@ -5091,7 +5091,7 @@
         <v>175.391113</v>
       </c>
       <c r="C109" t="n">
-        <v>168.246887</v>
+        <v>168.246902</v>
       </c>
     </row>
     <row r="110">
@@ -5102,7 +5102,7 @@
         <v>175.15062</v>
       </c>
       <c r="C110" t="n">
-        <v>168.39917</v>
+        <v>168.399155</v>
       </c>
     </row>
     <row r="111">
@@ -5135,7 +5135,7 @@
         <v>170.902115</v>
       </c>
       <c r="C113" t="n">
-        <v>167.028809</v>
+        <v>167.028824</v>
       </c>
     </row>
     <row r="114">
@@ -5146,7 +5146,7 @@
         <v>168.978271</v>
       </c>
       <c r="C114" t="n">
-        <v>166.267517</v>
+        <v>166.267502</v>
       </c>
     </row>
     <row r="115">
@@ -5157,7 +5157,7 @@
         <v>167.294891</v>
       </c>
       <c r="C115" t="n">
-        <v>166.572052</v>
+        <v>166.572037</v>
       </c>
     </row>
     <row r="116">
@@ -5168,7 +5168,7 @@
         <v>164.890076</v>
       </c>
       <c r="C116" t="n">
-        <v>164.440399</v>
+        <v>164.440414</v>
       </c>
     </row>
     <row r="117">
@@ -5201,7 +5201,7 @@
         <v>158.437164</v>
       </c>
       <c r="C119" t="n">
-        <v>165.049438</v>
+        <v>165.049423</v>
       </c>
     </row>
     <row r="120">
@@ -5212,7 +5212,7 @@
         <v>159.1987</v>
       </c>
       <c r="C120" t="n">
-        <v>164.897202</v>
+        <v>164.897186</v>
       </c>
     </row>
     <row r="121">
@@ -5234,7 +5234,7 @@
         <v>160.120544</v>
       </c>
       <c r="C122" t="n">
-        <v>167.028809</v>
+        <v>167.028824</v>
       </c>
     </row>
     <row r="123">
@@ -5245,7 +5245,7 @@
         <v>159.839981</v>
       </c>
       <c r="C123" t="n">
-        <v>166.572052</v>
+        <v>166.572037</v>
       </c>
     </row>
     <row r="124">
@@ -5267,7 +5267,7 @@
         <v>158.196686</v>
       </c>
       <c r="C125" t="n">
-        <v>170.226257</v>
+        <v>170.226273</v>
       </c>
     </row>
     <row r="126">
@@ -5289,7 +5289,7 @@
         <v>152.825928</v>
       </c>
       <c r="C127" t="n">
-        <v>168.70369</v>
+        <v>168.703674</v>
       </c>
     </row>
     <row r="128">
@@ -5300,7 +5300,7 @@
         <v>154.268814</v>
       </c>
       <c r="C128" t="n">
-        <v>171.139832</v>
+        <v>171.139816</v>
       </c>
     </row>
     <row r="129">
@@ -5377,7 +5377,7 @@
         <v>142.124512</v>
       </c>
       <c r="C135" t="n">
-        <v>168.70369</v>
+        <v>168.703674</v>
       </c>
     </row>
     <row r="136">
@@ -5399,7 +5399,7 @@
         <v>144.890045</v>
       </c>
       <c r="C137" t="n">
-        <v>171.292099</v>
+        <v>171.292084</v>
       </c>
     </row>
     <row r="138">
@@ -5410,7 +5410,7 @@
         <v>147.375015</v>
       </c>
       <c r="C138" t="n">
-        <v>172.510178</v>
+        <v>172.510147</v>
       </c>
     </row>
     <row r="139">
@@ -5454,7 +5454,7 @@
         <v>150.541367</v>
       </c>
       <c r="C142" t="n">
-        <v>179.057327</v>
+        <v>179.057312</v>
       </c>
     </row>
     <row r="143">
@@ -5465,7 +5465,7 @@
         <v>150.541367</v>
       </c>
       <c r="C143" t="n">
-        <v>180.275421</v>
+        <v>180.275406</v>
       </c>
     </row>
     <row r="144">
@@ -5520,7 +5520,7 @@
         <v>144.970215</v>
       </c>
       <c r="C148" t="n">
-        <v>168.246887</v>
+        <v>168.246902</v>
       </c>
     </row>
     <row r="149">
@@ -5531,7 +5531,7 @@
         <v>145.330933</v>
       </c>
       <c r="C149" t="n">
-        <v>171.292099</v>
+        <v>171.292084</v>
       </c>
     </row>
     <row r="150">
@@ -5542,7 +5542,7 @@
         <v>144.849976</v>
       </c>
       <c r="C150" t="n">
-        <v>169.160446</v>
+        <v>169.160461</v>
       </c>
     </row>
     <row r="151">
@@ -5553,7 +5553,7 @@
         <v>145.651581</v>
       </c>
       <c r="C151" t="n">
-        <v>170.226257</v>
+        <v>170.226273</v>
       </c>
     </row>
     <row r="152">
@@ -5575,7 +5575,7 @@
         <v>147.4151</v>
       </c>
       <c r="C153" t="n">
-        <v>169.312698</v>
+        <v>169.312714</v>
       </c>
     </row>
     <row r="154">
@@ -5586,7 +5586,7 @@
         <v>144.449158</v>
       </c>
       <c r="C154" t="n">
-        <v>167.637848</v>
+        <v>167.637863</v>
       </c>
     </row>
     <row r="155">
@@ -5597,7 +5597,7 @@
         <v>143.36702</v>
       </c>
       <c r="C155" t="n">
-        <v>164.440399</v>
+        <v>164.440414</v>
       </c>
     </row>
     <row r="156">
@@ -5619,7 +5619,7 @@
         <v>146.613495</v>
       </c>
       <c r="C157" t="n">
-        <v>166.267517</v>
+        <v>166.267502</v>
       </c>
     </row>
     <row r="158">
@@ -5630,7 +5630,7 @@
         <v>147.615494</v>
       </c>
       <c r="C158" t="n">
-        <v>166.876541</v>
+        <v>166.876556</v>
       </c>
     </row>
     <row r="159">
@@ -5641,7 +5641,7 @@
         <v>148.096466</v>
       </c>
       <c r="C159" t="n">
-        <v>168.70369</v>
+        <v>168.703674</v>
       </c>
     </row>
     <row r="160">
@@ -5652,7 +5652,7 @@
         <v>150.942154</v>
       </c>
       <c r="C160" t="n">
-        <v>167.181076</v>
+        <v>167.181061</v>
       </c>
     </row>
     <row r="161">
@@ -5663,7 +5663,7 @@
         <v>149.298874</v>
       </c>
       <c r="C161" t="n">
-        <v>167.028809</v>
+        <v>167.028824</v>
       </c>
     </row>
     <row r="162">
@@ -5674,7 +5674,7 @@
         <v>152.024323</v>
       </c>
       <c r="C162" t="n">
-        <v>166.419769</v>
+        <v>166.419785</v>
       </c>
     </row>
     <row r="163">
@@ -5685,7 +5685,7 @@
         <v>155.070419</v>
       </c>
       <c r="C163" t="n">
-        <v>166.419769</v>
+        <v>166.419785</v>
       </c>
     </row>
     <row r="164">
@@ -5696,7 +5696,7 @@
         <v>153.988266</v>
       </c>
       <c r="C164" t="n">
-        <v>147.767975</v>
+        <v>147.76796</v>
       </c>
     </row>
     <row r="165">
@@ -5707,7 +5707,7 @@
         <v>154.268814</v>
       </c>
       <c r="C165" t="n">
-        <v>146.016998</v>
+        <v>146.016983</v>
       </c>
     </row>
     <row r="166">
@@ -5718,7 +5718,7 @@
         <v>153.908096</v>
       </c>
       <c r="C166" t="n">
-        <v>144.266006</v>
+        <v>144.265991</v>
       </c>
     </row>
     <row r="167">
@@ -5751,7 +5751,7 @@
         <v>142.244751</v>
       </c>
       <c r="C169" t="n">
-        <v>140.91629</v>
+        <v>140.916275</v>
       </c>
     </row>
     <row r="170">
@@ -5762,7 +5762,7 @@
         <v>145.69165</v>
       </c>
       <c r="C170" t="n">
-        <v>140.459518</v>
+        <v>140.459503</v>
       </c>
     </row>
     <row r="171">
@@ -5784,7 +5784,7 @@
         <v>141.884033</v>
       </c>
       <c r="C172" t="n">
-        <v>141.296951</v>
+        <v>141.296936</v>
       </c>
     </row>
     <row r="173">
@@ -5795,7 +5795,7 @@
         <v>137.715698</v>
       </c>
       <c r="C173" t="n">
-        <v>141.296951</v>
+        <v>141.296936</v>
       </c>
     </row>
     <row r="174">
@@ -5817,7 +5817,7 @@
         <v>134.709671</v>
       </c>
       <c r="C175" t="n">
-        <v>140.91629</v>
+        <v>140.916275</v>
       </c>
     </row>
     <row r="176">
@@ -5828,7 +5828,7 @@
         <v>137.675613</v>
       </c>
       <c r="C176" t="n">
-        <v>141.373062</v>
+        <v>141.373077</v>
       </c>
     </row>
     <row r="177">
@@ -5839,7 +5839,7 @@
         <v>136.232712</v>
       </c>
       <c r="C177" t="n">
-        <v>140.459518</v>
+        <v>140.459503</v>
       </c>
     </row>
     <row r="178">
@@ -5850,7 +5850,7 @@
         <v>135.350952</v>
       </c>
       <c r="C178" t="n">
-        <v>141.677597</v>
+        <v>141.677582</v>
       </c>
     </row>
     <row r="179">
@@ -5861,7 +5861,7 @@
         <v>140.160583</v>
       </c>
       <c r="C179" t="n">
-        <v>140.91629</v>
+        <v>140.916275</v>
       </c>
     </row>
     <row r="180">
@@ -5872,7 +5872,7 @@
         <v>135.471191</v>
       </c>
       <c r="C180" t="n">
-        <v>142.362762</v>
+        <v>142.362747</v>
       </c>
     </row>
     <row r="181">
@@ -5905,7 +5905,7 @@
         <v>133.346939</v>
       </c>
       <c r="C183" t="n">
-        <v>143.733093</v>
+        <v>143.733078</v>
       </c>
     </row>
     <row r="184">
@@ -5927,7 +5927,7 @@
         <v>138.116486</v>
       </c>
       <c r="C185" t="n">
-        <v>148.072495</v>
+        <v>148.072479</v>
       </c>
     </row>
     <row r="186">
@@ -5938,7 +5938,7 @@
         <v>136.352982</v>
       </c>
       <c r="C186" t="n">
-        <v>143.733093</v>
+        <v>143.733078</v>
       </c>
     </row>
     <row r="187">
@@ -5949,7 +5949,7 @@
         <v>135.230698</v>
       </c>
       <c r="C187" t="n">
-        <v>143.885345</v>
+        <v>143.885361</v>
       </c>
     </row>
     <row r="188">
@@ -5960,7 +5960,7 @@
         <v>135.831924</v>
       </c>
       <c r="C188" t="n">
-        <v>144.951172</v>
+        <v>144.951157</v>
       </c>
     </row>
     <row r="189">
@@ -6004,7 +6004,7 @@
         <v>119.198624</v>
       </c>
       <c r="C192" t="n">
-        <v>142.895676</v>
+        <v>142.89566</v>
       </c>
     </row>
     <row r="193">
@@ -6026,7 +6026,7 @@
         <v>113.908043</v>
       </c>
       <c r="C194" t="n">
-        <v>134.673645</v>
+        <v>134.67363</v>
       </c>
     </row>
     <row r="195">
@@ -6037,7 +6037,7 @@
         <v>115.831894</v>
       </c>
       <c r="C195" t="n">
-        <v>135.815582</v>
+        <v>135.815598</v>
       </c>
     </row>
     <row r="196">
@@ -6103,7 +6103,7 @@
         <v>108.777756</v>
       </c>
       <c r="C201" t="n">
-        <v>135.96788</v>
+        <v>135.967865</v>
       </c>
     </row>
     <row r="202">
@@ -6147,7 +6147,7 @@
         <v>100.721634</v>
       </c>
       <c r="C205" t="n">
-        <v>134.36911</v>
+        <v>134.369125</v>
       </c>
     </row>
     <row r="206">
@@ -6180,7 +6180,7 @@
         <v>102.765724</v>
       </c>
       <c r="C208" t="n">
-        <v>136.805283</v>
+        <v>136.805267</v>
       </c>
     </row>
     <row r="209">
@@ -6191,7 +6191,7 @@
         <v>101.483154</v>
       </c>
       <c r="C209" t="n">
-        <v>132.846527</v>
+        <v>132.846512</v>
       </c>
     </row>
     <row r="210">
@@ -6235,7 +6235,7 @@
         <v>108.41703</v>
       </c>
       <c r="C213" t="n">
-        <v>123.634827</v>
+        <v>123.634811</v>
       </c>
     </row>
     <row r="214">
@@ -6246,7 +6246,7 @@
         <v>108.256721</v>
       </c>
       <c r="C214" t="n">
-        <v>124.091606</v>
+        <v>124.091591</v>
       </c>
     </row>
     <row r="215">
@@ -6268,7 +6268,7 @@
         <v>114.990196</v>
       </c>
       <c r="C216" t="n">
-        <v>126.603889</v>
+        <v>126.603874</v>
       </c>
     </row>
     <row r="217">
@@ -6279,7 +6279,7 @@
         <v>115.551308</v>
       </c>
       <c r="C217" t="n">
-        <v>124.700645</v>
+        <v>124.700653</v>
       </c>
     </row>
     <row r="218">
@@ -6290,7 +6290,7 @@
         <v>114.589378</v>
       </c>
       <c r="C218" t="n">
-        <v>123.863197</v>
+        <v>123.863213</v>
       </c>
     </row>
     <row r="219">
@@ -6301,7 +6301,7 @@
         <v>113.026268</v>
       </c>
       <c r="C219" t="n">
-        <v>123.254166</v>
+        <v>123.254173</v>
       </c>
     </row>
     <row r="220">
@@ -6312,7 +6312,7 @@
         <v>115.551308</v>
       </c>
       <c r="C220" t="n">
-        <v>122.72126</v>
+        <v>122.721252</v>
       </c>
     </row>
     <row r="221">
@@ -6345,7 +6345,7 @@
         <v>108.577354</v>
       </c>
       <c r="C223" t="n">
-        <v>122.264488</v>
+        <v>122.264496</v>
       </c>
     </row>
     <row r="224">
@@ -6389,7 +6389,7 @@
         <v>106.974144</v>
       </c>
       <c r="C227" t="n">
-        <v>121.807716</v>
+        <v>121.807701</v>
       </c>
     </row>
     <row r="228">
@@ -6400,7 +6400,7 @@
         <v>109.138481</v>
       </c>
       <c r="C228" t="n">
-        <v>124.472244</v>
+        <v>124.472252</v>
       </c>
     </row>
     <row r="229">
@@ -6411,7 +6411,7 @@
         <v>108.216637</v>
       </c>
       <c r="C229" t="n">
-        <v>124.472244</v>
+        <v>124.472252</v>
       </c>
     </row>
     <row r="230">
@@ -6422,7 +6422,7 @@
         <v>109.018242</v>
       </c>
       <c r="C230" t="n">
-        <v>123.101921</v>
+        <v>123.101913</v>
       </c>
     </row>
     <row r="231">
@@ -6433,7 +6433,7 @@
         <v>105.571335</v>
       </c>
       <c r="C231" t="n">
-        <v>123.787071</v>
+        <v>123.787094</v>
       </c>
     </row>
     <row r="232">
@@ -6444,7 +6444,7 @@
         <v>105.330856</v>
       </c>
       <c r="C232" t="n">
-        <v>123.787071</v>
+        <v>123.787094</v>
       </c>
     </row>
     <row r="233">
@@ -6455,7 +6455,7 @@
         <v>106.81382</v>
       </c>
       <c r="C233" t="n">
-        <v>120.285118</v>
+        <v>120.28511</v>
       </c>
     </row>
     <row r="234">
@@ -6466,7 +6466,7 @@
         <v>106.693588</v>
       </c>
       <c r="C234" t="n">
-        <v>120.74189</v>
+        <v>120.741882</v>
       </c>
     </row>
     <row r="235">
@@ -6477,7 +6477,7 @@
         <v>112.62545</v>
       </c>
       <c r="C235" t="n">
-        <v>123.254166</v>
+        <v>123.254173</v>
       </c>
     </row>
     <row r="236">
@@ -6488,7 +6488,7 @@
         <v>109.37896</v>
       </c>
       <c r="C236" t="n">
-        <v>120.589615</v>
+        <v>120.589622</v>
       </c>
     </row>
     <row r="237">
@@ -6499,7 +6499,7 @@
         <v>113.988174</v>
       </c>
       <c r="C237" t="n">
-        <v>123.025787</v>
+        <v>123.02578</v>
       </c>
     </row>
     <row r="238">
@@ -6510,7 +6510,7 @@
         <v>110.10041</v>
       </c>
       <c r="C238" t="n">
-        <v>120.74189</v>
+        <v>120.741882</v>
       </c>
     </row>
     <row r="239">
@@ -6521,7 +6521,7 @@
         <v>112.224655</v>
       </c>
       <c r="C239" t="n">
-        <v>123.025787</v>
+        <v>123.02578</v>
       </c>
     </row>
     <row r="240">
@@ -6532,7 +6532,7 @@
         <v>111.543289</v>
       </c>
       <c r="C240" t="n">
-        <v>122.569</v>
+        <v>122.569008</v>
       </c>
     </row>
     <row r="241">
@@ -6554,7 +6554,7 @@
         <v>110.661522</v>
       </c>
       <c r="C242" t="n">
-        <v>121.5793</v>
+        <v>121.579315</v>
       </c>
     </row>
     <row r="243">
@@ -6565,7 +6565,7 @@
         <v>108.53727</v>
       </c>
       <c r="C243" t="n">
-        <v>121.198669</v>
+        <v>121.198677</v>
       </c>
     </row>
     <row r="244">
@@ -6576,7 +6576,7 @@
         <v>110.260735</v>
       </c>
       <c r="C244" t="n">
-        <v>116.478615</v>
+        <v>116.478622</v>
       </c>
     </row>
     <row r="245">
@@ -6587,7 +6587,7 @@
         <v>107.815834</v>
       </c>
       <c r="C245" t="n">
-        <v>115.641182</v>
+        <v>115.641174</v>
       </c>
     </row>
     <row r="246">
@@ -6598,7 +6598,7 @@
         <v>103.607414</v>
       </c>
       <c r="C246" t="n">
-        <v>111.834702</v>
+        <v>111.834686</v>
       </c>
     </row>
     <row r="247">
@@ -6609,7 +6609,7 @@
         <v>102.805809</v>
       </c>
       <c r="C247" t="n">
-        <v>114.194717</v>
+        <v>114.194733</v>
       </c>
     </row>
     <row r="248">
@@ -6620,7 +6620,7 @@
         <v>101.162506</v>
       </c>
       <c r="C248" t="n">
-        <v>114.727638</v>
+        <v>114.727631</v>
       </c>
     </row>
     <row r="249">
@@ -6664,7 +6664,7 @@
         <v>107.294792</v>
       </c>
       <c r="C252" t="n">
-        <v>120.894157</v>
+        <v>120.89415</v>
       </c>
     </row>
     <row r="253">
@@ -6686,7 +6686,7 @@
         <v>106.493187</v>
       </c>
       <c r="C254" t="n">
-        <v>120.437363</v>
+        <v>120.43737</v>
       </c>
     </row>
     <row r="255">
@@ -6697,7 +6697,7 @@
         <v>105.210617</v>
       </c>
       <c r="C255" t="n">
-        <v>120.056717</v>
+        <v>120.056702</v>
       </c>
     </row>
     <row r="256">
@@ -6719,7 +6719,7 @@
         <v>103.847893</v>
       </c>
       <c r="C257" t="n">
-        <v>119.143173</v>
+        <v>119.14315</v>
       </c>
     </row>
     <row r="258">
@@ -6741,7 +6741,7 @@
         <v>102.605408</v>
       </c>
       <c r="C259" t="n">
-        <v>116.402496</v>
+        <v>116.402489</v>
       </c>
     </row>
     <row r="260">
@@ -6763,7 +6763,7 @@
         <v>102.124435</v>
       </c>
       <c r="C261" t="n">
-        <v>119.676079</v>
+        <v>119.676071</v>
       </c>
     </row>
     <row r="262">
@@ -6774,7 +6774,7 @@
         <v>101.402992</v>
       </c>
       <c r="C262" t="n">
-        <v>119.523804</v>
+        <v>119.523811</v>
       </c>
     </row>
     <row r="263">
@@ -6796,7 +6796,7 @@
         <v>101.00219</v>
       </c>
       <c r="C264" t="n">
-        <v>119.371544</v>
+        <v>119.371552</v>
       </c>
     </row>
     <row r="265">
@@ -6807,7 +6807,7 @@
         <v>100.200584</v>
       </c>
       <c r="C265" t="n">
-        <v>119.828339</v>
+        <v>119.828331</v>
       </c>
     </row>
     <row r="266">
@@ -6818,7 +6818,7 @@
         <v>98.236656</v>
       </c>
       <c r="C266" t="n">
-        <v>119.752213</v>
+        <v>119.752205</v>
       </c>
     </row>
     <row r="267">
@@ -6829,7 +6829,7 @@
         <v>100.360909</v>
       </c>
       <c r="C267" t="n">
-        <v>120.437363</v>
+        <v>120.43737</v>
       </c>
     </row>
     <row r="268">
@@ -6873,7 +6873,7 @@
         <v>96.593369</v>
       </c>
       <c r="C271" t="n">
-        <v>114.651512</v>
+        <v>114.651505</v>
       </c>
     </row>
     <row r="272">
@@ -6884,7 +6884,7 @@
         <v>101.643478</v>
       </c>
       <c r="C272" t="n">
-        <v>115.641182</v>
+        <v>115.641174</v>
       </c>
     </row>
     <row r="273">
@@ -6895,7 +6895,7 @@
         <v>99.318832</v>
       </c>
       <c r="C273" t="n">
-        <v>116.097961</v>
+        <v>116.097977</v>
       </c>
     </row>
     <row r="274">
@@ -6917,7 +6917,7 @@
         <v>100.88195</v>
       </c>
       <c r="C275" t="n">
-        <v>115.641182</v>
+        <v>115.641174</v>
       </c>
     </row>
     <row r="276">
@@ -6939,7 +6939,7 @@
         <v>96.192566</v>
       </c>
       <c r="C277" t="n">
-        <v>113.433426</v>
+        <v>113.433434</v>
       </c>
     </row>
     <row r="278">
@@ -6950,7 +6950,7 @@
         <v>96.994171</v>
       </c>
       <c r="C278" t="n">
-        <v>113.128906</v>
+        <v>113.128914</v>
       </c>
     </row>
     <row r="279">
@@ -6961,7 +6961,7 @@
         <v>99.358902</v>
       </c>
       <c r="C279" t="n">
-        <v>115.108276</v>
+        <v>115.108269</v>
       </c>
     </row>
     <row r="280">
@@ -6972,7 +6972,7 @@
         <v>98.437057</v>
       </c>
       <c r="C280" t="n">
-        <v>116.097961</v>
+        <v>116.097977</v>
       </c>
     </row>
     <row r="281">
@@ -6983,7 +6983,7 @@
         <v>98.196571</v>
       </c>
       <c r="C281" t="n">
-        <v>115.108276</v>
+        <v>115.108269</v>
       </c>
     </row>
     <row r="282">
@@ -6994,7 +6994,7 @@
         <v>99.719627</v>
       </c>
       <c r="C282" t="n">
-        <v>115.869591</v>
+        <v>115.869576</v>
       </c>
     </row>
     <row r="283">
@@ -7016,7 +7016,7 @@
         <v>101.082359</v>
       </c>
       <c r="C284" t="n">
-        <v>115.412796</v>
+        <v>115.412811</v>
       </c>
     </row>
     <row r="285">
@@ -7027,7 +7027,7 @@
         <v>101.322838</v>
       </c>
       <c r="C285" t="n">
-        <v>115.641182</v>
+        <v>115.641174</v>
       </c>
     </row>
     <row r="286">
@@ -7038,7 +7038,7 @@
         <v>96.994171</v>
       </c>
       <c r="C286" t="n">
-        <v>114.423119</v>
+        <v>114.423111</v>
       </c>
     </row>
     <row r="287">
@@ -7049,7 +7049,7 @@
         <v>96.753685</v>
       </c>
       <c r="C287" t="n">
-        <v>114.499245</v>
+        <v>114.499237</v>
       </c>
     </row>
     <row r="288">
@@ -7060,7 +7060,7 @@
         <v>100.521233</v>
       </c>
       <c r="C288" t="n">
-        <v>115.641182</v>
+        <v>115.641174</v>
       </c>
     </row>
     <row r="289">
@@ -7071,7 +7071,7 @@
         <v>100.441071</v>
       </c>
       <c r="C289" t="n">
-        <v>113.737938</v>
+        <v>113.737946</v>
       </c>
     </row>
     <row r="290">
@@ -7104,7 +7104,7 @@
         <v>104.128441</v>
       </c>
       <c r="C292" t="n">
-        <v>116.326363</v>
+        <v>116.326355</v>
       </c>
     </row>
     <row r="293">
@@ -7126,7 +7126,7 @@
         <v>103.006203</v>
       </c>
       <c r="C294" t="n">
-        <v>114.956024</v>
+        <v>114.956009</v>
       </c>
     </row>
     <row r="295">
@@ -7137,7 +7137,7 @@
         <v>103.607414</v>
       </c>
       <c r="C295" t="n">
-        <v>113.585693</v>
+        <v>113.585686</v>
       </c>
     </row>
     <row r="296">
@@ -7148,7 +7148,7 @@
         <v>102.324844</v>
       </c>
       <c r="C296" t="n">
-        <v>111.758575</v>
+        <v>111.758568</v>
       </c>
     </row>
     <row r="297">
@@ -7159,7 +7159,7 @@
         <v>101.242676</v>
       </c>
       <c r="C297" t="n">
-        <v>110.692749</v>
+        <v>110.692757</v>
       </c>
     </row>
     <row r="298">
@@ -7181,7 +7181,7 @@
         <v>102.645485</v>
       </c>
       <c r="C299" t="n">
-        <v>111.986961</v>
+        <v>111.986954</v>
       </c>
     </row>
     <row r="300">
@@ -7192,7 +7192,7 @@
         <v>103.527245</v>
       </c>
       <c r="C300" t="n">
-        <v>112.06308</v>
+        <v>112.063087</v>
       </c>
     </row>
     <row r="301">
@@ -7203,7 +7203,7 @@
         <v>106.092392</v>
       </c>
       <c r="C301" t="n">
-        <v>112.672134</v>
+        <v>112.672119</v>
       </c>
     </row>
     <row r="302">
@@ -7214,7 +7214,7 @@
         <v>106.81382</v>
       </c>
       <c r="C302" t="n">
-        <v>114.194717</v>
+        <v>114.194733</v>
       </c>
     </row>
     <row r="303">
@@ -7247,7 +7247,7 @@
         <v>107.532562</v>
       </c>
       <c r="C305" t="n">
-        <v>115.793457</v>
+        <v>115.793449</v>
       </c>
     </row>
     <row r="306">
@@ -7258,7 +7258,7 @@
         <v>106.120476</v>
       </c>
       <c r="C306" t="n">
-        <v>114.803757</v>
+        <v>114.803772</v>
       </c>
     </row>
     <row r="307">
@@ -7280,7 +7280,7 @@
         <v>103.766991</v>
       </c>
       <c r="C308" t="n">
-        <v>112.417427</v>
+        <v>112.417412</v>
       </c>
     </row>
     <row r="309">
@@ -7291,7 +7291,7 @@
         <v>103.210716</v>
       </c>
       <c r="C309" t="n">
-        <v>108.764877</v>
+        <v>108.76487</v>
       </c>
     </row>
     <row r="310">
@@ -7313,7 +7313,7 @@
         <v>99.915848</v>
       </c>
       <c r="C311" t="n">
-        <v>111.199913</v>
+        <v>111.199905</v>
       </c>
     </row>
     <row r="312">
@@ -7324,7 +7324,7 @@
         <v>99.958641</v>
       </c>
       <c r="C312" t="n">
-        <v>112.011581</v>
+        <v>112.011589</v>
       </c>
     </row>
     <row r="313">
@@ -7368,7 +7368,7 @@
         <v>107.233025</v>
       </c>
       <c r="C316" t="n">
-        <v>116.556984</v>
+        <v>116.556976</v>
       </c>
     </row>
     <row r="317">
@@ -7401,7 +7401,7 @@
         <v>104.537224</v>
       </c>
       <c r="C319" t="n">
-        <v>114.446617</v>
+        <v>114.446625</v>
       </c>
     </row>
     <row r="320">
@@ -7412,7 +7412,7 @@
         <v>104.109314</v>
       </c>
       <c r="C320" t="n">
-        <v>114.284294</v>
+        <v>114.284286</v>
       </c>
     </row>
     <row r="321">
@@ -7423,7 +7423,7 @@
         <v>106.248848</v>
       </c>
       <c r="C321" t="n">
-        <v>116.069984</v>
+        <v>116.069977</v>
       </c>
     </row>
     <row r="322">
@@ -7434,7 +7434,7 @@
         <v>108.687904</v>
       </c>
       <c r="C322" t="n">
-        <v>117.287498</v>
+        <v>117.287491</v>
       </c>
     </row>
     <row r="323">
@@ -7456,7 +7456,7 @@
         <v>110.099983</v>
       </c>
       <c r="C324" t="n">
-        <v>117.774513</v>
+        <v>117.774521</v>
       </c>
     </row>
     <row r="325">
@@ -7467,7 +7467,7 @@
         <v>110.313942</v>
       </c>
       <c r="C325" t="n">
-        <v>118.667358</v>
+        <v>118.667351</v>
       </c>
     </row>
     <row r="326">
@@ -7478,7 +7478,7 @@
         <v>108.944649</v>
       </c>
       <c r="C326" t="n">
-        <v>117.206322</v>
+        <v>117.206314</v>
       </c>
     </row>
     <row r="327">
@@ -7500,7 +7500,7 @@
         <v>108.302795</v>
       </c>
       <c r="C328" t="n">
-        <v>113.391441</v>
+        <v>113.391426</v>
       </c>
     </row>
     <row r="329">
@@ -7511,7 +7511,7 @@
         <v>109.971619</v>
       </c>
       <c r="C329" t="n">
-        <v>116.719322</v>
+        <v>116.719315</v>
       </c>
     </row>
     <row r="330">
@@ -7544,7 +7544,7 @@
         <v>102.183746</v>
       </c>
       <c r="C332" t="n">
-        <v>114.690125</v>
+        <v>114.690117</v>
       </c>
     </row>
     <row r="333">
@@ -7588,7 +7588,7 @@
         <v>96.749359</v>
       </c>
       <c r="C336" t="n">
-        <v>103.001961</v>
+        <v>103.001968</v>
       </c>
     </row>
     <row r="337">
@@ -7599,7 +7599,7 @@
         <v>95.936333</v>
       </c>
       <c r="C337" t="n">
-        <v>102.109116</v>
+        <v>102.109123</v>
       </c>
     </row>
     <row r="338">
@@ -7610,7 +7610,7 @@
         <v>92.940987</v>
       </c>
       <c r="C338" t="n">
-        <v>101.622101</v>
+        <v>101.622108</v>
       </c>
     </row>
     <row r="339">
@@ -7632,7 +7632,7 @@
         <v>94.395874</v>
       </c>
       <c r="C340" t="n">
-        <v>101.216263</v>
+        <v>101.21627</v>
       </c>
     </row>
     <row r="341">
@@ -7654,7 +7654,7 @@
         <v>91.143791</v>
       </c>
       <c r="C342" t="n">
-        <v>100.810417</v>
+        <v>100.810425</v>
       </c>
     </row>
     <row r="343">
@@ -7731,7 +7731,7 @@
         <v>96.449806</v>
       </c>
       <c r="C349" t="n">
-        <v>100.729263</v>
+        <v>100.729256</v>
       </c>
     </row>
     <row r="350">
@@ -7742,7 +7742,7 @@
         <v>96.278656</v>
       </c>
       <c r="C350" t="n">
-        <v>101.94677</v>
+        <v>101.946777</v>
       </c>
     </row>
     <row r="351">
@@ -7764,7 +7764,7 @@
         <v>93.796799</v>
       </c>
       <c r="C352" t="n">
-        <v>101.94677</v>
+        <v>101.946777</v>
       </c>
     </row>
     <row r="353">
@@ -7786,7 +7786,7 @@
         <v>93.026573</v>
       </c>
       <c r="C354" t="n">
-        <v>102.190285</v>
+        <v>102.190277</v>
       </c>
     </row>
     <row r="355">
@@ -7830,7 +7830,7 @@
         <v>95.679588</v>
       </c>
       <c r="C358" t="n">
-        <v>106.329834</v>
+        <v>106.329842</v>
       </c>
     </row>
     <row r="359">
@@ -7918,7 +7918,7 @@
         <v>84.759445</v>
       </c>
       <c r="C366" t="n">
-        <v>99.268242</v>
+        <v>99.268234</v>
       </c>
     </row>
     <row r="367">
@@ -7929,7 +7929,7 @@
         <v>86.222878</v>
       </c>
       <c r="C367" t="n">
-        <v>99.917572</v>
+        <v>99.91758</v>
       </c>
     </row>
     <row r="368">
@@ -7951,7 +7951,7 @@
         <v>88.790321</v>
       </c>
       <c r="C369" t="n">
-        <v>101.540939</v>
+        <v>101.540932</v>
       </c>
     </row>
     <row r="370">
@@ -7984,7 +7984,7 @@
         <v>89.047058</v>
       </c>
       <c r="C372" t="n">
-        <v>103.570129</v>
+        <v>103.570122</v>
       </c>
     </row>
     <row r="373">
@@ -8061,7 +8061,7 @@
         <v>88.661942</v>
       </c>
       <c r="C379" t="n">
-        <v>101.135101</v>
+        <v>101.135094</v>
       </c>
     </row>
     <row r="380">
@@ -8083,7 +8083,7 @@
         <v>89.90287</v>
       </c>
       <c r="C381" t="n">
-        <v>99.917572</v>
+        <v>99.91758</v>
       </c>
     </row>
     <row r="382">
@@ -8105,7 +8105,7 @@
         <v>87.806129</v>
       </c>
       <c r="C383" t="n">
-        <v>96.995537</v>
+        <v>96.995544</v>
       </c>
     </row>
     <row r="384">
@@ -8127,7 +8127,7 @@
         <v>86.993118</v>
       </c>
       <c r="C385" t="n">
-        <v>96.50853</v>
+        <v>96.508537</v>
       </c>
     </row>
     <row r="386">
@@ -8193,7 +8193,7 @@
         <v>85.529678</v>
       </c>
       <c r="C391" t="n">
-        <v>96.50853</v>
+        <v>96.508537</v>
       </c>
     </row>
     <row r="392">
@@ -8237,7 +8237,7 @@
         <v>82.602798</v>
       </c>
       <c r="C395" t="n">
-        <v>93.09948</v>
+        <v>93.099472</v>
       </c>
     </row>
     <row r="396">
@@ -8248,7 +8248,7 @@
         <v>82.380295</v>
       </c>
       <c r="C396" t="n">
-        <v>94.885185</v>
+        <v>94.885178</v>
       </c>
     </row>
     <row r="397">
@@ -8259,7 +8259,7 @@
         <v>82.055092</v>
       </c>
       <c r="C397" t="n">
-        <v>93.748833</v>
+        <v>93.748825</v>
       </c>
     </row>
     <row r="398">
@@ -8281,7 +8281,7 @@
         <v>81.233505</v>
       </c>
       <c r="C399" t="n">
-        <v>93.180649</v>
+        <v>93.180656</v>
       </c>
     </row>
     <row r="400">
@@ -8347,7 +8347,7 @@
         <v>78.563385</v>
       </c>
       <c r="C405" t="n">
-        <v>90.502113</v>
+        <v>90.502121</v>
       </c>
     </row>
     <row r="406">
@@ -8358,7 +8358,7 @@
         <v>76.52655</v>
       </c>
       <c r="C406" t="n">
-        <v>88.878761</v>
+        <v>88.878754</v>
       </c>
     </row>
     <row r="407">
@@ -8369,7 +8369,7 @@
         <v>76.167114</v>
       </c>
       <c r="C407" t="n">
-        <v>87.985916</v>
+        <v>87.985909</v>
       </c>
     </row>
     <row r="408">
@@ -8490,7 +8490,7 @@
         <v>77.502174</v>
       </c>
       <c r="C418" t="n">
-        <v>78.81395</v>
+        <v>78.813942</v>
       </c>
     </row>
     <row r="419">
@@ -8523,7 +8523,7 @@
         <v>86.522415</v>
       </c>
       <c r="C421" t="n">
-        <v>84.089851</v>
+        <v>84.089859</v>
       </c>
     </row>
     <row r="422">
@@ -8556,7 +8556,7 @@
         <v>89.603333</v>
       </c>
       <c r="C424" t="n">
-        <v>84.089851</v>
+        <v>84.089859</v>
       </c>
     </row>
     <row r="425">
@@ -8611,7 +8611,7 @@
         <v>83.8694</v>
       </c>
       <c r="C429" t="n">
-        <v>94.479332</v>
+        <v>94.47934</v>
       </c>
     </row>
     <row r="430">
@@ -8633,7 +8633,7 @@
         <v>82.089317</v>
       </c>
       <c r="C431" t="n">
-        <v>98.131889</v>
+        <v>98.131897</v>
       </c>
     </row>
     <row r="432">
@@ -8655,7 +8655,7 @@
         <v>80.856949</v>
       </c>
       <c r="C433" t="n">
-        <v>102.920792</v>
+        <v>102.920784</v>
       </c>
     </row>
     <row r="434">
@@ -8677,7 +8677,7 @@
         <v>81.627182</v>
       </c>
       <c r="C435" t="n">
-        <v>98.050728</v>
+        <v>98.05072</v>
       </c>
     </row>
     <row r="436">
@@ -8699,7 +8699,7 @@
         <v>80.600212</v>
       </c>
       <c r="C437" t="n">
-        <v>94.885185</v>
+        <v>94.885178</v>
       </c>
     </row>
     <row r="438">
@@ -8710,7 +8710,7 @@
         <v>78.820129</v>
       </c>
       <c r="C438" t="n">
-        <v>94.235832</v>
+        <v>94.235825</v>
       </c>
     </row>
     <row r="439">
@@ -8743,7 +8743,7 @@
         <v>78.666077</v>
       </c>
       <c r="C441" t="n">
-        <v>97.482544</v>
+        <v>97.482552</v>
       </c>
     </row>
     <row r="442">
@@ -8765,7 +8765,7 @@
         <v>78.768776</v>
       </c>
       <c r="C443" t="n">
-        <v>95.453354</v>
+        <v>95.453346</v>
       </c>
     </row>
     <row r="444">
@@ -8776,7 +8776,7 @@
         <v>81.438904</v>
       </c>
       <c r="C444" t="n">
-        <v>96.995537</v>
+        <v>96.995544</v>
       </c>
     </row>
     <row r="445">
@@ -8798,7 +8798,7 @@
         <v>83.218987</v>
       </c>
       <c r="C446" t="n">
-        <v>103.001961</v>
+        <v>103.001968</v>
       </c>
     </row>
     <row r="447">
@@ -8842,7 +8842,7 @@
         <v>84.382889</v>
       </c>
       <c r="C450" t="n">
-        <v>106.979187</v>
+        <v>106.979179</v>
       </c>
     </row>
     <row r="451">
@@ -8853,7 +8853,7 @@
         <v>84.382889</v>
       </c>
       <c r="C451" t="n">
-        <v>107.547363</v>
+        <v>107.547356</v>
       </c>
     </row>
     <row r="452">
@@ -8864,7 +8864,7 @@
         <v>84.040565</v>
       </c>
       <c r="C452" t="n">
-        <v>109.576553</v>
+        <v>109.576561</v>
       </c>
     </row>
     <row r="453">
@@ -8875,7 +8875,7 @@
         <v>84.177498</v>
       </c>
       <c r="C453" t="n">
-        <v>109.089539</v>
+        <v>109.089546</v>
       </c>
     </row>
     <row r="454">
@@ -8908,7 +8908,7 @@
         <v>83.390152</v>
       </c>
       <c r="C456" t="n">
-        <v>109.901215</v>
+        <v>109.901222</v>
       </c>
     </row>
     <row r="457">
@@ -8919,7 +8919,7 @@
         <v>81.387558</v>
       </c>
       <c r="C457" t="n">
-        <v>108.115524</v>
+        <v>108.115532</v>
       </c>
     </row>
     <row r="458">
@@ -8941,7 +8941,7 @@
         <v>78.563385</v>
       </c>
       <c r="C459" t="n">
-        <v>108.764877</v>
+        <v>108.76487</v>
       </c>
     </row>
     <row r="460">
@@ -8996,7 +8996,7 @@
         <v>81.918159</v>
       </c>
       <c r="C464" t="n">
-        <v>110.144722</v>
+        <v>110.14473</v>
       </c>
     </row>
     <row r="465">
@@ -9018,7 +9018,7 @@
         <v>80.874069</v>
       </c>
       <c r="C466" t="n">
-        <v>111.037567</v>
+        <v>111.037575</v>
       </c>
     </row>
     <row r="467">
@@ -9062,7 +9062,7 @@
         <v>77.861618</v>
       </c>
       <c r="C470" t="n">
-        <v>105.355827</v>
+        <v>105.35582</v>
       </c>
     </row>
     <row r="471">
@@ -9084,7 +9084,7 @@
         <v>77.057159</v>
       </c>
       <c r="C472" t="n">
-        <v>103.570129</v>
+        <v>103.570122</v>
       </c>
     </row>
     <row r="473">
@@ -9150,7 +9150,7 @@
         <v>78.734543</v>
       </c>
       <c r="C478" t="n">
-        <v>104.057144</v>
+        <v>104.057129</v>
       </c>
     </row>
     <row r="479">
@@ -9172,7 +9172,7 @@
         <v>78.734543</v>
       </c>
       <c r="C480" t="n">
-        <v>102.109116</v>
+        <v>102.109123</v>
       </c>
     </row>
     <row r="481">
@@ -9183,7 +9183,7 @@
         <v>77.844498</v>
       </c>
       <c r="C481" t="n">
-        <v>100.161079</v>
+        <v>100.161087</v>
       </c>
     </row>
     <row r="482">
@@ -9205,7 +9205,7 @@
         <v>81.028122</v>
       </c>
       <c r="C483" t="n">
-        <v>105.355827</v>
+        <v>105.35582</v>
       </c>
     </row>
     <row r="484">
@@ -9249,7 +9249,7 @@
         <v>83.373039</v>
       </c>
       <c r="C487" t="n">
-        <v>108.115524</v>
+        <v>108.115532</v>
       </c>
     </row>
     <row r="488">
@@ -9282,7 +9282,7 @@
         <v>91.05822</v>
       </c>
       <c r="C490" t="n">
-        <v>106.816849</v>
+        <v>106.816856</v>
       </c>
     </row>
     <row r="491">
@@ -9293,7 +9293,7 @@
         <v>92.470299</v>
       </c>
       <c r="C491" t="n">
-        <v>111.199913</v>
+        <v>111.199905</v>
       </c>
     </row>
     <row r="492">
@@ -9304,7 +9304,7 @@
         <v>91.571693</v>
       </c>
       <c r="C492" t="n">
-        <v>112.255096</v>
+        <v>112.255089</v>
       </c>
     </row>
     <row r="493">
@@ -9315,7 +9315,7 @@
         <v>90.50193</v>
       </c>
       <c r="C493" t="n">
-        <v>111.037567</v>
+        <v>111.037575</v>
       </c>
     </row>
     <row r="494">
@@ -9326,7 +9326,7 @@
         <v>90.887039</v>
       </c>
       <c r="C494" t="n">
-        <v>111.930405</v>
+        <v>111.930412</v>
       </c>
     </row>
     <row r="495">
@@ -9337,7 +9337,7 @@
         <v>91.571693</v>
       </c>
       <c r="C495" t="n">
-        <v>112.904434</v>
+        <v>112.904442</v>
       </c>
     </row>
     <row r="496">
@@ -9348,7 +9348,7 @@
         <v>91.785645</v>
       </c>
       <c r="C496" t="n">
-        <v>113.066772</v>
+        <v>113.066765</v>
       </c>
     </row>
     <row r="497">
@@ -9359,7 +9359,7 @@
         <v>92.256348</v>
       </c>
       <c r="C497" t="n">
-        <v>113.47261</v>
+        <v>113.472618</v>
       </c>
     </row>
     <row r="498">
@@ -9370,7 +9370,7 @@
         <v>94.438667</v>
       </c>
       <c r="C498" t="n">
-        <v>115.826462</v>
+        <v>115.826469</v>
       </c>
     </row>
     <row r="499">
@@ -9403,7 +9403,7 @@
         <v>92.213554</v>
       </c>
       <c r="C501" t="n">
-        <v>114.608963</v>
+        <v>114.608955</v>
       </c>
     </row>
     <row r="502">
@@ -9414,7 +9414,7 @@
         <v>92.641464</v>
       </c>
       <c r="C502" t="n">
-        <v>114.446617</v>
+        <v>114.446625</v>
       </c>
     </row>
     <row r="503">
@@ -9425,7 +9425,7 @@
         <v>94.395874</v>
       </c>
       <c r="C503" t="n">
-        <v>118.099167</v>
+        <v>118.099174</v>
       </c>
     </row>
     <row r="504">
@@ -9436,7 +9436,7 @@
         <v>93.326111</v>
       </c>
       <c r="C504" t="n">
-        <v>115.826462</v>
+        <v>115.826469</v>
       </c>
     </row>
     <row r="505">
@@ -9458,7 +9458,7 @@
         <v>92.427513</v>
       </c>
       <c r="C506" t="n">
-        <v>117.449829</v>
+        <v>117.449837</v>
       </c>
     </row>
     <row r="507">
@@ -9469,7 +9469,7 @@
         <v>91.785645</v>
       </c>
       <c r="C507" t="n">
-        <v>117.043983</v>
+        <v>117.043999</v>
       </c>
     </row>
     <row r="508">
@@ -9480,7 +9480,7 @@
         <v>93.026573</v>
       </c>
       <c r="C508" t="n">
-        <v>117.368675</v>
+        <v>117.368668</v>
       </c>
     </row>
     <row r="509">
@@ -9491,7 +9491,7 @@
         <v>94.139122</v>
       </c>
       <c r="C509" t="n">
-        <v>117.125153</v>
+        <v>117.12516</v>
       </c>
     </row>
     <row r="510">
@@ -9502,7 +9502,7 @@
         <v>93.967964</v>
       </c>
       <c r="C510" t="n">
-        <v>120.940048</v>
+        <v>120.940056</v>
       </c>
     </row>
     <row r="511">
@@ -9513,7 +9513,7 @@
         <v>94.139122</v>
       </c>
       <c r="C511" t="n">
-        <v>119.64135</v>
+        <v>119.641357</v>
       </c>
     </row>
     <row r="512">
@@ -9524,7 +9524,7 @@
         <v>95.037735</v>
       </c>
       <c r="C512" t="n">
-        <v>121.264709</v>
+        <v>121.264717</v>
       </c>
     </row>
     <row r="513">
@@ -9535,7 +9535,7 @@
         <v>93.197739</v>
       </c>
       <c r="C513" t="n">
-        <v>120.534195</v>
+        <v>120.534203</v>
       </c>
     </row>
     <row r="514">
@@ -9546,7 +9546,7 @@
         <v>93.796799</v>
       </c>
       <c r="C514" t="n">
-        <v>119.64135</v>
+        <v>119.641357</v>
       </c>
     </row>
     <row r="515">
@@ -9557,7 +9557,7 @@
         <v>90.844261</v>
       </c>
       <c r="C515" t="n">
-        <v>116.881653</v>
+        <v>116.88166</v>
       </c>
     </row>
     <row r="516">
@@ -9568,7 +9568,7 @@
         <v>92.855415</v>
       </c>
       <c r="C516" t="n">
-        <v>118.910851</v>
+        <v>118.910858</v>
       </c>
     </row>
     <row r="517">
@@ -9579,7 +9579,7 @@
         <v>94.224709</v>
       </c>
       <c r="C517" t="n">
-        <v>119.64135</v>
+        <v>119.641357</v>
       </c>
     </row>
     <row r="518">
@@ -9612,7 +9612,7 @@
         <v>95.508423</v>
       </c>
       <c r="C520" t="n">
-        <v>119.316681</v>
+        <v>119.316704</v>
       </c>
     </row>
     <row r="521">
@@ -9634,7 +9634,7 @@
         <v>98.674927</v>
       </c>
       <c r="C522" t="n">
-        <v>121.995232</v>
+        <v>121.995224</v>
       </c>
     </row>
     <row r="523">
@@ -9656,7 +9656,7 @@
         <v>100.728867</v>
       </c>
       <c r="C524" t="n">
-        <v>123.862091</v>
+        <v>123.862083</v>
       </c>
     </row>
     <row r="525">
@@ -9722,7 +9722,7 @@
         <v>103.12513</v>
       </c>
       <c r="C530" t="n">
-        <v>129.056808</v>
+        <v>129.056824</v>
       </c>
     </row>
     <row r="531">
@@ -9733,7 +9733,7 @@
         <v>101.755836</v>
       </c>
       <c r="C531" t="n">
-        <v>129.706161</v>
+        <v>129.706177</v>
       </c>
     </row>
     <row r="532">
@@ -9755,7 +9755,7 @@
         <v>104.622803</v>
       </c>
       <c r="C533" t="n">
-        <v>131.491852</v>
+        <v>131.491867</v>
       </c>
     </row>
     <row r="534">
@@ -9810,7 +9810,7 @@
         <v>91.614494</v>
       </c>
       <c r="C538" t="n">
-        <v>103.732468</v>
+        <v>103.732475</v>
       </c>
     </row>
     <row r="539">
@@ -9854,7 +9854,7 @@
         <v>91.614494</v>
       </c>
       <c r="C542" t="n">
-        <v>101.135101</v>
+        <v>101.135094</v>
       </c>
     </row>
     <row r="543">
@@ -9898,7 +9898,7 @@
         <v>75.944603</v>
       </c>
       <c r="C546" t="n">
-        <v>89.122269</v>
+        <v>89.122261</v>
       </c>
     </row>
     <row r="547">
@@ -9920,7 +9920,7 @@
         <v>66.547806</v>
       </c>
       <c r="C548" t="n">
-        <v>78.124016</v>
+        <v>78.124023</v>
       </c>
     </row>
     <row r="549">
@@ -9942,7 +9942,7 @@
         <v>63.364193</v>
       </c>
       <c r="C550" t="n">
-        <v>74.9179</v>
+        <v>74.917908</v>
       </c>
     </row>
     <row r="551">
